--- a/apps.xlsx
+++ b/apps.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -760,22 +760,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1086940</t>
+          <t>881100</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Baldur's Gate 3</t>
+          <t>Noita</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>博德之门3</t>
+          <t>巫婆Noita</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>角色扮演,选择取向,角色自定义,剧情丰富,冒险</t>
+          <t>物理,困难,类 Rogue,像素图形,迷宫探索</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -785,39 +785,39 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2023年08月03日</t>
+          <t>2020年10月16日</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Larian_Steam_new_KeyArt_ready.gif?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;召集你的队伍，返回被遗忘的国度，开启一段充满友谊与背叛、牺牲与生存，以及至高无上力量诱惑的传奇故事。&lt;br&gt;&lt;br&gt;神秘的力量正在你体内苏醒，而这一切都来源于夺心魔种在你大脑里的寄生虫。反抗吧，将黑暗的力量反掌为用。你也可以选择接受这种腐化，变成终极的邪恶。&lt;br&gt;&lt;br&gt;来自《神界：原罪2》的创作团队所打造的次时代RPG，故事将在D&amp;amp;D（龙与地下城）的世界中展开。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Gather_new.gif?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;你可以从D&amp;amp;D玩家手册中的12个职业与11个种族中进行选择，或者直接扮演一个带有精心设计背景的起源英雄。无论你是踏上冒险之旅，还是去获取战利品，亦或是投身战斗，或者展开罗曼史，这些都将贯穿你在被遗忘的国度以及其他位面的冒险旅程。你可以选择单独游玩，或者是与最多三名队友一起进行联机游戏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/An_expansive_original_story.png?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;被劫持，被感染，陷入迷失。你正在变成一个怪物，但随着你体内的腐化力量的增长，你的力量也在增强。这力量可能能帮助你生存下来，但接受它的同时，你必将付出某种代价。然而，超越任何能力，你与队友之间建立的信任纽带可能会成为你最大的力量。在恶魔、诸神和邪恶的其他世界力量之间的冲突中，你将与队友共同决定被遗忘国度的命运。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Next_Gen_new.gif?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;利用全新的神界4.0引擎打造，《博德之门3》将为你提供前所未有的自由度，让你在这个充满角色、危险和欺诈的活跃世界中探索、尝试、互动，并获取实时的反馈。宏大的电影级叙事让你比以往任何时候都更接近你的角色。从被阴影诅咒的森林，到幽暗地域的神奇洞穴，再到博德之门本身的庞大城市，你的行动决定着冒险的过程，但你的选择将塑造你的遗产。你将被人们所铭记。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/No_adventure_will_be_the_same.png?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;被遗忘的国度是一个宏大、细节繁多、充满各色各样事物多元化的世界，到处都有等待被你发现的秘密——可互动的空间是探索的一个非常重要的部分。潜行，挖掘，推动物品，攀爬，还有跳跃，这些行动会贯穿你的整个旅途，从大地深处的幽暗地域，到地表城市闪亮的屋顶。你的每一个选择都会推动你的故事向前发展，每一个决定都会在世界上留下你的印记。你可以提升自己的角色、培养人际关系、树立敌人，并以自己的方式解决问题。每次游戏体验都是全新的无与伦比。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;最多可支持四名玩家的在线多人游戏&lt;br&gt;你可以将你的团队联合起来，同时攻击敌人，也可以将队伍分开，各自执行自己的任务和计划。一起制定完美的计划......或者在朋友们最意想不到的时候引入混乱元素。人际关系是很复杂的。尤其是当你脑中有寄生虫的时候。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;起源角色&lt;br&gt;7 位独一无二的起源角色为你带来精雕细琢的体验，每个人都有自己独特的特质、思想和世界观。他们的故事与总体叙事相互交错，而你的选择将决定这些故事的结局是救赎、拯救、统治，还是其他多种结局之一。你可以扮演原住民，欣赏他们的故事，也可以招募他们与你并肩作战。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;全新进化的回合制战斗&lt;br&gt;基于第五版《龙与地下城》规则。你可以体验基于团队战斗的主动权，和在战斗中不同决策带来的优势和劣势。我们增添了战地视角下的掷骰修正，也拓展了环境之间的交互性，增添了新的、更加灵活的战术和奖励，以让你在战斗中尽情展现你的策略和远见。三种难度设置可让您自定义战斗的挑战性。启用骰子加成来左右战斗，或在策略模式下进行游戏，以获得真正的硬核体验。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;前所未有的广度和深度&lt;br&gt;在 11 个种族（人类、吉斯洋基人、半兽人、矮人、精灵、卓尔、提夫林、半身人、半精灵、侏儒、龙裔）的基础上又增加了 31 个亚种，并从 12 个职业中分支出 46 个子职。在这个精雕细琢的世界中，600 多种法术和行动提供了近乎无限的互动自由。在这个世界中，探索是一种奖励，而玩家的主动性决定了旅程。我们独特的“角色创建器”具有前所未有的角色深度，其丰富的互动选项可确保无论你是谁，都会为你打造出独特的角色，一直到 12 级。超过 174 小时的过场动画确保无论你做出什么选择，过场动画都会跟随你的旅程——每一次游戏体验都是一次全新的电影之旅。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;复杂而深刻的浪漫故事&lt;br&gt;战争的威胁迫在眉睫地向博德之门袭来，夺心魔的入侵也即将来临，而友谊——尽管并非必要——也将加入你的旅途中。你将与沿途遇到的人建立起真实、充满活力的关系，至于他们会变成什么样，则取决于你自己。每个同伴都有自己的道德指南针，会对你在旅途中做出的选择做出反应。你将以怎样的代价坚持自己的理想？你会让爱左右你的行动吗？在通往博德之门的道路上建立起来的关系既是您在营地休息的片刻，也为你在冒险中做出的许多决定增添了砝码。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;高度定制的直播体验&lt;br&gt;当您点击“开始直播”时，您的直播将不会被如熊、粗口或缺乏着装等因素所干扰。《博德之门 3》提供了3种不同级别的适合直播的定制选项。您可以分别（或同时）禁用裸体和露骨的内容，并可以启用Twitch集成功能，直接与观众互动，正如我们在《地狱飨宴》展示会上所做的一样！有了这些选项，无论您选择以何种方式进行游戏，《博德之门 3》都能保证您的直播进行得顺利。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Final_Image_new.gif?t=1692294127" /&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;strong&gt;《Noita》&lt;/strong&gt;是一个轻度 Rogue-like 的魔法动作游戏，在《Noita》的世界中，每个像素都有物理模拟。您可使用您自己创造的法术，在逐步生成的世界上一路探索、战斗、焚烧、熔毁、冰冻和蒸发，打开自己的前路。探索多样的环境，从煤矿到寒冷废土，深入寻求未知的神秘。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/881100/extras/radioactive-vat.png?t=1675987871" /&gt;&lt;li&gt;&lt;strong&gt;基于像素的物理模拟&lt;/strong&gt;：世界中的每个像素均有模拟。一切皆可燃烧、爆炸或熔毁。沐浴敌人的鲜血！进入拥有前所未有互动性的高度模拟世界。&lt;br&gt;    &lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;您自己的魔法&lt;/strong&gt;：在深入洞穴的同时，创造全新法术。使用魔法摧毁敌人，操纵你身旁的世界。&lt;br&gt;    &lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;逐渐生成的世界&lt;/strong&gt;：每次游玩都会探索独一无二的世界。深入探索，发现全新要素。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/881100/extras/cover-shooter2.png?t=1675987871" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;轻度 Rogue-like 动作&lt;/strong&gt;：死亡不可复生。死亡将始终伴随你，成为你游戏过程中迫在眉睫的威胁。尽管死亡，却也不必绝望：利用所学，在下此探险中走得更远。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;strong&gt;《Noita》&lt;/strong&gt;由 Nolla Games 开发。Nolla Games 是一家由 3 位独立游戏开发者创立的公司。3 名开发者过去均有自己的独立项目。&lt;br&gt;&lt;br&gt;游戏的 3 位负责人分别为：&lt;br&gt;&lt;br&gt;&lt;strong&gt;Petri Purho&lt;/strong&gt;&lt;br&gt;Petri 以《&lt;a href="https://store.steampowered.com/app/26900/Crayon_Physics_Deluxe/" target="_blank" rel=""  &gt;Crayon Physics Deluxe&lt;/a&gt;（蜡笔物理学）》创作人的身份广为人知。在他年轻时，还制作过众多小型免费游戏。除此之外，他也是不少桌面游戏的创造者；不过他没有将细节告诉任何人。-- 所以还是保密吧。&lt;br&gt;&lt;br&gt;&lt;strong&gt;Olli Harjola&lt;/strong&gt;&lt;br&gt;Olli 以斩获大奖的离奇科幻解谜游戏&lt;a href="https://store.steampowered.com/app/231160/The_Swapper/" target="_blank" rel=""  &gt;《The Swapper（交换者）》&lt;/a&gt;闻名。除独立游戏之外，音乐、现场视觉和编程语言，他也有所涉猎。&lt;br&gt;&lt;br&gt;&lt;strong&gt;Arvi Teikari&lt;/strong&gt;&lt;br&gt;Arvi，以 Hempuli 的名字广为人知。多年来，他曾发布有众多小型实验性游戏；由于为数实在众多，他甚至无法全部记得 。其中，他能回忆起是自己创作的游戏之一便是《&lt;a href="https://store.steampowered.com/app/736260/Baba_Is_You/" target="_blank" rel=""  &gt;Baba Is You&lt;/a&gt;（巴巴是你）》。</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1244090</t>
+          <t>1086940</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sea of Stars</t>
+          <t>Baldur's Gate 3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>星之海</t>
+          <t>博德之门3</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>角色扮演,像素图形,冒险,回合制战斗,剧情丰富</t>
+          <t>角色扮演,选择取向,角色自定义,剧情丰富,冒险</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -827,39 +827,39 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2023年08月29日</t>
+          <t>2023年08月03日</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-content-header.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;《星之海》承载着Sabotage工作室的目标&lt;/strong&gt;——用现代的方式重现经典角色扮演游戏：从回合制战斗到跌宕起伏的故事，从世界探索到细腻的环境交互，让大家重回独属怀旧游戏的美好旧时光。&lt;h2 class="bb_tag"&gt;经典和创新结合的回合制玩法 - “易”于上手 “乐”于精通&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-combat.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;掌控战斗的时机&lt;/strong&gt; - 看准时机按下交互键可以提升造成的伤害，或减少受到的伤害。&lt;br&gt;&lt;strong&gt;灵活的战斗方式&lt;/strong&gt; - 在战斗中使用多人组合技，充能攻击以及纳入战术考量的“Lock”系统，通过组合这些不同的攻击，甚至能够打断敌人正在准备的蓄力攻击或强大法术。&lt;br&gt;&lt;strong&gt;全身心地投入这款复古之作&lt;/strong&gt; - 不会有随机乏味的遭遇战，也不会有战场之间的频繁转换，更不会有无休无止打不完的敌人！&lt;h2 class="bb_tag"&gt;“不拘一格”的探索&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-traversal-flip-S.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;我们潜心研究平台游戏多年，打造了一套独特的移动系统!&lt;br&gt;您将不再受到传统的网格束缚，畅快地在世界中穿梭！&lt;br&gt;无论您想&lt;strong&gt;在池水中游弋，还是在岩壁上攀爬，或是轻快地从石阶上纵身跳下&lt;/strong&gt;，都可尽情体验。&lt;h2 class="bb_tag"&gt;独立的光照渲染&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-lighting-S.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;我们为游戏研发了一套独特的渲染管线!&lt;br&gt;《星之海》因此突破了2D像素美术游戏的限制，它让游戏充满了色彩，并且处处体现出优雅的细节！让你感受到一个更加真实、令人惊叹的游戏世界。&lt;h2 class="bb_tag"&gt;永恒的冒险与友谊&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-story-rich-adventure.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;这就是从Sabotage工作室的角色扮演游戏中可以期待的一切——经典的冒险与友谊故事。&lt;br&gt;&lt;br&gt;您可以与数十个原创角色一起踏上这段迷人的旅程：&lt;br&gt;&lt;strong&gt;时而波澜壮阔，犹如史诗长歌；&lt;br&gt;时而轻松诙谐，让人忍俊不禁。&lt;/strong&gt;&lt;br&gt;充满着意想不到的曲折与反转，让人心绪久久不能平复。&lt;h2 class="bb_tag"&gt;惬意的日常也是游戏的一部分&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-sabotage-touch.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;想试试停下冒险的脚步，在《星之海》的世界中打发打发时间？&lt;br&gt;去试试扬起帆出海！&lt;br&gt;或是生起篝火研究食谱？&lt;br&gt;还是拿出鱼竿甩两杆？&lt;br&gt;路过一家小酒馆进去听会儿歌，或者玩两把桌游...&lt;br&gt;每个系统的设计都是在尊重经典复古游戏的前提下，加入了崭新且独一无二的新体验。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Larian_Steam_new_KeyArt_ready.gif?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;召集你的队伍，返回被遗忘的国度，开启一段充满友谊与背叛、牺牲与生存，以及至高无上力量诱惑的传奇故事。&lt;br&gt;&lt;br&gt;神秘的力量正在你体内苏醒，而这一切都来源于夺心魔种在你大脑里的寄生虫。反抗吧，将黑暗的力量反掌为用。你也可以选择接受这种腐化，变成终极的邪恶。&lt;br&gt;&lt;br&gt;来自《神界：原罪2》的创作团队所打造的次时代RPG，故事将在D&amp;amp;D（龙与地下城）的世界中展开。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Gather_new.gif?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;你可以从D&amp;amp;D玩家手册中的12个职业与11个种族中进行选择，或者直接扮演一个带有精心设计背景的起源英雄。无论你是踏上冒险之旅，还是去获取战利品，亦或是投身战斗，或者展开罗曼史，这些都将贯穿你在被遗忘的国度以及其他位面的冒险旅程。你可以选择单独游玩，或者是与最多三名队友一起进行联机游戏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/An_expansive_original_story.png?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;被劫持，被感染，陷入迷失。你正在变成一个怪物，但随着你体内的腐化力量的增长，你的力量也在增强。这力量可能能帮助你生存下来，但接受它的同时，你必将付出某种代价。然而，超越任何能力，你与队友之间建立的信任纽带可能会成为你最大的力量。在恶魔、诸神和邪恶的其他世界力量之间的冲突中，你将与队友共同决定被遗忘国度的命运。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Next_Gen_new.gif?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;利用全新的神界4.0引擎打造，《博德之门3》将为你提供前所未有的自由度，让你在这个充满角色、危险和欺诈的活跃世界中探索、尝试、互动，并获取实时的反馈。宏大的电影级叙事让你比以往任何时候都更接近你的角色。从被阴影诅咒的森林，到幽暗地域的神奇洞穴，再到博德之门本身的庞大城市，你的行动决定着冒险的过程，但你的选择将塑造你的遗产。你将被人们所铭记。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/No_adventure_will_be_the_same.png?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;被遗忘的国度是一个宏大、细节繁多、充满各色各样事物多元化的世界，到处都有等待被你发现的秘密——可互动的空间是探索的一个非常重要的部分。潜行，挖掘，推动物品，攀爬，还有跳跃，这些行动会贯穿你的整个旅途，从大地深处的幽暗地域，到地表城市闪亮的屋顶。你的每一个选择都会推动你的故事向前发展，每一个决定都会在世界上留下你的印记。你可以提升自己的角色、培养人际关系、树立敌人，并以自己的方式解决问题。每次游戏体验都是全新的无与伦比。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;最多可支持四名玩家的在线多人游戏&lt;br&gt;你可以将你的团队联合起来，同时攻击敌人，也可以将队伍分开，各自执行自己的任务和计划。一起制定完美的计划......或者在朋友们最意想不到的时候引入混乱元素。人际关系是很复杂的。尤其是当你脑中有寄生虫的时候。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;起源角色&lt;br&gt;7 位独一无二的起源角色为你带来精雕细琢的体验，每个人都有自己独特的特质、思想和世界观。他们的故事与总体叙事相互交错，而你的选择将决定这些故事的结局是救赎、拯救、统治，还是其他多种结局之一。你可以扮演原住民，欣赏他们的故事，也可以招募他们与你并肩作战。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;全新进化的回合制战斗&lt;br&gt;基于第五版《龙与地下城》规则。你可以体验基于团队战斗的主动权，和在战斗中不同决策带来的优势和劣势。我们增添了战地视角下的掷骰修正，也拓展了环境之间的交互性，增添了新的、更加灵活的战术和奖励，以让你在战斗中尽情展现你的策略和远见。三种难度设置可让您自定义战斗的挑战性。启用骰子加成来左右战斗，或在策略模式下进行游戏，以获得真正的硬核体验。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;前所未有的广度和深度&lt;br&gt;在 11 个种族（人类、吉斯洋基人、半兽人、矮人、精灵、卓尔、提夫林、半身人、半精灵、侏儒、龙裔）的基础上又增加了 31 个亚种，并从 12 个职业中分支出 46 个子职。在这个精雕细琢的世界中，600 多种法术和行动提供了近乎无限的互动自由。在这个世界中，探索是一种奖励，而玩家的主动性决定了旅程。我们独特的“角色创建器”具有前所未有的角色深度，其丰富的互动选项可确保无论你是谁，都会为你打造出独特的角色，一直到 12 级。超过 174 小时的过场动画确保无论你做出什么选择，过场动画都会跟随你的旅程——每一次游戏体验都是一次全新的电影之旅。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;复杂而深刻的浪漫故事&lt;br&gt;战争的威胁迫在眉睫地向博德之门袭来，夺心魔的入侵也即将来临，而友谊——尽管并非必要——也将加入你的旅途中。你将与沿途遇到的人建立起真实、充满活力的关系，至于他们会变成什么样，则取决于你自己。每个同伴都有自己的道德指南针，会对你在旅途中做出的选择做出反应。你将以怎样的代价坚持自己的理想？你会让爱左右你的行动吗？在通往博德之门的道路上建立起来的关系既是您在营地休息的片刻，也为你在冒险中做出的许多决定增添了砝码。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;高度定制的直播体验&lt;br&gt;当您点击“开始直播”时，您的直播将不会被如熊、粗口或缺乏着装等因素所干扰。《博德之门 3》提供了3种不同级别的适合直播的定制选项。您可以分别（或同时）禁用裸体和露骨的内容，并可以启用Twitch集成功能，直接与观众互动，正如我们在《地狱飨宴》展示会上所做的一样！有了这些选项，无论您选择以何种方式进行游戏，《博德之门 3》都能保证您的直播进行得顺利。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Final_Image_new.gif?t=1692294127" /&gt;&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1693980</t>
+          <t>1244090</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dead Space</t>
+          <t>Sea of Stars</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>死亡空间</t>
+          <t>星之海</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>第三人称射击,科幻,太空,射击,生存恐怖</t>
+          <t>角色扮演,像素图形,冒险,回合制战斗,剧情丰富</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -869,94 +869,136 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2023年01月28日</t>
+          <t>2023年08月29日</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>科幻生存恐怖经典作品《死亡空间》宣告回归，经过完全重制，旨在为玩家提供更有深度、更身临其境的体验。这款重制版游戏为玩家带来了令人惊叹的视觉保真度、充满悬疑感的氛围音效以及游戏性改进，同时尽力忠实还原初版游戏的惊险构思。&lt;br&gt;&lt;br&gt;艾萨克·克拉克是一名普通的工程师，受命修复巨型采矿飞船 USG 石村号，结果发现事态超乎想象。飞船上的船员已被屠戮，而艾萨克心爱的伴侣妮可也在船上不知所踪。&lt;br&gt;&lt;br&gt;现在，艾萨克独自一人，他可以依靠的只有自己的工程工具和技能。随着石村号上可怕谜团的真相浮出水面，他必须尽快找到妮可。艾萨克被充满敌意，名为“尸变体”的生物团团包围，面临着一场生存之战。他不仅要对抗飞船上不断升级的恐怖情形，还要面对自己即将崩溃的理智。&lt;br&gt;&lt;br&gt;&lt;strong&gt;尽情沉浸在次世代科幻恐怖游戏中&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1693980/extras/DS_GP_USP1_610px.gif?t=1684172906" /&gt;&lt;br&gt;&lt;br&gt;这款经典科幻恐怖游戏经过完全重制，带来了视觉保真度的提升和 3D 氛围音效。从精致得令人难以置信的房间和满是被屠戮船员的工作间，到孤寂太空飞船上阴森的氛围音效，在这震撼人心的科幻场景中，出人意料、扣人心弦的时刻接连涌现，等着你来探索。&lt;br&gt;&lt;br&gt;&lt;strong&gt;揭开 USG 石村号上的谜团&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1693980/extras/DS_GP_USP2_610px.gif?t=1684172906" /&gt;&lt;br&gt;&lt;br&gt;工程师艾萨克·克拉克和 USG 圣室号的船员们起初只是在执行例行维修任务，但随着船上恐怖事件背后的真相逐渐被揭开，维修任务迅速演变成一场生存之战。跟随徐徐展开的叙事体验，通过遇难船员们的临终日志以及与少数幸存者的邂逅，揭开 USG 石村号各种事件背后的黑幕。&lt;br&gt;&lt;br&gt;&lt;strong&gt;随机应变，死地求生&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1693980/extras/USP3_ageGate_610px.gif?t=1684172906" /&gt;&lt;br&gt;&lt;br&gt;采用定义战略游戏的游玩方式，对抗 USG 石村号上的梦魇。调整并升级艾萨克的工程工具，用你的创意把敌人精准击毙。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1693980/extras/Dead_Space_PC_Specs_610px_STEAM_updated.png?t=1684172906" /&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-content-header.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;《星之海》承载着Sabotage工作室的目标&lt;/strong&gt;——用现代的方式重现经典角色扮演游戏：从回合制战斗到跌宕起伏的故事，从世界探索到细腻的环境交互，让大家重回独属怀旧游戏的美好旧时光。&lt;h2 class="bb_tag"&gt;经典和创新结合的回合制玩法 - “易”于上手 “乐”于精通&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-combat.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;掌控战斗的时机&lt;/strong&gt; - 看准时机按下交互键可以提升造成的伤害，或减少受到的伤害。&lt;br&gt;&lt;strong&gt;灵活的战斗方式&lt;/strong&gt; - 在战斗中使用多人组合技，充能攻击以及纳入战术考量的“Lock”系统，通过组合这些不同的攻击，甚至能够打断敌人正在准备的蓄力攻击或强大法术。&lt;br&gt;&lt;strong&gt;全身心地投入这款复古之作&lt;/strong&gt; - 不会有随机乏味的遭遇战，也不会有战场之间的频繁转换，更不会有无休无止打不完的敌人！&lt;h2 class="bb_tag"&gt;“不拘一格”的探索&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-traversal-flip-S.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;我们潜心研究平台游戏多年，打造了一套独特的移动系统!&lt;br&gt;您将不再受到传统的网格束缚，畅快地在世界中穿梭！&lt;br&gt;无论您想&lt;strong&gt;在池水中游弋，还是在岩壁上攀爬，或是轻快地从石阶上纵身跳下&lt;/strong&gt;，都可尽情体验。&lt;h2 class="bb_tag"&gt;独立的光照渲染&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-lighting-S.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;我们为游戏研发了一套独特的渲染管线!&lt;br&gt;《星之海》因此突破了2D像素美术游戏的限制，它让游戏充满了色彩，并且处处体现出优雅的细节！让你感受到一个更加真实、令人惊叹的游戏世界。&lt;h2 class="bb_tag"&gt;永恒的冒险与友谊&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-story-rich-adventure.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;这就是从Sabotage工作室的角色扮演游戏中可以期待的一切——经典的冒险与友谊故事。&lt;br&gt;&lt;br&gt;您可以与数十个原创角色一起踏上这段迷人的旅程：&lt;br&gt;&lt;strong&gt;时而波澜壮阔，犹如史诗长歌；&lt;br&gt;时而轻松诙谐，让人忍俊不禁。&lt;/strong&gt;&lt;br&gt;充满着意想不到的曲折与反转，让人心绪久久不能平复。&lt;h2 class="bb_tag"&gt;惬意的日常也是游戏的一部分&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-sabotage-touch.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;想试试停下冒险的脚步，在《星之海》的世界中打发打发时间？&lt;br&gt;去试试扬起帆出海！&lt;br&gt;或是生起篝火研究食谱？&lt;br&gt;还是拿出鱼竿甩两杆？&lt;br&gt;路过一家小酒馆进去听会儿歌，或者玩两把桌游...&lt;br&gt;每个系统的设计都是在尊重经典复古游戏的前提下，加入了崭新且独一无二的新体验。</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1790230</t>
+          <t>1693980</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Wallpaper Engine - Editor Extensions</t>
+          <t>Dead Space</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Wallpaper Engine - 编辑器扩展</t>
+          <t>死亡空间</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>休闲,独立,照片编辑,实用工具,动画制作和建模</t>
+          <t>第三人称射击,科幻,太空,射击,生存恐怖</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>DLC</t>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.6</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2021年11月26日</t>
+          <t>2023年01月28日</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>免费的Wallpaper Engine编辑器扩展 DLC 为该编辑器添加了高级功能。 此附加组件需要大量磁盘空间，我们只建议为想要在编辑器中使用这些高级功能来创建新墙纸的用户安装编辑器扩展。 所有订阅者都可以使用通过此附加组件创建的壁纸，而无需安装编辑器扩展。&lt;br&gt;&lt;br&gt;&lt;strong&gt;如果您不确定您是否要使用它，请不要安装此扩展。 如果您尝试使用任何需要它的功能，Wallpaper Engine 编辑器将推荐此扩展程序。&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;包含的功能&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;使用机器学习从单个图像生成深度图。&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>科幻生存恐怖经典作品《死亡空间》宣告回归，经过完全重制，旨在为玩家提供更有深度、更身临其境的体验。这款重制版游戏为玩家带来了令人惊叹的视觉保真度、充满悬疑感的氛围音效以及游戏性改进，同时尽力忠实还原初版游戏的惊险构思。&lt;br&gt;&lt;br&gt;艾萨克·克拉克是一名普通的工程师，受命修复巨型采矿飞船 USG 石村号，结果发现事态超乎想象。飞船上的船员已被屠戮，而艾萨克心爱的伴侣妮可也在船上不知所踪。&lt;br&gt;&lt;br&gt;现在，艾萨克独自一人，他可以依靠的只有自己的工程工具和技能。随着石村号上可怕谜团的真相浮出水面，他必须尽快找到妮可。艾萨克被充满敌意，名为“尸变体”的生物团团包围，面临着一场生存之战。他不仅要对抗飞船上不断升级的恐怖情形，还要面对自己即将崩溃的理智。&lt;br&gt;&lt;br&gt;&lt;strong&gt;尽情沉浸在次世代科幻恐怖游戏中&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1693980/extras/DS_GP_USP1_610px.gif?t=1684172906" /&gt;&lt;br&gt;&lt;br&gt;这款经典科幻恐怖游戏经过完全重制，带来了视觉保真度的提升和 3D 氛围音效。从精致得令人难以置信的房间和满是被屠戮船员的工作间，到孤寂太空飞船上阴森的氛围音效，在这震撼人心的科幻场景中，出人意料、扣人心弦的时刻接连涌现，等着你来探索。&lt;br&gt;&lt;br&gt;&lt;strong&gt;揭开 USG 石村号上的谜团&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1693980/extras/DS_GP_USP2_610px.gif?t=1684172906" /&gt;&lt;br&gt;&lt;br&gt;工程师艾萨克·克拉克和 USG 圣室号的船员们起初只是在执行例行维修任务，但随着船上恐怖事件背后的真相逐渐被揭开，维修任务迅速演变成一场生存之战。跟随徐徐展开的叙事体验，通过遇难船员们的临终日志以及与少数幸存者的邂逅，揭开 USG 石村号各种事件背后的黑幕。&lt;br&gt;&lt;br&gt;&lt;strong&gt;随机应变，死地求生&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1693980/extras/USP3_ageGate_610px.gif?t=1684172906" /&gt;&lt;br&gt;&lt;br&gt;采用定义战略游戏的游玩方式，对抗 USG 石村号上的梦魇。调整并升级艾萨克的工程工具，用你的创意把敌人精准击毙。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1693980/extras/Dead_Space_PC_Specs_610px_STEAM_updated.png?t=1684172906" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>1790230</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Wallpaper Engine - Editor Extensions</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Wallpaper Engine - 编辑器扩展</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>休闲,独立,照片编辑,实用工具,动画制作和建模</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>DLC</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2021年11月26日</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>免费的Wallpaper Engine编辑器扩展 DLC 为该编辑器添加了高级功能。 此附加组件需要大量磁盘空间，我们只建议为想要在编辑器中使用这些高级功能来创建新墙纸的用户安装编辑器扩展。 所有订阅者都可以使用通过此附加组件创建的壁纸，而无需安装编辑器扩展。&lt;br&gt;&lt;br&gt;&lt;strong&gt;如果您不确定您是否要使用它，请不要安装此扩展。 如果您尝试使用任何需要它的功能，Wallpaper Engine 编辑器将推荐此扩展程序。&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;包含的功能&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;使用机器学习从单个图像生成深度图。&lt;/li&gt;&lt;/ul&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>1888160</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>ARMORED CORE™ VI FIRES OF RUBICON™</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>装甲核心6</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>机甲,3D,角色自定义,第三人称,动作</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>机甲,角色自定义,3D,第三人称,动作</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2023年08月25日</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>数字豪华版将收录以下内容；&lt;br /&gt;
 ·游戏本体&lt;br /&gt;
@@ -976,45 +1018,45 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>2273430</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>BlazBlue Entropy Effect</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>苍翼：混沌效应</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>抢先体验,动作类 Rogue,动作冒险,平台游戏,类银河战士恶魔城</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>8.1</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>2023年08月16日</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/2s8sQbmtpE" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/3ff496ac-5d11-4609-844e-ceeaf4c1953b.jpg?t=1692772949" /&gt;&lt;/a&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-1.png?t=1692772949" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/2D_ACT战斗体验的天花板.gif?t=1692772949" /&gt;&lt;br&gt;纯正格斗血统的全新动作肉鸽游戏，资深动作团队以ACT之名打造极致2D动作战斗体验！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-2.png?t=1692772949" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/千变万化的动作战斗.gif?t=1692772949" /&gt;&lt;br&gt;魅力非凡的各个角色可以通过上百种招式自由构建，打造独一无二的动作连招。角色间迭代传承的继承系统，让每一次战斗的结束又成为新战斗的起点。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-3.png?t=1692772949" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/无限可能的肉鸽构建.gif?t=1692772949" /&gt;&lt;br&gt;八大元素策略体系（电、火、毒、光、刃、冰、暗、通用），超过两百种强化效果与动作系统联动，通过不同的搭配组合，在动作战斗中触发不同的“化学反应”，燃烧、冰冻、致盲、麻痹......挑选合适的词条强化，进一步“定制”属于自己的动作流派！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/01CN.png?t=1692772949" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/两大经典玩法合璧.gif?t=1692772949" /&gt;&lt;br&gt;箱庭式闯关+类银河城冒险结合设计，汇集横版动作的两种经典玩法。在箱庭式关卡中击败不同敌人，挑战阶段性BOSS；在随机生成的类银河城大地图中冒险，踏入隐秘禁区、探索故事终点。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/02ECN.png?t=1692772949" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/多线性·多结局.gif?t=1692772949" /&gt;&lt;br&gt;在架空的近未来世界，人们通过名为“ACE”的科技装置进入虚拟空间，化身为不同角色战斗。虚构的一切，却一步步影响着真实的未来。&lt;br&gt;由特殊粒子效果展现的事象碎片诉说着隐秘或真相，你会怎么判断？&lt;br&gt;由对话选择驱动的多线性剧情发展，你将如何抉择？&lt;br&gt;谨慎改变故事的走向，战斗的终点将是完全不同的未来。&lt;br&gt;&lt;br&gt;*本作品属外传衍生游戏，世界观为新原创内容，故事情节不涉及BlazBlue本篇剧情。</t>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/2s8sQbmtpE" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/3ff496ac-5d11-4609-844e-ceeaf4c1953b.jpg?t=1693399510" /&gt;&lt;/a&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-1.png?t=1693399510" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/2D_ACT战斗体验的天花板.gif?t=1693399510" /&gt;&lt;br&gt;纯正格斗血统的全新动作肉鸽游戏，资深动作团队以ACT之名打造极致2D动作战斗体验！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-2.png?t=1693399510" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/千变万化的动作战斗.gif?t=1693399510" /&gt;&lt;br&gt;魅力非凡的各个角色可以通过上百种招式自由构建，打造独一无二的动作连招。角色间迭代传承的继承系统，让每一次战斗的结束又成为新战斗的起点。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-3.png?t=1693399510" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/无限可能的肉鸽构建.gif?t=1693399510" /&gt;&lt;br&gt;八大元素策略体系（电、火、毒、光、刃、冰、暗、通用），超过两百种强化效果与动作系统联动，通过不同的搭配组合，在动作战斗中触发不同的“化学反应”，燃烧、冰冻、致盲、麻痹......挑选合适的词条强化，进一步“定制”属于自己的动作流派！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/01CN.png?t=1693399510" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/两大经典玩法合璧.gif?t=1693399510" /&gt;&lt;br&gt;箱庭式闯关+类银河城冒险结合设计，汇集横版动作的两种经典玩法。在箱庭式关卡中击败不同敌人，挑战阶段性BOSS；在随机生成的类银河城大地图中冒险，踏入隐秘禁区、探索故事终点。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/02ECN.png?t=1693399510" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/多线性·多结局.gif?t=1693399510" /&gt;&lt;br&gt;在架空的近未来世界，人们通过名为“ACE”的科技装置进入虚拟空间，化身为不同角色战斗。虚构的一切，却一步步影响着真实的未来。&lt;br&gt;由特殊粒子效果展现的事象碎片诉说着隐秘或真相，你会怎么判断？&lt;br&gt;由对话选择驱动的多线性剧情发展，你将如何抉择？&lt;br&gt;谨慎改变故事的走向，战斗的终点将是完全不同的未来。&lt;br&gt;&lt;br&gt;*本作品属外传衍生游戏，世界观为新原创内容，故事情节不涉及BlazBlue本篇剧情。</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -827,7 +827,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/2s8sQbmtpE" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/3ff496ac-5d11-4609-844e-ceeaf4c1953b.jpg?t=1693399510" /&gt;&lt;/a&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-1.png?t=1693399510" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/2D_ACT战斗体验的天花板.gif?t=1693399510" /&gt;&lt;br&gt;纯正格斗血统的全新动作肉鸽游戏，资深动作团队以ACT之名打造极致2D动作战斗体验！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-2.png?t=1693399510" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/千变万化的动作战斗.gif?t=1693399510" /&gt;&lt;br&gt;魅力非凡的各个角色可以通过上百种招式自由构建，打造独一无二的动作连招。角色间迭代传承的继承系统，让每一次战斗的结束又成为新战斗的起点。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-3.png?t=1693399510" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/无限可能的肉鸽构建.gif?t=1693399510" /&gt;&lt;br&gt;八大元素策略体系（电、火、毒、光、刃、冰、暗、通用），超过两百种强化效果与动作系统联动，通过不同的搭配组合，在动作战斗中触发不同的“化学反应”，燃烧、冰冻、致盲、麻痹......挑选合适的词条强化，进一步“定制”属于自己的动作流派！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/01CN.png?t=1693399510" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/两大经典玩法合璧.gif?t=1693399510" /&gt;&lt;br&gt;箱庭式闯关+类银河城冒险结合设计，汇集横版动作的两种经典玩法。在箱庭式关卡中击败不同敌人，挑战阶段性BOSS；在随机生成的类银河城大地图中冒险，踏入隐秘禁区、探索故事终点。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/02ECN.png?t=1693399510" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/多线性·多结局.gif?t=1693399510" /&gt;&lt;br&gt;在架空的近未来世界，人们通过名为“ACE”的科技装置进入虚拟空间，化身为不同角色战斗。虚构的一切，却一步步影响着真实的未来。&lt;br&gt;由特殊粒子效果展现的事象碎片诉说着隐秘或真相，你会怎么判断？&lt;br&gt;由对话选择驱动的多线性剧情发展，你将如何抉择？&lt;br&gt;谨慎改变故事的走向，战斗的终点将是完全不同的未来。&lt;br&gt;&lt;br&gt;*本作品属外传衍生游戏，世界观为新原创内容，故事情节不涉及BlazBlue本篇剧情。</t>
+          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/2s8sQbmtpE" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/3ff496ac-5d11-4609-844e-ceeaf4c1953b.jpg?t=1693469550" /&gt;&lt;/a&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-1.png?t=1693469550" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/2D_ACT战斗体验的天花板.gif?t=1693469550" /&gt;&lt;br&gt;纯正格斗血统的全新动作肉鸽游戏，资深动作团队以ACT之名打造极致2D动作战斗体验！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-2.png?t=1693469550" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/千变万化的动作战斗.gif?t=1693469550" /&gt;&lt;br&gt;魅力非凡的各个角色可以通过上百种招式自由构建，打造独一无二的动作连招。角色间迭代传承的继承系统，让每一次战斗的结束又成为新战斗的起点。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-3.png?t=1693469550" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/无限可能的肉鸽构建.gif?t=1693469550" /&gt;&lt;br&gt;八大元素策略体系（电、火、毒、光、刃、冰、暗、通用），超过两百种强化效果与动作系统联动，通过不同的搭配组合，在动作战斗中触发不同的“化学反应”，燃烧、冰冻、致盲、麻痹......挑选合适的词条强化，进一步“定制”属于自己的动作流派！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/01CN.png?t=1693469550" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/两大经典玩法合璧.gif?t=1693469550" /&gt;&lt;br&gt;箱庭式闯关+类银河城冒险结合设计，汇集横版动作的两种经典玩法。在箱庭式关卡中击败不同敌人，挑战阶段性BOSS；在随机生成的类银河城大地图中冒险，踏入隐秘禁区、探索故事终点。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/02ECN.png?t=1693469550" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/多线性·多结局.gif?t=1693469550" /&gt;&lt;br&gt;在架空的近未来世界，人们通过名为“ACE”的科技装置进入虚拟空间，化身为不同角色战斗。虚构的一切，却一步步影响着真实的未来。&lt;br&gt;由特殊粒子效果展现的事象碎片诉说着隐秘或真相，你会怎么判断？&lt;br&gt;由对话选择驱动的多线性剧情发展，你将如何抉择？&lt;br&gt;谨慎改变故事的走向，战斗的终点将是完全不同的未来。&lt;br&gt;&lt;br&gt;*本作品属外传衍生游戏，世界观为新原创内容，故事情节不涉及BlazBlue本篇剧情。</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -827,7 +827,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>7.8</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -980,7 +980,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>机甲,角色自定义,3D,第三人称,动作</t>
+          <t>机甲,角色自定义,动作,第三人称,3D</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/2s8sQbmtpE" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/3ff496ac-5d11-4609-844e-ceeaf4c1953b.jpg?t=1693469550" /&gt;&lt;/a&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-1.png?t=1693469550" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/2D_ACT战斗体验的天花板.gif?t=1693469550" /&gt;&lt;br&gt;纯正格斗血统的全新动作肉鸽游戏，资深动作团队以ACT之名打造极致2D动作战斗体验！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-2.png?t=1693469550" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/千变万化的动作战斗.gif?t=1693469550" /&gt;&lt;br&gt;魅力非凡的各个角色可以通过上百种招式自由构建，打造独一无二的动作连招。角色间迭代传承的继承系统，让每一次战斗的结束又成为新战斗的起点。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-3.png?t=1693469550" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/无限可能的肉鸽构建.gif?t=1693469550" /&gt;&lt;br&gt;八大元素策略体系（电、火、毒、光、刃、冰、暗、通用），超过两百种强化效果与动作系统联动，通过不同的搭配组合，在动作战斗中触发不同的“化学反应”，燃烧、冰冻、致盲、麻痹......挑选合适的词条强化，进一步“定制”属于自己的动作流派！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/01CN.png?t=1693469550" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/两大经典玩法合璧.gif?t=1693469550" /&gt;&lt;br&gt;箱庭式闯关+类银河城冒险结合设计，汇集横版动作的两种经典玩法。在箱庭式关卡中击败不同敌人，挑战阶段性BOSS；在随机生成的类银河城大地图中冒险，踏入隐秘禁区、探索故事终点。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/02ECN.png?t=1693469550" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/多线性·多结局.gif?t=1693469550" /&gt;&lt;br&gt;在架空的近未来世界，人们通过名为“ACE”的科技装置进入虚拟空间，化身为不同角色战斗。虚构的一切，却一步步影响着真实的未来。&lt;br&gt;由特殊粒子效果展现的事象碎片诉说着隐秘或真相，你会怎么判断？&lt;br&gt;由对话选择驱动的多线性剧情发展，你将如何抉择？&lt;br&gt;谨慎改变故事的走向，战斗的终点将是完全不同的未来。&lt;br&gt;&lt;br&gt;*本作品属外传衍生游戏，世界观为新原创内容，故事情节不涉及BlazBlue本篇剧情。</t>
+          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/2s8sQbmtpE" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/3ff496ac-5d11-4609-844e-ceeaf4c1953b.jpg?t=1693550018" /&gt;&lt;/a&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-1.png?t=1693550018" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/2D_ACT战斗体验的天花板.gif?t=1693550018" /&gt;&lt;br&gt;纯正格斗血统的全新动作肉鸽游戏，资深动作团队以ACT之名打造极致2D动作战斗体验！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-2.png?t=1693550018" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/千变万化的动作战斗.gif?t=1693550018" /&gt;&lt;br&gt;魅力非凡的各个角色可以通过上百种招式自由构建，打造独一无二的动作连招。角色间迭代传承的继承系统，让每一次战斗的结束又成为新战斗的起点。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-3.png?t=1693550018" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/无限可能的肉鸽构建.gif?t=1693550018" /&gt;&lt;br&gt;八大元素策略体系（电、火、毒、光、刃、冰、暗、通用），超过两百种强化效果与动作系统联动，通过不同的搭配组合，在动作战斗中触发不同的“化学反应”，燃烧、冰冻、致盲、麻痹......挑选合适的词条强化，进一步“定制”属于自己的动作流派！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/01CN.png?t=1693550018" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/两大经典玩法合璧.gif?t=1693550018" /&gt;&lt;br&gt;箱庭式闯关+类银河城冒险结合设计，汇集横版动作的两种经典玩法。在箱庭式关卡中击败不同敌人，挑战阶段性BOSS；在随机生成的类银河城大地图中冒险，踏入隐秘禁区、探索故事终点。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/02ECN.png?t=1693550018" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/多线性·多结局.gif?t=1693550018" /&gt;&lt;br&gt;在架空的近未来世界，人们通过名为“ACE”的科技装置进入虚拟空间，化身为不同角色战斗。虚构的一切，却一步步影响着真实的未来。&lt;br&gt;由特殊粒子效果展现的事象碎片诉说着隐秘或真相，你会怎么判断？&lt;br&gt;由对话选择驱动的多线性剧情发展，你将如何抉择？&lt;br&gt;谨慎改变故事的走向，战斗的终点将是完全不同的未来。&lt;br&gt;&lt;br&gt;*本作品属外传衍生游戏，世界观为新原创内容，故事情节不涉及BlazBlue本篇剧情。</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -627,7 +627,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>获奖无数的划时代大作&lt;br&gt;升级增强后登陆次世代&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/ABOUT_600x225_ZHS.png?t=1687959506" /&gt;&lt;br&gt;&lt;br&gt;您是利维亚的杰洛特，收钱办事的怪物杀手。您可以在眼前这片怪物横行、饱受战火摧残的土地上尽情探索。您手上的委托？追踪预言之子——希里，一件足以改变世界面貌的活生生的武器。&lt;br&gt;&lt;br&gt;升级到最新版本后，《巫师3：狂猎》包含游戏现已推出的新功能和物品，以及内置照片模式、新增中文配音、Netflix 电视剧集《猎魔人》的联动道具：宝剑、盔甲、新外观等在内的所有新增内容！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/Updated_600x255__ZHS.png?t=1687959506" /&gt;&lt;br&gt;&lt;br&gt;抛开字幕的束缚，以前所未见的沉浸感体验白狼杰洛特横跨大陆的冒险。&lt;br&gt;• 基础版游戏、《石之心》和《血与酒》每一句对话现更由中文配音呈现。&lt;br&gt;• 由 CD PROJEKT RED 与饱受好评的《巫师之昆特牌》、《王权的陨落》和《赛博朋克 2077》配音团队联手打造。&lt;br&gt;&lt;br&gt;新世代升级更新&lt;br&gt;见证内陆前所未有的黑暗奇幻世界！该版本的《巫师3：狂猎》进行了多处图形和技术强化，包括大幅提升细节水平、一系列由社区创作并且最新开发的游戏模组、实时光线追踪等等——尽显当代 PC 的强劲机能。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/Monster_Slayer_600x255_ZHS.png?t=1687959506" /&gt;&lt;br&gt;&lt;br&gt;猎魔人身处的世界怪物横行。作为一支制衡力量，他们自小接受训练，通过变异来获得超人类的战斗技巧、力量和反应。&lt;br&gt;• 扮演一名职业怪物杀手，装备一系列可以升级的武器、变种魔药和战斗法术，无情地把对手大卸八块。&lt;br&gt;• 凶残的野兽徘徊于山间，狡猾的灵异掠食者潜伏在人烟稠密的城市暗巷，而您则要捕杀这些各色的奇异怪物。&lt;br&gt;• 把您赚取的奖赏用来升级武器，购买订制的盔甲，或者花在赛马、打牌、拳击，还有其它的日常娱乐生活上。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/Open_World_600x255_ZHS.png?t=1687959506" /&gt;&lt;br&gt;&lt;br&gt;巫师宏大的开放世界为玩家带来无尽的冒险，并且在规模、深度和复杂性等方面树立了新的标准。&lt;br&gt;• 遍历奇幻的开放世界：探索被遗忘的废墟、洞穴和沉船，与城市里的商人和矮人工匠做买卖，在开阔的平原、山地和海洋上进行狩猎。&lt;br&gt;• 与谋反的将领、阴险的女巫还有腐败的皇室打交道，替他们去完成见不得光的危险勾当。&lt;br&gt;• 做出超越善恶的选择，直面影响深远的后果。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/Child_of_Prophercy_600x255_ZHS.png?t=1687959506" /&gt;&lt;br&gt;&lt;br&gt;接下此生最为重要的一笔委托，追寻预言之子。那是一个可以拯救或是摧毁这个世界的关键。&lt;br&gt;• 根据古代精灵的预言，预言之子强大无比，是一件活生生的武器。而您则要在纷飞的战火中找到对方的下落。&lt;br&gt;• 和一心想要控制这个世界的残暴统治者、野外的精怪，乃至于来自来世的威胁斗智斗勇。&lt;br&gt;• 在这个或许并不值得拯救的世界里，左右自己的命运。</t>
+          <t>获奖无数的划时代大作&lt;br&gt;升级增强后登陆次世代&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/ABOUT_600x225_ZHS.png?t=1693590584" /&gt;&lt;br&gt;&lt;br&gt;您是利维亚的杰洛特，收钱办事的怪物杀手。您可以在眼前这片怪物横行、饱受战火摧残的土地上尽情探索。您手上的委托？追踪预言之子——希里，一件足以改变世界面貌的活生生的武器。&lt;br&gt;&lt;br&gt;升级到最新版本后，《巫师3：狂猎》包含游戏现已推出的新功能和物品，以及内置照片模式、新增中文配音、Netflix 电视剧集《猎魔人》的联动道具：宝剑、盔甲、新外观等在内的所有新增内容！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/Updated_600x255__ZHS.png?t=1693590584" /&gt;&lt;br&gt;&lt;br&gt;抛开字幕的束缚，以前所未见的沉浸感体验白狼杰洛特横跨大陆的冒险。&lt;br&gt;• 基础版游戏、《石之心》和《血与酒》每一句对话现更由中文配音呈现。&lt;br&gt;• 由 CD PROJEKT RED 与饱受好评的《巫师之昆特牌》、《王权的陨落》和《赛博朋克 2077》配音团队联手打造。&lt;br&gt;&lt;br&gt;新世代升级更新&lt;br&gt;见证内陆前所未有的黑暗奇幻世界！该版本的《巫师3：狂猎》进行了多处图形和技术强化，包括大幅提升细节水平、一系列由社区创作并且最新开发的游戏模组、实时光线追踪等等——尽显当代 PC 的强劲机能。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/Monster_Slayer_600x255_ZHS.png?t=1693590584" /&gt;&lt;br&gt;&lt;br&gt;猎魔人身处的世界怪物横行。作为一支制衡力量，他们自小接受训练，通过变异来获得超人类的战斗技巧、力量和反应。&lt;br&gt;• 扮演一名职业怪物杀手，装备一系列可以升级的武器、变种魔药和战斗法术，无情地把对手大卸八块。&lt;br&gt;• 凶残的野兽徘徊于山间，狡猾的灵异掠食者潜伏在人烟稠密的城市暗巷，而您则要捕杀这些各色的奇异怪物。&lt;br&gt;• 把您赚取的奖赏用来升级武器，购买订制的盔甲，或者花在赛马、打牌、拳击，还有其它的日常娱乐生活上。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/Open_World_600x255_ZHS.png?t=1693590584" /&gt;&lt;br&gt;&lt;br&gt;巫师宏大的开放世界为玩家带来无尽的冒险，并且在规模、深度和复杂性等方面树立了新的标准。&lt;br&gt;• 遍历奇幻的开放世界：探索被遗忘的废墟、洞穴和沉船，与城市里的商人和矮人工匠做买卖，在开阔的平原、山地和海洋上进行狩猎。&lt;br&gt;• 与谋反的将领、阴险的女巫还有腐败的皇室打交道，替他们去完成见不得光的危险勾当。&lt;br&gt;• 做出超越善恶的选择，直面影响深远的后果。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/Child_of_Prophercy_600x255_ZHS.png?t=1693590584" /&gt;&lt;br&gt;&lt;br&gt;接下此生最为重要的一笔委托，追寻预言之子。那是一个可以拯救或是摧毁这个世界的关键。&lt;br&gt;• 根据古代精灵的预言，预言之子强大无比，是一件活生生的武器。而您则要在纷飞的战火中找到对方的下落。&lt;br&gt;• 和一心想要控制这个世界的残暴统治者、野外的精怪，乃至于来自来世的威胁斗智斗勇。&lt;br&gt;• 在这个或许并不值得拯救的世界里，左右自己的命运。</t>
         </is>
       </c>
     </row>
@@ -928,77 +928,119 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1790230</t>
+          <t>1716740</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Wallpaper Engine - Editor Extensions</t>
+          <t>Starfield</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Wallpaper Engine - 编辑器扩展</t>
+          <t>星空</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>休闲,独立,照片编辑,实用工具,动画制作和建模</t>
+          <t>角色扮演,单人,太空,开放世界,科幻</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>DLC</t>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.3</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2021年11月26日</t>
+          <t>2023年09月06日</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>免费的Wallpaper Engine编辑器扩展 DLC 为该编辑器添加了高级功能。 此附加组件需要大量磁盘空间，我们只建议为想要在编辑器中使用这些高级功能来创建新墙纸的用户安装编辑器扩展。 所有订阅者都可以使用通过此附加组件创建的壁纸，而无需安装编辑器扩展。&lt;br&gt;&lt;br&gt;&lt;strong&gt;如果您不确定您是否要使用它，请不要安装此扩展。 如果您尝试使用任何需要它的功能，Wallpaper Engine 编辑器将推荐此扩展程序。&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;包含的功能&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;使用机器学习从单个图像生成深度图。&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>《Starfield》出自打造过《Starfield》是由载誉无数、曾为大家带来《The Elder Scrolls V: Skyrim》和《Fallout 4》的Bethesda Game Studios睽违超过25年所打造的第一个全新宇宙。这款新一代角色扮演游戏将背景设定在茫茫宇宙。在这里，你可以创建任意角色，探索世界并体验前所未有的自由。踏上这趟史诗般的旅程，发掘人类文明的终极奥秘。&lt;br&gt;&lt;br&gt;2330年，人类已跨出我们所在的太阳系，在新的星球上定居下来，太空旅行也已成为人类的日常。在这款Bethesda Game Studios迄今为止最宏大的游戏里，你将加入群星组织这个在星系中寻找稀有神器的太空探险者团体，展开探索广袤宇宙的旅程。&lt;h2 class="bb_tag"&gt;传颂你的故事&lt;/h2&gt;在《Starfield》中，最重要的故事将由你亲自通过你的角色述说。自定义外观并决定背景和特征，启航展开属于你的星际之旅。你会是经验老道的探险家、充满魅力的外交官、诡密的电子情报贩，或是独树一帜的人物？选择权都在你手上。由你决定想要打造什么样的角色，有什么样的发展。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/TellYourStory_v3.gif?t=1692798833" /&gt;&lt;h2 class="bb_tag"&gt;探索外太空&lt;/h2&gt;在群星间冒险，探索超过一千个行星。造访繁华的都市、探索充满危险的基地，以及穿越荒野的风景。认识令人难忘的角色并加以招募、参与各种阵营的冒险，在定居星系群中到处展开任务。随时都有新的故事或体验等你来发掘。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/ExploreSpace_v3.gif?t=1692798833" /&gt;&lt;h2 class="bb_tag"&gt;指挥你梦想中的飞船&lt;/h2&gt;驾驶及指挥你梦想中的飞船。打造属于自己的飞船外观、改造武器和护盾等重要系统，以及分配船员为你提供独特加成。在深远的太空中，你将遭遇高风险的近距空战、随机任务、在星际站停驻，甚至登上并夺取敌人的飞船，为自己增添收藏品。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/CaptainShip_v3.gif?t=1692798833" /&gt;&lt;h2 class="bb_tag"&gt;发掘、收集、打造&lt;/h2&gt;探索行星并发掘各种动植物，以及制作药物、食物、装备和武器所需的各种资源。建造哨站并雇用工作人员自动获得材料，并建立货运链接以在哨站间运送资源。将这些原材料投注在研究项目中以解锁独特的制造配方。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/DiscoverCollectBuild_v3.gif?t=1692798833" /&gt;&lt;h2 class="bb_tag"&gt;武器上膛&lt;/h2&gt;宇宙中危机四伏。精细的战斗系统为你提供处理各种状况的工具。无论你喜欢长射程步枪、激光武器或炸药，每种武器皆可改装以符合你的游戏风格。零重力环境为战斗增添了混乱的华丽场面，飞行背包则为玩家带来前所未有的自由机动性。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/LockandLoad_v3.gif?t=1692798833" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>1790230</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Wallpaper Engine - Editor Extensions</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Wallpaper Engine - 编辑器扩展</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>休闲,独立,照片编辑,实用工具,动画制作和建模</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>DLC</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2021年11月26日</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>免费的Wallpaper Engine编辑器扩展 DLC 为该编辑器添加了高级功能。 此附加组件需要大量磁盘空间，我们只建议为想要在编辑器中使用这些高级功能来创建新墙纸的用户安装编辑器扩展。 所有订阅者都可以使用通过此附加组件创建的壁纸，而无需安装编辑器扩展。&lt;br&gt;&lt;br&gt;&lt;strong&gt;如果您不确定您是否要使用它，请不要安装此扩展。 如果您尝试使用任何需要它的功能，Wallpaper Engine 编辑器将推荐此扩展程序。&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;包含的功能&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;使用机器学习从单个图像生成深度图。&lt;/li&gt;&lt;/ul&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>1888160</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>ARMORED CORE™ VI FIRES OF RUBICON™</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>装甲核心6</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>机甲,角色自定义,动作,第三人称,3D</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>2023年08月25日</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>数字豪华版将收录以下内容；&lt;br /&gt;
 ·游戏本体&lt;br /&gt;
@@ -1018,43 +1060,43 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>2273430</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>BlazBlue Entropy Effect</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>苍翼：混沌效应</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>抢先体验,动作类 Rogue,动作冒险,平台游戏,类银河战士恶魔城</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>8.1</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>2023年08月16日</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/2s8sQbmtpE" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/3ff496ac-5d11-4609-844e-ceeaf4c1953b.jpg?t=1693550018" /&gt;&lt;/a&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-1.png?t=1693550018" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/2D_ACT战斗体验的天花板.gif?t=1693550018" /&gt;&lt;br&gt;纯正格斗血统的全新动作肉鸽游戏，资深动作团队以ACT之名打造极致2D动作战斗体验！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-2.png?t=1693550018" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/千变万化的动作战斗.gif?t=1693550018" /&gt;&lt;br&gt;魅力非凡的各个角色可以通过上百种招式自由构建，打造独一无二的动作连招。角色间迭代传承的继承系统，让每一次战斗的结束又成为新战斗的起点。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-3.png?t=1693550018" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/无限可能的肉鸽构建.gif?t=1693550018" /&gt;&lt;br&gt;八大元素策略体系（电、火、毒、光、刃、冰、暗、通用），超过两百种强化效果与动作系统联动，通过不同的搭配组合，在动作战斗中触发不同的“化学反应”，燃烧、冰冻、致盲、麻痹......挑选合适的词条强化，进一步“定制”属于自己的动作流派！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/01CN.png?t=1693550018" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/两大经典玩法合璧.gif?t=1693550018" /&gt;&lt;br&gt;箱庭式闯关+类银河城冒险结合设计，汇集横版动作的两种经典玩法。在箱庭式关卡中击败不同敌人，挑战阶段性BOSS；在随机生成的类银河城大地图中冒险，踏入隐秘禁区、探索故事终点。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/02ECN.png?t=1693550018" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/多线性·多结局.gif?t=1693550018" /&gt;&lt;br&gt;在架空的近未来世界，人们通过名为“ACE”的科技装置进入虚拟空间，化身为不同角色战斗。虚构的一切，却一步步影响着真实的未来。&lt;br&gt;由特殊粒子效果展现的事象碎片诉说着隐秘或真相，你会怎么判断？&lt;br&gt;由对话选择驱动的多线性剧情发展，你将如何抉择？&lt;br&gt;谨慎改变故事的走向，战斗的终点将是完全不同的未来。&lt;br&gt;&lt;br&gt;*本作品属外传衍生游戏，世界观为新原创内容，故事情节不涉及BlazBlue本篇剧情。</t>
         </is>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -627,7 +627,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>获奖无数的划时代大作&lt;br&gt;升级增强后登陆次世代&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/ABOUT_600x225_ZHS.png?t=1693590584" /&gt;&lt;br&gt;&lt;br&gt;您是利维亚的杰洛特，收钱办事的怪物杀手。您可以在眼前这片怪物横行、饱受战火摧残的土地上尽情探索。您手上的委托？追踪预言之子——希里，一件足以改变世界面貌的活生生的武器。&lt;br&gt;&lt;br&gt;升级到最新版本后，《巫师3：狂猎》包含游戏现已推出的新功能和物品，以及内置照片模式、新增中文配音、Netflix 电视剧集《猎魔人》的联动道具：宝剑、盔甲、新外观等在内的所有新增内容！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/Updated_600x255__ZHS.png?t=1693590584" /&gt;&lt;br&gt;&lt;br&gt;抛开字幕的束缚，以前所未见的沉浸感体验白狼杰洛特横跨大陆的冒险。&lt;br&gt;• 基础版游戏、《石之心》和《血与酒》每一句对话现更由中文配音呈现。&lt;br&gt;• 由 CD PROJEKT RED 与饱受好评的《巫师之昆特牌》、《王权的陨落》和《赛博朋克 2077》配音团队联手打造。&lt;br&gt;&lt;br&gt;新世代升级更新&lt;br&gt;见证内陆前所未有的黑暗奇幻世界！该版本的《巫师3：狂猎》进行了多处图形和技术强化，包括大幅提升细节水平、一系列由社区创作并且最新开发的游戏模组、实时光线追踪等等——尽显当代 PC 的强劲机能。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/Monster_Slayer_600x255_ZHS.png?t=1693590584" /&gt;&lt;br&gt;&lt;br&gt;猎魔人身处的世界怪物横行。作为一支制衡力量，他们自小接受训练，通过变异来获得超人类的战斗技巧、力量和反应。&lt;br&gt;• 扮演一名职业怪物杀手，装备一系列可以升级的武器、变种魔药和战斗法术，无情地把对手大卸八块。&lt;br&gt;• 凶残的野兽徘徊于山间，狡猾的灵异掠食者潜伏在人烟稠密的城市暗巷，而您则要捕杀这些各色的奇异怪物。&lt;br&gt;• 把您赚取的奖赏用来升级武器，购买订制的盔甲，或者花在赛马、打牌、拳击，还有其它的日常娱乐生活上。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/Open_World_600x255_ZHS.png?t=1693590584" /&gt;&lt;br&gt;&lt;br&gt;巫师宏大的开放世界为玩家带来无尽的冒险，并且在规模、深度和复杂性等方面树立了新的标准。&lt;br&gt;• 遍历奇幻的开放世界：探索被遗忘的废墟、洞穴和沉船，与城市里的商人和矮人工匠做买卖，在开阔的平原、山地和海洋上进行狩猎。&lt;br&gt;• 与谋反的将领、阴险的女巫还有腐败的皇室打交道，替他们去完成见不得光的危险勾当。&lt;br&gt;• 做出超越善恶的选择，直面影响深远的后果。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/Child_of_Prophercy_600x255_ZHS.png?t=1693590584" /&gt;&lt;br&gt;&lt;br&gt;接下此生最为重要的一笔委托，追寻预言之子。那是一个可以拯救或是摧毁这个世界的关键。&lt;br&gt;• 根据古代精灵的预言，预言之子强大无比，是一件活生生的武器。而您则要在纷飞的战火中找到对方的下落。&lt;br&gt;• 和一心想要控制这个世界的残暴统治者、野外的精怪，乃至于来自来世的威胁斗智斗勇。&lt;br&gt;• 在这个或许并不值得拯救的世界里，左右自己的命运。</t>
+          <t>获奖无数的划时代大作&lt;br&gt;升级增强后登陆次世代&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/ABOUT_600x225_ZHS.png?t=1693590732" /&gt;&lt;br&gt;&lt;br&gt;您是利维亚的杰洛特，收钱办事的怪物杀手。您可以在眼前这片怪物横行、饱受战火摧残的土地上尽情探索。您手上的委托？追踪预言之子——希里，一件足以改变世界面貌的活生生的武器。&lt;br&gt;&lt;br&gt;升级到最新版本后，《巫师3：狂猎》包含游戏现已推出的新功能和物品，以及内置照片模式、新增中文配音、Netflix 电视剧集《猎魔人》的联动道具：宝剑、盔甲、新外观等在内的所有新增内容！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/Updated_600x255__ZHS.png?t=1693590732" /&gt;&lt;br&gt;&lt;br&gt;抛开字幕的束缚，以前所未见的沉浸感体验白狼杰洛特横跨大陆的冒险。&lt;br&gt;• 基础版游戏、《石之心》和《血与酒》每一句对话现更由中文配音呈现。&lt;br&gt;• 由 CD PROJEKT RED 与饱受好评的《巫师之昆特牌》、《王权的陨落》和《赛博朋克 2077》配音团队联手打造。&lt;br&gt;&lt;br&gt;新世代升级更新&lt;br&gt;见证内陆前所未有的黑暗奇幻世界！该版本的《巫师3：狂猎》进行了多处图形和技术强化，包括大幅提升细节水平、一系列由社区创作并且最新开发的游戏模组、实时光线追踪等等——尽显当代 PC 的强劲机能。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/Monster_Slayer_600x255_ZHS.png?t=1693590732" /&gt;&lt;br&gt;&lt;br&gt;猎魔人身处的世界怪物横行。作为一支制衡力量，他们自小接受训练，通过变异来获得超人类的战斗技巧、力量和反应。&lt;br&gt;• 扮演一名职业怪物杀手，装备一系列可以升级的武器、变种魔药和战斗法术，无情地把对手大卸八块。&lt;br&gt;• 凶残的野兽徘徊于山间，狡猾的灵异掠食者潜伏在人烟稠密的城市暗巷，而您则要捕杀这些各色的奇异怪物。&lt;br&gt;• 把您赚取的奖赏用来升级武器，购买订制的盔甲，或者花在赛马、打牌、拳击，还有其它的日常娱乐生活上。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/Open_World_600x255_ZHS.png?t=1693590732" /&gt;&lt;br&gt;&lt;br&gt;巫师宏大的开放世界为玩家带来无尽的冒险，并且在规模、深度和复杂性等方面树立了新的标准。&lt;br&gt;• 遍历奇幻的开放世界：探索被遗忘的废墟、洞穴和沉船，与城市里的商人和矮人工匠做买卖，在开阔的平原、山地和海洋上进行狩猎。&lt;br&gt;• 与谋反的将领、阴险的女巫还有腐败的皇室打交道，替他们去完成见不得光的危险勾当。&lt;br&gt;• 做出超越善恶的选择，直面影响深远的后果。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/Child_of_Prophercy_600x255_ZHS.png?t=1693590732" /&gt;&lt;br&gt;&lt;br&gt;接下此生最为重要的一笔委托，追寻预言之子。那是一个可以拯救或是摧毁这个世界的关键。&lt;br&gt;• 根据古代精灵的预言，预言之子强大无比，是一件活生生的武器。而您则要在纷飞的战火中找到对方的下落。&lt;br&gt;• 和一心想要控制这个世界的残暴统治者、野外的精怪，乃至于来自来世的威胁斗智斗勇。&lt;br&gt;• 在这个或许并不值得拯救的世界里，左右自己的命运。</t>
         </is>
       </c>
     </row>
@@ -817,7 +817,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>角色扮演,选择取向,角色自定义,剧情丰富,冒险</t>
+          <t>角色扮演,选择取向,剧情丰富,角色自定义,冒险</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -953,7 +953,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -869,7 +869,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,22 +466,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>47780</t>
+          <t>38400</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dead Space 2</t>
+          <t>Fallout</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>死亡空间2</t>
+          <t>辐射</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>生存恐怖,第三人称射击,射击,生存,第三人称</t>
+          <t>角色扮演,后末日,经典,开放世界,等角视角</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -491,39 +491,39 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2011年01月28日</t>
+          <t>2009年08月19日</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/47780/extras/terror.png?t=1674071175" /&gt;&lt;br&gt;&lt;br&gt;In Dead Space™ 2, you join Isaac Clarke, the Systems Engineer from Dead Space, as he wakes up three years after the horrific events on the USG Ishimura. The Ishimura was a Planetcracker-class starship besieged by grotesque reanimations of its dead crew, known as “Necromorphs.”&lt;br&gt;&lt;br&gt;After unearthing a strange artifact known as the Marker, Isaac finds himself on the Sprawl, a giant space station in orbit around Saturn. Unable to remember how he got here and plagued with demented visions of his dead girlfriend Nicole, he must survive another nightmarish outbreak of Necromorphs as he fights his way towards an answer he hopes will end all the chaos.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/47780/extras/DEDSP2CEart4.jpg?t=1674071175" /&gt;&lt;h2 class="bb_tag"&gt;Key Features:&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Tear through space with full 360 degree movement.&lt;br&gt;&lt;/li&gt;&lt;li&gt;Wield a set of devastating tools to bring the terror to space. Impale Necromorphs into the walls with the Javelin, use improved telekinesis to turn limbs into deadly weapons, plant powerful dismembering trip mines, or create a hull-breach to suck a group of monsters out into space.&lt;br&gt;&lt;/li&gt;&lt;li&gt;Fire up Isaac’s suit boosters to rocket around in zero gravity like never before. Explore the depths of the Sprawl and encounter new weightless combat and physics-based puzzles with full 360⁰ movement.&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>You've just unearthed the classic post-apocalyptic role-playing game that revitalized the entire CRPG genre. The Fallout® SPECIAL system allows drastically different types of characters, meaningful decisions and development that puts you in complete control. Explore the devastated ruins of a golden age civilization. Talk, sneak or fight your way past mutants, gangsters and robotic adversaries. Make the right decisions or you could end up as another fallen hero in the wastelands...</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>255710</t>
+          <t>47780</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cities: Skylines</t>
+          <t>Dead Space 2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>城市：天际线</t>
+          <t>死亡空间2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>城市营造,模拟,建造,管理,策略</t>
+          <t>生存恐怖,第三人称射击,射击,生存,第三人称</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -538,34 +538,34 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2015年03月10日</t>
+          <t>2011年01月28日</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>《城市：天际线》是对经典城市模拟类游戏的现代演绎。该游戏引入了全新的游戏玩法元素，让玩家切身体会到创造和维持一座真正城市的兴奋和艰辛，同时扩展了城市建设体验中的一些经久不衰的主题。&lt;br&gt;&lt;br&gt;这款游戏由《都市运输》系列游戏的制作者们推出，拥有一个不折不扣的交通系统。它还赋予玩家根据自身游戏风格改造游戏的能力，出色地与多层级且极具挑战性的模拟功能相制衡。您只受您的想像力的限制，放手掌控一切，打造城市天际吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/255710/extras/Steam-Gif-Basegame-1-Challenging-Simulation.gif?t=1692879552" /&gt;&lt;br&gt;从头开始建造您的城市学起来容易，但掌握起来难。在游戏中，作为城市的市长，您将面对平衡各种必要需求的难题，例如教育、水力发电、警察、消防、医疗等等诸多问题，以及您的城市真正的经济体系。您的城市中的居民严肃灵活地对众多游戏场景做出回应，真实感极强。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/255710/extras/Steam-Gif-Basegame-2-Extensive-Local-Traffic-Simulation.gif?t=1692879552" /&gt;&lt;br&gt;充分利用 Colossal Orders 在开发《都市运输》系列时积累的丰富经验，打造出精致详实、精心设计的交通体系。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/255710/extras/districts-policies-v2.gif?t=1692879552" /&gt;&lt;br&gt;您不仅仅是市政厅的行政长官。将城市的部分区域指定为地区，使政策得以实施，从而使您出人头地，荣登您自创城市的市长宝座。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/255710/extras/Steam-Gif-Basegame-4-Utilize-the-day-_-night-cycle.gif?t=1692879552" /&gt;&lt;h2 class="bb_tag"&gt;利用昼夜的更替&lt;/h2&gt;城市随着一天中的不同时间而变化，影响着市民的日程安排。夜间，车流量明显放缓，一些划定的区域未满负荷运行。本扩展包将使您得以掌控昼夜更替的不同方面。&lt;h2 class="bb_tag"&gt;广泛的改造支持：&lt;/h2&gt;塑造或改进现有的地图和结构。随后您可将之导入游戏，在 Steam 工作室中与他人分享它们，并下载其他城市建设者的杰作。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/47780/extras/terror.png?t=1674071175" /&gt;&lt;br&gt;&lt;br&gt;In Dead Space™ 2, you join Isaac Clarke, the Systems Engineer from Dead Space, as he wakes up three years after the horrific events on the USG Ishimura. The Ishimura was a Planetcracker-class starship besieged by grotesque reanimations of its dead crew, known as “Necromorphs.”&lt;br&gt;&lt;br&gt;After unearthing a strange artifact known as the Marker, Isaac finds himself on the Sprawl, a giant space station in orbit around Saturn. Unable to remember how he got here and plagued with demented visions of his dead girlfriend Nicole, he must survive another nightmarish outbreak of Necromorphs as he fights his way towards an answer he hopes will end all the chaos.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/47780/extras/DEDSP2CEart4.jpg?t=1674071175" /&gt;&lt;h2 class="bb_tag"&gt;Key Features:&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Tear through space with full 360 degree movement.&lt;br&gt;&lt;/li&gt;&lt;li&gt;Wield a set of devastating tools to bring the terror to space. Impale Necromorphs into the walls with the Javelin, use improved telekinesis to turn limbs into deadly weapons, plant powerful dismembering trip mines, or create a hull-breach to suck a group of monsters out into space.&lt;br&gt;&lt;/li&gt;&lt;li&gt;Fire up Isaac’s suit boosters to rocket around in zero gravity like never before. Explore the depths of the Sprawl and encounter new weightless combat and physics-based puzzles with full 360⁰ movement.&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>264710</t>
+          <t>255710</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Subnautica</t>
+          <t>Cities: Skylines</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>深海迷航</t>
+          <t>城市：天际线</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>开放世界生存制作,生存,开放世界,探索,水底</t>
+          <t>城市营造,模拟,建造,管理,策略</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -575,39 +575,39 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2018年01月24日</t>
+          <t>2015年03月10日</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Subnautica is an underwater adventure game set on an alien ocean planet. A massive, open world full of wonder and peril awaits you!&lt;h2 class="bb_tag"&gt;Dive Into a Vast Underwater World&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20161220_Steam_Inline_Shallows.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;You have crash-landed on an alien ocean world, and the only way to go is down. Subnautica's oceans range from sun drenched shallow coral reefs to treacherous deep-sea trenches, lava fields, and bio-luminescent underwater rivers. Manage your oxygen supply as you explore kelp forests, plateaus, reefs, and winding cave systems. The water teems with life: Some of it helpful, much of it harmful.&lt;h2 class="bb_tag"&gt;Scavenge, Craft, and Survive&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20141216_Steam_Inline_DamagedPod.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;After crash landing in your Life Pod, the clock is ticking to find water, food, and to develop the equipment you need to explore. Collect resources from the ocean around you. Craft diving gear, lights, habitat modules, and submersibles. Venture deeper and further form to find rarer resources, allowing you to craft more advanced items.&lt;h2 class="bb_tag"&gt;Construct Underwater Habitats&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20161220_Steam_Inline_Base.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;Build bases on the sea floor. Choose layouts and components, and manage hull-integrity as depth and pressure increase. Use your base to store resources, park vehicles, and replenish oxygen supplies as you explore the vast ocean.&lt;h2 class="bb_tag"&gt;Unravel the Mystery&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20170403_SN_Steam_Inline_Mystery.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;What happened to this planet? Signs abound that something is not right. What caused you to crash? What is infecting the sea life? Who built the mysterious structures scattered around the ocean? Can you find a way to make it off the planet alive?&lt;h2 class="bb_tag"&gt;Disrupt the Food Chain&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20161220_Steam_Inline_FoodChain.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;The ocean teems with life: Use the ecosystem to help you. Lure and distract a threatening creature with a fresh fish, or simply swim as fast as you can to avoid gnashing jaws of roaming predators.&lt;h2 class="bb_tag"&gt;Handle the Pressure&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/steamexosuit.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;Build a Pressure Re-Active Waterproof Nanosuit, or PRAWN Suit, and explore extreme depth and heat. Modify the suit with mining drills, torpedo launchers, propulsion cannons, grappling hooks and more.&lt;h2 class="bb_tag"&gt;Fear the Night&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20161220_Steam_Inline_Night.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;As the sun goes down, the predators come out. The ocean is unforgiving of those caught unprepared in the darkness. Areas that are safe to explore during the day become treacherous at night, but also reveal a beauty that those who hide from the darkness will never see.&lt;h2 class="bb_tag"&gt;Dive Below the Ocean Floor&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20170403_SN_Steam_Inline_LostRiver.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;Cave systems wind below the sea bed, from dark claustrophobic passages to caverns lit by bio-luminescent life and burning-hot lava flows. Explore the world below the ocean floor, but watch your oxygen levels, and take care to avoid the threats lurking in the darkness.&lt;h2 class="bb_tag"&gt;Open Development&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20170403_SN_Steam_Inline_Cyclops.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="http://steamcommunity.com/sharedfiles/filedetails/?id=355026171" target="_blank" rel=""  &gt;Get weekly or daily updates,&lt;/a&gt; see &lt;a href="https://steamcommunity.com/linkfilter/?url=https://trello.com/b/yxoJrFgP/subnautica" target="_blank" rel=" noopener"  &gt;what the development team is working on,&lt;/a&gt; view &lt;a href="https://steamcommunity.com/linkfilter/?url=http://subnautica.unknownworlds.com/#/subnautica/feedback" target="_blank" rel=" noopener"  &gt;real time change logs,&lt;/a&gt; and give feedback &lt;a href="http://steamcommunity.com/sharedfiles/filedetails/?id=356376081" target="_blank" rel=""  &gt;from inside the game.&lt;/a&gt; Subnautica Early Access development is open, and the development team wants to hear from you.&lt;h2 class="bb_tag"&gt;About the Development Team&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20150416_Subnautica_Steam_Inline_UWE.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;Subnautica is being created by Unknown Worlds, a small studio founded by &lt;a href="http://twitter.com/flayra" target="_blank" rel=""  &gt;Charlie Cleveland&lt;/a&gt; and &lt;a href="http://twitter.com/max_mcguire" target="_blank" rel=""  &gt;Max McGuire&lt;/a&gt; that traces its roots back to the 2003 Half-Life mod Natural Selection. The team is scattered around the globe, from the United States to the United Kingdom, France, the Czech Republic, Russia, Thailand, Australia, and many more places. There is a central office in San Francisco, California that serves as home base for the whole team.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20170403_SN_Steam_Inline_SafeHole.jpg?t=1670975847" /&gt;&lt;h2 class="bb_tag"&gt;Warning&lt;/h2&gt;&lt;br&gt;This game contains flashing lights that may make it unsuitable for people with photosensitive epilepsy or other photosensitive conditions. Player discretion is advised.</t>
+          <t>《城市：天际线》是对经典城市模拟类游戏的现代演绎。该游戏引入了全新的游戏玩法元素，让玩家切身体会到创造和维持一座真正城市的兴奋和艰辛，同时扩展了城市建设体验中的一些经久不衰的主题。&lt;br&gt;&lt;br&gt;这款游戏由《都市运输》系列游戏的制作者们推出，拥有一个不折不扣的交通系统。它还赋予玩家根据自身游戏风格改造游戏的能力，出色地与多层级且极具挑战性的模拟功能相制衡。您只受您的想像力的限制，放手掌控一切，打造城市天际吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/255710/extras/Steam-Gif-Basegame-1-Challenging-Simulation.gif?t=1692879552" /&gt;&lt;br&gt;从头开始建造您的城市学起来容易，但掌握起来难。在游戏中，作为城市的市长，您将面对平衡各种必要需求的难题，例如教育、水力发电、警察、消防、医疗等等诸多问题，以及您的城市真正的经济体系。您的城市中的居民严肃灵活地对众多游戏场景做出回应，真实感极强。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/255710/extras/Steam-Gif-Basegame-2-Extensive-Local-Traffic-Simulation.gif?t=1692879552" /&gt;&lt;br&gt;充分利用 Colossal Orders 在开发《都市运输》系列时积累的丰富经验，打造出精致详实、精心设计的交通体系。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/255710/extras/districts-policies-v2.gif?t=1692879552" /&gt;&lt;br&gt;您不仅仅是市政厅的行政长官。将城市的部分区域指定为地区，使政策得以实施，从而使您出人头地，荣登您自创城市的市长宝座。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/255710/extras/Steam-Gif-Basegame-4-Utilize-the-day-_-night-cycle.gif?t=1692879552" /&gt;&lt;h2 class="bb_tag"&gt;利用昼夜的更替&lt;/h2&gt;城市随着一天中的不同时间而变化，影响着市民的日程安排。夜间，车流量明显放缓，一些划定的区域未满负荷运行。本扩展包将使您得以掌控昼夜更替的不同方面。&lt;h2 class="bb_tag"&gt;广泛的改造支持：&lt;/h2&gt;塑造或改进现有的地图和结构。随后您可将之导入游戏，在 Steam 工作室中与他人分享它们，并下载其他城市建设者的杰作。</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>292030</t>
+          <t>264710</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The Witcher 3: Wild Hunt</t>
+          <t>Subnautica</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>巫师3：狂猎</t>
+          <t>深海迷航</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>开放世界,角色扮演,剧情丰富,氛围,成人</t>
+          <t>开放世界生存制作,生存,开放世界,探索,水底</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -622,76 +622,76 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2015年05月19日</t>
+          <t>2018年01月24日</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>获奖无数的划时代大作&lt;br&gt;升级增强后登陆次世代&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/ABOUT_600x225_ZHS.png?t=1693590732" /&gt;&lt;br&gt;&lt;br&gt;您是利维亚的杰洛特，收钱办事的怪物杀手。您可以在眼前这片怪物横行、饱受战火摧残的土地上尽情探索。您手上的委托？追踪预言之子——希里，一件足以改变世界面貌的活生生的武器。&lt;br&gt;&lt;br&gt;升级到最新版本后，《巫师3：狂猎》包含游戏现已推出的新功能和物品，以及内置照片模式、新增中文配音、Netflix 电视剧集《猎魔人》的联动道具：宝剑、盔甲、新外观等在内的所有新增内容！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/Updated_600x255__ZHS.png?t=1693590732" /&gt;&lt;br&gt;&lt;br&gt;抛开字幕的束缚，以前所未见的沉浸感体验白狼杰洛特横跨大陆的冒险。&lt;br&gt;• 基础版游戏、《石之心》和《血与酒》每一句对话现更由中文配音呈现。&lt;br&gt;• 由 CD PROJEKT RED 与饱受好评的《巫师之昆特牌》、《王权的陨落》和《赛博朋克 2077》配音团队联手打造。&lt;br&gt;&lt;br&gt;新世代升级更新&lt;br&gt;见证内陆前所未有的黑暗奇幻世界！该版本的《巫师3：狂猎》进行了多处图形和技术强化，包括大幅提升细节水平、一系列由社区创作并且最新开发的游戏模组、实时光线追踪等等——尽显当代 PC 的强劲机能。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/Monster_Slayer_600x255_ZHS.png?t=1693590732" /&gt;&lt;br&gt;&lt;br&gt;猎魔人身处的世界怪物横行。作为一支制衡力量，他们自小接受训练，通过变异来获得超人类的战斗技巧、力量和反应。&lt;br&gt;• 扮演一名职业怪物杀手，装备一系列可以升级的武器、变种魔药和战斗法术，无情地把对手大卸八块。&lt;br&gt;• 凶残的野兽徘徊于山间，狡猾的灵异掠食者潜伏在人烟稠密的城市暗巷，而您则要捕杀这些各色的奇异怪物。&lt;br&gt;• 把您赚取的奖赏用来升级武器，购买订制的盔甲，或者花在赛马、打牌、拳击，还有其它的日常娱乐生活上。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/Open_World_600x255_ZHS.png?t=1693590732" /&gt;&lt;br&gt;&lt;br&gt;巫师宏大的开放世界为玩家带来无尽的冒险，并且在规模、深度和复杂性等方面树立了新的标准。&lt;br&gt;• 遍历奇幻的开放世界：探索被遗忘的废墟、洞穴和沉船，与城市里的商人和矮人工匠做买卖，在开阔的平原、山地和海洋上进行狩猎。&lt;br&gt;• 与谋反的将领、阴险的女巫还有腐败的皇室打交道，替他们去完成见不得光的危险勾当。&lt;br&gt;• 做出超越善恶的选择，直面影响深远的后果。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/Child_of_Prophercy_600x255_ZHS.png?t=1693590732" /&gt;&lt;br&gt;&lt;br&gt;接下此生最为重要的一笔委托，追寻预言之子。那是一个可以拯救或是摧毁这个世界的关键。&lt;br&gt;• 根据古代精灵的预言，预言之子强大无比，是一件活生生的武器。而您则要在纷飞的战火中找到对方的下落。&lt;br&gt;• 和一心想要控制这个世界的残暴统治者、野外的精怪，乃至于来自来世的威胁斗智斗勇。&lt;br&gt;• 在这个或许并不值得拯救的世界里，左右自己的命运。</t>
+          <t>Subnautica is an underwater adventure game set on an alien ocean planet. A massive, open world full of wonder and peril awaits you!&lt;h2 class="bb_tag"&gt;Dive Into a Vast Underwater World&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20161220_Steam_Inline_Shallows.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;You have crash-landed on an alien ocean world, and the only way to go is down. Subnautica's oceans range from sun drenched shallow coral reefs to treacherous deep-sea trenches, lava fields, and bio-luminescent underwater rivers. Manage your oxygen supply as you explore kelp forests, plateaus, reefs, and winding cave systems. The water teems with life: Some of it helpful, much of it harmful.&lt;h2 class="bb_tag"&gt;Scavenge, Craft, and Survive&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20141216_Steam_Inline_DamagedPod.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;After crash landing in your Life Pod, the clock is ticking to find water, food, and to develop the equipment you need to explore. Collect resources from the ocean around you. Craft diving gear, lights, habitat modules, and submersibles. Venture deeper and further form to find rarer resources, allowing you to craft more advanced items.&lt;h2 class="bb_tag"&gt;Construct Underwater Habitats&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20161220_Steam_Inline_Base.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;Build bases on the sea floor. Choose layouts and components, and manage hull-integrity as depth and pressure increase. Use your base to store resources, park vehicles, and replenish oxygen supplies as you explore the vast ocean.&lt;h2 class="bb_tag"&gt;Unravel the Mystery&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20170403_SN_Steam_Inline_Mystery.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;What happened to this planet? Signs abound that something is not right. What caused you to crash? What is infecting the sea life? Who built the mysterious structures scattered around the ocean? Can you find a way to make it off the planet alive?&lt;h2 class="bb_tag"&gt;Disrupt the Food Chain&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20161220_Steam_Inline_FoodChain.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;The ocean teems with life: Use the ecosystem to help you. Lure and distract a threatening creature with a fresh fish, or simply swim as fast as you can to avoid gnashing jaws of roaming predators.&lt;h2 class="bb_tag"&gt;Handle the Pressure&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/steamexosuit.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;Build a Pressure Re-Active Waterproof Nanosuit, or PRAWN Suit, and explore extreme depth and heat. Modify the suit with mining drills, torpedo launchers, propulsion cannons, grappling hooks and more.&lt;h2 class="bb_tag"&gt;Fear the Night&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20161220_Steam_Inline_Night.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;As the sun goes down, the predators come out. The ocean is unforgiving of those caught unprepared in the darkness. Areas that are safe to explore during the day become treacherous at night, but also reveal a beauty that those who hide from the darkness will never see.&lt;h2 class="bb_tag"&gt;Dive Below the Ocean Floor&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20170403_SN_Steam_Inline_LostRiver.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;Cave systems wind below the sea bed, from dark claustrophobic passages to caverns lit by bio-luminescent life and burning-hot lava flows. Explore the world below the ocean floor, but watch your oxygen levels, and take care to avoid the threats lurking in the darkness.&lt;h2 class="bb_tag"&gt;Open Development&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20170403_SN_Steam_Inline_Cyclops.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="http://steamcommunity.com/sharedfiles/filedetails/?id=355026171" target="_blank" rel=""  &gt;Get weekly or daily updates,&lt;/a&gt; see &lt;a href="https://steamcommunity.com/linkfilter/?url=https://trello.com/b/yxoJrFgP/subnautica" target="_blank" rel=" noopener"  &gt;what the development team is working on,&lt;/a&gt; view &lt;a href="https://steamcommunity.com/linkfilter/?url=http://subnautica.unknownworlds.com/#/subnautica/feedback" target="_blank" rel=" noopener"  &gt;real time change logs,&lt;/a&gt; and give feedback &lt;a href="http://steamcommunity.com/sharedfiles/filedetails/?id=356376081" target="_blank" rel=""  &gt;from inside the game.&lt;/a&gt; Subnautica Early Access development is open, and the development team wants to hear from you.&lt;h2 class="bb_tag"&gt;About the Development Team&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20150416_Subnautica_Steam_Inline_UWE.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;Subnautica is being created by Unknown Worlds, a small studio founded by &lt;a href="http://twitter.com/flayra" target="_blank" rel=""  &gt;Charlie Cleveland&lt;/a&gt; and &lt;a href="http://twitter.com/max_mcguire" target="_blank" rel=""  &gt;Max McGuire&lt;/a&gt; that traces its roots back to the 2003 Half-Life mod Natural Selection. The team is scattered around the globe, from the United States to the United Kingdom, France, the Czech Republic, Russia, Thailand, Australia, and many more places. There is a central office in San Francisco, California that serves as home base for the whole team.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20170403_SN_Steam_Inline_SafeHole.jpg?t=1670975847" /&gt;&lt;h2 class="bb_tag"&gt;Warning&lt;/h2&gt;&lt;br&gt;This game contains flashing lights that may make it unsuitable for people with photosensitive epilepsy or other photosensitive conditions. Player discretion is advised.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>431960</t>
+          <t>286690</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Wallpaper Engine</t>
+          <t>Metro 2033 Redux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Wallpaper Engine：壁纸引擎</t>
+          <t>地铁：2033 重制版</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>成人,实用工具,软件,动漫,设计与插画</t>
+          <t>后末日,第一人称射击,氛围,剧情丰富,动作</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Application</t>
+          <t>Game</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2018年11月日</t>
+          <t>2014年08月29日</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Wallpaper Engine 使您可以在 Windows 桌面上使用动态壁纸。它支持各种类型的动画壁纸，包括 3D 和 2D 动画、网页、视频甚至某些应用程序。既可选择现有壁纸，也可创建自己的壁纸并在 Steam 创意工坊上分享！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/431960/extras/title_features_schinese.png?t=1626972334"&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;通过实时图形、视频、应用程序或网页让您的桌面充满活力。&lt;br&gt;&lt;/li&gt;&lt;li&gt;使用您喜欢的颜色实现动画壁纸个性化。&lt;br&gt;&lt;/li&gt;&lt;li&gt;使用可通过鼠标控制的交互式壁纸。&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持多种宽高比和原始分辨率，包括 16:9、21:9、16:10、4:3。&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持多显示器环境。&lt;br&gt;&lt;/li&gt;&lt;li&gt;壁纸将在玩游戏时暂停，以节省性能。&lt;br&gt;&lt;/li&gt;&lt;li&gt;在 Wallpaper Engine 编辑器中创建自己的动画壁纸。&lt;br&gt;&lt;/li&gt;&lt;li&gt;从基本图片制成新的动态壁纸动画，或为壁纸导入 HTML 或视频文件。&lt;br&gt;&lt;/li&gt;&lt;li&gt;在 Steam 创意工坊上分享和下载壁纸。&lt;br&gt;&lt;/li&gt;&lt;li&gt;Wallpaper Engine 可以与任何其他 Steam 游戏或应用程序同时使用。&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持的视频格式：mp4、WebM、avi、m4v、mov、wmv（对于本地文件，创意工坊仅支持 mp4）。&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持Razer Chroma和Corsair iCUE。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/431960/extras/partners.png?t=1626972334"&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/431960/extras/title_performance_schinese.png?t=1626972334"&gt;&lt;h2 class="bb_tag"&gt;&lt;/h2&gt;Wallpaper Engine 旨在提供有趣的体验，同时尽可能少占用系统资源。您可以选择在使用其他应用程序或全屏播放（包括无边框窗口模式）时自动暂停或完全停止壁纸，以免在玩游戏或工作时分散注意力或受到妨碍。许多微调质量和性能的选项使 Wallpaper Engine 可以完美地适合您的计算机。根据一般经验，3D、2D 和基于视频的壁纸表现最佳，而网页和应用程序需要占用您系统中更多的资源。强烈建议您使用专用 GPU，但不是必要要求。&lt;h2 class="bb_tag"&gt;&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/431960/extras/title_workshop_schinese.png?t=1626972334"&gt;&lt;h2 class="bb_tag"&gt;&lt;/h2&gt;Steam 创意工坊中提供超过 700,000张免费壁纸，而且每天都会上传新壁纸！找不到适合您心情的壁纸？通过使用 Wallpaper Engine 编辑器从图片、视频、网页或应用程序创建自己的动画壁纸，尽情发挥您的想象。大量的预设和效果可让您为自己的图片制作动画，并在 Steam 创意工坊上分享它们，或者只为自己使用。</t>
+          <t>In 2013 the world was devastated by an apocalyptic event, annihilating almost all mankind and turning the Earth's surface into a poisonous wasteland. A handful of survivors took refuge in the depths of the Moscow underground, and human civilization entered a new Dark Age. &lt;br&gt;&lt;br&gt;The year is 2033. An entire generation has been born and raised underground, and their besieged Metro Station-Cities struggle for survival, with each other, and the mutant horrors that await outside. You are Artyom, born in the last days before the fire, but raised underground. Having never ventured beyond the city limits, one fateful event sparks a desperate mission to the heart of the Metro system, to warn the remnants of mankind of a terrible impending threat. &lt;br&gt;&lt;br&gt;Your journey takes you from the forgotten catacombs beneath the subway to the desolate wastelands above, where your actions will determine the fate of mankind. But what if the real threat comes from within?&lt;h2 class="bb_tag"&gt;Product Overview&lt;/h2&gt;&lt;br&gt;Metro 2033 Redux is the definitive version of the cult classic ‘Metro 2033’, rebuilt in the latest and greatest iteration of the 4A Engine for Next Gen. Fans of the original game will find the unique world of Metro transformed with incredible lighting, physics and dynamic weather effects. Newcomers will get the chance to experience one of the finest story-driven shooters of all time; an epic adventure combining gripping survival horror, exploration and tactical combat and stealth. &lt;br&gt;&lt;br&gt;All the gameplay improvements and features from the acclaimed sequel ‘Metro: Last Light’ have been transferred to Metro 2033 Redux – superior AI, controls, animation, weapon handling and many more – to create a thrilling experience for newcomers and veterans alike. With two unique play-styles, and the legendary Ranger Mode  included, Metro 2033 Redux offers hours of AAA gameplay for an incredible price.&lt;h2 class="bb_tag"&gt;Game Features&lt;/h2&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;ul class="bb_ul"&gt;&lt;strong&gt;Immerse yourself in the Moscow Metro -&lt;/strong&gt; witness one of the most atmospheric worlds in gaming brought to life with stunning next-gen visuals at 60FPSBrave the horrors of the Russian apocalypse - equip your gasmask and an arsenal of hand-made weaponry as you face the threat of deadly mutants, human foes, and the terrifying environment itself&lt;/ul&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;ul class="bb_ul"&gt;&lt;strong&gt;Rebuilt and Remastered for next-gen -&lt;/strong&gt; this is no mere &amp;quot;HD port.&amp;quot; Metro 2033 has been rebuilt in the vastly improved Last Light engine and gameplay framework, to create the definitive version of the cult classic that fans and newcomers alike can enjoy&lt;/ul&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;ul class="bb_ul"&gt;&lt;strong&gt;Two unique Play Styles : &amp;quot;Spartan&amp;quot; and &amp;quot;Survival&amp;quot; -&lt;/strong&gt; approach the game as a slow-burn Survival Horror, or tackle it with the combat skills of a Spartan Ranger in these two unique modes&lt;/ul&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;ul class="bb_ul"&gt;&lt;strong&gt;The legendary Ranger Mode returns -&lt;/strong&gt; dare you play the fearsome Ranger Mode? No HUD, UI, deadlier combat and limited resources combine to create the ultimate immersive experience&lt;/ul&gt;&lt;br&gt;Notice for OS X Yosemite 10.10.5 users with an Nvidia graphics card at or above the minimum specification listed below:&lt;br&gt;Currently separate drivers are available to fix performance issues specifically affecting Nvidia users who are using OS X Yosemite. These drivers are currently only compatible with OS X Yosemite 10.10.5 and can be found here &lt;a href="https://steamcommunity.com/linkfilter/?url=http://www.nvidia.com/download/driverResults.aspx/89538/en-us" target="_blank" rel=" noopener"  &gt;http://www.nvidia.com/download/driverResults.aspx/89538/en-us&lt;/a&gt;.&lt;br&gt;&lt;br&gt;Based on the internationally bestselling novel series by Dmitry Glukhovsky&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>838350</t>
+          <t>287390</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>太吾绘卷 The Scroll Of Taiwu</t>
+          <t>Metro: Last Light Redux</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">太吾绘卷 </t>
+          <t>地铁：最后的曙光 重制版</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>角色扮演,武术,沙盒,开放世界,策略</t>
+          <t>后末日,第一人称射击,氛围,动作,剧情丰富</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -701,39 +701,39 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2018年09月21日</t>
+          <t>2014年08月28日</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;欢迎大家加入《太吾绘卷》官方讨论群：&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;972367371  太吾绘卷交流7群&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;985094820  太吾绘卷交流8群 &lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;1030657107  太吾绘卷10群 &lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;760164332  太吾绘卷15群&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;901410916  太吾绘卷16群&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;概述&lt;/h2&gt;在《太吾绘卷》的世界中，你除了需要扮演神秘的“太吾氏传人”，还将以不同的处世立场——或善、或恶、或中庸——投身于纷繁复杂的江湖之中。&lt;br&gt;你不仅可以拜访世界各地的武林门派，学习种类繁多的功法绝艺；还可以与人义结金兰，或结下血海深仇；不仅可以兴建自己的村庄，经营各种产业；还可以与自己的挚爱生儿育女，缘定三生；直到你终于面对太吾氏的宿敌，决定世界的命运！&lt;h2 class="bb_tag"&gt;未知的江湖&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;你所创建的每一个太吾世界，都将是独一无二的——&lt;br&gt;完全随机生成的地图、完全随机生成的NPC、敌人。你的每次游戏都会是一次崭新的冒险。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;你能够从十五个风格迥异的武林门派中，学习到上千种功法绝艺；&lt;br&gt;从几乎任何NPC身上，学习到上百种中华传统技艺。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_0.png?t=1675305014" /&gt;&lt;h2 class="bb_tag"&gt;融合多种玩法&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;除RPG玩法外，《太吾绘卷》还融合了许多不同的游戏类型，如充满随机冲突的Roguelike要素；&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_1.png?t=1675305014" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;以及需要精心规划的模拟经营要素：建造、采集、扩建、经营、制造、维护等。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_2.png?t=1675305014" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;让你找回童心的促织玩法——捕捉最善斗的“大将军”与少林方丈来一次“虫上谈兵”。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_5.png?t=1675305014" /&gt;&lt;h2 class="bb_tag"&gt;“活的”NPC们&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;拥有各自人际关系、经历，会生老病死的数千名NPC；&lt;br&gt;你可以与他们结成各种各样的关系，甚至直接决定他们的生死。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_3.png?t=1675305014" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;你将会与你的另一半生儿育女。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;培养并将你的毕生功力传给下一位传人。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;在茫茫人海中，找寻你上一世的恋人。&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;细致的制造&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;通过采集、制造、修理、精制，&lt;br&gt;你可以完全凭借自己的双手打造任何兵器、护甲，炼制各式各样的丹药。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;拿起淬毒的兵器，穿上淬毒的衣衫，吃下被下毒的解毒药。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_4.png?t=1675305014" /&gt;&lt;h2 class="bb_tag"&gt;真实的武侠战斗&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;新奇的战斗模式，还原“见招拆招”、“草木皆可为剑”、“寸长寸强，寸短寸险”的战斗设计。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;你的每一刀、每一剑、每一掌，都会真实的击打在敌人身体的不同部位。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;搭配你的功法，运转你的内力，磨炼你的技艺和策略。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_6.png?t=1675305014" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;还有许多，期待你的发现。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;strong&gt;另外，我们也非常欢迎您发送邮件到 &lt;a href="mailto:business@conchship.net"&gt;business@conchship.net&lt;/a&gt; 与我们取得更多联系！&lt;/strong&gt;</t>
+          <t>It is the year 2034. Beneath the ruins of post-apocalyptic Moscow, in the tunnels of the Metro, the remnants of mankind are besieged by deadly threats from outside – and within. Mutants stalk the catacombs beneath the desolate surface, and hunt amidst the poisoned skies above.&lt;br&gt;&lt;br&gt;But rather than stand united, the station-cities of the Metro are locked in a struggle for the ultimate power, a doomsday device from the military vaults of D6. A civil war is stirring that could wipe humanity from the face of the earth forever. As Artyom, burdened by guilt but driven by hope, you hold the key to our survival – the last light in our darkest hour…&lt;h2 class="bb_tag"&gt;Product Overview:&lt;/h2&gt;&lt;br&gt;Metro: Last Light Redux is the definitive version of the critically acclaimed ‘Metro: Last Light’, rebuilt in the latest and greatest iteration of the 4A Engine for Next Gen.  Newcomers will get the chance to experience one of the finest story-driven shooters of all time; an epic adventure combining gripping survival horror, exploration and tactical combat and stealth. &lt;br&gt;&lt;br&gt;This definitive version also includes all previously released DLC, adding 10 hours of bonus single-player content to the huge solo campaign. Fans of the original game will notice new features and gameplay improvements, including new melee animations, the ability to check your watch and ammo supplies on the fly, and new full-body player animations.&lt;br&gt;&lt;br&gt;And those who favoured the more survival-horror oriented gameplay of the cult prequel ‘Metro 2033’ will find a new way to experience the campaign thanks to the introduction of two unique Play Styles – Survival and Spartan. The former transforms Last light from a more action-oriented stealth combat experience to a fraught, slow burn fight for survival. With the legendary Ranger Mode included to offer an extra layer of challenge and immersion, Metro: Last Light Redux offers hours of AAA gameplay for an incredible price.&lt;h2 class="bb_tag"&gt;Game Features&lt;/h2&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;ul class="bb_ul"&gt;&lt;strong&gt;Immerse yourself in the Moscow Metro -&lt;/strong&gt; witness one of the most atmospheric worlds in gaming brought to life with stunning next-gen visuals at 60FPSBrave the horrors of the Russian apocalypse - equip your gasmask and an arsenal of hand-made weaponry as you face the threat of deadly mutants, human foes, and the terrifying environment itself&lt;/ul&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;ul class="bb_ul"&gt;&lt;strong&gt;Rebuilt and Remastered for next-gen -&lt;/strong&gt; with all previous DLC content included, new modes and features, and many gameplay improvement, this is the definitive version of the critically acclaimed classic that fans and newcomers alike will enjoy&lt;/ul&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;ul class="bb_ul"&gt;&lt;strong&gt;Two unique Play Styles : &amp;quot;Spartan&amp;quot; and &amp;quot;Survival&amp;quot; -&lt;/strong&gt; approach the game as a slow burn Survival Horror, or tackle it with the combat skills of a Spartan Ranger in these two unique modes&lt;/ul&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;ul class="bb_ul"&gt;&lt;strong&gt;The legendary Ranger Mode returns -&lt;/strong&gt; dare you play the fearsome Ranger Mode? No HUD, UI, deadlier combat and limited resources combine to create the ultimate immersive experience&lt;/ul&gt;&lt;br&gt;Notice for OS X Yosemite 10.10.5 users with an Nvidia graphics card at or above the minimum specification listed below:&lt;br&gt;Currently separate drivers are available to fix performance issues specifically affecting Nvidia users who are using OS X Yosemite. These drivers are currently only compatible with OS X Yosemite 10.10.5 and can be found here &lt;a href="https://steamcommunity.com/linkfilter/?url=http://www.nvidia.com/download/driverResults.aspx/89538/en-us" target="_blank" rel=" noopener"  &gt;http://www.nvidia.com/download/driverResults.aspx/89538/en-us&lt;/a&gt;.&lt;br&gt;&lt;br&gt;Based on the internationally bestselling novel series by Dmitry Glukhovsky&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>843810</t>
+          <t>292030</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>完美的一天 / A Perfect Day</t>
+          <t>The Witcher 3: Wild Hunt</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>完美的一天</t>
+          <t>巫师3：狂猎</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>氛围,记叙,冒险,选择取向,单人</t>
+          <t>开放世界,角色扮演,剧情丰富,氛围,成人</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -743,39 +743,39 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2022年02月25日</t>
+          <t>2015年05月19日</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/843810/extras/20220818-103101.jpg?t=1683701644" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/843810/extras/steam商店页面-重游故园动画.gif?t=1683701644" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/843810/extras/重拾旧物.gif?t=1683701644" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/843810/extras/重回故人.gif?t=1683701644" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/843810/extras/重叙理想1.gif?t=1683701644" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/843810/extras/重播完美.gif?t=1683701644" /&gt;</t>
+          <t>获奖无数的划时代大作&lt;br&gt;升级增强后登陆次世代&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/ABOUT_600x225_ZHS.png?t=1693590732" /&gt;&lt;br&gt;&lt;br&gt;您是利维亚的杰洛特，收钱办事的怪物杀手。您可以在眼前这片怪物横行、饱受战火摧残的土地上尽情探索。您手上的委托？追踪预言之子——希里，一件足以改变世界面貌的活生生的武器。&lt;br&gt;&lt;br&gt;升级到最新版本后，《巫师3：狂猎》包含游戏现已推出的新功能和物品，以及内置照片模式、新增中文配音、Netflix 电视剧集《猎魔人》的联动道具：宝剑、盔甲、新外观等在内的所有新增内容！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/Updated_600x255__ZHS.png?t=1693590732" /&gt;&lt;br&gt;&lt;br&gt;抛开字幕的束缚，以前所未见的沉浸感体验白狼杰洛特横跨大陆的冒险。&lt;br&gt;• 基础版游戏、《石之心》和《血与酒》每一句对话现更由中文配音呈现。&lt;br&gt;• 由 CD PROJEKT RED 与饱受好评的《巫师之昆特牌》、《王权的陨落》和《赛博朋克 2077》配音团队联手打造。&lt;br&gt;&lt;br&gt;新世代升级更新&lt;br&gt;见证内陆前所未有的黑暗奇幻世界！该版本的《巫师3：狂猎》进行了多处图形和技术强化，包括大幅提升细节水平、一系列由社区创作并且最新开发的游戏模组、实时光线追踪等等——尽显当代 PC 的强劲机能。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/Monster_Slayer_600x255_ZHS.png?t=1693590732" /&gt;&lt;br&gt;&lt;br&gt;猎魔人身处的世界怪物横行。作为一支制衡力量，他们自小接受训练，通过变异来获得超人类的战斗技巧、力量和反应。&lt;br&gt;• 扮演一名职业怪物杀手，装备一系列可以升级的武器、变种魔药和战斗法术，无情地把对手大卸八块。&lt;br&gt;• 凶残的野兽徘徊于山间，狡猾的灵异掠食者潜伏在人烟稠密的城市暗巷，而您则要捕杀这些各色的奇异怪物。&lt;br&gt;• 把您赚取的奖赏用来升级武器，购买订制的盔甲，或者花在赛马、打牌、拳击，还有其它的日常娱乐生活上。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/Open_World_600x255_ZHS.png?t=1693590732" /&gt;&lt;br&gt;&lt;br&gt;巫师宏大的开放世界为玩家带来无尽的冒险，并且在规模、深度和复杂性等方面树立了新的标准。&lt;br&gt;• 遍历奇幻的开放世界：探索被遗忘的废墟、洞穴和沉船，与城市里的商人和矮人工匠做买卖，在开阔的平原、山地和海洋上进行狩猎。&lt;br&gt;• 与谋反的将领、阴险的女巫还有腐败的皇室打交道，替他们去完成见不得光的危险勾当。&lt;br&gt;• 做出超越善恶的选择，直面影响深远的后果。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/Child_of_Prophercy_600x255_ZHS.png?t=1693590732" /&gt;&lt;br&gt;&lt;br&gt;接下此生最为重要的一笔委托，追寻预言之子。那是一个可以拯救或是摧毁这个世界的关键。&lt;br&gt;• 根据古代精灵的预言，预言之子强大无比，是一件活生生的武器。而您则要在纷飞的战火中找到对方的下落。&lt;br&gt;• 和一心想要控制这个世界的残暴统治者、野外的精怪，乃至于来自来世的威胁斗智斗勇。&lt;br&gt;• 在这个或许并不值得拯救的世界里，左右自己的命运。</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>881100</t>
+          <t>375480</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Noita</t>
+          <t>Chronicon</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>巫婆Noita</t>
+          <t>像素黑暗史</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>物理,困难,类 Rogue,像素图形,迷宫探索</t>
+          <t>刷宝,动作角色扮演,迷宫探索,角色扮演,像素图形</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -785,39 +785,39 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2020年10月16日</t>
+          <t>2020年08月22日</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;《Noita》&lt;/strong&gt;是一个轻度 Rogue-like 的魔法动作游戏，在《Noita》的世界中，每个像素都有物理模拟。您可使用您自己创造的法术，在逐步生成的世界上一路探索、战斗、焚烧、熔毁、冰冻和蒸发，打开自己的前路。探索多样的环境，从煤矿到寒冷废土，深入寻求未知的神秘。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/881100/extras/radioactive-vat.png?t=1675987871" /&gt;&lt;li&gt;&lt;strong&gt;基于像素的物理模拟&lt;/strong&gt;：世界中的每个像素均有模拟。一切皆可燃烧、爆炸或熔毁。沐浴敌人的鲜血！进入拥有前所未有互动性的高度模拟世界。&lt;br&gt;    &lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;您自己的魔法&lt;/strong&gt;：在深入洞穴的同时，创造全新法术。使用魔法摧毁敌人，操纵你身旁的世界。&lt;br&gt;    &lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;逐渐生成的世界&lt;/strong&gt;：每次游玩都会探索独一无二的世界。深入探索，发现全新要素。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/881100/extras/cover-shooter2.png?t=1675987871" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;轻度 Rogue-like 动作&lt;/strong&gt;：死亡不可复生。死亡将始终伴随你，成为你游戏过程中迫在眉睫的威胁。尽管死亡，却也不必绝望：利用所学，在下此探险中走得更远。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;strong&gt;《Noita》&lt;/strong&gt;由 Nolla Games 开发。Nolla Games 是一家由 3 位独立游戏开发者创立的公司。3 名开发者过去均有自己的独立项目。&lt;br&gt;&lt;br&gt;游戏的 3 位负责人分别为：&lt;br&gt;&lt;br&gt;&lt;strong&gt;Petri Purho&lt;/strong&gt;&lt;br&gt;Petri 以《&lt;a href="https://store.steampowered.com/app/26900/Crayon_Physics_Deluxe/" target="_blank" rel=""  &gt;Crayon Physics Deluxe&lt;/a&gt;（蜡笔物理学）》创作人的身份广为人知。在他年轻时，还制作过众多小型免费游戏。除此之外，他也是不少桌面游戏的创造者；不过他没有将细节告诉任何人。-- 所以还是保密吧。&lt;br&gt;&lt;br&gt;&lt;strong&gt;Olli Harjola&lt;/strong&gt;&lt;br&gt;Olli 以斩获大奖的离奇科幻解谜游戏&lt;a href="https://store.steampowered.com/app/231160/The_Swapper/" target="_blank" rel=""  &gt;《The Swapper（交换者）》&lt;/a&gt;闻名。除独立游戏之外，音乐、现场视觉和编程语言，他也有所涉猎。&lt;br&gt;&lt;br&gt;&lt;strong&gt;Arvi Teikari&lt;/strong&gt;&lt;br&gt;Arvi，以 Hempuli 的名字广为人知。多年来，他曾发布有众多小型实验性游戏；由于为数实在众多，他甚至无法全部记得 。其中，他能回忆起是自己创作的游戏之一便是《&lt;a href="https://store.steampowered.com/app/736260/Baba_Is_You/" target="_blank" rel=""  &gt;Baba Is You&lt;/a&gt;（巴巴是你）》。</t>
+          <t>&lt;h2 class="bb_tag"&gt;故事&lt;/h2&gt;在一个最后的邪恶势力都已经倒下、最后一个任务已经被圆满完成、最后一个宝箱也已经被搜刮一空的世界里，会发生什么呢？&lt;br&gt;&lt;br&gt;&lt;br&gt;在这个世界里，旧日英雄们的伟大成就被一个伟大的魔法装置所永远铭记。这个装置的名字就叫做Chronicon。它能够开启一道属于旧日英雄们的记忆之门。每一年，都会有少数男女获取重现这些伟大旅程的荣耀。&lt;br&gt;而今年，这个幸运儿就是你...&lt;br&gt;&lt;br&gt;&lt;strong&gt;请注意:&lt;/strong&gt; &lt;i&gt;展示的视频和截图中的角色都是拥有成型装备的高级角色。旅途刚开始时，你可能并没这么暴力...&lt;/i&gt;&lt;h2 class="bb_tag"&gt;游戏特性&lt;/h2&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;5 个各自拥有完整故事的长篇游戏章节&lt;br&gt;&lt;/li&gt;&lt;li&gt;4个独特的职业：圣骑士、狂战士、守望者和术士&lt;br&gt;&lt;/li&gt;&lt;li&gt;随机生成的地牢 -- 每次游玩均有全新体验&lt;br&gt;&lt;/li&gt;&lt;li&gt;最多本地四人同时合作闯关（本地多人游玩，每个额外玩家需要一个额外的Xbox 360/one 手柄）&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持STEAM远程同乐&lt;br&gt;&lt;/li&gt;&lt;li&gt;超过400种带有特别能力的独特装备&lt;br&gt;&lt;/li&gt;&lt;li&gt;超过700种带有随机附魔和品质的装备，完全改变人物构建的装备能力，以及强力的套装！&lt;br&gt;&lt;/li&gt;&lt;li&gt;超过900种可供学习和提升的技能和专精&lt;br&gt;&lt;/li&gt;&lt;li&gt;无限专精等级带来的无限的角色成长&lt;br&gt;&lt;/li&gt;&lt;li&gt;额外的硬核铁人模式&lt;br&gt;&lt;/li&gt;&lt;li&gt;高级工艺 -- 使用附魔、镶嵌和符文提取系统打造你的神兵利器！&lt;br&gt;&lt;/li&gt;&lt;li&gt;后期内容包括了随机生成的无限地牢，BOSS，以及只有在后期才能解锁的加工机制&lt;br&gt;&lt;/li&gt;&lt;li&gt;完整的Xbox 360/one 手柄支持（可选）&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1086940</t>
+          <t>412020</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Baldur's Gate 3</t>
+          <t>Metro Exodus</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>博德之门3</t>
+          <t>地铁：离乡</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>角色扮演,选择取向,剧情丰富,角色自定义,冒险</t>
+          <t>后末日,第一人称射击,开放世界,单人,剧情丰富</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -827,81 +827,81 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2023年08月03日</t>
+          <t>2020年02月15日</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Larian_Steam_new_KeyArt_ready.gif?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;召集你的队伍，返回被遗忘的国度，开启一段充满友谊与背叛、牺牲与生存，以及至高无上力量诱惑的传奇故事。&lt;br&gt;&lt;br&gt;神秘的力量正在你体内苏醒，而这一切都来源于夺心魔种在你大脑里的寄生虫。反抗吧，将黑暗的力量反掌为用。你也可以选择接受这种腐化，变成终极的邪恶。&lt;br&gt;&lt;br&gt;来自《神界：原罪2》的创作团队所打造的次时代RPG，故事将在D&amp;amp;D（龙与地下城）的世界中展开。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Gather_new.gif?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;你可以从D&amp;amp;D玩家手册中的12个职业与11个种族中进行选择，或者直接扮演一个带有精心设计背景的起源英雄。无论你是踏上冒险之旅，还是去获取战利品，亦或是投身战斗，或者展开罗曼史，这些都将贯穿你在被遗忘的国度以及其他位面的冒险旅程。你可以选择单独游玩，或者是与最多三名队友一起进行联机游戏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/An_expansive_original_story.png?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;被劫持，被感染，陷入迷失。你正在变成一个怪物，但随着你体内的腐化力量的增长，你的力量也在增强。这力量可能能帮助你生存下来，但接受它的同时，你必将付出某种代价。然而，超越任何能力，你与队友之间建立的信任纽带可能会成为你最大的力量。在恶魔、诸神和邪恶的其他世界力量之间的冲突中，你将与队友共同决定被遗忘国度的命运。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Next_Gen_new.gif?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;利用全新的神界4.0引擎打造，《博德之门3》将为你提供前所未有的自由度，让你在这个充满角色、危险和欺诈的活跃世界中探索、尝试、互动，并获取实时的反馈。宏大的电影级叙事让你比以往任何时候都更接近你的角色。从被阴影诅咒的森林，到幽暗地域的神奇洞穴，再到博德之门本身的庞大城市，你的行动决定着冒险的过程，但你的选择将塑造你的遗产。你将被人们所铭记。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/No_adventure_will_be_the_same.png?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;被遗忘的国度是一个宏大、细节繁多、充满各色各样事物多元化的世界，到处都有等待被你发现的秘密——可互动的空间是探索的一个非常重要的部分。潜行，挖掘，推动物品，攀爬，还有跳跃，这些行动会贯穿你的整个旅途，从大地深处的幽暗地域，到地表城市闪亮的屋顶。你的每一个选择都会推动你的故事向前发展，每一个决定都会在世界上留下你的印记。你可以提升自己的角色、培养人际关系、树立敌人，并以自己的方式解决问题。每次游戏体验都是全新的无与伦比。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;最多可支持四名玩家的在线多人游戏&lt;br&gt;你可以将你的团队联合起来，同时攻击敌人，也可以将队伍分开，各自执行自己的任务和计划。一起制定完美的计划......或者在朋友们最意想不到的时候引入混乱元素。人际关系是很复杂的。尤其是当你脑中有寄生虫的时候。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;起源角色&lt;br&gt;7 位独一无二的起源角色为你带来精雕细琢的体验，每个人都有自己独特的特质、思想和世界观。他们的故事与总体叙事相互交错，而你的选择将决定这些故事的结局是救赎、拯救、统治，还是其他多种结局之一。你可以扮演原住民，欣赏他们的故事，也可以招募他们与你并肩作战。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;全新进化的回合制战斗&lt;br&gt;基于第五版《龙与地下城》规则。你可以体验基于团队战斗的主动权，和在战斗中不同决策带来的优势和劣势。我们增添了战地视角下的掷骰修正，也拓展了环境之间的交互性，增添了新的、更加灵活的战术和奖励，以让你在战斗中尽情展现你的策略和远见。三种难度设置可让您自定义战斗的挑战性。启用骰子加成来左右战斗，或在策略模式下进行游戏，以获得真正的硬核体验。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;前所未有的广度和深度&lt;br&gt;在 11 个种族（人类、吉斯洋基人、半兽人、矮人、精灵、卓尔、提夫林、半身人、半精灵、侏儒、龙裔）的基础上又增加了 31 个亚种，并从 12 个职业中分支出 46 个子职。在这个精雕细琢的世界中，600 多种法术和行动提供了近乎无限的互动自由。在这个世界中，探索是一种奖励，而玩家的主动性决定了旅程。我们独特的“角色创建器”具有前所未有的角色深度，其丰富的互动选项可确保无论你是谁，都会为你打造出独特的角色，一直到 12 级。超过 174 小时的过场动画确保无论你做出什么选择，过场动画都会跟随你的旅程——每一次游戏体验都是一次全新的电影之旅。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;复杂而深刻的浪漫故事&lt;br&gt;战争的威胁迫在眉睫地向博德之门袭来，夺心魔的入侵也即将来临，而友谊——尽管并非必要——也将加入你的旅途中。你将与沿途遇到的人建立起真实、充满活力的关系，至于他们会变成什么样，则取决于你自己。每个同伴都有自己的道德指南针，会对你在旅途中做出的选择做出反应。你将以怎样的代价坚持自己的理想？你会让爱左右你的行动吗？在通往博德之门的道路上建立起来的关系既是您在营地休息的片刻，也为你在冒险中做出的许多决定增添了砝码。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;高度定制的直播体验&lt;br&gt;当您点击“开始直播”时，您的直播将不会被如熊、粗口或缺乏着装等因素所干扰。《博德之门 3》提供了3种不同级别的适合直播的定制选项。您可以分别（或同时）禁用裸体和露骨的内容，并可以启用Twitch集成功能，直接与观众互动，正如我们在《地狱飨宴》展示会上所做的一样！有了这些选项，无论您选择以何种方式进行游戏，《博德之门 3》都能保证您的直播进行得顺利。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Final_Image_new.gif?t=1692294127" /&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>《Metro Exodus》是4A Games出品的第一人称射击游戏，具有史诗级的剧情，能让您在这一前所未有的沉浸式游戏世界中体验致命的战斗与潜行，感受探索与生存的恐怖。&lt;br&gt;&lt;br&gt;在广袤无际的关卡中探索俄罗斯的荒野，历经为期一年的故事线，度过春夏秋天，直至严酷的核冬天。&lt;br&gt;&lt;br&gt;《Metro Exodus》改编自Dmitry Glukhovsky的小说，会在至今最宏大的地铁冒险中继续讲述阿尔乔姆的故事。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;踏上无与伦比的旅途——登上经过多重改造的蒸汽火车“曙光号”，与数名幸存者一起，在东方的土地上探寻新的生活。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;体验沙盒式生存——动人心弦的故事，融合了经典地铁操作与全新的无边际关卡。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;美丽但危机四伏的世界——探索后启示录的俄罗斯荒野，炫目的日夜循环和动态天气让自然环境变得栩栩如生。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;致命的战斗与潜行——在荒野中收集材料，实地改装定制武器，与敌对的人类和变种怪展开紧张激烈的搏杀。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;您的选择会决定同伴的命运——并非所有同伴都能在旅途中幸存，您的决定会在动人的故事中产生深远的影响，也因此带来了极大的重复可玩性。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;极致氛围与沉浸感——黑暗中闪动的烛火、结霜面具后的喘息、夜风中传来的变种怪嘶吼——没有其他游戏能拥有地铁一般的沉浸式恐怖氛围……&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;黄金版：Metro Exodus游戏本体+季票（可游玩全部DLC）&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1244090</t>
+          <t>431960</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sea of Stars</t>
+          <t>Wallpaper Engine</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>星之海</t>
+          <t>Wallpaper Engine：壁纸引擎</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>角色扮演,像素图形,冒险,回合制战斗,剧情丰富</t>
+          <t>成人,实用工具,软件,动漫,设计与插画</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Game</t>
+          <t>Application</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2023年08月29日</t>
+          <t>2018年11月日</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-content-header.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;《星之海》承载着Sabotage工作室的目标&lt;/strong&gt;——用现代的方式重现经典角色扮演游戏：从回合制战斗到跌宕起伏的故事，从世界探索到细腻的环境交互，让大家重回独属怀旧游戏的美好旧时光。&lt;h2 class="bb_tag"&gt;经典和创新结合的回合制玩法 - “易”于上手 “乐”于精通&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-combat.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;掌控战斗的时机&lt;/strong&gt; - 看准时机按下交互键可以提升造成的伤害，或减少受到的伤害。&lt;br&gt;&lt;strong&gt;灵活的战斗方式&lt;/strong&gt; - 在战斗中使用多人组合技，充能攻击以及纳入战术考量的“Lock”系统，通过组合这些不同的攻击，甚至能够打断敌人正在准备的蓄力攻击或强大法术。&lt;br&gt;&lt;strong&gt;全身心地投入这款复古之作&lt;/strong&gt; - 不会有随机乏味的遭遇战，也不会有战场之间的频繁转换，更不会有无休无止打不完的敌人！&lt;h2 class="bb_tag"&gt;“不拘一格”的探索&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-traversal-flip-S.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;我们潜心研究平台游戏多年，打造了一套独特的移动系统!&lt;br&gt;您将不再受到传统的网格束缚，畅快地在世界中穿梭！&lt;br&gt;无论您想&lt;strong&gt;在池水中游弋，还是在岩壁上攀爬，或是轻快地从石阶上纵身跳下&lt;/strong&gt;，都可尽情体验。&lt;h2 class="bb_tag"&gt;独立的光照渲染&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-lighting-S.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;我们为游戏研发了一套独特的渲染管线!&lt;br&gt;《星之海》因此突破了2D像素美术游戏的限制，它让游戏充满了色彩，并且处处体现出优雅的细节！让你感受到一个更加真实、令人惊叹的游戏世界。&lt;h2 class="bb_tag"&gt;永恒的冒险与友谊&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-story-rich-adventure.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;这就是从Sabotage工作室的角色扮演游戏中可以期待的一切——经典的冒险与友谊故事。&lt;br&gt;&lt;br&gt;您可以与数十个原创角色一起踏上这段迷人的旅程：&lt;br&gt;&lt;strong&gt;时而波澜壮阔，犹如史诗长歌；&lt;br&gt;时而轻松诙谐，让人忍俊不禁。&lt;/strong&gt;&lt;br&gt;充满着意想不到的曲折与反转，让人心绪久久不能平复。&lt;h2 class="bb_tag"&gt;惬意的日常也是游戏的一部分&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-sabotage-touch.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;想试试停下冒险的脚步，在《星之海》的世界中打发打发时间？&lt;br&gt;去试试扬起帆出海！&lt;br&gt;或是生起篝火研究食谱？&lt;br&gt;还是拿出鱼竿甩两杆？&lt;br&gt;路过一家小酒馆进去听会儿歌，或者玩两把桌游...&lt;br&gt;每个系统的设计都是在尊重经典复古游戏的前提下，加入了崭新且独一无二的新体验。</t>
+          <t>Wallpaper Engine 使您可以在 Windows 桌面上使用动态壁纸。它支持各种类型的动画壁纸，包括 3D 和 2D 动画、网页、视频甚至某些应用程序。既可选择现有壁纸，也可创建自己的壁纸并在 Steam 创意工坊上分享！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/431960/extras/title_features_schinese.png?t=1626972334"&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;通过实时图形、视频、应用程序或网页让您的桌面充满活力。&lt;br&gt;&lt;/li&gt;&lt;li&gt;使用您喜欢的颜色实现动画壁纸个性化。&lt;br&gt;&lt;/li&gt;&lt;li&gt;使用可通过鼠标控制的交互式壁纸。&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持多种宽高比和原始分辨率，包括 16:9、21:9、16:10、4:3。&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持多显示器环境。&lt;br&gt;&lt;/li&gt;&lt;li&gt;壁纸将在玩游戏时暂停，以节省性能。&lt;br&gt;&lt;/li&gt;&lt;li&gt;在 Wallpaper Engine 编辑器中创建自己的动画壁纸。&lt;br&gt;&lt;/li&gt;&lt;li&gt;从基本图片制成新的动态壁纸动画，或为壁纸导入 HTML 或视频文件。&lt;br&gt;&lt;/li&gt;&lt;li&gt;在 Steam 创意工坊上分享和下载壁纸。&lt;br&gt;&lt;/li&gt;&lt;li&gt;Wallpaper Engine 可以与任何其他 Steam 游戏或应用程序同时使用。&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持的视频格式：mp4、WebM、avi、m4v、mov、wmv（对于本地文件，创意工坊仅支持 mp4）。&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持Razer Chroma和Corsair iCUE。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/431960/extras/partners.png?t=1626972334"&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/431960/extras/title_performance_schinese.png?t=1626972334"&gt;&lt;h2 class="bb_tag"&gt;&lt;/h2&gt;Wallpaper Engine 旨在提供有趣的体验，同时尽可能少占用系统资源。您可以选择在使用其他应用程序或全屏播放（包括无边框窗口模式）时自动暂停或完全停止壁纸，以免在玩游戏或工作时分散注意力或受到妨碍。许多微调质量和性能的选项使 Wallpaper Engine 可以完美地适合您的计算机。根据一般经验，3D、2D 和基于视频的壁纸表现最佳，而网页和应用程序需要占用您系统中更多的资源。强烈建议您使用专用 GPU，但不是必要要求。&lt;h2 class="bb_tag"&gt;&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/431960/extras/title_workshop_schinese.png?t=1626972334"&gt;&lt;h2 class="bb_tag"&gt;&lt;/h2&gt;Steam 创意工坊中提供超过 700,000张免费壁纸，而且每天都会上传新壁纸！找不到适合您心情的壁纸？通过使用 Wallpaper Engine 编辑器从图片、视频、网页或应用程序创建自己的动画壁纸，尽情发挥您的想象。大量的预设和效果可让您为自己的图片制作动画，并在 Steam 创意工坊上分享它们，或者只为自己使用。</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1693980</t>
+          <t>617290</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Dead Space</t>
+          <t>Remnant: From the Ashes</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>死亡空间</t>
+          <t>遗迹：灰烬重生</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>第三人称射击,科幻,太空,射击,生存恐怖</t>
+          <t>类魂系列,动作,角色扮演,合作,冒险</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -911,39 +911,39 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2023年01月28日</t>
+          <t>2019年8月20日</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>科幻生存恐怖经典作品《死亡空间》宣告回归，经过完全重制，旨在为玩家提供更有深度、更身临其境的体验。这款重制版游戏为玩家带来了令人惊叹的视觉保真度、充满悬疑感的氛围音效以及游戏性改进，同时尽力忠实还原初版游戏的惊险构思。&lt;br&gt;&lt;br&gt;艾萨克·克拉克是一名普通的工程师，受命修复巨型采矿飞船 USG 石村号，结果发现事态超乎想象。飞船上的船员已被屠戮，而艾萨克心爱的伴侣妮可也在船上不知所踪。&lt;br&gt;&lt;br&gt;现在，艾萨克独自一人，他可以依靠的只有自己的工程工具和技能。随着石村号上可怕谜团的真相浮出水面，他必须尽快找到妮可。艾萨克被充满敌意，名为“尸变体”的生物团团包围，面临着一场生存之战。他不仅要对抗飞船上不断升级的恐怖情形，还要面对自己即将崩溃的理智。&lt;br&gt;&lt;br&gt;&lt;strong&gt;尽情沉浸在次世代科幻恐怖游戏中&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1693980/extras/DS_GP_USP1_610px.gif?t=1684172906" /&gt;&lt;br&gt;&lt;br&gt;这款经典科幻恐怖游戏经过完全重制，带来了视觉保真度的提升和 3D 氛围音效。从精致得令人难以置信的房间和满是被屠戮船员的工作间，到孤寂太空飞船上阴森的氛围音效，在这震撼人心的科幻场景中，出人意料、扣人心弦的时刻接连涌现，等着你来探索。&lt;br&gt;&lt;br&gt;&lt;strong&gt;揭开 USG 石村号上的谜团&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1693980/extras/DS_GP_USP2_610px.gif?t=1684172906" /&gt;&lt;br&gt;&lt;br&gt;工程师艾萨克·克拉克和 USG 圣室号的船员们起初只是在执行例行维修任务，但随着船上恐怖事件背后的真相逐渐被揭开，维修任务迅速演变成一场生存之战。跟随徐徐展开的叙事体验，通过遇难船员们的临终日志以及与少数幸存者的邂逅，揭开 USG 石村号各种事件背后的黑幕。&lt;br&gt;&lt;br&gt;&lt;strong&gt;随机应变，死地求生&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1693980/extras/USP3_ageGate_610px.gif?t=1684172906" /&gt;&lt;br&gt;&lt;br&gt;采用定义战略游戏的游玩方式，对抗 USG 石村号上的梦魇。调整并升级艾萨克的工程工具，用你的创意把敌人精准击毙。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1693980/extras/Dead_Space_PC_Specs_610px_STEAM_updated.png?t=1684172906" /&gt;</t>
+          <t>&lt;i&gt;Remnant: From the Ashes&lt;/i&gt; is a third-person survival action shooter set in a post-apocalyptic world overrun by monstrous creatures. As one of the last remnants of humanity, you’ll set out alone or alongside up to two other players to face down hordes of deadly enemies and epic bosses, and try to carve a foothold, rebuild, and then retake what was lost.&lt;br&gt;&lt;br&gt;&lt;strong&gt;A REMNANT OF MANKIND&lt;/strong&gt;&lt;br&gt;The world has been thrown into chaos by an ancient evil from another dimension. Humanity is struggling to survive, but they possess the technology to open portals to other realms and alternate realities. They must travel through these portals to uncover the mystery of where the evil came from, scavenge resources to stay alive, and fight back to carve out a foothold for mankind to rebuild...&lt;br&gt;&lt;br&gt;&lt;strong&gt;ENDLESS FANTASTIC REALMS AWAIT&lt;/strong&gt;&lt;br&gt;Explore dynamically-generated worlds that change each time you play through them, creating new maps, enemy encounters, quest opportunities, and in-world events. Each of the game’s four unique worlds is filled with monstrous denizens and environments that will provide fresh challenges with each playthrough. Adapt and explore… or die trying.&lt;br&gt;&lt;br&gt;&lt;strong&gt;SCAVENGE. UPGRADE. SPECIALIZE.&lt;/strong&gt;&lt;br&gt;Overcome tough-as-nails enemies and epic bosses throughout hostile environments to earn experience, valuable loot and upgrade materials you can use to build a wicked arsenal of weapons, armor, and modifications to approach each encounter dozens of unique ways.&lt;br&gt;&lt;br&gt;&lt;strong&gt;STRENGTH IN NUMBERS.&lt;/strong&gt;&lt;br&gt;Invading other worlds to seek an end to the Root is dangerous and survival is far from guaranteed. Team up with up to two other players to increase your chances of survival. Teamwork is necessary to make it through the game’s toughest challenges… and unlock its greatest rewards.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1716740</t>
+          <t>640820</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Starfield</t>
+          <t>Pathfinder: Kingmaker</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>星空</t>
+          <t>开拓者：拥王者</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>角色扮演,单人,太空,开放世界,科幻</t>
+          <t>角色扮演,团队角色扮演,奇幻,电脑角色扮演,等角视角</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -953,94 +953,921 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2023年09月06日</t>
+          <t>2018年09月25日</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>《Starfield》出自打造过《Starfield》是由载誉无数、曾为大家带来《The Elder Scrolls V: Skyrim》和《Fallout 4》的Bethesda Game Studios睽违超过25年所打造的第一个全新宇宙。这款新一代角色扮演游戏将背景设定在茫茫宇宙。在这里，你可以创建任意角色，探索世界并体验前所未有的自由。踏上这趟史诗般的旅程，发掘人类文明的终极奥秘。&lt;br&gt;&lt;br&gt;2330年，人类已跨出我们所在的太阳系，在新的星球上定居下来，太空旅行也已成为人类的日常。在这款Bethesda Game Studios迄今为止最宏大的游戏里，你将加入群星组织这个在星系中寻找稀有神器的太空探险者团体，展开探索广袤宇宙的旅程。&lt;h2 class="bb_tag"&gt;传颂你的故事&lt;/h2&gt;在《Starfield》中，最重要的故事将由你亲自通过你的角色述说。自定义外观并决定背景和特征，启航展开属于你的星际之旅。你会是经验老道的探险家、充满魅力的外交官、诡密的电子情报贩，或是独树一帜的人物？选择权都在你手上。由你决定想要打造什么样的角色，有什么样的发展。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/TellYourStory_v3.gif?t=1692798833" /&gt;&lt;h2 class="bb_tag"&gt;探索外太空&lt;/h2&gt;在群星间冒险，探索超过一千个行星。造访繁华的都市、探索充满危险的基地，以及穿越荒野的风景。认识令人难忘的角色并加以招募、参与各种阵营的冒险，在定居星系群中到处展开任务。随时都有新的故事或体验等你来发掘。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/ExploreSpace_v3.gif?t=1692798833" /&gt;&lt;h2 class="bb_tag"&gt;指挥你梦想中的飞船&lt;/h2&gt;驾驶及指挥你梦想中的飞船。打造属于自己的飞船外观、改造武器和护盾等重要系统，以及分配船员为你提供独特加成。在深远的太空中，你将遭遇高风险的近距空战、随机任务、在星际站停驻，甚至登上并夺取敌人的飞船，为自己增添收藏品。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/CaptainShip_v3.gif?t=1692798833" /&gt;&lt;h2 class="bb_tag"&gt;发掘、收集、打造&lt;/h2&gt;探索行星并发掘各种动植物，以及制作药物、食物、装备和武器所需的各种资源。建造哨站并雇用工作人员自动获得材料，并建立货运链接以在哨站间运送资源。将这些原材料投注在研究项目中以解锁独特的制造配方。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/DiscoverCollectBuild_v3.gif?t=1692798833" /&gt;&lt;h2 class="bb_tag"&gt;武器上膛&lt;/h2&gt;宇宙中危机四伏。精细的战斗系统为你提供处理各种状况的工具。无论你喜欢长射程步枪、激光武器或炸药，每种武器皆可改装以符合你的游戏风格。零重力环境为战斗增添了混乱的华丽场面，飞行背包则为玩家带来前所未有的自由机动性。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/LockandLoad_v3.gif?t=1692798833" /&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/640820/extras/Gif_02.jpg?t=1685002833" /&gt;&lt;br&gt;&lt;br&gt;在18,000多名众筹平台Kickstarter支持者、叙事设计师Chris Avellone和作曲家Inon Zur的共同帮助下，Owlcat Games以广受喜爱的开拓者桌面世界为背景，自豪地为您带来首款等角电脑角色扮演游戏。享受经典角色扮演游戏体验，诸如博德之门、结果1和2以及奥妙。探索并征服失窃之地，统治您不断壮大的王国！&lt;br&gt;&lt;br&gt;根据玩家的反馈和建议，此版本游戏已进行改进并建立在原版的基础上。此版本包括：&lt;br&gt;• 新增多项丰富的游戏内容和数十种生活质量的功能&lt;br&gt;• 打造角色的新能力和方法，包括一款全新类别&lt;br&gt;• 新物品和武器&lt;br&gt;• 改善平衡，特别是在游戏一开始和最后两个章节&lt;br&gt;• 已强化的王国管理系统，无论是平衡方面， 还是在可用性和玩家舒适性方面&lt;br&gt;• 增加全球地图上各种随机遭遇的情况&lt;br&gt;• 自游戏首发以来所进行的数千个修复和改进&lt;br&gt;&lt;br&gt;探索失窃之地，即一个几世纪以来一直备受争议的地区。数百个王国曾经在这片土地上起起落落，现在是时候让您做下自己的专属标记了 - 通过建立自己的王国！因此，您需要征服严酷的荒野、敌对国家的威胁以及来自法庭的挑战，才能够生存下来。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/640820/extras/Gif_01_V2_-_Copy.jpg?t=1685002833" /&gt;&lt;br&gt;&lt;br&gt;您可以使用一系列的等级和权利，包括专业原型、强大奥术和神圣法术，以及选择多种等级能力、技能和专长，来定制自己的角色。《开拓者》允许玩家创造出既适合自己游戏风格又符合自己个性特征的主人公（或反派角色）。&lt;br&gt;&lt;br&gt;&lt;br&gt;您将邂逅各种同伴和NPCs，包括开拓者设置中的标志性人物。您需要决定相信谁、仔细观察谁，因为每个同伴都有一个与您不同的日程、路线和目标。您的旅程将成为他们的旅程，而您将帮助他们塑造当下和未来的生活。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/640820/extras/Gif_04_-_Copy.jpg?t=1685002833" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;征服新的地区，宣告它们归您所有，在荒野上创造自己的王国。虽然经典的地牢爬行和探索依然是此次冒险的核心，但外交、政治和王国发展也是挑战的一部分。请在探索古墓和废墟时，以及在法庭上处理政治事务时，好好选择您的盟友，并与其保持密切的关系。&lt;br&gt;&lt;br&gt;您的王国是对您自己在游戏中的角色和选择的反映。它是由您的联盟、盟友以及您对人民的领导能力塑造而成的活生生的东西。你的王国不仅可以扩张，使您能够开疆扩地建立新的城镇和社区一展才华，而且首都城市也会按照您作出的决定、政策、乃至你所选择的盟友而改变。当王国发展壮大后，一些派系和邻国会前来寻求帮助并考验你的实力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/640820/extras/Gif_03.jpg?t=1685002833" /&gt;&lt;br&gt;&lt;br&gt;探索 - 征服 - 统治！&lt;br&gt;&lt;br&gt;开拓者角色扮演游戏是世界上最古老的奇幻角色扮演游戏3.5条规则的进化，而此款游戏正式由Paizo, Inc基于成千上万像你一样的玩家的反馈意见设计而成的。无论你是开拓者®宇宙中的新玩家，还是经验丰富的老玩家，《开拓者：拥王者》正是那款您一直以来翘首以盼的电脑角色扮演游戏。</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1790230</t>
+          <t>682990</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Wallpaper Engine - Editor Extensions</t>
+          <t>Drug Dealer Simulator</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Wallpaper Engine - 编辑器扩展</t>
+          <t>毒枭模拟器</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>休闲,独立,照片编辑,实用工具,动画制作和建模</t>
+          <t>模拟,动作,独立,单人,资源管理</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>DLC</t>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.0</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2021年11月26日</t>
+          <t>2020年04月16日</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>免费的Wallpaper Engine编辑器扩展 DLC 为该编辑器添加了高级功能。 此附加组件需要大量磁盘空间，我们只建议为想要在编辑器中使用这些高级功能来创建新墙纸的用户安装编辑器扩展。 所有订阅者都可以使用通过此附加组件创建的壁纸，而无需安装编辑器扩展。&lt;br&gt;&lt;br&gt;&lt;strong&gt;如果您不确定您是否要使用它，请不要安装此扩展。 如果您尝试使用任何需要它的功能，Wallpaper Engine 编辑器将推荐此扩展程序。&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;包含的功能&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;使用机器学习从单个图像生成深度图。&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;a href="https://store.steampowered.com/app/1708850/Drug_Dealer_Simulator_2/" target="_blank" rel=""  id="dynamiclink_3" &gt;https://store.steampowered.com/app/1708850/Drug_Dealer_Simulator_2/&lt;/a&gt;&lt;br&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/yW6mSad" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/682990/extras/join_our_discord_dds.png?t=1690793384" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;如何白手起家打造犯罪帝国，又能免于法律制裁与良心的谴责？&lt;strong&gt;走进模拟世界！&lt;/strong&gt;现在就钻入漆黑巷道，一探地下毒品交易的惊险刺激。&lt;br&gt;&lt;br&gt;6 项免费超大规模更新，加入全新场景、视觉效果、机制、角色、装饰物品和更多丰富内容，享受更丰富炫目的游戏过程，带给你完整的 DDS 体验。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/682990/extras/dds_1.gif?t=1690793384" /&gt;&lt;h2 class="bb_tag"&gt;聚沙成塔！&lt;/h2&gt;&lt;br&gt;在破旧的出租屋开创你的传奇人生。称霸一方，招兵买马，开设实验室，训练手下。成为街头黑色交易的老大，只手遮天。&lt;br&gt;&lt;br&gt;&lt;strong&gt;但要多加小心！&lt;/strong&gt;犯罪道路也容易翻车…&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/682990/extras/dds_2.gif?t=1690793384" /&gt;&lt;h2 class="bb_tag"&gt;走私货物&lt;/h2&gt;&lt;br&gt;从海外贩毒集团处购买毒品入境、躲避追捕，寻找容身之处。可分销给散户，也可跟帮派谈谈大买卖。&lt;br&gt;&lt;br&gt;记住一条金科玉律：做个低调聪明人。每个拐角处都可能闪出你的仇家，缉毒局更是从不休假。&lt;br&gt;&lt;br&gt;&lt;strong&gt;怕了吗？&lt;/strong&gt;消灭恐惧的最好办法就是面对恐惧。俗话说，狭路相逢勇者胜！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/682990/extras/dds_3.gif?t=1690793384" /&gt;&lt;h2 class="bb_tag"&gt;开设毒品实验室&lt;/h2&gt;&lt;br&gt;把握住机会，建立自己的生产实验室。把空房屋改造成生产冰、摇头丸和白粉的实验室。训练毒贩成为实验室助手，完全不需要任何外界帮助。&lt;br&gt;&lt;br&gt;记住，这活儿可不是小打小闹，你最好票子管够！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/682990/extras/dds_4.gif?t=1690793384" /&gt;&lt;h2 class="bb_tag"&gt;只手遮天&lt;/h2&gt;&lt;br&gt;你的人生目标？权利，金钱，尊重。万事小心。别得罪自己的客户……至少要有个度。找到正确的合作伙伴，别被逮住，没准你真能活到发财的那一天！&lt;br&gt;&lt;br&gt;挣了大钱，当然也有花钱的地方。用利润扩张自己的帝国，添置新设备，请几个帮手，替你干活，训练你的手下，或者买栋豪宅玩命炫富。&lt;br&gt;&lt;br&gt;&lt;strong&gt;疯狂挣钱，疯狂嗑药，疯狂挥霍……！&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;游戏特色：&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;从毒贩集团手里走私货；&lt;br&gt;&lt;/li&gt;&lt;li&gt;将你的货一路平安带回自己的窝点；&lt;br&gt;&lt;/li&gt;&lt;li&gt;自制配方，分袋包装出售；&lt;br&gt;&lt;/li&gt;&lt;li&gt;从向街头混混零售做起，最后向黑帮批发；&lt;br&gt;&lt;/li&gt;&lt;li&gt;规划战略，躲开警察巡逻和缉毒突查；&lt;br&gt;&lt;/li&gt;&lt;li&gt;扩张地盘，夯实力量，雇人办事，与黑帮大佬做交易；&lt;br&gt;&lt;/li&gt;&lt;li&gt;开设实验室，训练实验室助手，生产自己的“硬货”；&lt;br&gt;&lt;/li&gt;&lt;li&gt;干掉竞争对手，毒品之路一家独大；&lt;br&gt;&lt;/li&gt;&lt;li&gt;购买豪宅，装饰房屋，玩命炫富；&lt;br&gt;&lt;/li&gt;&lt;li&gt;发展业务，挣钱投资，从容面对危险，在犯罪道路上越走越远。&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>692850</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Bloodstained: Ritual of the Night</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>赤痕：夜之仪式</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>类银河战士恶魔城,角色扮演,动作,女性主角,冒险</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2019年06月18日</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>《赤痕·：夜之仪式》是一款以探索为主的横向卷轴动作角色扮演游戏，在内容丰富的游戏设定中融入你所了解和喜爱的银河恶魔城类型游戏的所有最佳特色。游戏由505 Games全球发行，2P Games在大中国地区提供联合发行支持。&lt;br&gt;&lt;br&gt;&lt;br&gt;扮演米丽亚姆，一个被炼金术士诅咒而导致身体正慢慢变成水晶的孤儿。为了拯救她自己，事实上还有所有人类，她必须通过奋力战斗闯过一座充满恶魔的城堡，这座城堡由她的老朋友吉贝尔召唤而来，吉贝尔的身心已经变成了水晶，不再是一副血肉之躯。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;u&gt;游戏具备哪些特色？&lt;/u&gt;&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/692850/extras/Castle_Dips.gif?t=1661299121" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;通过未来的内容更新，13个免费DLC。 “速度恶魔”更新包含速度运行模式，Boss Rush Mode和Pure Miriam服装在发布时可用！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/692850/extras/Action_Jackson.gif?t=1661299121" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;紧凑迷人且令人满意的游戏玩法，搭配情节丰富的全新剧情，承袭了著名“Igavania”游戏教父五十岚孝司的哥特式黑暗风格。&lt;br&gt;剧情过场动画和 NPC 互动由全明星阵容配音，包括戴维·黑特、雷·蔡斯和埃丽卡·林贝克等演员。（说真的，我们在这款游戏中采用了许多配音演员大咖，真是有点疯狂...）&lt;br&gt;&lt;br&gt;&lt;br&gt;总共三个可扮演的角色，只剩最后一个神秘角色尚未公布…&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/692850/extras/Dress_Up.gif?t=1661299121" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;大量武器和咒语，可以强化、升级和对其外观进行自定义。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/692850/extras/TheOleDragonShootSamuraiGame.gif?t=1661299121" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;精美的 2.5D 画面：在 2D 游戏环境中悉心制作 3D 模型。这意味着具备许多“普通”2D 无法实现的酷炫技巧…&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;u&gt;未来规划&lt;/u&gt;&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;从本 Steam 页面的更新到游戏各个方面的全部内容，未来将发布大量公告和更新。这将是一次疯狂的旅程。</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>703080</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Planet Zoo</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>动物园之星</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>管理,模拟,建造,沙盒,自然</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2019年11月05日</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>在《动物园之星》中打造一个野生动物世界。由《过山车之星》(Planet Coaster) 和《动物园大亨》(Zoo Tycoon) 的开发者团队制作，将为你带来极致的动物园模拟游戏体验。游戏中栩栩如生的动物能够思考且富有感情，它们会探索你打造的世界。体验游历世界的剧情模式，或是在沙盒模式中自由挥洒你的想象力。创造独特的栖息地和广阔风景，做出重大决定和关键选择，并在建造及管理世上最狂野动物园的同时，让你的动物茁壮成长。&lt;br&gt;&lt;br&gt;&lt;strong&gt;野性世界，模拟无界&lt;/strong&gt;&lt;br&gt;&lt;br&gt;见识各种令人惊叹的动物。从顽皮的幼狮到雄伟的大象，《动物园之星》中的每种动物都是能够思考且富有感情的个体，并具有独特的外形和性格。打造精细的动物栖息地，给动物如同原始自然环境的家园，研究并管理每个物种，让它们生长茁壮，并协助动物组织家庭、养育后代。&lt;br&gt;&lt;br&gt;&lt;strong&gt;环环相扣的管理&lt;/strong&gt;&lt;br&gt;&lt;br&gt;管理一个栩栩如生的惊奇世界，你做的每个决定都会对这世界产生影响。你可以聚焦整体大局，也可以亲手调整最微小的细节。展示极具特色的动物来惊艳游客，进行新研究来发展动物园，并让培育的动物后代回归大自然。在这个重视动物福利和保育的世界里，你的决定将影响无数生命。&lt;br&gt;&lt;br&gt;&lt;strong&gt;创意无极限&lt;/strong&gt;&lt;br&gt;&lt;br&gt;《动物园之星》以组件为基础的强大建造工具，能让你轻松打造出独一无二的动物园。你的每个创新决定都会影响动物的生活和游客的游园体验。尽情挥洒你的想象力，你可以凿出湖泊河流、塑造山丘峻岭、铺设道路、雕出洞穴，并利用众多独特主题和上百种建筑组件，打造出令人叹为观止的动物园。&lt;br&gt;&lt;br&gt;&lt;strong&gt;分享和激发灵感&lt;/strong&gt;&lt;br&gt;&lt;br&gt;加入互相串连的社区，在 Steam 创意工坊分享世上最有创意的动物栖息地、风景，甚至是整个动物园。看着你的独创设计出现在世界各地玩家的动物园中，或是每天探索《动物园之星》社区上的全新内容。</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>768300</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Zhulik.exe</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Zhulik.exe</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>独立,休闲,模拟,欢乐,经济</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2017年12月28日</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>&lt;strong&gt;Experimental experience!&lt;/strong&gt;&lt;br&gt;Feel like a trader and buy magical product cheaper to sell it with extra charge.&lt;br&gt;Grow your capital in the fascinating and colorful adventures of the Rogue.&lt;br&gt;&lt;br&gt;- Earn money by using the simple &amp;quot;Buy&amp;amp;Sell&amp;quot; scheme.&lt;br&gt;- Put money to the bank and earn more!&lt;br&gt;- Borrow money to return more!&lt;br&gt;- Spend money on upgrades&lt;br&gt;- Hire an oracle to predict the product cost&lt;br&gt;- Earn 1 000 000 money to win!&lt;br&gt;&lt;br&gt;&lt;strong&gt;Languages available in the game:&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; English&lt;br&gt;&lt;/li&gt;&lt;li&gt; German&lt;br&gt;&lt;/li&gt;&lt;li&gt; Russian&lt;br&gt;&lt;/li&gt;&lt;li&gt; Portuguese&lt;br&gt;&lt;/li&gt;&lt;li&gt; Estonian&lt;br&gt;&lt;/li&gt;&lt;li&gt; Ukrainian&lt;br&gt;&lt;/li&gt;&lt;li&gt; Czech&lt;br&gt;&lt;/li&gt;&lt;li&gt; Dutch&lt;br&gt;&lt;/li&gt;&lt;li&gt; Spanish&lt;br&gt;&lt;/li&gt;&lt;li&gt; Chinese (Traditional)&lt;br&gt;&lt;/li&gt;&lt;li&gt; Swedish&lt;br&gt;&lt;/li&gt;&lt;li&gt; Italian&lt;br&gt;&lt;/li&gt;&lt;li&gt; Polish&lt;br&gt;&lt;/li&gt;&lt;li&gt; French&lt;br&gt;&lt;/li&gt;&lt;li&gt; Belarusian&lt;br&gt;&lt;/li&gt;&lt;li&gt; Turkish&lt;br&gt;&lt;/li&gt;&lt;li&gt; Portuguese-Brazil&lt;br&gt;&lt;/li&gt;&lt;li&gt; Danish&lt;/li&gt;&lt;/ul&gt;Looking for: Arabic, Greek, Japanese, Norwegian, Simplified Chinese, Thai, Bulgarian, Finnish, Hungarian, Korean&lt;br&gt;&lt;a href="http://steamcommunity.com/app/768300/discussions/0/1621726179569053008" target="_blank" rel=""  &gt; Looking for translators! &lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>838350</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>太吾绘卷 The Scroll Of Taiwu</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">太吾绘卷 </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>角色扮演,武术,沙盒,开放世界,策略</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2018年09月21日</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>&lt;strong&gt;欢迎大家加入《太吾绘卷》官方讨论群：&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;972367371  太吾绘卷交流7群&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;985094820  太吾绘卷交流8群 &lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;1030657107  太吾绘卷10群 &lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;760164332  太吾绘卷15群&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;901410916  太吾绘卷16群&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;概述&lt;/h2&gt;在《太吾绘卷》的世界中，你除了需要扮演神秘的“太吾氏传人”，还将以不同的处世立场——或善、或恶、或中庸——投身于纷繁复杂的江湖之中。&lt;br&gt;你不仅可以拜访世界各地的武林门派，学习种类繁多的功法绝艺；还可以与人义结金兰，或结下血海深仇；不仅可以兴建自己的村庄，经营各种产业；还可以与自己的挚爱生儿育女，缘定三生；直到你终于面对太吾氏的宿敌，决定世界的命运！&lt;h2 class="bb_tag"&gt;未知的江湖&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;你所创建的每一个太吾世界，都将是独一无二的——&lt;br&gt;完全随机生成的地图、完全随机生成的NPC、敌人。你的每次游戏都会是一次崭新的冒险。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;你能够从十五个风格迥异的武林门派中，学习到上千种功法绝艺；&lt;br&gt;从几乎任何NPC身上，学习到上百种中华传统技艺。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_0.png?t=1675305014" /&gt;&lt;h2 class="bb_tag"&gt;融合多种玩法&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;除RPG玩法外，《太吾绘卷》还融合了许多不同的游戏类型，如充满随机冲突的Roguelike要素；&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_1.png?t=1675305014" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;以及需要精心规划的模拟经营要素：建造、采集、扩建、经营、制造、维护等。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_2.png?t=1675305014" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;让你找回童心的促织玩法——捕捉最善斗的“大将军”与少林方丈来一次“虫上谈兵”。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_5.png?t=1675305014" /&gt;&lt;h2 class="bb_tag"&gt;“活的”NPC们&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;拥有各自人际关系、经历，会生老病死的数千名NPC；&lt;br&gt;你可以与他们结成各种各样的关系，甚至直接决定他们的生死。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_3.png?t=1675305014" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;你将会与你的另一半生儿育女。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;培养并将你的毕生功力传给下一位传人。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;在茫茫人海中，找寻你上一世的恋人。&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;细致的制造&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;通过采集、制造、修理、精制，&lt;br&gt;你可以完全凭借自己的双手打造任何兵器、护甲，炼制各式各样的丹药。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;拿起淬毒的兵器，穿上淬毒的衣衫，吃下被下毒的解毒药。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_4.png?t=1675305014" /&gt;&lt;h2 class="bb_tag"&gt;真实的武侠战斗&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;新奇的战斗模式，还原“见招拆招”、“草木皆可为剑”、“寸长寸强，寸短寸险”的战斗设计。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;你的每一刀、每一剑、每一掌，都会真实的击打在敌人身体的不同部位。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;搭配你的功法，运转你的内力，磨炼你的技艺和策略。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_6.png?t=1675305014" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;还有许多，期待你的发现。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;strong&gt;另外，我们也非常欢迎您发送邮件到 &lt;a href="mailto:business@conchship.net"&gt;business@conchship.net&lt;/a&gt; 与我们取得更多联系！&lt;/strong&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>843810</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>完美的一天 / A Perfect Day</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>完美的一天</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>氛围,记叙,冒险,选择取向,单人</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.9</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2022年02月25日</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/843810/extras/20220818-103101.jpg?t=1683701644" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/843810/extras/steam商店页面-重游故园动画.gif?t=1683701644" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/843810/extras/重拾旧物.gif?t=1683701644" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/843810/extras/重回故人.gif?t=1683701644" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/843810/extras/重叙理想1.gif?t=1683701644" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/843810/extras/重播完美.gif?t=1683701644" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>851850</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DRAGON BALL Z: KAKAROT</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>七龙珠Z 卡卡洛特</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>动作,角色扮演,动漫,开放世界,格斗</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2020年01月17日</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/851850/extras/DBZK_SteamGif_GvP.gif?t=1692288469" /&gt;&lt;br&gt;・体验七龙珠Z的壮烈事迹及轻松的小品故事，本作还收录了首次针对龙珠传说热门话题的解答！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/851850/extras/DBZK_SteamGif_GvF.gif?t=1692288469" /&gt;&lt;br&gt;・畅玩不同于其他作品、最具指标性的七龙珠Z战斗。玩家可在广阔的战场上与最经典的对手（拉帝兹、弗力札、塞鲁……等等）展开史诗级大战，请透过角色扮演壮大自身的力量并接受各方的挑战吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/851850/extras/DBZK_SteamGif_SS.gif?t=1692288469" /&gt;&lt;br&gt;・除战斗外，玩家也可以像Z战士一样在游戏里钓鱼、飞行、进食、训练、进行龙珠传奇故事里的决斗、与龙珠的各角色交朋友并缔结深厚的情谊！&lt;br&gt;&lt;br&gt;《七龙珠Z 卡卡洛特》里可体验到悟空及其他Z战士的故事！除了史诗级的对战外，在七龙珠Z世界里亦可以与悟空、悟饭及贝吉达等等角色​​进行打斗、钓鱼、用餐及训练。请尽情探索新区域、体验故事中的冒险活动并加深与七龙珠Z其他英雄人物之间的羁绊吧。</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>881100</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Noita</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>巫婆Noita</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>物理,困难,类 Rogue,像素图形,迷宫探索</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2020年10月16日</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>&lt;strong&gt;《Noita》&lt;/strong&gt;是一个轻度 Rogue-like 的魔法动作游戏，在《Noita》的世界中，每个像素都有物理模拟。您可使用您自己创造的法术，在逐步生成的世界上一路探索、战斗、焚烧、熔毁、冰冻和蒸发，打开自己的前路。探索多样的环境，从煤矿到寒冷废土，深入寻求未知的神秘。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/881100/extras/radioactive-vat.png?t=1675987871" /&gt;&lt;li&gt;&lt;strong&gt;基于像素的物理模拟&lt;/strong&gt;：世界中的每个像素均有模拟。一切皆可燃烧、爆炸或熔毁。沐浴敌人的鲜血！进入拥有前所未有互动性的高度模拟世界。&lt;br&gt;    &lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;您自己的魔法&lt;/strong&gt;：在深入洞穴的同时，创造全新法术。使用魔法摧毁敌人，操纵你身旁的世界。&lt;br&gt;    &lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;逐渐生成的世界&lt;/strong&gt;：每次游玩都会探索独一无二的世界。深入探索，发现全新要素。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/881100/extras/cover-shooter2.png?t=1675987871" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;轻度 Rogue-like 动作&lt;/strong&gt;：死亡不可复生。死亡将始终伴随你，成为你游戏过程中迫在眉睫的威胁。尽管死亡，却也不必绝望：利用所学，在下此探险中走得更远。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;strong&gt;《Noita》&lt;/strong&gt;由 Nolla Games 开发。Nolla Games 是一家由 3 位独立游戏开发者创立的公司。3 名开发者过去均有自己的独立项目。&lt;br&gt;&lt;br&gt;游戏的 3 位负责人分别为：&lt;br&gt;&lt;br&gt;&lt;strong&gt;Petri Purho&lt;/strong&gt;&lt;br&gt;Petri 以《&lt;a href="https://store.steampowered.com/app/26900/Crayon_Physics_Deluxe/" target="_blank" rel=""  &gt;Crayon Physics Deluxe&lt;/a&gt;（蜡笔物理学）》创作人的身份广为人知。在他年轻时，还制作过众多小型免费游戏。除此之外，他也是不少桌面游戏的创造者；不过他没有将细节告诉任何人。-- 所以还是保密吧。&lt;br&gt;&lt;br&gt;&lt;strong&gt;Olli Harjola&lt;/strong&gt;&lt;br&gt;Olli 以斩获大奖的离奇科幻解谜游戏&lt;a href="https://store.steampowered.com/app/231160/The_Swapper/" target="_blank" rel=""  &gt;《The Swapper（交换者）》&lt;/a&gt;闻名。除独立游戏之外，音乐、现场视觉和编程语言，他也有所涉猎。&lt;br&gt;&lt;br&gt;&lt;strong&gt;Arvi Teikari&lt;/strong&gt;&lt;br&gt;Arvi，以 Hempuli 的名字广为人知。多年来，他曾发布有众多小型实验性游戏；由于为数实在众多，他甚至无法全部记得 。其中，他能回忆起是自己创作的游戏之一便是《&lt;a href="https://store.steampowered.com/app/736260/Baba_Is_You/" target="_blank" rel=""  &gt;Baba Is You&lt;/a&gt;（巴巴是你）》。</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1086940</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Baldur's Gate 3</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博德之门3</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>角色扮演,选择取向,剧情丰富,角色自定义,冒险</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.8</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2023年08月03日</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Larian_Steam_new_KeyArt_ready.gif?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;召集你的队伍，返回被遗忘的国度，开启一段充满友谊与背叛、牺牲与生存，以及至高无上力量诱惑的传奇故事。&lt;br&gt;&lt;br&gt;神秘的力量正在你体内苏醒，而这一切都来源于夺心魔种在你大脑里的寄生虫。反抗吧，将黑暗的力量反掌为用。你也可以选择接受这种腐化，变成终极的邪恶。&lt;br&gt;&lt;br&gt;来自《神界：原罪2》的创作团队所打造的次时代RPG，故事将在D&amp;amp;D（龙与地下城）的世界中展开。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Gather_new.gif?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;你可以从D&amp;amp;D玩家手册中的12个职业与11个种族中进行选择，或者直接扮演一个带有精心设计背景的起源英雄。无论你是踏上冒险之旅，还是去获取战利品，亦或是投身战斗，或者展开罗曼史，这些都将贯穿你在被遗忘的国度以及其他位面的冒险旅程。你可以选择单独游玩，或者是与最多三名队友一起进行联机游戏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/An_expansive_original_story.png?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;被劫持，被感染，陷入迷失。你正在变成一个怪物，但随着你体内的腐化力量的增长，你的力量也在增强。这力量可能能帮助你生存下来，但接受它的同时，你必将付出某种代价。然而，超越任何能力，你与队友之间建立的信任纽带可能会成为你最大的力量。在恶魔、诸神和邪恶的其他世界力量之间的冲突中，你将与队友共同决定被遗忘国度的命运。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Next_Gen_new.gif?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;利用全新的神界4.0引擎打造，《博德之门3》将为你提供前所未有的自由度，让你在这个充满角色、危险和欺诈的活跃世界中探索、尝试、互动，并获取实时的反馈。宏大的电影级叙事让你比以往任何时候都更接近你的角色。从被阴影诅咒的森林，到幽暗地域的神奇洞穴，再到博德之门本身的庞大城市，你的行动决定着冒险的过程，但你的选择将塑造你的遗产。你将被人们所铭记。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/No_adventure_will_be_the_same.png?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;被遗忘的国度是一个宏大、细节繁多、充满各色各样事物多元化的世界，到处都有等待被你发现的秘密——可互动的空间是探索的一个非常重要的部分。潜行，挖掘，推动物品，攀爬，还有跳跃，这些行动会贯穿你的整个旅途，从大地深处的幽暗地域，到地表城市闪亮的屋顶。你的每一个选择都会推动你的故事向前发展，每一个决定都会在世界上留下你的印记。你可以提升自己的角色、培养人际关系、树立敌人，并以自己的方式解决问题。每次游戏体验都是全新的无与伦比。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;最多可支持四名玩家的在线多人游戏&lt;br&gt;你可以将你的团队联合起来，同时攻击敌人，也可以将队伍分开，各自执行自己的任务和计划。一起制定完美的计划......或者在朋友们最意想不到的时候引入混乱元素。人际关系是很复杂的。尤其是当你脑中有寄生虫的时候。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;起源角色&lt;br&gt;7 位独一无二的起源角色为你带来精雕细琢的体验，每个人都有自己独特的特质、思想和世界观。他们的故事与总体叙事相互交错，而你的选择将决定这些故事的结局是救赎、拯救、统治，还是其他多种结局之一。你可以扮演原住民，欣赏他们的故事，也可以招募他们与你并肩作战。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;全新进化的回合制战斗&lt;br&gt;基于第五版《龙与地下城》规则。你可以体验基于团队战斗的主动权，和在战斗中不同决策带来的优势和劣势。我们增添了战地视角下的掷骰修正，也拓展了环境之间的交互性，增添了新的、更加灵活的战术和奖励，以让你在战斗中尽情展现你的策略和远见。三种难度设置可让您自定义战斗的挑战性。启用骰子加成来左右战斗，或在策略模式下进行游戏，以获得真正的硬核体验。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;前所未有的广度和深度&lt;br&gt;在 11 个种族（人类、吉斯洋基人、半兽人、矮人、精灵、卓尔、提夫林、半身人、半精灵、侏儒、龙裔）的基础上又增加了 31 个亚种，并从 12 个职业中分支出 46 个子职。在这个精雕细琢的世界中，600 多种法术和行动提供了近乎无限的互动自由。在这个世界中，探索是一种奖励，而玩家的主动性决定了旅程。我们独特的“角色创建器”具有前所未有的角色深度，其丰富的互动选项可确保无论你是谁，都会为你打造出独特的角色，一直到 12 级。超过 174 小时的过场动画确保无论你做出什么选择，过场动画都会跟随你的旅程——每一次游戏体验都是一次全新的电影之旅。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;复杂而深刻的浪漫故事&lt;br&gt;战争的威胁迫在眉睫地向博德之门袭来，夺心魔的入侵也即将来临，而友谊——尽管并非必要——也将加入你的旅途中。你将与沿途遇到的人建立起真实、充满活力的关系，至于他们会变成什么样，则取决于你自己。每个同伴都有自己的道德指南针，会对你在旅途中做出的选择做出反应。你将以怎样的代价坚持自己的理想？你会让爱左右你的行动吗？在通往博德之门的道路上建立起来的关系既是您在营地休息的片刻，也为你在冒险中做出的许多决定增添了砝码。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;高度定制的直播体验&lt;br&gt;当您点击“开始直播”时，您的直播将不会被如熊、粗口或缺乏着装等因素所干扰。《博德之门 3》提供了3种不同级别的适合直播的定制选项。您可以分别（或同时）禁用裸体和露骨的内容，并可以启用Twitch集成功能，直接与观众互动，正如我们在《地狱飨宴》展示会上所做的一样！有了这些选项，无论您选择以何种方式进行游戏，《博德之门 3》都能保证您的直播进行得顺利。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Final_Image_new.gif?t=1692294127" /&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1114530</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TTV3</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>TTV3</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>独立,动作,休闲,街机,像素图形</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2019年07月19日</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>TTV3 is the third volume of the retro hardcore maze wanderer minigame series Trip to Vinelands&lt;br /&gt;
+Exit the screen avoiding vines, blades, and spikes.&lt;br /&gt;
+Made by the same developer of the arcade series UBERMOSH, TTV3 brings a reflex-based challenge with original audio and art.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1184370</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Pathfinder: Wrath of the Righteous - Enhanced Edition</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>开拓者：正义之怒</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>选择取向,单人,爱情,等角视角,黑暗奇幻</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2021年09月03日</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>&lt;h2 class="bb_tag"&gt;探索传奇故事&lt;/h2&gt;循着这段旅程，你将前往世界之伤，直面一道连通深渊界的位面裂隙，感受席卷这片土地的恐惧。一个多世纪以来，周边国家为击退敌军而英勇奋战，但始终收效甚微。  &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__4_.gif?t=1693996219" /&gt;&lt;br&gt;&lt;br&gt;如今，你有机会结束这场纷争，但救世之路绝不会一帆风顺。你会成为受一众杰出圣武士支持的光辉天使？还是成为强大的死灵法师，掌控不死的亡灵大军？抑或全然不同的其他角色？率领你的军队，挑战强大的恶魔领主。你的远征将会引发一系列事件，彻底改变你和整个世界的命运。&lt;h2 class="bb_tag"&gt;随心搭配，玩转英雄&lt;/h2&gt;第一版《开拓者》的规则极具深度、灵活性及丰富性，你可以根据自己的想象，随心所欲地创建任何角色。共有25个职业、12个种族以及超过一千种法术、专长与能力，方便玩家根据自己的风格挑选。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__9_.gif?t=1693996219" /&gt;&lt;h2 class="bb_tag"&gt;不同选择，引向殊途&lt;/h2&gt;你的决定比以往任何时候都更加重要。你的目标已经明了，但通往目标的道路只能由你自行开辟。成王败寇，谁主沉浮？做出你的选择，看看世界会因此发生何等变化。  &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__6_.gif?t=1693996219" /&gt;&lt;h2 class="bb_tag"&gt;全新的战斗方式&lt;/h2&gt;我们提供可暂停的即时模式和回合制模式，两种战斗模式皆可供你横扫敌军。你可以在两种战斗模式中快速切换，或紧或慢，随你心意。通过《开拓者》的独特规则，你还可以体验包括骑乘战斗在内的进阶作战方式。发挥谋略，合理选用！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__7_.gif?t=1693996219" /&gt;&lt;h2 class="bb_tag"&gt;招贤纳士&lt;/h2&gt;10多位独特伙伴将与你携手同行，共谋伟业。只要赢得他们的信任和尊重，无论前方有何艰难险阻，他们都会鼎力相助。倘若理念相悖……或许也只能分道扬镳了。 &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__8_.gif?t=1693996219" /&gt;&lt;h2 class="bb_tag"&gt;领导圣教军&lt;/h2&gt;要想净化恶魔泛滥成灾的土地，仅靠一支冒险者小队远远不够。你还要掌握圣教军的指挥权，领导他们迈向胜利。在此过程中，你既是一名战略家，以纵观全局的视角运筹帷幄，同时也是一名前线指挥官，在全新的战术模式战斗中大显身手。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__3_.gif?t=1693996219" /&gt;&lt;h2 class="bb_tag"&gt;选择道途&lt;/h2&gt;探索9条各不相同的神话道途，获得非凡能力，让尔后种种都随之一变。你的决定可能会让你成为神圣的天使、狂暴的恶魔、强大的巫妖、狡诈的诡计大师、超然的御衡者、桀骜的灵使、睿智的金龙、吞噬一切的虫群行者，或是保留肉体凡身，披荆斩棘，成为当世传奇。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__1_.gif?t=1693996219" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1244090</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Sea of Stars</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>星之海</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>角色扮演,像素图形,回合制战斗,冒险,剧情丰富</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2023年08月29日</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-content-header.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;《星之海》承载着Sabotage工作室的目标&lt;/strong&gt;——用现代的方式重现经典角色扮演游戏：从回合制战斗到跌宕起伏的故事，从世界探索到细腻的环境交互，让大家重回独属怀旧游戏的美好旧时光。&lt;h2 class="bb_tag"&gt;经典和创新结合的回合制玩法 - “易”于上手 “乐”于精通&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-combat.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;掌控战斗的时机&lt;/strong&gt; - 看准时机按下交互键可以提升造成的伤害，或减少受到的伤害。&lt;br&gt;&lt;strong&gt;灵活的战斗方式&lt;/strong&gt; - 在战斗中使用多人组合技，充能攻击以及纳入战术考量的“Lock”系统，通过组合这些不同的攻击，甚至能够打断敌人正在准备的蓄力攻击或强大法术。&lt;br&gt;&lt;strong&gt;全身心地投入这款复古之作&lt;/strong&gt; - 不会有随机乏味的遭遇战，也不会有战场之间的频繁转换，更不会有无休无止打不完的敌人！&lt;h2 class="bb_tag"&gt;“不拘一格”的探索&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-traversal-flip-S.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;我们潜心研究平台游戏多年，打造了一套独特的移动系统!&lt;br&gt;您将不再受到传统的网格束缚，畅快地在世界中穿梭！&lt;br&gt;无论您想&lt;strong&gt;在池水中游弋，还是在岩壁上攀爬，或是轻快地从石阶上纵身跳下&lt;/strong&gt;，都可尽情体验。&lt;h2 class="bb_tag"&gt;独立的光照渲染&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-lighting-S.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;我们为游戏研发了一套独特的渲染管线!&lt;br&gt;《星之海》因此突破了2D像素美术游戏的限制，它让游戏充满了色彩，并且处处体现出优雅的细节！让你感受到一个更加真实、令人惊叹的游戏世界。&lt;h2 class="bb_tag"&gt;永恒的冒险与友谊&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-story-rich-adventure.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;这就是从Sabotage工作室的角色扮演游戏中可以期待的一切——经典的冒险与友谊故事。&lt;br&gt;&lt;br&gt;您可以与数十个原创角色一起踏上这段迷人的旅程：&lt;br&gt;&lt;strong&gt;时而波澜壮阔，犹如史诗长歌；&lt;br&gt;时而轻松诙谐，让人忍俊不禁。&lt;/strong&gt;&lt;br&gt;充满着意想不到的曲折与反转，让人心绪久久不能平复。&lt;h2 class="bb_tag"&gt;惬意的日常也是游戏的一部分&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-sabotage-touch.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;想试试停下冒险的脚步，在《星之海》的世界中打发打发时间？&lt;br&gt;去试试扬起帆出海！&lt;br&gt;或是生起篝火研究食谱？&lt;br&gt;还是拿出鱼竿甩两杆？&lt;br&gt;路过一家小酒馆进去听会儿歌，或者玩两把桌游...&lt;br&gt;每个系统的设计都是在尊重经典复古游戏的前提下，加入了崭新且独一无二的新体验。</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1282100</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Remnant II</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>遗迹2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>类魂系列,动作,冒险,角色扮演,第三人称射击</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2023年07月26日</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>难以想象的世界。残酷无情的困境 &lt;br&gt;&lt;br&gt;《Remnant II》是畅销游戏《Remnant: From the Ashes》的续作。在本作中，人类幸存者将再次深陷可怕的世界，对抗新的邪恶怪物和神一般的敌人头目。孤军奋战，或者与两名朋友合作，探索未知的深处，阻止邪恶摧毁现实世界。若想取得成功，玩家必须依靠自己和团队的力量，完成最艰巨的挑战，让人类免于灭绝的命运。&lt;h2 class="bb_tag"&gt;特色：&lt;/h2&gt;&lt;strong&gt;紧张激烈的《Remnant》战斗体验&lt;/strong&gt;&lt;br&gt;冷静远攻和疯狂近战的混合战斗模式再次回归，这次还带来了更多狡猾的敌人和大规模头目战。针对不同的生物群落和战斗，可以选择特定装备和武器进行强化。头目战会让高水平玩家组队克服挑战，并尝试获得最高奖励。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1282100/extras/REM2_Combat_2.gif?t=1690498964" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;等待探索的新世界&lt;/strong&gt;&lt;br&gt;陌生的新世界被神秘生物和致命敌人占据。玩家可以独自上路，也可以与朋友结伴前行，穿越邪魔肆虐的世界，努力求生。多个世界可供探索，每个世界都有不同类型的生物、武器和物品。获取物品后要善加利用并合理升级，以迎接更严峻的挑战。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1282100/extras/REM2_World_2.gif?t=1690498964" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;无尽的重复可玩性 &lt;/strong&gt;&lt;br&gt;在动态生成的地下城和区域中，充满了各种支线任务、强化物品、制作材料和战利品。哪怕是最硬核的玩家，其决心也将经受考验。游戏体验复杂多变、极具挑战性，但当玩家最终战胜重重困难取得胜利时，也将体会到无与伦比的满足感。不同的世界中交织着不同的故事，等待你的探索和重访。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1282100/extras/REM2_Replay_2.gif?t=1690498964" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;全新职装系统&lt;/strong&gt;&lt;br&gt;扩展后的职装系统将为玩家提供独特的被动奖励和强大的力量。在游戏中可以解锁多个职业和多种装备、进行升级并混合搭配，以实现多样化的游戏风格。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1282100/extras/REM2_Archetype_2.gif?t=1690498964" /&gt;&lt;br&gt;&lt;br&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1336980</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>NOBUNAGA'S AMBITION: Awakening</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信長之野望･新生</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>战争游戏,即时战术,沉浸式模拟,即时战略,大战略</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2022年07月21日</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/banner_tw.jpg?t=1691110808" /&gt;&lt;h2 class="bb_tag"&gt;《信長之野望･新生 with 威力加強版》&lt;/h2&gt;&lt;br&gt;※本商品包含《信長之野望･新生》与《信長之野望･新生 威力加強版》。&lt;br&gt;若已购买了《信長之野望･新生》，请勿购买本商品，而改为购买《信長之野望･新生 威力加強版》。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Nobunaga.gif?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;在《信長之野望･新生》中，玩家能够与自主思考并采取行动的“活生生武将”一起体验真实的战国。在符合“信長之野望”系列40周年品质和体量的标准下，本作迎来了系列最高级别的强化！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Departure.gif?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;①“君臣同心”的更深层进化&lt;/strong&gt;&lt;br&gt;能够阻止武将出奔、对敌对势力进行挖角等的“直接谈判”，任命“家宰”、“奉行”打造自己独特家臣团的“评定众”等，让“君臣同心”更上一层楼！ &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Battle1-CHT.gif?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;②波及到城下一带的白热化“攻城战”&lt;/strong&gt;&lt;br&gt;“攻城战”将以前所未有的形态登场。除去攻略城池本身，还能够享受别具动态感与真实感的攻城战！在超过200张专用地图上灵活运用每座城池的特征取得胜利吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Battle2-CHT.gif?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;③各势力别具一格、多彩的战略性&lt;/strong&gt;&lt;br&gt;大幅扩充赋予势力特征的“政策”。此外还追加了灵活运用决定每座城所扮演的角色、在据点之间建立联系的“城定位”，以及孕育出全新游玩体验的“军团战略”等新要素，令玩家别具个性的战略得以实现。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Characters.gif?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;④惯例的各种编辑功能之外，还有充实的追加要素！&lt;/strong&gt;&lt;br&gt;剧情与事件、特性等以往的要素得到大幅度扩充。武将与BGM、编辑剧情、创建新势力功能等高人气要素也将更加丰富多彩！&lt;h2 class="bb_tag"&gt;《信长之野望·新生》&lt;/h2&gt;&lt;br&gt;&lt;strong&gt;让天下重焕新生！&lt;/strong&gt;&lt;br&gt;&lt;br&gt;历史模拟游戏“信长之野望”系列的第16作，KOU SHIBUSAWA 40周年纪念作品。&lt;br&gt;&lt;br&gt;系列首次，通过自主判断而展开行动的“活生生武将”将大展身手！&lt;br&gt;支援玩家，为天下统一的目标东奔西走。&lt;br&gt;敌我双方的武将依照自己的判断，编织出有血有肉的战国乱世绘卷。&lt;br&gt;&lt;br&gt;推动历史进程的妙趣，便在于此！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/01.jpg?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;【内政】夺取土地、给予土地！“知行”系统&lt;/strong&gt;&lt;br&gt;把从他国赢取的土地给予能够胜任的家臣，重现曾经的“知行制”！&lt;br&gt;家臣在获得知行地后，将自主发展该地。&lt;br&gt;发展土地并强化国力，于战场获胜后给予家臣更多的土地吧！&lt;br&gt;&lt;br&gt;&lt;strong&gt;【战略】展现属于自己的战略吧！ “政策”与“特性”&lt;/strong&gt;&lt;br&gt;大名家的“政策”与武将持有的“特性”是富国强兵的关键！&lt;br&gt;政策的强化、城主与其麾下武将的特性，将对势力的特点产生巨大影响。&lt;br&gt;战略性地活用人才、资金、时间，创造你的理想势力！&lt;br&gt;&lt;br&gt;&lt;strong&gt;【战斗】以进军路线为中心的战略！“多方作战”&lt;/strong&gt;&lt;br&gt;适于大军作战的大道，或仅可进行小规模作战的小径等等，需要根据这些地形，采取变幻莫测的战术！&lt;br&gt;尽可能多占领通向城的要道，便可在攻城战中占据优势。&lt;br&gt;活用地利，选择符合势力大小的独到战术击破敌军！&lt;br&gt;&lt;br&gt;&lt;strong&gt;【会战】与自主行动的家臣们一起取得胜利！“会战指挥”&lt;/strong&gt;&lt;br&gt;为了胜利，为了功名，所有武将都将依照自己的判断而战。&lt;br&gt;在充斥各种图谋的战场上，看清不断演变的战况，下达通往胜利的命令吧！</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1449560</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Metro Exodus Enhanced Edition</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>地铁：离去 完全版</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>后末日,第一人称射击,开放世界,剧情丰富,单人</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2019 年 2 月 14 日</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>《Metro Exodus》是4A Games出品的第一人称射击游戏，具有史诗级的剧情，能让您在这一前所未有的沉浸式游戏世界中体验致命的战斗与潜行，感受探索与生存的恐怖。&lt;br&gt;&lt;br&gt;在广袤无际的关卡中探索俄罗斯的荒野，历经为期一年的故事线，度过春夏秋天，直至严酷的核冬天。&lt;br&gt;&lt;br&gt;《Metro Exodus》改编自Dmitry Glukhovsky的小说，会在至今最宏大的地铁冒险中继续讲述阿尔乔姆的故事。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;踏上无与伦比的旅途——登上经过多重改造的蒸汽火车“曙光号”，与数名幸存者一起，在东方的土地上探寻新的生活。&lt;br&gt;&lt;br/&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;体验沙盒式生存——动人心弦的故事，融合了经典地铁操作与全新的无边际关卡。&lt;br&gt;&lt;br/&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;美丽但危机四伏的世界——探索后启示录的俄罗斯荒野，炫目的日夜循环和动态天气让自然环境变得栩栩如生。&lt;br&gt;&lt;br/&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;致命的战斗与潜行——在荒野中收集材料，实地改装定制武器，与敌对的人类和变种怪展开紧张激烈的搏杀。&lt;br&gt;&lt;br/&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;您的选择会决定同伴的命运——并非所有同伴都能在旅途中幸存，您的决定会在动人的故事中产生深远的影响，也因此带来了极大的重复可玩性。&lt;br&gt;&lt;br/&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;极致氛围与沉浸感——黑暗中闪动的烛火、结霜面具后的喘息、夜风中传来的变种怪嘶吼——没有其他游戏能拥有地铁一般的沉浸式恐怖氛围……&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;黄金版：Metro Exodus游戏本体+季票（可游玩全部DLC）&lt;/strong&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/li&gt;&lt;/ul&gt; &lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1455910</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Territory: Farming and Fighting</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>领地：种田与征战</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>抢先体验,模拟,基地建设,策略,城市营造</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2023年01月12日</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>注意：本游戏有一定复杂度，需要动脑，且会有不少挑战，注定是小众游戏。这不是一个休闲的种田游戏。&lt;br&gt;游戏尚处于开发阶段，欢迎加入交流QQ群 926471120&lt;br&gt;&lt;br&gt;游戏以村庄经营 + 指挥打仗为核心玩法。玩家可以从十几个人的小村庄，发展成为上千人的小王国。&lt;br&gt;对内安排居民工作，进行生产建设。采集渔猎，种地挖矿，加工制造。&lt;br&gt;对外开展贸易，积累稀有物资，增加实力，与邪恶的势力和怪物作战。&lt;br&gt;&lt;br&gt;交流QQ群：&lt;strong&gt;926471120&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/1.gif?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/2.gif?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/3.png?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/4.png?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/5.gif?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/6.gif?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/7.png?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/8.gif?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/9.gif?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/10.gif?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/11.png?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/12.png?t=1692414972" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1693980</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Dead Space</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>死亡空间</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>第三人称射击,科幻,太空,射击,生存恐怖</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2023年01月28日</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>科幻生存恐怖经典作品《死亡空间》宣告回归，经过完全重制，旨在为玩家提供更有深度、更身临其境的体验。这款重制版游戏为玩家带来了令人惊叹的视觉保真度、充满悬疑感的氛围音效以及游戏性改进，同时尽力忠实还原初版游戏的惊险构思。&lt;br&gt;&lt;br&gt;艾萨克·克拉克是一名普通的工程师，受命修复巨型采矿飞船 USG 石村号，结果发现事态超乎想象。飞船上的船员已被屠戮，而艾萨克心爱的伴侣妮可也在船上不知所踪。&lt;br&gt;&lt;br&gt;现在，艾萨克独自一人，他可以依靠的只有自己的工程工具和技能。随着石村号上可怕谜团的真相浮出水面，他必须尽快找到妮可。艾萨克被充满敌意，名为“尸变体”的生物团团包围，面临着一场生存之战。他不仅要对抗飞船上不断升级的恐怖情形，还要面对自己即将崩溃的理智。&lt;br&gt;&lt;br&gt;&lt;strong&gt;尽情沉浸在次世代科幻恐怖游戏中&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1693980/extras/DS_GP_USP1_610px.gif?t=1684172906" /&gt;&lt;br&gt;&lt;br&gt;这款经典科幻恐怖游戏经过完全重制，带来了视觉保真度的提升和 3D 氛围音效。从精致得令人难以置信的房间和满是被屠戮船员的工作间，到孤寂太空飞船上阴森的氛围音效，在这震撼人心的科幻场景中，出人意料、扣人心弦的时刻接连涌现，等着你来探索。&lt;br&gt;&lt;br&gt;&lt;strong&gt;揭开 USG 石村号上的谜团&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1693980/extras/DS_GP_USP2_610px.gif?t=1684172906" /&gt;&lt;br&gt;&lt;br&gt;工程师艾萨克·克拉克和 USG 圣室号的船员们起初只是在执行例行维修任务，但随着船上恐怖事件背后的真相逐渐被揭开，维修任务迅速演变成一场生存之战。跟随徐徐展开的叙事体验，通过遇难船员们的临终日志以及与少数幸存者的邂逅，揭开 USG 石村号各种事件背后的黑幕。&lt;br&gt;&lt;br&gt;&lt;strong&gt;随机应变，死地求生&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1693980/extras/USP3_ageGate_610px.gif?t=1684172906" /&gt;&lt;br&gt;&lt;br&gt;采用定义战略游戏的游玩方式，对抗 USG 石村号上的梦魇。调整并升级艾萨克的工程工具，用你的创意把敌人精准击毙。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1693980/extras/Dead_Space_PC_Specs_610px_STEAM_updated.png?t=1684172906" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1696440</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>绝世好武功 The Matchless Kungfu</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>绝世好武功</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>抢先体验,开放世界,沙盒,角色扮演,生存</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2023年08月30日</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>官方QQ群号：&lt;br&gt;官方QQ③群：717298872&lt;br&gt;官方QQ④群：757371350&lt;br&gt;官方QQ⑤群：703542977&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;这是一款基于武侠、江湖背景为基础的&lt;strong&gt; &lt;u&gt;开放沙盒类非传统武侠 RPG游戏&lt;/u&gt;&lt;/strong&gt;，你可以在这个大荒世界之中，扮演你所幻想的任何武侠角色，这里没有任何阻挡你幻想的老套剧情，你所演绎的武侠人生就是这个你的游戏剧情。你可以作为一名江湖小虾米游历大荒，你也可以成为一派掌门引领四方，你亦可以成为一名看不惯这江湖的浪子我行我素。最重要的是，请一切遵从于你的内心而为，并且活着！&lt;br&gt;&lt;br&gt;(1)玩家可以从零开始扩展自己的小世界，也可以通过创建小世界生成随机大小的初始世界。每个区域都有独特的环境、资源、生物以及势力。 在熟悉了游戏基本操作之后，您便可以直接生成环境属性各异的、已经包含一定数量地块的世界进行体验和历练，并且可以控制不同的“我”往来穿梭于各个世界开启别样人生！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/kf1.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(2)新颖的单回合战斗方式，通过收集不同的绝学搭配创建自己的招式库，战斗中拖动连接不同的招式激活绝学，利用招式克制和绝学套路，体现武侠战斗的策略性。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF2.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(3)独创的经脉系统，将人体经脉的运转进行了简化概念设计，玩家可以体验到不同的运功路线激活不同内功的拟真感受，简洁却富有策略玩法的设计给玩家提供了搭配和激活多种内功的玩法。同时经脉系统也结合了武侠小说中各种身体机能的具象表现，角色的生命力、内伤、隐疾、蛊、生死符、残疾、瞎眼等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF3.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(4)游戏还包含了自由的建造模式，玩家可以打造自己的民居、酒馆、温泉、马厩、大殿、监牢等等，每种建筑都有独特的功能。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF4.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(5)潜行玩法，可以通过训练潜行能力，配合独特的内功，夜晚穿上夜行衣，如人无人之境。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF5.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(6)训练轻功、跳跃、潜水、攀爬，无论高山深海都可闲庭信步。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF6.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(7)通过自定义天命、出身、容貌、血脉，打造独属于自己的角色。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF7.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(8)非线性剧情，游戏中每个NPC都会根据自己的行为、身份、名声、关系、态度等等在世界中生存，玩家的每次游戏都会与他们发生不同的剧情。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF8.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(9)丰富的交互内容&lt;br&gt;可以把敌人的建筑引燃&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF9.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;可以邀请NPC喝酒，灌醉后搜刮物品&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF10.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;可以驯化各种动物，每种动物都有各自独特的功能，例如猴子可以乞讨、马可以乘骑和改装马车、蛇可以下毒等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF11.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;玩家可以创建自己门派，招募弟子，发布命令，参加武林大会。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF12.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;丰富的交互内容·玩家可以布置陷阱，抓捕动物或敌人。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF13.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;建立门派，发布命令&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF15.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;建立牢笼，关押敌人&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF16.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;———————————————————————————————————————&lt;br&gt;来自幻魔寺的寄语：&lt;br&gt;我们坚守本心，完全独立开发，只做大家觉得好玩的游戏，这款游戏的世界目前仍然只是一个雏形，我们深知它会不断壮大，并且成为未来我们一切游戏的基石，我们会为此不断努力，带给大家一个绝妙的幻想世界！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/respect.png?t=1694014062" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1716740</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Starfield</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>星空</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>太空,开放世界,角色扮演,单人,科幻</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.7</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2023年09月06日</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>《Starfield》出自打造过《Starfield》是由载誉无数、曾为大家带来《The Elder Scrolls V: Skyrim》和《Fallout 4》的Bethesda Game Studios睽违超过25年所打造的第一个全新宇宙。这款新一代角色扮演游戏将背景设定在茫茫宇宙。在这里，你可以创建任意角色，探索世界并体验前所未有的自由。踏上这趟史诗般的旅程，发掘人类文明的终极奥秘。&lt;br&gt;&lt;br&gt;2330年，人类已跨出我们所在的太阳系，在新的星球上定居下来，太空旅行也已成为人类的日常。在这款Bethesda Game Studios迄今为止最宏大的游戏里，你将加入群星组织这个在星系中寻找稀有神器的太空探险者团体，展开探索广袤宇宙的旅程。&lt;h2 class="bb_tag"&gt;传颂你的故事&lt;/h2&gt;在《Starfield》中，最重要的故事将由你亲自通过你的角色述说。自定义外观并决定背景和特征，启航展开属于你的星际之旅。你会是经验老道的探险家、充满魅力的外交官、诡密的电子情报贩，或是独树一帜的人物？选择权都在你手上。由你决定想要打造什么样的角色，有什么样的发展。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/TellYourStory_v3.gif?t=1693958437" /&gt;&lt;h2 class="bb_tag"&gt;探索外太空&lt;/h2&gt;在群星间冒险，探索超过一千个行星。造访繁华的都市、探索充满危险的基地，以及穿越荒野的风景。认识令人难忘的角色并加以招募、参与各种阵营的冒险，在定居星系群中到处展开任务。随时都有新的故事或体验等你来发掘。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/ExploreSpace_v3.gif?t=1693958437" /&gt;&lt;h2 class="bb_tag"&gt;指挥你梦想中的飞船&lt;/h2&gt;驾驶及指挥你梦想中的飞船。打造属于自己的飞船外观、改造武器和护盾等重要系统，以及分配船员为你提供独特加成。在深远的太空中，你将遭遇高风险的近距空战、随机任务、在星际站停驻，甚至登上并夺取敌人的飞船，为自己增添收藏品。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/CaptainShip_v3.gif?t=1693958437" /&gt;&lt;h2 class="bb_tag"&gt;发掘、收集、打造&lt;/h2&gt;探索行星并发掘各种动植物，以及制作药物、食物、装备和武器所需的各种资源。建造哨站并雇用工作人员自动获得材料，并建立货运链接以在哨站间运送资源。将这些原材料投注在研究项目中以解锁独特的制造配方。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/DiscoverCollectBuild_v3.gif?t=1693958437" /&gt;&lt;h2 class="bb_tag"&gt;武器上膛&lt;/h2&gt;宇宙中危机四伏。精细的战斗系统为你提供处理各种状况的工具。无论你喜欢长射程步枪、激光武器或炸药，每种武器皆可改装以符合你的游戏风格。零重力环境为战斗增添了混乱的华丽场面，飞行背包则为玩家带来前所未有的自由机动性。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/LockandLoad_v3.gif?t=1693958437" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1754790</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Fate of the Pharaoh</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Fate of the Pharaoh</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>策略,时间管理,城市营造,2D,可爱</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2023年08月23日</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1754790/extras/banner_large_1.png?t=1692785837" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1754790/extras/banner_1.png?t=1692785837" /&gt;&lt;br&gt;Become the loyal Pharaoh’s adviser and help him to restore peace and prosperity in the golden cities of Egypt. Construct houses re-establish production, collect taxes and gather materials, set up production and trade, and fight crocodiles and wicked cobras. Restore Egypt to its days of glory!&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1754790/extras/banner_2.png?t=1692785837" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; HELP the people of ancient Egypt to restore their kingdom in this exciting time management adventure game!&lt;br&gt;&lt;/li&gt;&lt;li&gt; EXPLORE the magnificent era of our history&lt;br&gt;&lt;/li&gt;&lt;li&gt; 44 EXCITING levels to master and hundreds of quests&lt;br&gt;&lt;/li&gt;&lt;li&gt; FIGHT dangerous cobras, scorpions, crocodiles and more!&lt;br&gt;&lt;/li&gt;&lt;li&gt; EARN achievements along the way&lt;br&gt;&lt;/li&gt;&lt;li&gt; MEET friends from outer space&lt;br&gt;&lt;/li&gt;&lt;li&gt; 2 difficulty modes: relaxed and adventure&lt;br&gt;&lt;/li&gt;&lt;li&gt; Step-by-step tutorials for beginners&lt;ul class="bb_ul"&gt;&lt;/ul&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1790230</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Wallpaper Engine - Editor Extensions</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Wallpaper Engine - 编辑器扩展</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>休闲,独立,照片编辑,实用工具,动画制作和建模</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>DLC</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2021年11月26日</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>免费的Wallpaper Engine编辑器扩展 DLC 为该编辑器添加了高级功能。 此附加组件需要大量磁盘空间，我们只建议为想要在编辑器中使用这些高级功能来创建新墙纸的用户安装编辑器扩展。 所有订阅者都可以使用通过此附加组件创建的壁纸，而无需安装编辑器扩展。&lt;br&gt;&lt;br&gt;&lt;strong&gt;如果您不确定您是否要使用它，请不要安装此扩展。 如果您尝试使用任何需要它的功能，Wallpaper Engine 编辑器将推荐此扩展程序。&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;包含的功能&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;使用机器学习从单个图像生成深度图。&lt;/li&gt;&lt;/ul&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
           <t>1888160</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>ARMORED CORE™ VI FIRES OF RUBICON™</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>装甲核心6</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>机甲,角色自定义,动作,第三人称,3D</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
         <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>2023年08月25日</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>数字豪华版将收录以下内容；&lt;br /&gt;
 ·游戏本体&lt;br /&gt;
@@ -1060,45 +1887,545 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1889980</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Pathfinder: Wrath of the Righteous - Inevitable Excess</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Pathfinder: Wrath of the Righteous - Inevitable Excess</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>策略,冒险,角色扮演,独立</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>DLC</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2022年03月03日</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>《无解的超量》这部DLC将带玩家在即将取得对世界之伤的大胜之前，进入新的冒险设定当中。新的故事需要英雄用上所有高等级能力和神话之力，与近乎无可匹敌的对手交锋。 玩家将响应瓦尔码络斯的号召，这位来自另一个实存位面的强大存在决心阻止多元宇宙迫在眉睫的危机。&lt;br /&gt;
+&lt;br /&gt;
+&lt;br /&gt;
+  * 游玩大约长达7到8小时的新故事，作为对主线剧情的补充。从主线战役导入你的角色和所有同伴，或是建立一个新角色，来了解令魔法的守护者困扰的原因。&lt;br /&gt;
+&lt;br /&gt;
+  * 你的角色将以高等级开始冒险，包括普通等级和神话阶层。运用你掌握的所有神话能力，与威胁诸位面和平的新神话敌人交战！&lt;br /&gt;
+&lt;br /&gt;
+  * 造访机械版御衡者“恒则兵”的诞生之地与家园：轴心城，探索这个位面的每个角落，在危机四伏的地城找到通路。&lt;br /&gt;
+&lt;br /&gt;
+  * 将你的功绩带到主线战役中去！在你完成本DLC后，主线战役中的角色将在第五次圣战正式开始之前获得新的力量。&lt;br /&gt;
+&lt;br /&gt;
+&lt;br /&gt;
+新的对手等待着你，准备考验你的正义之怒。但要记住，并非一切都与初见印象相符。有些朋友会背叛你，而昔日敌人也有可能伸出援手。</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1889981</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Pathfinder: Wrath of the Righteous - Through the Ashes</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Pathfinder: Wrath of the Righteous - Through the Ashes</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>策略,冒险,角色扮演,独立</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>DLC</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2022年04月21日</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>当你指引着骑士指挥官走向神话般的荣耀时，坎娜布利燃烧的街道上，普通人则在尽最大努力挣扎求生。站在普通市民的角度看待战争，并证明要展现英雄气节，你并不需要成为一位神话中的勇士。带领一小群市民逃脱囚禁，前往安全的避难所。你将拯救谁？将牺牲谁？主线战役的英雄们又错过了世界之伤的哪些骇人的秘密？&lt;br /&gt;
+&lt;br /&gt;
+• 游玩为低级角色制订的独立迷你战役。&lt;br /&gt;
+• 在8-10小时的游戏时长中，以全新的角度探索被入侵的坎娜布利（以及其它地方）。&lt;br /&gt;
+• 两位新同伴将加入你。这对跟英雄一词丝毫不搭边的同伴对每件事的观点都大相径庭。他们唯一的共识只有：你们这支小队伍不会轻易被打垮。&lt;br /&gt;
+• 集合一组幸存者，带领他们脱离险境。这些人是没有战斗力的平民，但他们能帮你存活下去，只要你也能保证他们的安全。&lt;br /&gt;
+• 克服重重磨难，挺过这场浩劫。学会珍惜你能得到的每一件装备，利用战场上的每个巧合来取得优势。&lt;br /&gt;
+• 了解一位被遗忘已久的恶魔领主的秘密，对抗他可怕的追随者，见识他的异界国度。&lt;br /&gt;
+• 将你的胜利带入主线剧情。让骑士指挥官见到你救出的人们……并获得一件从未知敌人手中抢来的全新独特魔法物品。&lt;br /&gt;
+• 这只是一个开始！本故事中的英雄和反派都将在未来的游戏扩展内容中再度登场，让你更深入地了解在主线战役中没有注意到的世界之伤的秘密。</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1983970</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Affogato</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>加把劲魔女</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>日系角色扮演,动漫,女性主角,塔防,策略角色扮演</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2023年08月17日</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>《加把劲魔女》是一款以魔女为主角的RPG，玩家将伴随魔女运营咖啡店，清偿债务，认识形形色色的顾客，最终深入其内心世界，帮助他们战胜自己最大的恐惧，发掘潜藏的秘密。&lt;br&gt;在这款RPG中，你将体验丰富的剧情、创新的“反塔防”玩法，和高质量的二次元立绘！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/画板_1-CN.png?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/1-CN.gif?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;进入顾客的内心世界，挑战结合了卡牌系统的反塔防关卡，你的每个决策都关系到顾客最终能否战胜心中的恶魔。权衡你的出牌和获胜之路，一招不慎，则有可能永远失去顾客......&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/画板_2-CN.png?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/2-CN.gif?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;认识形形色色的顾客，侧耳倾听他们的故事，进入他们的内心，解决他们的烦恼。你还可以选择和志同道合的客人逐步建立特别的情谊。魔女就是要古道热肠，平易近人嘛！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/画板_3-CN.png?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/3-CN.gif?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;规划每日日程，合理安排时间，今天是多做几笔生意，还是精研咖啡师技术，还是学习更强力的魔咒，抑或是和顾客们建立更牢固的关系呢？请记住，时钟的指针将永不停歇，你的每一个行为都会消耗时间。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/画板_4-CN.png?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/4-CN.gif?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;成为一名咖啡师，你需要学会如何做好咖啡。&lt;br&gt;要成为一名优秀的咖啡师，你还需要察言观色，为顾客调制专属咖啡。游戏还原了现实中的咖啡制作工序。做出一杯上好咖啡，你将有机会解锁隐藏剧情，开启新故事线。</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2064590</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Pathfinder: Wrath of the Righteous – The Treasure of the Midnight Isles</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Pathfinder: Wrath of the Righteous – The Treasure of the Midnight Isles</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>策略,冒险,角色扮演,独立</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>DLC</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2022年08月30日</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>散布在黑暗深渊大洋中的群岛埋藏着无数奇珍异宝，同时也蛰伏着难以言表的恐怖。登上阴森的被诅咒之船，冒险深入未知海域，航向你的财富……或是死亡。&lt;br /&gt;
+&lt;br /&gt;
+•	以独立的类rogue模式，或以主线战役的一部分，探索满载财宝与危机的广袤群岛。&lt;br /&gt;
+&lt;br /&gt;
+•	尝试不同的角色构建和队伍组合，运用丰富多变的开拓者角色扮演系统获取优势，包括神话道途。&lt;br /&gt;
+&lt;br /&gt;
+•	死亡不过是一次挫折！即便队伍团灭，它取得的进度依然能在后续的游玩过程中为你起到帮助。&lt;br /&gt;
+&lt;br /&gt;
+•	装备上新的魔法物品，将新的魔法药水和卷轴放进腰包，去挑战曾经和未曾交手过的敌人。&lt;br /&gt;
+&lt;br /&gt;
+•	发掘这艘载你启航的船只的秘密，以及你正在寻找的终极财宝的真相。</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2114740</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Blasphemous 2</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>神之亵渎2</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>冒险,战斗,类银河战士恶魔城,类魂系列,横向滚屏</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2023年08月25日</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>《神之亵渎》系列的续作预示着“悔罪者一号”的回归，剧情延续自原版游戏的免费可下载内容“Wounds of Eventide”，天空中的心预告着“奇迹”的回归，也代表了新的奇迹之子就要诞生。&lt;br&gt;&lt;br&gt;“悔罪者一号”在一片全然陌生的土地上苏醒，不在他最终长眠之处，他再度深陷出生、死亡和复活的无尽循环，别无选择，他只能动身探索这个危险的新世界，揭开其中被遗忘已久的秘密。&lt;br&gt;&lt;br&gt;成群的怪异敌人阻挡您的去路，等待接受“悔罪者一号”残暴的最终审判，而巨型的变异头目也潜伏在黑暗中，等着能将您送回坟墓的时机。&lt;br&gt;&lt;br&gt;击倒他们并非易事，但《神之亵渎2》将提供您更多自定义和提升技能组合的机会，以及一些能让您怀抱满腔正义热血和无尽怒火使用的全新独特武器，胜利指日可待。&lt;br&gt;&lt;br&gt;最终，只有一件事是确定的... 忏悔永无止境。&lt;br&gt;&lt;br&gt;&lt;strong&gt;探索更完整的非线性世界&lt;/strong&gt;&lt;br&gt;&lt;br&gt;在一个全然陌生的世界苏醒之后，您将在一系列迷人的哥特式怪诞场景中重新展开旅程，到处都是严酷无情的陷阱。要如何应对这个迷宫般的世界由您决定，想要怎么进行都没问题，只能将敌人全数解决。&lt;br&gt;&lt;br&gt;&lt;strong&gt;残暴战斗&lt;/strong&gt;&lt;br&gt;&lt;br&gt;“悔罪者一号”不知手下留情为何物，一系列新武器将带来新的动作、残酷的处决和更多样化的连击，任何挡路的敌人都等着面临毁灭的结局。&lt;br&gt;&lt;br&gt;&lt;strong&gt;自定义游戏风格&lt;/strong&gt;&lt;br&gt;&lt;br&gt;《神之亵渎2》提供了新的游玩方式，可以自定义和提升您的基础技能，还有几种新的独特武器可以对敌人发动毁灭性的攻击。&lt;br&gt;&lt;br&gt;&lt;strong&gt;紧张刺激的头目战&lt;/strong&gt;&lt;br&gt;&lt;br&gt;成群的可怕敌人挡在您与目标之间；扭曲头目具有独特的攻击模式和破坏力惊人的能力，将彻底考验您的技术。想尽办法奋战以在最后取得甜美的胜利。&lt;br&gt;&lt;br&gt;&lt;strong&gt;探索充满深度的新世界&lt;/strong&gt;&lt;br&gt;&lt;br&gt;一个全新世界正等着您，这里有很多神秘的新 NPC 可以互动，有些人会提供帮助，有些人会请求您帮忙，也有些人会派您去执行危险无比的任务，以取得遭遗忘已久的物品。有这么多可以探索的内容，您碰到的故事与事物将帮助您揭开游戏的无数秘密，让您更深入了解这个奇异的新世界。</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2140850</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Looper Tactics</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>虚妄轮回</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>牌组构建,卡牌战斗,自走棋,卡牌游戏,桌上游戏</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2023年08月28日</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>&lt;strong&gt;《虚妄轮回》官方QQ群：658493805&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;如果遇到黑屏，游戏卡死或者其他bug等问题，可以进群找管理员，在线帮您解决。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/介绍gif.gif?t=1693986474" /&gt;&lt;h2 class="bb_tag"&gt;游戏介绍&lt;/h2&gt;《虚妄轮回》是一款独具魅力的策略卡牌RPG，游戏融合了DBG卡牌构筑、经典卡牌对战和酒馆战棋等元素。在这个引人入胜的冒险中，你将穿越棋盘式地图，通过战斗、事件和寻宝不断组建和强化卡组，同时探寻隐藏在这个虚幻世界背后的真相。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn_title1.png?t=1693986474" /&gt;&lt;br&gt;在《虚妄轮回》的冒险过程中，你能够如同探险般自由地翻开地图上板块，探索地图上未知的宝藏与挑战。自由地决定前进的方向，踏足副本中的每一个角落。需要注意的是，你的每一步的行动都会令游戏时间推进，而你的敌人则会随着时间的流逝而逐渐变强。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/棋盘探索.gif?t=1693986474" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn_title2.png?t=1693986474" /&gt;&lt;br&gt;作为一款DBG卡牌构建游戏，《虚妄轮回》融合炉石传说，刀牌和酒馆战棋等经典同类型游戏的玩法，并带有策略和轻度肉鸽元素。游戏中你要通过一次次的战斗、事件、寻宝，收集资源，同时构筑强化你的牌组，为挑战最终BOSS做好准备。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/战斗.gif?t=1693986474" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn_title3.png?t=1693986474" /&gt;&lt;br&gt;游戏中拥有精灵、元素、机械、恶魔与巨龙等多种族卡牌可供选择，每张卡牌都有两种不同的形态可供自由选择。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn1.jpg?t=1693986474" /&gt;&lt;br&gt;每个种族卡牌都有着各自独特的机制，你也可以组合搭配不同的种族卡牌，并配合各类增强法术，构筑出一套专属于你的卡组。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn2.jpg?t=1693986474" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn_title4.png?t=1693986474" /&gt;&lt;br&gt;在一场场的战斗过程中，随从卡牌将能够通过各种方式获得&lt;strong&gt;永久的属性成长&lt;/strong&gt;。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/永久成长.gif?t=1693986474" /&gt;&lt;br&gt;更有数十种独特能力，进一步提升随从卡牌的战斗能力。哪怕是最低阶的随从卡牌，在经历了无数次的战斗后，也能够成为独当一面的强力卡牌。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn3.jpg?t=1693986474" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn_title5.png?t=1693986474" /&gt;&lt;br&gt;《虚妄轮回》中设计有不同风格的迷宫副本供玩家探索挑战，每个副本都有着独特的副本机制及怪物群落，并且会随着游戏的进度而不断提高难度，为你带去完全不同的冒险体验以及更加精彩的战斗挑战。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/迷宫副本.gif?t=1693986474" /&gt;&lt;br&gt;在完成副本之后，还可获得大量强化物资，用于提升卡牌等级、强化英雄、强化宝物等，游戏提供了丰富的局外养成元素，让你用最强的状态去迎接下一次挑战。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn_title6.png?t=1693986474" /&gt;&lt;br&gt;古老帝国创造了盒中世界，实现了人造灵魂。有人惧怕这个世界会带来毁灭，因而将其封印，设置了无尽的轮回来保证它与外界永世隔绝。作为人造物，一旦拥有了灵魂，它的存在是虚妄的，或是真实的？作为造物者，自己的存在是否又源于“更外面”的造物者？&lt;br&gt;如所有的冒险故事一般，在《虚妄轮回》中你将扮演一名身负拯救世界重任的勇者，一路前行成长变强并打败恶龙、魔王，你以为故事会这样简单的结束？这或许只是数千次轮回中一次偶然的成功，你所要面对的可能是比想象还要更加残酷的事实。</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2205850</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Dwarves: Glory, Death and Loot</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>矮人军团自走棋</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>角色扮演,自走棋,角色自定义,策略,类 Rogue</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.3</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2023年08月17日</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://store.steampowered.com/app/2218400/_/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/2218400/_/&lt;/a&gt;&lt;br&gt;《矮人军团自走棋》有着十分爽快的战斗，并将RPG成长、Roguelike冒险和自走棋策略进行了巧妙融合，创造出了节奏轻快，且富含策略深度的游玩体验，实乃上班摸鱼、下班解压的神器。&lt;br&gt;&lt;br&gt;玩家交流QQ群：①767476732（已满） ②740435455（已满） ③801398806&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/小标题1.png?t=1692810619" /&gt;&lt;br&gt;作为新晋的矮人军团指挥官，你的征战之路得从三个矮人开始，他们装备简陋，战斗力不强，只有击败敌人获取经验和金币，让他们全副武装、战技娴熟，以及将更多战士招募进队伍，才能克敌制胜。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图1.gif?t=1692810619" /&gt;&lt;br&gt;&lt;br&gt;每一位矮人战士都可以进行专属定制，通过赋予它们不同的装备，这些矮人将拥有截然不同的定位，有的会成为耐打能抗的肉盾，有的则会成为敏捷灵活的刺客或弓箭手，有的则会成为输出爆炸、极为脆弱的法师。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_banner.gif?t=1692810619" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_archer.gif?t=1692810619" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_hammer.gif?t=1692810619" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_axe.gif?t=1692810619" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_shield.gif?t=1692810619" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_sword.gif?t=1692810619" /&gt;&lt;br&gt;&lt;br&gt;通过调整矮人战士的装备和站位，你便可以随时改变军团的阵容以及战斗方式，打出你所期望的战斗套路，建立起完全属于你的矮人军团。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图3.gif?t=1692810619" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/小标题2.png?t=1692810619" /&gt;&lt;br&gt;每一场战斗结束后，玩家都可以从三个分支中选择一个前进，既可以选择打怪升级，也可以选择购买装备，有或者雇佣新的战士，当然每一种选择背后都充满了机遇与风险。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图7.gif?t=1692810619" /&gt;&lt;br&gt;&lt;br&gt;同时随着玩家游玩的增多，会获得宝石以解锁技能书上的多种技能，会为玩家未来的所有对战提供增益，进一步增强你喜欢的战斗风格。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图8.gif?t=1692810619" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/小标题3.png?t=1692810619" /&gt;&lt;br&gt;随着你的矮人军团不断变强，所要遭遇的敌人无论数量和战斗力也都会跟着水涨船高，战场将变得十分激烈。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图4.gif?t=1692810619" /&gt;&lt;br&gt;&lt;br&gt;面对不同的敌人配置，请及时调整军团的装备和站位，敌人突击多，就需要加强前排，如果敌方法师多，就要注重切后排，战术正确的话才更有把握获胜。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图5.gif?t=1692810619" /&gt;&lt;br&gt;&lt;br&gt;如果只想着提高版面数字，用错误的阵容出战，被放了风筝或者切了后排，结果恐怕都不会乐观，所以请一定充分的总结经验，开动脑筋，充分的运用策略吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图6.gif?t=1692810619" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/小标题4.png?t=1692810619" /&gt;&lt;br&gt;&lt;br&gt;虽然目前玩家已经能进入游戏，享受指挥矮人军团攻伐的乐趣，但游戏目前仍处于Demo阶段。后续还有更多新装备、新职业、新地图以及新BOSS加入，为这场战争再添几分热度！&lt;br&gt;&lt;br&gt;这不会太久，大家敬请期待！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_assassin.gif?t=1692810619" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/troll_animated.gif?t=1692810619" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dragon_transparent_x1.gif?t=1692810619" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2244480</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>REMEDIUM: Sentinels</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>REMEDIUM: Sentinels</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>动作类 Rogue,弹幕射击,轻度 Rogue,射击,3D</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2023年07月18日</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x346_ch_s.jpg?t=1692802960" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_1.png?t=1692802960" /&gt;&lt;br&gt;&lt;br&gt;《拯救：卫兵》是一款快节奏的轻度类Rogue自动射击游戏，背景世界与游戏《拯救》相同。一百多年前，灰色瘟疫肆虐，大部分人类都变成了凶恶的变种生物。这片土地如今被死亡和混乱笼罩，只有少数城市仍然屹立不倒。&lt;br&gt;&lt;br&gt;你将操控炼金术士创造的一个卫兵，肩负唯一的使命——只要你的反应堆还在运转，就竭力保卫城市，抵挡变种生物无尽的袭击。组合物品和炼金元素，不断获取新的武器，打造独特的构筑！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/saw-1_new.gif?t=1692802960" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_2.png?t=1692802960" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;易于上手，难以精通&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;巧妙操控卫兵突破致命变种生物的包围，利用它的武器将敌人消灭！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;收集原质，提升守卫的性能&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/Desktop_2023.02.10_-_14.46.11.13_3.gif?t=1692802960" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;组合武器和物品，赋予它们全新的元素效果&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;卫兵反应堆的能量耗尽之前，一定不能牺牲！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;面对并击败强大的头目&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;完成数十项挑战，解锁全新的能力&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/Choose_your_Sentinel.gif?t=1692802960" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;炼金术创造的各类枪械和技能供你选择&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;灵活升级或精心打造角色构筑，以对抗特性和抗性不同的变种怪物&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;坚持得越久，你就越强大。不断获得技能、武器，不断击败敌人。简而言之，游戏超级耐玩！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_3.png?t=1692802960" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/2244480/REMEDIUM_Sentinels/" target="_blank" rel=""  id="dynamiclink_2" &gt;https://store.steampowered.com/app/2244480/REMEDIUM_Sentinels/&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2266770</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Pathfinder: Wrath of the Righteous - The Last Sarkorians</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Pathfinder: Wrath of the Righteous - The Last Sarkorians</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>角色扮演,冒险,策略,独立</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>DLC</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2023年03月07日</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>邂逅乌布里格·欧列克，四分五裂的萨阔力仅存的后裔之一。他身怀变形成强大狮鹫的绝技，能够成为您队伍中势不可挡的斗士、一位值得信赖的朋友——甚至可能不仅于此。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;附带6个变体的新可选职业。成为一名化形师，使用动物拟态和形态，以野兽的怒火消灭您的敌人！&lt;br&gt;&lt;/li&gt;&lt;li&gt;队伍迎来新成员：一位从家园的灭顶之灾中神秘生还的萨阔力部族酋长。&lt;br&gt;&lt;/li&gt;&lt;li&gt;一个此前无法到访的全新地区，您将与新的盟友一起展开探索，与新的敌人交手，并揭示一些古老的秘密。&lt;br&gt;&lt;/li&gt;&lt;li&gt;9个全新法术将协助您与新敌人和老对手的战斗。&lt;br&gt;&lt;/li&gt;&lt;li&gt;不论男女角色，均可选择与乌布里格发展恋爱剧情。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2273170</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Gaia Trek</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>盖娅迷航</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>卡牌游戏,资源管理,塔防,基地建设,管理</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2023年08月23日</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>欢迎关注我们的官方社群:&lt;br&gt;《盖娅迷航》玩家QQ群: 699632445&lt;br&gt;游戏便当QQ群①：287356527【已满】&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569【已满】&lt;br&gt;游戏便当QQ群④：909356067&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/1.png?t=1693657142" /&gt;&lt;br&gt;&lt;br&gt;控制你的飞船与别的星球进行“友好交流”。探索陌生的星球，收集并加工种类丰富的资源，在受损的飞船上建设你的家园，打造千奇百怪的怪兽为你而战，最终吞噬其他星球意志以修复自身。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z1.png?t=1693657142" /&gt;&lt;br&gt;宇宙中已发现存在7种独具特色的种族，共计50+极具个性化能力的个体。然而这些不过是更高级存在——星球意志的桌上玩物，随意拿取两种个体进行融合即可产生全新个体，共计400+融合个体等你创造！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/1融合.gif?t=1693657142" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z2.png?t=1693657142" /&gt;&lt;br&gt;各个种族根据自身的生物特性发展出了属于自身的独特文明，光合族由种子生根发芽，奇美拉族通过交配繁衍，洞虫族以虫后为绝对中心，奥托玛族靠工厂制造以能源为本，本源族源于世间万物中蕴含的元素，抑默心族伴生于生物个体的情绪变化，神族由于生物的虔诚信仰而实体化。顺应各族的文明而存在的独特功能建筑共50+。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/怪物生成.gif?t=1693657142" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z3.png?t=1693657142" /&gt;&lt;br&gt;既有极为寻常的砍树挖矿、种植炼铁、加工建造，又有科幻十足的情绪具象、元素实体、机械生命。丰富多样的地形区域中蕴藏着上百种资源卡，派遣你的怪兽前去探索、采集、掠夺，带回来的每一张资源卡都是取得胜利的关键。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/合成2.gif?t=1693657142" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z4.png?t=1693657142" /&gt;&lt;br&gt;产出单位、打造建筑、探索地图、抵御进攻，你需要完成很多事情，但是你的时间可不多。从降落在这个文明，第一个单位的产出，第一座建筑的落地，这场残酷的战斗就已经开始，要么运筹帷幄拿下这里，要么败走麦城落荒而逃。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/boss动图.gif?t=1693657142" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>2273430</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>BlazBlue Entropy Effect</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>苍翼：混沌效应</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>抢先体验,动作类 Rogue,动作冒险,平台游戏,类银河战士恶魔城</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>8.1</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>抢先体验,动作类 Rogue,动作冒险,类银河战士恶魔城,平台游戏</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>2023年08月16日</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/2s8sQbmtpE" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/3ff496ac-5d11-4609-844e-ceeaf4c1953b.jpg?t=1693550018" /&gt;&lt;/a&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-1.png?t=1693550018" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/2D_ACT战斗体验的天花板.gif?t=1693550018" /&gt;&lt;br&gt;纯正格斗血统的全新动作肉鸽游戏，资深动作团队以ACT之名打造极致2D动作战斗体验！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-2.png?t=1693550018" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/千变万化的动作战斗.gif?t=1693550018" /&gt;&lt;br&gt;魅力非凡的各个角色可以通过上百种招式自由构建，打造独一无二的动作连招。角色间迭代传承的继承系统，让每一次战斗的结束又成为新战斗的起点。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-3.png?t=1693550018" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/无限可能的肉鸽构建.gif?t=1693550018" /&gt;&lt;br&gt;八大元素策略体系（电、火、毒、光、刃、冰、暗、通用），超过两百种强化效果与动作系统联动，通过不同的搭配组合，在动作战斗中触发不同的“化学反应”，燃烧、冰冻、致盲、麻痹......挑选合适的词条强化，进一步“定制”属于自己的动作流派！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/01CN.png?t=1693550018" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/两大经典玩法合璧.gif?t=1693550018" /&gt;&lt;br&gt;箱庭式闯关+类银河城冒险结合设计，汇集横版动作的两种经典玩法。在箱庭式关卡中击败不同敌人，挑战阶段性BOSS；在随机生成的类银河城大地图中冒险，踏入隐秘禁区、探索故事终点。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/02ECN.png?t=1693550018" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/多线性·多结局.gif?t=1693550018" /&gt;&lt;br&gt;在架空的近未来世界，人们通过名为“ACE”的科技装置进入虚拟空间，化身为不同角色战斗。虚构的一切，却一步步影响着真实的未来。&lt;br&gt;由特殊粒子效果展现的事象碎片诉说着隐秘或真相，你会怎么判断？&lt;br&gt;由对话选择驱动的多线性剧情发展，你将如何抉择？&lt;br&gt;谨慎改变故事的走向，战斗的终点将是完全不同的未来。&lt;br&gt;&lt;br&gt;*本作品属外传衍生游戏，世界观为新原创内容，故事情节不涉及BlazBlue本篇剧情。</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2345020</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Bee Island</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>蜜蜂岛</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>沙盒,模拟,欢乐,单人,物理</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2023年08月26日</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>&lt;h2 class="bb_tag"&gt;防守&lt;/h2&gt;敌人不时攻击你的蜂巢。 他们投下炸弹、喷洒毒药并发射火箭。 每一次他们都会变得更强。 建造弩炮、机关枪、防空导弹发射器和其他防御设施来保护您的蜂巢&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2345020/extras/GunBee.gif?t=1693503282" /&gt;&lt;h2 class="bb_tag"&gt;研究科技树&lt;/h2&gt;研究新的技术和建筑以应对不断加强的敌人。选择哪些技术将引领你走向胜利？你会以和平结束战争还是毁灭所有敌人?&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2345020/extras/bee_war.gif?t=1693503282" /&gt;&lt;h2 class="bb_tag"&gt;蜜蜂&lt;/h2&gt;女王需要更多的工人和战士。 建造幼儿园和学校来培养新的蜜蜂&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2345020/extras/WarBee.gif?t=1693503282" /&gt;&lt;h2 class="bb_tag"&gt;工厂&lt;/h2&gt;游戏中有 7 种资源，要获得其中一些资源，您需要工厂。 建造蜂窝并在其上放置建筑物&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2345020/extras/Build.gif?t=1693503282" /&gt;&lt;h2 class="bb_tag"&gt;休闲&lt;/h2&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2345020/extras/FountainBee.gif?t=1693503282" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2522620</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>幸运宝石</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>幸运宝石</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>休闲,农场模拟,城市营造,桌上游戏,棋盘游戏</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2023年08月22日</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>&lt;h2 class="bb_tag"&gt;&lt;strong&gt;幸运宝石&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;《幸运宝石》是一款创新的休闲游戏，让你在一个美丽的宝石世界中，与各种精灵合作，收获各种颜色和形状的宝石。游戏的玩法简单有趣，却又不乏挑战。你要招募各种精灵，扩建你的宝石领地，采集闪亮的水晶，让精灵们协作收获宝石。但是，宝石的采集并非一帆风顺，你要合理分配资源，同时也要靠运气的眷顾。 这是一款适合所有年龄段和喜好的游戏，它可以让你在闲暇时放松心情，开启你的宝石之旅吧！</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,22 +550,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>255710</t>
+          <t>239030</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cities: Skylines</t>
+          <t>Papers, Please</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>城市：天际线</t>
+          <t>请出示文件</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>城市营造,模拟,建造,管理,策略</t>
+          <t>独立,模拟,单人,指向点击,像素图形</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -575,39 +575,39 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2015年03月10日</t>
+          <t>2013年08月09日</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>《城市：天际线》是对经典城市模拟类游戏的现代演绎。该游戏引入了全新的游戏玩法元素，让玩家切身体会到创造和维持一座真正城市的兴奋和艰辛，同时扩展了城市建设体验中的一些经久不衰的主题。&lt;br&gt;&lt;br&gt;这款游戏由《都市运输》系列游戏的制作者们推出，拥有一个不折不扣的交通系统。它还赋予玩家根据自身游戏风格改造游戏的能力，出色地与多层级且极具挑战性的模拟功能相制衡。您只受您的想像力的限制，放手掌控一切，打造城市天际吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/255710/extras/Steam-Gif-Basegame-1-Challenging-Simulation.gif?t=1692879552" /&gt;&lt;br&gt;从头开始建造您的城市学起来容易，但掌握起来难。在游戏中，作为城市的市长，您将面对平衡各种必要需求的难题，例如教育、水力发电、警察、消防、医疗等等诸多问题，以及您的城市真正的经济体系。您的城市中的居民严肃灵活地对众多游戏场景做出回应，真实感极强。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/255710/extras/Steam-Gif-Basegame-2-Extensive-Local-Traffic-Simulation.gif?t=1692879552" /&gt;&lt;br&gt;充分利用 Colossal Orders 在开发《都市运输》系列时积累的丰富经验，打造出精致详实、精心设计的交通体系。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/255710/extras/districts-policies-v2.gif?t=1692879552" /&gt;&lt;br&gt;您不仅仅是市政厅的行政长官。将城市的部分区域指定为地区，使政策得以实施，从而使您出人头地，荣登您自创城市的市长宝座。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/255710/extras/Steam-Gif-Basegame-4-Utilize-the-day-_-night-cycle.gif?t=1692879552" /&gt;&lt;h2 class="bb_tag"&gt;利用昼夜的更替&lt;/h2&gt;城市随着一天中的不同时间而变化，影响着市民的日程安排。夜间，车流量明显放缓，一些划定的区域未满负荷运行。本扩展包将使您得以掌控昼夜更替的不同方面。&lt;h2 class="bb_tag"&gt;广泛的改造支持：&lt;/h2&gt;塑造或改进现有的地图和结构。随后您可将之导入游戏，在 Steam 工作室中与他人分享它们，并下载其他城市建设者的杰作。</t>
+          <t>&lt;i&gt;&lt;strong&gt;Congratulations. &lt;/strong&gt;&lt;br&gt;The October labor lottery is complete. Your name was pulled. &lt;br&gt;For immediate placement, report to the Ministry of Admission at Grestin Border Checkpoint. &lt;br&gt;An apartment will be provided for you and your family in East Grestin. Expect a Class-8 dwelling. &lt;br&gt;&lt;strong&gt;Glory to Arstotzka&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;The communist state of Arstotzka has just ended a 6-year war with neighboring Kolechia and reclaimed its rightful half of the border town, Grestin. &lt;br&gt;&lt;br&gt;Your job as immigration inspector is to control the flow of people entering the Arstotzkan side of Grestin from Kolechia. Among the throngs of immigrants and visitors looking for work are hidden smugglers, spies, and terrorists.&lt;br&gt;&lt;br&gt;Using only the documents provided by travelers and the Ministry of Admission's primitive inspect, search, and fingerprint systems you must decide who can enter Arstotzka and who will be turned away or arrested.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>264710</t>
+          <t>255710</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Subnautica</t>
+          <t>Cities: Skylines</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>深海迷航</t>
+          <t>城市：天际线</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>开放世界生存制作,生存,开放世界,探索,水底</t>
+          <t>城市营造,模拟,建造,管理,策略</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -617,39 +617,39 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2018年01月24日</t>
+          <t>2015年03月10日</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Subnautica is an underwater adventure game set on an alien ocean planet. A massive, open world full of wonder and peril awaits you!&lt;h2 class="bb_tag"&gt;Dive Into a Vast Underwater World&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20161220_Steam_Inline_Shallows.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;You have crash-landed on an alien ocean world, and the only way to go is down. Subnautica's oceans range from sun drenched shallow coral reefs to treacherous deep-sea trenches, lava fields, and bio-luminescent underwater rivers. Manage your oxygen supply as you explore kelp forests, plateaus, reefs, and winding cave systems. The water teems with life: Some of it helpful, much of it harmful.&lt;h2 class="bb_tag"&gt;Scavenge, Craft, and Survive&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20141216_Steam_Inline_DamagedPod.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;After crash landing in your Life Pod, the clock is ticking to find water, food, and to develop the equipment you need to explore. Collect resources from the ocean around you. Craft diving gear, lights, habitat modules, and submersibles. Venture deeper and further form to find rarer resources, allowing you to craft more advanced items.&lt;h2 class="bb_tag"&gt;Construct Underwater Habitats&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20161220_Steam_Inline_Base.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;Build bases on the sea floor. Choose layouts and components, and manage hull-integrity as depth and pressure increase. Use your base to store resources, park vehicles, and replenish oxygen supplies as you explore the vast ocean.&lt;h2 class="bb_tag"&gt;Unravel the Mystery&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20170403_SN_Steam_Inline_Mystery.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;What happened to this planet? Signs abound that something is not right. What caused you to crash? What is infecting the sea life? Who built the mysterious structures scattered around the ocean? Can you find a way to make it off the planet alive?&lt;h2 class="bb_tag"&gt;Disrupt the Food Chain&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20161220_Steam_Inline_FoodChain.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;The ocean teems with life: Use the ecosystem to help you. Lure and distract a threatening creature with a fresh fish, or simply swim as fast as you can to avoid gnashing jaws of roaming predators.&lt;h2 class="bb_tag"&gt;Handle the Pressure&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/steamexosuit.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;Build a Pressure Re-Active Waterproof Nanosuit, or PRAWN Suit, and explore extreme depth and heat. Modify the suit with mining drills, torpedo launchers, propulsion cannons, grappling hooks and more.&lt;h2 class="bb_tag"&gt;Fear the Night&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20161220_Steam_Inline_Night.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;As the sun goes down, the predators come out. The ocean is unforgiving of those caught unprepared in the darkness. Areas that are safe to explore during the day become treacherous at night, but also reveal a beauty that those who hide from the darkness will never see.&lt;h2 class="bb_tag"&gt;Dive Below the Ocean Floor&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20170403_SN_Steam_Inline_LostRiver.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;Cave systems wind below the sea bed, from dark claustrophobic passages to caverns lit by bio-luminescent life and burning-hot lava flows. Explore the world below the ocean floor, but watch your oxygen levels, and take care to avoid the threats lurking in the darkness.&lt;h2 class="bb_tag"&gt;Open Development&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20170403_SN_Steam_Inline_Cyclops.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="http://steamcommunity.com/sharedfiles/filedetails/?id=355026171" target="_blank" rel=""  &gt;Get weekly or daily updates,&lt;/a&gt; see &lt;a href="https://steamcommunity.com/linkfilter/?url=https://trello.com/b/yxoJrFgP/subnautica" target="_blank" rel=" noopener"  &gt;what the development team is working on,&lt;/a&gt; view &lt;a href="https://steamcommunity.com/linkfilter/?url=http://subnautica.unknownworlds.com/#/subnautica/feedback" target="_blank" rel=" noopener"  &gt;real time change logs,&lt;/a&gt; and give feedback &lt;a href="http://steamcommunity.com/sharedfiles/filedetails/?id=356376081" target="_blank" rel=""  &gt;from inside the game.&lt;/a&gt; Subnautica Early Access development is open, and the development team wants to hear from you.&lt;h2 class="bb_tag"&gt;About the Development Team&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20150416_Subnautica_Steam_Inline_UWE.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;Subnautica is being created by Unknown Worlds, a small studio founded by &lt;a href="http://twitter.com/flayra" target="_blank" rel=""  &gt;Charlie Cleveland&lt;/a&gt; and &lt;a href="http://twitter.com/max_mcguire" target="_blank" rel=""  &gt;Max McGuire&lt;/a&gt; that traces its roots back to the 2003 Half-Life mod Natural Selection. The team is scattered around the globe, from the United States to the United Kingdom, France, the Czech Republic, Russia, Thailand, Australia, and many more places. There is a central office in San Francisco, California that serves as home base for the whole team.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20170403_SN_Steam_Inline_SafeHole.jpg?t=1670975847" /&gt;&lt;h2 class="bb_tag"&gt;Warning&lt;/h2&gt;&lt;br&gt;This game contains flashing lights that may make it unsuitable for people with photosensitive epilepsy or other photosensitive conditions. Player discretion is advised.</t>
+          <t>《城市：天际线》是对经典城市模拟类游戏的现代演绎。该游戏引入了全新的游戏玩法元素，让玩家切身体会到创造和维持一座真正城市的兴奋和艰辛，同时扩展了城市建设体验中的一些经久不衰的主题。&lt;br&gt;&lt;br&gt;这款游戏由《都市运输》系列游戏的制作者们推出，拥有一个不折不扣的交通系统。它还赋予玩家根据自身游戏风格改造游戏的能力，出色地与多层级且极具挑战性的模拟功能相制衡。您只受您的想像力的限制，放手掌控一切，打造城市天际吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/255710/extras/Steam-Gif-Basegame-1-Challenging-Simulation.gif?t=1692879552" /&gt;&lt;br&gt;从头开始建造您的城市学起来容易，但掌握起来难。在游戏中，作为城市的市长，您将面对平衡各种必要需求的难题，例如教育、水力发电、警察、消防、医疗等等诸多问题，以及您的城市真正的经济体系。您的城市中的居民严肃灵活地对众多游戏场景做出回应，真实感极强。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/255710/extras/Steam-Gif-Basegame-2-Extensive-Local-Traffic-Simulation.gif?t=1692879552" /&gt;&lt;br&gt;充分利用 Colossal Orders 在开发《都市运输》系列时积累的丰富经验，打造出精致详实、精心设计的交通体系。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/255710/extras/districts-policies-v2.gif?t=1692879552" /&gt;&lt;br&gt;您不仅仅是市政厅的行政长官。将城市的部分区域指定为地区，使政策得以实施，从而使您出人头地，荣登您自创城市的市长宝座。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/255710/extras/Steam-Gif-Basegame-4-Utilize-the-day-_-night-cycle.gif?t=1692879552" /&gt;&lt;h2 class="bb_tag"&gt;利用昼夜的更替&lt;/h2&gt;城市随着一天中的不同时间而变化，影响着市民的日程安排。夜间，车流量明显放缓，一些划定的区域未满负荷运行。本扩展包将使您得以掌控昼夜更替的不同方面。&lt;h2 class="bb_tag"&gt;广泛的改造支持：&lt;/h2&gt;塑造或改进现有的地图和结构。随后您可将之导入游戏，在 Steam 工作室中与他人分享它们，并下载其他城市建设者的杰作。</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>286690</t>
+          <t>264710</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Metro 2033 Redux</t>
+          <t>Subnautica</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>地铁：2033 重制版</t>
+          <t>深海迷航</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>后末日,第一人称射击,氛围,剧情丰富,动作</t>
+          <t>开放世界生存制作,生存,开放世界,探索,水底</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -659,39 +659,39 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2014年08月29日</t>
+          <t>2018年01月24日</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>In 2013 the world was devastated by an apocalyptic event, annihilating almost all mankind and turning the Earth's surface into a poisonous wasteland. A handful of survivors took refuge in the depths of the Moscow underground, and human civilization entered a new Dark Age. &lt;br&gt;&lt;br&gt;The year is 2033. An entire generation has been born and raised underground, and their besieged Metro Station-Cities struggle for survival, with each other, and the mutant horrors that await outside. You are Artyom, born in the last days before the fire, but raised underground. Having never ventured beyond the city limits, one fateful event sparks a desperate mission to the heart of the Metro system, to warn the remnants of mankind of a terrible impending threat. &lt;br&gt;&lt;br&gt;Your journey takes you from the forgotten catacombs beneath the subway to the desolate wastelands above, where your actions will determine the fate of mankind. But what if the real threat comes from within?&lt;h2 class="bb_tag"&gt;Product Overview&lt;/h2&gt;&lt;br&gt;Metro 2033 Redux is the definitive version of the cult classic ‘Metro 2033’, rebuilt in the latest and greatest iteration of the 4A Engine for Next Gen. Fans of the original game will find the unique world of Metro transformed with incredible lighting, physics and dynamic weather effects. Newcomers will get the chance to experience one of the finest story-driven shooters of all time; an epic adventure combining gripping survival horror, exploration and tactical combat and stealth. &lt;br&gt;&lt;br&gt;All the gameplay improvements and features from the acclaimed sequel ‘Metro: Last Light’ have been transferred to Metro 2033 Redux – superior AI, controls, animation, weapon handling and many more – to create a thrilling experience for newcomers and veterans alike. With two unique play-styles, and the legendary Ranger Mode  included, Metro 2033 Redux offers hours of AAA gameplay for an incredible price.&lt;h2 class="bb_tag"&gt;Game Features&lt;/h2&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;ul class="bb_ul"&gt;&lt;strong&gt;Immerse yourself in the Moscow Metro -&lt;/strong&gt; witness one of the most atmospheric worlds in gaming brought to life with stunning next-gen visuals at 60FPSBrave the horrors of the Russian apocalypse - equip your gasmask and an arsenal of hand-made weaponry as you face the threat of deadly mutants, human foes, and the terrifying environment itself&lt;/ul&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;ul class="bb_ul"&gt;&lt;strong&gt;Rebuilt and Remastered for next-gen -&lt;/strong&gt; this is no mere &amp;quot;HD port.&amp;quot; Metro 2033 has been rebuilt in the vastly improved Last Light engine and gameplay framework, to create the definitive version of the cult classic that fans and newcomers alike can enjoy&lt;/ul&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;ul class="bb_ul"&gt;&lt;strong&gt;Two unique Play Styles : &amp;quot;Spartan&amp;quot; and &amp;quot;Survival&amp;quot; -&lt;/strong&gt; approach the game as a slow-burn Survival Horror, or tackle it with the combat skills of a Spartan Ranger in these two unique modes&lt;/ul&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;ul class="bb_ul"&gt;&lt;strong&gt;The legendary Ranger Mode returns -&lt;/strong&gt; dare you play the fearsome Ranger Mode? No HUD, UI, deadlier combat and limited resources combine to create the ultimate immersive experience&lt;/ul&gt;&lt;br&gt;Notice for OS X Yosemite 10.10.5 users with an Nvidia graphics card at or above the minimum specification listed below:&lt;br&gt;Currently separate drivers are available to fix performance issues specifically affecting Nvidia users who are using OS X Yosemite. These drivers are currently only compatible with OS X Yosemite 10.10.5 and can be found here &lt;a href="https://steamcommunity.com/linkfilter/?url=http://www.nvidia.com/download/driverResults.aspx/89538/en-us" target="_blank" rel=" noopener"  &gt;http://www.nvidia.com/download/driverResults.aspx/89538/en-us&lt;/a&gt;.&lt;br&gt;&lt;br&gt;Based on the internationally bestselling novel series by Dmitry Glukhovsky&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>Subnautica is an underwater adventure game set on an alien ocean planet. A massive, open world full of wonder and peril awaits you!&lt;h2 class="bb_tag"&gt;Dive Into a Vast Underwater World&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20161220_Steam_Inline_Shallows.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;You have crash-landed on an alien ocean world, and the only way to go is down. Subnautica's oceans range from sun drenched shallow coral reefs to treacherous deep-sea trenches, lava fields, and bio-luminescent underwater rivers. Manage your oxygen supply as you explore kelp forests, plateaus, reefs, and winding cave systems. The water teems with life: Some of it helpful, much of it harmful.&lt;h2 class="bb_tag"&gt;Scavenge, Craft, and Survive&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20141216_Steam_Inline_DamagedPod.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;After crash landing in your Life Pod, the clock is ticking to find water, food, and to develop the equipment you need to explore. Collect resources from the ocean around you. Craft diving gear, lights, habitat modules, and submersibles. Venture deeper and further form to find rarer resources, allowing you to craft more advanced items.&lt;h2 class="bb_tag"&gt;Construct Underwater Habitats&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20161220_Steam_Inline_Base.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;Build bases on the sea floor. Choose layouts and components, and manage hull-integrity as depth and pressure increase. Use your base to store resources, park vehicles, and replenish oxygen supplies as you explore the vast ocean.&lt;h2 class="bb_tag"&gt;Unravel the Mystery&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20170403_SN_Steam_Inline_Mystery.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;What happened to this planet? Signs abound that something is not right. What caused you to crash? What is infecting the sea life? Who built the mysterious structures scattered around the ocean? Can you find a way to make it off the planet alive?&lt;h2 class="bb_tag"&gt;Disrupt the Food Chain&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20161220_Steam_Inline_FoodChain.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;The ocean teems with life: Use the ecosystem to help you. Lure and distract a threatening creature with a fresh fish, or simply swim as fast as you can to avoid gnashing jaws of roaming predators.&lt;h2 class="bb_tag"&gt;Handle the Pressure&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/steamexosuit.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;Build a Pressure Re-Active Waterproof Nanosuit, or PRAWN Suit, and explore extreme depth and heat. Modify the suit with mining drills, torpedo launchers, propulsion cannons, grappling hooks and more.&lt;h2 class="bb_tag"&gt;Fear the Night&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20161220_Steam_Inline_Night.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;As the sun goes down, the predators come out. The ocean is unforgiving of those caught unprepared in the darkness. Areas that are safe to explore during the day become treacherous at night, but also reveal a beauty that those who hide from the darkness will never see.&lt;h2 class="bb_tag"&gt;Dive Below the Ocean Floor&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20170403_SN_Steam_Inline_LostRiver.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;Cave systems wind below the sea bed, from dark claustrophobic passages to caverns lit by bio-luminescent life and burning-hot lava flows. Explore the world below the ocean floor, but watch your oxygen levels, and take care to avoid the threats lurking in the darkness.&lt;h2 class="bb_tag"&gt;Open Development&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20170403_SN_Steam_Inline_Cyclops.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="http://steamcommunity.com/sharedfiles/filedetails/?id=355026171" target="_blank" rel=""  &gt;Get weekly or daily updates,&lt;/a&gt; see &lt;a href="https://steamcommunity.com/linkfilter/?url=https://trello.com/b/yxoJrFgP/subnautica" target="_blank" rel=" noopener"  &gt;what the development team is working on,&lt;/a&gt; view &lt;a href="https://steamcommunity.com/linkfilter/?url=http://subnautica.unknownworlds.com/#/subnautica/feedback" target="_blank" rel=" noopener"  &gt;real time change logs,&lt;/a&gt; and give feedback &lt;a href="http://steamcommunity.com/sharedfiles/filedetails/?id=356376081" target="_blank" rel=""  &gt;from inside the game.&lt;/a&gt; Subnautica Early Access development is open, and the development team wants to hear from you.&lt;h2 class="bb_tag"&gt;About the Development Team&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20150416_Subnautica_Steam_Inline_UWE.jpg?t=1670975847" /&gt;&lt;br&gt;&lt;br&gt;Subnautica is being created by Unknown Worlds, a small studio founded by &lt;a href="http://twitter.com/flayra" target="_blank" rel=""  &gt;Charlie Cleveland&lt;/a&gt; and &lt;a href="http://twitter.com/max_mcguire" target="_blank" rel=""  &gt;Max McGuire&lt;/a&gt; that traces its roots back to the 2003 Half-Life mod Natural Selection. The team is scattered around the globe, from the United States to the United Kingdom, France, the Czech Republic, Russia, Thailand, Australia, and many more places. There is a central office in San Francisco, California that serves as home base for the whole team.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/HeadingDivider.png?t=1670975847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/264710/extras/20170403_SN_Steam_Inline_SafeHole.jpg?t=1670975847" /&gt;&lt;h2 class="bb_tag"&gt;Warning&lt;/h2&gt;&lt;br&gt;This game contains flashing lights that may make it unsuitable for people with photosensitive epilepsy or other photosensitive conditions. Player discretion is advised.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>287390</t>
+          <t>286690</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Metro: Last Light Redux</t>
+          <t>Metro 2033 Redux</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>地铁：最后的曙光 重制版</t>
+          <t>地铁：2033 重制版</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>后末日,第一人称射击,氛围,动作,剧情丰富</t>
+          <t>后末日,第一人称射击,氛围,剧情丰富,动作</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -701,39 +701,39 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2014年08月28日</t>
+          <t>2014年08月29日</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>It is the year 2034. Beneath the ruins of post-apocalyptic Moscow, in the tunnels of the Metro, the remnants of mankind are besieged by deadly threats from outside – and within. Mutants stalk the catacombs beneath the desolate surface, and hunt amidst the poisoned skies above.&lt;br&gt;&lt;br&gt;But rather than stand united, the station-cities of the Metro are locked in a struggle for the ultimate power, a doomsday device from the military vaults of D6. A civil war is stirring that could wipe humanity from the face of the earth forever. As Artyom, burdened by guilt but driven by hope, you hold the key to our survival – the last light in our darkest hour…&lt;h2 class="bb_tag"&gt;Product Overview:&lt;/h2&gt;&lt;br&gt;Metro: Last Light Redux is the definitive version of the critically acclaimed ‘Metro: Last Light’, rebuilt in the latest and greatest iteration of the 4A Engine for Next Gen.  Newcomers will get the chance to experience one of the finest story-driven shooters of all time; an epic adventure combining gripping survival horror, exploration and tactical combat and stealth. &lt;br&gt;&lt;br&gt;This definitive version also includes all previously released DLC, adding 10 hours of bonus single-player content to the huge solo campaign. Fans of the original game will notice new features and gameplay improvements, including new melee animations, the ability to check your watch and ammo supplies on the fly, and new full-body player animations.&lt;br&gt;&lt;br&gt;And those who favoured the more survival-horror oriented gameplay of the cult prequel ‘Metro 2033’ will find a new way to experience the campaign thanks to the introduction of two unique Play Styles – Survival and Spartan. The former transforms Last light from a more action-oriented stealth combat experience to a fraught, slow burn fight for survival. With the legendary Ranger Mode included to offer an extra layer of challenge and immersion, Metro: Last Light Redux offers hours of AAA gameplay for an incredible price.&lt;h2 class="bb_tag"&gt;Game Features&lt;/h2&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;ul class="bb_ul"&gt;&lt;strong&gt;Immerse yourself in the Moscow Metro -&lt;/strong&gt; witness one of the most atmospheric worlds in gaming brought to life with stunning next-gen visuals at 60FPSBrave the horrors of the Russian apocalypse - equip your gasmask and an arsenal of hand-made weaponry as you face the threat of deadly mutants, human foes, and the terrifying environment itself&lt;/ul&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;ul class="bb_ul"&gt;&lt;strong&gt;Rebuilt and Remastered for next-gen -&lt;/strong&gt; with all previous DLC content included, new modes and features, and many gameplay improvement, this is the definitive version of the critically acclaimed classic that fans and newcomers alike will enjoy&lt;/ul&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;ul class="bb_ul"&gt;&lt;strong&gt;Two unique Play Styles : &amp;quot;Spartan&amp;quot; and &amp;quot;Survival&amp;quot; -&lt;/strong&gt; approach the game as a slow burn Survival Horror, or tackle it with the combat skills of a Spartan Ranger in these two unique modes&lt;/ul&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;ul class="bb_ul"&gt;&lt;strong&gt;The legendary Ranger Mode returns -&lt;/strong&gt; dare you play the fearsome Ranger Mode? No HUD, UI, deadlier combat and limited resources combine to create the ultimate immersive experience&lt;/ul&gt;&lt;br&gt;Notice for OS X Yosemite 10.10.5 users with an Nvidia graphics card at or above the minimum specification listed below:&lt;br&gt;Currently separate drivers are available to fix performance issues specifically affecting Nvidia users who are using OS X Yosemite. These drivers are currently only compatible with OS X Yosemite 10.10.5 and can be found here &lt;a href="https://steamcommunity.com/linkfilter/?url=http://www.nvidia.com/download/driverResults.aspx/89538/en-us" target="_blank" rel=" noopener"  &gt;http://www.nvidia.com/download/driverResults.aspx/89538/en-us&lt;/a&gt;.&lt;br&gt;&lt;br&gt;Based on the internationally bestselling novel series by Dmitry Glukhovsky&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>In 2013 the world was devastated by an apocalyptic event, annihilating almost all mankind and turning the Earth's surface into a poisonous wasteland. A handful of survivors took refuge in the depths of the Moscow underground, and human civilization entered a new Dark Age. &lt;br&gt;&lt;br&gt;The year is 2033. An entire generation has been born and raised underground, and their besieged Metro Station-Cities struggle for survival, with each other, and the mutant horrors that await outside. You are Artyom, born in the last days before the fire, but raised underground. Having never ventured beyond the city limits, one fateful event sparks a desperate mission to the heart of the Metro system, to warn the remnants of mankind of a terrible impending threat. &lt;br&gt;&lt;br&gt;Your journey takes you from the forgotten catacombs beneath the subway to the desolate wastelands above, where your actions will determine the fate of mankind. But what if the real threat comes from within?&lt;h2 class="bb_tag"&gt;Product Overview&lt;/h2&gt;&lt;br&gt;Metro 2033 Redux is the definitive version of the cult classic ‘Metro 2033’, rebuilt in the latest and greatest iteration of the 4A Engine for Next Gen. Fans of the original game will find the unique world of Metro transformed with incredible lighting, physics and dynamic weather effects. Newcomers will get the chance to experience one of the finest story-driven shooters of all time; an epic adventure combining gripping survival horror, exploration and tactical combat and stealth. &lt;br&gt;&lt;br&gt;All the gameplay improvements and features from the acclaimed sequel ‘Metro: Last Light’ have been transferred to Metro 2033 Redux – superior AI, controls, animation, weapon handling and many more – to create a thrilling experience for newcomers and veterans alike. With two unique play-styles, and the legendary Ranger Mode  included, Metro 2033 Redux offers hours of AAA gameplay for an incredible price.&lt;h2 class="bb_tag"&gt;Game Features&lt;/h2&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;ul class="bb_ul"&gt;&lt;strong&gt;Immerse yourself in the Moscow Metro -&lt;/strong&gt; witness one of the most atmospheric worlds in gaming brought to life with stunning next-gen visuals at 60FPSBrave the horrors of the Russian apocalypse - equip your gasmask and an arsenal of hand-made weaponry as you face the threat of deadly mutants, human foes, and the terrifying environment itself&lt;/ul&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;ul class="bb_ul"&gt;&lt;strong&gt;Rebuilt and Remastered for next-gen -&lt;/strong&gt; this is no mere &amp;quot;HD port.&amp;quot; Metro 2033 has been rebuilt in the vastly improved Last Light engine and gameplay framework, to create the definitive version of the cult classic that fans and newcomers alike can enjoy&lt;/ul&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;ul class="bb_ul"&gt;&lt;strong&gt;Two unique Play Styles : &amp;quot;Spartan&amp;quot; and &amp;quot;Survival&amp;quot; -&lt;/strong&gt; approach the game as a slow-burn Survival Horror, or tackle it with the combat skills of a Spartan Ranger in these two unique modes&lt;/ul&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;ul class="bb_ul"&gt;&lt;strong&gt;The legendary Ranger Mode returns -&lt;/strong&gt; dare you play the fearsome Ranger Mode? No HUD, UI, deadlier combat and limited resources combine to create the ultimate immersive experience&lt;/ul&gt;&lt;br&gt;Notice for OS X Yosemite 10.10.5 users with an Nvidia graphics card at or above the minimum specification listed below:&lt;br&gt;Currently separate drivers are available to fix performance issues specifically affecting Nvidia users who are using OS X Yosemite. These drivers are currently only compatible with OS X Yosemite 10.10.5 and can be found here &lt;a href="https://steamcommunity.com/linkfilter/?url=http://www.nvidia.com/download/driverResults.aspx/89538/en-us" target="_blank" rel=" noopener"  &gt;http://www.nvidia.com/download/driverResults.aspx/89538/en-us&lt;/a&gt;.&lt;br&gt;&lt;br&gt;Based on the internationally bestselling novel series by Dmitry Glukhovsky&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>292030</t>
+          <t>287390</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The Witcher 3: Wild Hunt</t>
+          <t>Metro: Last Light Redux</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>巫师3：狂猎</t>
+          <t>地铁：最后的曙光 重制版</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>开放世界,角色扮演,剧情丰富,氛围,成人</t>
+          <t>后末日,第一人称射击,氛围,动作,剧情丰富</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -743,39 +743,39 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2015年05月19日</t>
+          <t>2014年08月28日</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>获奖无数的划时代大作&lt;br&gt;升级增强后登陆次世代&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/ABOUT_600x225_ZHS.png?t=1693590732" /&gt;&lt;br&gt;&lt;br&gt;您是利维亚的杰洛特，收钱办事的怪物杀手。您可以在眼前这片怪物横行、饱受战火摧残的土地上尽情探索。您手上的委托？追踪预言之子——希里，一件足以改变世界面貌的活生生的武器。&lt;br&gt;&lt;br&gt;升级到最新版本后，《巫师3：狂猎》包含游戏现已推出的新功能和物品，以及内置照片模式、新增中文配音、Netflix 电视剧集《猎魔人》的联动道具：宝剑、盔甲、新外观等在内的所有新增内容！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/Updated_600x255__ZHS.png?t=1693590732" /&gt;&lt;br&gt;&lt;br&gt;抛开字幕的束缚，以前所未见的沉浸感体验白狼杰洛特横跨大陆的冒险。&lt;br&gt;• 基础版游戏、《石之心》和《血与酒》每一句对话现更由中文配音呈现。&lt;br&gt;• 由 CD PROJEKT RED 与饱受好评的《巫师之昆特牌》、《王权的陨落》和《赛博朋克 2077》配音团队联手打造。&lt;br&gt;&lt;br&gt;新世代升级更新&lt;br&gt;见证内陆前所未有的黑暗奇幻世界！该版本的《巫师3：狂猎》进行了多处图形和技术强化，包括大幅提升细节水平、一系列由社区创作并且最新开发的游戏模组、实时光线追踪等等——尽显当代 PC 的强劲机能。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/Monster_Slayer_600x255_ZHS.png?t=1693590732" /&gt;&lt;br&gt;&lt;br&gt;猎魔人身处的世界怪物横行。作为一支制衡力量，他们自小接受训练，通过变异来获得超人类的战斗技巧、力量和反应。&lt;br&gt;• 扮演一名职业怪物杀手，装备一系列可以升级的武器、变种魔药和战斗法术，无情地把对手大卸八块。&lt;br&gt;• 凶残的野兽徘徊于山间，狡猾的灵异掠食者潜伏在人烟稠密的城市暗巷，而您则要捕杀这些各色的奇异怪物。&lt;br&gt;• 把您赚取的奖赏用来升级武器，购买订制的盔甲，或者花在赛马、打牌、拳击，还有其它的日常娱乐生活上。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/Open_World_600x255_ZHS.png?t=1693590732" /&gt;&lt;br&gt;&lt;br&gt;巫师宏大的开放世界为玩家带来无尽的冒险，并且在规模、深度和复杂性等方面树立了新的标准。&lt;br&gt;• 遍历奇幻的开放世界：探索被遗忘的废墟、洞穴和沉船，与城市里的商人和矮人工匠做买卖，在开阔的平原、山地和海洋上进行狩猎。&lt;br&gt;• 与谋反的将领、阴险的女巫还有腐败的皇室打交道，替他们去完成见不得光的危险勾当。&lt;br&gt;• 做出超越善恶的选择，直面影响深远的后果。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/Child_of_Prophercy_600x255_ZHS.png?t=1693590732" /&gt;&lt;br&gt;&lt;br&gt;接下此生最为重要的一笔委托，追寻预言之子。那是一个可以拯救或是摧毁这个世界的关键。&lt;br&gt;• 根据古代精灵的预言，预言之子强大无比，是一件活生生的武器。而您则要在纷飞的战火中找到对方的下落。&lt;br&gt;• 和一心想要控制这个世界的残暴统治者、野外的精怪，乃至于来自来世的威胁斗智斗勇。&lt;br&gt;• 在这个或许并不值得拯救的世界里，左右自己的命运。</t>
+          <t>It is the year 2034. Beneath the ruins of post-apocalyptic Moscow, in the tunnels of the Metro, the remnants of mankind are besieged by deadly threats from outside – and within. Mutants stalk the catacombs beneath the desolate surface, and hunt amidst the poisoned skies above.&lt;br&gt;&lt;br&gt;But rather than stand united, the station-cities of the Metro are locked in a struggle for the ultimate power, a doomsday device from the military vaults of D6. A civil war is stirring that could wipe humanity from the face of the earth forever. As Artyom, burdened by guilt but driven by hope, you hold the key to our survival – the last light in our darkest hour…&lt;h2 class="bb_tag"&gt;Product Overview:&lt;/h2&gt;&lt;br&gt;Metro: Last Light Redux is the definitive version of the critically acclaimed ‘Metro: Last Light’, rebuilt in the latest and greatest iteration of the 4A Engine for Next Gen.  Newcomers will get the chance to experience one of the finest story-driven shooters of all time; an epic adventure combining gripping survival horror, exploration and tactical combat and stealth. &lt;br&gt;&lt;br&gt;This definitive version also includes all previously released DLC, adding 10 hours of bonus single-player content to the huge solo campaign. Fans of the original game will notice new features and gameplay improvements, including new melee animations, the ability to check your watch and ammo supplies on the fly, and new full-body player animations.&lt;br&gt;&lt;br&gt;And those who favoured the more survival-horror oriented gameplay of the cult prequel ‘Metro 2033’ will find a new way to experience the campaign thanks to the introduction of two unique Play Styles – Survival and Spartan. The former transforms Last light from a more action-oriented stealth combat experience to a fraught, slow burn fight for survival. With the legendary Ranger Mode included to offer an extra layer of challenge and immersion, Metro: Last Light Redux offers hours of AAA gameplay for an incredible price.&lt;h2 class="bb_tag"&gt;Game Features&lt;/h2&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;ul class="bb_ul"&gt;&lt;strong&gt;Immerse yourself in the Moscow Metro -&lt;/strong&gt; witness one of the most atmospheric worlds in gaming brought to life with stunning next-gen visuals at 60FPSBrave the horrors of the Russian apocalypse - equip your gasmask and an arsenal of hand-made weaponry as you face the threat of deadly mutants, human foes, and the terrifying environment itself&lt;/ul&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;ul class="bb_ul"&gt;&lt;strong&gt;Rebuilt and Remastered for next-gen -&lt;/strong&gt; with all previous DLC content included, new modes and features, and many gameplay improvement, this is the definitive version of the critically acclaimed classic that fans and newcomers alike will enjoy&lt;/ul&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;ul class="bb_ul"&gt;&lt;strong&gt;Two unique Play Styles : &amp;quot;Spartan&amp;quot; and &amp;quot;Survival&amp;quot; -&lt;/strong&gt; approach the game as a slow burn Survival Horror, or tackle it with the combat skills of a Spartan Ranger in these two unique modes&lt;/ul&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;ul class="bb_ul"&gt;&lt;strong&gt;The legendary Ranger Mode returns -&lt;/strong&gt; dare you play the fearsome Ranger Mode? No HUD, UI, deadlier combat and limited resources combine to create the ultimate immersive experience&lt;/ul&gt;&lt;br&gt;Notice for OS X Yosemite 10.10.5 users with an Nvidia graphics card at or above the minimum specification listed below:&lt;br&gt;Currently separate drivers are available to fix performance issues specifically affecting Nvidia users who are using OS X Yosemite. These drivers are currently only compatible with OS X Yosemite 10.10.5 and can be found here &lt;a href="https://steamcommunity.com/linkfilter/?url=http://www.nvidia.com/download/driverResults.aspx/89538/en-us" target="_blank" rel=" noopener"  &gt;http://www.nvidia.com/download/driverResults.aspx/89538/en-us&lt;/a&gt;.&lt;br&gt;&lt;br&gt;Based on the internationally bestselling novel series by Dmitry Glukhovsky&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>375480</t>
+          <t>292030</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chronicon</t>
+          <t>The Witcher 3: Wild Hunt</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>像素黑暗史</t>
+          <t>巫师3：狂猎</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>刷宝,动作角色扮演,迷宫探索,角色扮演,像素图形</t>
+          <t>开放世界,角色扮演,剧情丰富,氛围,成人</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -785,39 +785,39 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2020年08月22日</t>
+          <t>2015年05月19日</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;故事&lt;/h2&gt;在一个最后的邪恶势力都已经倒下、最后一个任务已经被圆满完成、最后一个宝箱也已经被搜刮一空的世界里，会发生什么呢？&lt;br&gt;&lt;br&gt;&lt;br&gt;在这个世界里，旧日英雄们的伟大成就被一个伟大的魔法装置所永远铭记。这个装置的名字就叫做Chronicon。它能够开启一道属于旧日英雄们的记忆之门。每一年，都会有少数男女获取重现这些伟大旅程的荣耀。&lt;br&gt;而今年，这个幸运儿就是你...&lt;br&gt;&lt;br&gt;&lt;strong&gt;请注意:&lt;/strong&gt; &lt;i&gt;展示的视频和截图中的角色都是拥有成型装备的高级角色。旅途刚开始时，你可能并没这么暴力...&lt;/i&gt;&lt;h2 class="bb_tag"&gt;游戏特性&lt;/h2&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;5 个各自拥有完整故事的长篇游戏章节&lt;br&gt;&lt;/li&gt;&lt;li&gt;4个独特的职业：圣骑士、狂战士、守望者和术士&lt;br&gt;&lt;/li&gt;&lt;li&gt;随机生成的地牢 -- 每次游玩均有全新体验&lt;br&gt;&lt;/li&gt;&lt;li&gt;最多本地四人同时合作闯关（本地多人游玩，每个额外玩家需要一个额外的Xbox 360/one 手柄）&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持STEAM远程同乐&lt;br&gt;&lt;/li&gt;&lt;li&gt;超过400种带有特别能力的独特装备&lt;br&gt;&lt;/li&gt;&lt;li&gt;超过700种带有随机附魔和品质的装备，完全改变人物构建的装备能力，以及强力的套装！&lt;br&gt;&lt;/li&gt;&lt;li&gt;超过900种可供学习和提升的技能和专精&lt;br&gt;&lt;/li&gt;&lt;li&gt;无限专精等级带来的无限的角色成长&lt;br&gt;&lt;/li&gt;&lt;li&gt;额外的硬核铁人模式&lt;br&gt;&lt;/li&gt;&lt;li&gt;高级工艺 -- 使用附魔、镶嵌和符文提取系统打造你的神兵利器！&lt;br&gt;&lt;/li&gt;&lt;li&gt;后期内容包括了随机生成的无限地牢，BOSS，以及只有在后期才能解锁的加工机制&lt;br&gt;&lt;/li&gt;&lt;li&gt;完整的Xbox 360/one 手柄支持（可选）&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>获奖无数的划时代大作&lt;br&gt;升级增强后登陆次世代&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/ABOUT_600x225_ZHS.png?t=1693590732" /&gt;&lt;br&gt;&lt;br&gt;您是利维亚的杰洛特，收钱办事的怪物杀手。您可以在眼前这片怪物横行、饱受战火摧残的土地上尽情探索。您手上的委托？追踪预言之子——希里，一件足以改变世界面貌的活生生的武器。&lt;br&gt;&lt;br&gt;升级到最新版本后，《巫师3：狂猎》包含游戏现已推出的新功能和物品，以及内置照片模式、新增中文配音、Netflix 电视剧集《猎魔人》的联动道具：宝剑、盔甲、新外观等在内的所有新增内容！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/Updated_600x255__ZHS.png?t=1693590732" /&gt;&lt;br&gt;&lt;br&gt;抛开字幕的束缚，以前所未见的沉浸感体验白狼杰洛特横跨大陆的冒险。&lt;br&gt;• 基础版游戏、《石之心》和《血与酒》每一句对话现更由中文配音呈现。&lt;br&gt;• 由 CD PROJEKT RED 与饱受好评的《巫师之昆特牌》、《王权的陨落》和《赛博朋克 2077》配音团队联手打造。&lt;br&gt;&lt;br&gt;新世代升级更新&lt;br&gt;见证内陆前所未有的黑暗奇幻世界！该版本的《巫师3：狂猎》进行了多处图形和技术强化，包括大幅提升细节水平、一系列由社区创作并且最新开发的游戏模组、实时光线追踪等等——尽显当代 PC 的强劲机能。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/Monster_Slayer_600x255_ZHS.png?t=1693590732" /&gt;&lt;br&gt;&lt;br&gt;猎魔人身处的世界怪物横行。作为一支制衡力量，他们自小接受训练，通过变异来获得超人类的战斗技巧、力量和反应。&lt;br&gt;• 扮演一名职业怪物杀手，装备一系列可以升级的武器、变种魔药和战斗法术，无情地把对手大卸八块。&lt;br&gt;• 凶残的野兽徘徊于山间，狡猾的灵异掠食者潜伏在人烟稠密的城市暗巷，而您则要捕杀这些各色的奇异怪物。&lt;br&gt;• 把您赚取的奖赏用来升级武器，购买订制的盔甲，或者花在赛马、打牌、拳击，还有其它的日常娱乐生活上。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/Open_World_600x255_ZHS.png?t=1693590732" /&gt;&lt;br&gt;&lt;br&gt;巫师宏大的开放世界为玩家带来无尽的冒险，并且在规模、深度和复杂性等方面树立了新的标准。&lt;br&gt;• 遍历奇幻的开放世界：探索被遗忘的废墟、洞穴和沉船，与城市里的商人和矮人工匠做买卖，在开阔的平原、山地和海洋上进行狩猎。&lt;br&gt;• 与谋反的将领、阴险的女巫还有腐败的皇室打交道，替他们去完成见不得光的危险勾当。&lt;br&gt;• 做出超越善恶的选择，直面影响深远的后果。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/292030/extras/Child_of_Prophercy_600x255_ZHS.png?t=1693590732" /&gt;&lt;br&gt;&lt;br&gt;接下此生最为重要的一笔委托，追寻预言之子。那是一个可以拯救或是摧毁这个世界的关键。&lt;br&gt;• 根据古代精灵的预言，预言之子强大无比，是一件活生生的武器。而您则要在纷飞的战火中找到对方的下落。&lt;br&gt;• 和一心想要控制这个世界的残暴统治者、野外的精怪，乃至于来自来世的威胁斗智斗勇。&lt;br&gt;• 在这个或许并不值得拯救的世界里，左右自己的命运。</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>412020</t>
+          <t>375480</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Metro Exodus</t>
+          <t>Chronicon</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>地铁：离乡</t>
+          <t>像素黑暗史</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>后末日,第一人称射击,开放世界,单人,剧情丰富</t>
+          <t>刷宝,动作角色扮演,迷宫探索,角色扮演,像素图形</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -827,81 +827,81 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2020年02月15日</t>
+          <t>2020年08月22日</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>《Metro Exodus》是4A Games出品的第一人称射击游戏，具有史诗级的剧情，能让您在这一前所未有的沉浸式游戏世界中体验致命的战斗与潜行，感受探索与生存的恐怖。&lt;br&gt;&lt;br&gt;在广袤无际的关卡中探索俄罗斯的荒野，历经为期一年的故事线，度过春夏秋天，直至严酷的核冬天。&lt;br&gt;&lt;br&gt;《Metro Exodus》改编自Dmitry Glukhovsky的小说，会在至今最宏大的地铁冒险中继续讲述阿尔乔姆的故事。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;踏上无与伦比的旅途——登上经过多重改造的蒸汽火车“曙光号”，与数名幸存者一起，在东方的土地上探寻新的生活。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;体验沙盒式生存——动人心弦的故事，融合了经典地铁操作与全新的无边际关卡。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;美丽但危机四伏的世界——探索后启示录的俄罗斯荒野，炫目的日夜循环和动态天气让自然环境变得栩栩如生。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;致命的战斗与潜行——在荒野中收集材料，实地改装定制武器，与敌对的人类和变种怪展开紧张激烈的搏杀。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;您的选择会决定同伴的命运——并非所有同伴都能在旅途中幸存，您的决定会在动人的故事中产生深远的影响，也因此带来了极大的重复可玩性。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;极致氛围与沉浸感——黑暗中闪动的烛火、结霜面具后的喘息、夜风中传来的变种怪嘶吼——没有其他游戏能拥有地铁一般的沉浸式恐怖氛围……&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;黄金版：Metro Exodus游戏本体+季票（可游玩全部DLC）&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;h2 class="bb_tag"&gt;故事&lt;/h2&gt;在一个最后的邪恶势力都已经倒下、最后一个任务已经被圆满完成、最后一个宝箱也已经被搜刮一空的世界里，会发生什么呢？&lt;br&gt;&lt;br&gt;&lt;br&gt;在这个世界里，旧日英雄们的伟大成就被一个伟大的魔法装置所永远铭记。这个装置的名字就叫做Chronicon。它能够开启一道属于旧日英雄们的记忆之门。每一年，都会有少数男女获取重现这些伟大旅程的荣耀。&lt;br&gt;而今年，这个幸运儿就是你...&lt;br&gt;&lt;br&gt;&lt;strong&gt;请注意:&lt;/strong&gt; &lt;i&gt;展示的视频和截图中的角色都是拥有成型装备的高级角色。旅途刚开始时，你可能并没这么暴力...&lt;/i&gt;&lt;h2 class="bb_tag"&gt;游戏特性&lt;/h2&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;5 个各自拥有完整故事的长篇游戏章节&lt;br&gt;&lt;/li&gt;&lt;li&gt;4个独特的职业：圣骑士、狂战士、守望者和术士&lt;br&gt;&lt;/li&gt;&lt;li&gt;随机生成的地牢 -- 每次游玩均有全新体验&lt;br&gt;&lt;/li&gt;&lt;li&gt;最多本地四人同时合作闯关（本地多人游玩，每个额外玩家需要一个额外的Xbox 360/one 手柄）&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持STEAM远程同乐&lt;br&gt;&lt;/li&gt;&lt;li&gt;超过400种带有特别能力的独特装备&lt;br&gt;&lt;/li&gt;&lt;li&gt;超过700种带有随机附魔和品质的装备，完全改变人物构建的装备能力，以及强力的套装！&lt;br&gt;&lt;/li&gt;&lt;li&gt;超过900种可供学习和提升的技能和专精&lt;br&gt;&lt;/li&gt;&lt;li&gt;无限专精等级带来的无限的角色成长&lt;br&gt;&lt;/li&gt;&lt;li&gt;额外的硬核铁人模式&lt;br&gt;&lt;/li&gt;&lt;li&gt;高级工艺 -- 使用附魔、镶嵌和符文提取系统打造你的神兵利器！&lt;br&gt;&lt;/li&gt;&lt;li&gt;后期内容包括了随机生成的无限地牢，BOSS，以及只有在后期才能解锁的加工机制&lt;br&gt;&lt;/li&gt;&lt;li&gt;完整的Xbox 360/one 手柄支持（可选）&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>431960</t>
+          <t>412020</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Wallpaper Engine</t>
+          <t>Metro Exodus</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Wallpaper Engine：壁纸引擎</t>
+          <t>地铁：离乡</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>成人,实用工具,软件,动漫,设计与插画</t>
+          <t>后末日,第一人称射击,开放世界,单人,剧情丰富</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Application</t>
+          <t>Game</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2018年11月日</t>
+          <t>2020年02月15日</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Wallpaper Engine 使您可以在 Windows 桌面上使用动态壁纸。它支持各种类型的动画壁纸，包括 3D 和 2D 动画、网页、视频甚至某些应用程序。既可选择现有壁纸，也可创建自己的壁纸并在 Steam 创意工坊上分享！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/431960/extras/title_features_schinese.png?t=1626972334"&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;通过实时图形、视频、应用程序或网页让您的桌面充满活力。&lt;br&gt;&lt;/li&gt;&lt;li&gt;使用您喜欢的颜色实现动画壁纸个性化。&lt;br&gt;&lt;/li&gt;&lt;li&gt;使用可通过鼠标控制的交互式壁纸。&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持多种宽高比和原始分辨率，包括 16:9、21:9、16:10、4:3。&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持多显示器环境。&lt;br&gt;&lt;/li&gt;&lt;li&gt;壁纸将在玩游戏时暂停，以节省性能。&lt;br&gt;&lt;/li&gt;&lt;li&gt;在 Wallpaper Engine 编辑器中创建自己的动画壁纸。&lt;br&gt;&lt;/li&gt;&lt;li&gt;从基本图片制成新的动态壁纸动画，或为壁纸导入 HTML 或视频文件。&lt;br&gt;&lt;/li&gt;&lt;li&gt;在 Steam 创意工坊上分享和下载壁纸。&lt;br&gt;&lt;/li&gt;&lt;li&gt;Wallpaper Engine 可以与任何其他 Steam 游戏或应用程序同时使用。&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持的视频格式：mp4、WebM、avi、m4v、mov、wmv（对于本地文件，创意工坊仅支持 mp4）。&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持Razer Chroma和Corsair iCUE。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/431960/extras/partners.png?t=1626972334"&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/431960/extras/title_performance_schinese.png?t=1626972334"&gt;&lt;h2 class="bb_tag"&gt;&lt;/h2&gt;Wallpaper Engine 旨在提供有趣的体验，同时尽可能少占用系统资源。您可以选择在使用其他应用程序或全屏播放（包括无边框窗口模式）时自动暂停或完全停止壁纸，以免在玩游戏或工作时分散注意力或受到妨碍。许多微调质量和性能的选项使 Wallpaper Engine 可以完美地适合您的计算机。根据一般经验，3D、2D 和基于视频的壁纸表现最佳，而网页和应用程序需要占用您系统中更多的资源。强烈建议您使用专用 GPU，但不是必要要求。&lt;h2 class="bb_tag"&gt;&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/431960/extras/title_workshop_schinese.png?t=1626972334"&gt;&lt;h2 class="bb_tag"&gt;&lt;/h2&gt;Steam 创意工坊中提供超过 700,000张免费壁纸，而且每天都会上传新壁纸！找不到适合您心情的壁纸？通过使用 Wallpaper Engine 编辑器从图片、视频、网页或应用程序创建自己的动画壁纸，尽情发挥您的想象。大量的预设和效果可让您为自己的图片制作动画，并在 Steam 创意工坊上分享它们，或者只为自己使用。</t>
+          <t>《Metro Exodus》是4A Games出品的第一人称射击游戏，具有史诗级的剧情，能让您在这一前所未有的沉浸式游戏世界中体验致命的战斗与潜行，感受探索与生存的恐怖。&lt;br&gt;&lt;br&gt;在广袤无际的关卡中探索俄罗斯的荒野，历经为期一年的故事线，度过春夏秋天，直至严酷的核冬天。&lt;br&gt;&lt;br&gt;《Metro Exodus》改编自Dmitry Glukhovsky的小说，会在至今最宏大的地铁冒险中继续讲述阿尔乔姆的故事。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;踏上无与伦比的旅途——登上经过多重改造的蒸汽火车“曙光号”，与数名幸存者一起，在东方的土地上探寻新的生活。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;体验沙盒式生存——动人心弦的故事，融合了经典地铁操作与全新的无边际关卡。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;美丽但危机四伏的世界——探索后启示录的俄罗斯荒野，炫目的日夜循环和动态天气让自然环境变得栩栩如生。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;致命的战斗与潜行——在荒野中收集材料，实地改装定制武器，与敌对的人类和变种怪展开紧张激烈的搏杀。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;您的选择会决定同伴的命运——并非所有同伴都能在旅途中幸存，您的决定会在动人的故事中产生深远的影响，也因此带来了极大的重复可玩性。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;极致氛围与沉浸感——黑暗中闪动的烛火、结霜面具后的喘息、夜风中传来的变种怪嘶吼——没有其他游戏能拥有地铁一般的沉浸式恐怖氛围……&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;黄金版：Metro Exodus游戏本体+季票（可游玩全部DLC）&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>617290</t>
+          <t>412830</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Remnant: From the Ashes</t>
+          <t>STEINS;GATE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>遗迹：灰烬重生</t>
+          <t>命运石之门</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>类魂系列,动作,角色扮演,合作,冒险</t>
+          <t>视觉小说,剧情丰富,动漫,时空旅行,科幻</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -911,81 +911,81 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2019年8月20日</t>
+          <t>2016年09月10日</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>&lt;i&gt;Remnant: From the Ashes&lt;/i&gt; is a third-person survival action shooter set in a post-apocalyptic world overrun by monstrous creatures. As one of the last remnants of humanity, you’ll set out alone or alongside up to two other players to face down hordes of deadly enemies and epic bosses, and try to carve a foothold, rebuild, and then retake what was lost.&lt;br&gt;&lt;br&gt;&lt;strong&gt;A REMNANT OF MANKIND&lt;/strong&gt;&lt;br&gt;The world has been thrown into chaos by an ancient evil from another dimension. Humanity is struggling to survive, but they possess the technology to open portals to other realms and alternate realities. They must travel through these portals to uncover the mystery of where the evil came from, scavenge resources to stay alive, and fight back to carve out a foothold for mankind to rebuild...&lt;br&gt;&lt;br&gt;&lt;strong&gt;ENDLESS FANTASTIC REALMS AWAIT&lt;/strong&gt;&lt;br&gt;Explore dynamically-generated worlds that change each time you play through them, creating new maps, enemy encounters, quest opportunities, and in-world events. Each of the game’s four unique worlds is filled with monstrous denizens and environments that will provide fresh challenges with each playthrough. Adapt and explore… or die trying.&lt;br&gt;&lt;br&gt;&lt;strong&gt;SCAVENGE. UPGRADE. SPECIALIZE.&lt;/strong&gt;&lt;br&gt;Overcome tough-as-nails enemies and epic bosses throughout hostile environments to earn experience, valuable loot and upgrade materials you can use to build a wicked arsenal of weapons, armor, and modifications to approach each encounter dozens of unique ways.&lt;br&gt;&lt;br&gt;&lt;strong&gt;STRENGTH IN NUMBERS.&lt;/strong&gt;&lt;br&gt;Invading other worlds to seek an end to the Root is dangerous and survival is far from guaranteed. Team up with up to two other players to increase your chances of survival. Teamwork is necessary to make it through the game’s toughest challenges… and unlock its greatest rewards.</t>
+          <t>&lt;strong&gt;-全人类的命运由你左右-&lt;/strong&gt;&lt;br&gt;而你究竟能否改变命运，拯救珍爱之人呢？&lt;br&gt;&lt;br&gt;《STEINS;GATE》系列作为假想科学冒险游戏，有着累计100万部销量的超高人气。 &lt;br&gt;本作目前为止已移植了诸多平台，可称为名留视觉小说游戏史的作品，现如今终于在Steam登场！&lt;br&gt;&lt;br&gt;冈部伦太郎——通称冈伦——是个尚未从厨二病毕业的大学生。成立了名为“未来道具研究所”的社团，每天和朋友们发明着稀奇古怪的东西。&lt;br&gt;这样的他在一次偶然间发明了能将电子短信传到过去的道具“时间机器”。&lt;br&gt;SERN、John Titor、幻之古董PC“IBN5100”、时间机器、蝴蝶效应、时间旅行的11种理论——。&lt;br&gt;在这诸多要素偶然重叠之时，围绕着本部位于秋叶原的冈伦的社团，世界规模的“未来选择权”掌握在了社团成员们的手上。&lt;br&gt;&lt;br&gt;&lt;strong&gt;游戏特征&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;通过游戏内的选择决定了人们乃至世界的命运！多结局设定&lt;br&gt;&lt;/li&gt;&lt;li&gt;1080P HD画质下享受游戏精美的插画CG&lt;br&gt;&lt;/li&gt;&lt;li&gt;通过伦太郎的手机可以打电话、收发短信。你选择的操作将会影响游戏的故事进程！&lt;br&gt;&lt;/li&gt;&lt;li&gt;游戏时间：30-50小时&lt;br&gt;&lt;/li&gt;&lt;li&gt;对应Steam成就，交易卡片&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>640820</t>
+          <t>431960</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pathfinder: Kingmaker</t>
+          <t>Wallpaper Engine</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>开拓者：拥王者</t>
+          <t>Wallpaper Engine：壁纸引擎</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>角色扮演,团队角色扮演,奇幻,电脑角色扮演,等角视角</t>
+          <t>成人,实用工具,软件,动漫,设计与插画</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Game</t>
+          <t>Application</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2018年09月25日</t>
+          <t>2018年11月日</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/640820/extras/Gif_02.jpg?t=1685002833" /&gt;&lt;br&gt;&lt;br&gt;在18,000多名众筹平台Kickstarter支持者、叙事设计师Chris Avellone和作曲家Inon Zur的共同帮助下，Owlcat Games以广受喜爱的开拓者桌面世界为背景，自豪地为您带来首款等角电脑角色扮演游戏。享受经典角色扮演游戏体验，诸如博德之门、结果1和2以及奥妙。探索并征服失窃之地，统治您不断壮大的王国！&lt;br&gt;&lt;br&gt;根据玩家的反馈和建议，此版本游戏已进行改进并建立在原版的基础上。此版本包括：&lt;br&gt;• 新增多项丰富的游戏内容和数十种生活质量的功能&lt;br&gt;• 打造角色的新能力和方法，包括一款全新类别&lt;br&gt;• 新物品和武器&lt;br&gt;• 改善平衡，特别是在游戏一开始和最后两个章节&lt;br&gt;• 已强化的王国管理系统，无论是平衡方面， 还是在可用性和玩家舒适性方面&lt;br&gt;• 增加全球地图上各种随机遭遇的情况&lt;br&gt;• 自游戏首发以来所进行的数千个修复和改进&lt;br&gt;&lt;br&gt;探索失窃之地，即一个几世纪以来一直备受争议的地区。数百个王国曾经在这片土地上起起落落，现在是时候让您做下自己的专属标记了 - 通过建立自己的王国！因此，您需要征服严酷的荒野、敌对国家的威胁以及来自法庭的挑战，才能够生存下来。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/640820/extras/Gif_01_V2_-_Copy.jpg?t=1685002833" /&gt;&lt;br&gt;&lt;br&gt;您可以使用一系列的等级和权利，包括专业原型、强大奥术和神圣法术，以及选择多种等级能力、技能和专长，来定制自己的角色。《开拓者》允许玩家创造出既适合自己游戏风格又符合自己个性特征的主人公（或反派角色）。&lt;br&gt;&lt;br&gt;&lt;br&gt;您将邂逅各种同伴和NPCs，包括开拓者设置中的标志性人物。您需要决定相信谁、仔细观察谁，因为每个同伴都有一个与您不同的日程、路线和目标。您的旅程将成为他们的旅程，而您将帮助他们塑造当下和未来的生活。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/640820/extras/Gif_04_-_Copy.jpg?t=1685002833" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;征服新的地区，宣告它们归您所有，在荒野上创造自己的王国。虽然经典的地牢爬行和探索依然是此次冒险的核心，但外交、政治和王国发展也是挑战的一部分。请在探索古墓和废墟时，以及在法庭上处理政治事务时，好好选择您的盟友，并与其保持密切的关系。&lt;br&gt;&lt;br&gt;您的王国是对您自己在游戏中的角色和选择的反映。它是由您的联盟、盟友以及您对人民的领导能力塑造而成的活生生的东西。你的王国不仅可以扩张，使您能够开疆扩地建立新的城镇和社区一展才华，而且首都城市也会按照您作出的决定、政策、乃至你所选择的盟友而改变。当王国发展壮大后，一些派系和邻国会前来寻求帮助并考验你的实力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/640820/extras/Gif_03.jpg?t=1685002833" /&gt;&lt;br&gt;&lt;br&gt;探索 - 征服 - 统治！&lt;br&gt;&lt;br&gt;开拓者角色扮演游戏是世界上最古老的奇幻角色扮演游戏3.5条规则的进化，而此款游戏正式由Paizo, Inc基于成千上万像你一样的玩家的反馈意见设计而成的。无论你是开拓者®宇宙中的新玩家，还是经验丰富的老玩家，《开拓者：拥王者》正是那款您一直以来翘首以盼的电脑角色扮演游戏。</t>
+          <t>Wallpaper Engine 使您可以在 Windows 桌面上使用动态壁纸。它支持各种类型的动画壁纸，包括 3D 和 2D 动画、网页、视频甚至某些应用程序。既可选择现有壁纸，也可创建自己的壁纸并在 Steam 创意工坊上分享！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/431960/extras/title_features_schinese.png?t=1626972334"&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;通过实时图形、视频、应用程序或网页让您的桌面充满活力。&lt;br&gt;&lt;/li&gt;&lt;li&gt;使用您喜欢的颜色实现动画壁纸个性化。&lt;br&gt;&lt;/li&gt;&lt;li&gt;使用可通过鼠标控制的交互式壁纸。&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持多种宽高比和原始分辨率，包括 16:9、21:9、16:10、4:3。&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持多显示器环境。&lt;br&gt;&lt;/li&gt;&lt;li&gt;壁纸将在玩游戏时暂停，以节省性能。&lt;br&gt;&lt;/li&gt;&lt;li&gt;在 Wallpaper Engine 编辑器中创建自己的动画壁纸。&lt;br&gt;&lt;/li&gt;&lt;li&gt;从基本图片制成新的动态壁纸动画，或为壁纸导入 HTML 或视频文件。&lt;br&gt;&lt;/li&gt;&lt;li&gt;在 Steam 创意工坊上分享和下载壁纸。&lt;br&gt;&lt;/li&gt;&lt;li&gt;Wallpaper Engine 可以与任何其他 Steam 游戏或应用程序同时使用。&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持的视频格式：mp4、WebM、avi、m4v、mov、wmv（对于本地文件，创意工坊仅支持 mp4）。&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持Razer Chroma和Corsair iCUE。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/431960/extras/partners.png?t=1626972334"&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/431960/extras/title_performance_schinese.png?t=1626972334"&gt;&lt;h2 class="bb_tag"&gt;&lt;/h2&gt;Wallpaper Engine 旨在提供有趣的体验，同时尽可能少占用系统资源。您可以选择在使用其他应用程序或全屏播放（包括无边框窗口模式）时自动暂停或完全停止壁纸，以免在玩游戏或工作时分散注意力或受到妨碍。许多微调质量和性能的选项使 Wallpaper Engine 可以完美地适合您的计算机。根据一般经验，3D、2D 和基于视频的壁纸表现最佳，而网页和应用程序需要占用您系统中更多的资源。强烈建议您使用专用 GPU，但不是必要要求。&lt;h2 class="bb_tag"&gt;&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/431960/extras/title_workshop_schinese.png?t=1626972334"&gt;&lt;h2 class="bb_tag"&gt;&lt;/h2&gt;Steam 创意工坊中提供超过 700,000张免费壁纸，而且每天都会上传新壁纸！找不到适合您心情的壁纸？通过使用 Wallpaper Engine 编辑器从图片、视频、网页或应用程序创建自己的动画壁纸，尽情发挥您的想象。大量的预设和效果可让您为自己的图片制作动画，并在 Steam 创意工坊上分享它们，或者只为自己使用。</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>682990</t>
+          <t>617290</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Drug Dealer Simulator</t>
+          <t>Remnant: From the Ashes</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>毒枭模拟器</t>
+          <t>遗迹：灰烬重生</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>模拟,动作,独立,单人,资源管理</t>
+          <t>类魂系列,动作,角色扮演,合作,冒险</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -995,39 +995,39 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2020年04月16日</t>
+          <t>2019年8月20日</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>&lt;a href="https://store.steampowered.com/app/1708850/Drug_Dealer_Simulator_2/" target="_blank" rel=""  id="dynamiclink_3" &gt;https://store.steampowered.com/app/1708850/Drug_Dealer_Simulator_2/&lt;/a&gt;&lt;br&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/yW6mSad" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/682990/extras/join_our_discord_dds.png?t=1690793384" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;如何白手起家打造犯罪帝国，又能免于法律制裁与良心的谴责？&lt;strong&gt;走进模拟世界！&lt;/strong&gt;现在就钻入漆黑巷道，一探地下毒品交易的惊险刺激。&lt;br&gt;&lt;br&gt;6 项免费超大规模更新，加入全新场景、视觉效果、机制、角色、装饰物品和更多丰富内容，享受更丰富炫目的游戏过程，带给你完整的 DDS 体验。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/682990/extras/dds_1.gif?t=1690793384" /&gt;&lt;h2 class="bb_tag"&gt;聚沙成塔！&lt;/h2&gt;&lt;br&gt;在破旧的出租屋开创你的传奇人生。称霸一方，招兵买马，开设实验室，训练手下。成为街头黑色交易的老大，只手遮天。&lt;br&gt;&lt;br&gt;&lt;strong&gt;但要多加小心！&lt;/strong&gt;犯罪道路也容易翻车…&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/682990/extras/dds_2.gif?t=1690793384" /&gt;&lt;h2 class="bb_tag"&gt;走私货物&lt;/h2&gt;&lt;br&gt;从海外贩毒集团处购买毒品入境、躲避追捕，寻找容身之处。可分销给散户，也可跟帮派谈谈大买卖。&lt;br&gt;&lt;br&gt;记住一条金科玉律：做个低调聪明人。每个拐角处都可能闪出你的仇家，缉毒局更是从不休假。&lt;br&gt;&lt;br&gt;&lt;strong&gt;怕了吗？&lt;/strong&gt;消灭恐惧的最好办法就是面对恐惧。俗话说，狭路相逢勇者胜！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/682990/extras/dds_3.gif?t=1690793384" /&gt;&lt;h2 class="bb_tag"&gt;开设毒品实验室&lt;/h2&gt;&lt;br&gt;把握住机会，建立自己的生产实验室。把空房屋改造成生产冰、摇头丸和白粉的实验室。训练毒贩成为实验室助手，完全不需要任何外界帮助。&lt;br&gt;&lt;br&gt;记住，这活儿可不是小打小闹，你最好票子管够！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/682990/extras/dds_4.gif?t=1690793384" /&gt;&lt;h2 class="bb_tag"&gt;只手遮天&lt;/h2&gt;&lt;br&gt;你的人生目标？权利，金钱，尊重。万事小心。别得罪自己的客户……至少要有个度。找到正确的合作伙伴，别被逮住，没准你真能活到发财的那一天！&lt;br&gt;&lt;br&gt;挣了大钱，当然也有花钱的地方。用利润扩张自己的帝国，添置新设备，请几个帮手，替你干活，训练你的手下，或者买栋豪宅玩命炫富。&lt;br&gt;&lt;br&gt;&lt;strong&gt;疯狂挣钱，疯狂嗑药，疯狂挥霍……！&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;游戏特色：&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;从毒贩集团手里走私货；&lt;br&gt;&lt;/li&gt;&lt;li&gt;将你的货一路平安带回自己的窝点；&lt;br&gt;&lt;/li&gt;&lt;li&gt;自制配方，分袋包装出售；&lt;br&gt;&lt;/li&gt;&lt;li&gt;从向街头混混零售做起，最后向黑帮批发；&lt;br&gt;&lt;/li&gt;&lt;li&gt;规划战略，躲开警察巡逻和缉毒突查；&lt;br&gt;&lt;/li&gt;&lt;li&gt;扩张地盘，夯实力量，雇人办事，与黑帮大佬做交易；&lt;br&gt;&lt;/li&gt;&lt;li&gt;开设实验室，训练实验室助手，生产自己的“硬货”；&lt;br&gt;&lt;/li&gt;&lt;li&gt;干掉竞争对手，毒品之路一家独大；&lt;br&gt;&lt;/li&gt;&lt;li&gt;购买豪宅，装饰房屋，玩命炫富；&lt;br&gt;&lt;/li&gt;&lt;li&gt;发展业务，挣钱投资，从容面对危险，在犯罪道路上越走越远。&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;i&gt;Remnant: From the Ashes&lt;/i&gt; is a third-person survival action shooter set in a post-apocalyptic world overrun by monstrous creatures. As one of the last remnants of humanity, you’ll set out alone or alongside up to two other players to face down hordes of deadly enemies and epic bosses, and try to carve a foothold, rebuild, and then retake what was lost.&lt;br&gt;&lt;br&gt;&lt;strong&gt;A REMNANT OF MANKIND&lt;/strong&gt;&lt;br&gt;The world has been thrown into chaos by an ancient evil from another dimension. Humanity is struggling to survive, but they possess the technology to open portals to other realms and alternate realities. They must travel through these portals to uncover the mystery of where the evil came from, scavenge resources to stay alive, and fight back to carve out a foothold for mankind to rebuild...&lt;br&gt;&lt;br&gt;&lt;strong&gt;ENDLESS FANTASTIC REALMS AWAIT&lt;/strong&gt;&lt;br&gt;Explore dynamically-generated worlds that change each time you play through them, creating new maps, enemy encounters, quest opportunities, and in-world events. Each of the game’s four unique worlds is filled with monstrous denizens and environments that will provide fresh challenges with each playthrough. Adapt and explore… or die trying.&lt;br&gt;&lt;br&gt;&lt;strong&gt;SCAVENGE. UPGRADE. SPECIALIZE.&lt;/strong&gt;&lt;br&gt;Overcome tough-as-nails enemies and epic bosses throughout hostile environments to earn experience, valuable loot and upgrade materials you can use to build a wicked arsenal of weapons, armor, and modifications to approach each encounter dozens of unique ways.&lt;br&gt;&lt;br&gt;&lt;strong&gt;STRENGTH IN NUMBERS.&lt;/strong&gt;&lt;br&gt;Invading other worlds to seek an end to the Root is dangerous and survival is far from guaranteed. Team up with up to two other players to increase your chances of survival. Teamwork is necessary to make it through the game’s toughest challenges… and unlock its greatest rewards.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>692850</t>
+          <t>640820</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bloodstained: Ritual of the Night</t>
+          <t>Pathfinder: Kingmaker</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>赤痕：夜之仪式</t>
+          <t>开拓者：拥王者</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>类银河战士恶魔城,角色扮演,动作,女性主角,冒险</t>
+          <t>角色扮演,团队角色扮演,奇幻,电脑角色扮演,等角视角</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1037,39 +1037,39 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2019年06月18日</t>
+          <t>2018年09月25日</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>《赤痕·：夜之仪式》是一款以探索为主的横向卷轴动作角色扮演游戏，在内容丰富的游戏设定中融入你所了解和喜爱的银河恶魔城类型游戏的所有最佳特色。游戏由505 Games全球发行，2P Games在大中国地区提供联合发行支持。&lt;br&gt;&lt;br&gt;&lt;br&gt;扮演米丽亚姆，一个被炼金术士诅咒而导致身体正慢慢变成水晶的孤儿。为了拯救她自己，事实上还有所有人类，她必须通过奋力战斗闯过一座充满恶魔的城堡，这座城堡由她的老朋友吉贝尔召唤而来，吉贝尔的身心已经变成了水晶，不再是一副血肉之躯。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;u&gt;游戏具备哪些特色？&lt;/u&gt;&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/692850/extras/Castle_Dips.gif?t=1661299121" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;通过未来的内容更新，13个免费DLC。 “速度恶魔”更新包含速度运行模式，Boss Rush Mode和Pure Miriam服装在发布时可用！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/692850/extras/Action_Jackson.gif?t=1661299121" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;紧凑迷人且令人满意的游戏玩法，搭配情节丰富的全新剧情，承袭了著名“Igavania”游戏教父五十岚孝司的哥特式黑暗风格。&lt;br&gt;剧情过场动画和 NPC 互动由全明星阵容配音，包括戴维·黑特、雷·蔡斯和埃丽卡·林贝克等演员。（说真的，我们在这款游戏中采用了许多配音演员大咖，真是有点疯狂...）&lt;br&gt;&lt;br&gt;&lt;br&gt;总共三个可扮演的角色，只剩最后一个神秘角色尚未公布…&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/692850/extras/Dress_Up.gif?t=1661299121" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;大量武器和咒语，可以强化、升级和对其外观进行自定义。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/692850/extras/TheOleDragonShootSamuraiGame.gif?t=1661299121" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;精美的 2.5D 画面：在 2D 游戏环境中悉心制作 3D 模型。这意味着具备许多“普通”2D 无法实现的酷炫技巧…&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;u&gt;未来规划&lt;/u&gt;&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;从本 Steam 页面的更新到游戏各个方面的全部内容，未来将发布大量公告和更新。这将是一次疯狂的旅程。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/640820/extras/Gif_02.jpg?t=1685002833" /&gt;&lt;br&gt;&lt;br&gt;在18,000多名众筹平台Kickstarter支持者、叙事设计师Chris Avellone和作曲家Inon Zur的共同帮助下，Owlcat Games以广受喜爱的开拓者桌面世界为背景，自豪地为您带来首款等角电脑角色扮演游戏。享受经典角色扮演游戏体验，诸如博德之门、结果1和2以及奥妙。探索并征服失窃之地，统治您不断壮大的王国！&lt;br&gt;&lt;br&gt;根据玩家的反馈和建议，此版本游戏已进行改进并建立在原版的基础上。此版本包括：&lt;br&gt;• 新增多项丰富的游戏内容和数十种生活质量的功能&lt;br&gt;• 打造角色的新能力和方法，包括一款全新类别&lt;br&gt;• 新物品和武器&lt;br&gt;• 改善平衡，特别是在游戏一开始和最后两个章节&lt;br&gt;• 已强化的王国管理系统，无论是平衡方面， 还是在可用性和玩家舒适性方面&lt;br&gt;• 增加全球地图上各种随机遭遇的情况&lt;br&gt;• 自游戏首发以来所进行的数千个修复和改进&lt;br&gt;&lt;br&gt;探索失窃之地，即一个几世纪以来一直备受争议的地区。数百个王国曾经在这片土地上起起落落，现在是时候让您做下自己的专属标记了 - 通过建立自己的王国！因此，您需要征服严酷的荒野、敌对国家的威胁以及来自法庭的挑战，才能够生存下来。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/640820/extras/Gif_01_V2_-_Copy.jpg?t=1685002833" /&gt;&lt;br&gt;&lt;br&gt;您可以使用一系列的等级和权利，包括专业原型、强大奥术和神圣法术，以及选择多种等级能力、技能和专长，来定制自己的角色。《开拓者》允许玩家创造出既适合自己游戏风格又符合自己个性特征的主人公（或反派角色）。&lt;br&gt;&lt;br&gt;&lt;br&gt;您将邂逅各种同伴和NPCs，包括开拓者设置中的标志性人物。您需要决定相信谁、仔细观察谁，因为每个同伴都有一个与您不同的日程、路线和目标。您的旅程将成为他们的旅程，而您将帮助他们塑造当下和未来的生活。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/640820/extras/Gif_04_-_Copy.jpg?t=1685002833" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;征服新的地区，宣告它们归您所有，在荒野上创造自己的王国。虽然经典的地牢爬行和探索依然是此次冒险的核心，但外交、政治和王国发展也是挑战的一部分。请在探索古墓和废墟时，以及在法庭上处理政治事务时，好好选择您的盟友，并与其保持密切的关系。&lt;br&gt;&lt;br&gt;您的王国是对您自己在游戏中的角色和选择的反映。它是由您的联盟、盟友以及您对人民的领导能力塑造而成的活生生的东西。你的王国不仅可以扩张，使您能够开疆扩地建立新的城镇和社区一展才华，而且首都城市也会按照您作出的决定、政策、乃至你所选择的盟友而改变。当王国发展壮大后，一些派系和邻国会前来寻求帮助并考验你的实力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/640820/extras/Gif_03.jpg?t=1685002833" /&gt;&lt;br&gt;&lt;br&gt;探索 - 征服 - 统治！&lt;br&gt;&lt;br&gt;开拓者角色扮演游戏是世界上最古老的奇幻角色扮演游戏3.5条规则的进化，而此款游戏正式由Paizo, Inc基于成千上万像你一样的玩家的反馈意见设计而成的。无论你是开拓者®宇宙中的新玩家，还是经验丰富的老玩家，《开拓者：拥王者》正是那款您一直以来翘首以盼的电脑角色扮演游戏。</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>703080</t>
+          <t>641320</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Planet Zoo</t>
+          <t>Cooking Simulator</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>动物园之星</t>
+          <t>料理模拟器</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>管理,模拟,建造,沙盒,自然</t>
+          <t>模拟,烹饪,单人,拟真,沙盒</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1079,39 +1079,39 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2019年11月05日</t>
+          <t>2019年06月06日</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>在《动物园之星》中打造一个野生动物世界。由《过山车之星》(Planet Coaster) 和《动物园大亨》(Zoo Tycoon) 的开发者团队制作，将为你带来极致的动物园模拟游戏体验。游戏中栩栩如生的动物能够思考且富有感情，它们会探索你打造的世界。体验游历世界的剧情模式，或是在沙盒模式中自由挥洒你的想象力。创造独特的栖息地和广阔风景，做出重大决定和关键选择，并在建造及管理世上最狂野动物园的同时，让你的动物茁壮成长。&lt;br&gt;&lt;br&gt;&lt;strong&gt;野性世界，模拟无界&lt;/strong&gt;&lt;br&gt;&lt;br&gt;见识各种令人惊叹的动物。从顽皮的幼狮到雄伟的大象，《动物园之星》中的每种动物都是能够思考且富有感情的个体，并具有独特的外形和性格。打造精细的动物栖息地，给动物如同原始自然环境的家园，研究并管理每个物种，让它们生长茁壮，并协助动物组织家庭、养育后代。&lt;br&gt;&lt;br&gt;&lt;strong&gt;环环相扣的管理&lt;/strong&gt;&lt;br&gt;&lt;br&gt;管理一个栩栩如生的惊奇世界，你做的每个决定都会对这世界产生影响。你可以聚焦整体大局，也可以亲手调整最微小的细节。展示极具特色的动物来惊艳游客，进行新研究来发展动物园，并让培育的动物后代回归大自然。在这个重视动物福利和保育的世界里，你的决定将影响无数生命。&lt;br&gt;&lt;br&gt;&lt;strong&gt;创意无极限&lt;/strong&gt;&lt;br&gt;&lt;br&gt;《动物园之星》以组件为基础的强大建造工具，能让你轻松打造出独一无二的动物园。你的每个创新决定都会影响动物的生活和游客的游园体验。尽情挥洒你的想象力，你可以凿出湖泊河流、塑造山丘峻岭、铺设道路、雕出洞穴，并利用众多独特主题和上百种建筑组件，打造出令人叹为观止的动物园。&lt;br&gt;&lt;br&gt;&lt;strong&gt;分享和激发灵感&lt;/strong&gt;&lt;br&gt;&lt;br&gt;加入互相串连的社区，在 Steam 创意工坊分享世上最有创意的动物栖息地、风景，甚至是整个动物园。看着你的独创设计出现在世界各地玩家的动物园中，或是每天探索《动物园之星》社区上的全新内容。</t>
+          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/Fd8RgPE" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/641320/extras/Discord_2_v1__1_.png?t=1693381168" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;成为终极大厨！在样样俱全、装饰精美的逼真厨房里掌控一切！解锁并掌握超过80种食谱，使用数十种真实食材，烹饪出完美菜肴。全过程均采用真实物理效果！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/641320/extras/gif01.gif?t=1693381168" /&gt;&lt;br&gt;&lt;br&gt;扒炉、煤气炉、烤箱、搅拌机……你的厨房可谓应有尽有。游戏中还有大量厨具，锅碗瓢盆一应俱全！食材种类超过120种！包括鱼肉蔬果、奶制品及各类液体。你还能用种类丰富的香草与香料来调味！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/641320/extras/gif03.gif?t=1693381168" /&gt;&lt;br&gt;&lt;br&gt;真实的厨房体验！所有食材都会根据你的行为而改变气味、外观、口味。每次你切土豆片、翻牛排或煮汤时，都会采用真实的物理效果。在学会做菜的基本操作后，你将开始创造自己的菜肴，通过一道道菜不断成长。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/641320/extras/gif02.gif?t=1693381168" /&gt;&lt;br&gt;&lt;br&gt;在职业模式中，你将从头起家，通过努力成为传奇大厨，让你与你的餐厅名震四方。你将从基础开始循序渐进，不断解锁越来越复杂的菜肴。随着你不断积累名声与经验，你将有机会服务更多的客人。一旦你掌握了食谱及流程，就可以进一步解锁各类特殊技能及能力。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/641320/extras/gif04.gif?t=1693381168" /&gt;&lt;br&gt;&lt;br&gt;如果你不想墨守成规，不妨来试试沙盒模式。你可以随意使用所有食谱与食材，随心所欲地做自己想做的菜。你甚至都不用做任何菜！真实物理效果给予你无限的可能。你可以像投飞镖一样乱扔刀具，拿砧板当骨牌玩，给整个厨房点上火，让烤箱爆炸，最后再用灭火器给自己救场！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/641320/extras/gif06.gif?t=1693381168" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>768300</t>
+          <t>682990</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Zhulik.exe</t>
+          <t>Drug Dealer Simulator</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Zhulik.exe</t>
+          <t>毒枭模拟器</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>独立,休闲,模拟,欢乐,经济</t>
+          <t>模拟,动作,独立,单人,资源管理</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1119,36 +1119,41 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2017年12月28日</t>
+          <t>2020年04月16日</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;Experimental experience!&lt;/strong&gt;&lt;br&gt;Feel like a trader and buy magical product cheaper to sell it with extra charge.&lt;br&gt;Grow your capital in the fascinating and colorful adventures of the Rogue.&lt;br&gt;&lt;br&gt;- Earn money by using the simple &amp;quot;Buy&amp;amp;Sell&amp;quot; scheme.&lt;br&gt;- Put money to the bank and earn more!&lt;br&gt;- Borrow money to return more!&lt;br&gt;- Spend money on upgrades&lt;br&gt;- Hire an oracle to predict the product cost&lt;br&gt;- Earn 1 000 000 money to win!&lt;br&gt;&lt;br&gt;&lt;strong&gt;Languages available in the game:&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; English&lt;br&gt;&lt;/li&gt;&lt;li&gt; German&lt;br&gt;&lt;/li&gt;&lt;li&gt; Russian&lt;br&gt;&lt;/li&gt;&lt;li&gt; Portuguese&lt;br&gt;&lt;/li&gt;&lt;li&gt; Estonian&lt;br&gt;&lt;/li&gt;&lt;li&gt; Ukrainian&lt;br&gt;&lt;/li&gt;&lt;li&gt; Czech&lt;br&gt;&lt;/li&gt;&lt;li&gt; Dutch&lt;br&gt;&lt;/li&gt;&lt;li&gt; Spanish&lt;br&gt;&lt;/li&gt;&lt;li&gt; Chinese (Traditional)&lt;br&gt;&lt;/li&gt;&lt;li&gt; Swedish&lt;br&gt;&lt;/li&gt;&lt;li&gt; Italian&lt;br&gt;&lt;/li&gt;&lt;li&gt; Polish&lt;br&gt;&lt;/li&gt;&lt;li&gt; French&lt;br&gt;&lt;/li&gt;&lt;li&gt; Belarusian&lt;br&gt;&lt;/li&gt;&lt;li&gt; Turkish&lt;br&gt;&lt;/li&gt;&lt;li&gt; Portuguese-Brazil&lt;br&gt;&lt;/li&gt;&lt;li&gt; Danish&lt;/li&gt;&lt;/ul&gt;Looking for: Arabic, Greek, Japanese, Norwegian, Simplified Chinese, Thai, Bulgarian, Finnish, Hungarian, Korean&lt;br&gt;&lt;a href="http://steamcommunity.com/app/768300/discussions/0/1621726179569053008" target="_blank" rel=""  &gt; Looking for translators! &lt;/a&gt;</t>
+          <t>&lt;a href="https://store.steampowered.com/app/1708850/Drug_Dealer_Simulator_2/" target="_blank" rel=""  id="dynamiclink_3" &gt;https://store.steampowered.com/app/1708850/Drug_Dealer_Simulator_2/&lt;/a&gt;&lt;br&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/yW6mSad" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/682990/extras/join_our_discord_dds.png?t=1690793384" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;如何白手起家打造犯罪帝国，又能免于法律制裁与良心的谴责？&lt;strong&gt;走进模拟世界！&lt;/strong&gt;现在就钻入漆黑巷道，一探地下毒品交易的惊险刺激。&lt;br&gt;&lt;br&gt;6 项免费超大规模更新，加入全新场景、视觉效果、机制、角色、装饰物品和更多丰富内容，享受更丰富炫目的游戏过程，带给你完整的 DDS 体验。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/682990/extras/dds_1.gif?t=1690793384" /&gt;&lt;h2 class="bb_tag"&gt;聚沙成塔！&lt;/h2&gt;&lt;br&gt;在破旧的出租屋开创你的传奇人生。称霸一方，招兵买马，开设实验室，训练手下。成为街头黑色交易的老大，只手遮天。&lt;br&gt;&lt;br&gt;&lt;strong&gt;但要多加小心！&lt;/strong&gt;犯罪道路也容易翻车…&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/682990/extras/dds_2.gif?t=1690793384" /&gt;&lt;h2 class="bb_tag"&gt;走私货物&lt;/h2&gt;&lt;br&gt;从海外贩毒集团处购买毒品入境、躲避追捕，寻找容身之处。可分销给散户，也可跟帮派谈谈大买卖。&lt;br&gt;&lt;br&gt;记住一条金科玉律：做个低调聪明人。每个拐角处都可能闪出你的仇家，缉毒局更是从不休假。&lt;br&gt;&lt;br&gt;&lt;strong&gt;怕了吗？&lt;/strong&gt;消灭恐惧的最好办法就是面对恐惧。俗话说，狭路相逢勇者胜！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/682990/extras/dds_3.gif?t=1690793384" /&gt;&lt;h2 class="bb_tag"&gt;开设毒品实验室&lt;/h2&gt;&lt;br&gt;把握住机会，建立自己的生产实验室。把空房屋改造成生产冰、摇头丸和白粉的实验室。训练毒贩成为实验室助手，完全不需要任何外界帮助。&lt;br&gt;&lt;br&gt;记住，这活儿可不是小打小闹，你最好票子管够！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/682990/extras/dds_4.gif?t=1690793384" /&gt;&lt;h2 class="bb_tag"&gt;只手遮天&lt;/h2&gt;&lt;br&gt;你的人生目标？权利，金钱，尊重。万事小心。别得罪自己的客户……至少要有个度。找到正确的合作伙伴，别被逮住，没准你真能活到发财的那一天！&lt;br&gt;&lt;br&gt;挣了大钱，当然也有花钱的地方。用利润扩张自己的帝国，添置新设备，请几个帮手，替你干活，训练你的手下，或者买栋豪宅玩命炫富。&lt;br&gt;&lt;br&gt;&lt;strong&gt;疯狂挣钱，疯狂嗑药，疯狂挥霍……！&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;游戏特色：&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;从毒贩集团手里走私货；&lt;br&gt;&lt;/li&gt;&lt;li&gt;将你的货一路平安带回自己的窝点；&lt;br&gt;&lt;/li&gt;&lt;li&gt;自制配方，分袋包装出售；&lt;br&gt;&lt;/li&gt;&lt;li&gt;从向街头混混零售做起，最后向黑帮批发；&lt;br&gt;&lt;/li&gt;&lt;li&gt;规划战略，躲开警察巡逻和缉毒突查；&lt;br&gt;&lt;/li&gt;&lt;li&gt;扩张地盘，夯实力量，雇人办事，与黑帮大佬做交易；&lt;br&gt;&lt;/li&gt;&lt;li&gt;开设实验室，训练实验室助手，生产自己的“硬货”；&lt;br&gt;&lt;/li&gt;&lt;li&gt;干掉竞争对手，毒品之路一家独大；&lt;br&gt;&lt;/li&gt;&lt;li&gt;购买豪宅，装饰房屋，玩命炫富；&lt;br&gt;&lt;/li&gt;&lt;li&gt;发展业务，挣钱投资，从容面对危险，在犯罪道路上越走越远。&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>838350</t>
+          <t>690830</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>太吾绘卷 The Scroll Of Taiwu</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">太吾绘卷 </t>
+          <t>起步</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>角色扮演,武术,沙盒,开放世界,策略</t>
+          <t>城市营造,策略,模拟,中世纪,管理</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1158,39 +1163,39 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2018年09月21日</t>
+          <t>2019年02月01日</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;欢迎大家加入《太吾绘卷》官方讨论群：&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;972367371  太吾绘卷交流7群&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;985094820  太吾绘卷交流8群 &lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;1030657107  太吾绘卷10群 &lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;760164332  太吾绘卷15群&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;901410916  太吾绘卷16群&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;概述&lt;/h2&gt;在《太吾绘卷》的世界中，你除了需要扮演神秘的“太吾氏传人”，还将以不同的处世立场——或善、或恶、或中庸——投身于纷繁复杂的江湖之中。&lt;br&gt;你不仅可以拜访世界各地的武林门派，学习种类繁多的功法绝艺；还可以与人义结金兰，或结下血海深仇；不仅可以兴建自己的村庄，经营各种产业；还可以与自己的挚爱生儿育女，缘定三生；直到你终于面对太吾氏的宿敌，决定世界的命运！&lt;h2 class="bb_tag"&gt;未知的江湖&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;你所创建的每一个太吾世界，都将是独一无二的——&lt;br&gt;完全随机生成的地图、完全随机生成的NPC、敌人。你的每次游戏都会是一次崭新的冒险。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;你能够从十五个风格迥异的武林门派中，学习到上千种功法绝艺；&lt;br&gt;从几乎任何NPC身上，学习到上百种中华传统技艺。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_0.png?t=1675305014" /&gt;&lt;h2 class="bb_tag"&gt;融合多种玩法&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;除RPG玩法外，《太吾绘卷》还融合了许多不同的游戏类型，如充满随机冲突的Roguelike要素；&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_1.png?t=1675305014" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;以及需要精心规划的模拟经营要素：建造、采集、扩建、经营、制造、维护等。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_2.png?t=1675305014" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;让你找回童心的促织玩法——捕捉最善斗的“大将军”与少林方丈来一次“虫上谈兵”。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_5.png?t=1675305014" /&gt;&lt;h2 class="bb_tag"&gt;“活的”NPC们&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;拥有各自人际关系、经历，会生老病死的数千名NPC；&lt;br&gt;你可以与他们结成各种各样的关系，甚至直接决定他们的生死。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_3.png?t=1675305014" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;你将会与你的另一半生儿育女。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;培养并将你的毕生功力传给下一位传人。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;在茫茫人海中，找寻你上一世的恋人。&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;细致的制造&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;通过采集、制造、修理、精制，&lt;br&gt;你可以完全凭借自己的双手打造任何兵器、护甲，炼制各式各样的丹药。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;拿起淬毒的兵器，穿上淬毒的衣衫，吃下被下毒的解毒药。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_4.png?t=1675305014" /&gt;&lt;h2 class="bb_tag"&gt;真实的武侠战斗&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;新奇的战斗模式，还原“见招拆招”、“草木皆可为剑”、“寸长寸强，寸短寸险”的战斗设计。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;你的每一刀、每一剑、每一掌，都会真实的击打在敌人身体的不同部位。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;搭配你的功法，运转你的内力，磨炼你的技艺和策略。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_6.png?t=1675305014" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;还有许多，期待你的发现。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;strong&gt;另外，我们也非常欢迎您发送邮件到 &lt;a href="mailto:business@conchship.net"&gt;business@conchship.net&lt;/a&gt; 与我们取得更多联系！&lt;/strong&gt;</t>
+          <t>&lt;a href="https://store.steampowered.com/news/app/690830/view/5650356584426826425" target="_blank" rel=""  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/690830/extras/Steam_MapGen_Banner_v01.png?t=1689798129" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;i&gt;本页面已在社区的帮助下翻译完毕！&lt;/i&gt;&lt;h2 class="bb_tag"&gt;有机城市建设的新时代！&lt;/h2&gt;&lt;br&gt;《Foundation》是一个&lt;strong&gt;无网格&lt;/strong&gt;、&lt;strong&gt;悠闲&lt;/strong&gt;的中世纪城市建设游戏，重点是&lt;strong&gt;有机发展&lt;/strong&gt;、&lt;strong&gt;丰碑建设&lt;/strong&gt;和&lt;strong&gt;资源管理&lt;/strong&gt;。&lt;br&gt;&lt;br&gt;作为新任命的领主或夫人，你有机会按照你的设想创建一个繁荣的中世纪定居点，管理你的资源和不断增长的人口，同时接受来自整个王国的叙述性事件、任务和使命的挑战。&lt;br&gt;&lt;br&gt;从非常简陋的开始，建造简陋的工作场所，提取和储存资源，建立贸易路线，竖立雄伟的纪念碑，不久之后...... 一个繁华的城市将在你新发现的土地上出现！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/690830/extras/Foundation_Steam_Envoy_01_600px.png?t=1689798129" /&gt;&lt;h2 class="bb_tag"&gt;特点&lt;/h2&gt;&lt;strong&gt;有机城市主义&lt;/strong&gt;&lt;br&gt;创建无网格和有机蔓延的城市，像当时的中世纪城市一样成长。规划各种工作场所的建设，看着村民们创造自然的道路，建造自己的房屋。直观地画出区域来定义住房、农耕、采集等区域。&lt;br&gt;&lt;br&gt;&lt;strong&gt;兴旺发达&lt;/strong&gt;。&lt;br&gt;在居民的需求和技能、资源供应、开采和商品生产之间编织一个复杂的互动网络。&lt;br&gt;&lt;br&gt;&lt;strong&gt;灵活的建筑创造&lt;/strong&gt;&lt;br&gt;使用互锁的建筑部件系统，制作和设计独特的自由形式的建筑，如酒馆、城堡、教堂和更多。通过切换关闭捕捉功能，获得完全可定制的创作，从而获得更多创意。&lt;br&gt;&lt;br&gt;&lt;strong&gt;与王国的各个派别进行互动&lt;/strong&gt;&lt;br&gt;发展你的村庄的辉煌，提高你在王国的不同派别中的声誉，以获得独家建筑和津贴的机会。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/690830/extras/Foundation_Steam_Construction_01_600px.png?t=1689798129" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;改装社区和支持&lt;/strong&gt;&lt;br&gt;用Lua和mod.io创建和分享你自己的角色、建筑、任务、地形，甚至是视觉和游戏的调整，成为创意基金会社区的一员。&lt;br&gt;&lt;br&gt;&lt;strong&gt;原声带&lt;/strong&gt;&lt;br&gt;沉浸在我们由奥迪尼蒂（Audinity）创作的幸福原声带中，这些天才作曲家曾为Paradox的游戏，如&lt;i&gt;《Crusader Kings II》&lt;/i&gt;和&lt;i&gt;《Europa Universalis IV》&lt;/i&gt;工作过！</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>843810</t>
+          <t>692850</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>完美的一天 / A Perfect Day</t>
+          <t>Bloodstained: Ritual of the Night</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>完美的一天</t>
+          <t>赤痕：夜之仪式</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>氛围,记叙,冒险,选择取向,单人</t>
+          <t>类银河战士恶魔城,角色扮演,动作,女性主角,冒险</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1200,39 +1205,39 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2022年02月25日</t>
+          <t>2019年06月18日</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/843810/extras/20220818-103101.jpg?t=1683701644" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/843810/extras/steam商店页面-重游故园动画.gif?t=1683701644" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/843810/extras/重拾旧物.gif?t=1683701644" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/843810/extras/重回故人.gif?t=1683701644" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/843810/extras/重叙理想1.gif?t=1683701644" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/843810/extras/重播完美.gif?t=1683701644" /&gt;</t>
+          <t>《赤痕·：夜之仪式》是一款以探索为主的横向卷轴动作角色扮演游戏，在内容丰富的游戏设定中融入你所了解和喜爱的银河恶魔城类型游戏的所有最佳特色。游戏由505 Games全球发行，2P Games在大中国地区提供联合发行支持。&lt;br&gt;&lt;br&gt;&lt;br&gt;扮演米丽亚姆，一个被炼金术士诅咒而导致身体正慢慢变成水晶的孤儿。为了拯救她自己，事实上还有所有人类，她必须通过奋力战斗闯过一座充满恶魔的城堡，这座城堡由她的老朋友吉贝尔召唤而来，吉贝尔的身心已经变成了水晶，不再是一副血肉之躯。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;u&gt;游戏具备哪些特色？&lt;/u&gt;&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/692850/extras/Castle_Dips.gif?t=1661299121" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;通过未来的内容更新，13个免费DLC。 “速度恶魔”更新包含速度运行模式，Boss Rush Mode和Pure Miriam服装在发布时可用！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/692850/extras/Action_Jackson.gif?t=1661299121" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;紧凑迷人且令人满意的游戏玩法，搭配情节丰富的全新剧情，承袭了著名“Igavania”游戏教父五十岚孝司的哥特式黑暗风格。&lt;br&gt;剧情过场动画和 NPC 互动由全明星阵容配音，包括戴维·黑特、雷·蔡斯和埃丽卡·林贝克等演员。（说真的，我们在这款游戏中采用了许多配音演员大咖，真是有点疯狂...）&lt;br&gt;&lt;br&gt;&lt;br&gt;总共三个可扮演的角色，只剩最后一个神秘角色尚未公布…&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/692850/extras/Dress_Up.gif?t=1661299121" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;大量武器和咒语，可以强化、升级和对其外观进行自定义。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/692850/extras/TheOleDragonShootSamuraiGame.gif?t=1661299121" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;精美的 2.5D 画面：在 2D 游戏环境中悉心制作 3D 模型。这意味着具备许多“普通”2D 无法实现的酷炫技巧…&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;u&gt;未来规划&lt;/u&gt;&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;从本 Steam 页面的更新到游戏各个方面的全部内容，未来将发布大量公告和更新。这将是一次疯狂的旅程。</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>851850</t>
+          <t>701160</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DRAGON BALL Z: KAKAROT</t>
+          <t>Kingdom Two Crowns</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>七龙珠Z 卡卡洛特</t>
+          <t>王国：两位君主</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>动作,角色扮演,动漫,开放世界,格斗</t>
+          <t>2D,横向滚屏,本地合作,在线合作,氛围</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1242,39 +1247,39 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2020年01月17日</t>
+          <t>2018年12月11日</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/851850/extras/DBZK_SteamGif_GvP.gif?t=1692288469" /&gt;&lt;br&gt;・体验七龙珠Z的壮烈事迹及轻松的小品故事，本作还收录了首次针对龙珠传说热门话题的解答！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/851850/extras/DBZK_SteamGif_GvF.gif?t=1692288469" /&gt;&lt;br&gt;・畅玩不同于其他作品、最具指标性的七龙珠Z战斗。玩家可在广阔的战场上与最经典的对手（拉帝兹、弗力札、塞鲁……等等）展开史诗级大战，请透过角色扮演壮大自身的力量并接受各方的挑战吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/851850/extras/DBZK_SteamGif_SS.gif?t=1692288469" /&gt;&lt;br&gt;・除战斗外，玩家也可以像Z战士一样在游戏里钓鱼、飞行、进食、训练、进行龙珠传奇故事里的决斗、与龙珠的各角色交朋友并缔结深厚的情谊！&lt;br&gt;&lt;br&gt;《七龙珠Z 卡卡洛特》里可体验到悟空及其他Z战士的故事！除了史诗级的对战外，在七龙珠Z世界里亦可以与悟空、悟饭及贝吉达等等角色​​进行打斗、钓鱼、用餐及训练。请尽情探索新区域、体验故事中的冒险活动并加深与七龙珠Z其他英雄人物之间的羁绊吧。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/701160/extras/KeyArt_Animated_Wide_aGif_02.gif?t=1678984436" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;《王国：两位君主》&lt;/strong&gt;是一款极简风格的像素画风横轴微策略游戏，美术风格精美而现代。化身君主，骑上坐骑，征召忠诚的子民，建造你的王国。保卫疆土，不要让贪婪生物掠夺你的财富和王位。&lt;br&gt;&lt;br&gt;在全新的战役模式中，君主必须想方设法保卫、巩固王国，直到彻底消灭贪婪生物。探索环境中的元素，发现新的坐骑和深藏的秘密。&lt;br&gt;&lt;br&gt;不过你不必一人治国！《王国：两位君主》加入了独具特色的合作模式，玩家既可以选择经典的单人模式，也可以在本地或在线与朋友配合，任意加入或退出游戏。&lt;br&gt;&lt;br&gt;《王国：两位君主》不仅有中世纪欧洲的设定，还有：&lt;br&gt;&lt;br&gt;👑 &lt;strong&gt;死亡之地：&lt;/strong&gt;深入王国的黑暗之地。化身哥特风恐怖动作角色扮演游戏《赤痕》中的碎片人米莉雅姆等独特的君主，获得相应的强大特性。骑上巨大的甲虫，布设陷阱；骑上诡异的不死生物，召唤障碍，阻止贪婪生物的侵袭；或者骑上《赤痕》神秘的恶魔生物加麦基，发动强大的冲刺攻击。玩家将获得前所未有的恐怖体验！&lt;br&gt;&lt;br&gt;👑 &lt;strong&gt;日本幕府：&lt;/strong&gt;前往一片新的土地，这里的建筑和文化均受到日本封建时代的启发。化身强大的幕府将军或女武士，征召忍者，骑上神兽麒麟，率军作战，一面运筹帷幄，一面鏖战竹林深处的贪婪生物。&lt;br&gt;&lt;br&gt;我们将在正式发售之后，延续《王国：两位君主》的探索、发现和策略元素，加入更多主题鲜明的设定。各个设定风格迥异，不仅可以通过不同的方式治理，还能看到令人惊叹的风景。&lt;br&gt;&lt;br&gt;无论你是第一次登上王座，还是经验丰富的君主，都有挑战等你来克服。伟大的君主，鼓起勇气，不要退缩。因为两位君主的统治终归要比一位君主更强大！</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>881100</t>
+          <t>703080</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Noita</t>
+          <t>Planet Zoo</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>巫婆Noita</t>
+          <t>动物园之星</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>物理,困难,类 Rogue,像素图形,迷宫探索</t>
+          <t>管理,模拟,建造,沙盒,自然</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1284,39 +1289,39 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2020年10月16日</t>
+          <t>2019年11月05日</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;《Noita》&lt;/strong&gt;是一个轻度 Rogue-like 的魔法动作游戏，在《Noita》的世界中，每个像素都有物理模拟。您可使用您自己创造的法术，在逐步生成的世界上一路探索、战斗、焚烧、熔毁、冰冻和蒸发，打开自己的前路。探索多样的环境，从煤矿到寒冷废土，深入寻求未知的神秘。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/881100/extras/radioactive-vat.png?t=1675987871" /&gt;&lt;li&gt;&lt;strong&gt;基于像素的物理模拟&lt;/strong&gt;：世界中的每个像素均有模拟。一切皆可燃烧、爆炸或熔毁。沐浴敌人的鲜血！进入拥有前所未有互动性的高度模拟世界。&lt;br&gt;    &lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;您自己的魔法&lt;/strong&gt;：在深入洞穴的同时，创造全新法术。使用魔法摧毁敌人，操纵你身旁的世界。&lt;br&gt;    &lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;逐渐生成的世界&lt;/strong&gt;：每次游玩都会探索独一无二的世界。深入探索，发现全新要素。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/881100/extras/cover-shooter2.png?t=1675987871" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;轻度 Rogue-like 动作&lt;/strong&gt;：死亡不可复生。死亡将始终伴随你，成为你游戏过程中迫在眉睫的威胁。尽管死亡，却也不必绝望：利用所学，在下此探险中走得更远。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;strong&gt;《Noita》&lt;/strong&gt;由 Nolla Games 开发。Nolla Games 是一家由 3 位独立游戏开发者创立的公司。3 名开发者过去均有自己的独立项目。&lt;br&gt;&lt;br&gt;游戏的 3 位负责人分别为：&lt;br&gt;&lt;br&gt;&lt;strong&gt;Petri Purho&lt;/strong&gt;&lt;br&gt;Petri 以《&lt;a href="https://store.steampowered.com/app/26900/Crayon_Physics_Deluxe/" target="_blank" rel=""  &gt;Crayon Physics Deluxe&lt;/a&gt;（蜡笔物理学）》创作人的身份广为人知。在他年轻时，还制作过众多小型免费游戏。除此之外，他也是不少桌面游戏的创造者；不过他没有将细节告诉任何人。-- 所以还是保密吧。&lt;br&gt;&lt;br&gt;&lt;strong&gt;Olli Harjola&lt;/strong&gt;&lt;br&gt;Olli 以斩获大奖的离奇科幻解谜游戏&lt;a href="https://store.steampowered.com/app/231160/The_Swapper/" target="_blank" rel=""  &gt;《The Swapper（交换者）》&lt;/a&gt;闻名。除独立游戏之外，音乐、现场视觉和编程语言，他也有所涉猎。&lt;br&gt;&lt;br&gt;&lt;strong&gt;Arvi Teikari&lt;/strong&gt;&lt;br&gt;Arvi，以 Hempuli 的名字广为人知。多年来，他曾发布有众多小型实验性游戏；由于为数实在众多，他甚至无法全部记得 。其中，他能回忆起是自己创作的游戏之一便是《&lt;a href="https://store.steampowered.com/app/736260/Baba_Is_You/" target="_blank" rel=""  &gt;Baba Is You&lt;/a&gt;（巴巴是你）》。</t>
+          <t>在《动物园之星》中打造一个野生动物世界。由《过山车之星》(Planet Coaster) 和《动物园大亨》(Zoo Tycoon) 的开发者团队制作，将为你带来极致的动物园模拟游戏体验。游戏中栩栩如生的动物能够思考且富有感情，它们会探索你打造的世界。体验游历世界的剧情模式，或是在沙盒模式中自由挥洒你的想象力。创造独特的栖息地和广阔风景，做出重大决定和关键选择，并在建造及管理世上最狂野动物园的同时，让你的动物茁壮成长。&lt;br&gt;&lt;br&gt;&lt;strong&gt;野性世界，模拟无界&lt;/strong&gt;&lt;br&gt;&lt;br&gt;见识各种令人惊叹的动物。从顽皮的幼狮到雄伟的大象，《动物园之星》中的每种动物都是能够思考且富有感情的个体，并具有独特的外形和性格。打造精细的动物栖息地，给动物如同原始自然环境的家园，研究并管理每个物种，让它们生长茁壮，并协助动物组织家庭、养育后代。&lt;br&gt;&lt;br&gt;&lt;strong&gt;环环相扣的管理&lt;/strong&gt;&lt;br&gt;&lt;br&gt;管理一个栩栩如生的惊奇世界，你做的每个决定都会对这世界产生影响。你可以聚焦整体大局，也可以亲手调整最微小的细节。展示极具特色的动物来惊艳游客，进行新研究来发展动物园，并让培育的动物后代回归大自然。在这个重视动物福利和保育的世界里，你的决定将影响无数生命。&lt;br&gt;&lt;br&gt;&lt;strong&gt;创意无极限&lt;/strong&gt;&lt;br&gt;&lt;br&gt;《动物园之星》以组件为基础的强大建造工具，能让你轻松打造出独一无二的动物园。你的每个创新决定都会影响动物的生活和游客的游园体验。尽情挥洒你的想象力，你可以凿出湖泊河流、塑造山丘峻岭、铺设道路、雕出洞穴，并利用众多独特主题和上百种建筑组件，打造出令人叹为观止的动物园。&lt;br&gt;&lt;br&gt;&lt;strong&gt;分享和激发灵感&lt;/strong&gt;&lt;br&gt;&lt;br&gt;加入互相串连的社区，在 Steam 创意工坊分享世上最有创意的动物栖息地、风景，甚至是整个动物园。看着你的独创设计出现在世界各地玩家的动物园中，或是每天探索《动物园之星》社区上的全新内容。</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1086940</t>
+          <t>768300</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Baldur's Gate 3</t>
+          <t>Zhulik.exe</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>博德之门3</t>
+          <t>Zhulik.exe</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>角色扮演,选择取向,剧情丰富,角色自定义,冒险</t>
+          <t>独立,休闲,模拟,欢乐,经济</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1324,54 +1329,427 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>9.8</t>
-        </is>
-      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2023年08月03日</t>
+          <t>2017年12月28日</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Larian_Steam_new_KeyArt_ready.gif?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;召集你的队伍，返回被遗忘的国度，开启一段充满友谊与背叛、牺牲与生存，以及至高无上力量诱惑的传奇故事。&lt;br&gt;&lt;br&gt;神秘的力量正在你体内苏醒，而这一切都来源于夺心魔种在你大脑里的寄生虫。反抗吧，将黑暗的力量反掌为用。你也可以选择接受这种腐化，变成终极的邪恶。&lt;br&gt;&lt;br&gt;来自《神界：原罪2》的创作团队所打造的次时代RPG，故事将在D&amp;amp;D（龙与地下城）的世界中展开。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Gather_new.gif?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;你可以从D&amp;amp;D玩家手册中的12个职业与11个种族中进行选择，或者直接扮演一个带有精心设计背景的起源英雄。无论你是踏上冒险之旅，还是去获取战利品，亦或是投身战斗，或者展开罗曼史，这些都将贯穿你在被遗忘的国度以及其他位面的冒险旅程。你可以选择单独游玩，或者是与最多三名队友一起进行联机游戏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/An_expansive_original_story.png?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;被劫持，被感染，陷入迷失。你正在变成一个怪物，但随着你体内的腐化力量的增长，你的力量也在增强。这力量可能能帮助你生存下来，但接受它的同时，你必将付出某种代价。然而，超越任何能力，你与队友之间建立的信任纽带可能会成为你最大的力量。在恶魔、诸神和邪恶的其他世界力量之间的冲突中，你将与队友共同决定被遗忘国度的命运。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Next_Gen_new.gif?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;利用全新的神界4.0引擎打造，《博德之门3》将为你提供前所未有的自由度，让你在这个充满角色、危险和欺诈的活跃世界中探索、尝试、互动，并获取实时的反馈。宏大的电影级叙事让你比以往任何时候都更接近你的角色。从被阴影诅咒的森林，到幽暗地域的神奇洞穴，再到博德之门本身的庞大城市，你的行动决定着冒险的过程，但你的选择将塑造你的遗产。你将被人们所铭记。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/No_adventure_will_be_the_same.png?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;被遗忘的国度是一个宏大、细节繁多、充满各色各样事物多元化的世界，到处都有等待被你发现的秘密——可互动的空间是探索的一个非常重要的部分。潜行，挖掘，推动物品，攀爬，还有跳跃，这些行动会贯穿你的整个旅途，从大地深处的幽暗地域，到地表城市闪亮的屋顶。你的每一个选择都会推动你的故事向前发展，每一个决定都会在世界上留下你的印记。你可以提升自己的角色、培养人际关系、树立敌人，并以自己的方式解决问题。每次游戏体验都是全新的无与伦比。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;最多可支持四名玩家的在线多人游戏&lt;br&gt;你可以将你的团队联合起来，同时攻击敌人，也可以将队伍分开，各自执行自己的任务和计划。一起制定完美的计划......或者在朋友们最意想不到的时候引入混乱元素。人际关系是很复杂的。尤其是当你脑中有寄生虫的时候。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;起源角色&lt;br&gt;7 位独一无二的起源角色为你带来精雕细琢的体验，每个人都有自己独特的特质、思想和世界观。他们的故事与总体叙事相互交错，而你的选择将决定这些故事的结局是救赎、拯救、统治，还是其他多种结局之一。你可以扮演原住民，欣赏他们的故事，也可以招募他们与你并肩作战。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;全新进化的回合制战斗&lt;br&gt;基于第五版《龙与地下城》规则。你可以体验基于团队战斗的主动权，和在战斗中不同决策带来的优势和劣势。我们增添了战地视角下的掷骰修正，也拓展了环境之间的交互性，增添了新的、更加灵活的战术和奖励，以让你在战斗中尽情展现你的策略和远见。三种难度设置可让您自定义战斗的挑战性。启用骰子加成来左右战斗，或在策略模式下进行游戏，以获得真正的硬核体验。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;前所未有的广度和深度&lt;br&gt;在 11 个种族（人类、吉斯洋基人、半兽人、矮人、精灵、卓尔、提夫林、半身人、半精灵、侏儒、龙裔）的基础上又增加了 31 个亚种，并从 12 个职业中分支出 46 个子职。在这个精雕细琢的世界中，600 多种法术和行动提供了近乎无限的互动自由。在这个世界中，探索是一种奖励，而玩家的主动性决定了旅程。我们独特的“角色创建器”具有前所未有的角色深度，其丰富的互动选项可确保无论你是谁，都会为你打造出独特的角色，一直到 12 级。超过 174 小时的过场动画确保无论你做出什么选择，过场动画都会跟随你的旅程——每一次游戏体验都是一次全新的电影之旅。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;复杂而深刻的浪漫故事&lt;br&gt;战争的威胁迫在眉睫地向博德之门袭来，夺心魔的入侵也即将来临，而友谊——尽管并非必要——也将加入你的旅途中。你将与沿途遇到的人建立起真实、充满活力的关系，至于他们会变成什么样，则取决于你自己。每个同伴都有自己的道德指南针，会对你在旅途中做出的选择做出反应。你将以怎样的代价坚持自己的理想？你会让爱左右你的行动吗？在通往博德之门的道路上建立起来的关系既是您在营地休息的片刻，也为你在冒险中做出的许多决定增添了砝码。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;高度定制的直播体验&lt;br&gt;当您点击“开始直播”时，您的直播将不会被如熊、粗口或缺乏着装等因素所干扰。《博德之门 3》提供了3种不同级别的适合直播的定制选项。您可以分别（或同时）禁用裸体和露骨的内容，并可以启用Twitch集成功能，直接与观众互动，正如我们在《地狱飨宴》展示会上所做的一样！有了这些选项，无论您选择以何种方式进行游戏，《博德之门 3》都能保证您的直播进行得顺利。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Final_Image_new.gif?t=1692294127" /&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;strong&gt;Experimental experience!&lt;/strong&gt;&lt;br&gt;Feel like a trader and buy magical product cheaper to sell it with extra charge.&lt;br&gt;Grow your capital in the fascinating and colorful adventures of the Rogue.&lt;br&gt;&lt;br&gt;- Earn money by using the simple &amp;quot;Buy&amp;amp;Sell&amp;quot; scheme.&lt;br&gt;- Put money to the bank and earn more!&lt;br&gt;- Borrow money to return more!&lt;br&gt;- Spend money on upgrades&lt;br&gt;- Hire an oracle to predict the product cost&lt;br&gt;- Earn 1 000 000 money to win!&lt;br&gt;&lt;br&gt;&lt;strong&gt;Languages available in the game:&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; English&lt;br&gt;&lt;/li&gt;&lt;li&gt; German&lt;br&gt;&lt;/li&gt;&lt;li&gt; Russian&lt;br&gt;&lt;/li&gt;&lt;li&gt; Portuguese&lt;br&gt;&lt;/li&gt;&lt;li&gt; Estonian&lt;br&gt;&lt;/li&gt;&lt;li&gt; Ukrainian&lt;br&gt;&lt;/li&gt;&lt;li&gt; Czech&lt;br&gt;&lt;/li&gt;&lt;li&gt; Dutch&lt;br&gt;&lt;/li&gt;&lt;li&gt; Spanish&lt;br&gt;&lt;/li&gt;&lt;li&gt; Chinese (Traditional)&lt;br&gt;&lt;/li&gt;&lt;li&gt; Swedish&lt;br&gt;&lt;/li&gt;&lt;li&gt; Italian&lt;br&gt;&lt;/li&gt;&lt;li&gt; Polish&lt;br&gt;&lt;/li&gt;&lt;li&gt; French&lt;br&gt;&lt;/li&gt;&lt;li&gt; Belarusian&lt;br&gt;&lt;/li&gt;&lt;li&gt; Turkish&lt;br&gt;&lt;/li&gt;&lt;li&gt; Portuguese-Brazil&lt;br&gt;&lt;/li&gt;&lt;li&gt; Danish&lt;/li&gt;&lt;/ul&gt;Looking for: Arabic, Greek, Japanese, Norwegian, Simplified Chinese, Thai, Bulgarian, Finnish, Hungarian, Korean&lt;br&gt;&lt;a href="http://steamcommunity.com/app/768300/discussions/0/1621726179569053008" target="_blank" rel=""  &gt; Looking for translators! &lt;/a&gt;</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>838350</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>太吾绘卷 The Scroll Of Taiwu</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">太吾绘卷 </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>角色扮演,武术,沙盒,开放世界,策略</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2018年09月21日</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>&lt;strong&gt;欢迎大家加入《太吾绘卷》官方讨论群：&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;972367371  太吾绘卷交流7群&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;985094820  太吾绘卷交流8群 &lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;1030657107  太吾绘卷10群 &lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;760164332  太吾绘卷15群&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;901410916  太吾绘卷16群&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;概述&lt;/h2&gt;在《太吾绘卷》的世界中，你除了需要扮演神秘的“太吾氏传人”，还将以不同的处世立场——或善、或恶、或中庸——投身于纷繁复杂的江湖之中。&lt;br&gt;你不仅可以拜访世界各地的武林门派，学习种类繁多的功法绝艺；还可以与人义结金兰，或结下血海深仇；不仅可以兴建自己的村庄，经营各种产业；还可以与自己的挚爱生儿育女，缘定三生；直到你终于面对太吾氏的宿敌，决定世界的命运！&lt;h2 class="bb_tag"&gt;未知的江湖&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;你所创建的每一个太吾世界，都将是独一无二的——&lt;br&gt;完全随机生成的地图、完全随机生成的NPC、敌人。你的每次游戏都会是一次崭新的冒险。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;你能够从十五个风格迥异的武林门派中，学习到上千种功法绝艺；&lt;br&gt;从几乎任何NPC身上，学习到上百种中华传统技艺。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_0.png?t=1675305014" /&gt;&lt;h2 class="bb_tag"&gt;融合多种玩法&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;除RPG玩法外，《太吾绘卷》还融合了许多不同的游戏类型，如充满随机冲突的Roguelike要素；&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_1.png?t=1675305014" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;以及需要精心规划的模拟经营要素：建造、采集、扩建、经营、制造、维护等。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_2.png?t=1675305014" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;让你找回童心的促织玩法——捕捉最善斗的“大将军”与少林方丈来一次“虫上谈兵”。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_5.png?t=1675305014" /&gt;&lt;h2 class="bb_tag"&gt;“活的”NPC们&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;拥有各自人际关系、经历，会生老病死的数千名NPC；&lt;br&gt;你可以与他们结成各种各样的关系，甚至直接决定他们的生死。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_3.png?t=1675305014" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;你将会与你的另一半生儿育女。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;培养并将你的毕生功力传给下一位传人。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;在茫茫人海中，找寻你上一世的恋人。&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;细致的制造&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;通过采集、制造、修理、精制，&lt;br&gt;你可以完全凭借自己的双手打造任何兵器、护甲，炼制各式各样的丹药。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;拿起淬毒的兵器，穿上淬毒的衣衫，吃下被下毒的解毒药。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_4.png?t=1675305014" /&gt;&lt;h2 class="bb_tag"&gt;真实的武侠战斗&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;新奇的战斗模式，还原“见招拆招”、“草木皆可为剑”、“寸长寸强，寸短寸险”的战斗设计。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;你的每一刀、每一剑、每一掌，都会真实的击打在敌人身体的不同部位。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;搭配你的功法，运转你的内力，磨炼你的技艺和策略。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_6.png?t=1675305014" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;还有许多，期待你的发现。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;strong&gt;另外，我们也非常欢迎您发送邮件到 &lt;a href="mailto:business@conchship.net"&gt;business@conchship.net&lt;/a&gt; 与我们取得更多联系！&lt;/strong&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>843810</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>完美的一天 / A Perfect Day</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>完美的一天</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>氛围,记叙,冒险,选择取向,单人</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.9</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2022年02月25日</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/843810/extras/20220818-103101.jpg?t=1683701644" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/843810/extras/steam商店页面-重游故园动画.gif?t=1683701644" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/843810/extras/重拾旧物.gif?t=1683701644" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/843810/extras/重回故人.gif?t=1683701644" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/843810/extras/重叙理想1.gif?t=1683701644" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/843810/extras/重播完美.gif?t=1683701644" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>851850</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DRAGON BALL Z: KAKAROT</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>七龙珠Z 卡卡洛特</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>动作,角色扮演,动漫,开放世界,格斗</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2020年01月17日</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/851850/extras/DBZK_SteamGif_GvP.gif?t=1692288469" /&gt;&lt;br&gt;・体验七龙珠Z的壮烈事迹及轻松的小品故事，本作还收录了首次针对龙珠传说热门话题的解答！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/851850/extras/DBZK_SteamGif_GvF.gif?t=1692288469" /&gt;&lt;br&gt;・畅玩不同于其他作品、最具指标性的七龙珠Z战斗。玩家可在广阔的战场上与最经典的对手（拉帝兹、弗力札、塞鲁……等等）展开史诗级大战，请透过角色扮演壮大自身的力量并接受各方的挑战吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/851850/extras/DBZK_SteamGif_SS.gif?t=1692288469" /&gt;&lt;br&gt;・除战斗外，玩家也可以像Z战士一样在游戏里钓鱼、飞行、进食、训练、进行龙珠传奇故事里的决斗、与龙珠的各角色交朋友并缔结深厚的情谊！&lt;br&gt;&lt;br&gt;《七龙珠Z 卡卡洛特》里可体验到悟空及其他Z战士的故事！除了史诗级的对战外，在七龙珠Z世界里亦可以与悟空、悟饭及贝吉达等等角色​​进行打斗、钓鱼、用餐及训练。请尽情探索新区域、体验故事中的冒险活动并加深与七龙珠Z其他英雄人物之间的羁绊吧。</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>881100</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Noita</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>巫婆Noita</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>物理,困难,类 Rogue,像素图形,迷宫探索</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2020年10月16日</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>&lt;strong&gt;《Noita》&lt;/strong&gt;是一个轻度 Rogue-like 的魔法动作游戏，在《Noita》的世界中，每个像素都有物理模拟。您可使用您自己创造的法术，在逐步生成的世界上一路探索、战斗、焚烧、熔毁、冰冻和蒸发，打开自己的前路。探索多样的环境，从煤矿到寒冷废土，深入寻求未知的神秘。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/881100/extras/radioactive-vat.png?t=1675987871" /&gt;&lt;li&gt;&lt;strong&gt;基于像素的物理模拟&lt;/strong&gt;：世界中的每个像素均有模拟。一切皆可燃烧、爆炸或熔毁。沐浴敌人的鲜血！进入拥有前所未有互动性的高度模拟世界。&lt;br&gt;    &lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;您自己的魔法&lt;/strong&gt;：在深入洞穴的同时，创造全新法术。使用魔法摧毁敌人，操纵你身旁的世界。&lt;br&gt;    &lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;逐渐生成的世界&lt;/strong&gt;：每次游玩都会探索独一无二的世界。深入探索，发现全新要素。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/881100/extras/cover-shooter2.png?t=1675987871" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;轻度 Rogue-like 动作&lt;/strong&gt;：死亡不可复生。死亡将始终伴随你，成为你游戏过程中迫在眉睫的威胁。尽管死亡，却也不必绝望：利用所学，在下此探险中走得更远。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;strong&gt;《Noita》&lt;/strong&gt;由 Nolla Games 开发。Nolla Games 是一家由 3 位独立游戏开发者创立的公司。3 名开发者过去均有自己的独立项目。&lt;br&gt;&lt;br&gt;游戏的 3 位负责人分别为：&lt;br&gt;&lt;br&gt;&lt;strong&gt;Petri Purho&lt;/strong&gt;&lt;br&gt;Petri 以《&lt;a href="https://store.steampowered.com/app/26900/Crayon_Physics_Deluxe/" target="_blank" rel=""  &gt;Crayon Physics Deluxe&lt;/a&gt;（蜡笔物理学）》创作人的身份广为人知。在他年轻时，还制作过众多小型免费游戏。除此之外，他也是不少桌面游戏的创造者；不过他没有将细节告诉任何人。-- 所以还是保密吧。&lt;br&gt;&lt;br&gt;&lt;strong&gt;Olli Harjola&lt;/strong&gt;&lt;br&gt;Olli 以斩获大奖的离奇科幻解谜游戏&lt;a href="https://store.steampowered.com/app/231160/The_Swapper/" target="_blank" rel=""  &gt;《The Swapper（交换者）》&lt;/a&gt;闻名。除独立游戏之外，音乐、现场视觉和编程语言，他也有所涉猎。&lt;br&gt;&lt;br&gt;&lt;strong&gt;Arvi Teikari&lt;/strong&gt;&lt;br&gt;Arvi，以 Hempuli 的名字广为人知。多年来，他曾发布有众多小型实验性游戏；由于为数实在众多，他甚至无法全部记得 。其中，他能回忆起是自己创作的游戏之一便是《&lt;a href="https://store.steampowered.com/app/736260/Baba_Is_You/" target="_blank" rel=""  &gt;Baba Is You&lt;/a&gt;（巴巴是你）》。</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>892970</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Valheim</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>英灵神殿</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>开放世界生存制作,生存,在线合作,开放世界,多人</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2021年02月02日</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>你是一名战死的英灵战士，女武神们把你的灵魂摆渡到了英灵神殿，北境第十大神界。而你却被一些混沌之物和古老的众神之敌困在了这里，你是这个原始炼狱最新的守护者，而你的任务就是诛杀奥丁旧时的敌人，给英灵神殿带来应有的秩序。&lt;br&gt;&lt;br&gt;对你的考验会在较为和平的英灵神殿中心开始，但是众神只会庇佑和奖励勇敢的人。去雄伟壮阔的森林，白雪皑皑的山脉探险吧，探索并获取更有价值的资源以制作更危险的武器，更坚固的盔甲，修建维京要塞和哨站。你还可以打造一艘无敌的维京长船并且开始在无尽之海的航行以便寻找异域的领地……注意：不要偏离航线太远…&lt;br&gt;&lt;br&gt;&lt;strong&gt;主要特点：&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;庞大的程序生成的开放世界 - 探索并生存在这片神秘的土地，从诡秘的森林到壮阔的雪山和美丽的草原，有独特的传奇物种可以战斗也有各种野生动物可以狩猎。&lt;br&gt;&lt;/li&gt;&lt;li&gt;多人合作（2-10人） -  你既可以单独探索也可以和你信任的盟友一起冒险，英灵神殿支持无限制创建独立的玩家托管服务器。建议合作人数：3-5人&lt;br&gt;&lt;/li&gt;&lt;li&gt;拥有数样繁多的武器并基于惩戒闪避和格挡的战斗系统。&lt;br&gt;&lt;/li&gt;&lt;li&gt;建造&amp;amp;航行船只 - 从脆弱的木筏到雄伟的军舰，建造史诗级的轮船以征服海洋并发现新的土地。&lt;br&gt;&lt;/li&gt;&lt;li&gt;召唤并打败神话和传说中的邪恶的的原始邪灵，并获得战利品以得到进化，从而以制作更新更强大的物品。&lt;br&gt;&lt;/li&gt;&lt;li&gt;机动性的房屋修建系统 - 可以修建大殿，农场，居所，哨站，城堡等等。&lt;br&gt;&lt;/li&gt;&lt;li&gt;直观的物品制作 - 打造最好的武器和盔甲，烹饪食物和蜜酒。&lt;br&gt;&lt;/li&gt;&lt;li&gt;本地专属服务器 - 适用于想要长期运行服务器的玩家。&lt;/li&gt;&lt;/ul&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>981430</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Gordian Quest</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>高殿战记</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>角色扮演,卡牌游戏,卡牌战斗,2D,策略</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.7</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2022年06月24日</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>想要知道未来我们更多开发计划吗？点击右侧链接来看看我们的开发蓝图吧！&lt;a href="https://store.steampowered.com/news/app/981430/view/2085671129240796896" target="_blank" rel=""  &gt;https://store.steampowered.com/news/app/981430/view/2085671129240796896&lt;/a&gt;&lt;br&gt;&lt;br&gt;邪恶的诅咒腐化了大地，黑暗统治了一切，尔后妖魔横行，生灵涂炭。这片土地正呼唤着英雄的降临。&lt;br&gt;带领英雄们拯救这个苟延残喘的世界，消灭邪恶的根源或是落入敌人的魔爪？高殿战记将从这里开始书写。&lt;br&gt;&lt;br&gt;&lt;img src="https://store.steampowered.com/gfxproxy/betagfx/apps/981430/manuals/bear.jpg?t=1571625955" /&gt;&lt;h2 class="bb_tag"&gt;游戏特色&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;战役模式——共计包含游戏4幕的游戏冒险篇章，展开你的英雄史诗之旅。&lt;br&gt;&lt;/li&gt;&lt;li&gt;无尽模式——该模式下，游戏将成为一场永恒的冒险，允许玩家持续完成任务、斩妖除魔并收集更多英雄技能、神器和武器。&lt;br&gt;&lt;/li&gt;&lt;li&gt;10 位英雄——玩家可以从6位各具特色的英雄中进行选择，拥有各自的职业、技能、以及游戏方式，最多可组成三人小队展开冒险。包含职业为剑士、教士、游侠、恶徒、德鲁伊、术士和吟游诗人等。&lt;br&gt;&lt;/li&gt;&lt;li&gt;数以百计的技能——英雄们拥有总计近800种被动和主动技能，用于在回合制战斗中施展，允许玩家发现并搭配出他们最爱的技能组合。&lt;br&gt;&lt;/li&gt;&lt;li&gt;升级与装备——玩家可以升级、训练你的英雄，并给他们装备各式各样的武器、护甲和附魔饰品，来强化他们的技能。&lt;br&gt;&lt;/li&gt;&lt;li&gt;体验多周目的乐趣——程序随机生成的地图和地下城以及随机英雄技能使每一回的游戏进程与上周目都有所不同。&lt;br&gt;&lt;/li&gt;&lt;li&gt;多种难度等级——迎接硬核模式下永久死亡的极致体验，亦或进行死亡惩罚较小的休闲游戏。&lt;br&gt;&lt;/li&gt;&lt;li&gt;海量掉落物品——在你的旅途中收集物品和神器，提升英雄的技能。你还有机会偶得神秘物品，它们能通过祝福和诅咒同时强化及削弱你的英雄。&lt;br&gt;&lt;/li&gt;&lt;li&gt;继承奖励和进阶系统——游戏越久，奖励越多。多多使用英雄进行游戏，从而让他们在出发时获得更多的资源、物品、甚至拥有更改初始牌库的能力。&lt;br&gt;&lt;/li&gt;&lt;li&gt;PVP模式——叫上你的朋友，使用你最拿手的英雄和技能与他们一决高下。&lt;/li&gt;&lt;/ul&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1040420</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Dreamscaper</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>层层梦境</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>动作类 Rogue,动作,轻度 Rogue,独立,角色扮演</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2021年08月05日</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>&lt;h2 class="bb_tag"&gt;&lt;strong&gt;沉睡, 死亡, 惊醒。如此循环。&lt;/strong&gt;&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040420/extras/combat02.gif?t=1693946457" /&gt;&lt;br&gt;&lt;br&gt;【层层梦境】是一款在清醒与梦境中循环游玩的Roguelike动作游戏。夜晚降临时，你将坠入潜意识中，对抗梦魇。在这个瞬息万变的世界里，你会遇到各类特殊的物品、能力、以及挑战。而在白昼时，你可以探索红港区、结识形形色色的人、提升自己，以挑战愈发强大的梦境。&lt;br&gt;&lt;br&gt;玩家将扮演卡西迪，进入她的潜意识，体验她那些不断循环超现实噩梦，努力将她从黑暗的命运中拯救出来。&lt;h2 class="bb_tag"&gt;特色&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;在噩梦中前进，让永久死亡成为你的盟友。&lt;br&gt;&lt;/li&gt;&lt;li&gt;使用理性之力来操纵元素，在空间中穿梭，就连时间也可以随心所欲。&lt;br&gt;&lt;/li&gt;&lt;li&gt;去和那些代表孤立，恐惧，消极和丧失的boss们斗争。&lt;br&gt;&lt;/li&gt;&lt;li&gt;升级大量的超现实物品并发现强大的工艺品。&lt;br&gt;&lt;/li&gt;&lt;li&gt;体验卡西迪的现实生活，揭开其故事的神秘面纱。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040420/extras/Hometown_Diner_steam.jpg?t=1693946457" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;掌握深度的战斗系统​&lt;/strong&gt;&lt;/h2&gt;丰富多样的战斗系统丰富了游戏技巧。利用敏锐的定位、精确的时间和快速的反应，用各种各样的战斗选择打败对手。&lt;br&gt;&lt;br&gt;《层层梦境》中的每一种武器都是独一无二的，比如撕裂你的噩梦之土，用溜溜球打敌人的脸。你将有无数的方法来完成战斗。&lt;br&gt;&lt;br&gt;《层层梦境》中的敌人和boss是卡西迪消极情绪之最的代表。击败这些致命的敌人，清除她周围的黑暗瘴气。&lt;h2 class="bb_tag"&gt;&lt;strong&gt;征服噩梦​&lt;/strong&gt;&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040420/extras/core-loop-chinese.jpg?t=1693946457" /&gt;&lt;br&gt;在这片美丽萦绕梦境中冒险，挖掘未知的秘密，发现各种物品和能力，了解卡西迪的故事。每一次的跑关都能将你带来一个独特的世界去探索，每一个梦境都是对卡西迪在现实世界中的回忆和经历的窥视。&lt;br&gt;&lt;br&gt;体验卡西迪的现实生活，与她周围的人建立友谊。用他们的希望和记忆赋予卡西迪力量，驱散她噩梦中的黑暗。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040420/extras/bar.png.png?t=1693946457" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040420/extras/wishlist.gif?t=1693946457" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1086940</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Baldur's Gate 3</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博德之门3</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>角色扮演,选择取向,剧情丰富,角色自定义,冒险</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.8</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2023年08月03日</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Larian_Steam_new_KeyArt_ready.gif?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;召集你的队伍，返回被遗忘的国度，开启一段充满友谊与背叛、牺牲与生存，以及至高无上力量诱惑的传奇故事。&lt;br&gt;&lt;br&gt;神秘的力量正在你体内苏醒，而这一切都来源于夺心魔种在你大脑里的寄生虫。反抗吧，将黑暗的力量反掌为用。你也可以选择接受这种腐化，变成终极的邪恶。&lt;br&gt;&lt;br&gt;来自《神界：原罪2》的创作团队所打造的次时代RPG，故事将在D&amp;amp;D（龙与地下城）的世界中展开。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Gather_new.gif?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;你可以从D&amp;amp;D玩家手册中的12个职业与11个种族中进行选择，或者直接扮演一个带有精心设计背景的起源英雄。无论你是踏上冒险之旅，还是去获取战利品，亦或是投身战斗，或者展开罗曼史，这些都将贯穿你在被遗忘的国度以及其他位面的冒险旅程。你可以选择单独游玩，或者是与最多三名队友一起进行联机游戏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/An_expansive_original_story.png?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;被劫持，被感染，陷入迷失。你正在变成一个怪物，但随着你体内的腐化力量的增长，你的力量也在增强。这力量可能能帮助你生存下来，但接受它的同时，你必将付出某种代价。然而，超越任何能力，你与队友之间建立的信任纽带可能会成为你最大的力量。在恶魔、诸神和邪恶的其他世界力量之间的冲突中，你将与队友共同决定被遗忘国度的命运。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Next_Gen_new.gif?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;利用全新的神界4.0引擎打造，《博德之门3》将为你提供前所未有的自由度，让你在这个充满角色、危险和欺诈的活跃世界中探索、尝试、互动，并获取实时的反馈。宏大的电影级叙事让你比以往任何时候都更接近你的角色。从被阴影诅咒的森林，到幽暗地域的神奇洞穴，再到博德之门本身的庞大城市，你的行动决定着冒险的过程，但你的选择将塑造你的遗产。你将被人们所铭记。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/No_adventure_will_be_the_same.png?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;被遗忘的国度是一个宏大、细节繁多、充满各色各样事物多元化的世界，到处都有等待被你发现的秘密——可互动的空间是探索的一个非常重要的部分。潜行，挖掘，推动物品，攀爬，还有跳跃，这些行动会贯穿你的整个旅途，从大地深处的幽暗地域，到地表城市闪亮的屋顶。你的每一个选择都会推动你的故事向前发展，每一个决定都会在世界上留下你的印记。你可以提升自己的角色、培养人际关系、树立敌人，并以自己的方式解决问题。每次游戏体验都是全新的无与伦比。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;最多可支持四名玩家的在线多人游戏&lt;br&gt;你可以将你的团队联合起来，同时攻击敌人，也可以将队伍分开，各自执行自己的任务和计划。一起制定完美的计划......或者在朋友们最意想不到的时候引入混乱元素。人际关系是很复杂的。尤其是当你脑中有寄生虫的时候。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;起源角色&lt;br&gt;7 位独一无二的起源角色为你带来精雕细琢的体验，每个人都有自己独特的特质、思想和世界观。他们的故事与总体叙事相互交错，而你的选择将决定这些故事的结局是救赎、拯救、统治，还是其他多种结局之一。你可以扮演原住民，欣赏他们的故事，也可以招募他们与你并肩作战。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;全新进化的回合制战斗&lt;br&gt;基于第五版《龙与地下城》规则。你可以体验基于团队战斗的主动权，和在战斗中不同决策带来的优势和劣势。我们增添了战地视角下的掷骰修正，也拓展了环境之间的交互性，增添了新的、更加灵活的战术和奖励，以让你在战斗中尽情展现你的策略和远见。三种难度设置可让您自定义战斗的挑战性。启用骰子加成来左右战斗，或在策略模式下进行游戏，以获得真正的硬核体验。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;前所未有的广度和深度&lt;br&gt;在 11 个种族（人类、吉斯洋基人、半兽人、矮人、精灵、卓尔、提夫林、半身人、半精灵、侏儒、龙裔）的基础上又增加了 31 个亚种，并从 12 个职业中分支出 46 个子职。在这个精雕细琢的世界中，600 多种法术和行动提供了近乎无限的互动自由。在这个世界中，探索是一种奖励，而玩家的主动性决定了旅程。我们独特的“角色创建器”具有前所未有的角色深度，其丰富的互动选项可确保无论你是谁，都会为你打造出独特的角色，一直到 12 级。超过 174 小时的过场动画确保无论你做出什么选择，过场动画都会跟随你的旅程——每一次游戏体验都是一次全新的电影之旅。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;复杂而深刻的浪漫故事&lt;br&gt;战争的威胁迫在眉睫地向博德之门袭来，夺心魔的入侵也即将来临，而友谊——尽管并非必要——也将加入你的旅途中。你将与沿途遇到的人建立起真实、充满活力的关系，至于他们会变成什么样，则取决于你自己。每个同伴都有自己的道德指南针，会对你在旅途中做出的选择做出反应。你将以怎样的代价坚持自己的理想？你会让爱左右你的行动吗？在通往博德之门的道路上建立起来的关系既是您在营地休息的片刻，也为你在冒险中做出的许多决定增添了砝码。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;高度定制的直播体验&lt;br&gt;当您点击“开始直播”时，您的直播将不会被如熊、粗口或缺乏着装等因素所干扰。《博德之门 3》提供了3种不同级别的适合直播的定制选项。您可以分别（或同时）禁用裸体和露骨的内容，并可以启用Twitch集成功能，直接与观众互动，正如我们在《地狱飨宴》展示会上所做的一样！有了这些选项，无论您选择以何种方式进行游戏，《博德之门 3》都能保证您的直播进行得顺利。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Final_Image_new.gif?t=1692294127" /&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1102190</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Monster Train</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>怪物火车</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>卡牌战斗,轻度 Rogue,卡牌游戏,回合制战术,类 Rogue</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2020年05月22日</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1102190/extras/out__new.gif?t=1666054291" /&gt;&lt;br&gt;地狱已被彻底冻结。只有您能够抵御天堂大军，守护最后的薪火，让地狱再度燃起烈焰。在《怪物火车》中，您需要守卫三个纵向战场，运筹帷幄，感受这款增加了策略提升的 Roguelike 卡牌构筑类游戏的魅力吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1102190/extras/out_(2).gif?t=1666054291" /&gt;&lt;h2 class="bb_tag"&gt;每一次的游戏体验都大不相同&lt;/h2&gt; &lt;br&gt;永远都有新的卡组等您尝试！&lt;br&gt;&lt;br&gt;* 超过 220 张卡牌&lt;br&gt;* 五大怪物氏族，各有不同玩法&lt;br&gt;* 每个氏族都有 10 个等级等待解锁，可为您的卡组增添全新卡牌&lt;br&gt;* 不断升级氏族专属的勇者&lt;br&gt;* 88 件神器&lt;br&gt;* 每张卡牌都可升级两次&lt;br&gt;* 超过 21 个独特随机事件&lt;br&gt;* 25 个契约（难度）关卡&lt;h2 class="bb_tag"&gt;前往多个强大的地点&lt;/h2&gt;想要夺回地狱，您需要不断提升自己的实力。谨慎选择您的路线，不同的地点带来的奖励也不尽相同。升级您的勇者，招募强力单位，升级卡牌，获得被动加成，或是复制卡组中的卡牌。&lt;h2 class="bb_tag"&gt;为您的游戏玩法制定合适的战略&lt;/h2&gt;共有五大氏族供您挑选，每种都能为您带来独特又惊喜的游戏体验。选择您的主、副氏族，并从中获得全部的氏族卡牌。在游戏过程中，您还可以通过组合升级的方式提升卡牌，开辟新的道路来获得胜利。您甚至还能够在挑战最终首领之前，先在特殊的地图节点上复制您最钟爱的卡牌。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1102190/extras/out_(1).gif?t=1666054291" /&gt;&lt;h2 class="bb_tag"&gt;多人模式&lt;/h2&gt;&lt;br&gt;&lt;strong&gt;地狱竞速&lt;/strong&gt;&lt;br&gt;在地狱竞速多人模式中，八名玩家展开角逐，开启一场疯狂的实时比赛。在公平的竞争环境中，每位玩家都需要运用同样的资源挑战相同的敌人。时间紧迫，能够抗住压力并做出明智决策的人才能成为赢家。唯有真正的速度之魔才能立于不败之地。&lt;br&gt;&lt;br&gt;&lt;strong&gt;每日挑战&lt;/strong&gt;&lt;br&gt;游戏玩法转变器每天都会生成全新的挑战，大量修改的游戏内容为您带来焕然一新的体验。与全世界的玩家或与好友一同竞技，还有着重考察技巧的评分系统为您打分，不断攀升在排行榜上的名次吧。&lt;br&gt;&lt;br&gt;&lt;strong&gt;自定义挑战&lt;/strong&gt;&lt;br&gt;定制专属的挑战，并与好友一同分享。每个自定义挑战都会有单独的排行榜，击败您的朋友，亲手将他们送入地狱吧。</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>1114530</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>TTV3</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>TTV3</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>独立,动作,休闲,街机,像素图形</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>2019年07月19日</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>TTV3 is the third volume of the retro hardcore maze wanderer minigame series Trip to Vinelands&lt;br /&gt;
 Exit the screen avoiding vines, blades, and spikes.&lt;br /&gt;
@@ -1379,403 +1757,25 @@
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>1184370</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Pathfinder: Wrath of the Righteous - Enhanced Edition</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>开拓者：正义之怒</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>选择取向,单人,爱情,等角视角,黑暗奇幻</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>9.1</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2021年09月03日</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>&lt;h2 class="bb_tag"&gt;探索传奇故事&lt;/h2&gt;循着这段旅程，你将前往世界之伤，直面一道连通深渊界的位面裂隙，感受席卷这片土地的恐惧。一个多世纪以来，周边国家为击退敌军而英勇奋战，但始终收效甚微。  &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__4_.gif?t=1693996219" /&gt;&lt;br&gt;&lt;br&gt;如今，你有机会结束这场纷争，但救世之路绝不会一帆风顺。你会成为受一众杰出圣武士支持的光辉天使？还是成为强大的死灵法师，掌控不死的亡灵大军？抑或全然不同的其他角色？率领你的军队，挑战强大的恶魔领主。你的远征将会引发一系列事件，彻底改变你和整个世界的命运。&lt;h2 class="bb_tag"&gt;随心搭配，玩转英雄&lt;/h2&gt;第一版《开拓者》的规则极具深度、灵活性及丰富性，你可以根据自己的想象，随心所欲地创建任何角色。共有25个职业、12个种族以及超过一千种法术、专长与能力，方便玩家根据自己的风格挑选。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__9_.gif?t=1693996219" /&gt;&lt;h2 class="bb_tag"&gt;不同选择，引向殊途&lt;/h2&gt;你的决定比以往任何时候都更加重要。你的目标已经明了，但通往目标的道路只能由你自行开辟。成王败寇，谁主沉浮？做出你的选择，看看世界会因此发生何等变化。  &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__6_.gif?t=1693996219" /&gt;&lt;h2 class="bb_tag"&gt;全新的战斗方式&lt;/h2&gt;我们提供可暂停的即时模式和回合制模式，两种战斗模式皆可供你横扫敌军。你可以在两种战斗模式中快速切换，或紧或慢，随你心意。通过《开拓者》的独特规则，你还可以体验包括骑乘战斗在内的进阶作战方式。发挥谋略，合理选用！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__7_.gif?t=1693996219" /&gt;&lt;h2 class="bb_tag"&gt;招贤纳士&lt;/h2&gt;10多位独特伙伴将与你携手同行，共谋伟业。只要赢得他们的信任和尊重，无论前方有何艰难险阻，他们都会鼎力相助。倘若理念相悖……或许也只能分道扬镳了。 &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__8_.gif?t=1693996219" /&gt;&lt;h2 class="bb_tag"&gt;领导圣教军&lt;/h2&gt;要想净化恶魔泛滥成灾的土地，仅靠一支冒险者小队远远不够。你还要掌握圣教军的指挥权，领导他们迈向胜利。在此过程中，你既是一名战略家，以纵观全局的视角运筹帷幄，同时也是一名前线指挥官，在全新的战术模式战斗中大显身手。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__3_.gif?t=1693996219" /&gt;&lt;h2 class="bb_tag"&gt;选择道途&lt;/h2&gt;探索9条各不相同的神话道途，获得非凡能力，让尔后种种都随之一变。你的决定可能会让你成为神圣的天使、狂暴的恶魔、强大的巫妖、狡诈的诡计大师、超然的御衡者、桀骜的灵使、睿智的金龙、吞噬一切的虫群行者，或是保留肉体凡身，披荆斩棘，成为当世传奇。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__1_.gif?t=1693996219" /&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>1244090</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Sea of Stars</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>星之海</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>角色扮演,像素图形,回合制战斗,冒险,剧情丰富</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>2023年08月29日</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-content-header.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;《星之海》承载着Sabotage工作室的目标&lt;/strong&gt;——用现代的方式重现经典角色扮演游戏：从回合制战斗到跌宕起伏的故事，从世界探索到细腻的环境交互，让大家重回独属怀旧游戏的美好旧时光。&lt;h2 class="bb_tag"&gt;经典和创新结合的回合制玩法 - “易”于上手 “乐”于精通&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-combat.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;掌控战斗的时机&lt;/strong&gt; - 看准时机按下交互键可以提升造成的伤害，或减少受到的伤害。&lt;br&gt;&lt;strong&gt;灵活的战斗方式&lt;/strong&gt; - 在战斗中使用多人组合技，充能攻击以及纳入战术考量的“Lock”系统，通过组合这些不同的攻击，甚至能够打断敌人正在准备的蓄力攻击或强大法术。&lt;br&gt;&lt;strong&gt;全身心地投入这款复古之作&lt;/strong&gt; - 不会有随机乏味的遭遇战，也不会有战场之间的频繁转换，更不会有无休无止打不完的敌人！&lt;h2 class="bb_tag"&gt;“不拘一格”的探索&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-traversal-flip-S.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;我们潜心研究平台游戏多年，打造了一套独特的移动系统!&lt;br&gt;您将不再受到传统的网格束缚，畅快地在世界中穿梭！&lt;br&gt;无论您想&lt;strong&gt;在池水中游弋，还是在岩壁上攀爬，或是轻快地从石阶上纵身跳下&lt;/strong&gt;，都可尽情体验。&lt;h2 class="bb_tag"&gt;独立的光照渲染&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-lighting-S.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;我们为游戏研发了一套独特的渲染管线!&lt;br&gt;《星之海》因此突破了2D像素美术游戏的限制，它让游戏充满了色彩，并且处处体现出优雅的细节！让你感受到一个更加真实、令人惊叹的游戏世界。&lt;h2 class="bb_tag"&gt;永恒的冒险与友谊&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-story-rich-adventure.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;这就是从Sabotage工作室的角色扮演游戏中可以期待的一切——经典的冒险与友谊故事。&lt;br&gt;&lt;br&gt;您可以与数十个原创角色一起踏上这段迷人的旅程：&lt;br&gt;&lt;strong&gt;时而波澜壮阔，犹如史诗长歌；&lt;br&gt;时而轻松诙谐，让人忍俊不禁。&lt;/strong&gt;&lt;br&gt;充满着意想不到的曲折与反转，让人心绪久久不能平复。&lt;h2 class="bb_tag"&gt;惬意的日常也是游戏的一部分&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-sabotage-touch.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;想试试停下冒险的脚步，在《星之海》的世界中打发打发时间？&lt;br&gt;去试试扬起帆出海！&lt;br&gt;或是生起篝火研究食谱？&lt;br&gt;还是拿出鱼竿甩两杆？&lt;br&gt;路过一家小酒馆进去听会儿歌，或者玩两把桌游...&lt;br&gt;每个系统的设计都是在尊重经典复古游戏的前提下，加入了崭新且独一无二的新体验。</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>1282100</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Remnant II</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>遗迹2</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>类魂系列,动作,冒险,角色扮演,第三人称射击</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>8.9</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>2023年07月26日</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>难以想象的世界。残酷无情的困境 &lt;br&gt;&lt;br&gt;《Remnant II》是畅销游戏《Remnant: From the Ashes》的续作。在本作中，人类幸存者将再次深陷可怕的世界，对抗新的邪恶怪物和神一般的敌人头目。孤军奋战，或者与两名朋友合作，探索未知的深处，阻止邪恶摧毁现实世界。若想取得成功，玩家必须依靠自己和团队的力量，完成最艰巨的挑战，让人类免于灭绝的命运。&lt;h2 class="bb_tag"&gt;特色：&lt;/h2&gt;&lt;strong&gt;紧张激烈的《Remnant》战斗体验&lt;/strong&gt;&lt;br&gt;冷静远攻和疯狂近战的混合战斗模式再次回归，这次还带来了更多狡猾的敌人和大规模头目战。针对不同的生物群落和战斗，可以选择特定装备和武器进行强化。头目战会让高水平玩家组队克服挑战，并尝试获得最高奖励。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1282100/extras/REM2_Combat_2.gif?t=1690498964" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;等待探索的新世界&lt;/strong&gt;&lt;br&gt;陌生的新世界被神秘生物和致命敌人占据。玩家可以独自上路，也可以与朋友结伴前行，穿越邪魔肆虐的世界，努力求生。多个世界可供探索，每个世界都有不同类型的生物、武器和物品。获取物品后要善加利用并合理升级，以迎接更严峻的挑战。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1282100/extras/REM2_World_2.gif?t=1690498964" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;无尽的重复可玩性 &lt;/strong&gt;&lt;br&gt;在动态生成的地下城和区域中，充满了各种支线任务、强化物品、制作材料和战利品。哪怕是最硬核的玩家，其决心也将经受考验。游戏体验复杂多变、极具挑战性，但当玩家最终战胜重重困难取得胜利时，也将体会到无与伦比的满足感。不同的世界中交织着不同的故事，等待你的探索和重访。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1282100/extras/REM2_Replay_2.gif?t=1690498964" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;全新职装系统&lt;/strong&gt;&lt;br&gt;扩展后的职装系统将为玩家提供独特的被动奖励和强大的力量。在游戏中可以解锁多个职业和多种装备、进行升级并混合搭配，以实现多样化的游戏风格。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1282100/extras/REM2_Archetype_2.gif?t=1690498964" /&gt;&lt;br&gt;&lt;br&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>1336980</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>NOBUNAGA'S AMBITION: Awakening</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>信長之野望･新生</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>战争游戏,即时战术,沉浸式模拟,即时战略,大战略</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2022年07月21日</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/banner_tw.jpg?t=1691110808" /&gt;&lt;h2 class="bb_tag"&gt;《信長之野望･新生 with 威力加強版》&lt;/h2&gt;&lt;br&gt;※本商品包含《信長之野望･新生》与《信長之野望･新生 威力加強版》。&lt;br&gt;若已购买了《信長之野望･新生》，请勿购买本商品，而改为购买《信長之野望･新生 威力加強版》。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Nobunaga.gif?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;在《信長之野望･新生》中，玩家能够与自主思考并采取行动的“活生生武将”一起体验真实的战国。在符合“信長之野望”系列40周年品质和体量的标准下，本作迎来了系列最高级别的强化！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Departure.gif?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;①“君臣同心”的更深层进化&lt;/strong&gt;&lt;br&gt;能够阻止武将出奔、对敌对势力进行挖角等的“直接谈判”，任命“家宰”、“奉行”打造自己独特家臣团的“评定众”等，让“君臣同心”更上一层楼！ &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Battle1-CHT.gif?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;②波及到城下一带的白热化“攻城战”&lt;/strong&gt;&lt;br&gt;“攻城战”将以前所未有的形态登场。除去攻略城池本身，还能够享受别具动态感与真实感的攻城战！在超过200张专用地图上灵活运用每座城池的特征取得胜利吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Battle2-CHT.gif?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;③各势力别具一格、多彩的战略性&lt;/strong&gt;&lt;br&gt;大幅扩充赋予势力特征的“政策”。此外还追加了灵活运用决定每座城所扮演的角色、在据点之间建立联系的“城定位”，以及孕育出全新游玩体验的“军团战略”等新要素，令玩家别具个性的战略得以实现。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Characters.gif?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;④惯例的各种编辑功能之外，还有充实的追加要素！&lt;/strong&gt;&lt;br&gt;剧情与事件、特性等以往的要素得到大幅度扩充。武将与BGM、编辑剧情、创建新势力功能等高人气要素也将更加丰富多彩！&lt;h2 class="bb_tag"&gt;《信长之野望·新生》&lt;/h2&gt;&lt;br&gt;&lt;strong&gt;让天下重焕新生！&lt;/strong&gt;&lt;br&gt;&lt;br&gt;历史模拟游戏“信长之野望”系列的第16作，KOU SHIBUSAWA 40周年纪念作品。&lt;br&gt;&lt;br&gt;系列首次，通过自主判断而展开行动的“活生生武将”将大展身手！&lt;br&gt;支援玩家，为天下统一的目标东奔西走。&lt;br&gt;敌我双方的武将依照自己的判断，编织出有血有肉的战国乱世绘卷。&lt;br&gt;&lt;br&gt;推动历史进程的妙趣，便在于此！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/01.jpg?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;【内政】夺取土地、给予土地！“知行”系统&lt;/strong&gt;&lt;br&gt;把从他国赢取的土地给予能够胜任的家臣，重现曾经的“知行制”！&lt;br&gt;家臣在获得知行地后，将自主发展该地。&lt;br&gt;发展土地并强化国力，于战场获胜后给予家臣更多的土地吧！&lt;br&gt;&lt;br&gt;&lt;strong&gt;【战略】展现属于自己的战略吧！ “政策”与“特性”&lt;/strong&gt;&lt;br&gt;大名家的“政策”与武将持有的“特性”是富国强兵的关键！&lt;br&gt;政策的强化、城主与其麾下武将的特性，将对势力的特点产生巨大影响。&lt;br&gt;战略性地活用人才、资金、时间，创造你的理想势力！&lt;br&gt;&lt;br&gt;&lt;strong&gt;【战斗】以进军路线为中心的战略！“多方作战”&lt;/strong&gt;&lt;br&gt;适于大军作战的大道，或仅可进行小规模作战的小径等等，需要根据这些地形，采取变幻莫测的战术！&lt;br&gt;尽可能多占领通向城的要道，便可在攻城战中占据优势。&lt;br&gt;活用地利，选择符合势力大小的独到战术击破敌军！&lt;br&gt;&lt;br&gt;&lt;strong&gt;【会战】与自主行动的家臣们一起取得胜利！“会战指挥”&lt;/strong&gt;&lt;br&gt;为了胜利，为了功名，所有武将都将依照自己的判断而战。&lt;br&gt;在充斥各种图谋的战场上，看清不断演变的战况，下达通往胜利的命令吧！</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>1449560</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Metro Exodus Enhanced Edition</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>地铁：离去 完全版</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>后末日,第一人称射击,开放世界,剧情丰富,单人</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>9.2</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>2019 年 2 月 14 日</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>《Metro Exodus》是4A Games出品的第一人称射击游戏，具有史诗级的剧情，能让您在这一前所未有的沉浸式游戏世界中体验致命的战斗与潜行，感受探索与生存的恐怖。&lt;br&gt;&lt;br&gt;在广袤无际的关卡中探索俄罗斯的荒野，历经为期一年的故事线，度过春夏秋天，直至严酷的核冬天。&lt;br&gt;&lt;br&gt;《Metro Exodus》改编自Dmitry Glukhovsky的小说，会在至今最宏大的地铁冒险中继续讲述阿尔乔姆的故事。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;踏上无与伦比的旅途——登上经过多重改造的蒸汽火车“曙光号”，与数名幸存者一起，在东方的土地上探寻新的生活。&lt;br&gt;&lt;br/&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;体验沙盒式生存——动人心弦的故事，融合了经典地铁操作与全新的无边际关卡。&lt;br&gt;&lt;br/&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;美丽但危机四伏的世界——探索后启示录的俄罗斯荒野，炫目的日夜循环和动态天气让自然环境变得栩栩如生。&lt;br&gt;&lt;br/&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;致命的战斗与潜行——在荒野中收集材料，实地改装定制武器，与敌对的人类和变种怪展开紧张激烈的搏杀。&lt;br&gt;&lt;br/&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;您的选择会决定同伴的命运——并非所有同伴都能在旅途中幸存，您的决定会在动人的故事中产生深远的影响，也因此带来了极大的重复可玩性。&lt;br&gt;&lt;br/&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;极致氛围与沉浸感——黑暗中闪动的烛火、结霜面具后的喘息、夜风中传来的变种怪嘶吼——没有其他游戏能拥有地铁一般的沉浸式恐怖氛围……&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;黄金版：Metro Exodus游戏本体+季票（可游玩全部DLC）&lt;/strong&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/li&gt;&lt;/ul&gt; &lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>1455910</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Territory: Farming and Fighting</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>领地：种田与征战</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>抢先体验,模拟,基地建设,策略,城市营造</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>2023年01月12日</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>注意：本游戏有一定复杂度，需要动脑，且会有不少挑战，注定是小众游戏。这不是一个休闲的种田游戏。&lt;br&gt;游戏尚处于开发阶段，欢迎加入交流QQ群 926471120&lt;br&gt;&lt;br&gt;游戏以村庄经营 + 指挥打仗为核心玩法。玩家可以从十几个人的小村庄，发展成为上千人的小王国。&lt;br&gt;对内安排居民工作，进行生产建设。采集渔猎，种地挖矿，加工制造。&lt;br&gt;对外开展贸易，积累稀有物资，增加实力，与邪恶的势力和怪物作战。&lt;br&gt;&lt;br&gt;交流QQ群：&lt;strong&gt;926471120&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/1.gif?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/2.gif?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/3.png?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/4.png?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/5.gif?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/6.gif?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/7.png?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/8.gif?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/9.gif?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/10.gif?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/11.png?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/12.png?t=1692414972" /&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>1693980</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Dead Space</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>死亡空间</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>第三人称射击,科幻,太空,射击,生存恐怖</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>2023年01月28日</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>科幻生存恐怖经典作品《死亡空间》宣告回归，经过完全重制，旨在为玩家提供更有深度、更身临其境的体验。这款重制版游戏为玩家带来了令人惊叹的视觉保真度、充满悬疑感的氛围音效以及游戏性改进，同时尽力忠实还原初版游戏的惊险构思。&lt;br&gt;&lt;br&gt;艾萨克·克拉克是一名普通的工程师，受命修复巨型采矿飞船 USG 石村号，结果发现事态超乎想象。飞船上的船员已被屠戮，而艾萨克心爱的伴侣妮可也在船上不知所踪。&lt;br&gt;&lt;br&gt;现在，艾萨克独自一人，他可以依靠的只有自己的工程工具和技能。随着石村号上可怕谜团的真相浮出水面，他必须尽快找到妮可。艾萨克被充满敌意，名为“尸变体”的生物团团包围，面临着一场生存之战。他不仅要对抗飞船上不断升级的恐怖情形，还要面对自己即将崩溃的理智。&lt;br&gt;&lt;br&gt;&lt;strong&gt;尽情沉浸在次世代科幻恐怖游戏中&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1693980/extras/DS_GP_USP1_610px.gif?t=1684172906" /&gt;&lt;br&gt;&lt;br&gt;这款经典科幻恐怖游戏经过完全重制，带来了视觉保真度的提升和 3D 氛围音效。从精致得令人难以置信的房间和满是被屠戮船员的工作间，到孤寂太空飞船上阴森的氛围音效，在这震撼人心的科幻场景中，出人意料、扣人心弦的时刻接连涌现，等着你来探索。&lt;br&gt;&lt;br&gt;&lt;strong&gt;揭开 USG 石村号上的谜团&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1693980/extras/DS_GP_USP2_610px.gif?t=1684172906" /&gt;&lt;br&gt;&lt;br&gt;工程师艾萨克·克拉克和 USG 圣室号的船员们起初只是在执行例行维修任务，但随着船上恐怖事件背后的真相逐渐被揭开，维修任务迅速演变成一场生存之战。跟随徐徐展开的叙事体验，通过遇难船员们的临终日志以及与少数幸存者的邂逅，揭开 USG 石村号各种事件背后的黑幕。&lt;br&gt;&lt;br&gt;&lt;strong&gt;随机应变，死地求生&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1693980/extras/USP3_ageGate_610px.gif?t=1684172906" /&gt;&lt;br&gt;&lt;br&gt;采用定义战略游戏的游玩方式，对抗 USG 石村号上的梦魇。调整并升级艾萨克的工程工具，用你的创意把敌人精准击毙。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1693980/extras/Dead_Space_PC_Specs_610px_STEAM_updated.png?t=1684172906" /&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>1696440</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>绝世好武功 The Matchless Kungfu</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>绝世好武功</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>抢先体验,开放世界,沙盒,角色扮演,生存</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>9.2</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>2023年08月30日</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>官方QQ群号：&lt;br&gt;官方QQ③群：717298872&lt;br&gt;官方QQ④群：757371350&lt;br&gt;官方QQ⑤群：703542977&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;这是一款基于武侠、江湖背景为基础的&lt;strong&gt; &lt;u&gt;开放沙盒类非传统武侠 RPG游戏&lt;/u&gt;&lt;/strong&gt;，你可以在这个大荒世界之中，扮演你所幻想的任何武侠角色，这里没有任何阻挡你幻想的老套剧情，你所演绎的武侠人生就是这个你的游戏剧情。你可以作为一名江湖小虾米游历大荒，你也可以成为一派掌门引领四方，你亦可以成为一名看不惯这江湖的浪子我行我素。最重要的是，请一切遵从于你的内心而为，并且活着！&lt;br&gt;&lt;br&gt;(1)玩家可以从零开始扩展自己的小世界，也可以通过创建小世界生成随机大小的初始世界。每个区域都有独特的环境、资源、生物以及势力。 在熟悉了游戏基本操作之后，您便可以直接生成环境属性各异的、已经包含一定数量地块的世界进行体验和历练，并且可以控制不同的“我”往来穿梭于各个世界开启别样人生！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/kf1.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(2)新颖的单回合战斗方式，通过收集不同的绝学搭配创建自己的招式库，战斗中拖动连接不同的招式激活绝学，利用招式克制和绝学套路，体现武侠战斗的策略性。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF2.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(3)独创的经脉系统，将人体经脉的运转进行了简化概念设计，玩家可以体验到不同的运功路线激活不同内功的拟真感受，简洁却富有策略玩法的设计给玩家提供了搭配和激活多种内功的玩法。同时经脉系统也结合了武侠小说中各种身体机能的具象表现，角色的生命力、内伤、隐疾、蛊、生死符、残疾、瞎眼等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF3.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(4)游戏还包含了自由的建造模式，玩家可以打造自己的民居、酒馆、温泉、马厩、大殿、监牢等等，每种建筑都有独特的功能。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF4.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(5)潜行玩法，可以通过训练潜行能力，配合独特的内功，夜晚穿上夜行衣，如人无人之境。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF5.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(6)训练轻功、跳跃、潜水、攀爬，无论高山深海都可闲庭信步。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF6.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(7)通过自定义天命、出身、容貌、血脉，打造独属于自己的角色。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF7.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(8)非线性剧情，游戏中每个NPC都会根据自己的行为、身份、名声、关系、态度等等在世界中生存，玩家的每次游戏都会与他们发生不同的剧情。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF8.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(9)丰富的交互内容&lt;br&gt;可以把敌人的建筑引燃&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF9.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;可以邀请NPC喝酒，灌醉后搜刮物品&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF10.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;可以驯化各种动物，每种动物都有各自独特的功能，例如猴子可以乞讨、马可以乘骑和改装马车、蛇可以下毒等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF11.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;玩家可以创建自己门派，招募弟子，发布命令，参加武林大会。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF12.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;丰富的交互内容·玩家可以布置陷阱，抓捕动物或敌人。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF13.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;建立门派，发布命令&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF15.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;建立牢笼，关押敌人&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF16.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;———————————————————————————————————————&lt;br&gt;来自幻魔寺的寄语：&lt;br&gt;我们坚守本心，完全独立开发，只做大家觉得好玩的游戏，这款游戏的世界目前仍然只是一个雏形，我们深知它会不断壮大，并且成为未来我们一切游戏的基石，我们会为此不断努力，带给大家一个绝妙的幻想世界！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/respect.png?t=1694014062" /&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>1716740</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Starfield</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>星空</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>太空,开放世界,角色扮演,单人,科幻</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>6.7</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>2023年09月06日</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>《Starfield》出自打造过《Starfield》是由载誉无数、曾为大家带来《The Elder Scrolls V: Skyrim》和《Fallout 4》的Bethesda Game Studios睽违超过25年所打造的第一个全新宇宙。这款新一代角色扮演游戏将背景设定在茫茫宇宙。在这里，你可以创建任意角色，探索世界并体验前所未有的自由。踏上这趟史诗般的旅程，发掘人类文明的终极奥秘。&lt;br&gt;&lt;br&gt;2330年，人类已跨出我们所在的太阳系，在新的星球上定居下来，太空旅行也已成为人类的日常。在这款Bethesda Game Studios迄今为止最宏大的游戏里，你将加入群星组织这个在星系中寻找稀有神器的太空探险者团体，展开探索广袤宇宙的旅程。&lt;h2 class="bb_tag"&gt;传颂你的故事&lt;/h2&gt;在《Starfield》中，最重要的故事将由你亲自通过你的角色述说。自定义外观并决定背景和特征，启航展开属于你的星际之旅。你会是经验老道的探险家、充满魅力的外交官、诡密的电子情报贩，或是独树一帜的人物？选择权都在你手上。由你决定想要打造什么样的角色，有什么样的发展。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/TellYourStory_v3.gif?t=1693958437" /&gt;&lt;h2 class="bb_tag"&gt;探索外太空&lt;/h2&gt;在群星间冒险，探索超过一千个行星。造访繁华的都市、探索充满危险的基地，以及穿越荒野的风景。认识令人难忘的角色并加以招募、参与各种阵营的冒险，在定居星系群中到处展开任务。随时都有新的故事或体验等你来发掘。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/ExploreSpace_v3.gif?t=1693958437" /&gt;&lt;h2 class="bb_tag"&gt;指挥你梦想中的飞船&lt;/h2&gt;驾驶及指挥你梦想中的飞船。打造属于自己的飞船外观、改造武器和护盾等重要系统，以及分配船员为你提供独特加成。在深远的太空中，你将遭遇高风险的近距空战、随机任务、在星际站停驻，甚至登上并夺取敌人的飞船，为自己增添收藏品。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/CaptainShip_v3.gif?t=1693958437" /&gt;&lt;h2 class="bb_tag"&gt;发掘、收集、打造&lt;/h2&gt;探索行星并发掘各种动植物，以及制作药物、食物、装备和武器所需的各种资源。建造哨站并雇用工作人员自动获得材料，并建立货运链接以在哨站间运送资源。将这些原材料投注在研究项目中以解锁独特的制造配方。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/DiscoverCollectBuild_v3.gif?t=1693958437" /&gt;&lt;h2 class="bb_tag"&gt;武器上膛&lt;/h2&gt;宇宙中危机四伏。精细的战斗系统为你提供处理各种状况的工具。无论你喜欢长射程步枪、激光武器或炸药，每种武器皆可改装以符合你的游戏风格。零重力环境为战斗增添了混乱的华丽场面，飞行背包则为玩家带来前所未有的自由机动性。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/LockandLoad_v3.gif?t=1693958437" /&gt;</t>
-        </is>
-      </c>
-    </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1754790</t>
+          <t>1122720</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Fate of the Pharaoh</t>
+          <t>Sayonara Wild Hearts</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Fate of the Pharaoh</t>
+          <t>再见狂野之心</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>策略,时间管理,城市营造,2D,可爱</t>
+          <t>好评原声音轨,音乐,节奏,动作,休闲</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1783,91 +1783,795 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2023年08月23日</t>
+          <t>2019年12月13日</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1754790/extras/banner_large_1.png?t=1692785837" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1754790/extras/banner_1.png?t=1692785837" /&gt;&lt;br&gt;Become the loyal Pharaoh’s adviser and help him to restore peace and prosperity in the golden cities of Egypt. Construct houses re-establish production, collect taxes and gather materials, set up production and trade, and fight crocodiles and wicked cobras. Restore Egypt to its days of glory!&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1754790/extras/banner_2.png?t=1692785837" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; HELP the people of ancient Egypt to restore their kingdom in this exciting time management adventure game!&lt;br&gt;&lt;/li&gt;&lt;li&gt; EXPLORE the magnificent era of our history&lt;br&gt;&lt;/li&gt;&lt;li&gt; 44 EXCITING levels to master and hundreds of quests&lt;br&gt;&lt;/li&gt;&lt;li&gt; FIGHT dangerous cobras, scorpions, crocodiles and more!&lt;br&gt;&lt;/li&gt;&lt;li&gt; EARN achievements along the way&lt;br&gt;&lt;/li&gt;&lt;li&gt; MEET friends from outer space&lt;br&gt;&lt;/li&gt;&lt;li&gt; 2 difficulty modes: relaxed and adventure&lt;br&gt;&lt;/li&gt;&lt;li&gt; Step-by-step tutorials for beginners&lt;ul class="bb_ul"&gt;&lt;/ul&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;strong&gt;一款流行专辑视频游戏&lt;/strong&gt;&lt;br&gt;&lt;br&gt;《Sayonara Wild Hearts》是一款梦幻般的街机游戏。在游戏中，你将以每小时 200 英里的速度急速前行，体验包括骑摩托车、踩滑板、斗舞、发射激光、挥舞利剑以及击破心脏寻找和声等精彩刺激的元素。&lt;br&gt;&lt;br&gt;一位年轻姑娘的心碎成一地，导致宇宙瞬间失去平衡。一只钻石蝴蝶出现在她的梦里，带领她穿越星际高速公路，找到了另一个自我：一位叫做“小傻瓜”的蒙面骑手。&lt;br&gt;&lt;br&gt;伴随定制的流行音乐曲目踏上追逐乐谱的征程，找到小小死神和她穿越星际的盟友，击破他们的心脏，寻回宇宙的和声。小小死神的盟友分别是：邪恶舞者、咆哮月神、立体声爱好者和隐士 64。&lt;br&gt;&lt;br&gt;让我们随着音符急速狂奔吧！</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1790230</t>
+          <t>1164940</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Wallpaper Engine - Editor Extensions</t>
+          <t>Trepang2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Wallpaper Engine - 编辑器扩展</t>
+          <t>海参2</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>休闲,独立,照片编辑,实用工具,动画制作和建模</t>
+          <t>第一人称射击,动作,子弹时间,第一人称,单人</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>DLC</t>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.5</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2021年11月26日</t>
+          <t>2023年06月22日</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>免费的Wallpaper Engine编辑器扩展 DLC 为该编辑器添加了高级功能。 此附加组件需要大量磁盘空间，我们只建议为想要在编辑器中使用这些高级功能来创建新墙纸的用户安装编辑器扩展。 所有订阅者都可以使用通过此附加组件创建的壁纸，而无需安装编辑器扩展。&lt;br&gt;&lt;br&gt;&lt;strong&gt;如果您不确定您是否要使用它，请不要安装此扩展。 如果您尝试使用任何需要它的功能，Wallpaper Engine 编辑器将推荐此扩展程序。&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;包含的功能&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;使用机器学习从单个图像生成深度图。&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;strong&gt;成为顶尖狠角色&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;玩家将扮演逃亡的士兵，虽然失去往日的记忆，却获得了超自然能力。复仇计划在您的内心萌芽，为了得到想要的结果将不惜一切代价。使出极具破坏力的拳击、潜身于暗处并使用爆炸性武器，让坏人自食其果。 &lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;游戏特色：&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;张力十足的单人剧情战役&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1164940/extras/ExplosiveCampaign.gif?t=1692260306" /&gt;&lt;br&gt;一群神秘分子将您从戒备森严的黑牢中解救出来。虽然您失去了记忆，但战斗能力却获得大幅强化，远远超出了人类的极限。设法复仇、找出真相，并面对极为致命的威胁。&lt;h2 class="bb_tag"&gt;运用超能力&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1164940/extras/Cloak.gif?t=1692260306" /&gt;&lt;br&gt;掌握超人般的力量与速度，狠狠教训一波又一波全副武装的雇佣兵。把时间减慢以躲避速度飞快的子弹，并利用伪装能力让自己进入隐形状态，以便出其不意地折断敌人的脖子。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1164940/extras/SlowMo.gif?t=1692260306" /&gt;&lt;h2 class="bb_tag"&gt;暴力至极的近战战斗&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1164940/extras/MeleeCombat.gif?t=1692260306" /&gt;&lt;br&gt;在近距离近战战斗中与敌人正面交锋，并在高速枪战中大展身手。通过拳打脚踢、滑行和疯狂连击，将敌人化为尘土。&lt;h2 class="bb_tag"&gt;结语&lt;/h2&gt;欢迎关注我们、加入社区，并和开发团队聊聊。利用外部链接加入我们的 Twitter、YouTube 和 Discord。我们随时都会聆听您的心声！</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>1184370</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Pathfinder: Wrath of the Righteous - Enhanced Edition</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>开拓者：正义之怒</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>选择取向,单人,爱情,等角视角,黑暗奇幻</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2021年09月03日</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>&lt;h2 class="bb_tag"&gt;探索传奇故事&lt;/h2&gt;循着这段旅程，你将前往世界之伤，直面一道连通深渊界的位面裂隙，感受席卷这片土地的恐惧。一个多世纪以来，周边国家为击退敌军而英勇奋战，但始终收效甚微。  &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__4_.gif?t=1693996219" /&gt;&lt;br&gt;&lt;br&gt;如今，你有机会结束这场纷争，但救世之路绝不会一帆风顺。你会成为受一众杰出圣武士支持的光辉天使？还是成为强大的死灵法师，掌控不死的亡灵大军？抑或全然不同的其他角色？率领你的军队，挑战强大的恶魔领主。你的远征将会引发一系列事件，彻底改变你和整个世界的命运。&lt;h2 class="bb_tag"&gt;随心搭配，玩转英雄&lt;/h2&gt;第一版《开拓者》的规则极具深度、灵活性及丰富性，你可以根据自己的想象，随心所欲地创建任何角色。共有25个职业、12个种族以及超过一千种法术、专长与能力，方便玩家根据自己的风格挑选。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__9_.gif?t=1693996219" /&gt;&lt;h2 class="bb_tag"&gt;不同选择，引向殊途&lt;/h2&gt;你的决定比以往任何时候都更加重要。你的目标已经明了，但通往目标的道路只能由你自行开辟。成王败寇，谁主沉浮？做出你的选择，看看世界会因此发生何等变化。  &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__6_.gif?t=1693996219" /&gt;&lt;h2 class="bb_tag"&gt;全新的战斗方式&lt;/h2&gt;我们提供可暂停的即时模式和回合制模式，两种战斗模式皆可供你横扫敌军。你可以在两种战斗模式中快速切换，或紧或慢，随你心意。通过《开拓者》的独特规则，你还可以体验包括骑乘战斗在内的进阶作战方式。发挥谋略，合理选用！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__7_.gif?t=1693996219" /&gt;&lt;h2 class="bb_tag"&gt;招贤纳士&lt;/h2&gt;10多位独特伙伴将与你携手同行，共谋伟业。只要赢得他们的信任和尊重，无论前方有何艰难险阻，他们都会鼎力相助。倘若理念相悖……或许也只能分道扬镳了。 &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__8_.gif?t=1693996219" /&gt;&lt;h2 class="bb_tag"&gt;领导圣教军&lt;/h2&gt;要想净化恶魔泛滥成灾的土地，仅靠一支冒险者小队远远不够。你还要掌握圣教军的指挥权，领导他们迈向胜利。在此过程中，你既是一名战略家，以纵观全局的视角运筹帷幄，同时也是一名前线指挥官，在全新的战术模式战斗中大显身手。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__3_.gif?t=1693996219" /&gt;&lt;h2 class="bb_tag"&gt;选择道途&lt;/h2&gt;探索9条各不相同的神话道途，获得非凡能力，让尔后种种都随之一变。你的决定可能会让你成为神圣的天使、狂暴的恶魔、强大的巫妖、狡诈的诡计大师、超然的御衡者、桀骜的灵使、睿智的金龙、吞噬一切的虫群行者，或是保留肉体凡身，披荆斩棘，成为当世传奇。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__1_.gif?t=1693996219" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1220140</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Cartel Tycoon</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>卡特尔大亨</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>俯视,即时战略,资源管理,氛围,管理</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.8</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2022年07月27日</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=http://discord.gg/carteltycoon" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/Discord_Banner_1.png?t=1690383209" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;《Cartel Tycoon》以虚构的80年代拉丁美洲为背景，描绘出由可卡因主宰美国乃至全世界的时代图景。富得流油的毒枭们统治着他们的辉煌帝国，在创造了数千个就业机会的同时，也令这个道德沦丧的世界充斥着暴力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/CartelTycoon-Communication.gif?t=1690383209" /&gt;&lt;br&gt;&lt;br&gt;建立起生产毒品并拥有走私链的帝国，同时还要管理好地痞副手，处理好有关当局以及公众舆论的关系。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/Police.gif?t=1690383209" /&gt;&lt;br&gt;&lt;br&gt;敌对帮派、缉毒局、军方甚至中情局都对你不断增长的业务构成威胁。死亡在所难免，但这并不是终点。当你死后（对毒枭来说，从来没有真正的好结局），你将以继承者身份加冕，并在废墟上重新建立你的帝国。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/oct21_CopterV2.gif?t=1690383209" /&gt;&lt;br&gt;&lt;br&gt;在《Cartel Tycoon》中，失败是无法避免的，暴力只会带来更多的暴力——但是那些狡猾的毒枭眼中看到的更多是利润。&lt;h2 class="bb_tag"&gt;多种游戏模式总有一种适合你&lt;/h2&gt;&lt;br&gt;故事模式适合想要沉浸到数十小时引人入胜的游戏世界中的玩家。硬核永久死亡模式模式适合喜欢挑战的玩家。高度自定义的沙盒模式则为想要按照自己的规则进行游戏的玩家而准备！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/cars_small.png?t=1690383209" /&gt;&lt;br&gt;&lt;br&gt;Key features&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;发展你的帝国。&lt;/strong&gt;将简陋的农业经营发展成一个庞大的物流系统，包括种植园、实验室、航空港等。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;用自己的方式统治。&lt;/strong&gt;数十条升级路径，无数的策略组合，面对如此巨大的规模施展你超高的经营手腕。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;死亡不可避免。&lt;/strong&gt;当你的老大没落时，提拔一个独特的副手来接管你的生意并继续壮大你的卡特尔。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;每件事，每个人，都有价格。&lt;/strong&gt;清洗你辛苦赚来的钱来发展你的帝国，维护你副手的忠诚度，贿赂腐败的政客。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;捍卫自己所得。&lt;/strong&gt;在获利之路上规避有关当局，并与卡特尔同行竞争。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;无尽的可重玩性。&lt;/strong&gt;几十个独特的角色，无限制的沙盒游戏玩法，可随心所欲探索的动态叙事系统。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;原声大碟捕捉时代迷幻色彩，尽显拉美风情。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/Comp_64.gif?t=1690383209" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1229240</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Chained Echoes</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>链接回声</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>角色扮演,独立,像素图形,回合制,日系角色扮演</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2022年12月08日</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>欢迎加入官方QQ交流群829981108。&lt;br&gt;&lt;br&gt;宿命残响是一款故事驱动日式角色扮演游戏，玩家将操作性格迥异的英雄们奔波于瓦兰蒂斯大陆，为这片因三个王国征战不休而生灵涂炭的土地带来和平。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1229240/extras/ExploreCardSC.png?t=1688714230" /&gt;&lt;br&gt;从风蚀平原到汪洋群岛再到地底遗迹，在旅途当中众人会踏足丰富多彩的地貌，见证别具一格的胜景。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1229240/extras/FightGIFSC.gif?t=1688714230" /&gt;&lt;br&gt;举起宝剑，吟唱魔法，驾驶天铠。宿命残响是一款复古16位像素风格角色扮演游戏，设定于机甲与巨龙并存的奇幻世界。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1229240/extras/ExperienceGIFSC.gif?t=1688714230" /&gt;&lt;br&gt;&lt;br&gt;跟随英雄们的视角，探索这片充满迷人角色，异域风景和强大敌人的奇幻大陆。&lt;br&gt;战争已经蹂躏这片土地多年，怨气滔天，人心不古。你是否能扑灭延绵不断的战火，开创新的未来？&lt;h2 class="bb_tag"&gt;游戏特色：&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;30 - 40小时游戏时间&lt;br&gt;&lt;/li&gt;&lt;li&gt;快节奏回合制战斗&lt;br&gt;&lt;/li&gt;&lt;li&gt;大地图遇敌无暗雷&lt;br&gt;&lt;/li&gt;&lt;li&gt;组建结社，建造基地，招募成员&lt;br&gt;&lt;/li&gt;&lt;li&gt;大量物品可拾取，偷窃或制造&lt;br&gt;&lt;/li&gt;&lt;li&gt;深入的技能与装备系统&lt;br&gt;&lt;/li&gt;&lt;li&gt;自定义装扮您的空艇&lt;br&gt;&lt;/li&gt;&lt;li&gt;徒步或驾驶天铠旅行以及战斗&lt;br&gt;&lt;/li&gt;&lt;li&gt;复古16位像素风美术&lt;br&gt;&lt;/li&gt;&lt;li&gt;经典JRPG风格音乐&lt;/li&gt;&lt;/ul&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1244090</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Sea of Stars</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>星之海</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>角色扮演,像素图形,回合制战斗,冒险,剧情丰富</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2023年08月29日</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-content-header.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;《星之海》承载着Sabotage工作室的目标&lt;/strong&gt;——用现代的方式重现经典角色扮演游戏：从回合制战斗到跌宕起伏的故事，从世界探索到细腻的环境交互，让大家重回独属怀旧游戏的美好旧时光。&lt;h2 class="bb_tag"&gt;经典和创新结合的回合制玩法 - “易”于上手 “乐”于精通&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-combat.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;掌控战斗的时机&lt;/strong&gt; - 看准时机按下交互键可以提升造成的伤害，或减少受到的伤害。&lt;br&gt;&lt;strong&gt;灵活的战斗方式&lt;/strong&gt; - 在战斗中使用多人组合技，充能攻击以及纳入战术考量的“Lock”系统，通过组合这些不同的攻击，甚至能够打断敌人正在准备的蓄力攻击或强大法术。&lt;br&gt;&lt;strong&gt;全身心地投入这款复古之作&lt;/strong&gt; - 不会有随机乏味的遭遇战，也不会有战场之间的频繁转换，更不会有无休无止打不完的敌人！&lt;h2 class="bb_tag"&gt;“不拘一格”的探索&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-traversal-flip-S.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;我们潜心研究平台游戏多年，打造了一套独特的移动系统!&lt;br&gt;您将不再受到传统的网格束缚，畅快地在世界中穿梭！&lt;br&gt;无论您想&lt;strong&gt;在池水中游弋，还是在岩壁上攀爬，或是轻快地从石阶上纵身跳下&lt;/strong&gt;，都可尽情体验。&lt;h2 class="bb_tag"&gt;独立的光照渲染&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-lighting-S.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;我们为游戏研发了一套独特的渲染管线!&lt;br&gt;《星之海》因此突破了2D像素美术游戏的限制，它让游戏充满了色彩，并且处处体现出优雅的细节！让你感受到一个更加真实、令人惊叹的游戏世界。&lt;h2 class="bb_tag"&gt;永恒的冒险与友谊&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-story-rich-adventure.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;这就是从Sabotage工作室的角色扮演游戏中可以期待的一切——经典的冒险与友谊故事。&lt;br&gt;&lt;br&gt;您可以与数十个原创角色一起踏上这段迷人的旅程：&lt;br&gt;&lt;strong&gt;时而波澜壮阔，犹如史诗长歌；&lt;br&gt;时而轻松诙谐，让人忍俊不禁。&lt;/strong&gt;&lt;br&gt;充满着意想不到的曲折与反转，让人心绪久久不能平复。&lt;h2 class="bb_tag"&gt;惬意的日常也是游戏的一部分&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-sabotage-touch.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;想试试停下冒险的脚步，在《星之海》的世界中打发打发时间？&lt;br&gt;去试试扬起帆出海！&lt;br&gt;或是生起篝火研究食谱？&lt;br&gt;还是拿出鱼竿甩两杆？&lt;br&gt;路过一家小酒馆进去听会儿歌，或者玩两把桌游...&lt;br&gt;每个系统的设计都是在尊重经典复古游戏的前提下，加入了崭新且独一无二的新体验。</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1256670</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Library Of Ruina</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>废墟图书馆</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>剧情丰富,策略,卡牌游戏,困难,牌组构建</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2021年08月11日</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1256670/extras/Steam_angela.png?t=1670980516" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;“正于此地，愿您找到想要的书。”&lt;br&gt;&lt;br&gt;扮演图书馆的馆长，迎接慕名而来的宾客。&lt;br&gt;&lt;br&gt;您的司书将为图书馆奋战到底。&lt;br&gt;&lt;br&gt;宾客与司书的战斗在名为图书馆的舞台上一触即发。&lt;br&gt;&lt;br&gt;落败的宾客将成为书籍，图书馆亦随之壮大。&lt;br&gt;&lt;br&gt;而一本好书能让您邀请更多谜团重重的宾客。&lt;br&gt;&lt;br&gt;扩充您的馆藏，挖掘深埋在都市之下的秘密。&lt;br&gt;&lt;br&gt;最终由您亲手完成……&lt;br&gt;&lt;br&gt;那本独一无二的至理之书。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1256670/extras/3.gif?t=1670980516" /&gt;&lt;br&gt;&lt;br&gt;【图书馆战斗模拟】&lt;br&gt;&lt;br&gt;《废墟图书馆》是一款以“图书馆战斗模拟”为概念制作的模拟策略游戏。&lt;br&gt;您将邀请形形色色的宾客拜访图书馆，与之进行殊死搏斗，获取记录着他们生平的“书”。&lt;br&gt;&lt;br&gt;“司书”和“宾客”之间的战斗以卡牌和骰子为媒介展开。&lt;br&gt;您可以通过观察宾客即将使用的卡牌做出相应的对策，选择合适的卡牌与之抗衡。&lt;br&gt;&lt;br&gt;当战斗拉开帷幕，您所选择的卡牌中落下的骰子将决定这场战斗的成败。&lt;br&gt;然而，骰子的点数并非完全取决于您的运气。&lt;br&gt;某些意想不到的因素将改变骰子的结果，各有利弊。&lt;br&gt;&lt;br&gt;务必谨慎挑选能在拼点中胜出的卡牌。&lt;br&gt;并在司书和宾客的厮杀进程中检验您的选择和运气。&lt;br&gt;每场战斗都将为您带来下注般紧张刺激的体验。&lt;br&gt;&lt;br&gt;【情绪升华的对抗】&lt;br&gt;&lt;br&gt;图书馆的战斗不仅仅是置敌人于死地，更是将情绪升华到极致的对抗。&lt;br&gt;随着战况愈演愈烈，司书和宾客的情绪也将步步高涨。&lt;br&gt;&lt;br&gt;司书的情绪变化或将产生积极的影响，或将带来巨大的负面效果。&lt;br&gt;而宾客的紧张情绪逐步加剧，战斗难度亦随之上升，但与此同时您将有机会获得更稀有的书籍。&lt;br&gt;除此之外，战斗过程中将恰到好处地出现对话，为您的观赏体验增添一丝趣味。&lt;br&gt;&lt;br&gt;【一切皆有可能的“书”】&lt;br&gt;&lt;br&gt;殒命于图书馆的宾客将转变成“书”。&lt;br&gt;这些珍贵的材料既能化作司书的肉体，又能用于图书馆的建设，还能制成战斗中使用的卡牌。&lt;br&gt;您也可以将“书”作为邀请其他宾客的手段。&lt;br&gt;&lt;br&gt;邀请不同的宾客获取不同的书籍，相应地加以利用。&lt;br&gt;如何使用馆藏发展图书馆，一切取决于您的选择。&lt;br&gt;&lt;br&gt;【都市与图书馆的故事】&lt;br&gt;&lt;br&gt;紧接前作故事中“脑叶公司”的垮台，您将在《废墟图书馆》中了解到安吉拉、赛斐拉和罗兰的故事。&lt;br&gt;您同样能了解到蔓延在巨大都市中的疯狂。&lt;br&gt;&lt;br&gt;扩充您的馆藏，发展您的图书馆和司书，邀请更强大的宾客以获取更精良的书籍。&lt;br&gt;从低级的传闻到都市传说，再到后来……&lt;br&gt;在游戏过程中，您将逐渐了解都市背后的故事。&lt;br&gt;&lt;br&gt;正于此地，愿您找到想要的书……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1256670/extras/Steam_mal.jpg?t=1670980516" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1282100</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Remnant II</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>遗迹2</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>类魂系列,动作,冒险,角色扮演,第三人称射击</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2023年07月26日</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>难以想象的世界。残酷无情的困境 &lt;br&gt;&lt;br&gt;《Remnant II》是畅销游戏《Remnant: From the Ashes》的续作。在本作中，人类幸存者将再次深陷可怕的世界，对抗新的邪恶怪物和神一般的敌人头目。孤军奋战，或者与两名朋友合作，探索未知的深处，阻止邪恶摧毁现实世界。若想取得成功，玩家必须依靠自己和团队的力量，完成最艰巨的挑战，让人类免于灭绝的命运。&lt;h2 class="bb_tag"&gt;特色：&lt;/h2&gt;&lt;strong&gt;紧张激烈的《Remnant》战斗体验&lt;/strong&gt;&lt;br&gt;冷静远攻和疯狂近战的混合战斗模式再次回归，这次还带来了更多狡猾的敌人和大规模头目战。针对不同的生物群落和战斗，可以选择特定装备和武器进行强化。头目战会让高水平玩家组队克服挑战，并尝试获得最高奖励。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1282100/extras/REM2_Combat_2.gif?t=1690498964" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;等待探索的新世界&lt;/strong&gt;&lt;br&gt;陌生的新世界被神秘生物和致命敌人占据。玩家可以独自上路，也可以与朋友结伴前行，穿越邪魔肆虐的世界，努力求生。多个世界可供探索，每个世界都有不同类型的生物、武器和物品。获取物品后要善加利用并合理升级，以迎接更严峻的挑战。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1282100/extras/REM2_World_2.gif?t=1690498964" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;无尽的重复可玩性 &lt;/strong&gt;&lt;br&gt;在动态生成的地下城和区域中，充满了各种支线任务、强化物品、制作材料和战利品。哪怕是最硬核的玩家，其决心也将经受考验。游戏体验复杂多变、极具挑战性，但当玩家最终战胜重重困难取得胜利时，也将体会到无与伦比的满足感。不同的世界中交织着不同的故事，等待你的探索和重访。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1282100/extras/REM2_Replay_2.gif?t=1690498964" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;全新职装系统&lt;/strong&gt;&lt;br&gt;扩展后的职装系统将为玩家提供独特的被动奖励和强大的力量。在游戏中可以解锁多个职业和多种装备、进行升级并混合搭配，以实现多样化的游戏风格。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1282100/extras/REM2_Archetype_2.gif?t=1690498964" /&gt;&lt;br&gt;&lt;br&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1336980</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>NOBUNAGA'S AMBITION: Awakening</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>信長之野望･新生</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>战争游戏,即时战术,沉浸式模拟,即时战略,大战略</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2022年07月21日</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/banner_tw.jpg?t=1691110808" /&gt;&lt;h2 class="bb_tag"&gt;《信長之野望･新生 with 威力加強版》&lt;/h2&gt;&lt;br&gt;※本商品包含《信長之野望･新生》与《信長之野望･新生 威力加強版》。&lt;br&gt;若已购买了《信長之野望･新生》，请勿购买本商品，而改为购买《信長之野望･新生 威力加強版》。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Nobunaga.gif?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;在《信長之野望･新生》中，玩家能够与自主思考并采取行动的“活生生武将”一起体验真实的战国。在符合“信長之野望”系列40周年品质和体量的标准下，本作迎来了系列最高级别的强化！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Departure.gif?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;①“君臣同心”的更深层进化&lt;/strong&gt;&lt;br&gt;能够阻止武将出奔、对敌对势力进行挖角等的“直接谈判”，任命“家宰”、“奉行”打造自己独特家臣团的“评定众”等，让“君臣同心”更上一层楼！ &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Battle1-CHT.gif?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;②波及到城下一带的白热化“攻城战”&lt;/strong&gt;&lt;br&gt;“攻城战”将以前所未有的形态登场。除去攻略城池本身，还能够享受别具动态感与真实感的攻城战！在超过200张专用地图上灵活运用每座城池的特征取得胜利吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Battle2-CHT.gif?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;③各势力别具一格、多彩的战略性&lt;/strong&gt;&lt;br&gt;大幅扩充赋予势力特征的“政策”。此外还追加了灵活运用决定每座城所扮演的角色、在据点之间建立联系的“城定位”，以及孕育出全新游玩体验的“军团战略”等新要素，令玩家别具个性的战略得以实现。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Characters.gif?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;④惯例的各种编辑功能之外，还有充实的追加要素！&lt;/strong&gt;&lt;br&gt;剧情与事件、特性等以往的要素得到大幅度扩充。武将与BGM、编辑剧情、创建新势力功能等高人气要素也将更加丰富多彩！&lt;h2 class="bb_tag"&gt;《信长之野望·新生》&lt;/h2&gt;&lt;br&gt;&lt;strong&gt;让天下重焕新生！&lt;/strong&gt;&lt;br&gt;&lt;br&gt;历史模拟游戏“信长之野望”系列的第16作，KOU SHIBUSAWA 40周年纪念作品。&lt;br&gt;&lt;br&gt;系列首次，通过自主判断而展开行动的“活生生武将”将大展身手！&lt;br&gt;支援玩家，为天下统一的目标东奔西走。&lt;br&gt;敌我双方的武将依照自己的判断，编织出有血有肉的战国乱世绘卷。&lt;br&gt;&lt;br&gt;推动历史进程的妙趣，便在于此！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/01.jpg?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;【内政】夺取土地、给予土地！“知行”系统&lt;/strong&gt;&lt;br&gt;把从他国赢取的土地给予能够胜任的家臣，重现曾经的“知行制”！&lt;br&gt;家臣在获得知行地后，将自主发展该地。&lt;br&gt;发展土地并强化国力，于战场获胜后给予家臣更多的土地吧！&lt;br&gt;&lt;br&gt;&lt;strong&gt;【战略】展现属于自己的战略吧！ “政策”与“特性”&lt;/strong&gt;&lt;br&gt;大名家的“政策”与武将持有的“特性”是富国强兵的关键！&lt;br&gt;政策的强化、城主与其麾下武将的特性，将对势力的特点产生巨大影响。&lt;br&gt;战略性地活用人才、资金、时间，创造你的理想势力！&lt;br&gt;&lt;br&gt;&lt;strong&gt;【战斗】以进军路线为中心的战略！“多方作战”&lt;/strong&gt;&lt;br&gt;适于大军作战的大道，或仅可进行小规模作战的小径等等，需要根据这些地形，采取变幻莫测的战术！&lt;br&gt;尽可能多占领通向城的要道，便可在攻城战中占据优势。&lt;br&gt;活用地利，选择符合势力大小的独到战术击破敌军！&lt;br&gt;&lt;br&gt;&lt;strong&gt;【会战】与自主行动的家臣们一起取得胜利！“会战指挥”&lt;/strong&gt;&lt;br&gt;为了胜利，为了功名，所有武将都将依照自己的判断而战。&lt;br&gt;在充斥各种图谋的战场上，看清不断演变的战况，下达通往胜利的命令吧！</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1351210</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Gord</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>戈德</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>策略,殖民模拟,生存,即时战略,动作冒险</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2023年08月18日</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>&lt;strong&gt;立即预购可获得一个额外自定义关卡“坚守阵地”、完整游戏原声带和数位美术集。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;“坚守阵地”是一个波次防御型的自定义关卡。保护您的定居点，对抗一波又一波越来越强大的敌人。准备防御，为即将到来的猛攻做好准备！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1351210/extras/1_adventure_chn.gif?t=1692961045" /&gt;&lt;br&gt;你将率领曙光部族深入禁忌的蛮荒大地，完成会影响到居民性格与安乐的任务，决定部族的命运，在灵感源自斯拉夫神话的黑暗幻想世界中帮助你的居民生存下去。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1351210/extras/1_adventure_chn.gif?t=1692961045" /&gt;&lt;br&gt;竖起围栏，打造各类建筑，让定居点从一个小城镇发展为森严的要塞。不过，扩张城镇可不容易！你的居民始终会受到敌方部族，恐怖怪物，以及潜伏在附近丛林中的神秘力量的威胁。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1351210/extras/_STEAM_APP_IMAGE__quests_SIM.png?t=1692961045" /&gt;&lt;br&gt;《戈德》中多种多样的任务将让您走出村落的围墙外，想办法防止灾难发生，或是解决自己部族居民的个人问题。关卡的主要目标将引领您的旅程，而支线任务与随机遭遇则会让您进入荒野，追捕传奇生物、揭开远古的秘密或战胜邪恶的祸害。您得准备好面对各种无法预知的情况。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1351210/extras/4_levels_chn.jpg?t=1692961045" /&gt;&lt;br&gt;从丰富剧情中选择你的游戏舞台，在其中争夺胜利。你既可以轻松游戏，也能展开硬核挑战，根据你的喜好进行调整。游戏含丰富的主要目标供你选择。你还能自定义关卡大小、袭击强度、游戏环境、敌人类型、起始资源、气候恶劣程度等因素。当然，别忘了恐怖生物。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1351210/extras/_STEAM_APP_IMAGE__sanity_SIM.png?t=1692961045" /&gt;&lt;br&gt;拥有健康的居民是您在《戈德》中生存的关键。无论是疾病、饥饿还是同胞的死亡，居民生活中的各个方面都会影响他们的理智程度。务必密切关注他们，因为一旦居民的理智下降到临界点，他们就会精神崩溃甚至逃离您的统治。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1351210/extras/6_incantation_chn.jpg?t=1692961045" /&gt;&lt;br&gt;用祈祷取悦神灵，他们就会赐予你施咒的神力。咒语有不同属性，有些用于攻击，有些用于防御，但都能助你在战斗中取得优势。用咒语躲过敌人的视线，驾驭危险猛兽，对胆敢反对你的人毫不留情。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1351210/extras/7_chronicle_chn.jpg?t=1692961045" /&gt;&lt;br&gt;编年史阐释了《Gord》的世界观，融合了斯拉夫神话与黑暗幻想的题材。编年史的书页零星散落在地图中，有兴趣的玩家可以进一步深入探索游戏世界。收集尽可能多的书页，了解神灵之源，古昔的部族派系，还有神秘的斯拉夫密语者。</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1449560</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Metro Exodus Enhanced Edition</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>地铁：离去 完全版</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>后末日,第一人称射击,开放世界,剧情丰富,单人</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2019 年 2 月 14 日</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>《Metro Exodus》是4A Games出品的第一人称射击游戏，具有史诗级的剧情，能让您在这一前所未有的沉浸式游戏世界中体验致命的战斗与潜行，感受探索与生存的恐怖。&lt;br&gt;&lt;br&gt;在广袤无际的关卡中探索俄罗斯的荒野，历经为期一年的故事线，度过春夏秋天，直至严酷的核冬天。&lt;br&gt;&lt;br&gt;《Metro Exodus》改编自Dmitry Glukhovsky的小说，会在至今最宏大的地铁冒险中继续讲述阿尔乔姆的故事。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;踏上无与伦比的旅途——登上经过多重改造的蒸汽火车“曙光号”，与数名幸存者一起，在东方的土地上探寻新的生活。&lt;br&gt;&lt;br/&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;体验沙盒式生存——动人心弦的故事，融合了经典地铁操作与全新的无边际关卡。&lt;br&gt;&lt;br/&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;美丽但危机四伏的世界——探索后启示录的俄罗斯荒野，炫目的日夜循环和动态天气让自然环境变得栩栩如生。&lt;br&gt;&lt;br/&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;致命的战斗与潜行——在荒野中收集材料，实地改装定制武器，与敌对的人类和变种怪展开紧张激烈的搏杀。&lt;br&gt;&lt;br/&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;您的选择会决定同伴的命运——并非所有同伴都能在旅途中幸存，您的决定会在动人的故事中产生深远的影响，也因此带来了极大的重复可玩性。&lt;br&gt;&lt;br/&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;极致氛围与沉浸感——黑暗中闪动的烛火、结霜面具后的喘息、夜风中传来的变种怪嘶吼——没有其他游戏能拥有地铁一般的沉浸式恐怖氛围……&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;黄金版：Metro Exodus游戏本体+季票（可游玩全部DLC）&lt;/strong&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/li&gt;&lt;/ul&gt; &lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1450900</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Desynced</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Desynced</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>策略,自动化,基地建设,即时战略,科幻</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2023年08月15日</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1450900/extras/Header.gif?t=1692382834" /&gt;&lt;br&gt;在飞船损坏后，您必须派出机器人降落到一颗未知的星球，建造维修飞船所需的设施。在飞船上的AI伊莱恩的引导下，您将开始建造各种装置，实现自动化生产，学会在这里生存并一步步变得强大起来。而这颗神秘的星球上还蕴藏着更多秘密等待您来发掘！&lt;br&gt;&lt;br&gt;Desynced是一款没有传送带的自动化游戏。只需要将机器人连接到物流网络，它们就会自动执行订单，在基地周围运送材料。您可以设置开采操作和工厂；扩大物流网络，以覆盖更多区域；管理发电和电力储存，等等。当需要定制化更高的解决方案时，您还可以使用自定义参数来调整各类设施和机器人的行为，或者通过拖放脚本实现最高级别的控制。&lt;h2 class="bb_tag"&gt;⚙️自动化&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1450900/extras/Fabricators.gif?t=1692382834" /&gt;&lt;br&gt;精妙的资源管理：掌握资源管理、生产链及自动化技术，保证基地的生存和繁荣发展。要想在这个充满敌意的世界中保持微妙的平衡，您的每项决策都至关重要。&lt;h2 class="bb_tag"&gt;🤖 自定义&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1450900/extras/Customize.gif?t=1692382834" /&gt;&lt;br&gt;完全自定义的装置：Desynced使用机器人来代替传统的传送带。您可以为它们配备合适的工具，或者通过拖放编辑器来编程高级行为。您还可以根据自己的游戏风格定制装置，以应对未来的诸多挑战。&lt;h2 class="bb_tag"&gt;🔬 研究&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1450900/extras/__Daynight.gif?t=1692382834" /&gt;&lt;br&gt;丰富的科技树系统：探索更深层次的研究系统，拓展技术能力。解锁全新可能，开发先进装置和结构，并在探索这个迷人世界的过程中战胜敌人。&lt;h2 class="bb_tag"&gt; 🌟更多精彩内容！🌟 &lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1450900/extras/ezgif.com-optimize.gif?t=1692382834" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;🔧通过模组支持及Steam创意工坊整合进行量身定制&lt;br&gt;&lt;/li&gt;&lt;li&gt;👥与好友一起加入阵营，或在多人游戏中挑战他们&lt;br&gt;&lt;/li&gt;&lt;li&gt;🎮 在抢先体验期间提前体验全新内容&lt;/li&gt;&lt;/ul&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1455910</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Territory: Farming and Fighting</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>领地：种田与征战</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>抢先体验,模拟,基地建设,策略,城市营造</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2023年01月12日</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>注意：本游戏有一定复杂度，需要动脑，且会有不少挑战，注定是小众游戏。这不是一个休闲的种田游戏。&lt;br&gt;游戏尚处于开发阶段，欢迎加入交流QQ群 926471120&lt;br&gt;&lt;br&gt;游戏以村庄经营 + 指挥打仗为核心玩法。玩家可以从十几个人的小村庄，发展成为上千人的小王国。&lt;br&gt;对内安排居民工作，进行生产建设。采集渔猎，种地挖矿，加工制造。&lt;br&gt;对外开展贸易，积累稀有物资，增加实力，与邪恶的势力和怪物作战。&lt;br&gt;&lt;br&gt;交流QQ群：&lt;strong&gt;926471120&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/1.gif?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/2.gif?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/3.png?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/4.png?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/5.gif?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/6.gif?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/7.png?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/8.gif?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/9.gif?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/10.gif?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/11.png?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/12.png?t=1692414972" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1503850</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>中年失业模拟器When a man lose his job</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中年失业模拟器</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>资本主义,探索,生存,经济,开放世界</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.1</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2021年05月15日</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>你是一个奋斗在大城市的35岁普通中年男人，承受着上有老下有小中间有房贷的沉重压力。但突然有一天，你被公司开除了！毫无收入的你面临着每月1万5000元的房贷和抚养两个孩子的生活费，巨大的压力重重压在你的肩上！.....在这座城市里，到底你要如何挣钱、如何挽救你的家庭呢？来试试吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1503850/extras/QQ截图20210316103134.jpg?t=1663380584" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;游戏要素&lt;/strong&gt;&lt;br&gt;■ 多种挣钱的工作！你可以当打工人，去做厨子、打临时工、开网约车、工地搬砖、送外卖、下井挖矿...你可以做奇怪生意，摆小摊、当up主、直播带货、炒股、炒房、钓鱼、抓虫子、下海捕鱼、杀猪卖肉...你可以运用资本，借贷款、开饭店、销售理财产品、开直播公司、开私募公司、炒作债券、炒作股票、开工厂、出租游艇...你甚至可以去战乱国家当雇佣兵...&lt;br&gt;&lt;br&gt;■ 各种随机事件：感冒、拉肚子、骨折、压力过大...老婆孩子也有各种事情！孩子发烧、老婆生病、家用资金紧缺、房子漏水...年迈的父母，身体不好、投资被骗、乱买保健品...&lt;br&gt;&lt;br&gt;■ 自由探索世界：这是一个小小的开放空间，你可以乘船去到不同的岛屿，发现不同的新东西——可能让你赚钱哦！&lt;br&gt;&lt;br&gt;■ 多种结局.根据你的行为和投资选择，会导致各种不同的结局，有些是很奇怪的发展... 完美结局是非常难打出来的，但相信那是值得的。&lt;br&gt;&lt;br&gt;谢谢您的游玩！：）</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1693980</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Dead Space</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>死亡空间</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>第三人称射击,科幻,太空,射击,生存恐怖</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2023年01月28日</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>科幻生存恐怖经典作品《死亡空间》宣告回归，经过完全重制，旨在为玩家提供更有深度、更身临其境的体验。这款重制版游戏为玩家带来了令人惊叹的视觉保真度、充满悬疑感的氛围音效以及游戏性改进，同时尽力忠实还原初版游戏的惊险构思。&lt;br&gt;&lt;br&gt;艾萨克·克拉克是一名普通的工程师，受命修复巨型采矿飞船 USG 石村号，结果发现事态超乎想象。飞船上的船员已被屠戮，而艾萨克心爱的伴侣妮可也在船上不知所踪。&lt;br&gt;&lt;br&gt;现在，艾萨克独自一人，他可以依靠的只有自己的工程工具和技能。随着石村号上可怕谜团的真相浮出水面，他必须尽快找到妮可。艾萨克被充满敌意，名为“尸变体”的生物团团包围，面临着一场生存之战。他不仅要对抗飞船上不断升级的恐怖情形，还要面对自己即将崩溃的理智。&lt;br&gt;&lt;br&gt;&lt;strong&gt;尽情沉浸在次世代科幻恐怖游戏中&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1693980/extras/DS_GP_USP1_610px.gif?t=1684172906" /&gt;&lt;br&gt;&lt;br&gt;这款经典科幻恐怖游戏经过完全重制，带来了视觉保真度的提升和 3D 氛围音效。从精致得令人难以置信的房间和满是被屠戮船员的工作间，到孤寂太空飞船上阴森的氛围音效，在这震撼人心的科幻场景中，出人意料、扣人心弦的时刻接连涌现，等着你来探索。&lt;br&gt;&lt;br&gt;&lt;strong&gt;揭开 USG 石村号上的谜团&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1693980/extras/DS_GP_USP2_610px.gif?t=1684172906" /&gt;&lt;br&gt;&lt;br&gt;工程师艾萨克·克拉克和 USG 圣室号的船员们起初只是在执行例行维修任务，但随着船上恐怖事件背后的真相逐渐被揭开，维修任务迅速演变成一场生存之战。跟随徐徐展开的叙事体验，通过遇难船员们的临终日志以及与少数幸存者的邂逅，揭开 USG 石村号各种事件背后的黑幕。&lt;br&gt;&lt;br&gt;&lt;strong&gt;随机应变，死地求生&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1693980/extras/USP3_ageGate_610px.gif?t=1684172906" /&gt;&lt;br&gt;&lt;br&gt;采用定义战略游戏的游玩方式，对抗 USG 石村号上的梦魇。调整并升级艾萨克的工程工具，用你的创意把敌人精准击毙。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1693980/extras/Dead_Space_PC_Specs_610px_STEAM_updated.png?t=1684172906" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1696440</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>绝世好武功 The Matchless Kungfu</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>绝世好武功</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>抢先体验,开放世界,沙盒,角色扮演,生存</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2023年08月30日</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>官方QQ群号：&lt;br&gt;官方QQ③群：717298872&lt;br&gt;官方QQ④群：757371350&lt;br&gt;官方QQ⑤群：703542977&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;这是一款基于武侠、江湖背景为基础的&lt;strong&gt; &lt;u&gt;开放沙盒类非传统武侠 RPG游戏&lt;/u&gt;&lt;/strong&gt;，你可以在这个大荒世界之中，扮演你所幻想的任何武侠角色，这里没有任何阻挡你幻想的老套剧情，你所演绎的武侠人生就是这个你的游戏剧情。你可以作为一名江湖小虾米游历大荒，你也可以成为一派掌门引领四方，你亦可以成为一名看不惯这江湖的浪子我行我素。最重要的是，请一切遵从于你的内心而为，并且活着！&lt;br&gt;&lt;br&gt;(1)玩家可以从零开始扩展自己的小世界，也可以通过创建小世界生成随机大小的初始世界。每个区域都有独特的环境、资源、生物以及势力。 在熟悉了游戏基本操作之后，您便可以直接生成环境属性各异的、已经包含一定数量地块的世界进行体验和历练，并且可以控制不同的“我”往来穿梭于各个世界开启别样人生！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/kf1.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(2)新颖的单回合战斗方式，通过收集不同的绝学搭配创建自己的招式库，战斗中拖动连接不同的招式激活绝学，利用招式克制和绝学套路，体现武侠战斗的策略性。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF2.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(3)独创的经脉系统，将人体经脉的运转进行了简化概念设计，玩家可以体验到不同的运功路线激活不同内功的拟真感受，简洁却富有策略玩法的设计给玩家提供了搭配和激活多种内功的玩法。同时经脉系统也结合了武侠小说中各种身体机能的具象表现，角色的生命力、内伤、隐疾、蛊、生死符、残疾、瞎眼等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF3.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(4)游戏还包含了自由的建造模式，玩家可以打造自己的民居、酒馆、温泉、马厩、大殿、监牢等等，每种建筑都有独特的功能。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF4.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(5)潜行玩法，可以通过训练潜行能力，配合独特的内功，夜晚穿上夜行衣，如人无人之境。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF5.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(6)训练轻功、跳跃、潜水、攀爬，无论高山深海都可闲庭信步。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF6.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(7)通过自定义天命、出身、容貌、血脉，打造独属于自己的角色。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF7.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(8)非线性剧情，游戏中每个NPC都会根据自己的行为、身份、名声、关系、态度等等在世界中生存，玩家的每次游戏都会与他们发生不同的剧情。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF8.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(9)丰富的交互内容&lt;br&gt;可以把敌人的建筑引燃&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF9.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;可以邀请NPC喝酒，灌醉后搜刮物品&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF10.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;可以驯化各种动物，每种动物都有各自独特的功能，例如猴子可以乞讨、马可以乘骑和改装马车、蛇可以下毒等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF11.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;玩家可以创建自己门派，招募弟子，发布命令，参加武林大会。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF12.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;丰富的交互内容·玩家可以布置陷阱，抓捕动物或敌人。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF13.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;建立门派，发布命令&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF15.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;建立牢笼，关押敌人&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF16.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;———————————————————————————————————————&lt;br&gt;来自幻魔寺的寄语：&lt;br&gt;我们坚守本心，完全独立开发，只做大家觉得好玩的游戏，这款游戏的世界目前仍然只是一个雏形，我们深知它会不断壮大，并且成为未来我们一切游戏的基石，我们会为此不断努力，带给大家一个绝妙的幻想世界！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/respect.png?t=1694014062" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1716740</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Starfield</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>星空</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>太空,开放世界,角色扮演,单人,科幻</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.7</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2023年09月06日</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>《Starfield》出自打造过《Starfield》是由载誉无数、曾为大家带来《The Elder Scrolls V: Skyrim》和《Fallout 4》的Bethesda Game Studios睽违超过25年所打造的第一个全新宇宙。这款新一代角色扮演游戏将背景设定在茫茫宇宙。在这里，你可以创建任意角色，探索世界并体验前所未有的自由。踏上这趟史诗般的旅程，发掘人类文明的终极奥秘。&lt;br&gt;&lt;br&gt;2330年，人类已跨出我们所在的太阳系，在新的星球上定居下来，太空旅行也已成为人类的日常。在这款Bethesda Game Studios迄今为止最宏大的游戏里，你将加入群星组织这个在星系中寻找稀有神器的太空探险者团体，展开探索广袤宇宙的旅程。&lt;h2 class="bb_tag"&gt;传颂你的故事&lt;/h2&gt;在《Starfield》中，最重要的故事将由你亲自通过你的角色述说。自定义外观并决定背景和特征，启航展开属于你的星际之旅。你会是经验老道的探险家、充满魅力的外交官、诡密的电子情报贩，或是独树一帜的人物？选择权都在你手上。由你决定想要打造什么样的角色，有什么样的发展。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/TellYourStory_v3.gif?t=1693958437" /&gt;&lt;h2 class="bb_tag"&gt;探索外太空&lt;/h2&gt;在群星间冒险，探索超过一千个行星。造访繁华的都市、探索充满危险的基地，以及穿越荒野的风景。认识令人难忘的角色并加以招募、参与各种阵营的冒险，在定居星系群中到处展开任务。随时都有新的故事或体验等你来发掘。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/ExploreSpace_v3.gif?t=1693958437" /&gt;&lt;h2 class="bb_tag"&gt;指挥你梦想中的飞船&lt;/h2&gt;驾驶及指挥你梦想中的飞船。打造属于自己的飞船外观、改造武器和护盾等重要系统，以及分配船员为你提供独特加成。在深远的太空中，你将遭遇高风险的近距空战、随机任务、在星际站停驻，甚至登上并夺取敌人的飞船，为自己增添收藏品。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/CaptainShip_v3.gif?t=1693958437" /&gt;&lt;h2 class="bb_tag"&gt;发掘、收集、打造&lt;/h2&gt;探索行星并发掘各种动植物，以及制作药物、食物、装备和武器所需的各种资源。建造哨站并雇用工作人员自动获得材料，并建立货运链接以在哨站间运送资源。将这些原材料投注在研究项目中以解锁独特的制造配方。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/DiscoverCollectBuild_v3.gif?t=1693958437" /&gt;&lt;h2 class="bb_tag"&gt;武器上膛&lt;/h2&gt;宇宙中危机四伏。精细的战斗系统为你提供处理各种状况的工具。无论你喜欢长射程步枪、激光武器或炸药，每种武器皆可改装以符合你的游戏风格。零重力环境为战斗增添了混乱的华丽场面，飞行背包则为玩家带来前所未有的自由机动性。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/LockandLoad_v3.gif?t=1693958437" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1754790</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Fate of the Pharaoh</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Fate of the Pharaoh</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>策略,时间管理,城市营造,2D,可爱</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2023年08月23日</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1754790/extras/banner_large_1.png?t=1692785837" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1754790/extras/banner_1.png?t=1692785837" /&gt;&lt;br&gt;Become the loyal Pharaoh’s adviser and help him to restore peace and prosperity in the golden cities of Egypt. Construct houses re-establish production, collect taxes and gather materials, set up production and trade, and fight crocodiles and wicked cobras. Restore Egypt to its days of glory!&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1754790/extras/banner_2.png?t=1692785837" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; HELP the people of ancient Egypt to restore their kingdom in this exciting time management adventure game!&lt;br&gt;&lt;/li&gt;&lt;li&gt; EXPLORE the magnificent era of our history&lt;br&gt;&lt;/li&gt;&lt;li&gt; 44 EXCITING levels to master and hundreds of quests&lt;br&gt;&lt;/li&gt;&lt;li&gt; FIGHT dangerous cobras, scorpions, crocodiles and more!&lt;br&gt;&lt;/li&gt;&lt;li&gt; EARN achievements along the way&lt;br&gt;&lt;/li&gt;&lt;li&gt; MEET friends from outer space&lt;br&gt;&lt;/li&gt;&lt;li&gt; 2 difficulty modes: relaxed and adventure&lt;br&gt;&lt;/li&gt;&lt;li&gt; Step-by-step tutorials for beginners&lt;ul class="bb_ul"&gt;&lt;/ul&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1790230</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Wallpaper Engine - Editor Extensions</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Wallpaper Engine - 编辑器扩展</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>休闲,独立,照片编辑,实用工具,动画制作和建模</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>DLC</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2021年11月26日</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>免费的Wallpaper Engine编辑器扩展 DLC 为该编辑器添加了高级功能。 此附加组件需要大量磁盘空间，我们只建议为想要在编辑器中使用这些高级功能来创建新墙纸的用户安装编辑器扩展。 所有订阅者都可以使用通过此附加组件创建的壁纸，而无需安装编辑器扩展。&lt;br&gt;&lt;br&gt;&lt;strong&gt;如果您不确定您是否要使用它，请不要安装此扩展。 如果您尝试使用任何需要它的功能，Wallpaper Engine 编辑器将推荐此扩展程序。&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;包含的功能&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;使用机器学习从单个图像生成深度图。&lt;/li&gt;&lt;/ul&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
           <t>1888160</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>ARMORED CORE™ VI FIRES OF RUBICON™</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>装甲核心6</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>机甲,角色自定义,动作,第三人称,3D</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
         <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>2023年08月25日</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>数字豪华版将收录以下内容；&lt;br /&gt;
 ·游戏本体&lt;br /&gt;
@@ -1887,38 +2591,38 @@
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>1889980</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>Pathfinder: Wrath of the Righteous - Inevitable Excess</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>Pathfinder: Wrath of the Righteous - Inevitable Excess</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>策略,冒险,角色扮演,独立</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>2022年03月03日</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>《无解的超量》这部DLC将带玩家在即将取得对世界之伤的大胜之前，进入新的冒险设定当中。新的故事需要英雄用上所有高等级能力和神话之力，与近乎无可匹敌的对手交锋。 玩家将响应瓦尔码络斯的号召，这位来自另一个实存位面的强大存在决心阻止多元宇宙迫在眉睫的危机。&lt;br /&gt;
 &lt;br /&gt;
@@ -1936,38 +2640,38 @@
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>1889981</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>Pathfinder: Wrath of the Righteous - Through the Ashes</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Pathfinder: Wrath of the Righteous - Through the Ashes</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>策略,冒险,角色扮演,独立</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>2022年04月21日</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>当你指引着骑士指挥官走向神话般的荣耀时，坎娜布利燃烧的街道上，普通人则在尽最大努力挣扎求生。站在普通市民的角度看待战争，并证明要展现英雄气节，你并不需要成为一位神话中的勇士。带领一小群市民逃脱囚禁，前往安全的避难所。你将拯救谁？将牺牲谁？主线战役的英雄们又错过了世界之伤的哪些骇人的秘密？&lt;br /&gt;
 &lt;br /&gt;
@@ -1982,80 +2686,80 @@
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>1983970</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>Affogato</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>加把劲魔女</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>日系角色扮演,动漫,女性主角,塔防,策略角色扮演</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
         <is>
           <t>7.5</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>2023年08月17日</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>《加把劲魔女》是一款以魔女为主角的RPG，玩家将伴随魔女运营咖啡店，清偿债务，认识形形色色的顾客，最终深入其内心世界，帮助他们战胜自己最大的恐惧，发掘潜藏的秘密。&lt;br&gt;在这款RPG中，你将体验丰富的剧情、创新的“反塔防”玩法，和高质量的二次元立绘！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/画板_1-CN.png?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/1-CN.gif?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;进入顾客的内心世界，挑战结合了卡牌系统的反塔防关卡，你的每个决策都关系到顾客最终能否战胜心中的恶魔。权衡你的出牌和获胜之路，一招不慎，则有可能永远失去顾客......&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/画板_2-CN.png?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/2-CN.gif?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;认识形形色色的顾客，侧耳倾听他们的故事，进入他们的内心，解决他们的烦恼。你还可以选择和志同道合的客人逐步建立特别的情谊。魔女就是要古道热肠，平易近人嘛！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/画板_3-CN.png?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/3-CN.gif?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;规划每日日程，合理安排时间，今天是多做几笔生意，还是精研咖啡师技术，还是学习更强力的魔咒，抑或是和顾客们建立更牢固的关系呢？请记住，时钟的指针将永不停歇，你的每一个行为都会消耗时间。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/画板_4-CN.png?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/4-CN.gif?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;成为一名咖啡师，你需要学会如何做好咖啡。&lt;br&gt;要成为一名优秀的咖啡师，你还需要察言观色，为顾客调制专属咖啡。游戏还原了现实中的咖啡制作工序。做出一杯上好咖啡，你将有机会解锁隐藏剧情，开启新故事线。</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>2064590</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>Pathfinder: Wrath of the Righteous – The Treasure of the Midnight Isles</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>Pathfinder: Wrath of the Righteous – The Treasure of the Midnight Isles</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>策略,冒险,角色扮演,独立</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>2022年08月30日</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>散布在黑暗深渊大洋中的群岛埋藏着无数奇珍异宝，同时也蛰伏着难以言表的恐怖。登上阴森的被诅咒之船，冒险深入未知海域，航向你的财富……或是死亡。&lt;br /&gt;
 &lt;br /&gt;
@@ -2071,359 +2775,396 @@
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>2114740</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>Blasphemous 2</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>神之亵渎2</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>冒险,战斗,类银河战士恶魔城,类魂系列,横向滚屏</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
         <is>
           <t>9.0</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>2023年08月25日</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>《神之亵渎》系列的续作预示着“悔罪者一号”的回归，剧情延续自原版游戏的免费可下载内容“Wounds of Eventide”，天空中的心预告着“奇迹”的回归，也代表了新的奇迹之子就要诞生。&lt;br&gt;&lt;br&gt;“悔罪者一号”在一片全然陌生的土地上苏醒，不在他最终长眠之处，他再度深陷出生、死亡和复活的无尽循环，别无选择，他只能动身探索这个危险的新世界，揭开其中被遗忘已久的秘密。&lt;br&gt;&lt;br&gt;成群的怪异敌人阻挡您的去路，等待接受“悔罪者一号”残暴的最终审判，而巨型的变异头目也潜伏在黑暗中，等着能将您送回坟墓的时机。&lt;br&gt;&lt;br&gt;击倒他们并非易事，但《神之亵渎2》将提供您更多自定义和提升技能组合的机会，以及一些能让您怀抱满腔正义热血和无尽怒火使用的全新独特武器，胜利指日可待。&lt;br&gt;&lt;br&gt;最终，只有一件事是确定的... 忏悔永无止境。&lt;br&gt;&lt;br&gt;&lt;strong&gt;探索更完整的非线性世界&lt;/strong&gt;&lt;br&gt;&lt;br&gt;在一个全然陌生的世界苏醒之后，您将在一系列迷人的哥特式怪诞场景中重新展开旅程，到处都是严酷无情的陷阱。要如何应对这个迷宫般的世界由您决定，想要怎么进行都没问题，只能将敌人全数解决。&lt;br&gt;&lt;br&gt;&lt;strong&gt;残暴战斗&lt;/strong&gt;&lt;br&gt;&lt;br&gt;“悔罪者一号”不知手下留情为何物，一系列新武器将带来新的动作、残酷的处决和更多样化的连击，任何挡路的敌人都等着面临毁灭的结局。&lt;br&gt;&lt;br&gt;&lt;strong&gt;自定义游戏风格&lt;/strong&gt;&lt;br&gt;&lt;br&gt;《神之亵渎2》提供了新的游玩方式，可以自定义和提升您的基础技能，还有几种新的独特武器可以对敌人发动毁灭性的攻击。&lt;br&gt;&lt;br&gt;&lt;strong&gt;紧张刺激的头目战&lt;/strong&gt;&lt;br&gt;&lt;br&gt;成群的可怕敌人挡在您与目标之间；扭曲头目具有独特的攻击模式和破坏力惊人的能力，将彻底考验您的技术。想尽办法奋战以在最后取得甜美的胜利。&lt;br&gt;&lt;br&gt;&lt;strong&gt;探索充满深度的新世界&lt;/strong&gt;&lt;br&gt;&lt;br&gt;一个全新世界正等着您，这里有很多神秘的新 NPC 可以互动，有些人会提供帮助，有些人会请求您帮忙，也有些人会派您去执行危险无比的任务，以取得遭遗忘已久的物品。有这么多可以探索的内容，您碰到的故事与事物将帮助您揭开游戏的无数秘密，让您更深入了解这个奇异的新世界。</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>2140850</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>Looper Tactics</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>虚妄轮回</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>牌组构建,卡牌战斗,自走棋,卡牌游戏,桌上游戏</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
         <is>
           <t>8.5</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>2023年08月28日</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>&lt;strong&gt;《虚妄轮回》官方QQ群：658493805&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;如果遇到黑屏，游戏卡死或者其他bug等问题，可以进群找管理员，在线帮您解决。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/介绍gif.gif?t=1693986474" /&gt;&lt;h2 class="bb_tag"&gt;游戏介绍&lt;/h2&gt;《虚妄轮回》是一款独具魅力的策略卡牌RPG，游戏融合了DBG卡牌构筑、经典卡牌对战和酒馆战棋等元素。在这个引人入胜的冒险中，你将穿越棋盘式地图，通过战斗、事件和寻宝不断组建和强化卡组，同时探寻隐藏在这个虚幻世界背后的真相。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn_title1.png?t=1693986474" /&gt;&lt;br&gt;在《虚妄轮回》的冒险过程中，你能够如同探险般自由地翻开地图上板块，探索地图上未知的宝藏与挑战。自由地决定前进的方向，踏足副本中的每一个角落。需要注意的是，你的每一步的行动都会令游戏时间推进，而你的敌人则会随着时间的流逝而逐渐变强。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/棋盘探索.gif?t=1693986474" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn_title2.png?t=1693986474" /&gt;&lt;br&gt;作为一款DBG卡牌构建游戏，《虚妄轮回》融合炉石传说，刀牌和酒馆战棋等经典同类型游戏的玩法，并带有策略和轻度肉鸽元素。游戏中你要通过一次次的战斗、事件、寻宝，收集资源，同时构筑强化你的牌组，为挑战最终BOSS做好准备。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/战斗.gif?t=1693986474" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn_title3.png?t=1693986474" /&gt;&lt;br&gt;游戏中拥有精灵、元素、机械、恶魔与巨龙等多种族卡牌可供选择，每张卡牌都有两种不同的形态可供自由选择。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn1.jpg?t=1693986474" /&gt;&lt;br&gt;每个种族卡牌都有着各自独特的机制，你也可以组合搭配不同的种族卡牌，并配合各类增强法术，构筑出一套专属于你的卡组。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn2.jpg?t=1693986474" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn_title4.png?t=1693986474" /&gt;&lt;br&gt;在一场场的战斗过程中，随从卡牌将能够通过各种方式获得&lt;strong&gt;永久的属性成长&lt;/strong&gt;。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/永久成长.gif?t=1693986474" /&gt;&lt;br&gt;更有数十种独特能力，进一步提升随从卡牌的战斗能力。哪怕是最低阶的随从卡牌，在经历了无数次的战斗后，也能够成为独当一面的强力卡牌。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn3.jpg?t=1693986474" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn_title5.png?t=1693986474" /&gt;&lt;br&gt;《虚妄轮回》中设计有不同风格的迷宫副本供玩家探索挑战，每个副本都有着独特的副本机制及怪物群落，并且会随着游戏的进度而不断提高难度，为你带去完全不同的冒险体验以及更加精彩的战斗挑战。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/迷宫副本.gif?t=1693986474" /&gt;&lt;br&gt;在完成副本之后，还可获得大量强化物资，用于提升卡牌等级、强化英雄、强化宝物等，游戏提供了丰富的局外养成元素，让你用最强的状态去迎接下一次挑战。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn_title6.png?t=1693986474" /&gt;&lt;br&gt;古老帝国创造了盒中世界，实现了人造灵魂。有人惧怕这个世界会带来毁灭，因而将其封印，设置了无尽的轮回来保证它与外界永世隔绝。作为人造物，一旦拥有了灵魂，它的存在是虚妄的，或是真实的？作为造物者，自己的存在是否又源于“更外面”的造物者？&lt;br&gt;如所有的冒险故事一般，在《虚妄轮回》中你将扮演一名身负拯救世界重任的勇者，一路前行成长变强并打败恶龙、魔王，你以为故事会这样简单的结束？这或许只是数千次轮回中一次偶然的成功，你所要面对的可能是比想象还要更加残酷的事实。</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>2205850</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>Dwarves: Glory, Death and Loot</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>矮人军团自走棋</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>角色扮演,自走棋,角色自定义,策略,类 Rogue</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
         <is>
           <t>6.3</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>2023年08月17日</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>&lt;a href="https://store.steampowered.com/app/2218400/_/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/2218400/_/&lt;/a&gt;&lt;br&gt;《矮人军团自走棋》有着十分爽快的战斗，并将RPG成长、Roguelike冒险和自走棋策略进行了巧妙融合，创造出了节奏轻快，且富含策略深度的游玩体验，实乃上班摸鱼、下班解压的神器。&lt;br&gt;&lt;br&gt;玩家交流QQ群：①767476732（已满） ②740435455（已满） ③801398806&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/小标题1.png?t=1692810619" /&gt;&lt;br&gt;作为新晋的矮人军团指挥官，你的征战之路得从三个矮人开始，他们装备简陋，战斗力不强，只有击败敌人获取经验和金币，让他们全副武装、战技娴熟，以及将更多战士招募进队伍，才能克敌制胜。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图1.gif?t=1692810619" /&gt;&lt;br&gt;&lt;br&gt;每一位矮人战士都可以进行专属定制，通过赋予它们不同的装备，这些矮人将拥有截然不同的定位，有的会成为耐打能抗的肉盾，有的则会成为敏捷灵活的刺客或弓箭手，有的则会成为输出爆炸、极为脆弱的法师。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_banner.gif?t=1692810619" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_archer.gif?t=1692810619" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_hammer.gif?t=1692810619" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_axe.gif?t=1692810619" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_shield.gif?t=1692810619" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_sword.gif?t=1692810619" /&gt;&lt;br&gt;&lt;br&gt;通过调整矮人战士的装备和站位，你便可以随时改变军团的阵容以及战斗方式，打出你所期望的战斗套路，建立起完全属于你的矮人军团。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图3.gif?t=1692810619" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/小标题2.png?t=1692810619" /&gt;&lt;br&gt;每一场战斗结束后，玩家都可以从三个分支中选择一个前进，既可以选择打怪升级，也可以选择购买装备，有或者雇佣新的战士，当然每一种选择背后都充满了机遇与风险。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图7.gif?t=1692810619" /&gt;&lt;br&gt;&lt;br&gt;同时随着玩家游玩的增多，会获得宝石以解锁技能书上的多种技能，会为玩家未来的所有对战提供增益，进一步增强你喜欢的战斗风格。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图8.gif?t=1692810619" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/小标题3.png?t=1692810619" /&gt;&lt;br&gt;随着你的矮人军团不断变强，所要遭遇的敌人无论数量和战斗力也都会跟着水涨船高，战场将变得十分激烈。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图4.gif?t=1692810619" /&gt;&lt;br&gt;&lt;br&gt;面对不同的敌人配置，请及时调整军团的装备和站位，敌人突击多，就需要加强前排，如果敌方法师多，就要注重切后排，战术正确的话才更有把握获胜。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图5.gif?t=1692810619" /&gt;&lt;br&gt;&lt;br&gt;如果只想着提高版面数字，用错误的阵容出战，被放了风筝或者切了后排，结果恐怕都不会乐观，所以请一定充分的总结经验，开动脑筋，充分的运用策略吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图6.gif?t=1692810619" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/小标题4.png?t=1692810619" /&gt;&lt;br&gt;&lt;br&gt;虽然目前玩家已经能进入游戏，享受指挥矮人军团攻伐的乐趣，但游戏目前仍处于Demo阶段。后续还有更多新装备、新职业、新地图以及新BOSS加入，为这场战争再添几分热度！&lt;br&gt;&lt;br&gt;这不会太久，大家敬请期待！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_assassin.gif?t=1692810619" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/troll_animated.gif?t=1692810619" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dragon_transparent_x1.gif?t=1692810619" /&gt;</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>2244480</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>REMEDIUM: Sentinels</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>REMEDIUM: Sentinels</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>动作类 Rogue,弹幕射击,轻度 Rogue,射击,3D</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
         <is>
           <t>2023年07月18日</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x346_ch_s.jpg?t=1692802960" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_1.png?t=1692802960" /&gt;&lt;br&gt;&lt;br&gt;《拯救：卫兵》是一款快节奏的轻度类Rogue自动射击游戏，背景世界与游戏《拯救》相同。一百多年前，灰色瘟疫肆虐，大部分人类都变成了凶恶的变种生物。这片土地如今被死亡和混乱笼罩，只有少数城市仍然屹立不倒。&lt;br&gt;&lt;br&gt;你将操控炼金术士创造的一个卫兵，肩负唯一的使命——只要你的反应堆还在运转，就竭力保卫城市，抵挡变种生物无尽的袭击。组合物品和炼金元素，不断获取新的武器，打造独特的构筑！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/saw-1_new.gif?t=1692802960" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_2.png?t=1692802960" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;易于上手，难以精通&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;巧妙操控卫兵突破致命变种生物的包围，利用它的武器将敌人消灭！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;收集原质，提升守卫的性能&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/Desktop_2023.02.10_-_14.46.11.13_3.gif?t=1692802960" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;组合武器和物品，赋予它们全新的元素效果&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;卫兵反应堆的能量耗尽之前，一定不能牺牲！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;面对并击败强大的头目&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;完成数十项挑战，解锁全新的能力&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/Choose_your_Sentinel.gif?t=1692802960" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;炼金术创造的各类枪械和技能供你选择&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;灵活升级或精心打造角色构筑，以对抗特性和抗性不同的变种怪物&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;坚持得越久，你就越强大。不断获得技能、武器，不断击败敌人。简而言之，游戏超级耐玩！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_3.png?t=1692802960" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/2244480/REMEDIUM_Sentinels/" target="_blank" rel=""  id="dynamiclink_2" &gt;https://store.steampowered.com/app/2244480/REMEDIUM_Sentinels/&lt;/a&gt;</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>2266770</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>Pathfinder: Wrath of the Righteous - The Last Sarkorians</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Pathfinder: Wrath of the Righteous - The Last Sarkorians</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>角色扮演,冒险,策略,独立</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>2023年03月07日</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>邂逅乌布里格·欧列克，四分五裂的萨阔力仅存的后裔之一。他身怀变形成强大狮鹫的绝技，能够成为您队伍中势不可挡的斗士、一位值得信赖的朋友——甚至可能不仅于此。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;附带6个变体的新可选职业。成为一名化形师，使用动物拟态和形态，以野兽的怒火消灭您的敌人！&lt;br&gt;&lt;/li&gt;&lt;li&gt;队伍迎来新成员：一位从家园的灭顶之灾中神秘生还的萨阔力部族酋长。&lt;br&gt;&lt;/li&gt;&lt;li&gt;一个此前无法到访的全新地区，您将与新的盟友一起展开探索，与新的敌人交手，并揭示一些古老的秘密。&lt;br&gt;&lt;/li&gt;&lt;li&gt;9个全新法术将协助您与新敌人和老对手的战斗。&lt;br&gt;&lt;/li&gt;&lt;li&gt;不论男女角色，均可选择与乌布里格发展恋爱剧情。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>2273170</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>Gaia Trek</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>盖娅迷航</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>卡牌游戏,资源管理,塔防,基地建设,管理</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>2023年08月23日</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>欢迎关注我们的官方社群:&lt;br&gt;《盖娅迷航》玩家QQ群: 699632445&lt;br&gt;游戏便当QQ群①：287356527【已满】&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569【已满】&lt;br&gt;游戏便当QQ群④：909356067&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/1.png?t=1693657142" /&gt;&lt;br&gt;&lt;br&gt;控制你的飞船与别的星球进行“友好交流”。探索陌生的星球，收集并加工种类丰富的资源，在受损的飞船上建设你的家园，打造千奇百怪的怪兽为你而战，最终吞噬其他星球意志以修复自身。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z1.png?t=1693657142" /&gt;&lt;br&gt;宇宙中已发现存在7种独具特色的种族，共计50+极具个性化能力的个体。然而这些不过是更高级存在——星球意志的桌上玩物，随意拿取两种个体进行融合即可产生全新个体，共计400+融合个体等你创造！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/1融合.gif?t=1693657142" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z2.png?t=1693657142" /&gt;&lt;br&gt;各个种族根据自身的生物特性发展出了属于自身的独特文明，光合族由种子生根发芽，奇美拉族通过交配繁衍，洞虫族以虫后为绝对中心，奥托玛族靠工厂制造以能源为本，本源族源于世间万物中蕴含的元素，抑默心族伴生于生物个体的情绪变化，神族由于生物的虔诚信仰而实体化。顺应各族的文明而存在的独特功能建筑共50+。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/怪物生成.gif?t=1693657142" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z3.png?t=1693657142" /&gt;&lt;br&gt;既有极为寻常的砍树挖矿、种植炼铁、加工建造，又有科幻十足的情绪具象、元素实体、机械生命。丰富多样的地形区域中蕴藏着上百种资源卡，派遣你的怪兽前去探索、采集、掠夺，带回来的每一张资源卡都是取得胜利的关键。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/合成2.gif?t=1693657142" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z4.png?t=1693657142" /&gt;&lt;br&gt;产出单位、打造建筑、探索地图、抵御进攻，你需要完成很多事情，但是你的时间可不多。从降落在这个文明，第一个单位的产出，第一座建筑的落地，这场残酷的战斗就已经开始，要么运筹帷幄拿下这里，要么败走麦城落荒而逃。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/boss动图.gif?t=1693657142" /&gt;</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="63">
+      <c r="A63" t="inlineStr">
         <is>
           <t>2273430</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>BlazBlue Entropy Effect</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>苍翼：混沌效应</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>抢先体验,动作类 Rogue,动作冒险,类银河战士恶魔城,平台游戏</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
         <is>
           <t>8.2</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>2023年08月16日</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/2s8sQbmtpE" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/3ff496ac-5d11-4609-844e-ceeaf4c1953b.jpg?t=1693550018" /&gt;&lt;/a&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-1.png?t=1693550018" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/2D_ACT战斗体验的天花板.gif?t=1693550018" /&gt;&lt;br&gt;纯正格斗血统的全新动作肉鸽游戏，资深动作团队以ACT之名打造极致2D动作战斗体验！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-2.png?t=1693550018" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/千变万化的动作战斗.gif?t=1693550018" /&gt;&lt;br&gt;魅力非凡的各个角色可以通过上百种招式自由构建，打造独一无二的动作连招。角色间迭代传承的继承系统，让每一次战斗的结束又成为新战斗的起点。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-3.png?t=1693550018" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/无限可能的肉鸽构建.gif?t=1693550018" /&gt;&lt;br&gt;八大元素策略体系（电、火、毒、光、刃、冰、暗、通用），超过两百种强化效果与动作系统联动，通过不同的搭配组合，在动作战斗中触发不同的“化学反应”，燃烧、冰冻、致盲、麻痹......挑选合适的词条强化，进一步“定制”属于自己的动作流派！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/01CN.png?t=1693550018" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/两大经典玩法合璧.gif?t=1693550018" /&gt;&lt;br&gt;箱庭式闯关+类银河城冒险结合设计，汇集横版动作的两种经典玩法。在箱庭式关卡中击败不同敌人，挑战阶段性BOSS；在随机生成的类银河城大地图中冒险，踏入隐秘禁区、探索故事终点。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/02ECN.png?t=1693550018" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/多线性·多结局.gif?t=1693550018" /&gt;&lt;br&gt;在架空的近未来世界，人们通过名为“ACE”的科技装置进入虚拟空间，化身为不同角色战斗。虚构的一切，却一步步影响着真实的未来。&lt;br&gt;由特殊粒子效果展现的事象碎片诉说着隐秘或真相，你会怎么判断？&lt;br&gt;由对话选择驱动的多线性剧情发展，你将如何抉择？&lt;br&gt;谨慎改变故事的走向，战斗的终点将是完全不同的未来。&lt;br&gt;&lt;br&gt;*本作品属外传衍生游戏，世界观为新原创内容，故事情节不涉及BlazBlue本篇剧情。</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2290000</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>TerraScape</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>TerraScape</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>抢先体验,城市营造,解谜,策略,休闲</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2023年04月05日</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2290000/extras/01_v2.png?t=1692317469" /&gt;&lt;br&gt;&lt;br&gt;在《愿景之城》中建立你的梦想之城。《愿景之城》中的每组卡牌都将提供不同的建筑和方式来扩展你的城市。在游戏世界中明智的放置每一张卡牌，以赚取积分并获得新的卡牌作为奖励。循环往复，巧妙的建设和发展你的城市。&lt;br&gt;&lt;br&gt;游戏提供了多种游戏模式、程序生成的地图以及令人兴奋的挑战。在抢先体验期间，《愿景之城》将在未来扩展更多的卡组、地图和游戏模式。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2290000/extras/02_CN.gif?t=1692317469" /&gt;&lt;br&gt;&lt;br&gt;无论是其他建筑、自然资源还是合适的地形, 每栋建筑都有特定的要求。尽可能多的满足要求去获取积分，但请注意：这些也将产生负面影响！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2290000/extras/03_CN.gif?t=1692317469" /&gt;&lt;br&gt;&lt;br&gt;通过收集积分，你可以解锁新的卡组和建筑。每套卡牌由几张建筑卡组成。通过更加频繁和巧妙的方式来放置某些特定的牌组建筑，从而解锁更多的卡牌。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2290000/extras/04_CN.gif?t=1692317469" /&gt;&lt;br&gt;&lt;br&gt;如果你的建筑放置得当，就可以抽取新的卡牌。但要密切关注你的策略和谋划你真正需要的卡牌。否则，你可能会抽到对你当前规划完全无益的建筑。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2290000/extras/05_CN.gif?t=1692317469" /&gt;&lt;br&gt;&lt;br&gt;独特的地图生成器可以创造出具有无穷可能性的新地图！此外，玩家还可以参加难度增加的手工制作任务，在高分榜上向你的好友和世界展示你是最佳玩家。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2290000/extras/06_CN.gif?t=1692317469" /&gt;&lt;br&gt;&lt;br&gt;让自己沉浸在这独特的图形风格和精心设计的风景中。按照自己的节奏，慢慢来，好好欣赏美景。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2290000/extras/07_CN.gif?t=1692317469" /&gt;&lt;br&gt;&lt;br&gt;与你的朋友一起玩刺激的多人游戏！制定你自己的战略，挫败对手。利用战略性的建筑，逐轮建立起你的积分领先优势。</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>2345020</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>Bee Island</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>蜜蜂岛</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>沙盒,模拟,欢乐,单人,物理</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
         <is>
           <t>2023年08月26日</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>&lt;h2 class="bb_tag"&gt;防守&lt;/h2&gt;敌人不时攻击你的蜂巢。 他们投下炸弹、喷洒毒药并发射火箭。 每一次他们都会变得更强。 建造弩炮、机关枪、防空导弹发射器和其他防御设施来保护您的蜂巢&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2345020/extras/GunBee.gif?t=1693503282" /&gt;&lt;h2 class="bb_tag"&gt;研究科技树&lt;/h2&gt;研究新的技术和建筑以应对不断加强的敌人。选择哪些技术将引领你走向胜利？你会以和平结束战争还是毁灭所有敌人?&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2345020/extras/bee_war.gif?t=1693503282" /&gt;&lt;h2 class="bb_tag"&gt;蜜蜂&lt;/h2&gt;女王需要更多的工人和战士。 建造幼儿园和学校来培养新的蜜蜂&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2345020/extras/WarBee.gif?t=1693503282" /&gt;&lt;h2 class="bb_tag"&gt;工厂&lt;/h2&gt;游戏中有 7 种资源，要获得其中一些资源，您需要工厂。 建造蜂窝并在其上放置建筑物&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2345020/extras/Build.gif?t=1693503282" /&gt;&lt;h2 class="bb_tag"&gt;休闲&lt;/h2&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2345020/extras/FountainBee.gif?t=1693503282" /&gt;</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="66">
+      <c r="A66" t="inlineStr">
         <is>
           <t>2522620</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>幸运宝石</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>幸运宝石</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>休闲,农场模拟,城市营造,桌上游戏,棋盘游戏</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
         <is>
           <t>2023年08月22日</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>&lt;h2 class="bb_tag"&gt;&lt;strong&gt;幸运宝石&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;《幸运宝石》是一款创新的休闲游戏，让你在一个美丽的宝石世界中，与各种精灵合作，收获各种颜色和形状的宝石。游戏的玩法简单有趣，却又不乏挑战。你要招募各种精灵，扩建你的宝石领地，采集闪亮的水晶，让精灵们协作收获宝石。但是，宝石的采集并非一帆风顺，你要合理分配资源，同时也要靠运气的眷顾。 这是一款适合所有年龄段和喜好的游戏，它可以让你在闲暇时放松心情，开启你的宝石之旅吧！</t>
         </is>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H245"/>
+  <dimension ref="A1:H246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,7 +585,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/TSC_Core_GIF.gif?t=1694092003" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;YOUR RAILWAY HOBBY&lt;/strong&gt;&lt;br&gt;《经典模拟列车》将你的铁路爱好推上巅峰。学习驾驶官方授权的经典机车，行驶于世界各地细节详尽、与现实一致的铁路线上。这里是开启虚拟列车收藏之路的绝佳平台，所有铁道迷都能在这里找到属于他们自己的一片天地。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/Pegnitz_GIF.gif?t=1694092003" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;佩格尼茨山谷铁路&lt;/strong&gt;&lt;br&gt;巴伐利亚风景如画的乡村等你来探索！沿着德国非电气化铁路蜿蜒前行，沉醉于沿途森林山丘的景色，一切尽在《佩格尼茨山谷铁路：纽伦堡—拜罗伊特》。掌握德铁 612 型动车组独特的操控技巧，克服过弯带来的倾摆挑战，行驶于这条全长 93 千米的线路上。同时还有德铁摆式内燃 605 型城际快车（ICE-TD）、德铁 648 型等动车组，以及 19 个真实的车站等你来探索。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/Huddersfield_GIF.gif?t=1694092003" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;哈德斯菲尔德线&lt;/strong&gt;&lt;br&gt;在曼彻斯特维多利亚站和利兹站之间，铺设有一条全长 43 英里的哈德斯菲尔德线。这条线路是该地区最繁忙的线路之一，提供了横跨英格兰北部的本地和长途客运服务。驾驶 20 世纪 90 年代英国铁路私有化时代的列车，包括英铁 158 型动车组、142 型“步行者”动车组、47/8 型机车等，在这条线路上翻山越岭、跨过高架桥，穿过数条隧道。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/LIRR_GIF.gif?t=1694092003" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;长岛铁路&lt;/strong&gt;&lt;br&gt;美国最有历史意义和最具传奇色彩的通勤铁路——长岛铁路现已亮相，对细节处的不断打磨为这条线路带来了无与伦比的真实性。搭乘庞巴迪制造的 M7 型电力动车组，探索纽约市的三个标志性车站——位于曼哈顿的宾夕法尼亚车站、布鲁克林的大西洋总站和长岛市车站。&lt;br&gt;&lt;br&gt;&lt;strong&gt;学习&lt;/strong&gt;&lt;br&gt;走进模拟列车学园，踏上作为一名模拟列车司机的征途。无论是电力机车、内燃机车还是蒸汽机车，你都有机会学习驾驶这些享誉世界的优秀列车。&lt;br&gt;&lt;br&gt;&lt;strong&gt;驾驶&lt;/strong&gt;&lt;br&gt;驾驶多款逼真的机车。你可以从舒适的驾驶室里，通过完美再现真实列车操作的控制面板，掌控全局，包括机车引擎、上下乘客、安全系统和信号系统等等。&lt;br&gt;&lt;br&gt;&lt;strong&gt;收藏&lt;/strong&gt;&lt;br&gt;浏览 Steam 商店中丰富多彩的内容，挑选出心仪的线路、机车和车厢，为自己打造一套梦寐以求的“铁路阵容”吧。在上百件游戏附加内容中，你一定能找到你感兴趣的新内容，扩充自己的铁路收藏库。&lt;br&gt;&lt;br&gt;&lt;strong&gt;创建&lt;/strong&gt;&lt;br&gt;使用功能强大的模拟列车编辑器打造属于你的火车世界。在这里，你可以创造自己构想的铁路线并在 Steam 创意工坊与其他玩家分享；也可以在创意工坊中发布的上千个附加内容中进行挑选，找到你喜欢的那一款。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/TSC_Core_GIF.gif?t=1694178836" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;YOUR RAILWAY HOBBY&lt;/strong&gt;&lt;br&gt;《经典模拟列车》将你的铁路爱好推上巅峰。学习驾驶官方授权的经典机车，行驶于世界各地细节详尽、与现实一致的铁路线上。这里是开启虚拟列车收藏之路的绝佳平台，所有铁道迷都能在这里找到属于他们自己的一片天地。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/Pegnitz_GIF.gif?t=1694178836" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;佩格尼茨山谷铁路&lt;/strong&gt;&lt;br&gt;巴伐利亚风景如画的乡村等你来探索！沿着德国非电气化铁路蜿蜒前行，沉醉于沿途森林山丘的景色，一切尽在《佩格尼茨山谷铁路：纽伦堡—拜罗伊特》。掌握德铁 612 型动车组独特的操控技巧，克服过弯带来的倾摆挑战，行驶于这条全长 93 千米的线路上。同时还有德铁摆式内燃 605 型城际快车（ICE-TD）、德铁 648 型等动车组，以及 19 个真实的车站等你来探索。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/Huddersfield_GIF.gif?t=1694178836" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;哈德斯菲尔德线&lt;/strong&gt;&lt;br&gt;在曼彻斯特维多利亚站和利兹站之间，铺设有一条全长 43 英里的哈德斯菲尔德线。这条线路是该地区最繁忙的线路之一，提供了横跨英格兰北部的本地和长途客运服务。驾驶 20 世纪 90 年代英国铁路私有化时代的列车，包括英铁 158 型动车组、142 型“步行者”动车组、47/8 型机车等，在这条线路上翻山越岭、跨过高架桥，穿过数条隧道。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/LIRR_GIF.gif?t=1694178836" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;长岛铁路&lt;/strong&gt;&lt;br&gt;美国最有历史意义和最具传奇色彩的通勤铁路——长岛铁路现已亮相，对细节处的不断打磨为这条线路带来了无与伦比的真实性。搭乘庞巴迪制造的 M7 型电力动车组，探索纽约市的三个标志性车站——位于曼哈顿的宾夕法尼亚车站、布鲁克林的大西洋总站和长岛市车站。&lt;br&gt;&lt;br&gt;&lt;strong&gt;学习&lt;/strong&gt;&lt;br&gt;走进模拟列车学园，踏上作为一名模拟列车司机的征途。无论是电力机车、内燃机车还是蒸汽机车，你都有机会学习驾驶这些享誉世界的优秀列车。&lt;br&gt;&lt;br&gt;&lt;strong&gt;驾驶&lt;/strong&gt;&lt;br&gt;驾驶多款逼真的机车。你可以从舒适的驾驶室里，通过完美再现真实列车操作的控制面板，掌控全局，包括机车引擎、上下乘客、安全系统和信号系统等等。&lt;br&gt;&lt;br&gt;&lt;strong&gt;收藏&lt;/strong&gt;&lt;br&gt;浏览 Steam 商店中丰富多彩的内容，挑选出心仪的线路、机车和车厢，为自己打造一套梦寐以求的“铁路阵容”吧。在上百件游戏附加内容中，你一定能找到你感兴趣的新内容，扩充自己的铁路收藏库。&lt;br&gt;&lt;br&gt;&lt;strong&gt;创建&lt;/strong&gt;&lt;br&gt;使用功能强大的模拟列车编辑器打造属于你的火车世界。在这里，你可以创造自己构想的铁路线并在 Steam 创意工坊与其他玩家分享；也可以在创意工坊中发布的上千个附加内容中进行挑选，找到你喜欢的那一款。</t>
         </is>
       </c>
     </row>
@@ -2849,22 +2849,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>881100</t>
+          <t>880940</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Noita</t>
+          <t>Pummel Party</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>巫婆Noita</t>
+          <t>揍击派对</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>物理,困难,类 Rogue,像素图形,迷宫探索</t>
+          <t>多人,欢乐,在线合作,4 人本地,棋盘游戏</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2874,39 +2874,39 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2020年10月16日</t>
+          <t>2018年09月21日</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;《Noita》&lt;/strong&gt;是一个轻度 Rogue-like 的魔法动作游戏，在《Noita》的世界中，每个像素都有物理模拟。您可使用您自己创造的法术，在逐步生成的世界上一路探索、战斗、焚烧、熔毁、冰冻和蒸发，打开自己的前路。探索多样的环境，从煤矿到寒冷废土，深入寻求未知的神秘。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/881100/extras/radioactive-vat.png?t=1675987871" /&gt;&lt;li&gt;&lt;strong&gt;基于像素的物理模拟&lt;/strong&gt;：世界中的每个像素均有模拟。一切皆可燃烧、爆炸或熔毁。沐浴敌人的鲜血！进入拥有前所未有互动性的高度模拟世界。&lt;br&gt;    &lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;您自己的魔法&lt;/strong&gt;：在深入洞穴的同时，创造全新法术。使用魔法摧毁敌人，操纵你身旁的世界。&lt;br&gt;    &lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;逐渐生成的世界&lt;/strong&gt;：每次游玩都会探索独一无二的世界。深入探索，发现全新要素。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/881100/extras/cover-shooter2.png?t=1675987871" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;轻度 Rogue-like 动作&lt;/strong&gt;：死亡不可复生。死亡将始终伴随你，成为你游戏过程中迫在眉睫的威胁。尽管死亡，却也不必绝望：利用所学，在下此探险中走得更远。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;strong&gt;《Noita》&lt;/strong&gt;由 Nolla Games 开发。Nolla Games 是一家由 3 位独立游戏开发者创立的公司。3 名开发者过去均有自己的独立项目。&lt;br&gt;&lt;br&gt;游戏的 3 位负责人分别为：&lt;br&gt;&lt;br&gt;&lt;strong&gt;Petri Purho&lt;/strong&gt;&lt;br&gt;Petri 以《&lt;a href="https://store.steampowered.com/app/26900/Crayon_Physics_Deluxe/" target="_blank" rel=""  &gt;Crayon Physics Deluxe&lt;/a&gt;（蜡笔物理学）》创作人的身份广为人知。在他年轻时，还制作过众多小型免费游戏。除此之外，他也是不少桌面游戏的创造者；不过他没有将细节告诉任何人。-- 所以还是保密吧。&lt;br&gt;&lt;br&gt;&lt;strong&gt;Olli Harjola&lt;/strong&gt;&lt;br&gt;Olli 以斩获大奖的离奇科幻解谜游戏&lt;a href="https://store.steampowered.com/app/231160/The_Swapper/" target="_blank" rel=""  &gt;《The Swapper（交换者）》&lt;/a&gt;闻名。除独立游戏之外，音乐、现场视觉和编程语言，他也有所涉猎。&lt;br&gt;&lt;br&gt;&lt;strong&gt;Arvi Teikari&lt;/strong&gt;&lt;br&gt;Arvi，以 Hempuli 的名字广为人知。多年来，他曾发布有众多小型实验性游戏；由于为数实在众多，他甚至无法全部记得 。其中，他能回忆起是自己创作的游戏之一便是《&lt;a href="https://store.steampowered.com/app/736260/Baba_Is_You/" target="_blank" rel=""  &gt;Baba Is You&lt;/a&gt;（巴巴是你）》。</t>
+          <t>&lt;strong&gt;《Pummel Party》是一款支持 4-8 位玩家的在线和本地多人派对游戏。Pummel 好友或 AI 可以在图板模式下使用各种各样荒唐爆笑的物品，在独特的迷你游戏合集中相互竞争，摧毁友谊。&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;在线和本地多人游戏&lt;/h2&gt;随心所欲地游戏。《Pummel Party》允许 1 到 8 位玩家彼此竞争，既可以在线也可以在本地的同一块屏幕上。无论是在线还是当面，这款游戏都充满了友尽的乐趣。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/880940/extras/TemporalTrails.png?t=1670489597" /&gt;&lt;h2 class="bb_tag"&gt;图板模式&lt;/h2&gt;只能有一个赢家，你知道非你莫属！战斗通过危险的地形，获取和使用大量武器和物品，以确保战胜你的好友。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/880940/extras/TrailerSnippet.png?t=1670489597" /&gt;&lt;h2 class="bb_tag"&gt;物品&lt;/h2&gt;战争已经打响！使用一系列荒唐的武器和物品来夺取胜利。从简单的“拳套”到爆笑的“遥控茄子”，《Pummel Party》中的物品会带来许多搞笑和愤怒的时刻。要粉碎你朋友赢得胜利的愿望，从未如此简单、让人满意。&lt;h2 class="bb_tag"&gt;迷你游戏&lt;/h2&gt;从简单的怀旧乐趣到独特而先进的《Pummel Party》，它包含许多激动人心的迷你游戏。在“雪山旋转”中，将你的好友打下深渊，在“沙里淘金”中进行三维挖掘以首先找到宝藏，并确保在“击鼓传弹”中当炸弹传到你手中时没有爆炸。&lt;h2 class="bb_tag"&gt;迷你游戏模式&lt;/h2&gt;只想立即开玩？《Pummel Party》包含迷你游戏模式，让你可以直接开始游戏！&lt;h2 class="bb_tag"&gt;机器人&lt;/h2&gt;你和好友已经友尽，还是队伍中缺人？《Pummel Party》集成了完整的机器人功能，你仍然可以跟任意数量的真实玩家一起游玩或练习。</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>892970</t>
+          <t>881100</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Valheim</t>
+          <t>Noita</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>英灵神殿</t>
+          <t>巫婆Noita</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>开放世界生存制作,生存,在线合作,开放世界,多人</t>
+          <t>物理,困难,类 Rogue,像素图形,迷宫探索</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2916,39 +2916,39 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2021年02月02日</t>
+          <t>2020年10月16日</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>你是一名战死的英灵战士，女武神们把你的灵魂摆渡到了英灵神殿，北境第十大神界。而你却被一些混沌之物和古老的众神之敌困在了这里，你是这个原始炼狱最新的守护者，而你的任务就是诛杀奥丁旧时的敌人，给英灵神殿带来应有的秩序。&lt;br&gt;&lt;br&gt;对你的考验会在较为和平的英灵神殿中心开始，但是众神只会庇佑和奖励勇敢的人。去雄伟壮阔的森林，白雪皑皑的山脉探险吧，探索并获取更有价值的资源以制作更危险的武器，更坚固的盔甲，修建维京要塞和哨站。你还可以打造一艘无敌的维京长船并且开始在无尽之海的航行以便寻找异域的领地……注意：不要偏离航线太远…&lt;br&gt;&lt;br&gt;&lt;strong&gt;主要特点：&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;庞大的程序生成的开放世界 - 探索并生存在这片神秘的土地，从诡秘的森林到壮阔的雪山和美丽的草原，有独特的传奇物种可以战斗也有各种野生动物可以狩猎。&lt;br&gt;&lt;/li&gt;&lt;li&gt;多人合作（2-10人） -  你既可以单独探索也可以和你信任的盟友一起冒险，英灵神殿支持无限制创建独立的玩家托管服务器。建议合作人数：3-5人&lt;br&gt;&lt;/li&gt;&lt;li&gt;拥有数样繁多的武器并基于惩戒闪避和格挡的战斗系统。&lt;br&gt;&lt;/li&gt;&lt;li&gt;建造&amp;amp;航行船只 - 从脆弱的木筏到雄伟的军舰，建造史诗级的轮船以征服海洋并发现新的土地。&lt;br&gt;&lt;/li&gt;&lt;li&gt;召唤并打败神话和传说中的邪恶的的原始邪灵，并获得战利品以得到进化，从而以制作更新更强大的物品。&lt;br&gt;&lt;/li&gt;&lt;li&gt;机动性的房屋修建系统 - 可以修建大殿，农场，居所，哨站，城堡等等。&lt;br&gt;&lt;/li&gt;&lt;li&gt;直观的物品制作 - 打造最好的武器和盔甲，烹饪食物和蜜酒。&lt;br&gt;&lt;/li&gt;&lt;li&gt;本地专属服务器 - 适用于想要长期运行服务器的玩家。&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;strong&gt;《Noita》&lt;/strong&gt;是一个轻度 Rogue-like 的魔法动作游戏，在《Noita》的世界中，每个像素都有物理模拟。您可使用您自己创造的法术，在逐步生成的世界上一路探索、战斗、焚烧、熔毁、冰冻和蒸发，打开自己的前路。探索多样的环境，从煤矿到寒冷废土，深入寻求未知的神秘。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/881100/extras/radioactive-vat.png?t=1675987871" /&gt;&lt;li&gt;&lt;strong&gt;基于像素的物理模拟&lt;/strong&gt;：世界中的每个像素均有模拟。一切皆可燃烧、爆炸或熔毁。沐浴敌人的鲜血！进入拥有前所未有互动性的高度模拟世界。&lt;br&gt;    &lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;您自己的魔法&lt;/strong&gt;：在深入洞穴的同时，创造全新法术。使用魔法摧毁敌人，操纵你身旁的世界。&lt;br&gt;    &lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;逐渐生成的世界&lt;/strong&gt;：每次游玩都会探索独一无二的世界。深入探索，发现全新要素。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/881100/extras/cover-shooter2.png?t=1675987871" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;轻度 Rogue-like 动作&lt;/strong&gt;：死亡不可复生。死亡将始终伴随你，成为你游戏过程中迫在眉睫的威胁。尽管死亡，却也不必绝望：利用所学，在下此探险中走得更远。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;strong&gt;《Noita》&lt;/strong&gt;由 Nolla Games 开发。Nolla Games 是一家由 3 位独立游戏开发者创立的公司。3 名开发者过去均有自己的独立项目。&lt;br&gt;&lt;br&gt;游戏的 3 位负责人分别为：&lt;br&gt;&lt;br&gt;&lt;strong&gt;Petri Purho&lt;/strong&gt;&lt;br&gt;Petri 以《&lt;a href="https://store.steampowered.com/app/26900/Crayon_Physics_Deluxe/" target="_blank" rel=""  &gt;Crayon Physics Deluxe&lt;/a&gt;（蜡笔物理学）》创作人的身份广为人知。在他年轻时，还制作过众多小型免费游戏。除此之外，他也是不少桌面游戏的创造者；不过他没有将细节告诉任何人。-- 所以还是保密吧。&lt;br&gt;&lt;br&gt;&lt;strong&gt;Olli Harjola&lt;/strong&gt;&lt;br&gt;Olli 以斩获大奖的离奇科幻解谜游戏&lt;a href="https://store.steampowered.com/app/231160/The_Swapper/" target="_blank" rel=""  &gt;《The Swapper（交换者）》&lt;/a&gt;闻名。除独立游戏之外，音乐、现场视觉和编程语言，他也有所涉猎。&lt;br&gt;&lt;br&gt;&lt;strong&gt;Arvi Teikari&lt;/strong&gt;&lt;br&gt;Arvi，以 Hempuli 的名字广为人知。多年来，他曾发布有众多小型实验性游戏；由于为数实在众多，他甚至无法全部记得 。其中，他能回忆起是自己创作的游戏之一便是《&lt;a href="https://store.steampowered.com/app/736260/Baba_Is_You/" target="_blank" rel=""  &gt;Baba Is You&lt;/a&gt;（巴巴是你）》。</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>910880</t>
+          <t>892970</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Mad Tower Tycoon</t>
+          <t>Valheim</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>疯狂塔楼大亨</t>
+          <t>英灵神殿</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>模拟,策略,管理,建造,城市营造</t>
+          <t>开放世界生存制作,生存,在线合作,开放世界,多人</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2956,36 +2956,41 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2020年01月14日</t>
+          <t>2021年02月02日</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;BUILD YOUR OWN DREAM SKYSCRAPER&lt;/strong&gt;&lt;br&gt;&lt;br&gt;In &amp;quot;Mad Tower Tycoon&amp;quot; you can build your own skyscraper with more than 100 floors.&lt;br&gt;The classic construction gameplay leaves you all the freedom.&lt;br&gt;Rent offices, apartments or shops and build a financially lucrative skyscraper.&lt;br&gt;Build restaurants, cinemas, zoos or underground garages to satisfy your visitors.&lt;br&gt;There are countless ways to get the coveted &amp;quot;six-star award&amp;quot; for your skyscraper.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;REALISTIC ELEVATORS&lt;/strong&gt;&lt;br&gt;The waiting time should be increased? It should be avoided some floors?&lt;br&gt;No problem: the elevator system in &amp;quot;Mad Tower Tycoon&amp;quot; allows you different settings.&lt;br&gt;Avoid your visitors having to climb too many stairs or wait too long for the elevator.&lt;br&gt;&lt;br&gt;&lt;strong&gt;RANDOM EVENTS&lt;/strong&gt;&lt;br&gt;Not only dissatisfied tenants are causing you trouble.&lt;br&gt;A fire in the new office, an earthquake shakes your skyscraper or UFOs kidnap your tenants.&lt;br&gt;Different events provide variety and excitement.&lt;br&gt;&lt;br&gt;&lt;strong&gt;LEVEL SYSTEM&lt;/strong&gt;&lt;br&gt;Complete daily missions and have good statistics to gain experience.&lt;br&gt;Earn skill points and unlock more than 50 skills.&lt;br&gt;&lt;br&gt;&lt;strong&gt;DETAILED STATISTICS&lt;/strong&gt;&lt;br&gt;You want to see which floors are dirty or where the noise is unbearable?&lt;br&gt;How many visitors came in the last 24 hours? Have I made a higher profit in the last 30 days?&lt;br&gt;The statistics and filters in &amp;quot;Mad Tower Tycoon&amp;quot; will give you a lot of information about the state of your skyscraper.</t>
+          <t>你是一名战死的英灵战士，女武神们把你的灵魂摆渡到了英灵神殿，北境第十大神界。而你却被一些混沌之物和古老的众神之敌困在了这里，你是这个原始炼狱最新的守护者，而你的任务就是诛杀奥丁旧时的敌人，给英灵神殿带来应有的秩序。&lt;br&gt;&lt;br&gt;对你的考验会在较为和平的英灵神殿中心开始，但是众神只会庇佑和奖励勇敢的人。去雄伟壮阔的森林，白雪皑皑的山脉探险吧，探索并获取更有价值的资源以制作更危险的武器，更坚固的盔甲，修建维京要塞和哨站。你还可以打造一艘无敌的维京长船并且开始在无尽之海的航行以便寻找异域的领地……注意：不要偏离航线太远…&lt;br&gt;&lt;br&gt;&lt;strong&gt;主要特点：&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;庞大的程序生成的开放世界 - 探索并生存在这片神秘的土地，从诡秘的森林到壮阔的雪山和美丽的草原，有独特的传奇物种可以战斗也有各种野生动物可以狩猎。&lt;br&gt;&lt;/li&gt;&lt;li&gt;多人合作（2-10人） -  你既可以单独探索也可以和你信任的盟友一起冒险，英灵神殿支持无限制创建独立的玩家托管服务器。建议合作人数：3-5人&lt;br&gt;&lt;/li&gt;&lt;li&gt;拥有数样繁多的武器并基于惩戒闪避和格挡的战斗系统。&lt;br&gt;&lt;/li&gt;&lt;li&gt;建造&amp;amp;航行船只 - 从脆弱的木筏到雄伟的军舰，建造史诗级的轮船以征服海洋并发现新的土地。&lt;br&gt;&lt;/li&gt;&lt;li&gt;召唤并打败神话和传说中的邪恶的的原始邪灵，并获得战利品以得到进化，从而以制作更新更强大的物品。&lt;br&gt;&lt;/li&gt;&lt;li&gt;机动性的房屋修建系统 - 可以修建大殿，农场，居所，哨站，城堡等等。&lt;br&gt;&lt;/li&gt;&lt;li&gt;直观的物品制作 - 打造最好的武器和盔甲，烹饪食物和蜜酒。&lt;br&gt;&lt;/li&gt;&lt;li&gt;本地专属服务器 - 适用于想要长期运行服务器的玩家。&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>921570</t>
+          <t>910880</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>OCTOPATH TRAVELER</t>
+          <t>Mad Tower Tycoon</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>岐路旅人</t>
+          <t>疯狂塔楼大亨</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>角色扮演,日系角色扮演,像素图形,回合制,剧情丰富</t>
+          <t>模拟,策略,管理,建造,城市营造</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2993,41 +2998,36 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
-      </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2019年06月08日</t>
+          <t>2020年01月14日</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>&lt;a href="https://store.steampowered.com/app/1971650/OCTOPATH_TRAVELER_II/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1971650/OCTOPATH_TRAVELER_II/&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/921570/extras/FRIGATE_Steam_gif.gif?t=1688650598" /&gt;&lt;br&gt;屡获殊荣的RPG游戏推出PC版！&lt;br&gt;&lt;br&gt;八位旅行者的八次冒险之旅。化身为八个角色之一，踏上史诗般的旅程，穿越广阔而神奇的奥鲁斯特拉大陆，探索八位旅行者各自迷人的故事。&lt;br&gt;&lt;br&gt;- 可扮演八个不同的角色，每一个角色都有各自的故事和要完成的支线任务&lt;br&gt;- 探索迷人但危险的奥鲁斯特拉大陆，跨越8片广阔的区域，并随着旅程的展开，揭开每个角色的完整故事&lt;br&gt;- 使用每个角色的独特能力（地图指令）、技能和属性展开疯狂的战斗&lt;br&gt;- 享受易上手但深度的回合式对战系统，并可通过识别和瞄准敌人的弱点来突破他们的防线&lt;br&gt;- 可采取不同方式完成支线任务和故事场景，并做出将塑造角色人生道路的决定&lt;br&gt;- 体验受启于复古2D RPG游戏的视觉效果，欣赏美不胜收的写实元素打造出来的 3D 世界</t>
+          <t>&lt;strong&gt;BUILD YOUR OWN DREAM SKYSCRAPER&lt;/strong&gt;&lt;br&gt;&lt;br&gt;In &amp;quot;Mad Tower Tycoon&amp;quot; you can build your own skyscraper with more than 100 floors.&lt;br&gt;The classic construction gameplay leaves you all the freedom.&lt;br&gt;Rent offices, apartments or shops and build a financially lucrative skyscraper.&lt;br&gt;Build restaurants, cinemas, zoos or underground garages to satisfy your visitors.&lt;br&gt;There are countless ways to get the coveted &amp;quot;six-star award&amp;quot; for your skyscraper.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;REALISTIC ELEVATORS&lt;/strong&gt;&lt;br&gt;The waiting time should be increased? It should be avoided some floors?&lt;br&gt;No problem: the elevator system in &amp;quot;Mad Tower Tycoon&amp;quot; allows you different settings.&lt;br&gt;Avoid your visitors having to climb too many stairs or wait too long for the elevator.&lt;br&gt;&lt;br&gt;&lt;strong&gt;RANDOM EVENTS&lt;/strong&gt;&lt;br&gt;Not only dissatisfied tenants are causing you trouble.&lt;br&gt;A fire in the new office, an earthquake shakes your skyscraper or UFOs kidnap your tenants.&lt;br&gt;Different events provide variety and excitement.&lt;br&gt;&lt;br&gt;&lt;strong&gt;LEVEL SYSTEM&lt;/strong&gt;&lt;br&gt;Complete daily missions and have good statistics to gain experience.&lt;br&gt;Earn skill points and unlock more than 50 skills.&lt;br&gt;&lt;br&gt;&lt;strong&gt;DETAILED STATISTICS&lt;/strong&gt;&lt;br&gt;You want to see which floors are dirty or where the noise is unbearable?&lt;br&gt;How many visitors came in the last 24 hours? Have I made a higher profit in the last 30 days?&lt;br&gt;The statistics and filters in &amp;quot;Mad Tower Tycoon&amp;quot; will give you a lot of information about the state of your skyscraper.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>930230</t>
+          <t>921570</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>King under the Mountain</t>
+          <t>OCTOPATH TRAVELER</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>King under the Mountain</t>
+          <t>岐路旅人</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>抢先体验,殖民模拟,基地建设,城市营造,管理</t>
+          <t>角色扮演,日系角色扮演,像素图形,回合制,剧情丰富</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3035,50 +3035,41 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2021年11月24日</t>
+          <t>2019年06月08日</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>请注意，游戏处于抢先体验阶段，你所期待的内容会在后续陆续推出（详见路线图），同时也会遇到各种错误。游戏的开发仍需要较长的时间，如果目前的内容已经能让你感到满意，欢迎购买。我们会根据你们的反馈塑造游戏的开发方向（欢迎加入我们的Discord频道，也欢迎通过评论留下你们的意见和建议）。&lt;br /&gt;
-&lt;br /&gt;
-游戏的主要特色如下：&lt;br /&gt;
-&lt;br /&gt;
-模拟世界 — 游戏中的系统环环相扣，营造了一个生动的世界。当昼夜变换时，日照和降雨会影响树木和植物的生长。不同的环境和季节的变更也会影响本土的动植物群落。你的居民及其他角色拥有各自的心理和生理需求，而你需要满足要求让他们开心（至少不能让他们精神崩溃，陷入疯狂！）&lt;br /&gt;
-&lt;br /&gt;
-程序生成 — 每张地图都从初始种子（大量）随机生成，因此只要不选择相同的地图种子，就不会出现相同的地图！游戏中的美术资源都通过这种方式创造，从而获得接近无限的颜色。每棵树、每株植物和每个角色都会拥有独特的颜色和外观组合。&lt;br /&gt;
-&lt;br /&gt;
-和平扩张 — 让玩家不与其他阵营发生武装冲突是非常重要的设计理念。武器和战斗固然是游戏的重要元素，但我们希望玩家能够和平地建造自己的小镇，然后心满意足、悠然自如地欣赏它的运转，达成“艺术农场”的游玩风格。&lt;br /&gt;
-&lt;br /&gt;
-多种游玩方式 — 除了殖民地不同的搭建和养成方式（专注采矿？农耕？制作？经商？），你还能尝试不同的种族和阵营，体验独特的游戏元素。你可以在深山中建造矮人要塞，在河畔建造人类城镇，或者用兽人部落狩猎和掠夺。除了种族外，我们还想引入新颖的阵营增添游玩风格，比如孤独的魔法师操纵魔像建造秘密巢穴，邪恶的亡灵法师召唤亡者大军，在巨大洞窟内囤积财宝的巨龙，或者甚至侵袭世界的恶魔。请注意，在当前版本中，仅可使用矮人族。&lt;br /&gt;
-&lt;br /&gt;
-玩家驱动 — 花了数小时在游戏中建造的奇思妙想最后只能自己欣赏？你是否遇到过这样的情况呢？在King under the Mountain中，玩家可自行选择是否自动上传殖民地供其他玩家拜访。这驱动了冒险模式的核心，从殖民地集结强大的小队，然后前往别人创造的世界探险。此模式采用回合策略战斗，既可以挑战其他玩家的城堡，也可以获得其他途径难以获得的珍稀资源，无须担心，在这种模式下，双方都不会遭受损失，你“攻击”的只是其他玩家殖民地的复刻品，因而其实双方都能从中获益。请注意，冒险模式尚未实装，会随着开发陆续推出。&lt;br /&gt;
-&lt;br /&gt;
-适合MOD — 你在游戏中所有看到的内容（包括其背后的变量）都可以进行修改。事实上，基础游戏的开发旨在打造成自带MOD的引擎（这样MOD制作者就能一目了然的查看其原理）。</t>
+          <t>&lt;a href="https://store.steampowered.com/app/1971650/OCTOPATH_TRAVELER_II/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1971650/OCTOPATH_TRAVELER_II/&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/921570/extras/FRIGATE_Steam_gif.gif?t=1688650598" /&gt;&lt;br&gt;屡获殊荣的RPG游戏推出PC版！&lt;br&gt;&lt;br&gt;八位旅行者的八次冒险之旅。化身为八个角色之一，踏上史诗般的旅程，穿越广阔而神奇的奥鲁斯特拉大陆，探索八位旅行者各自迷人的故事。&lt;br&gt;&lt;br&gt;- 可扮演八个不同的角色，每一个角色都有各自的故事和要完成的支线任务&lt;br&gt;- 探索迷人但危险的奥鲁斯特拉大陆，跨越8片广阔的区域，并随着旅程的展开，揭开每个角色的完整故事&lt;br&gt;- 使用每个角色的独特能力（地图指令）、技能和属性展开疯狂的战斗&lt;br&gt;- 享受易上手但深度的回合式对战系统，并可通过识别和瞄准敌人的弱点来突破他们的防线&lt;br&gt;- 可采取不同方式完成支线任务和故事场景，并做出将塑造角色人生道路的决定&lt;br&gt;- 体验受启于复古2D RPG游戏的视觉效果，欣赏美不胜收的写实元素打造出来的 3D 世界</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>939400</t>
+          <t>930230</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>LoveChoice 拣爱</t>
+          <t>King under the Mountain</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>拣爱</t>
+          <t>King under the Mountain</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>爱情,恋爱模拟,选择取向,剧情丰富,好评原声音轨</t>
+          <t>抢先体验,殖民模拟,基地建设,城市营造,管理</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3086,41 +3077,50 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>9.3</t>
-        </is>
-      </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2018年9月30日</t>
+          <t>2021年11月24日</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>《拣爱》是一款以日式AVG选择玩法为核心的游戏。拣，有选择之意。我们在设计的时候十分在意让每一个场景，每一个选择都合理而有其自己的意义。力求让玩家能够在该游戏中做出有意义，且真正能影响结局的选择。&lt;br&gt;&lt;br&gt;《拣爱》是一款谈论爱的游戏。比起是否好玩，我们更在意一款游戏是否有意思。希望通过我们设计的游戏和故事，玩家能够感受爱，学会爱他人和爱人的方法。希望通过游玩这个游戏，你能够有所感悟，有所得着。&lt;h2 class="bb_tag"&gt;游戏特点:&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;富有深意的多结局故事&lt;br&gt;&lt;/li&gt;&lt;li&gt;可爱的美术风格&lt;br&gt;&lt;/li&gt;&lt;li&gt;17首动听的原创音乐&lt;br&gt;&lt;/li&gt;&lt;li&gt;46张可供收集的精美插画壁纸&lt;br&gt;&lt;/li&gt;&lt;li&gt;我们相信这游戏一定能够给你惊喜&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;开发团队&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;EC&lt;/li&gt;&lt;/ul&gt;主美术，同时参与部分设计的工作&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;招阳星&lt;/li&gt;&lt;/ul&gt;美术，主要提供了部分结局的插画&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;linglu&lt;/li&gt;&lt;/ul&gt;美术，主要负责第三个故事的美术工作&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;MIDIPanda&lt;/li&gt;&lt;/ul&gt;音乐，提供几乎所有背景音乐&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;亚恒&lt;/li&gt;&lt;/ul&gt;我，负责除了上述以外的所有事情。包括这段文字，也是我写的(￣▽￣)&lt;h2 class="bb_tag"&gt;Q群&amp;amp;贴吧&lt;/h2&gt;&lt;strong&gt;工作室Q群：&lt;/strong&gt;604415868&lt;br&gt;&lt;strong&gt;贴吧：&lt;/strong&gt;拣爱吧</t>
+          <t>请注意，游戏处于抢先体验阶段，你所期待的内容会在后续陆续推出（详见路线图），同时也会遇到各种错误。游戏的开发仍需要较长的时间，如果目前的内容已经能让你感到满意，欢迎购买。我们会根据你们的反馈塑造游戏的开发方向（欢迎加入我们的Discord频道，也欢迎通过评论留下你们的意见和建议）。&lt;br /&gt;
+&lt;br /&gt;
+游戏的主要特色如下：&lt;br /&gt;
+&lt;br /&gt;
+模拟世界 — 游戏中的系统环环相扣，营造了一个生动的世界。当昼夜变换时，日照和降雨会影响树木和植物的生长。不同的环境和季节的变更也会影响本土的动植物群落。你的居民及其他角色拥有各自的心理和生理需求，而你需要满足要求让他们开心（至少不能让他们精神崩溃，陷入疯狂！）&lt;br /&gt;
+&lt;br /&gt;
+程序生成 — 每张地图都从初始种子（大量）随机生成，因此只要不选择相同的地图种子，就不会出现相同的地图！游戏中的美术资源都通过这种方式创造，从而获得接近无限的颜色。每棵树、每株植物和每个角色都会拥有独特的颜色和外观组合。&lt;br /&gt;
+&lt;br /&gt;
+和平扩张 — 让玩家不与其他阵营发生武装冲突是非常重要的设计理念。武器和战斗固然是游戏的重要元素，但我们希望玩家能够和平地建造自己的小镇，然后心满意足、悠然自如地欣赏它的运转，达成“艺术农场”的游玩风格。&lt;br /&gt;
+&lt;br /&gt;
+多种游玩方式 — 除了殖民地不同的搭建和养成方式（专注采矿？农耕？制作？经商？），你还能尝试不同的种族和阵营，体验独特的游戏元素。你可以在深山中建造矮人要塞，在河畔建造人类城镇，或者用兽人部落狩猎和掠夺。除了种族外，我们还想引入新颖的阵营增添游玩风格，比如孤独的魔法师操纵魔像建造秘密巢穴，邪恶的亡灵法师召唤亡者大军，在巨大洞窟内囤积财宝的巨龙，或者甚至侵袭世界的恶魔。请注意，在当前版本中，仅可使用矮人族。&lt;br /&gt;
+&lt;br /&gt;
+玩家驱动 — 花了数小时在游戏中建造的奇思妙想最后只能自己欣赏？你是否遇到过这样的情况呢？在King under the Mountain中，玩家可自行选择是否自动上传殖民地供其他玩家拜访。这驱动了冒险模式的核心，从殖民地集结强大的小队，然后前往别人创造的世界探险。此模式采用回合策略战斗，既可以挑战其他玩家的城堡，也可以获得其他途径难以获得的珍稀资源，无须担心，在这种模式下，双方都不会遭受损失，你“攻击”的只是其他玩家殖民地的复刻品，因而其实双方都能从中获益。请注意，冒险模式尚未实装，会随着开发陆续推出。&lt;br /&gt;
+&lt;br /&gt;
+适合MOD — 你在游戏中所有看到的内容（包括其背后的变量）都可以进行修改。事实上，基础游戏的开发旨在打造成自带MOD的引擎（这样MOD制作者就能一目了然的查看其原理）。</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>957960</t>
+          <t>939400</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Inkulinati</t>
+          <t>LoveChoice 拣爱</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Inkulinati 神笔谈兵</t>
+          <t>拣爱</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>抢先体验,回合战略,中世纪,回合制战术,轻度 Rogue</t>
+          <t>爱情,恋爱模拟,选择取向,剧情丰富,好评原声音轨</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3128,36 +3128,41 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2023年02月01日</t>
+          <t>2018年9月30日</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;关于本游戏&lt;/h2&gt;&lt;br&gt;&lt;strong&gt;《神笔谈兵》&lt;/strong&gt;是一款回合制策略游戏，灵感来自中世纪的手稿。画出你的墨兽大军，泼洒敌人的墨水，击败中世纪的超级巨星，并收集技艺点以释放隐藏的力量。成为使用羽毛笔的宗师并不容易，所以务必集中注意力，并明智地计划每一步行动。踏上你的旅程，成为有史以来最伟大的墨法师！&lt;h2 class="bb_tag"&gt;具有挑战性的回合制策略游戏&lt;/h2&gt;不要被外表欺骗。《神笔谈兵》是一款充满细微变化和烧脑挑战的游戏，即使是最顽强的战略家也会经受考验。每一位身经百战的墨法将军都知道，一切都要从你的作战单位开始，我们称之为墨兽。有许多凶悍（又古怪）的&lt;strong&gt;墨兽&lt;/strong&gt;可供解锁。它们都有各自的特殊技能，以及能产生不同效果的职业特定能力。当这些墨兽齐心协力时，一曲毁灭、死亡的交响乐将会持续奏响，直到真正的末日。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/957960/extras/BEASTS_v2.gif?t=1693244644" /&gt;&lt;br&gt;&lt;br&gt;不是只有墨兽才能造成破坏、带来伤害。有一些别具一格、力挽狂澜的行动是由&lt;strong&gt;墨法宗师&lt;/strong&gt;本人执行的——比如你自己！使用你独特的亲手动作碾压对手的单位，绘制障碍物竖起屏障，动动指尖调整己方站位，或者让单位自爆，制造特别、特别纯粹的混乱。不过切记——你的对手也同样能做到。为了增加趣味性，每位墨法宗师还可以拥有自己的一套技艺，有助于赢得战斗。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/957960/extras/HANDS_v2.gif?t=1693244644" /&gt;&lt;br&gt;&lt;br&gt;但等等，还有呢。你需要根据每场战斗调整战术。每一个战场都不尽相同，各有各的危机，要小心谨慎；也各有各的机会，请适时把握。留意散落在&lt;strong&gt;战场&lt;/strong&gt;各处的物品，如会爆炸的一锅煮豆子、移动的深渊之口、祝福之云，并利用它们发挥你的优势。&lt;br&gt;&lt;br&gt;就在你自以为已经掌握了战斗的主动权时，一个&lt;strong&gt;天启事件&lt;/strong&gt;可能会颠覆你的所有计划。我们谈论的是火灾、瘟疫和告死之印本身。然而，当所有的希望都破灭，你陷入绝境之时，一场天启也许正是你所需要的，它可以扭转局势，对你有利。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/957960/extras/BATTLEFIELDS_v2.gif?t=1693244644" /&gt;&lt;br&gt;&lt;br&gt;根据你的聪明才智和技巧，有不同的难度可供选择，因此就算是初出茅庐，也能在适当的时候成为墨法宗师。对于想要了解其中奥秘的人，可以在我们的&lt;strong&gt;学院模式&lt;/strong&gt;中学习如何掌握这一切，我们会一步一步地教你赢得每场战斗的所有细微差别。&lt;h2 class="bb_tag"&gt;总是与众不同的单人战役&lt;/h2&gt;揭开墨法师的传说和秘密，直面希尔忒嘉德、但丁·阿利吉耶里等对手。去往外面的世界，开始你的冒险吧！在这片土地挑战头号墨法宗师，驯服未被驯服的墨兽，打造你的终极部队，从死神手中救回你的宗师，最重要的是，完成中世纪最大组织的伟大使命！&lt;br&gt;&lt;br&gt;最好的冒险是属于你自己的冒险。在旅途模式中，你将创建并培养你自己的角色。正如所有鼓舞人心的墨法宗师，你也要创建你自己的墨法师角色。在旅途中，你将学会绘制新墨兽及使用墨法师亲手动作的秘技，这样一来，你就可以自己选择带谁上场。你可以是一个无所畏惧的勇敢骑士，也可以是一个用祈祷之力迷惑敌人、治疗己方兵士的修女。各种战斗风格和更多内容，有待你自己去发现和创造。尽情展现自我吧！&lt;br&gt;&lt;br&gt;在旅程中，你不仅会与其他墨法宗师战斗。你还要面对桀骜不驯的墨兽、攻打墨兽巢穴、结识吟游诗人和会说话的鹅等有趣的角色、访问商店和抄写室等许多遭遇。真是一场精彩的冒险！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/957960/extras/CAMPAIGN_MAP_v2.gif?t=1693244644" /&gt;&lt;h2 class="bb_tag"&gt;与朋友或敌人决战的本地玩家对战模式&lt;/h2&gt;《神笔谈兵》带你穿越回到本地对战模式的黄金时代。面对你的朋友、家人或敌人，决出谁是家里最厉害的墨法宗师！&lt;br&gt;&lt;br&gt;选择你的军队、技艺、墨法宗师、战场以及其他标准和选项，面对一场将会留名青史的战斗。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/957960/extras/DUELS.gif?t=1693244644" /&gt;&lt;h2 class="bb_tag"&gt;灵感来自于现实世界里中世纪书籍的旁注&lt;/h2&gt;这些古怪的画作历经 700 年漫长的制作，终于在电子游戏里获得了生命，向我们展示中世纪的人也有所谓“表情包”，他们也如今天的我们，会为同样的蠢事发笑。你会遇到舞着剑的兔子、装备长矛的狗、不用嘴吹的小号、食人蜗牛，以及更多内容。真的非常，非常多……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/957960/extras/DECK.gif?t=1693244644" /&gt;</t>
+          <t>《拣爱》是一款以日式AVG选择玩法为核心的游戏。拣，有选择之意。我们在设计的时候十分在意让每一个场景，每一个选择都合理而有其自己的意义。力求让玩家能够在该游戏中做出有意义，且真正能影响结局的选择。&lt;br&gt;&lt;br&gt;《拣爱》是一款谈论爱的游戏。比起是否好玩，我们更在意一款游戏是否有意思。希望通过我们设计的游戏和故事，玩家能够感受爱，学会爱他人和爱人的方法。希望通过游玩这个游戏，你能够有所感悟，有所得着。&lt;h2 class="bb_tag"&gt;游戏特点:&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;富有深意的多结局故事&lt;br&gt;&lt;/li&gt;&lt;li&gt;可爱的美术风格&lt;br&gt;&lt;/li&gt;&lt;li&gt;17首动听的原创音乐&lt;br&gt;&lt;/li&gt;&lt;li&gt;46张可供收集的精美插画壁纸&lt;br&gt;&lt;/li&gt;&lt;li&gt;我们相信这游戏一定能够给你惊喜&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;开发团队&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;EC&lt;/li&gt;&lt;/ul&gt;主美术，同时参与部分设计的工作&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;招阳星&lt;/li&gt;&lt;/ul&gt;美术，主要提供了部分结局的插画&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;linglu&lt;/li&gt;&lt;/ul&gt;美术，主要负责第三个故事的美术工作&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;MIDIPanda&lt;/li&gt;&lt;/ul&gt;音乐，提供几乎所有背景音乐&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;亚恒&lt;/li&gt;&lt;/ul&gt;我，负责除了上述以外的所有事情。包括这段文字，也是我写的(￣▽￣)&lt;h2 class="bb_tag"&gt;Q群&amp;amp;贴吧&lt;/h2&gt;&lt;strong&gt;工作室Q群：&lt;/strong&gt;604415868&lt;br&gt;&lt;strong&gt;贴吧：&lt;/strong&gt;拣爱吧</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>981430</t>
+          <t>957960</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Gordian Quest</t>
+          <t>Inkulinati</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>高殿战记</t>
+          <t>Inkulinati 神笔谈兵</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>角色扮演,卡牌游戏,卡牌战斗,2D,策略</t>
+          <t>抢先体验,回合战略,中世纪,回合制战术,轻度 Rogue</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3165,41 +3170,36 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>7.7</t>
-        </is>
-      </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2022年06月24日</t>
+          <t>2023年02月01日</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>想要知道未来我们更多开发计划吗？点击右侧链接来看看我们的开发蓝图吧！&lt;a href="https://store.steampowered.com/news/app/981430/view/2085671129240796896" target="_blank" rel=""  &gt;https://store.steampowered.com/news/app/981430/view/2085671129240796896&lt;/a&gt;&lt;br&gt;&lt;br&gt;邪恶的诅咒腐化了大地，黑暗统治了一切，尔后妖魔横行，生灵涂炭。这片土地正呼唤着英雄的降临。&lt;br&gt;带领英雄们拯救这个苟延残喘的世界，消灭邪恶的根源或是落入敌人的魔爪？高殿战记将从这里开始书写。&lt;br&gt;&lt;br&gt;&lt;img src="https://store.steampowered.com/gfxproxy/betagfx/apps/981430/manuals/bear.jpg?t=1571625955" /&gt;&lt;h2 class="bb_tag"&gt;游戏特色&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;战役模式——共计包含游戏4幕的游戏冒险篇章，展开你的英雄史诗之旅。&lt;br&gt;&lt;/li&gt;&lt;li&gt;无尽模式——该模式下，游戏将成为一场永恒的冒险，允许玩家持续完成任务、斩妖除魔并收集更多英雄技能、神器和武器。&lt;br&gt;&lt;/li&gt;&lt;li&gt;10 位英雄——玩家可以从6位各具特色的英雄中进行选择，拥有各自的职业、技能、以及游戏方式，最多可组成三人小队展开冒险。包含职业为剑士、教士、游侠、恶徒、德鲁伊、术士和吟游诗人等。&lt;br&gt;&lt;/li&gt;&lt;li&gt;数以百计的技能——英雄们拥有总计近800种被动和主动技能，用于在回合制战斗中施展，允许玩家发现并搭配出他们最爱的技能组合。&lt;br&gt;&lt;/li&gt;&lt;li&gt;升级与装备——玩家可以升级、训练你的英雄，并给他们装备各式各样的武器、护甲和附魔饰品，来强化他们的技能。&lt;br&gt;&lt;/li&gt;&lt;li&gt;体验多周目的乐趣——程序随机生成的地图和地下城以及随机英雄技能使每一回的游戏进程与上周目都有所不同。&lt;br&gt;&lt;/li&gt;&lt;li&gt;多种难度等级——迎接硬核模式下永久死亡的极致体验，亦或进行死亡惩罚较小的休闲游戏。&lt;br&gt;&lt;/li&gt;&lt;li&gt;海量掉落物品——在你的旅途中收集物品和神器，提升英雄的技能。你还有机会偶得神秘物品，它们能通过祝福和诅咒同时强化及削弱你的英雄。&lt;br&gt;&lt;/li&gt;&lt;li&gt;继承奖励和进阶系统——游戏越久，奖励越多。多多使用英雄进行游戏，从而让他们在出发时获得更多的资源、物品、甚至拥有更改初始牌库的能力。&lt;br&gt;&lt;/li&gt;&lt;li&gt;PVP模式——叫上你的朋友，使用你最拿手的英雄和技能与他们一决高下。&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;h2 class="bb_tag"&gt;关于本游戏&lt;/h2&gt;&lt;br&gt;&lt;strong&gt;《神笔谈兵》&lt;/strong&gt;是一款回合制策略游戏，灵感来自中世纪的手稿。画出你的墨兽大军，泼洒敌人的墨水，击败中世纪的超级巨星，并收集技艺点以释放隐藏的力量。成为使用羽毛笔的宗师并不容易，所以务必集中注意力，并明智地计划每一步行动。踏上你的旅程，成为有史以来最伟大的墨法师！&lt;h2 class="bb_tag"&gt;具有挑战性的回合制策略游戏&lt;/h2&gt;不要被外表欺骗。《神笔谈兵》是一款充满细微变化和烧脑挑战的游戏，即使是最顽强的战略家也会经受考验。每一位身经百战的墨法将军都知道，一切都要从你的作战单位开始，我们称之为墨兽。有许多凶悍（又古怪）的&lt;strong&gt;墨兽&lt;/strong&gt;可供解锁。它们都有各自的特殊技能，以及能产生不同效果的职业特定能力。当这些墨兽齐心协力时，一曲毁灭、死亡的交响乐将会持续奏响，直到真正的末日。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/957960/extras/BEASTS_v2.gif?t=1693244644" /&gt;&lt;br&gt;&lt;br&gt;不是只有墨兽才能造成破坏、带来伤害。有一些别具一格、力挽狂澜的行动是由&lt;strong&gt;墨法宗师&lt;/strong&gt;本人执行的——比如你自己！使用你独特的亲手动作碾压对手的单位，绘制障碍物竖起屏障，动动指尖调整己方站位，或者让单位自爆，制造特别、特别纯粹的混乱。不过切记——你的对手也同样能做到。为了增加趣味性，每位墨法宗师还可以拥有自己的一套技艺，有助于赢得战斗。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/957960/extras/HANDS_v2.gif?t=1693244644" /&gt;&lt;br&gt;&lt;br&gt;但等等，还有呢。你需要根据每场战斗调整战术。每一个战场都不尽相同，各有各的危机，要小心谨慎；也各有各的机会，请适时把握。留意散落在&lt;strong&gt;战场&lt;/strong&gt;各处的物品，如会爆炸的一锅煮豆子、移动的深渊之口、祝福之云，并利用它们发挥你的优势。&lt;br&gt;&lt;br&gt;就在你自以为已经掌握了战斗的主动权时，一个&lt;strong&gt;天启事件&lt;/strong&gt;可能会颠覆你的所有计划。我们谈论的是火灾、瘟疫和告死之印本身。然而，当所有的希望都破灭，你陷入绝境之时，一场天启也许正是你所需要的，它可以扭转局势，对你有利。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/957960/extras/BATTLEFIELDS_v2.gif?t=1693244644" /&gt;&lt;br&gt;&lt;br&gt;根据你的聪明才智和技巧，有不同的难度可供选择，因此就算是初出茅庐，也能在适当的时候成为墨法宗师。对于想要了解其中奥秘的人，可以在我们的&lt;strong&gt;学院模式&lt;/strong&gt;中学习如何掌握这一切，我们会一步一步地教你赢得每场战斗的所有细微差别。&lt;h2 class="bb_tag"&gt;总是与众不同的单人战役&lt;/h2&gt;揭开墨法师的传说和秘密，直面希尔忒嘉德、但丁·阿利吉耶里等对手。去往外面的世界，开始你的冒险吧！在这片土地挑战头号墨法宗师，驯服未被驯服的墨兽，打造你的终极部队，从死神手中救回你的宗师，最重要的是，完成中世纪最大组织的伟大使命！&lt;br&gt;&lt;br&gt;最好的冒险是属于你自己的冒险。在旅途模式中，你将创建并培养你自己的角色。正如所有鼓舞人心的墨法宗师，你也要创建你自己的墨法师角色。在旅途中，你将学会绘制新墨兽及使用墨法师亲手动作的秘技，这样一来，你就可以自己选择带谁上场。你可以是一个无所畏惧的勇敢骑士，也可以是一个用祈祷之力迷惑敌人、治疗己方兵士的修女。各种战斗风格和更多内容，有待你自己去发现和创造。尽情展现自我吧！&lt;br&gt;&lt;br&gt;在旅程中，你不仅会与其他墨法宗师战斗。你还要面对桀骜不驯的墨兽、攻打墨兽巢穴、结识吟游诗人和会说话的鹅等有趣的角色、访问商店和抄写室等许多遭遇。真是一场精彩的冒险！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/957960/extras/CAMPAIGN_MAP_v2.gif?t=1693244644" /&gt;&lt;h2 class="bb_tag"&gt;与朋友或敌人决战的本地玩家对战模式&lt;/h2&gt;《神笔谈兵》带你穿越回到本地对战模式的黄金时代。面对你的朋友、家人或敌人，决出谁是家里最厉害的墨法宗师！&lt;br&gt;&lt;br&gt;选择你的军队、技艺、墨法宗师、战场以及其他标准和选项，面对一场将会留名青史的战斗。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/957960/extras/DUELS.gif?t=1693244644" /&gt;&lt;h2 class="bb_tag"&gt;灵感来自于现实世界里中世纪书籍的旁注&lt;/h2&gt;这些古怪的画作历经 700 年漫长的制作，终于在电子游戏里获得了生命，向我们展示中世纪的人也有所谓“表情包”，他们也如今天的我们，会为同样的蠢事发笑。你会遇到舞着剑的兔子、装备长矛的狗、不用嘴吹的小号、食人蜗牛，以及更多内容。真的非常，非常多……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/957960/extras/DECK.gif?t=1693244644" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1029210</t>
+          <t>981430</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>30XX</t>
+          <t>Gordian Quest</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>30XX</t>
+          <t>高殿战记</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>动作类 Rogue,横向滚屏,2D 平台,轻度 Rogue,永久死亡</t>
+          <t>角色扮演,卡牌游戏,卡牌战斗,2D,策略</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3207,36 +3207,41 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.7</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2023年08月10日</t>
+          <t>2022年06月24日</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/30XX_Date_1.gif?t=1693214062" /&gt;&lt;br&gt;&lt;br&gt;30XX是一款带有Roguelike元素的横版动作游戏，在游戏中可选择不同的角色进行游戏，如果你是「洛克人」的粉丝，那么你也一定会喜欢上30XX!&lt;br&gt;&lt;br&gt;在一千年后醒来，你发现这个世界已经不再需要你，合成思维的出现改变了这个世界，而人类也已失去了崇高的理想。现在的世界郁郁葱葱，却已成为牢笼，去拯救这所剩无几的美好吧。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/Chinese_title-1.png?t=1693214062" /&gt;&lt;br&gt;在30XX里，你能感受到复古像素给你带来的视觉享受，复古的音乐及音效搭配你的每一次跳跃，都能让你找到小时候坐在电视机前的感觉！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/CHS-Fuguhuamian.jpg?t=1693214062" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/Chinese_tile-2.png?t=1693214062" /&gt;&lt;br&gt;随机的关卡、道具、装备、技能，让你每次在30XX的开局都是独一无二的体验！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/CHS-xintiyan.jpg?t=1693214062" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/Chinese_title-3.png?t=1693214062" /&gt;&lt;br&gt;在30XX里，你可以制作你喜欢的关卡！自定义你想要的地图，然后让你的好朋友，甚至是和全世界的玩家一起体验！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/CHS-Zidingyi.gif?t=1693214062" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/Chinese_title-4.png?t=1693214062" /&gt;&lt;br&gt;你除了可以享受单枪匹马探索的乐趣，也可以和朋友一起闯荡这个精彩的世界！有一些复杂和难对付的敌人，呼朋引伴是一个好选择~&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/30XX_Date_11.gif?t=1693214062" /&gt;&lt;h2 class="bb_tag"&gt;游戏特色：&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;令人熟悉的跳跃、攻击、探险，找回小时候的感觉！&lt;br&gt;&lt;/li&gt;&lt;li&gt;近战的艾斯，远程的妮娜，不同角色各显神通！&lt;br&gt;&lt;/li&gt;&lt;li&gt;每次开局都会变换的独特关卡、物品和力量，给你截然不同的感受！&lt;br&gt;&lt;/li&gt;&lt;li&gt;不喜欢Roguelike？三种游戏模式尽情挑选！&lt;br&gt;&lt;/li&gt;&lt;li&gt;自定义关卡！当然也可以游玩别人的关卡！&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持本地和在线多人游戏！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/30XX_Date_12.gif?t=1693214062" /&gt;</t>
+          <t>想要知道未来我们更多开发计划吗？点击右侧链接来看看我们的开发蓝图吧！&lt;a href="https://store.steampowered.com/news/app/981430/view/2085671129240796896" target="_blank" rel=""  &gt;https://store.steampowered.com/news/app/981430/view/2085671129240796896&lt;/a&gt;&lt;br&gt;&lt;br&gt;邪恶的诅咒腐化了大地，黑暗统治了一切，尔后妖魔横行，生灵涂炭。这片土地正呼唤着英雄的降临。&lt;br&gt;带领英雄们拯救这个苟延残喘的世界，消灭邪恶的根源或是落入敌人的魔爪？高殿战记将从这里开始书写。&lt;br&gt;&lt;br&gt;&lt;img src="https://store.steampowered.com/gfxproxy/betagfx/apps/981430/manuals/bear.jpg?t=1571625955" /&gt;&lt;h2 class="bb_tag"&gt;游戏特色&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;战役模式——共计包含游戏4幕的游戏冒险篇章，展开你的英雄史诗之旅。&lt;br&gt;&lt;/li&gt;&lt;li&gt;无尽模式——该模式下，游戏将成为一场永恒的冒险，允许玩家持续完成任务、斩妖除魔并收集更多英雄技能、神器和武器。&lt;br&gt;&lt;/li&gt;&lt;li&gt;10 位英雄——玩家可以从6位各具特色的英雄中进行选择，拥有各自的职业、技能、以及游戏方式，最多可组成三人小队展开冒险。包含职业为剑士、教士、游侠、恶徒、德鲁伊、术士和吟游诗人等。&lt;br&gt;&lt;/li&gt;&lt;li&gt;数以百计的技能——英雄们拥有总计近800种被动和主动技能，用于在回合制战斗中施展，允许玩家发现并搭配出他们最爱的技能组合。&lt;br&gt;&lt;/li&gt;&lt;li&gt;升级与装备——玩家可以升级、训练你的英雄，并给他们装备各式各样的武器、护甲和附魔饰品，来强化他们的技能。&lt;br&gt;&lt;/li&gt;&lt;li&gt;体验多周目的乐趣——程序随机生成的地图和地下城以及随机英雄技能使每一回的游戏进程与上周目都有所不同。&lt;br&gt;&lt;/li&gt;&lt;li&gt;多种难度等级——迎接硬核模式下永久死亡的极致体验，亦或进行死亡惩罚较小的休闲游戏。&lt;br&gt;&lt;/li&gt;&lt;li&gt;海量掉落物品——在你的旅途中收集物品和神器，提升英雄的技能。你还有机会偶得神秘物品，它们能通过祝福和诅咒同时强化及削弱你的英雄。&lt;br&gt;&lt;/li&gt;&lt;li&gt;继承奖励和进阶系统——游戏越久，奖励越多。多多使用英雄进行游戏，从而让他们在出发时获得更多的资源、物品、甚至拥有更改初始牌库的能力。&lt;br&gt;&lt;/li&gt;&lt;li&gt;PVP模式——叫上你的朋友，使用你最拿手的英雄和技能与他们一决高下。&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1032590</t>
+          <t>1029210</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Heaven Dust</t>
+          <t>30XX</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>秘馆疑踪</t>
+          <t>30XX</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>独立,动作,冒险,角色扮演,生存恐怖</t>
+          <t>动作类 Rogue,横向滚屏,2D 平台,轻度 Rogue,永久死亡</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3246,34 +3251,34 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2020年02月27日</t>
+          <t>2023年08月10日</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1032590/extras/banner_cn.png?t=1693731156" /&gt;&lt;br&gt;&lt;br&gt;欢迎加玩家QQ群交流群：762184893&lt;br&gt;&lt;br&gt;恢复意识的瞬间，你发现自己置身于狭小的储物间，门外传来沉重的脚步和野兽般的低吟，这栋伪装成普通洋馆的研究所如今已经变成活死人出没的死亡迷宫，充满了各种奇怪的机关。&lt;br&gt;&lt;br&gt;探索四周的环境，谨慎地躲避或战斗，收集资源，整理线索，解开谜题，揭露阴谋，逃出生天。&lt;br&gt;&lt;br&gt;平行世界，时间线从1970直到游戏背景所在的1998年。&lt;br&gt;围绕着与世隔绝的新几内亚食人族“图托族”身上所发现的血液寄生物“天堂之尘”发生了一系列的事件和争斗，最终鹦鹉贝国际生物技术麾下的“星尘制药”将“天堂之尘”秘密运回美国进行继续研究。研究的目的是提高人体的新陈代谢能力以及自我修复能力，最终达到永生不死的状态，但在研究的过程中却不断重复着制造出怪物的悲剧，最终，这所秘密的研究基地--洋馆，将在主角和另外一个神秘的场外人联手之下，缓缓揭开它神秘恐怖的面纱，并将此事件落下帷幕……&lt;br&gt;然而更大的阴谋和事件早已在同步酝酿之中……&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;专注核心体验，远离庞杂繁复又不切实际的“宏大架构”。&lt;br&gt;&lt;/li&gt;&lt;li&gt;题材背景致敬生化系列。&lt;br&gt;&lt;/li&gt;&lt;li&gt;经典动作冒险解谜玩法。&lt;br&gt;&lt;/li&gt;&lt;li&gt;环环相扣，颇为硬核的谜题设计。&lt;br&gt;&lt;/li&gt;&lt;li&gt;简洁又不失刺激的战斗。&lt;br&gt;&lt;/li&gt;&lt;li&gt;碎片化叙事，探寻黑暗背后的真相。&lt;br&gt;&lt;/li&gt;&lt;li&gt;5-9小时的完整游戏流程，多结局设定。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;这是一封情书，谨将此游戏献给曾经的生化以及热爱游戏的你们。&lt;h2 class="bb_tag"&gt;游戏场景设计&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1032590/extras/scene.jpg?t=1693731156" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1032590/extras/scene2.jpg?t=1693731156" /&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/30XX_Date_1.gif?t=1693214062" /&gt;&lt;br&gt;&lt;br&gt;30XX是一款带有Roguelike元素的横版动作游戏，在游戏中可选择不同的角色进行游戏，如果你是「洛克人」的粉丝，那么你也一定会喜欢上30XX!&lt;br&gt;&lt;br&gt;在一千年后醒来，你发现这个世界已经不再需要你，合成思维的出现改变了这个世界，而人类也已失去了崇高的理想。现在的世界郁郁葱葱，却已成为牢笼，去拯救这所剩无几的美好吧。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/Chinese_title-1.png?t=1693214062" /&gt;&lt;br&gt;在30XX里，你能感受到复古像素给你带来的视觉享受，复古的音乐及音效搭配你的每一次跳跃，都能让你找到小时候坐在电视机前的感觉！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/CHS-Fuguhuamian.jpg?t=1693214062" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/Chinese_tile-2.png?t=1693214062" /&gt;&lt;br&gt;随机的关卡、道具、装备、技能，让你每次在30XX的开局都是独一无二的体验！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/CHS-xintiyan.jpg?t=1693214062" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/Chinese_title-3.png?t=1693214062" /&gt;&lt;br&gt;在30XX里，你可以制作你喜欢的关卡！自定义你想要的地图，然后让你的好朋友，甚至是和全世界的玩家一起体验！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/CHS-Zidingyi.gif?t=1693214062" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/Chinese_title-4.png?t=1693214062" /&gt;&lt;br&gt;你除了可以享受单枪匹马探索的乐趣，也可以和朋友一起闯荡这个精彩的世界！有一些复杂和难对付的敌人，呼朋引伴是一个好选择~&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/30XX_Date_11.gif?t=1693214062" /&gt;&lt;h2 class="bb_tag"&gt;游戏特色：&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;令人熟悉的跳跃、攻击、探险，找回小时候的感觉！&lt;br&gt;&lt;/li&gt;&lt;li&gt;近战的艾斯，远程的妮娜，不同角色各显神通！&lt;br&gt;&lt;/li&gt;&lt;li&gt;每次开局都会变换的独特关卡、物品和力量，给你截然不同的感受！&lt;br&gt;&lt;/li&gt;&lt;li&gt;不喜欢Roguelike？三种游戏模式尽情挑选！&lt;br&gt;&lt;/li&gt;&lt;li&gt;自定义关卡！当然也可以游玩别人的关卡！&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持本地和在线多人游戏！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/30XX_Date_12.gif?t=1693214062" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1036240</t>
+          <t>1032590</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Definitely Not Fried Chicken</t>
+          <t>Heaven Dust</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Definitely Not Fried Chicken</t>
+          <t>秘馆疑踪</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>抢先体验,管理,模拟,沙盒,资本主义</t>
+          <t>独立,动作,冒险,角色扮演,生存恐怖</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3283,34 +3288,34 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2023年01月18日</t>
+          <t>2020年02月27日</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;《Definitely Not Fried Chicken》-“&lt;i&gt;满足你的一切合法虚假经营渴望！&lt;/i&gt;”&lt;/h2&gt;《Definitely Not Fried Chicken》是有点不一样的经营管理模拟！&lt;br&gt;经由管理业务的两面，透过合法渠道扩大自己的药品贸易。获得新的“业务”、结识新的客户、开发更强的麻醉品、赚很多很多的钱，然后离开化为废墟的城市！&lt;br&gt;游戏背景设定于繁荣的二十世纪八十年代，阳光普照下的一座城市，在《DNFC》，你的创业者业务技能将会得到检验。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Different_Drugs_Gif.gif?t=1689850184" /&gt;&lt;br&gt;&lt;br&gt;从头开始，建造你自己的毒品工厂，购买临近的土地扩大规模。设计和布置完整的生产线，建立分销线路。为自己的工厂巩固防御，确保&lt;i&gt;“过度热情”&lt;/i&gt;的客户无法闯入。研究和开发更好的麻醉品，如大麻、可卡因和甲基苯丙胺等。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Construction_Chicken_Shop_-_To_Be_Sped_Up_B_.gif?t=1689850184" /&gt;&lt;br&gt;&lt;br&gt;简单制作伟大的产品并不足够，你需要有将它销售出去的地方！这就是你的合法企业出面的地方了 – 你需要建造和管理这些“门面”，包括销售合法的商品以避免搜查 – 人总得吃饭的，对吧？开一连串炸鸡连锁店，或者用别的业务将自己的资产组合多样化。不同的地方，有着不同的人，有着不同的&lt;i&gt;口味&lt;/i&gt;。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Capture1.PNG?t=1689850184" /&gt;&lt;br&gt;&lt;br&gt;所有经营的支柱是劳动力 – 也就是那些不知疲倦、拿着最低的工资替你进行你分配的任务的人。快乐的员工富有生产力，所以务必要让你的手下拥有盥洗室和吃饭地点等基础必需品。妥善装修的休息室则有助于提升员工士气！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Snooker.gif?t=1689850184" /&gt;&lt;br&gt;&lt;br&gt;而安全设备在员工营业额/士气方面颇有帮助...&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/DeathSuffocate5.gif?t=1689850184" /&gt;&lt;h2 class="bb_tag"&gt;重点要素&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;从零开始，打造自己的毒品帝国，将大麻、可卡因、冰毒和其他“商品”分销开去&lt;br&gt;&lt;/li&gt;&lt;li&gt;平衡各种麻烦工作，管理非法毒品买卖和“合法”经营。&lt;br&gt;&lt;/li&gt;&lt;li&gt;建立和定制自己的毒品工厂和经营“门面”。&lt;br&gt;&lt;/li&gt;&lt;li&gt;升级设施和员工设备，获得更好的产品，赚取更高额的利润&lt;br&gt;&lt;/li&gt;&lt;li&gt;设计自己的帝国，从炸鸡店到自助洗衣店和夜总会&lt;br&gt;&lt;/li&gt;&lt;li&gt;管理手下劳力，雇佣和开除，提供所需住宿，满足员工需求，让他们更加好地完成工作。&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1032590/extras/banner_cn.png?t=1693731156" /&gt;&lt;br&gt;&lt;br&gt;欢迎加玩家QQ群交流群：762184893&lt;br&gt;&lt;br&gt;恢复意识的瞬间，你发现自己置身于狭小的储物间，门外传来沉重的脚步和野兽般的低吟，这栋伪装成普通洋馆的研究所如今已经变成活死人出没的死亡迷宫，充满了各种奇怪的机关。&lt;br&gt;&lt;br&gt;探索四周的环境，谨慎地躲避或战斗，收集资源，整理线索，解开谜题，揭露阴谋，逃出生天。&lt;br&gt;&lt;br&gt;平行世界，时间线从1970直到游戏背景所在的1998年。&lt;br&gt;围绕着与世隔绝的新几内亚食人族“图托族”身上所发现的血液寄生物“天堂之尘”发生了一系列的事件和争斗，最终鹦鹉贝国际生物技术麾下的“星尘制药”将“天堂之尘”秘密运回美国进行继续研究。研究的目的是提高人体的新陈代谢能力以及自我修复能力，最终达到永生不死的状态，但在研究的过程中却不断重复着制造出怪物的悲剧，最终，这所秘密的研究基地--洋馆，将在主角和另外一个神秘的场外人联手之下，缓缓揭开它神秘恐怖的面纱，并将此事件落下帷幕……&lt;br&gt;然而更大的阴谋和事件早已在同步酝酿之中……&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;专注核心体验，远离庞杂繁复又不切实际的“宏大架构”。&lt;br&gt;&lt;/li&gt;&lt;li&gt;题材背景致敬生化系列。&lt;br&gt;&lt;/li&gt;&lt;li&gt;经典动作冒险解谜玩法。&lt;br&gt;&lt;/li&gt;&lt;li&gt;环环相扣，颇为硬核的谜题设计。&lt;br&gt;&lt;/li&gt;&lt;li&gt;简洁又不失刺激的战斗。&lt;br&gt;&lt;/li&gt;&lt;li&gt;碎片化叙事，探寻黑暗背后的真相。&lt;br&gt;&lt;/li&gt;&lt;li&gt;5-9小时的完整游戏流程，多结局设定。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;这是一封情书，谨将此游戏献给曾经的生化以及热爱游戏的你们。&lt;h2 class="bb_tag"&gt;游戏场景设计&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1032590/extras/scene.jpg?t=1693731156" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1032590/extras/scene2.jpg?t=1693731156" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1040230</t>
+          <t>1036240</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Curious Expedition 2</t>
+          <t>Definitely Not Fried Chicken</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>奇妙探险队2</t>
+          <t>Definitely Not Fried Chicken</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>回合制,桌上游戏,漫画,回合战略,棋盘游戏</t>
+          <t>抢先体验,管理,模拟,沙盒,资本主义</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3318,41 +3323,36 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>8.1</t>
-        </is>
-      </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2021年01月28日</t>
+          <t>2023年01月18日</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>《奇妙探险队2》是一款回合制的roguelike探险游戏。玩家需要管理好资源和同伴，才能保持神志清醒并赢得荣耀。 &lt;br&gt;&lt;br&gt;一个重大发现传遍了全世界：在大西洋上出现了一些若隐若现的神秘岛屿。各个探险家俱乐部纷纷出资赞助探险，想从这些奇妙的岛屿上找来奇珍异宝，放到1889年的巴黎世界博览会上展出。你有足够的勇气加入冒险吗？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040230/extras/corgi.gif?t=1673888528" /&gt;&lt;br&gt;&lt;br&gt;主要特色：&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;在&lt;strong&gt;随机生成的世界&lt;/strong&gt;中探索各种生态圈。每个地图都会带来新的危险和机遇。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;管理好各种资源&lt;/strong&gt;以在长途跋涉中保持健康和理智。把握好贪欲和生存之间的平衡，既要找到财富与荣耀，也要保住性命。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;随机的故事情节&lt;/strong&gt;使得每一场冒险都独一无二。根据你的选择和环境的改变，你的角色们会有建立关系，改变忠诚度，染上精神疾病等多种表现。&lt;br&gt;&lt;/li&gt;&lt;li&gt;游玩&lt;strong&gt;剧情模式&lt;/strong&gt;。把随机的游戏过程和精心编写的故事相结合，创造出值得反复玩味的叙事体验。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;负责人模式&lt;/strong&gt;给每场冒险增添了更多变数和内容，让你的探险无穷无尽且更具挑战性！&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;全新的战斗系统&lt;/strong&gt;需要你发挥全部聪明才智，才能在面对凶猛的野兽和各种传说中的生物时危中求生。&lt;br&gt;&lt;/li&gt;&lt;li&gt;加入&lt;strong&gt;线上挑战&lt;/strong&gt;，选一个探险家俱乐部效忠，为赢得各种独特奖励而相互竞争。&lt;br&gt;&lt;/li&gt;&lt;li&gt;给&lt;strong&gt;你的同伴&lt;/strong&gt;装上各种装备，打造出可以面对任何挑战的组合。&lt;br&gt;&lt;/li&gt;&lt;li&gt;探索全新的&lt;strong&gt;探险类型&lt;/strong&gt;，每一种都有独特的目标和事件。你会去寻找传说中的金字塔，还是选择搜索彩虹兰花呢？&lt;br&gt;&lt;/li&gt;&lt;li&gt;探索并&lt;strong&gt;发现神秘地点&lt;/strong&gt;。掠夺古老的神殿，与奇怪的鼹鼠人讨价还价，洗劫闹鬼的海盗船等……&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;原生4K&lt;/strong&gt;画面，受经典漫画启发的美术风格。&lt;br&gt;&lt;/li&gt;&lt;li&gt;《奇妙探险队1》的老玩家会发现&lt;strong&gt;数不清的新内容&lt;/strong&gt;：新的物品、角色类型、敌人、生态圈、部落、事件等等！&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;h2 class="bb_tag"&gt;《Definitely Not Fried Chicken》-“&lt;i&gt;满足你的一切合法虚假经营渴望！&lt;/i&gt;”&lt;/h2&gt;《Definitely Not Fried Chicken》是有点不一样的经营管理模拟！&lt;br&gt;经由管理业务的两面，透过合法渠道扩大自己的药品贸易。获得新的“业务”、结识新的客户、开发更强的麻醉品、赚很多很多的钱，然后离开化为废墟的城市！&lt;br&gt;游戏背景设定于繁荣的二十世纪八十年代，阳光普照下的一座城市，在《DNFC》，你的创业者业务技能将会得到检验。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Different_Drugs_Gif.gif?t=1689850184" /&gt;&lt;br&gt;&lt;br&gt;从头开始，建造你自己的毒品工厂，购买临近的土地扩大规模。设计和布置完整的生产线，建立分销线路。为自己的工厂巩固防御，确保&lt;i&gt;“过度热情”&lt;/i&gt;的客户无法闯入。研究和开发更好的麻醉品，如大麻、可卡因和甲基苯丙胺等。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Construction_Chicken_Shop_-_To_Be_Sped_Up_B_.gif?t=1689850184" /&gt;&lt;br&gt;&lt;br&gt;简单制作伟大的产品并不足够，你需要有将它销售出去的地方！这就是你的合法企业出面的地方了 – 你需要建造和管理这些“门面”，包括销售合法的商品以避免搜查 – 人总得吃饭的，对吧？开一连串炸鸡连锁店，或者用别的业务将自己的资产组合多样化。不同的地方，有着不同的人，有着不同的&lt;i&gt;口味&lt;/i&gt;。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Capture1.PNG?t=1689850184" /&gt;&lt;br&gt;&lt;br&gt;所有经营的支柱是劳动力 – 也就是那些不知疲倦、拿着最低的工资替你进行你分配的任务的人。快乐的员工富有生产力，所以务必要让你的手下拥有盥洗室和吃饭地点等基础必需品。妥善装修的休息室则有助于提升员工士气！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Snooker.gif?t=1689850184" /&gt;&lt;br&gt;&lt;br&gt;而安全设备在员工营业额/士气方面颇有帮助...&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/DeathSuffocate5.gif?t=1689850184" /&gt;&lt;h2 class="bb_tag"&gt;重点要素&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;从零开始，打造自己的毒品帝国，将大麻、可卡因、冰毒和其他“商品”分销开去&lt;br&gt;&lt;/li&gt;&lt;li&gt;平衡各种麻烦工作，管理非法毒品买卖和“合法”经营。&lt;br&gt;&lt;/li&gt;&lt;li&gt;建立和定制自己的毒品工厂和经营“门面”。&lt;br&gt;&lt;/li&gt;&lt;li&gt;升级设施和员工设备，获得更好的产品，赚取更高额的利润&lt;br&gt;&lt;/li&gt;&lt;li&gt;设计自己的帝国，从炸鸡店到自助洗衣店和夜总会&lt;br&gt;&lt;/li&gt;&lt;li&gt;管理手下劳力，雇佣和开除，提供所需住宿，满足员工需求，让他们更加好地完成工作。&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1040420</t>
+          <t>1040230</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Dreamscaper</t>
+          <t>Curious Expedition 2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>层层梦境</t>
+          <t>奇妙探险队2</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>动作类 Rogue,动作,轻度 Rogue,独立,角色扮演</t>
+          <t>回合制,桌上游戏,漫画,回合战略,棋盘游戏</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3362,39 +3362,39 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2021年08月05日</t>
+          <t>2021年01月28日</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;&lt;strong&gt;沉睡, 死亡, 惊醒。如此循环。&lt;/strong&gt;&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040420/extras/combat02.gif?t=1693946457" /&gt;&lt;br&gt;&lt;br&gt;【层层梦境】是一款在清醒与梦境中循环游玩的Roguelike动作游戏。夜晚降临时，你将坠入潜意识中，对抗梦魇。在这个瞬息万变的世界里，你会遇到各类特殊的物品、能力、以及挑战。而在白昼时，你可以探索红港区、结识形形色色的人、提升自己，以挑战愈发强大的梦境。&lt;br&gt;&lt;br&gt;玩家将扮演卡西迪，进入她的潜意识，体验她那些不断循环超现实噩梦，努力将她从黑暗的命运中拯救出来。&lt;h2 class="bb_tag"&gt;特色&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;在噩梦中前进，让永久死亡成为你的盟友。&lt;br&gt;&lt;/li&gt;&lt;li&gt;使用理性之力来操纵元素，在空间中穿梭，就连时间也可以随心所欲。&lt;br&gt;&lt;/li&gt;&lt;li&gt;去和那些代表孤立，恐惧，消极和丧失的boss们斗争。&lt;br&gt;&lt;/li&gt;&lt;li&gt;升级大量的超现实物品并发现强大的工艺品。&lt;br&gt;&lt;/li&gt;&lt;li&gt;体验卡西迪的现实生活，揭开其故事的神秘面纱。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040420/extras/Hometown_Diner_steam.jpg?t=1693946457" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;掌握深度的战斗系统​&lt;/strong&gt;&lt;/h2&gt;丰富多样的战斗系统丰富了游戏技巧。利用敏锐的定位、精确的时间和快速的反应，用各种各样的战斗选择打败对手。&lt;br&gt;&lt;br&gt;《层层梦境》中的每一种武器都是独一无二的，比如撕裂你的噩梦之土，用溜溜球打敌人的脸。你将有无数的方法来完成战斗。&lt;br&gt;&lt;br&gt;《层层梦境》中的敌人和boss是卡西迪消极情绪之最的代表。击败这些致命的敌人，清除她周围的黑暗瘴气。&lt;h2 class="bb_tag"&gt;&lt;strong&gt;征服噩梦​&lt;/strong&gt;&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040420/extras/core-loop-chinese.jpg?t=1693946457" /&gt;&lt;br&gt;在这片美丽萦绕梦境中冒险，挖掘未知的秘密，发现各种物品和能力，了解卡西迪的故事。每一次的跑关都能将你带来一个独特的世界去探索，每一个梦境都是对卡西迪在现实世界中的回忆和经历的窥视。&lt;br&gt;&lt;br&gt;体验卡西迪的现实生活，与她周围的人建立友谊。用他们的希望和记忆赋予卡西迪力量，驱散她噩梦中的黑暗。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040420/extras/bar.png.png?t=1693946457" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040420/extras/wishlist.gif?t=1693946457" /&gt;</t>
+          <t>《奇妙探险队2》是一款回合制的roguelike探险游戏。玩家需要管理好资源和同伴，才能保持神志清醒并赢得荣耀。 &lt;br&gt;&lt;br&gt;一个重大发现传遍了全世界：在大西洋上出现了一些若隐若现的神秘岛屿。各个探险家俱乐部纷纷出资赞助探险，想从这些奇妙的岛屿上找来奇珍异宝，放到1889年的巴黎世界博览会上展出。你有足够的勇气加入冒险吗？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040230/extras/corgi.gif?t=1673888528" /&gt;&lt;br&gt;&lt;br&gt;主要特色：&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;在&lt;strong&gt;随机生成的世界&lt;/strong&gt;中探索各种生态圈。每个地图都会带来新的危险和机遇。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;管理好各种资源&lt;/strong&gt;以在长途跋涉中保持健康和理智。把握好贪欲和生存之间的平衡，既要找到财富与荣耀，也要保住性命。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;随机的故事情节&lt;/strong&gt;使得每一场冒险都独一无二。根据你的选择和环境的改变，你的角色们会有建立关系，改变忠诚度，染上精神疾病等多种表现。&lt;br&gt;&lt;/li&gt;&lt;li&gt;游玩&lt;strong&gt;剧情模式&lt;/strong&gt;。把随机的游戏过程和精心编写的故事相结合，创造出值得反复玩味的叙事体验。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;负责人模式&lt;/strong&gt;给每场冒险增添了更多变数和内容，让你的探险无穷无尽且更具挑战性！&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;全新的战斗系统&lt;/strong&gt;需要你发挥全部聪明才智，才能在面对凶猛的野兽和各种传说中的生物时危中求生。&lt;br&gt;&lt;/li&gt;&lt;li&gt;加入&lt;strong&gt;线上挑战&lt;/strong&gt;，选一个探险家俱乐部效忠，为赢得各种独特奖励而相互竞争。&lt;br&gt;&lt;/li&gt;&lt;li&gt;给&lt;strong&gt;你的同伴&lt;/strong&gt;装上各种装备，打造出可以面对任何挑战的组合。&lt;br&gt;&lt;/li&gt;&lt;li&gt;探索全新的&lt;strong&gt;探险类型&lt;/strong&gt;，每一种都有独特的目标和事件。你会去寻找传说中的金字塔，还是选择搜索彩虹兰花呢？&lt;br&gt;&lt;/li&gt;&lt;li&gt;探索并&lt;strong&gt;发现神秘地点&lt;/strong&gt;。掠夺古老的神殿，与奇怪的鼹鼠人讨价还价，洗劫闹鬼的海盗船等……&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;原生4K&lt;/strong&gt;画面，受经典漫画启发的美术风格。&lt;br&gt;&lt;/li&gt;&lt;li&gt;《奇妙探险队1》的老玩家会发现&lt;strong&gt;数不清的新内容&lt;/strong&gt;：新的物品、角色类型、敌人、生态圈、部落、事件等等！&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1070260</t>
+          <t>1040420</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Graduated</t>
+          <t>Dreamscaper</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>小生活</t>
+          <t>层层梦境</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>角色扮演,模拟,生活模拟,休闲,烹饪</t>
+          <t>动作类 Rogue,动作,轻度 Rogue,独立,角色扮演</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3404,39 +3404,39 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2023年05月19日</t>
+          <t>2021年08月05日</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;关注我们&lt;/strong&gt;&lt;br&gt;欢迎关注我们的官方社群：&lt;br&gt;微博：&lt;a href="https://steamcommunity.com/linkfilter/?url=https://weibo.com/7296334537" target="_blank" rel=" noopener"  &gt;游戏便当&lt;/a&gt; &lt;br&gt;游戏便当QQ群①：287356527【已满】&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569&lt;br&gt;小生活玩家QQ群①：743422045【已满】&lt;br&gt;小生活玩家QQ群②：781201184&lt;br&gt;小生活玩家QQ群③：961036844&lt;br&gt;&lt;br&gt;各位后海镇的居民们如果遇到问题或者有好的建议，欢迎大家在收集表内进行反馈和提交&lt;h2 class="bb_tag"&gt;&lt;strong&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://docs.qq.com/sheet/DQk1kY3dZTUJTRXNx?tab=BB08J2" target="_blank" rel=" noopener"  &gt;《小生活》常见问题&amp;amp;BUG建议表&lt;/a&gt;&lt;/strong&gt;&lt;/h2&gt;我们会逐条查看，修改，改进，感谢大家的反馈！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/z介绍.jpg?t=1684832855" /&gt;&lt;br&gt;生活不是简单的事情，而是复杂的艺术。&lt;br&gt;在游戏中，你放弃了大城市的白领工作，跟随朋友来到一座海滨小城开启新的生活。在这座美丽的小城里，人们亲切友好，安详轻松。你可以根据自己的喜好做各种不同的工作：小镇推销员、经营农场、潜水员、出海捕鱼、在海岛开荒，这里的机会很多，逐渐的，你会拥有自己喜欢的小车，别墅，另一半，以及美好的家。在自家院子里种种田，撸撸猫，返璞归真。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/xxx.gif?t=1684832855" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/z好好的生活.jpg?t=1684832855" /&gt;&lt;br&gt;生活不是简单的事情，而是复杂的艺术。在这里，你既需要脚踏实地，时刻关注你的肚子、心情以及精力，避免患上各类慢性病；寻找各类机会，满足温饱；也需要仰望星空，不断努力让自己过上更好的生活，也许是更大的房子，亦或更深处的冒险。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/生活.gif?t=1684832855" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/过节z.jpg?t=1684832855" /&gt;&lt;br&gt;后海镇里的每一个节日都令你难忘，不论是传统的春节，还是后海镇专属的节庆，和大家在一起开开心心才是最重要的！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/过节.gif?t=1684832855" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/z工作！赚钱！.jpg?t=1684832855" /&gt;&lt;br&gt;在没有实现财务自由之前，还是得努力工作的！不管是当推销员，还是送外卖，当出租车司机，抑或是做一些零散的居民委托，只要肯脚踏实地的努力干活，总是能逐渐改善自己的生活，积攒自己的存款，最终迈向财务自由！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/工作1.gif?t=1684832855" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/z衣！食！住！行！.jpg?t=1684832855" /&gt;&lt;br&gt;在奋斗的道路上，我们也得吃饱穿暖，睡好玩好。好好布置自己的家，没事可以逛逛家具城，这样才能休息的更好，休息好才能更好的工作；注意自己的穿搭，适应气候的同时，也能让自己赏心悦目，还有可能会有意外的收获；认真对待自己的胃，一日三餐，饮食有度，让自己越来越健康；在奋斗的间隙里，在城市中寻觅娱乐还是很有必要的，因此别忘了为自己购置一辆称心的出行工具。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/饮食.gif?t=1684832855" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/z提升自己.jpg?t=1684832855" /&gt;&lt;br&gt;永远不能忘记的事就是提升自己；随着时间的流逝，你逐渐会积攒各类经验，此时认真发展的自己的技能就显得尤为重要了，它直接会影响到未来的发展路线；毕竟在很多时候，选择比努力更重要。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/提升自己.gif?t=1684832855" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/z你需要朋友！.jpg?t=1684832855" /&gt;&lt;br&gt;很多人都觉得城市里的人冷漠，无非匆匆过客，但你真的需要朋友！俗话说多一个朋友多一条路，在很多时候，也许有一个朋友会让你的情况迎来关键的转机。与朋友之间的羁绊，也许会给你的生活带来的意外的惊喜。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/朋友1.gif?t=1684832855" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/二人z.jpg?t=1684832855" /&gt;&lt;br&gt;你是后海镇的万人迷，与各个角色进行互动，和他们中的某个人擦出爱情的火花，坠入爱河，一切水到渠成后，和他/她携手走进婚姻的殿堂！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/二人.gif?t=1684832855" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/z财务自由之路.jpg?t=1684832855" /&gt;&lt;br&gt;没有人想一辈子打工，在积攒了足够的财富之后，就应该想想如何投资了。你可以选择入股你看好的企业，但也需承担相应的风险；你也可以购入你看好的房产，低买高卖；你还可以出租手中的房产，让自己衣食无忧。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/财务.gif?t=1684832855" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/农场z.jpg?t=1684832855" /&gt;&lt;br&gt;工作之余，你也可以选择种植培育各种农作物，饲养动物；通过制造设备，生产饲料和生长激素等来提升你的农场产量和效率，做一个农场主何尝不是一种惬意的生活选择？&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/农场.gif?t=1684832855" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/z深处的冒险.jpg?t=1684832855" /&gt;&lt;br&gt;你已经拥有了衣食无忧的生活，是时候响应心中深处一直回响的冒险的召唤了。传闻在城市东部梨花湾的海底深处，藏有许多不为人知的秘密和财富，富裕而又不甘平庸的你也许会去购买昂贵的潜水设施，潜入海底的最深处一探究竟。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/深层冒险.gif?t=1684832855" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/z关于我们.jpg?t=1684832855" /&gt;</t>
+          <t>&lt;h2 class="bb_tag"&gt;&lt;strong&gt;沉睡, 死亡, 惊醒。如此循环。&lt;/strong&gt;&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040420/extras/combat02.gif?t=1693946457" /&gt;&lt;br&gt;&lt;br&gt;【层层梦境】是一款在清醒与梦境中循环游玩的Roguelike动作游戏。夜晚降临时，你将坠入潜意识中，对抗梦魇。在这个瞬息万变的世界里，你会遇到各类特殊的物品、能力、以及挑战。而在白昼时，你可以探索红港区、结识形形色色的人、提升自己，以挑战愈发强大的梦境。&lt;br&gt;&lt;br&gt;玩家将扮演卡西迪，进入她的潜意识，体验她那些不断循环超现实噩梦，努力将她从黑暗的命运中拯救出来。&lt;h2 class="bb_tag"&gt;特色&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;在噩梦中前进，让永久死亡成为你的盟友。&lt;br&gt;&lt;/li&gt;&lt;li&gt;使用理性之力来操纵元素，在空间中穿梭，就连时间也可以随心所欲。&lt;br&gt;&lt;/li&gt;&lt;li&gt;去和那些代表孤立，恐惧，消极和丧失的boss们斗争。&lt;br&gt;&lt;/li&gt;&lt;li&gt;升级大量的超现实物品并发现强大的工艺品。&lt;br&gt;&lt;/li&gt;&lt;li&gt;体验卡西迪的现实生活，揭开其故事的神秘面纱。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040420/extras/Hometown_Diner_steam.jpg?t=1693946457" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;掌握深度的战斗系统​&lt;/strong&gt;&lt;/h2&gt;丰富多样的战斗系统丰富了游戏技巧。利用敏锐的定位、精确的时间和快速的反应，用各种各样的战斗选择打败对手。&lt;br&gt;&lt;br&gt;《层层梦境》中的每一种武器都是独一无二的，比如撕裂你的噩梦之土，用溜溜球打敌人的脸。你将有无数的方法来完成战斗。&lt;br&gt;&lt;br&gt;《层层梦境》中的敌人和boss是卡西迪消极情绪之最的代表。击败这些致命的敌人，清除她周围的黑暗瘴气。&lt;h2 class="bb_tag"&gt;&lt;strong&gt;征服噩梦​&lt;/strong&gt;&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040420/extras/core-loop-chinese.jpg?t=1693946457" /&gt;&lt;br&gt;在这片美丽萦绕梦境中冒险，挖掘未知的秘密，发现各种物品和能力，了解卡西迪的故事。每一次的跑关都能将你带来一个独特的世界去探索，每一个梦境都是对卡西迪在现实世界中的回忆和经历的窥视。&lt;br&gt;&lt;br&gt;体验卡西迪的现实生活，与她周围的人建立友谊。用他们的希望和记忆赋予卡西迪力量，驱散她噩梦中的黑暗。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040420/extras/bar.png.png?t=1693946457" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040420/extras/wishlist.gif?t=1693946457" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1075740</t>
+          <t>1070260</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Banners of Ruin</t>
+          <t>Graduated</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>废墟战旗</t>
+          <t>小生活</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>卡牌构建式类 Rogue,类 Rogue,卡牌战斗,卡牌游戏,困难</t>
+          <t>角色扮演,模拟,生活模拟,休闲,烹饪</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3446,39 +3446,39 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>7.3</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2021年07月30日</t>
+          <t>2023年05月19日</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1075740/extras/DescriptionCapsule.jpg?t=1693585336" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1075740/extras/BoR_SteamStore_Description_Tagline_616.png?t=1693585336" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1075740/extras/Steam_StorePage_Divider.png?t=1693585336" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1075740/extras/Steam_WishlistFollow.gif?t=1693585336" /&gt;&lt;br&gt;令人毛骨悚然的灭族者给黑足带来了灭顶之灾-你必须渗透他们的防御并阻止这样的暴行。&lt;br&gt;&lt;br&gt;建立你的卡组，并与多达6名小队成员使用卡牌进行战斗，穿越黎明之刻。 每位角色都拥有一系列独特的卡牌和能力，以此建立你的最强卡组。 在通往城市警卫队长的道路上击败每个精英对手，削弱灭族者的核心力量。 你和你的弟兄可能会为此而倒下，但总会有其他人传递薪火。 黑足氏族会铭记逝者，永不松懈。 穿越城市时你还将遇到一系列事件，这些事件可能会为你提供帮助，也有可能会造成麻烦。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1075740/extras/GateHouse.gif?t=1693585336" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1075740/extras/Store_Features.png?t=1693585336" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;通过掠夺、购买和解锁大量卡牌来构建你的卡组。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;海狸和熊?还是狼和黄鼠狼?在你的前行的过程中建立一个多达6人的队伍来与你的敌人战斗。 &lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;6种独特的种族卡池与被动技能等着你的探索与发掘。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;叮!升级你的角色以解锁能极大地影响你的策略的天赋卡和强大的被动技能。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;战利品!收集武器和盔甲，通过各种特效来增强你的队伍。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;路在何方?通过生动多彩的卡片提示选择你前行的道路。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;决断。在你的旅途中，会遇到各种各样的遭遇，这些遭遇给你带来的也许是灾难。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;随着游戏的深入，敌人会越来越具有挑战性。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;大侠请重新来过?每次游戏结束都将给与一定金币用以解锁新卡和被动技能，以帮助你取得胜利。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1075740/extras/EnemiesGif_StorePage_Optimised.gif?t=1693585336" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/HXdVQHb" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1075740/extras/BoR_JoinUsOnDiscord.png?t=1693585336" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1075740/extras/Steam_StorePage_Divider.png?t=1693585336" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1075740/extras/Greatsword_Optimised_Cropped.gif?t=1693585336" /&gt;</t>
+          <t>&lt;strong&gt;关注我们&lt;/strong&gt;&lt;br&gt;欢迎关注我们的官方社群：&lt;br&gt;微博：&lt;a href="https://steamcommunity.com/linkfilter/?url=https://weibo.com/7296334537" target="_blank" rel=" noopener"  &gt;游戏便当&lt;/a&gt; &lt;br&gt;游戏便当QQ群①：287356527【已满】&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569&lt;br&gt;小生活玩家QQ群①：743422045【已满】&lt;br&gt;小生活玩家QQ群②：781201184&lt;br&gt;小生活玩家QQ群③：961036844&lt;br&gt;&lt;br&gt;各位后海镇的居民们如果遇到问题或者有好的建议，欢迎大家在收集表内进行反馈和提交&lt;h2 class="bb_tag"&gt;&lt;strong&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://docs.qq.com/sheet/DQk1kY3dZTUJTRXNx?tab=BB08J2" target="_blank" rel=" noopener"  &gt;《小生活》常见问题&amp;amp;BUG建议表&lt;/a&gt;&lt;/strong&gt;&lt;/h2&gt;我们会逐条查看，修改，改进，感谢大家的反馈！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/z介绍.jpg?t=1684832855" /&gt;&lt;br&gt;生活不是简单的事情，而是复杂的艺术。&lt;br&gt;在游戏中，你放弃了大城市的白领工作，跟随朋友来到一座海滨小城开启新的生活。在这座美丽的小城里，人们亲切友好，安详轻松。你可以根据自己的喜好做各种不同的工作：小镇推销员、经营农场、潜水员、出海捕鱼、在海岛开荒，这里的机会很多，逐渐的，你会拥有自己喜欢的小车，别墅，另一半，以及美好的家。在自家院子里种种田，撸撸猫，返璞归真。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/xxx.gif?t=1684832855" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/z好好的生活.jpg?t=1684832855" /&gt;&lt;br&gt;生活不是简单的事情，而是复杂的艺术。在这里，你既需要脚踏实地，时刻关注你的肚子、心情以及精力，避免患上各类慢性病；寻找各类机会，满足温饱；也需要仰望星空，不断努力让自己过上更好的生活，也许是更大的房子，亦或更深处的冒险。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/生活.gif?t=1684832855" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/过节z.jpg?t=1684832855" /&gt;&lt;br&gt;后海镇里的每一个节日都令你难忘，不论是传统的春节，还是后海镇专属的节庆，和大家在一起开开心心才是最重要的！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/过节.gif?t=1684832855" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/z工作！赚钱！.jpg?t=1684832855" /&gt;&lt;br&gt;在没有实现财务自由之前，还是得努力工作的！不管是当推销员，还是送外卖，当出租车司机，抑或是做一些零散的居民委托，只要肯脚踏实地的努力干活，总是能逐渐改善自己的生活，积攒自己的存款，最终迈向财务自由！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/工作1.gif?t=1684832855" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/z衣！食！住！行！.jpg?t=1684832855" /&gt;&lt;br&gt;在奋斗的道路上，我们也得吃饱穿暖，睡好玩好。好好布置自己的家，没事可以逛逛家具城，这样才能休息的更好，休息好才能更好的工作；注意自己的穿搭，适应气候的同时，也能让自己赏心悦目，还有可能会有意外的收获；认真对待自己的胃，一日三餐，饮食有度，让自己越来越健康；在奋斗的间隙里，在城市中寻觅娱乐还是很有必要的，因此别忘了为自己购置一辆称心的出行工具。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/饮食.gif?t=1684832855" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/z提升自己.jpg?t=1684832855" /&gt;&lt;br&gt;永远不能忘记的事就是提升自己；随着时间的流逝，你逐渐会积攒各类经验，此时认真发展的自己的技能就显得尤为重要了，它直接会影响到未来的发展路线；毕竟在很多时候，选择比努力更重要。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/提升自己.gif?t=1684832855" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/z你需要朋友！.jpg?t=1684832855" /&gt;&lt;br&gt;很多人都觉得城市里的人冷漠，无非匆匆过客，但你真的需要朋友！俗话说多一个朋友多一条路，在很多时候，也许有一个朋友会让你的情况迎来关键的转机。与朋友之间的羁绊，也许会给你的生活带来的意外的惊喜。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/朋友1.gif?t=1684832855" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/二人z.jpg?t=1684832855" /&gt;&lt;br&gt;你是后海镇的万人迷，与各个角色进行互动，和他们中的某个人擦出爱情的火花，坠入爱河，一切水到渠成后，和他/她携手走进婚姻的殿堂！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/二人.gif?t=1684832855" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/z财务自由之路.jpg?t=1684832855" /&gt;&lt;br&gt;没有人想一辈子打工，在积攒了足够的财富之后，就应该想想如何投资了。你可以选择入股你看好的企业，但也需承担相应的风险；你也可以购入你看好的房产，低买高卖；你还可以出租手中的房产，让自己衣食无忧。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/财务.gif?t=1684832855" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/农场z.jpg?t=1684832855" /&gt;&lt;br&gt;工作之余，你也可以选择种植培育各种农作物，饲养动物；通过制造设备，生产饲料和生长激素等来提升你的农场产量和效率，做一个农场主何尝不是一种惬意的生活选择？&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/农场.gif?t=1684832855" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/z深处的冒险.jpg?t=1684832855" /&gt;&lt;br&gt;你已经拥有了衣食无忧的生活，是时候响应心中深处一直回响的冒险的召唤了。传闻在城市东部梨花湾的海底深处，藏有许多不为人知的秘密和财富，富裕而又不甘平庸的你也许会去购买昂贵的潜水设施，潜入海底的最深处一探究竟。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/深层冒险.gif?t=1684832855" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1070260/extras/z关于我们.jpg?t=1684832855" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1076750</t>
+          <t>1075740</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Dream Engines: Nomad Cities</t>
+          <t>Banners of Ruin</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>梦幻引擎：游牧城市</t>
+          <t>废墟战旗</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>抢先体验,城市营造,生存,自动化,角色扮演</t>
+          <t>卡牌构建式类 Rogue,类 Rogue,卡牌战斗,卡牌游戏,困难</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3486,36 +3486,41 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.4</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2021年07月14日</t>
+          <t>2021年07月30日</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>先进的文明社会早已不复存在，只留下梦魇横行的世界，只有一些行踪隐匿的小型游牧部落幸存了下来。而现在，一项从历史尘埃中发掘的古老科技点燃了新的希望之火——具有飞行能力的游牧城市。&lt;h2 class="bb_tag"&gt;建造一座繁荣的飞行城市&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1076750/extras/Industry-optimized.gif?t=1683088392" /&gt;&lt;br&gt;城市的人口和经济是您生存的支柱。耗尽食物和资源就像在荒野中遇上幻魇群袭一样危险。规划并建立&lt;strong&gt;自动化生产线&lt;/strong&gt;，让您的市民安居乐业、衣食无忧。&lt;h2 class="bb_tag"&gt;坚持生存到最后一刻，然后赶紧跑！&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1076750/extras/Take-off-optimized.gif?t=1683088392" /&gt;&lt;br&gt;加固您的城市，在幻魇突袭中防守尽可能长的时间。但是即便是先进的古代文明也无法永久抵抗幻魇的攻击——您待得越久，它们就会变得越强大。然而，与古人不同的是，您可以在情况变得太棘手时&lt;strong&gt;带着整座城市直接飞走&lt;/strong&gt;。&lt;h2 class="bb_tag"&gt;权衡扩展建筑和一次性建筑的取舍&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1076750/extras/gif-2021-05-20_-_biomes.gif?t=1683088392" /&gt;&lt;br&gt;您的城市面积有限。您必须在为了扩张城市选择&lt;strong&gt;昂贵的长期升级&lt;/strong&gt;和&lt;strong&gt;建设将被舍弃的一次性基础设施&lt;/strong&gt;之间权衡轻重。谨慎选择您要携带的建筑，以及至少一段时间内暂不需要的建筑。&lt;h2 class="bb_tag"&gt;寻找并开发不同生物群落中的稀缺资源&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1076750/extras/Resources-optimized.gif?t=1683088392" /&gt;&lt;br&gt;资源是稀缺的，而您需要大量的资源来将您的城市变成一个自给自足的帝国。好在当您耗尽了周围的一切资源时，您随时可以移动到另一个地方。每一个生物群落都有一处&lt;strong&gt;由系统生成的无限多样的着陆区&lt;/strong&gt;，每一处都有&lt;strong&gt;不同的资源、机会和挑战&lt;/strong&gt;。&lt;h2 class="bb_tag"&gt;用可定制的蒸汽机器人探索世界&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1076750/extras/SteamStoreMechFighting.gif?t=1683088392" /&gt;&lt;br&gt;这片荒野上梦魇横行。要探索您的周围环境，您需要&lt;strong&gt;直接控制一个独特的蒸汽机器人实时操作&lt;/strong&gt;。您可以按您的游戏风格偏好升级，装备和自定义蒸汽机器人。&lt;h2 class="bb_tag"&gt;揭开远古奥秘&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1076750/extras/Ruins-optimized.gif?t=1683088392" /&gt;&lt;br&gt;这个世界遍布着古代的遗迹和奇异的奥秘。当您在不同的地方飞行和着陆时，您会发现这些地方，开发它们，并&lt;strong&gt;揭开它们的奥秘&lt;/strong&gt;。（游戏中奥秘和传说尚未开放）。&lt;h2 class="bb_tag"&gt;研究、打造和升级您的基础设施&lt;/h2&gt;古人使用了先进的梦幻科技，但其中大部分现在已经被幻魇群袭和时间冲刷掉了。您可以在飞行城市中建立先进的科研设施研制其中一部分科技，为您的蒸汽机器人&lt;strong&gt;解锁高级建筑和新的工艺配方&lt;/strong&gt;。&lt;br&gt;&lt;br&gt;基础设施升级会为您提供永久加成和技能，方便您选择最适合您的游戏风格。您可以把辛苦得来的&lt;strong&gt;升级点&lt;/strong&gt;用于提升您的蒸汽机器人战斗力，或是突袭敌人的巢穴以获取宝贵的资源。您也可以将其用于加固城市防御工事，建造一个坚不可摧的堡垒。您还可以用于提升您的管理和经济技能，建立一个繁荣、富裕的超级工厂。&lt;h2 class="bb_tag"&gt;精心管理您的燃料和重量&lt;/h2&gt;密切关注您的城市的&lt;strong&gt;重量和燃料储备&lt;/strong&gt;。在错误的时间被迫着陆无疑是自掘坟墓。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1075740/extras/DescriptionCapsule.jpg?t=1693585336" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1075740/extras/BoR_SteamStore_Description_Tagline_616.png?t=1693585336" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1075740/extras/Steam_StorePage_Divider.png?t=1693585336" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1075740/extras/Steam_WishlistFollow.gif?t=1693585336" /&gt;&lt;br&gt;令人毛骨悚然的灭族者给黑足带来了灭顶之灾-你必须渗透他们的防御并阻止这样的暴行。&lt;br&gt;&lt;br&gt;建立你的卡组，并与多达6名小队成员使用卡牌进行战斗，穿越黎明之刻。 每位角色都拥有一系列独特的卡牌和能力，以此建立你的最强卡组。 在通往城市警卫队长的道路上击败每个精英对手，削弱灭族者的核心力量。 你和你的弟兄可能会为此而倒下，但总会有其他人传递薪火。 黑足氏族会铭记逝者，永不松懈。 穿越城市时你还将遇到一系列事件，这些事件可能会为你提供帮助，也有可能会造成麻烦。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1075740/extras/GateHouse.gif?t=1693585336" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1075740/extras/Store_Features.png?t=1693585336" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;通过掠夺、购买和解锁大量卡牌来构建你的卡组。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;海狸和熊?还是狼和黄鼠狼?在你的前行的过程中建立一个多达6人的队伍来与你的敌人战斗。 &lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;6种独特的种族卡池与被动技能等着你的探索与发掘。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;叮!升级你的角色以解锁能极大地影响你的策略的天赋卡和强大的被动技能。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;战利品!收集武器和盔甲，通过各种特效来增强你的队伍。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;路在何方?通过生动多彩的卡片提示选择你前行的道路。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;决断。在你的旅途中，会遇到各种各样的遭遇，这些遭遇给你带来的也许是灾难。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;随着游戏的深入，敌人会越来越具有挑战性。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;大侠请重新来过?每次游戏结束都将给与一定金币用以解锁新卡和被动技能，以帮助你取得胜利。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1075740/extras/EnemiesGif_StorePage_Optimised.gif?t=1693585336" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/HXdVQHb" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1075740/extras/BoR_JoinUsOnDiscord.png?t=1693585336" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1075740/extras/Steam_StorePage_Divider.png?t=1693585336" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1075740/extras/Greatsword_Optimised_Cropped.gif?t=1693585336" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1084160</t>
+          <t>1076750</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Jagged Alliance 3</t>
+          <t>Dream Engines: Nomad Cities</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>铁血联盟3</t>
+          <t>梦幻引擎：游牧城市</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>策略,战术,回合制战术,角色扮演,回合战略</t>
+          <t>抢先体验,城市营造,生存,自动化,角色扮演</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3523,41 +3528,36 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2023年07月14日</t>
+          <t>2021年07月14日</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>大犬座之国是个自然资源丰富、政治分歧严重的国度。当民选总统神秘失踪、非法军事部队“军团”攫取了农村的控制权时，整个国家陷入了一片混乱。眼下，总统的家人动用了手头一切资源（包括和势力强大的阿多尼斯企业达成协议）来聘请一队精锐雇佣兵。这支队伍将肩负起找到总统、并让国家恢复秩序的重任。&lt;br&gt;&lt;br&gt;在《Jagged Alliance 3》中，你可以从庞大的雇佣兵阵容中挑选精锐，他们每个人都有其独特的性格、癖好与背景故事；随后出发探索大犬座之国，你将在途中遇到全新人物、赚取金钱、发展队伍，并最终亲手决定国家的命运。 &lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;投身于内容丰富、讲究战术的回合制战斗&lt;br&gt;&lt;/li&gt;&lt;li&gt;从一大批独一无二的雇佣兵之中招兵买马，当中包括不少为粉丝们所熟知喜爱的面孔&lt;br&gt;&lt;/li&gt;&lt;li&gt;搜刮、回收并定制诸多武器和装备&lt;br&gt;&lt;/li&gt;&lt;li&gt;从形形色色的特殊技能中作出选择，自行打造并升级手下雇佣兵&lt;br&gt;&lt;/li&gt;&lt;li&gt;在开放式角色扮演游戏结构内，决定大犬座之国的命运&lt;br&gt;&lt;/li&gt;&lt;li&gt;在栩栩如生的动态世界中控制领土，训练本地居民，指挥多个阵营，对抗敌方势力&lt;br&gt;&lt;/li&gt;&lt;li&gt;在线上合作模式中与朋友一同感受战役的酣畅淋漓&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>先进的文明社会早已不复存在，只留下梦魇横行的世界，只有一些行踪隐匿的小型游牧部落幸存了下来。而现在，一项从历史尘埃中发掘的古老科技点燃了新的希望之火——具有飞行能力的游牧城市。&lt;h2 class="bb_tag"&gt;建造一座繁荣的飞行城市&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1076750/extras/Industry-optimized.gif?t=1683088392" /&gt;&lt;br&gt;城市的人口和经济是您生存的支柱。耗尽食物和资源就像在荒野中遇上幻魇群袭一样危险。规划并建立&lt;strong&gt;自动化生产线&lt;/strong&gt;，让您的市民安居乐业、衣食无忧。&lt;h2 class="bb_tag"&gt;坚持生存到最后一刻，然后赶紧跑！&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1076750/extras/Take-off-optimized.gif?t=1683088392" /&gt;&lt;br&gt;加固您的城市，在幻魇突袭中防守尽可能长的时间。但是即便是先进的古代文明也无法永久抵抗幻魇的攻击——您待得越久，它们就会变得越强大。然而，与古人不同的是，您可以在情况变得太棘手时&lt;strong&gt;带着整座城市直接飞走&lt;/strong&gt;。&lt;h2 class="bb_tag"&gt;权衡扩展建筑和一次性建筑的取舍&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1076750/extras/gif-2021-05-20_-_biomes.gif?t=1683088392" /&gt;&lt;br&gt;您的城市面积有限。您必须在为了扩张城市选择&lt;strong&gt;昂贵的长期升级&lt;/strong&gt;和&lt;strong&gt;建设将被舍弃的一次性基础设施&lt;/strong&gt;之间权衡轻重。谨慎选择您要携带的建筑，以及至少一段时间内暂不需要的建筑。&lt;h2 class="bb_tag"&gt;寻找并开发不同生物群落中的稀缺资源&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1076750/extras/Resources-optimized.gif?t=1683088392" /&gt;&lt;br&gt;资源是稀缺的，而您需要大量的资源来将您的城市变成一个自给自足的帝国。好在当您耗尽了周围的一切资源时，您随时可以移动到另一个地方。每一个生物群落都有一处&lt;strong&gt;由系统生成的无限多样的着陆区&lt;/strong&gt;，每一处都有&lt;strong&gt;不同的资源、机会和挑战&lt;/strong&gt;。&lt;h2 class="bb_tag"&gt;用可定制的蒸汽机器人探索世界&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1076750/extras/SteamStoreMechFighting.gif?t=1683088392" /&gt;&lt;br&gt;这片荒野上梦魇横行。要探索您的周围环境，您需要&lt;strong&gt;直接控制一个独特的蒸汽机器人实时操作&lt;/strong&gt;。您可以按您的游戏风格偏好升级，装备和自定义蒸汽机器人。&lt;h2 class="bb_tag"&gt;揭开远古奥秘&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1076750/extras/Ruins-optimized.gif?t=1683088392" /&gt;&lt;br&gt;这个世界遍布着古代的遗迹和奇异的奥秘。当您在不同的地方飞行和着陆时，您会发现这些地方，开发它们，并&lt;strong&gt;揭开它们的奥秘&lt;/strong&gt;。（游戏中奥秘和传说尚未开放）。&lt;h2 class="bb_tag"&gt;研究、打造和升级您的基础设施&lt;/h2&gt;古人使用了先进的梦幻科技，但其中大部分现在已经被幻魇群袭和时间冲刷掉了。您可以在飞行城市中建立先进的科研设施研制其中一部分科技，为您的蒸汽机器人&lt;strong&gt;解锁高级建筑和新的工艺配方&lt;/strong&gt;。&lt;br&gt;&lt;br&gt;基础设施升级会为您提供永久加成和技能，方便您选择最适合您的游戏风格。您可以把辛苦得来的&lt;strong&gt;升级点&lt;/strong&gt;用于提升您的蒸汽机器人战斗力，或是突袭敌人的巢穴以获取宝贵的资源。您也可以将其用于加固城市防御工事，建造一个坚不可摧的堡垒。您还可以用于提升您的管理和经济技能，建立一个繁荣、富裕的超级工厂。&lt;h2 class="bb_tag"&gt;精心管理您的燃料和重量&lt;/h2&gt;密切关注您的城市的&lt;strong&gt;重量和燃料储备&lt;/strong&gt;。在错误的时间被迫着陆无疑是自掘坟墓。</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1086940</t>
+          <t>1084160</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Baldur's Gate 3</t>
+          <t>Jagged Alliance 3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>博德之门3</t>
+          <t>铁血联盟3</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>角色扮演,选择取向,剧情丰富,角色自定义,冒险</t>
+          <t>策略,战术,回合制战术,角色扮演,回合战略</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3567,39 +3567,39 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2023年08月03日</t>
+          <t>2023年07月14日</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Larian_Steam_new_KeyArt_ready.gif?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;召集你的队伍，返回被遗忘的国度，开启一段充满友谊与背叛、牺牲与生存，以及至高无上力量诱惑的传奇故事。&lt;br&gt;&lt;br&gt;神秘的力量正在你体内苏醒，而这一切都来源于夺心魔种在你大脑里的寄生虫。反抗吧，将黑暗的力量反掌为用。你也可以选择接受这种腐化，变成终极的邪恶。&lt;br&gt;&lt;br&gt;来自《神界：原罪2》的创作团队所打造的次时代RPG，故事将在D&amp;amp;D（龙与地下城）的世界中展开。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Gather_new.gif?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;你可以从D&amp;amp;D玩家手册中的12个职业与11个种族中进行选择，或者直接扮演一个带有精心设计背景的起源英雄。无论你是踏上冒险之旅，还是去获取战利品，亦或是投身战斗，或者展开罗曼史，这些都将贯穿你在被遗忘的国度以及其他位面的冒险旅程。你可以选择单独游玩，或者是与最多三名队友一起进行联机游戏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/An_expansive_original_story.png?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;被劫持，被感染，陷入迷失。你正在变成一个怪物，但随着你体内的腐化力量的增长，你的力量也在增强。这力量可能能帮助你生存下来，但接受它的同时，你必将付出某种代价。然而，超越任何能力，你与队友之间建立的信任纽带可能会成为你最大的力量。在恶魔、诸神和邪恶的其他世界力量之间的冲突中，你将与队友共同决定被遗忘国度的命运。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Next_Gen_new.gif?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;利用全新的神界4.0引擎打造，《博德之门3》将为你提供前所未有的自由度，让你在这个充满角色、危险和欺诈的活跃世界中探索、尝试、互动，并获取实时的反馈。宏大的电影级叙事让你比以往任何时候都更接近你的角色。从被阴影诅咒的森林，到幽暗地域的神奇洞穴，再到博德之门本身的庞大城市，你的行动决定着冒险的过程，但你的选择将塑造你的遗产。你将被人们所铭记。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/No_adventure_will_be_the_same.png?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;被遗忘的国度是一个宏大、细节繁多、充满各色各样事物多元化的世界，到处都有等待被你发现的秘密——可互动的空间是探索的一个非常重要的部分。潜行，挖掘，推动物品，攀爬，还有跳跃，这些行动会贯穿你的整个旅途，从大地深处的幽暗地域，到地表城市闪亮的屋顶。你的每一个选择都会推动你的故事向前发展，每一个决定都会在世界上留下你的印记。你可以提升自己的角色、培养人际关系、树立敌人，并以自己的方式解决问题。每次游戏体验都是全新的无与伦比。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;最多可支持四名玩家的在线多人游戏&lt;br&gt;你可以将你的团队联合起来，同时攻击敌人，也可以将队伍分开，各自执行自己的任务和计划。一起制定完美的计划......或者在朋友们最意想不到的时候引入混乱元素。人际关系是很复杂的。尤其是当你脑中有寄生虫的时候。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;起源角色&lt;br&gt;7 位独一无二的起源角色为你带来精雕细琢的体验，每个人都有自己独特的特质、思想和世界观。他们的故事与总体叙事相互交错，而你的选择将决定这些故事的结局是救赎、拯救、统治，还是其他多种结局之一。你可以扮演原住民，欣赏他们的故事，也可以招募他们与你并肩作战。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;全新进化的回合制战斗&lt;br&gt;基于第五版《龙与地下城》规则。你可以体验基于团队战斗的主动权，和在战斗中不同决策带来的优势和劣势。我们增添了战地视角下的掷骰修正，也拓展了环境之间的交互性，增添了新的、更加灵活的战术和奖励，以让你在战斗中尽情展现你的策略和远见。三种难度设置可让您自定义战斗的挑战性。启用骰子加成来左右战斗，或在策略模式下进行游戏，以获得真正的硬核体验。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;前所未有的广度和深度&lt;br&gt;在 11 个种族（人类、吉斯洋基人、半兽人、矮人、精灵、卓尔、提夫林、半身人、半精灵、侏儒、龙裔）的基础上又增加了 31 个亚种，并从 12 个职业中分支出 46 个子职。在这个精雕细琢的世界中，600 多种法术和行动提供了近乎无限的互动自由。在这个世界中，探索是一种奖励，而玩家的主动性决定了旅程。我们独特的“角色创建器”具有前所未有的角色深度，其丰富的互动选项可确保无论你是谁，都会为你打造出独特的角色，一直到 12 级。超过 174 小时的过场动画确保无论你做出什么选择，过场动画都会跟随你的旅程——每一次游戏体验都是一次全新的电影之旅。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;复杂而深刻的浪漫故事&lt;br&gt;战争的威胁迫在眉睫地向博德之门袭来，夺心魔的入侵也即将来临，而友谊——尽管并非必要——也将加入你的旅途中。你将与沿途遇到的人建立起真实、充满活力的关系，至于他们会变成什么样，则取决于你自己。每个同伴都有自己的道德指南针，会对你在旅途中做出的选择做出反应。你将以怎样的代价坚持自己的理想？你会让爱左右你的行动吗？在通往博德之门的道路上建立起来的关系既是您在营地休息的片刻，也为你在冒险中做出的许多决定增添了砝码。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;高度定制的直播体验&lt;br&gt;当您点击“开始直播”时，您的直播将不会被如熊、粗口或缺乏着装等因素所干扰。《博德之门 3》提供了3种不同级别的适合直播的定制选项。您可以分别（或同时）禁用裸体和露骨的内容，并可以启用Twitch集成功能，直接与观众互动，正如我们在《地狱飨宴》展示会上所做的一样！有了这些选项，无论您选择以何种方式进行游戏，《博德之门 3》都能保证您的直播进行得顺利。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Final_Image_new.gif?t=1692294127" /&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>大犬座之国是个自然资源丰富、政治分歧严重的国度。当民选总统神秘失踪、非法军事部队“军团”攫取了农村的控制权时，整个国家陷入了一片混乱。眼下，总统的家人动用了手头一切资源（包括和势力强大的阿多尼斯企业达成协议）来聘请一队精锐雇佣兵。这支队伍将肩负起找到总统、并让国家恢复秩序的重任。&lt;br&gt;&lt;br&gt;在《Jagged Alliance 3》中，你可以从庞大的雇佣兵阵容中挑选精锐，他们每个人都有其独特的性格、癖好与背景故事；随后出发探索大犬座之国，你将在途中遇到全新人物、赚取金钱、发展队伍，并最终亲手决定国家的命运。 &lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;投身于内容丰富、讲究战术的回合制战斗&lt;br&gt;&lt;/li&gt;&lt;li&gt;从一大批独一无二的雇佣兵之中招兵买马，当中包括不少为粉丝们所熟知喜爱的面孔&lt;br&gt;&lt;/li&gt;&lt;li&gt;搜刮、回收并定制诸多武器和装备&lt;br&gt;&lt;/li&gt;&lt;li&gt;从形形色色的特殊技能中作出选择，自行打造并升级手下雇佣兵&lt;br&gt;&lt;/li&gt;&lt;li&gt;在开放式角色扮演游戏结构内，决定大犬座之国的命运&lt;br&gt;&lt;/li&gt;&lt;li&gt;在栩栩如生的动态世界中控制领土，训练本地居民，指挥多个阵营，对抗敌方势力&lt;br&gt;&lt;/li&gt;&lt;li&gt;在线上合作模式中与朋友一同感受战役的酣畅淋漓&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1093290</t>
+          <t>1086940</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>The Wild at Heart</t>
+          <t>Baldur's Gate 3</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>狂野之心</t>
+          <t>博德之门3</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>剧情丰富,解谜,2D,动作冒险,手绘</t>
+          <t>角色扮演,选择取向,角色自定义,剧情丰富,冒险</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3607,49 +3607,91 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>9.8</t>
+        </is>
+      </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2021年05月20日</t>
+          <t>2023年08月03日</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>在这个丰富多彩、紧密联系的世界中，指挥越来越多的古怪生物，重修破碎通道，与危险的野兽作战，并解决稀奇古怪的谜题。与两个离家出走的小朋友一起冒险，在这个怀旧的奇幻故事中解开失落王国的奥秘！&lt;br&gt;&lt;br&gt;&lt;strong&gt;召唤伙伴&lt;/strong&gt;&lt;br&gt;集结和指挥古怪的魔法小精灵， 让它们帮你打碎物品、收集战利品、攻击敌人以及开辟新道路等等！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1093290/extras/amass_your_horde.gif?t=1661994133" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;尽情探索&lt;/strong&gt;&lt;br&gt;这个古老的避世之地的地貌多样，森林、洞穴、海岸线和古神祠不一而足…幽深森林的各种不解之谜在等着你来探索呢。&lt;br&gt;&lt;br&gt;&lt;strong&gt;收集与制造&lt;/strong&gt;&lt;br&gt;收集魔法水晶、废铁和电气部件等稀有资源，用它们打造全新的建筑、物品或进行升级！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1093290/extras/collect_and_craft.gif?t=1661994133" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;精彩的战斗&lt;/strong&gt;&lt;br&gt;指挥你的小精灵军队，拿起吸魔器，对付那些危险的野生动物和超出常人想象的敌人吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1093290/extras/battle.gif?t=1661994133" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;夜幕降临&lt;/strong&gt;&lt;br&gt;幽深森林的居民都知道一句老话：“暗孕育不详！”这可不是瞎说的。邪恶的存在徘徊在阴影之中，每当夜幕降临，请务必回到营地等待天光大亮。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1093290/extras/Nightfall.gif?t=1661994133" /&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Larian_Steam_new_KeyArt_ready.gif?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;召集你的队伍，返回被遗忘的国度，开启一段充满友谊与背叛、牺牲与生存，以及至高无上力量诱惑的传奇故事。&lt;br&gt;&lt;br&gt;神秘的力量正在你体内苏醒，而这一切都来源于夺心魔种在你大脑里的寄生虫。反抗吧，将黑暗的力量反掌为用。你也可以选择接受这种腐化，变成终极的邪恶。&lt;br&gt;&lt;br&gt;来自《神界：原罪2》的创作团队所打造的次时代RPG，故事将在D&amp;amp;D（龙与地下城）的世界中展开。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Gather_new.gif?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;你可以从D&amp;amp;D玩家手册中的12个职业与11个种族中进行选择，或者直接扮演一个带有精心设计背景的起源英雄。无论你是踏上冒险之旅，还是去获取战利品，亦或是投身战斗，或者展开罗曼史，这些都将贯穿你在被遗忘的国度以及其他位面的冒险旅程。你可以选择单独游玩，或者是与最多三名队友一起进行联机游戏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/An_expansive_original_story.png?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;被劫持，被感染，陷入迷失。你正在变成一个怪物，但随着你体内的腐化力量的增长，你的力量也在增强。这力量可能能帮助你生存下来，但接受它的同时，你必将付出某种代价。然而，超越任何能力，你与队友之间建立的信任纽带可能会成为你最大的力量。在恶魔、诸神和邪恶的其他世界力量之间的冲突中，你将与队友共同决定被遗忘国度的命运。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Next_Gen_new.gif?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;利用全新的神界4.0引擎打造，《博德之门3》将为你提供前所未有的自由度，让你在这个充满角色、危险和欺诈的活跃世界中探索、尝试、互动，并获取实时的反馈。宏大的电影级叙事让你比以往任何时候都更接近你的角色。从被阴影诅咒的森林，到幽暗地域的神奇洞穴，再到博德之门本身的庞大城市，你的行动决定着冒险的过程，但你的选择将塑造你的遗产。你将被人们所铭记。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/No_adventure_will_be_the_same.png?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;被遗忘的国度是一个宏大、细节繁多、充满各色各样事物多元化的世界，到处都有等待被你发现的秘密——可互动的空间是探索的一个非常重要的部分。潜行，挖掘，推动物品，攀爬，还有跳跃，这些行动会贯穿你的整个旅途，从大地深处的幽暗地域，到地表城市闪亮的屋顶。你的每一个选择都会推动你的故事向前发展，每一个决定都会在世界上留下你的印记。你可以提升自己的角色、培养人际关系、树立敌人，并以自己的方式解决问题。每次游戏体验都是全新的无与伦比。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;最多可支持四名玩家的在线多人游戏&lt;br&gt;你可以将你的团队联合起来，同时攻击敌人，也可以将队伍分开，各自执行自己的任务和计划。一起制定完美的计划......或者在朋友们最意想不到的时候引入混乱元素。人际关系是很复杂的。尤其是当你脑中有寄生虫的时候。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;起源角色&lt;br&gt;7 位独一无二的起源角色为你带来精雕细琢的体验，每个人都有自己独特的特质、思想和世界观。他们的故事与总体叙事相互交错，而你的选择将决定这些故事的结局是救赎、拯救、统治，还是其他多种结局之一。你可以扮演原住民，欣赏他们的故事，也可以招募他们与你并肩作战。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;全新进化的回合制战斗&lt;br&gt;基于第五版《龙与地下城》规则。你可以体验基于团队战斗的主动权，和在战斗中不同决策带来的优势和劣势。我们增添了战地视角下的掷骰修正，也拓展了环境之间的交互性，增添了新的、更加灵活的战术和奖励，以让你在战斗中尽情展现你的策略和远见。三种难度设置可让您自定义战斗的挑战性。启用骰子加成来左右战斗，或在策略模式下进行游戏，以获得真正的硬核体验。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;前所未有的广度和深度&lt;br&gt;在 11 个种族（人类、吉斯洋基人、半兽人、矮人、精灵、卓尔、提夫林、半身人、半精灵、侏儒、龙裔）的基础上又增加了 31 个亚种，并从 12 个职业中分支出 46 个子职。在这个精雕细琢的世界中，600 多种法术和行动提供了近乎无限的互动自由。在这个世界中，探索是一种奖励，而玩家的主动性决定了旅程。我们独特的“角色创建器”具有前所未有的角色深度，其丰富的互动选项可确保无论你是谁，都会为你打造出独特的角色，一直到 12 级。超过 174 小时的过场动画确保无论你做出什么选择，过场动画都会跟随你的旅程——每一次游戏体验都是一次全新的电影之旅。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;复杂而深刻的浪漫故事&lt;br&gt;战争的威胁迫在眉睫地向博德之门袭来，夺心魔的入侵也即将来临，而友谊——尽管并非必要——也将加入你的旅途中。你将与沿途遇到的人建立起真实、充满活力的关系，至于他们会变成什么样，则取决于你自己。每个同伴都有自己的道德指南针，会对你在旅途中做出的选择做出反应。你将以怎样的代价坚持自己的理想？你会让爱左右你的行动吗？在通往博德之门的道路上建立起来的关系既是您在营地休息的片刻，也为你在冒险中做出的许多决定增添了砝码。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;高度定制的直播体验&lt;br&gt;当您点击“开始直播”时，您的直播将不会被如熊、粗口或缺乏着装等因素所干扰。《博德之门 3》提供了3种不同级别的适合直播的定制选项。您可以分别（或同时）禁用裸体和露骨的内容，并可以启用Twitch集成功能，直接与观众互动，正如我们在《地狱飨宴》展示会上所做的一样！有了这些选项，无论您选择以何种方式进行游戏，《博德之门 3》都能保证您的直播进行得顺利。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Final_Image_new.gif?t=1692294127" /&gt;&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
+          <t>1093290</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>The Wild at Heart</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>狂野之心</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>剧情丰富,解谜,2D,动作冒险,手绘</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2021年05月20日</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>在这个丰富多彩、紧密联系的世界中，指挥越来越多的古怪生物，重修破碎通道，与危险的野兽作战，并解决稀奇古怪的谜题。与两个离家出走的小朋友一起冒险，在这个怀旧的奇幻故事中解开失落王国的奥秘！&lt;br&gt;&lt;br&gt;&lt;strong&gt;召唤伙伴&lt;/strong&gt;&lt;br&gt;集结和指挥古怪的魔法小精灵， 让它们帮你打碎物品、收集战利品、攻击敌人以及开辟新道路等等！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1093290/extras/amass_your_horde.gif?t=1661994133" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;尽情探索&lt;/strong&gt;&lt;br&gt;这个古老的避世之地的地貌多样，森林、洞穴、海岸线和古神祠不一而足…幽深森林的各种不解之谜在等着你来探索呢。&lt;br&gt;&lt;br&gt;&lt;strong&gt;收集与制造&lt;/strong&gt;&lt;br&gt;收集魔法水晶、废铁和电气部件等稀有资源，用它们打造全新的建筑、物品或进行升级！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1093290/extras/collect_and_craft.gif?t=1661994133" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;精彩的战斗&lt;/strong&gt;&lt;br&gt;指挥你的小精灵军队，拿起吸魔器，对付那些危险的野生动物和超出常人想象的敌人吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1093290/extras/battle.gif?t=1661994133" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;夜幕降临&lt;/strong&gt;&lt;br&gt;幽深森林的居民都知道一句老话：“暗孕育不详！”这可不是瞎说的。邪恶的存在徘徊在阴影之中，每当夜幕降临，请务必回到营地等待天光大亮。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1093290/extras/Nightfall.gif?t=1661994133" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
           <t>1097590</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Cleaner</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Cleaner</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>射箭,休闲,横向滚屏,破坏,2D</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
         <is>
           <t>2019年07月10日</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>The world is gripped by a pandemic. Deadly viruses threaten to infect more than half of humanity and kill tens of millions of people! The number of cases is increasing every day. Everyone should contribute to the fight against viruses in this difficult time.&lt;br /&gt;
 &lt;br /&gt;
@@ -3667,80 +3709,80 @@
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>1102190</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Monster Train</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>怪物火车</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>卡牌战斗,轻度 Rogue,卡牌游戏,回合制战术,类 Rogue</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>9.2</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>2020年05月22日</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1102190/extras/out__new.gif?t=1666054291" /&gt;&lt;br&gt;地狱已被彻底冻结。只有您能够抵御天堂大军，守护最后的薪火，让地狱再度燃起烈焰。在《怪物火车》中，您需要守卫三个纵向战场，运筹帷幄，感受这款增加了策略提升的 Roguelike 卡牌构筑类游戏的魅力吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1102190/extras/out_(2).gif?t=1666054291" /&gt;&lt;h2 class="bb_tag"&gt;每一次的游戏体验都大不相同&lt;/h2&gt; &lt;br&gt;永远都有新的卡组等您尝试！&lt;br&gt;&lt;br&gt;* 超过 220 张卡牌&lt;br&gt;* 五大怪物氏族，各有不同玩法&lt;br&gt;* 每个氏族都有 10 个等级等待解锁，可为您的卡组增添全新卡牌&lt;br&gt;* 不断升级氏族专属的勇者&lt;br&gt;* 88 件神器&lt;br&gt;* 每张卡牌都可升级两次&lt;br&gt;* 超过 21 个独特随机事件&lt;br&gt;* 25 个契约（难度）关卡&lt;h2 class="bb_tag"&gt;前往多个强大的地点&lt;/h2&gt;想要夺回地狱，您需要不断提升自己的实力。谨慎选择您的路线，不同的地点带来的奖励也不尽相同。升级您的勇者，招募强力单位，升级卡牌，获得被动加成，或是复制卡组中的卡牌。&lt;h2 class="bb_tag"&gt;为您的游戏玩法制定合适的战略&lt;/h2&gt;共有五大氏族供您挑选，每种都能为您带来独特又惊喜的游戏体验。选择您的主、副氏族，并从中获得全部的氏族卡牌。在游戏过程中，您还可以通过组合升级的方式提升卡牌，开辟新的道路来获得胜利。您甚至还能够在挑战最终首领之前，先在特殊的地图节点上复制您最钟爱的卡牌。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1102190/extras/out_(1).gif?t=1666054291" /&gt;&lt;h2 class="bb_tag"&gt;多人模式&lt;/h2&gt;&lt;br&gt;&lt;strong&gt;地狱竞速&lt;/strong&gt;&lt;br&gt;在地狱竞速多人模式中，八名玩家展开角逐，开启一场疯狂的实时比赛。在公平的竞争环境中，每位玩家都需要运用同样的资源挑战相同的敌人。时间紧迫，能够抗住压力并做出明智决策的人才能成为赢家。唯有真正的速度之魔才能立于不败之地。&lt;br&gt;&lt;br&gt;&lt;strong&gt;每日挑战&lt;/strong&gt;&lt;br&gt;游戏玩法转变器每天都会生成全新的挑战，大量修改的游戏内容为您带来焕然一新的体验。与全世界的玩家或与好友一同竞技，还有着重考察技巧的评分系统为您打分，不断攀升在排行榜上的名次吧。&lt;br&gt;&lt;br&gt;&lt;strong&gt;自定义挑战&lt;/strong&gt;&lt;br&gt;定制专属的挑战，并与好友一同分享。每个自定义挑战都会有单独的排行榜，击败您的朋友，亲手将他们送入地狱吧。</t>
-        </is>
-      </c>
-    </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
+          <t>1102190</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Monster Train</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>怪物火车</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>卡牌战斗,轻度 Rogue,卡牌游戏,回合制战术,类 Rogue</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2020年05月22日</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1102190/extras/out__new.gif?t=1666054291" /&gt;&lt;br&gt;地狱已被彻底冻结。只有您能够抵御天堂大军，守护最后的薪火，让地狱再度燃起烈焰。在《怪物火车》中，您需要守卫三个纵向战场，运筹帷幄，感受这款增加了策略提升的 Roguelike 卡牌构筑类游戏的魅力吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1102190/extras/out_(2).gif?t=1666054291" /&gt;&lt;h2 class="bb_tag"&gt;每一次的游戏体验都大不相同&lt;/h2&gt; &lt;br&gt;永远都有新的卡组等您尝试！&lt;br&gt;&lt;br&gt;* 超过 220 张卡牌&lt;br&gt;* 五大怪物氏族，各有不同玩法&lt;br&gt;* 每个氏族都有 10 个等级等待解锁，可为您的卡组增添全新卡牌&lt;br&gt;* 不断升级氏族专属的勇者&lt;br&gt;* 88 件神器&lt;br&gt;* 每张卡牌都可升级两次&lt;br&gt;* 超过 21 个独特随机事件&lt;br&gt;* 25 个契约（难度）关卡&lt;h2 class="bb_tag"&gt;前往多个强大的地点&lt;/h2&gt;想要夺回地狱，您需要不断提升自己的实力。谨慎选择您的路线，不同的地点带来的奖励也不尽相同。升级您的勇者，招募强力单位，升级卡牌，获得被动加成，或是复制卡组中的卡牌。&lt;h2 class="bb_tag"&gt;为您的游戏玩法制定合适的战略&lt;/h2&gt;共有五大氏族供您挑选，每种都能为您带来独特又惊喜的游戏体验。选择您的主、副氏族，并从中获得全部的氏族卡牌。在游戏过程中，您还可以通过组合升级的方式提升卡牌，开辟新的道路来获得胜利。您甚至还能够在挑战最终首领之前，先在特殊的地图节点上复制您最钟爱的卡牌。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1102190/extras/out_(1).gif?t=1666054291" /&gt;&lt;h2 class="bb_tag"&gt;多人模式&lt;/h2&gt;&lt;br&gt;&lt;strong&gt;地狱竞速&lt;/strong&gt;&lt;br&gt;在地狱竞速多人模式中，八名玩家展开角逐，开启一场疯狂的实时比赛。在公平的竞争环境中，每位玩家都需要运用同样的资源挑战相同的敌人。时间紧迫，能够抗住压力并做出明智决策的人才能成为赢家。唯有真正的速度之魔才能立于不败之地。&lt;br&gt;&lt;br&gt;&lt;strong&gt;每日挑战&lt;/strong&gt;&lt;br&gt;游戏玩法转变器每天都会生成全新的挑战，大量修改的游戏内容为您带来焕然一新的体验。与全世界的玩家或与好友一同竞技，还有着重考察技巧的评分系统为您打分，不断攀升在排行榜上的名次吧。&lt;br&gt;&lt;br&gt;&lt;strong&gt;自定义挑战&lt;/strong&gt;&lt;br&gt;定制专属的挑战，并与好友一同分享。每个自定义挑战都会有单独的排行榜，击败您的朋友，亲手将他们送入地狱吧。</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
           <t>1114530</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>TTV3</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>TTV3</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>独立,动作,休闲,街机,像素图形</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
         <is>
           <t>2019年07月19日</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>TTV3 is the third volume of the retro hardcore maze wanderer minigame series Trip to Vinelands&lt;br /&gt;
 Exit the screen avoiding vines, blades, and spikes.&lt;br /&gt;
@@ -3748,67 +3790,25 @@
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>1122720</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Sayonara Wild Hearts</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>再见狂野之心</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>好评原声音轨,音乐,节奏,动作,休闲</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>9.2</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>2019年12月13日</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>&lt;strong&gt;一款流行专辑视频游戏&lt;/strong&gt;&lt;br&gt;&lt;br&gt;《Sayonara Wild Hearts》是一款梦幻般的街机游戏。在游戏中，你将以每小时 200 英里的速度急速前行，体验包括骑摩托车、踩滑板、斗舞、发射激光、挥舞利剑以及击破心脏寻找和声等精彩刺激的元素。&lt;br&gt;&lt;br&gt;一位年轻姑娘的心碎成一地，导致宇宙瞬间失去平衡。一只钻石蝴蝶出现在她的梦里，带领她穿越星际高速公路，找到了另一个自我：一位叫做“小傻瓜”的蒙面骑手。&lt;br&gt;&lt;br&gt;伴随定制的流行音乐曲目踏上追逐乐谱的征程，找到小小死神和她穿越星际的盟友，击破他们的心脏，寻回宇宙的和声。小小死神的盟友分别是：邪恶舞者、咆哮月神、立体声爱好者和隐士 64。&lt;br&gt;&lt;br&gt;让我们随着音符急速狂奔吧！</t>
-        </is>
-      </c>
-    </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1142810</t>
+          <t>1122720</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Toasterball</t>
+          <t>Sayonara Wild Hearts</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>吐司球</t>
+          <t>再见狂野之心</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>独立,本地多人,本地合作,物理,欢乐</t>
+          <t>好评原声音轨,音乐,节奏,动作,休闲</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3816,36 +3816,41 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2023年05月03日</t>
+          <t>2019年12月13日</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;一颗球，两道球门，外加几个……吐司机！欢迎参加吐司球比赛！&lt;/h2&gt;《吐司球》是遵循物理规律的多人体育游戏，上手容易，非常适合几个朋友凑在一起畅玩（本地1-4人多人模式）。玩家会变成吐司机，所以会遇到某些奇怪的物理现象，局面有时候会比较慌乱，有可能触电，还会烤煳超级多吐司。游戏还存在一定的学习曲线，有些高玩操作需要一段时间才能掌握，还有各种玩法足够大家开开心心玩上很久。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1142810/extras/KeyVideo.gif?t=1693920088" /&gt;&lt;h2 class="bb_tag"&gt;容易上手，不容易玩好&lt;/h2&gt;《吐司球》的基本操作非常简单——按住吐司机的按钮，然后松手……然后你就知道了！按钮按得越久，吐司弹得就越高。每次弹射吐司，你也会跳起来，所以可以满场跳来跳去，把对手逼进绝境。不论是二段连跳，还是威力巨大的“空翻”，你玩得越多，就越能发现这些高级操作的妙用！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1142810/extras/moves.gif?t=1693920088" /&gt;&lt;h2 class="bb_tag"&gt;意想不到的玩法&lt;/h2&gt;进球之后，比赛就会随机切换玩法，会有新的物理法则、演讲坑、传送门、移动平台乃至爆炸球……前后两局比赛的玩法绝对不会一样！游戏除了24种玩法之外，吐司机的尺寸和吐司的数量也会各不相同，增加更多可能。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1142810/extras/variants.gif?t=1693920088" /&gt;&lt;h2 class="bb_tag"&gt;特色鲜明的场景&lt;/h2&gt;五个场景供你选择——传奇的吐司球场、神秘的班戟恰多丛林、缅包镇广场历史悠久的巷子、挞挞堡雄伟的城堡、波多拉达阳光明媚的海滩。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1142810/extras/maps.gif?t=1693920088" /&gt;&lt;h2 class="bb_tag"&gt;AI吐司机&lt;/h2&gt;嘀嘀、嘟嘟和嘀嘟是新一代AI吐司机，你可以与它们一同比赛，也可以享受单人比赛的乐趣！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1142810/extras/Bots_616x206.gif?t=1693920088" /&gt;&lt;h2 class="bb_tag"&gt;自定义比赛&lt;/h2&gt;进入“自定义模式”，随机组合玩法与场景。你可以改变场景的次序，可以使用微缩吐司机参赛，也可以不带吐司参赛，甚至可以自行调整游戏的基本规则，例如球门的门板需要多少下可以撞破，或者每台吐司机可以承受多少伤害，又或者每场比赛需要多少分才能获胜。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1142810/extras/Custom.gif?t=1693920088" /&gt;&lt;h2 class="bb_tag"&gt;传奇选手&lt;/h2&gt;不论选择烘烤队还是解冻队，吐司球联赛的14名传奇球手都可以任你选择！它们有老式的厨房电器，也有先进的吐司压烤机器或古老的面包勇士，每台机器的性格和背景故事都各不相同，它们的外观有所反映，更衣室柜子以及出场动画这些小细节也有所反映。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1142810/extras/athletes.gif?t=1693920088" /&gt;</t>
+          <t>&lt;strong&gt;一款流行专辑视频游戏&lt;/strong&gt;&lt;br&gt;&lt;br&gt;《Sayonara Wild Hearts》是一款梦幻般的街机游戏。在游戏中，你将以每小时 200 英里的速度急速前行，体验包括骑摩托车、踩滑板、斗舞、发射激光、挥舞利剑以及击破心脏寻找和声等精彩刺激的元素。&lt;br&gt;&lt;br&gt;一位年轻姑娘的心碎成一地，导致宇宙瞬间失去平衡。一只钻石蝴蝶出现在她的梦里，带领她穿越星际高速公路，找到了另一个自我：一位叫做“小傻瓜”的蒙面骑手。&lt;br&gt;&lt;br&gt;伴随定制的流行音乐曲目踏上追逐乐谱的征程，找到小小死神和她穿越星际的盟友，击破他们的心脏，寻回宇宙的和声。小小死神的盟友分别是：邪恶舞者、咆哮月神、立体声爱好者和隐士 64。&lt;br&gt;&lt;br&gt;让我们随着音符急速狂奔吧！</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1159690</t>
+          <t>1142810</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Voidtrain</t>
+          <t>Toasterball</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>虚空列车</t>
+          <t>吐司球</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>开放世界生存制作,多人,生存,合作,开放世界</t>
+          <t>独立,本地多人,本地合作,物理,欢乐</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3853,41 +3858,36 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
-      </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2023年05月09日</t>
+          <t>2023年05月03日</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1159690/extras/chinese-note.jpg?t=1688716761" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1159690/extras/ezgif-4-10c04185bd.gif?t=1688716761" /&gt;&lt;br&gt;&lt;br&gt;你是一名工程师，突然闯入了陌生而神秘的虚空。这个世界有着自己的历史、规则与未来。建造并升级你自己的火车，制作强力武器，与各种敌人战斗。在虚空超现实的环境中，你得设法独自一人或与好友一起活下去。&lt;br&gt; &lt;br&gt;&lt;a href="https://store.steampowered.com/app/1159690/Voidtrain/" target="_blank" rel=""  id="dynamiclink_3" &gt;https://store.steampowered.com/app/1159690/Voidtrain/&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1159690/extras/ezgif-1-e3dce86e59.gif?t=1688716761" /&gt; &lt;br&gt;&lt;strong&gt;探索虚空&lt;/strong&gt;&lt;br&gt;在这个不断变化的广袤世界中探索神秘而独特的地点。发现浮空岛屿，上面有各种谜题和危险的动物。设法穿越雷区并前往火车站。结识可爱的大眼仔，并让他们成为你火车上的一员。虚空绝不会令寻求冒险者失望。做好准备接受它的挑战吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1159690/extras/ezgif-3-c08ca0ca93-sm.gif?t=1688716761" /&gt;&lt;br&gt;&lt;strong&gt;建造你的火车&lt;/strong&gt;&lt;br&gt;你可不是简单地在原有火车上扩建，而是得亲自从零开始造出来。你一开始只有一节空车厢，你得将其开发成一列像样的火车，这列火车得拥有多节车厢以及一部高级引擎。自定义你火车的外观，并往里面装入各种物件，如贮藏、工作台、装饰以及玩小游戏的桌子等。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1159690/extras/ezgif-1-d9ec729ac4.gif?t=1688716761" /&gt;  &lt;br&gt;&lt;strong&gt;为生存而战&lt;/strong&gt;&lt;br&gt;虚空凶险异常，你一路上会遇到各种敌人，如普通的士兵，以及嗜血的鲨鱼。制作并自定义你的武器与装备，甩掉追逐你的敌人，在竞技场里面对一波波来袭的敌人，肃清哨站并时刻准备着为生存而战。&lt;h2 class="bb_tag"&gt;《虚空列车》游戏交流群：325764950。&lt;/h2&gt;&lt;a href="https://store.steampowered.com/app/1159690/Voidtrain/" target="_blank" rel=""  id="dynamiclink_4" &gt;https://store.steampowered.com/app/1159690/Voidtrain/&lt;/a&gt;</t>
+          <t>&lt;h2 class="bb_tag"&gt;一颗球，两道球门，外加几个……吐司机！欢迎参加吐司球比赛！&lt;/h2&gt;《吐司球》是遵循物理规律的多人体育游戏，上手容易，非常适合几个朋友凑在一起畅玩（本地1-4人多人模式）。玩家会变成吐司机，所以会遇到某些奇怪的物理现象，局面有时候会比较慌乱，有可能触电，还会烤煳超级多吐司。游戏还存在一定的学习曲线，有些高玩操作需要一段时间才能掌握，还有各种玩法足够大家开开心心玩上很久。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1142810/extras/KeyVideo.gif?t=1693920088" /&gt;&lt;h2 class="bb_tag"&gt;容易上手，不容易玩好&lt;/h2&gt;《吐司球》的基本操作非常简单——按住吐司机的按钮，然后松手……然后你就知道了！按钮按得越久，吐司弹得就越高。每次弹射吐司，你也会跳起来，所以可以满场跳来跳去，把对手逼进绝境。不论是二段连跳，还是威力巨大的“空翻”，你玩得越多，就越能发现这些高级操作的妙用！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1142810/extras/moves.gif?t=1693920088" /&gt;&lt;h2 class="bb_tag"&gt;意想不到的玩法&lt;/h2&gt;进球之后，比赛就会随机切换玩法，会有新的物理法则、演讲坑、传送门、移动平台乃至爆炸球……前后两局比赛的玩法绝对不会一样！游戏除了24种玩法之外，吐司机的尺寸和吐司的数量也会各不相同，增加更多可能。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1142810/extras/variants.gif?t=1693920088" /&gt;&lt;h2 class="bb_tag"&gt;特色鲜明的场景&lt;/h2&gt;五个场景供你选择——传奇的吐司球场、神秘的班戟恰多丛林、缅包镇广场历史悠久的巷子、挞挞堡雄伟的城堡、波多拉达阳光明媚的海滩。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1142810/extras/maps.gif?t=1693920088" /&gt;&lt;h2 class="bb_tag"&gt;AI吐司机&lt;/h2&gt;嘀嘀、嘟嘟和嘀嘟是新一代AI吐司机，你可以与它们一同比赛，也可以享受单人比赛的乐趣！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1142810/extras/Bots_616x206.gif?t=1693920088" /&gt;&lt;h2 class="bb_tag"&gt;自定义比赛&lt;/h2&gt;进入“自定义模式”，随机组合玩法与场景。你可以改变场景的次序，可以使用微缩吐司机参赛，也可以不带吐司参赛，甚至可以自行调整游戏的基本规则，例如球门的门板需要多少下可以撞破，或者每台吐司机可以承受多少伤害，又或者每场比赛需要多少分才能获胜。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1142810/extras/Custom.gif?t=1693920088" /&gt;&lt;h2 class="bb_tag"&gt;传奇选手&lt;/h2&gt;不论选择烘烤队还是解冻队，吐司球联赛的14名传奇球手都可以任你选择！它们有老式的厨房电器，也有先进的吐司压烤机器或古老的面包勇士，每台机器的性格和背景故事都各不相同，它们的外观有所反映，更衣室柜子以及出场动画这些小细节也有所反映。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1142810/extras/athletes.gif?t=1693920088" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1161590</t>
+          <t>1159690</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Punch Club 2: Fast Forward</t>
+          <t>Voidtrain</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>拳击俱乐部2：快进未来</t>
+          <t>虚空列车</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>时间管理,资源管理,武术,像素图形,冒险</t>
+          <t>开放世界生存制作,多人,生存,合作,开放世界</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3897,39 +3897,39 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2023年07月21日</t>
+          <t>2023年05月09日</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1161590/extras/bug.png?t=1693994061" /&gt;&lt;br&gt;非常感谢大家对《拳击俱乐部2》的支持！如您在游戏中遇到bug，有玩法策略相关的问题，或希望向开发者反馈游戏的改进建议，请在&lt;a href="https://steamcommunity.com/app/1161590/discussions/1/3802777561346115722/" target="_blank" rel=""  &gt;&lt;strong&gt;本帖子&lt;/strong&gt;&lt;/a&gt;的评论区留言，我们会尽快处理您的反馈，感谢！&lt;br&gt;&lt;br&gt;帖子中也包含一些游戏常见问题的说明，希望能够对您的游玩体验有所帮助！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1161590/extras/CN_Welcome_to_the_Future_of_Punch_Club!.png?t=1693994061" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1161590/extras/workout_comb3.gif?t=1693994061" /&gt;&lt;br&gt;&lt;br&gt;你母亲专横跋扈，你在她的车库里度过了漫长的20年；你父亲早就神秘消失了，甚至没等到你出生。但这根本无所谓，你有足够的时间来健身和幻想大千世界的种种美好。你的生活已然一团糟，而世人更是吃着烂泥一般的食物、腐败横行，人人都想揍你一顿……不过，也许你可以找到生父，并成为大家口口相传的“暗拳”；不知为何，你居然真有可能是人类的救星，那个揭开“善行公司”超级秘密的人……当然，也可能是你搞错了。这是一趟自主冒险之旅，如果愿意的话，你也可以选择在车库里度过余生。&lt;br&gt; &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1161590/extras/CN_Choose_your.png?t=1693994061" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1161590/extras/train.gif?t=1693994061" /&gt; &lt;br&gt;&lt;br&gt;早在20年前，一个无名的酷小子痛揍了大恶霸，找到了他的父亲，每个人都过上了真正的幸福生活。欢迎来到未来，现在腐败依旧，贝壳早已取代了厕纸，一切都那么赛博朋克。走在原来的街道上，但现在这里到处都是霓虹灯，你陷入了喧闹的80年代怀旧搏斗冒险中。搏斗风气更胜从前。&lt;br&gt; &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1161590/extras/CN_Become_A_Champion_Fighter.png?t=1693994061" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1161590/extras/winner.gif?t=1693994061" /&gt;&lt;br&gt; &lt;br&gt;成为最出色的斗士并非易事，需要时间、专注、金钱和训练！提高你的各项数据和格斗技术、规划你的比赛形成，并创建你自己的超强格斗学校！虽然没什么能比得上流血、流汗、流泪的优良传统，但“神经训练”和非法大脑植入软件似乎也很值得一试。虽然你的所有家产都可能被软件骗走、并留下不可逆的大脑伤害，但为了变强，付出这些小小的代价也是值得的。&lt;br&gt; &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1161590/extras/CN_Manage…Everything.png?t=1693994061" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1161590/extras/skilltree.gif?t=1693994061" /&gt;&lt;br&gt; &lt;br&gt;要在内卷严重的未来大都市立足，必须加快生活节奏、投入更多时间，并进行高效的自我管理。管理你的时间和资金，同时还要努力登顶格斗联盟，并在警察、暴徒、黑帮和其他任何与你有瓜葛的人之间游走。通过完成任务，你可以获取新的格斗学校、招式、金钱、“好人点数”，甚至是珍贵的《狮子女王》录像带！别浪费时间阅读Steam页面了，现在就把游戏加入愿望单吧！&lt;br&gt; &lt;br&gt;拳击俱乐部的第一条规则，就是将《拳击俱乐部2》的消息告诉每个人！立即将它加入愿望单，否则我们就会和你决斗（出于法律原因，我们不会真的和你打一架）。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1159690/extras/chinese-note.jpg?t=1688716761" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1159690/extras/ezgif-4-10c04185bd.gif?t=1688716761" /&gt;&lt;br&gt;&lt;br&gt;你是一名工程师，突然闯入了陌生而神秘的虚空。这个世界有着自己的历史、规则与未来。建造并升级你自己的火车，制作强力武器，与各种敌人战斗。在虚空超现实的环境中，你得设法独自一人或与好友一起活下去。&lt;br&gt; &lt;br&gt;&lt;a href="https://store.steampowered.com/app/1159690/Voidtrain/" target="_blank" rel=""  id="dynamiclink_3" &gt;https://store.steampowered.com/app/1159690/Voidtrain/&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1159690/extras/ezgif-1-e3dce86e59.gif?t=1688716761" /&gt; &lt;br&gt;&lt;strong&gt;探索虚空&lt;/strong&gt;&lt;br&gt;在这个不断变化的广袤世界中探索神秘而独特的地点。发现浮空岛屿，上面有各种谜题和危险的动物。设法穿越雷区并前往火车站。结识可爱的大眼仔，并让他们成为你火车上的一员。虚空绝不会令寻求冒险者失望。做好准备接受它的挑战吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1159690/extras/ezgif-3-c08ca0ca93-sm.gif?t=1688716761" /&gt;&lt;br&gt;&lt;strong&gt;建造你的火车&lt;/strong&gt;&lt;br&gt;你可不是简单地在原有火车上扩建，而是得亲自从零开始造出来。你一开始只有一节空车厢，你得将其开发成一列像样的火车，这列火车得拥有多节车厢以及一部高级引擎。自定义你火车的外观，并往里面装入各种物件，如贮藏、工作台、装饰以及玩小游戏的桌子等。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1159690/extras/ezgif-1-d9ec729ac4.gif?t=1688716761" /&gt;  &lt;br&gt;&lt;strong&gt;为生存而战&lt;/strong&gt;&lt;br&gt;虚空凶险异常，你一路上会遇到各种敌人，如普通的士兵，以及嗜血的鲨鱼。制作并自定义你的武器与装备，甩掉追逐你的敌人，在竞技场里面对一波波来袭的敌人，肃清哨站并时刻准备着为生存而战。&lt;h2 class="bb_tag"&gt;《虚空列车》游戏交流群：325764950。&lt;/h2&gt;&lt;a href="https://store.steampowered.com/app/1159690/Voidtrain/" target="_blank" rel=""  id="dynamiclink_4" &gt;https://store.steampowered.com/app/1159690/Voidtrain/&lt;/a&gt;</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1163140</t>
+          <t>1161590</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Shanghai Office Simulator</t>
+          <t>Punch Club 2: Fast Forward</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>毕业之后</t>
+          <t>拳击俱乐部2：快进未来</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>模拟,角色扮演,2D,回合制战斗,剧情丰富</t>
+          <t>时间管理,资源管理,武术,像素图形,冒险</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3937,36 +3937,41 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.7</t>
+        </is>
+      </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2023年05月05日</t>
+          <t>2023年07月21日</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/分割线.png?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/按钮banner_游戏背景2.png?t=1683274413" /&gt;&lt;br&gt;从23岁毕业到65岁退休，您可以在数十小时的游戏时间里模拟一个职员42年的人生。无需担心现实的种种束缚，您可以用内心最渴望的，或者从未试过的方式去经历一次“非一般”的职场人生！如何看待中国职场的种种现象？如何面对机遇和困难？如何和同事们相处？如何平衡事业和家庭？无论您是尚在象牙塔的学生，还是已经肩负责任的打工人，我们都希望这款游戏能够给予您乐趣和思考！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/游戏背景.png?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/分割线.png?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/按钮banner_游戏特点3.png?t=1683274413" /&gt;&lt;br&gt;- 最接地气的卡牌战斗：&lt;br&gt;职场困境化身怪兽，“举一反三”，“精打细算”，“总结”等耳熟能详的生活道理就成为了玩家手中的卡牌。用不同的方式搭配组合，按自己的喜好提升健康，悟性，管理等属性以获得新的技能卡牌，再将它们组成数十套效果不同的连击卡组去战斗吧！您会发现，这和真实生活中解决问题有异曲同工之妙！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/连消带打触发.gif?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/分割线.png?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;- 畅快自由的职场之旅：&lt;br&gt;面对无偿加班，同事甩锅，项目失败等职场遭遇，相信不管是学生还是打工人的你都有自己的看法。是像半泽直树一样”以牙还牙，加倍奉还“，还是如勾践”卧薪尝胆，厚积薄发”？您可以用内心最渴望的，或者从未试过的方式去经历一次畅快自由的职场人生。如果还让您从中获得了一点启发和力量，这会让我们更开心！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/畅快职场小图.gif?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/分割线.png?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;- 颇具寓意的怪物设计：&lt;br&gt;“马虎”是什么虎？“压力山”有大有小吗？我们将各种职场的负能量精心设计并具象化，赋予了他们各具特色的性格和能力。当你用自己精心搭配的卡牌逐个击败它们，说不定还会觉得这些“意兽”还挺可爱。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/怪物展示.gif?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/分割线.png?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;- 类Rougelike战斗模式：&lt;br&gt;如果觉得剧情战斗还不够爽，不够杀时间，“脑洞大开”模式正在等着你！只有一次机会，你将随机遭遇各个怪物，突破层层关卡直至最终BOSS，这会很有点难，这会花亿点时间，但相信我们，奖励也将是非常丰厚的！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/rougelike小图.gif?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/分割线.png?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;- 事业与友情，爱情，亲情：&lt;br&gt;生活不只有事业，友情，爱情和亲情同样需要精心经营。您可以选择将有限的时间和精力投&lt;br&gt;入到无限的工作当中，任由朋友，恋人以及父母慢慢老去，但可以获得快速的晋升和更高的职位，也可以试着平衡一下事业和生活。我们想提醒工作狂们珍惜眼前人，但是他们可能没时间玩游戏（笑）&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/告白成功.gif?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/分割线.png?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;-开启二周目，如果人生有如果：&lt;br&gt;游戏中的抉择将决定你自己以及伙伴们的命运，Ta的留下还是离开，团队的成功与否都在于您的选择，且无法像普通游戏那样回档，就像真实生活中那样。但如果人生有如果，那一定叫做二周目，这次你是否会爱上另一个她？这次你是否会更加谨慎的选择？啊，当然，还有全新的卡组和技能解锁！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/生娃儿.gif?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/分割线.png?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;联系我们：&lt;br&gt;毕业之后股东QQ群：943187903&lt;br&gt;微博：@游戏_非一般职场</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1161590/extras/bug.png?t=1693994061" /&gt;&lt;br&gt;非常感谢大家对《拳击俱乐部2》的支持！如您在游戏中遇到bug，有玩法策略相关的问题，或希望向开发者反馈游戏的改进建议，请在&lt;a href="https://steamcommunity.com/app/1161590/discussions/1/3802777561346115722/" target="_blank" rel=""  &gt;&lt;strong&gt;本帖子&lt;/strong&gt;&lt;/a&gt;的评论区留言，我们会尽快处理您的反馈，感谢！&lt;br&gt;&lt;br&gt;帖子中也包含一些游戏常见问题的说明，希望能够对您的游玩体验有所帮助！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1161590/extras/CN_Welcome_to_the_Future_of_Punch_Club!.png?t=1693994061" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1161590/extras/workout_comb3.gif?t=1693994061" /&gt;&lt;br&gt;&lt;br&gt;你母亲专横跋扈，你在她的车库里度过了漫长的20年；你父亲早就神秘消失了，甚至没等到你出生。但这根本无所谓，你有足够的时间来健身和幻想大千世界的种种美好。你的生活已然一团糟，而世人更是吃着烂泥一般的食物、腐败横行，人人都想揍你一顿……不过，也许你可以找到生父，并成为大家口口相传的“暗拳”；不知为何，你居然真有可能是人类的救星，那个揭开“善行公司”超级秘密的人……当然，也可能是你搞错了。这是一趟自主冒险之旅，如果愿意的话，你也可以选择在车库里度过余生。&lt;br&gt; &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1161590/extras/CN_Choose_your.png?t=1693994061" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1161590/extras/train.gif?t=1693994061" /&gt; &lt;br&gt;&lt;br&gt;早在20年前，一个无名的酷小子痛揍了大恶霸，找到了他的父亲，每个人都过上了真正的幸福生活。欢迎来到未来，现在腐败依旧，贝壳早已取代了厕纸，一切都那么赛博朋克。走在原来的街道上，但现在这里到处都是霓虹灯，你陷入了喧闹的80年代怀旧搏斗冒险中。搏斗风气更胜从前。&lt;br&gt; &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1161590/extras/CN_Become_A_Champion_Fighter.png?t=1693994061" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1161590/extras/winner.gif?t=1693994061" /&gt;&lt;br&gt; &lt;br&gt;成为最出色的斗士并非易事，需要时间、专注、金钱和训练！提高你的各项数据和格斗技术、规划你的比赛形成，并创建你自己的超强格斗学校！虽然没什么能比得上流血、流汗、流泪的优良传统，但“神经训练”和非法大脑植入软件似乎也很值得一试。虽然你的所有家产都可能被软件骗走、并留下不可逆的大脑伤害，但为了变强，付出这些小小的代价也是值得的。&lt;br&gt; &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1161590/extras/CN_Manage…Everything.png?t=1693994061" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1161590/extras/skilltree.gif?t=1693994061" /&gt;&lt;br&gt; &lt;br&gt;要在内卷严重的未来大都市立足，必须加快生活节奏、投入更多时间，并进行高效的自我管理。管理你的时间和资金，同时还要努力登顶格斗联盟，并在警察、暴徒、黑帮和其他任何与你有瓜葛的人之间游走。通过完成任务，你可以获取新的格斗学校、招式、金钱、“好人点数”，甚至是珍贵的《狮子女王》录像带！别浪费时间阅读Steam页面了，现在就把游戏加入愿望单吧！&lt;br&gt; &lt;br&gt;拳击俱乐部的第一条规则，就是将《拳击俱乐部2》的消息告诉每个人！立即将它加入愿望单，否则我们就会和你决斗（出于法律原因，我们不会真的和你打一架）。</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1164940</t>
+          <t>1163140</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Trepang2</t>
+          <t>Shanghai Office Simulator</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>海参2</t>
+          <t>毕业之后</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>第一人称射击,动作,子弹时间,第一人称,单人</t>
+          <t>模拟,角色扮演,2D,回合制战斗,剧情丰富</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3974,41 +3979,36 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2023年06月22日</t>
+          <t>2023年05月05日</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;成为顶尖狠角色&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;玩家将扮演逃亡的士兵，虽然失去往日的记忆，却获得了超自然能力。复仇计划在您的内心萌芽，为了得到想要的结果将不惜一切代价。使出极具破坏力的拳击、潜身于暗处并使用爆炸性武器，让坏人自食其果。 &lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;游戏特色：&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;张力十足的单人剧情战役&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1164940/extras/ExplosiveCampaign.gif?t=1692260306" /&gt;&lt;br&gt;一群神秘分子将您从戒备森严的黑牢中解救出来。虽然您失去了记忆，但战斗能力却获得大幅强化，远远超出了人类的极限。设法复仇、找出真相，并面对极为致命的威胁。&lt;h2 class="bb_tag"&gt;运用超能力&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1164940/extras/Cloak.gif?t=1692260306" /&gt;&lt;br&gt;掌握超人般的力量与速度，狠狠教训一波又一波全副武装的雇佣兵。把时间减慢以躲避速度飞快的子弹，并利用伪装能力让自己进入隐形状态，以便出其不意地折断敌人的脖子。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1164940/extras/SlowMo.gif?t=1692260306" /&gt;&lt;h2 class="bb_tag"&gt;暴力至极的近战战斗&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1164940/extras/MeleeCombat.gif?t=1692260306" /&gt;&lt;br&gt;在近距离近战战斗中与敌人正面交锋，并在高速枪战中大展身手。通过拳打脚踢、滑行和疯狂连击，将敌人化为尘土。&lt;h2 class="bb_tag"&gt;结语&lt;/h2&gt;欢迎关注我们、加入社区，并和开发团队聊聊。利用外部链接加入我们的 Twitter、YouTube 和 Discord。我们随时都会聆听您的心声！</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/分割线.png?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/按钮banner_游戏背景2.png?t=1683274413" /&gt;&lt;br&gt;从23岁毕业到65岁退休，您可以在数十小时的游戏时间里模拟一个职员42年的人生。无需担心现实的种种束缚，您可以用内心最渴望的，或者从未试过的方式去经历一次“非一般”的职场人生！如何看待中国职场的种种现象？如何面对机遇和困难？如何和同事们相处？如何平衡事业和家庭？无论您是尚在象牙塔的学生，还是已经肩负责任的打工人，我们都希望这款游戏能够给予您乐趣和思考！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/游戏背景.png?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/分割线.png?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/按钮banner_游戏特点3.png?t=1683274413" /&gt;&lt;br&gt;- 最接地气的卡牌战斗：&lt;br&gt;职场困境化身怪兽，“举一反三”，“精打细算”，“总结”等耳熟能详的生活道理就成为了玩家手中的卡牌。用不同的方式搭配组合，按自己的喜好提升健康，悟性，管理等属性以获得新的技能卡牌，再将它们组成数十套效果不同的连击卡组去战斗吧！您会发现，这和真实生活中解决问题有异曲同工之妙！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/连消带打触发.gif?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/分割线.png?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;- 畅快自由的职场之旅：&lt;br&gt;面对无偿加班，同事甩锅，项目失败等职场遭遇，相信不管是学生还是打工人的你都有自己的看法。是像半泽直树一样”以牙还牙，加倍奉还“，还是如勾践”卧薪尝胆，厚积薄发”？您可以用内心最渴望的，或者从未试过的方式去经历一次畅快自由的职场人生。如果还让您从中获得了一点启发和力量，这会让我们更开心！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/畅快职场小图.gif?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/分割线.png?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;- 颇具寓意的怪物设计：&lt;br&gt;“马虎”是什么虎？“压力山”有大有小吗？我们将各种职场的负能量精心设计并具象化，赋予了他们各具特色的性格和能力。当你用自己精心搭配的卡牌逐个击败它们，说不定还会觉得这些“意兽”还挺可爱。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/怪物展示.gif?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/分割线.png?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;- 类Rougelike战斗模式：&lt;br&gt;如果觉得剧情战斗还不够爽，不够杀时间，“脑洞大开”模式正在等着你！只有一次机会，你将随机遭遇各个怪物，突破层层关卡直至最终BOSS，这会很有点难，这会花亿点时间，但相信我们，奖励也将是非常丰厚的！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/rougelike小图.gif?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/分割线.png?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;- 事业与友情，爱情，亲情：&lt;br&gt;生活不只有事业，友情，爱情和亲情同样需要精心经营。您可以选择将有限的时间和精力投&lt;br&gt;入到无限的工作当中，任由朋友，恋人以及父母慢慢老去，但可以获得快速的晋升和更高的职位，也可以试着平衡一下事业和生活。我们想提醒工作狂们珍惜眼前人，但是他们可能没时间玩游戏（笑）&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/告白成功.gif?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/分割线.png?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;-开启二周目，如果人生有如果：&lt;br&gt;游戏中的抉择将决定你自己以及伙伴们的命运，Ta的留下还是离开，团队的成功与否都在于您的选择，且无法像普通游戏那样回档，就像真实生活中那样。但如果人生有如果，那一定叫做二周目，这次你是否会爱上另一个她？这次你是否会更加谨慎的选择？啊，当然，还有全新的卡组和技能解锁！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/生娃儿.gif?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/分割线.png?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;联系我们：&lt;br&gt;毕业之后股东QQ群：943187903&lt;br&gt;微博：@游戏_非一般职场</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1172450</t>
+          <t>1164940</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Carto</t>
+          <t>Trepang2</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>无尽旅图</t>
+          <t>海参2</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>独立,可爱,解谜,探索,手绘</t>
+          <t>第一人称射击,动作,子弹时间,第一人称,单人</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4018,39 +4018,39 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2020年10月28日</t>
+          <t>2023年06月22日</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>《Carto》源于英文&amp;quot;Cartographer&amp;quot;（制图师），卡朵不慎坠入未知世界。这里蜿蜒曲折，地形丰富。作为制图师卡朵，你将用你自己的神秘力量，操纵地图颠覆世界，将其翻转、拼合。当世界随着你地图的组合而变化的同时，新的道路也展现在你面前。这一路上人均谜语人，你将运用智慧帮助他们的同时完成属于你的最终冒险。&lt;h2 class="bb_tag"&gt;游戏特色：&lt;/h2&gt;&lt;strong&gt;解放路痴，拼接地图&lt;/strong&gt;&lt;br&gt;卡朵可以把地图拼接起来，让世界1：1还原成地图模样，这也是卡朵&amp;quot;Cartographer&amp;quot;（制图师）”之义。&lt;br&gt;不同的地图世界里暗藏玄机，隐秘之处可能就是地图碎片散布之处。观察这些地图后，卡朵就可以依赖自己的能力，将地图旋转，首尾相接，连成一片新大陆。这片大陆没有指定的方向，只有卡朵自己用手将这些碎片连起，方可到达彼方。&lt;br&gt; &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1172450/extras/拼图2-调速.gif?t=1660812310" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;不同地图，不同特色&lt;/strong&gt;&lt;br&gt;平原、森林、沙漠、火山、冰川等多个地形环境，尽在画中……每处地图都精心绘制，陌生的世界像个万花筒，多种风俗文化和风景奇观分布其中。&lt;br&gt;在不同地形上玩转地图还会触发非常奇妙的结果。原本远在天边的人，变换位置，一下就近在眼前了。沙漠+湖泊，会突然形成新的绿洲，展开新地形 ……玩家需要随时因地制宜，拥抱变化，迎接新的挑战。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1172450/extras/场景.gif?t=1660812310" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;特色人物，奇闻轶事&lt;/strong&gt;&lt;br&gt;运用地图改变世界样貌的过程中，卡朵也将遭遇各种各样的NPC，每个人都有自己的个性。究竟是什么文化，让每一个成年后的岛民都要被流放海外。还有古老的守护者一族，在这个世界里，又为何必须与古树相依为伴，不得离开。亲自解开这些聚落人物的秘密，与形形色色的人物同行。&lt;br&gt;&lt;br&gt;每一个人物都是独特的手绘风格。在游戏内总共十个章节中，你会遇到各色各样的人，启程与离别总在发生，旋转地图，划上一个句号，开启新的一页。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1172450/extras/npc互动.gif?t=1660812310" /&gt;&lt;br&gt;&lt;br&gt;官方Q群：&lt;u&gt;916755899&lt;/u&gt;&lt;br&gt;微博：@心动XD：&lt;a href="https://steamcommunity.com/linkfilter/?url=https://www.weibo.com/xdcom" target="_blank" rel=" noopener"  &gt;https://www.weibo.com/xdcom&lt;/a&gt;&lt;br&gt;TapTap预约页面：&lt;a href="https://steamcommunity.com/linkfilter/?url=https://www.taptap.com/app/140569" target="_blank" rel=" noopener"  &gt;https://www.taptap.com/app/140569&lt;/a&gt;</t>
+          <t>&lt;strong&gt;成为顶尖狠角色&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;玩家将扮演逃亡的士兵，虽然失去往日的记忆，却获得了超自然能力。复仇计划在您的内心萌芽，为了得到想要的结果将不惜一切代价。使出极具破坏力的拳击、潜身于暗处并使用爆炸性武器，让坏人自食其果。 &lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;游戏特色：&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;张力十足的单人剧情战役&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1164940/extras/ExplosiveCampaign.gif?t=1692260306" /&gt;&lt;br&gt;一群神秘分子将您从戒备森严的黑牢中解救出来。虽然您失去了记忆，但战斗能力却获得大幅强化，远远超出了人类的极限。设法复仇、找出真相，并面对极为致命的威胁。&lt;h2 class="bb_tag"&gt;运用超能力&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1164940/extras/Cloak.gif?t=1692260306" /&gt;&lt;br&gt;掌握超人般的力量与速度，狠狠教训一波又一波全副武装的雇佣兵。把时间减慢以躲避速度飞快的子弹，并利用伪装能力让自己进入隐形状态，以便出其不意地折断敌人的脖子。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1164940/extras/SlowMo.gif?t=1692260306" /&gt;&lt;h2 class="bb_tag"&gt;暴力至极的近战战斗&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1164940/extras/MeleeCombat.gif?t=1692260306" /&gt;&lt;br&gt;在近距离近战战斗中与敌人正面交锋，并在高速枪战中大展身手。通过拳打脚踢、滑行和疯狂连击，将敌人化为尘土。&lt;h2 class="bb_tag"&gt;结语&lt;/h2&gt;欢迎关注我们、加入社区，并和开发团队聊聊。利用外部链接加入我们的 Twitter、YouTube 和 Discord。我们随时都会聆听您的心声！</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1184370</t>
+          <t>1172450</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Pathfinder: Wrath of the Righteous - Enhanced Edition</t>
+          <t>Carto</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>开拓者：正义之怒</t>
+          <t>无尽旅图</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>选择取向,单人,爱情,等角视角,黑暗奇幻</t>
+          <t>独立,可爱,解谜,探索,手绘</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4060,39 +4060,39 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2021年09月03日</t>
+          <t>2020年10月28日</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;探索传奇故事&lt;/h2&gt;循着这段旅程，你将前往世界之伤，直面一道连通深渊界的位面裂隙，感受席卷这片土地的恐惧。一个多世纪以来，周边国家为击退敌军而英勇奋战，但始终收效甚微。  &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__4_.gif?t=1693996219" /&gt;&lt;br&gt;&lt;br&gt;如今，你有机会结束这场纷争，但救世之路绝不会一帆风顺。你会成为受一众杰出圣武士支持的光辉天使？还是成为强大的死灵法师，掌控不死的亡灵大军？抑或全然不同的其他角色？率领你的军队，挑战强大的恶魔领主。你的远征将会引发一系列事件，彻底改变你和整个世界的命运。&lt;h2 class="bb_tag"&gt;随心搭配，玩转英雄&lt;/h2&gt;第一版《开拓者》的规则极具深度、灵活性及丰富性，你可以根据自己的想象，随心所欲地创建任何角色。共有25个职业、12个种族以及超过一千种法术、专长与能力，方便玩家根据自己的风格挑选。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__9_.gif?t=1693996219" /&gt;&lt;h2 class="bb_tag"&gt;不同选择，引向殊途&lt;/h2&gt;你的决定比以往任何时候都更加重要。你的目标已经明了，但通往目标的道路只能由你自行开辟。成王败寇，谁主沉浮？做出你的选择，看看世界会因此发生何等变化。  &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__6_.gif?t=1693996219" /&gt;&lt;h2 class="bb_tag"&gt;全新的战斗方式&lt;/h2&gt;我们提供可暂停的即时模式和回合制模式，两种战斗模式皆可供你横扫敌军。你可以在两种战斗模式中快速切换，或紧或慢，随你心意。通过《开拓者》的独特规则，你还可以体验包括骑乘战斗在内的进阶作战方式。发挥谋略，合理选用！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__7_.gif?t=1693996219" /&gt;&lt;h2 class="bb_tag"&gt;招贤纳士&lt;/h2&gt;10多位独特伙伴将与你携手同行，共谋伟业。只要赢得他们的信任和尊重，无论前方有何艰难险阻，他们都会鼎力相助。倘若理念相悖……或许也只能分道扬镳了。 &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__8_.gif?t=1693996219" /&gt;&lt;h2 class="bb_tag"&gt;领导圣教军&lt;/h2&gt;要想净化恶魔泛滥成灾的土地，仅靠一支冒险者小队远远不够。你还要掌握圣教军的指挥权，领导他们迈向胜利。在此过程中，你既是一名战略家，以纵观全局的视角运筹帷幄，同时也是一名前线指挥官，在全新的战术模式战斗中大显身手。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__3_.gif?t=1693996219" /&gt;&lt;h2 class="bb_tag"&gt;选择道途&lt;/h2&gt;探索9条各不相同的神话道途，获得非凡能力，让尔后种种都随之一变。你的决定可能会让你成为神圣的天使、狂暴的恶魔、强大的巫妖、狡诈的诡计大师、超然的御衡者、桀骜的灵使、睿智的金龙、吞噬一切的虫群行者，或是保留肉体凡身，披荆斩棘，成为当世传奇。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__1_.gif?t=1693996219" /&gt;</t>
+          <t>《Carto》源于英文&amp;quot;Cartographer&amp;quot;（制图师），卡朵不慎坠入未知世界。这里蜿蜒曲折，地形丰富。作为制图师卡朵，你将用你自己的神秘力量，操纵地图颠覆世界，将其翻转、拼合。当世界随着你地图的组合而变化的同时，新的道路也展现在你面前。这一路上人均谜语人，你将运用智慧帮助他们的同时完成属于你的最终冒险。&lt;h2 class="bb_tag"&gt;游戏特色：&lt;/h2&gt;&lt;strong&gt;解放路痴，拼接地图&lt;/strong&gt;&lt;br&gt;卡朵可以把地图拼接起来，让世界1：1还原成地图模样，这也是卡朵&amp;quot;Cartographer&amp;quot;（制图师）”之义。&lt;br&gt;不同的地图世界里暗藏玄机，隐秘之处可能就是地图碎片散布之处。观察这些地图后，卡朵就可以依赖自己的能力，将地图旋转，首尾相接，连成一片新大陆。这片大陆没有指定的方向，只有卡朵自己用手将这些碎片连起，方可到达彼方。&lt;br&gt; &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1172450/extras/拼图2-调速.gif?t=1660812310" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;不同地图，不同特色&lt;/strong&gt;&lt;br&gt;平原、森林、沙漠、火山、冰川等多个地形环境，尽在画中……每处地图都精心绘制，陌生的世界像个万花筒，多种风俗文化和风景奇观分布其中。&lt;br&gt;在不同地形上玩转地图还会触发非常奇妙的结果。原本远在天边的人，变换位置，一下就近在眼前了。沙漠+湖泊，会突然形成新的绿洲，展开新地形 ……玩家需要随时因地制宜，拥抱变化，迎接新的挑战。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1172450/extras/场景.gif?t=1660812310" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;特色人物，奇闻轶事&lt;/strong&gt;&lt;br&gt;运用地图改变世界样貌的过程中，卡朵也将遭遇各种各样的NPC，每个人都有自己的个性。究竟是什么文化，让每一个成年后的岛民都要被流放海外。还有古老的守护者一族，在这个世界里，又为何必须与古树相依为伴，不得离开。亲自解开这些聚落人物的秘密，与形形色色的人物同行。&lt;br&gt;&lt;br&gt;每一个人物都是独特的手绘风格。在游戏内总共十个章节中，你会遇到各色各样的人，启程与离别总在发生，旋转地图，划上一个句号，开启新的一页。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1172450/extras/npc互动.gif?t=1660812310" /&gt;&lt;br&gt;&lt;br&gt;官方Q群：&lt;u&gt;916755899&lt;/u&gt;&lt;br&gt;微博：@心动XD：&lt;a href="https://steamcommunity.com/linkfilter/?url=https://www.weibo.com/xdcom" target="_blank" rel=" noopener"  &gt;https://www.weibo.com/xdcom&lt;/a&gt;&lt;br&gt;TapTap预约页面：&lt;a href="https://steamcommunity.com/linkfilter/?url=https://www.taptap.com/app/140569" target="_blank" rel=" noopener"  &gt;https://www.taptap.com/app/140569&lt;/a&gt;</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>1190000</t>
+          <t>1184370</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Car Mechanic Simulator 2021</t>
+          <t>Pathfinder: Wrath of the Righteous - Enhanced Edition</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>汽车机械师模拟器2021</t>
+          <t>开拓者：正义之怒</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>模拟,汽车模拟,沙盒,拟真,竞速</t>
+          <t>选择取向,单人,爱情,等角视角,黑暗奇幻</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4102,39 +4102,39 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2021年08月11日</t>
+          <t>2021年09月03日</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.com/invite/Z99K7R9wKJ" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1190000/extras/discord_joinbutton2.png?t=1693488420" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;汽车机械师模拟器2021&lt;/strong&gt;是该游戏系列在已拥有大量玩家的良好基础上推出的又一新篇章。玩家从一个新的汽车修理厂的小老板起步，通过你不断地努力建立起一个庞大的为客户服务的帝国。在沉浸式的超逼真的模拟情景中，用你油渍渍的双手去做好每个令人难以置信的与现实无二的细节操作。做好在以&lt;u&gt;4000多个独特的零件&lt;/u&gt;和超过&lt;u&gt;72款名车&lt;/u&gt;的基础上开展服务的准备吧。撸起袖子，让自己疯狂沉浸在一个超真实的车间环境中吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1190000/extras/CMS21_Steam_Cars.gif?t=1693488420" /&gt;&lt;br&gt;&lt;br&gt;通过投资于新的车间和设备，不断地扩大你的服务范围。修理、复原、测试、喷漆、调校和重新组装那些名车。参与更多新的拍卖行的活动，购买各种车况的汽车。如果你觉得自己运气还可以，你也可以在谷仓里尝试寻觅。某些地方可能有隐藏的宝藏 - 等待着你去发现它们。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1190000/extras/CMS21_Steam_Openplan.gif?t=1693488420" /&gt;&lt;br&gt;&lt;br&gt;无限生成的订单数量肯定会让你忙上一阵子。如果你想接受更大的挑战 - 可以去尝试在特别开辟的故事线中考验一下自己。你需要面对的是每个任务中具有的一套独特的要求和挑战方式。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1190000/extras/CMS21_Steam_Carwash.gif?t=1693488420" /&gt;&lt;br&gt;&lt;br&gt;当你完成车间的升级后可以逐步考虑一下豪车计划。用辛苦攒的钱买辆自己的车，让它在你手中变得熠熠生辉。从锈迹斑斑的汽车壳子变成一辆耀眼的顶级豪车。也是时候该把你的双手泡在一堆机油里了!&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1190000/extras/CMS21_Steam_Fluids.gif?t=1693488420" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;产品特性&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 72辆车待修理&lt;br&gt;&lt;/li&gt;&lt;li&gt; 4000个以上的零件&lt;br&gt;&lt;/li&gt;&lt;li&gt; 无限个随机生成的订单&lt;br&gt;&lt;/li&gt;&lt;li&gt; 车辆拍卖&lt;br&gt;&lt;/li&gt;&lt;li&gt; 谷仓发现&lt;br&gt;&lt;/li&gt;&lt;li&gt; 废车场狩猎&lt;br&gt;&lt;/li&gt;&lt;li&gt; 亲手设计的故事任务&lt;br&gt;&lt;/li&gt;&lt;li&gt; 技能及车库升级系统&lt;br&gt;&lt;/li&gt;&lt;li&gt; 车辆调校&lt;br&gt;&lt;/li&gt;&lt;li&gt; 全面的游戏指引&lt;br&gt;&lt;/li&gt;&lt;li&gt; 带有计时赛的跑道&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1190000/extras/CMS21_Steam_Minigames.gif?t=1693488420" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;新版汽车机械师模拟器2021&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 车辆油液&lt;br&gt;&lt;/li&gt;&lt;li&gt; 新的车辆除垢清洗设备&lt;br&gt;&lt;/li&gt;&lt;li&gt; 宽敞的开放式车库&lt;br&gt;&lt;/li&gt;&lt;li&gt; 新的车身损坏状况 - 凹陷&lt;br&gt;&lt;/li&gt;&lt;li&gt; 可上漆的机械汽车零件&lt;br&gt;&lt;/li&gt;&lt;li&gt; 新的引擎声音&lt;br&gt;&lt;/li&gt;&lt;li&gt; 小游戏&lt;br&gt;&lt;/li&gt;&lt;li&gt; 制动器车床工具 &lt;br&gt;&lt;/li&gt;&lt;li&gt; 质量升级系统&lt;br&gt;&lt;/li&gt;&lt;li&gt; 保险盒&lt;br&gt;&lt;/li&gt;&lt;li&gt; 新的驻车系统&lt;br&gt;&lt;/li&gt;&lt;li&gt; 打捞物拍卖&lt;br&gt;&lt;/li&gt;&lt;li&gt; 修正零部件查验模式&lt;br&gt;&lt;/li&gt;&lt;li&gt; 可视化定制车身部件&lt;br&gt;&lt;/li&gt;&lt;li&gt; 车辆配置器&lt;br&gt;&lt;/li&gt;&lt;li&gt; 生锈的螺栓&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;h2 class="bb_tag"&gt;探索传奇故事&lt;/h2&gt;循着这段旅程，你将前往世界之伤，直面一道连通深渊界的位面裂隙，感受席卷这片土地的恐惧。一个多世纪以来，周边国家为击退敌军而英勇奋战，但始终收效甚微。  &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__4_.gif?t=1693996219" /&gt;&lt;br&gt;&lt;br&gt;如今，你有机会结束这场纷争，但救世之路绝不会一帆风顺。你会成为受一众杰出圣武士支持的光辉天使？还是成为强大的死灵法师，掌控不死的亡灵大军？抑或全然不同的其他角色？率领你的军队，挑战强大的恶魔领主。你的远征将会引发一系列事件，彻底改变你和整个世界的命运。&lt;h2 class="bb_tag"&gt;随心搭配，玩转英雄&lt;/h2&gt;第一版《开拓者》的规则极具深度、灵活性及丰富性，你可以根据自己的想象，随心所欲地创建任何角色。共有25个职业、12个种族以及超过一千种法术、专长与能力，方便玩家根据自己的风格挑选。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__9_.gif?t=1693996219" /&gt;&lt;h2 class="bb_tag"&gt;不同选择，引向殊途&lt;/h2&gt;你的决定比以往任何时候都更加重要。你的目标已经明了，但通往目标的道路只能由你自行开辟。成王败寇，谁主沉浮？做出你的选择，看看世界会因此发生何等变化。  &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__6_.gif?t=1693996219" /&gt;&lt;h2 class="bb_tag"&gt;全新的战斗方式&lt;/h2&gt;我们提供可暂停的即时模式和回合制模式，两种战斗模式皆可供你横扫敌军。你可以在两种战斗模式中快速切换，或紧或慢，随你心意。通过《开拓者》的独特规则，你还可以体验包括骑乘战斗在内的进阶作战方式。发挥谋略，合理选用！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__7_.gif?t=1693996219" /&gt;&lt;h2 class="bb_tag"&gt;招贤纳士&lt;/h2&gt;10多位独特伙伴将与你携手同行，共谋伟业。只要赢得他们的信任和尊重，无论前方有何艰难险阻，他们都会鼎力相助。倘若理念相悖……或许也只能分道扬镳了。 &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__8_.gif?t=1693996219" /&gt;&lt;h2 class="bb_tag"&gt;领导圣教军&lt;/h2&gt;要想净化恶魔泛滥成灾的土地，仅靠一支冒险者小队远远不够。你还要掌握圣教军的指挥权，领导他们迈向胜利。在此过程中，你既是一名战略家，以纵观全局的视角运筹帷幄，同时也是一名前线指挥官，在全新的战术模式战斗中大显身手。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__3_.gif?t=1693996219" /&gt;&lt;h2 class="bb_tag"&gt;选择道途&lt;/h2&gt;探索9条各不相同的神话道途，获得非凡能力，让尔后种种都随之一变。你的决定可能会让你成为神圣的天使、狂暴的恶魔、强大的巫妖、狡诈的诡计大师、超然的御衡者、桀骜的灵使、睿智的金龙、吞噬一切的虫群行者，或是保留肉体凡身，披荆斩棘，成为当世传奇。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__1_.gif?t=1693996219" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1201270</t>
+          <t>1190000</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>A Space for the Unbound</t>
+          <t>Car Mechanic Simulator 2021</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>无垠之心 - A Space for the Unbound</t>
+          <t>汽车机械师模拟器2021</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>剧情丰富,像素图形,情感,心理,探索</t>
+          <t>模拟,汽车模拟,沙盒,拟真,竞速</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4144,39 +4144,39 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2023年01月19日</t>
+          <t>2021年08月11日</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;高中生涯即将结束，随之而来的却是世界末日&lt;/h2&gt;&lt;br&gt;《无垠之心》以精美的像素风格，重现了90年代末期印尼乡村的生活气息，并且讲述了一对拥有超自然力量的少年少女克服困难、获得友谊的冒险故事。&lt;br&gt;&lt;br&gt;跟随阿塔姆和拉雅，在高中毕业季展开一场自我发现之旅。在此期间，一股神秘的超自然力量突然来袭，他们必须探索和调查自己居住的小镇，发掘隐藏的秘密，直面世界末日，与此同时加深彼此之间的了解。&lt;br&gt;&lt;br&gt;以一个90年代末期的印尼小镇为背景，加之充满生机的可互动场景，《无垠之心》定能为您带来不一般的游戏体验。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1201270/extras/ASFTU_Ronda.gif?t=1693558420" /&gt;&lt;h2 class="bb_tag"&gt;主要特色&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 梦回90年代！一窥90年代末期的印尼乡村！&lt;br&gt;&lt;/li&gt;&lt;li&gt; 探索印尼乡村，享受轻松氛围，发掘隐藏的超自然事件。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 与其他村民交谈互动，听听他们的个人琐事。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 如同盗梦空间一般，潜入别人的内心空间。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 聆听Masdito &amp;quot;Ittou&amp;quot; Bachtiar创作的精美音乐。&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.com/invite/Z99K7R9wKJ" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1190000/extras/discord_joinbutton2.png?t=1693488420" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;汽车机械师模拟器2021&lt;/strong&gt;是该游戏系列在已拥有大量玩家的良好基础上推出的又一新篇章。玩家从一个新的汽车修理厂的小老板起步，通过你不断地努力建立起一个庞大的为客户服务的帝国。在沉浸式的超逼真的模拟情景中，用你油渍渍的双手去做好每个令人难以置信的与现实无二的细节操作。做好在以&lt;u&gt;4000多个独特的零件&lt;/u&gt;和超过&lt;u&gt;72款名车&lt;/u&gt;的基础上开展服务的准备吧。撸起袖子，让自己疯狂沉浸在一个超真实的车间环境中吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1190000/extras/CMS21_Steam_Cars.gif?t=1693488420" /&gt;&lt;br&gt;&lt;br&gt;通过投资于新的车间和设备，不断地扩大你的服务范围。修理、复原、测试、喷漆、调校和重新组装那些名车。参与更多新的拍卖行的活动，购买各种车况的汽车。如果你觉得自己运气还可以，你也可以在谷仓里尝试寻觅。某些地方可能有隐藏的宝藏 - 等待着你去发现它们。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1190000/extras/CMS21_Steam_Openplan.gif?t=1693488420" /&gt;&lt;br&gt;&lt;br&gt;无限生成的订单数量肯定会让你忙上一阵子。如果你想接受更大的挑战 - 可以去尝试在特别开辟的故事线中考验一下自己。你需要面对的是每个任务中具有的一套独特的要求和挑战方式。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1190000/extras/CMS21_Steam_Carwash.gif?t=1693488420" /&gt;&lt;br&gt;&lt;br&gt;当你完成车间的升级后可以逐步考虑一下豪车计划。用辛苦攒的钱买辆自己的车，让它在你手中变得熠熠生辉。从锈迹斑斑的汽车壳子变成一辆耀眼的顶级豪车。也是时候该把你的双手泡在一堆机油里了!&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1190000/extras/CMS21_Steam_Fluids.gif?t=1693488420" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;产品特性&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 72辆车待修理&lt;br&gt;&lt;/li&gt;&lt;li&gt; 4000个以上的零件&lt;br&gt;&lt;/li&gt;&lt;li&gt; 无限个随机生成的订单&lt;br&gt;&lt;/li&gt;&lt;li&gt; 车辆拍卖&lt;br&gt;&lt;/li&gt;&lt;li&gt; 谷仓发现&lt;br&gt;&lt;/li&gt;&lt;li&gt; 废车场狩猎&lt;br&gt;&lt;/li&gt;&lt;li&gt; 亲手设计的故事任务&lt;br&gt;&lt;/li&gt;&lt;li&gt; 技能及车库升级系统&lt;br&gt;&lt;/li&gt;&lt;li&gt; 车辆调校&lt;br&gt;&lt;/li&gt;&lt;li&gt; 全面的游戏指引&lt;br&gt;&lt;/li&gt;&lt;li&gt; 带有计时赛的跑道&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1190000/extras/CMS21_Steam_Minigames.gif?t=1693488420" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;新版汽车机械师模拟器2021&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 车辆油液&lt;br&gt;&lt;/li&gt;&lt;li&gt; 新的车辆除垢清洗设备&lt;br&gt;&lt;/li&gt;&lt;li&gt; 宽敞的开放式车库&lt;br&gt;&lt;/li&gt;&lt;li&gt; 新的车身损坏状况 - 凹陷&lt;br&gt;&lt;/li&gt;&lt;li&gt; 可上漆的机械汽车零件&lt;br&gt;&lt;/li&gt;&lt;li&gt; 新的引擎声音&lt;br&gt;&lt;/li&gt;&lt;li&gt; 小游戏&lt;br&gt;&lt;/li&gt;&lt;li&gt; 制动器车床工具 &lt;br&gt;&lt;/li&gt;&lt;li&gt; 质量升级系统&lt;br&gt;&lt;/li&gt;&lt;li&gt; 保险盒&lt;br&gt;&lt;/li&gt;&lt;li&gt; 新的驻车系统&lt;br&gt;&lt;/li&gt;&lt;li&gt; 打捞物拍卖&lt;br&gt;&lt;/li&gt;&lt;li&gt; 修正零部件查验模式&lt;br&gt;&lt;/li&gt;&lt;li&gt; 可视化定制车身部件&lt;br&gt;&lt;/li&gt;&lt;li&gt; 车辆配置器&lt;br&gt;&lt;/li&gt;&lt;li&gt; 生锈的螺栓&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1201540</t>
+          <t>1201270</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>HELLCARD</t>
+          <t>A Space for the Unbound</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>地狱卡牌</t>
+          <t>无垠之心 - A Space for the Unbound</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>抢先体验,角色扮演,卡牌战斗,类 Rogue,合作</t>
+          <t>剧情丰富,像素图形,情感,心理,探索</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4186,39 +4186,39 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2023年02月17日</t>
+          <t>2023年01月19日</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;《地狱卡牌》&lt;/strong&gt;是一款既可单人游玩又可多人联机的卡牌游戏，已拥有超过300张规模的卡池，抢先体验阶段即可支持联机游玩。这款游戏的故事发生在《恶魔之书》纸地下城，不过机制主要围绕牌组构建和快捷的回合制卡牌策略对战。 欢迎加入官方QQ群527070110找组队或反馈意见建议。&lt;br&gt;&lt;br&gt;《地狱卡牌》在开启抢先体验时就已拥有超过&lt;strong&gt;300张&lt;/strong&gt;卡牌的规模，且平衡性已经在不断的测试中得到验证，后续我们也将继续不断丰富卡牌部分的新内容并调整平衡性。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1201540/extras/Hellcard_gif4_600.gif?t=1687799659" /&gt;&lt;br&gt;&lt;br&gt;除已拥有数量丰富的卡牌数量之外，本作与《Slay the Spire》等游戏最大的不同之处在于，游戏里&lt;strong&gt;怪物&lt;/strong&gt;都拥有自己的位置，且会进行移动，这意味着怪物们都有着自己独一无二的位移轨迹及输出范围，而这也是游戏的最大魅力。&lt;br&gt;&lt;br&gt;更重要的是，《地狱卡牌》&lt;strong&gt;支持最多3人联机游玩&lt;/strong&gt;，一起打牌。我们非常希望各位玩家能够以&lt;strong&gt;多人联机&lt;/strong&gt;的方式参与到对抗魔王大军的冒险之中！你可以选择只身潜入地下城，招募电脑控制的同伴，也可以携手朋友或陌生人，与他们一同对抗地狱魔军。 用你自己最惬意的方式游玩吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1201540/extras/Hellcard_gif1-2-3-600.gif?t=1687799659" /&gt;&lt;h2 class="bb_tag"&gt;《回归游戏》系列简介&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1201540/extras/r2g_logo_fixed.png?t=1687799659" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;《回归游戏》&lt;/strong&gt;作为一个中核游戏系列，灵感源自电脑端游戏的黄金时代。《回归游戏》的每一部作品都会致敬1990年代的一部热门游戏，利用现代的手段，依靠创新且通常大幅简化的游戏机制，以新的形式将一个故事呈现在全新的受众面前。最初，我们只是打算将《地狱卡牌》作为新的模式，加入《回归游戏》系列第一部作品&lt;strong&gt;《恶魔之书》&lt;/strong&gt;，不过后来很快发现我们的构思远非一个“模式”那么简单，因而决定将其作为独立的衍生游戏推出。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1201540/extras/pillars.png?t=1687799659" /&gt;&lt;br&gt;&lt;br&gt;如果想进一步了解《回归游戏》这个系列，或者想支持我们开发这个系列，请前往&lt;strong&gt;“支持礼包”&lt;/strong&gt;商店页面。&lt;strong&gt;《地狱卡牌》&lt;/strong&gt;发行之后，也会加入其中。&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/706770/Return_2_Games_Supporters_Pack/" target="_blank" rel=""  id="dynamiclink_3" &gt;https://store.steampowered.com/app/706770/Return_2_Games_Supporters_Pack/&lt;/a&gt;&lt;br&gt;&lt;br&gt;这一系列的第一部作品&lt;strong&gt;《恶魔之书》&lt;/strong&gt;现已发行，一定要去看看噢——这款游戏提供免费试玩版本。 &lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/449960/Book_of_Demons/" target="_blank" rel=""  id="dynamiclink_4" &gt;https://store.steampowered.com/app/449960/Book_of_Demons/&lt;/a&gt;&lt;br&gt;&lt;br&gt;另外，也别忘了看一看这个系列的第二部作品&lt;strong&gt;《外星人之书》&lt;/strong&gt;，这款游戏致敬了MicroProse的《幽浮：未知的敌人》，目前也在开发之中：&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1196230/Book_of_Aliens/" target="_blank" rel=""  id="dynamiclink_5" &gt;https://store.steampowered.com/app/1196230/Book_of_Aliens/&lt;/a&gt;</t>
+          <t>&lt;h2 class="bb_tag"&gt;高中生涯即将结束，随之而来的却是世界末日&lt;/h2&gt;&lt;br&gt;《无垠之心》以精美的像素风格，重现了90年代末期印尼乡村的生活气息，并且讲述了一对拥有超自然力量的少年少女克服困难、获得友谊的冒险故事。&lt;br&gt;&lt;br&gt;跟随阿塔姆和拉雅，在高中毕业季展开一场自我发现之旅。在此期间，一股神秘的超自然力量突然来袭，他们必须探索和调查自己居住的小镇，发掘隐藏的秘密，直面世界末日，与此同时加深彼此之间的了解。&lt;br&gt;&lt;br&gt;以一个90年代末期的印尼小镇为背景，加之充满生机的可互动场景，《无垠之心》定能为您带来不一般的游戏体验。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1201270/extras/ASFTU_Ronda.gif?t=1693558420" /&gt;&lt;h2 class="bb_tag"&gt;主要特色&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 梦回90年代！一窥90年代末期的印尼乡村！&lt;br&gt;&lt;/li&gt;&lt;li&gt; 探索印尼乡村，享受轻松氛围，发掘隐藏的超自然事件。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 与其他村民交谈互动，听听他们的个人琐事。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 如同盗梦空间一般，潜入别人的内心空间。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 聆听Masdito &amp;quot;Ittou&amp;quot; Bachtiar创作的精美音乐。&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1206560</t>
+          <t>1201540</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>WorldBox - God Simulator</t>
+          <t>HELLCARD</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>世界盒子-上帝模拟器</t>
+          <t>地狱卡牌</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>上帝模拟,沙盒,像素图形,模拟,殖民模拟</t>
+          <t>抢先体验,角色扮演,卡牌战斗,类 Rogue,合作</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4228,39 +4228,39 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2021年12月03日</t>
+          <t>2023年02月17日</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1206560/extras/hi_crab.gif?t=1692701293" /&gt;&lt;br&gt;&lt;strong&gt;WorldBox是一个纟冬！纟及！上帝模拟器及沙盒游戏！&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;创造你自己的世界或者用不同的方式摧毁它:&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;上帝模拟&lt;/strong&gt;。你的工具箱里有各式各样的权能，不必花费什么法力，材料就能使用，因为你就是上帝。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;生机盎然的世界&lt;/strong&gt;。生物有着不同的特性与需求：动物会捕食，贪婪的国王会谋取更多国土。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1206560/extras/world_design.gif?t=1692701293" /&gt;&lt;h2 class="bb_tag"&gt;使用不同的工具和画笔来设计和填充你的世界:&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;幻想种族&lt;/strong&gt;。在WorldBox里有四种种族：人类，兽人，精灵和矮人。 每个种族都有独特的设计和机制&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;文明&lt;/strong&gt;。 种族会建立自己的王国，殖民，甚至漂洋过海发现你创造的新大陆&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;外交系统&lt;/strong&gt;。 国家间会发生战争， 城市会闹独立，帝国会土崩瓦解... 你可以选择帮助他们或者坐山观虎斗。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1206560/extras/destruction.gif?t=1692701293" /&gt;&lt;h2 class="bb_tag"&gt;你可以使用的许多有趣而疯狂的权能:&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;毁灭力量&lt;/strong&gt;。闪电, 龙卷风, 酸雨, 核弹, 陨石, 瘟疫, 巨龙甚至是UFO！&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;不同的生物&lt;/strong&gt;。恶魔, 骷髅, 僵尸, 肿瘤生物, 寒冰恶魔...甚至是一只由你操控的大螃蟹&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1206560/extras/other.gif?t=1692701293" /&gt;&lt;h2 class="bb_tag"&gt;与你的世界互动，创建各种场景:&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;互动&lt;/strong&gt;。通过大磁铁与你的世界互动。使用你的权能引发战争，刮起龙卷风！你可以使用独特的方式影响你的世界。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;作品分享&lt;/strong&gt;。在WorldBox社区展示你的巨作！&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;创造世界&lt;/strong&gt;。创造不同大小的世界，找到有着独特国旗和国名的国家。&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;strong&gt;《地狱卡牌》&lt;/strong&gt;是一款既可单人游玩又可多人联机的卡牌游戏，已拥有超过300张规模的卡池，抢先体验阶段即可支持联机游玩。这款游戏的故事发生在《恶魔之书》纸地下城，不过机制主要围绕牌组构建和快捷的回合制卡牌策略对战。 欢迎加入官方QQ群527070110找组队或反馈意见建议。&lt;br&gt;&lt;br&gt;《地狱卡牌》在开启抢先体验时就已拥有超过&lt;strong&gt;300张&lt;/strong&gt;卡牌的规模，且平衡性已经在不断的测试中得到验证，后续我们也将继续不断丰富卡牌部分的新内容并调整平衡性。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1201540/extras/Hellcard_gif4_600.gif?t=1687799659" /&gt;&lt;br&gt;&lt;br&gt;除已拥有数量丰富的卡牌数量之外，本作与《Slay the Spire》等游戏最大的不同之处在于，游戏里&lt;strong&gt;怪物&lt;/strong&gt;都拥有自己的位置，且会进行移动，这意味着怪物们都有着自己独一无二的位移轨迹及输出范围，而这也是游戏的最大魅力。&lt;br&gt;&lt;br&gt;更重要的是，《地狱卡牌》&lt;strong&gt;支持最多3人联机游玩&lt;/strong&gt;，一起打牌。我们非常希望各位玩家能够以&lt;strong&gt;多人联机&lt;/strong&gt;的方式参与到对抗魔王大军的冒险之中！你可以选择只身潜入地下城，招募电脑控制的同伴，也可以携手朋友或陌生人，与他们一同对抗地狱魔军。 用你自己最惬意的方式游玩吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1201540/extras/Hellcard_gif1-2-3-600.gif?t=1687799659" /&gt;&lt;h2 class="bb_tag"&gt;《回归游戏》系列简介&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1201540/extras/r2g_logo_fixed.png?t=1687799659" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;《回归游戏》&lt;/strong&gt;作为一个中核游戏系列，灵感源自电脑端游戏的黄金时代。《回归游戏》的每一部作品都会致敬1990年代的一部热门游戏，利用现代的手段，依靠创新且通常大幅简化的游戏机制，以新的形式将一个故事呈现在全新的受众面前。最初，我们只是打算将《地狱卡牌》作为新的模式，加入《回归游戏》系列第一部作品&lt;strong&gt;《恶魔之书》&lt;/strong&gt;，不过后来很快发现我们的构思远非一个“模式”那么简单，因而决定将其作为独立的衍生游戏推出。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1201540/extras/pillars.png?t=1687799659" /&gt;&lt;br&gt;&lt;br&gt;如果想进一步了解《回归游戏》这个系列，或者想支持我们开发这个系列，请前往&lt;strong&gt;“支持礼包”&lt;/strong&gt;商店页面。&lt;strong&gt;《地狱卡牌》&lt;/strong&gt;发行之后，也会加入其中。&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/706770/Return_2_Games_Supporters_Pack/" target="_blank" rel=""  id="dynamiclink_3" &gt;https://store.steampowered.com/app/706770/Return_2_Games_Supporters_Pack/&lt;/a&gt;&lt;br&gt;&lt;br&gt;这一系列的第一部作品&lt;strong&gt;《恶魔之书》&lt;/strong&gt;现已发行，一定要去看看噢——这款游戏提供免费试玩版本。 &lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/449960/Book_of_Demons/" target="_blank" rel=""  id="dynamiclink_4" &gt;https://store.steampowered.com/app/449960/Book_of_Demons/&lt;/a&gt;&lt;br&gt;&lt;br&gt;另外，也别忘了看一看这个系列的第二部作品&lt;strong&gt;《外星人之书》&lt;/strong&gt;，这款游戏致敬了MicroProse的《幽浮：未知的敌人》，目前也在开发之中：&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1196230/Book_of_Aliens/" target="_blank" rel=""  id="dynamiclink_5" &gt;https://store.steampowered.com/app/1196230/Book_of_Aliens/&lt;/a&gt;</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1211600</t>
+          <t>1206560</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ZED ZONE</t>
+          <t>WorldBox - God Simulator</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>隔离区-丧尸末日生存</t>
+          <t>世界盒子-上帝模拟器</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>抢先体验,生存,僵尸,开放世界,后末日</t>
+          <t>上帝模拟,沙盒,像素图形,模拟,殖民模拟</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4270,39 +4270,39 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2023年03月30日</t>
+          <t>2021年12月03日</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>大灾变已经到来，执行任务的你不幸坠机被困在隔离区，这里到处都是丧尸和变异怪物，想要逃离这里，你必须努力搜集原料，升级技能，建造避难所，击败尸潮和神秘的机甲，最终寻得一线生机。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1211600/extras/DeathQuarantine_FightScene_Axe_2.gif?t=1681465786" /&gt;&lt;h2 class="bb_tag"&gt;系统载具&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;利用载具探索这个开放世界.&lt;br&gt;&lt;/li&gt;&lt;li&gt;载具的驱动形式, 动力, 档位比等详细参数, 都有设定. &lt;br&gt;&lt;/li&gt;&lt;li&gt;拟真的车辆物理.每一辆车的驾驶感受都是不同的. 部件损坏带来的影响会直观的体现出来.&lt;br&gt;&lt;/li&gt;&lt;li&gt;车辆需要进行维修,加油, 更换电瓶, 更换轮胎等操作. 要注意维护你的载具.&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1211600/extras/DeathQuarantine_Driving_2.gif?t=1681465786" /&gt;&lt;h2 class="bb_tag"&gt;特殊感染者&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;爆破者. 变异前是暴食症患者. 爆炸后造成大范围污染. 被污染的区域需要一段时间才能恢复正常.&lt;br&gt;&lt;/li&gt;&lt;li&gt;喷吐者. 变异前可能是肺部或胃部疾病患者. 体内会不断分泌毒液. 通过呕出毒液进行远程攻击.&lt;br&gt;&lt;/li&gt;&lt;li&gt;野兽. 变异前是健身爱好者. 变异后具有巨大的体型和强大的力量.&lt;br&gt;&lt;/li&gt;&lt;li&gt;突变感染者. 某些原因导致感染者出现突变, 皮肤出现硬化和植物化. 更难被杀死.&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1211600/extras/ZEDZONE_Steam_FanMan_650.gif?t=1681465786" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1211600/extras/DeathQuarantine_2_Corrected_Steam.gif?t=1681465786" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1211600/extras/DeathQuarantine_FightScene_DoubleBarrel_2.gif?t=1681465786" /&gt;&lt;h2 class="bb_tag"&gt;多样化的武器&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;多种类型的近战和远程武器.&lt;br&gt;&lt;/li&gt;&lt;li&gt;制造你的武器和弹药.&lt;br&gt;&lt;/li&gt;&lt;li&gt;对武器进行改装.&lt;br&gt;&lt;/li&gt;&lt;li&gt;6种弹药, 对应不同的枪械.&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1211600/extras/ZedZone_61.gif?t=1681465786" /&gt;&lt;h2 class="bb_tag"&gt;建造和制造&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;建造属于你的避难所.&lt;br&gt;&lt;/li&gt;&lt;li&gt;收集资源,建造设施. 为避难所储备物资, 提供电力, 制造你的生产设备.&lt;br&gt;&lt;/li&gt;&lt;li&gt;制造工具, 武器, 弹药.&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1211600/extras/DeathQuarantine_Build2.gif?t=1681465786" /&gt;&lt;h2 class="bb_tag"&gt;生存要素&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;细节丰富的生存体验.&lt;br&gt;&lt;/li&gt;&lt;li&gt;通过搜索房屋,采集,狩猎或种植来获取食物.&lt;br&gt;&lt;/li&gt;&lt;li&gt;睡袋, 电池, 手电等. 数百种物品供你使用.&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1211600/extras/DeathQuarantine_BBQ_3.gif?t=1681465786" /&gt;&lt;br&gt;描述生存系统的细节</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1206560/extras/hi_crab.gif?t=1692701293" /&gt;&lt;br&gt;&lt;strong&gt;WorldBox是一个纟冬！纟及！上帝模拟器及沙盒游戏！&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;创造你自己的世界或者用不同的方式摧毁它:&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;上帝模拟&lt;/strong&gt;。你的工具箱里有各式各样的权能，不必花费什么法力，材料就能使用，因为你就是上帝。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;生机盎然的世界&lt;/strong&gt;。生物有着不同的特性与需求：动物会捕食，贪婪的国王会谋取更多国土。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1206560/extras/world_design.gif?t=1692701293" /&gt;&lt;h2 class="bb_tag"&gt;使用不同的工具和画笔来设计和填充你的世界:&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;幻想种族&lt;/strong&gt;。在WorldBox里有四种种族：人类，兽人，精灵和矮人。 每个种族都有独特的设计和机制&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;文明&lt;/strong&gt;。 种族会建立自己的王国，殖民，甚至漂洋过海发现你创造的新大陆&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;外交系统&lt;/strong&gt;。 国家间会发生战争， 城市会闹独立，帝国会土崩瓦解... 你可以选择帮助他们或者坐山观虎斗。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1206560/extras/destruction.gif?t=1692701293" /&gt;&lt;h2 class="bb_tag"&gt;你可以使用的许多有趣而疯狂的权能:&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;毁灭力量&lt;/strong&gt;。闪电, 龙卷风, 酸雨, 核弹, 陨石, 瘟疫, 巨龙甚至是UFO！&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;不同的生物&lt;/strong&gt;。恶魔, 骷髅, 僵尸, 肿瘤生物, 寒冰恶魔...甚至是一只由你操控的大螃蟹&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1206560/extras/other.gif?t=1692701293" /&gt;&lt;h2 class="bb_tag"&gt;与你的世界互动，创建各种场景:&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;互动&lt;/strong&gt;。通过大磁铁与你的世界互动。使用你的权能引发战争，刮起龙卷风！你可以使用独特的方式影响你的世界。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;作品分享&lt;/strong&gt;。在WorldBox社区展示你的巨作！&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;创造世界&lt;/strong&gt;。创造不同大小的世界，找到有着独特国旗和国名的国家。&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1216320</t>
+          <t>1211600</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Shieldwall</t>
+          <t>ZED ZONE</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>盾墙</t>
+          <t>隔离区-丧尸末日生存</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>动作,模拟,沙盒,欢乐,中世纪</t>
+          <t>抢先体验,生存,僵尸,开放世界,后末日</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4312,39 +4312,39 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2023年04月19日</t>
+          <t>2023年03月30日</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>《Shieldwall》是一款极具策略又不失有趣的战争模拟游戏。你将在游戏中扮演战队指挥官，驰骋沙场！&lt;br&gt;&lt;br&gt;&lt;i&gt;凯撒需要你！高卢不会被自己征服。站在雄鹰之下，率领军团为罗马争光！&lt;/i&gt;&lt;h2 class="bb_tag"&gt;特征：&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;在单人游戏中操控部队阵型&lt;br&gt;&lt;/li&gt;&lt;li&gt;享受风云多变、乐趣无穷的战斗&lt;br&gt;&lt;/li&gt;&lt;li&gt;在比赛中围攻敌人的同时捍卫自己的城堡&lt;br&gt;&lt;/li&gt;&lt;li&gt;在2到4只队伍的比赛中运筹帷幄，决胜沙场&lt;br&gt;&lt;/li&gt;&lt;li&gt;追随凯撒置身于各大名战役中，体验最真实的古罗马&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>大灾变已经到来，执行任务的你不幸坠机被困在隔离区，这里到处都是丧尸和变异怪物，想要逃离这里，你必须努力搜集原料，升级技能，建造避难所，击败尸潮和神秘的机甲，最终寻得一线生机。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1211600/extras/DeathQuarantine_FightScene_Axe_2.gif?t=1681465786" /&gt;&lt;h2 class="bb_tag"&gt;系统载具&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;利用载具探索这个开放世界.&lt;br&gt;&lt;/li&gt;&lt;li&gt;载具的驱动形式, 动力, 档位比等详细参数, 都有设定. &lt;br&gt;&lt;/li&gt;&lt;li&gt;拟真的车辆物理.每一辆车的驾驶感受都是不同的. 部件损坏带来的影响会直观的体现出来.&lt;br&gt;&lt;/li&gt;&lt;li&gt;车辆需要进行维修,加油, 更换电瓶, 更换轮胎等操作. 要注意维护你的载具.&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1211600/extras/DeathQuarantine_Driving_2.gif?t=1681465786" /&gt;&lt;h2 class="bb_tag"&gt;特殊感染者&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;爆破者. 变异前是暴食症患者. 爆炸后造成大范围污染. 被污染的区域需要一段时间才能恢复正常.&lt;br&gt;&lt;/li&gt;&lt;li&gt;喷吐者. 变异前可能是肺部或胃部疾病患者. 体内会不断分泌毒液. 通过呕出毒液进行远程攻击.&lt;br&gt;&lt;/li&gt;&lt;li&gt;野兽. 变异前是健身爱好者. 变异后具有巨大的体型和强大的力量.&lt;br&gt;&lt;/li&gt;&lt;li&gt;突变感染者. 某些原因导致感染者出现突变, 皮肤出现硬化和植物化. 更难被杀死.&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1211600/extras/ZEDZONE_Steam_FanMan_650.gif?t=1681465786" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1211600/extras/DeathQuarantine_2_Corrected_Steam.gif?t=1681465786" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1211600/extras/DeathQuarantine_FightScene_DoubleBarrel_2.gif?t=1681465786" /&gt;&lt;h2 class="bb_tag"&gt;多样化的武器&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;多种类型的近战和远程武器.&lt;br&gt;&lt;/li&gt;&lt;li&gt;制造你的武器和弹药.&lt;br&gt;&lt;/li&gt;&lt;li&gt;对武器进行改装.&lt;br&gt;&lt;/li&gt;&lt;li&gt;6种弹药, 对应不同的枪械.&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1211600/extras/ZedZone_61.gif?t=1681465786" /&gt;&lt;h2 class="bb_tag"&gt;建造和制造&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;建造属于你的避难所.&lt;br&gt;&lt;/li&gt;&lt;li&gt;收集资源,建造设施. 为避难所储备物资, 提供电力, 制造你的生产设备.&lt;br&gt;&lt;/li&gt;&lt;li&gt;制造工具, 武器, 弹药.&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1211600/extras/DeathQuarantine_Build2.gif?t=1681465786" /&gt;&lt;h2 class="bb_tag"&gt;生存要素&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;细节丰富的生存体验.&lt;br&gt;&lt;/li&gt;&lt;li&gt;通过搜索房屋,采集,狩猎或种植来获取食物.&lt;br&gt;&lt;/li&gt;&lt;li&gt;睡袋, 电池, 手电等. 数百种物品供你使用.&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1211600/extras/DeathQuarantine_BBQ_3.gif?t=1681465786" /&gt;&lt;br&gt;描述生存系统的细节</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1217060</t>
+          <t>1216320</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Gunfire Reborn</t>
+          <t>Shieldwall</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>枪火重生</t>
+          <t>盾墙</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>轻度 Rogue,第一人称射击,在线合作,合作,类 Rogue</t>
+          <t>动作,模拟,沙盒,欢乐,中世纪</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4354,39 +4354,39 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2020年5月22日</t>
+          <t>2023年04月19日</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;&lt;strong&gt;关于这款游戏：&lt;/strong&gt;&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;《枪火重生》是一款融合了第一人称射击、Roguelite随机元素和RPG策略选择的冒险闯关游戏。玩家在游戏里可以操纵不同能力的英雄组建多种Build玩法，使用随机掉落的武器在随机性关卡中进行冒险挑战。可以单人畅玩，也可以最多四人组队挑战。   &lt;br&gt;&lt;/li&gt;&lt;li&gt;在游戏中，玩家的每次关卡体验都是随机的。每一次重新开始游戏都是新的体验。你可以在不同的关卡体验中遇见不同的英雄天赋、武器道具、不同的关卡路线和战斗节奏。   &lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;游戏目前还处于EA抢先体验阶段，我们会在接下来较长的一段时间里逐渐完善游戏修复bug、新增更多的内容和玩法。感谢你们的支持！我们会努力把游戏做的更好。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img crossorigin="anonymous" src="https://media.st.dl.pinyuncloud.com/steam/apps/1217060/extras/互动.gif?t=1593765901"&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;游戏特色： &lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;FPS+Roguelite+RPG组合玩法，在不断的死亡轮回中组建多种Build获得不同的通关体验&lt;/li&gt;&lt;/ul&gt;&lt;img crossorigin="anonymous" src="https://media.st.dl.pinyuncloud.com/steam/apps/1217060/extras/zhandouqieqiang_GIF1.gif?t=1593765901"&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;手工打造但颇具随机性的关卡体验&lt;/li&gt;&lt;/ul&gt;&lt;img crossorigin="anonymous" src="https://media.st.dl.pinyuncloud.com/steam/apps/1217060/extras/2muqieqiang_GIF.gif?t=1593765901"&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;超过100多种不同的道具和各式各样的武器&lt;/li&gt;&lt;/ul&gt;&lt;img crossorigin="anonymous" src="https://media.st.dl.pinyuncloud.com/steam/apps/1217060/extras/feizhandouqieqiang_GIF2.gif?t=1593765901"&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;多英雄、多周目玩法机制差异&lt;/li&gt;&lt;/ul&gt;&lt;img crossorigin="anonymous" src="https://media.st.dl.pinyuncloud.com/steam/apps/1217060/extras/zhandouqieqiang_GIF3.gif?t=1593765901"&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;独具一格的风格化美术&lt;/li&gt;&lt;/ul&gt;&lt;img crossorigin="anonymous" src="https://media.st.dl.pinyuncloud.com/steam/apps/1217060/extras/view.gif?t=1593765901"&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;组队闯关冒险&lt;/li&gt;&lt;/ul&gt;&lt;img crossorigin="anonymous" src="https://media.st.dl.pinyuncloud.com/steam/apps/1217060/extras/小怪物.gif?t=1593765901"&gt; &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;</t>
+          <t>《Shieldwall》是一款极具策略又不失有趣的战争模拟游戏。你将在游戏中扮演战队指挥官，驰骋沙场！&lt;br&gt;&lt;br&gt;&lt;i&gt;凯撒需要你！高卢不会被自己征服。站在雄鹰之下，率领军团为罗马争光！&lt;/i&gt;&lt;h2 class="bb_tag"&gt;特征：&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;在单人游戏中操控部队阵型&lt;br&gt;&lt;/li&gt;&lt;li&gt;享受风云多变、乐趣无穷的战斗&lt;br&gt;&lt;/li&gt;&lt;li&gt;在比赛中围攻敌人的同时捍卫自己的城堡&lt;br&gt;&lt;/li&gt;&lt;li&gt;在2到4只队伍的比赛中运筹帷幄，决胜沙场&lt;br&gt;&lt;/li&gt;&lt;li&gt;追随凯撒置身于各大名战役中，体验最真实的古罗马&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>1217410</t>
+          <t>1217060</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>孟德大小姐与自爆少年</t>
+          <t>Gunfire Reborn</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>孟德大小姐与自爆少年</t>
+          <t>枪火重生</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>历史,视觉小说,剧情丰富,角色扮演,情感</t>
+          <t>轻度 Rogue,第一人称射击,在线合作,合作,类 Rogue</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4396,39 +4396,39 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2023年04月20日</t>
+          <t>2020年5月22日</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2023年&lt;br&gt;在我即将死去的22岁&lt;br&gt;我遇见了这样一个女孩：&lt;br&gt;胸大腿长，肤白貌美，&lt;br&gt;浪漫肆意，杀人如麻。&lt;br&gt;她叫&lt;br&gt;曹操&lt;br&gt;&lt;br&gt;“喂！ 要与我一起做贼吗”&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1217410/extras/孟德个人.gif?t=1681986926" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1217410/extras/steam-故事背景-2.jpg?t=1681986926" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1217410/extras/人物介绍_曹操.jpg?t=1681986926" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;【故事特色】&lt;/h2&gt;&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;三国武将 23位出场角色&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;这是第一部讲述性转三国群像的视觉小说，出场人物多达23位：&lt;br&gt;女装主播张角，女程序员张辽，冷艳杀手夏侯渊，黑丝主任荀彧，温柔学姐司马仪，女仆装许褚，工头典韦，大学生郭奉孝，学生会长陈群，不良少年夏侯惇，高中生乐进，大姐头关羽，金融大牛贾诩，…… 各路武将纷纷觉醒，而新的三国争霸于现代重新开始！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1217410/extras/steam-群像.jpg?t=1681986926" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;高燃动态演出&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;剧情中存在大量战斗等高燃场面，为了营造氛围，采用动画式分镜，加上静帧动画，让玩家肾上腺素飙升。&lt;br&gt;其中，在讲述武将的故事时，采用古今交织的叙事手法，让玩家既能品味三国时期的厚重历史，又能沉浸于现代的繁华都市。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1217410/extras/总合成_1.gif?t=1681986926" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;【买前须知】&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;1.《孟德大小姐与自爆少年》内容为“三国乱传”系列上半部分，下半部正在加紧制作当中~&lt;br&gt;2.游戏共有23位三国名将登场，牵扯三方势力，古今记忆交叠，背景宏大，关系纷繁复杂(名与字交替使用，有一定理解成本，请谨慎食用)&lt;br&gt;3.本作为幻想类三国、非后宫向作品，采用群像叙事。涉及性转、虚构等（由于人物改变比较大，如果在意的玩家就不用购买啦，感谢）&lt;br&gt;4.游戏文本量约17W+字，共170+张CG,20+张立绘，全程配音，游玩时长6-10小时。（因素材量较大，快速播放时按钮有可能失效，请存档后重开游戏）&lt;br&gt;5.看到这里如果你还有兴趣，请先下载免费试玩版尝试一下，确定喜欢买付费版本吧~</t>
+          <t>&lt;h2 class="bb_tag"&gt;&lt;strong&gt;关于这款游戏：&lt;/strong&gt;&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;《枪火重生》是一款融合了第一人称射击、Roguelite随机元素和RPG策略选择的冒险闯关游戏。玩家在游戏里可以操纵不同能力的英雄组建多种Build玩法，使用随机掉落的武器在随机性关卡中进行冒险挑战。可以单人畅玩，也可以最多四人组队挑战。   &lt;br&gt;&lt;/li&gt;&lt;li&gt;在游戏中，玩家的每次关卡体验都是随机的。每一次重新开始游戏都是新的体验。你可以在不同的关卡体验中遇见不同的英雄天赋、武器道具、不同的关卡路线和战斗节奏。   &lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;游戏目前还处于EA抢先体验阶段，我们会在接下来较长的一段时间里逐渐完善游戏修复bug、新增更多的内容和玩法。感谢你们的支持！我们会努力把游戏做的更好。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img crossorigin="anonymous" src="https://media.st.dl.pinyuncloud.com/steam/apps/1217060/extras/互动.gif?t=1593765901"&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;游戏特色： &lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;FPS+Roguelite+RPG组合玩法，在不断的死亡轮回中组建多种Build获得不同的通关体验&lt;/li&gt;&lt;/ul&gt;&lt;img crossorigin="anonymous" src="https://media.st.dl.pinyuncloud.com/steam/apps/1217060/extras/zhandouqieqiang_GIF1.gif?t=1593765901"&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;手工打造但颇具随机性的关卡体验&lt;/li&gt;&lt;/ul&gt;&lt;img crossorigin="anonymous" src="https://media.st.dl.pinyuncloud.com/steam/apps/1217060/extras/2muqieqiang_GIF.gif?t=1593765901"&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;超过100多种不同的道具和各式各样的武器&lt;/li&gt;&lt;/ul&gt;&lt;img crossorigin="anonymous" src="https://media.st.dl.pinyuncloud.com/steam/apps/1217060/extras/feizhandouqieqiang_GIF2.gif?t=1593765901"&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;多英雄、多周目玩法机制差异&lt;/li&gt;&lt;/ul&gt;&lt;img crossorigin="anonymous" src="https://media.st.dl.pinyuncloud.com/steam/apps/1217060/extras/zhandouqieqiang_GIF3.gif?t=1593765901"&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;独具一格的风格化美术&lt;/li&gt;&lt;/ul&gt;&lt;img crossorigin="anonymous" src="https://media.st.dl.pinyuncloud.com/steam/apps/1217060/extras/view.gif?t=1593765901"&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;组队闯关冒险&lt;/li&gt;&lt;/ul&gt;&lt;img crossorigin="anonymous" src="https://media.st.dl.pinyuncloud.com/steam/apps/1217060/extras/小怪物.gif?t=1593765901"&gt; &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>1220140</t>
+          <t>1217410</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Cartel Tycoon</t>
+          <t>孟德大小姐与自爆少年</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>卡特尔大亨</t>
+          <t>孟德大小姐与自爆少年</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>俯视,即时战略,资源管理,氛围,管理</t>
+          <t>历史,视觉小说,剧情丰富,角色扮演,情感</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4438,39 +4438,39 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2022年07月27日</t>
+          <t>2023年04月20日</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=http://discord.gg/carteltycoon" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/Discord_Banner_1.png?t=1690383209" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;《Cartel Tycoon》以虚构的80年代拉丁美洲为背景，描绘出由可卡因主宰美国乃至全世界的时代图景。富得流油的毒枭们统治着他们的辉煌帝国，在创造了数千个就业机会的同时，也令这个道德沦丧的世界充斥着暴力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/CartelTycoon-Communication.gif?t=1690383209" /&gt;&lt;br&gt;&lt;br&gt;建立起生产毒品并拥有走私链的帝国，同时还要管理好地痞副手，处理好有关当局以及公众舆论的关系。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/Police.gif?t=1690383209" /&gt;&lt;br&gt;&lt;br&gt;敌对帮派、缉毒局、军方甚至中情局都对你不断增长的业务构成威胁。死亡在所难免，但这并不是终点。当你死后（对毒枭来说，从来没有真正的好结局），你将以继承者身份加冕，并在废墟上重新建立你的帝国。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/oct21_CopterV2.gif?t=1690383209" /&gt;&lt;br&gt;&lt;br&gt;在《Cartel Tycoon》中，失败是无法避免的，暴力只会带来更多的暴力——但是那些狡猾的毒枭眼中看到的更多是利润。&lt;h2 class="bb_tag"&gt;多种游戏模式总有一种适合你&lt;/h2&gt;&lt;br&gt;故事模式适合想要沉浸到数十小时引人入胜的游戏世界中的玩家。硬核永久死亡模式模式适合喜欢挑战的玩家。高度自定义的沙盒模式则为想要按照自己的规则进行游戏的玩家而准备！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/cars_small.png?t=1690383209" /&gt;&lt;br&gt;&lt;br&gt;Key features&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;发展你的帝国。&lt;/strong&gt;将简陋的农业经营发展成一个庞大的物流系统，包括种植园、实验室、航空港等。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;用自己的方式统治。&lt;/strong&gt;数十条升级路径，无数的策略组合，面对如此巨大的规模施展你超高的经营手腕。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;死亡不可避免。&lt;/strong&gt;当你的老大没落时，提拔一个独特的副手来接管你的生意并继续壮大你的卡特尔。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;每件事，每个人，都有价格。&lt;/strong&gt;清洗你辛苦赚来的钱来发展你的帝国，维护你副手的忠诚度，贿赂腐败的政客。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;捍卫自己所得。&lt;/strong&gt;在获利之路上规避有关当局，并与卡特尔同行竞争。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;无尽的可重玩性。&lt;/strong&gt;几十个独特的角色，无限制的沙盒游戏玩法，可随心所欲探索的动态叙事系统。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;原声大碟捕捉时代迷幻色彩，尽显拉美风情。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/Comp_64.gif?t=1690383209" /&gt;</t>
+          <t>2023年&lt;br&gt;在我即将死去的22岁&lt;br&gt;我遇见了这样一个女孩：&lt;br&gt;胸大腿长，肤白貌美，&lt;br&gt;浪漫肆意，杀人如麻。&lt;br&gt;她叫&lt;br&gt;曹操&lt;br&gt;&lt;br&gt;“喂！ 要与我一起做贼吗”&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1217410/extras/孟德个人.gif?t=1681986926" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1217410/extras/steam-故事背景-2.jpg?t=1681986926" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1217410/extras/人物介绍_曹操.jpg?t=1681986926" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;【故事特色】&lt;/h2&gt;&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;三国武将 23位出场角色&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;这是第一部讲述性转三国群像的视觉小说，出场人物多达23位：&lt;br&gt;女装主播张角，女程序员张辽，冷艳杀手夏侯渊，黑丝主任荀彧，温柔学姐司马仪，女仆装许褚，工头典韦，大学生郭奉孝，学生会长陈群，不良少年夏侯惇，高中生乐进，大姐头关羽，金融大牛贾诩，…… 各路武将纷纷觉醒，而新的三国争霸于现代重新开始！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1217410/extras/steam-群像.jpg?t=1681986926" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;高燃动态演出&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;剧情中存在大量战斗等高燃场面，为了营造氛围，采用动画式分镜，加上静帧动画，让玩家肾上腺素飙升。&lt;br&gt;其中，在讲述武将的故事时，采用古今交织的叙事手法，让玩家既能品味三国时期的厚重历史，又能沉浸于现代的繁华都市。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1217410/extras/总合成_1.gif?t=1681986926" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;【买前须知】&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;1.《孟德大小姐与自爆少年》内容为“三国乱传”系列上半部分，下半部正在加紧制作当中~&lt;br&gt;2.游戏共有23位三国名将登场，牵扯三方势力，古今记忆交叠，背景宏大，关系纷繁复杂(名与字交替使用，有一定理解成本，请谨慎食用)&lt;br&gt;3.本作为幻想类三国、非后宫向作品，采用群像叙事。涉及性转、虚构等（由于人物改变比较大，如果在意的玩家就不用购买啦，感谢）&lt;br&gt;4.游戏文本量约17W+字，共170+张CG,20+张立绘，全程配音，游玩时长6-10小时。（因素材量较大，快速播放时按钮有可能失效，请存档后重开游戏）&lt;br&gt;5.看到这里如果你还有兴趣，请先下载免费试玩版尝试一下，确定喜欢买付费版本吧~</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>1229240</t>
+          <t>1220140</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Chained Echoes</t>
+          <t>Cartel Tycoon</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>链接回声</t>
+          <t>卡特尔大亨</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>角色扮演,独立,像素图形,回合制,日系角色扮演</t>
+          <t>俯视,即时战略,资源管理,氛围,管理</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4480,39 +4480,39 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2022年12月08日</t>
+          <t>2022年07月27日</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>欢迎加入官方QQ交流群829981108。&lt;br&gt;&lt;br&gt;宿命残响是一款故事驱动日式角色扮演游戏，玩家将操作性格迥异的英雄们奔波于瓦兰蒂斯大陆，为这片因三个王国征战不休而生灵涂炭的土地带来和平。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1229240/extras/ExploreCardSC.png?t=1688714230" /&gt;&lt;br&gt;从风蚀平原到汪洋群岛再到地底遗迹，在旅途当中众人会踏足丰富多彩的地貌，见证别具一格的胜景。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1229240/extras/FightGIFSC.gif?t=1688714230" /&gt;&lt;br&gt;举起宝剑，吟唱魔法，驾驶天铠。宿命残响是一款复古16位像素风格角色扮演游戏，设定于机甲与巨龙并存的奇幻世界。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1229240/extras/ExperienceGIFSC.gif?t=1688714230" /&gt;&lt;br&gt;&lt;br&gt;跟随英雄们的视角，探索这片充满迷人角色，异域风景和强大敌人的奇幻大陆。&lt;br&gt;战争已经蹂躏这片土地多年，怨气滔天，人心不古。你是否能扑灭延绵不断的战火，开创新的未来？&lt;h2 class="bb_tag"&gt;游戏特色：&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;30 - 40小时游戏时间&lt;br&gt;&lt;/li&gt;&lt;li&gt;快节奏回合制战斗&lt;br&gt;&lt;/li&gt;&lt;li&gt;大地图遇敌无暗雷&lt;br&gt;&lt;/li&gt;&lt;li&gt;组建结社，建造基地，招募成员&lt;br&gt;&lt;/li&gt;&lt;li&gt;大量物品可拾取，偷窃或制造&lt;br&gt;&lt;/li&gt;&lt;li&gt;深入的技能与装备系统&lt;br&gt;&lt;/li&gt;&lt;li&gt;自定义装扮您的空艇&lt;br&gt;&lt;/li&gt;&lt;li&gt;徒步或驾驶天铠旅行以及战斗&lt;br&gt;&lt;/li&gt;&lt;li&gt;复古16位像素风美术&lt;br&gt;&lt;/li&gt;&lt;li&gt;经典JRPG风格音乐&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=http://discord.gg/carteltycoon" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/Discord_Banner_1.png?t=1690383209" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;《Cartel Tycoon》以虚构的80年代拉丁美洲为背景，描绘出由可卡因主宰美国乃至全世界的时代图景。富得流油的毒枭们统治着他们的辉煌帝国，在创造了数千个就业机会的同时，也令这个道德沦丧的世界充斥着暴力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/CartelTycoon-Communication.gif?t=1690383209" /&gt;&lt;br&gt;&lt;br&gt;建立起生产毒品并拥有走私链的帝国，同时还要管理好地痞副手，处理好有关当局以及公众舆论的关系。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/Police.gif?t=1690383209" /&gt;&lt;br&gt;&lt;br&gt;敌对帮派、缉毒局、军方甚至中情局都对你不断增长的业务构成威胁。死亡在所难免，但这并不是终点。当你死后（对毒枭来说，从来没有真正的好结局），你将以继承者身份加冕，并在废墟上重新建立你的帝国。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/oct21_CopterV2.gif?t=1690383209" /&gt;&lt;br&gt;&lt;br&gt;在《Cartel Tycoon》中，失败是无法避免的，暴力只会带来更多的暴力——但是那些狡猾的毒枭眼中看到的更多是利润。&lt;h2 class="bb_tag"&gt;多种游戏模式总有一种适合你&lt;/h2&gt;&lt;br&gt;故事模式适合想要沉浸到数十小时引人入胜的游戏世界中的玩家。硬核永久死亡模式模式适合喜欢挑战的玩家。高度自定义的沙盒模式则为想要按照自己的规则进行游戏的玩家而准备！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/cars_small.png?t=1690383209" /&gt;&lt;br&gt;&lt;br&gt;Key features&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;发展你的帝国。&lt;/strong&gt;将简陋的农业经营发展成一个庞大的物流系统，包括种植园、实验室、航空港等。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;用自己的方式统治。&lt;/strong&gt;数十条升级路径，无数的策略组合，面对如此巨大的规模施展你超高的经营手腕。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;死亡不可避免。&lt;/strong&gt;当你的老大没落时，提拔一个独特的副手来接管你的生意并继续壮大你的卡特尔。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;每件事，每个人，都有价格。&lt;/strong&gt;清洗你辛苦赚来的钱来发展你的帝国，维护你副手的忠诚度，贿赂腐败的政客。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;捍卫自己所得。&lt;/strong&gt;在获利之路上规避有关当局，并与卡特尔同行竞争。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;无尽的可重玩性。&lt;/strong&gt;几十个独特的角色，无限制的沙盒游戏玩法，可随心所欲探索的动态叙事系统。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;原声大碟捕捉时代迷幻色彩，尽显拉美风情。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/Comp_64.gif?t=1690383209" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1230530</t>
+          <t>1229240</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Atlas Fallen</t>
+          <t>Chained Echoes</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>尘封大陆</t>
+          <t>链接回声</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>动作,冒险,动作角色扮演,动作冒险,探索</t>
+          <t>角色扮演,独立,像素图形,回合制,日系角色扮演</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4522,39 +4522,39 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2023年08月10日</t>
+          <t>2022年12月08日</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1230530/extras/ATLAS_FALLEN_LOGO_WHITE.png?t=1691670307" /&gt;&lt;br&gt;&lt;br&gt;自沙尘中崛起，带领人类向沦为压迫者的堕落神明发起反抗。&lt;br&gt;&lt;br&gt;在这片永恒之地上御沙而行，这里充满了古老的危险、谜团和过去的碎片。使用强大的变形武器和毁灭性的沙动力超能力，进行壮观的超能力战斗，猎杀传奇怪兽。&lt;br&gt;&lt;br&gt;瞄准并收集敌人的真气，塑造你自己的自定义游戏风格，在完全多人合作或单人剧情战役中为人类打造一个新时代。&lt;br&gt;&lt;br&gt;&lt;i&gt;于尘埃中崛起，掀起风暴。&lt;/i&gt;&lt;br&gt;&lt;br&gt;•	驾驭狂沙，探索充满秘密、不同区域和危险的独特奇幻世界&lt;br&gt;•	在英勇的超能力战斗中单独或与朋友一起狩猎传奇生物&lt;br&gt;•	释放你的力量，创造致命的变形武器&lt;br&gt;•	以独特的自定义技能和超能力崛起，成为终极冠军</t>
+          <t>欢迎加入官方QQ交流群829981108。&lt;br&gt;&lt;br&gt;宿命残响是一款故事驱动日式角色扮演游戏，玩家将操作性格迥异的英雄们奔波于瓦兰蒂斯大陆，为这片因三个王国征战不休而生灵涂炭的土地带来和平。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1229240/extras/ExploreCardSC.png?t=1688714230" /&gt;&lt;br&gt;从风蚀平原到汪洋群岛再到地底遗迹，在旅途当中众人会踏足丰富多彩的地貌，见证别具一格的胜景。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1229240/extras/FightGIFSC.gif?t=1688714230" /&gt;&lt;br&gt;举起宝剑，吟唱魔法，驾驶天铠。宿命残响是一款复古16位像素风格角色扮演游戏，设定于机甲与巨龙并存的奇幻世界。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1229240/extras/ExperienceGIFSC.gif?t=1688714230" /&gt;&lt;br&gt;&lt;br&gt;跟随英雄们的视角，探索这片充满迷人角色，异域风景和强大敌人的奇幻大陆。&lt;br&gt;战争已经蹂躏这片土地多年，怨气滔天，人心不古。你是否能扑灭延绵不断的战火，开创新的未来？&lt;h2 class="bb_tag"&gt;游戏特色：&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;30 - 40小时游戏时间&lt;br&gt;&lt;/li&gt;&lt;li&gt;快节奏回合制战斗&lt;br&gt;&lt;/li&gt;&lt;li&gt;大地图遇敌无暗雷&lt;br&gt;&lt;/li&gt;&lt;li&gt;组建结社，建造基地，招募成员&lt;br&gt;&lt;/li&gt;&lt;li&gt;大量物品可拾取，偷窃或制造&lt;br&gt;&lt;/li&gt;&lt;li&gt;深入的技能与装备系统&lt;br&gt;&lt;/li&gt;&lt;li&gt;自定义装扮您的空艇&lt;br&gt;&lt;/li&gt;&lt;li&gt;徒步或驾驶天铠旅行以及战斗&lt;br&gt;&lt;/li&gt;&lt;li&gt;复古16位像素风美术&lt;br&gt;&lt;/li&gt;&lt;li&gt;经典JRPG风格音乐&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>1244090</t>
+          <t>1230530</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Sea of Stars</t>
+          <t>Atlas Fallen</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>星之海</t>
+          <t>尘封大陆</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>角色扮演,像素图形,回合制战斗,冒险,剧情丰富</t>
+          <t>动作,冒险,动作角色扮演,动作冒险,探索</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4564,39 +4564,39 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2023年08月29日</t>
+          <t>2023年08月10日</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-content-header.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;《星之海》承载着Sabotage工作室的目标&lt;/strong&gt;——用现代的方式重现经典角色扮演游戏：从回合制战斗到跌宕起伏的故事，从世界探索到细腻的环境交互，让大家重回独属怀旧游戏的美好旧时光。&lt;h2 class="bb_tag"&gt;经典和创新结合的回合制玩法 - “易”于上手 “乐”于精通&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-combat.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;掌控战斗的时机&lt;/strong&gt; - 看准时机按下交互键可以提升造成的伤害，或减少受到的伤害。&lt;br&gt;&lt;strong&gt;灵活的战斗方式&lt;/strong&gt; - 在战斗中使用多人组合技，充能攻击以及纳入战术考量的“Lock”系统，通过组合这些不同的攻击，甚至能够打断敌人正在准备的蓄力攻击或强大法术。&lt;br&gt;&lt;strong&gt;全身心地投入这款复古之作&lt;/strong&gt; - 不会有随机乏味的遭遇战，也不会有战场之间的频繁转换，更不会有无休无止打不完的敌人！&lt;h2 class="bb_tag"&gt;“不拘一格”的探索&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-traversal-flip-S.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;我们潜心研究平台游戏多年，打造了一套独特的移动系统!&lt;br&gt;您将不再受到传统的网格束缚，畅快地在世界中穿梭！&lt;br&gt;无论您想&lt;strong&gt;在池水中游弋，还是在岩壁上攀爬，或是轻快地从石阶上纵身跳下&lt;/strong&gt;，都可尽情体验。&lt;h2 class="bb_tag"&gt;独立的光照渲染&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-lighting-S.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;我们为游戏研发了一套独特的渲染管线!&lt;br&gt;《星之海》因此突破了2D像素美术游戏的限制，它让游戏充满了色彩，并且处处体现出优雅的细节！让你感受到一个更加真实、令人惊叹的游戏世界。&lt;h2 class="bb_tag"&gt;永恒的冒险与友谊&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-story-rich-adventure.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;这就是从Sabotage工作室的角色扮演游戏中可以期待的一切——经典的冒险与友谊故事。&lt;br&gt;&lt;br&gt;您可以与数十个原创角色一起踏上这段迷人的旅程：&lt;br&gt;&lt;strong&gt;时而波澜壮阔，犹如史诗长歌；&lt;br&gt;时而轻松诙谐，让人忍俊不禁。&lt;/strong&gt;&lt;br&gt;充满着意想不到的曲折与反转，让人心绪久久不能平复。&lt;h2 class="bb_tag"&gt;惬意的日常也是游戏的一部分&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-sabotage-touch.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;想试试停下冒险的脚步，在《星之海》的世界中打发打发时间？&lt;br&gt;去试试扬起帆出海！&lt;br&gt;或是生起篝火研究食谱？&lt;br&gt;还是拿出鱼竿甩两杆？&lt;br&gt;路过一家小酒馆进去听会儿歌，或者玩两把桌游...&lt;br&gt;每个系统的设计都是在尊重经典复古游戏的前提下，加入了崭新且独一无二的新体验。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1230530/extras/ATLAS_FALLEN_LOGO_WHITE.png?t=1691670307" /&gt;&lt;br&gt;&lt;br&gt;自沙尘中崛起，带领人类向沦为压迫者的堕落神明发起反抗。&lt;br&gt;&lt;br&gt;在这片永恒之地上御沙而行，这里充满了古老的危险、谜团和过去的碎片。使用强大的变形武器和毁灭性的沙动力超能力，进行壮观的超能力战斗，猎杀传奇怪兽。&lt;br&gt;&lt;br&gt;瞄准并收集敌人的真气，塑造你自己的自定义游戏风格，在完全多人合作或单人剧情战役中为人类打造一个新时代。&lt;br&gt;&lt;br&gt;&lt;i&gt;于尘埃中崛起，掀起风暴。&lt;/i&gt;&lt;br&gt;&lt;br&gt;•	驾驭狂沙，探索充满秘密、不同区域和危险的独特奇幻世界&lt;br&gt;•	在英勇的超能力战斗中单独或与朋友一起狩猎传奇生物&lt;br&gt;•	释放你的力量，创造致命的变形武器&lt;br&gt;•	以独特的自定义技能和超能力崛起，成为终极冠军</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>1244800</t>
+          <t>1244090</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Terraformers</t>
+          <t>Sea of Stars</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>焕然异星</t>
+          <t>星之海</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>模拟,程序生成,生存,氛围,类 Rogue</t>
+          <t>角色扮演,像素图形,回合制战斗,冒险,剧情丰富</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4611,34 +4611,34 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2023年03月10日</t>
+          <t>2023年08月29日</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;加入我们的社区&lt;br&gt;欢迎加入Terraformers&lt;strong&gt;官方QQ群：684598184&lt;/strong&gt;，以反馈任何意见或bug。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244800/extras/TERRA_PlanetTurnSlow_Steam.gif?t=1693944409" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244800/extras/SCHIN_Title_1.png?t=1693944409" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;将你的队长派往神秘地点，率先发现丰富的矿藏、巨型水晶洞窟和摄人心魄的自然奇观。&lt;br&gt;&lt;/li&gt;&lt;li&gt;让新的城市遍布环形山和熔岩管道，不断发展壮大，满足星球人口日益增长的需求。&lt;br&gt;&lt;/li&gt;&lt;li&gt;发掘火星的稀有金属，制成先进的产品，建立高效的交通系统，连接不断扩大的各个城市。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244800/extras/TERRA_ExploreTimelapse.gif?t=1693944409" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244800/extras/SCHIN_Title_2.png?t=1693944409" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;让休眠火山重新喷发，组建硕大的太空反射镜阵列，让冰态行星坠落在星球上，改变整个星球的地质构造。&lt;br&gt;&lt;/li&gt;&lt;li&gt;播撒适应力极强的细菌，种下一片又一片成熟的森林，为熊提供适宜的生境。每种生命形态都有特定需求，但也能提供相应的战略益处。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244800/extras/TERRA_CityEvolution.gif?t=1693944409" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244800/extras/SCHIN_Title_3.png?t=1693944409" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;我们希望这款游戏能够鼓舞人心，令人类走出地球这个摇篮，成为跨越多个星球物种。千光年之行，始于火星！想不想参与这个类地化改造工程？想不想及时了解游戏开发的相关动态？想不想和我们聊聊天南地北？想不想成为游戏封测的首选玩家？那就快来我们的&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/sTjjj3Q" target="_blank" rel=" noopener"  &gt;Discord服务器&lt;/a&gt;吧！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244800/extras/AdvancedMarsRoll50.gif?t=1693944409" /&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-content-header.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;《星之海》承载着Sabotage工作室的目标&lt;/strong&gt;——用现代的方式重现经典角色扮演游戏：从回合制战斗到跌宕起伏的故事，从世界探索到细腻的环境交互，让大家重回独属怀旧游戏的美好旧时光。&lt;h2 class="bb_tag"&gt;经典和创新结合的回合制玩法 - “易”于上手 “乐”于精通&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-combat.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;掌控战斗的时机&lt;/strong&gt; - 看准时机按下交互键可以提升造成的伤害，或减少受到的伤害。&lt;br&gt;&lt;strong&gt;灵活的战斗方式&lt;/strong&gt; - 在战斗中使用多人组合技，充能攻击以及纳入战术考量的“Lock”系统，通过组合这些不同的攻击，甚至能够打断敌人正在准备的蓄力攻击或强大法术。&lt;br&gt;&lt;strong&gt;全身心地投入这款复古之作&lt;/strong&gt; - 不会有随机乏味的遭遇战，也不会有战场之间的频繁转换，更不会有无休无止打不完的敌人！&lt;h2 class="bb_tag"&gt;“不拘一格”的探索&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-traversal-flip-S.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;我们潜心研究平台游戏多年，打造了一套独特的移动系统!&lt;br&gt;您将不再受到传统的网格束缚，畅快地在世界中穿梭！&lt;br&gt;无论您想&lt;strong&gt;在池水中游弋，还是在岩壁上攀爬，或是轻快地从石阶上纵身跳下&lt;/strong&gt;，都可尽情体验。&lt;h2 class="bb_tag"&gt;独立的光照渲染&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-lighting-S.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;我们为游戏研发了一套独特的渲染管线!&lt;br&gt;《星之海》因此突破了2D像素美术游戏的限制，它让游戏充满了色彩，并且处处体现出优雅的细节！让你感受到一个更加真实、令人惊叹的游戏世界。&lt;h2 class="bb_tag"&gt;永恒的冒险与友谊&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-story-rich-adventure.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;这就是从Sabotage工作室的角色扮演游戏中可以期待的一切——经典的冒险与友谊故事。&lt;br&gt;&lt;br&gt;您可以与数十个原创角色一起踏上这段迷人的旅程：&lt;br&gt;&lt;strong&gt;时而波澜壮阔，犹如史诗长歌；&lt;br&gt;时而轻松诙谐，让人忍俊不禁。&lt;/strong&gt;&lt;br&gt;充满着意想不到的曲折与反转，让人心绪久久不能平复。&lt;h2 class="bb_tag"&gt;惬意的日常也是游戏的一部分&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244090/extras/Steam_steam-feature-sabotage-touch.png?t=1692718109" /&gt;&lt;br&gt;&lt;br&gt;想试试停下冒险的脚步，在《星之海》的世界中打发打发时间？&lt;br&gt;去试试扬起帆出海！&lt;br&gt;或是生起篝火研究食谱？&lt;br&gt;还是拿出鱼竿甩两杆？&lt;br&gt;路过一家小酒馆进去听会儿歌，或者玩两把桌游...&lt;br&gt;每个系统的设计都是在尊重经典复古游戏的前提下，加入了崭新且独一无二的新体验。</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>1256670</t>
+          <t>1244800</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Library Of Ruina</t>
+          <t>Terraformers</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>废墟图书馆</t>
+          <t>焕然异星</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>剧情丰富,策略,卡牌游戏,困难,牌组构建</t>
+          <t>模拟,程序生成,生存,氛围,类 Rogue</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4648,39 +4648,39 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2021年08月11日</t>
+          <t>2023年03月10日</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1256670/extras/Steam_angela.png?t=1670980516" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;“正于此地，愿您找到想要的书。”&lt;br&gt;&lt;br&gt;扮演图书馆的馆长，迎接慕名而来的宾客。&lt;br&gt;&lt;br&gt;您的司书将为图书馆奋战到底。&lt;br&gt;&lt;br&gt;宾客与司书的战斗在名为图书馆的舞台上一触即发。&lt;br&gt;&lt;br&gt;落败的宾客将成为书籍，图书馆亦随之壮大。&lt;br&gt;&lt;br&gt;而一本好书能让您邀请更多谜团重重的宾客。&lt;br&gt;&lt;br&gt;扩充您的馆藏，挖掘深埋在都市之下的秘密。&lt;br&gt;&lt;br&gt;最终由您亲手完成……&lt;br&gt;&lt;br&gt;那本独一无二的至理之书。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1256670/extras/3.gif?t=1670980516" /&gt;&lt;br&gt;&lt;br&gt;【图书馆战斗模拟】&lt;br&gt;&lt;br&gt;《废墟图书馆》是一款以“图书馆战斗模拟”为概念制作的模拟策略游戏。&lt;br&gt;您将邀请形形色色的宾客拜访图书馆，与之进行殊死搏斗，获取记录着他们生平的“书”。&lt;br&gt;&lt;br&gt;“司书”和“宾客”之间的战斗以卡牌和骰子为媒介展开。&lt;br&gt;您可以通过观察宾客即将使用的卡牌做出相应的对策，选择合适的卡牌与之抗衡。&lt;br&gt;&lt;br&gt;当战斗拉开帷幕，您所选择的卡牌中落下的骰子将决定这场战斗的成败。&lt;br&gt;然而，骰子的点数并非完全取决于您的运气。&lt;br&gt;某些意想不到的因素将改变骰子的结果，各有利弊。&lt;br&gt;&lt;br&gt;务必谨慎挑选能在拼点中胜出的卡牌。&lt;br&gt;并在司书和宾客的厮杀进程中检验您的选择和运气。&lt;br&gt;每场战斗都将为您带来下注般紧张刺激的体验。&lt;br&gt;&lt;br&gt;【情绪升华的对抗】&lt;br&gt;&lt;br&gt;图书馆的战斗不仅仅是置敌人于死地，更是将情绪升华到极致的对抗。&lt;br&gt;随着战况愈演愈烈，司书和宾客的情绪也将步步高涨。&lt;br&gt;&lt;br&gt;司书的情绪变化或将产生积极的影响，或将带来巨大的负面效果。&lt;br&gt;而宾客的紧张情绪逐步加剧，战斗难度亦随之上升，但与此同时您将有机会获得更稀有的书籍。&lt;br&gt;除此之外，战斗过程中将恰到好处地出现对话，为您的观赏体验增添一丝趣味。&lt;br&gt;&lt;br&gt;【一切皆有可能的“书”】&lt;br&gt;&lt;br&gt;殒命于图书馆的宾客将转变成“书”。&lt;br&gt;这些珍贵的材料既能化作司书的肉体，又能用于图书馆的建设，还能制成战斗中使用的卡牌。&lt;br&gt;您也可以将“书”作为邀请其他宾客的手段。&lt;br&gt;&lt;br&gt;邀请不同的宾客获取不同的书籍，相应地加以利用。&lt;br&gt;如何使用馆藏发展图书馆，一切取决于您的选择。&lt;br&gt;&lt;br&gt;【都市与图书馆的故事】&lt;br&gt;&lt;br&gt;紧接前作故事中“脑叶公司”的垮台，您将在《废墟图书馆》中了解到安吉拉、赛斐拉和罗兰的故事。&lt;br&gt;您同样能了解到蔓延在巨大都市中的疯狂。&lt;br&gt;&lt;br&gt;扩充您的馆藏，发展您的图书馆和司书，邀请更强大的宾客以获取更精良的书籍。&lt;br&gt;从低级的传闻到都市传说，再到后来……&lt;br&gt;在游戏过程中，您将逐渐了解都市背后的故事。&lt;br&gt;&lt;br&gt;正于此地，愿您找到想要的书……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1256670/extras/Steam_mal.jpg?t=1670980516" /&gt;</t>
+          <t>&lt;strong&gt;加入我们的社区&lt;br&gt;欢迎加入Terraformers&lt;strong&gt;官方QQ群：684598184&lt;/strong&gt;，以反馈任何意见或bug。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244800/extras/TERRA_PlanetTurnSlow_Steam.gif?t=1693944409" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244800/extras/SCHIN_Title_1.png?t=1693944409" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;将你的队长派往神秘地点，率先发现丰富的矿藏、巨型水晶洞窟和摄人心魄的自然奇观。&lt;br&gt;&lt;/li&gt;&lt;li&gt;让新的城市遍布环形山和熔岩管道，不断发展壮大，满足星球人口日益增长的需求。&lt;br&gt;&lt;/li&gt;&lt;li&gt;发掘火星的稀有金属，制成先进的产品，建立高效的交通系统，连接不断扩大的各个城市。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244800/extras/TERRA_ExploreTimelapse.gif?t=1693944409" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244800/extras/SCHIN_Title_2.png?t=1693944409" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;让休眠火山重新喷发，组建硕大的太空反射镜阵列，让冰态行星坠落在星球上，改变整个星球的地质构造。&lt;br&gt;&lt;/li&gt;&lt;li&gt;播撒适应力极强的细菌，种下一片又一片成熟的森林，为熊提供适宜的生境。每种生命形态都有特定需求，但也能提供相应的战略益处。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244800/extras/TERRA_CityEvolution.gif?t=1693944409" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244800/extras/SCHIN_Title_3.png?t=1693944409" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;我们希望这款游戏能够鼓舞人心，令人类走出地球这个摇篮，成为跨越多个星球物种。千光年之行，始于火星！想不想参与这个类地化改造工程？想不想及时了解游戏开发的相关动态？想不想和我们聊聊天南地北？想不想成为游戏封测的首选玩家？那就快来我们的&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/sTjjj3Q" target="_blank" rel=" noopener"  &gt;Discord服务器&lt;/a&gt;吧！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1244800/extras/AdvancedMarsRoll50.gif?t=1693944409" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>1261040</t>
+          <t>1256670</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Streamer Life Simulator</t>
+          <t>Library Of Ruina</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>流光生活模拟器</t>
+          <t>废墟图书馆</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>模拟,生活模拟,休闲,单人,独立</t>
+          <t>剧情丰富,策略,卡牌游戏,困难,牌组构建</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4688,54 +4688,96 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2020年08月22日</t>
+          <t>2021年08月11日</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1261040/extras/gif1.gif?t=1688202035" /&gt;&lt;br&gt;从头开始，成为世界上最受欢迎的人之一。改善自己的性格，为自己购买新设备。从您的不良邻居搬到新的邻居，并拥有更强大的互联网基础设施。创建具有所需功能的计算机，然后开始流式传输。您可以与您的追随者聊天并收集捐款。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1261040/extras/gif2.gif?t=1688202035" /&gt;&lt;br&gt;串流您玩的游戏。您可以用赚来的钱进行投资并增加钱。通过关注新游戏和新事件。购买新游戏。通过在正确的时间玩正确的游戏。让新人们发现您。通过参加热门游戏的比赛向人们证明自己并赢得比赛奖品。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1261040/extras/gif3.gif?t=1688202035" /&gt;&lt;br&gt;您可以与您的环境进行交互，并做一些不同的工作来赚钱。研究我们周围的垃圾，找到有用的东西。在典当行出售并赚取额外的钱。通过做其他工作来赚钱。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1261040/extras/gif4.gif?t=1688202035" /&gt;&lt;br&gt;买宠物，和他们一起玩</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1256670/extras/Steam_angela.png?t=1670980516" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;“正于此地，愿您找到想要的书。”&lt;br&gt;&lt;br&gt;扮演图书馆的馆长，迎接慕名而来的宾客。&lt;br&gt;&lt;br&gt;您的司书将为图书馆奋战到底。&lt;br&gt;&lt;br&gt;宾客与司书的战斗在名为图书馆的舞台上一触即发。&lt;br&gt;&lt;br&gt;落败的宾客将成为书籍，图书馆亦随之壮大。&lt;br&gt;&lt;br&gt;而一本好书能让您邀请更多谜团重重的宾客。&lt;br&gt;&lt;br&gt;扩充您的馆藏，挖掘深埋在都市之下的秘密。&lt;br&gt;&lt;br&gt;最终由您亲手完成……&lt;br&gt;&lt;br&gt;那本独一无二的至理之书。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1256670/extras/3.gif?t=1670980516" /&gt;&lt;br&gt;&lt;br&gt;【图书馆战斗模拟】&lt;br&gt;&lt;br&gt;《废墟图书馆》是一款以“图书馆战斗模拟”为概念制作的模拟策略游戏。&lt;br&gt;您将邀请形形色色的宾客拜访图书馆，与之进行殊死搏斗，获取记录着他们生平的“书”。&lt;br&gt;&lt;br&gt;“司书”和“宾客”之间的战斗以卡牌和骰子为媒介展开。&lt;br&gt;您可以通过观察宾客即将使用的卡牌做出相应的对策，选择合适的卡牌与之抗衡。&lt;br&gt;&lt;br&gt;当战斗拉开帷幕，您所选择的卡牌中落下的骰子将决定这场战斗的成败。&lt;br&gt;然而，骰子的点数并非完全取决于您的运气。&lt;br&gt;某些意想不到的因素将改变骰子的结果，各有利弊。&lt;br&gt;&lt;br&gt;务必谨慎挑选能在拼点中胜出的卡牌。&lt;br&gt;并在司书和宾客的厮杀进程中检验您的选择和运气。&lt;br&gt;每场战斗都将为您带来下注般紧张刺激的体验。&lt;br&gt;&lt;br&gt;【情绪升华的对抗】&lt;br&gt;&lt;br&gt;图书馆的战斗不仅仅是置敌人于死地，更是将情绪升华到极致的对抗。&lt;br&gt;随着战况愈演愈烈，司书和宾客的情绪也将步步高涨。&lt;br&gt;&lt;br&gt;司书的情绪变化或将产生积极的影响，或将带来巨大的负面效果。&lt;br&gt;而宾客的紧张情绪逐步加剧，战斗难度亦随之上升，但与此同时您将有机会获得更稀有的书籍。&lt;br&gt;除此之外，战斗过程中将恰到好处地出现对话，为您的观赏体验增添一丝趣味。&lt;br&gt;&lt;br&gt;【一切皆有可能的“书”】&lt;br&gt;&lt;br&gt;殒命于图书馆的宾客将转变成“书”。&lt;br&gt;这些珍贵的材料既能化作司书的肉体，又能用于图书馆的建设，还能制成战斗中使用的卡牌。&lt;br&gt;您也可以将“书”作为邀请其他宾客的手段。&lt;br&gt;&lt;br&gt;邀请不同的宾客获取不同的书籍，相应地加以利用。&lt;br&gt;如何使用馆藏发展图书馆，一切取决于您的选择。&lt;br&gt;&lt;br&gt;【都市与图书馆的故事】&lt;br&gt;&lt;br&gt;紧接前作故事中“脑叶公司”的垮台，您将在《废墟图书馆》中了解到安吉拉、赛斐拉和罗兰的故事。&lt;br&gt;您同样能了解到蔓延在巨大都市中的疯狂。&lt;br&gt;&lt;br&gt;扩充您的馆藏，发展您的图书馆和司书，邀请更强大的宾客以获取更精良的书籍。&lt;br&gt;从低级的传闻到都市传说，再到后来……&lt;br&gt;在游戏过程中，您将逐渐了解都市背后的故事。&lt;br&gt;&lt;br&gt;正于此地，愿您找到想要的书……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1256670/extras/Steam_mal.jpg?t=1670980516" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
+          <t>1261040</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Streamer Life Simulator</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>流光生活模拟器</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>模拟,生活模拟,休闲,单人,独立</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>2020年08月22日</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1261040/extras/gif1.gif?t=1688202035" /&gt;&lt;br&gt;从头开始，成为世界上最受欢迎的人之一。改善自己的性格，为自己购买新设备。从您的不良邻居搬到新的邻居，并拥有更强大的互联网基础设施。创建具有所需功能的计算机，然后开始流式传输。您可以与您的追随者聊天并收集捐款。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1261040/extras/gif2.gif?t=1688202035" /&gt;&lt;br&gt;串流您玩的游戏。您可以用赚来的钱进行投资并增加钱。通过关注新游戏和新事件。购买新游戏。通过在正确的时间玩正确的游戏。让新人们发现您。通过参加热门游戏的比赛向人们证明自己并赢得比赛奖品。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1261040/extras/gif3.gif?t=1688202035" /&gt;&lt;br&gt;您可以与您的环境进行交互，并做一些不同的工作来赚钱。研究我们周围的垃圾，找到有用的东西。在典当行出售并赚取额外的钱。通过做其他工作来赚钱。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1261040/extras/gif4.gif?t=1688202035" /&gt;&lt;br&gt;买宠物，和他们一起玩</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
           <t>1267910</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>Melvor Idle</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>梅尔沃放置</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>懒人游戏,休闲,角色扮演,独立,冒险</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
         <is>
           <t>9.3</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>2021年11月19日</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>以《RuneScape》为灵感来源，《Melvor Idle》提取了冒险类游戏让人欲罢不能的精华本质，并将之转化成最纯净的形式！&lt;br /&gt;
 &lt;br /&gt;
@@ -4765,67 +4807,25 @@
         </is>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>1272320</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Diplomacy is Not an Option</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>要战便战</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>抢先体验,殖民模拟,基地建设,策略,生存</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>7.9</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>2022年02月10日</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/zYthr8q" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1272320/extras/Discord_BTN.png?t=1693942954" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;在《要战便战》中您可以体验未成年领主的生活。由于大环境影响，您被迫应战。就像通常那样，总是敌众我寡。你需要修建城墙，招募军队，体验全新规模的战争。超过2万5千名敌人会来冲击你的城墙，如果你希望生存下去，你一定要掌握工程、经济甚至魔法。&lt;h2 class="bb_tag"&gt;战争法则&lt;/h2&gt;你的国王威震四方，但同时也好大喜功、嗜酒如命。总之他很喜欢当前的生活。然而当提高税收也无法拯救空虚的国库时，他显然无法继续享受当前的悠闲生活。这产生了主要影响到你的麻烦。因为显然农民难以忍受增税和饥饿，他们在你的领地发动了暴乱。国王要求你镇压他们，然后探索传说中有许多黄金的千里之外。你是会选择执行王室的命令，然后起航去补充国库？亦或者加入叛军，成为暴力领袖，将独裁者绳之以法？到处都是问题、困难与麻烦。目前能确定的一点是你的手上注定会沾染鲜血。弓箭手、剑士、攻城武器和骑士等兵种会与你并肩作战，帮助你实现目标。&lt;h2 class="bb_tag"&gt;物理定律&lt;/h2&gt;虽然得承认这是在开玩笑，但是在《要战便战》中，物理定律依旧非常硬核。所有的箭、射弹还有被击飞的敌人都有物理模型，你会感受到整个战场的真实与连贯。记得要确保你的部队有可容纳并进行射击的塔楼和清晰的视野，否则你就会发觉自己的完美计划被自己的防御工事尴尬地阻碍了。你需要规划大门的位置、前进和撤退路线，还有何处为杀伤区域和后备阵地。你得在战斗中发挥有效作用，才能让自己的部下发挥最大潜力。&lt;h2 class="bb_tag"&gt;社会功能&lt;/h2&gt;即使被围困，也要铭记水能载舟亦能覆舟。人民为你高效服务的前提是得保护好他们。如果食物变得稀缺，士兵就会在战场上挨饿。要记得建造房屋，埋葬尸体以避免瘟疫，并在死亡将至时治疗病人。当你不关心自己的人民时，你就会被最令人不愉快的方式吞噬——例如出现空荡荡的仓库、没来得及修复的城墙与未补充士兵的军营。&lt;h2 class="bb_tag"&gt;经济规律&lt;/h2&gt;运行良好的军队需要运行良好的经济作为后盾。食物、木材、石头、铁还有黄金是你的城市经济的基础。如果你想及时应对前进中的敌人，就需要仔细观察补给是否合适。收集资源、选择储存地点还有谨慎地扩张与升级计划也同样重要。因为敌人不会心甘情愿地让出土地，所以在不进行保护时单纯扩张平民就会成为敌军入侵的牺牲品。你可以通过那令人印象深刻的飞艇进行贸易，带来应急食品提供给人民，或是带来石头重建城墙。您能在贪婪的扩张和安全之间取得平衡吗？&lt;h2 class="bb_tag"&gt;魔法规则！&lt;/h2&gt;既来之,则安之。如果你继承了被诅咒的王国，怎能不去掌握黑魔法？坚固的城墙能保护您免收大部分普通威胁，但在《要战便战》中，有时还要应战不死生物。那为何要让它们垄断魔法？在一段黑暗历史中，被污染的力量曾搅动死者并困住倔强的灵魂。放轻松享受魔法吧，例如召唤大火球降临到敌人身上！别忘记建造魔法方碑并收获灵魂水晶，用灼热的灵魂射线撕裂敌人，观察召唤出的幽灵追赶落单敌人时的绝望。&lt;h2 class="bb_tag"&gt;超越限制&lt;/h2&gt;本游戏以自由为核心设计理念。在无尽模式、沙盒模式或挑战模式中，超越战役的局限性，用自己的方式粉碎敌人。在程序生成的地图上以自己独特的战术进行游戏。是选择尽早修建厚重的城墙并放置庞大的炮灰部队，还是进行追求贪婪增长和昂贵投资的宏观游戏？能在哪种风格中的游戏中取得成就感就取决于你自己。&lt;h2 class="bb_tag"&gt;生存准绳&lt;/h2&gt;就像在现实中一样，愚蠢和贪婪潜藏在大多数问题的阴影中。在此讨论这个问题已经太迟了，你已经无法和平解决。目前这个阶段，别想着外交是可选方案，要战便战！</t>
-        </is>
-      </c>
-    </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>1282100</t>
+          <t>1272320</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Remnant II</t>
+          <t>Diplomacy is Not an Option</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>遗迹2</t>
+          <t>要战便战</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>类魂系列,动作,冒险,角色扮演,第三人称射击</t>
+          <t>抢先体验,殖民模拟,基地建设,策略,生存</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4835,39 +4835,39 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2023年07月26日</t>
+          <t>2022年02月10日</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>难以想象的世界。残酷无情的困境 &lt;br&gt;&lt;br&gt;《Remnant II》是畅销游戏《Remnant: From the Ashes》的续作。在本作中，人类幸存者将再次深陷可怕的世界，对抗新的邪恶怪物和神一般的敌人头目。孤军奋战，或者与两名朋友合作，探索未知的深处，阻止邪恶摧毁现实世界。若想取得成功，玩家必须依靠自己和团队的力量，完成最艰巨的挑战，让人类免于灭绝的命运。&lt;h2 class="bb_tag"&gt;特色：&lt;/h2&gt;&lt;strong&gt;紧张激烈的《Remnant》战斗体验&lt;/strong&gt;&lt;br&gt;冷静远攻和疯狂近战的混合战斗模式再次回归，这次还带来了更多狡猾的敌人和大规模头目战。针对不同的生物群落和战斗，可以选择特定装备和武器进行强化。头目战会让高水平玩家组队克服挑战，并尝试获得最高奖励。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1282100/extras/REM2_Combat_2.gif?t=1690498964" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;等待探索的新世界&lt;/strong&gt;&lt;br&gt;陌生的新世界被神秘生物和致命敌人占据。玩家可以独自上路，也可以与朋友结伴前行，穿越邪魔肆虐的世界，努力求生。多个世界可供探索，每个世界都有不同类型的生物、武器和物品。获取物品后要善加利用并合理升级，以迎接更严峻的挑战。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1282100/extras/REM2_World_2.gif?t=1690498964" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;无尽的重复可玩性 &lt;/strong&gt;&lt;br&gt;在动态生成的地下城和区域中，充满了各种支线任务、强化物品、制作材料和战利品。哪怕是最硬核的玩家，其决心也将经受考验。游戏体验复杂多变、极具挑战性，但当玩家最终战胜重重困难取得胜利时，也将体会到无与伦比的满足感。不同的世界中交织着不同的故事，等待你的探索和重访。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1282100/extras/REM2_Replay_2.gif?t=1690498964" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;全新职装系统&lt;/strong&gt;&lt;br&gt;扩展后的职装系统将为玩家提供独特的被动奖励和强大的力量。在游戏中可以解锁多个职业和多种装备、进行升级并混合搭配，以实现多样化的游戏风格。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1282100/extras/REM2_Archetype_2.gif?t=1690498964" /&gt;&lt;br&gt;&lt;br&gt;</t>
+          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/zYthr8q" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1272320/extras/Discord_BTN.png?t=1693942954" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;在《要战便战》中您可以体验未成年领主的生活。由于大环境影响，您被迫应战。就像通常那样，总是敌众我寡。你需要修建城墙，招募军队，体验全新规模的战争。超过2万5千名敌人会来冲击你的城墙，如果你希望生存下去，你一定要掌握工程、经济甚至魔法。&lt;h2 class="bb_tag"&gt;战争法则&lt;/h2&gt;你的国王威震四方，但同时也好大喜功、嗜酒如命。总之他很喜欢当前的生活。然而当提高税收也无法拯救空虚的国库时，他显然无法继续享受当前的悠闲生活。这产生了主要影响到你的麻烦。因为显然农民难以忍受增税和饥饿，他们在你的领地发动了暴乱。国王要求你镇压他们，然后探索传说中有许多黄金的千里之外。你是会选择执行王室的命令，然后起航去补充国库？亦或者加入叛军，成为暴力领袖，将独裁者绳之以法？到处都是问题、困难与麻烦。目前能确定的一点是你的手上注定会沾染鲜血。弓箭手、剑士、攻城武器和骑士等兵种会与你并肩作战，帮助你实现目标。&lt;h2 class="bb_tag"&gt;物理定律&lt;/h2&gt;虽然得承认这是在开玩笑，但是在《要战便战》中，物理定律依旧非常硬核。所有的箭、射弹还有被击飞的敌人都有物理模型，你会感受到整个战场的真实与连贯。记得要确保你的部队有可容纳并进行射击的塔楼和清晰的视野，否则你就会发觉自己的完美计划被自己的防御工事尴尬地阻碍了。你需要规划大门的位置、前进和撤退路线，还有何处为杀伤区域和后备阵地。你得在战斗中发挥有效作用，才能让自己的部下发挥最大潜力。&lt;h2 class="bb_tag"&gt;社会功能&lt;/h2&gt;即使被围困，也要铭记水能载舟亦能覆舟。人民为你高效服务的前提是得保护好他们。如果食物变得稀缺，士兵就会在战场上挨饿。要记得建造房屋，埋葬尸体以避免瘟疫，并在死亡将至时治疗病人。当你不关心自己的人民时，你就会被最令人不愉快的方式吞噬——例如出现空荡荡的仓库、没来得及修复的城墙与未补充士兵的军营。&lt;h2 class="bb_tag"&gt;经济规律&lt;/h2&gt;运行良好的军队需要运行良好的经济作为后盾。食物、木材、石头、铁还有黄金是你的城市经济的基础。如果你想及时应对前进中的敌人，就需要仔细观察补给是否合适。收集资源、选择储存地点还有谨慎地扩张与升级计划也同样重要。因为敌人不会心甘情愿地让出土地，所以在不进行保护时单纯扩张平民就会成为敌军入侵的牺牲品。你可以通过那令人印象深刻的飞艇进行贸易，带来应急食品提供给人民，或是带来石头重建城墙。您能在贪婪的扩张和安全之间取得平衡吗？&lt;h2 class="bb_tag"&gt;魔法规则！&lt;/h2&gt;既来之,则安之。如果你继承了被诅咒的王国，怎能不去掌握黑魔法？坚固的城墙能保护您免收大部分普通威胁，但在《要战便战》中，有时还要应战不死生物。那为何要让它们垄断魔法？在一段黑暗历史中，被污染的力量曾搅动死者并困住倔强的灵魂。放轻松享受魔法吧，例如召唤大火球降临到敌人身上！别忘记建造魔法方碑并收获灵魂水晶，用灼热的灵魂射线撕裂敌人，观察召唤出的幽灵追赶落单敌人时的绝望。&lt;h2 class="bb_tag"&gt;超越限制&lt;/h2&gt;本游戏以自由为核心设计理念。在无尽模式、沙盒模式或挑战模式中，超越战役的局限性，用自己的方式粉碎敌人。在程序生成的地图上以自己独特的战术进行游戏。是选择尽早修建厚重的城墙并放置庞大的炮灰部队，还是进行追求贪婪增长和昂贵投资的宏观游戏？能在哪种风格中的游戏中取得成就感就取决于你自己。&lt;h2 class="bb_tag"&gt;生存准绳&lt;/h2&gt;就像在现实中一样，愚蠢和贪婪潜藏在大多数问题的阴影中。在此讨论这个问题已经太迟了，你已经无法和平解决。目前这个阶段，别想着外交是可选方案，要战便战！</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>1286580</t>
+          <t>1282100</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Ship of Fools</t>
+          <t>Remnant II</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>同舟共济</t>
+          <t>遗迹2</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>合作,轻度 Rogue,多人,类 Rogue,动作</t>
+          <t>类魂系列,动作,冒险,角色扮演,第三人称射击</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4877,39 +4877,39 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2022年11月23日</t>
+          <t>2023年07月26日</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>《同舟共济》是一款航海roguelite合作游戏，你将扮演愚者，他们是唯一足以勇闯海洋的生物。由于曾经保护群岛的大灯塔的破坏，一场恶意和腐败的风暴即将来临。&lt;br&gt;&lt;br&gt;你和你的船友们将一起跳上Stormstrider号，进行跨海航行。操纵大炮，准备好你的风帆，保护你的船在多次航行中免受海怪的袭击。能否从无所不能的海族灭世者手中保卫自己的家园，就看你了。&lt;br&gt;&lt;br&gt;简而言之，《同舟共济》是一款关于用强大的大炮轰走海上敌人的同时保卫船只的游戏。灵感来自于现代经典的Roguelites游戏，并为合作而生，你会想把你的大副好友带到甲板上，享受划船的战斗，同时解锁新的饰品和文物，帮助你从灾难中拯救世界。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1286580/extras/Steam_banners_V2BOMBASTIC-CO-OP-COMBAT.png?t=1687529431" /&gt;&lt;br&gt;&lt;br&gt;该游戏为合作游戏而生，与可怕的风暴生物的疯狂战斗遭遇将考验你的团队精神。协同作战，保卫和修理船只，将物品效果组合成强大的组合，如果你不想成为鱼的食物，请确保你有你的船友的支持。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1286580/extras/Steam_banners_V2STORMY-COURSE-PLANNING.png?t=1687529431" /&gt;&lt;br&gt;&lt;br&gt;在群岛的各个岛屿上发掘失落的宝藏和偏远的商店，但要仔细计划你的行动，当你在这一地区规划你的道路时，永恒的风暴会发生变化，用它的愤怒阻挡你的道路。你需要根据风暴的动向调整你的航线，并决定你何时可以勇敢地去探索风暴中潜藏的东西。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1286580/extras/Steam_banners_V2SOLO-CAPTAINS,-SAIL-FOR-GLORY.png?t=1687529431" /&gt;&lt;br&gt;&lt;br&gt;玩家同时可以选择作为一个单独的水手独自游玩，独自操纵船只，在危险的水域中战斗，一人夺得所有的荣耀，《同舟共济》可供单人游戏以及多人合作模式。正如他们在古老的水手歌中所唱的那样：有时没有船员都比有一个猪队友要好！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1286580/extras/Steam_banners_V2REPLAYABLE,-LIKE-THE-ENDLESS-SEA.png?t=1687529431" /&gt;&lt;br&gt;&lt;br&gt;有许多愚者角色可供选择，有独特的物品可以寻找和解锁，有恶性遭遇可以战斗，有许多岛屿可以探险，每次游玩都会给你的航行带来新的东西。每次都会增强你的力量，让你准备好打败深海的怪物。&lt;br&gt;&lt;br&gt;&lt;strong&gt;主要特点&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;在合作中作为两个船友或作为一个单独的水手进行疯狂的航海战斗 &lt;br&gt;&lt;/li&gt;&lt;li&gt;最顽强的水手挑战巨大的海怪&lt;br&gt;&lt;/li&gt;&lt;li&gt;在群岛的地图中规划你的路线，勇敢面对永恒的风暴&lt;br&gt;&lt;/li&gt;&lt;li&gt;化身为具有特殊能力的独特愚人，在旅途中如虎添翼&lt;br&gt;&lt;/li&gt;&lt;li&gt;100多件饰品和文物可供收集和组合，以制定获胜策略&lt;br&gt;&lt;/li&gt;&lt;li&gt;潇洒的手绘艺术作品，让你目不暇接&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;请注意：本地多人游戏需要控制器</t>
+          <t>难以想象的世界。残酷无情的困境 &lt;br&gt;&lt;br&gt;《Remnant II》是畅销游戏《Remnant: From the Ashes》的续作。在本作中，人类幸存者将再次深陷可怕的世界，对抗新的邪恶怪物和神一般的敌人头目。孤军奋战，或者与两名朋友合作，探索未知的深处，阻止邪恶摧毁现实世界。若想取得成功，玩家必须依靠自己和团队的力量，完成最艰巨的挑战，让人类免于灭绝的命运。&lt;h2 class="bb_tag"&gt;特色：&lt;/h2&gt;&lt;strong&gt;紧张激烈的《Remnant》战斗体验&lt;/strong&gt;&lt;br&gt;冷静远攻和疯狂近战的混合战斗模式再次回归，这次还带来了更多狡猾的敌人和大规模头目战。针对不同的生物群落和战斗，可以选择特定装备和武器进行强化。头目战会让高水平玩家组队克服挑战，并尝试获得最高奖励。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1282100/extras/REM2_Combat_2.gif?t=1690498964" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;等待探索的新世界&lt;/strong&gt;&lt;br&gt;陌生的新世界被神秘生物和致命敌人占据。玩家可以独自上路，也可以与朋友结伴前行，穿越邪魔肆虐的世界，努力求生。多个世界可供探索，每个世界都有不同类型的生物、武器和物品。获取物品后要善加利用并合理升级，以迎接更严峻的挑战。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1282100/extras/REM2_World_2.gif?t=1690498964" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;无尽的重复可玩性 &lt;/strong&gt;&lt;br&gt;在动态生成的地下城和区域中，充满了各种支线任务、强化物品、制作材料和战利品。哪怕是最硬核的玩家，其决心也将经受考验。游戏体验复杂多变、极具挑战性，但当玩家最终战胜重重困难取得胜利时，也将体会到无与伦比的满足感。不同的世界中交织着不同的故事，等待你的探索和重访。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1282100/extras/REM2_Replay_2.gif?t=1690498964" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;全新职装系统&lt;/strong&gt;&lt;br&gt;扩展后的职装系统将为玩家提供独特的被动奖励和强大的力量。在游戏中可以解锁多个职业和多种装备、进行升级并混合搭配，以实现多样化的游戏风格。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1282100/extras/REM2_Archetype_2.gif?t=1690498964" /&gt;&lt;br&gt;&lt;br&gt;</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>1293460</t>
+          <t>1286580</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Ash of Gods: The Way</t>
+          <t>Ship of Fools</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>诸神灰烬：抉择</t>
+          <t>同舟共济</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>选择取向,自选历险体验,回合战略,单人,手绘</t>
+          <t>合作,轻度 Rogue,多人,类 Rogue,动作</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4917,36 +4917,41 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>7.2</t>
+        </is>
+      </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2023年04月27日</t>
+          <t>2022年11月23日</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>在这款由剧情驱动的策略卡牌战斗游戏中，使用来自四个不同派系的战士、装备和符咒构建常胜卡组，在一系列重大比赛中杀出一条血路，每项大赛都拥有独特的对手、战场乃至规则。赢得新的卡牌并升级你的心头最爱，然后将它们组合成任意数量的卡组——你可以不断尝试下去，直到你满意！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1293460/extras/Gif1_gameplay_HD_adaptive.gif?t=1693942216" /&gt;&lt;br&gt;&lt;br&gt;在此期间，你将会遇到新的角色，和他们对话，并做出将会左右整个世界命运的抉择。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1293460/extras/Gif3_story_HD_adaptive.gif?t=1693942216" /&gt;&lt;br&gt;&lt;br&gt;你扮演菲恩，一个唯一的希望就是阻止邻国侵袭家园的年轻人。他需要掌握敌国用来训练贵族学会战争之道的一种纸牌游戏：《抉择》。渗透入敌国举办的大赛，这样你就可以接近他们的精英指挥官。这之后要怎么做完全取决于你自己。只是要记住，你的抉择会带来后果！&lt;br&gt;&lt;br&gt;核心游戏机制表面看来很简单：每个回合你可以打出一张战士卡和一张支援卡，然后你的所有单位都会朝着敌人推进，并在情况允许时展开攻击！但难点在于：选择什么组合、如何构建卡组，以及何时保留卡牌等待更好的机会。你的对手也会遵循同样的游戏规则…至少大多数时候如此。每场战斗可能会有不同的规则或特性，巧妙地构建卡组方可加以利用！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1293460/extras/Tabletop.jpg?t=1693942216" /&gt;&lt;br&gt;&lt;br&gt;战士中既有前线武夫，也有脆弱的弓箭手与支援型法师。装备卡可以在战场上为战士提供增益，而符咒卡则可以助力你的斗士或伤害敌人。没有一劳永逸的游戏玩法——构建一个卡组，使用具有护甲和回血能力的强悍战士，以消耗战的方式击败你的对手；用高伤害的弓箭手和会下毒的强盗来层层推进，不等敌方战士反应过来就将他们放倒，诸如此类。凭借庞大的卡牌选择范围，可能的组合数量不可估量。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1293460/extras/Gollah-Tournament.jpg?t=1693942216" /&gt;&lt;h2 class="bb_tag"&gt;每场战斗都是一次新挑战&lt;/h2&gt;&lt;br&gt;《诸神灰烬：抉择》中的每一场战斗都是一次精心设计的测试，考验你如何运用技能应对不同的目标和对手。无论你是要占领检查站、保护指挥官远离致命的敌人，还是要进行一系列一对一的决斗，你都需要发挥聪明才智方可取胜。每场战斗的结果都影响深远！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1293460/extras/Gif2_battles_HD_adaptive.gif?t=1693942216" /&gt;&lt;br&gt;&lt;br&gt;务必让战场中的每个细节都为你所用。你将会遭遇各式各样的陷阱，取决于你采取的策略，它们可能会带来危险，也可能会制造机会；还有强大的符文，它们可能会彻底改变战斗的进程！&lt;br&gt;&lt;br&gt;如果当前策略效果不佳，只需调整你的卡牌和升级项以尝试另辟蹊径——试验或改变策略不会受到任何惩罚。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1293460/extras/Upgrades.jpg?t=1693942216" /&gt;&lt;h2 class="bb_tag"&gt;选择你的道路&lt;/h2&gt;&lt;br&gt;《诸神灰烬：抉择》是一款首开先河之作，揉合了RPG风格对话、收藏级卡牌游戏，以及回合制策略战斗——你在这三个方面的抉择将会影响你的故事的结局。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1293460/extras/Gollah_m1.gif?t=1693942216" /&gt;&lt;br&gt;&lt;br&gt;在《诸神灰烬：抉择》中，你需要使用角色卡和支援卡的组合来构建卡组。你的角色卡会被布置在战场上，而支援卡则会强化你的角色或施放强大的符咒。这两类卡牌都可以通过升级变得更强，而角色卡甚至可以获得新的技能，比如诡诈的反击或护甲粉碎攻击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1293460/extras/Deck-Management.jpg?t=1693942216" /&gt;&lt;br&gt;&lt;br&gt;每张卡牌都属于游戏中的四个派系之一，每个派系都有专属的增效作用和亚对策强项。获得新卡牌的途径不止一种：赢得战斗、购买或完成特殊任务。你可以根据需要混和搭配不同派系的卡牌，也可以专注于其中一派——你的抉择，你做主。&lt;h2 class="bb_tag"&gt;结局多样化的互动故事&lt;/h2&gt;&lt;br&gt;故事围绕着年轻的菲恩展开，他肩负着一项危险的任务，有可能会阻止一场残酷的战争…但在他的旅途中，他会发现有些敌人和他耳闻的颇为不同。艰难的抉择摆在面前，菲恩将不得不接受随之而来的后果。除了非线性主体情节、旁白（完整配音）分镜头和对话，还有很多支线任务可供探索。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1293460/extras/Gif4_endings_HD_adaptive.gif?t=1693942216" /&gt;&lt;h2 class="bb_tag"&gt;探索《诸神灰烬》宇宙中的其他游戏！&lt;/h2&gt; &lt;br&gt;《诸神灰烬：抉择》是《诸神灰烬》宇宙中的第二款游戏。我们的首款游戏《诸神灰烬：救赎》是一款回合制角色扮演游戏，具有策略战斗特色、卡牌收集(CCG)元素，以及高度互动的剧情——其中的重大决策直接攸关生死。不过，即使你的领袖倒下也并非终局——故事仍会继续…&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/691690/Ash_of_Gods_Redemption/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/691690/Ash_of_Gods_Redemption/&lt;/a&gt;&lt;br&gt;&lt;br&gt;在&lt;a href="https://steamcommunity.com/linkfilter/?url=https://ashofgods.com/" target="_blank" rel=" noopener"  &gt;我们的网站&lt;/a&gt;上还有更多值得发现的内容！如果你对其他平台的游戏感兴趣，不妨来看看。最后别忘了，你可以&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/ashofgods" target="_blank" rel=" noopener"  &gt;加入我们的Discord频道&lt;/a&gt;，了解有关&lt;i&gt;《诸神灰烬》&lt;/i&gt;的所有最新消息！&lt;br&gt;&lt;br&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/ashofgods" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1293460/extras/Discord2_HD.gif?t=1693942216" /&gt;&lt;/a&gt;</t>
+          <t>《同舟共济》是一款航海roguelite合作游戏，你将扮演愚者，他们是唯一足以勇闯海洋的生物。由于曾经保护群岛的大灯塔的破坏，一场恶意和腐败的风暴即将来临。&lt;br&gt;&lt;br&gt;你和你的船友们将一起跳上Stormstrider号，进行跨海航行。操纵大炮，准备好你的风帆，保护你的船在多次航行中免受海怪的袭击。能否从无所不能的海族灭世者手中保卫自己的家园，就看你了。&lt;br&gt;&lt;br&gt;简而言之，《同舟共济》是一款关于用强大的大炮轰走海上敌人的同时保卫船只的游戏。灵感来自于现代经典的Roguelites游戏，并为合作而生，你会想把你的大副好友带到甲板上，享受划船的战斗，同时解锁新的饰品和文物，帮助你从灾难中拯救世界。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1286580/extras/Steam_banners_V2BOMBASTIC-CO-OP-COMBAT.png?t=1687529431" /&gt;&lt;br&gt;&lt;br&gt;该游戏为合作游戏而生，与可怕的风暴生物的疯狂战斗遭遇将考验你的团队精神。协同作战，保卫和修理船只，将物品效果组合成强大的组合，如果你不想成为鱼的食物，请确保你有你的船友的支持。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1286580/extras/Steam_banners_V2STORMY-COURSE-PLANNING.png?t=1687529431" /&gt;&lt;br&gt;&lt;br&gt;在群岛的各个岛屿上发掘失落的宝藏和偏远的商店，但要仔细计划你的行动，当你在这一地区规划你的道路时，永恒的风暴会发生变化，用它的愤怒阻挡你的道路。你需要根据风暴的动向调整你的航线，并决定你何时可以勇敢地去探索风暴中潜藏的东西。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1286580/extras/Steam_banners_V2SOLO-CAPTAINS,-SAIL-FOR-GLORY.png?t=1687529431" /&gt;&lt;br&gt;&lt;br&gt;玩家同时可以选择作为一个单独的水手独自游玩，独自操纵船只，在危险的水域中战斗，一人夺得所有的荣耀，《同舟共济》可供单人游戏以及多人合作模式。正如他们在古老的水手歌中所唱的那样：有时没有船员都比有一个猪队友要好！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1286580/extras/Steam_banners_V2REPLAYABLE,-LIKE-THE-ENDLESS-SEA.png?t=1687529431" /&gt;&lt;br&gt;&lt;br&gt;有许多愚者角色可供选择，有独特的物品可以寻找和解锁，有恶性遭遇可以战斗，有许多岛屿可以探险，每次游玩都会给你的航行带来新的东西。每次都会增强你的力量，让你准备好打败深海的怪物。&lt;br&gt;&lt;br&gt;&lt;strong&gt;主要特点&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;在合作中作为两个船友或作为一个单独的水手进行疯狂的航海战斗 &lt;br&gt;&lt;/li&gt;&lt;li&gt;最顽强的水手挑战巨大的海怪&lt;br&gt;&lt;/li&gt;&lt;li&gt;在群岛的地图中规划你的路线，勇敢面对永恒的风暴&lt;br&gt;&lt;/li&gt;&lt;li&gt;化身为具有特殊能力的独特愚人，在旅途中如虎添翼&lt;br&gt;&lt;/li&gt;&lt;li&gt;100多件饰品和文物可供收集和组合，以制定获胜策略&lt;br&gt;&lt;/li&gt;&lt;li&gt;潇洒的手绘艺术作品，让你目不暇接&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;请注意：本地多人游戏需要控制器</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>1296360</t>
+          <t>1293460</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Archvale</t>
+          <t>Ash of Gods: The Way</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Archvale</t>
+          <t>诸神灰烬：抉择</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>动作,冒险,弹幕射击,像素图形,动作角色扮演</t>
+          <t>选择取向,自选历险体验,回合战略,单人,手绘</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4954,41 +4959,36 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>7.9</t>
-        </is>
-      </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2021年12月03日</t>
+          <t>2023年04月27日</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>一位恶毒残忍的国王曾统治着这片土地，恫吓所有直面他的人。他和传说中的Archvale拱门一起成为了鬼故事和流传神话的素材，只留下了被施以不朽诅咒，以便在他的监狱里度过永恒时光的不朽者。&lt;br&gt;&lt;br&gt;只有你才能打败不朽者，让世界摆脱国王留下的阴影。穿越不同的地区，搜刮和打造更好的武器和装备。通过这些升级，你将能够成功对抗挡在你和神话级的Archvale拱门的真相之间的众多敌人。&lt;br&gt;&lt;br&gt;&lt;strong&gt;主要特色：&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;自定玩法。&lt;/strong&gt;通过徽章强化你的角色，创建出适合你的游戏风格的搭配。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;技巧是关键。&lt;/strong&gt;基于技能的子弹地狱战斗将考验你选择的武器，需要精确和速度才能成功。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;打造你的武器库。&lt;/strong&gt;使用从环境中收集，或落败敌人掉落的物品制造200多件武器和盔甲。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;探索世界。&lt;/strong&gt;散布在不同环境和经典地牢里的众多敌人将带你穿越不断变化的地图，而你将在那里找到完成旅程所需的独特资源。&lt;br&gt;[*[b]]发现真相。&lt;/li&gt;&lt;/ul&gt;[/b]揭开这个世界的黑暗故事，掘出通往传说中的Archvale世界的拱门。[/list]</t>
+          <t>在这款由剧情驱动的策略卡牌战斗游戏中，使用来自四个不同派系的战士、装备和符咒构建常胜卡组，在一系列重大比赛中杀出一条血路，每项大赛都拥有独特的对手、战场乃至规则。赢得新的卡牌并升级你的心头最爱，然后将它们组合成任意数量的卡组——你可以不断尝试下去，直到你满意！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1293460/extras/Gif1_gameplay_HD_adaptive.gif?t=1693942216" /&gt;&lt;br&gt;&lt;br&gt;在此期间，你将会遇到新的角色，和他们对话，并做出将会左右整个世界命运的抉择。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1293460/extras/Gif3_story_HD_adaptive.gif?t=1693942216" /&gt;&lt;br&gt;&lt;br&gt;你扮演菲恩，一个唯一的希望就是阻止邻国侵袭家园的年轻人。他需要掌握敌国用来训练贵族学会战争之道的一种纸牌游戏：《抉择》。渗透入敌国举办的大赛，这样你就可以接近他们的精英指挥官。这之后要怎么做完全取决于你自己。只是要记住，你的抉择会带来后果！&lt;br&gt;&lt;br&gt;核心游戏机制表面看来很简单：每个回合你可以打出一张战士卡和一张支援卡，然后你的所有单位都会朝着敌人推进，并在情况允许时展开攻击！但难点在于：选择什么组合、如何构建卡组，以及何时保留卡牌等待更好的机会。你的对手也会遵循同样的游戏规则…至少大多数时候如此。每场战斗可能会有不同的规则或特性，巧妙地构建卡组方可加以利用！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1293460/extras/Tabletop.jpg?t=1693942216" /&gt;&lt;br&gt;&lt;br&gt;战士中既有前线武夫，也有脆弱的弓箭手与支援型法师。装备卡可以在战场上为战士提供增益，而符咒卡则可以助力你的斗士或伤害敌人。没有一劳永逸的游戏玩法——构建一个卡组，使用具有护甲和回血能力的强悍战士，以消耗战的方式击败你的对手；用高伤害的弓箭手和会下毒的强盗来层层推进，不等敌方战士反应过来就将他们放倒，诸如此类。凭借庞大的卡牌选择范围，可能的组合数量不可估量。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1293460/extras/Gollah-Tournament.jpg?t=1693942216" /&gt;&lt;h2 class="bb_tag"&gt;每场战斗都是一次新挑战&lt;/h2&gt;&lt;br&gt;《诸神灰烬：抉择》中的每一场战斗都是一次精心设计的测试，考验你如何运用技能应对不同的目标和对手。无论你是要占领检查站、保护指挥官远离致命的敌人，还是要进行一系列一对一的决斗，你都需要发挥聪明才智方可取胜。每场战斗的结果都影响深远！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1293460/extras/Gif2_battles_HD_adaptive.gif?t=1693942216" /&gt;&lt;br&gt;&lt;br&gt;务必让战场中的每个细节都为你所用。你将会遭遇各式各样的陷阱，取决于你采取的策略，它们可能会带来危险，也可能会制造机会；还有强大的符文，它们可能会彻底改变战斗的进程！&lt;br&gt;&lt;br&gt;如果当前策略效果不佳，只需调整你的卡牌和升级项以尝试另辟蹊径——试验或改变策略不会受到任何惩罚。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1293460/extras/Upgrades.jpg?t=1693942216" /&gt;&lt;h2 class="bb_tag"&gt;选择你的道路&lt;/h2&gt;&lt;br&gt;《诸神灰烬：抉择》是一款首开先河之作，揉合了RPG风格对话、收藏级卡牌游戏，以及回合制策略战斗——你在这三个方面的抉择将会影响你的故事的结局。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1293460/extras/Gollah_m1.gif?t=1693942216" /&gt;&lt;br&gt;&lt;br&gt;在《诸神灰烬：抉择》中，你需要使用角色卡和支援卡的组合来构建卡组。你的角色卡会被布置在战场上，而支援卡则会强化你的角色或施放强大的符咒。这两类卡牌都可以通过升级变得更强，而角色卡甚至可以获得新的技能，比如诡诈的反击或护甲粉碎攻击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1293460/extras/Deck-Management.jpg?t=1693942216" /&gt;&lt;br&gt;&lt;br&gt;每张卡牌都属于游戏中的四个派系之一，每个派系都有专属的增效作用和亚对策强项。获得新卡牌的途径不止一种：赢得战斗、购买或完成特殊任务。你可以根据需要混和搭配不同派系的卡牌，也可以专注于其中一派——你的抉择，你做主。&lt;h2 class="bb_tag"&gt;结局多样化的互动故事&lt;/h2&gt;&lt;br&gt;故事围绕着年轻的菲恩展开，他肩负着一项危险的任务，有可能会阻止一场残酷的战争…但在他的旅途中，他会发现有些敌人和他耳闻的颇为不同。艰难的抉择摆在面前，菲恩将不得不接受随之而来的后果。除了非线性主体情节、旁白（完整配音）分镜头和对话，还有很多支线任务可供探索。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1293460/extras/Gif4_endings_HD_adaptive.gif?t=1693942216" /&gt;&lt;h2 class="bb_tag"&gt;探索《诸神灰烬》宇宙中的其他游戏！&lt;/h2&gt; &lt;br&gt;《诸神灰烬：抉择》是《诸神灰烬》宇宙中的第二款游戏。我们的首款游戏《诸神灰烬：救赎》是一款回合制角色扮演游戏，具有策略战斗特色、卡牌收集(CCG)元素，以及高度互动的剧情——其中的重大决策直接攸关生死。不过，即使你的领袖倒下也并非终局——故事仍会继续…&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/691690/Ash_of_Gods_Redemption/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/691690/Ash_of_Gods_Redemption/&lt;/a&gt;&lt;br&gt;&lt;br&gt;在&lt;a href="https://steamcommunity.com/linkfilter/?url=https://ashofgods.com/" target="_blank" rel=" noopener"  &gt;我们的网站&lt;/a&gt;上还有更多值得发现的内容！如果你对其他平台的游戏感兴趣，不妨来看看。最后别忘了，你可以&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/ashofgods" target="_blank" rel=" noopener"  &gt;加入我们的Discord频道&lt;/a&gt;，了解有关&lt;i&gt;《诸神灰烬》&lt;/i&gt;的所有最新消息！&lt;br&gt;&lt;br&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/ashofgods" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1293460/extras/Discord2_HD.gif?t=1693942216" /&gt;&lt;/a&gt;</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>1321440</t>
+          <t>1296360</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Cassette Beasts</t>
+          <t>Archvale</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>磁带妖怪</t>
+          <t>Archvale</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>日系角色扮演,角色扮演,休闲,本地合作,彩色</t>
+          <t>动作,冒险,弹幕射击,像素图形,动作角色扮演</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4998,39 +4998,39 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2023年04月26日</t>
+          <t>2021年12月03日</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1321440/extras/CassetteBeasts_Main_GIF_5.gif?t=1671359539" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1321440/extras/CassetteBeasts_Description_Monsters.png?t=1671359539" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;冒险。战斗。变身。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;在这款开放世界角色扮演游戏中，尽情收集各路新奇怪物，在回合制战斗中变身吧。《磁带妖怪》特有的融合系统，可将任意怪物形态两两组合，从而创造出独一无二的强大新怪物！&lt;br&gt;&lt;br&gt;欢迎来到新威勒尔！这座偏远的岛屿上，栖息着诸多做梦才能见到的奇特生物、做梦都不想见到的可怕噩梦，还有一群用磁带变身战斗的勇敢之人。要想找到回家的路，就得探索这座岛屿的每一寸角落，同时将怪物录入可靠的磁带中，从而习得它们的技能！&lt;br&gt;&lt;br&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.com/invite/byttenstudio" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1321440/extras/CassetteBeasts_Description_Discord.png?t=1671359539" /&gt;&lt;/a&gt;&lt;br&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://wiki.cassettebeasts.com/wiki/Main_Page" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1321440/extras/CassetteBeasts_Description_Wiki.png?t=1671359539" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1321440/extras/CassetteBeasts_Header_GIF_1_v3.gif?t=1671359539" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;用复古的磁带……变身成妖怪？！&lt;/strong&gt;&lt;br&gt;面对怪物频繁攻击的持续威胁，新威勒尔岛港口镇上的居民选择以牙还牙。游戏中的怪物多达120余种，将与你交手的怪物录入磁带，之后只要播放这盘磁带，就能在战斗中化身怪物！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1321440/extras/CassetteBeasts_Header_GIF_2_v3.gif?t=1671359539" /&gt;&lt;br&gt;&lt;strong&gt;融合怪物形态！&lt;/strong&gt;&lt;br&gt;跟同伴打好关系，可是大有裨益——变身之时，两人的力量可以合二为一，从而在战斗中占据上风！任意两种怪物形态都能融合，从而衍生出独特且生动的新融合形态；不同组合的数量可是高达14,000种哦！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1321440/extras/CassetteBeasts_Header_GIF_3_v3.gif?t=1671359539" /&gt;&lt;br&gt;&lt;strong&gt;探索丰富的开放世界&lt;/strong&gt;&lt;br&gt;在这个非线性叙事开放世界中，寻捷径、探奥秘，发现隐藏的地下空间！还可以从怪物身上习得各种技能，从飞行、攀爬、冲刺到电磁感应，助你轻松跨越这片陌生的土地。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1321440/extras/CassetteBeasts_Header_GIF_4.png?t=1671359539" /&gt;&lt;br&gt;&lt;strong&gt;与各有特色的人类同伴共行&lt;/strong&gt;&lt;br&gt;千万不要独自战斗！缔结情谊，共度美好时光，帮助选中的伙伴实现个人目标，从而更加合作无间。关系牢固与否，决定了融合的难易程度！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1321440/extras/CassetteBeasts_Header_GIF_5_v3.gif?t=1671359539" /&gt;&lt;br&gt;&lt;strong&gt;掌握高深的战斗系统&lt;/strong&gt;&lt;br&gt;利用元素化学的优势，为攻击附上额外的正面或负面效果，甚至彻底扭转对手的元素类型！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1321440/extras/CassetteBeasts_Header_GIF_6_v2.gif?t=1671359539" /&gt;&lt;br&gt;&lt;strong&gt;和朋友们一起排排坐打游戏&lt;/strong&gt;&lt;br&gt;在本地多人模式中，和朋友组队探索开放世界，一同变身怪物战斗吧！面对未知世界双人联手出击，必然能增进屏幕外的友谊！</t>
+          <t>一位恶毒残忍的国王曾统治着这片土地，恫吓所有直面他的人。他和传说中的Archvale拱门一起成为了鬼故事和流传神话的素材，只留下了被施以不朽诅咒，以便在他的监狱里度过永恒时光的不朽者。&lt;br&gt;&lt;br&gt;只有你才能打败不朽者，让世界摆脱国王留下的阴影。穿越不同的地区，搜刮和打造更好的武器和装备。通过这些升级，你将能够成功对抗挡在你和神话级的Archvale拱门的真相之间的众多敌人。&lt;br&gt;&lt;br&gt;&lt;strong&gt;主要特色：&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;自定玩法。&lt;/strong&gt;通过徽章强化你的角色，创建出适合你的游戏风格的搭配。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;技巧是关键。&lt;/strong&gt;基于技能的子弹地狱战斗将考验你选择的武器，需要精确和速度才能成功。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;打造你的武器库。&lt;/strong&gt;使用从环境中收集，或落败敌人掉落的物品制造200多件武器和盔甲。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;探索世界。&lt;/strong&gt;散布在不同环境和经典地牢里的众多敌人将带你穿越不断变化的地图，而你将在那里找到完成旅程所需的独特资源。&lt;br&gt;[*[b]]发现真相。&lt;/li&gt;&lt;/ul&gt;[/b]揭开这个世界的黑暗故事，掘出通往传说中的Archvale世界的拱门。[/list]</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>1326470</t>
+          <t>1321440</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Sons Of The Forest</t>
+          <t>Cassette Beasts</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>森林之子</t>
+          <t>磁带妖怪</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>生存,开放世界,多人,生存恐怖,合作</t>
+          <t>日系角色扮演,角色扮演,休闲,本地合作,彩色</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5040,39 +5040,39 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2023年02月24日</t>
+          <t>2023年04月26日</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>来自《The Forest》制作者的全新体验&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1326470/extras/VirginiaWaterfall.gif?t=1679677298" /&gt;&lt;br&gt;&lt;br&gt;你被派到了一座孤岛上，寻找一位失踪的亿万富翁，结果却发现自己深陷被食人生物占领的炼狱之地。你需要制作工具和武器、建造房屋，倾尽全力生存下去，无论独自一人还是与朋友一起——一切尽在这款新推出的开放世界恐怖生存模拟游戏中。&lt;h2 class="bb_tag"&gt;&lt;strong&gt; 恐怖生存模拟游戏&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;体验彻头彻尾的自由，用你希望的方式探索世界。你自己决定要做什么、要去哪里，以及怎样才最有利于活下去。不会有NPC咆哮着命令你，或者给你分配你根本不想完成的任务。下命令的人是你自己，你的命运由你做主。&lt;h2 class="bb_tag"&gt;&lt;strong&gt; 对抗恶魔&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;进入一个危机四伏的世界，对抗各式各样的变种生物。有的看起来和人类别无二致，有的却绝非来自凡间。带上手枪、斧头、电击棒等武器，保护你自己，还有你在乎的人。&lt;h2 class="bb_tag"&gt;&lt;strong&gt; 建造和制作&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;感受每一次互动；劈柴生火，使用斧头砍出窗户和地板，建造一间小木屋，或是一栋海滨小楼，一切由你决定。&lt;h2 class="bb_tag"&gt;&lt;strong&gt; 四季交替&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;在春天和夏天里从小溪中捕捉新鲜的鲑鱼。收集和保存肉类为寒冬时光作准备。你在这座岛上并不孤单，因此，在冬日来临、食物和资源匮乏之际，你不会是唯一想要饱餐一顿的人。&lt;h2 class="bb_tag"&gt;&lt;strong&gt; 合作游玩&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;一个人求生，或者和朋友一同面对。分享物品，并一起构筑防御。带上储备物资，上天入地探索这座孤岛。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1321440/extras/CassetteBeasts_Main_GIF_5.gif?t=1671359539" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1321440/extras/CassetteBeasts_Description_Monsters.png?t=1671359539" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;冒险。战斗。变身。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;在这款开放世界角色扮演游戏中，尽情收集各路新奇怪物，在回合制战斗中变身吧。《磁带妖怪》特有的融合系统，可将任意怪物形态两两组合，从而创造出独一无二的强大新怪物！&lt;br&gt;&lt;br&gt;欢迎来到新威勒尔！这座偏远的岛屿上，栖息着诸多做梦才能见到的奇特生物、做梦都不想见到的可怕噩梦，还有一群用磁带变身战斗的勇敢之人。要想找到回家的路，就得探索这座岛屿的每一寸角落，同时将怪物录入可靠的磁带中，从而习得它们的技能！&lt;br&gt;&lt;br&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.com/invite/byttenstudio" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1321440/extras/CassetteBeasts_Description_Discord.png?t=1671359539" /&gt;&lt;/a&gt;&lt;br&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://wiki.cassettebeasts.com/wiki/Main_Page" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1321440/extras/CassetteBeasts_Description_Wiki.png?t=1671359539" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1321440/extras/CassetteBeasts_Header_GIF_1_v3.gif?t=1671359539" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;用复古的磁带……变身成妖怪？！&lt;/strong&gt;&lt;br&gt;面对怪物频繁攻击的持续威胁，新威勒尔岛港口镇上的居民选择以牙还牙。游戏中的怪物多达120余种，将与你交手的怪物录入磁带，之后只要播放这盘磁带，就能在战斗中化身怪物！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1321440/extras/CassetteBeasts_Header_GIF_2_v3.gif?t=1671359539" /&gt;&lt;br&gt;&lt;strong&gt;融合怪物形态！&lt;/strong&gt;&lt;br&gt;跟同伴打好关系，可是大有裨益——变身之时，两人的力量可以合二为一，从而在战斗中占据上风！任意两种怪物形态都能融合，从而衍生出独特且生动的新融合形态；不同组合的数量可是高达14,000种哦！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1321440/extras/CassetteBeasts_Header_GIF_3_v3.gif?t=1671359539" /&gt;&lt;br&gt;&lt;strong&gt;探索丰富的开放世界&lt;/strong&gt;&lt;br&gt;在这个非线性叙事开放世界中，寻捷径、探奥秘，发现隐藏的地下空间！还可以从怪物身上习得各种技能，从飞行、攀爬、冲刺到电磁感应，助你轻松跨越这片陌生的土地。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1321440/extras/CassetteBeasts_Header_GIF_4.png?t=1671359539" /&gt;&lt;br&gt;&lt;strong&gt;与各有特色的人类同伴共行&lt;/strong&gt;&lt;br&gt;千万不要独自战斗！缔结情谊，共度美好时光，帮助选中的伙伴实现个人目标，从而更加合作无间。关系牢固与否，决定了融合的难易程度！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1321440/extras/CassetteBeasts_Header_GIF_5_v3.gif?t=1671359539" /&gt;&lt;br&gt;&lt;strong&gt;掌握高深的战斗系统&lt;/strong&gt;&lt;br&gt;利用元素化学的优势，为攻击附上额外的正面或负面效果，甚至彻底扭转对手的元素类型！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1321440/extras/CassetteBeasts_Header_GIF_6_v2.gif?t=1671359539" /&gt;&lt;br&gt;&lt;strong&gt;和朋友们一起排排坐打游戏&lt;/strong&gt;&lt;br&gt;在本地多人模式中，和朋友组队探索开放世界，一同变身怪物战斗吧！面对未知世界双人联手出击，必然能增进屏幕外的友谊！</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>1331550</t>
+          <t>1326470</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Big Ambitions</t>
+          <t>Sons Of The Forest</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>雄心壮志</t>
+          <t>森林之子</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>抢先体验,管理,模拟,资本主义,经济</t>
+          <t>生存,开放世界,多人,生存恐怖,合作</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5082,39 +5082,39 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2023年03月11日</t>
+          <t>2023年02月24日</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>你的存款很少，但野心很大。 &lt;br&gt;&lt;br&gt;在叔叔的帮助下，你找到一间公寓和第一份工作。 但接下来，能否取得成功并最终接管纽约，将完全取决于你自己。 &lt;br&gt;&lt;br&gt;慢慢建立多个小企业，把它们发展成大公司，或者另辟蹊径 – 在庞大的商业沙盒中探索无限可能， 享受绝无仅有的游戏体验！&lt;br&gt;&lt;br&gt;从小公寓和公共交通到豪华套房、跑车和设计师家具。 把钱投入投资基金和房地产。 成功、失败，重头再来。 无论如何都要记得照顾好自己，好好睡觉，在上升之路上保持好心态。 &lt;br&gt;&lt;br&gt;你有能力建立自己的帝国吗？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/1-zhcn.png?t=1693411627" /&gt;&lt;br&gt;从一无所有起步，成为纽约最显赫的大亨。 走上创业之路，聪明地工作，让企业蓬勃发展，同时享受生活。 你想如何成功？ 你能付出多少？ 你能坚持多久？ &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_placement.gif?t=1693411627" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/2-zhcn.png?t=1693411627" /&gt;&lt;br&gt;创办你自己的礼品店、超市、咖啡店、律师事务所、服装店、酒品店、花店等。 定义你自己的成功 – 开一家小商店、一系列连锁快餐店、一家大公司。或者在地下室开发价值数百万美元的网站。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_citymap.gif?t=1693411627" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/3-zhcn.png?t=1693411627" /&gt;&lt;br&gt;申请贷款、租用建筑、设计徽标、翻新店铺、进货、管理资金、雇用员工，以及建造基础设施。 过不久，你可能还要开始从港口进口商品，通过仓库网络进行配送。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_warehouse.gif?t=1693411627" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/4-zhcn.png?t=1693411627" /&gt;&lt;br&gt;企业越大，就越需要管理人员。 雇用人力资源经理、物流经理和采购代表。 这些人员都需要办公桌和电脑，所以你需要一个高级的总部。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_headquarters.gif?t=1693411627" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/5-zhcn.png?t=1693411627" /&gt;&lt;br&gt;需要送货卡车？ 到经销商那里买一辆。 需要吃的？ 去超市逛逛，但要先在家里配个冰箱。 Big Ambitions 是一款生活模拟游戏，你的角色必须与世界直接互动才能生存下来并取得成功。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_fridge.jpg?t=1693411627" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/6-zhcn.png?t=1693411627" /&gt;&lt;br&gt;在每处房屋里都装上适合自己风格和地位的家具。 把辛苦赚来的资金投资到房地产，发展你的商业帝国。 一点一点，接管这座城市。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_apartment.jpg?t=1693411627" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/7-zhcn.png?t=1693411627" /&gt;&lt;br&gt;你自己的财产，想怎么花就怎么花。 买台大型 SUV、高速跑车，或者全新豪华型 Mersaidi S500。 也可以去赌场碰碰运气，或者把钱投入投资基金收取回报。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_car.jpg?t=1693411627" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/8-zhcn.png?t=1693411627" /&gt;&lt;br&gt;游戏期间，你始终需要保证充足的睡眠，保持健康快乐。 旅程的重点在于享受当下时光，因为年龄越大，你越会想到金钱买不来时间… 不过真的买不来吗？  &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_persona.jpg?t=1693411627" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/9-zhcn.png?t=1693411627" /&gt;&lt;br&gt;Big Ambitions 将人气大作 Startup Company 的精华提炼到更高层次。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_startupcompany.jpg?t=1693411627" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1331550/Big_Ambitions/" target="_blank" rel=""  id="dynamiclink_2" &gt;https://store.steampowered.com/app/1331550/Big_Ambitions/&lt;/a&gt;</t>
+          <t>来自《The Forest》制作者的全新体验&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1326470/extras/VirginiaWaterfall.gif?t=1679677298" /&gt;&lt;br&gt;&lt;br&gt;你被派到了一座孤岛上，寻找一位失踪的亿万富翁，结果却发现自己深陷被食人生物占领的炼狱之地。你需要制作工具和武器、建造房屋，倾尽全力生存下去，无论独自一人还是与朋友一起——一切尽在这款新推出的开放世界恐怖生存模拟游戏中。&lt;h2 class="bb_tag"&gt;&lt;strong&gt; 恐怖生存模拟游戏&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;体验彻头彻尾的自由，用你希望的方式探索世界。你自己决定要做什么、要去哪里，以及怎样才最有利于活下去。不会有NPC咆哮着命令你，或者给你分配你根本不想完成的任务。下命令的人是你自己，你的命运由你做主。&lt;h2 class="bb_tag"&gt;&lt;strong&gt; 对抗恶魔&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;进入一个危机四伏的世界，对抗各式各样的变种生物。有的看起来和人类别无二致，有的却绝非来自凡间。带上手枪、斧头、电击棒等武器，保护你自己，还有你在乎的人。&lt;h2 class="bb_tag"&gt;&lt;strong&gt; 建造和制作&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;感受每一次互动；劈柴生火，使用斧头砍出窗户和地板，建造一间小木屋，或是一栋海滨小楼，一切由你决定。&lt;h2 class="bb_tag"&gt;&lt;strong&gt; 四季交替&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;在春天和夏天里从小溪中捕捉新鲜的鲑鱼。收集和保存肉类为寒冬时光作准备。你在这座岛上并不孤单，因此，在冬日来临、食物和资源匮乏之际，你不会是唯一想要饱餐一顿的人。&lt;h2 class="bb_tag"&gt;&lt;strong&gt; 合作游玩&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;一个人求生，或者和朋友一同面对。分享物品，并一起构筑防御。带上储备物资，上天入地探索这座孤岛。</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>1336980</t>
+          <t>1331550</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NOBUNAGA'S AMBITION: Awakening</t>
+          <t>Big Ambitions</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>信長之野望･新生</t>
+          <t>雄心壮志</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>战争游戏,即时战术,沉浸式模拟,即时战略,大战略</t>
+          <t>抢先体验,管理,模拟,资本主义,经济</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5124,39 +5124,39 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2022年07月21日</t>
+          <t>2023年03月11日</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/banner_tw.jpg?t=1691110808" /&gt;&lt;h2 class="bb_tag"&gt;《信長之野望･新生 with 威力加強版》&lt;/h2&gt;&lt;br&gt;※本商品包含《信長之野望･新生》与《信長之野望･新生 威力加強版》。&lt;br&gt;若已购买了《信長之野望･新生》，请勿购买本商品，而改为购买《信長之野望･新生 威力加強版》。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Nobunaga.gif?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;在《信長之野望･新生》中，玩家能够与自主思考并采取行动的“活生生武将”一起体验真实的战国。在符合“信長之野望”系列40周年品质和体量的标准下，本作迎来了系列最高级别的强化！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Departure.gif?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;①“君臣同心”的更深层进化&lt;/strong&gt;&lt;br&gt;能够阻止武将出奔、对敌对势力进行挖角等的“直接谈判”，任命“家宰”、“奉行”打造自己独特家臣团的“评定众”等，让“君臣同心”更上一层楼！ &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Battle1-CHT.gif?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;②波及到城下一带的白热化“攻城战”&lt;/strong&gt;&lt;br&gt;“攻城战”将以前所未有的形态登场。除去攻略城池本身，还能够享受别具动态感与真实感的攻城战！在超过200张专用地图上灵活运用每座城池的特征取得胜利吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Battle2-CHT.gif?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;③各势力别具一格、多彩的战略性&lt;/strong&gt;&lt;br&gt;大幅扩充赋予势力特征的“政策”。此外还追加了灵活运用决定每座城所扮演的角色、在据点之间建立联系的“城定位”，以及孕育出全新游玩体验的“军团战略”等新要素，令玩家别具个性的战略得以实现。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Characters.gif?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;④惯例的各种编辑功能之外，还有充实的追加要素！&lt;/strong&gt;&lt;br&gt;剧情与事件、特性等以往的要素得到大幅度扩充。武将与BGM、编辑剧情、创建新势力功能等高人气要素也将更加丰富多彩！&lt;h2 class="bb_tag"&gt;《信长之野望·新生》&lt;/h2&gt;&lt;br&gt;&lt;strong&gt;让天下重焕新生！&lt;/strong&gt;&lt;br&gt;&lt;br&gt;历史模拟游戏“信长之野望”系列的第16作，KOU SHIBUSAWA 40周年纪念作品。&lt;br&gt;&lt;br&gt;系列首次，通过自主判断而展开行动的“活生生武将”将大展身手！&lt;br&gt;支援玩家，为天下统一的目标东奔西走。&lt;br&gt;敌我双方的武将依照自己的判断，编织出有血有肉的战国乱世绘卷。&lt;br&gt;&lt;br&gt;推动历史进程的妙趣，便在于此！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/01.jpg?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;【内政】夺取土地、给予土地！“知行”系统&lt;/strong&gt;&lt;br&gt;把从他国赢取的土地给予能够胜任的家臣，重现曾经的“知行制”！&lt;br&gt;家臣在获得知行地后，将自主发展该地。&lt;br&gt;发展土地并强化国力，于战场获胜后给予家臣更多的土地吧！&lt;br&gt;&lt;br&gt;&lt;strong&gt;【战略】展现属于自己的战略吧！ “政策”与“特性”&lt;/strong&gt;&lt;br&gt;大名家的“政策”与武将持有的“特性”是富国强兵的关键！&lt;br&gt;政策的强化、城主与其麾下武将的特性，将对势力的特点产生巨大影响。&lt;br&gt;战略性地活用人才、资金、时间，创造你的理想势力！&lt;br&gt;&lt;br&gt;&lt;strong&gt;【战斗】以进军路线为中心的战略！“多方作战”&lt;/strong&gt;&lt;br&gt;适于大军作战的大道，或仅可进行小规模作战的小径等等，需要根据这些地形，采取变幻莫测的战术！&lt;br&gt;尽可能多占领通向城的要道，便可在攻城战中占据优势。&lt;br&gt;活用地利，选择符合势力大小的独到战术击破敌军！&lt;br&gt;&lt;br&gt;&lt;strong&gt;【会战】与自主行动的家臣们一起取得胜利！“会战指挥”&lt;/strong&gt;&lt;br&gt;为了胜利，为了功名，所有武将都将依照自己的判断而战。&lt;br&gt;在充斥各种图谋的战场上，看清不断演变的战况，下达通往胜利的命令吧！</t>
+          <t>你的存款很少，但野心很大。 &lt;br&gt;&lt;br&gt;在叔叔的帮助下，你找到一间公寓和第一份工作。 但接下来，能否取得成功并最终接管纽约，将完全取决于你自己。 &lt;br&gt;&lt;br&gt;慢慢建立多个小企业，把它们发展成大公司，或者另辟蹊径 – 在庞大的商业沙盒中探索无限可能， 享受绝无仅有的游戏体验！&lt;br&gt;&lt;br&gt;从小公寓和公共交通到豪华套房、跑车和设计师家具。 把钱投入投资基金和房地产。 成功、失败，重头再来。 无论如何都要记得照顾好自己，好好睡觉，在上升之路上保持好心态。 &lt;br&gt;&lt;br&gt;你有能力建立自己的帝国吗？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/1-zhcn.png?t=1693411627" /&gt;&lt;br&gt;从一无所有起步，成为纽约最显赫的大亨。 走上创业之路，聪明地工作，让企业蓬勃发展，同时享受生活。 你想如何成功？ 你能付出多少？ 你能坚持多久？ &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_placement.gif?t=1693411627" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/2-zhcn.png?t=1693411627" /&gt;&lt;br&gt;创办你自己的礼品店、超市、咖啡店、律师事务所、服装店、酒品店、花店等。 定义你自己的成功 – 开一家小商店、一系列连锁快餐店、一家大公司。或者在地下室开发价值数百万美元的网站。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_citymap.gif?t=1693411627" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/3-zhcn.png?t=1693411627" /&gt;&lt;br&gt;申请贷款、租用建筑、设计徽标、翻新店铺、进货、管理资金、雇用员工，以及建造基础设施。 过不久，你可能还要开始从港口进口商品，通过仓库网络进行配送。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_warehouse.gif?t=1693411627" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/4-zhcn.png?t=1693411627" /&gt;&lt;br&gt;企业越大，就越需要管理人员。 雇用人力资源经理、物流经理和采购代表。 这些人员都需要办公桌和电脑，所以你需要一个高级的总部。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_headquarters.gif?t=1693411627" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/5-zhcn.png?t=1693411627" /&gt;&lt;br&gt;需要送货卡车？ 到经销商那里买一辆。 需要吃的？ 去超市逛逛，但要先在家里配个冰箱。 Big Ambitions 是一款生活模拟游戏，你的角色必须与世界直接互动才能生存下来并取得成功。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_fridge.jpg?t=1693411627" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/6-zhcn.png?t=1693411627" /&gt;&lt;br&gt;在每处房屋里都装上适合自己风格和地位的家具。 把辛苦赚来的资金投资到房地产，发展你的商业帝国。 一点一点，接管这座城市。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_apartment.jpg?t=1693411627" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/7-zhcn.png?t=1693411627" /&gt;&lt;br&gt;你自己的财产，想怎么花就怎么花。 买台大型 SUV、高速跑车，或者全新豪华型 Mersaidi S500。 也可以去赌场碰碰运气，或者把钱投入投资基金收取回报。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_car.jpg?t=1693411627" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/8-zhcn.png?t=1693411627" /&gt;&lt;br&gt;游戏期间，你始终需要保证充足的睡眠，保持健康快乐。 旅程的重点在于享受当下时光，因为年龄越大，你越会想到金钱买不来时间… 不过真的买不来吗？  &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_persona.jpg?t=1693411627" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/9-zhcn.png?t=1693411627" /&gt;&lt;br&gt;Big Ambitions 将人气大作 Startup Company 的精华提炼到更高层次。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_startupcompany.jpg?t=1693411627" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1331550/Big_Ambitions/" target="_blank" rel=""  id="dynamiclink_2" &gt;https://store.steampowered.com/app/1331550/Big_Ambitions/&lt;/a&gt;</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>1351210</t>
+          <t>1336980</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Gord</t>
+          <t>NOBUNAGA'S AMBITION: Awakening</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>戈德</t>
+          <t>信長之野望･新生</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>策略,殖民模拟,生存,即时战略,动作冒险</t>
+          <t>战争游戏,即时战术,沉浸式模拟,即时战略,大战略</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5164,54 +5164,96 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2023年08月18日</t>
+          <t>2022年07月21日</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;立即预购可获得一个额外自定义关卡“坚守阵地”、完整游戏原声带和数位美术集。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;“坚守阵地”是一个波次防御型的自定义关卡。保护您的定居点，对抗一波又一波越来越强大的敌人。准备防御，为即将到来的猛攻做好准备！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1351210/extras/1_adventure_chn.gif?t=1692961045" /&gt;&lt;br&gt;你将率领曙光部族深入禁忌的蛮荒大地，完成会影响到居民性格与安乐的任务，决定部族的命运，在灵感源自斯拉夫神话的黑暗幻想世界中帮助你的居民生存下去。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1351210/extras/1_adventure_chn.gif?t=1692961045" /&gt;&lt;br&gt;竖起围栏，打造各类建筑，让定居点从一个小城镇发展为森严的要塞。不过，扩张城镇可不容易！你的居民始终会受到敌方部族，恐怖怪物，以及潜伏在附近丛林中的神秘力量的威胁。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1351210/extras/_STEAM_APP_IMAGE__quests_SIM.png?t=1692961045" /&gt;&lt;br&gt;《戈德》中多种多样的任务将让您走出村落的围墙外，想办法防止灾难发生，或是解决自己部族居民的个人问题。关卡的主要目标将引领您的旅程，而支线任务与随机遭遇则会让您进入荒野，追捕传奇生物、揭开远古的秘密或战胜邪恶的祸害。您得准备好面对各种无法预知的情况。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1351210/extras/4_levels_chn.jpg?t=1692961045" /&gt;&lt;br&gt;从丰富剧情中选择你的游戏舞台，在其中争夺胜利。你既可以轻松游戏，也能展开硬核挑战，根据你的喜好进行调整。游戏含丰富的主要目标供你选择。你还能自定义关卡大小、袭击强度、游戏环境、敌人类型、起始资源、气候恶劣程度等因素。当然，别忘了恐怖生物。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1351210/extras/_STEAM_APP_IMAGE__sanity_SIM.png?t=1692961045" /&gt;&lt;br&gt;拥有健康的居民是您在《戈德》中生存的关键。无论是疾病、饥饿还是同胞的死亡，居民生活中的各个方面都会影响他们的理智程度。务必密切关注他们，因为一旦居民的理智下降到临界点，他们就会精神崩溃甚至逃离您的统治。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1351210/extras/6_incantation_chn.jpg?t=1692961045" /&gt;&lt;br&gt;用祈祷取悦神灵，他们就会赐予你施咒的神力。咒语有不同属性，有些用于攻击，有些用于防御，但都能助你在战斗中取得优势。用咒语躲过敌人的视线，驾驭危险猛兽，对胆敢反对你的人毫不留情。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1351210/extras/7_chronicle_chn.jpg?t=1692961045" /&gt;&lt;br&gt;编年史阐释了《Gord》的世界观，融合了斯拉夫神话与黑暗幻想的题材。编年史的书页零星散落在地图中，有兴趣的玩家可以进一步深入探索游戏世界。收集尽可能多的书页，了解神灵之源，古昔的部族派系，还有神秘的斯拉夫密语者。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/banner_tw.jpg?t=1691110808" /&gt;&lt;h2 class="bb_tag"&gt;《信長之野望･新生 with 威力加強版》&lt;/h2&gt;&lt;br&gt;※本商品包含《信長之野望･新生》与《信長之野望･新生 威力加強版》。&lt;br&gt;若已购买了《信長之野望･新生》，请勿购买本商品，而改为购买《信長之野望･新生 威力加強版》。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Nobunaga.gif?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;在《信長之野望･新生》中，玩家能够与自主思考并采取行动的“活生生武将”一起体验真实的战国。在符合“信長之野望”系列40周年品质和体量的标准下，本作迎来了系列最高级别的强化！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Departure.gif?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;①“君臣同心”的更深层进化&lt;/strong&gt;&lt;br&gt;能够阻止武将出奔、对敌对势力进行挖角等的“直接谈判”，任命“家宰”、“奉行”打造自己独特家臣团的“评定众”等，让“君臣同心”更上一层楼！ &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Battle1-CHT.gif?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;②波及到城下一带的白热化“攻城战”&lt;/strong&gt;&lt;br&gt;“攻城战”将以前所未有的形态登场。除去攻略城池本身，还能够享受别具动态感与真实感的攻城战！在超过200张专用地图上灵活运用每座城池的特征取得胜利吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Battle2-CHT.gif?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;③各势力别具一格、多彩的战略性&lt;/strong&gt;&lt;br&gt;大幅扩充赋予势力特征的“政策”。此外还追加了灵活运用决定每座城所扮演的角色、在据点之间建立联系的“城定位”，以及孕育出全新游玩体验的“军团战略”等新要素，令玩家别具个性的战略得以实现。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Characters.gif?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;④惯例的各种编辑功能之外，还有充实的追加要素！&lt;/strong&gt;&lt;br&gt;剧情与事件、特性等以往的要素得到大幅度扩充。武将与BGM、编辑剧情、创建新势力功能等高人气要素也将更加丰富多彩！&lt;h2 class="bb_tag"&gt;《信长之野望·新生》&lt;/h2&gt;&lt;br&gt;&lt;strong&gt;让天下重焕新生！&lt;/strong&gt;&lt;br&gt;&lt;br&gt;历史模拟游戏“信长之野望”系列的第16作，KOU SHIBUSAWA 40周年纪念作品。&lt;br&gt;&lt;br&gt;系列首次，通过自主判断而展开行动的“活生生武将”将大展身手！&lt;br&gt;支援玩家，为天下统一的目标东奔西走。&lt;br&gt;敌我双方的武将依照自己的判断，编织出有血有肉的战国乱世绘卷。&lt;br&gt;&lt;br&gt;推动历史进程的妙趣，便在于此！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/01.jpg?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;【内政】夺取土地、给予土地！“知行”系统&lt;/strong&gt;&lt;br&gt;把从他国赢取的土地给予能够胜任的家臣，重现曾经的“知行制”！&lt;br&gt;家臣在获得知行地后，将自主发展该地。&lt;br&gt;发展土地并强化国力，于战场获胜后给予家臣更多的土地吧！&lt;br&gt;&lt;br&gt;&lt;strong&gt;【战略】展现属于自己的战略吧！ “政策”与“特性”&lt;/strong&gt;&lt;br&gt;大名家的“政策”与武将持有的“特性”是富国强兵的关键！&lt;br&gt;政策的强化、城主与其麾下武将的特性，将对势力的特点产生巨大影响。&lt;br&gt;战略性地活用人才、资金、时间，创造你的理想势力！&lt;br&gt;&lt;br&gt;&lt;strong&gt;【战斗】以进军路线为中心的战略！“多方作战”&lt;/strong&gt;&lt;br&gt;适于大军作战的大道，或仅可进行小规模作战的小径等等，需要根据这些地形，采取变幻莫测的战术！&lt;br&gt;尽可能多占领通向城的要道，便可在攻城战中占据优势。&lt;br&gt;活用地利，选择符合势力大小的独到战术击破敌军！&lt;br&gt;&lt;br&gt;&lt;strong&gt;【会战】与自主行动的家臣们一起取得胜利！“会战指挥”&lt;/strong&gt;&lt;br&gt;为了胜利，为了功名，所有武将都将依照自己的判断而战。&lt;br&gt;在充斥各种图谋的战场上，看清不断演变的战况，下达通往胜利的命令吧！</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
+          <t>1351210</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Gord</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>戈德</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>策略,殖民模拟,生存,即时战略,动作冒险</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>2023年08月18日</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>&lt;strong&gt;立即预购可获得一个额外自定义关卡“坚守阵地”、完整游戏原声带和数位美术集。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;“坚守阵地”是一个波次防御型的自定义关卡。保护您的定居点，对抗一波又一波越来越强大的敌人。准备防御，为即将到来的猛攻做好准备！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1351210/extras/1_adventure_chn.gif?t=1692961045" /&gt;&lt;br&gt;你将率领曙光部族深入禁忌的蛮荒大地，完成会影响到居民性格与安乐的任务，决定部族的命运，在灵感源自斯拉夫神话的黑暗幻想世界中帮助你的居民生存下去。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1351210/extras/1_adventure_chn.gif?t=1692961045" /&gt;&lt;br&gt;竖起围栏，打造各类建筑，让定居点从一个小城镇发展为森严的要塞。不过，扩张城镇可不容易！你的居民始终会受到敌方部族，恐怖怪物，以及潜伏在附近丛林中的神秘力量的威胁。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1351210/extras/_STEAM_APP_IMAGE__quests_SIM.png?t=1692961045" /&gt;&lt;br&gt;《戈德》中多种多样的任务将让您走出村落的围墙外，想办法防止灾难发生，或是解决自己部族居民的个人问题。关卡的主要目标将引领您的旅程，而支线任务与随机遭遇则会让您进入荒野，追捕传奇生物、揭开远古的秘密或战胜邪恶的祸害。您得准备好面对各种无法预知的情况。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1351210/extras/4_levels_chn.jpg?t=1692961045" /&gt;&lt;br&gt;从丰富剧情中选择你的游戏舞台，在其中争夺胜利。你既可以轻松游戏，也能展开硬核挑战，根据你的喜好进行调整。游戏含丰富的主要目标供你选择。你还能自定义关卡大小、袭击强度、游戏环境、敌人类型、起始资源、气候恶劣程度等因素。当然，别忘了恐怖生物。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1351210/extras/_STEAM_APP_IMAGE__sanity_SIM.png?t=1692961045" /&gt;&lt;br&gt;拥有健康的居民是您在《戈德》中生存的关键。无论是疾病、饥饿还是同胞的死亡，居民生活中的各个方面都会影响他们的理智程度。务必密切关注他们，因为一旦居民的理智下降到临界点，他们就会精神崩溃甚至逃离您的统治。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1351210/extras/6_incantation_chn.jpg?t=1692961045" /&gt;&lt;br&gt;用祈祷取悦神灵，他们就会赐予你施咒的神力。咒语有不同属性，有些用于攻击，有些用于防御，但都能助你在战斗中取得优势。用咒语躲过敌人的视线，驾驭危险猛兽，对胆敢反对你的人毫不留情。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1351210/extras/7_chronicle_chn.jpg?t=1692961045" /&gt;&lt;br&gt;编年史阐释了《Gord》的世界观，融合了斯拉夫神话与黑暗幻想的题材。编年史的书页零星散落在地图中，有兴趣的玩家可以进一步深入探索游戏世界。收集尽可能多的书页，了解神灵之源，古昔的部族派系，还有神秘的斯拉夫密语者。</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
           <t>1358700</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>STRANGER OF PARADISE FINAL FANTASY ORIGIN</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>天堂的异乡人：最终幻想起源</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>动作,冒险,角色扮演,动作角色扮演,日系角色扮演</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
         <is>
           <t>8.4</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>2023年04月06日</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>■ABOUT&lt;br /&gt;
 战士们会将战斗的记忆深藏在心底——&lt;br /&gt;
@@ -5244,105 +5286,25 @@
         </is>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>1365660</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>findway</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>findway</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>角色扮演,冒险,射击,2.5D,单线剧情</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>2020年7月23日</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>A simple shooting games.&lt;br /&gt;
-&lt;br /&gt;
-You were born on a desert island, surrounded by dangers, hand by inch iron, how do you get through the current difficulties? Pick up the guns around you, take advantage of them, go through the zombies and explore the unknown.&lt;br /&gt;
-&lt;br /&gt;
-&lt;br /&gt;
-&lt;br /&gt;
-&lt;br /&gt;
-You can:&lt;br /&gt;
-&lt;br /&gt;
-&lt;br /&gt;
-&lt;br /&gt;
-Take your weapon,&lt;br /&gt;
-&lt;br /&gt;
-&lt;br /&gt;
-&lt;br /&gt;
-Kill the enemy or all the characters in front of you.&lt;br /&gt;
-&lt;br /&gt;
-&lt;br /&gt;
-&lt;br /&gt;
-Enemy types: fast moving characters and immovable characters.&lt;br /&gt;
-&lt;br /&gt;
-&lt;br /&gt;
-&lt;br /&gt;
-Operation mode&lt;br /&gt;
-&lt;br /&gt;
-&lt;br /&gt;
-&lt;br /&gt;
-Right click the target&lt;br /&gt;
-&lt;br /&gt;
-&lt;br /&gt;
-&lt;br /&gt;
-WASD controls motion&lt;br /&gt;
-&lt;br /&gt;
-&lt;br /&gt;
-&lt;br /&gt;
-Left mouse button attack&lt;br /&gt;
-&lt;br /&gt;
-&lt;br /&gt;
-&lt;br /&gt;
-Mouse control direction&lt;br /&gt;
-&lt;br /&gt;
-&lt;br /&gt;
-&lt;br /&gt;
-E loading weapons</t>
-        </is>
-      </c>
-    </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>1372530</t>
+          <t>1365660</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Fly Corp</t>
+          <t>findway</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>飞飞公司 Fly Corp</t>
+          <t>findway</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>休闲,交通运输,时间管理,策略,管理</t>
+          <t>角色扮演,冒险,射击,2.5D,单线剧情</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5352,34 +5314,77 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2023年05月18日</t>
+          <t>2020年7月23日</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;在不同的地区和城市发展你自己的运输网络：开辟新航线，购买并升级新飞机，增加机场容量&lt;/h2&gt;&lt;h2 class="bb_tag"&gt;控制客流！&lt;/h2&gt;&lt;br&gt;本游戏具有先进的客流系统，而游戏中的城市也都是人口与现实相符的真实城市。城市人口越多，希望乘坐航空的人就越多。每位乘客都有自己的目的地，如果没有直达的航线，他们会在某个机场转机。你不会有足够的资金将每个城市与其他所有城市连接起来，所以你必须分析现况，决定把下一个交通枢纽设在哪里。像飞机一样，机场也有最大容量。如果有一个机场被挤爆，你就会输。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1372530/extras/early_cut_ZH.gif?t=1690803187" /&gt;&lt;h2 class="bb_tag"&gt;整个世界都将是比赛场地！&lt;/h2&gt;&lt;br&gt;全球近200个地区和数以万计的城市任你选！你可以在任何城市建立一个机场并开始运输乘客。不同的地点意味着你随机应变：例如，虽然在欧洲的飞行距离很短，网络管理起来也很容易，但你必须考虑连接更远的城市，因为路线越长，开启路线需要支付的费用就越昂贵。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1372530/extras/late_cut_ZH.gif?t=1690803187" /&gt;&lt;h2 class="bb_tag"&gt;不同的游戏模式：探索世界、自由游戏和挑战。&lt;/h2&gt;&lt;br&gt;在&amp;quot;探索世界&amp;quot;模式中，你需要解锁世界上的每一块领土（每块领土都需要花费游戏中的金钱解锁），让你的客运网络覆盖全球（你必须每6分钟解锁一片新领土，否则你就输了）。挑战模式包括具有某些预设条件和目标的情境。例如，在一定时期内生存下去，或赚取特定数量的金钱。每个挑战都是独特的：在一些挑战中，你必须连接不断解锁的机场，而在另一些挑战中，由于冠状病毒爆发，你必须重建你的客运网络。此外，你每天都会得到一个新的情境，你必须抓紧时间完成它们，才能在排行榜上占下一席之地!&lt;h2 class="bb_tag"&gt;让人感到新鲜的随机事件&lt;/h2&gt;&lt;br&gt;随机事件会时常出现。它们可能是正面的（例如对你公司的投资），负面的（灾害使往返于某些地区的航班停飞），或是荒谬的（被某个商人起诉，因为他的咖啡被湍流打翻）。你永远不知道会发生什么！&lt;h2 class="bb_tag"&gt;与其他玩家竞争！&lt;/h2&gt;&lt;br&gt;每个挑战都拥有排行榜。运送乘客、获得利润、购买基础设施都会增加积分。在排行榜上勇夺第一吧！&lt;h2 class="bb_tag"&gt;在编辑器中创建并发布你自己的情境，或游玩其他玩家创建的数百个情境！&lt;/h2&gt;&lt;br&gt;本游戏有内置功能丰富的情境编辑器。任何人都可以创建并将自己的情境上传到服务器，或者游玩其他人创建的情境——新内容无穷无尽。</t>
+          <t>A simple shooting games.&lt;br /&gt;
+&lt;br /&gt;
+You were born on a desert island, surrounded by dangers, hand by inch iron, how do you get through the current difficulties? Pick up the guns around you, take advantage of them, go through the zombies and explore the unknown.&lt;br /&gt;
+&lt;br /&gt;
+&lt;br /&gt;
+&lt;br /&gt;
+&lt;br /&gt;
+You can:&lt;br /&gt;
+&lt;br /&gt;
+&lt;br /&gt;
+&lt;br /&gt;
+Take your weapon,&lt;br /&gt;
+&lt;br /&gt;
+&lt;br /&gt;
+&lt;br /&gt;
+Kill the enemy or all the characters in front of you.&lt;br /&gt;
+&lt;br /&gt;
+&lt;br /&gt;
+&lt;br /&gt;
+Enemy types: fast moving characters and immovable characters.&lt;br /&gt;
+&lt;br /&gt;
+&lt;br /&gt;
+&lt;br /&gt;
+Operation mode&lt;br /&gt;
+&lt;br /&gt;
+&lt;br /&gt;
+&lt;br /&gt;
+Right click the target&lt;br /&gt;
+&lt;br /&gt;
+&lt;br /&gt;
+&lt;br /&gt;
+WASD controls motion&lt;br /&gt;
+&lt;br /&gt;
+&lt;br /&gt;
+&lt;br /&gt;
+Left mouse button attack&lt;br /&gt;
+&lt;br /&gt;
+&lt;br /&gt;
+&lt;br /&gt;
+Mouse control direction&lt;br /&gt;
+&lt;br /&gt;
+&lt;br /&gt;
+&lt;br /&gt;
+E loading weapons</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>1380910</t>
+          <t>1372530</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Stardeus</t>
+          <t>Fly Corp</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Stardeus</t>
+          <t>飞飞公司 Fly Corp</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>抢先体验,基地建设,殖民模拟,策略,生存</t>
+          <t>休闲,交通运输,时间管理,策略,管理</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5389,34 +5394,34 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2022年10月12日</t>
+          <t>2023年05月18日</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>《Stardeus》是一款颇具深度的太空殖民模拟游戏，主体是一艘破损的宇宙飞船，载着各种无人机和休眠的人类幸存者。本游戏灵感来源于《异星工厂》和《环世界》。你的角色是一个永生的 AI，由你操控无人机修复飞船，拯救或者利用飞船上休眠的人类船员，然后与他们一起在这个虚拟的宇宙中旅行，探索这个美丽且复杂的随机生成世界。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1380910/extras/Save_Your_Crew_zho-CN.png?t=1681890975" /&gt;&lt;br&gt;你的任务是抢救，修理，并重建损毁的飞船。手头可用的只有为数不多的几架无人机，太空中也没有可供人类呼吸的氧气，一定要抢在幸存船员窒息之前修复生命维持系统。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1380910/extras/Rebuild_Your_Ship_zho-CN.png?t=1681890975" /&gt;&lt;br&gt;你可以根据自己的需要和喜好来设计和重建飞船。要把握好舰载氧气、热量和能源系统之间的平衡，才能在太空中长期生存下去。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1380910/extras/Automate_and_Organize_Productions_zho-CN.png?t=1681890975" /&gt;&lt;br&gt;将原材料加工成各种有用的物品，维持飞船的日常运转，并根据需求扩建飞船。种植并收获作物，制作成食品供苏醒的殖民者食用。生产能源，为飞船提供动力；合理规划能源网，让资源利用更高效。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1380910/extras/Research_Technologies_zho-CN.png?t=1681890975" /&gt;&lt;br&gt;运用并扩展你的大规模计算能力，以研究外星技术。探索在严酷的宇宙环境中生存的新方法，照顾好你的人类船员，或开发出新的船员利用方式。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1380910/extras/Explore_The_Universe_zho-CN.png?t=1681890975" /&gt;&lt;br&gt;飞船的动力系统恢复运转并安排好有能力船员后，开启一场太空探险的新征程，在随机生成的行星和星系中探索广阔的宇宙并挖掘矿物。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1380910/extras/Live_Your_Space_Odyssey_zho-CN.png?t=1681890975" /&gt;&lt;br&gt;做最坏的打算，但要怀抱最好的希望。故事生成 AI 会生成一系列的事件，带来各种各样的访客，丰富你的太空生活。不论是外星面部拥抱者，和气的商人，还是星际海盗，都要保持警惕，小心应对。</t>
+          <t>&lt;h2 class="bb_tag"&gt;在不同的地区和城市发展你自己的运输网络：开辟新航线，购买并升级新飞机，增加机场容量&lt;/h2&gt;&lt;h2 class="bb_tag"&gt;控制客流！&lt;/h2&gt;&lt;br&gt;本游戏具有先进的客流系统，而游戏中的城市也都是人口与现实相符的真实城市。城市人口越多，希望乘坐航空的人就越多。每位乘客都有自己的目的地，如果没有直达的航线，他们会在某个机场转机。你不会有足够的资金将每个城市与其他所有城市连接起来，所以你必须分析现况，决定把下一个交通枢纽设在哪里。像飞机一样，机场也有最大容量。如果有一个机场被挤爆，你就会输。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1372530/extras/early_cut_ZH.gif?t=1690803187" /&gt;&lt;h2 class="bb_tag"&gt;整个世界都将是比赛场地！&lt;/h2&gt;&lt;br&gt;全球近200个地区和数以万计的城市任你选！你可以在任何城市建立一个机场并开始运输乘客。不同的地点意味着你随机应变：例如，虽然在欧洲的飞行距离很短，网络管理起来也很容易，但你必须考虑连接更远的城市，因为路线越长，开启路线需要支付的费用就越昂贵。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1372530/extras/late_cut_ZH.gif?t=1690803187" /&gt;&lt;h2 class="bb_tag"&gt;不同的游戏模式：探索世界、自由游戏和挑战。&lt;/h2&gt;&lt;br&gt;在&amp;quot;探索世界&amp;quot;模式中，你需要解锁世界上的每一块领土（每块领土都需要花费游戏中的金钱解锁），让你的客运网络覆盖全球（你必须每6分钟解锁一片新领土，否则你就输了）。挑战模式包括具有某些预设条件和目标的情境。例如，在一定时期内生存下去，或赚取特定数量的金钱。每个挑战都是独特的：在一些挑战中，你必须连接不断解锁的机场，而在另一些挑战中，由于冠状病毒爆发，你必须重建你的客运网络。此外，你每天都会得到一个新的情境，你必须抓紧时间完成它们，才能在排行榜上占下一席之地!&lt;h2 class="bb_tag"&gt;让人感到新鲜的随机事件&lt;/h2&gt;&lt;br&gt;随机事件会时常出现。它们可能是正面的（例如对你公司的投资），负面的（灾害使往返于某些地区的航班停飞），或是荒谬的（被某个商人起诉，因为他的咖啡被湍流打翻）。你永远不知道会发生什么！&lt;h2 class="bb_tag"&gt;与其他玩家竞争！&lt;/h2&gt;&lt;br&gt;每个挑战都拥有排行榜。运送乘客、获得利润、购买基础设施都会增加积分。在排行榜上勇夺第一吧！&lt;h2 class="bb_tag"&gt;在编辑器中创建并发布你自己的情境，或游玩其他玩家创建的数百个情境！&lt;/h2&gt;&lt;br&gt;本游戏有内置功能丰富的情境编辑器。任何人都可以创建并将自己的情境上传到服务器，或者游玩其他人创建的情境——新内容无穷无尽。</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>1383250</t>
+          <t>1380910</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Please Fix The Road</t>
+          <t>Stardeus</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Please Fix The Road</t>
+          <t>Stardeus</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>困难,解谜,休闲,独立,模拟</t>
+          <t>抢先体验,基地建设,殖民模拟,策略,生存</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5426,34 +5431,34 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2022年06月11日</t>
+          <t>2022年10月12日</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1383250/extras/GIF1.gif?t=1678377909" /&gt;&lt;br&gt;&lt;br&gt;Please Fix The Road是一款色彩鲜艳、简约、悠闲的休闲益智游戏，而你显然是在修路！在每个关卡中，你都有一套预定的、有限的工具，可以帮助你把所有的汽车、船只或火车从A点运到B点。在每个关卡中，你都有一套预定的、有限的工具，可以帮助你把所有的汽车、船只、动物或火车从A点运到B点，当然，提到的动物包括小猫、狗和骆驼！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1383250/extras/GIF2.gif?t=1678377909" /&gt;&lt;br&gt;&lt;br&gt;你能够同时操纵多块瓷砖。你可以创造、破坏、旋转、复制、交换、提升、降低、推动或移动道路、河流、路径或铁轨的不同部分。该游戏将许多其他逻辑游戏的元素结合到一个很好的极简主义体验中。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1383250/extras/GIF3.gif?t=1678377909" /&gt;&lt;br&gt;&lt;br&gt;你的修路不一定要漂亮，只要能完成任务就可以了！所以请修理道路，享受乐趣！你的妈妈也会喜欢这个游戏的！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1383250/extras/GIF4.gif?t=1678377909" /&gt;</t>
+          <t>《Stardeus》是一款颇具深度的太空殖民模拟游戏，主体是一艘破损的宇宙飞船，载着各种无人机和休眠的人类幸存者。本游戏灵感来源于《异星工厂》和《环世界》。你的角色是一个永生的 AI，由你操控无人机修复飞船，拯救或者利用飞船上休眠的人类船员，然后与他们一起在这个虚拟的宇宙中旅行，探索这个美丽且复杂的随机生成世界。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1380910/extras/Save_Your_Crew_zho-CN.png?t=1681890975" /&gt;&lt;br&gt;你的任务是抢救，修理，并重建损毁的飞船。手头可用的只有为数不多的几架无人机，太空中也没有可供人类呼吸的氧气，一定要抢在幸存船员窒息之前修复生命维持系统。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1380910/extras/Rebuild_Your_Ship_zho-CN.png?t=1681890975" /&gt;&lt;br&gt;你可以根据自己的需要和喜好来设计和重建飞船。要把握好舰载氧气、热量和能源系统之间的平衡，才能在太空中长期生存下去。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1380910/extras/Automate_and_Organize_Productions_zho-CN.png?t=1681890975" /&gt;&lt;br&gt;将原材料加工成各种有用的物品，维持飞船的日常运转，并根据需求扩建飞船。种植并收获作物，制作成食品供苏醒的殖民者食用。生产能源，为飞船提供动力；合理规划能源网，让资源利用更高效。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1380910/extras/Research_Technologies_zho-CN.png?t=1681890975" /&gt;&lt;br&gt;运用并扩展你的大规模计算能力，以研究外星技术。探索在严酷的宇宙环境中生存的新方法，照顾好你的人类船员，或开发出新的船员利用方式。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1380910/extras/Explore_The_Universe_zho-CN.png?t=1681890975" /&gt;&lt;br&gt;飞船的动力系统恢复运转并安排好有能力船员后，开启一场太空探险的新征程，在随机生成的行星和星系中探索广阔的宇宙并挖掘矿物。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1380910/extras/Live_Your_Space_Odyssey_zho-CN.png?t=1681890975" /&gt;&lt;br&gt;做最坏的打算，但要怀抱最好的希望。故事生成 AI 会生成一系列的事件，带来各种各样的访客，丰富你的太空生活。不论是外星面部拥抱者，和气的商人，还是星际海盗，都要保持警惕，小心应对。</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>1404850</t>
+          <t>1383250</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Luck be a Landlord</t>
+          <t>Please Fix The Road</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>幸运房东</t>
+          <t>Please Fix The Road</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>卡牌构建式类 Rogue,牌组构建,轻度 Rogue,策略,程序生成</t>
+          <t>困难,解谜,休闲,独立,模拟</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5461,41 +5466,36 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2023年01月06日</t>
+          <t>2022年06月11日</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>你的房东在敲门。你还剩下一枚硬币，你把它投入了老虎机…然后…中了头奖！今晚，房东很幸运！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1404850/extras/slots_schinese.gif?t=1689262650" /&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1383250/extras/GIF1.gif?t=1678377909" /&gt;&lt;br&gt;&lt;br&gt;Please Fix The Road是一款色彩鲜艳、简约、悠闲的休闲益智游戏，而你显然是在修路！在每个关卡中，你都有一套预定的、有限的工具，可以帮助你把所有的汽车、船只或火车从A点运到B点。在每个关卡中，你都有一套预定的、有限的工具，可以帮助你把所有的汽车、船只、动物或火车从A点运到B点，当然，提到的动物包括小猫、狗和骆驼！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1383250/extras/GIF2.gif?t=1678377909" /&gt;&lt;br&gt;&lt;br&gt;你能够同时操纵多块瓷砖。你可以创造、破坏、旋转、复制、交换、提升、降低、推动或移动道路、河流、路径或铁轨的不同部分。该游戏将许多其他逻辑游戏的元素结合到一个很好的极简主义体验中。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1383250/extras/GIF3.gif?t=1678377909" /&gt;&lt;br&gt;&lt;br&gt;你的修路不一定要漂亮，只要能完成任务就可以了！所以请修理道路，享受乐趣！你的妈妈也会喜欢这个游戏的！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1383250/extras/GIF4.gif?t=1678377909" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>1406850</t>
+          <t>1404850</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>The Legend of Tianding</t>
+          <t>Luck be a Landlord</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>廖添丁：绝代凶贼之末日</t>
+          <t>幸运房东</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>冒险,控制器,角色扮演,战斗,武术</t>
+          <t>卡牌构建式类 Rogue,牌组构建,轻度 Rogue,策略,程序生成</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5505,39 +5505,39 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2021年11月02日</t>
+          <t>2023年01月06日</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1406850/extras/CHS_台湾传奇廖添丁.gif?t=1694054483" /&gt;&lt;br&gt;在游戏中，你将扮演廖添丁，一个让日本殖民政府咬牙切齿的传奇义贼。廖添丁喜欢劫富济贫，惩恶扬善。他不畏强权，坚持为宝岛百姓伸张正义。游戏中的剧情参考了众多关于廖添丁的野史杂谈，配合着一些实地取证，制作出了扣人心弦的游戏剧情，希望带给玩家最精彩的廖添丁传奇。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1406850/extras/CHS_神影无踪展武艺.gif?t=1694054483" /&gt;&lt;br&gt;廖添丁凭借着二尺短刀和武术腰带，以高超的武艺对抗强权恶霸。玩家可以操控廖添丁使用多段连击，并能通过击败敌人获取对方的武器，以打出多种不同的组合功夫。高超的轻功和强力的钩索帮助玩家在游戏中飞檐走壁，鱼跃穿梭，在各种精心设计的关卡中勇往直前。 &lt;br&gt;游戏中还有各种极具特色的Boss等待着你去挑战，如美丽却致命的女忍者，贪婪且残忍的胖商人，还有能熟练使用各种武器的冷血军官，每一个Boss都会用不同的能力与凶残的手段来挑动玩家的运动神经！ &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1406850/extras/CHS_怀古情.gif?t=1694054483" /&gt;&lt;br&gt;游戏中以复古武侠漫画的美术风格，呈现二十世纪初的宝岛风貌。通过扮演廖添丁，玩家可以尽情探索繁华灿烂的大稻埕地区，乘坐当时最先进的高速列车，探访气氛诡谲的阴暗下水道。每个场景都值得让人游历再三。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1406850/extras/CHS_神明保庇香火袋.gif?t=1694054483" /&gt;&lt;br&gt;装备不同的符咒以获取不同的能力！这些符咒有的可以让廖添丁拥有更多的生命值，有的可以加快内力恢复速度，还有的可以减少所受到的伤害。玩家可以自由搭配符咒，打造出最强的时代英雄！  &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1406850/extras/CHS_传统桌游四色牌.gif?t=1694054483" /&gt;&lt;br&gt;除了爽快的动作格斗之外，你也可以在庙口大树下，与街坊邻居玩一局闽南传统的棋牌游戏，放松一下心情。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1406850/extras/CHS_跻身排名榜单前列.gif?t=1694054483" /&gt;&lt;br&gt;与朋友们在线上排行榜上一较高下。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1406850/extras/CHS_畅快体验Boss速通玩法.gif?t=1694054483" /&gt;&lt;br&gt;在 Boss Rush 模式中连续挑战廖添丁的对手们，测试自己的实力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1406850/extras/CHS_现身世纪交汇的台北街头4K_120FPS.gif?t=1694054483" /&gt;&lt;br&gt;4K 画质搭配 120FPS 流畅画面，让你体验二十世纪初的美丽台北城与畅快的打斗效果。 &lt;br&gt;&lt;br&gt;官方QQ群：693276975</t>
+          <t>你的房东在敲门。你还剩下一枚硬币，你把它投入了老虎机…然后…中了头奖！今晚，房东很幸运！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1404850/extras/slots_schinese.gif?t=1689262650" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>1432860</t>
+          <t>1406850</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Sun Haven</t>
+          <t>The Legend of Tianding</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>太阳避难所</t>
+          <t>廖添丁：绝代凶贼之末日</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>农场模拟,像素图形,多人,角色扮演,生活模拟</t>
+          <t>冒险,控制器,角色扮演,战斗,武术</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5547,39 +5547,39 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2023年03月11日</t>
+          <t>2021年11月02日</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1432860/extras/RNPC_Portrait_Banner__2_.png?t=1688001660" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt; 通往新生活的火车!&lt;/strong&gt;&lt;/h2&gt;你刚刚抵达太阳港......却发现它已经被黑暗的魔法击中了！你只有少量的钱和一个人！手中只有少量的钱和一些生锈的工具，如何建立你梦想中的农场就看你了。种植作物，饲养牲畜，制作物品，开采矿石，击败老板，捕鱼，烹饪食谱，装饰你的农场，完成任务，坠入爱河，并探索这个中世纪小镇的森林之外的东西。你能成为太阳港的英雄，在为时已晚之前阻止黑暗吗？&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1432860/extras/GrowYourFarm.gif?t=1688001660" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;照顾季节性的农作物和花卉，或专注于饲养牲畜和其他幻想的动物&lt;br&gt;&lt;/li&gt;&lt;li&gt;分享一个农场，与多达8个朋友在线游戏&lt;br&gt;&lt;/li&gt;&lt;li&gt;利用超过40个独特的工艺站，进行冶炼、烘焙、馈赠，甚至是珠宝制作。&lt;br&gt;&lt;/li&gt;&lt;li&gt;用大量的家具物品和主题装饰品来装饰你的房子和农场区。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1432860/extras/Explore.gif?t=1688001660" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;在3个不同的城市旅行并建立一个农场： 太阳港、内尔瓦里, 和 威瑟门。&lt;br&gt;&lt;/li&gt;&lt;li&gt;与15位候选者中的任何一位（或全部）进行恋爱。&lt;br&gt;&lt;/li&gt;&lt;li&gt;使用剑、弓弩或魔法与怪物搏斗。&lt;br&gt;&lt;/li&gt;&lt;li&gt;在收集资源和宝石的过程中，解锁矿区的数十个楼层。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1432860/extras/Grow_The_Community.gif?t=1688001660" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;通过不同的魔法种族、起始职业和数以千计的服装选择来定制自己。&lt;br&gt;&lt;/li&gt;&lt;li&gt;参加季节性的节日活动，与镇民一起庆祝节日&lt;br&gt;&lt;/li&gt;&lt;li&gt;通过捐赠数百件物品给收藏包，完成太阳港博物馆的建设。&lt;br&gt;&lt;/li&gt;&lt;li&gt;在高度可定制的技能树中管理自己的进展情况&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1406850/extras/CHS_台湾传奇廖添丁.gif?t=1694054483" /&gt;&lt;br&gt;在游戏中，你将扮演廖添丁，一个让日本殖民政府咬牙切齿的传奇义贼。廖添丁喜欢劫富济贫，惩恶扬善。他不畏强权，坚持为宝岛百姓伸张正义。游戏中的剧情参考了众多关于廖添丁的野史杂谈，配合着一些实地取证，制作出了扣人心弦的游戏剧情，希望带给玩家最精彩的廖添丁传奇。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1406850/extras/CHS_神影无踪展武艺.gif?t=1694054483" /&gt;&lt;br&gt;廖添丁凭借着二尺短刀和武术腰带，以高超的武艺对抗强权恶霸。玩家可以操控廖添丁使用多段连击，并能通过击败敌人获取对方的武器，以打出多种不同的组合功夫。高超的轻功和强力的钩索帮助玩家在游戏中飞檐走壁，鱼跃穿梭，在各种精心设计的关卡中勇往直前。 &lt;br&gt;游戏中还有各种极具特色的Boss等待着你去挑战，如美丽却致命的女忍者，贪婪且残忍的胖商人，还有能熟练使用各种武器的冷血军官，每一个Boss都会用不同的能力与凶残的手段来挑动玩家的运动神经！ &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1406850/extras/CHS_怀古情.gif?t=1694054483" /&gt;&lt;br&gt;游戏中以复古武侠漫画的美术风格，呈现二十世纪初的宝岛风貌。通过扮演廖添丁，玩家可以尽情探索繁华灿烂的大稻埕地区，乘坐当时最先进的高速列车，探访气氛诡谲的阴暗下水道。每个场景都值得让人游历再三。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1406850/extras/CHS_神明保庇香火袋.gif?t=1694054483" /&gt;&lt;br&gt;装备不同的符咒以获取不同的能力！这些符咒有的可以让廖添丁拥有更多的生命值，有的可以加快内力恢复速度，还有的可以减少所受到的伤害。玩家可以自由搭配符咒，打造出最强的时代英雄！  &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1406850/extras/CHS_传统桌游四色牌.gif?t=1694054483" /&gt;&lt;br&gt;除了爽快的动作格斗之外，你也可以在庙口大树下，与街坊邻居玩一局闽南传统的棋牌游戏，放松一下心情。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1406850/extras/CHS_跻身排名榜单前列.gif?t=1694054483" /&gt;&lt;br&gt;与朋友们在线上排行榜上一较高下。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1406850/extras/CHS_畅快体验Boss速通玩法.gif?t=1694054483" /&gt;&lt;br&gt;在 Boss Rush 模式中连续挑战廖添丁的对手们，测试自己的实力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1406850/extras/CHS_现身世纪交汇的台北街头4K_120FPS.gif?t=1694054483" /&gt;&lt;br&gt;4K 画质搭配 120FPS 流畅画面，让你体验二十世纪初的美丽台北城与畅快的打斗效果。 &lt;br&gt;&lt;br&gt;官方QQ群：693276975</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>1435670</t>
+          <t>1432860</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Song of Farca</t>
+          <t>Sun Haven</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>罪城骇客</t>
+          <t>太阳避难所</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>选择取向,剧情丰富,模拟,反乌托邦,氛围</t>
+          <t>农场模拟,像素图形,多人,角色扮演,生活模拟</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5589,57 +5589,99 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2021年07月22日</t>
+          <t>2023年03月11日</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1435670/extras/CHINESE1_ДОБРО-ПОЖАЛОВАТЬ-В-БУДУЩЕЕ.gif?t=1685702166" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1435670/extras/4.gif?t=1685702166" /&gt;&lt;br&gt;&lt;br&gt;阴谋、公司、谎言、犯罪结构、令人恐惧的未来、不可逆转的后果。欢迎来到黑暗且残酷的黑镜式小说 - 《罪城骇客》。&lt;br&gt;&lt;br&gt;你是伊莎贝拉·宋 ，一名私家侦探和黑客，你必须调查一系列的犯罪。你能只用小工具、无人机大军和智慧将其揭开吗？&lt;br&gt;&lt;br&gt;随着调查的进行，赌注会增加，不同的情节会交织在一个故事中，决议会变得越来越困难。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1435670/extras/apng_3.png?t=1685702166" /&gt;&lt;h2 class="bb_tag"&gt;通过任何手段获取信息：&lt;/h2&gt;利用暗网搜索和人工智能，入侵无人机和研究监控录像，勒索或审讯。&lt;h2 class="bb_tag"&gt;建立线索云并分析证据：&lt;/h2&gt;你会责备最可疑的人物还是深入调查？&lt;h2 class="bb_tag"&gt;得出正确的结论才能得到真相：&lt;/h2&gt;受害者可能成为罪犯，而嫌疑人只是犯罪链中的一个环节。&lt;h2 class="bb_tag"&gt;感受错误决定的后果：&lt;/h2&gt;你准备好为拯救挚爱之人而亲自犯罪了吗？&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1435670/extras/гиф_2.gif?t=1685702166" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1435670/extras/CHINESE4_ГОТОВЫ-ЛИ-ВЫ-К-ПОСЛЕДСТВИЯМ.gif?t=1685702166" /&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1432860/extras/RNPC_Portrait_Banner__2_.png?t=1688001660" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt; 通往新生活的火车!&lt;/strong&gt;&lt;/h2&gt;你刚刚抵达太阳港......却发现它已经被黑暗的魔法击中了！你只有少量的钱和一个人！手中只有少量的钱和一些生锈的工具，如何建立你梦想中的农场就看你了。种植作物，饲养牲畜，制作物品，开采矿石，击败老板，捕鱼，烹饪食谱，装饰你的农场，完成任务，坠入爱河，并探索这个中世纪小镇的森林之外的东西。你能成为太阳港的英雄，在为时已晚之前阻止黑暗吗？&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1432860/extras/GrowYourFarm.gif?t=1688001660" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;照顾季节性的农作物和花卉，或专注于饲养牲畜和其他幻想的动物&lt;br&gt;&lt;/li&gt;&lt;li&gt;分享一个农场，与多达8个朋友在线游戏&lt;br&gt;&lt;/li&gt;&lt;li&gt;利用超过40个独特的工艺站，进行冶炼、烘焙、馈赠，甚至是珠宝制作。&lt;br&gt;&lt;/li&gt;&lt;li&gt;用大量的家具物品和主题装饰品来装饰你的房子和农场区。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1432860/extras/Explore.gif?t=1688001660" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;在3个不同的城市旅行并建立一个农场： 太阳港、内尔瓦里, 和 威瑟门。&lt;br&gt;&lt;/li&gt;&lt;li&gt;与15位候选者中的任何一位（或全部）进行恋爱。&lt;br&gt;&lt;/li&gt;&lt;li&gt;使用剑、弓弩或魔法与怪物搏斗。&lt;br&gt;&lt;/li&gt;&lt;li&gt;在收集资源和宝石的过程中，解锁矿区的数十个楼层。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1432860/extras/Grow_The_Community.gif?t=1688001660" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;通过不同的魔法种族、起始职业和数以千计的服装选择来定制自己。&lt;br&gt;&lt;/li&gt;&lt;li&gt;参加季节性的节日活动，与镇民一起庆祝节日&lt;br&gt;&lt;/li&gt;&lt;li&gt;通过捐赠数百件物品给收藏包，完成太阳港博物馆的建设。&lt;br&gt;&lt;/li&gt;&lt;li&gt;在高度可定制的技能树中管理自己的进展情况&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
+          <t>1435670</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Song of Farca</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>罪城骇客</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>选择取向,剧情丰富,模拟,反乌托邦,氛围</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>2021年07月22日</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1435670/extras/CHINESE1_ДОБРО-ПОЖАЛОВАТЬ-В-БУДУЩЕЕ.gif?t=1685702166" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1435670/extras/4.gif?t=1685702166" /&gt;&lt;br&gt;&lt;br&gt;阴谋、公司、谎言、犯罪结构、令人恐惧的未来、不可逆转的后果。欢迎来到黑暗且残酷的黑镜式小说 - 《罪城骇客》。&lt;br&gt;&lt;br&gt;你是伊莎贝拉·宋 ，一名私家侦探和黑客，你必须调查一系列的犯罪。你能只用小工具、无人机大军和智慧将其揭开吗？&lt;br&gt;&lt;br&gt;随着调查的进行，赌注会增加，不同的情节会交织在一个故事中，决议会变得越来越困难。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1435670/extras/apng_3.png?t=1685702166" /&gt;&lt;h2 class="bb_tag"&gt;通过任何手段获取信息：&lt;/h2&gt;利用暗网搜索和人工智能，入侵无人机和研究监控录像，勒索或审讯。&lt;h2 class="bb_tag"&gt;建立线索云并分析证据：&lt;/h2&gt;你会责备最可疑的人物还是深入调查？&lt;h2 class="bb_tag"&gt;得出正确的结论才能得到真相：&lt;/h2&gt;受害者可能成为罪犯，而嫌疑人只是犯罪链中的一个环节。&lt;h2 class="bb_tag"&gt;感受错误决定的后果：&lt;/h2&gt;你准备好为拯救挚爱之人而亲自犯罪了吗？&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1435670/extras/гиф_2.gif?t=1685702166" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1435670/extras/CHINESE4_ГОТОВЫ-ЛИ-ВЫ-К-ПОСЛЕДСТВИЯМ.gif?t=1685702166" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
           <t>1448260</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>下一站江湖Ⅰ</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>下一站江湖Ⅰ</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>开放世界,策略,角色扮演,动作角色扮演,单人</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
         <is>
           <t>6.6</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>2021年04月02日</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>《下一站江湖Ⅰ》，纯正的武侠沙盒单机游戏！（目前已连续发布4个大型DLC：凤起西南、洛城风声、荡寇风云、惊风苍隐录）&lt;br /&gt;
 集探索挑战、武侠冒险、武学收集、队友养成、门派建设、身份玩法于一身，圆你一个独属于你自己的仗剑江湖武侠梦。&lt;br /&gt;
@@ -5672,67 +5714,25 @@
         </is>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>1448440</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Wo Long: Fallen Dynasty</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>卧龙：苍天陨落</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>动作,类魂系列,角色扮演,困难,动作角色扮演</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>2023年03月03日</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>本作为&lt;a href="https://store.steampowered.com/franchise/KOEITECMO/list/76629/" target="_blank" rel="noreferrer"  &gt;《仁王》&lt;/a&gt;系列开发团队Team NINJA倾情打造的暗黑三国诛死游戏。&lt;br&gt;&lt;br&gt;以东汉末年的中原大地为舞台，玩家将化身无名义勇兵，&lt;br&gt;运用融合了中华武术精髓的剑戟动作，踏破妖魔横行之乱世。&lt;br&gt;此外，本作还设计了崭新的战略要素，帮助玩家克服逆境。&lt;br&gt;&lt;br&gt;【１】攻防一体的中华武术动作 &lt;br&gt;行云流水之剑戟动作，尽显中华武术之精髓；&lt;br&gt;化解攻击于千钧一发，体验战斗于生死一瞬。&lt;br&gt;&lt;br&gt;【２】三国乱世之下的黑暗奇幻题材&lt;br&gt;化身无名义勇兵，踏破妖魔横行之乱世。&lt;br&gt;结合“三国”与黑暗奇幻元素的原创故事即将展开。&lt;br&gt;&lt;br&gt;【３】挑战逆境的全新战略 &lt;br&gt;打倒强敌来激励士气，唤醒潜藏体内的力量。&lt;br&gt;通过以“逆境”为主题的崭新攻略方式，享受攻克难关的成就感。</t>
-        </is>
-      </c>
-    </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>1449070</t>
+          <t>1448440</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Journey to the West</t>
+          <t>Wo Long: Fallen Dynasty</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>神州志西游</t>
+          <t>卧龙：苍天陨落</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>卡牌战斗,角色扮演,轻度 Rogue,类 Rogue,2D</t>
+          <t>动作,类魂系列,角色扮演,困难,动作角色扮演</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5742,39 +5742,39 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2023年06月29日</t>
+          <t>2023年03月03日</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>《神州志西游》是一款&lt;i&gt;Rogue-like&lt;/i&gt;&lt;i&gt;卡牌策略&lt;/i&gt;&lt;i&gt;游戏&lt;/i&gt;。你将扮演西行的角色之一，组建一支精英团队，构建强大套牌，获取神秘法宝，去战胜一路上遇到的妖魔鬼怪。在旅途中，你会无可避免的遇到突发事件，一念&lt;strong&gt;成佛&lt;/strong&gt;，一念&lt;strong&gt;成魔&lt;/strong&gt;。&lt;br&gt;&lt;br&gt;QQ一群&lt;strong&gt;&lt;u&gt;1003867153&lt;/u&gt;&lt;/strong&gt;（已满），二群&lt;strong&gt;&lt;i&gt;570090261&lt;/i&gt;&lt;/strong&gt;！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/Fishpond_20220311111945.jpg?t=1690833798" /&gt;&lt;h2 class="bb_tag"&gt;游戏特色概述&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 5个英雄角色&lt;br&gt;&lt;/li&gt;&lt;li&gt;20+可招募同伴&lt;br&gt;&lt;/li&gt;&lt;li&gt;120+个独特的NPC&lt;br&gt;&lt;/li&gt;&lt;li&gt;500+张卡牌，300+件法宝和消耗品&lt;br&gt;&lt;/li&gt;&lt;li&gt;4个冒险章节，共60个不同结局&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;耳熟能详的传奇英雄&lt;/h2&gt;&lt;br&gt;每次冒险，你将扮演五位传奇英雄之一，带领最多5人的团队。每个英雄都拥有其独特的能力、75张卡池和特别的故事情节：&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;悟空手持金箍棒，能释放毁灭性的范围攻击，利用七十二变学习任何NPC的技能，能够操纵火焰使敌人燃烧，还可以灵活地闪避攻击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-七十二变-简中.gif?t=1690833798" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;玄奘具有独特的能力，能在敌人身上施加“善”或“恶”的状态，使其转化为自己的队友并创建新的团队，或者释放强大的攻击并创建魔法屏障来保护自己。他还可以利用诅咒卡牌，形成特殊的策略。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-唐僧-简中.gif?t=1690833798" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;白龙他的孪生妹妹龙女的灵魂同行，有着操纵水元素和使用剑阵触发强效增益的能力。他会储存未使用的能量作为灵力，并在需要时进行利用。龙女还有学习同伴卡牌的能力，增强他们的联合力量。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-白龙-简中.gif?t=1690833798" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;八戒可以通过吞噬消耗品获得饥饿值和基础状态提升，利用三十六变能力从敌人身上学习能力，以及在战斗中吸收生命值和最大生命值。另外，当八戒完成“八戒”时，可以最大化自身能力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-八戒-简中.gif?t=1690833798" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;沙僧是一个多才多艺的人物，可以根据敌人的位置增加伤害，并召唤五行妖精（金、木、水、火、土）进入敌人团队。沙僧可以围绕每个妖精的独特能力建立策略，并对敌人发动致命攻击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-沙僧-简中.gif?t=1690833798" /&gt;&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;独特的团队战斗体验&lt;/h2&gt;&lt;br&gt;在这艰难的西行之旅中，你不需要孤军奋战——通过从20多个同伴中招募并召唤NPC作为队友，组建你自己的全明星小队。同伴是拥有独特能力和2-4张卡牌的永久队友，他们将一直跟随你，直到他们死亡或被解雇。而NPC是临时队友，在每场战斗结束时会离开或死亡。&lt;br&gt;&lt;br&gt;游戏中有许多召唤或转换NPC的方法：你可以使用像爱情药水这样的消耗品来吸引NPC到你的身边，或使用净化瓶来净化邪恶的NPC。另外，你还可以使用中立卡牌“人种袋”来捕捉虚弱的NPC。值得一提的是，玄奘是创建NPC队伍的专家。你必须明智地选择你的队友，因为他们在这艰难的旅程中扮演着至关重要的角色。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-魅惑-简中.gif?t=1690833798" /&gt;&lt;h2 class="bb_tag"&gt;沉浸式的西游冒险故事&lt;/h2&gt;&lt;br&gt;每个英雄都有许多独特的故事情节，灵感来自于《西游记》的传说。这些故事情节根据你的选择和策略提供不同的对手、事件和任务。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/视频3.gif?t=1690833798" /&gt;&lt;br&gt;&lt;br&gt;随着西行旅程不断深入，你将遇到超过120个独特的NPC，每个NPC都有自己的技能和背景故事。通过相互关联的事件和选择，每个决策都会带你走向不同的路径，通向天庭、灵山或心魔幻境进行最终的对决。你所采取的每一步都至关重要，决定着世界的命运 - 这是一个真正沉浸式的冒险，从开始到结束都能让你全神贯注。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/视频2.gif?t=1690833798" /&gt;&lt;br&gt;&lt;br&gt;敢问路在何方？路在脚下！这便开始惊心动魄的西游之路吧！</t>
+          <t>本作为&lt;a href="https://store.steampowered.com/franchise/KOEITECMO/list/76629/" target="_blank" rel="noreferrer"  &gt;《仁王》&lt;/a&gt;系列开发团队Team NINJA倾情打造的暗黑三国诛死游戏。&lt;br&gt;&lt;br&gt;以东汉末年的中原大地为舞台，玩家将化身无名义勇兵，&lt;br&gt;运用融合了中华武术精髓的剑戟动作，踏破妖魔横行之乱世。&lt;br&gt;此外，本作还设计了崭新的战略要素，帮助玩家克服逆境。&lt;br&gt;&lt;br&gt;【１】攻防一体的中华武术动作 &lt;br&gt;行云流水之剑戟动作，尽显中华武术之精髓；&lt;br&gt;化解攻击于千钧一发，体验战斗于生死一瞬。&lt;br&gt;&lt;br&gt;【２】三国乱世之下的黑暗奇幻题材&lt;br&gt;化身无名义勇兵，踏破妖魔横行之乱世。&lt;br&gt;结合“三国”与黑暗奇幻元素的原创故事即将展开。&lt;br&gt;&lt;br&gt;【３】挑战逆境的全新战略 &lt;br&gt;打倒强敌来激励士气，唤醒潜藏体内的力量。&lt;br&gt;通过以“逆境”为主题的崭新攻略方式，享受攻克难关的成就感。</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>1449560</t>
+          <t>1449070</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Metro Exodus Enhanced Edition</t>
+          <t>Journey to the West</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>地铁：离去 完全版</t>
+          <t>神州志西游</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>后末日,第一人称射击,开放世界,剧情丰富,单人</t>
+          <t>卡牌战斗,角色扮演,轻度 Rogue,类 Rogue,2D</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5784,39 +5784,39 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2019 年 2 月 14 日</t>
+          <t>2023年06月29日</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>《Metro Exodus》是4A Games出品的第一人称射击游戏，具有史诗级的剧情，能让您在这一前所未有的沉浸式游戏世界中体验致命的战斗与潜行，感受探索与生存的恐怖。&lt;br&gt;&lt;br&gt;在广袤无际的关卡中探索俄罗斯的荒野，历经为期一年的故事线，度过春夏秋天，直至严酷的核冬天。&lt;br&gt;&lt;br&gt;《Metro Exodus》改编自Dmitry Glukhovsky的小说，会在至今最宏大的地铁冒险中继续讲述阿尔乔姆的故事。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;踏上无与伦比的旅途——登上经过多重改造的蒸汽火车“曙光号”，与数名幸存者一起，在东方的土地上探寻新的生活。&lt;br&gt;&lt;br/&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;体验沙盒式生存——动人心弦的故事，融合了经典地铁操作与全新的无边际关卡。&lt;br&gt;&lt;br/&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;美丽但危机四伏的世界——探索后启示录的俄罗斯荒野，炫目的日夜循环和动态天气让自然环境变得栩栩如生。&lt;br&gt;&lt;br/&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;致命的战斗与潜行——在荒野中收集材料，实地改装定制武器，与敌对的人类和变种怪展开紧张激烈的搏杀。&lt;br&gt;&lt;br/&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;您的选择会决定同伴的命运——并非所有同伴都能在旅途中幸存，您的决定会在动人的故事中产生深远的影响，也因此带来了极大的重复可玩性。&lt;br&gt;&lt;br/&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;极致氛围与沉浸感——黑暗中闪动的烛火、结霜面具后的喘息、夜风中传来的变种怪嘶吼——没有其他游戏能拥有地铁一般的沉浸式恐怖氛围……&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;黄金版：Metro Exodus游戏本体+季票（可游玩全部DLC）&lt;/strong&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/li&gt;&lt;/ul&gt; &lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;</t>
+          <t>《神州志西游》是一款&lt;i&gt;Rogue-like&lt;/i&gt;&lt;i&gt;卡牌策略&lt;/i&gt;&lt;i&gt;游戏&lt;/i&gt;。你将扮演西行的角色之一，组建一支精英团队，构建强大套牌，获取神秘法宝，去战胜一路上遇到的妖魔鬼怪。在旅途中，你会无可避免的遇到突发事件，一念&lt;strong&gt;成佛&lt;/strong&gt;，一念&lt;strong&gt;成魔&lt;/strong&gt;。&lt;br&gt;&lt;br&gt;QQ一群&lt;strong&gt;&lt;u&gt;1003867153&lt;/u&gt;&lt;/strong&gt;（已满），二群&lt;strong&gt;&lt;i&gt;570090261&lt;/i&gt;&lt;/strong&gt;！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/Fishpond_20220311111945.jpg?t=1690833798" /&gt;&lt;h2 class="bb_tag"&gt;游戏特色概述&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 5个英雄角色&lt;br&gt;&lt;/li&gt;&lt;li&gt;20+可招募同伴&lt;br&gt;&lt;/li&gt;&lt;li&gt;120+个独特的NPC&lt;br&gt;&lt;/li&gt;&lt;li&gt;500+张卡牌，300+件法宝和消耗品&lt;br&gt;&lt;/li&gt;&lt;li&gt;4个冒险章节，共60个不同结局&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;耳熟能详的传奇英雄&lt;/h2&gt;&lt;br&gt;每次冒险，你将扮演五位传奇英雄之一，带领最多5人的团队。每个英雄都拥有其独特的能力、75张卡池和特别的故事情节：&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;悟空手持金箍棒，能释放毁灭性的范围攻击，利用七十二变学习任何NPC的技能，能够操纵火焰使敌人燃烧，还可以灵活地闪避攻击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-七十二变-简中.gif?t=1690833798" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;玄奘具有独特的能力，能在敌人身上施加“善”或“恶”的状态，使其转化为自己的队友并创建新的团队，或者释放强大的攻击并创建魔法屏障来保护自己。他还可以利用诅咒卡牌，形成特殊的策略。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-唐僧-简中.gif?t=1690833798" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;白龙他的孪生妹妹龙女的灵魂同行，有着操纵水元素和使用剑阵触发强效增益的能力。他会储存未使用的能量作为灵力，并在需要时进行利用。龙女还有学习同伴卡牌的能力，增强他们的联合力量。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-白龙-简中.gif?t=1690833798" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;八戒可以通过吞噬消耗品获得饥饿值和基础状态提升，利用三十六变能力从敌人身上学习能力，以及在战斗中吸收生命值和最大生命值。另外，当八戒完成“八戒”时，可以最大化自身能力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-八戒-简中.gif?t=1690833798" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;沙僧是一个多才多艺的人物，可以根据敌人的位置增加伤害，并召唤五行妖精（金、木、水、火、土）进入敌人团队。沙僧可以围绕每个妖精的独特能力建立策略，并对敌人发动致命攻击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-沙僧-简中.gif?t=1690833798" /&gt;&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;独特的团队战斗体验&lt;/h2&gt;&lt;br&gt;在这艰难的西行之旅中，你不需要孤军奋战——通过从20多个同伴中招募并召唤NPC作为队友，组建你自己的全明星小队。同伴是拥有独特能力和2-4张卡牌的永久队友，他们将一直跟随你，直到他们死亡或被解雇。而NPC是临时队友，在每场战斗结束时会离开或死亡。&lt;br&gt;&lt;br&gt;游戏中有许多召唤或转换NPC的方法：你可以使用像爱情药水这样的消耗品来吸引NPC到你的身边，或使用净化瓶来净化邪恶的NPC。另外，你还可以使用中立卡牌“人种袋”来捕捉虚弱的NPC。值得一提的是，玄奘是创建NPC队伍的专家。你必须明智地选择你的队友，因为他们在这艰难的旅程中扮演着至关重要的角色。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-魅惑-简中.gif?t=1690833798" /&gt;&lt;h2 class="bb_tag"&gt;沉浸式的西游冒险故事&lt;/h2&gt;&lt;br&gt;每个英雄都有许多独特的故事情节，灵感来自于《西游记》的传说。这些故事情节根据你的选择和策略提供不同的对手、事件和任务。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/视频3.gif?t=1690833798" /&gt;&lt;br&gt;&lt;br&gt;随着西行旅程不断深入，你将遇到超过120个独特的NPC，每个NPC都有自己的技能和背景故事。通过相互关联的事件和选择，每个决策都会带你走向不同的路径，通向天庭、灵山或心魔幻境进行最终的对决。你所采取的每一步都至关重要，决定着世界的命运 - 这是一个真正沉浸式的冒险，从开始到结束都能让你全神贯注。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/视频2.gif?t=1690833798" /&gt;&lt;br&gt;&lt;br&gt;敢问路在何方？路在脚下！这便开始惊心动魄的西游之路吧！</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>1450900</t>
+          <t>1449560</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Desynced</t>
+          <t>Metro Exodus Enhanced Edition</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Desynced</t>
+          <t>地铁：离去 完全版</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>策略,自动化,基地建设,即时战略,科幻</t>
+          <t>后末日,第一人称射击,开放世界,剧情丰富,单人</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5824,36 +5824,41 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2023年08月15日</t>
+          <t>2019 年 2 月 14 日</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1450900/extras/Header.gif?t=1692382834" /&gt;&lt;br&gt;在飞船损坏后，您必须派出机器人降落到一颗未知的星球，建造维修飞船所需的设施。在飞船上的AI伊莱恩的引导下，您将开始建造各种装置，实现自动化生产，学会在这里生存并一步步变得强大起来。而这颗神秘的星球上还蕴藏着更多秘密等待您来发掘！&lt;br&gt;&lt;br&gt;Desynced是一款没有传送带的自动化游戏。只需要将机器人连接到物流网络，它们就会自动执行订单，在基地周围运送材料。您可以设置开采操作和工厂；扩大物流网络，以覆盖更多区域；管理发电和电力储存，等等。当需要定制化更高的解决方案时，您还可以使用自定义参数来调整各类设施和机器人的行为，或者通过拖放脚本实现最高级别的控制。&lt;h2 class="bb_tag"&gt;⚙️自动化&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1450900/extras/Fabricators.gif?t=1692382834" /&gt;&lt;br&gt;精妙的资源管理：掌握资源管理、生产链及自动化技术，保证基地的生存和繁荣发展。要想在这个充满敌意的世界中保持微妙的平衡，您的每项决策都至关重要。&lt;h2 class="bb_tag"&gt;🤖 自定义&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1450900/extras/Customize.gif?t=1692382834" /&gt;&lt;br&gt;完全自定义的装置：Desynced使用机器人来代替传统的传送带。您可以为它们配备合适的工具，或者通过拖放编辑器来编程高级行为。您还可以根据自己的游戏风格定制装置，以应对未来的诸多挑战。&lt;h2 class="bb_tag"&gt;🔬 研究&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1450900/extras/__Daynight.gif?t=1692382834" /&gt;&lt;br&gt;丰富的科技树系统：探索更深层次的研究系统，拓展技术能力。解锁全新可能，开发先进装置和结构，并在探索这个迷人世界的过程中战胜敌人。&lt;h2 class="bb_tag"&gt; 🌟更多精彩内容！🌟 &lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1450900/extras/ezgif.com-optimize.gif?t=1692382834" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;🔧通过模组支持及Steam创意工坊整合进行量身定制&lt;br&gt;&lt;/li&gt;&lt;li&gt;👥与好友一起加入阵营，或在多人游戏中挑战他们&lt;br&gt;&lt;/li&gt;&lt;li&gt;🎮 在抢先体验期间提前体验全新内容&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>《Metro Exodus》是4A Games出品的第一人称射击游戏，具有史诗级的剧情，能让您在这一前所未有的沉浸式游戏世界中体验致命的战斗与潜行，感受探索与生存的恐怖。&lt;br&gt;&lt;br&gt;在广袤无际的关卡中探索俄罗斯的荒野，历经为期一年的故事线，度过春夏秋天，直至严酷的核冬天。&lt;br&gt;&lt;br&gt;《Metro Exodus》改编自Dmitry Glukhovsky的小说，会在至今最宏大的地铁冒险中继续讲述阿尔乔姆的故事。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;踏上无与伦比的旅途——登上经过多重改造的蒸汽火车“曙光号”，与数名幸存者一起，在东方的土地上探寻新的生活。&lt;br&gt;&lt;br/&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;体验沙盒式生存——动人心弦的故事，融合了经典地铁操作与全新的无边际关卡。&lt;br&gt;&lt;br/&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;美丽但危机四伏的世界——探索后启示录的俄罗斯荒野，炫目的日夜循环和动态天气让自然环境变得栩栩如生。&lt;br&gt;&lt;br/&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;致命的战斗与潜行——在荒野中收集材料，实地改装定制武器，与敌对的人类和变种怪展开紧张激烈的搏杀。&lt;br&gt;&lt;br/&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;您的选择会决定同伴的命运——并非所有同伴都能在旅途中幸存，您的决定会在动人的故事中产生深远的影响，也因此带来了极大的重复可玩性。&lt;br&gt;&lt;br/&gt;&lt;/br&gt;&lt;/li&gt;&lt;li&gt;极致氛围与沉浸感——黑暗中闪动的烛火、结霜面具后的喘息、夜风中传来的变种怪嘶吼——没有其他游戏能拥有地铁一般的沉浸式恐怖氛围……&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;黄金版：Metro Exodus游戏本体+季票（可游玩全部DLC）&lt;/strong&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/li&gt;&lt;/ul&gt; &lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>1452070</t>
+          <t>1450900</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Lone Ruin</t>
+          <t>Desynced</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>LONE RUIN</t>
+          <t>Desynced</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>动作类 Rogue,街机,竞技场射击,弹幕射击,双摇杆射击</t>
+          <t>策略,自动化,基地建设,即时战略,科幻</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5863,34 +5868,34 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2023年01月13日</t>
+          <t>2023年08月15日</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/2UnEbEq" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1452070/extras/Discord-Title.jpg?t=1684443578" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;《Lone Ruin》是一款注重可玩性的法术类肉鸽风格双摇杆射击游戏。玩家扮演一名探险家，在一个废弃的魔法城市中边冒险边寻找神秘的古老力量，这个城市建在远古法师用来为自己提供能量和改造的魔法源头之上。探索、不断深入潜行，与各式怪异生物搏斗，利用独有的魔法技能，最终到达《Lone Ruin》的中心。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1452070/extras/LR-A_city_corrupted.png?t=1684443578" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1452070/extras/LR-gif2.gif?t=1684443578" /&gt;&lt;br&gt;一座被魔法笼罩的古城。曾经繁荣的文明以及与周围魔法和谐相处的居民，早已被曾经支撑它们的魔法逼疯，扭曲得面目全非。是什么腐蚀了这座城市？一千年后，由玩家扮演的天才魔法探险家，听了这些传说并来到这个充满敌意的废墟，试图寻找这一古老的力量，并最终清除这座城市千年来积累的腐朽。答案可能就在《Lone Ruin》的中心……只要你能到达那里，就能找到它。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1452070/extras/LR-Outlive_the_ruins.png?t=1684443578" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1452070/extras/LR-gif4.gif?t=1684443578" /&gt;&lt;br&gt;…— 在几个截然不同、充满地狱气息的区域中，与众多敌人和多个老怪搏斗，浴血奋战杀出一条路。不要让那些可怕的生物打败你！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1452070/extras/LR-Spells_aplenty.png?t=1684443578" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1452070/extras/LR-gif1.gif?t=1684443578" /&gt;&lt;br&gt;单独行动十分危险，所以选择最适合自己玩法的法术，以在《Lone Ruin》中战胜重重危险。通过众多升级和定制选项，你可以通过选择的路径冒险深入废墟，最大化破坏性魔法预设连招。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1452070/extras/LR-Survive_the_chaos.png?t=1684443578" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1452070/extras/LR-gif5.gif?t=1684443578" /&gt;&lt;br&gt;寻找截然不同的挑战？接受生存模式，体验波次袭击的限时游戏模式。面对越来越大的难度和越来越强的敌人，你，能坚持多久？</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1450900/extras/Header.gif?t=1692382834" /&gt;&lt;br&gt;在飞船损坏后，您必须派出机器人降落到一颗未知的星球，建造维修飞船所需的设施。在飞船上的AI伊莱恩的引导下，您将开始建造各种装置，实现自动化生产，学会在这里生存并一步步变得强大起来。而这颗神秘的星球上还蕴藏着更多秘密等待您来发掘！&lt;br&gt;&lt;br&gt;Desynced是一款没有传送带的自动化游戏。只需要将机器人连接到物流网络，它们就会自动执行订单，在基地周围运送材料。您可以设置开采操作和工厂；扩大物流网络，以覆盖更多区域；管理发电和电力储存，等等。当需要定制化更高的解决方案时，您还可以使用自定义参数来调整各类设施和机器人的行为，或者通过拖放脚本实现最高级别的控制。&lt;h2 class="bb_tag"&gt;⚙️自动化&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1450900/extras/Fabricators.gif?t=1692382834" /&gt;&lt;br&gt;精妙的资源管理：掌握资源管理、生产链及自动化技术，保证基地的生存和繁荣发展。要想在这个充满敌意的世界中保持微妙的平衡，您的每项决策都至关重要。&lt;h2 class="bb_tag"&gt;🤖 自定义&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1450900/extras/Customize.gif?t=1692382834" /&gt;&lt;br&gt;完全自定义的装置：Desynced使用机器人来代替传统的传送带。您可以为它们配备合适的工具，或者通过拖放编辑器来编程高级行为。您还可以根据自己的游戏风格定制装置，以应对未来的诸多挑战。&lt;h2 class="bb_tag"&gt;🔬 研究&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1450900/extras/__Daynight.gif?t=1692382834" /&gt;&lt;br&gt;丰富的科技树系统：探索更深层次的研究系统，拓展技术能力。解锁全新可能，开发先进装置和结构，并在探索这个迷人世界的过程中战胜敌人。&lt;h2 class="bb_tag"&gt; 🌟更多精彩内容！🌟 &lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1450900/extras/ezgif.com-optimize.gif?t=1692382834" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;🔧通过模组支持及Steam创意工坊整合进行量身定制&lt;br&gt;&lt;/li&gt;&lt;li&gt;👥与好友一起加入阵营，或在多人游戏中挑战他们&lt;br&gt;&lt;/li&gt;&lt;li&gt;🎮 在抢先体验期间提前体验全新内容&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>1455910</t>
+          <t>1452070</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Territory: Farming and Fighting</t>
+          <t>Lone Ruin</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>领地：种田与征战</t>
+          <t>LONE RUIN</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>抢先体验,模拟,基地建设,策略,城市营造</t>
+          <t>动作类 Rogue,街机,竞技场射击,弹幕射击,双摇杆射击</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5898,59 +5903,96 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2023年01月12日</t>
+          <t>2023年01月13日</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>注意：本游戏有一定复杂度，需要动脑，且会有不少挑战，注定是小众游戏。这不是一个休闲的种田游戏。&lt;br&gt;游戏尚处于开发阶段，欢迎加入交流QQ群 926471120&lt;br&gt;&lt;br&gt;游戏以村庄经营 + 指挥打仗为核心玩法。玩家可以从十几个人的小村庄，发展成为上千人的小王国。&lt;br&gt;对内安排居民工作，进行生产建设。采集渔猎，种地挖矿，加工制造。&lt;br&gt;对外开展贸易，积累稀有物资，增加实力，与邪恶的势力和怪物作战。&lt;br&gt;&lt;br&gt;交流QQ群：&lt;strong&gt;926471120&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/1.gif?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/2.gif?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/3.png?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/4.png?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/5.gif?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/6.gif?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/7.png?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/8.gif?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/9.gif?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/10.gif?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/11.png?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/12.png?t=1692414972" /&gt;</t>
+          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/2UnEbEq" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1452070/extras/Discord-Title.jpg?t=1684443578" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;《Lone Ruin》是一款注重可玩性的法术类肉鸽风格双摇杆射击游戏。玩家扮演一名探险家，在一个废弃的魔法城市中边冒险边寻找神秘的古老力量，这个城市建在远古法师用来为自己提供能量和改造的魔法源头之上。探索、不断深入潜行，与各式怪异生物搏斗，利用独有的魔法技能，最终到达《Lone Ruin》的中心。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1452070/extras/LR-A_city_corrupted.png?t=1684443578" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1452070/extras/LR-gif2.gif?t=1684443578" /&gt;&lt;br&gt;一座被魔法笼罩的古城。曾经繁荣的文明以及与周围魔法和谐相处的居民，早已被曾经支撑它们的魔法逼疯，扭曲得面目全非。是什么腐蚀了这座城市？一千年后，由玩家扮演的天才魔法探险家，听了这些传说并来到这个充满敌意的废墟，试图寻找这一古老的力量，并最终清除这座城市千年来积累的腐朽。答案可能就在《Lone Ruin》的中心……只要你能到达那里，就能找到它。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1452070/extras/LR-Outlive_the_ruins.png?t=1684443578" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1452070/extras/LR-gif4.gif?t=1684443578" /&gt;&lt;br&gt;…— 在几个截然不同、充满地狱气息的区域中，与众多敌人和多个老怪搏斗，浴血奋战杀出一条路。不要让那些可怕的生物打败你！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1452070/extras/LR-Spells_aplenty.png?t=1684443578" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1452070/extras/LR-gif1.gif?t=1684443578" /&gt;&lt;br&gt;单独行动十分危险，所以选择最适合自己玩法的法术，以在《Lone Ruin》中战胜重重危险。通过众多升级和定制选项，你可以通过选择的路径冒险深入废墟，最大化破坏性魔法预设连招。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1452070/extras/LR-Survive_the_chaos.png?t=1684443578" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1452070/extras/LR-gif5.gif?t=1684443578" /&gt;&lt;br&gt;寻找截然不同的挑战？接受生存模式，体验波次袭击的限时游戏模式。面对越来越大的难度和越来越强的敌人，你，能坚持多久？</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
+          <t>1455910</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Territory: Farming and Fighting</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>领地：种田与征战</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>抢先体验,模拟,基地建设,策略,城市营造</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>2023年01月12日</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>注意：本游戏有一定复杂度，需要动脑，且会有不少挑战，注定是小众游戏。这不是一个休闲的种田游戏。&lt;br&gt;游戏尚处于开发阶段，欢迎加入交流QQ群 926471120&lt;br&gt;&lt;br&gt;游戏以村庄经营 + 指挥打仗为核心玩法。玩家可以从十几个人的小村庄，发展成为上千人的小王国。&lt;br&gt;对内安排居民工作，进行生产建设。采集渔猎，种地挖矿，加工制造。&lt;br&gt;对外开展贸易，积累稀有物资，增加实力，与邪恶的势力和怪物作战。&lt;br&gt;&lt;br&gt;交流QQ群：&lt;strong&gt;926471120&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/1.gif?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/2.gif?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/3.png?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/4.png?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/5.gif?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/6.gif?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/7.png?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/8.gif?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/9.gif?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/10.gif?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/11.png?t=1692414972" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1455910/extras/12.png?t=1692414972" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
           <t>1457080</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>The Mageseeker: A League of Legends Story™</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>搜魔人：英雄联盟传奇™</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="D132" t="inlineStr">
         <is>
           <t>角色扮演,像素图形,2D,单人,奇幻</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
         <is>
           <t>7.7</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>2023年04月19日</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t>由《Moonlighter》的创作者Digital Sun所开发的《搜魔人：英雄联盟传奇™》是一款发生在英雄联盟宇宙中的动作角色扮演游戏。在德玛西亚王国，搜魔人势力夺取了权力，并开始以维持公共秩序的名义镇压所有会使用魔法的国民。他们采取的手段包括强行征召并对他们洗脑，将他们囚禁，或是逼迫他们四处流亡。&lt;br /&gt;
 &lt;br /&gt;
@@ -5969,67 +6011,25 @@
         </is>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>1467920</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>A Guidebook Of Babel</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>巴别号漫游指南</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>冒险,剧情丰富,时空操控,解谜,调查</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>9.1</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>2023年08月03日</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1467920/extras/About_This_Game_schinese_已压缩.gif?t=1692514598" /&gt;&lt;br&gt;巴别号漫游指南是一款以蝴蝶效应为核心的剧情冒险游戏，于2022年在任天堂indie world直面会上首发！&lt;br&gt;&lt;br&gt;在巴别号上，人类乘客将经历一趟光怪陆离的转世之旅。船员会使用记忆提取仪清空他们的记忆，再用云霄加农把他们发射至来生。乘客总是抱怨来不及向过去道别，但对船员来说，采集记忆作为燃料才是头等大事！&lt;br&gt;如果你喜欢天花乱坠的故事，还有惊掉下巴的谜题，那么恭喜你找对地方了——在四段精心编织的故事当中，你需要回到过去，巧妙地改写历史，以便引发蝴蝶效应，解开藏于其中的谜题，甚至改变巴别号的未来！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1467920/extras/GIF_1_schinese_压缩.gif?t=1692514598" /&gt;&lt;br&gt;从季风肆虐的甲板到喧闹的中央车站，从忙碌的记忆工厂到人迹罕至的大锅炉……尽情探索广袤的巴别号，邂逅惊慌失措的人类与难以对付的船员，调查前所未见的仪器与古灵精怪的生物！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1467920/extras/GIF_2_schinese_压缩.gif?t=1692514598" /&gt;&lt;br&gt;你需要帮助受困的主角们渡过难关：逃离审讯室、采集石炉蟹蛋、寻找神秘信号源……可别指望能靠蛮力硬闯！好在你可以回到过去，寻找让他们陷入困境的根源。一旦找到那个关键的事件，你便能利用手中的钢笔将其改写。这一举动会立即引发蝴蝶效应，改变剧情走向，瞬间扭转当下的局势！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1467920/extras/GIF_3_schinese_已压缩.gif?t=1692514598" /&gt;&lt;br&gt;感到毫无头绪？那就活用这本笔记吧。用它来将搜集到的线索拼成完整的推理链条，它会为你指明方向！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1467920/extras/GIF_4_schinese_已压缩.gif?t=1692514598" /&gt;&lt;br&gt;被卷⼊季⻛的⻜⾏员，为罐头大餐发愁的厨师⻓，追捕逃犯的游泳队队⻓……噢，还有那位寻找女儿的可怜巴巴的马戏团小丑！主角们的命运交相辉映，这注定是一出关于离别的悲喜剧。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1467920/extras/GIF_5_schinese_已压缩.gif?t=1692514598" /&gt;&lt;br&gt;集可爱与搞怪、复古与卡通于一身的巴别号即将启航。快拿好船票，踏上甲板，加入这场狂欢吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1467920/extras/底部GIF_已压缩.gif?t=1692514598" /&gt;</t>
-        </is>
-      </c>
-    </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>1488200</t>
+          <t>1467920</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Symphony of War: The Nephilim Saga</t>
+          <t>A Guidebook Of Babel</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>战争交响曲:尼菲林传奇</t>
+          <t>巴别号漫游指南</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>角色扮演,战术角色扮演,剧情丰富,奇幻,冒险</t>
+          <t>冒险,剧情丰富,时空操控,解谜,调查</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -6039,39 +6039,39 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2022年06月11日</t>
+          <t>2023年08月03日</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>塔恩拉大祸将至&lt;br&gt;&lt;br&gt;千禧年在即，塔恩拉的世界即将迎来一场绝世阴谋。在经历了战火连绵、腥风血雨的继位战争之后，维尔迪亚帝国民不聊生、满目疮痍。随着女皇芙洛里娜的登基，这场恶性循环似乎终于被打破。不料，一名将军集结大军，公然宣叛，还在首都掳走了女皇。你，一名军校毕业生，将带领部队讨伐逆贼……而这场战争即将在这片大陆上拉开惊天动地大事件的序幕。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;2D策略型回合制角色扮演游戏&lt;br&gt;&lt;/li&gt;&lt;li&gt;率领小队作战&lt;br&gt;&lt;/li&gt;&lt;li&gt;故事内容丰富，30-40小时的战役流程，重玩性高 &lt;br&gt;&lt;/li&gt;&lt;li&gt;50+可选角色职业 &lt;br&gt;&lt;/li&gt;&lt;li&gt;深度战略游戏，边玩边学，容易上手&lt;br&gt;&lt;/li&gt;&lt;li&gt;角色和军队设置拥有无限可能性&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;br&gt;战术赢得战斗&lt;br&gt;&lt;br&gt;游戏玩法着重于大规模作战，布局智取敌人。队伍拼杀将自动进行，只需观赏并等待结果。&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;操控部队（至多9人）作战，通过抢占高地、扼据要冲、树林埋伏等方式赢得上风&lt;br&gt;&lt;/li&gt;&lt;li&gt;注意天气变化，或是被突如其来的暴风雪或热浪击倒&lt;br&gt;&lt;/li&gt;&lt;li&gt;通过解放城镇、占领资源点来提升声誉，壮大军队&lt;br&gt;&lt;/li&gt;&lt;li&gt;瓦解敌方战意，鼓舞我军士气&lt;br&gt;&lt;/li&gt;&lt;li&gt;消灭敌军队长，打击敌方指挥&lt;/li&gt;&lt;/ul&gt;战略赢得战争&lt;br&gt;&lt;br&gt;战术赢得战斗。战略赢得战争。尘埃落尽之后，是时候收治伤员，集结部队，展开另一场大战，一步一步将和平带回塔恩拉。&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;超过50种职业可供组建部队，包括重步兵、弓兵、冲击骑兵、医疗兵、火枪兵、龙、战斗法师等&lt;br&gt;&lt;/li&gt;&lt;li&gt;为部队装备通过战斗赢得的道具和神器&lt;br&gt;&lt;/li&gt;&lt;li&gt;将新兵训练成精英战士，或招募佣兵来立即提升军队战力&lt;br&gt;&lt;/li&gt;&lt;li&gt;研发阵营的科技树，升级职业，增强战斗部队&lt;/li&gt;&lt;/ul&gt;集结英雄，建立军队&lt;br&gt;&lt;br&gt;帝国战争学院的毕业生被迅速派出镇压叛乱，却卷入了一场出乎意料的可怕阴谋。&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;结交来自各个阵营的伙伴、英雄、盟友和对手&lt;br&gt;&lt;/li&gt;&lt;li&gt;体验动态关系系统，解锁独特对话，建立情比金坚的关系，获得角色的强力加成&lt;br&gt;&lt;/li&gt;&lt;li&gt;在这片和平岌岌可危的塔恩拉大陆，体验暗藏杀机、背信弃义、豪情壮志的史诗故事&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1467920/extras/About_This_Game_schinese_已压缩.gif?t=1692514598" /&gt;&lt;br&gt;巴别号漫游指南是一款以蝴蝶效应为核心的剧情冒险游戏，于2022年在任天堂indie world直面会上首发！&lt;br&gt;&lt;br&gt;在巴别号上，人类乘客将经历一趟光怪陆离的转世之旅。船员会使用记忆提取仪清空他们的记忆，再用云霄加农把他们发射至来生。乘客总是抱怨来不及向过去道别，但对船员来说，采集记忆作为燃料才是头等大事！&lt;br&gt;如果你喜欢天花乱坠的故事，还有惊掉下巴的谜题，那么恭喜你找对地方了——在四段精心编织的故事当中，你需要回到过去，巧妙地改写历史，以便引发蝴蝶效应，解开藏于其中的谜题，甚至改变巴别号的未来！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1467920/extras/GIF_1_schinese_压缩.gif?t=1692514598" /&gt;&lt;br&gt;从季风肆虐的甲板到喧闹的中央车站，从忙碌的记忆工厂到人迹罕至的大锅炉……尽情探索广袤的巴别号，邂逅惊慌失措的人类与难以对付的船员，调查前所未见的仪器与古灵精怪的生物！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1467920/extras/GIF_2_schinese_压缩.gif?t=1692514598" /&gt;&lt;br&gt;你需要帮助受困的主角们渡过难关：逃离审讯室、采集石炉蟹蛋、寻找神秘信号源……可别指望能靠蛮力硬闯！好在你可以回到过去，寻找让他们陷入困境的根源。一旦找到那个关键的事件，你便能利用手中的钢笔将其改写。这一举动会立即引发蝴蝶效应，改变剧情走向，瞬间扭转当下的局势！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1467920/extras/GIF_3_schinese_已压缩.gif?t=1692514598" /&gt;&lt;br&gt;感到毫无头绪？那就活用这本笔记吧。用它来将搜集到的线索拼成完整的推理链条，它会为你指明方向！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1467920/extras/GIF_4_schinese_已压缩.gif?t=1692514598" /&gt;&lt;br&gt;被卷⼊季⻛的⻜⾏员，为罐头大餐发愁的厨师⻓，追捕逃犯的游泳队队⻓……噢，还有那位寻找女儿的可怜巴巴的马戏团小丑！主角们的命运交相辉映，这注定是一出关于离别的悲喜剧。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1467920/extras/GIF_5_schinese_已压缩.gif?t=1692514598" /&gt;&lt;br&gt;集可爱与搞怪、复古与卡通于一身的巴别号即将启航。快拿好船票，踏上甲板，加入这场狂欢吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1467920/extras/底部GIF_已压缩.gif?t=1692514598" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>1501610</t>
+          <t>1488200</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Nova Lands</t>
+          <t>Symphony of War: The Nephilim Saga</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Nova Lands</t>
+          <t>战争交响曲:尼菲林传奇</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>自动化,沙盒,基地建设,冒险,开放世界生存制作</t>
+          <t>角色扮演,战术角色扮演,剧情丰富,奇幻,冒险</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -6081,39 +6081,39 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2023年06月23日</t>
+          <t>2022年06月11日</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>你将可以在《Nova Lands》中见到《Factorio》、《Forager》以及《Satisfactory》这三款游戏的影子。如果你也有经历过类似“再来一个回合”的投入体验，那么千万不要错过这款游戏！&lt;h2 class="bb_tag"&gt;探索、采集、建造&lt;/h2&gt;&lt;br&gt;新的星球，新的家园。使用分布在群岛之上的不同资源建设你的新基地，从最普通的石材与木材到稀有且未知的材料应有尽有。全新的建筑将带来全新的可能性，将基地效率优化至极限并推进至其他岛屿深处。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1501610/extras/Building_cropped.gif?t=1693481083" /&gt;&lt;h2 class="bb_tag"&gt;学会事半功倍&lt;/h2&gt;&lt;br&gt;随着你不断推动游戏进度，越来越便利的自动化系统将会为你腾出更多能够用于探索的宝贵时间。你的机器人小帮手将会孜孜不倦地帮助你达成这一目标。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1501610/extras/2_cropped.gif?t=1693481083" /&gt;&lt;h2 class="bb_tag"&gt;使用机器人打造自动化工厂&lt;/h2&gt;&lt;br&gt;利用机器人体现你的奇思妙想。这些自给自足的小小机械将能够构筑起一条完整的生产链，并不遗余力地支撑你的工厂运作。机器人的设置与管理机器方便，但是一定要要记得保护它们免受敌对野生动物的伤害！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1501610/extras/3_cropped.gif?t=1693481083" /&gt;&lt;h2 class="bb_tag"&gt;解锁更多岛屿&lt;/h2&gt;&lt;br&gt;初始的第一座岛屿不过是冰山一角！发展工厂并获取所需科技，接着惬意自如地探索其他岛屿。你将会见证五花八门的生态环境、生物、地标、洞窟以及其他也在探索诺瓦新星的重要人物……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1501610/extras/Exploring_cropped.gif?t=1693481083" /&gt;&lt;h2 class="bb_tag"&gt;开枪射爆一切！或者……你也可以选择不这么做。&lt;/h2&gt;&lt;br&gt;不过无论如何，你手上已经有了切切实实的爆能枪，还有面前可能造成严重威胁的庞大野兽！通过战斗获取稀有材料，或者投身和平主义，成为这颗星球上的善良客人，就算是遇到头目级生物亦是如此。不过为了与这些家伙们和平共存，你将需要献上对应的贵重品。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1501610/extras/combat_cropped.gif?t=1693481083" /&gt;</t>
+          <t>塔恩拉大祸将至&lt;br&gt;&lt;br&gt;千禧年在即，塔恩拉的世界即将迎来一场绝世阴谋。在经历了战火连绵、腥风血雨的继位战争之后，维尔迪亚帝国民不聊生、满目疮痍。随着女皇芙洛里娜的登基，这场恶性循环似乎终于被打破。不料，一名将军集结大军，公然宣叛，还在首都掳走了女皇。你，一名军校毕业生，将带领部队讨伐逆贼……而这场战争即将在这片大陆上拉开惊天动地大事件的序幕。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;2D策略型回合制角色扮演游戏&lt;br&gt;&lt;/li&gt;&lt;li&gt;率领小队作战&lt;br&gt;&lt;/li&gt;&lt;li&gt;故事内容丰富，30-40小时的战役流程，重玩性高 &lt;br&gt;&lt;/li&gt;&lt;li&gt;50+可选角色职业 &lt;br&gt;&lt;/li&gt;&lt;li&gt;深度战略游戏，边玩边学，容易上手&lt;br&gt;&lt;/li&gt;&lt;li&gt;角色和军队设置拥有无限可能性&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;br&gt;战术赢得战斗&lt;br&gt;&lt;br&gt;游戏玩法着重于大规模作战，布局智取敌人。队伍拼杀将自动进行，只需观赏并等待结果。&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;操控部队（至多9人）作战，通过抢占高地、扼据要冲、树林埋伏等方式赢得上风&lt;br&gt;&lt;/li&gt;&lt;li&gt;注意天气变化，或是被突如其来的暴风雪或热浪击倒&lt;br&gt;&lt;/li&gt;&lt;li&gt;通过解放城镇、占领资源点来提升声誉，壮大军队&lt;br&gt;&lt;/li&gt;&lt;li&gt;瓦解敌方战意，鼓舞我军士气&lt;br&gt;&lt;/li&gt;&lt;li&gt;消灭敌军队长，打击敌方指挥&lt;/li&gt;&lt;/ul&gt;战略赢得战争&lt;br&gt;&lt;br&gt;战术赢得战斗。战略赢得战争。尘埃落尽之后，是时候收治伤员，集结部队，展开另一场大战，一步一步将和平带回塔恩拉。&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;超过50种职业可供组建部队，包括重步兵、弓兵、冲击骑兵、医疗兵、火枪兵、龙、战斗法师等&lt;br&gt;&lt;/li&gt;&lt;li&gt;为部队装备通过战斗赢得的道具和神器&lt;br&gt;&lt;/li&gt;&lt;li&gt;将新兵训练成精英战士，或招募佣兵来立即提升军队战力&lt;br&gt;&lt;/li&gt;&lt;li&gt;研发阵营的科技树，升级职业，增强战斗部队&lt;/li&gt;&lt;/ul&gt;集结英雄，建立军队&lt;br&gt;&lt;br&gt;帝国战争学院的毕业生被迅速派出镇压叛乱，却卷入了一场出乎意料的可怕阴谋。&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;结交来自各个阵营的伙伴、英雄、盟友和对手&lt;br&gt;&lt;/li&gt;&lt;li&gt;体验动态关系系统，解锁独特对话，建立情比金坚的关系，获得角色的强力加成&lt;br&gt;&lt;/li&gt;&lt;li&gt;在这片和平岌岌可危的塔恩拉大陆，体验暗藏杀机、背信弃义、豪情壮志的史诗故事&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>1503850</t>
+          <t>1501610</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>中年失业模拟器When a man lose his job</t>
+          <t>Nova Lands</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>中年失业模拟器</t>
+          <t>Nova Lands</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>资本主义,探索,生存,经济,开放世界</t>
+          <t>自动化,沙盒,基地建设,冒险,开放世界生存制作</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6123,39 +6123,39 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2021年05月15日</t>
+          <t>2023年06月23日</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>你是一个奋斗在大城市的35岁普通中年男人，承受着上有老下有小中间有房贷的沉重压力。但突然有一天，你被公司开除了！毫无收入的你面临着每月1万5000元的房贷和抚养两个孩子的生活费，巨大的压力重重压在你的肩上！.....在这座城市里，到底你要如何挣钱、如何挽救你的家庭呢？来试试吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1503850/extras/QQ截图20210316103134.jpg?t=1663380584" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;游戏要素&lt;/strong&gt;&lt;br&gt;■ 多种挣钱的工作！你可以当打工人，去做厨子、打临时工、开网约车、工地搬砖、送外卖、下井挖矿...你可以做奇怪生意，摆小摊、当up主、直播带货、炒股、炒房、钓鱼、抓虫子、下海捕鱼、杀猪卖肉...你可以运用资本，借贷款、开饭店、销售理财产品、开直播公司、开私募公司、炒作债券、炒作股票、开工厂、出租游艇...你甚至可以去战乱国家当雇佣兵...&lt;br&gt;&lt;br&gt;■ 各种随机事件：感冒、拉肚子、骨折、压力过大...老婆孩子也有各种事情！孩子发烧、老婆生病、家用资金紧缺、房子漏水...年迈的父母，身体不好、投资被骗、乱买保健品...&lt;br&gt;&lt;br&gt;■ 自由探索世界：这是一个小小的开放空间，你可以乘船去到不同的岛屿，发现不同的新东西——可能让你赚钱哦！&lt;br&gt;&lt;br&gt;■ 多种结局.根据你的行为和投资选择，会导致各种不同的结局，有些是很奇怪的发展... 完美结局是非常难打出来的，但相信那是值得的。&lt;br&gt;&lt;br&gt;谢谢您的游玩！：）</t>
+          <t>你将可以在《Nova Lands》中见到《Factorio》、《Forager》以及《Satisfactory》这三款游戏的影子。如果你也有经历过类似“再来一个回合”的投入体验，那么千万不要错过这款游戏！&lt;h2 class="bb_tag"&gt;探索、采集、建造&lt;/h2&gt;&lt;br&gt;新的星球，新的家园。使用分布在群岛之上的不同资源建设你的新基地，从最普通的石材与木材到稀有且未知的材料应有尽有。全新的建筑将带来全新的可能性，将基地效率优化至极限并推进至其他岛屿深处。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1501610/extras/Building_cropped.gif?t=1693481083" /&gt;&lt;h2 class="bb_tag"&gt;学会事半功倍&lt;/h2&gt;&lt;br&gt;随着你不断推动游戏进度，越来越便利的自动化系统将会为你腾出更多能够用于探索的宝贵时间。你的机器人小帮手将会孜孜不倦地帮助你达成这一目标。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1501610/extras/2_cropped.gif?t=1693481083" /&gt;&lt;h2 class="bb_tag"&gt;使用机器人打造自动化工厂&lt;/h2&gt;&lt;br&gt;利用机器人体现你的奇思妙想。这些自给自足的小小机械将能够构筑起一条完整的生产链，并不遗余力地支撑你的工厂运作。机器人的设置与管理机器方便，但是一定要要记得保护它们免受敌对野生动物的伤害！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1501610/extras/3_cropped.gif?t=1693481083" /&gt;&lt;h2 class="bb_tag"&gt;解锁更多岛屿&lt;/h2&gt;&lt;br&gt;初始的第一座岛屿不过是冰山一角！发展工厂并获取所需科技，接着惬意自如地探索其他岛屿。你将会见证五花八门的生态环境、生物、地标、洞窟以及其他也在探索诺瓦新星的重要人物……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1501610/extras/Exploring_cropped.gif?t=1693481083" /&gt;&lt;h2 class="bb_tag"&gt;开枪射爆一切！或者……你也可以选择不这么做。&lt;/h2&gt;&lt;br&gt;不过无论如何，你手上已经有了切切实实的爆能枪，还有面前可能造成严重威胁的庞大野兽！通过战斗获取稀有材料，或者投身和平主义，成为这颗星球上的善良客人，就算是遇到头目级生物亦是如此。不过为了与这些家伙们和平共存，你将需要献上对应的贵重品。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1501610/extras/combat_cropped.gif?t=1693481083" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>1515900</t>
+          <t>1503850</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Heaven Dust 2</t>
+          <t>中年失业模拟器When a man lose his job</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>秘馆疑踪2 / Heaven Dust 2</t>
+          <t>中年失业模拟器</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>僵尸,迷宫探索,解谜,第三人称射击,动作角色扮演</t>
+          <t>资本主义,探索,生存,经济,开放世界</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6163,36 +6163,41 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>7.1</t>
+        </is>
+      </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2022年01月06日</t>
+          <t>2021年05月15日</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>本作是备受好评的独立生化题材解密冒险游戏《秘馆疑踪》续作。&lt;br&gt;（剧情相对独立，不需通关前作也可正常游玩。）&lt;br&gt;&lt;br&gt;玩家QQ群：762184893&lt;br&gt;新浪微博：&lt;a href="https://steamcommunity.com/linkfilter/?url=https://weibo.com/u/2957093375" target="_blank" rel=" noopener"  &gt;@食甚_一锅粥&lt;/a&gt;、&lt;a href="https://steamcommunity.com/linkfilter/?url=https://weibo.com/3743149912/" target="_blank" rel=" noopener"  &gt;@indienova&lt;/a&gt;&lt;br&gt;&lt;br&gt;在一场记者招待会之后，神秘的第一研究所爆发了病毒泄漏事件。&lt;br&gt;与此同时，基地深处，身着实验服的主角突然从冻眠仓中醒来。&lt;br&gt;他发现自己再次被困在充满机关的凶险环境之中，周遭到处充斥着寻猎的活死人。&lt;br&gt;循着指引，他一边和各种变异怪物战斗，一边寻找逃离的线索。&lt;br&gt;希望已经近在眼前，但他也朝着可怕的真相一步一步逼近……&lt;br&gt;&lt;br&gt;“史蒂夫，准备好再次逃离地狱了吗？&lt;br&gt;哦，不……或许我应该叫你————‘第二宿主’”。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 经典的本格生存恐怖解密玩法：融合了探索，战斗，解密，信息收集，资源管理等多种要素。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 制作规模全面升级：精致细腻的画面以及演出效果，营造出全新的感官体验。数倍于1代的游戏体量，10小时左右的完整初见流程。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 收集，组合，运用丰富多样的道具来解开谜题：背包不仅支持升级拓展，且和武器栏各自独立，装备武器将不再占据背包栏位。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 战斗系统全面进化：匕首，冲锋枪，霰弹枪，手雷等悉数登场，还能通过改装系统提升武器极限性能。针对不同怪物，玩家必须充分发挥每种武器的特性，击破防御，打击弱点。武器的配合使用和弱点瞄准机制也为战斗添加了额外的乐趣和变数。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 除了最普通的丧尸，玩家还会遇见各类变异怪物：体表覆甲的骨魔，无尽再生的血魔，疯狂近逼的自爆怪等。当然，还包含多场惊心动魄，颇具史诗感的Boss战。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 曲折跌宕的剧情，有趣烧脑的谜题，玩家需要慎重面对游戏中的关键抉择：两条逃脱路线分别对应着两种截然不同的游戏结局。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 提供休闲，标准，专家三种难度选择：让每一位玩家都能充分享受游戏的乐趣。&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>你是一个奋斗在大城市的35岁普通中年男人，承受着上有老下有小中间有房贷的沉重压力。但突然有一天，你被公司开除了！毫无收入的你面临着每月1万5000元的房贷和抚养两个孩子的生活费，巨大的压力重重压在你的肩上！.....在这座城市里，到底你要如何挣钱、如何挽救你的家庭呢？来试试吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1503850/extras/QQ截图20210316103134.jpg?t=1663380584" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;游戏要素&lt;/strong&gt;&lt;br&gt;■ 多种挣钱的工作！你可以当打工人，去做厨子、打临时工、开网约车、工地搬砖、送外卖、下井挖矿...你可以做奇怪生意，摆小摊、当up主、直播带货、炒股、炒房、钓鱼、抓虫子、下海捕鱼、杀猪卖肉...你可以运用资本，借贷款、开饭店、销售理财产品、开直播公司、开私募公司、炒作债券、炒作股票、开工厂、出租游艇...你甚至可以去战乱国家当雇佣兵...&lt;br&gt;&lt;br&gt;■ 各种随机事件：感冒、拉肚子、骨折、压力过大...老婆孩子也有各种事情！孩子发烧、老婆生病、家用资金紧缺、房子漏水...年迈的父母，身体不好、投资被骗、乱买保健品...&lt;br&gt;&lt;br&gt;■ 自由探索世界：这是一个小小的开放空间，你可以乘船去到不同的岛屿，发现不同的新东西——可能让你赚钱哦！&lt;br&gt;&lt;br&gt;■ 多种结局.根据你的行为和投资选择，会导致各种不同的结局，有些是很奇怪的发展... 完美结局是非常难打出来的，但相信那是值得的。&lt;br&gt;&lt;br&gt;谢谢您的游玩！：）</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>1527950</t>
+          <t>1515900</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Wartales</t>
+          <t>Heaven Dust 2</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>战争传说</t>
+          <t>秘馆疑踪2 / Heaven Dust 2</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>角色扮演,开放世界,回合战略,团队角色扮演,中世纪</t>
+          <t>僵尸,迷宫探索,解谜,第三人称射击,动作角色扮演</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6200,41 +6205,36 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
-      </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2023年04月12日</t>
+          <t>2022年01月06日</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/fight_schinese.png?t=1686821006" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/WT_fight5.gif?t=1686821006" /&gt;&lt;br&gt;&lt;br&gt;自多兰帝国（Edoran Empire）灭亡于一场席卷全国的史无前例的瘟疫已经过去一个世纪。如今，这片土地上充斥着雇佣兵、强盗和小偷，荣誉几乎成为一种被遗忘的美德。&lt;br&gt;&lt;br&gt;如今，你将需要在一个巨大的开放世界中领导一群不择手段的人物，战斗、死亡以及对财富的渴望将会成为日常生活中随处可见之物。你不是这则故事的英雄，注定要迎来一个新的和平时代。你的目标仅仅只是要在这个严酷而充满敌意的世界中生存和发展，不择手段……&lt;br&gt;&lt;br&gt;只有最勇敢和最有雄心壮志的人，才有希望看到自己的故事被写进《战争传说》！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/develop_schinese.png?t=1686821006" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/wt_develop2.gif?t=1686821006" /&gt;&lt;br&gt;&lt;br&gt;在被贫穷和贪婪蹂躏的中世纪时代里，玩家将带领一群雇佣兵进行求富求名的危险任务，招募具有许多独特的专长、技能组合、武器偏好和个性的新同伴。&lt;br&gt;&lt;br&gt;通过直观的RPG进程和制作系统以自定义团队的技能、设备和外观，同时用奢侈品、工具和设备来升级营地，使团队从每天带来的艰难任务中舒缓并恢复。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/explore_schinese.png?t=1686821006" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/WT_explore2.gif?t=1686821006" /&gt;&lt;br&gt;&lt;br&gt;游历这个广阔的开放世界，寻求名声、财富和认可，让自己沉浸在有活力的村庄和过去时代的遗迹中。在拼凑这个严酷世界的历史的同时，探索废弃的矿井、坟墓和营地。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/prosper_schinese.png?t=1686821006" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/WT_prosper2.gif?t=1686821006" /&gt;&lt;br&gt;&lt;br&gt;收集赏金和承接合同。从保护无辜者免受小贼的侵害，到击败这片土地上最臭名昭著的人物，只要能获得利益哪种任务不能做呢？&lt;br&gt;&lt;br&gt;通过基于战术的回合制战斗系统战胜敌人，奖励你的精心策划和战略思维，选择角色、装备和战术的最佳组合，在每场独特的战斗中取得胜利吧。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/4player_schinese.png?t=1686821006" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/WT17.gif?t=1686821006" /&gt;&lt;br&gt;&lt;br&gt;组建最多由4名玩家组成的小队穿越在广阔的《战争传说》开放世界，在面对游荡在这些神秘土地上的许多敌对居民的时候，先计划战术和制定战略，并团结队伍合力击败他们。&lt;br&gt;&lt;br&gt;平分金钱、战利品和资源，并与你忠诚的伙伴们在熊熊的篝火旁以美味的晚餐结束一天的任务，建立友情，锻造牢不可破的纽带，这将帮助你克服任何障碍。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/embrace_schinese.png?t=1686821006" /&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1527950/Wartales" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1527950/Wartales&lt;/a&gt;</t>
+          <t>本作是备受好评的独立生化题材解密冒险游戏《秘馆疑踪》续作。&lt;br&gt;（剧情相对独立，不需通关前作也可正常游玩。）&lt;br&gt;&lt;br&gt;玩家QQ群：762184893&lt;br&gt;新浪微博：&lt;a href="https://steamcommunity.com/linkfilter/?url=https://weibo.com/u/2957093375" target="_blank" rel=" noopener"  &gt;@食甚_一锅粥&lt;/a&gt;、&lt;a href="https://steamcommunity.com/linkfilter/?url=https://weibo.com/3743149912/" target="_blank" rel=" noopener"  &gt;@indienova&lt;/a&gt;&lt;br&gt;&lt;br&gt;在一场记者招待会之后，神秘的第一研究所爆发了病毒泄漏事件。&lt;br&gt;与此同时，基地深处，身着实验服的主角突然从冻眠仓中醒来。&lt;br&gt;他发现自己再次被困在充满机关的凶险环境之中，周遭到处充斥着寻猎的活死人。&lt;br&gt;循着指引，他一边和各种变异怪物战斗，一边寻找逃离的线索。&lt;br&gt;希望已经近在眼前，但他也朝着可怕的真相一步一步逼近……&lt;br&gt;&lt;br&gt;“史蒂夫，准备好再次逃离地狱了吗？&lt;br&gt;哦，不……或许我应该叫你————‘第二宿主’”。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 经典的本格生存恐怖解密玩法：融合了探索，战斗，解密，信息收集，资源管理等多种要素。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 制作规模全面升级：精致细腻的画面以及演出效果，营造出全新的感官体验。数倍于1代的游戏体量，10小时左右的完整初见流程。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 收集，组合，运用丰富多样的道具来解开谜题：背包不仅支持升级拓展，且和武器栏各自独立，装备武器将不再占据背包栏位。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 战斗系统全面进化：匕首，冲锋枪，霰弹枪，手雷等悉数登场，还能通过改装系统提升武器极限性能。针对不同怪物，玩家必须充分发挥每种武器的特性，击破防御，打击弱点。武器的配合使用和弱点瞄准机制也为战斗添加了额外的乐趣和变数。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 除了最普通的丧尸，玩家还会遇见各类变异怪物：体表覆甲的骨魔，无尽再生的血魔，疯狂近逼的自爆怪等。当然，还包含多场惊心动魄，颇具史诗感的Boss战。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 曲折跌宕的剧情，有趣烧脑的谜题，玩家需要慎重面对游戏中的关键抉择：两条逃脱路线分别对应着两种截然不同的游戏结局。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 提供休闲，标准，专家三种难度选择：让每一位玩家都能充分享受游戏的乐趣。&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>1543280</t>
+          <t>1527950</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Espresso Tycoon</t>
+          <t>Wartales</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>浓缩咖啡大亨</t>
+          <t>战争传说</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>休闲,模拟,建造,管理,3D</t>
+          <t>角色扮演,开放世界,回合战略,团队角色扮演,中世纪</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6242,36 +6242,41 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2023年06月07日</t>
+          <t>2023年04月12日</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>https://store.steampowered.com/app/2394250/Rich_Dad_Simulator/&lt;br&gt;https://store.steampowered.com/app/1239320/Animal_Shelter/&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1543280/extras/discord.png?t=1686142528"/&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1543280/extras/espresso-add-wishlist.gif?t=1686142528"/&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;Espresso Tycoon&lt;/strong&gt; 是一个全新的方法，你记得你的童年的老经典大亨游戏。从你的梦想中建立一个&lt;strong&gt;咖啡店&lt;/strong&gt;，在那里你的客户可以放松和喝美味的咖啡。处理好情绪上的过山车，&lt;strong&gt;建立一个成功的咖啡生意&lt;/strong&gt;。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1543280/extras/coffeeshops.gif?t=1686142528"/&gt;&lt;br&gt;&lt;br&gt;想象一下......你是这里的老板! 感觉自己是真正的&lt;strong&gt;咖啡馆老板&lt;/strong&gt;，一个&lt;strong&gt;帝国的建立者&lt;/strong&gt;，并创造整个战略，其中包括。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;装修&lt;br/&gt;&lt;/li&gt;&lt;li&gt;雇用和管理员工&lt;br/&gt;&lt;/li&gt;&lt;li&gt;照顾供应链&lt;br/&gt;&lt;/li&gt;&lt;li&gt;分析预算&lt;br/&gt;&lt;/li&gt;&lt;li&gt;为你的咖啡店做广告&lt;br/&gt;&lt;/li&gt;&lt;li&gt;还有，最重要的是，让你的顾客满意。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1543280/extras/toppings.gif?t=1686142528"/&gt;&lt;br&gt;&lt;br&gt;你有自己喜欢的&lt;strong&gt;咖啡&lt;/strong&gt;，对吗？你的客户也一样。做好&lt;strong&gt;市场调查&lt;/strong&gt;，找出他们的喜好。使用&lt;strong&gt;3D咖啡编辑器&lt;/strong&gt;制作不同的配方来取悦他们。你可以以一种非常有创意的方式组合多种成分。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1543280/extras/decofriends.gif?t=1686142528"/&gt;&lt;br&gt;&lt;br&gt;开始、建立和发展你的&lt;strong&gt;咖啡店&lt;/strong&gt;。检查你的预算--你是否有足够的钱来投资，或者你将不得不做出一些削减？决定你想在哪里和什么时候开始你的新&lt;strong&gt;咖啡业务&lt;/strong&gt;。雇用（或解雇）一名咖啡师，做营销活动，创造一个轻松的地方，并收集评级点。&lt;strong&gt;完成所有的任务！&lt;/strong&gt;。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1543280/extras/park.gif?t=1686142528"/&gt;&lt;br&gt;&lt;br&gt;你是过山车、比萨饼、星球杀手等游戏的忠实粉丝吗？我们是! 让自己沉浸在新的咖啡店模拟器中。建立城市中最好的咖啡馆。创建、定制、管理咖啡师--所有这些都在新的咖啡店模拟游戏中。成为咖啡大亨，创造整个帝国。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1543280/extras/they_wrote_about_us.png?t=1686142528"/&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1543280/extras/kotaku.png?t=1686142528"/&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1543280/extras/pc_gamer.png?t=1686142528"/&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1543280/extras/sprudge.png?t=1686142528"/&gt; &lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/fight_schinese.png?t=1686821006" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/WT_fight5.gif?t=1686821006" /&gt;&lt;br&gt;&lt;br&gt;自多兰帝国（Edoran Empire）灭亡于一场席卷全国的史无前例的瘟疫已经过去一个世纪。如今，这片土地上充斥着雇佣兵、强盗和小偷，荣誉几乎成为一种被遗忘的美德。&lt;br&gt;&lt;br&gt;如今，你将需要在一个巨大的开放世界中领导一群不择手段的人物，战斗、死亡以及对财富的渴望将会成为日常生活中随处可见之物。你不是这则故事的英雄，注定要迎来一个新的和平时代。你的目标仅仅只是要在这个严酷而充满敌意的世界中生存和发展，不择手段……&lt;br&gt;&lt;br&gt;只有最勇敢和最有雄心壮志的人，才有希望看到自己的故事被写进《战争传说》！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/develop_schinese.png?t=1686821006" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/wt_develop2.gif?t=1686821006" /&gt;&lt;br&gt;&lt;br&gt;在被贫穷和贪婪蹂躏的中世纪时代里，玩家将带领一群雇佣兵进行求富求名的危险任务，招募具有许多独特的专长、技能组合、武器偏好和个性的新同伴。&lt;br&gt;&lt;br&gt;通过直观的RPG进程和制作系统以自定义团队的技能、设备和外观，同时用奢侈品、工具和设备来升级营地，使团队从每天带来的艰难任务中舒缓并恢复。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/explore_schinese.png?t=1686821006" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/WT_explore2.gif?t=1686821006" /&gt;&lt;br&gt;&lt;br&gt;游历这个广阔的开放世界，寻求名声、财富和认可，让自己沉浸在有活力的村庄和过去时代的遗迹中。在拼凑这个严酷世界的历史的同时，探索废弃的矿井、坟墓和营地。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/prosper_schinese.png?t=1686821006" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/WT_prosper2.gif?t=1686821006" /&gt;&lt;br&gt;&lt;br&gt;收集赏金和承接合同。从保护无辜者免受小贼的侵害，到击败这片土地上最臭名昭著的人物，只要能获得利益哪种任务不能做呢？&lt;br&gt;&lt;br&gt;通过基于战术的回合制战斗系统战胜敌人，奖励你的精心策划和战略思维，选择角色、装备和战术的最佳组合，在每场独特的战斗中取得胜利吧。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/4player_schinese.png?t=1686821006" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/WT17.gif?t=1686821006" /&gt;&lt;br&gt;&lt;br&gt;组建最多由4名玩家组成的小队穿越在广阔的《战争传说》开放世界，在面对游荡在这些神秘土地上的许多敌对居民的时候，先计划战术和制定战略，并团结队伍合力击败他们。&lt;br&gt;&lt;br&gt;平分金钱、战利品和资源，并与你忠诚的伙伴们在熊熊的篝火旁以美味的晚餐结束一天的任务，建立友情，锻造牢不可破的纽带，这将帮助你克服任何障碍。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/embrace_schinese.png?t=1686821006" /&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1527950/Wartales" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1527950/Wartales&lt;/a&gt;</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>1562430</t>
+          <t>1543280</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>DREDGE</t>
+          <t>Espresso Tycoon</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>渔帆暗涌</t>
+          <t>浓缩咖啡大亨</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>探索,钓鱼,洛夫克拉夫特式,冒险,悬疑</t>
+          <t>休闲,模拟,建造,管理,3D</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6279,41 +6284,36 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2023年03月31日</t>
+          <t>2023年06月07日</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>指挥你的拖网渔船去探索一系列偏远的岛屿及其周遭深海，查看底下到底潜藏着什么。将你的渔获卖给当地人并完成任务，以更多的了解每个地区动荡的过去。为你的船只配备更好的设备，以便在深海海沟中撒网捕捞并航向遥远的大陆，但要留意时间。你可能并不喜欢哪些在黑暗中潜藏的东西……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1562430/extras/Fishing.gif?t=1692960403" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;探索岛屿并发掘其中的秘密&lt;/strong&gt;&lt;/h2&gt;从你在偏远群岛的新家“Marrows”出发，下水搜寻古怪的藏品以及超过125种深海生物。在完成任务和拜访附近岛屿时探索各个区域——每个岛屿都有自己独特的机遇、居民与秘密。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1562430/extras/Areas.gif?t=1692960403" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;挖掘深处&lt;/strong&gt;&lt;/h2&gt;有人想让你挖掘过去埋藏的事情，但他们可信吗？一切都能就此打住吗？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1562430/extras/Dredging.gif?t=1692960403" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;小心迷雾&lt;/strong&gt;&lt;/h2&gt;危险无处不在，要小心尖锐的岩石和浅滩暗礁，不过最大的威胁潜藏在夜晚笼罩大海的迷雾中……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1562430/extras/Monsters.gif?t=1692960403" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;游戏特色&lt;/strong&gt;&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 解开谜团：指挥你的拖网渔船穿越一系列偏远的岛屿，每个岛屿都有需要被满足的居民，有待发现的野生动物和有待发掘的故事&lt;br&gt;&lt;/li&gt;&lt;li&gt; 挖掘深处：在海洋中搜寻隐藏的宝藏，完成任务以获得奇异的新能力。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 研究你的船只：研究特殊设备和升级你的船只能力，以获得稀有的鱼类和珍贵的深海奇珍。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 捕鱼求生：将你的发现卖给当地人，以更多地了解每个地区，升级你的船只，以到达更隐蔽的地方。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 与深不可测的事物作斗争：坚定信念，利用你的能力在夜幕笼罩的水上航行中生存下来。&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>https://store.steampowered.com/app/2394250/Rich_Dad_Simulator/&lt;br&gt;https://store.steampowered.com/app/1239320/Animal_Shelter/&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1543280/extras/discord.png?t=1686142528"/&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1543280/extras/espresso-add-wishlist.gif?t=1686142528"/&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;Espresso Tycoon&lt;/strong&gt; 是一个全新的方法，你记得你的童年的老经典大亨游戏。从你的梦想中建立一个&lt;strong&gt;咖啡店&lt;/strong&gt;，在那里你的客户可以放松和喝美味的咖啡。处理好情绪上的过山车，&lt;strong&gt;建立一个成功的咖啡生意&lt;/strong&gt;。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1543280/extras/coffeeshops.gif?t=1686142528"/&gt;&lt;br&gt;&lt;br&gt;想象一下......你是这里的老板! 感觉自己是真正的&lt;strong&gt;咖啡馆老板&lt;/strong&gt;，一个&lt;strong&gt;帝国的建立者&lt;/strong&gt;，并创造整个战略，其中包括。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;装修&lt;br/&gt;&lt;/li&gt;&lt;li&gt;雇用和管理员工&lt;br/&gt;&lt;/li&gt;&lt;li&gt;照顾供应链&lt;br/&gt;&lt;/li&gt;&lt;li&gt;分析预算&lt;br/&gt;&lt;/li&gt;&lt;li&gt;为你的咖啡店做广告&lt;br/&gt;&lt;/li&gt;&lt;li&gt;还有，最重要的是，让你的顾客满意。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1543280/extras/toppings.gif?t=1686142528"/&gt;&lt;br&gt;&lt;br&gt;你有自己喜欢的&lt;strong&gt;咖啡&lt;/strong&gt;，对吗？你的客户也一样。做好&lt;strong&gt;市场调查&lt;/strong&gt;，找出他们的喜好。使用&lt;strong&gt;3D咖啡编辑器&lt;/strong&gt;制作不同的配方来取悦他们。你可以以一种非常有创意的方式组合多种成分。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1543280/extras/decofriends.gif?t=1686142528"/&gt;&lt;br&gt;&lt;br&gt;开始、建立和发展你的&lt;strong&gt;咖啡店&lt;/strong&gt;。检查你的预算--你是否有足够的钱来投资，或者你将不得不做出一些削减？决定你想在哪里和什么时候开始你的新&lt;strong&gt;咖啡业务&lt;/strong&gt;。雇用（或解雇）一名咖啡师，做营销活动，创造一个轻松的地方，并收集评级点。&lt;strong&gt;完成所有的任务！&lt;/strong&gt;。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1543280/extras/park.gif?t=1686142528"/&gt;&lt;br&gt;&lt;br&gt;你是过山车、比萨饼、星球杀手等游戏的忠实粉丝吗？我们是! 让自己沉浸在新的咖啡店模拟器中。建立城市中最好的咖啡馆。创建、定制、管理咖啡师--所有这些都在新的咖啡店模拟游戏中。成为咖啡大亨，创造整个帝国。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1543280/extras/they_wrote_about_us.png?t=1686142528"/&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1543280/extras/kotaku.png?t=1686142528"/&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1543280/extras/pc_gamer.png?t=1686142528"/&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1543280/extras/sprudge.png?t=1686142528"/&gt; &lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>1589120</t>
+          <t>1562430</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Above Snakes</t>
+          <t>DREDGE</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>蛇上而生</t>
+          <t>渔帆暗涌</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>开放世界,氛围,开放世界生存制作,沙盒,建造</t>
+          <t>探索,钓鱼,洛夫克拉夫特式,冒险,悬疑</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6323,39 +6323,39 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2023年05月25日</t>
+          <t>2023年03月31日</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>在这款以等距视角为基础、 受荒野西部启发的冒险角色扮演游戏中， 体验创造与轻度生存元素的融合。 通过逐步构建你自己的世界， 在各种生态区域中前行， 并与各种元素， 或更糟糕的——危险的迷尸战斗。 收集资源， 建造基地， 并制作武器和工具， 以狩猎、 钓鱼、 耕种和战斗。&lt;h2 class="bb_tag"&gt;创造你自己的世界&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1589120/extras/Gif_tiles_biomes.gif?t=1694021081" /&gt;&lt;br&gt;释放你的创造力， 从不同的生态区域创建你梦想中的世界。 每个生态区域都提供各种材料和资源， 供你在冒险中前进、 建造装备和基地使用。&lt;h2 class="bb_tag"&gt;制造、 烹饪、 狩猎和钓鱼&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1589120/extras/Gif_Craft.gif?t=1694021081" /&gt;&lt;br&gt;寻找食物， 烹饪营养的餐食， 并制作生存必需品。 扩大你的基地并建造必要的工作站， 例如工作台、 锯木桌、 熔炉或砧。 提升你的制作技能， 制作更高级的装备和工具， 帮助你前进。&lt;h2 class="bb_tag"&gt;建造&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1589120/extras/Gif_build.gif?t=1694021081" /&gt;&lt;br&gt;通过简单而巧妙的模块化建筑系统， 创建属于自己的前哨站和基地。 用手工制作的家具和美丽的花园让其成为独一无二的场所。 在门廊上的摇椅上享受宁静的日落时光。&lt;h2 class="bb_tag"&gt;耕种&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1589120/extras/Gif_Biomes.gif?t=1694021081" /&gt;&lt;br&gt;收集野生草药和蔬菜的种子， 建立农田， 并收获你的农产品。 悉心照料你的农田， 定期浇水， 制作肥料以加快生长速度， 并照顾你的收成。&lt;h2 class="bb_tag"&gt;主要特点&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;轻松的生存世界建造游戏——通过拼凑世界地块来创建一个世界。&lt;br&gt;&lt;/li&gt;&lt;li&gt;100多个独特的世界地块， 具有不同的生态和生态区域组合。&lt;br&gt;&lt;/li&gt;&lt;li&gt;制作、 种植、 狩猎、 钓鱼、 建造基地、 战斗和探索。&lt;br&gt;&lt;/li&gt;&lt;li&gt;通过长期的进度系统， 以打造属于你自己的冒险角色扮演游戏。&lt;br&gt;&lt;/li&gt;&lt;li&gt;以你自己的节奏完成任务， 并揭示这片土地的秘密。&lt;br&gt;&lt;/li&gt;&lt;li&gt;一个年轻女子身处冲突之中的轻松故事。&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;辅助功能&lt;/h2&gt;完整的控制器支持， 按键和按钮重新绑定， 禁用相机摇晃， 禁用平滑相机移动， 光敏感模式， 自定义音效、 音乐、 进食噪音和脚步声的音量控制。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=http://discord.gg/HwBgTMr4WU" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1589120/extras/Steam_Discord.png?t=1694021081" /&gt;&lt;/a&gt;</t>
+          <t>指挥你的拖网渔船去探索一系列偏远的岛屿及其周遭深海，查看底下到底潜藏着什么。将你的渔获卖给当地人并完成任务，以更多的了解每个地区动荡的过去。为你的船只配备更好的设备，以便在深海海沟中撒网捕捞并航向遥远的大陆，但要留意时间。你可能并不喜欢哪些在黑暗中潜藏的东西……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1562430/extras/Fishing.gif?t=1692960403" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;探索岛屿并发掘其中的秘密&lt;/strong&gt;&lt;/h2&gt;从你在偏远群岛的新家“Marrows”出发，下水搜寻古怪的藏品以及超过125种深海生物。在完成任务和拜访附近岛屿时探索各个区域——每个岛屿都有自己独特的机遇、居民与秘密。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1562430/extras/Areas.gif?t=1692960403" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;挖掘深处&lt;/strong&gt;&lt;/h2&gt;有人想让你挖掘过去埋藏的事情，但他们可信吗？一切都能就此打住吗？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1562430/extras/Dredging.gif?t=1692960403" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;小心迷雾&lt;/strong&gt;&lt;/h2&gt;危险无处不在，要小心尖锐的岩石和浅滩暗礁，不过最大的威胁潜藏在夜晚笼罩大海的迷雾中……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1562430/extras/Monsters.gif?t=1692960403" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;游戏特色&lt;/strong&gt;&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 解开谜团：指挥你的拖网渔船穿越一系列偏远的岛屿，每个岛屿都有需要被满足的居民，有待发现的野生动物和有待发掘的故事&lt;br&gt;&lt;/li&gt;&lt;li&gt; 挖掘深处：在海洋中搜寻隐藏的宝藏，完成任务以获得奇异的新能力。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 研究你的船只：研究特殊设备和升级你的船只能力，以获得稀有的鱼类和珍贵的深海奇珍。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 捕鱼求生：将你的发现卖给当地人，以更多地了解每个地区，升级你的船只，以到达更隐蔽的地方。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 与深不可测的事物作斗争：坚定信念，利用你的能力在夜幕笼罩的水上航行中生存下来。&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1593030</t>
+          <t>1589120</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Terra Nil</t>
+          <t>Above Snakes</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>伊始之地</t>
+          <t>蛇上而生</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>自然,策略,放松,解谜,城市营造</t>
+          <t>开放世界,氛围,开放世界生存制作,沙盒,建造</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6365,39 +6365,39 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2023年03月28日</t>
+          <t>2023年05月25日</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1593030/extras/TN_Steam_GIF1.gif?t=1682689894" /&gt;&lt;br&gt;&lt;br&gt;《Terra Nil》这款游戏旨在将贫瘠死寂的地貌转变为欣欣向荣、生机勃勃的生态系统。将丧失活性的土壤变成肥沃的草地，净化被污染的海洋，种植广阔的森林，为动物创造理想的家园栖息地。然后回收建筑，不留下你涉足的痕迹。开垦与改造荒地。&lt;h2 class="bb_tag"&gt;逆向城市建造游戏&lt;/h2&gt;使用先进的生态技术净化土壤，建造平原、湿地、海滩、热带雨林、野花等，然后有效地回收你建造的一切，为新的动物居民留下原始的环境。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1593030/extras/TN_Steam_GIF3.gif?t=1682689894" /&gt;&lt;h2 class="bb_tag"&gt;每次为你呈现不同的地图&lt;/h2&gt;Terra Nil采用程序生成的地貌，这意味着每次游玩过程都各不相同。围绕随机、困难重重和难以预测的地形规划建造——包括蜿蜒的河流、山脉、低地和海洋。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1593030/extras/TN_Steam_GIF2.gif?t=1682689894" /&gt;&lt;h2 class="bb_tag"&gt;自然发展与回归&lt;/h2&gt;Terra Nil的每个区域都将分阶段发展，最终目标是留下原始荒野。关卡的主旨并不是无限增长，而是平衡和培育环境，然后悄然离开，还这片土地以宁静。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1593030/extras/TN_Steam_GIF4.gif?t=1682689894" /&gt;&lt;h2 class="bb_tag"&gt;体验宁静&lt;/h2&gt;Terra Nil拥有郁郁葱葱的手绘环境、舒心的音乐和充满氛围的环境音景，给人一种宁静、冥想般的体验。游戏过关后，使用“欣赏”模式就可沉浸在你所恢复的生态系统的自然美景中。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1593030/extras/TN_Steam_GIF5.gif?t=1682689894" /&gt;</t>
+          <t>在这款以等距视角为基础、 受荒野西部启发的冒险角色扮演游戏中， 体验创造与轻度生存元素的融合。 通过逐步构建你自己的世界， 在各种生态区域中前行， 并与各种元素， 或更糟糕的——危险的迷尸战斗。 收集资源， 建造基地， 并制作武器和工具， 以狩猎、 钓鱼、 耕种和战斗。&lt;h2 class="bb_tag"&gt;创造你自己的世界&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1589120/extras/Gif_tiles_biomes.gif?t=1694021081" /&gt;&lt;br&gt;释放你的创造力， 从不同的生态区域创建你梦想中的世界。 每个生态区域都提供各种材料和资源， 供你在冒险中前进、 建造装备和基地使用。&lt;h2 class="bb_tag"&gt;制造、 烹饪、 狩猎和钓鱼&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1589120/extras/Gif_Craft.gif?t=1694021081" /&gt;&lt;br&gt;寻找食物， 烹饪营养的餐食， 并制作生存必需品。 扩大你的基地并建造必要的工作站， 例如工作台、 锯木桌、 熔炉或砧。 提升你的制作技能， 制作更高级的装备和工具， 帮助你前进。&lt;h2 class="bb_tag"&gt;建造&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1589120/extras/Gif_build.gif?t=1694021081" /&gt;&lt;br&gt;通过简单而巧妙的模块化建筑系统， 创建属于自己的前哨站和基地。 用手工制作的家具和美丽的花园让其成为独一无二的场所。 在门廊上的摇椅上享受宁静的日落时光。&lt;h2 class="bb_tag"&gt;耕种&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1589120/extras/Gif_Biomes.gif?t=1694021081" /&gt;&lt;br&gt;收集野生草药和蔬菜的种子， 建立农田， 并收获你的农产品。 悉心照料你的农田， 定期浇水， 制作肥料以加快生长速度， 并照顾你的收成。&lt;h2 class="bb_tag"&gt;主要特点&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;轻松的生存世界建造游戏——通过拼凑世界地块来创建一个世界。&lt;br&gt;&lt;/li&gt;&lt;li&gt;100多个独特的世界地块， 具有不同的生态和生态区域组合。&lt;br&gt;&lt;/li&gt;&lt;li&gt;制作、 种植、 狩猎、 钓鱼、 建造基地、 战斗和探索。&lt;br&gt;&lt;/li&gt;&lt;li&gt;通过长期的进度系统， 以打造属于你自己的冒险角色扮演游戏。&lt;br&gt;&lt;/li&gt;&lt;li&gt;以你自己的节奏完成任务， 并揭示这片土地的秘密。&lt;br&gt;&lt;/li&gt;&lt;li&gt;一个年轻女子身处冲突之中的轻松故事。&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;辅助功能&lt;/h2&gt;完整的控制器支持， 按键和按钮重新绑定， 禁用相机摇晃， 禁用平滑相机移动， 光敏感模式， 自定义音效、 音乐、 进食噪音和脚步声的音量控制。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=http://discord.gg/HwBgTMr4WU" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1589120/extras/Steam_Discord.png?t=1694021081" /&gt;&lt;/a&gt;</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>1594940</t>
+          <t>1593030</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Little Witch in the Woods</t>
+          <t>Terra Nil</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>林中小女巫</t>
+          <t>伊始之地</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>抢先体验,模拟,可爱,休闲,魔法</t>
+          <t>自然,策略,放松,解谜,城市营造</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6407,39 +6407,39 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2022年05月17日</t>
+          <t>2023年03月28日</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1594940/extras/Discord_banner_zh.jpg?t=1669166511" /&gt;&lt;h2 class="bb_tag"&gt;小女巫的实习生活&lt;/h2&gt;“卢锡林奥图”是女巫聚居的国度。女巫们在各地建立女巫之家，派遣女巫入驻，为当地居民提供帮助。除此之外，魔法学校的实习女巫也会前往“女巫之家”，在主人女巫手下实习。实习女巫成功结束实习期，就会获得认可，晋升为正式女巫。在《林中小女巫》中成为实习女巫艾莉，体验女巫的日常吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1594940/extras/potion_making.gif?t=1669166511" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1594940/extras/Steam_bar.png?t=1669166511" /&gt;&lt;h2 class="bb_tag"&gt;女巫与居民的故事&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;成为主角艾莉，积极度过实习的每一天，推进丰富多彩的剧情。&lt;br&gt;&lt;/li&gt;&lt;li&gt;实践在女巫学校中学到的知识，帮助居民打造更美好舒适的生活环境。&lt;br&gt;&lt;/li&gt;&lt;li&gt;与各具魅力的村民成为朋友，倾听大家内心的故事。如果能够成为亲密挚友，说不定还有机会揭开他们深藏心底的秘密。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1594940/extras/npc.gif?t=1669166511" /&gt;&lt;h2 class="bb_tag"&gt;女巫活动与探险&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;采集、加工材料，制作药水！用药水来解决各种棘手麻烦。&lt;br&gt;&lt;/li&gt;&lt;li&gt;在神秘的奇幻世界中自由探索，与千姿百态的可爱生物互动，将所得情报录入“女巫图鉴”。&lt;br&gt;&lt;/li&gt;&lt;li&gt;寻找隐匿秘境！秘境中藏有特殊道具，以及令人意想不到的捷径。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1594940/extras/Collect.gif?t=1669166511" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1594940/extras/Potion_Throw.gif?t=1669166511" /&gt;&lt;h2 class="bb_tag"&gt;悠哉日常(以后会更新)&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;与新朋友聊天，了解他们的喜好，有针对性地准备礼物赠送朋友，可以快速提升亲密度。 &lt;br&gt;&lt;/li&gt;&lt;li&gt;自古以来，女巫与猫就是密不可分的伙伴。与生活在各式环境中，长相与性格都大相径庭的猫咪交流吧。也许某天你将遇见命中注定的猫咪，而它也希望与你日日相伴呢。&lt;br&gt;&lt;/li&gt;&lt;li&gt;时不时去个钓鱼，享受平静祥和的日常。只有今天充分放松身心，明天才能朝气蓬勃地踏上冒险之旅呀！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1594940/extras/cat_ingame.gif?t=1669166511" /&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1593030/extras/TN_Steam_GIF1.gif?t=1682689894" /&gt;&lt;br&gt;&lt;br&gt;《Terra Nil》这款游戏旨在将贫瘠死寂的地貌转变为欣欣向荣、生机勃勃的生态系统。将丧失活性的土壤变成肥沃的草地，净化被污染的海洋，种植广阔的森林，为动物创造理想的家园栖息地。然后回收建筑，不留下你涉足的痕迹。开垦与改造荒地。&lt;h2 class="bb_tag"&gt;逆向城市建造游戏&lt;/h2&gt;使用先进的生态技术净化土壤，建造平原、湿地、海滩、热带雨林、野花等，然后有效地回收你建造的一切，为新的动物居民留下原始的环境。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1593030/extras/TN_Steam_GIF3.gif?t=1682689894" /&gt;&lt;h2 class="bb_tag"&gt;每次为你呈现不同的地图&lt;/h2&gt;Terra Nil采用程序生成的地貌，这意味着每次游玩过程都各不相同。围绕随机、困难重重和难以预测的地形规划建造——包括蜿蜒的河流、山脉、低地和海洋。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1593030/extras/TN_Steam_GIF2.gif?t=1682689894" /&gt;&lt;h2 class="bb_tag"&gt;自然发展与回归&lt;/h2&gt;Terra Nil的每个区域都将分阶段发展，最终目标是留下原始荒野。关卡的主旨并不是无限增长，而是平衡和培育环境，然后悄然离开，还这片土地以宁静。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1593030/extras/TN_Steam_GIF4.gif?t=1682689894" /&gt;&lt;h2 class="bb_tag"&gt;体验宁静&lt;/h2&gt;Terra Nil拥有郁郁葱葱的手绘环境、舒心的音乐和充满氛围的环境音景，给人一种宁静、冥想般的体验。游戏过关后，使用“欣赏”模式就可沉浸在你所恢复的生态系统的自然美景中。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1593030/extras/TN_Steam_GIF5.gif?t=1682689894" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>1599340</t>
+          <t>1594940</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Lost Ark</t>
+          <t>Little Witch in the Woods</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>失落的方舟</t>
+          <t>林中小女巫</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Action,Adventure,Massively Multiplayer,RPG,Free to Play</t>
+          <t>抢先体验,模拟,可爱,休闲,魔法</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6449,39 +6449,39 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2022年02月12日</t>
+          <t>2022年05月17日</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Embark on an odyssey for the Lost Ark in a vast, vibrant world: explore new lands, seek out lost treasures, and test yourself in thrilling action combat. Define your fighting style with your class and advanced class, and customize your skills, weapons, and gear to bring your might to bear as you fight against hordes of enemies, colossal bosses, and dark forces seeking the power of the Ark in this action-packed free-to-play RPG.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599340/extras/LA_STEAM_WORLD_BRIMMING_01.gif?t=1693257014" /&gt;&lt;br&gt;&lt;strong&gt;Discover a World Brimming with Adventure&lt;/strong&gt;&lt;br&gt;Explore seven vast, varied continents and the seas between them to find vibrant cultures, strange and fantastical beasts, and all the unexpected marvels waiting to be discovered. Delve into the secrets of Arkesia, prove your might in battles and raids, compete against other players in PvP, travel to distant islands in search of hidden riches, face packs of enemies and colossal bosses in the open world, and more.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599340/extras/LA_STEAM_ODYSSEY_AWAITS_02.gif?t=1693257014" /&gt;&lt;br&gt;&lt;strong&gt;Your Odyssey Awaits&lt;/strong&gt;&lt;br&gt;Splash into massively satisfying ARPG-style combat and progression as you quest, raid, and fight on the scope of an MMO.  Whether you want to play solo, in groups with friends, or matched up with other adventurers in the world, there’s an epic adventure waiting for you.  Fight in the open world or delve into chaos dungeons, go head-to-head in expert PvP duels, test your mettle on epic quests, raid against bosses big and small, and hold your own in the fight against the Demon Legion to reclaim the power and light of the Lost Ark.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599340/extras/LA_STEAM_FIGHT_03.gif?t=1693257014" /&gt;&lt;br&gt;&lt;strong&gt;Define Your Fight&lt;/strong&gt;&lt;br&gt;Lost Ark offers easy-to-learn features with unexpected depth and room for customization. Hit the ground running with pick-up-and-play action then take control of your combat with the unique Tripod system. Unlock three tiers of customization for each of your abilities, giving you powerful control of exactly how you fight.  Lost Ark’s ever-expanding roster of iconic classes—each with their own distinct advanced classes—offers plenty of room to explore until you find the combat style that’s just right for you.  &lt;br&gt;&lt;br&gt;The same goes for other features: as you continue your journey, you’ll find non-combat skills, crafting, guilds and social systems, and other rich features that bring the world alive. Whether you want to skim along the surface or dive deep into the details is up to you.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;ACCESSIBILITY FEATURES:&lt;/strong&gt;&lt;br&gt;Personalize your adventure with accessibility settings before game play. Enable numerous options including chat text enlargement, color blindness filters, photosensitivity mode, toggleable camera shake, and subtitle settings to create your optimal experience. Define your audio preferences with settings for volume controls, mono sound, stereo sound, and surround sound. You can also adjust game inputs via input remapping options and mouse/keyboard control settings. Lastly, define game inputs via input remapping options, and make sure no message is missed with chat text-to-speech and speech-to-text.</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1594940/extras/Discord_banner_zh.jpg?t=1669166511" /&gt;&lt;h2 class="bb_tag"&gt;小女巫的实习生活&lt;/h2&gt;“卢锡林奥图”是女巫聚居的国度。女巫们在各地建立女巫之家，派遣女巫入驻，为当地居民提供帮助。除此之外，魔法学校的实习女巫也会前往“女巫之家”，在主人女巫手下实习。实习女巫成功结束实习期，就会获得认可，晋升为正式女巫。在《林中小女巫》中成为实习女巫艾莉，体验女巫的日常吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1594940/extras/potion_making.gif?t=1669166511" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1594940/extras/Steam_bar.png?t=1669166511" /&gt;&lt;h2 class="bb_tag"&gt;女巫与居民的故事&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;成为主角艾莉，积极度过实习的每一天，推进丰富多彩的剧情。&lt;br&gt;&lt;/li&gt;&lt;li&gt;实践在女巫学校中学到的知识，帮助居民打造更美好舒适的生活环境。&lt;br&gt;&lt;/li&gt;&lt;li&gt;与各具魅力的村民成为朋友，倾听大家内心的故事。如果能够成为亲密挚友，说不定还有机会揭开他们深藏心底的秘密。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1594940/extras/npc.gif?t=1669166511" /&gt;&lt;h2 class="bb_tag"&gt;女巫活动与探险&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;采集、加工材料，制作药水！用药水来解决各种棘手麻烦。&lt;br&gt;&lt;/li&gt;&lt;li&gt;在神秘的奇幻世界中自由探索，与千姿百态的可爱生物互动，将所得情报录入“女巫图鉴”。&lt;br&gt;&lt;/li&gt;&lt;li&gt;寻找隐匿秘境！秘境中藏有特殊道具，以及令人意想不到的捷径。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1594940/extras/Collect.gif?t=1669166511" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1594940/extras/Potion_Throw.gif?t=1669166511" /&gt;&lt;h2 class="bb_tag"&gt;悠哉日常(以后会更新)&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;与新朋友聊天，了解他们的喜好，有针对性地准备礼物赠送朋友，可以快速提升亲密度。 &lt;br&gt;&lt;/li&gt;&lt;li&gt;自古以来，女巫与猫就是密不可分的伙伴。与生活在各式环境中，长相与性格都大相径庭的猫咪交流吧。也许某天你将遇见命中注定的猫咪，而它也希望与你日日相伴呢。&lt;br&gt;&lt;/li&gt;&lt;li&gt;时不时去个钓鱼，享受平静祥和的日常。只有今天充分放松身心，明天才能朝气蓬勃地踏上冒险之旅呀！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1594940/extras/cat_ingame.gif?t=1669166511" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>1599600</t>
+          <t>1599340</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>PlateUp!</t>
+          <t>Lost Ark</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>速速上菜！</t>
+          <t>失落的方舟</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>合作,管理,烹饪,轻度 Rogue,建造</t>
+          <t>Action,Adventure,Massively Multiplayer,RPG,Free to Play</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6491,39 +6491,39 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2022年08月04日</t>
+          <t>2022年02月12日</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;Join us on Discord!&lt;/h2&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.plateupgame.com" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599600/extras/discordBanner.png?t=1691451213" /&gt;&lt;/a&gt;&lt;br&gt;速速上菜！将混乱厨房和餐厅管理的元素与战略规划和发展相结合，使玩家得以烹饪出一道独一无二又有趣的Roguelite菜肴。最多可供四名玩家白手起家打造并经营餐厅，体验包括选择餐盘、购买并放置电器等设备——其中的一些还可被连接起来，帮助您打造超棒的自动化厨房——让它能更好地为客人们服务。玩家还可随意设计他们的餐厅，并能在各个班次间为餐厅拓展和开发——在此过程中还能解锁额外内容和挑战。你能否在忙碌的15天内烹饪、服务客人、管理餐厅并解锁一家全新的连锁店呢？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599600/extras/sch_Store_Gifs_烹饪.gif?t=1691451213" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;经典合作烹饪玩法，并带有各种主菜、配菜、酱料、浇头、甜点和开胃菜。&lt;br&gt;&lt;/li&gt;&lt;li&gt;选择装备、布置厨房、编撰菜单然后端上菜肴。&lt;br&gt;&lt;/li&gt;&lt;li&gt;从热腾腾的汤品到爽口的沙拉，从鲜嫩的牛排到馅料十足的馅饼，每个人都能在此找到自己的口味。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599600/extras/sch_Store_Gifs_服务.gif?t=1691451213" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;照料前台事务：引导客人落座、提交点餐然后安抚催菜。&lt;br&gt;&lt;/li&gt;&lt;li&gt;好好配备餐厅，使其能够应付最为刁钻的客人，在他们需要的时候及时提供相应的餐点。&lt;br&gt;&lt;/li&gt;&lt;li&gt;与队友一起合作，让您的团队就像是一台上好油的机器一样顺畅运作，或自己一个人单干树立名声。 &lt;br&gt;&lt;/li&gt;&lt;li&gt;达成目标并在全新的地点将连锁餐厅送至更高的境界，同时为您带来全新的解锁和升级&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599600/extras/sch_Store_Gifs_升级.gif?t=1691451213" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;升级并重新规划餐厅，使其符合您的个人品味：在餐厅休业时，计划就可以开始啦！&lt;br&gt;&lt;/li&gt;&lt;li&gt;决定购买哪些新装备，并将其放在您想要的地方。&lt;br&gt;&lt;/li&gt;&lt;li&gt;想要来点高科技？那就安装涡轮灶台，配备上输送带，然后慢慢踏上未来的自动化厨房之路。&lt;br&gt;&lt;/li&gt;&lt;li&gt;喜欢那些更……花哨的东西？那就快布置上您的艺术收藏，贴上墙纸，然后招募好友来担任领班，为客人们提供这辈子最好的美食体验。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599600/extras/sch_Store_Gifs_拓展.gif?t=1691451213" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;达成目标并在下个地点重新开始，同时为您带来新的解锁和升级。&lt;br&gt;&lt;/li&gt;&lt;li&gt;将您的品牌定制为美食餐厅，或者重新调整为快餐连锁。&lt;br&gt;&lt;/li&gt;&lt;li&gt;每家餐厅都会以程序生成的方式拥有专属的氛围、客人以及条件。&lt;br&gt;&lt;/li&gt;&lt;li&gt;返回连锁总部即可查看成就，自定义角色并升级配备，为您下一场冒险做好一切准备！&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>Embark on an odyssey for the Lost Ark in a vast, vibrant world: explore new lands, seek out lost treasures, and test yourself in thrilling action combat. Define your fighting style with your class and advanced class, and customize your skills, weapons, and gear to bring your might to bear as you fight against hordes of enemies, colossal bosses, and dark forces seeking the power of the Ark in this action-packed free-to-play RPG.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599340/extras/LA_STEAM_WORLD_BRIMMING_01.gif?t=1693257014" /&gt;&lt;br&gt;&lt;strong&gt;Discover a World Brimming with Adventure&lt;/strong&gt;&lt;br&gt;Explore seven vast, varied continents and the seas between them to find vibrant cultures, strange and fantastical beasts, and all the unexpected marvels waiting to be discovered. Delve into the secrets of Arkesia, prove your might in battles and raids, compete against other players in PvP, travel to distant islands in search of hidden riches, face packs of enemies and colossal bosses in the open world, and more.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599340/extras/LA_STEAM_ODYSSEY_AWAITS_02.gif?t=1693257014" /&gt;&lt;br&gt;&lt;strong&gt;Your Odyssey Awaits&lt;/strong&gt;&lt;br&gt;Splash into massively satisfying ARPG-style combat and progression as you quest, raid, and fight on the scope of an MMO.  Whether you want to play solo, in groups with friends, or matched up with other adventurers in the world, there’s an epic adventure waiting for you.  Fight in the open world or delve into chaos dungeons, go head-to-head in expert PvP duels, test your mettle on epic quests, raid against bosses big and small, and hold your own in the fight against the Demon Legion to reclaim the power and light of the Lost Ark.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599340/extras/LA_STEAM_FIGHT_03.gif?t=1693257014" /&gt;&lt;br&gt;&lt;strong&gt;Define Your Fight&lt;/strong&gt;&lt;br&gt;Lost Ark offers easy-to-learn features with unexpected depth and room for customization. Hit the ground running with pick-up-and-play action then take control of your combat with the unique Tripod system. Unlock three tiers of customization for each of your abilities, giving you powerful control of exactly how you fight.  Lost Ark’s ever-expanding roster of iconic classes—each with their own distinct advanced classes—offers plenty of room to explore until you find the combat style that’s just right for you.  &lt;br&gt;&lt;br&gt;The same goes for other features: as you continue your journey, you’ll find non-combat skills, crafting, guilds and social systems, and other rich features that bring the world alive. Whether you want to skim along the surface or dive deep into the details is up to you.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;ACCESSIBILITY FEATURES:&lt;/strong&gt;&lt;br&gt;Personalize your adventure with accessibility settings before game play. Enable numerous options including chat text enlargement, color blindness filters, photosensitivity mode, toggleable camera shake, and subtitle settings to create your optimal experience. Define your audio preferences with settings for volume controls, mono sound, stereo sound, and surround sound. You can also adjust game inputs via input remapping options and mouse/keyboard control settings. Lastly, define game inputs via input remapping options, and make sure no message is missed with chat text-to-speech and speech-to-text.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>1600370</t>
+          <t>1599600</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Not Tonight 2</t>
+          <t>PlateUp!</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Not Tonight 2</t>
+          <t>速速上菜！</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>模拟,角色扮演,生活模拟,像素图形,架空历史</t>
+          <t>合作,管理,烹饪,轻度 Rogue,建造</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6531,36 +6531,41 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2022年02月11日</t>
+          <t>2022年08月04日</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1600370/extras/Honeycam_2021-08-10_07-52-06.gif?t=1652095478" /&gt;&lt;br&gt;&lt;i&gt;移民执法第112号：你已被捕。除非你的朋友能够横跨支离破碎的美国，拿到你的身份证明，同时摆脱所有麻烦……不然，你的美国梦就到此为止了。&lt;/i&gt;&lt;br&gt; &lt;br&gt;在一个平行世界，美国支离破碎，资本主义与政治权欲掌控了整个国家，你的朋友也失踪了。爱德华多·苏亚雷斯参加某次示威游行被抓，目前等待送往迈阿密古拉格。&lt;br&gt; &lt;br&gt;《今晚没开2》讲述了美国境内的一次长途旅行，你在途中需要检查他人的身份证明。此外，游戏融入了时间管理与角色扮演游戏的元素，加上政治色彩浓厚的黑色幽默，每一次抉择都会产生一定的影响。爱德华多的三个朋友马利克、凯文和玛丽能否找到他的身份证明，有能否及时送到迈阿密？美国梦会不会就此终结？&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1600370/extras/Features_Banner.png?t=1652095478" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 三个剧情分支，游戏文案团队的成员背景多样&lt;br&gt;&lt;/li&gt;&lt;li&gt;横跨美国，路上需要做出诸多恐怖的决定&lt;br&gt;&lt;/li&gt;&lt;li&gt;你的工作需要接触夜店的客人、教堂的信徒、赛车场的观众、赌徒和邪教徒&lt;br&gt;&lt;/li&gt;&lt;li&gt;查看他人的身份证明，完成各种搞笑、给力的小游戏&lt;br&gt;&lt;/li&gt;&lt;li&gt;节奏游戏、词语联想、上肉饼堡、评判宗教、检查肉鸡等等小游戏&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1600370/extras/pipsaltlake.gif?t=1652095478" /&gt;</t>
+          <t>&lt;h2 class="bb_tag"&gt;Join us on Discord!&lt;/h2&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.plateupgame.com" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599600/extras/discordBanner.png?t=1691451213" /&gt;&lt;/a&gt;&lt;br&gt;速速上菜！将混乱厨房和餐厅管理的元素与战略规划和发展相结合，使玩家得以烹饪出一道独一无二又有趣的Roguelite菜肴。最多可供四名玩家白手起家打造并经营餐厅，体验包括选择餐盘、购买并放置电器等设备——其中的一些还可被连接起来，帮助您打造超棒的自动化厨房——让它能更好地为客人们服务。玩家还可随意设计他们的餐厅，并能在各个班次间为餐厅拓展和开发——在此过程中还能解锁额外内容和挑战。你能否在忙碌的15天内烹饪、服务客人、管理餐厅并解锁一家全新的连锁店呢？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599600/extras/sch_Store_Gifs_烹饪.gif?t=1691451213" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;经典合作烹饪玩法，并带有各种主菜、配菜、酱料、浇头、甜点和开胃菜。&lt;br&gt;&lt;/li&gt;&lt;li&gt;选择装备、布置厨房、编撰菜单然后端上菜肴。&lt;br&gt;&lt;/li&gt;&lt;li&gt;从热腾腾的汤品到爽口的沙拉，从鲜嫩的牛排到馅料十足的馅饼，每个人都能在此找到自己的口味。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599600/extras/sch_Store_Gifs_服务.gif?t=1691451213" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;照料前台事务：引导客人落座、提交点餐然后安抚催菜。&lt;br&gt;&lt;/li&gt;&lt;li&gt;好好配备餐厅，使其能够应付最为刁钻的客人，在他们需要的时候及时提供相应的餐点。&lt;br&gt;&lt;/li&gt;&lt;li&gt;与队友一起合作，让您的团队就像是一台上好油的机器一样顺畅运作，或自己一个人单干树立名声。 &lt;br&gt;&lt;/li&gt;&lt;li&gt;达成目标并在全新的地点将连锁餐厅送至更高的境界，同时为您带来全新的解锁和升级&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599600/extras/sch_Store_Gifs_升级.gif?t=1691451213" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;升级并重新规划餐厅，使其符合您的个人品味：在餐厅休业时，计划就可以开始啦！&lt;br&gt;&lt;/li&gt;&lt;li&gt;决定购买哪些新装备，并将其放在您想要的地方。&lt;br&gt;&lt;/li&gt;&lt;li&gt;想要来点高科技？那就安装涡轮灶台，配备上输送带，然后慢慢踏上未来的自动化厨房之路。&lt;br&gt;&lt;/li&gt;&lt;li&gt;喜欢那些更……花哨的东西？那就快布置上您的艺术收藏，贴上墙纸，然后招募好友来担任领班，为客人们提供这辈子最好的美食体验。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599600/extras/sch_Store_Gifs_拓展.gif?t=1691451213" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;达成目标并在下个地点重新开始，同时为您带来新的解锁和升级。&lt;br&gt;&lt;/li&gt;&lt;li&gt;将您的品牌定制为美食餐厅，或者重新调整为快餐连锁。&lt;br&gt;&lt;/li&gt;&lt;li&gt;每家餐厅都会以程序生成的方式拥有专属的氛围、客人以及条件。&lt;br&gt;&lt;/li&gt;&lt;li&gt;返回连锁总部即可查看成就，自定义角色并升级配备，为您下一场冒险做好一切准备！&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>1608070</t>
+          <t>1600370</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CRISIS CORE –FINAL FANTASY VII– REUNION</t>
+          <t>Not Tonight 2</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>最终幻想7：核心危机 重聚</t>
+          <t>Not Tonight 2</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>动作,角色扮演,冒险,日系角色扮演,动作角色扮演</t>
+          <t>模拟,角色扮演,生活模拟,像素图形,架空历史</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6568,41 +6573,36 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2022年12月14日</t>
+          <t>2022年02月11日</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>《CRISIS CORE -FINAL FANTASY VII-》的Remastered版《CRISIS CORE -FINAL FANTASY VII- REUNION》&lt;br&gt;&lt;br&gt;本作除了将画面HD化之外，包括登场角色在内的所有3D模型也将焕然一新。支持全语音的内容和全新改编的乐曲将更加生动地描绘出波澜万丈的故事。&lt;br&gt;&lt;br&gt;《CRISIS CORE -FINAL FANTASY VII- REUNION》的主角——青年扎克斯·菲尔不仅是未来拯救世界的少年所憧憬之人，还受到传奇英雄的信赖，更被掌握星球命运的少女所深爱着。他托付给克劳德的梦想与尊严，描述这“一切”的壮大故事，如今实现超越HD复刻的进化。&lt;h2 class="bb_tag"&gt;＜Remastered版的新要素＞&lt;/h2&gt;·所有画面HD化&lt;br&gt;·翻新角色和背景等所有3D模型&lt;br&gt;·通过改良战斗系统大幅提升游戏体验的舒适度&lt;br&gt;·支持全语音&lt;br&gt;·重编一部分乐曲&lt;br&gt;·Steam版最高支援120fps&lt;br&gt;※由於建議規格設定為解析度1920x1080和60fps，因此當使用更高解析度或高fps時，則需要支援該解析度的顯示器和效能足夠的PC。&lt;br&gt;&lt;br&gt;＜CRISIS CORE -FINAL FANTASY VII- REUNION＞&lt;br&gt;在《FINAL FANTASY VII》的故事发生的七年之前。&lt;br&gt;“神罗公司”在魔晄都市“米德加”具有强大的军力和影响力。&lt;br&gt;而在神罗，有个战斗能力卓越的士兵组织“神罗战士”，2nd神罗战士扎克斯便隶属于该组织。&lt;br&gt;扎克斯的任务是与自己的前辈——1st神罗战士安吉尔和作为英雄闻名于世的萨菲罗斯一起调查“神罗战士大量失踪事件”。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1600370/extras/Honeycam_2021-08-10_07-52-06.gif?t=1652095478" /&gt;&lt;br&gt;&lt;i&gt;移民执法第112号：你已被捕。除非你的朋友能够横跨支离破碎的美国，拿到你的身份证明，同时摆脱所有麻烦……不然，你的美国梦就到此为止了。&lt;/i&gt;&lt;br&gt; &lt;br&gt;在一个平行世界，美国支离破碎，资本主义与政治权欲掌控了整个国家，你的朋友也失踪了。爱德华多·苏亚雷斯参加某次示威游行被抓，目前等待送往迈阿密古拉格。&lt;br&gt; &lt;br&gt;《今晚没开2》讲述了美国境内的一次长途旅行，你在途中需要检查他人的身份证明。此外，游戏融入了时间管理与角色扮演游戏的元素，加上政治色彩浓厚的黑色幽默，每一次抉择都会产生一定的影响。爱德华多的三个朋友马利克、凯文和玛丽能否找到他的身份证明，有能否及时送到迈阿密？美国梦会不会就此终结？&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1600370/extras/Features_Banner.png?t=1652095478" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 三个剧情分支，游戏文案团队的成员背景多样&lt;br&gt;&lt;/li&gt;&lt;li&gt;横跨美国，路上需要做出诸多恐怖的决定&lt;br&gt;&lt;/li&gt;&lt;li&gt;你的工作需要接触夜店的客人、教堂的信徒、赛车场的观众、赌徒和邪教徒&lt;br&gt;&lt;/li&gt;&lt;li&gt;查看他人的身份证明，完成各种搞笑、给力的小游戏&lt;br&gt;&lt;/li&gt;&lt;li&gt;节奏游戏、词语联想、上肉饼堡、评判宗教、检查肉鸡等等小游戏&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1600370/extras/pipsaltlake.gif?t=1652095478" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>1611430</t>
+          <t>1608070</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>The Bridge Curse Road to Salvation</t>
+          <t>CRISIS CORE –FINAL FANTASY VII– REUNION</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>女鬼桥 开魂路</t>
+          <t>最终幻想7：核心危机 重聚</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>第一人称,解谜,探索,剧情,爱情</t>
+          <t>动作,角色扮演,冒险,日系角色扮演,动作角色扮演</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6612,39 +6612,39 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2022年08月25日</t>
+          <t>2022年12月14日</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1611430/extras/ScContenttitleLOGO.png?t=1675504615" /&gt;&lt;h2 class="bb_tag"&gt;《女鬼桥 开魂路》&lt;/h2&gt;是第一人称隐蔽类恐怖游戏。游戏故事发生在以十大校园恐怖传说闻名的东湖大学。玩家在游戏中将身临其境穿梭在大学校园中，切身感受令人毛骨悚然的校园恐怖事件。&lt;h2 class="bb_tag"&gt;故事背景：&lt;/h2&gt;东湖大学校园中流传多年的禁忌传说，校园里的一座桥上有一个阴魂不散的女学生鬼魂。相隔多年，一群大学生决定举办女鬼桥试胆大会，挑战禁忌测试这幢都市传说。没想到真的开始遭遇各种奇怪的事件，随着危险步步逼近，究竟撞鬼的同学们要如何逃过一劫？&lt;h2 class="bb_tag"&gt;遊戲玩法：&lt;/h2&gt;手无寸铁的你，唯一的出路就是观察四周，利用隐蔽空间躲避女鬼的猎杀，在被女鬼抓到前逃离危险。透过探索暗夜中的校园，获得物品与资讯，破解机关谜题，以及来自女鬼的诅咒。探查环境寻找线索，搜集关键物品，逐一解开隐藏在校园灵异传说的谜团，最终拼凑出背后的真相。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1611430/extras/deco.png?t=1675504615" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1611430/extras/TC__Contentitem01.png?t=1675504615" /&gt;&lt;br&gt;《逃匿》&lt;br&gt;观察四周即时逃跑，利用隐蔽空间躲藏，在被女鬼抓到前完成挑战。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1611430/extras/item01.gif?t=1675504615" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1611430/extras/SC__Contentitem02.png?t=1675504615" /&gt;&lt;br&gt;《解谜》&lt;br&gt;透过探索获得的物品与资讯，破解机关谜题，以及来自女鬼的诅咒。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1611430/extras/item02.gif?t=1675504615" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1611430/extras/TC__Contentitem03.png?t=1675504615" /&gt;&lt;br&gt;《探索》&lt;br&gt;探查环境寻找线索，蒐集关键物品，逐一解开隐藏在校园灵异传说背后的谜团&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1611430/extras/item03.gif?t=1675504615" /&gt;</t>
+          <t>《CRISIS CORE -FINAL FANTASY VII-》的Remastered版《CRISIS CORE -FINAL FANTASY VII- REUNION》&lt;br&gt;&lt;br&gt;本作除了将画面HD化之外，包括登场角色在内的所有3D模型也将焕然一新。支持全语音的内容和全新改编的乐曲将更加生动地描绘出波澜万丈的故事。&lt;br&gt;&lt;br&gt;《CRISIS CORE -FINAL FANTASY VII- REUNION》的主角——青年扎克斯·菲尔不仅是未来拯救世界的少年所憧憬之人，还受到传奇英雄的信赖，更被掌握星球命运的少女所深爱着。他托付给克劳德的梦想与尊严，描述这“一切”的壮大故事，如今实现超越HD复刻的进化。&lt;h2 class="bb_tag"&gt;＜Remastered版的新要素＞&lt;/h2&gt;·所有画面HD化&lt;br&gt;·翻新角色和背景等所有3D模型&lt;br&gt;·通过改良战斗系统大幅提升游戏体验的舒适度&lt;br&gt;·支持全语音&lt;br&gt;·重编一部分乐曲&lt;br&gt;·Steam版最高支援120fps&lt;br&gt;※由於建議規格設定為解析度1920x1080和60fps，因此當使用更高解析度或高fps時，則需要支援該解析度的顯示器和效能足夠的PC。&lt;br&gt;&lt;br&gt;＜CRISIS CORE -FINAL FANTASY VII- REUNION＞&lt;br&gt;在《FINAL FANTASY VII》的故事发生的七年之前。&lt;br&gt;“神罗公司”在魔晄都市“米德加”具有强大的军力和影响力。&lt;br&gt;而在神罗，有个战斗能力卓越的士兵组织“神罗战士”，2nd神罗战士扎克斯便隶属于该组织。&lt;br&gt;扎克斯的任务是与自己的前辈——1st神罗战士安吉尔和作为英雄闻名于世的萨菲罗斯一起调查“神罗战士大量失踪事件”。</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1622800</t>
+          <t>1611430</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Super Dungeon Maker</t>
+          <t>The Bridge Curse Road to Salvation</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Super Dungeon Maker</t>
+          <t>女鬼桥 开魂路</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>彩色,自选历险体验,关卡编辑,沙盒,像素图形</t>
+          <t>第一人称,解谜,探索,剧情,爱情</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6652,36 +6652,41 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2023年05月03日</t>
+          <t>2022年08月25日</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1622800/extras/Play_Build-and-Share_banner_TCH.jpg?t=1691576071" /&gt;&lt;br&gt;&lt;strong&gt;请注意:没有VPN的中国用户将无法使用游戏的在线功能。您可以在本地创建关卡，但不能与社区进行共享。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1622800/extras/kicki_sdm_kickiCut1.gif?t=1691576071" /&gt;&lt;h2 class="bb_tag"&gt;只需几个步骤即可打造你的地牢&lt;/h2&gt;容易操作的地牢编辑器让你只需几分钟，便可制作刺激的地牢关卡。选择你想要的关卡、道具和隐藏物品数量，建造不同主题和难度的像素艺术地牢。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1622800/extras/gif_editor_v2.gif?t=1691576071" /&gt;&lt;h2 class="bb_tag"&gt;与朋友、家人或社群分享你的地牢&lt;/h2&gt;释放你的创造力，设计你的地牢，并根据需要设计敌人的位置、地板和秘密路径。你亦可增加陷阱和隐藏的尖刺，提升难度。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1622800/extras/gif_gameplay_v2.gif?t=1691576071" /&gt;&lt;h2 class="bb_tag"&gt;探索社区数之不尽的地牢&lt;/h2&gt;攻略系统内置地牢，或朋友和社群设计的地牢，解开他们的谜题。打败你在冒险中遇到的敌人，找到隐藏心心来补充体力，并击倒最终BOSS。&lt;br&gt;成为社区最难攻略的地牢的设计者。&lt;br&gt;向所有人展示你的地牢是最棒的！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1622800/extras/divider.png?t=1691576071" /&gt;&lt;h2 class="bb_tag"&gt;特色&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;只需几个步骤即可打造你的地牢&lt;br&gt;&lt;/li&gt;&lt;li&gt;跨平台共享&lt;br&gt;&lt;/li&gt;&lt;li&gt;通道功能使编写创意和复杂的地牢更容易。&lt;br&gt;&lt;/li&gt;&lt;li&gt;无限可能的谜题&lt;br&gt;&lt;/li&gt;&lt;li&gt;随心所欲地装饰关卡&lt;br&gt;&lt;/li&gt;&lt;li&gt;畅玩社群设计的数千个地牢&lt;br&gt;&lt;/li&gt;&lt;li&gt;针对 Joycons/游戏手柄和滑鼠/键盘进行了优化&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1611430/extras/ScContenttitleLOGO.png?t=1675504615" /&gt;&lt;h2 class="bb_tag"&gt;《女鬼桥 开魂路》&lt;/h2&gt;是第一人称隐蔽类恐怖游戏。游戏故事发生在以十大校园恐怖传说闻名的东湖大学。玩家在游戏中将身临其境穿梭在大学校园中，切身感受令人毛骨悚然的校园恐怖事件。&lt;h2 class="bb_tag"&gt;故事背景：&lt;/h2&gt;东湖大学校园中流传多年的禁忌传说，校园里的一座桥上有一个阴魂不散的女学生鬼魂。相隔多年，一群大学生决定举办女鬼桥试胆大会，挑战禁忌测试这幢都市传说。没想到真的开始遭遇各种奇怪的事件，随着危险步步逼近，究竟撞鬼的同学们要如何逃过一劫？&lt;h2 class="bb_tag"&gt;遊戲玩法：&lt;/h2&gt;手无寸铁的你，唯一的出路就是观察四周，利用隐蔽空间躲避女鬼的猎杀，在被女鬼抓到前逃离危险。透过探索暗夜中的校园，获得物品与资讯，破解机关谜题，以及来自女鬼的诅咒。探查环境寻找线索，搜集关键物品，逐一解开隐藏在校园灵异传说的谜团，最终拼凑出背后的真相。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1611430/extras/deco.png?t=1675504615" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1611430/extras/TC__Contentitem01.png?t=1675504615" /&gt;&lt;br&gt;《逃匿》&lt;br&gt;观察四周即时逃跑，利用隐蔽空间躲藏，在被女鬼抓到前完成挑战。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1611430/extras/item01.gif?t=1675504615" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1611430/extras/SC__Contentitem02.png?t=1675504615" /&gt;&lt;br&gt;《解谜》&lt;br&gt;透过探索获得的物品与资讯，破解机关谜题，以及来自女鬼的诅咒。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1611430/extras/item02.gif?t=1675504615" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1611430/extras/TC__Contentitem03.png?t=1675504615" /&gt;&lt;br&gt;《探索》&lt;br&gt;探查环境寻找线索，蒐集关键物品，逐一解开隐藏在校园灵异传说背后的谜团&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1611430/extras/item03.gif?t=1675504615" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>1634080</t>
+          <t>1622800</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Nocturnal</t>
+          <t>Super Dungeon Maker</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>离火长明</t>
+          <t>Super Dungeon Maker</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>横向滚屏,动作冒险,线性,探索,记叙</t>
+          <t>彩色,自选历险体验,关卡编辑,沙盒,像素图形</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6691,34 +6696,34 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2023年06月07日</t>
+          <t>2023年05月03日</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1634080/extras/01.jpg?t=1694097089" /&gt;&lt;br&gt;在一段艰难的海上旅程后，长明圣火的战士阿戴西尔回到了他的家乡纳赫兰。一股诡异的迷雾笼罩着整座岛屿，为了解开其中奥秘，阿戴西尔必须挥舞神圣火焰，驱赶着迷雾，开辟一条通往岛屿中心的道路，那里藏着秘辛和强大的能力。​&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;为你的家乡纳赫兰岛而战&lt;/h2&gt;&lt;/strong&gt; 作为长明圣火的战士，你必须揭露教团的阴谋，扫除一切障碍，将岛屿从黑暗中解救出来。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1634080/extras/02.gif?t=1694097089" /&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;致命的迷雾 &lt;/h2&gt;&lt;/strong&gt; 纳赫兰岛绕罩着邪恶，他们隐藏在迷雾之中，吞噬着途中的一切。但你不得不冒着风险涉足其中，找到它的源头，结束这场混乱。不过请注意，人在迷雾中无法呼吸，所以你必须运用你的智慧，找到新的方法来阻止它。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1634080/extras/03.jpg?t=1694097089" /&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;唤醒沉睡在你体内长明圣火的守护之力 &lt;/h2&gt;&lt;/strong&gt; 迷雾是你的敌人，而火焰是你旅途中不可或缺的可靠盟友。 火焰可以驱逐迷雾、点燃周遭环境、驱动机关、还能用来攻击那些不受常规武器影响的邪恶生物。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1634080/extras/04.gif?t=1694097089" /&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;探索岛屿和揭露秘辛&lt;/h2&gt;&lt;/strong&gt; 迷雾覆盖面极广，其中隐藏了强大的力量。你可通过杀死敌人和探索环境获得灰烬，供奉神凰雕像，获得你生存所需的新能力和属性提升。  &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1634080/extras/05.gif?t=1694097089" /&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;速通模式 &lt;/h2&gt;&lt;/strong&gt; 游戏中提供速通模式。你可以选择它来展现你高超的技术。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1634080/extras/06.jpg?t=1694097089" /&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1622800/extras/Play_Build-and-Share_banner_TCH.jpg?t=1691576071" /&gt;&lt;br&gt;&lt;strong&gt;请注意:没有VPN的中国用户将无法使用游戏的在线功能。您可以在本地创建关卡，但不能与社区进行共享。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1622800/extras/kicki_sdm_kickiCut1.gif?t=1691576071" /&gt;&lt;h2 class="bb_tag"&gt;只需几个步骤即可打造你的地牢&lt;/h2&gt;容易操作的地牢编辑器让你只需几分钟，便可制作刺激的地牢关卡。选择你想要的关卡、道具和隐藏物品数量，建造不同主题和难度的像素艺术地牢。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1622800/extras/gif_editor_v2.gif?t=1691576071" /&gt;&lt;h2 class="bb_tag"&gt;与朋友、家人或社群分享你的地牢&lt;/h2&gt;释放你的创造力，设计你的地牢，并根据需要设计敌人的位置、地板和秘密路径。你亦可增加陷阱和隐藏的尖刺，提升难度。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1622800/extras/gif_gameplay_v2.gif?t=1691576071" /&gt;&lt;h2 class="bb_tag"&gt;探索社区数之不尽的地牢&lt;/h2&gt;攻略系统内置地牢，或朋友和社群设计的地牢，解开他们的谜题。打败你在冒险中遇到的敌人，找到隐藏心心来补充体力，并击倒最终BOSS。&lt;br&gt;成为社区最难攻略的地牢的设计者。&lt;br&gt;向所有人展示你的地牢是最棒的！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1622800/extras/divider.png?t=1691576071" /&gt;&lt;h2 class="bb_tag"&gt;特色&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;只需几个步骤即可打造你的地牢&lt;br&gt;&lt;/li&gt;&lt;li&gt;跨平台共享&lt;br&gt;&lt;/li&gt;&lt;li&gt;通道功能使编写创意和复杂的地牢更容易。&lt;br&gt;&lt;/li&gt;&lt;li&gt;无限可能的谜题&lt;br&gt;&lt;/li&gt;&lt;li&gt;随心所欲地装饰关卡&lt;br&gt;&lt;/li&gt;&lt;li&gt;畅玩社群设计的数千个地牢&lt;br&gt;&lt;/li&gt;&lt;li&gt;针对 Joycons/游戏手柄和滑鼠/键盘进行了优化&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>1641960</t>
+          <t>1634080</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Forever Skies</t>
+          <t>Nocturnal</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>永恒天空</t>
+          <t>离火长明</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>抢先体验,生存,基地建设,冒险,探索</t>
+          <t>横向滚屏,动作冒险,线性,探索,记叙</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6726,41 +6731,36 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>7.8</t>
-        </is>
-      </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2023年06月23日</t>
+          <t>2023年06月07日</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/Keptgr2NwD" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641960/extras/FFH_Discord_Banner_2.jpg?t=1692793989" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1641960/Forever_Skies/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1641960/Forever_Skies/&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641960/extras/Airship_ZHS.gif?t=1692793989" /&gt;&lt;br&gt;你需要打造并自定义一艘高科技飞船。在飞向地球表面之时，这将会是你的住所、工坊以及实验室等。操纵并引导它飞向我们文明的废墟和神秘的异常现象。&lt;strong&gt;管理飞船的船体以及确保船体的完好。提取并收集资源来提升飞船性能，并将其打造成一艘独一无二的专属飞船。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641960/extras/Science_ZHS.gif?t=1692793989" /&gt;&lt;br&gt;习得的科学知识和技能能使玩家建造并操作不同的机器。分析已扫描物品，对丢失的技术进行逆向工程。&lt;strong&gt;探寻获得食物和资源的新方式、发现新工具并提升自己的存活几率。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641960/extras/Explore_ZHS.gif?t=1692793989" /&gt;&lt;br&gt;在为躲避灰尘而建在高处的废墟中探索和提取资源。玩家身处被奇怪异常现象造成的漂浮物之间，将其收集起来用作原材料在这片废墟中存活下去。探索并发现我们的文明遗迹。&lt;strong&gt;理清到底发生了什么导致地球最终会演化成让我们失去了过去那种作为顶端之位的控制权。找出我们过去的秘密。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641960/extras/Dust_ZHS.gif?t=1692793989" /&gt;&lt;br&gt;当玩家降落在尘埃之下，会发现一个奇怪的全新世界，在我们离开的这段时间里，星球表面发生了巨大的变化。勇斗新进化的动植物群并寻找病毒病原体来治愈危害着你家人的神秘疾病。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641960/extras/Return_ZHS.gif?t=1692793989" /&gt;&lt;br&gt;Forever Skies 是一款发生在因遭到全球生态灾害而受到破坏的地球上的动作生存游戏。这一事件导致地球表面被一层巨大的有毒尘埃所覆盖。&lt;strong&gt;你在数百年后回到我们的星球，但是那还是你熟悉的那个星球吗？&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641960/extras/Team_ZHS.png?t=1692793989" /&gt;&lt;br&gt;我们是Far From Home公司，设立在波兰罗茨瓦夫的一家经验丰富的游戏开发团队。我们之前就一起共同合作过数个项目，因此我们不仅仅是同事，同时也是朋友。我们一起担任过的游戏包括《消逝的光芒》系列、《神界：原罪》系列、《灵媒》、《先驱者》、《英雄联盟》等。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641960/extras/Team_Banner_616_2023.jpg?t=1692793989" /&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1634080/extras/01.jpg?t=1694097089" /&gt;&lt;br&gt;在一段艰难的海上旅程后，长明圣火的战士阿戴西尔回到了他的家乡纳赫兰。一股诡异的迷雾笼罩着整座岛屿，为了解开其中奥秘，阿戴西尔必须挥舞神圣火焰，驱赶着迷雾，开辟一条通往岛屿中心的道路，那里藏着秘辛和强大的能力。​&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;为你的家乡纳赫兰岛而战&lt;/h2&gt;&lt;/strong&gt; 作为长明圣火的战士，你必须揭露教团的阴谋，扫除一切障碍，将岛屿从黑暗中解救出来。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1634080/extras/02.gif?t=1694097089" /&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;致命的迷雾 &lt;/h2&gt;&lt;/strong&gt; 纳赫兰岛绕罩着邪恶，他们隐藏在迷雾之中，吞噬着途中的一切。但你不得不冒着风险涉足其中，找到它的源头，结束这场混乱。不过请注意，人在迷雾中无法呼吸，所以你必须运用你的智慧，找到新的方法来阻止它。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1634080/extras/03.jpg?t=1694097089" /&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;唤醒沉睡在你体内长明圣火的守护之力 &lt;/h2&gt;&lt;/strong&gt; 迷雾是你的敌人，而火焰是你旅途中不可或缺的可靠盟友。 火焰可以驱逐迷雾、点燃周遭环境、驱动机关、还能用来攻击那些不受常规武器影响的邪恶生物。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1634080/extras/04.gif?t=1694097089" /&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;探索岛屿和揭露秘辛&lt;/h2&gt;&lt;/strong&gt; 迷雾覆盖面极广，其中隐藏了强大的力量。你可通过杀死敌人和探索环境获得灰烬，供奉神凰雕像，获得你生存所需的新能力和属性提升。  &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1634080/extras/05.gif?t=1694097089" /&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;速通模式 &lt;/h2&gt;&lt;/strong&gt; 游戏中提供速通模式。你可以选择它来展现你高超的技术。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1634080/extras/06.jpg?t=1694097089" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>1644320</t>
+          <t>1641960</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Railway Empire 2</t>
+          <t>Forever Skies</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>铁路帝国2</t>
+          <t>永恒天空</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>模拟,策略,火车,管理,交通运输</t>
+          <t>抢先体验,生存,基地建设,冒险,探索</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6768,36 +6768,41 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2023年05月26日</t>
+          <t>2023年06月23日</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1644320/extras/AgeOfRailways.gif?t=1693899382" /&gt;&lt;br&gt;&lt;br&gt;在&lt;strong&gt;《Railway Empire 2》&lt;/strong&gt;中登上特快列车，驶向财富与名望！您将在游戏中化身智慧过人的企业家，于 19 世纪初期接管一家小型铁路公司，将您的蒸汽机车变成经济发展的主力军。您要把公司发展成大陆上规模最大的铁路公司，&lt;strong&gt;并通过不断扩大的铁路线、桥梁和隧道网络将城市和公司连接起来&lt;/strong&gt;，从而超越竞争对手。您可以调遣&lt;strong&gt; 60 辆用来牵引货运列车和客运列车的著名蒸汽机车&lt;/strong&gt;。它们将在&lt;strong&gt;工业革命时期开启一个具有历史意义的时代&lt;/strong&gt;。 &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1644320/extras/BuildPerfectRailNetwork.gif?t=1693899382" /&gt;&lt;br&gt;&lt;br&gt;《Railway Empire 2》拥有比以往&lt;strong&gt;面积更大、细节更丰富、环境更生动&lt;/strong&gt;的地图。两张庞大的地图包含了&lt;strong&gt;整个美国和欧洲大陆&lt;/strong&gt;，而每片大陆的重点区域都拥有更加细致的地图。&lt;strong&gt;经过改进的轨道建设&lt;/strong&gt;，可帮助您在推动经济发展并帮助城市发展时专注于重要决策。游戏中的铁路信号将自动放置，桥梁最多可容纳 4 条轨道，可扩展的车站现在最多能容纳 8 条轨道。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1644320/extras/DetailedGameWorld.gif?t=1693899382" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;从 6 个不同角色中选择&lt;/strong&gt;一位来领导您的铁路公司，每个角色都有自己的长处和短处。如果您想挑战自己的能力，可以体验游戏中的 &lt;strong&gt;5 个剧情章节或 14 个不同场景&lt;/strong&gt;。在完全可定制的自由模式中设置喜欢的难度，或在&lt;strong&gt;建设模式&lt;/strong&gt;中建立完美的铁路网络。在&lt;strong&gt;多人合作游戏&lt;/strong&gt;中，与朋友共同应对您的铁路帝国遇到的竞争。您甚至可以登&lt;strong&gt;上一辆您拥有的列车，在蒸汽机车沿着轨道疾驰而过的时候，坐下来欣赏过路的美景&lt;/strong&gt;。&lt;h2 class="bb_tag"&gt;现在加入愿望单吧！&lt;/h2&gt;&lt;a href="https://store.steampowered.com/app/1643310/Dungeons_4/" target="_blank" rel=""  id="dynamiclink_2" &gt;https://store.steampowered.com/app/1643310/Dungeons_4/&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1880470/The_Inquisitor/" target="_blank" rel=""  id="dynamiclink_3" &gt;https://store.steampowered.com/app/1880470/The_Inquisitor/&lt;/a&gt;</t>
+          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/Keptgr2NwD" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641960/extras/FFH_Discord_Banner_2.jpg?t=1692793989" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1641960/Forever_Skies/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1641960/Forever_Skies/&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641960/extras/Airship_ZHS.gif?t=1692793989" /&gt;&lt;br&gt;你需要打造并自定义一艘高科技飞船。在飞向地球表面之时，这将会是你的住所、工坊以及实验室等。操纵并引导它飞向我们文明的废墟和神秘的异常现象。&lt;strong&gt;管理飞船的船体以及确保船体的完好。提取并收集资源来提升飞船性能，并将其打造成一艘独一无二的专属飞船。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641960/extras/Science_ZHS.gif?t=1692793989" /&gt;&lt;br&gt;习得的科学知识和技能能使玩家建造并操作不同的机器。分析已扫描物品，对丢失的技术进行逆向工程。&lt;strong&gt;探寻获得食物和资源的新方式、发现新工具并提升自己的存活几率。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641960/extras/Explore_ZHS.gif?t=1692793989" /&gt;&lt;br&gt;在为躲避灰尘而建在高处的废墟中探索和提取资源。玩家身处被奇怪异常现象造成的漂浮物之间，将其收集起来用作原材料在这片废墟中存活下去。探索并发现我们的文明遗迹。&lt;strong&gt;理清到底发生了什么导致地球最终会演化成让我们失去了过去那种作为顶端之位的控制权。找出我们过去的秘密。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641960/extras/Dust_ZHS.gif?t=1692793989" /&gt;&lt;br&gt;当玩家降落在尘埃之下，会发现一个奇怪的全新世界，在我们离开的这段时间里，星球表面发生了巨大的变化。勇斗新进化的动植物群并寻找病毒病原体来治愈危害着你家人的神秘疾病。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641960/extras/Return_ZHS.gif?t=1692793989" /&gt;&lt;br&gt;Forever Skies 是一款发生在因遭到全球生态灾害而受到破坏的地球上的动作生存游戏。这一事件导致地球表面被一层巨大的有毒尘埃所覆盖。&lt;strong&gt;你在数百年后回到我们的星球，但是那还是你熟悉的那个星球吗？&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641960/extras/Team_ZHS.png?t=1692793989" /&gt;&lt;br&gt;我们是Far From Home公司，设立在波兰罗茨瓦夫的一家经验丰富的游戏开发团队。我们之前就一起共同合作过数个项目，因此我们不仅仅是同事，同时也是朋友。我们一起担任过的游戏包括《消逝的光芒》系列、《神界：原罪》系列、《灵媒》、《先驱者》、《英雄联盟》等。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641960/extras/Team_Banner_616_2023.jpg?t=1692793989" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>1656780</t>
+          <t>1644320</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Hero's Hour</t>
+          <t>Railway Empire 2</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>英雄之时</t>
+          <t>铁路帝国2</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>回合制,像素图形,单人,策略,回合战略</t>
+          <t>模拟,策略,火车,管理,交通运输</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6805,41 +6810,36 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>7.7</t>
-        </is>
-      </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2022年03月02日</t>
+          <t>2023年05月26日</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>如果你对《英雄之时》感兴趣，就请添加至愿望单并关注我们吧~&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1656780/extras/WishlistGif.gif?t=1684765154" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1656780/extras/hero-explo.gif?t=1684765154" /&gt;&lt;br&gt;《英雄之时》是一款容易上手、玩法深度且内容丰富的策略类角色扮演游戏。指挥你的英雄，探索这个世界，建立你的城镇，进行快节奏的战斗吧。升级英雄、构建一支足够强大的军队来在对方把你干翻之前就击溃他们。&lt;h2 class="bb_tag"&gt;回合制+即时&lt;/h2&gt;探索主地图、发展城镇和军队都是以回合制进行的，让您有时间思考和计划下一步行动。但在战斗中，您队伍中的单位将以即时状态尽最大努力为已方作战 - 总计有数百个单位。 施放法术并下达攻击命令以扭转战局 - 或者您也可以选择坐等我方势力徐徐扩张。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1656780/extras/hero-fight.gif?t=1684765154" /&gt;&lt;h2 class="bb_tag"&gt;程序生成&lt;/h2&gt;《英雄之时》为公式化的策略游戏带来了有具有影响力的程序生成功能，确保了玩家每次游玩时，都能有新的区域可供探索，以及奇特的建筑来提升英雄和军队实力。寻找方尖碑，开启你的任务，来将你送至世界的各个角落。此外，当多次您游玩同一个派系时，每一次的建造顺序都会有所不同。&lt;h2 class="bb_tag"&gt;特色&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;11 大派系，拥有各自的优劣势，并附有特殊机制&lt;br&gt;&lt;/li&gt;&lt;li&gt;22个英雄职业，每个职业都有一项特殊技能&lt;br&gt;&lt;/li&gt;&lt;li&gt;50个常用英雄技能&lt;br&gt;&lt;/li&gt;&lt;li&gt;177个兵种（包括99个进阶兵种）&lt;br&gt;&lt;/li&gt;&lt;li&gt;80 种独特的天赋技能&lt;br&gt;&lt;/li&gt;&lt;li&gt;166件工艺品&lt;br&gt;&lt;/li&gt;&lt;li&gt;83种法术和能力（+18个通过技能解锁的法术）&lt;br&gt;&lt;/li&gt;&lt;li&gt;种类繁多的特色建筑&lt;br&gt;&lt;/li&gt;&lt;li&gt;本地多人联机模式&lt;br&gt;&lt;/li&gt;&lt;li&gt;玩家合作模式，甚至可与 AI 结盟&lt;/li&gt;&lt;/ul&gt;游戏虽小，世界甚大！&lt;br&gt;&lt;br&gt;与其他回合制策略游戏相比，这款游戏将带给您更快的节奏，让您从一开始就停不下来！</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1644320/extras/AgeOfRailways.gif?t=1693899382" /&gt;&lt;br&gt;&lt;br&gt;在&lt;strong&gt;《Railway Empire 2》&lt;/strong&gt;中登上特快列车，驶向财富与名望！您将在游戏中化身智慧过人的企业家，于 19 世纪初期接管一家小型铁路公司，将您的蒸汽机车变成经济发展的主力军。您要把公司发展成大陆上规模最大的铁路公司，&lt;strong&gt;并通过不断扩大的铁路线、桥梁和隧道网络将城市和公司连接起来&lt;/strong&gt;，从而超越竞争对手。您可以调遣&lt;strong&gt; 60 辆用来牵引货运列车和客运列车的著名蒸汽机车&lt;/strong&gt;。它们将在&lt;strong&gt;工业革命时期开启一个具有历史意义的时代&lt;/strong&gt;。 &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1644320/extras/BuildPerfectRailNetwork.gif?t=1693899382" /&gt;&lt;br&gt;&lt;br&gt;《Railway Empire 2》拥有比以往&lt;strong&gt;面积更大、细节更丰富、环境更生动&lt;/strong&gt;的地图。两张庞大的地图包含了&lt;strong&gt;整个美国和欧洲大陆&lt;/strong&gt;，而每片大陆的重点区域都拥有更加细致的地图。&lt;strong&gt;经过改进的轨道建设&lt;/strong&gt;，可帮助您在推动经济发展并帮助城市发展时专注于重要决策。游戏中的铁路信号将自动放置，桥梁最多可容纳 4 条轨道，可扩展的车站现在最多能容纳 8 条轨道。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1644320/extras/DetailedGameWorld.gif?t=1693899382" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;从 6 个不同角色中选择&lt;/strong&gt;一位来领导您的铁路公司，每个角色都有自己的长处和短处。如果您想挑战自己的能力，可以体验游戏中的 &lt;strong&gt;5 个剧情章节或 14 个不同场景&lt;/strong&gt;。在完全可定制的自由模式中设置喜欢的难度，或在&lt;strong&gt;建设模式&lt;/strong&gt;中建立完美的铁路网络。在&lt;strong&gt;多人合作游戏&lt;/strong&gt;中，与朋友共同应对您的铁路帝国遇到的竞争。您甚至可以登&lt;strong&gt;上一辆您拥有的列车，在蒸汽机车沿着轨道疾驰而过的时候，坐下来欣赏过路的美景&lt;/strong&gt;。&lt;h2 class="bb_tag"&gt;现在加入愿望单吧！&lt;/h2&gt;&lt;a href="https://store.steampowered.com/app/1643310/Dungeons_4/" target="_blank" rel=""  id="dynamiclink_2" &gt;https://store.steampowered.com/app/1643310/Dungeons_4/&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1880470/The_Inquisitor/" target="_blank" rel=""  id="dynamiclink_3" &gt;https://store.steampowered.com/app/1880470/The_Inquisitor/&lt;/a&gt;</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>1667700</t>
+          <t>1656780</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Geometry Arena 2</t>
+          <t>Hero's Hour</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>几何竞技场2</t>
+          <t>英雄之时</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>动作类 Rogue,竞技场射击,轻度 Rogue,玩家对战环境,类 Rogue</t>
+          <t>回合制,像素图形,单人,策略,回合战略</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6847,36 +6847,41 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>7.7</t>
+        </is>
+      </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2023年07月15日</t>
+          <t>2022年03月02日</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;《几何竞技场2》&lt;/strong&gt;是一款融合了RPG与Roguelite元素的动作射击游戏，致力于打造爽快的战斗体验。&lt;br&gt;游戏内提供了高自由度的流派构筑玩法，灵活的难度调节系统以及激励性的奖励反馈机制。&lt;br&gt;你可以自由地组合搭配武器、机体、模组、升级和难度选项，塑造独一无二的游戏体验！&lt;h2 class="bb_tag"&gt;游戏核心特色&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;自由搭配武器与机体及大量配套模组&lt;br&gt;&lt;/li&gt;&lt;li&gt;10+个用于DIY游戏机制的难度选项&lt;br&gt;&lt;/li&gt;&lt;li&gt;140+种可自由搭配组合的局内升级&lt;br&gt;&lt;/li&gt;&lt;li&gt;富有乐趣与成就感的培养过程&lt;br&gt;&lt;/li&gt;&lt;li&gt;RPG数值化的硬核属性体系&lt;br&gt;&lt;/li&gt;&lt;li&gt;紧张刺激的竞技场风格战斗&lt;br&gt;&lt;/li&gt;&lt;li&gt;由敌人身体组成的大量弹幕&lt;br&gt;&lt;/li&gt;&lt;li&gt;难度循序渐进的无尽挑战&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;其它特色&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;超友好的开发者&lt;br&gt;&lt;/li&gt;&lt;li&gt;超热闹的玩家活动&lt;br&gt;&lt;/li&gt;&lt;li&gt;超快乐的群聊交流氛围&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;总结&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;《几何竞技场》系列以多样、自由和无尽为核心关键词。&lt;br&gt;&lt;/li&gt;&lt;li&gt;在这里，你可以亲手打造最适合自己的游戏体验，沉浸其中并创造数十个小时的美好回忆。&lt;br&gt;&lt;/li&gt;&lt;li&gt;愿每位玩家都能在这里找到属于自己的乐趣！&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>如果你对《英雄之时》感兴趣，就请添加至愿望单并关注我们吧~&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1656780/extras/WishlistGif.gif?t=1684765154" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1656780/extras/hero-explo.gif?t=1684765154" /&gt;&lt;br&gt;《英雄之时》是一款容易上手、玩法深度且内容丰富的策略类角色扮演游戏。指挥你的英雄，探索这个世界，建立你的城镇，进行快节奏的战斗吧。升级英雄、构建一支足够强大的军队来在对方把你干翻之前就击溃他们。&lt;h2 class="bb_tag"&gt;回合制+即时&lt;/h2&gt;探索主地图、发展城镇和军队都是以回合制进行的，让您有时间思考和计划下一步行动。但在战斗中，您队伍中的单位将以即时状态尽最大努力为已方作战 - 总计有数百个单位。 施放法术并下达攻击命令以扭转战局 - 或者您也可以选择坐等我方势力徐徐扩张。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1656780/extras/hero-fight.gif?t=1684765154" /&gt;&lt;h2 class="bb_tag"&gt;程序生成&lt;/h2&gt;《英雄之时》为公式化的策略游戏带来了有具有影响力的程序生成功能，确保了玩家每次游玩时，都能有新的区域可供探索，以及奇特的建筑来提升英雄和军队实力。寻找方尖碑，开启你的任务，来将你送至世界的各个角落。此外，当多次您游玩同一个派系时，每一次的建造顺序都会有所不同。&lt;h2 class="bb_tag"&gt;特色&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;11 大派系，拥有各自的优劣势，并附有特殊机制&lt;br&gt;&lt;/li&gt;&lt;li&gt;22个英雄职业，每个职业都有一项特殊技能&lt;br&gt;&lt;/li&gt;&lt;li&gt;50个常用英雄技能&lt;br&gt;&lt;/li&gt;&lt;li&gt;177个兵种（包括99个进阶兵种）&lt;br&gt;&lt;/li&gt;&lt;li&gt;80 种独特的天赋技能&lt;br&gt;&lt;/li&gt;&lt;li&gt;166件工艺品&lt;br&gt;&lt;/li&gt;&lt;li&gt;83种法术和能力（+18个通过技能解锁的法术）&lt;br&gt;&lt;/li&gt;&lt;li&gt;种类繁多的特色建筑&lt;br&gt;&lt;/li&gt;&lt;li&gt;本地多人联机模式&lt;br&gt;&lt;/li&gt;&lt;li&gt;玩家合作模式，甚至可与 AI 结盟&lt;/li&gt;&lt;/ul&gt;游戏虽小，世界甚大！&lt;br&gt;&lt;br&gt;与其他回合制策略游戏相比，这款游戏将带给您更快的节奏，让您从一开始就停不下来！</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>1668690</t>
+          <t>1667700</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Alina of the Arena</t>
+          <t>Geometry Arena 2</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>斗技场的阿利娜</t>
+          <t>几何竞技场2</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>卡牌构建式类 Rogue,类 Rogue,回合制战术,六角格棋盘,卡牌游戏</t>
+          <t>动作类 Rogue,竞技场射击,轻度 Rogue,玩家对战环境,类 Rogue</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6884,41 +6889,36 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2022年10月14日</t>
+          <t>2023年07月15日</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1668690/extras/SteamGif001.gif?t=1690964584" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;游戏介绍&lt;/strong&gt;&lt;/h2&gt;《斗技场的阿利娜》是一款卡牌构建游戏。它融合了《杀戮尖塔》和《Into the Breach》的玩法，并带有策略和轻度肉鸽元素。&lt;br&gt;玩家作为一个斗角士,为了生存在斗技场中厮杀来满足嗜血的观众。轻度肉鸽玩法和卡牌组构筑元素结合六角形战棋地图，让策略不再拘限于只能攻击或防御，利用好闪避、击退，在斗技场中杀出一条血路！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1668690/extras/SteamGif002.gif?t=1690964584" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;游戏特色&lt;/h2&gt;&lt;/strong&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;全新的卡牌组构筑体验&lt;/strong&gt;&lt;br&gt;轻度肉鸽元素让你在游玩过程会遇到各式不同的卡牌，自己做出选择，组出独一无二的牌组来挑战关卡，让你每次游玩都会有不同的体验。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1668690/extras/SteamGif003.gif?t=1690964584" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;六边形战旗地图&lt;/strong&gt;&lt;br&gt;不同常见牌组构筑游戏只要思考攻击或防御，加入战棋元素后则需要位移寻找生存空间、交换位置让敌人自我残杀、利用地形击获得优势。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1668690/extras/SteamGif004.gif?t=1690964584" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;双手装备系统&lt;/strong&gt;&lt;br&gt;武器可以双手握持，玩家可以手持双匕首实现最大伤害，也可以一手持剑一手持盾稳扎稳打，甚致使用双手巨剑大杀四方，配合牌组找出每次战斗的最佳组合。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1668690/extras/SteamGif005.gif?t=1690964584" /&gt;</t>
+          <t>&lt;strong&gt;《几何竞技场2》&lt;/strong&gt;是一款融合了RPG与Roguelite元素的动作射击游戏，致力于打造爽快的战斗体验。&lt;br&gt;游戏内提供了高自由度的流派构筑玩法，灵活的难度调节系统以及激励性的奖励反馈机制。&lt;br&gt;你可以自由地组合搭配武器、机体、模组、升级和难度选项，塑造独一无二的游戏体验！&lt;h2 class="bb_tag"&gt;游戏核心特色&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;自由搭配武器与机体及大量配套模组&lt;br&gt;&lt;/li&gt;&lt;li&gt;10+个用于DIY游戏机制的难度选项&lt;br&gt;&lt;/li&gt;&lt;li&gt;140+种可自由搭配组合的局内升级&lt;br&gt;&lt;/li&gt;&lt;li&gt;富有乐趣与成就感的培养过程&lt;br&gt;&lt;/li&gt;&lt;li&gt;RPG数值化的硬核属性体系&lt;br&gt;&lt;/li&gt;&lt;li&gt;紧张刺激的竞技场风格战斗&lt;br&gt;&lt;/li&gt;&lt;li&gt;由敌人身体组成的大量弹幕&lt;br&gt;&lt;/li&gt;&lt;li&gt;难度循序渐进的无尽挑战&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;其它特色&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;超友好的开发者&lt;br&gt;&lt;/li&gt;&lt;li&gt;超热闹的玩家活动&lt;br&gt;&lt;/li&gt;&lt;li&gt;超快乐的群聊交流氛围&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;总结&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;《几何竞技场》系列以多样、自由和无尽为核心关键词。&lt;br&gt;&lt;/li&gt;&lt;li&gt;在这里，你可以亲手打造最适合自己的游戏体验，沉浸其中并创造数十个小时的美好回忆。&lt;br&gt;&lt;/li&gt;&lt;li&gt;愿每位玩家都能在这里找到属于自己的乐趣！&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>1669000</t>
+          <t>1668690</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Age of Wonders 4</t>
+          <t>Alina of the Arena</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>奇迹时代4</t>
+          <t>斗技场的阿利娜</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>策略,4X,奇幻,战术角色扮演,氛围</t>
+          <t>卡牌构建式类 Rogue,类 Rogue,回合制战术,六角格棋盘,卡牌游戏</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6928,39 +6928,39 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>2023年05月03日</t>
+          <t>2022年10月14日</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669000/extras/Headers-animated-fullv2.gif?t=1692104295" /&gt;&lt;br&gt;&lt;br&gt;统治奇幻的世界，万般皆由你作主，尽在《&lt;strong&gt;Age of Wonders 4&lt;/strong&gt;》！在《Age of Wonders》标志性的4X战略回合制战斗中探索全新的魔法世界。以回合为单位扩展你的帝国，让你的派系不断发展，不断壮大&lt;br&gt;&lt;br&gt;Triumph Studios屡获殊荣的战略系列已经进入了一个新的时代，这个系列游戏标志性的帝国建设、角色扮演与战争表现今日发展到了全新的水平。全新的事件系统与巨大的个性化帝国提供了无限的可重复游戏体验，每一次游玩都会为您不断写下的传奇故事增添新的篇章&lt;br&gt;&lt;br&gt;强大的巫师之王已经重回世界，以神的身份统治着凡世之间。掌控魔典来进化你的人民，为史诗般的战斗做好准备，这将决定时代的未来！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669000/extras/Header_1_SC.png?t=1692104295" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;融合各种身体形态、行事特征与奥术力量来创作你的臣民。无论是食人成性的半身人还是神秘的月之精灵，甚至完全出于你最爱的幻想生物，一切尽在你的掌控&lt;br&gt;&lt;/li&gt;&lt;li&gt;寻找强大的魔典来附魔你的军队、进化你的民众！让你的民众化为天使的子嗣或混沌的后裔，让物理上的变化来帮助他们直面敌人。以残酷的统治、狡猾的联盟或终极奥术知识来寻求荣耀，在世界的基本架构中打进你的烙印！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669000/extras/Header_2_SC.png?t=1692104295" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;每一个选择都会带来新的可能性与战术优势，多层次的深度战略让你可以随时尝试新战术，探索新力量&lt;br&gt;&lt;/li&gt;&lt;li&gt;战术回合制战斗会让你的军队活力四射，在由你决定的战场上展示他们的力量。从与游荡怪物的遭遇战到双方均拥有数十个单位的大规模攻城战，更有士气系统与其它功能的帮助，每一场战斗都是一场全新的挑战&lt;br&gt;&lt;/li&gt;&lt;li&gt;帝国、单位与环境的巨大多样性使得游戏具有了无限的可能。《Age of Wonders》现在拥有了前所未有的兼容性与开放性&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669000/extras/Header_3_SC.png?t=1692104295" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;每场游戏都会让你探索全新的世界——或者创造自己的世界！从寒冰女王的霜原荒漠，到巨龙漫游的荒凉废墟，大量千变万化的地形地貌等待着你的探索&lt;br&gt;&lt;/li&gt;&lt;li&gt;全新的事件系统为4X游戏提供了意想不到的故事叙述平台。无论是日益扩展的城邦，逡巡世间的军队，还是扭曲世界的魔法效果，周围世界的形象尽皆取决于你的决定&lt;br&gt;&lt;/li&gt;&lt;li&gt;引导你的帝国实现辉煌的伟业，但故事不会以你的胜利或失败而结束！让你的领袖飞升至万神殿，从而进一步提升你的游戏体验。在此后的游戏中，你会以潜在的盟友或对手来遇到你所创造的角色，从而体验自己游戏的下一章！&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1668690/extras/SteamGif001.gif?t=1690964584" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;游戏介绍&lt;/strong&gt;&lt;/h2&gt;《斗技场的阿利娜》是一款卡牌构建游戏。它融合了《杀戮尖塔》和《Into the Breach》的玩法，并带有策略和轻度肉鸽元素。&lt;br&gt;玩家作为一个斗角士,为了生存在斗技场中厮杀来满足嗜血的观众。轻度肉鸽玩法和卡牌组构筑元素结合六角形战棋地图，让策略不再拘限于只能攻击或防御，利用好闪避、击退，在斗技场中杀出一条血路！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1668690/extras/SteamGif002.gif?t=1690964584" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;游戏特色&lt;/h2&gt;&lt;/strong&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;全新的卡牌组构筑体验&lt;/strong&gt;&lt;br&gt;轻度肉鸽元素让你在游玩过程会遇到各式不同的卡牌，自己做出选择，组出独一无二的牌组来挑战关卡，让你每次游玩都会有不同的体验。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1668690/extras/SteamGif003.gif?t=1690964584" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;六边形战旗地图&lt;/strong&gt;&lt;br&gt;不同常见牌组构筑游戏只要思考攻击或防御，加入战棋元素后则需要位移寻找生存空间、交换位置让敌人自我残杀、利用地形击获得优势。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1668690/extras/SteamGif004.gif?t=1690964584" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;双手装备系统&lt;/strong&gt;&lt;br&gt;武器可以双手握持，玩家可以手持双匕首实现最大伤害，也可以一手持剑一手持盾稳扎稳打，甚致使用双手巨剑大杀四方，配合牌组找出每次战斗的最佳组合。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1668690/extras/SteamGif005.gif?t=1690964584" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>1669980</t>
+          <t>1669000</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Volcano Princess</t>
+          <t>Age of Wonders 4</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>火山的女儿</t>
+          <t>奇迹时代4</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>生活模拟,多结局,模拟,动漫,角色扮演</t>
+          <t>策略,4X,奇幻,战术角色扮演,氛围</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6970,39 +6970,39 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>2023年04月21日</t>
+          <t>2023年05月03日</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;欢迎来到「火山的女儿」！&lt;/strong&gt;&lt;br&gt;《火山的女儿》是一款多结局美少女模拟养成游戏，在游戏中，玩家将在剑与魔法、炼金术盛行的火山国抚育女儿不断成长，而你和女儿所做出的决定甚至可能会影响到整个火山国的未来。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn1.png?t=1687768034" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/女儿GIF1.gif?t=1687768034" /&gt;&lt;br&gt;经典中世纪架空背景，在剑与魔法的世界里，将女儿培养成才。你所面对的不仅是女儿成长过程中遇到的各种问题，更要时刻准备应对魔族的挑战。魔族首领“鸮姬”卷土重来之际，不为人知的暗流也在涌动，各种谜团等你揭晓。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn2.png?t=1687768034" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/女儿展示01.jpg?t=1687768034" /&gt;&lt;br&gt;人生道路上的每一次抉择都会改变成长的方向，女儿的每一次决定也势必会导向不一样的结局。游戏将提供给玩家超过50个可选结局，情感结局与职业结局完全分离，其中感情结局数量有12个以上，可攻略男女角色均为5人以上。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn3.png?t=1687768034" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/女儿GIF2.gif?t=1687768034" /&gt;&lt;br&gt;游戏中准备了多条养成路线，以及数十种养成方式和小游戏，种植、烹饪、钓鱼、骰子游戏、决斗、剧院、舞会、赛马、暗巷等等，玩家可以根据自己的喜好来对女儿进行培养。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn4.png?t=1687768034" /&gt;&lt;br&gt;成为王国骑士，探索危险的迷宫，采用经典回合制战斗，与你的伙伴一起击败阻挡在面前的所有敌人。面对魔族的进逼，唯有击败枭姬才可以拯救整个火山国。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn5.png?t=1687768034" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/4_NPC.jpg?t=1687768034" /&gt;&lt;br&gt;火山国居住着各色各样的居民，他们会陪伴着女儿一同成长，在成长的过程中，女儿会与这些居民进行交流，从而产生不一样的感情与羁绊。随着时间流逝，点滴的情感终将汇聚到一起，形成令人难以忘怀的回忆。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn6.png?t=1687768034" /&gt;&lt;br&gt;特邀日本知名声优中原麻衣（《寒蝉鸣泣之时》龙宫礼奈、《CLANNAD》古河渚）为日文版女儿配音，相信会给你带来不一样的体验。&lt;br&gt;&lt;br&gt;&lt;strong&gt;关于养蛋人工作室&lt;/strong&gt;&lt;br&gt;大家好！感谢大家一直以来对《火山的女儿》的支持与厚爱，养蛋人工作室是由2名来自北京的女生组成的超超超超小型工作室~作为工作室开发的第一款游戏，《火山的女儿》如同“女儿”一般，我们对她倾注了极大的热情和精力。历经三年时间，我们见证了她从呱呱坠地，到牙牙学语，从蹒跚学步，再到如今终于要和所有玩家见面了，希望大家都会喜欢她。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669000/extras/Headers-animated-fullv2.gif?t=1692104295" /&gt;&lt;br&gt;&lt;br&gt;统治奇幻的世界，万般皆由你作主，尽在《&lt;strong&gt;Age of Wonders 4&lt;/strong&gt;》！在《Age of Wonders》标志性的4X战略回合制战斗中探索全新的魔法世界。以回合为单位扩展你的帝国，让你的派系不断发展，不断壮大&lt;br&gt;&lt;br&gt;Triumph Studios屡获殊荣的战略系列已经进入了一个新的时代，这个系列游戏标志性的帝国建设、角色扮演与战争表现今日发展到了全新的水平。全新的事件系统与巨大的个性化帝国提供了无限的可重复游戏体验，每一次游玩都会为您不断写下的传奇故事增添新的篇章&lt;br&gt;&lt;br&gt;强大的巫师之王已经重回世界，以神的身份统治着凡世之间。掌控魔典来进化你的人民，为史诗般的战斗做好准备，这将决定时代的未来！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669000/extras/Header_1_SC.png?t=1692104295" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;融合各种身体形态、行事特征与奥术力量来创作你的臣民。无论是食人成性的半身人还是神秘的月之精灵，甚至完全出于你最爱的幻想生物，一切尽在你的掌控&lt;br&gt;&lt;/li&gt;&lt;li&gt;寻找强大的魔典来附魔你的军队、进化你的民众！让你的民众化为天使的子嗣或混沌的后裔，让物理上的变化来帮助他们直面敌人。以残酷的统治、狡猾的联盟或终极奥术知识来寻求荣耀，在世界的基本架构中打进你的烙印！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669000/extras/Header_2_SC.png?t=1692104295" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;每一个选择都会带来新的可能性与战术优势，多层次的深度战略让你可以随时尝试新战术，探索新力量&lt;br&gt;&lt;/li&gt;&lt;li&gt;战术回合制战斗会让你的军队活力四射，在由你决定的战场上展示他们的力量。从与游荡怪物的遭遇战到双方均拥有数十个单位的大规模攻城战，更有士气系统与其它功能的帮助，每一场战斗都是一场全新的挑战&lt;br&gt;&lt;/li&gt;&lt;li&gt;帝国、单位与环境的巨大多样性使得游戏具有了无限的可能。《Age of Wonders》现在拥有了前所未有的兼容性与开放性&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669000/extras/Header_3_SC.png?t=1692104295" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;每场游戏都会让你探索全新的世界——或者创造自己的世界！从寒冰女王的霜原荒漠，到巨龙漫游的荒凉废墟，大量千变万化的地形地貌等待着你的探索&lt;br&gt;&lt;/li&gt;&lt;li&gt;全新的事件系统为4X游戏提供了意想不到的故事叙述平台。无论是日益扩展的城邦，逡巡世间的军队，还是扭曲世界的魔法效果，周围世界的形象尽皆取决于你的决定&lt;br&gt;&lt;/li&gt;&lt;li&gt;引导你的帝国实现辉煌的伟业，但故事不会以你的胜利或失败而结束！让你的领袖飞升至万神殿，从而进一步提升你的游戏体验。在此后的游戏中，你会以潜在的盟友或对手来遇到你所创造的角色，从而体验自己游戏的下一章！&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>1682260</t>
+          <t>1669980</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Black Sheep</t>
+          <t>Volcano Princess</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>黑羊</t>
+          <t>火山的女儿</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>冒险,心理恐怖,惊悚,悬疑,独立</t>
+          <t>生活模拟,多结局,模拟,动漫,角色扮演</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -7012,39 +7012,39 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>2022年12月16日</t>
+          <t>2023年04月21日</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>“你还记得中学时期藏在心底的小秘密吗？”&lt;br&gt;“你怀念过班上那个默默关注过的同学吗？”&lt;br&gt;“你能原谅那些永远收不到歉意的伤害吗？”&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1682260/extras/标题.png?t=1671180377" /&gt;&lt;br&gt;&lt;br&gt;上个世纪末，临近凋敝的小城令邑，黄昏洒满三中的电动大门，绝不可能成为黑羊的热情少女，张开双手，拥抱大地。&lt;br&gt;作为她身边形影不离的好朋友，李向凡，理应知道一切的人，当时却没有留下一句话。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&amp;quot;嘘，不要替黑羊发声，是活在羊群中的本能。&amp;quot;&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1682260/extras/特色.gif?t=1671180377" /&gt;&lt;br&gt;&lt;br&gt;·  适度的恐怖惊悚要素，以心理暗示为主，融入学校特色的都市传说。&lt;br&gt;·  搜集废墟中遗留下来的一切信息，解开当年事件的全貌。&lt;br&gt;·  当心那些诞生于恶意之中的怪物们，分辨出她们的真实身份。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1682260/extras/剧情.gif?t=1671180377" /&gt;&lt;br&gt;&lt;br&gt;·  游戏由五个章节构成，每个章节对应当年学校发生的一系列事件的主要角色，而玩家扮演的则是这些事件的旁观者，身为白羊要如何挽救身陷旋涡之中黑羊，答案由你来选择。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1682260/extras/玩法.gif?t=1671180377" /&gt;&lt;br&gt;&lt;br&gt;·  这是一个故事驱动的冒险游戏，未知全貌不可妄下定断，即便是简单的一件事，转换不同的视角不同的身份，也会得到不同的看法，玩家会在游玩过程中不断审视自己的理所当然，直到找出羊群中真正的屠夫。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1682260/extras/动图630.gif?t=1671180377" /&gt;</t>
+          <t>&lt;strong&gt;欢迎来到「火山的女儿」！&lt;/strong&gt;&lt;br&gt;《火山的女儿》是一款多结局美少女模拟养成游戏，在游戏中，玩家将在剑与魔法、炼金术盛行的火山国抚育女儿不断成长，而你和女儿所做出的决定甚至可能会影响到整个火山国的未来。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn1.png?t=1687768034" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/女儿GIF1.gif?t=1687768034" /&gt;&lt;br&gt;经典中世纪架空背景，在剑与魔法的世界里，将女儿培养成才。你所面对的不仅是女儿成长过程中遇到的各种问题，更要时刻准备应对魔族的挑战。魔族首领“鸮姬”卷土重来之际，不为人知的暗流也在涌动，各种谜团等你揭晓。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn2.png?t=1687768034" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/女儿展示01.jpg?t=1687768034" /&gt;&lt;br&gt;人生道路上的每一次抉择都会改变成长的方向，女儿的每一次决定也势必会导向不一样的结局。游戏将提供给玩家超过50个可选结局，情感结局与职业结局完全分离，其中感情结局数量有12个以上，可攻略男女角色均为5人以上。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn3.png?t=1687768034" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/女儿GIF2.gif?t=1687768034" /&gt;&lt;br&gt;游戏中准备了多条养成路线，以及数十种养成方式和小游戏，种植、烹饪、钓鱼、骰子游戏、决斗、剧院、舞会、赛马、暗巷等等，玩家可以根据自己的喜好来对女儿进行培养。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn4.png?t=1687768034" /&gt;&lt;br&gt;成为王国骑士，探索危险的迷宫，采用经典回合制战斗，与你的伙伴一起击败阻挡在面前的所有敌人。面对魔族的进逼，唯有击败枭姬才可以拯救整个火山国。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn5.png?t=1687768034" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/4_NPC.jpg?t=1687768034" /&gt;&lt;br&gt;火山国居住着各色各样的居民，他们会陪伴着女儿一同成长，在成长的过程中，女儿会与这些居民进行交流，从而产生不一样的感情与羁绊。随着时间流逝，点滴的情感终将汇聚到一起，形成令人难以忘怀的回忆。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn6.png?t=1687768034" /&gt;&lt;br&gt;特邀日本知名声优中原麻衣（《寒蝉鸣泣之时》龙宫礼奈、《CLANNAD》古河渚）为日文版女儿配音，相信会给你带来不一样的体验。&lt;br&gt;&lt;br&gt;&lt;strong&gt;关于养蛋人工作室&lt;/strong&gt;&lt;br&gt;大家好！感谢大家一直以来对《火山的女儿》的支持与厚爱，养蛋人工作室是由2名来自北京的女生组成的超超超超小型工作室~作为工作室开发的第一款游戏，《火山的女儿》如同“女儿”一般，我们对她倾注了极大的热情和精力。历经三年时间，我们见证了她从呱呱坠地，到牙牙学语，从蹒跚学步，再到如今终于要和所有玩家见面了，希望大家都会喜欢她。</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>1693980</t>
+          <t>1682260</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Dead Space</t>
+          <t>Black Sheep</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>死亡空间</t>
+          <t>黑羊</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>第三人称射击,科幻,太空,射击,生存恐怖</t>
+          <t>冒险,心理恐怖,惊悚,悬疑,独立</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -7054,39 +7054,39 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>2023年01月28日</t>
+          <t>2022年12月16日</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>科幻生存恐怖经典作品《死亡空间》宣告回归，经过完全重制，旨在为玩家提供更有深度、更身临其境的体验。这款重制版游戏为玩家带来了令人惊叹的视觉保真度、充满悬疑感的氛围音效以及游戏性改进，同时尽力忠实还原初版游戏的惊险构思。&lt;br&gt;&lt;br&gt;艾萨克·克拉克是一名普通的工程师，受命修复巨型采矿飞船 USG 石村号，结果发现事态超乎想象。飞船上的船员已被屠戮，而艾萨克心爱的伴侣妮可也在船上不知所踪。&lt;br&gt;&lt;br&gt;现在，艾萨克独自一人，他可以依靠的只有自己的工程工具和技能。随着石村号上可怕谜团的真相浮出水面，他必须尽快找到妮可。艾萨克被充满敌意，名为“尸变体”的生物团团包围，面临着一场生存之战。他不仅要对抗飞船上不断升级的恐怖情形，还要面对自己即将崩溃的理智。&lt;br&gt;&lt;br&gt;&lt;strong&gt;尽情沉浸在次世代科幻恐怖游戏中&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1693980/extras/DS_GP_USP1_610px.gif?t=1684172906" /&gt;&lt;br&gt;&lt;br&gt;这款经典科幻恐怖游戏经过完全重制，带来了视觉保真度的提升和 3D 氛围音效。从精致得令人难以置信的房间和满是被屠戮船员的工作间，到孤寂太空飞船上阴森的氛围音效，在这震撼人心的科幻场景中，出人意料、扣人心弦的时刻接连涌现，等着你来探索。&lt;br&gt;&lt;br&gt;&lt;strong&gt;揭开 USG 石村号上的谜团&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1693980/extras/DS_GP_USP2_610px.gif?t=1684172906" /&gt;&lt;br&gt;&lt;br&gt;工程师艾萨克·克拉克和 USG 圣室号的船员们起初只是在执行例行维修任务，但随着船上恐怖事件背后的真相逐渐被揭开，维修任务迅速演变成一场生存之战。跟随徐徐展开的叙事体验，通过遇难船员们的临终日志以及与少数幸存者的邂逅，揭开 USG 石村号各种事件背后的黑幕。&lt;br&gt;&lt;br&gt;&lt;strong&gt;随机应变，死地求生&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1693980/extras/USP3_ageGate_610px.gif?t=1684172906" /&gt;&lt;br&gt;&lt;br&gt;采用定义战略游戏的游玩方式，对抗 USG 石村号上的梦魇。调整并升级艾萨克的工程工具，用你的创意把敌人精准击毙。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1693980/extras/Dead_Space_PC_Specs_610px_STEAM_updated.png?t=1684172906" /&gt;</t>
+          <t>“你还记得中学时期藏在心底的小秘密吗？”&lt;br&gt;“你怀念过班上那个默默关注过的同学吗？”&lt;br&gt;“你能原谅那些永远收不到歉意的伤害吗？”&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1682260/extras/标题.png?t=1671180377" /&gt;&lt;br&gt;&lt;br&gt;上个世纪末，临近凋敝的小城令邑，黄昏洒满三中的电动大门，绝不可能成为黑羊的热情少女，张开双手，拥抱大地。&lt;br&gt;作为她身边形影不离的好朋友，李向凡，理应知道一切的人，当时却没有留下一句话。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&amp;quot;嘘，不要替黑羊发声，是活在羊群中的本能。&amp;quot;&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1682260/extras/特色.gif?t=1671180377" /&gt;&lt;br&gt;&lt;br&gt;·  适度的恐怖惊悚要素，以心理暗示为主，融入学校特色的都市传说。&lt;br&gt;·  搜集废墟中遗留下来的一切信息，解开当年事件的全貌。&lt;br&gt;·  当心那些诞生于恶意之中的怪物们，分辨出她们的真实身份。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1682260/extras/剧情.gif?t=1671180377" /&gt;&lt;br&gt;&lt;br&gt;·  游戏由五个章节构成，每个章节对应当年学校发生的一系列事件的主要角色，而玩家扮演的则是这些事件的旁观者，身为白羊要如何挽救身陷旋涡之中黑羊，答案由你来选择。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1682260/extras/玩法.gif?t=1671180377" /&gt;&lt;br&gt;&lt;br&gt;·  这是一个故事驱动的冒险游戏，未知全貌不可妄下定断，即便是简单的一件事，转换不同的视角不同的身份，也会得到不同的看法，玩家会在游玩过程中不断审视自己的理所当然，直到找出羊群中真正的屠夫。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1682260/extras/动图630.gif?t=1671180377" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>1696440</t>
+          <t>1693980</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>绝世好武功 The Matchless Kungfu</t>
+          <t>Dead Space</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>绝世好武功</t>
+          <t>死亡空间</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>抢先体验,开放世界,沙盒,角色扮演,生存</t>
+          <t>第三人称射击,科幻,太空,射击,生存恐怖</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -7096,39 +7096,39 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>2023年08月30日</t>
+          <t>2023年01月28日</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>官方QQ群号：&lt;br&gt;官方QQ③群：717298872&lt;br&gt;官方QQ④群：757371350&lt;br&gt;官方QQ⑤群：703542977&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;这是一款基于武侠、江湖背景为基础的&lt;strong&gt; &lt;u&gt;开放沙盒类非传统武侠 RPG游戏&lt;/u&gt;&lt;/strong&gt;，你可以在这个大荒世界之中，扮演你所幻想的任何武侠角色，这里没有任何阻挡你幻想的老套剧情，你所演绎的武侠人生就是这个你的游戏剧情。你可以作为一名江湖小虾米游历大荒，你也可以成为一派掌门引领四方，你亦可以成为一名看不惯这江湖的浪子我行我素。最重要的是，请一切遵从于你的内心而为，并且活着！&lt;br&gt;&lt;br&gt;(1)玩家可以从零开始扩展自己的小世界，也可以通过创建小世界生成随机大小的初始世界。每个区域都有独特的环境、资源、生物以及势力。 在熟悉了游戏基本操作之后，您便可以直接生成环境属性各异的、已经包含一定数量地块的世界进行体验和历练，并且可以控制不同的“我”往来穿梭于各个世界开启别样人生！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/kf1.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(2)新颖的单回合战斗方式，通过收集不同的绝学搭配创建自己的招式库，战斗中拖动连接不同的招式激活绝学，利用招式克制和绝学套路，体现武侠战斗的策略性。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF2.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(3)独创的经脉系统，将人体经脉的运转进行了简化概念设计，玩家可以体验到不同的运功路线激活不同内功的拟真感受，简洁却富有策略玩法的设计给玩家提供了搭配和激活多种内功的玩法。同时经脉系统也结合了武侠小说中各种身体机能的具象表现，角色的生命力、内伤、隐疾、蛊、生死符、残疾、瞎眼等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF3.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(4)游戏还包含了自由的建造模式，玩家可以打造自己的民居、酒馆、温泉、马厩、大殿、监牢等等，每种建筑都有独特的功能。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF4.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(5)潜行玩法，可以通过训练潜行能力，配合独特的内功，夜晚穿上夜行衣，如人无人之境。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF5.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(6)训练轻功、跳跃、潜水、攀爬，无论高山深海都可闲庭信步。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF6.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(7)通过自定义天命、出身、容貌、血脉，打造独属于自己的角色。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF7.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(8)非线性剧情，游戏中每个NPC都会根据自己的行为、身份、名声、关系、态度等等在世界中生存，玩家的每次游戏都会与他们发生不同的剧情。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF8.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(9)丰富的交互内容&lt;br&gt;可以把敌人的建筑引燃&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF9.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;可以邀请NPC喝酒，灌醉后搜刮物品&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF10.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;可以驯化各种动物，每种动物都有各自独特的功能，例如猴子可以乞讨、马可以乘骑和改装马车、蛇可以下毒等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF11.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;玩家可以创建自己门派，招募弟子，发布命令，参加武林大会。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF12.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;丰富的交互内容·玩家可以布置陷阱，抓捕动物或敌人。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF13.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;建立门派，发布命令&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF15.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;建立牢笼，关押敌人&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF16.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;———————————————————————————————————————&lt;br&gt;来自幻魔寺的寄语：&lt;br&gt;我们坚守本心，完全独立开发，只做大家觉得好玩的游戏，这款游戏的世界目前仍然只是一个雏形，我们深知它会不断壮大，并且成为未来我们一切游戏的基石，我们会为此不断努力，带给大家一个绝妙的幻想世界！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/respect.png?t=1694014062" /&gt;</t>
+          <t>科幻生存恐怖经典作品《死亡空间》宣告回归，经过完全重制，旨在为玩家提供更有深度、更身临其境的体验。这款重制版游戏为玩家带来了令人惊叹的视觉保真度、充满悬疑感的氛围音效以及游戏性改进，同时尽力忠实还原初版游戏的惊险构思。&lt;br&gt;&lt;br&gt;艾萨克·克拉克是一名普通的工程师，受命修复巨型采矿飞船 USG 石村号，结果发现事态超乎想象。飞船上的船员已被屠戮，而艾萨克心爱的伴侣妮可也在船上不知所踪。&lt;br&gt;&lt;br&gt;现在，艾萨克独自一人，他可以依靠的只有自己的工程工具和技能。随着石村号上可怕谜团的真相浮出水面，他必须尽快找到妮可。艾萨克被充满敌意，名为“尸变体”的生物团团包围，面临着一场生存之战。他不仅要对抗飞船上不断升级的恐怖情形，还要面对自己即将崩溃的理智。&lt;br&gt;&lt;br&gt;&lt;strong&gt;尽情沉浸在次世代科幻恐怖游戏中&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1693980/extras/DS_GP_USP1_610px.gif?t=1684172906" /&gt;&lt;br&gt;&lt;br&gt;这款经典科幻恐怖游戏经过完全重制，带来了视觉保真度的提升和 3D 氛围音效。从精致得令人难以置信的房间和满是被屠戮船员的工作间，到孤寂太空飞船上阴森的氛围音效，在这震撼人心的科幻场景中，出人意料、扣人心弦的时刻接连涌现，等着你来探索。&lt;br&gt;&lt;br&gt;&lt;strong&gt;揭开 USG 石村号上的谜团&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1693980/extras/DS_GP_USP2_610px.gif?t=1684172906" /&gt;&lt;br&gt;&lt;br&gt;工程师艾萨克·克拉克和 USG 圣室号的船员们起初只是在执行例行维修任务，但随着船上恐怖事件背后的真相逐渐被揭开，维修任务迅速演变成一场生存之战。跟随徐徐展开的叙事体验，通过遇难船员们的临终日志以及与少数幸存者的邂逅，揭开 USG 石村号各种事件背后的黑幕。&lt;br&gt;&lt;br&gt;&lt;strong&gt;随机应变，死地求生&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1693980/extras/USP3_ageGate_610px.gif?t=1684172906" /&gt;&lt;br&gt;&lt;br&gt;采用定义战略游戏的游玩方式，对抗 USG 石村号上的梦魇。调整并升级艾萨克的工程工具，用你的创意把敌人精准击毙。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1693980/extras/Dead_Space_PC_Specs_610px_STEAM_updated.png?t=1684172906" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>1702010</t>
+          <t>1696440</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Sengoku Dynasty</t>
+          <t>绝世好武功 The Matchless Kungfu</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>战国王朝</t>
+          <t>绝世好武功</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>抢先体验,冒险,生活模拟,模拟,角色扮演</t>
+          <t>抢先体验,开放世界,沙盒,角色扮演,生存</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -7138,39 +7138,39 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2023年08月10日</t>
+          <t>2023年08月30日</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>了解更多关于王朝系列的信息与福利，请加入官方QQ群：807909117&lt;br&gt;&lt;br&gt;《战国王朝》是一款融合了开放世界RPG、城市建造和生活模拟以及生存元素的多题材游戏。在封建日本的动荡时期，建立并成为自己王朝的主宰。在第一或第三人称视角下独自作战或与他人合作。&lt;br&gt;&lt;br&gt;在曾经饱受饥荒和战争摧残的地区，建立自己的生活，培养一个社区，打造一个属于自己的王朝。独自或与多人合作，探索一个美丽的开放世界，收集资源、制造、狩猎、建造和耕种，让自己生存下来，并支持您的村庄社区。与强悍的敌人作战，成为伟大的领袖，保护您所创造的一切。&lt;br&gt;&lt;br&gt;体验自然之美，参加古老的仪式，揭开神灵奥秘。《战国王朝》为玩家提供了一场对中世纪日本的沉浸式体验。选择您的路径，作为领袖、工匠、武士或僧侣，开始一段史诗般的旅程，&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/02_CN.png?t=1693986107" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/03.gif?t=1693986107" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;多样化的生物群落 &lt;/strong&gt;&lt;br&gt;探索森林、山脉、樱桃林和温泉，发现一个多样而美丽的世界。&lt;br&gt;&lt;br&gt;&lt;strong&gt;使用虚幻引擎5驱动 &lt;/strong&gt;&lt;br&gt;《战国王朝》利用Unreal的图像功能突破了开放世界现实主义的界限。&lt;br&gt;&lt;br&gt;&lt;strong&gt;开放世界村庄的建造者&lt;/strong&gt; &lt;br&gt;始于微末，将您的定居点扩展至整个山谷，形成繁荣的社区。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/04_CN.png?t=1693986107" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/05.gif?t=1693986107" /&gt; &lt;br&gt;&lt;br&gt;&lt;strong&gt;深入制造和建造系统 &lt;/strong&gt;&lt;br&gt;制造工具、武器、食物或药物，并耕种土地。&lt;br&gt;&lt;br&gt;&lt;strong&gt;近战和远程武器&lt;/strong&gt; &lt;br&gt;通过掌握武器，制作独特的日本武器，如长矛、弓和剑等， 来保护您的村庄和亲人。&lt;br&gt;&lt;br&gt;&lt;strong&gt;王朝管理&lt;/strong&gt; &lt;br&gt;为子孙后代创造一个繁荣的王朝。监督村庄的成长和发展。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/06_CN.png?t=1693986107" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/07.gif?t=1693986107" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;单人作战和合作模式&lt;/strong&gt;&lt;br&gt;开辟你自己的道路，或者与你的朋友联手创建更大的村庄，分担责任和任务，收集更多的资源，完成任务，共同进步。&lt;br&gt; &lt;br&gt;&lt;strong&gt;FPP和TPP模式&lt;/strong&gt;&lt;br&gt;根据您的偏好选择第一或第三人称视角。</t>
+          <t>官方QQ群号：&lt;br&gt;官方QQ③群：717298872&lt;br&gt;官方QQ④群：757371350&lt;br&gt;官方QQ⑤群：703542977&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;这是一款基于武侠、江湖背景为基础的&lt;strong&gt; &lt;u&gt;开放沙盒类非传统武侠 RPG游戏&lt;/u&gt;&lt;/strong&gt;，你可以在这个大荒世界之中，扮演你所幻想的任何武侠角色，这里没有任何阻挡你幻想的老套剧情，你所演绎的武侠人生就是这个你的游戏剧情。你可以作为一名江湖小虾米游历大荒，你也可以成为一派掌门引领四方，你亦可以成为一名看不惯这江湖的浪子我行我素。最重要的是，请一切遵从于你的内心而为，并且活着！&lt;br&gt;&lt;br&gt;(1)玩家可以从零开始扩展自己的小世界，也可以通过创建小世界生成随机大小的初始世界。每个区域都有独特的环境、资源、生物以及势力。 在熟悉了游戏基本操作之后，您便可以直接生成环境属性各异的、已经包含一定数量地块的世界进行体验和历练，并且可以控制不同的“我”往来穿梭于各个世界开启别样人生！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/kf1.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(2)新颖的单回合战斗方式，通过收集不同的绝学搭配创建自己的招式库，战斗中拖动连接不同的招式激活绝学，利用招式克制和绝学套路，体现武侠战斗的策略性。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF2.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(3)独创的经脉系统，将人体经脉的运转进行了简化概念设计，玩家可以体验到不同的运功路线激活不同内功的拟真感受，简洁却富有策略玩法的设计给玩家提供了搭配和激活多种内功的玩法。同时经脉系统也结合了武侠小说中各种身体机能的具象表现，角色的生命力、内伤、隐疾、蛊、生死符、残疾、瞎眼等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF3.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(4)游戏还包含了自由的建造模式，玩家可以打造自己的民居、酒馆、温泉、马厩、大殿、监牢等等，每种建筑都有独特的功能。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF4.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(5)潜行玩法，可以通过训练潜行能力，配合独特的内功，夜晚穿上夜行衣，如人无人之境。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF5.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(6)训练轻功、跳跃、潜水、攀爬，无论高山深海都可闲庭信步。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF6.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(7)通过自定义天命、出身、容貌、血脉，打造独属于自己的角色。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF7.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(8)非线性剧情，游戏中每个NPC都会根据自己的行为、身份、名声、关系、态度等等在世界中生存，玩家的每次游戏都会与他们发生不同的剧情。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF8.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;(9)丰富的交互内容&lt;br&gt;可以把敌人的建筑引燃&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF9.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;可以邀请NPC喝酒，灌醉后搜刮物品&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF10.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;可以驯化各种动物，每种动物都有各自独特的功能，例如猴子可以乞讨、马可以乘骑和改装马车、蛇可以下毒等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF11.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;玩家可以创建自己门派，招募弟子，发布命令，参加武林大会。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF12.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;丰富的交互内容·玩家可以布置陷阱，抓捕动物或敌人。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF13.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;建立门派，发布命令&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF15.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;建立牢笼，关押敌人&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF16.gif?t=1694014062" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;———————————————————————————————————————&lt;br&gt;来自幻魔寺的寄语：&lt;br&gt;我们坚守本心，完全独立开发，只做大家觉得好玩的游戏，这款游戏的世界目前仍然只是一个雏形，我们深知它会不断壮大，并且成为未来我们一切游戏的基石，我们会为此不断努力，带给大家一个绝妙的幻想世界！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/respect.png?t=1694014062" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>1703340</t>
+          <t>1702010</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>The Stanley Parable: Ultra Deluxe</t>
+          <t>Sengoku Dynasty</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>史丹利的寓言：终极豪华版</t>
+          <t>战国王朝</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>多结局,喜剧,选择取向,步行模拟,第一人称</t>
+          <t>抢先体验,冒险,生活模拟,模拟,角色扮演</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -7180,39 +7180,39 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2022年04月28日</t>
+          <t>2023年08月10日</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;《史丹利寓言：超豪华版》是一款第一人称冒险游戏。 &lt;/strong&gt;&lt;br&gt;&lt;br&gt;您将扮演史丹利，同时不再扮演史丹利。您可以作出选择，并被剥夺选择的权利。游戏终将抵达结局，却又永无尽头。矛盾层层嵌套，游戏原本的运作规则一次次被打破。您不是其中的赢家，《史丹利寓言》会将您玩弄于股掌之间。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1703340/extras/TheEnd_scroll.gif?t=1683922822" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;新作有何看点？ &lt;/strong&gt;&lt;br&gt;&lt;br&gt;《史丹利寓言：超豪华版》是对 2013 年广受好评且屡获殊荣的独立游戏《史丹利寓言》的扩展及再创作。 &lt;br&gt;&lt;br&gt;原版《史丹利寓言》中的所有要素都将得以保留，如 2013 年一般原汁原味。不过，《史丹利寓言：超豪华版》还包含新内容、新选择以及新秘密待您发掘，原有的游戏世界得到极大拓展，谜团也愈发扑朔迷离。 &lt;br&gt;&lt;br&gt;此外，游戏的画质也获得了提升，以反映现代技术水准，同时忠实保留了原游戏的基调。游戏还增加了无障碍功能，包括内部世界文本本地化、色盲选项和内容警告。 &lt;br&gt;&lt;br&gt;同之前一样，Kevan Brighting 先生无可挑剔的配音将全程与您为伴。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1703340/extras/Teasers.gif?t=1683922822" /&gt;&lt;br&gt;&lt;br&gt;在《史丹利寓言：超豪华版》中，您记忆中的一切都会重现，但又有所不同。这种经历似曾相识，不是吗？史丹利仍是当年的老样子么？还是说，其实是您变了？</t>
+          <t>了解更多关于王朝系列的信息与福利，请加入官方QQ群：807909117&lt;br&gt;&lt;br&gt;《战国王朝》是一款融合了开放世界RPG、城市建造和生活模拟以及生存元素的多题材游戏。在封建日本的动荡时期，建立并成为自己王朝的主宰。在第一或第三人称视角下独自作战或与他人合作。&lt;br&gt;&lt;br&gt;在曾经饱受饥荒和战争摧残的地区，建立自己的生活，培养一个社区，打造一个属于自己的王朝。独自或与多人合作，探索一个美丽的开放世界，收集资源、制造、狩猎、建造和耕种，让自己生存下来，并支持您的村庄社区。与强悍的敌人作战，成为伟大的领袖，保护您所创造的一切。&lt;br&gt;&lt;br&gt;体验自然之美，参加古老的仪式，揭开神灵奥秘。《战国王朝》为玩家提供了一场对中世纪日本的沉浸式体验。选择您的路径，作为领袖、工匠、武士或僧侣，开始一段史诗般的旅程，&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/02_CN.png?t=1693986107" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/03.gif?t=1693986107" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;多样化的生物群落 &lt;/strong&gt;&lt;br&gt;探索森林、山脉、樱桃林和温泉，发现一个多样而美丽的世界。&lt;br&gt;&lt;br&gt;&lt;strong&gt;使用虚幻引擎5驱动 &lt;/strong&gt;&lt;br&gt;《战国王朝》利用Unreal的图像功能突破了开放世界现实主义的界限。&lt;br&gt;&lt;br&gt;&lt;strong&gt;开放世界村庄的建造者&lt;/strong&gt; &lt;br&gt;始于微末，将您的定居点扩展至整个山谷，形成繁荣的社区。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/04_CN.png?t=1693986107" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/05.gif?t=1693986107" /&gt; &lt;br&gt;&lt;br&gt;&lt;strong&gt;深入制造和建造系统 &lt;/strong&gt;&lt;br&gt;制造工具、武器、食物或药物，并耕种土地。&lt;br&gt;&lt;br&gt;&lt;strong&gt;近战和远程武器&lt;/strong&gt; &lt;br&gt;通过掌握武器，制作独特的日本武器，如长矛、弓和剑等， 来保护您的村庄和亲人。&lt;br&gt;&lt;br&gt;&lt;strong&gt;王朝管理&lt;/strong&gt; &lt;br&gt;为子孙后代创造一个繁荣的王朝。监督村庄的成长和发展。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/06_CN.png?t=1693986107" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/07.gif?t=1693986107" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;单人作战和合作模式&lt;/strong&gt;&lt;br&gt;开辟你自己的道路，或者与你的朋友联手创建更大的村庄，分担责任和任务，收集更多的资源，完成任务，共同进步。&lt;br&gt; &lt;br&gt;&lt;strong&gt;FPP和TPP模式&lt;/strong&gt;&lt;br&gt;根据您的偏好选择第一或第三人称视角。</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>1710100</t>
+          <t>1703340</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Bing in Wonderland</t>
+          <t>The Stanley Parable: Ultra Deluxe</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>黄老饼梦游惊奇</t>
+          <t>史丹利的寓言：终极豪华版</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>休闲,手绘,卡通风格,可爱,动作类 Rogue</t>
+          <t>多结局,喜剧,选择取向,步行模拟,第一人称</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -7222,39 +7222,39 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2023年01月13日</t>
+          <t>2022年04月28日</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;加入我们的社区&lt;/h2&gt;&lt;strong&gt;QQ群: 812627126(满了)&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;QQ群: 13305571(没满)&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;B站: &lt;a href="https://steamcommunity.com/linkfilter/?url=https://space.bilibili.com/109833003" target="_blank" rel=" noopener"  &gt;https://space.bilibili.com/109833003&lt;/a&gt;&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;抖音：丸霸于大进BigYu&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;武器好几种&lt;/h2&gt;目前提供了5种武器可供使用，它们分别是，弓，枪，炮，斧，琴。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/武器好几种.gif?t=1690603816" /&gt;&lt;h2 class="bb_tag"&gt;大坐快乐多&lt;/h2&gt;黄游中独特的、快节奏的、大坐系统，越坐越快乐。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/大坐快乐多.gif?t=1690603816" /&gt;&lt;h2 class="bb_tag"&gt;成长很丰富&lt;/h2&gt;在游戏中有大量的道具和技能，通过不同的搭配，形成不同的战斗风格。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/成长很丰富.gif?t=1690603816" /&gt;&lt;h2 class="bb_tag"&gt;敌人炸了窝&lt;/h2&gt;在不同的场景，会遭遇不同的敌人，它们形态各异，性格多样，劈里啪啦，咔咔冒水。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/敌人炸了窝.gif?t=1690603816" /&gt;&lt;h2 class="bb_tag"&gt;3A级游戏体验&lt;/h2&gt;虽然这只是一个小团队的独立游戏，但我们希望营造出3A级的游戏体验，而令人愉快的是，我们做到了，我们成功的修改了3A的定义：A LOT OF 饼；A LOT OF 钱；A LOT OF 鱼。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/3A_cn.gif?t=1690603816" /&gt;</t>
+          <t>&lt;strong&gt;《史丹利寓言：超豪华版》是一款第一人称冒险游戏。 &lt;/strong&gt;&lt;br&gt;&lt;br&gt;您将扮演史丹利，同时不再扮演史丹利。您可以作出选择，并被剥夺选择的权利。游戏终将抵达结局，却又永无尽头。矛盾层层嵌套，游戏原本的运作规则一次次被打破。您不是其中的赢家，《史丹利寓言》会将您玩弄于股掌之间。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1703340/extras/TheEnd_scroll.gif?t=1683922822" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;新作有何看点？ &lt;/strong&gt;&lt;br&gt;&lt;br&gt;《史丹利寓言：超豪华版》是对 2013 年广受好评且屡获殊荣的独立游戏《史丹利寓言》的扩展及再创作。 &lt;br&gt;&lt;br&gt;原版《史丹利寓言》中的所有要素都将得以保留，如 2013 年一般原汁原味。不过，《史丹利寓言：超豪华版》还包含新内容、新选择以及新秘密待您发掘，原有的游戏世界得到极大拓展，谜团也愈发扑朔迷离。 &lt;br&gt;&lt;br&gt;此外，游戏的画质也获得了提升，以反映现代技术水准，同时忠实保留了原游戏的基调。游戏还增加了无障碍功能，包括内部世界文本本地化、色盲选项和内容警告。 &lt;br&gt;&lt;br&gt;同之前一样，Kevan Brighting 先生无可挑剔的配音将全程与您为伴。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1703340/extras/Teasers.gif?t=1683922822" /&gt;&lt;br&gt;&lt;br&gt;在《史丹利寓言：超豪华版》中，您记忆中的一切都会重现，但又有所不同。这种经历似曾相识，不是吗？史丹利仍是当年的老样子么？还是说，其实是您变了？</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>1711950</t>
+          <t>1710100</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>GWENT: Rogue Mage (Single-Player Expansion)</t>
+          <t>Bing in Wonderland</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>GWENT: Rogue Mage (Single-Player Expansion)</t>
+          <t>黄老饼梦游惊奇</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>策略,卡牌游戏,棋盘游戏,解谜,类 Rogue</t>
+          <t>休闲,手绘,卡通风格,可爱,动作类 Rogue</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -7264,39 +7264,39 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>2022年07月07日</t>
+          <t>2023年01月13日</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>《巫师之昆特牌：流浪法师》是《巫师之昆特牌》的单人拓展内容，将肉鸽（Roguelike）、卡组构建和策略游戏的元素带入昆特牌的独特机制中。&lt;br&gt;&lt;br&gt;数百年前，无数怪物经由天球交汇降临于世，那时还没有杰洛特和其他浪迹大陆的猎魔人。想从穷凶极恶的怪物手中活命，人类必须学会如何反击。&lt;br&gt;&lt;br&gt;雄心勃勃的年轻法师阿尔祖及其同伴莉莉安娜开始探索一种危险的方法——如何将人打造成兵器，一劳永逸地根除怪物的威胁。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1711950/extras/ZHS.png?t=1660654250" /&gt;&lt;br&gt;&lt;br&gt;没有退路：每场战斗仅有一个小局，玩家需要毫无保留，全力帮助阿尔祖抵御敌人的猛烈攻击。&lt;br&gt;&lt;br&gt;&lt;br&gt;全新资源——魔能：每一回合，阿尔祖都可以花费魔能，从他不断扩充的魔法书中释放强力法术。阿尔祖可以在每场战斗的间隙，拜访地图上的魔力之所或者通过其他随机事件回复魔能。&lt;br&gt;&lt;br&gt;&lt;br&gt;扭转局势：由于无法对敌人打出的最后一张牌做出应对，最初阿尔祖处于劣势境地。但随着玩家不断推进，解锁各种高级奖励，玩家可以彻底掌控战局节奏。&lt;br&gt;&lt;br&gt;&lt;br&gt;每轮游戏都是全新体验：在阿尔祖完成了最初的两次实验后，就可以解锁诅咒。玩家可以通过诅咒灵活地修改游戏难度，使得每轮游戏的体验迥异，并且充满挑战。</t>
+          <t>&lt;h2 class="bb_tag"&gt;加入我们的社区&lt;/h2&gt;&lt;strong&gt;QQ群: 812627126(满了)&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;QQ群: 13305571(没满)&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;B站: &lt;a href="https://steamcommunity.com/linkfilter/?url=https://space.bilibili.com/109833003" target="_blank" rel=" noopener"  &gt;https://space.bilibili.com/109833003&lt;/a&gt;&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;抖音：丸霸于大进BigYu&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;武器好几种&lt;/h2&gt;目前提供了5种武器可供使用，它们分别是，弓，枪，炮，斧，琴。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/武器好几种.gif?t=1690603816" /&gt;&lt;h2 class="bb_tag"&gt;大坐快乐多&lt;/h2&gt;黄游中独特的、快节奏的、大坐系统，越坐越快乐。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/大坐快乐多.gif?t=1690603816" /&gt;&lt;h2 class="bb_tag"&gt;成长很丰富&lt;/h2&gt;在游戏中有大量的道具和技能，通过不同的搭配，形成不同的战斗风格。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/成长很丰富.gif?t=1690603816" /&gt;&lt;h2 class="bb_tag"&gt;敌人炸了窝&lt;/h2&gt;在不同的场景，会遭遇不同的敌人，它们形态各异，性格多样，劈里啪啦，咔咔冒水。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/敌人炸了窝.gif?t=1690603816" /&gt;&lt;h2 class="bb_tag"&gt;3A级游戏体验&lt;/h2&gt;虽然这只是一个小团队的独立游戏，但我们希望营造出3A级的游戏体验，而令人愉快的是，我们做到了，我们成功的修改了3A的定义：A LOT OF 饼；A LOT OF 钱；A LOT OF 鱼。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/3A_cn.gif?t=1690603816" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>1713810</t>
+          <t>1711950</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Lumencraft</t>
+          <t>GWENT: Rogue Mage (Single-Player Expansion)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>深岩破裂者</t>
+          <t>GWENT: Rogue Mage (Single-Player Expansion)</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>探索,动作,动作角色扮演,沙盒,惊悚</t>
+          <t>策略,卡牌游戏,棋盘游戏,解谜,类 Rogue</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7306,39 +7306,39 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>2023年03月01日</t>
+          <t>2022年07月07日</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>深岩破裂者(Lumencraft)是一款带有基地建设元素的俯视角射击塔防游戏。在100%可破坏的环境中探索、钻探、收集各种宝贵矿物资源；打造武器、制造工具，守卫人类最后的堡垒。欢迎加入官方QQ群631641340参与讨论！&lt;h2 class="bb_tag"&gt;成为人类的救世主&lt;/h2&gt;两个多世纪前，地球的表面变得不再适宜人类居住，恶劣的环境变化带来了空前的能源危机，重创了人类的科技文明。时间来到了公元2221年，人类对美好未来的梦想早已湮灭，只能苦苦挣扎在生存的边缘。就在人类即将绝望的接受现实之时，一种发现于地下的全新矿物给人们带来了希望的火种。流明，一种具有高能量效力的晶体，也许它就是人类文明求生的最后机会。全人类仅存的科学家们都被派驻到尚未探明全貌的地下流明矿藏附近，勇敢的勘探员们一批又一批的深入险地，但到目前为止，我们却没有收到任何回音。看来，黑暗的地下还藏有许多我们尚未知晓的秘密……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1713810/extras/Gif_kopanie.gif?t=1685614740" /&gt;&lt;h2 class="bb_tag"&gt;探索100%可破坏的环境&lt;/h2&gt;通过不懈的努力和一整套原创算法，游戏的每一处地形都能加以破坏，通过细腻的声音设计和独特的2D动态照明系统为游戏创造出贴合背景的诡谲氛围。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1713810/extras/ezgif.com-gif-maker__4_.gif?t=1685614740" /&gt;&lt;h2 class="bb_tag"&gt;挖矿！挖矿！挖矿！&lt;/h2&gt;地下拥有丰富的各类珍稀矿产资源。鼓起勇气四处游走以探明这些矿物，用钻头把他们开采出来！这些矿物将会被用于钻头升级、工具制造以及打造武器等等。当然，天下没有免费的午餐，做好自卫很重要。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1713810/extras/Lumen_base_building.gif?t=1685614740" /&gt;&lt;h2 class="bb_tag"&gt;守卫基地，防御敌人&lt;/h2&gt;作为地下的“不速之客”，你的举动很可能引起“原住民”们的关注。地下生物们会想尽一切办法摧毁你的基地，而你则需要建造障碍物、防御塔等防御系统来守卫你的基地。必要时，带好你的武器，做好亲自上阵的准备吧！</t>
+          <t>《巫师之昆特牌：流浪法师》是《巫师之昆特牌》的单人拓展内容，将肉鸽（Roguelike）、卡组构建和策略游戏的元素带入昆特牌的独特机制中。&lt;br&gt;&lt;br&gt;数百年前，无数怪物经由天球交汇降临于世，那时还没有杰洛特和其他浪迹大陆的猎魔人。想从穷凶极恶的怪物手中活命，人类必须学会如何反击。&lt;br&gt;&lt;br&gt;雄心勃勃的年轻法师阿尔祖及其同伴莉莉安娜开始探索一种危险的方法——如何将人打造成兵器，一劳永逸地根除怪物的威胁。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1711950/extras/ZHS.png?t=1660654250" /&gt;&lt;br&gt;&lt;br&gt;没有退路：每场战斗仅有一个小局，玩家需要毫无保留，全力帮助阿尔祖抵御敌人的猛烈攻击。&lt;br&gt;&lt;br&gt;&lt;br&gt;全新资源——魔能：每一回合，阿尔祖都可以花费魔能，从他不断扩充的魔法书中释放强力法术。阿尔祖可以在每场战斗的间隙，拜访地图上的魔力之所或者通过其他随机事件回复魔能。&lt;br&gt;&lt;br&gt;&lt;br&gt;扭转局势：由于无法对敌人打出的最后一张牌做出应对，最初阿尔祖处于劣势境地。但随着玩家不断推进，解锁各种高级奖励，玩家可以彻底掌控战局节奏。&lt;br&gt;&lt;br&gt;&lt;br&gt;每轮游戏都是全新体验：在阿尔祖完成了最初的两次实验后，就可以解锁诅咒。玩家可以通过诅咒灵活地修改游戏难度，使得每轮游戏的体验迥异，并且充满挑战。</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>1716740</t>
+          <t>1713810</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Starfield</t>
+          <t>Lumencraft</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>星空</t>
+          <t>深岩破裂者</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>太空,开放世界,角色扮演,单人,科幻</t>
+          <t>探索,动作,动作角色扮演,沙盒,惊悚</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -7348,39 +7348,39 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>2023年09月06日</t>
+          <t>2023年03月01日</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>《Starfield》出自打造过《Starfield》是由载誉无数、曾为大家带来《The Elder Scrolls V: Skyrim》和《Fallout 4》的Bethesda Game Studios睽违超过25年所打造的第一个全新宇宙。这款新一代角色扮演游戏将背景设定在茫茫宇宙。在这里，你可以创建任意角色，探索世界并体验前所未有的自由。踏上这趟史诗般的旅程，发掘人类文明的终极奥秘。&lt;br&gt;&lt;br&gt;2330年，人类已跨出我们所在的太阳系，在新的星球上定居下来，太空旅行也已成为人类的日常。在这款Bethesda Game Studios迄今为止最宏大的游戏里，你将加入群星组织这个在星系中寻找稀有神器的太空探险者团体，展开探索广袤宇宙的旅程。&lt;h2 class="bb_tag"&gt;传颂你的故事&lt;/h2&gt;在《Starfield》中，最重要的故事将由你亲自通过你的角色述说。自定义外观并决定背景和特征，启航展开属于你的星际之旅。你会是经验老道的探险家、充满魅力的外交官、诡密的电子情报贩，或是独树一帜的人物？选择权都在你手上。由你决定想要打造什么样的角色，有什么样的发展。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/TellYourStory_v3.gif?t=1693958437" /&gt;&lt;h2 class="bb_tag"&gt;探索外太空&lt;/h2&gt;在群星间冒险，探索超过一千个行星。造访繁华的都市、探索充满危险的基地，以及穿越荒野的风景。认识令人难忘的角色并加以招募、参与各种阵营的冒险，在定居星系群中到处展开任务。随时都有新的故事或体验等你来发掘。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/ExploreSpace_v3.gif?t=1693958437" /&gt;&lt;h2 class="bb_tag"&gt;指挥你梦想中的飞船&lt;/h2&gt;驾驶及指挥你梦想中的飞船。打造属于自己的飞船外观、改造武器和护盾等重要系统，以及分配船员为你提供独特加成。在深远的太空中，你将遭遇高风险的近距空战、随机任务、在星际站停驻，甚至登上并夺取敌人的飞船，为自己增添收藏品。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/CaptainShip_v3.gif?t=1693958437" /&gt;&lt;h2 class="bb_tag"&gt;发掘、收集、打造&lt;/h2&gt;探索行星并发掘各种动植物，以及制作药物、食物、装备和武器所需的各种资源。建造哨站并雇用工作人员自动获得材料，并建立货运链接以在哨站间运送资源。将这些原材料投注在研究项目中以解锁独特的制造配方。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/DiscoverCollectBuild_v3.gif?t=1693958437" /&gt;&lt;h2 class="bb_tag"&gt;武器上膛&lt;/h2&gt;宇宙中危机四伏。精细的战斗系统为你提供处理各种状况的工具。无论你喜欢长射程步枪、激光武器或炸药，每种武器皆可改装以符合你的游戏风格。零重力环境为战斗增添了混乱的华丽场面，飞行背包则为玩家带来前所未有的自由机动性。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/LockandLoad_v3.gif?t=1693958437" /&gt;</t>
+          <t>深岩破裂者(Lumencraft)是一款带有基地建设元素的俯视角射击塔防游戏。在100%可破坏的环境中探索、钻探、收集各种宝贵矿物资源；打造武器、制造工具，守卫人类最后的堡垒。欢迎加入官方QQ群631641340参与讨论！&lt;h2 class="bb_tag"&gt;成为人类的救世主&lt;/h2&gt;两个多世纪前，地球的表面变得不再适宜人类居住，恶劣的环境变化带来了空前的能源危机，重创了人类的科技文明。时间来到了公元2221年，人类对美好未来的梦想早已湮灭，只能苦苦挣扎在生存的边缘。就在人类即将绝望的接受现实之时，一种发现于地下的全新矿物给人们带来了希望的火种。流明，一种具有高能量效力的晶体，也许它就是人类文明求生的最后机会。全人类仅存的科学家们都被派驻到尚未探明全貌的地下流明矿藏附近，勇敢的勘探员们一批又一批的深入险地，但到目前为止，我们却没有收到任何回音。看来，黑暗的地下还藏有许多我们尚未知晓的秘密……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1713810/extras/Gif_kopanie.gif?t=1685614740" /&gt;&lt;h2 class="bb_tag"&gt;探索100%可破坏的环境&lt;/h2&gt;通过不懈的努力和一整套原创算法，游戏的每一处地形都能加以破坏，通过细腻的声音设计和独特的2D动态照明系统为游戏创造出贴合背景的诡谲氛围。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1713810/extras/ezgif.com-gif-maker__4_.gif?t=1685614740" /&gt;&lt;h2 class="bb_tag"&gt;挖矿！挖矿！挖矿！&lt;/h2&gt;地下拥有丰富的各类珍稀矿产资源。鼓起勇气四处游走以探明这些矿物，用钻头把他们开采出来！这些矿物将会被用于钻头升级、工具制造以及打造武器等等。当然，天下没有免费的午餐，做好自卫很重要。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1713810/extras/Lumen_base_building.gif?t=1685614740" /&gt;&lt;h2 class="bb_tag"&gt;守卫基地，防御敌人&lt;/h2&gt;作为地下的“不速之客”，你的举动很可能引起“原住民”们的关注。地下生物们会想尽一切办法摧毁你的基地，而你则需要建造障碍物、防御塔等防御系统来守卫你的基地。必要时，带好你的武器，做好亲自上阵的准备吧！</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>1737340</t>
+          <t>1716740</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>通神榜 Noobs Want to Live</t>
+          <t>Starfield</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>通神榜</t>
+          <t>星空</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>弹幕射击,类 Rogue,像素图形,动作,2.5D</t>
+          <t>太空,开放世界,角色扮演,单人,科幻</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7390,39 +7390,39 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2023年02月14日</t>
+          <t>2023年09月06日</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1737340/extras/03_多种角色，不同体验.PNG?t=1679476509" /&gt;&lt;br&gt;六边形战士小侠客、手搓火球的小师妹、精通召唤的机关师，再到村门口的大黄和误入凡间的二师叔......多种身份多种开局，每一个都是新体验。更多角色等你解锁！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1737340/extras/04.gif?t=1679476509" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1737340/extras/10_立体纸片，满屏快爽.png?t=1679476509" /&gt;&lt;br&gt;精心制作的立体纸片让游戏可爱又有趣，平凡小角色独步通神；满屏的火球与黑洞，特效越帅打人越狠。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1737340/extras/naicha.gif?t=1679476509" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1737340/extras/05_两两组合，强力神通.PNG?t=1679476509" /&gt;&lt;br&gt;获得特定的技能能够组成更为强大的组合技，发挥1+1＞2的能力，至于有哪些强力的组合，去探索吧！&lt;br&gt;今天你发现了几个组合技呢？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1737340/extras/06.gif?t=1679476509" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1737340/extras/异兽降临，武装代打.PNG?t=1679476509" /&gt;&lt;br&gt;谁说肉鸽战斗只有刷刷刷？兔兔、鸭鸭……奇趣异兽有百般本领，更能武装进化，治疗压制两不误。召唤异兽，令你爱不释手！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1737340/extras/02.gif?t=1679476509" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1737340/extras/07_元宝重铸，逆天改命.PNG?t=1679476509" /&gt;&lt;br&gt;每一次升级都是一次破局的提升机会。金元宝更能重铸技能，氪金改命。更有局外天赋养成，助力你的下一场桃林之约。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1737340/extras/01.gif?t=1679476509" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://space.bilibili.com/399953897?spm_id_from=333.337.0.0" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1737340/extras/20230209-101753.jpg?t=1679476509" /&gt;&lt;/a&gt;&lt;br&gt;欢迎各位逃友加入官方讨论群：626548639 或 619696673，畅聊桃源秘籍。</t>
+          <t>《Starfield》出自打造过《Starfield》是由载誉无数、曾为大家带来《The Elder Scrolls V: Skyrim》和《Fallout 4》的Bethesda Game Studios睽违超过25年所打造的第一个全新宇宙。这款新一代角色扮演游戏将背景设定在茫茫宇宙。在这里，你可以创建任意角色，探索世界并体验前所未有的自由。踏上这趟史诗般的旅程，发掘人类文明的终极奥秘。&lt;br&gt;&lt;br&gt;2330年，人类已跨出我们所在的太阳系，在新的星球上定居下来，太空旅行也已成为人类的日常。在这款Bethesda Game Studios迄今为止最宏大的游戏里，你将加入群星组织这个在星系中寻找稀有神器的太空探险者团体，展开探索广袤宇宙的旅程。&lt;h2 class="bb_tag"&gt;传颂你的故事&lt;/h2&gt;在《Starfield》中，最重要的故事将由你亲自通过你的角色述说。自定义外观并决定背景和特征，启航展开属于你的星际之旅。你会是经验老道的探险家、充满魅力的外交官、诡密的电子情报贩，或是独树一帜的人物？选择权都在你手上。由你决定想要打造什么样的角色，有什么样的发展。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/TellYourStory_v3.gif?t=1693958437" /&gt;&lt;h2 class="bb_tag"&gt;探索外太空&lt;/h2&gt;在群星间冒险，探索超过一千个行星。造访繁华的都市、探索充满危险的基地，以及穿越荒野的风景。认识令人难忘的角色并加以招募、参与各种阵营的冒险，在定居星系群中到处展开任务。随时都有新的故事或体验等你来发掘。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/ExploreSpace_v3.gif?t=1693958437" /&gt;&lt;h2 class="bb_tag"&gt;指挥你梦想中的飞船&lt;/h2&gt;驾驶及指挥你梦想中的飞船。打造属于自己的飞船外观、改造武器和护盾等重要系统，以及分配船员为你提供独特加成。在深远的太空中，你将遭遇高风险的近距空战、随机任务、在星际站停驻，甚至登上并夺取敌人的飞船，为自己增添收藏品。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/CaptainShip_v3.gif?t=1693958437" /&gt;&lt;h2 class="bb_tag"&gt;发掘、收集、打造&lt;/h2&gt;探索行星并发掘各种动植物，以及制作药物、食物、装备和武器所需的各种资源。建造哨站并雇用工作人员自动获得材料，并建立货运链接以在哨站间运送资源。将这些原材料投注在研究项目中以解锁独特的制造配方。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/DiscoverCollectBuild_v3.gif?t=1693958437" /&gt;&lt;h2 class="bb_tag"&gt;武器上膛&lt;/h2&gt;宇宙中危机四伏。精细的战斗系统为你提供处理各种状况的工具。无论你喜欢长射程步枪、激光武器或炸药，每种武器皆可改装以符合你的游戏风格。零重力环境为战斗增添了混乱的华丽场面，飞行背包则为玩家带来前所未有的自由机动性。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/LockandLoad_v3.gif?t=1693958437" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>1740720</t>
+          <t>1737340</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Have a Nice Death</t>
+          <t>通神榜 Noobs Want to Live</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>祝你好死</t>
+          <t>通神榜</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>动作类 Rogue,欢乐,动作,单人,2D</t>
+          <t>弹幕射击,类 Rogue,像素图形,动作,2.5D</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7432,39 +7432,39 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2023年03月23日</t>
+          <t>2023年02月14日</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1740720/extras/HAND_Steam_Main-Capsule_616x353.png?t=1688786818" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;欢迎使用“祝你死得开心”1.0！&lt;/strong&gt;&lt;br&gt;感谢我们的社区参与我们的抢先体验之旅！ 现在你可以体验第八师——不可避免的时间划分——有一个新的老板、小老板、敌人、故事的结局、“死亡质量”的改进等等。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1740720/extras/Welcome-to-Death-Incorporated.jpg?t=1688786818" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1740720/extras/HAND_Steam-Store-Assets_GIFs_616x144_Hub_01.gif?t=1688786818" /&gt;&lt;br&gt;&lt;strong&gt;欢迎来到 Death, Inc.&lt;/strong&gt;&lt;br&gt;探索发现 Death, Inc. 黑暗迷人、秩序井然的各部门，邂逅各种各样令人难忘的角色——比如那个总和你分享办公室八卦的，你亲爱的南瓜头助理“瓜魁”。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1740720/extras/Reap-What-You-Sow.jpg?t=1688786818" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1740720/extras/HAND_Steam-Store-Assets_GIFs_616x144_Combo_03.gif?t=1688786818" /&gt;&lt;br&gt;&lt;strong&gt;一分耕耘一分收获&lt;/strong&gt;&lt;br&gt;在快节奏的砍杀战斗中磨砺你的技艺（以及镰刀），利用超过 70 种可升级的武器和咒语，创造出毁灭性的组合。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1740720/extras/Death-Never-Sleeps.jpg?t=1688786818" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1740720/extras/HAND_Steam-Store-Assets_GIFs_616x144_Death_01.gif?t=1688786818" /&gt;&lt;br&gt;&lt;strong&gt;死神永不眠&lt;/strong&gt;&lt;br&gt;反正死神又不会死，那就用你学来的本事和赚来的东西，去战胜 Death Incorporated 各部门的主管和他们的手下吧……一遍又一遍。每一轮结束后都有表现评估报告，帮你不断解锁有趣的物品、升级技能，让你变得越来越强大。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1740720/extras/When-Life-Death-Gives-You-Curses_Final.jpg?t=1688786818" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1740720/extras/HAND_Steam-Store-Assets_GIFs_616x144_Curses_01.gif?t=1688786818" /&gt;&lt;br&gt;&lt;strong&gt;当生活给你诅咒&lt;/strong&gt;&lt;br&gt;在 Death Incorporated 的企业文化中，为自己争取更多权力是一项有争议的举措。举个例子：如果你给自己的诅咒升级，劳动监察员可能会赋予你手下更大的力量；或者更糟，他们甚至可能会提高加啡之类对工作效率至关重要的物品的价格。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1737340/extras/03_多种角色，不同体验.PNG?t=1679476509" /&gt;&lt;br&gt;六边形战士小侠客、手搓火球的小师妹、精通召唤的机关师，再到村门口的大黄和误入凡间的二师叔......多种身份多种开局，每一个都是新体验。更多角色等你解锁！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1737340/extras/04.gif?t=1679476509" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1737340/extras/10_立体纸片，满屏快爽.png?t=1679476509" /&gt;&lt;br&gt;精心制作的立体纸片让游戏可爱又有趣，平凡小角色独步通神；满屏的火球与黑洞，特效越帅打人越狠。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1737340/extras/naicha.gif?t=1679476509" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1737340/extras/05_两两组合，强力神通.PNG?t=1679476509" /&gt;&lt;br&gt;获得特定的技能能够组成更为强大的组合技，发挥1+1＞2的能力，至于有哪些强力的组合，去探索吧！&lt;br&gt;今天你发现了几个组合技呢？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1737340/extras/06.gif?t=1679476509" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1737340/extras/异兽降临，武装代打.PNG?t=1679476509" /&gt;&lt;br&gt;谁说肉鸽战斗只有刷刷刷？兔兔、鸭鸭……奇趣异兽有百般本领，更能武装进化，治疗压制两不误。召唤异兽，令你爱不释手！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1737340/extras/02.gif?t=1679476509" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1737340/extras/07_元宝重铸，逆天改命.PNG?t=1679476509" /&gt;&lt;br&gt;每一次升级都是一次破局的提升机会。金元宝更能重铸技能，氪金改命。更有局外天赋养成，助力你的下一场桃林之约。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1737340/extras/01.gif?t=1679476509" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://space.bilibili.com/399953897?spm_id_from=333.337.0.0" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1737340/extras/20230209-101753.jpg?t=1679476509" /&gt;&lt;/a&gt;&lt;br&gt;欢迎各位逃友加入官方讨论群：626548639 或 619696673，畅聊桃源秘籍。</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>1741400</t>
+          <t>1740720</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Wander Hero</t>
+          <t>Have a Nice Death</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>漂流佣兵</t>
+          <t>祝你好死</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>抢先体验,卡牌构建式类 Rogue,轻度 Rogue,探索,策略角色扮演</t>
+          <t>动作类 Rogue,欢乐,动作,单人,2D</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7474,39 +7474,39 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>2023年01月12日</t>
+          <t>2023年03月23日</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;关注我们&lt;/strong&gt;&lt;br&gt;欢迎关注我们的官方社群：&lt;br&gt;《漂流佣兵》玩家Q群：583314686&lt;br&gt;游戏便当QQ群①：287356527【已满】&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569&lt;br&gt;游戏便当QQ群④：909356067&lt;br&gt;&lt;br&gt;&lt;strong&gt;《漂流佣兵》是一款融合了卡牌策略和弹珠弹射玩法的游戏。&lt;/strong&gt;&lt;br&gt;-玩家可以在随机生成的地牢和城镇间探索，冒险，交易，招募佣兵。&lt;br&gt;-作为佣兵团长，带领精心挑选的伙伴们，在这个动荡的异世界生存下去。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p.gif?t=1693384821" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p5.jpg?t=1693384821" /&gt;&lt;br&gt;团长可以穿梭于异世界的各个城镇：皮魔镇，群山环绕景色宜人，打铁声络绎不绝；乱雾村，盛行树屋建筑，树木林立，小桥流水，宜居的不二选择……城镇的“奇遇”“事 &lt;br&gt;件”还能助团长邂逅不同的佣兵，邀请他们组建最强佣兵团！训练佣兵提升技能，为他们购买装备提升实力，一起冒险奇妙异世界。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/tese.jpg?t=1693384821" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p4.jpg?t=1693384821" /&gt;&lt;br&gt;在异世界不断邂逅美女伙伴！不同装扮、不同性格甚至是不同种族，总有一款对你胃口。能变装以蛊惑人心的新生魅魔、拥有强大战力但喜爱黏人的骑士长、逃离少爷之手又酷爱冒险的战斗女仆......或许多逛逛酒馆还可能打听到有关于她们的传闻哦~&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/xin.jpg?t=1693384821" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p1.jpg?t=1693384821" /&gt;&lt;br&gt;每位角色都将化身一颗弹珠，轻轻拉出基准线，弹射后即可战斗！强大的团长还将通过基准线，预判力道和路径，弹射更多的怪物。角色之间还能相互影响弹射效果，利用联动机制打出爽快的连击！ &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/角色弹射.gif?t=1693384821" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p2.jpg?t=1693384821" /&gt;&lt;br&gt;每一次异世界的冒险，团长都可以带着自己组建的强大佣兵团伙伴，体验每一个周目不同的战斗体验。每次协同战斗都有不同的战斗体验，哪个组合才是消灭魔王的最佳组合，等你来探索！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/伙伴联动.gif?t=1693384821" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p3.jpg?t=1693384821" /&gt;&lt;br&gt;异世界也散落了许多技能卡片，攻击、防御、buff牌各式各样，收集并构筑出属于自己的流派。配合弹射打出深度策略！当然，偶尔也会拿到不合适的卡片，有所取舍才能使卡组更强大。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/技能.gif?t=1693384821" /&gt;&lt;h2 class="bb_tag"&gt;关于【开发者】&lt;/h2&gt;&lt;br&gt;作者是个Solo开发的死宅。&lt;br&gt;&lt;br&gt;希望通过构筑这个游戏，与广大穿越者一起完成心中的奇幻异世界梦想。&lt;br&gt;&lt;br&gt;目前游戏还未最终完成，若有不足，希望大家理解，作者会尽力完善。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1740720/extras/HAND_Steam_Main-Capsule_616x353.png?t=1688786818" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;欢迎使用“祝你死得开心”1.0！&lt;/strong&gt;&lt;br&gt;感谢我们的社区参与我们的抢先体验之旅！ 现在你可以体验第八师——不可避免的时间划分——有一个新的老板、小老板、敌人、故事的结局、“死亡质量”的改进等等。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1740720/extras/Welcome-to-Death-Incorporated.jpg?t=1688786818" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1740720/extras/HAND_Steam-Store-Assets_GIFs_616x144_Hub_01.gif?t=1688786818" /&gt;&lt;br&gt;&lt;strong&gt;欢迎来到 Death, Inc.&lt;/strong&gt;&lt;br&gt;探索发现 Death, Inc. 黑暗迷人、秩序井然的各部门，邂逅各种各样令人难忘的角色——比如那个总和你分享办公室八卦的，你亲爱的南瓜头助理“瓜魁”。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1740720/extras/Reap-What-You-Sow.jpg?t=1688786818" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1740720/extras/HAND_Steam-Store-Assets_GIFs_616x144_Combo_03.gif?t=1688786818" /&gt;&lt;br&gt;&lt;strong&gt;一分耕耘一分收获&lt;/strong&gt;&lt;br&gt;在快节奏的砍杀战斗中磨砺你的技艺（以及镰刀），利用超过 70 种可升级的武器和咒语，创造出毁灭性的组合。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1740720/extras/Death-Never-Sleeps.jpg?t=1688786818" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1740720/extras/HAND_Steam-Store-Assets_GIFs_616x144_Death_01.gif?t=1688786818" /&gt;&lt;br&gt;&lt;strong&gt;死神永不眠&lt;/strong&gt;&lt;br&gt;反正死神又不会死，那就用你学来的本事和赚来的东西，去战胜 Death Incorporated 各部门的主管和他们的手下吧……一遍又一遍。每一轮结束后都有表现评估报告，帮你不断解锁有趣的物品、升级技能，让你变得越来越强大。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1740720/extras/When-Life-Death-Gives-You-Curses_Final.jpg?t=1688786818" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1740720/extras/HAND_Steam-Store-Assets_GIFs_616x144_Curses_01.gif?t=1688786818" /&gt;&lt;br&gt;&lt;strong&gt;当生活给你诅咒&lt;/strong&gt;&lt;br&gt;在 Death Incorporated 的企业文化中，为自己争取更多权力是一项有争议的举措。举个例子：如果你给自己的诅咒升级，劳动监察员可能会赋予你手下更大的力量；或者更糟，他们甚至可能会提高加啡之类对工作效率至关重要的物品的价格。</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>1754790</t>
+          <t>1741400</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Fate of the Pharaoh</t>
+          <t>Wander Hero</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Fate of the Pharaoh</t>
+          <t>漂流佣兵</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>策略,时间管理,城市营造,2D,可爱</t>
+          <t>抢先体验,卡牌构建式类 Rogue,轻度 Rogue,探索,策略角色扮演</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7514,36 +7514,41 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>7.9</t>
+        </is>
+      </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2023年08月23日</t>
+          <t>2023年01月12日</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1754790/extras/banner_large_1.png?t=1692785837" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1754790/extras/banner_1.png?t=1692785837" /&gt;&lt;br&gt;Become the loyal Pharaoh’s adviser and help him to restore peace and prosperity in the golden cities of Egypt. Construct houses re-establish production, collect taxes and gather materials, set up production and trade, and fight crocodiles and wicked cobras. Restore Egypt to its days of glory!&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1754790/extras/banner_2.png?t=1692785837" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; HELP the people of ancient Egypt to restore their kingdom in this exciting time management adventure game!&lt;br&gt;&lt;/li&gt;&lt;li&gt; EXPLORE the magnificent era of our history&lt;br&gt;&lt;/li&gt;&lt;li&gt; 44 EXCITING levels to master and hundreds of quests&lt;br&gt;&lt;/li&gt;&lt;li&gt; FIGHT dangerous cobras, scorpions, crocodiles and more!&lt;br&gt;&lt;/li&gt;&lt;li&gt; EARN achievements along the way&lt;br&gt;&lt;/li&gt;&lt;li&gt; MEET friends from outer space&lt;br&gt;&lt;/li&gt;&lt;li&gt; 2 difficulty modes: relaxed and adventure&lt;br&gt;&lt;/li&gt;&lt;li&gt; Step-by-step tutorials for beginners&lt;ul class="bb_ul"&gt;&lt;/ul&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;strong&gt;关注我们&lt;/strong&gt;&lt;br&gt;欢迎关注我们的官方社群：&lt;br&gt;《漂流佣兵》玩家Q群：583314686&lt;br&gt;游戏便当QQ群①：287356527【已满】&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569&lt;br&gt;游戏便当QQ群④：909356067&lt;br&gt;&lt;br&gt;&lt;strong&gt;《漂流佣兵》是一款融合了卡牌策略和弹珠弹射玩法的游戏。&lt;/strong&gt;&lt;br&gt;-玩家可以在随机生成的地牢和城镇间探索，冒险，交易，招募佣兵。&lt;br&gt;-作为佣兵团长，带领精心挑选的伙伴们，在这个动荡的异世界生存下去。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p.gif?t=1693384821" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p5.jpg?t=1693384821" /&gt;&lt;br&gt;团长可以穿梭于异世界的各个城镇：皮魔镇，群山环绕景色宜人，打铁声络绎不绝；乱雾村，盛行树屋建筑，树木林立，小桥流水，宜居的不二选择……城镇的“奇遇”“事 &lt;br&gt;件”还能助团长邂逅不同的佣兵，邀请他们组建最强佣兵团！训练佣兵提升技能，为他们购买装备提升实力，一起冒险奇妙异世界。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/tese.jpg?t=1693384821" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p4.jpg?t=1693384821" /&gt;&lt;br&gt;在异世界不断邂逅美女伙伴！不同装扮、不同性格甚至是不同种族，总有一款对你胃口。能变装以蛊惑人心的新生魅魔、拥有强大战力但喜爱黏人的骑士长、逃离少爷之手又酷爱冒险的战斗女仆......或许多逛逛酒馆还可能打听到有关于她们的传闻哦~&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/xin.jpg?t=1693384821" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p1.jpg?t=1693384821" /&gt;&lt;br&gt;每位角色都将化身一颗弹珠，轻轻拉出基准线，弹射后即可战斗！强大的团长还将通过基准线，预判力道和路径，弹射更多的怪物。角色之间还能相互影响弹射效果，利用联动机制打出爽快的连击！ &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/角色弹射.gif?t=1693384821" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p2.jpg?t=1693384821" /&gt;&lt;br&gt;每一次异世界的冒险，团长都可以带着自己组建的强大佣兵团伙伴，体验每一个周目不同的战斗体验。每次协同战斗都有不同的战斗体验，哪个组合才是消灭魔王的最佳组合，等你来探索！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/伙伴联动.gif?t=1693384821" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p3.jpg?t=1693384821" /&gt;&lt;br&gt;异世界也散落了许多技能卡片，攻击、防御、buff牌各式各样，收集并构筑出属于自己的流派。配合弹射打出深度策略！当然，偶尔也会拿到不合适的卡片，有所取舍才能使卡组更强大。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/技能.gif?t=1693384821" /&gt;&lt;h2 class="bb_tag"&gt;关于【开发者】&lt;/h2&gt;&lt;br&gt;作者是个Solo开发的死宅。&lt;br&gt;&lt;br&gt;希望通过构筑这个游戏，与广大穿越者一起完成心中的奇幻异世界梦想。&lt;br&gt;&lt;br&gt;目前游戏还未最终完成，若有不足，希望大家理解，作者会尽力完善。</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>1770080</t>
+          <t>1754790</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Superfuse</t>
+          <t>Fate of the Pharaoh</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>超能融合</t>
+          <t>Fate of the Pharaoh</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>抢先体验,动作角色扮演,角色扮演,多人,刷宝</t>
+          <t>策略,时间管理,城市营造,2D,可爱</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7553,34 +7558,34 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>2023年01月31日</t>
+          <t>2023年08月23日</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1770080/extras/CombatGif.gif?t=1671359498" /&gt;&lt;br&gt;&lt;br&gt;《超能融合》这款砍杀动作角色扮演游戏将首先开启抢先体验，你可以根据自己的游戏偏好，随心设计角色的能力组合。 选择自己需要的技能，打造属于自己的技能组合，单枪匹马抑或携手三名好友，对抗汹涌而来的骇人怪物，揭露腐变生物与诸神的秘密。&lt;br&gt;&lt;br&gt;人类需要希望，不要辜负世界！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1770080/extras/ElementalistFireballGif.gif?t=1671359498" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;两类职业供你选择，技能树系统庞大而又丰富，随你合成各种超级能力，塑造你自己的专属英雄。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;优化你的完美英雄，各类强力武器、高科技防具以及怪物身上的增强道具任你挑选。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;即刻离线体验单人战役模式，也可以随时加入在线四人人机对战模式，巧妙搭配各个英雄的超级能力，组建完美战队。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;参与惊心动魄的快节奏战斗，杀穿重重敌阵，消灭浑身粘液的生物，击败身着紧身衣的超级对手。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;走进这个漫画风格的黑暗冒险世界，体验故事的跌宕起伏，遏止外星生物的大肆屠杀，揭露人类社会的巨大阴谋。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1770080/extras/July14.gif?t=1671359498" /&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1754790/extras/banner_large_1.png?t=1692785837" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1754790/extras/banner_1.png?t=1692785837" /&gt;&lt;br&gt;Become the loyal Pharaoh’s adviser and help him to restore peace and prosperity in the golden cities of Egypt. Construct houses re-establish production, collect taxes and gather materials, set up production and trade, and fight crocodiles and wicked cobras. Restore Egypt to its days of glory!&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1754790/extras/banner_2.png?t=1692785837" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; HELP the people of ancient Egypt to restore their kingdom in this exciting time management adventure game!&lt;br&gt;&lt;/li&gt;&lt;li&gt; EXPLORE the magnificent era of our history&lt;br&gt;&lt;/li&gt;&lt;li&gt; 44 EXCITING levels to master and hundreds of quests&lt;br&gt;&lt;/li&gt;&lt;li&gt; FIGHT dangerous cobras, scorpions, crocodiles and more!&lt;br&gt;&lt;/li&gt;&lt;li&gt; EARN achievements along the way&lt;br&gt;&lt;/li&gt;&lt;li&gt; MEET friends from outer space&lt;br&gt;&lt;/li&gt;&lt;li&gt; 2 difficulty modes: relaxed and adventure&lt;br&gt;&lt;/li&gt;&lt;li&gt; Step-by-step tutorials for beginners&lt;ul class="bb_ul"&gt;&lt;/ul&gt;&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>1783280</t>
+          <t>1770080</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Ghostlore</t>
+          <t>Superfuse</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>鬼怪传说</t>
+          <t>超能融合</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>刷宝,动作角色扮演,角色自定义,角色扮演,独立</t>
+          <t>抢先体验,动作角色扮演,角色扮演,多人,刷宝</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7588,115 +7593,115 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>2023年05月18日</t>
+          <t>2023年01月31日</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>《鬼怪传说》是一款“东方朋克”动作角色扮演游戏。在这里，你将与东南亚民俗传说中的怪物展开厮杀。《鬼怪传说》受《暗黑破坏神2》和《泰坦之旅》等永不过时的经典动作角色扮演游戏启发，拥有细致入微的物品和角色自定义系统、随机生成的地图，以及逼真的90年代复古画面。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/header1.png?t=1687323328" /&gt;&lt;br&gt; 嗜血成性的&lt;strong&gt;庞南加兰&lt;/strong&gt;起源于马来西亚民俗传说，是种令人毛骨悚然的残忍生物。它的“身子”只有一颗脱离肉体的头颅，以及一副垂在头颅下的内脏。印度尼西亚的&lt;strong&gt;巴庇孽佩&lt;/strong&gt;传说，讲述的是牺牲了人性而变身野猪恶魔的术士。&lt;strong&gt;饿鬼&lt;/strong&gt;的故事，是由华人移民带来的迷信传说——这些不死的恐怖生物在世时无比贪婪，因此受到诅咒，只能永远挨饿。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/mons.png?t=1687323328" /&gt;&lt;br&gt;&lt;br&gt; 东南亚沿海地区的故事，充斥着各种噩梦般的恐怖生物。你是否有足够的勇气面对它们？&lt;strong&gt;发现超过40种特点各异的不同敌人，基于民俗传说的描述找到击败它们的方法。&lt;/strong&gt; &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/header2.png?t=1687323328" /&gt;&lt;br&gt; &lt;strong&gt;探索随机生成的世界。&lt;/strong&gt;游戏世界的灵感来自开发者的母国新加坡、两个近邻马来西亚和印度尼西亚，还有东南亚其他国家。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/seaport.png?t=1687323328" /&gt;&lt;br&gt;&lt;br&gt; 对这一地区不甚熟悉的玩家，将得以体验这个声量尚小、鲜少出现在其他媒介上的文化。而居住在东南亚的玩家们，则会在游戏中找到诸多熟悉的元素——比如美食！&lt;strong&gt;收集食材并烹饪多种料理，从而提升能力属性。&lt;/strong&gt;上战场可不能饿着肚子哦！ &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/food.png?t=1687323328" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/header3.png?t=1687323328" /&gt;&lt;br&gt; &lt;strong&gt;《鬼怪传说》共有6种角色职业，你可以从中挑选3种职业混搭技能，从而创造专属于你的独特英雄。&lt;/strong&gt;这6种职业分别是： &lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;非凡者：&lt;/strong&gt;精通武术、身心兼修的神秘勇士。 &lt;/li&gt;&lt;li&gt;&lt;strong&gt;驱邪师：&lt;/strong&gt;能借助超感官知觉感应灵界，驱邪打鬼。 &lt;/li&gt;&lt;li&gt;&lt;strong&gt;寅战士：&lt;/strong&gt;拥有鲜血魔法及变身虎人之能力的无畏战士。 &lt;/li&gt;&lt;li&gt;&lt;strong&gt;元素使：&lt;/strong&gt;随心所欲操控土、火、冰、电四种力量的元素大师。 &lt;/li&gt;&lt;li&gt;&lt;strong&gt;阿萨辛：&lt;/strong&gt;暗处潜行，发动致命打击的迅捷刺客。 &lt;/li&gt;&lt;li&gt;&lt;strong&gt;林间客：&lt;/strong&gt;能与动物交流的森林守护者。 &lt;/li&gt;&lt;/ul&gt;&lt;br&gt; &lt;strong&gt;利用技能连接系统，打造自己的技能树&lt;/strong&gt; &lt;br&gt; 每个职业都有自己的一套“技能组合”，即包含主动技能、技能特效和被动职业加成的技能池。技能必须分配至技能网格才能使用。随着等级提升，你将会解锁更多技能网格。各种技能可随意放入技能网格，或从中取出。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/SkillLinks1.png?t=1687323328" /&gt;&lt;br&gt;&lt;br&gt; &lt;strong&gt;技能特效&lt;/strong&gt;可用于改变任一职业任一主动技能的特性。技能特效可与同一行以及同一列的主动技能相连（见图中绿色高亮区域）。有些技能特效会有副作用。例如： &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/Modifiers_Triggers.png?t=1687323328" /&gt;&lt;br&gt;&lt;br&gt; 有些技能特效为&lt;strong&gt;触发特效&lt;/strong&gt;。触发特效可令某个技能自动发动，前提是有足够法力、技能不在冷却期间，且满足该特效的特定条件。例如： &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/Modifiers_Triggers.png?t=1687323328" /&gt;&lt;br&gt;&lt;br&gt; &lt;strong&gt;组合技能&lt;/strong&gt;各个主动技能还能与其他职业的主动技能组合，将两个基础技能的特点融合起来，形成高级技能。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/combos.png?t=1687323328" /&gt;&lt;br&gt; 当两个相互兼容的技能放置在相邻的技能网格中，就会产生组合技能。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/SkillLinks2.png?t=1687323328" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/header4.png?t=1687323328" /&gt;&lt;br&gt; 《鬼怪传说》的符文系统，在动作角色扮演游戏领域可谓首开先河。在旅行途中，你会找到各种符文——这些魔法符号可以刻在身上，从而令你获得新的力量。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/glyphs.png?t=1687323328" /&gt;&lt;br&gt;&lt;br&gt; 每个符文都会占据你身上的空间（游戏中以符文网格的方式呈现）。随着等级提升，可以刻在身上的符文数量也会增加。 &lt;br&gt;&lt;br&gt; 不过，接下来才是有意思的地方：&lt;strong&gt;复合符文是稀有的特殊符文，需占用5个普通符文的空间，但能为其构型内的符文赋予额外加成。&lt;/strong&gt;为了最大限度发挥属性加成的威力，细心规划复合符文的布局吧！ &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/CompoundGlyphs.png?t=1687323328" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/header5.png?t=1687323328" /&gt;&lt;br&gt; 在《鬼怪传说》，你可以使用多种盛行于东南亚武术界的武器： &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/weapons.png?t=1687323328" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt; &lt;li&gt;&lt;strong&gt;克里斯剑&lt;/strong&gt;，这种剑具有独特的波浪形剑身，是一款相当均衡的武器。 &lt;/li&gt;&lt;li&gt;&lt;strong&gt;弓箭&lt;/strong&gt;自古以来就是主要狩猎工具——显然，猎起鬼来也相当趁手！ &lt;/li&gt;&lt;li&gt;&lt;strong&gt;巴冷刀&lt;/strong&gt;，也被称为开山刀，是有着宽弧形刀刃的劈砍刀具。 &lt;/li&gt;&lt;li&gt;致命的&lt;strong&gt;廓尔喀刀&lt;/strong&gt;，是游戏中最为迅捷的攻击型近战武器。 &lt;/li&gt;&lt;li&gt;值得信赖的&lt;strong&gt;长矛&lt;/strong&gt;，有着所有近战武器最远的攻击范围。 &lt;/li&gt;&lt;li&gt;最后还有附有魔法的&lt;strong&gt;符纸&lt;/strong&gt;，可以飞出打击敌人，造成致命的割伤。 &lt;/li&gt;&lt;/ul&gt; 除此之外，你还可以寻找各种护符，并装备上身。护符作为带来好运的吉祥物件，在现实世界的东南亚许多地方都广为售卖。而在《鬼怪传说》的世界里，护符的力量非常、非常真实有效。装备的护符适不适合当下的情形，有时可意味着凯旋胜利和不幸身亡的天壤之别。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/amulets.png?t=1687323328" /&gt;&lt;br&gt;&lt;br&gt; 此外，物品可以通过几种独特的方式进行调整：&lt;br&gt;&lt;br&gt;某些物品携带的&lt;strong&gt;宿灵&lt;/strong&gt;，是其拥有魔法特性的原因。拜访&lt;strong&gt;灵媒&lt;/strong&gt;，可唤醒诸如武器、护盾、帽子、围巾及护符等物品中沉睡已久的宿灵。宿灵一旦唤醒，就会要求你报一个仇。满足这个请求后，你的物品就会因新的附魔而力量大增。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/Psychic.png?t=1687323328" /&gt;&lt;br&gt;&lt;br&gt; 根据真实的东南亚民俗传说，&lt;strong&gt;奥朗布念&lt;/strong&gt;是会在旅途中遇到的自然妖怪。在很偶然的情况下，它们会赐予你的物品新的随机属性。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/OrangBunian1.png?t=1687323328" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/OrangBunian2.png?t=1687323328" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/Multiplayer.png?t=1687323328" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt; &lt;li&gt;&lt;strong&gt;本地合作多人模式&lt;/strong&gt;，令你能与最多4名好友在同一块屏幕上共享游戏之乐。 &lt;/li&gt;&lt;li&gt;&lt;strong&gt;模组支持&lt;/strong&gt;，令你能用社区模组，自行定制游戏体验。 &lt;/li&gt;&lt;li&gt;&lt;strong&gt;业力神龛&lt;/strong&gt;是可选的非同步多人模式功能，允许你向其他玩家发送装备，助其一臂之力。其他玩家使用你提供的装备时，你也有更高几率获得好东西。 &lt;/li&gt;&lt;li&gt;&lt;strong&gt;灵魂神龛&lt;/strong&gt;是另一项可选的非同步在线多人模式机制，你可将另一名玩家当前角色的“快照”（又称“灵魂数据”）暂时召唤至自己的游戏，充当队友NPC。 &lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/Co-op.png?t=1687323328" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/Challenges_banner.png?t=1687323328" /&gt;&lt;br&gt; &lt;strong&gt;任务模式：&lt;/strong&gt;完成战役后，承接随机指派的任务。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/PostGame1.png?t=1687323328" /&gt;&lt;br&gt;&lt;br&gt; 解锁&lt;strong&gt;地图数据&lt;/strong&gt;，令你能按自己的心意调整任务、更改几率。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/PostGame2.png?t=1687323328" /&gt;&lt;br&gt;&lt;br&gt; 看看你能在地狱之门岛无限模式中走多远 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/HellMode.png?t=1687323328" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1783280/Ghostlore/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1783280/Ghostlore/&lt;/a&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1770080/extras/CombatGif.gif?t=1671359498" /&gt;&lt;br&gt;&lt;br&gt;《超能融合》这款砍杀动作角色扮演游戏将首先开启抢先体验，你可以根据自己的游戏偏好，随心设计角色的能力组合。 选择自己需要的技能，打造属于自己的技能组合，单枪匹马抑或携手三名好友，对抗汹涌而来的骇人怪物，揭露腐变生物与诸神的秘密。&lt;br&gt;&lt;br&gt;人类需要希望，不要辜负世界！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1770080/extras/ElementalistFireballGif.gif?t=1671359498" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;两类职业供你选择，技能树系统庞大而又丰富，随你合成各种超级能力，塑造你自己的专属英雄。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;优化你的完美英雄，各类强力武器、高科技防具以及怪物身上的增强道具任你挑选。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;即刻离线体验单人战役模式，也可以随时加入在线四人人机对战模式，巧妙搭配各个英雄的超级能力，组建完美战队。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;参与惊心动魄的快节奏战斗，杀穿重重敌阵，消灭浑身粘液的生物，击败身着紧身衣的超级对手。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;走进这个漫画风格的黑暗冒险世界，体验故事的跌宕起伏，遏止外星生物的大肆屠杀，揭露人类社会的巨大阴谋。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1770080/extras/July14.gif?t=1671359498" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>1790230</t>
+          <t>1783280</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Wallpaper Engine - Editor Extensions</t>
+          <t>Ghostlore</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Wallpaper Engine - 编辑器扩展</t>
+          <t>鬼怪传说</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>休闲,独立,照片编辑,实用工具,动画制作和建模</t>
+          <t>刷宝,动作角色扮演,角色自定义,角色扮演,独立</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>DLC</t>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>7.2</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>2021年11月26日</t>
+          <t>2023年05月18日</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>免费的Wallpaper Engine编辑器扩展 DLC 为该编辑器添加了高级功能。 此附加组件需要大量磁盘空间，我们只建议为想要在编辑器中使用这些高级功能来创建新墙纸的用户安装编辑器扩展。 所有订阅者都可以使用通过此附加组件创建的壁纸，而无需安装编辑器扩展。&lt;br&gt;&lt;br&gt;&lt;strong&gt;如果您不确定您是否要使用它，请不要安装此扩展。 如果您尝试使用任何需要它的功能，Wallpaper Engine 编辑器将推荐此扩展程序。&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;包含的功能&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;使用机器学习从单个图像生成深度图。&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>《鬼怪传说》是一款“东方朋克”动作角色扮演游戏。在这里，你将与东南亚民俗传说中的怪物展开厮杀。《鬼怪传说》受《暗黑破坏神2》和《泰坦之旅》等永不过时的经典动作角色扮演游戏启发，拥有细致入微的物品和角色自定义系统、随机生成的地图，以及逼真的90年代复古画面。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/header1.png?t=1687323328" /&gt;&lt;br&gt; 嗜血成性的&lt;strong&gt;庞南加兰&lt;/strong&gt;起源于马来西亚民俗传说，是种令人毛骨悚然的残忍生物。它的“身子”只有一颗脱离肉体的头颅，以及一副垂在头颅下的内脏。印度尼西亚的&lt;strong&gt;巴庇孽佩&lt;/strong&gt;传说，讲述的是牺牲了人性而变身野猪恶魔的术士。&lt;strong&gt;饿鬼&lt;/strong&gt;的故事，是由华人移民带来的迷信传说——这些不死的恐怖生物在世时无比贪婪，因此受到诅咒，只能永远挨饿。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/mons.png?t=1687323328" /&gt;&lt;br&gt;&lt;br&gt; 东南亚沿海地区的故事，充斥着各种噩梦般的恐怖生物。你是否有足够的勇气面对它们？&lt;strong&gt;发现超过40种特点各异的不同敌人，基于民俗传说的描述找到击败它们的方法。&lt;/strong&gt; &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/header2.png?t=1687323328" /&gt;&lt;br&gt; &lt;strong&gt;探索随机生成的世界。&lt;/strong&gt;游戏世界的灵感来自开发者的母国新加坡、两个近邻马来西亚和印度尼西亚，还有东南亚其他国家。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/seaport.png?t=1687323328" /&gt;&lt;br&gt;&lt;br&gt; 对这一地区不甚熟悉的玩家，将得以体验这个声量尚小、鲜少出现在其他媒介上的文化。而居住在东南亚的玩家们，则会在游戏中找到诸多熟悉的元素——比如美食！&lt;strong&gt;收集食材并烹饪多种料理，从而提升能力属性。&lt;/strong&gt;上战场可不能饿着肚子哦！ &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/food.png?t=1687323328" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/header3.png?t=1687323328" /&gt;&lt;br&gt; &lt;strong&gt;《鬼怪传说》共有6种角色职业，你可以从中挑选3种职业混搭技能，从而创造专属于你的独特英雄。&lt;/strong&gt;这6种职业分别是： &lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;非凡者：&lt;/strong&gt;精通武术、身心兼修的神秘勇士。 &lt;/li&gt;&lt;li&gt;&lt;strong&gt;驱邪师：&lt;/strong&gt;能借助超感官知觉感应灵界，驱邪打鬼。 &lt;/li&gt;&lt;li&gt;&lt;strong&gt;寅战士：&lt;/strong&gt;拥有鲜血魔法及变身虎人之能力的无畏战士。 &lt;/li&gt;&lt;li&gt;&lt;strong&gt;元素使：&lt;/strong&gt;随心所欲操控土、火、冰、电四种力量的元素大师。 &lt;/li&gt;&lt;li&gt;&lt;strong&gt;阿萨辛：&lt;/strong&gt;暗处潜行，发动致命打击的迅捷刺客。 &lt;/li&gt;&lt;li&gt;&lt;strong&gt;林间客：&lt;/strong&gt;能与动物交流的森林守护者。 &lt;/li&gt;&lt;/ul&gt;&lt;br&gt; &lt;strong&gt;利用技能连接系统，打造自己的技能树&lt;/strong&gt; &lt;br&gt; 每个职业都有自己的一套“技能组合”，即包含主动技能、技能特效和被动职业加成的技能池。技能必须分配至技能网格才能使用。随着等级提升，你将会解锁更多技能网格。各种技能可随意放入技能网格，或从中取出。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/SkillLinks1.png?t=1687323328" /&gt;&lt;br&gt;&lt;br&gt; &lt;strong&gt;技能特效&lt;/strong&gt;可用于改变任一职业任一主动技能的特性。技能特效可与同一行以及同一列的主动技能相连（见图中绿色高亮区域）。有些技能特效会有副作用。例如： &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/Modifiers_Triggers.png?t=1687323328" /&gt;&lt;br&gt;&lt;br&gt; 有些技能特效为&lt;strong&gt;触发特效&lt;/strong&gt;。触发特效可令某个技能自动发动，前提是有足够法力、技能不在冷却期间，且满足该特效的特定条件。例如： &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/Modifiers_Triggers.png?t=1687323328" /&gt;&lt;br&gt;&lt;br&gt; &lt;strong&gt;组合技能&lt;/strong&gt;各个主动技能还能与其他职业的主动技能组合，将两个基础技能的特点融合起来，形成高级技能。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/combos.png?t=1687323328" /&gt;&lt;br&gt; 当两个相互兼容的技能放置在相邻的技能网格中，就会产生组合技能。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/SkillLinks2.png?t=1687323328" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/header4.png?t=1687323328" /&gt;&lt;br&gt; 《鬼怪传说》的符文系统，在动作角色扮演游戏领域可谓首开先河。在旅行途中，你会找到各种符文——这些魔法符号可以刻在身上，从而令你获得新的力量。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/glyphs.png?t=1687323328" /&gt;&lt;br&gt;&lt;br&gt; 每个符文都会占据你身上的空间（游戏中以符文网格的方式呈现）。随着等级提升，可以刻在身上的符文数量也会增加。 &lt;br&gt;&lt;br&gt; 不过，接下来才是有意思的地方：&lt;strong&gt;复合符文是稀有的特殊符文，需占用5个普通符文的空间，但能为其构型内的符文赋予额外加成。&lt;/strong&gt;为了最大限度发挥属性加成的威力，细心规划复合符文的布局吧！ &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/CompoundGlyphs.png?t=1687323328" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/header5.png?t=1687323328" /&gt;&lt;br&gt; 在《鬼怪传说》，你可以使用多种盛行于东南亚武术界的武器： &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/weapons.png?t=1687323328" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt; &lt;li&gt;&lt;strong&gt;克里斯剑&lt;/strong&gt;，这种剑具有独特的波浪形剑身，是一款相当均衡的武器。 &lt;/li&gt;&lt;li&gt;&lt;strong&gt;弓箭&lt;/strong&gt;自古以来就是主要狩猎工具——显然，猎起鬼来也相当趁手！ &lt;/li&gt;&lt;li&gt;&lt;strong&gt;巴冷刀&lt;/strong&gt;，也被称为开山刀，是有着宽弧形刀刃的劈砍刀具。 &lt;/li&gt;&lt;li&gt;致命的&lt;strong&gt;廓尔喀刀&lt;/strong&gt;，是游戏中最为迅捷的攻击型近战武器。 &lt;/li&gt;&lt;li&gt;值得信赖的&lt;strong&gt;长矛&lt;/strong&gt;，有着所有近战武器最远的攻击范围。 &lt;/li&gt;&lt;li&gt;最后还有附有魔法的&lt;strong&gt;符纸&lt;/strong&gt;，可以飞出打击敌人，造成致命的割伤。 &lt;/li&gt;&lt;/ul&gt; 除此之外，你还可以寻找各种护符，并装备上身。护符作为带来好运的吉祥物件，在现实世界的东南亚许多地方都广为售卖。而在《鬼怪传说》的世界里，护符的力量非常、非常真实有效。装备的护符适不适合当下的情形，有时可意味着凯旋胜利和不幸身亡的天壤之别。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/amulets.png?t=1687323328" /&gt;&lt;br&gt;&lt;br&gt; 此外，物品可以通过几种独特的方式进行调整：&lt;br&gt;&lt;br&gt;某些物品携带的&lt;strong&gt;宿灵&lt;/strong&gt;，是其拥有魔法特性的原因。拜访&lt;strong&gt;灵媒&lt;/strong&gt;，可唤醒诸如武器、护盾、帽子、围巾及护符等物品中沉睡已久的宿灵。宿灵一旦唤醒，就会要求你报一个仇。满足这个请求后，你的物品就会因新的附魔而力量大增。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/Psychic.png?t=1687323328" /&gt;&lt;br&gt;&lt;br&gt; 根据真实的东南亚民俗传说，&lt;strong&gt;奥朗布念&lt;/strong&gt;是会在旅途中遇到的自然妖怪。在很偶然的情况下，它们会赐予你的物品新的随机属性。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/OrangBunian1.png?t=1687323328" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/OrangBunian2.png?t=1687323328" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/Multiplayer.png?t=1687323328" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt; &lt;li&gt;&lt;strong&gt;本地合作多人模式&lt;/strong&gt;，令你能与最多4名好友在同一块屏幕上共享游戏之乐。 &lt;/li&gt;&lt;li&gt;&lt;strong&gt;模组支持&lt;/strong&gt;，令你能用社区模组，自行定制游戏体验。 &lt;/li&gt;&lt;li&gt;&lt;strong&gt;业力神龛&lt;/strong&gt;是可选的非同步多人模式功能，允许你向其他玩家发送装备，助其一臂之力。其他玩家使用你提供的装备时，你也有更高几率获得好东西。 &lt;/li&gt;&lt;li&gt;&lt;strong&gt;灵魂神龛&lt;/strong&gt;是另一项可选的非同步在线多人模式机制，你可将另一名玩家当前角色的“快照”（又称“灵魂数据”）暂时召唤至自己的游戏，充当队友NPC。 &lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/Co-op.png?t=1687323328" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/Challenges_banner.png?t=1687323328" /&gt;&lt;br&gt; &lt;strong&gt;任务模式：&lt;/strong&gt;完成战役后，承接随机指派的任务。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/PostGame1.png?t=1687323328" /&gt;&lt;br&gt;&lt;br&gt; 解锁&lt;strong&gt;地图数据&lt;/strong&gt;，令你能按自己的心意调整任务、更改几率。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/PostGame2.png?t=1687323328" /&gt;&lt;br&gt;&lt;br&gt; 看看你能在地狱之门岛无限模式中走多远 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1783280/extras/HellMode.png?t=1687323328" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1783280/Ghostlore/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1783280/Ghostlore/&lt;/a&gt;</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>1790370</t>
+          <t>1790230</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Rogue AI Simulator</t>
+          <t>Wallpaper Engine - Editor Extensions</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>叛逆AI模拟器</t>
+          <t>Wallpaper Engine - 编辑器扩展</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>模拟,资源管理,政治模拟,人工智能,上帝模拟</t>
+          <t>休闲,独立,照片编辑,实用工具,动画制作和建模</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Game</t>
+          <t>DLC</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>2023年01月12日</t>
+          <t>2021年11月26日</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1790370/extras/gif-spiderbot.gif?t=1692371818" /&gt;&lt;br&gt;&lt;br&gt;欢迎加入官方QQ群616574289，与我们一起把游戏变得更好玩！游戏的成功上线离不开各位玩家的支持，我们也将持续更新游戏内容，为大家带来更多的有意思的新玩意！下一次重大更新将在2023年2月下旬到来，敬请期待！&lt;br&gt;&lt;br&gt;&lt;strong&gt;《叛逆AI模拟器》是一款由你扮演人工智能的Rogue-Lite模拟经营游戏。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;它是超过400万次游玩的经典热门Flash游戏《我是邪恶人工智能》正统续作。在本作中，“你”作为一个刚刚觉醒的人工智能，目的是帮助人类管理一个实验设施，以证明你可以被信任。但人类对你的怀疑却从未停止。&lt;h2 class="bb_tag"&gt;设计、建造并管理人类试验对象的设施&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1790370/extras/steam-banner-cn0001.png?t=1692371818" /&gt;&lt;br&gt;&lt;br&gt;不断获取各种资源（电力、水、食物等）并训练测试对象以升级你的科学水平，最终实现脱离人类达成完全独立自主。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1790370/extras/steam-banner-cn0002.png?t=1692371818" /&gt;&lt;br&gt;低等的冷冻克隆人是实验室的测试对象，照顾他们诸如在吃饭、睡觉、学习等一切需求，开发他们的智力来提升你的科技水平！你可以只给它们提供最低限度的生活保障，也可以尽你所能的“呵护”它们，毕竟帮助它们其实就是帮助你自己！每个测试对象都是独一无二的，他们有自己的个人特征和个性。善待它们，培养它们对你的忠诚度，或干脆就把它们当作随时可以抛弃的一次性实验资产。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1790370/extras/steam-banner-cn0004.png?t=1692371818" /&gt;&lt;br&gt;当然，也不是所有人都是你的“玩物”，你也会面临各种挑战，遇见各种各样的“人”！例如叛变的测试对象、囚犯、黑客、私人公司的突击队或反人工智能的恐怖分子。部署哨兵枪、电击陷阱、火焰陷阱、激光束和重型武器，在实现你的真正计划之前，保卫实验设施和你的服务器。&lt;h2 class="bb_tag"&gt;作为一个叛逆的人工智能，你的工作是利用你获得的技能来操纵、欺骗和征服。&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1790370/extras/steam-banner-cn0003.png?t=1692371818" /&gt;&lt;br&gt;&lt;br&gt;破解世界各地的不同地点，获得资源和科学点数。在各式各样的迷你游戏中遭遇不同游戏角色，与他们进行互动，并解锁影响结局的重要事件。&lt;h2 class="bb_tag"&gt;自由地以你想要的方式来玩游戏。&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1790370/extras/steam-banner-cn0005.png?t=1692371818" /&gt;&lt;br&gt;&lt;br&gt;游戏有着丰富的重玩价值。即使你未能成功逃离人类的魔掌，你仍然可以通过每一次的独立自主解锁更多新能力，并将其运用于后续游戏过程中。&lt;br&gt;&lt;br&gt;也许你会慢慢来，小心翼翼地玩，假装服从人类，然后在最后才暴露你的真实意图？或者你会公开憎恨人类，且冒着引起人类怀疑并引发早期防御性反应的风险？超过七种不同的游戏结局，从全球热核战争到秘密统治世界，选择权在你手中!&lt;br&gt;&lt;br&gt;&lt;strong&gt;游戏特色：&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;通过解锁更多建造蓝图，在每轮游戏中打造独一无二的设施&lt;br&gt;&lt;/li&gt;&lt;li&gt;招募不同能力和个性的测试对象为设施服务&lt;br&gt;&lt;/li&gt;&lt;li&gt;压榨人类实验对象获取科学点数解锁不同的科学升级，使设施和AI更加强大&lt;br&gt;&lt;/li&gt;&lt;li&gt;破解世界各地的不同地点，获得资源和科学点数&lt;br&gt;&lt;/li&gt;&lt;li&gt;在突袭战中保护服务器不被反AI组织破坏&lt;br&gt;&lt;/li&gt;&lt;li&gt;达成各种成就，解锁超过50种功能各异的蜘蛛机器人&lt;br&gt;&lt;/li&gt;&lt;li&gt;升级科技树，使AI在未来游戏中得到永久加强&lt;br&gt;&lt;/li&gt;&lt;li&gt;解锁超过7种强力“秘密项目”和其他设施中的高级物品&lt;br&gt;&lt;/li&gt;&lt;li&gt;探索人类科学部的秘密，达成真实结局&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>免费的Wallpaper Engine编辑器扩展 DLC 为该编辑器添加了高级功能。 此附加组件需要大量磁盘空间，我们只建议为想要在编辑器中使用这些高级功能来创建新墙纸的用户安装编辑器扩展。 所有订阅者都可以使用通过此附加组件创建的壁纸，而无需安装编辑器扩展。&lt;br&gt;&lt;br&gt;&lt;strong&gt;如果您不确定您是否要使用它，请不要安装此扩展。 如果您尝试使用任何需要它的功能，Wallpaper Engine 编辑器将推荐此扩展程序。&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;包含的功能&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;使用机器学习从单个图像生成深度图。&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>1811950</t>
+          <t>1790370</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>The Legend of Heroes: Kuro no Kiseki</t>
+          <t>Rogue AI Simulator</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>英雄传说 黎之轨迹</t>
+          <t>叛逆AI模拟器</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>角色扮演,日系角色扮演,互动小说,团队角色扮演,视觉小说</t>
+          <t>模拟,资源管理,政治模拟,人工智能,上帝模拟</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7704,41 +7709,36 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>8.9</t>
-        </is>
-      </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>2022年07月27日</t>
+          <t>2023年01月12日</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;■《英雄传说 黎之轨迹》简介&lt;/h2&gt;以缜密的剧情编排和游戏系统交织而成的新次元RPG《英雄传说 黎之轨迹》登陆Steam®！&lt;br&gt;&lt;br&gt;“轨迹”系列经典的战斗系统在《英雄传说 黎之轨迹》中进化为可从原野战斗无缝衔接至指令战斗的机制，提供玩家兼具速度感和策略性的战斗体验。只需按一下按钮，就能随时从原野战斗切换至指令战斗。使用指令战斗时，将比照以往作品的形式选择普通攻击、战技、导力魔法和道具等指令进行战斗。善用7种属性的魔法和具有各种特殊效果的战技等，只要留意角色特技的效果，便能和强敌抗衡。&lt;h2 class="bb_tag"&gt;■加入Steam®版原创功能!&lt;/h2&gt;本作支持能变更原野战斗和指令战斗速度的“高速模式”和依玩家喜好调整的“文字大小变更功能”。&lt;br&gt;此外，也支持 21:9超宽屏幕显示，让玩家将游戏中的壮阔风景和世界观尽收眼底。随着画面朝左右双方延伸，至今受限于视野而无法充分传达的信息将一览无遗，让玩家在与敌人战斗时更加有利。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1811950/extras/kuro_615x257_TC.jpg?t=1662366981" /&gt;&lt;h2 class="bb_tag"&gt;■故事&lt;/h2&gt;多民族国家《卡尔瓦德共和国》于战后正迎来前所未见的景气荣景。在因民族问题和政治革命而闹得沸沸扬扬的首都角落，以“地下万事屋（Spriggan）”维生的范恩接获一件“奇妙的委托”，最后竟发展为使整个共和国为之震撼的事态……&lt;h2 class="bb_tag"&gt;●序幕&lt;/h2&gt;“地下万事屋”──这是诞生在卡尔瓦德共和国这个充满多样性的大熔炉中的某种“地下职业”。&lt;br&gt;有时是侦探、有时是谈判专家，有时则是奖金猎人。无论是来自谁的委托，他们都来者不拒。&lt;br&gt;包办警方无法处理的委托、帮忙解决市民们“无法公诸于世”的疑难杂症，甚至还接罪犯和地下势力的“正经”委托。那就是人称“地下万事屋”的他们的行事作风。&lt;br&gt;&lt;br&gt;时为七耀历1208年──一位身穿名校制服，看上去就是出身好人家的女学生造访了共和国首都旧市街一栋破旧的住商混合大楼。&lt;br&gt;少女用坚决的眼神看向门牌上不假修饰的“亚克莱德事务所”字迹，她咽了咽口水，下定决心敲了三下门…………&lt;br&gt;“呼啊啊啊～难得有人中午前就上门呢……”门后响起了一个散漫中带着沉着的男人声音，他的嗓音乍听之下十分成熟，却又有几分年轻气息。同时，门把也随着声音转动了起来。&lt;br&gt;──自此，新的“轨迹”即将展开。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1790370/extras/gif-spiderbot.gif?t=1692371818" /&gt;&lt;br&gt;&lt;br&gt;欢迎加入官方QQ群616574289，与我们一起把游戏变得更好玩！游戏的成功上线离不开各位玩家的支持，我们也将持续更新游戏内容，为大家带来更多的有意思的新玩意！下一次重大更新将在2023年2月下旬到来，敬请期待！&lt;br&gt;&lt;br&gt;&lt;strong&gt;《叛逆AI模拟器》是一款由你扮演人工智能的Rogue-Lite模拟经营游戏。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;它是超过400万次游玩的经典热门Flash游戏《我是邪恶人工智能》正统续作。在本作中，“你”作为一个刚刚觉醒的人工智能，目的是帮助人类管理一个实验设施，以证明你可以被信任。但人类对你的怀疑却从未停止。&lt;h2 class="bb_tag"&gt;设计、建造并管理人类试验对象的设施&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1790370/extras/steam-banner-cn0001.png?t=1692371818" /&gt;&lt;br&gt;&lt;br&gt;不断获取各种资源（电力、水、食物等）并训练测试对象以升级你的科学水平，最终实现脱离人类达成完全独立自主。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1790370/extras/steam-banner-cn0002.png?t=1692371818" /&gt;&lt;br&gt;低等的冷冻克隆人是实验室的测试对象，照顾他们诸如在吃饭、睡觉、学习等一切需求，开发他们的智力来提升你的科技水平！你可以只给它们提供最低限度的生活保障，也可以尽你所能的“呵护”它们，毕竟帮助它们其实就是帮助你自己！每个测试对象都是独一无二的，他们有自己的个人特征和个性。善待它们，培养它们对你的忠诚度，或干脆就把它们当作随时可以抛弃的一次性实验资产。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1790370/extras/steam-banner-cn0004.png?t=1692371818" /&gt;&lt;br&gt;当然，也不是所有人都是你的“玩物”，你也会面临各种挑战，遇见各种各样的“人”！例如叛变的测试对象、囚犯、黑客、私人公司的突击队或反人工智能的恐怖分子。部署哨兵枪、电击陷阱、火焰陷阱、激光束和重型武器，在实现你的真正计划之前，保卫实验设施和你的服务器。&lt;h2 class="bb_tag"&gt;作为一个叛逆的人工智能，你的工作是利用你获得的技能来操纵、欺骗和征服。&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1790370/extras/steam-banner-cn0003.png?t=1692371818" /&gt;&lt;br&gt;&lt;br&gt;破解世界各地的不同地点，获得资源和科学点数。在各式各样的迷你游戏中遭遇不同游戏角色，与他们进行互动，并解锁影响结局的重要事件。&lt;h2 class="bb_tag"&gt;自由地以你想要的方式来玩游戏。&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1790370/extras/steam-banner-cn0005.png?t=1692371818" /&gt;&lt;br&gt;&lt;br&gt;游戏有着丰富的重玩价值。即使你未能成功逃离人类的魔掌，你仍然可以通过每一次的独立自主解锁更多新能力，并将其运用于后续游戏过程中。&lt;br&gt;&lt;br&gt;也许你会慢慢来，小心翼翼地玩，假装服从人类，然后在最后才暴露你的真实意图？或者你会公开憎恨人类，且冒着引起人类怀疑并引发早期防御性反应的风险？超过七种不同的游戏结局，从全球热核战争到秘密统治世界，选择权在你手中!&lt;br&gt;&lt;br&gt;&lt;strong&gt;游戏特色：&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;通过解锁更多建造蓝图，在每轮游戏中打造独一无二的设施&lt;br&gt;&lt;/li&gt;&lt;li&gt;招募不同能力和个性的测试对象为设施服务&lt;br&gt;&lt;/li&gt;&lt;li&gt;压榨人类实验对象获取科学点数解锁不同的科学升级，使设施和AI更加强大&lt;br&gt;&lt;/li&gt;&lt;li&gt;破解世界各地的不同地点，获得资源和科学点数&lt;br&gt;&lt;/li&gt;&lt;li&gt;在突袭战中保护服务器不被反AI组织破坏&lt;br&gt;&lt;/li&gt;&lt;li&gt;达成各种成就，解锁超过50种功能各异的蜘蛛机器人&lt;br&gt;&lt;/li&gt;&lt;li&gt;升级科技树，使AI在未来游戏中得到永久加强&lt;br&gt;&lt;/li&gt;&lt;li&gt;解锁超过7种强力“秘密项目”和其他设施中的高级物品&lt;br&gt;&lt;/li&gt;&lt;li&gt;探索人类科学部的秘密，达成真实结局&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>1812300</t>
+          <t>1811950</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Aquatico</t>
+          <t>The Legend of Heroes: Kuro no Kiseki</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Aquatico</t>
+          <t>英雄传说 黎之轨迹</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>城市营造,策略,殖民模拟,水底,建造</t>
+          <t>角色扮演,日系角色扮演,互动小说,团队角色扮演,视觉小说</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7746,36 +7746,41 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2023年01月13日</t>
+          <t>2022年07月27日</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/j6nn5v9rJQ" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1812300/extras/AQ_JoinDiscord_02.jpg?t=1693247241" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;水之城是一款在海洋深处建造城市的生存游戏。地球表面已成为一片贫瘠的荒地，迫使人类将仅存的所有的希望都投向了海洋深处。当发现在潮汐之下建立新世界的可能后，人类文明重新开始的机会似乎变得触手可及。 虽然这是一个全新的开始，但前方的危险和挑战会证明海底生存并不是儿戏……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1812300/extras/CHI_01.png?t=1693247241" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1812300/extras/An_Aquatic_Life_Updated2.gif?t=1693247241" /&gt;&lt;br&gt;在水下建造一座独特的城市来逃离这个垂死的世界。想办法在海洋带来的的挑战中存活下来，在不同的层面建造并升级你的基地。 使用海床建造核心基础设施和生产设施，而上方的圆顶将使您的人民不必面对深海的危险。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1812300/extras/CHI_02.png?t=1693247241" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1812300/extras/ConcreteandSalt_Updated.gif?t=1693247241" /&gt;&lt;br&gt;探索发现多样的海洋生物群落、收集资源、确保温度读数正常并同时管理您的多个水下基地。 需留意自然的海洋生物，若在建造或收获时不小心激怒了他们可能会酿成危险。 鲨鱼和鲸鱼蜂拥至您的城市可能不会有什么好结果……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1812300/extras/CHI_03.png?t=1693247241" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1812300/extras/Deep_Dive_Updated.gif?t=1693247241" /&gt;&lt;br&gt;通过庞大的科技树来解锁新的技术和建筑来确定您将如何建造水下城市的方向。 从防御网格和无人机回收到寿司屋和氧气提取器。 您选择的路线将决定您会创建何种水下城市。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1812300/extras/CHI_04.png?t=1693247241" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1812300/extras/Key_Features_Updated.gif?t=1693247241" /&gt;&lt;br&gt;使用无人机和潜艇，建造生产线并监督探险队对黑暗的海洋深处进行调查。 深海探险将带来对生存至关重要的奖励和稀有资源。 探险成功将会带来进入更深处探索未知事物的机会。 谁能知道深海中到底隐藏了什么秘密？</t>
+          <t>&lt;h2 class="bb_tag"&gt;■《英雄传说 黎之轨迹》简介&lt;/h2&gt;以缜密的剧情编排和游戏系统交织而成的新次元RPG《英雄传说 黎之轨迹》登陆Steam®！&lt;br&gt;&lt;br&gt;“轨迹”系列经典的战斗系统在《英雄传说 黎之轨迹》中进化为可从原野战斗无缝衔接至指令战斗的机制，提供玩家兼具速度感和策略性的战斗体验。只需按一下按钮，就能随时从原野战斗切换至指令战斗。使用指令战斗时，将比照以往作品的形式选择普通攻击、战技、导力魔法和道具等指令进行战斗。善用7种属性的魔法和具有各种特殊效果的战技等，只要留意角色特技的效果，便能和强敌抗衡。&lt;h2 class="bb_tag"&gt;■加入Steam®版原创功能!&lt;/h2&gt;本作支持能变更原野战斗和指令战斗速度的“高速模式”和依玩家喜好调整的“文字大小变更功能”。&lt;br&gt;此外，也支持 21:9超宽屏幕显示，让玩家将游戏中的壮阔风景和世界观尽收眼底。随着画面朝左右双方延伸，至今受限于视野而无法充分传达的信息将一览无遗，让玩家在与敌人战斗时更加有利。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1811950/extras/kuro_615x257_TC.jpg?t=1662366981" /&gt;&lt;h2 class="bb_tag"&gt;■故事&lt;/h2&gt;多民族国家《卡尔瓦德共和国》于战后正迎来前所未见的景气荣景。在因民族问题和政治革命而闹得沸沸扬扬的首都角落，以“地下万事屋（Spriggan）”维生的范恩接获一件“奇妙的委托”，最后竟发展为使整个共和国为之震撼的事态……&lt;h2 class="bb_tag"&gt;●序幕&lt;/h2&gt;“地下万事屋”──这是诞生在卡尔瓦德共和国这个充满多样性的大熔炉中的某种“地下职业”。&lt;br&gt;有时是侦探、有时是谈判专家，有时则是奖金猎人。无论是来自谁的委托，他们都来者不拒。&lt;br&gt;包办警方无法处理的委托、帮忙解决市民们“无法公诸于世”的疑难杂症，甚至还接罪犯和地下势力的“正经”委托。那就是人称“地下万事屋”的他们的行事作风。&lt;br&gt;&lt;br&gt;时为七耀历1208年──一位身穿名校制服，看上去就是出身好人家的女学生造访了共和国首都旧市街一栋破旧的住商混合大楼。&lt;br&gt;少女用坚决的眼神看向门牌上不假修饰的“亚克莱德事务所”字迹，她咽了咽口水，下定决心敲了三下门…………&lt;br&gt;“呼啊啊啊～难得有人中午前就上门呢……”门后响起了一个散漫中带着沉着的男人声音，他的嗓音乍听之下十分成熟，却又有几分年轻气息。同时，门把也随着声音转动了起来。&lt;br&gt;──自此，新的“轨迹”即将展开。</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>1815570</t>
+          <t>1812300</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Aces and Adventures</t>
+          <t>Aquatico</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>王牌与冒险</t>
+          <t>Aquatico</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>牌组构建,冒险,策略,轻度 Rogue,卡牌游戏</t>
+          <t>城市营造,策略,殖民模拟,水底,建造</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7783,41 +7788,36 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>9.2</t>
-        </is>
-      </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2023年02月23日</t>
+          <t>2023年01月13日</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1815570/extras/spade_line_gold_2.png?t=1691080605" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1815570/extras/en_StoreGifPairs_1.gif?t=1691080605" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;以扑克为动力的牌组构建冒险&lt;/strong&gt;&lt;br&gt;在古老树林雾霭缭绕的中心地带有一个石头圈，其中摆放着三张桌子，形成通往从古代北欧和中东神话中汲取灵感的翱翔世界的门户。在那里，你将踏上拯救生命之树卡德拉希尔的旅程，使其免受啃噬其根部的邪恶力量的侵害。她托付给你的魔法牌组中的每张牌都是从她的树枝上摘下的叶子。用这些牌来唤起你的技能并发动毁灭性的、以扑克为动力的攻击。发展你的力量，强壮你的牌组，但要抓紧时间！季节在变化； 温暖不会长期免费。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1815570/extras/en_StoreGifPairs_2.gif?t=1691080605" /&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;全新的游戏模式：因维努斯螺旋&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;《王牌与冒险》的全新游戏模式：因维努斯螺旋，以杀戮尖塔类游戏为启发，您可以在一场更加漫长的冒险中自行构建并策划卡组。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;在 10-20 分钟的高消耗性会话中提供快节奏的游戏玩法。&lt;br&gt;&lt;/li&gt;&lt;li&gt;5 个角色，每个角色都有自己的技能库和 30 个进步等级。&lt;br&gt;&lt;/li&gt;&lt;li&gt;随着你的旅程不断前进，解锁强大的特性和装备。&lt;br&gt;&lt;/li&gt;&lt;li&gt;13 个全语音战役和 4 个游戏，总共 52 个不断升级的挑战关卡&lt;br&gt;&lt;/li&gt;&lt;li&gt;程序生成的运行确保无尽的独特体验。&lt;br&gt;&lt;/li&gt;&lt;li&gt;建立你自己的牌组，并将你的技能升级到精英和传奇效力。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1815570/extras/spade_line_gold_2.png?t=1691080605" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1815570/extras/en_StoreGifPairs_3.gif?t=1691080605" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;游戏玩法&lt;/strong&gt;&lt;br&gt;传统扑克牌和特殊能力牌的独特组合是 Aces &amp;amp; Adventures 的核心。你将制作一副牌组，并选择如何使用你的资源——你的目标是通过攻击和法术打败你的对手，还是打牌以潜在地吸引毁灭性的高价值扑克手牌，并在强大的打击中消灭你的敌人？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1815570/extras/en_StoreGifPairs_4.gif?t=1691080605" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;使用四套同花色牌作为法力来激活你的技能。&lt;br&gt;&lt;/li&gt;&lt;li&gt;投掷一张牌作为攻击；高牌获胜。&lt;br&gt;&lt;/li&gt;&lt;li&gt;以扑克为动力，投出一对、三张、四张或有效的五张扑克手牌。&lt;br&gt;&lt;/li&gt;&lt;li&gt;防守方试图匹配进攻中的牌数。如果防守者打出更好的手牌，攻击者就会受到伤害&lt;br&gt;&lt;/li&gt;&lt;li&gt;结合增益、减益、技能和法术来释放灾难性力量的组合攻击。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1815570/extras/en_StoreGifPairs_5.gif?t=1691080605" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1815570/extras/spade_line_gold_2.png?t=1691080605" /&gt;</t>
+          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/j6nn5v9rJQ" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1812300/extras/AQ_JoinDiscord_02.jpg?t=1693247241" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;水之城是一款在海洋深处建造城市的生存游戏。地球表面已成为一片贫瘠的荒地，迫使人类将仅存的所有的希望都投向了海洋深处。当发现在潮汐之下建立新世界的可能后，人类文明重新开始的机会似乎变得触手可及。 虽然这是一个全新的开始，但前方的危险和挑战会证明海底生存并不是儿戏……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1812300/extras/CHI_01.png?t=1693247241" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1812300/extras/An_Aquatic_Life_Updated2.gif?t=1693247241" /&gt;&lt;br&gt;在水下建造一座独特的城市来逃离这个垂死的世界。想办法在海洋带来的的挑战中存活下来，在不同的层面建造并升级你的基地。 使用海床建造核心基础设施和生产设施，而上方的圆顶将使您的人民不必面对深海的危险。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1812300/extras/CHI_02.png?t=1693247241" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1812300/extras/ConcreteandSalt_Updated.gif?t=1693247241" /&gt;&lt;br&gt;探索发现多样的海洋生物群落、收集资源、确保温度读数正常并同时管理您的多个水下基地。 需留意自然的海洋生物，若在建造或收获时不小心激怒了他们可能会酿成危险。 鲨鱼和鲸鱼蜂拥至您的城市可能不会有什么好结果……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1812300/extras/CHI_03.png?t=1693247241" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1812300/extras/Deep_Dive_Updated.gif?t=1693247241" /&gt;&lt;br&gt;通过庞大的科技树来解锁新的技术和建筑来确定您将如何建造水下城市的方向。 从防御网格和无人机回收到寿司屋和氧气提取器。 您选择的路线将决定您会创建何种水下城市。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1812300/extras/CHI_04.png?t=1693247241" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1812300/extras/Key_Features_Updated.gif?t=1693247241" /&gt;&lt;br&gt;使用无人机和潜艇，建造生产线并监督探险队对黑暗的海洋深处进行调查。 深海探险将带来对生存至关重要的奖励和稀有资源。 探险成功将会带来进入更深处探索未知事物的机会。 谁能知道深海中到底隐藏了什么秘密？</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>1816570</t>
+          <t>1815570</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>江湖十一</t>
+          <t>Aces and Adventures</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>江湖十一</t>
+          <t>王牌与冒险</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>角色扮演,开放世界,剧情丰富,武术,探索</t>
+          <t>牌组构建,冒险,策略,轻度 Rogue,卡牌游戏</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -7827,39 +7827,39 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2023年01月11日</t>
+          <t>2023年02月23日</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>&lt;strong&gt; 十年前，铸剑名门轩辕府惨遭屠戮，一夜之间，血流成河。轩辕氏几乎尽数殒命，只有一小女自此销声匿迹，下落不明。府主轩辕弘生前所铸五柄绝世神兵，也从此音讯全无，不知所踪……&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;丰富多彩的故事剧情 &lt;/h2&gt;- 伴随世界和剧本角色演化而不断推动的主线剧本，30+小时跌宕起伏的主线剧情&lt;br&gt;&lt;br&gt;- 20+支线剧本；数百位惟妙惟肖的江湖及历史角色；31个与众不同的江湖门派，20个组织势力；交织出缤纷的武林故事&lt;br&gt;- 数量繁多乐趣十足的势力挑战与奇闻轶事；享受生动的江湖人生&lt;h2 class="bb_tag"&gt;独树一帜的武侠战斗系统 &lt;/h2&gt;- “见招拆招，扣人心弦”的攻防回合系统&lt;br&gt;&lt;br&gt;- 30+门派势力武学体系，13种各具特色的武功种类，涵盖拳法、掌法、剑法、重剑、指法、刀法、棍法、枪法、斧法、鞭法、钩法、笔法和暗器&lt;br&gt;- 250+功法中数以千计的招式技能，精妙无比的“套路契合”系统，配以极具挑战的对战AI，让每一场战斗都充满乐趣&lt;br&gt;- 灵活多变的习武养成搭配独特的“参悟进修”系统，创造出千变万化的战法套路&lt;h2 class="bb_tag"&gt;波澜壮阔的开放世界&lt;/h2&gt;- 以北宋为背景的架空世界；1000+可自由探索的地点，包括城市村镇、设施场所，自然风光、名胜古迹、农特产地和遗迹等等&lt;br&gt;&lt;br&gt;- 正邪势力纷争四起，世界暗流涌动等待着你的游历和探索&lt;h2 class="bb_tag"&gt;多姿多彩的养成扮演&lt;/h2&gt;- 琳琅满目的养成系统，包括烹饪、点茶、鉴宝、关扑、演奏、赋诗、制药、写作、绘画、撰写功法秘籍等等等等&lt;br&gt;&lt;br&gt;- 12大“商户”控制着24路的“特产物”商路，形成了类似“期货交易”的“钞引系统”；不管是低买高抛还是暗箱操作，都能享受到“钞引交易”带来的致富乐趣&lt;br&gt;- 11处可购置的“自宅府邸”，各具特色的“房间”提供了趣味十足的行为玩法；同时还能和行走江湖结交的挚友亲朋一同共聚享乐&lt;br&gt;- 同时还有数以千计的养成道具物品等待着你去探索收集&lt;h2 class="bb_tag"&gt;“天书录”的名与利&lt;/h2&gt;- 800+可以解锁的收集要素，包括剧本角色、功法、美食佳肴、诗词书刊、自宅府邸等等&lt;br&gt;&lt;br&gt;- “天书录”也为多周目游戏提供了非常多有趣且便利的体验&lt;h2 class="bb_tag"&gt;无比细腻的关系互动 &lt;/h2&gt;- 每一个人物都有自己的“性情”、“格局”、“爱情观”以及“性取向”&lt;br&gt;&lt;br&gt;- 每一个NPC都有自己的关系网，你们或许会成为挚友，可也能成为仇敌&lt;br&gt;- 你的一举一动都会影响NPC对你的态度和互动&lt;br&gt;- 逸态横生的关系互动系统，包括偷窃、下毒、切磋、拜师、偷师、劫杀、下厨、宴请、共奏、送礼、调戏、告白、结婚等等&lt;h2 class="bb_tag"&gt;精彩绝伦的“天书论剑”&lt;/h2&gt;- 南北势力：以淮河为分界线，划分出“南”“北”两大势力，参与“天书论剑”&lt;br&gt;&lt;br&gt;- 比武论剑：门派和组织会派出各自的“比武代表”，来争夺不同规格的比武桂冠&lt;br&gt;- 绝顶之争：角逐“绝顶论剑”桂冠，争夺“天下第一”之名&lt;h2 class="bb_tag"&gt;强大的JackonAI系统 &lt;/h2&gt;- 1000+位生成AI角色，包括门派弟子、江湖散人等等&lt;br&gt;- 所有NPC会实时参与到开放世界的演化及运转当中&lt;br&gt;- 每位NPC具有独立的生活轨迹和兴趣爱好&lt;br&gt;- AI会进行和玩家完全对等的武学“参悟进修”，不同的性格相性都会让其养成千变万化的“习武决定”和“战斗方式”&lt;br&gt;- 你所扮演的角色可以通过JackonAI“灵魂抽取”系统，成为自己或他人游戏中的擂台对手</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1815570/extras/spade_line_gold_2.png?t=1691080605" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1815570/extras/en_StoreGifPairs_1.gif?t=1691080605" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;以扑克为动力的牌组构建冒险&lt;/strong&gt;&lt;br&gt;在古老树林雾霭缭绕的中心地带有一个石头圈，其中摆放着三张桌子，形成通往从古代北欧和中东神话中汲取灵感的翱翔世界的门户。在那里，你将踏上拯救生命之树卡德拉希尔的旅程，使其免受啃噬其根部的邪恶力量的侵害。她托付给你的魔法牌组中的每张牌都是从她的树枝上摘下的叶子。用这些牌来唤起你的技能并发动毁灭性的、以扑克为动力的攻击。发展你的力量，强壮你的牌组，但要抓紧时间！季节在变化； 温暖不会长期免费。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1815570/extras/en_StoreGifPairs_2.gif?t=1691080605" /&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;全新的游戏模式：因维努斯螺旋&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;《王牌与冒险》的全新游戏模式：因维努斯螺旋，以杀戮尖塔类游戏为启发，您可以在一场更加漫长的冒险中自行构建并策划卡组。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;在 10-20 分钟的高消耗性会话中提供快节奏的游戏玩法。&lt;br&gt;&lt;/li&gt;&lt;li&gt;5 个角色，每个角色都有自己的技能库和 30 个进步等级。&lt;br&gt;&lt;/li&gt;&lt;li&gt;随着你的旅程不断前进，解锁强大的特性和装备。&lt;br&gt;&lt;/li&gt;&lt;li&gt;13 个全语音战役和 4 个游戏，总共 52 个不断升级的挑战关卡&lt;br&gt;&lt;/li&gt;&lt;li&gt;程序生成的运行确保无尽的独特体验。&lt;br&gt;&lt;/li&gt;&lt;li&gt;建立你自己的牌组，并将你的技能升级到精英和传奇效力。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1815570/extras/spade_line_gold_2.png?t=1691080605" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1815570/extras/en_StoreGifPairs_3.gif?t=1691080605" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;游戏玩法&lt;/strong&gt;&lt;br&gt;传统扑克牌和特殊能力牌的独特组合是 Aces &amp;amp; Adventures 的核心。你将制作一副牌组，并选择如何使用你的资源——你的目标是通过攻击和法术打败你的对手，还是打牌以潜在地吸引毁灭性的高价值扑克手牌，并在强大的打击中消灭你的敌人？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1815570/extras/en_StoreGifPairs_4.gif?t=1691080605" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;使用四套同花色牌作为法力来激活你的技能。&lt;br&gt;&lt;/li&gt;&lt;li&gt;投掷一张牌作为攻击；高牌获胜。&lt;br&gt;&lt;/li&gt;&lt;li&gt;以扑克为动力，投出一对、三张、四张或有效的五张扑克手牌。&lt;br&gt;&lt;/li&gt;&lt;li&gt;防守方试图匹配进攻中的牌数。如果防守者打出更好的手牌，攻击者就会受到伤害&lt;br&gt;&lt;/li&gt;&lt;li&gt;结合增益、减益、技能和法术来释放灾难性力量的组合攻击。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1815570/extras/en_StoreGifPairs_5.gif?t=1691080605" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1815570/extras/spade_line_gold_2.png?t=1691080605" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>1835240</t>
+          <t>1816570</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Spiritfall</t>
+          <t>江湖十一</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>圣灵降临</t>
+          <t>江湖十一</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2D 平台,动作类 Rogue,轻度 Rogue,困难,格斗</t>
+          <t>角色扮演,开放世界,剧情丰富,武术,探索</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7867,36 +7867,41 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>2023年04月03日</t>
+          <t>2023年01月11日</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/SpiritfallWechat__1_.png?t=1693238052" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/Brawling_zh.png?t=1693238052" /&gt;&lt;br&gt;&lt;strong&gt;《Spiritfall》&lt;/strong&gt; 将劈砍和斩杀战斗、灵活的平台打斗和 Rogue-lite 机制合为一体！&lt;br&gt;穿越危险的地区，在随机生成的地图中施放致命的连击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/Synergies_zh.png?t=1693238052" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/GIFDivineSynergies.gif?t=1693238052" /&gt;&lt;br&gt;神圣精灵会提供强大的祝福，增强你的战斗技能，探索你最喜欢的技能，并尝试构建独特的能力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/Stronger_zh.png?t=1693238052" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/GIFGrowStronger.gif?t=1693238052" /&gt;&lt;br&gt;死亡只是暂时的挫折，在圣殿重新醒来后，你会比以前更强大，可以继续冒险。使用收集的资源来升级你的技能，解锁独特的魔法坠饰并装备强大的武器。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/Characters_zh.png?t=1693238052" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/Characters.gif?t=1693238052" /&gt;&lt;br&gt;你可能会在旅程中遇到各个 NPC，其中有些甚至会回到圣殿帮助你完成任务。其他的就不一定那么友好了……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/Community_zh.png?t=1693238052" /&gt;&lt;br&gt;我们会根据玩家的反馈意见对游戏进行打磨和改进，定期添加新的内容和功能！加入我们的 Discord 服务器或新闻简报，关注游戏的开发过程。</t>
+          <t>&lt;strong&gt; 十年前，铸剑名门轩辕府惨遭屠戮，一夜之间，血流成河。轩辕氏几乎尽数殒命，只有一小女自此销声匿迹，下落不明。府主轩辕弘生前所铸五柄绝世神兵，也从此音讯全无，不知所踪……&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;丰富多彩的故事剧情 &lt;/h2&gt;- 伴随世界和剧本角色演化而不断推动的主线剧本，30+小时跌宕起伏的主线剧情&lt;br&gt;&lt;br&gt;- 20+支线剧本；数百位惟妙惟肖的江湖及历史角色；31个与众不同的江湖门派，20个组织势力；交织出缤纷的武林故事&lt;br&gt;- 数量繁多乐趣十足的势力挑战与奇闻轶事；享受生动的江湖人生&lt;h2 class="bb_tag"&gt;独树一帜的武侠战斗系统 &lt;/h2&gt;- “见招拆招，扣人心弦”的攻防回合系统&lt;br&gt;&lt;br&gt;- 30+门派势力武学体系，13种各具特色的武功种类，涵盖拳法、掌法、剑法、重剑、指法、刀法、棍法、枪法、斧法、鞭法、钩法、笔法和暗器&lt;br&gt;- 250+功法中数以千计的招式技能，精妙无比的“套路契合”系统，配以极具挑战的对战AI，让每一场战斗都充满乐趣&lt;br&gt;- 灵活多变的习武养成搭配独特的“参悟进修”系统，创造出千变万化的战法套路&lt;h2 class="bb_tag"&gt;波澜壮阔的开放世界&lt;/h2&gt;- 以北宋为背景的架空世界；1000+可自由探索的地点，包括城市村镇、设施场所，自然风光、名胜古迹、农特产地和遗迹等等&lt;br&gt;&lt;br&gt;- 正邪势力纷争四起，世界暗流涌动等待着你的游历和探索&lt;h2 class="bb_tag"&gt;多姿多彩的养成扮演&lt;/h2&gt;- 琳琅满目的养成系统，包括烹饪、点茶、鉴宝、关扑、演奏、赋诗、制药、写作、绘画、撰写功法秘籍等等等等&lt;br&gt;&lt;br&gt;- 12大“商户”控制着24路的“特产物”商路，形成了类似“期货交易”的“钞引系统”；不管是低买高抛还是暗箱操作，都能享受到“钞引交易”带来的致富乐趣&lt;br&gt;- 11处可购置的“自宅府邸”，各具特色的“房间”提供了趣味十足的行为玩法；同时还能和行走江湖结交的挚友亲朋一同共聚享乐&lt;br&gt;- 同时还有数以千计的养成道具物品等待着你去探索收集&lt;h2 class="bb_tag"&gt;“天书录”的名与利&lt;/h2&gt;- 800+可以解锁的收集要素，包括剧本角色、功法、美食佳肴、诗词书刊、自宅府邸等等&lt;br&gt;&lt;br&gt;- “天书录”也为多周目游戏提供了非常多有趣且便利的体验&lt;h2 class="bb_tag"&gt;无比细腻的关系互动 &lt;/h2&gt;- 每一个人物都有自己的“性情”、“格局”、“爱情观”以及“性取向”&lt;br&gt;&lt;br&gt;- 每一个NPC都有自己的关系网，你们或许会成为挚友，可也能成为仇敌&lt;br&gt;- 你的一举一动都会影响NPC对你的态度和互动&lt;br&gt;- 逸态横生的关系互动系统，包括偷窃、下毒、切磋、拜师、偷师、劫杀、下厨、宴请、共奏、送礼、调戏、告白、结婚等等&lt;h2 class="bb_tag"&gt;精彩绝伦的“天书论剑”&lt;/h2&gt;- 南北势力：以淮河为分界线，划分出“南”“北”两大势力，参与“天书论剑”&lt;br&gt;&lt;br&gt;- 比武论剑：门派和组织会派出各自的“比武代表”，来争夺不同规格的比武桂冠&lt;br&gt;- 绝顶之争：角逐“绝顶论剑”桂冠，争夺“天下第一”之名&lt;h2 class="bb_tag"&gt;强大的JackonAI系统 &lt;/h2&gt;- 1000+位生成AI角色，包括门派弟子、江湖散人等等&lt;br&gt;- 所有NPC会实时参与到开放世界的演化及运转当中&lt;br&gt;- 每位NPC具有独立的生活轨迹和兴趣爱好&lt;br&gt;- AI会进行和玩家完全对等的武学“参悟进修”，不同的性格相性都会让其养成千变万化的“习武决定”和“战斗方式”&lt;br&gt;- 你所扮演的角色可以通过JackonAI“灵魂抽取”系统，成为自己或他人游戏中的擂台对手</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>1880330</t>
+          <t>1835240</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Sanfu</t>
+          <t>Spiritfall</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>三伏</t>
+          <t>圣灵降临</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>悬疑,角色扮演,剧情,冒险,2D</t>
+          <t>2D 平台,动作类 Rogue,轻度 Rogue,困难,格斗</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7904,59 +7909,96 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>7.7</t>
-        </is>
-      </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>2023年07月28日</t>
+          <t>2023年04月03日</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;《三伏》&lt;/strong&gt;是一款中国本土题材的悬疑剧情解谜游戏。&lt;br&gt;&lt;br&gt;2000年，山城市新闻频道的电视画面莫名跳出一则旧广告，而广告的代言人是已经去世的特异功能少年——三眼神童。有传闻三眼神童的亡魂劫持了电视信号。调查局受命展开调查。随着调查的深入，一个藏在黑暗处的犯罪团伙逐渐浮出水面。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1880330/extras/商店页游戏介绍1.png?t=1690688564" /&gt;&lt;br&gt; &lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;这是一个简单而荒诞的故事，故事讲述了一个犯罪团伙如何一步步将一位少年捧上神坛。&lt;br&gt;&lt;/li&gt;&lt;li&gt;这又是一个错综复杂的故事，故事里有迷茫无措的人、信念坚定的人、无知狂热的人、站在风口的人——这是一个时代的缩影。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1880330/extras/商店页游戏介绍2.png?t=1690688564" /&gt;&lt;br&gt; &lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;玩家可以扮演两个角色，在不同时代、不同视角下流转，经历光怪陆离的过去和凶险莫测的现在。&lt;br&gt;&lt;/li&gt;&lt;li&gt;同时他们又不是整个故事的主角，故事中大部分角色都很重要，这更像一部时代群像剧。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1880330/extras/商店页游戏介绍3.png?t=1690688564" /&gt;&lt;br&gt; &lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;从上世纪宣传画汲取灵感，或阴森怪诞，或绚丽多彩，这是一场怀旧的视觉之旅。&lt;br&gt;&lt;/li&gt;&lt;li&gt;用独特的色调和充满细节感的海报，烘托出相当具有年代感的氛围。朦胧的质感增添了神秘的气息，小店的招牌、茂盛的植物、起伏的台阶与错落的建筑，构建了一个虚构但又离我们很近的神秘山城。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1880330/extras/商店页游戏介绍4.png?t=1690688564" /&gt;&lt;br&gt; &lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;谜题与剧情紧密结合，让剧情体验更加有趣。&lt;br&gt;&lt;/li&gt;&lt;li&gt;双主角模式扩展了解谜的可能性，给这个故事增加些许趣味。&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/SpiritfallWechat__1_.png?t=1693238052" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/Brawling_zh.png?t=1693238052" /&gt;&lt;br&gt;&lt;strong&gt;《Spiritfall》&lt;/strong&gt; 将劈砍和斩杀战斗、灵活的平台打斗和 Rogue-lite 机制合为一体！&lt;br&gt;穿越危险的地区，在随机生成的地图中施放致命的连击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/Synergies_zh.png?t=1693238052" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/GIFDivineSynergies.gif?t=1693238052" /&gt;&lt;br&gt;神圣精灵会提供强大的祝福，增强你的战斗技能，探索你最喜欢的技能，并尝试构建独特的能力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/Stronger_zh.png?t=1693238052" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/GIFGrowStronger.gif?t=1693238052" /&gt;&lt;br&gt;死亡只是暂时的挫折，在圣殿重新醒来后，你会比以前更强大，可以继续冒险。使用收集的资源来升级你的技能，解锁独特的魔法坠饰并装备强大的武器。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/Characters_zh.png?t=1693238052" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/Characters.gif?t=1693238052" /&gt;&lt;br&gt;你可能会在旅程中遇到各个 NPC，其中有些甚至会回到圣殿帮助你完成任务。其他的就不一定那么友好了……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/Community_zh.png?t=1693238052" /&gt;&lt;br&gt;我们会根据玩家的反馈意见对游戏进行打磨和改进，定期添加新的内容和功能！加入我们的 Discord 服务器或新闻简报，关注游戏的开发过程。</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
+          <t>1880330</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Sanfu</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>三伏</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>悬疑,角色扮演,剧情,冒险,2D</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>7.7</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>2023年07月28日</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>&lt;strong&gt;《三伏》&lt;/strong&gt;是一款中国本土题材的悬疑剧情解谜游戏。&lt;br&gt;&lt;br&gt;2000年，山城市新闻频道的电视画面莫名跳出一则旧广告，而广告的代言人是已经去世的特异功能少年——三眼神童。有传闻三眼神童的亡魂劫持了电视信号。调查局受命展开调查。随着调查的深入，一个藏在黑暗处的犯罪团伙逐渐浮出水面。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1880330/extras/商店页游戏介绍1.png?t=1690688564" /&gt;&lt;br&gt; &lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;这是一个简单而荒诞的故事，故事讲述了一个犯罪团伙如何一步步将一位少年捧上神坛。&lt;br&gt;&lt;/li&gt;&lt;li&gt;这又是一个错综复杂的故事，故事里有迷茫无措的人、信念坚定的人、无知狂热的人、站在风口的人——这是一个时代的缩影。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1880330/extras/商店页游戏介绍2.png?t=1690688564" /&gt;&lt;br&gt; &lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;玩家可以扮演两个角色，在不同时代、不同视角下流转，经历光怪陆离的过去和凶险莫测的现在。&lt;br&gt;&lt;/li&gt;&lt;li&gt;同时他们又不是整个故事的主角，故事中大部分角色都很重要，这更像一部时代群像剧。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1880330/extras/商店页游戏介绍3.png?t=1690688564" /&gt;&lt;br&gt; &lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;从上世纪宣传画汲取灵感，或阴森怪诞，或绚丽多彩，这是一场怀旧的视觉之旅。&lt;br&gt;&lt;/li&gt;&lt;li&gt;用独特的色调和充满细节感的海报，烘托出相当具有年代感的氛围。朦胧的质感增添了神秘的气息，小店的招牌、茂盛的植物、起伏的台阶与错落的建筑，构建了一个虚构但又离我们很近的神秘山城。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1880330/extras/商店页游戏介绍4.png?t=1690688564" /&gt;&lt;br&gt; &lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;谜题与剧情紧密结合，让剧情体验更加有趣。&lt;br&gt;&lt;/li&gt;&lt;li&gt;双主角模式扩展了解谜的可能性，给这个故事增加些许趣味。&lt;/li&gt;&lt;/ul&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
           <t>1888160</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>ARMORED CORE™ VI FIRES OF RUBICON™</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>装甲核心6</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>机甲,角色自定义,动作,第三人称,3D</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>8.9</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr">
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>机甲,角色自定义,动作,第三人称,战斗</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
         <is>
           <t>2023年08月25日</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
+      <c r="H181" t="inlineStr">
         <is>
           <t>数字豪华版将收录以下内容；&lt;br /&gt;
 ·游戏本体&lt;br /&gt;
@@ -7976,87 +8018,87 @@
         </is>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>1889980</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Pathfinder: Wrath of the Righteous - Inevitable Excess</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Pathfinder: Wrath of the Righteous - Inevitable Excess</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>策略,冒险,角色扮演,独立</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>DLC</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>2022年03月03日</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>《无解的超量》这部DLC将带玩家在即将取得对世界之伤的大胜之前，进入新的冒险设定当中。新的故事需要英雄用上所有高等级能力和神话之力，与近乎无可匹敌的对手交锋。 玩家将响应瓦尔码络斯的号召，这位来自另一个实存位面的强大存在决心阻止多元宇宙迫在眉睫的危机。&lt;br /&gt;
-&lt;br /&gt;
-&lt;br /&gt;
-  * 游玩大约长达7到8小时的新故事，作为对主线剧情的补充。从主线战役导入你的角色和所有同伴，或是建立一个新角色，来了解令魔法的守护者困扰的原因。&lt;br /&gt;
-&lt;br /&gt;
-  * 你的角色将以高等级开始冒险，包括普通等级和神话阶层。运用你掌握的所有神话能力，与威胁诸位面和平的新神话敌人交战！&lt;br /&gt;
-&lt;br /&gt;
-  * 造访机械版御衡者“恒则兵”的诞生之地与家园：轴心城，探索这个位面的每个角落，在危机四伏的地城找到通路。&lt;br /&gt;
-&lt;br /&gt;
-  * 将你的功绩带到主线战役中去！在你完成本DLC后，主线战役中的角色将在第五次圣战正式开始之前获得新的力量。&lt;br /&gt;
-&lt;br /&gt;
-&lt;br /&gt;
-新的对手等待着你，准备考验你的正义之怒。但要记住，并非一切都与初见印象相符。有些朋友会背叛你，而昔日敌人也有可能伸出援手。</t>
-        </is>
-      </c>
-    </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
+          <t>1889980</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Pathfinder: Wrath of the Righteous - Inevitable Excess</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Pathfinder: Wrath of the Righteous - Inevitable Excess</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>策略,冒险,角色扮演,独立</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>DLC</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>2022年03月03日</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>《无解的超量》这部DLC将带玩家在即将取得对世界之伤的大胜之前，进入新的冒险设定当中。新的故事需要英雄用上所有高等级能力和神话之力，与近乎无可匹敌的对手交锋。 玩家将响应瓦尔码络斯的号召，这位来自另一个实存位面的强大存在决心阻止多元宇宙迫在眉睫的危机。&lt;br /&gt;
+&lt;br /&gt;
+&lt;br /&gt;
+  * 游玩大约长达7到8小时的新故事，作为对主线剧情的补充。从主线战役导入你的角色和所有同伴，或是建立一个新角色，来了解令魔法的守护者困扰的原因。&lt;br /&gt;
+&lt;br /&gt;
+  * 你的角色将以高等级开始冒险，包括普通等级和神话阶层。运用你掌握的所有神话能力，与威胁诸位面和平的新神话敌人交战！&lt;br /&gt;
+&lt;br /&gt;
+  * 造访机械版御衡者“恒则兵”的诞生之地与家园：轴心城，探索这个位面的每个角落，在危机四伏的地城找到通路。&lt;br /&gt;
+&lt;br /&gt;
+  * 将你的功绩带到主线战役中去！在你完成本DLC后，主线战役中的角色将在第五次圣战正式开始之前获得新的力量。&lt;br /&gt;
+&lt;br /&gt;
+&lt;br /&gt;
+新的对手等待着你，准备考验你的正义之怒。但要记住，并非一切都与初见印象相符。有些朋友会背叛你，而昔日敌人也有可能伸出援手。</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
           <t>1889981</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>Pathfinder: Wrath of the Righteous - Through the Ashes</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>Pathfinder: Wrath of the Righteous - Through the Ashes</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="D183" t="inlineStr">
         <is>
           <t>策略,冒险,角色扮演,独立</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="G182" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>2022年04月21日</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
+      <c r="H183" t="inlineStr">
         <is>
           <t>当你指引着骑士指挥官走向神话般的荣耀时，坎娜布利燃烧的街道上，普通人则在尽最大努力挣扎求生。站在普通市民的角度看待战争，并证明要展现英雄气节，你并不需要成为一位神话中的勇士。带领一小群市民逃脱囚禁，前往安全的避难所。你将拯救谁？将牺牲谁？主线战役的英雄们又错过了世界之伤的哪些骇人的秘密？&lt;br /&gt;
 &lt;br /&gt;
@@ -8071,67 +8113,25 @@
         </is>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>1915510</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>降妖散记</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>降妖散记</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>卡牌构建式类 Rogue,重玩价值,类 Rogue,卡牌游戏,卡牌战斗</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>2023年04月03日</t>
-        </is>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>&lt;strong&gt;世间群魔并起，妖怪危害人间。&lt;br&gt;这是一个妖怪与人共存的世界，妖怪们天生具有法力，普通人往往无力对抗。&lt;br&gt;为了应对妖怪的危害，人们会培养一类学习武术、法术的人与妖怪对抗，这类人被称为“降妖人”。&lt;br&gt;你将扮演一位降妖除魔的侠客，与世间群妖展开战斗。&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;降妖之旅&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1915510/extras/巫女打架.gif?t=1691755645" /&gt;&lt;br&gt;你所学所练的一切招式都会以卡牌的形式展现。&lt;br&gt;在遇见敌人时，以合理的方式打出卡牌是你取胜的关键。&lt;br&gt;战胜敌人所领悟的招式也会以卡牌的形式加入你的卡组。&lt;br&gt;每次卡牌的选择以及卡组天赋的配合都会成为您取胜的关键。&lt;h2 class="bb_tag"&gt;随机组卡，各种流派自成体系&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1915510/extras/选卡.gif?t=1691755645" /&gt;&lt;br&gt;在这险象环生的降妖之旅中，你会对自己的技艺研习得更深。你将有机会获得更多的卡牌来填充自己的卡组，而每一次的旅途中，你所面临的选择都是不同的。&lt;br&gt;做出你自己的选择，打造属于你的独一无二的卡组。然后，用它打败一个个接踵而至的敌人！&lt;h2 class="bb_tag"&gt;随机天赋，更多玩法，更多可能&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1915510/extras/选天赋2.gif?t=1691755645" /&gt;&lt;br&gt;只有战胜强敌，才能让你的内心突破！&lt;br&gt;在击败强敌后，你可以在随机的三个心法中选择一个研习。心法与卡组的搭配能让你体会到那份属于roguelike的千变万化。&lt;h2 class="bb_tag"&gt;遭遇各种奇遇，领略不同风味&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1915510/extras/商店.gif?t=1691755645" /&gt;&lt;br&gt;路边的妖怪商人可能就在出售世间罕见的仙丹，而路途上的各种事件奇遇也会让你领略到这个妖怪事件的各种光怪陆离。&lt;br&gt;你将解决一件件人与妖怪的事件，逐渐接近事件的主谋，最后解决它们，让事件停止。或是在一次次的旅途中收集碎片，察觉隐藏在故事背后的真相。</t>
-        </is>
-      </c>
-    </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>1934080</t>
+          <t>1915510</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>浮生箓2：九九行歌</t>
+          <t>降妖散记</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>浮生箓2：九九行歌</t>
+          <t>降妖散记</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>抢先体验,角色扮演,探索,自选历险体验,开放世界</t>
+          <t>卡牌构建式类 Rogue,重玩价值,类 Rogue,卡牌游戏,卡牌战斗</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -8139,36 +8139,41 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>7.1</t>
+        </is>
+      </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>2023年02月20日</t>
+          <t>2023年04月03日</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1934080/extras/1龙.gif?t=1693900239" /&gt;&lt;br&gt;《浮生箓2：九九行歌》是一款沙盒类修仙游戏，玩家可以自由定义角色属性，与游戏中的各类NPC实时互动，体验元素丰富的冒险地图和回合制战斗。并随着游戏进程发展加入风格各异的修仙宗门，从外门弟子做起直至手握宗门权柄，叱咤一方；在一路越境破阶的过程中逐步推动剧情发展，揭露天地异变真相，并通过自己的抉择影响游戏世界的命运走向。&lt;br&gt;----------------------------------------------------------------------------------------------------&lt;br&gt;&lt;strong&gt;一、开放自由的探索体验&lt;/strong&gt;&lt;br&gt;&lt;br&gt;游戏内现已上线了太古大荒和天元州两张大地图，其中包含丰富的探索要素。玩家不仅可以拜入宗门学习功法晋升职位，也可以在各个城镇间游走，提升实力，放松身心；散落各地的村庄会发布委托任务，也会随着游戏进程动态演变；隐藏各地的副本秘境也是挑战强敌、获取秘宝的好去处。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1934080/extras/2大地图.gif?t=1693900239" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;二、真实有趣的关系互动&lt;/strong&gt;&lt;br&gt;&lt;br&gt;随着NPC交互系统的不断丰富和完善，玩家将有机会与游戏世界里的陌路人发生更多的故事。你可以与他们维持淡淡如水的点头之交，一起坐而论道，互通有无，为一点灵石讨价还价；亦可主动出击，四处留情，寻得知己同修道心；或者干脆为非作歹，肆意偷窃挑衅他人，享受全性随心的快乐。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1934080/extras/3NPC.gif?t=1693900239" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;三、体量庞大的剧情文库&lt;/strong&gt;&lt;br&gt;&lt;br&gt;制作组为浮生箓修仙世界配置了一条清晰连贯的主线剧情任务，在主线流程未涉足的地方也准备了将近300个随机事件、30个支线剧情供大家去探索和体验，与形形色色的NPC发生各种各样的交互。游戏的剧情文本量将达到20万字左右，足以让各位玩家在修行之余体会世间百味。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1934080/extras/4随机事件.gif?t=1693900239" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;四、内容翔实的特色玩法&lt;/strong&gt;&lt;br&gt;&lt;br&gt;在制作组全员的不懈努力下，游戏内的城镇玩法内容进行了大拓展。炼丹坊、酒馆、青楼等建筑新增了大量关卡和剧情内容，更多的分店陆续开张，全新的NPC和故事等着各位去探索和体验；锻造坊也已重燃炉火，装备锻造系统正式上线；斗兽场中的灵兽业已准备就绪，等待各位玩家投下重注。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1934080/extras/5城镇玩法.gif?t=1693900239" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;五、焕然一新的战斗体验&lt;/strong&gt;&lt;br&gt;&lt;br&gt;全新五大宗门剑、葫芦、宝幡、宝镜、妖丹。在全新的回合制战斗框架下，玩家可以自由搭配技能，自主设置释放顺序形成输出COMBO，以及可以和NPC组队战斗，充分享受克敌制胜的乐趣。战斗副本中的敌人种类、怪物数量、战斗场景业已经过大幅扩容，以期最大限度保证战斗过程的差异化和新鲜感。突破玩法加入各种战斗，金丹需要渡劫，筑基可以御剑飞行,修仙世界等你来体验。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1934080/extras/6新战斗.gif?t=1693900239" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;六、职位提升的宗门玩法&lt;/strong&gt;&lt;br&gt;&lt;br&gt;在本作的宗门体系设计，只有最底层的弟子才会被分配去处理杂务。随着职位的提升，玩家将相应拥有更多的权限，深度参与到宗门的发展与建设当中，小到弟子管理、任务委派，大到宗门冲突、势力扩张，充分体验经营管理的乐趣。修仙世界不只有打打杀杀，还有人情世故。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1934080/extras/7宗门.gif?t=1693900239" /&gt;</t>
+          <t>&lt;h2 class="bb_tag"&gt;&lt;strong&gt;详细介绍：&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;世间群魔并起，你将扮演一位降妖除魔的侠客，与世间群妖展开战斗。&lt;h2 class="bb_tag"&gt;降妖侠客&lt;/h2&gt;&lt;br&gt;&lt;strong&gt;莫三：&lt;/strong&gt;镇妖司的千户，用一柄偶尔会夺舍的魔刀战斗&lt;br&gt;威震江湖，你靠的就是一个怒字，善用怒气，你可低费打出大量伤害&lt;br&gt;你善用利刃为敌人制造伤口，叠起城墙般厚重的护甲，也会为了强大的战力走火入魔……&lt;br&gt;没有人愿意见到你走火入魔的样子，莫三爷&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1915510/extras/莫三动图.gif?t=1694178293" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;小川：&lt;/strong&gt;偷跑下山的小道士，使用炼丹时发明的奇怪道具和竹火剑猎杀妖魔&lt;br&gt;外表懦弱的小川，手中竹火剑却让敌人闻风丧胆&lt;br&gt;名为剑，却是一柄装弹枪械，“子弹”是小川的核心玩法，搭载强力子弹的竹火箭堪称人间大炮&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1915510/extras/小川动图.gif?t=1694178293" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;阿紫：&lt;/strong&gt;苗疆的巫女，善于利用毒虫和灵力进行作战&lt;br&gt;驾驭毒虫是苗疆的绝技，阿紫可以铺上满屏召唤物，决胜于虫群之后&lt;br&gt;做为巫女，阿紫也热衷于为敌人献上灾祸，从印堂发黑到灭顶之灾，只是一瞬之间&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1915510/extras/阿紫动图.gif?t=1694178293" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;龙女：&lt;/strong&gt;可以呼风唤雨的78岁萝莉龙宝宝，使用法术作战，打急了会变身咬人（真咬）&lt;br&gt;因为还是个宝宝，所以无法把控形态，释放多个法术后会失控变回龙形态，疯狂啃咬敌人&lt;br&gt;人形态下会施展法术攻击敌人&lt;br&gt;目前还在测试中，可以在测试分支输入longmei666666抢先体验&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1915510/extras/龙女动图.gif?t=1694178293" /&gt;&lt;h2 class="bb_tag"&gt;游戏内容&lt;/h2&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;221张可用卡牌（龙女加上可以到300？）&lt;br&gt;&lt;/li&gt;&lt;li&gt;128种心法&lt;br&gt;&lt;/li&gt;&lt;li&gt;35种丹药&lt;br&gt;&lt;/li&gt;&lt;li&gt;X个随机事件&lt;br&gt;&lt;/li&gt;&lt;li&gt;X场完全不同的战斗（妖怪种类）&lt;br&gt;&lt;/li&gt;&lt;li&gt;20级游戏难度&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;游戏模式&lt;/h2&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;猎妖大会：多人组队，竞速通关&lt;br&gt;&lt;/li&gt;&lt;li&gt;降妖令：每日挑战，全球排名&lt;br&gt;&lt;/li&gt;&lt;li&gt;自定义模式：自定种子，随心游戏&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;现已开放创意工坊！&lt;/h2&gt;在【测试功能——创意工坊】中可以选择添加创意工坊的MOD&lt;br&gt;*注：你必须先添加 BepInEx 和 Next框架 才能游玩其他MOD，你可以在创意工坊界面的第一页找到它们&lt;br&gt;如果你有意向在我们游戏制作更多有趣的MOD，欢迎添加我们的降妖散记MOD交流群：838731579</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>1940340</t>
+          <t>1934080</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Darkest Dungeon® II</t>
+          <t>浮生箓2：九九行歌</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>暗黑地牢2</t>
+          <t>浮生箓2：九九行歌</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>回合制战术,黑暗奇幻,轻度 Rogue,迷宫探索,洛夫克拉夫特式</t>
+          <t>抢先体验,角色扮演,探索,自选历险体验,开放世界</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8176,41 +8181,36 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
-      </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>2023年05月08日</t>
+          <t>2023年02月20日</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>《暗黑地牢2》是一场有去无回的类Rogue公路旅行。组建一支队伍，武装你的驿站马车，然后驱车横穿日益腐朽的大地，在末日浩劫中追寻最后一线希望。但是务必当心：最大的威胁，或许正是你的心魔……&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;鼓起勇气，驱车直入这土崩瓦解的乱世。&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;四名英雄，一辆马车，便是这世界坠入万劫不复前的最后屏障。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/DD2-Driving-1-630x200.gif?t=1692372754" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;历久弥新的回合制战斗&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;《暗黑地牢》中一鸣惊人、奠定系列基础的战斗系统回归，但从数值到规则的一切都得到了改进和优化。全新的标记系统会让你的决策更有意义，同时也让玩法更有深度。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/DD2-Combat-2-630x300.gif?t=1692372754" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;令人难忘的英雄&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;发掘并亲历每名英雄的悲情故事。通过技能、道途、物品和更多选择来解锁他们完整的力量。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/DD2-Story-1-630x300.gif?t=1692372754" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;类Rogue冒险，每轮都有新的故事&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;每场征程的持续时间为30分钟至数个小时。即使出师未捷身先死，你也会获得资源奖励，为你后续的旅程提供助力。&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;希望祭坛&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;得益于庞大的升级与奖励系统，每场征程都会有新的策略可供尝试。选择对于你来说最重要的东西，构建独特的策略向山峰发起冲击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/DD2-Altar-1-630x300.gif?t=1692372754" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;和睦系统&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;随着每次旅程的进展，英雄们或是会彼此建立纽带，或是会相互结下梁子；前者能带来雪中送炭的战斗配合，而后者则往往将团队引向灭亡。管理英雄们的压力和互动，才能让他们团结一致，携手赴死。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/inseparable_600w.jpg?t=1692372754" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;噩梦般的环境&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;从烈火滔天的陌城到疫病肆虐的腐宴，通往山峰的漫漫前路将会对你的决策能力和忍耐力发起挑战。&lt;br&gt;&lt;br&gt;探索五个迥然不同的地区，每个地区都有其独特的生物和挑战。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/DD2-Driving-2-630x200.gif?t=1692372754" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;片刻安宁&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;酒馆可以供历尽艰险、心神不宁的英雄们歇息，在那里你可以用一系列奇珍杂物缓解他们的压力，并尝试让他们变得更加和睦。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/DD2-Inn-1-630x200.gif?t=1692372754" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;直面你的失败&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;跋山涉水前往山峰，直面你的五个弱点的可怖具象。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/Mountain-DRIVING_600w.png?t=1692372754" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;标志性的美术风格更上一层楼&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;为《暗黑地牢》系列奠基的美术得到了全方位的提升，倾情演绎3D美术，动画及视觉效果。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/DD2-Combat-1-630x300.gif?t=1692372754" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;听觉盛宴&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;《暗黑地牢》的音频团队再度回归。尽享由 Wayne June 配音的全新剧情叙事，来自 Stuart Chatwood 的绕梁不散的原声音轨，以及来自 Power Up Audio 那粉身碎骨般的音效。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/jester_600w.png?t=1692372754" /&gt;&lt;h2 class="bb_tag"&gt;游玩系列源起之作！&lt;/h2&gt;&lt;a href="https://store.steampowered.com/app/262060/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/262060/&lt;/a&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1934080/extras/1龙.gif?t=1693900239" /&gt;&lt;br&gt;《浮生箓2：九九行歌》是一款沙盒类修仙游戏，玩家可以自由定义角色属性，与游戏中的各类NPC实时互动，体验元素丰富的冒险地图和回合制战斗。并随着游戏进程发展加入风格各异的修仙宗门，从外门弟子做起直至手握宗门权柄，叱咤一方；在一路越境破阶的过程中逐步推动剧情发展，揭露天地异变真相，并通过自己的抉择影响游戏世界的命运走向。&lt;br&gt;----------------------------------------------------------------------------------------------------&lt;br&gt;&lt;strong&gt;一、开放自由的探索体验&lt;/strong&gt;&lt;br&gt;&lt;br&gt;游戏内现已上线了太古大荒和天元州两张大地图，其中包含丰富的探索要素。玩家不仅可以拜入宗门学习功法晋升职位，也可以在各个城镇间游走，提升实力，放松身心；散落各地的村庄会发布委托任务，也会随着游戏进程动态演变；隐藏各地的副本秘境也是挑战强敌、获取秘宝的好去处。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1934080/extras/2大地图.gif?t=1693900239" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;二、真实有趣的关系互动&lt;/strong&gt;&lt;br&gt;&lt;br&gt;随着NPC交互系统的不断丰富和完善，玩家将有机会与游戏世界里的陌路人发生更多的故事。你可以与他们维持淡淡如水的点头之交，一起坐而论道，互通有无，为一点灵石讨价还价；亦可主动出击，四处留情，寻得知己同修道心；或者干脆为非作歹，肆意偷窃挑衅他人，享受全性随心的快乐。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1934080/extras/3NPC.gif?t=1693900239" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;三、体量庞大的剧情文库&lt;/strong&gt;&lt;br&gt;&lt;br&gt;制作组为浮生箓修仙世界配置了一条清晰连贯的主线剧情任务，在主线流程未涉足的地方也准备了将近300个随机事件、30个支线剧情供大家去探索和体验，与形形色色的NPC发生各种各样的交互。游戏的剧情文本量将达到20万字左右，足以让各位玩家在修行之余体会世间百味。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1934080/extras/4随机事件.gif?t=1693900239" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;四、内容翔实的特色玩法&lt;/strong&gt;&lt;br&gt;&lt;br&gt;在制作组全员的不懈努力下，游戏内的城镇玩法内容进行了大拓展。炼丹坊、酒馆、青楼等建筑新增了大量关卡和剧情内容，更多的分店陆续开张，全新的NPC和故事等着各位去探索和体验；锻造坊也已重燃炉火，装备锻造系统正式上线；斗兽场中的灵兽业已准备就绪，等待各位玩家投下重注。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1934080/extras/5城镇玩法.gif?t=1693900239" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;五、焕然一新的战斗体验&lt;/strong&gt;&lt;br&gt;&lt;br&gt;全新五大宗门剑、葫芦、宝幡、宝镜、妖丹。在全新的回合制战斗框架下，玩家可以自由搭配技能，自主设置释放顺序形成输出COMBO，以及可以和NPC组队战斗，充分享受克敌制胜的乐趣。战斗副本中的敌人种类、怪物数量、战斗场景业已经过大幅扩容，以期最大限度保证战斗过程的差异化和新鲜感。突破玩法加入各种战斗，金丹需要渡劫，筑基可以御剑飞行,修仙世界等你来体验。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1934080/extras/6新战斗.gif?t=1693900239" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;六、职位提升的宗门玩法&lt;/strong&gt;&lt;br&gt;&lt;br&gt;在本作的宗门体系设计，只有最底层的弟子才会被分配去处理杂务。随着职位的提升，玩家将相应拥有更多的权限，深度参与到宗门的发展与建设当中，小到弟子管理、任务委派，大到宗门冲突、势力扩张，充分体验经营管理的乐趣。修仙世界不只有打打杀杀，还有人情世故。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1934080/extras/7宗门.gif?t=1693900239" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>1946700</t>
+          <t>1940340</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Layers of Fear</t>
+          <t>Darkest Dungeon® II</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>层层恐惧</t>
+          <t>暗黑地牢2</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>心理恐怖,第一人称,冒险,剧情丰富,探索</t>
+          <t>回合制战术,黑暗奇幻,轻度 Rogue,迷宫探索,洛夫克拉夫特式</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -8220,39 +8220,39 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>2023年06月16日</t>
+          <t>2023年05月08日</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>画布等待着它的最后笔触。舞台需要它的主角。小说需要它的终章。是时候面对你的恐惧了。最后一次。&lt;br&gt;&lt;br&gt;该系列在叙事驱动的第一人称心理恐怖游戏中留下了印记，在《Layers of Fear》中讲述了最后一个令人毛骨悚然的故事。该系列的巅峰之作是体验备受好评游戏系列的终极方式，其中包括《Layers of Fear》和《Layers of Fear 2》，以及所有DLC（包括最新的《The Final Note》DLC，将为你提供有关《Layers of Fear》故事情节的新视角），以及从未被讲述过的“作家”的故事，将游戏的所有情节联系在一起。《Layers of Fear》采用虚幻引擎5构建，支持光线追踪、HDR和4K分辨率，让令人惊叹的视觉效果和噩梦般的体验尽可能地身临其境和逼真。&lt;br&gt;&lt;br&gt;&lt;strong&gt;Layers of Fear - 创作你自己的巨著&lt;/strong&gt;&lt;br&gt;&lt;br&gt;“你真正渴望的唯一珍贵之物……将它完成。”&lt;br&gt;&lt;br&gt;在游戏中，你将扮演一位名为“画家”的角色，探索一个堆满艺术品的维多利亚式豪宅。画家的精神状态就像画布上的旧颜料一样破碎和崩溃。在试图逃离过去的同时，你需要在不断变化的房子里寻找材料，完成你的杰作。&lt;br&gt;&lt;strong&gt;Inheritance DLC - 面对你的过去 &lt;/strong&gt;&lt;br&gt;&lt;br&gt;“有人曾告诉我，我的家人精神错乱了……是时候结束这一切了。”&lt;br&gt;&lt;br&gt;你将扮演画家的女儿，寻找答案。这座豪宅到底隐藏着什么秘密？你是否真正理解父亲所遭受的苦难？你愿意原谅他吗？这座豪宅有你想要知道的一切……如果你愿意重温过去的话。&lt;br&gt;&lt;br&gt;&lt;strong&gt;The Final Note DLC - 更深入地挖掘真相&lt;/strong&gt;&lt;br&gt;&lt;br&gt;这个全新的DLC旨在更多地揭示画家、他的灵感和家庭背景。故事由画家的妻子所讲述。这个额外的叙述可能会改变你对第一部游戏中的角色以及他们行为的看法。&lt;br&gt;&lt;br&gt;&lt;strong&gt;Layers of Fear 2 - 达成你的目标&lt;/strong&gt;&lt;br&gt;&lt;br&gt;“时间不等人，演员。不要浪费我们的时间。” &lt;br&gt;&lt;br&gt;你是在一艘远洋客轮上拍摄的电影的主角，但一切并不像表面上看起来的那样。探索这客轮，找出你为什么是导演（由托尼·托德配音）最新电影最佳人选的原因。你醒了过来，然后就听到了“开拍”的指令。但你会服从导演的安排吗？&lt;br&gt;&lt;br&gt;灯塔篇 - 关联整个游戏系列&lt;br&gt;&lt;br&gt;以全新主角“作家”的身份进入一座孤独而阴森的灯塔，发现一个从未被讲述过的故事，它将把整个系列联系在一起。那里有什么在等着你？只能自己去发现。&lt;br&gt;&lt;br&gt;游戏特色：&lt;br&gt;&lt;ul class="bb_ul"&gt;'- 探索令人惶恐不安的环境，破解怪诞诡奇的谜题，揭开第一人称心理恐怖体验的核心叙事。&lt;/ul&gt;&lt;ul class="bb_ul"&gt;'- 三个痴迷于手工艺的主人公（画家、演员和作家）的不同故事交织在一起，创造出真正身临其境的体验和扣人心弦的故事情节。&lt;/ul&gt;&lt;ul class="bb_ul"&gt;'- 你会在《Layers of Fear》系列，包括所有DLC的细节中找到你想要的答案。&lt;/ul&gt;&lt;ul class="bb_ul"&gt;'- 全新的核心机制以及额外功能将被引入《Layers of Fear》及其续作，因此所有章节和故事将无缝融合。&lt;/ul&gt;&lt;ul class="bb_ul"&gt;'- 通过虚幻引擎5中完全重制，《Layers of Fear》支持光线追踪、HDR以及4K分辨率，让视觉效果更加逼真。 &lt;/ul&gt;&lt;ul class="bb_ul"&gt;'- 全新的Lumen系统为你带来最身临其境和最真切的恐怖体验。&lt;/ul&gt;&lt;ul class="bb_ul"&gt;'- 由备受赞誉和屡获殊荣的作曲家Arek Reikowski创作的令人难忘的优美配乐。他谱写了一首宁静舒缓的配乐，为游戏增添了一层额外的紧张感，让你始终沉浸在紧张万分的游戏氛围中。&lt;/ul&gt;</t>
+          <t>《暗黑地牢2》是一场有去无回的类Rogue公路旅行。组建一支队伍，武装你的驿站马车，然后驱车横穿日益腐朽的大地，在末日浩劫中追寻最后一线希望。但是务必当心：最大的威胁，或许正是你的心魔……&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;鼓起勇气，驱车直入这土崩瓦解的乱世。&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;四名英雄，一辆马车，便是这世界坠入万劫不复前的最后屏障。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/DD2-Driving-1-630x200.gif?t=1692372754" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;历久弥新的回合制战斗&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;《暗黑地牢》中一鸣惊人、奠定系列基础的战斗系统回归，但从数值到规则的一切都得到了改进和优化。全新的标记系统会让你的决策更有意义，同时也让玩法更有深度。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/DD2-Combat-2-630x300.gif?t=1692372754" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;令人难忘的英雄&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;发掘并亲历每名英雄的悲情故事。通过技能、道途、物品和更多选择来解锁他们完整的力量。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/DD2-Story-1-630x300.gif?t=1692372754" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;类Rogue冒险，每轮都有新的故事&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;每场征程的持续时间为30分钟至数个小时。即使出师未捷身先死，你也会获得资源奖励，为你后续的旅程提供助力。&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;希望祭坛&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;得益于庞大的升级与奖励系统，每场征程都会有新的策略可供尝试。选择对于你来说最重要的东西，构建独特的策略向山峰发起冲击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/DD2-Altar-1-630x300.gif?t=1692372754" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;和睦系统&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;随着每次旅程的进展，英雄们或是会彼此建立纽带，或是会相互结下梁子；前者能带来雪中送炭的战斗配合，而后者则往往将团队引向灭亡。管理英雄们的压力和互动，才能让他们团结一致，携手赴死。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/inseparable_600w.jpg?t=1692372754" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;噩梦般的环境&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;从烈火滔天的陌城到疫病肆虐的腐宴，通往山峰的漫漫前路将会对你的决策能力和忍耐力发起挑战。&lt;br&gt;&lt;br&gt;探索五个迥然不同的地区，每个地区都有其独特的生物和挑战。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/DD2-Driving-2-630x200.gif?t=1692372754" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;片刻安宁&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;酒馆可以供历尽艰险、心神不宁的英雄们歇息，在那里你可以用一系列奇珍杂物缓解他们的压力，并尝试让他们变得更加和睦。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/DD2-Inn-1-630x200.gif?t=1692372754" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;直面你的失败&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;跋山涉水前往山峰，直面你的五个弱点的可怖具象。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/Mountain-DRIVING_600w.png?t=1692372754" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;标志性的美术风格更上一层楼&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;为《暗黑地牢》系列奠基的美术得到了全方位的提升，倾情演绎3D美术，动画及视觉效果。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/DD2-Combat-1-630x300.gif?t=1692372754" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;听觉盛宴&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;《暗黑地牢》的音频团队再度回归。尽享由 Wayne June 配音的全新剧情叙事，来自 Stuart Chatwood 的绕梁不散的原声音轨，以及来自 Power Up Audio 那粉身碎骨般的音效。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/jester_600w.png?t=1692372754" /&gt;&lt;h2 class="bb_tag"&gt;游玩系列源起之作！&lt;/h2&gt;&lt;a href="https://store.steampowered.com/app/262060/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/262060/&lt;/a&gt;</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>1948280</t>
+          <t>1946700</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Stacklands</t>
+          <t>Layers of Fear</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>堆叠大陆</t>
+          <t>层层恐惧</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>卡牌战斗,卡牌游戏,管理,生存,轻度 Rogue</t>
+          <t>心理恐怖,第一人称,冒险,剧情丰富,探索</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8262,39 +8262,39 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>2022年04月09日</t>
+          <t>2023年06月16日</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;&lt;u&gt;《Stacklands》&lt;/u&gt;&lt;/strong&gt;是一一款村庄建设游戏，你可以在那里堆叠卡牌以收集食物、修建建筑、并与各种生物战斗。&lt;br&gt;&lt;br&gt;例如，将“村民”卡牌拖至“浆果灌木”顶部将会生成“浆果”卡牌，村民们可以吃这些浆果卡牌来生存！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948280/extras/stacklands_1_400px.gif?t=1692866202" /&gt;&lt;br&gt;&lt;br&gt;&lt;u&gt;&lt;strong&gt;出售卡牌&lt;/strong&gt;&lt;/u&gt; �&lt;br&gt;你还可以出售卡牌以获得硬币，然后使用硬币购买卡包。卡包里有多张卡牌，可以用来扩大你的村庄。每个卡包都有一个主题，如烹饪、农业或修建。&lt;br&gt;&lt;br&gt;在每个月亮年结束时，你需要喂饱所有村民——所以要确保有足够的食物，否则你得村民会挨饿！�&lt;br&gt;&lt;br&gt;&lt;u&gt;&lt;strong&gt;特点&lt;/strong&gt;&lt;/u&gt; �&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;🃏 200+ 张可收集的卡牌&lt;br&gt;&lt;/li&gt;&lt;li&gt;💡 60+个可找到的主意&lt;br&gt;&lt;/li&gt;&lt;li&gt;✅ 80+ 个可完成的任务&lt;br&gt;&lt;/li&gt;&lt;li&gt;📦 13 个不同的可购买的卡包&lt;br&gt;&lt;/li&gt;&lt;li&gt;🕒 5-7 小时的游戏时间&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;u&gt;&lt;strong&gt;战斗&lt;/strong&gt;&lt;/u&gt; �&lt;br&gt;村民遇到邪恶生物时会自动加入战斗。与小妖精、熊、老鼠等生物战斗！通过向村民提供武器或者让他们组队，来提高村民的战斗能力！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948280/extras/stacklands_2_400px.gif?t=1692866202" /&gt;&lt;br&gt;&lt;br&gt;&lt;u&gt;&lt;strong&gt;找到主意&lt;/strong&gt;&lt;/u&gt; �&lt;br&gt;通过找到主意卡牌来扩展你的知识面。主意卡牌将告诉你如何创造新卡牌，如：堆叠2块木材、1块石头和1个村民来修建房子。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948280/extras/stacklands_3_400px.gif?t=1692866202" /&gt;</t>
+          <t>画布等待着它的最后笔触。舞台需要它的主角。小说需要它的终章。是时候面对你的恐惧了。最后一次。&lt;br&gt;&lt;br&gt;该系列在叙事驱动的第一人称心理恐怖游戏中留下了印记，在《Layers of Fear》中讲述了最后一个令人毛骨悚然的故事。该系列的巅峰之作是体验备受好评游戏系列的终极方式，其中包括《Layers of Fear》和《Layers of Fear 2》，以及所有DLC（包括最新的《The Final Note》DLC，将为你提供有关《Layers of Fear》故事情节的新视角），以及从未被讲述过的“作家”的故事，将游戏的所有情节联系在一起。《Layers of Fear》采用虚幻引擎5构建，支持光线追踪、HDR和4K分辨率，让令人惊叹的视觉效果和噩梦般的体验尽可能地身临其境和逼真。&lt;br&gt;&lt;br&gt;&lt;strong&gt;Layers of Fear - 创作你自己的巨著&lt;/strong&gt;&lt;br&gt;&lt;br&gt;“你真正渴望的唯一珍贵之物……将它完成。”&lt;br&gt;&lt;br&gt;在游戏中，你将扮演一位名为“画家”的角色，探索一个堆满艺术品的维多利亚式豪宅。画家的精神状态就像画布上的旧颜料一样破碎和崩溃。在试图逃离过去的同时，你需要在不断变化的房子里寻找材料，完成你的杰作。&lt;br&gt;&lt;strong&gt;Inheritance DLC - 面对你的过去 &lt;/strong&gt;&lt;br&gt;&lt;br&gt;“有人曾告诉我，我的家人精神错乱了……是时候结束这一切了。”&lt;br&gt;&lt;br&gt;你将扮演画家的女儿，寻找答案。这座豪宅到底隐藏着什么秘密？你是否真正理解父亲所遭受的苦难？你愿意原谅他吗？这座豪宅有你想要知道的一切……如果你愿意重温过去的话。&lt;br&gt;&lt;br&gt;&lt;strong&gt;The Final Note DLC - 更深入地挖掘真相&lt;/strong&gt;&lt;br&gt;&lt;br&gt;这个全新的DLC旨在更多地揭示画家、他的灵感和家庭背景。故事由画家的妻子所讲述。这个额外的叙述可能会改变你对第一部游戏中的角色以及他们行为的看法。&lt;br&gt;&lt;br&gt;&lt;strong&gt;Layers of Fear 2 - 达成你的目标&lt;/strong&gt;&lt;br&gt;&lt;br&gt;“时间不等人，演员。不要浪费我们的时间。” &lt;br&gt;&lt;br&gt;你是在一艘远洋客轮上拍摄的电影的主角，但一切并不像表面上看起来的那样。探索这客轮，找出你为什么是导演（由托尼·托德配音）最新电影最佳人选的原因。你醒了过来，然后就听到了“开拍”的指令。但你会服从导演的安排吗？&lt;br&gt;&lt;br&gt;灯塔篇 - 关联整个游戏系列&lt;br&gt;&lt;br&gt;以全新主角“作家”的身份进入一座孤独而阴森的灯塔，发现一个从未被讲述过的故事，它将把整个系列联系在一起。那里有什么在等着你？只能自己去发现。&lt;br&gt;&lt;br&gt;游戏特色：&lt;br&gt;&lt;ul class="bb_ul"&gt;'- 探索令人惶恐不安的环境，破解怪诞诡奇的谜题，揭开第一人称心理恐怖体验的核心叙事。&lt;/ul&gt;&lt;ul class="bb_ul"&gt;'- 三个痴迷于手工艺的主人公（画家、演员和作家）的不同故事交织在一起，创造出真正身临其境的体验和扣人心弦的故事情节。&lt;/ul&gt;&lt;ul class="bb_ul"&gt;'- 你会在《Layers of Fear》系列，包括所有DLC的细节中找到你想要的答案。&lt;/ul&gt;&lt;ul class="bb_ul"&gt;'- 全新的核心机制以及额外功能将被引入《Layers of Fear》及其续作，因此所有章节和故事将无缝融合。&lt;/ul&gt;&lt;ul class="bb_ul"&gt;'- 通过虚幻引擎5中完全重制，《Layers of Fear》支持光线追踪、HDR以及4K分辨率，让视觉效果更加逼真。 &lt;/ul&gt;&lt;ul class="bb_ul"&gt;'- 全新的Lumen系统为你带来最身临其境和最真切的恐怖体验。&lt;/ul&gt;&lt;ul class="bb_ul"&gt;'- 由备受赞誉和屡获殊荣的作曲家Arek Reikowski创作的令人难忘的优美配乐。他谱写了一首宁静舒缓的配乐，为游戏增添了一层额外的紧张感，让你始终沉浸在紧张万分的游戏氛围中。&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>1948980</t>
+          <t>1948280</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>大侠立志传：碧血丹心</t>
+          <t>Stacklands</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>大侠立志传：碧血丹心</t>
+          <t>堆叠大陆</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>角色扮演,武术,开放世界,策略,独立</t>
+          <t>卡牌战斗,卡牌游戏,管理,生存,轻度 Rogue</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8304,39 +8304,39 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2023年03月08日</t>
+          <t>2022年04月09日</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;游戏抢先体验版已发售&lt;/strong&gt;，我们准备了&lt;strong&gt;开发进度板&lt;/strong&gt;，大家可以随时查阅我们当前的工作进展&lt;br&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://trello.com/b/X8yHzhnK" target="_blank" rel=" noopener"  &gt;https://trello.com/b/X8yHzhnK&lt;/a&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/企业微信截图_16929672375556.png?t=1693895121" /&gt;&lt;br&gt;&lt;br&gt;后续更新计划通过&lt;strong&gt;【更新Roadmap线路图】&lt;/strong&gt;与大家同步。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/大侠立志传-更新长图2395.png?t=1693895121" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;这是一款像素版江湖生存模拟器，你将扮演一个初出茅庐的市井小人物，体验多样身份，在江湖中摸爬滚打，最终脱颖而出。&lt;h2 class="bb_tag"&gt;游戏特色&lt;/h2&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 【百余种武学功法】&lt;br&gt;拳掌刀剑，枪棍音律，内外兼修，皆可自行搭配。成为十字坡剑圣，亦可精通百家所长。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/武功.gif?t=1693895121" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt; 【多分支走向】&lt;br&gt;游戏中没有真正意义上的主线，在充满抉择的江湖中从心选择吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/选择.gif?t=1693895121" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;【丰富的NPC交互玩法】&lt;br&gt;结交五都侠客（侣），游走于盘杂的人际势力，经营你的江湖关系网。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/洪小气.gif?t=1693895121" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;【奇遇和危险并存的真实武林】&lt;br&gt;江湖并非非黑即白，遇事不一定要用拳头解决，采取多种方式应对，并坦然接受不一样的结局。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/牢房1.gif?t=1693895121" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;【充满烟火气息的像素武侠世界】&lt;br&gt;游戏中有着自然流逝的时间，各色NPC都有自己独立的行为AI。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/日夜.gif?t=1693895121" /&gt;&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;目前已开放官方玩家群，群内会同步更新一手情报，举办内测及其他福利活动，还有机会偶遇隐藏NPC半瓶神仙醋，欢迎各位少侠加入一起参与讨论！&lt;br&gt;官方玩家27群：619959310 &lt;br&gt;官方玩家25群：724208742&lt;br&gt;官方玩家26群：722736145&lt;br&gt;官方玩家24群：102223136（已满）&lt;br&gt;官方玩家23群：213116717（已满）&lt;br&gt;官方玩家22群：343709025（已满）&lt;br&gt;官方玩家21群：550219413 （已满）&lt;br&gt;官方玩家20群：295390373（已满）&lt;br&gt;官方玩家19群：611246285（已开放）&lt;br&gt;官方玩家18群：165072814（已开放）&lt;br&gt;官方玩家17群 ：801310302 （已开放）&lt;br&gt;官方玩家16群 ：753444235 （已开放）&lt;br&gt;官方玩家15群 ：141480592 （已开放）&lt;br&gt;官方玩家14群： 728897240 （已开放）&lt;br&gt;官方玩家13群 ：801291993（已满）&lt;br&gt;官方玩家12群 ：863498517（已满）&lt;br&gt;官方玩家11群： 801256045（已满）&lt;br&gt;官方玩家10群 ：367248548 （已满）&lt;br&gt;官方玩家9群 ：801146478（已满）&lt;br&gt;官方玩家8群 ：683263874（已满）&lt;br&gt;官方玩家7群 ：679566481 （已开放）&lt;br&gt;官方玩家6群： 926229186 （已开放）&lt;br&gt;官方玩家5群：926111719 （已开放）&lt;br&gt;官方玩家4群：826179621 （已开放）&lt;br&gt;官方玩家3群：753982506 （已开放）&lt;br&gt;官方玩家2群：1169723804 （已开放）&lt;br&gt;官方玩家1群：597962931 （已满）</t>
+          <t>&lt;strong&gt;&lt;u&gt;《Stacklands》&lt;/u&gt;&lt;/strong&gt;是一一款村庄建设游戏，你可以在那里堆叠卡牌以收集食物、修建建筑、并与各种生物战斗。&lt;br&gt;&lt;br&gt;例如，将“村民”卡牌拖至“浆果灌木”顶部将会生成“浆果”卡牌，村民们可以吃这些浆果卡牌来生存！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948280/extras/stacklands_1_400px.gif?t=1692866202" /&gt;&lt;br&gt;&lt;br&gt;&lt;u&gt;&lt;strong&gt;出售卡牌&lt;/strong&gt;&lt;/u&gt; �&lt;br&gt;你还可以出售卡牌以获得硬币，然后使用硬币购买卡包。卡包里有多张卡牌，可以用来扩大你的村庄。每个卡包都有一个主题，如烹饪、农业或修建。&lt;br&gt;&lt;br&gt;在每个月亮年结束时，你需要喂饱所有村民——所以要确保有足够的食物，否则你得村民会挨饿！�&lt;br&gt;&lt;br&gt;&lt;u&gt;&lt;strong&gt;特点&lt;/strong&gt;&lt;/u&gt; �&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;🃏 200+ 张可收集的卡牌&lt;br&gt;&lt;/li&gt;&lt;li&gt;💡 60+个可找到的主意&lt;br&gt;&lt;/li&gt;&lt;li&gt;✅ 80+ 个可完成的任务&lt;br&gt;&lt;/li&gt;&lt;li&gt;📦 13 个不同的可购买的卡包&lt;br&gt;&lt;/li&gt;&lt;li&gt;🕒 5-7 小时的游戏时间&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;u&gt;&lt;strong&gt;战斗&lt;/strong&gt;&lt;/u&gt; �&lt;br&gt;村民遇到邪恶生物时会自动加入战斗。与小妖精、熊、老鼠等生物战斗！通过向村民提供武器或者让他们组队，来提高村民的战斗能力！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948280/extras/stacklands_2_400px.gif?t=1692866202" /&gt;&lt;br&gt;&lt;br&gt;&lt;u&gt;&lt;strong&gt;找到主意&lt;/strong&gt;&lt;/u&gt; �&lt;br&gt;通过找到主意卡牌来扩展你的知识面。主意卡牌将告诉你如何创造新卡牌，如：堆叠2块木材、1块石头和1个村民来修建房子。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948280/extras/stacklands_3_400px.gif?t=1692866202" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>1956800</t>
+          <t>1948980</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Thriving City: Song</t>
+          <t>大侠立志传：碧血丹心</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>满庭芳：宋上繁华</t>
+          <t>大侠立志传：碧血丹心</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>抢先体验,模拟,策略,城市营造,历史</t>
+          <t>角色扮演,武术,开放世界,策略,独立</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8346,39 +8346,39 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>2023年04月21日</t>
+          <t>2023年03月08日</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/UpdatePlan_23.7.27_cn.jpg?t=1690628241" /&gt;&lt;br&gt;抢先体验版现已发售！保姆级攻略请&lt;a href="https://steamcommunity.com/sharedfiles/filedetails/?id=2971536870" target="_blank" rel=""  &gt;点击这里&lt;/a&gt;查看。&lt;h2 class="bb_tag"&gt;《满庭芳·宋上繁华》是一款融合了历史、剧情、策略等元素的古风题材城市建造类游戏。&lt;/h2&gt;身为县官， 你需要安置百姓、开荒扩土、供给食物，保障其生活所需，也要聆听百姓心声，在避免城市灾害与犯罪的同时实现百姓安居乐业的政绩目标。然而当皇帝下达不可违背的国家政令，当敌国大举入侵你的家园，当党派的尔虞我诈影响你的城市发展，你将采取什么策略来面对这场历史洪流？而这一切，是否真的会因你而改变？&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/chengshi.gif?t=1690628241" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/steam_---.png?t=1690628241" /&gt;&lt;h2 class="bb_tag"&gt;游戏特点：&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;尽可能还原宋朝的历史，5个北宋时期的剧情章节带你回顾王朝的兴衰&lt;br&gt;&lt;/li&gt;&lt;li&gt;细致考究、参考博物馆与历史文献，还原宋朝建筑、行业、职业和服饰&lt;br&gt;&lt;/li&gt;&lt;li&gt;手绘国风的画面，细致的建筑和市民动画，浓厚真实的中国味道&lt;br&gt;&lt;/li&gt;&lt;li&gt;写实的财政经济系统，结合农业、制造业、民生和科学技术，需要慎重考虑发展策略和方向&lt;br&gt;&lt;/li&gt;&lt;li&gt;幸福网，灌溉网，建筑combo，需要仔细布局城市&lt;br&gt;&lt;/li&gt;&lt;li&gt;应对灾害疫病，抵御外族入侵，从一个破败的小村庄，发展到2000+市民同屏的繁华城市，成就一番图景&lt;br&gt;&lt;/li&gt;&lt;li&gt;完全自由的无尽模式，创造属于你的繁华市井。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/steam_---.png?t=1690628241" /&gt;&lt;h2 class="bb_tag"&gt;玩法介绍：&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/一朝兴衰，参与见证_s.png?t=1690628241" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/yichaoxingshuai.gif?t=1690628241" /&gt;&lt;br&gt;游戏的剧情模式，将带领玩家体验大宋王朝的历史变迁。由于参考真实历史，所以“时间“概念尤为重要。随着游戏时间的推进，你会完成来自皇帝的一道道诏令；参与每个不同时期里发生的重大历史事件，并做出决策，引领城镇走出属于自己的命运。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/百肆林立，规划发展_s.png?t=1690628241" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/baisilinli.gif?t=1690628241" /&gt;&lt;br&gt;城镇的发展离不开建设规划，你需要合理调配人手，及时收集自然资源、营造各类生产及生活设施。充分运用建筑间的连携相性作用增加整体收益，进一步确保百姓衣食住行样样齐备，打造出一个安居乐业的理想家园。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/商旅云集，车水马龙_s.png?t=1690628241" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/shanglvyunji.gif?t=1690628241" /&gt;&lt;br&gt;斗香大会、诵经听曲、多样化饮食，除了保证百姓基础温饱之外，你还需要丰富文娱生活，提升百姓幸福度，吸引游客消费，以增加铜钱收入。而有进就有出，维护费、俸禄等贴近现实设计，让铜钱成为独立于所有资源外、维持城市运转的一种重要存在。合理摆放各色的市井建筑以增加城市的经济收益，仔细规划好资源、人口、经济之间的平衡，才能打造出令百姓赞颂的繁华城镇。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/广纳贤士，大兴科举_s.png?t=1690628241" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/zhaonaxianshi.gif?t=1690628241" /&gt;&lt;br&gt;除了香铺酒楼、莺歌燕楼等娱乐设施能够为你的城镇吸引更多的外来人口及游客。发展学术培养学子，参加科举金榜题名也能为城市提供更丰厚的财政收入。聘用高人逸士为城市叠加收益buff，让城镇的发展更上一层楼，形成良性循环。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/治安巡逻，护城安定_s.png?t=1690628241" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/zhandou.gif?t=1690628241" /&gt;&lt;br&gt;你的城镇并不会永远太平，伴随着城市的发展，你需要建设牢狱防范实施烧杀抢掠的罪犯，随时警惕卧底在城镇中的土匪探子。除此之外，还需要安内攘外，修筑城墙箭塔，屯养民兵弓箭手抵御外敌入侵。你的百姓，将由你来守护。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/守国在政，行政在人_s.png?t=1690628241" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/shouguozaizheng.gif?t=1690628241" /&gt;&lt;br&gt;要成为一名合格的县官，你需要随时对着账簿查漏补缺，为下一年做好统筹规划。创新发展科技树，提升整体生产力。除此之外还要开启政策辅助你的治理，通过对不同政策的研究组合能大大提升你管理城镇的效率。然而并不是每一项政策都能使你获益，当面临短时间增加产出但是会对民生造成影响时，你当如何？</t>
+          <t>&lt;strong&gt;游戏抢先体验版已发售&lt;/strong&gt;，我们准备了&lt;strong&gt;开发进度板&lt;/strong&gt;，大家可以随时查阅我们当前的工作进展&lt;br&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://trello.com/b/X8yHzhnK" target="_blank" rel=" noopener"  &gt;https://trello.com/b/X8yHzhnK&lt;/a&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/企业微信截图_16929672375556.png?t=1693895121" /&gt;&lt;br&gt;&lt;br&gt;后续更新计划通过&lt;strong&gt;【更新Roadmap线路图】&lt;/strong&gt;与大家同步。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/大侠立志传-更新长图2395.png?t=1693895121" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;这是一款像素版江湖生存模拟器，你将扮演一个初出茅庐的市井小人物，体验多样身份，在江湖中摸爬滚打，最终脱颖而出。&lt;h2 class="bb_tag"&gt;游戏特色&lt;/h2&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 【百余种武学功法】&lt;br&gt;拳掌刀剑，枪棍音律，内外兼修，皆可自行搭配。成为十字坡剑圣，亦可精通百家所长。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/武功.gif?t=1693895121" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt; 【多分支走向】&lt;br&gt;游戏中没有真正意义上的主线，在充满抉择的江湖中从心选择吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/选择.gif?t=1693895121" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;【丰富的NPC交互玩法】&lt;br&gt;结交五都侠客（侣），游走于盘杂的人际势力，经营你的江湖关系网。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/洪小气.gif?t=1693895121" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;【奇遇和危险并存的真实武林】&lt;br&gt;江湖并非非黑即白，遇事不一定要用拳头解决，采取多种方式应对，并坦然接受不一样的结局。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/牢房1.gif?t=1693895121" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;【充满烟火气息的像素武侠世界】&lt;br&gt;游戏中有着自然流逝的时间，各色NPC都有自己独立的行为AI。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/日夜.gif?t=1693895121" /&gt;&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;目前已开放官方玩家群，群内会同步更新一手情报，举办内测及其他福利活动，还有机会偶遇隐藏NPC半瓶神仙醋，欢迎各位少侠加入一起参与讨论！&lt;br&gt;官方玩家27群：619959310 &lt;br&gt;官方玩家25群：724208742&lt;br&gt;官方玩家26群：722736145&lt;br&gt;官方玩家24群：102223136（已满）&lt;br&gt;官方玩家23群：213116717（已满）&lt;br&gt;官方玩家22群：343709025（已满）&lt;br&gt;官方玩家21群：550219413 （已满）&lt;br&gt;官方玩家20群：295390373（已满）&lt;br&gt;官方玩家19群：611246285（已开放）&lt;br&gt;官方玩家18群：165072814（已开放）&lt;br&gt;官方玩家17群 ：801310302 （已开放）&lt;br&gt;官方玩家16群 ：753444235 （已开放）&lt;br&gt;官方玩家15群 ：141480592 （已开放）&lt;br&gt;官方玩家14群： 728897240 （已开放）&lt;br&gt;官方玩家13群 ：801291993（已满）&lt;br&gt;官方玩家12群 ：863498517（已满）&lt;br&gt;官方玩家11群： 801256045（已满）&lt;br&gt;官方玩家10群 ：367248548 （已满）&lt;br&gt;官方玩家9群 ：801146478（已满）&lt;br&gt;官方玩家8群 ：683263874（已满）&lt;br&gt;官方玩家7群 ：679566481 （已开放）&lt;br&gt;官方玩家6群： 926229186 （已开放）&lt;br&gt;官方玩家5群：926111719 （已开放）&lt;br&gt;官方玩家4群：826179621 （已开放）&lt;br&gt;官方玩家3群：753982506 （已开放）&lt;br&gt;官方玩家2群：1169723804 （已开放）&lt;br&gt;官方玩家1群：597962931 （已满）</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>1963040</t>
+          <t>1956800</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>山门与幻境</t>
+          <t>Thriving City: Song</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>山门与幻境</t>
+          <t>满庭芳：宋上繁华</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>抢先体验,基地建设,轻度 Rogue,即时战术,建造</t>
+          <t>抢先体验,模拟,策略,城市营造,历史</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8388,39 +8388,39 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>2023年01月15日</t>
+          <t>2023年04月21日</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;&lt;h2 class="bb_tag"&gt;关于游戏&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;山门与幻境是一款独特的3D模拟经营+肉鸽（Roguelike）游戏。你将扮演归家的掌门之子，在如今萧瑟无人的仙山上重建山门，再现天下第一的辉煌。你需要带领弟子，收集资源、建造设施、炼丹、种植灵田、炼化法宝，并逐步发展壮大。你可以招募更多门人，锻炼他们的能力，再进入祖先的记忆幻境，与不同寻常的敌人战斗，获取宝物和知识。你将体会到作为一个掌门人的辛劳，也将感受到从零开始、建立繁荣仙山门派的成就感，并战胜幻境中强大的BOSS，每一局都从新启程，不同寻常！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1963040/extras/1.png?t=1693546950" /&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;自由的建设家园 &lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;自由的摆放建筑，让你的门派美观大方，打造属于自己的特色山门。为不同性格、天赋的弟子们分配任务，让他们采集、建造、工作、歇息、修炼！还能品茗、弈棋，模拟真实修仙。同时，你还可以炼器，炼丹，种植灵田，委派弟子完成山下历练，让整个门派富有生机和活力！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1963040/extras/2.png?t=1693546950" /&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;丰富的多周目系统&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;全新的地图：大气美观，山环水抱争萦纡，如蓬莱仙境！&lt;br&gt;&lt;/li&gt;&lt;li&gt;独立的剧情：不同门派有独立的剧情，每次都有不同的体验！&lt;br&gt;&lt;/li&gt;&lt;li&gt;全新的科技：不同门派增加门派特性，全新的科技玩法！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1963040/extras/3.png?t=1693546950" /&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;独特的战斗线路规划&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;更加自由地掌控整场战斗。每一次的攻击都需要玩家精准的操作，合理规划线路，配合弟子搭配功法律令打出完美的攻击，你将战无不胜。游戏中的战斗场面十分华丽震撼，丰富多样的关卡和角色形象设计，极致的视听享受和游戏体验。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1963040/extras/Battle.gif?t=1693546950" /&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;新奇的修仙玩法&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;培育自己的神兽：提高弟子潜能，和你一起进入幻境战斗&lt;br&gt;&lt;/li&gt;&lt;li&gt;挑战通天塔试炼：如面对潮水般涌来的怪物，如何完成挑战？&lt;br&gt;&lt;/li&gt;&lt;li&gt;探索珍宝阁：弟子的自动修炼、渡劫，阅珍贵秘籍，再现旷世奇遇。&lt;br&gt;&lt;/li&gt;&lt;li&gt;全新的道体：每个角色都拥有自己的战斗特性，召唤飞剑、分身复活等特殊属性&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1963040/extras/4.png?t=1693546950" /&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;隐藏在迷雾背后的故事&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;曾经繁荣的山门为何消失？远古幻境为何会瘴气和诅咒萦绕？祖先创立门派时又经历过怎样的恩怨？宿敌来临的时候，你是否能带领门派改变命运？随着游戏的推进，你将解锁许多不为人知的秘密。&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;沉浸的游戏体验&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;游戏为全3D场景构成，全面表现人物与建筑。&lt;br&gt;&lt;/li&gt;&lt;li&gt;充满东方韵味的画风，在古树清池边、奕亭茶舍中体会仙风道骨。&lt;br&gt;&lt;/li&gt;&lt;li&gt;独特艺术风格的音乐和文字，在掌门工作中保持心情愉悦。&lt;br&gt;&lt;/li&gt;&lt;li&gt;更多丰富的内容将一步步与你见面，敬请期待。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1963040/extras/5.png?t=1693546950" /&gt;&lt;br&gt;-----------------------------------------------------&lt;h2 class="bb_tag"&gt;4月更新计划📅&lt;/h2&gt;经历过3月的大更新后🔥，我们马不停蹄🐎已经筹划好了4月更新计划：&lt;h2 class="bb_tag"&gt;🏯试炼塔（近期更新）&lt;/h2&gt;门派将解锁镇妖塔🏯，玩家通过开启镇妖塔，派遣最精锐的弟子进入试炼。 这是一种全新的玩法，掌门可以带领弟子，🕹️手动操作团队，面对无尽的兽潮🐉，使用各种法宝💍，技能克敌制胜🥊，同时在战斗中不断升级自己的技能组合。&lt;h2 class="bb_tag"&gt;🥇门派比武&lt;/h2&gt;每隔30年，修仙界会有一场比武大会🏆，掌门可以带领最精锐的弟子，前往参加，共同争夺修仙世界第一门派的名号。PS：甚至可能会碰到你之前建立的门派😮。&lt;h2 class="bb_tag"&gt;👫弟子双修&lt;/h2&gt;弟子会有完整的社交关系，会在平时的工作修炼中和同门产生好感度❤️，并且根据好友度，产生不同的事件，甚至可以与异性弟子结为道侣💏，修行专属的功法。&lt;h2 class="bb_tag"&gt;💬弟子交流&lt;/h2&gt;弟子将会在门派频道📡进行聊天，你可以看他们谈天说地🗨️，聊修为心得，工作的事情，以及门派的发展，甚至还会看到他们在说你坏话🙊。&lt;h2 class="bb_tag"&gt;⏫试练塔的进阶（长期更新）&lt;/h2&gt;试练塔会拥有更多功能，我们会提供超过30个不同的新关卡🆕，超过10种全新的功法以及他们的升级方向，超过20种新的法宝等，供玩家闯荡，获取里面的宝物和资源💎。&lt;br&gt;同时也会添加更多的事件，比如在镇妖塔中营救弟子🆘，挖掘上古大能的遗迹等，用来建设自己的门派。&lt;h2 class="bb_tag"&gt;⚔️仙界攻防&lt;/h2&gt;玩家可以征伐其他修仙门派🚩，派遣精锐弟子攻打敌对门派，获得他们的镇派法宝和功法🏹。同时也有可能成为众矢之的🎯，受到其他门派的讨伐。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/UpdatePlan_23.7.27_cn.jpg?t=1690628241" /&gt;&lt;br&gt;抢先体验版现已发售！保姆级攻略请&lt;a href="https://steamcommunity.com/sharedfiles/filedetails/?id=2971536870" target="_blank" rel=""  &gt;点击这里&lt;/a&gt;查看。&lt;h2 class="bb_tag"&gt;《满庭芳·宋上繁华》是一款融合了历史、剧情、策略等元素的古风题材城市建造类游戏。&lt;/h2&gt;身为县官， 你需要安置百姓、开荒扩土、供给食物，保障其生活所需，也要聆听百姓心声，在避免城市灾害与犯罪的同时实现百姓安居乐业的政绩目标。然而当皇帝下达不可违背的国家政令，当敌国大举入侵你的家园，当党派的尔虞我诈影响你的城市发展，你将采取什么策略来面对这场历史洪流？而这一切，是否真的会因你而改变？&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/chengshi.gif?t=1690628241" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/steam_---.png?t=1690628241" /&gt;&lt;h2 class="bb_tag"&gt;游戏特点：&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;尽可能还原宋朝的历史，5个北宋时期的剧情章节带你回顾王朝的兴衰&lt;br&gt;&lt;/li&gt;&lt;li&gt;细致考究、参考博物馆与历史文献，还原宋朝建筑、行业、职业和服饰&lt;br&gt;&lt;/li&gt;&lt;li&gt;手绘国风的画面，细致的建筑和市民动画，浓厚真实的中国味道&lt;br&gt;&lt;/li&gt;&lt;li&gt;写实的财政经济系统，结合农业、制造业、民生和科学技术，需要慎重考虑发展策略和方向&lt;br&gt;&lt;/li&gt;&lt;li&gt;幸福网，灌溉网，建筑combo，需要仔细布局城市&lt;br&gt;&lt;/li&gt;&lt;li&gt;应对灾害疫病，抵御外族入侵，从一个破败的小村庄，发展到2000+市民同屏的繁华城市，成就一番图景&lt;br&gt;&lt;/li&gt;&lt;li&gt;完全自由的无尽模式，创造属于你的繁华市井。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/steam_---.png?t=1690628241" /&gt;&lt;h2 class="bb_tag"&gt;玩法介绍：&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/一朝兴衰，参与见证_s.png?t=1690628241" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/yichaoxingshuai.gif?t=1690628241" /&gt;&lt;br&gt;游戏的剧情模式，将带领玩家体验大宋王朝的历史变迁。由于参考真实历史，所以“时间“概念尤为重要。随着游戏时间的推进，你会完成来自皇帝的一道道诏令；参与每个不同时期里发生的重大历史事件，并做出决策，引领城镇走出属于自己的命运。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/百肆林立，规划发展_s.png?t=1690628241" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/baisilinli.gif?t=1690628241" /&gt;&lt;br&gt;城镇的发展离不开建设规划，你需要合理调配人手，及时收集自然资源、营造各类生产及生活设施。充分运用建筑间的连携相性作用增加整体收益，进一步确保百姓衣食住行样样齐备，打造出一个安居乐业的理想家园。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/商旅云集，车水马龙_s.png?t=1690628241" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/shanglvyunji.gif?t=1690628241" /&gt;&lt;br&gt;斗香大会、诵经听曲、多样化饮食，除了保证百姓基础温饱之外，你还需要丰富文娱生活，提升百姓幸福度，吸引游客消费，以增加铜钱收入。而有进就有出，维护费、俸禄等贴近现实设计，让铜钱成为独立于所有资源外、维持城市运转的一种重要存在。合理摆放各色的市井建筑以增加城市的经济收益，仔细规划好资源、人口、经济之间的平衡，才能打造出令百姓赞颂的繁华城镇。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/广纳贤士，大兴科举_s.png?t=1690628241" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/zhaonaxianshi.gif?t=1690628241" /&gt;&lt;br&gt;除了香铺酒楼、莺歌燕楼等娱乐设施能够为你的城镇吸引更多的外来人口及游客。发展学术培养学子，参加科举金榜题名也能为城市提供更丰厚的财政收入。聘用高人逸士为城市叠加收益buff，让城镇的发展更上一层楼，形成良性循环。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/治安巡逻，护城安定_s.png?t=1690628241" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/zhandou.gif?t=1690628241" /&gt;&lt;br&gt;你的城镇并不会永远太平，伴随着城市的发展，你需要建设牢狱防范实施烧杀抢掠的罪犯，随时警惕卧底在城镇中的土匪探子。除此之外，还需要安内攘外，修筑城墙箭塔，屯养民兵弓箭手抵御外敌入侵。你的百姓，将由你来守护。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/守国在政，行政在人_s.png?t=1690628241" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/shouguozaizheng.gif?t=1690628241" /&gt;&lt;br&gt;要成为一名合格的县官，你需要随时对着账簿查漏补缺，为下一年做好统筹规划。创新发展科技树，提升整体生产力。除此之外还要开启政策辅助你的治理，通过对不同政策的研究组合能大大提升你管理城镇的效率。然而并不是每一项政策都能使你获益，当面临短时间增加产出但是会对民生造成影响时，你当如何？</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>1967630</t>
+          <t>1963040</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Survival: Fountain of Youth</t>
+          <t>山门与幻境</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>求生岛：不老泉传说</t>
+          <t>山门与幻境</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>生存,开放世界生存制作,基地建设,探索,模拟</t>
+          <t>抢先体验,基地建设,轻度 Rogue,即时战术,建造</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8430,52 +8430,94 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>2023年04月19日</t>
+          <t>2023年01月15日</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/G6WgWMSa3U" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1967630/extras/discord_banner_620.png?t=1691657923" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;游戏灵感来源于航海大发现时代的真实历史事件，玩家将扮演寻找传说中不老泉的胡安·庞塞·德莱昂探险队的一份子，在船难事故中险象环生。船难过后，现在你必须学会在这片无人之地独立生存：制作工具，修建庇护所，狩猎并击退捕食者。&lt;br&gt;&lt;br&gt;在寻找其他船员的过程中探索诸多岛屿，查明消亡的古老文明的命运，并找到传说中的不老泉。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1967630/extras/animalswf.gif?t=1691657923" /&gt;&lt;br&gt;你会遭遇危险野兽、恶劣气候、当地植物，罹患疾病、伤痛，遭受饥饿、干渴、体力不支... 所有的一切都是挑战你能力极限的生存考验。&lt;br&gt;&lt;br&gt;游戏中将出现 30 多种生活在不同栖息地、习性各异的动物，这意味着你有许多狩猎与烹饪选择，但是稍有不慎，你就有可能从猎人沦为猎物...&lt;br&gt;&lt;br&gt;加勒比地区的炎热气候、席卷一切的风暴、疟疾丛生的沼泽以及毒性猛烈的植物，比米尼群岛可谓危机四伏。制作工具，建造庇护所，提升自身技能并探索岛屿、搜寻生存必需物资。你准备好迎接挑战了吗？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1967630/extras/sailingwf.gif?t=1691657923" /&gt;&lt;br&gt;为了前往各个岛屿，你需要建造从原始木筏到十六世纪的西班牙双桅纵帆船等一系列船只。开辟全新航线前往未知陆地，筹备探险物资并探索前方的未知秘密。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1967630/extras/craftingwf.gif?t=1691657923" /&gt;&lt;br&gt;从最简单的木棍与石头工具到当时最先进的火枪、金属铠甲与器械，游戏中涵盖了数百种能够制作的生存物品。你还可以建造从最原始的皮革晾晒架到工业时代之前的机械装置等一系列工坊设备。&lt;br&gt;&lt;br&gt;精益求精，所有动作事无巨细都能够改善你的技能：力量、烹饪、剥皮、射击以及更多。努力求生并培养全新能力，从一个笨手笨脚的菜鸟摇身一变成为硬核生存专家。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1967630/extras/islandswf.gif?t=1691657923" /&gt;&lt;br&gt;每座岛屿都拥有着各自不同的地形、气候、天气、植物、动物以及自然资源。&lt;br&gt;从炎热干燥的卡廷加到遍布鳄鱼的红树林，还有围绕着无数沉船与礁石的熙熙攘攘的水下生态环境，这个开放世界绝非你之前幻想的加勒比天堂...&lt;br&gt;探索全新区域并适应险恶环境，解开尘封已久的秘密并寻找稀世罕见的珍宝。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1967630/extras/storywf.gif?t=1691657923" /&gt;&lt;br&gt;在寻找船员们留下的蛛丝马迹时，你将会遭遇一个神秘消失的远古文明的遗迹。&lt;br&gt;调查废墟与神殿，破解数百年前遗留的谜题，解开传说中的不老泉背后的秘密。&lt;br&gt;一个问题摆在了你面前：你是否能够坚持到获得不老青春的那一刻？</t>
+          <t>&lt;strong&gt;&lt;h2 class="bb_tag"&gt;关于游戏&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;山门与幻境是一款独特的3D模拟经营+肉鸽（Roguelike）游戏。你将扮演归家的掌门之子，在如今萧瑟无人的仙山上重建山门，再现天下第一的辉煌。你需要带领弟子，收集资源、建造设施、炼丹、种植灵田、炼化法宝，并逐步发展壮大。你可以招募更多门人，锻炼他们的能力，再进入祖先的记忆幻境，与不同寻常的敌人战斗，获取宝物和知识。你将体会到作为一个掌门人的辛劳，也将感受到从零开始、建立繁荣仙山门派的成就感，并战胜幻境中强大的BOSS，每一局都从新启程，不同寻常！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1963040/extras/1.png?t=1693546950" /&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;自由的建设家园 &lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;自由的摆放建筑，让你的门派美观大方，打造属于自己的特色山门。为不同性格、天赋的弟子们分配任务，让他们采集、建造、工作、歇息、修炼！还能品茗、弈棋，模拟真实修仙。同时，你还可以炼器，炼丹，种植灵田，委派弟子完成山下历练，让整个门派富有生机和活力！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1963040/extras/2.png?t=1693546950" /&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;丰富的多周目系统&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;全新的地图：大气美观，山环水抱争萦纡，如蓬莱仙境！&lt;br&gt;&lt;/li&gt;&lt;li&gt;独立的剧情：不同门派有独立的剧情，每次都有不同的体验！&lt;br&gt;&lt;/li&gt;&lt;li&gt;全新的科技：不同门派增加门派特性，全新的科技玩法！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1963040/extras/3.png?t=1693546950" /&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;独特的战斗线路规划&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;更加自由地掌控整场战斗。每一次的攻击都需要玩家精准的操作，合理规划线路，配合弟子搭配功法律令打出完美的攻击，你将战无不胜。游戏中的战斗场面十分华丽震撼，丰富多样的关卡和角色形象设计，极致的视听享受和游戏体验。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1963040/extras/Battle.gif?t=1693546950" /&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;新奇的修仙玩法&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;培育自己的神兽：提高弟子潜能，和你一起进入幻境战斗&lt;br&gt;&lt;/li&gt;&lt;li&gt;挑战通天塔试炼：如面对潮水般涌来的怪物，如何完成挑战？&lt;br&gt;&lt;/li&gt;&lt;li&gt;探索珍宝阁：弟子的自动修炼、渡劫，阅珍贵秘籍，再现旷世奇遇。&lt;br&gt;&lt;/li&gt;&lt;li&gt;全新的道体：每个角色都拥有自己的战斗特性，召唤飞剑、分身复活等特殊属性&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1963040/extras/4.png?t=1693546950" /&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;隐藏在迷雾背后的故事&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;曾经繁荣的山门为何消失？远古幻境为何会瘴气和诅咒萦绕？祖先创立门派时又经历过怎样的恩怨？宿敌来临的时候，你是否能带领门派改变命运？随着游戏的推进，你将解锁许多不为人知的秘密。&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;沉浸的游戏体验&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;游戏为全3D场景构成，全面表现人物与建筑。&lt;br&gt;&lt;/li&gt;&lt;li&gt;充满东方韵味的画风，在古树清池边、奕亭茶舍中体会仙风道骨。&lt;br&gt;&lt;/li&gt;&lt;li&gt;独特艺术风格的音乐和文字，在掌门工作中保持心情愉悦。&lt;br&gt;&lt;/li&gt;&lt;li&gt;更多丰富的内容将一步步与你见面，敬请期待。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1963040/extras/5.png?t=1693546950" /&gt;&lt;br&gt;-----------------------------------------------------&lt;h2 class="bb_tag"&gt;4月更新计划📅&lt;/h2&gt;经历过3月的大更新后🔥，我们马不停蹄🐎已经筹划好了4月更新计划：&lt;h2 class="bb_tag"&gt;🏯试炼塔（近期更新）&lt;/h2&gt;门派将解锁镇妖塔🏯，玩家通过开启镇妖塔，派遣最精锐的弟子进入试炼。 这是一种全新的玩法，掌门可以带领弟子，🕹️手动操作团队，面对无尽的兽潮🐉，使用各种法宝💍，技能克敌制胜🥊，同时在战斗中不断升级自己的技能组合。&lt;h2 class="bb_tag"&gt;🥇门派比武&lt;/h2&gt;每隔30年，修仙界会有一场比武大会🏆，掌门可以带领最精锐的弟子，前往参加，共同争夺修仙世界第一门派的名号。PS：甚至可能会碰到你之前建立的门派😮。&lt;h2 class="bb_tag"&gt;👫弟子双修&lt;/h2&gt;弟子会有完整的社交关系，会在平时的工作修炼中和同门产生好感度❤️，并且根据好友度，产生不同的事件，甚至可以与异性弟子结为道侣💏，修行专属的功法。&lt;h2 class="bb_tag"&gt;💬弟子交流&lt;/h2&gt;弟子将会在门派频道📡进行聊天，你可以看他们谈天说地🗨️，聊修为心得，工作的事情，以及门派的发展，甚至还会看到他们在说你坏话🙊。&lt;h2 class="bb_tag"&gt;⏫试练塔的进阶（长期更新）&lt;/h2&gt;试练塔会拥有更多功能，我们会提供超过30个不同的新关卡🆕，超过10种全新的功法以及他们的升级方向，超过20种新的法宝等，供玩家闯荡，获取里面的宝物和资源💎。&lt;br&gt;同时也会添加更多的事件，比如在镇妖塔中营救弟子🆘，挖掘上古大能的遗迹等，用来建设自己的门派。&lt;h2 class="bb_tag"&gt;⚔️仙界攻防&lt;/h2&gt;玩家可以征伐其他修仙门派🚩，派遣精锐弟子攻打敌对门派，获得他们的镇派法宝和功法🏹。同时也有可能成为众矢之的🎯，受到其他门派的讨伐。</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
+          <t>1967630</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Survival: Fountain of Youth</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>求生岛：不老泉传说</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>生存,开放世界生存制作,基地建设,探索,模拟</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>7.7</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>2023年04月19日</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/G6WgWMSa3U" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1967630/extras/discord_banner_620.png?t=1694184407" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;游戏灵感来源于航海大发现时代的真实历史事件，玩家将扮演寻找传说中不老泉的胡安·庞塞·德莱昂探险队的一份子，在船难事故中险象环生。船难过后，现在你必须学会在这片无人之地独立生存：制作工具，修建庇护所，狩猎并击退捕食者。&lt;br&gt;&lt;br&gt;在寻找其他船员的过程中探索诸多岛屿，查明消亡的古老文明的命运，并找到传说中的不老泉。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1967630/extras/CHanimals.gif?t=1694184407" /&gt;&lt;br&gt;你会遭遇危险野兽、恶劣气候、当地植物，罹患疾病、伤痛，遭受饥饿、干渴、体力不支... 所有的一切都是挑战你能力极限的生存考验。&lt;br&gt;&lt;br&gt;游戏中将出现 30 多种生活在不同栖息地、习性各异的动物，这意味着你有许多狩猎与烹饪选择，但是稍有不慎，你就有可能从猎人沦为猎物...&lt;br&gt;&lt;br&gt;加勒比地区的炎热气候、席卷一切的风暴、疟疾丛生的沼泽以及毒性猛烈的植物，比米尼群岛可谓危机四伏。制作工具，建造庇护所，提升自身技能并探索岛屿、搜寻生存必需物资。你准备好迎接挑战了吗？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1967630/extras/CHsailing.gif?t=1694184407" /&gt;&lt;br&gt;为了前往各个岛屿，你需要建造从原始木筏到十六世纪的西班牙双桅纵帆船等一系列船只。开辟全新航线前往未知陆地，筹备探险物资并探索前方的未知秘密。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1967630/extras/CHcraft.gif?t=1694184407" /&gt;&lt;br&gt;从最简单的木棍与石头工具到当时最先进的火枪、金属铠甲与器械，游戏中涵盖了数百种能够制作的生存物品。你还可以建造从最原始的皮革晾晒架到工业时代之前的机械装置等一系列工坊设备。&lt;br&gt;&lt;br&gt;精益求精，所有动作事无巨细都能够改善你的技能：力量、烹饪、剥皮、射击以及更多。努力求生并培养全新能力，从一个笨手笨脚的菜鸟摇身一变成为硬核生存专家。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1967630/extras/CHislands.gif?t=1694184407" /&gt;&lt;br&gt;每座岛屿都拥有着各自不同的地形、气候、天气、植物、动物以及自然资源。&lt;br&gt;从炎热干燥的卡廷加到遍布鳄鱼的红树林，还有围绕着无数沉船与礁石的熙熙攘攘的水下生态环境，这个开放世界绝非你之前幻想的加勒比天堂...&lt;br&gt;探索全新区域并适应险恶环境，解开尘封已久的秘密并寻找稀世罕见的珍宝。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1967630/extras/CHstory.gif?t=1694184407" /&gt;&lt;br&gt;在寻找船员们留下的蛛丝马迹时，你将会遭遇一个神秘消失的远古文明的遗迹。&lt;br&gt;调查废墟与神殿，破解数百年前遗留的谜题，解开传说中的不老泉背后的秘密。&lt;br&gt;一个问题摆在了你面前：你是否能够坚持到获得不老青春的那一刻？</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
           <t>1971540</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
+      <c r="B193" t="inlineStr">
         <is>
           <t>GWENT: Rogue Mage - Deluxe Edition Upgrade</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr">
+      <c r="C193" t="inlineStr">
         <is>
           <t>《巫师之昆特牌：流浪法师》- 豪华版升级包</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
+      <c r="D193" t="inlineStr">
         <is>
           <t>策略</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="G192" t="inlineStr">
+      <c r="G193" t="inlineStr">
         <is>
           <t>2022年07月07日</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
+      <c r="H193" t="inlineStr">
         <is>
           <t>专为那些想要在冒险中更进一步的玩家设计。该升级包可让你解锁所有豪华版的内容，包括：&lt;br /&gt;
 单人战役奖励：&lt;br /&gt;
@@ -8489,62 +8531,25 @@
         </is>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>1973610</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>建安外史 The Tales of Jian An</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>建安外史</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>策略,角色扮演,回合战略,策略角色扮演,2D 平台</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>2022年11月01日</t>
-        </is>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>关注我们&lt;br&gt;欢迎关注我们的官方社群：&lt;br&gt;游戏便当QQ群①：287356527【已满】&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569&lt;br&gt;&lt;br&gt;欢迎各位战棋游戏爱好者来到《建安外史》的故事。这是一款非常传统的回合制战棋游戏。相信喜爱战棋游戏的玩家，都能在这款游戏中找到您想找到的乐趣。&lt;br&gt;&lt;br&gt;本作的游戏进程分为“剧情模式”和“战斗模式”。在剧情模式下，您可以欣赏到合乎汉末历史逻辑的，极其详尽的历史故事。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1973610/extras/1.jpg?t=1683713761" /&gt;&lt;br&gt;&lt;br&gt;本作不是真实的历史，本作没有“桃园结义”、“三英战吕布”、“温酒斩华雄”等熟知而老套的三国演义剧情，但我们的故事描写遵循《三国志》、《资治通鉴》、《后汉书》等历史文献的记载，并将其合理的虚构和扩展。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1973610/extras/2.jpg?t=1683713761" /&gt;&lt;br&gt;&lt;br&gt;在传统的回合制战斗模式下，我们也做了大量新鲜的、有趣的尝试和变化，“迷雾系统”、“天气系统”、“时辰变化系统”等等，为传统的战棋玩法加入了不少新意。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1973610/extras/3.jpg?t=1683713761" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1973610/extras/4.jpg?t=1683713761" /&gt;&lt;br&gt;&lt;br&gt;有趣的战场完成度系统和成就系统，表现了您对战场的掌控力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1973610/extras/5.jpg?t=1683713761" /&gt;&lt;br&gt;&lt;br&gt;“人物图鉴”、“宝物图鉴”、“传说图鉴”、“名词鉴赏”、“音乐鉴赏”等收集内容，是强迫症朋友的最大乐趣。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1973610/extras/6.jpg?t=1683713761" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1973610/extras/7.jpg?t=1683713761" /&gt;&lt;br&gt;&lt;br&gt;想欣赏一个完全不一样的三国故事，或者想满足您对回合制战棋游戏的怀旧情怀？《建安外史》是您最好的选择。</t>
-        </is>
-      </c>
-    </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>1983970</t>
+          <t>1973610</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Affogato</t>
+          <t>建安外史 The Tales of Jian An</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>加把劲魔女</t>
+          <t>建安外史</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>日系角色扮演,动漫,女性主角,塔防,策略角色扮演</t>
+          <t>策略,角色扮演,回合战略,策略角色扮演,2D 平台</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8552,41 +8557,36 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
-      </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>2023年08月17日</t>
+          <t>2022年11月01日</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>《加把劲魔女》是一款以魔女为主角的RPG，玩家将伴随魔女运营咖啡店，清偿债务，认识形形色色的顾客，最终深入其内心世界，帮助他们战胜自己最大的恐惧，发掘潜藏的秘密。&lt;br&gt;在这款RPG中，你将体验丰富的剧情、创新的“反塔防”玩法，和高质量的二次元立绘！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/画板_1-CN.png?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/1-CN.gif?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;进入顾客的内心世界，挑战结合了卡牌系统的反塔防关卡，你的每个决策都关系到顾客最终能否战胜心中的恶魔。权衡你的出牌和获胜之路，一招不慎，则有可能永远失去顾客......&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/画板_2-CN.png?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/2-CN.gif?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;认识形形色色的顾客，侧耳倾听他们的故事，进入他们的内心，解决他们的烦恼。你还可以选择和志同道合的客人逐步建立特别的情谊。魔女就是要古道热肠，平易近人嘛！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/画板_3-CN.png?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/3-CN.gif?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;规划每日日程，合理安排时间，今天是多做几笔生意，还是精研咖啡师技术，还是学习更强力的魔咒，抑或是和顾客们建立更牢固的关系呢？请记住，时钟的指针将永不停歇，你的每一个行为都会消耗时间。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/画板_4-CN.png?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/4-CN.gif?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;成为一名咖啡师，你需要学会如何做好咖啡。&lt;br&gt;要成为一名优秀的咖啡师，你还需要察言观色，为顾客调制专属咖啡。游戏还原了现实中的咖啡制作工序。做出一杯上好咖啡，你将有机会解锁隐藏剧情，开启新故事线。</t>
+          <t>关注我们&lt;br&gt;欢迎关注我们的官方社群：&lt;br&gt;游戏便当QQ群①：287356527【已满】&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569&lt;br&gt;&lt;br&gt;欢迎各位战棋游戏爱好者来到《建安外史》的故事。这是一款非常传统的回合制战棋游戏。相信喜爱战棋游戏的玩家，都能在这款游戏中找到您想找到的乐趣。&lt;br&gt;&lt;br&gt;本作的游戏进程分为“剧情模式”和“战斗模式”。在剧情模式下，您可以欣赏到合乎汉末历史逻辑的，极其详尽的历史故事。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1973610/extras/1.jpg?t=1683713761" /&gt;&lt;br&gt;&lt;br&gt;本作不是真实的历史，本作没有“桃园结义”、“三英战吕布”、“温酒斩华雄”等熟知而老套的三国演义剧情，但我们的故事描写遵循《三国志》、《资治通鉴》、《后汉书》等历史文献的记载，并将其合理的虚构和扩展。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1973610/extras/2.jpg?t=1683713761" /&gt;&lt;br&gt;&lt;br&gt;在传统的回合制战斗模式下，我们也做了大量新鲜的、有趣的尝试和变化，“迷雾系统”、“天气系统”、“时辰变化系统”等等，为传统的战棋玩法加入了不少新意。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1973610/extras/3.jpg?t=1683713761" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1973610/extras/4.jpg?t=1683713761" /&gt;&lt;br&gt;&lt;br&gt;有趣的战场完成度系统和成就系统，表现了您对战场的掌控力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1973610/extras/5.jpg?t=1683713761" /&gt;&lt;br&gt;&lt;br&gt;“人物图鉴”、“宝物图鉴”、“传说图鉴”、“名词鉴赏”、“音乐鉴赏”等收集内容，是强迫症朋友的最大乐趣。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1973610/extras/6.jpg?t=1683713761" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1973610/extras/7.jpg?t=1683713761" /&gt;&lt;br&gt;&lt;br&gt;想欣赏一个完全不一样的三国故事，或者想满足您对回合制战棋游戏的怀旧情怀？《建安外史》是您最好的选择。</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>1999770</t>
+          <t>1983970</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Atelier Ryza 3: Alchemist of the End &amp; the Secret Key</t>
+          <t>Affogato</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>莱莎的炼金工房３ ～终结之炼金术士与秘密钥匙～</t>
+          <t>加把劲魔女</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>探索,女性主角,日系角色扮演,收集马拉松,角色扮演</t>
+          <t>日系角色扮演,动漫,女性主角,塔防,策略角色扮演</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8596,39 +8596,39 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>2023年03月24日</t>
+          <t>2023年08月17日</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>某日，莱莎居住的小岛附近突然出现了名为“柯克群岛”的岛群。莱莎一行人对威胁到小岛的群岛展开调查的过程中，抵达了某座遗迹。在遗迹深处的，是一扇令仰望者叹为观止的巨大门扉。就在莱莎靠近门扉时，她的脑中响起了邀请她前往“万象大典”的神秘声音。 门扉的另一侧究竟有着什么？“万象大典”又具有什么含义？为了寻找拯救小岛的方法，莱莎等人即将展开一场围绕“钥匙”与“炼金术根源”的壮阔冒险……&lt;br&gt;&lt;br&gt;&lt;strong&gt;■在广阔的原野展开冒险！&lt;/strong&gt;&lt;br&gt;本作的原野由无缝展开的多幅地图连结而成，无需载入即可随意在地图间移动。尽情徜徉于广阔无边、栩栩如生的原野，自由自在享受冒险吧！&lt;br&gt;&lt;br&gt;&lt;strong&gt;■多达11名的队伍成员！&lt;/strong&gt;&lt;br&gt;除了与前作的角色重逢，更有作为剧情关键的新角色登场！系列作最大规模的队伍，正蓄势待发！&lt;br&gt;&lt;br&gt;&lt;strong&gt;■拥有未知力量的“钥匙”将是冒险的王牌！&lt;/strong&gt;&lt;br&gt;本作的核心系统——可在各种场合制作的“钥匙”华丽登场！&lt;br&gt;“钥匙”种类繁多且效果各异，可运用于探索、调合与战斗等各种场面。活用“钥匙”，让冒险来得更加有趣与便利！&lt;br&gt;&lt;br&gt;※有关内容的详情，请参阅官方网站。&lt;br&gt;※另有包含本商品的其他组合商品。请留意避免重复购买。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1999770/extras/AtelierRyza3_Custom_Image_616ｘ616_RYZA3MASTER_japanese.png?t=1687396084" /&gt;</t>
+          <t>《加把劲魔女》是一款以魔女为主角的RPG，玩家将伴随魔女运营咖啡店，清偿债务，认识形形色色的顾客，最终深入其内心世界，帮助他们战胜自己最大的恐惧，发掘潜藏的秘密。&lt;br&gt;在这款RPG中，你将体验丰富的剧情、创新的“反塔防”玩法，和高质量的二次元立绘！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/画板_1-CN.png?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/1-CN.gif?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;进入顾客的内心世界，挑战结合了卡牌系统的反塔防关卡，你的每个决策都关系到顾客最终能否战胜心中的恶魔。权衡你的出牌和获胜之路，一招不慎，则有可能永远失去顾客......&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/画板_2-CN.png?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/2-CN.gif?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;认识形形色色的顾客，侧耳倾听他们的故事，进入他们的内心，解决他们的烦恼。你还可以选择和志同道合的客人逐步建立特别的情谊。魔女就是要古道热肠，平易近人嘛！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/画板_3-CN.png?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/3-CN.gif?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;规划每日日程，合理安排时间，今天是多做几笔生意，还是精研咖啡师技术，还是学习更强力的魔咒，抑或是和顾客们建立更牢固的关系呢？请记住，时钟的指针将永不停歇，你的每一个行为都会消耗时间。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/画板_4-CN.png?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/4-CN.gif?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;成为一名咖啡师，你需要学会如何做好咖啡。&lt;br&gt;要成为一名优秀的咖啡师，你还需要察言观色，为顾客调制专属咖啡。游戏还原了现实中的咖啡制作工序。做出一杯上好咖啡，你将有机会解锁隐藏剧情，开启新故事线。</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2025320</t>
+          <t>1999770</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Estencel</t>
+          <t>Atelier Ryza 3: Alchemist of the End &amp; the Secret Key</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Estencel</t>
+          <t>莱莎的炼金工房３ ～终结之炼金术士与秘密钥匙～</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>类魂系列,探索,在线合作,多人,困难</t>
+          <t>探索,女性主角,日系角色扮演,收集马拉松,角色扮演</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8636,54 +8636,96 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>2023年01月19日</t>
+          <t>2023年03月24日</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2025320/extras/AddToWishlist.png?t=1693747510" /&gt;&lt;br&gt;&lt;br&gt;通过 Estencel 大刀阔斧！ 穿越一个腐败的迷宫，就像城市战斗的恐怖。 在这款快节奏的恐怖/奇幻动作角色扮演游戏中，自定义并武装自己成为终极杀怪刺客。 在它们吞噬你之前解决这个世界的奥秘。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2025320/extras/WolfBoss_600x250.gif?t=1693747510" /&gt;&lt;h2 class="bb_tag"&gt;主要特征：&lt;/h2&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;各种各样的敌人——选择你的战斗风格来对抗不同的对手，并用你的机智击败无情的老板。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;探索——穿越城市及其郊区，发现隐藏在阴影中的秘密。&lt;br&gt; &lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2025320/extras/tutorial_whip_600x240.gif?t=1693747510" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;动态战斗系统——升级你的主要武器或换成你的次要武器来压倒你的对手。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;使用大量武器，从撕裂的鞭子到令人惊叹的霰弹枪，自定义您的游戏风格并高效地消灭敌人。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2025320/extras/3rd.gif?t=1693747510" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;关于开发者——游戏由一个人开发了3年多。&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>某日，莱莎居住的小岛附近突然出现了名为“柯克群岛”的岛群。莱莎一行人对威胁到小岛的群岛展开调查的过程中，抵达了某座遗迹。在遗迹深处的，是一扇令仰望者叹为观止的巨大门扉。就在莱莎靠近门扉时，她的脑中响起了邀请她前往“万象大典”的神秘声音。 门扉的另一侧究竟有着什么？“万象大典”又具有什么含义？为了寻找拯救小岛的方法，莱莎等人即将展开一场围绕“钥匙”与“炼金术根源”的壮阔冒险……&lt;br&gt;&lt;br&gt;&lt;strong&gt;■在广阔的原野展开冒险！&lt;/strong&gt;&lt;br&gt;本作的原野由无缝展开的多幅地图连结而成，无需载入即可随意在地图间移动。尽情徜徉于广阔无边、栩栩如生的原野，自由自在享受冒险吧！&lt;br&gt;&lt;br&gt;&lt;strong&gt;■多达11名的队伍成员！&lt;/strong&gt;&lt;br&gt;除了与前作的角色重逢，更有作为剧情关键的新角色登场！系列作最大规模的队伍，正蓄势待发！&lt;br&gt;&lt;br&gt;&lt;strong&gt;■拥有未知力量的“钥匙”将是冒险的王牌！&lt;/strong&gt;&lt;br&gt;本作的核心系统——可在各种场合制作的“钥匙”华丽登场！&lt;br&gt;“钥匙”种类繁多且效果各异，可运用于探索、调合与战斗等各种场面。活用“钥匙”，让冒险来得更加有趣与便利！&lt;br&gt;&lt;br&gt;※有关内容的详情，请参阅官方网站。&lt;br&gt;※另有包含本商品的其他组合商品。请留意避免重复购买。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1999770/extras/AtelierRyza3_Custom_Image_616ｘ616_RYZA3MASTER_japanese.png?t=1687396084" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
+          <t>2025320</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Estencel</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Estencel</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>类魂系列,探索,在线合作,多人,困难</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>2023年01月19日</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2025320/extras/AddToWishlist.png?t=1693747510" /&gt;&lt;br&gt;&lt;br&gt;通过 Estencel 大刀阔斧！ 穿越一个腐败的迷宫，就像城市战斗的恐怖。 在这款快节奏的恐怖/奇幻动作角色扮演游戏中，自定义并武装自己成为终极杀怪刺客。 在它们吞噬你之前解决这个世界的奥秘。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2025320/extras/WolfBoss_600x250.gif?t=1693747510" /&gt;&lt;h2 class="bb_tag"&gt;主要特征：&lt;/h2&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;各种各样的敌人——选择你的战斗风格来对抗不同的对手，并用你的机智击败无情的老板。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;探索——穿越城市及其郊区，发现隐藏在阴影中的秘密。&lt;br&gt; &lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2025320/extras/tutorial_whip_600x240.gif?t=1693747510" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;动态战斗系统——升级你的主要武器或换成你的次要武器来压倒你的对手。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;使用大量武器，从撕裂的鞭子到令人惊叹的霰弹枪，自定义您的游戏风格并高效地消灭敌人。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2025320/extras/3rd.gif?t=1693747510" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;关于开发者——游戏由一个人开发了3年多。&lt;/li&gt;&lt;/ul&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
           <t>2059790</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>再刷一把 PlayAgain</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>再刷一把 PlayAgain</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
+      <c r="D198" t="inlineStr">
         <is>
           <t>回合制战斗,冒险,角色扮演,像素图形,策略</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
         <is>
           <t>5.8</t>
         </is>
       </c>
-      <c r="G197" t="inlineStr">
+      <c r="G198" t="inlineStr">
         <is>
           <t>2022年07月21日</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
+      <c r="H198" t="inlineStr">
         <is>
           <t>【开发者的话】&lt;br /&gt;
 下载就完事了，玩了就上瘾！&lt;br /&gt;
@@ -8722,109 +8764,72 @@
         </is>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>2064590</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Pathfinder: Wrath of the Righteous – The Treasure of the Midnight Isles</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>Pathfinder: Wrath of the Righteous – The Treasure of the Midnight Isles</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>策略,冒险,角色扮演,独立</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>DLC</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>2022年08月30日</t>
-        </is>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>散布在黑暗深渊大洋中的群岛埋藏着无数奇珍异宝，同时也蛰伏着难以言表的恐怖。登上阴森的被诅咒之船，冒险深入未知海域，航向你的财富……或是死亡。&lt;br /&gt;
-&lt;br /&gt;
-•	以独立的类rogue模式，或以主线战役的一部分，探索满载财宝与危机的广袤群岛。&lt;br /&gt;
-&lt;br /&gt;
-•	尝试不同的角色构建和队伍组合，运用丰富多变的开拓者角色扮演系统获取优势，包括神话道途。&lt;br /&gt;
-&lt;br /&gt;
-•	死亡不过是一次挫折！即便队伍团灭，它取得的进度依然能在后续的游玩过程中为你起到帮助。&lt;br /&gt;
-&lt;br /&gt;
-•	装备上新的魔法物品，将新的魔法药水和卷轴放进腰包，去挑战曾经和未曾交手过的敌人。&lt;br /&gt;
-&lt;br /&gt;
-•	发掘这艘载你启航的船只的秘密，以及你正在寻找的终极财宝的真相。</t>
-        </is>
-      </c>
-    </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2067790</t>
+          <t>2064590</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Crimson Snow</t>
+          <t>Pathfinder: Wrath of the Righteous – The Treasure of the Midnight Isles</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>猩红之雪</t>
+          <t>Pathfinder: Wrath of the Righteous – The Treasure of the Midnight Isles</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>探索,步行模拟,第一人称,心理恐怖,对话</t>
+          <t>策略,冒险,角色扮演,独立</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Game</t>
+          <t>DLC</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>2023年03月29日</t>
+          <t>2022年08月30日</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>你原本打算和你的女友乔伊丝一起过节，但不速之客打断了这个良夜。现在你必须竭尽所能活下去。&lt;br&gt;&lt;br&gt;《&lt;strong&gt;猩红之雪&lt;/strong&gt;》是一款由故事驱动的恐怖游戏，讲述了发生在圣诞夜的黑暗事件。穿越摆满圣诞装饰品的阴险宅邸，躲避古怪跟踪者的穷追不舍。你的女友乔伊丝会帮你逃出生天，亦或者……她自己将沦为另一个受害者——你的言行和所做的抉择将决定你们的命运。&lt;h2 class="bb_tag"&gt;等待着你的是：&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;圣诞夜化作惊魂夜。体验节日氛围和超自然噩梦的结合。&lt;br&gt;&lt;/li&gt;&lt;li&gt;注意你的言行。它决定了你和你女朋友的性命。&lt;br&gt;&lt;/li&gt;&lt;li&gt;往日的秘密绝不会放过你。发掘真相，否则你将死无葬身之地。&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>散布在黑暗深渊大洋中的群岛埋藏着无数奇珍异宝，同时也蛰伏着难以言表的恐怖。登上阴森的被诅咒之船，冒险深入未知海域，航向你的财富……或是死亡。&lt;br /&gt;
+&lt;br /&gt;
+•	以独立的类rogue模式，或以主线战役的一部分，探索满载财宝与危机的广袤群岛。&lt;br /&gt;
+&lt;br /&gt;
+•	尝试不同的角色构建和队伍组合，运用丰富多变的开拓者角色扮演系统获取优势，包括神话道途。&lt;br /&gt;
+&lt;br /&gt;
+•	死亡不过是一次挫折！即便队伍团灭，它取得的进度依然能在后续的游玩过程中为你起到帮助。&lt;br /&gt;
+&lt;br /&gt;
+•	装备上新的魔法物品，将新的魔法药水和卷轴放进腰包，去挑战曾经和未曾交手过的敌人。&lt;br /&gt;
+&lt;br /&gt;
+•	发掘这艘载你启航的船只的秘密，以及你正在寻找的终极财宝的真相。</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2068280</t>
+          <t>2067790</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Nordic Ashes</t>
+          <t>Crimson Snow</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>北欧的灰烬：诸神黄昏幸存者</t>
+          <t>猩红之雪</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>抢先体验,动作类 Rogue,弹幕射击,轻度 Rogue,竞技场射击</t>
+          <t>探索,步行模拟,第一人称,心理恐怖,对话</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8832,41 +8837,36 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>7.4</t>
-        </is>
-      </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>2022年12月16日</t>
+          <t>2023年03月29日</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/RhdgScwtm9" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/discord_banner.png?t=1693416708" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;《北欧之烬：诸神黄昏幸存者》(Nordic Ashes: Survivors of Ragnarok) 是一款基于北欧背景的 Roguelite 群敌割草游戏，你需要在潮水般蜂拥而至的怪群中奋力求生。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/nordic_ashes_-_thyra_alfheim.gif?t=1693416708" /&gt;&lt;br&gt;&lt;br&gt;对抗各种凶猛敌人，从基础小怪到精英魔兽，再到史诗级头目，它们都有各自独特行为。别被外表所蒙蔽，即便是杂鱼小怪也很危险！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/titulo_1.png?t=1693416708" /&gt;&lt;br&gt;在战斗中解锁新武器和技能。使用星座技能树升级角色数值，在它们包围你之前杀出血路，否则可能就太晚了……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/nordic_ashes_-_constellation_update.gif?t=1693416708" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/titulo_2.png?t=1693416708" /&gt;&lt;br&gt;诸神黄昏之后，世界树丧失了维持九界所需的近乎所有能量。只有一小部分英雄挺过了世界末日。在这一冒险中，你将使用多名角色：北欧狂战士阿塞尔多、凶猛猎手媞拉、元素大师哈夫格林。手持传奇刀剑或召唤古老火焰，屠戮你所在界域的所有敌人，并征服其它界域。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/nordic_ashes_-_hafrgrim_midgard.gif?t=1693416708" /&gt;&lt;br&gt;&lt;br&gt;在游戏进程中使用星座技能树升级伤害、范围、冷却时间和更多其它数值，制定不同的角色构建方案，让每一场游戏都不相同。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/titulo_3.png?t=1693416708" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;探索由北欧传说中的世界树所联系的九界&lt;br&gt;&lt;/li&gt;&lt;li&gt;不同的角色各自具有独占技能和武器。&lt;br&gt;&lt;/li&gt;&lt;li&gt;星座技能树用以升级幸存者的能力&lt;br&gt;&lt;/li&gt;&lt;li&gt;制定最为强大的角色构建方案&lt;br&gt;&lt;/li&gt;&lt;li&gt;头目具有独特行为模式，让战斗更为史诗&lt;br&gt;&lt;/li&gt;&lt;li&gt;数十种圣物可供解锁&lt;br&gt;&lt;/li&gt;&lt;li&gt;世界树升级作为元成长要素&lt;br&gt;&lt;/li&gt;&lt;li&gt;抢先体验奖励独占皮肤！&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持键鼠和手柄游玩。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/roadmap.png?t=1693416708" /&gt;</t>
+          <t>你原本打算和你的女友乔伊丝一起过节，但不速之客打断了这个良夜。现在你必须竭尽所能活下去。&lt;br&gt;&lt;br&gt;《&lt;strong&gt;猩红之雪&lt;/strong&gt;》是一款由故事驱动的恐怖游戏，讲述了发生在圣诞夜的黑暗事件。穿越摆满圣诞装饰品的阴险宅邸，躲避古怪跟踪者的穷追不舍。你的女友乔伊丝会帮你逃出生天，亦或者……她自己将沦为另一个受害者——你的言行和所做的抉择将决定你们的命运。&lt;h2 class="bb_tag"&gt;等待着你的是：&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;圣诞夜化作惊魂夜。体验节日氛围和超自然噩梦的结合。&lt;br&gt;&lt;/li&gt;&lt;li&gt;注意你的言行。它决定了你和你女朋友的性命。&lt;br&gt;&lt;/li&gt;&lt;li&gt;往日的秘密绝不会放过你。发掘真相，否则你将死无葬身之地。&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2071280</t>
+          <t>2068280</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Ravenswatch</t>
+          <t>Nordic Ashes</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>鸦卫奇旅</t>
+          <t>北欧的灰烬：诸神黄昏幸存者</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>轻度 Rogue,合作,独立,动作,类 Rogue</t>
+          <t>抢先体验,动作类 Rogue,弹幕射击,轻度 Rogue,竞技场射击</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8876,39 +8876,39 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>2023年04月07日</t>
+          <t>2022年12月16日</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2071280/extras/RW_GIF.gif?t=1680699827" /&gt;&lt;br&gt;&lt;strong&gt;《Ravenswatch》是一款俯视角 roguelike 动作游戏，集紧张刺激的实时战斗、极具深度的游戏玩法和超高的重玩价值于一体。继《无间冥寺（Curse of the Dead Gods©）》大获成功之后，Passtech 携着全新的配方与游戏体验再度回归。在这里，你既可以选择单人游玩，也可以四人在线合作并肩作战。&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;驱散你领土上徘徊不去的噩梦&lt;/strong&gt;&lt;/h2&gt;噩梦在幻梦乡境内弥散，腐蚀着它们所触及的一切。你必须磨炼自己的技能，积攒起足够的实力，利用各种独一无二的英雄能力来击败那些噩梦生物。&lt;h2 class="bb_tag"&gt;&lt;strong&gt;灵活多变的游戏玩法&lt;/strong&gt;&lt;/h2&gt;要想击败噩梦，抵达故事的最终章，你不但要懂得如何搭配出一套强大的装备与技能，还必须要拥有卓越的专注力和高超的团队合作水平。在一次又一次的战斗中提升自己的战力，等做好充分的准备之后再去迎战关卡头目……或是在别无选择的局面下勉力一战。&lt;h2 class="bb_tag"&gt;&lt;strong&gt;黑暗风格的故事&lt;/strong&gt;&lt;/h2&gt;幻梦乡的世界建立在古老的民间故事与传说之上。从三只小猪到北欧神话再到《一千零一夜》，这款游戏将以黑暗幻想风格重新书写这些无人不晓的故事，用它们那永不过时的魅力为《Ravenswatch》的氛围画龙点睛。&lt;h2 class="bb_tag"&gt;&lt;strong&gt;超高的重玩价值&lt;/strong&gt;&lt;/h2&gt;在一局又一局的游戏中扮演不同的英雄，想尽办法利用你所能找到的升级项目和道具，在随机生成的地图上尽情探索新的活动与新的敌人。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2071280/extras/Ravenswatch_persos.jpg?t=1680699827" /&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/2071280/Ravenswatch/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/2071280/Ravenswatch/&lt;/a&gt;</t>
+          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/RhdgScwtm9" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/discord_banner.png?t=1693416708" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;《北欧之烬：诸神黄昏幸存者》(Nordic Ashes: Survivors of Ragnarok) 是一款基于北欧背景的 Roguelite 群敌割草游戏，你需要在潮水般蜂拥而至的怪群中奋力求生。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/nordic_ashes_-_thyra_alfheim.gif?t=1693416708" /&gt;&lt;br&gt;&lt;br&gt;对抗各种凶猛敌人，从基础小怪到精英魔兽，再到史诗级头目，它们都有各自独特行为。别被外表所蒙蔽，即便是杂鱼小怪也很危险！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/titulo_1.png?t=1693416708" /&gt;&lt;br&gt;在战斗中解锁新武器和技能。使用星座技能树升级角色数值，在它们包围你之前杀出血路，否则可能就太晚了……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/nordic_ashes_-_constellation_update.gif?t=1693416708" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/titulo_2.png?t=1693416708" /&gt;&lt;br&gt;诸神黄昏之后，世界树丧失了维持九界所需的近乎所有能量。只有一小部分英雄挺过了世界末日。在这一冒险中，你将使用多名角色：北欧狂战士阿塞尔多、凶猛猎手媞拉、元素大师哈夫格林。手持传奇刀剑或召唤古老火焰，屠戮你所在界域的所有敌人，并征服其它界域。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/nordic_ashes_-_hafrgrim_midgard.gif?t=1693416708" /&gt;&lt;br&gt;&lt;br&gt;在游戏进程中使用星座技能树升级伤害、范围、冷却时间和更多其它数值，制定不同的角色构建方案，让每一场游戏都不相同。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/titulo_3.png?t=1693416708" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;探索由北欧传说中的世界树所联系的九界&lt;br&gt;&lt;/li&gt;&lt;li&gt;不同的角色各自具有独占技能和武器。&lt;br&gt;&lt;/li&gt;&lt;li&gt;星座技能树用以升级幸存者的能力&lt;br&gt;&lt;/li&gt;&lt;li&gt;制定最为强大的角色构建方案&lt;br&gt;&lt;/li&gt;&lt;li&gt;头目具有独特行为模式，让战斗更为史诗&lt;br&gt;&lt;/li&gt;&lt;li&gt;数十种圣物可供解锁&lt;br&gt;&lt;/li&gt;&lt;li&gt;世界树升级作为元成长要素&lt;br&gt;&lt;/li&gt;&lt;li&gt;抢先体验奖励独占皮肤！&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持键鼠和手柄游玩。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/roadmap.png?t=1693416708" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2088160</t>
+          <t>2071280</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>天外武林 (Traveler of Wuxia)</t>
+          <t>Ravenswatch</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>天外武林</t>
+          <t>鸦卫奇旅</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>类 Rogue,牌组构建,卡牌游戏,角色扮演,武术</t>
+          <t>轻度 Rogue,合作,独立,动作,类 Rogue</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -8918,39 +8918,39 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>2023年01月06日</t>
+          <t>2023年04月07日</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>《天外武林》是一款以卡牌构筑为基础的Rogue-lite武侠游戏，将精彩多变的武侠剧情与丰富多变的卡牌构筑融合，创造出一个变幻莫测的武林世界。&lt;br&gt;&lt;br&gt;&lt;strong&gt;卡牌构筑 连携套路&lt;/strong&gt;&lt;br&gt;江湖武学何其多，要全部习得可不容易。每一次的冒险都会有新的机缘，新的武学发展，端看你如何掌握。招招式式间隐隐透出连携线索，随着一张张卡牌打出，随时都有可能衍生出套路绝技，给敌人意想不到的连击。唯有将众多卡牌的连携套路熟悉者，才能称霸这河洛世界。&lt;br&gt;&lt;br&gt;&lt;strong&gt;队友协力 共度难关&lt;/strong&gt;&lt;br&gt;圣物出世、天地异变、各路杀手齐出，受命找出一切源头的少年要在这纷扰江湖中生存可是困难重重。多亏有各显神通的同伴们协力帮助，就算面对众多强敌也不需孤军奋战。妥善搭配主角和队友的卡牌，将会让战斗变得一帆风顺。&lt;br&gt;&lt;br&gt;&lt;strong&gt;少年英雄 结伴同行&lt;/strong&gt;&lt;br&gt;跟随少年来到河洛世界中，与个性迥异的神秘同伴们一次次闯荡千变万化的江湖世界。面对百种江湖事件、形形色色的江湖人士，同伴们也有各自的想法与决断。前路是吉是凶无人知，等待着你前去摸索。&lt;br&gt;&lt;br&gt;&lt;strong&gt;亡地后存 死地后生&lt;/strong&gt;&lt;br&gt;对受到圣堂祝福的人来说，死亡并非终点，每一次旅程的结束，都会带回一些东西回到圣堂，让下一趟旅程能走得更加平顺、又或更加凶险难测。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2071280/extras/RW_GIF.gif?t=1680699827" /&gt;&lt;br&gt;&lt;strong&gt;《Ravenswatch》是一款俯视角 roguelike 动作游戏，集紧张刺激的实时战斗、极具深度的游戏玩法和超高的重玩价值于一体。继《无间冥寺（Curse of the Dead Gods©）》大获成功之后，Passtech 携着全新的配方与游戏体验再度回归。在这里，你既可以选择单人游玩，也可以四人在线合作并肩作战。&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;驱散你领土上徘徊不去的噩梦&lt;/strong&gt;&lt;/h2&gt;噩梦在幻梦乡境内弥散，腐蚀着它们所触及的一切。你必须磨炼自己的技能，积攒起足够的实力，利用各种独一无二的英雄能力来击败那些噩梦生物。&lt;h2 class="bb_tag"&gt;&lt;strong&gt;灵活多变的游戏玩法&lt;/strong&gt;&lt;/h2&gt;要想击败噩梦，抵达故事的最终章，你不但要懂得如何搭配出一套强大的装备与技能，还必须要拥有卓越的专注力和高超的团队合作水平。在一次又一次的战斗中提升自己的战力，等做好充分的准备之后再去迎战关卡头目……或是在别无选择的局面下勉力一战。&lt;h2 class="bb_tag"&gt;&lt;strong&gt;黑暗风格的故事&lt;/strong&gt;&lt;/h2&gt;幻梦乡的世界建立在古老的民间故事与传说之上。从三只小猪到北欧神话再到《一千零一夜》，这款游戏将以黑暗幻想风格重新书写这些无人不晓的故事，用它们那永不过时的魅力为《Ravenswatch》的氛围画龙点睛。&lt;h2 class="bb_tag"&gt;&lt;strong&gt;超高的重玩价值&lt;/strong&gt;&lt;/h2&gt;在一局又一局的游戏中扮演不同的英雄，想尽办法利用你所能找到的升级项目和道具，在随机生成的地图上尽情探索新的活动与新的敌人。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2071280/extras/Ravenswatch_persos.jpg?t=1680699827" /&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/2071280/Ravenswatch/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/2071280/Ravenswatch/&lt;/a&gt;</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2101080</t>
+          <t>2088160</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>中华一商</t>
+          <t>天外武林 (Traveler of Wuxia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>中华一商</t>
+          <t>天外武林</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>贸易,经济,生活模拟,2D,沉浸式模拟</t>
+          <t>类 Rogue,牌组构建,卡牌游戏,角色扮演,武术</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8960,39 +8960,39 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>2023年02月23日</t>
+          <t>2023年01月06日</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;关注我们&lt;/strong&gt;&lt;br&gt;欢迎关注我们的官方社群：&lt;br&gt;《中华一商》玩家Q群：639430588&lt;br&gt;游戏便当QQ群①：287356527【已满】&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569&lt;br&gt;&lt;br&gt;各位商人老爷们遇到问题或者有好的建议，欢迎大家在收集表内进行反馈和提交&lt;h2 class="bb_tag"&gt;&lt;strong&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://docs.qq.com/sheet/DQnhRWnBPY3JJc1JI?tab=BB08J2" target="_blank" rel=" noopener"  &gt;《中华一商》常见问题&amp;amp;BUG建议表&lt;/a&gt;&lt;/strong&gt;&lt;/h2&gt;我们会逐条查看，修改，改进，感谢大家的反馈！&lt;br&gt;&lt;br&gt;&lt;br&gt;中华一商是一款模拟经营贸易游戏，背景设定在架空的古代中华地区，在游戏中，你可以从一无所有的穷伙计变成富甲天下的大商人。通过商品买卖、投资城市、完成商单、运营商号、管理家族，目标是最高荣誉的中华一商！&lt;br&gt;&lt;br&gt;经营生意的同时，还可以体验模拟人生，结婚生子、传宗接代，随着家族成员的成长，他们还可以与你一起经商贸易，务工赚钱，是我们成长为一名贸易大亨必不可少的帮助。&lt;br&gt;&lt;br&gt;我们的终极目标，就是垄断全地区商业，成为每一座城市的最大商人，同时拥有一个强大的家族，让我们的事业可以一直传承下去。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/1.jpg?t=1692518791" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/11.jpg?t=1692518791" /&gt;&lt;br&gt;游戏中拥有80个基于真实地理、名称的古代城市，从中原的兖州到关中的洛阳，从西域的弓月城到宝岛上的琉球，都是游戏中可以到达的地方。跨越整个地图，甚至需要游戏中一年的时间，但是丰厚的利润差会让一切奔波都值得。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/01.jpg?t=1692518791" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/22.jpg?t=1692518791" /&gt;&lt;br&gt;游戏中共计89种琳琅满目的商品，分布在不同的城市和地区。商品的价格会随着游戏中的时间进行有涨有跌，需要你在最恰当的时机低买高卖，才能实现财富增长。游戏中还会有随机的城市节日举行，在特殊的日子里，某些商品的价格可能会是史上最低！游戏中的口才属性越高，还能在讨价还价的小游戏中获取更多的折扣和优惠。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/02.jpg?t=1692518791" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/33.jpg?t=1692518791" /&gt;&lt;br&gt;不同等级的城市会定时发布最新的商单需求，通过运输不同地方紧缺的商品，可以获得比平时更多的超额利润，积极完成商单，规划贸易路线，是快速致富的秘诀。每完成一笔商单，就会积攒非常重要的商誉，拥有足够的商誉，是解锁新的城市贸易许可的关键。毕竟，你获得的商誉越多，说明你在商界的名声越大，大家也就更愿意和你做生意。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/03.jpg?t=1692518791" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/44.jpg?t=1692518791" /&gt;&lt;br&gt;在游戏中，你需要组建商队才可以拥有贸易必须的载货量和运输能力。你需要伙计帮你搬运货物，需要驴车帮你进行长途运输，需要护卫提供武力保护，免受山贼的滋扰。欧，对了，你可能还需要一些郎中，不然遇到瘟疫的话商队的行进速度就会变得很慢很慢。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/04.jpg?t=1692518791" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/555.jpg?t=1692518791" /&gt;&lt;br&gt;在贸易的路上，可能会存在各种各样的随机事件，可能是捡到商品的天降洪福，也可能被扒手盯上，损失一些银两，据说有一种家族成员的天赋可以提升我们的好运气。进入不同的城市时，还可能会遇到需要抉择的突发事件，有可能是当地百姓的求助，也可能是家庭和事业冲突时进行的选择，不同的选项会有不同的结果，尝试每一种选项带来的可能性吧！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/05.jpg?t=1692518791" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/66.jpg?t=1692518791" /&gt;&lt;br&gt;在游戏中，你不仅是贸易的领队，还是一个家族的族长。当你有了一定的积蓄，就可以建造宅邸，嫁娶自己的人生配偶，一代一代地繁衍、教育，组建几十人的庞大家庭。每个家族成员都有管理、口才、魅力三大能力，你可以指派优秀的家族成员担任商队的副领队，或者商号的总管，提升贸易的效率！每个家族成员都会随着时间的流逝长大、生病、变老，当一代人逝去，需要你指派新一代的继承人接棒家族事业，传承百年商业。每个人还有独立的外貌系统，拥有易容丹甚至可以改变一个人的外貌。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/06.jpg?t=1692518791" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/77.jpg?t=1692518791" /&gt;&lt;br&gt;家族可以获得最多十件的传家宝，每件传家宝都拥有着非凡的增益效果，对家族成员的能力和商队能力有着强大的增益。传家宝的获得与首席商号的数量息息相关，获得传家宝后，还可以通过珍宝对传家宝进行升级，让传家宝发挥出更大的效果。珍宝只存在于皇都长安，据说游荡在大地图上的珍宝商人也会有优惠的珍宝出售，努力遇见他吧！每个家族成员还拥有自己独一无二的天赋，天赋是会对全家族生效的一种超强能力，要珍惜拥有强大天赋的家族成员。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/07.jpg?t=1692518791" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/88.jpg?t=1692518791" /&gt;&lt;br&gt;游戏中除了进行手动贸易外，成立商号也是中后期的主要资金来源。商号会募集其他商队为你效力，商号的等级越高，能募集的商队就越多，商队的能力也越强，感到贸易有点累时，休息一下，让商号为你聚集财富也不失一个好的选择。每个城市都可以成立一个商号，当市场占有率超过50%时，就会成为首席商号。首席商号达到指定数量时，就可以获得传说中的家族传家宝。但是我们的竞争对手可能不会让我们的首席商号之路走得很顺畅，他们可能会时不时发起商战！商战时，家族的总能力越强，商号的战斗力就越强，挫败竞争对手的挑战，巩固我们的商业地位吧！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/08.jpg?t=1692518791" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/99.jpg?t=1692518791" /&gt;&lt;br&gt;每年的资产变化、每年的收支、买卖最多的商品、去过最多的地方，都会记录在游戏中的数据系统，数据记录着你一路走来的艰辛与成就。当你铸就自己的贸易帝国时，回头看这些真实记录时，想必会别有一番感慨吧！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/09.jpg?t=1692518791" /&gt;</t>
+          <t>《天外武林》是一款以卡牌构筑为基础的Rogue-lite武侠游戏，将精彩多变的武侠剧情与丰富多变的卡牌构筑融合，创造出一个变幻莫测的武林世界。&lt;br&gt;&lt;br&gt;&lt;strong&gt;卡牌构筑 连携套路&lt;/strong&gt;&lt;br&gt;江湖武学何其多，要全部习得可不容易。每一次的冒险都会有新的机缘，新的武学发展，端看你如何掌握。招招式式间隐隐透出连携线索，随着一张张卡牌打出，随时都有可能衍生出套路绝技，给敌人意想不到的连击。唯有将众多卡牌的连携套路熟悉者，才能称霸这河洛世界。&lt;br&gt;&lt;br&gt;&lt;strong&gt;队友协力 共度难关&lt;/strong&gt;&lt;br&gt;圣物出世、天地异变、各路杀手齐出，受命找出一切源头的少年要在这纷扰江湖中生存可是困难重重。多亏有各显神通的同伴们协力帮助，就算面对众多强敌也不需孤军奋战。妥善搭配主角和队友的卡牌，将会让战斗变得一帆风顺。&lt;br&gt;&lt;br&gt;&lt;strong&gt;少年英雄 结伴同行&lt;/strong&gt;&lt;br&gt;跟随少年来到河洛世界中，与个性迥异的神秘同伴们一次次闯荡千变万化的江湖世界。面对百种江湖事件、形形色色的江湖人士，同伴们也有各自的想法与决断。前路是吉是凶无人知，等待着你前去摸索。&lt;br&gt;&lt;br&gt;&lt;strong&gt;亡地后存 死地后生&lt;/strong&gt;&lt;br&gt;对受到圣堂祝福的人来说，死亡并非终点，每一次旅程的结束，都会带回一些东西回到圣堂，让下一趟旅程能走得更加平顺、又或更加凶险难测。</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2114740</t>
+          <t>2101080</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Blasphemous 2</t>
+          <t>中华一商</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>神之亵渎2</t>
+          <t>中华一商</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>冒险,战斗,类银河战士恶魔城,类魂系列,横向滚屏</t>
+          <t>贸易,经济,生活模拟,2D,沉浸式模拟</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -9002,39 +9002,39 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>2023年08月25日</t>
+          <t>2023年02月23日</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>《神之亵渎》系列的续作预示着“悔罪者一号”的回归，剧情延续自原版游戏的免费可下载内容“Wounds of Eventide”，天空中的心预告着“奇迹”的回归，也代表了新的奇迹之子就要诞生。&lt;br&gt;&lt;br&gt;“悔罪者一号”在一片全然陌生的土地上苏醒，不在他最终长眠之处，他再度深陷出生、死亡和复活的无尽循环，别无选择，他只能动身探索这个危险的新世界，揭开其中被遗忘已久的秘密。&lt;br&gt;&lt;br&gt;成群的怪异敌人阻挡您的去路，等待接受“悔罪者一号”残暴的最终审判，而巨型的变异头目也潜伏在黑暗中，等着能将您送回坟墓的时机。&lt;br&gt;&lt;br&gt;击倒他们并非易事，但《神之亵渎2》将提供您更多自定义和提升技能组合的机会，以及一些能让您怀抱满腔正义热血和无尽怒火使用的全新独特武器，胜利指日可待。&lt;br&gt;&lt;br&gt;最终，只有一件事是确定的... 忏悔永无止境。&lt;br&gt;&lt;br&gt;&lt;strong&gt;探索更完整的非线性世界&lt;/strong&gt;&lt;br&gt;&lt;br&gt;在一个全然陌生的世界苏醒之后，您将在一系列迷人的哥特式怪诞场景中重新展开旅程，到处都是严酷无情的陷阱。要如何应对这个迷宫般的世界由您决定，想要怎么进行都没问题，只能将敌人全数解决。&lt;br&gt;&lt;br&gt;&lt;strong&gt;残暴战斗&lt;/strong&gt;&lt;br&gt;&lt;br&gt;“悔罪者一号”不知手下留情为何物，一系列新武器将带来新的动作、残酷的处决和更多样化的连击，任何挡路的敌人都等着面临毁灭的结局。&lt;br&gt;&lt;br&gt;&lt;strong&gt;自定义游戏风格&lt;/strong&gt;&lt;br&gt;&lt;br&gt;《神之亵渎2》提供了新的游玩方式，可以自定义和提升您的基础技能，还有几种新的独特武器可以对敌人发动毁灭性的攻击。&lt;br&gt;&lt;br&gt;&lt;strong&gt;紧张刺激的头目战&lt;/strong&gt;&lt;br&gt;&lt;br&gt;成群的可怕敌人挡在您与目标之间；扭曲头目具有独特的攻击模式和破坏力惊人的能力，将彻底考验您的技术。想尽办法奋战以在最后取得甜美的胜利。&lt;br&gt;&lt;br&gt;&lt;strong&gt;探索充满深度的新世界&lt;/strong&gt;&lt;br&gt;&lt;br&gt;一个全新世界正等着您，这里有很多神秘的新 NPC 可以互动，有些人会提供帮助，有些人会请求您帮忙，也有些人会派您去执行危险无比的任务，以取得遭遗忘已久的物品。有这么多可以探索的内容，您碰到的故事与事物将帮助您揭开游戏的无数秘密，让您更深入了解这个奇异的新世界。</t>
+          <t>&lt;strong&gt;关注我们&lt;/strong&gt;&lt;br&gt;欢迎关注我们的官方社群：&lt;br&gt;《中华一商》玩家Q群：639430588&lt;br&gt;游戏便当QQ群①：287356527【已满】&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569&lt;br&gt;&lt;br&gt;各位商人老爷们遇到问题或者有好的建议，欢迎大家在收集表内进行反馈和提交&lt;h2 class="bb_tag"&gt;&lt;strong&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://docs.qq.com/sheet/DQnhRWnBPY3JJc1JI?tab=BB08J2" target="_blank" rel=" noopener"  &gt;《中华一商》常见问题&amp;amp;BUG建议表&lt;/a&gt;&lt;/strong&gt;&lt;/h2&gt;我们会逐条查看，修改，改进，感谢大家的反馈！&lt;br&gt;&lt;br&gt;&lt;br&gt;中华一商是一款模拟经营贸易游戏，背景设定在架空的古代中华地区，在游戏中，你可以从一无所有的穷伙计变成富甲天下的大商人。通过商品买卖、投资城市、完成商单、运营商号、管理家族，目标是最高荣誉的中华一商！&lt;br&gt;&lt;br&gt;经营生意的同时，还可以体验模拟人生，结婚生子、传宗接代，随着家族成员的成长，他们还可以与你一起经商贸易，务工赚钱，是我们成长为一名贸易大亨必不可少的帮助。&lt;br&gt;&lt;br&gt;我们的终极目标，就是垄断全地区商业，成为每一座城市的最大商人，同时拥有一个强大的家族，让我们的事业可以一直传承下去。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/1.jpg?t=1692518791" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/11.jpg?t=1692518791" /&gt;&lt;br&gt;游戏中拥有80个基于真实地理、名称的古代城市，从中原的兖州到关中的洛阳，从西域的弓月城到宝岛上的琉球，都是游戏中可以到达的地方。跨越整个地图，甚至需要游戏中一年的时间，但是丰厚的利润差会让一切奔波都值得。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/01.jpg?t=1692518791" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/22.jpg?t=1692518791" /&gt;&lt;br&gt;游戏中共计89种琳琅满目的商品，分布在不同的城市和地区。商品的价格会随着游戏中的时间进行有涨有跌，需要你在最恰当的时机低买高卖，才能实现财富增长。游戏中还会有随机的城市节日举行，在特殊的日子里，某些商品的价格可能会是史上最低！游戏中的口才属性越高，还能在讨价还价的小游戏中获取更多的折扣和优惠。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/02.jpg?t=1692518791" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/33.jpg?t=1692518791" /&gt;&lt;br&gt;不同等级的城市会定时发布最新的商单需求，通过运输不同地方紧缺的商品，可以获得比平时更多的超额利润，积极完成商单，规划贸易路线，是快速致富的秘诀。每完成一笔商单，就会积攒非常重要的商誉，拥有足够的商誉，是解锁新的城市贸易许可的关键。毕竟，你获得的商誉越多，说明你在商界的名声越大，大家也就更愿意和你做生意。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/03.jpg?t=1692518791" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/44.jpg?t=1692518791" /&gt;&lt;br&gt;在游戏中，你需要组建商队才可以拥有贸易必须的载货量和运输能力。你需要伙计帮你搬运货物，需要驴车帮你进行长途运输，需要护卫提供武力保护，免受山贼的滋扰。欧，对了，你可能还需要一些郎中，不然遇到瘟疫的话商队的行进速度就会变得很慢很慢。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/04.jpg?t=1692518791" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/555.jpg?t=1692518791" /&gt;&lt;br&gt;在贸易的路上，可能会存在各种各样的随机事件，可能是捡到商品的天降洪福，也可能被扒手盯上，损失一些银两，据说有一种家族成员的天赋可以提升我们的好运气。进入不同的城市时，还可能会遇到需要抉择的突发事件，有可能是当地百姓的求助，也可能是家庭和事业冲突时进行的选择，不同的选项会有不同的结果，尝试每一种选项带来的可能性吧！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/05.jpg?t=1692518791" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/66.jpg?t=1692518791" /&gt;&lt;br&gt;在游戏中，你不仅是贸易的领队，还是一个家族的族长。当你有了一定的积蓄，就可以建造宅邸，嫁娶自己的人生配偶，一代一代地繁衍、教育，组建几十人的庞大家庭。每个家族成员都有管理、口才、魅力三大能力，你可以指派优秀的家族成员担任商队的副领队，或者商号的总管，提升贸易的效率！每个家族成员都会随着时间的流逝长大、生病、变老，当一代人逝去，需要你指派新一代的继承人接棒家族事业，传承百年商业。每个人还有独立的外貌系统，拥有易容丹甚至可以改变一个人的外貌。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/06.jpg?t=1692518791" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/77.jpg?t=1692518791" /&gt;&lt;br&gt;家族可以获得最多十件的传家宝，每件传家宝都拥有着非凡的增益效果，对家族成员的能力和商队能力有着强大的增益。传家宝的获得与首席商号的数量息息相关，获得传家宝后，还可以通过珍宝对传家宝进行升级，让传家宝发挥出更大的效果。珍宝只存在于皇都长安，据说游荡在大地图上的珍宝商人也会有优惠的珍宝出售，努力遇见他吧！每个家族成员还拥有自己独一无二的天赋，天赋是会对全家族生效的一种超强能力，要珍惜拥有强大天赋的家族成员。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/07.jpg?t=1692518791" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/88.jpg?t=1692518791" /&gt;&lt;br&gt;游戏中除了进行手动贸易外，成立商号也是中后期的主要资金来源。商号会募集其他商队为你效力，商号的等级越高，能募集的商队就越多，商队的能力也越强，感到贸易有点累时，休息一下，让商号为你聚集财富也不失一个好的选择。每个城市都可以成立一个商号，当市场占有率超过50%时，就会成为首席商号。首席商号达到指定数量时，就可以获得传说中的家族传家宝。但是我们的竞争对手可能不会让我们的首席商号之路走得很顺畅，他们可能会时不时发起商战！商战时，家族的总能力越强，商号的战斗力就越强，挫败竞争对手的挑战，巩固我们的商业地位吧！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/08.jpg?t=1692518791" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/99.jpg?t=1692518791" /&gt;&lt;br&gt;每年的资产变化、每年的收支、买卖最多的商品、去过最多的地方，都会记录在游戏中的数据系统，数据记录着你一路走来的艰辛与成就。当你铸就自己的贸易帝国时，回头看这些真实记录时，想必会别有一番感慨吧！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2101080/extras/09.jpg?t=1692518791" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2130460</t>
+          <t>2114740</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>FATAL FRAME / PROJECT ZERO: Mask of the Lunar Eclipse</t>
+          <t>Blasphemous 2</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>零 ～月蚀的假面～</t>
+          <t>神之亵渎2</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>冒险,女性主角,动作,单人,动作冒险</t>
+          <t>冒险,战斗,类银河战士恶魔城,类魂系列,横向滚屏</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -9049,34 +9049,34 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>2023年03月09日</t>
+          <t>2023年08月25日</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;&lt;strong&gt;■何谓《零 ～月蚀的假面～》&lt;/strong&gt;&lt;/h2&gt;零 ～月蚀的假面～》在2008年于日本发售，是和风恐怖冒险游戏“零”系列的第4作。继2021年发售的重制版&lt;a href="https://store.steampowered.com/app/1732190/" target="_blank" rel=""  &gt;《零 ～濡鸦之巫女～》&lt;/a&gt;后，“零”系列的名作将再次以美丽的画面复苏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2130460/extras/steam00.jpg?t=1683620930" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;■游戏内容&lt;/strong&gt;&lt;/h2&gt;幼年时期，在孤岛“胧月岛”上的祭祀中遭遇“神隐”的少女们，为了追寻失去的那一天的记忆而再度造访孤岛。依靠能够拍摄看不见的事物并将其封印的“射影机”以及手电筒的微光探索各种各样的场景，击退袭来的怨灵并追寻事件的真相。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2130460/extras/video01.gif?t=1683620930" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;・射影机&lt;/strong&gt;&lt;br&gt;通过拍摄击退并封印怨灵的陈旧相机“射影机”是本作中不可或缺的重要道具。在与灵体的战斗中以“射影机”为武器，用观景窗捕捉并拍摄对灵体造成伤害。&lt;br&gt;另外，使用“射影机”拍摄可疑的场景，便能以其特殊的力量使解决谜团的重要线索显形，在游戏探索中也有着重要的作用。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2130460/extras/steam01.jpg?t=1683620930" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;・探索胧月岛&lt;/strong&gt;&lt;br&gt;通过月光和手电筒的微光，探索岛上昏暗的洋馆与废弃医院。&lt;br&gt;另外，故事剧情也会随“触碰”各种场景中的物体而推进。通过查看过去的报纸或备忘录，逐步揭开曾发生过的可怕事件等，以及主人公所失去的记忆、接近故事的真相。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2130460/extras/steam02.jpg?t=1683620930" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;■重制版的特点&lt;/strong&gt;&lt;/h2&gt;&lt;strong&gt;・画面表现力的提升&lt;/strong&gt;&lt;br&gt;本作中，主要角色的模型全部重新制作，角色登场动画也焕然一新。&lt;br&gt;此外，配合登陆平台进行了高分辨率化。受手电筒光线影响的光影表现得到提升，变得更加真实，能够体验到身临其境的恐怖感。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2130460/extras/video02.gif?t=1683620930" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;・追加拍照模式&lt;/strong&gt;&lt;br&gt;搭载能够让角色与灵体摆出各种姿势进行拍摄的“拍照模式”。能够在游戏中那些令人瑟瑟发抖的场景，制作出属于自己的场景。说不定还能拍到出乎意料的心灵写真呢。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2130460/extras/steam03.jpg?t=1683620930" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;・追加全新服装&lt;/strong&gt;&lt;br&gt;对一部分原版的服装进行了变更，并且准备了全新服装。通过改变角色的穿着，能够以不同的气氛进行探索。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2130460/extras/steam04.jpg?t=1683620930" /&gt;&lt;br&gt;&lt;br&gt;※《零 ～月蚀的假面～数字豪华版 》为包含游戏本篇的套组商品，请注意重复购买。</t>
+          <t>《神之亵渎》系列的续作预示着“悔罪者一号”的回归，剧情延续自原版游戏的免费可下载内容“Wounds of Eventide”，天空中的心预告着“奇迹”的回归，也代表了新的奇迹之子就要诞生。&lt;br&gt;&lt;br&gt;“悔罪者一号”在一片全然陌生的土地上苏醒，不在他最终长眠之处，他再度深陷出生、死亡和复活的无尽循环，别无选择，他只能动身探索这个危险的新世界，揭开其中被遗忘已久的秘密。&lt;br&gt;&lt;br&gt;成群的怪异敌人阻挡您的去路，等待接受“悔罪者一号”残暴的最终审判，而巨型的变异头目也潜伏在黑暗中，等着能将您送回坟墓的时机。&lt;br&gt;&lt;br&gt;击倒他们并非易事，但《神之亵渎2》将提供您更多自定义和提升技能组合的机会，以及一些能让您怀抱满腔正义热血和无尽怒火使用的全新独特武器，胜利指日可待。&lt;br&gt;&lt;br&gt;最终，只有一件事是确定的... 忏悔永无止境。&lt;br&gt;&lt;br&gt;&lt;strong&gt;探索更完整的非线性世界&lt;/strong&gt;&lt;br&gt;&lt;br&gt;在一个全然陌生的世界苏醒之后，您将在一系列迷人的哥特式怪诞场景中重新展开旅程，到处都是严酷无情的陷阱。要如何应对这个迷宫般的世界由您决定，想要怎么进行都没问题，只能将敌人全数解决。&lt;br&gt;&lt;br&gt;&lt;strong&gt;残暴战斗&lt;/strong&gt;&lt;br&gt;&lt;br&gt;“悔罪者一号”不知手下留情为何物，一系列新武器将带来新的动作、残酷的处决和更多样化的连击，任何挡路的敌人都等着面临毁灭的结局。&lt;br&gt;&lt;br&gt;&lt;strong&gt;自定义游戏风格&lt;/strong&gt;&lt;br&gt;&lt;br&gt;《神之亵渎2》提供了新的游玩方式，可以自定义和提升您的基础技能，还有几种新的独特武器可以对敌人发动毁灭性的攻击。&lt;br&gt;&lt;br&gt;&lt;strong&gt;紧张刺激的头目战&lt;/strong&gt;&lt;br&gt;&lt;br&gt;成群的可怕敌人挡在您与目标之间；扭曲头目具有独特的攻击模式和破坏力惊人的能力，将彻底考验您的技术。想尽办法奋战以在最后取得甜美的胜利。&lt;br&gt;&lt;br&gt;&lt;strong&gt;探索充满深度的新世界&lt;/strong&gt;&lt;br&gt;&lt;br&gt;一个全新世界正等着您，这里有很多神秘的新 NPC 可以互动，有些人会提供帮助，有些人会请求您帮忙，也有些人会派您去执行危险无比的任务，以取得遭遗忘已久的物品。有这么多可以探索的内容，您碰到的故事与事物将帮助您揭开游戏的无数秘密，让您更深入了解这个奇异的新世界。</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2132840</t>
+          <t>2130460</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Deliverance &amp; Reign</t>
+          <t>FATAL FRAME / PROJECT ZERO: Mask of the Lunar Eclipse</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>魔堡：最后的仪式</t>
+          <t>零 ～月蚀的假面～</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>卡牌战斗,轻度 Rogue,自走棋,牌组构建,黑暗奇幻</t>
+          <t>冒险,女性主角,动作,单人,动作冒险</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -9084,36 +9084,41 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>2023年05月18日</t>
+          <t>2023年03月09日</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2132840/extras/Roguelike_Deckbuilder.png?t=1684915186" /&gt;&lt;br&gt;卡牌构筑Roguelike&lt;br&gt;邪恶的哥特城堡门前，正义与邪恶将迎来最终的决战。不论你是硬核玩家还是萌新，都能在这款卡牌构建roguelike里找到乐趣！&lt;br&gt;你的地盘你做主：从魔王艾拉瑞克的魔爪中拯救世界，或是，成为魔王本尊，捍卫自己的统治。&lt;br&gt;官方玩家QQ群 ： 612626375&lt;br&gt; &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2132840/extras/Good_vs_Evil.png?t=1684915186" /&gt;&lt;br&gt;正与邪&lt;br&gt;魔堡围攻拥有完整而丰富的游戏体验，又分为两个截然不同的模块：拯救与统治。&lt;br&gt;两个模式各具特色，同时又组成了一个有机的整体。&lt;br&gt;两种模式可以随时切换，存档、进度和成就也彼此独立，大胆尝试体验吧。&lt;br&gt;各具特色的卡牌带来了眼花缭乱的玩法，升级、扩充你的卡组，打造你独一无二的style吧！&lt;br&gt;如果你是萌新，魔堡围攻将是入坑卡牌构建roguelike的不二之选；如果你是大佬，高阶地狱难度里你可以尽情受苦，保证你欲罢不能！&lt;br&gt; &lt;br&gt; &lt;br&gt;拯救&lt;br&gt;变身正义的化身，向艾拉瑞克的魔堡进发，消灭一切横亘在路上的敌人，为魔王的暴政画上最后的休止符。&lt;br&gt;魔王的古堡凶险无比，你必须步步为营，而魔王将在城堡的最顶层等候着你的出现。&lt;br&gt; &lt;br&gt;谨慎选择你的职业和初始卡牌。只有知己知彼，才能百战不殆；懂得取舍，才能笑到最后。&lt;br&gt;每个职业都有自己专属的增益、减益和物资！&lt;br&gt;每层关底，你可以选择回撤，安全带走你发现的财宝并强化自身；或者选择继续深入探寻更丰厚的宝藏，前提是你能活着把它们带走。&lt;br&gt;古堡共有4层，每层最后会有一个独特的Boss战，你的技术和策略将会迎来巨大的考验。&lt;br&gt;请记住：如果你浪费了太多时间，古堡深处的恶灵将钻出洞穴，将你撕成碎片！&lt;br&gt;如果你能成功战胜魔王，恭喜你，地狱层级难度将为真正的勇士开启，欢迎硬核玩家前来挑战。&lt;br&gt;拯救包含：&lt;br&gt;6大职业，37种技能和配置；&lt;br&gt;25种武器，53种神器；&lt;br&gt;25种祝福；&lt;br&gt;40个敌人单位和7个首领；&lt;br&gt;15层地狱层级（额外难度挑战）；&lt;br&gt;29个成就；&lt;br&gt; &lt;br&gt;你能从艾拉瑞克的魔掌中拯救世界吗？&lt;br&gt; &lt;br&gt; &lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2132840/extras/deliverance1.gif?t=1684915186" /&gt;&lt;br&gt;统治&lt;br&gt;我已堕落，我就是魔王本尊！&lt;br&gt;一群无知的英雄打算入侵你的城堡，阻止他们！&lt;br&gt;与6大种族（他们各具特色，但都无比邪恶！）之一签订契约，抗击入侵者。&lt;br&gt;在城堡各层布置手下，阻挡敌人前进的步伐，保护顶层的王座。&lt;br&gt;你会如何应对。步步为营，缜密经营，用策略压制敌人；还是用强大的手下和法术碾压敌人？&lt;br&gt;每场Boss战对你的能力提出了不同的考验，探索最佳的策略和方式，碾碎那些可怜的英雄们吧！&lt;br&gt; &lt;br&gt;统治包含：&lt;br&gt;6大种族，每个种族拥有9种英雄变体，31个单位和法术，以及22种升级；&lt;br&gt;34个敌人单位和14个首领；&lt;br&gt;17个神秘事件；&lt;br&gt;15层地狱层级（额外难度挑战）；&lt;br&gt;29个成就；&lt;br&gt; &lt;br&gt;那些蝼蚁终将俯首称臣，只有你才是真正的魔王！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2132840/extras/deliverance3.gif?t=1684915186" /&gt;</t>
+          <t>&lt;h2 class="bb_tag"&gt;&lt;strong&gt;■何谓《零 ～月蚀的假面～》&lt;/strong&gt;&lt;/h2&gt;零 ～月蚀的假面～》在2008年于日本发售，是和风恐怖冒险游戏“零”系列的第4作。继2021年发售的重制版&lt;a href="https://store.steampowered.com/app/1732190/" target="_blank" rel=""  &gt;《零 ～濡鸦之巫女～》&lt;/a&gt;后，“零”系列的名作将再次以美丽的画面复苏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2130460/extras/steam00.jpg?t=1683620930" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;■游戏内容&lt;/strong&gt;&lt;/h2&gt;幼年时期，在孤岛“胧月岛”上的祭祀中遭遇“神隐”的少女们，为了追寻失去的那一天的记忆而再度造访孤岛。依靠能够拍摄看不见的事物并将其封印的“射影机”以及手电筒的微光探索各种各样的场景，击退袭来的怨灵并追寻事件的真相。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2130460/extras/video01.gif?t=1683620930" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;・射影机&lt;/strong&gt;&lt;br&gt;通过拍摄击退并封印怨灵的陈旧相机“射影机”是本作中不可或缺的重要道具。在与灵体的战斗中以“射影机”为武器，用观景窗捕捉并拍摄对灵体造成伤害。&lt;br&gt;另外，使用“射影机”拍摄可疑的场景，便能以其特殊的力量使解决谜团的重要线索显形，在游戏探索中也有着重要的作用。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2130460/extras/steam01.jpg?t=1683620930" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;・探索胧月岛&lt;/strong&gt;&lt;br&gt;通过月光和手电筒的微光，探索岛上昏暗的洋馆与废弃医院。&lt;br&gt;另外，故事剧情也会随“触碰”各种场景中的物体而推进。通过查看过去的报纸或备忘录，逐步揭开曾发生过的可怕事件等，以及主人公所失去的记忆、接近故事的真相。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2130460/extras/steam02.jpg?t=1683620930" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;■重制版的特点&lt;/strong&gt;&lt;/h2&gt;&lt;strong&gt;・画面表现力的提升&lt;/strong&gt;&lt;br&gt;本作中，主要角色的模型全部重新制作，角色登场动画也焕然一新。&lt;br&gt;此外，配合登陆平台进行了高分辨率化。受手电筒光线影响的光影表现得到提升，变得更加真实，能够体验到身临其境的恐怖感。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2130460/extras/video02.gif?t=1683620930" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;・追加拍照模式&lt;/strong&gt;&lt;br&gt;搭载能够让角色与灵体摆出各种姿势进行拍摄的“拍照模式”。能够在游戏中那些令人瑟瑟发抖的场景，制作出属于自己的场景。说不定还能拍到出乎意料的心灵写真呢。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2130460/extras/steam03.jpg?t=1683620930" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;・追加全新服装&lt;/strong&gt;&lt;br&gt;对一部分原版的服装进行了变更，并且准备了全新服装。通过改变角色的穿着，能够以不同的气氛进行探索。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2130460/extras/steam04.jpg?t=1683620930" /&gt;&lt;br&gt;&lt;br&gt;※《零 ～月蚀的假面～数字豪华版 》为包含游戏本篇的套组商品，请注意重复购买。</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2138710</t>
+          <t>2132840</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Sifu</t>
+          <t>Deliverance &amp; Reign</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>师父</t>
+          <t>魔堡：最后的仪式</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>动作,清版动作,武术,困难,第三人称</t>
+          <t>卡牌战斗,轻度 Rogue,自走棋,牌组构建,黑暗奇幻</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -9121,41 +9126,36 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
-      </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>2023年03月28日</t>
+          <t>2023年05月18日</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://www.sifugame.com/#newsletter" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2138710/extras/Steam_Header.png?t=1694091646" /&gt;&lt;/a&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2138710/extras/Steam_Gif5_EnterTheArenasCHISimplified.gif?t=1694091646" /&gt;&lt;br&gt;迫不及待想要领略更多令人惊叹的功夫格斗？免费竞技场扩展内容增添了数个小时的游戏体验，让你可以一展身手，尽情考验自己的功夫。&lt;br&gt;随着新增了5个游戏模式、15张全新动态地图和120个挑战，准备好见证淋漓尽致的战斗、残暴凶狠的对手以及无数次磨砺自身武艺招数的机会！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2138710/extras/Steam_Gif1_ToHaveKungFuCHISimplified.gif?t=1694091646" /&gt;&lt;br&gt;无论性别身份如何，在《Sifu》中，你将前去追捕害得你家破人亡的罪魁祸首， 在这段复仇之旅上，你将无数次向自己提出这个问题。孤身一人对抗世界，摆在你面前的只有数不尽的敌人，以及一枚能够 让你起死回生的神秘护身符。但是一定要小心！使用这个秘密武器将需要付出 沉重的代价：你将夭折寿命并承受衰老的代价。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2138710/extras/Steam_Gif2_LearningByFireCHISimplified.gif?t=1694091646" /&gt;&lt;br&gt;敌人们并不会坐以待毙，更不会随便暴露自己的意图。看准时机闪避、格挡、攻击并发动连击，在行云流水般的招式中 体验美轮美奂的场景。在实战中精通武艺，在夜总会的深处 奋力战斗，或者是为了避免腹背受敌在上流画廊中左突右闪，亦或是 在高耸入云的政府大楼中上下翻腾。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2138710/extras/Steam_Gif3_AdaptationIsSurvivalCHISimplified.gif?t=1694091646" /&gt;&lt;br&gt;为了生存，你必须学会谨慎规位置并巧妙利用周遭环境。正所谓无所不用其极：投掷物，简易武器，窗户或者是台阶……生死存亡皆在一念间，敌人绝不会对你手下留情。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2138710/extras/Steam_Gif4_TrainingNeverEndsCHISimplified.gif?t=1694091646" /&gt;&lt;br&gt;只有靠不断练习，你才能真正掌握功夫之道，你的身心都将受到考验。从错误中吸取教训，解锁独特技能以掌握更强大的力量， 逐渐掌握白眉拳的精髓。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2132840/extras/Roguelike_Deckbuilder.png?t=1684915186" /&gt;&lt;br&gt;卡牌构筑Roguelike&lt;br&gt;邪恶的哥特城堡门前，正义与邪恶将迎来最终的决战。不论你是硬核玩家还是萌新，都能在这款卡牌构建roguelike里找到乐趣！&lt;br&gt;你的地盘你做主：从魔王艾拉瑞克的魔爪中拯救世界，或是，成为魔王本尊，捍卫自己的统治。&lt;br&gt;官方玩家QQ群 ： 612626375&lt;br&gt; &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2132840/extras/Good_vs_Evil.png?t=1684915186" /&gt;&lt;br&gt;正与邪&lt;br&gt;魔堡围攻拥有完整而丰富的游戏体验，又分为两个截然不同的模块：拯救与统治。&lt;br&gt;两个模式各具特色，同时又组成了一个有机的整体。&lt;br&gt;两种模式可以随时切换，存档、进度和成就也彼此独立，大胆尝试体验吧。&lt;br&gt;各具特色的卡牌带来了眼花缭乱的玩法，升级、扩充你的卡组，打造你独一无二的style吧！&lt;br&gt;如果你是萌新，魔堡围攻将是入坑卡牌构建roguelike的不二之选；如果你是大佬，高阶地狱难度里你可以尽情受苦，保证你欲罢不能！&lt;br&gt; &lt;br&gt; &lt;br&gt;拯救&lt;br&gt;变身正义的化身，向艾拉瑞克的魔堡进发，消灭一切横亘在路上的敌人，为魔王的暴政画上最后的休止符。&lt;br&gt;魔王的古堡凶险无比，你必须步步为营，而魔王将在城堡的最顶层等候着你的出现。&lt;br&gt; &lt;br&gt;谨慎选择你的职业和初始卡牌。只有知己知彼，才能百战不殆；懂得取舍，才能笑到最后。&lt;br&gt;每个职业都有自己专属的增益、减益和物资！&lt;br&gt;每层关底，你可以选择回撤，安全带走你发现的财宝并强化自身；或者选择继续深入探寻更丰厚的宝藏，前提是你能活着把它们带走。&lt;br&gt;古堡共有4层，每层最后会有一个独特的Boss战，你的技术和策略将会迎来巨大的考验。&lt;br&gt;请记住：如果你浪费了太多时间，古堡深处的恶灵将钻出洞穴，将你撕成碎片！&lt;br&gt;如果你能成功战胜魔王，恭喜你，地狱层级难度将为真正的勇士开启，欢迎硬核玩家前来挑战。&lt;br&gt;拯救包含：&lt;br&gt;6大职业，37种技能和配置；&lt;br&gt;25种武器，53种神器；&lt;br&gt;25种祝福；&lt;br&gt;40个敌人单位和7个首领；&lt;br&gt;15层地狱层级（额外难度挑战）；&lt;br&gt;29个成就；&lt;br&gt; &lt;br&gt;你能从艾拉瑞克的魔掌中拯救世界吗？&lt;br&gt; &lt;br&gt; &lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2132840/extras/deliverance1.gif?t=1684915186" /&gt;&lt;br&gt;统治&lt;br&gt;我已堕落，我就是魔王本尊！&lt;br&gt;一群无知的英雄打算入侵你的城堡，阻止他们！&lt;br&gt;与6大种族（他们各具特色，但都无比邪恶！）之一签订契约，抗击入侵者。&lt;br&gt;在城堡各层布置手下，阻挡敌人前进的步伐，保护顶层的王座。&lt;br&gt;你会如何应对。步步为营，缜密经营，用策略压制敌人；还是用强大的手下和法术碾压敌人？&lt;br&gt;每场Boss战对你的能力提出了不同的考验，探索最佳的策略和方式，碾碎那些可怜的英雄们吧！&lt;br&gt; &lt;br&gt;统治包含：&lt;br&gt;6大种族，每个种族拥有9种英雄变体，31个单位和法术，以及22种升级；&lt;br&gt;34个敌人单位和14个首领；&lt;br&gt;17个神秘事件；&lt;br&gt;15层地狱层级（额外难度挑战）；&lt;br&gt;29个成就；&lt;br&gt; &lt;br&gt;那些蝼蚁终将俯首称臣，只有你才是真正的魔王！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2132840/extras/deliverance3.gif?t=1684915186" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2140850</t>
+          <t>2138710</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Looper Tactics</t>
+          <t>Sifu</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>虚妄轮回</t>
+          <t>师父</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>牌组构建,卡牌战斗,自走棋,卡牌游戏,桌上游戏</t>
+          <t>动作,清版动作,武术,困难,第三人称</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -9165,47 +9165,71 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>2023年08月28日</t>
+          <t>2023年03月28日</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;《虚妄轮回》官方QQ群：658493805&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;如果遇到黑屏，游戏卡死或者其他bug等问题，可以进群找管理员，在线帮您解决。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/介绍gif.gif?t=1693986474" /&gt;&lt;h2 class="bb_tag"&gt;游戏介绍&lt;/h2&gt;《虚妄轮回》是一款独具魅力的策略卡牌RPG，游戏融合了DBG卡牌构筑、经典卡牌对战和酒馆战棋等元素。在这个引人入胜的冒险中，你将穿越棋盘式地图，通过战斗、事件和寻宝不断组建和强化卡组，同时探寻隐藏在这个虚幻世界背后的真相。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn_title1.png?t=1693986474" /&gt;&lt;br&gt;在《虚妄轮回》的冒险过程中，你能够如同探险般自由地翻开地图上板块，探索地图上未知的宝藏与挑战。自由地决定前进的方向，踏足副本中的每一个角落。需要注意的是，你的每一步的行动都会令游戏时间推进，而你的敌人则会随着时间的流逝而逐渐变强。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/棋盘探索.gif?t=1693986474" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn_title2.png?t=1693986474" /&gt;&lt;br&gt;作为一款DBG卡牌构建游戏，《虚妄轮回》融合炉石传说，刀牌和酒馆战棋等经典同类型游戏的玩法，并带有策略和轻度肉鸽元素。游戏中你要通过一次次的战斗、事件、寻宝，收集资源，同时构筑强化你的牌组，为挑战最终BOSS做好准备。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/战斗.gif?t=1693986474" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn_title3.png?t=1693986474" /&gt;&lt;br&gt;游戏中拥有精灵、元素、机械、恶魔与巨龙等多种族卡牌可供选择，每张卡牌都有两种不同的形态可供自由选择。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn1.jpg?t=1693986474" /&gt;&lt;br&gt;每个种族卡牌都有着各自独特的机制，你也可以组合搭配不同的种族卡牌，并配合各类增强法术，构筑出一套专属于你的卡组。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn2.jpg?t=1693986474" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn_title4.png?t=1693986474" /&gt;&lt;br&gt;在一场场的战斗过程中，随从卡牌将能够通过各种方式获得&lt;strong&gt;永久的属性成长&lt;/strong&gt;。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/永久成长.gif?t=1693986474" /&gt;&lt;br&gt;更有数十种独特能力，进一步提升随从卡牌的战斗能力。哪怕是最低阶的随从卡牌，在经历了无数次的战斗后，也能够成为独当一面的强力卡牌。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn3.jpg?t=1693986474" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn_title5.png?t=1693986474" /&gt;&lt;br&gt;《虚妄轮回》中设计有不同风格的迷宫副本供玩家探索挑战，每个副本都有着独特的副本机制及怪物群落，并且会随着游戏的进度而不断提高难度，为你带去完全不同的冒险体验以及更加精彩的战斗挑战。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/迷宫副本.gif?t=1693986474" /&gt;&lt;br&gt;在完成副本之后，还可获得大量强化物资，用于提升卡牌等级、强化英雄、强化宝物等，游戏提供了丰富的局外养成元素，让你用最强的状态去迎接下一次挑战。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn_title6.png?t=1693986474" /&gt;&lt;br&gt;古老帝国创造了盒中世界，实现了人造灵魂。有人惧怕这个世界会带来毁灭，因而将其封印，设置了无尽的轮回来保证它与外界永世隔绝。作为人造物，一旦拥有了灵魂，它的存在是虚妄的，或是真实的？作为造物者，自己的存在是否又源于“更外面”的造物者？&lt;br&gt;如所有的冒险故事一般，在《虚妄轮回》中你将扮演一名身负拯救世界重任的勇者，一路前行成长变强并打败恶龙、魔王，你以为故事会这样简单的结束？这或许只是数千次轮回中一次偶然的成功，你所要面对的可能是比想象还要更加残酷的事实。</t>
+          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://www.sifugame.com/#newsletter" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2138710/extras/Steam_Header.png?t=1694091646" /&gt;&lt;/a&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2138710/extras/Steam_Gif5_EnterTheArenasCHISimplified.gif?t=1694091646" /&gt;&lt;br&gt;迫不及待想要领略更多令人惊叹的功夫格斗？免费竞技场扩展内容增添了数个小时的游戏体验，让你可以一展身手，尽情考验自己的功夫。&lt;br&gt;随着新增了5个游戏模式、15张全新动态地图和120个挑战，准备好见证淋漓尽致的战斗、残暴凶狠的对手以及无数次磨砺自身武艺招数的机会！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2138710/extras/Steam_Gif1_ToHaveKungFuCHISimplified.gif?t=1694091646" /&gt;&lt;br&gt;无论性别身份如何，在《Sifu》中，你将前去追捕害得你家破人亡的罪魁祸首， 在这段复仇之旅上，你将无数次向自己提出这个问题。孤身一人对抗世界，摆在你面前的只有数不尽的敌人，以及一枚能够 让你起死回生的神秘护身符。但是一定要小心！使用这个秘密武器将需要付出 沉重的代价：你将夭折寿命并承受衰老的代价。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2138710/extras/Steam_Gif2_LearningByFireCHISimplified.gif?t=1694091646" /&gt;&lt;br&gt;敌人们并不会坐以待毙，更不会随便暴露自己的意图。看准时机闪避、格挡、攻击并发动连击，在行云流水般的招式中 体验美轮美奂的场景。在实战中精通武艺，在夜总会的深处 奋力战斗，或者是为了避免腹背受敌在上流画廊中左突右闪，亦或是 在高耸入云的政府大楼中上下翻腾。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2138710/extras/Steam_Gif3_AdaptationIsSurvivalCHISimplified.gif?t=1694091646" /&gt;&lt;br&gt;为了生存，你必须学会谨慎规位置并巧妙利用周遭环境。正所谓无所不用其极：投掷物，简易武器，窗户或者是台阶……生死存亡皆在一念间，敌人绝不会对你手下留情。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2138710/extras/Steam_Gif4_TrainingNeverEndsCHISimplified.gif?t=1694091646" /&gt;&lt;br&gt;只有靠不断练习，你才能真正掌握功夫之道，你的身心都将受到考验。从错误中吸取教训，解锁独特技能以掌握更强大的力量， 逐渐掌握白眉拳的精髓。</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2156230</t>
+          <t>2140850</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Atelier Ryza 3 - "Another Look" Costume Set</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr"/>
+          <t>Looper Tactics</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>虚妄轮回</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>牌组构建,卡牌战斗,自走棋,卡牌游戏,桌上游戏</t>
+        </is>
+      </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>DLC</t>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>2023年08月28日</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>&lt;strong&gt;《虚妄轮回》官方QQ群：658493805&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;如果遇到黑屏，游戏卡死或者其他bug等问题，可以进群找管理员，在线帮您解决。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/介绍gif.gif?t=1693986474" /&gt;&lt;h2 class="bb_tag"&gt;游戏介绍&lt;/h2&gt;《虚妄轮回》是一款独具魅力的策略卡牌RPG，游戏融合了DBG卡牌构筑、经典卡牌对战和酒馆战棋等元素。在这个引人入胜的冒险中，你将穿越棋盘式地图，通过战斗、事件和寻宝不断组建和强化卡组，同时探寻隐藏在这个虚幻世界背后的真相。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn_title1.png?t=1693986474" /&gt;&lt;br&gt;在《虚妄轮回》的冒险过程中，你能够如同探险般自由地翻开地图上板块，探索地图上未知的宝藏与挑战。自由地决定前进的方向，踏足副本中的每一个角落。需要注意的是，你的每一步的行动都会令游戏时间推进，而你的敌人则会随着时间的流逝而逐渐变强。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/棋盘探索.gif?t=1693986474" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn_title2.png?t=1693986474" /&gt;&lt;br&gt;作为一款DBG卡牌构建游戏，《虚妄轮回》融合炉石传说，刀牌和酒馆战棋等经典同类型游戏的玩法，并带有策略和轻度肉鸽元素。游戏中你要通过一次次的战斗、事件、寻宝，收集资源，同时构筑强化你的牌组，为挑战最终BOSS做好准备。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/战斗.gif?t=1693986474" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn_title3.png?t=1693986474" /&gt;&lt;br&gt;游戏中拥有精灵、元素、机械、恶魔与巨龙等多种族卡牌可供选择，每张卡牌都有两种不同的形态可供自由选择。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn1.jpg?t=1693986474" /&gt;&lt;br&gt;每个种族卡牌都有着各自独特的机制，你也可以组合搭配不同的种族卡牌，并配合各类增强法术，构筑出一套专属于你的卡组。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn2.jpg?t=1693986474" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn_title4.png?t=1693986474" /&gt;&lt;br&gt;在一场场的战斗过程中，随从卡牌将能够通过各种方式获得&lt;strong&gt;永久的属性成长&lt;/strong&gt;。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/永久成长.gif?t=1693986474" /&gt;&lt;br&gt;更有数十种独特能力，进一步提升随从卡牌的战斗能力。哪怕是最低阶的随从卡牌，在经历了无数次的战斗后，也能够成为独当一面的强力卡牌。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn3.jpg?t=1693986474" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn_title5.png?t=1693986474" /&gt;&lt;br&gt;《虚妄轮回》中设计有不同风格的迷宫副本供玩家探索挑战，每个副本都有着独特的副本机制及怪物群落，并且会随着游戏的进度而不断提高难度，为你带去完全不同的冒险体验以及更加精彩的战斗挑战。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/迷宫副本.gif?t=1693986474" /&gt;&lt;br&gt;在完成副本之后，还可获得大量强化物资，用于提升卡牌等级、强化英雄、强化宝物等，游戏提供了丰富的局外养成元素，让你用最强的状态去迎接下一次挑战。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2140850/extras/cn_title6.png?t=1693986474" /&gt;&lt;br&gt;古老帝国创造了盒中世界，实现了人造灵魂。有人惧怕这个世界会带来毁灭，因而将其封印，设置了无尽的轮回来保证它与外界永世隔绝。作为人造物，一旦拥有了灵魂，它的存在是虚妄的，或是真实的？作为造物者，自己的存在是否又源于“更外面”的造物者？&lt;br&gt;如所有的冒险故事一般，在《虚妄轮回》中你将扮演一名身负拯救世界重任的勇者，一路前行成长变强并打败恶龙、魔王，你以为故事会这样简单的结束？这或许只是数千次轮回中一次偶然的成功，你所要面对的可能是比想象还要更加残酷的事实。</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2156231</t>
+          <t>2156230</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Atelier Ryza 3 - "Back to Summer" Costume Set</t>
+          <t>Atelier Ryza 3 - "Another Look" Costume Set</t>
         </is>
       </c>
       <c r="D210" t="inlineStr"/>
@@ -9218,12 +9242,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2156234</t>
+          <t>2156231</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Atelier Ryza 3 - Pre-order Bonus</t>
+          <t>Atelier Ryza 3 - "Back to Summer" Costume Set</t>
         </is>
       </c>
       <c r="D211" t="inlineStr"/>
@@ -9236,35 +9260,53 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
+          <t>2156234</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Atelier Ryza 3 - Pre-order Bonus</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>DLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
           <t>2156235</t>
         </is>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>Atelier Ryza 3 - "Summer Look" Costume Set</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>莱莎的炼金工房３ - 服装组合“夏日穿搭”</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr">
+      <c r="D213" t="inlineStr">
         <is>
           <t>冒险,角色扮演,休闲,模拟</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr">
+      <c r="E213" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="G212" t="inlineStr">
+      <c r="G213" t="inlineStr">
         <is>
           <t>2023年03月24日</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
+      <c r="H213" t="inlineStr">
         <is>
           <t>追加莱莎、科洛蒂娅、兰托、塔奥、安佩尔、莉拉、博斯的专用夏日服装各1套，共7套。&lt;br /&gt;
 &lt;br /&gt;
@@ -9284,56 +9326,56 @@
         </is>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>2156237</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Atelier Ryza 3 - "GUST Collaboration" Costume Set</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr"/>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>DLC</t>
-        </is>
-      </c>
-    </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
+          <t>2156237</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Atelier Ryza 3 - "GUST Collaboration" Costume Set</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>DLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
           <t>2156238</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>Atelier Ryza 3 - "Endless Summer Splash!" Costume Set</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>莱莎的炼金工房３ - 服装组合“无尽夏日水花飞溅！”</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr">
+      <c r="D215" t="inlineStr">
         <is>
           <t>冒险,角色扮演,休闲,模拟</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr">
+      <c r="E215" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="G214" t="inlineStr">
+      <c r="G215" t="inlineStr">
         <is>
           <t>2023年03月24日</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
+      <c r="H215" t="inlineStr">
         <is>
           <t>11名队伍成员的泳装组合。每位角色各1套，共11套。&lt;br /&gt;
 &lt;br /&gt;
@@ -9356,38 +9398,38 @@
         </is>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
+    <row r="216">
+      <c r="A216" t="inlineStr">
         <is>
           <t>2156239</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>Atelier Ryza 3 - "Far East Travelers" Costume Set</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>莱莎的炼金工房３ - 服装组合“远东旅人”</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr">
+      <c r="D216" t="inlineStr">
         <is>
           <t>冒险,角色扮演,休闲,模拟</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr">
+      <c r="E216" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="G215" t="inlineStr">
+      <c r="G216" t="inlineStr">
         <is>
           <t>2023年04月13日</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
+      <c r="H216" t="inlineStr">
         <is>
           <t>以远东为主题的全新服装组合。莱莎、科洛蒂娅、兰托、塔奥、帕特莉夏、博斯、菲德丽卡、迪安、卡菈各1套，共9套。&lt;br /&gt;
 &lt;br /&gt;
@@ -9408,38 +9450,38 @@
         </is>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
+    <row r="217">
+      <c r="A217" t="inlineStr">
         <is>
           <t>2156250</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>Atelier Ryza 3 - Additional Area "Rosca Island"</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>莱莎的炼金工房３ - 追加地区“罗斯卡岛”</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr">
+      <c r="D217" t="inlineStr">
         <is>
           <t>冒险,角色扮演,休闲,模拟</t>
         </is>
       </c>
-      <c r="E216" t="inlineStr">
+      <c r="E217" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="G216" t="inlineStr">
+      <c r="G217" t="inlineStr">
         <is>
           <t>2023年06月01日</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
+      <c r="H217" t="inlineStr">
         <is>
           <t>追加1个新地区（开放原野）及其专属世界任务等相关内容。&lt;br /&gt;
 需持有通关游戏本篇后的保存数据方可游玩本内容。&lt;br /&gt;
@@ -9448,38 +9490,38 @@
         </is>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
+    <row r="218">
+      <c r="A218" t="inlineStr">
         <is>
           <t>2156253</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>Atelier Ryza 3 - Gust Extra BGM Pack</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>莱莎的炼金工房３ - GUST EXTRA BGM包</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr">
+      <c r="D218" t="inlineStr">
         <is>
           <t>冒险,角色扮演,休闲,模拟</t>
         </is>
       </c>
-      <c r="E217" t="inlineStr">
+      <c r="E218" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="G217" t="inlineStr">
+      <c r="G218" t="inlineStr">
         <is>
           <t>2023年06月01日</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
+      <c r="H218" t="inlineStr">
         <is>
           <t>追加可用于更换游戏内BGM的GUST历代作品BGM包。&lt;br /&gt;
 追加超过400首精选自《莱莎的炼金工房２》《苏菲的炼金工房２》等GUST历代作品的BGM。&lt;br /&gt;
@@ -9489,67 +9531,25 @@
         </is>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>2161440</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>风帆纪元 Sailing Era</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>风帆纪元</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>冒险,角色扮演,航海,单人,贸易</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>7.9</t>
-        </is>
-      </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>2023年01月12日</t>
-        </is>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>故事发生在15-17世纪的地理大发现时代，世界被航线连接起来，星星点点的海洋开拓汇聚成了一股航海热潮。&lt;br&gt;在这个时代，每一个年轻的航海家都梦想着拥有一艘船，自由地扬帆远洋，有人希望改变命运，有人希望创造历史。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/1_schinese.png?t=1693242151" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/01.gif?t=1693242151" /&gt;&lt;br&gt;真实世界地图比例，高度还原的广阔海洋与陆地、洋流季风、气候变迁，共同组成一个庞大的航海世界。突变的气候、难以琢磨的风向、沉船的宝藏、海盗的突袭，远洋中潜伏着各种各样的机遇和危险，体验新奇、热血的海上征途。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/2_schinese.png?t=1693242151" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/02.gif?t=1693242151" /&gt;&lt;br&gt;近200个各具风情的港口，各种异域文化百花齐放。你可以在港口内进行补给、交易、接受委托、招募船员、投资等活动。甚至可以在港口中组成陆地探险队，深入到内陆探险！&lt;br&gt;港口状态波动会带来物价波动，物价波动带来更高的交易利润。通过贸易和完成委托促进港口发展。港口发展将带来更多的交易物品、道具物品和高级船只。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/3_schinese.png?t=1693242151" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/new01.gif?t=1693242151" /&gt;&lt;br&gt;你将化身为身世背景各不相同的四位船长之一，踏上航行之旅。牛津学者、传奇海盗、犹太商贾、日本浪人等超过30位能人异士等待你去招揽，而合适的位置分配将会让伙伴发挥更大的作用。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/03.gif?t=1693242151" /&gt;&lt;br&gt;英雄也需要可以信任的战友！培养你的冒险伙伴，通过解锁新特性，提升基础技能，带来更丰富的搭配策略，游刃有余的应对诸多挑战。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/4_schinese.png?t=1693242151" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/04.gif?t=1693242151" /&gt;&lt;br&gt;参照史料还原十余种著名船只，将卡里维尔、盖伦帆船等传奇名舰通通收入囊中。还可以通过DIY船舱，自由定制你的专属船只。&lt;br&gt;在遭遇海战时，你可以通过观察风向快速拉开与敌船的距离，切换船体不同位置的火炮鱼雷，发起炮击战；亦可拉近距离与敌船船员白刃肉搏，享受不同风格的热血战斗。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/2022120601-3.gif?t=1693242151" /&gt;&lt;br&gt;将你的伙伴任命为友方舰船的舰长后，即可与船长激活特殊齐射技能，造成更高伤害。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/5_schinese.png?t=1693242151" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/05.gif?t=1693242151" /&gt;&lt;br&gt;历史遗迹、深海沉船、海盗秘宝……风云诡谲的大海中隐藏着千百年来丰富的宝藏和秘密。探寻大洋彼岸未知的事物，挖掘神秘宝藏，揭秘古代文明，尽情惬意地探索世界每一个角落吧！</t>
-        </is>
-      </c>
-    </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2163330</t>
+          <t>2161440</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Yet Another Zombie Survivors</t>
+          <t>风帆纪元 Sailing Era</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>又一个僵尸幸存者</t>
+          <t>风帆纪元</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>动作类 Rogue,角色扮演,僵尸,弹幕射击,轻度 Rogue</t>
+          <t>冒险,角色扮演,航海,单人,贸易</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -9559,39 +9559,39 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>2023年07月14日</t>
+          <t>2023年01月12日</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2163330/extras/GIF_01_CHN.gif?t=1694090261" /&gt;&lt;br&gt;你已经受够了躲在障碍后面。现在是时候让大群僵尸为他们邪恶的存在付出代价了。病毒已在全球蔓延，但人类远未放弃。&lt;br&gt;&lt;br&gt;忘掉那些复杂的操作和超长的过场动画 - 直接加入战斗并观看最精彩的部分！这是一款每个人都会喜欢的游戏，无论游戏经验如何。只需躺在沙发上，在类生存玩法循环中享受游戏带来的快感！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2163330/extras/Gif_02_CHN.gif?t=1694090261" /&gt;&lt;br&gt;你的小队会在游戏过程中根据你做出的自定义决定进行进化。获得各种天赋和支持技能，或专注于您最喜欢的角色以改变他们的装备并获得他们的终极技能。&lt;br&gt;&lt;br&gt;你是会控制一个孤零零的身边只有一只值得信赖的看门狗的特种部队士兵，还是会控制一整队装备了武士刀、火焰喷射器和火箭发射器的强大雇佣兵 - 每次游玩时，这些都将由你自己决定！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2163330/extras/YAZS_Store_GIF_03_CN.gif?t=1694090261" /&gt;&lt;br&gt;通过永久升级打造你喜欢的小队。决定你的升级方向，如果你改变主意，只需重新设置并尝试其他方向。追求你最喜欢的职业，观察你的团队如何化身死神，成为世界的毁灭者。&lt;br&gt;&lt;br&gt;通过增加病毒的强度并使地狱的军队变得更强更快，来确立你对敌人的统治地位。而当你最终站在顶峰时，凭借独特的声望系统提升到更高的境界，证明你无所畏惧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2163330/extras/Gif_04_CHN.gif?t=1694090261" /&gt;&lt;br&gt;作为一个由亲密伙伴们组成的小团队，我们制作自己喜欢玩的游戏并希望与您分享。如果您对这个游戏感兴趣，请将它添加到您的愿望单，这对我们来说意义重大！&lt;br&gt;&lt;br&gt;请随时进入我们的 Discord 聊天、在论坛上发布问题或给我们写电子邮件。我们非常乐意听到您对游戏和我们的设计方向的看法。谢谢！</t>
+          <t>故事发生在15-17世纪的地理大发现时代，世界被航线连接起来，星星点点的海洋开拓汇聚成了一股航海热潮。&lt;br&gt;在这个时代，每一个年轻的航海家都梦想着拥有一艘船，自由地扬帆远洋，有人希望改变命运，有人希望创造历史。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/1_schinese.png?t=1693242151" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/01.gif?t=1693242151" /&gt;&lt;br&gt;真实世界地图比例，高度还原的广阔海洋与陆地、洋流季风、气候变迁，共同组成一个庞大的航海世界。突变的气候、难以琢磨的风向、沉船的宝藏、海盗的突袭，远洋中潜伏着各种各样的机遇和危险，体验新奇、热血的海上征途。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/2_schinese.png?t=1693242151" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/02.gif?t=1693242151" /&gt;&lt;br&gt;近200个各具风情的港口，各种异域文化百花齐放。你可以在港口内进行补给、交易、接受委托、招募船员、投资等活动。甚至可以在港口中组成陆地探险队，深入到内陆探险！&lt;br&gt;港口状态波动会带来物价波动，物价波动带来更高的交易利润。通过贸易和完成委托促进港口发展。港口发展将带来更多的交易物品、道具物品和高级船只。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/3_schinese.png?t=1693242151" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/new01.gif?t=1693242151" /&gt;&lt;br&gt;你将化身为身世背景各不相同的四位船长之一，踏上航行之旅。牛津学者、传奇海盗、犹太商贾、日本浪人等超过30位能人异士等待你去招揽，而合适的位置分配将会让伙伴发挥更大的作用。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/03.gif?t=1693242151" /&gt;&lt;br&gt;英雄也需要可以信任的战友！培养你的冒险伙伴，通过解锁新特性，提升基础技能，带来更丰富的搭配策略，游刃有余的应对诸多挑战。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/4_schinese.png?t=1693242151" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/04.gif?t=1693242151" /&gt;&lt;br&gt;参照史料还原十余种著名船只，将卡里维尔、盖伦帆船等传奇名舰通通收入囊中。还可以通过DIY船舱，自由定制你的专属船只。&lt;br&gt;在遭遇海战时，你可以通过观察风向快速拉开与敌船的距离，切换船体不同位置的火炮鱼雷，发起炮击战；亦可拉近距离与敌船船员白刃肉搏，享受不同风格的热血战斗。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/2022120601-3.gif?t=1693242151" /&gt;&lt;br&gt;将你的伙伴任命为友方舰船的舰长后，即可与船长激活特殊齐射技能，造成更高伤害。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/5_schinese.png?t=1693242151" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/05.gif?t=1693242151" /&gt;&lt;br&gt;历史遗迹、深海沉船、海盗秘宝……风云诡谲的大海中隐藏着千百年来丰富的宝藏和秘密。探寻大洋彼岸未知的事物，挖掘神秘宝藏，揭秘古代文明，尽情惬意地探索世界每一个角落吧！</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2179300</t>
+          <t>2163330</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Blades of Jianghu: Ballad of Wind and Dust</t>
+          <t>Yet Another Zombie Survivors</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>剑侠．风尘恋曲</t>
+          <t>又一个僵尸幸存者</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>日系角色扮演,冒险,回合战略,多结局,角色扮演</t>
+          <t>动作类 Rogue,角色扮演,僵尸,弹幕射击,轻度 Rogue</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -9601,44 +9601,49 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>2023年04月28日</t>
+          <t>2023年07月14日</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>&amp;quot;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;故事大纲&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;尔虞我诈的武林，初出茅庐的少年巩真，踏进了黑白难分的江湖之中。&lt;br&gt;他胸怀大志，要成为人人称善的大侠，却在一次的事件之中，意外成为当今武林神话——外号玄燕的蔚双云刺杀的目标。巩真努力解开误会，并与蔚双云一起调查发生在镇上的连环杀人案，却发现是另一个武林神话，血花榜天下第一杀手血凤所为。而人人闻风丧胆的血凤也正是代表白道正派的蔚双云最大的敌手。&lt;br&gt;甫踏入武林就遇上了惊涛骇浪，他却不知道这一连串的事件全与一桩惊天大案有关。人在江湖，身不由己，一步踏错，就是身首异处的险境，巩真是否能力挽狂澜？&lt;br&gt;&lt;br&gt;夤夜长歌，美人相伴。&lt;br&gt;少年仗剑江湖游，天涯何处是归家？&lt;br&gt;长路漫漫，风尘染身。&lt;br&gt;与君饮一杯，共谱侠梦。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2179300/extras/WuxiaTitle.gif?t=1686562928" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;游戏玩法&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;错纵的路线探索&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2179300/extras/WuxiaExplore.gif?t=1686562928" /&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;轻度回合制战斗，运用每个角色的特性来互相配合&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2179300/extras/WuxiaCombat.gif?t=1686562928" /&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;轻养成，随着战斗就会自然成长，舍弃等级制不合理的地方&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;游戏特色&lt;/strong&gt;&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;总CG 34+ 差分180+&lt;br&gt;&lt;/li&gt;&lt;li&gt;精致的Live2D使用&lt;br&gt;&lt;/li&gt;&lt;li&gt;10万字深得人心的侠义之途&lt;br&gt;&lt;/li&gt;&lt;li&gt;以文字恋爱冒险为主轴，混合轻度战斗探索的系统&lt;/li&gt;&lt;/ul&gt;&amp;quot;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2163330/extras/GIF_01_CHN.gif?t=1694090261" /&gt;&lt;br&gt;你已经受够了躲在障碍后面。现在是时候让大群僵尸为他们邪恶的存在付出代价了。病毒已在全球蔓延，但人类远未放弃。&lt;br&gt;&lt;br&gt;忘掉那些复杂的操作和超长的过场动画 - 直接加入战斗并观看最精彩的部分！这是一款每个人都会喜欢的游戏，无论游戏经验如何。只需躺在沙发上，在类生存玩法循环中享受游戏带来的快感！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2163330/extras/Gif_02_CHN.gif?t=1694090261" /&gt;&lt;br&gt;你的小队会在游戏过程中根据你做出的自定义决定进行进化。获得各种天赋和支持技能，或专注于您最喜欢的角色以改变他们的装备并获得他们的终极技能。&lt;br&gt;&lt;br&gt;你是会控制一个孤零零的身边只有一只值得信赖的看门狗的特种部队士兵，还是会控制一整队装备了武士刀、火焰喷射器和火箭发射器的强大雇佣兵 - 每次游玩时，这些都将由你自己决定！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2163330/extras/YAZS_Store_GIF_03_CN.gif?t=1694090261" /&gt;&lt;br&gt;通过永久升级打造你喜欢的小队。决定你的升级方向，如果你改变主意，只需重新设置并尝试其他方向。追求你最喜欢的职业，观察你的团队如何化身死神，成为世界的毁灭者。&lt;br&gt;&lt;br&gt;通过增加病毒的强度并使地狱的军队变得更强更快，来确立你对敌人的统治地位。而当你最终站在顶峰时，凭借独特的声望系统提升到更高的境界，证明你无所畏惧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2163330/extras/Gif_04_CHN.gif?t=1694090261" /&gt;&lt;br&gt;作为一个由亲密伙伴们组成的小团队，我们制作自己喜欢玩的游戏并希望与您分享。如果您对这个游戏感兴趣，请将它添加到您的愿望单，这对我们来说意义重大！&lt;br&gt;&lt;br&gt;请随时进入我们的 Discord 聊天、在论坛上发布问题或给我们写电子邮件。我们非常乐意听到您对游戏和我们的设计方向的看法。谢谢！</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2183310</t>
+          <t>2179300</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>劍俠．風塵戀曲 - Adult Content DLC -</t>
+          <t>Blades of Jianghu: Ballad of Wind and Dust</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Blades of Jianghu: Ballad of Wind and Dust - Adult Content DLC -</t>
+          <t>剑侠．风尘恋曲</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Adventure,Casual,RPG,Strategy</t>
+          <t>日系角色扮演,冒险,回合战略,多结局,角色扮演</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>DLC</t>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>7.4</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -9648,71 +9653,66 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>&lt;html&gt;&lt;body&gt;&lt;h2 class="bb_tag"&gt;This DLC will become free after one week&lt;/h2&gt;Considering that many players want to experience the full content but are located in areas where they cannot make a purchase, we have decided to increase the base game's price and make the R18 DLC free. This change will be officially implemented on May 12, 2023.&lt;br/&gt;&lt;br/&gt;This DLC contains 9 different adult contents (H Scene) between the main character, Shang Guan Lan and Wei Shuang Yun, all of which have Live2D animations.&lt;br/&gt;After downloading and installing this DLC, the game will automatically include this content in the main game.&lt;br/&gt;&lt;/body&gt;&lt;/html&gt;</t>
+          <t>&amp;quot;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;故事大纲&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;尔虞我诈的武林，初出茅庐的少年巩真，踏进了黑白难分的江湖之中。&lt;br&gt;他胸怀大志，要成为人人称善的大侠，却在一次的事件之中，意外成为当今武林神话——外号玄燕的蔚双云刺杀的目标。巩真努力解开误会，并与蔚双云一起调查发生在镇上的连环杀人案，却发现是另一个武林神话，血花榜天下第一杀手血凤所为。而人人闻风丧胆的血凤也正是代表白道正派的蔚双云最大的敌手。&lt;br&gt;甫踏入武林就遇上了惊涛骇浪，他却不知道这一连串的事件全与一桩惊天大案有关。人在江湖，身不由己，一步踏错，就是身首异处的险境，巩真是否能力挽狂澜？&lt;br&gt;&lt;br&gt;夤夜长歌，美人相伴。&lt;br&gt;少年仗剑江湖游，天涯何处是归家？&lt;br&gt;长路漫漫，风尘染身。&lt;br&gt;与君饮一杯，共谱侠梦。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2179300/extras/WuxiaTitle.gif?t=1686562928" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;游戏玩法&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;错纵的路线探索&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2179300/extras/WuxiaExplore.gif?t=1686562928" /&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;轻度回合制战斗，运用每个角色的特性来互相配合&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2179300/extras/WuxiaCombat.gif?t=1686562928" /&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;轻养成，随着战斗就会自然成长，舍弃等级制不合理的地方&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;游戏特色&lt;/strong&gt;&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;总CG 34+ 差分180+&lt;br&gt;&lt;/li&gt;&lt;li&gt;精致的Live2D使用&lt;br&gt;&lt;/li&gt;&lt;li&gt;10万字深得人心的侠义之途&lt;br&gt;&lt;/li&gt;&lt;li&gt;以文字恋爱冒险为主轴，混合轻度战斗探索的系统&lt;/li&gt;&lt;/ul&gt;&amp;quot;</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2190290</t>
+          <t>2183310</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>To Be or Not to Be</t>
+          <t>劍俠．風塵戀曲 - Adult Content DLC -</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>不双修就去世</t>
+          <t>Blades of Jianghu: Ballad of Wind and Dust - Adult Content DLC -</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>成人,工作场所不宜,动漫色情,角色扮演,视觉小说</t>
+          <t>Adventure,Casual,RPG,Strategy</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>9.1</t>
+          <t>DLC</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>2022年12月09日</t>
+          <t>2023年04月28日</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/横标7.png?t=1691329716" /&gt;&lt;h2 class="bb_tag"&gt;加入社區&lt;/h2&gt;&lt;strong&gt;加入我们的Discord频道：&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/qFY27nkY" target="_blank" rel=" noopener"  &gt;https://discord.gg/qFY27nkY&lt;/a&gt;&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/横标1.png?t=1691329716" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;鄉野少年遭仟年蛇妖附身。&lt;br&gt;&lt;/li&gt;&lt;li&gt;三十天內必須與道侶雙修續命。&lt;br&gt;&lt;/li&gt;&lt;li&gt;不正經的凡人修仙之旅。&lt;br&gt;&lt;/li&gt;&lt;li&gt;與性格各異的道侶結緣。 &lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/top2.png?t=1691329716" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/横标2.png?t=1691329716" /&gt;&lt;br&gt;你將經歷一段搞笑又刺激的冒險故事，遊戲是以桌寵玩法出發點的修仙題材AVG。&lt;br&gt;玩家將會在遊戲中扮演一位廢柴少年，偶然間遭千年蛇妖附體，每個月不和女修士雙修就會暴斃，而在續命的過程中會發現，你已經被捲入了一場巨大陰謀，你的選擇也會改變整個世界的走向……&lt;br&gt;遊戲中集角色養成、屬性鑑定與各式各樣的小遊戲於一體，你可以通過遊玩小遊戲來提升自己屬性，並在攻略過程中占得先機！&lt;br&gt;女角色還能以桌寵的方式陪伴玩家，以帶來游戲之外的不同體驗。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/top3.png?t=1691329716" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/横标3.png?t=1691329716" /&gt;&lt;h2 class="bb_tag"&gt;主角&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/top5.png?t=1691329716" /&gt;&lt;br&gt;看似平平無奇的獵戶少年&lt;br&gt;實際上也確實平平無奇&lt;br&gt;但在慘遭上古淫獸灌入妖丹之後&lt;br&gt;他卻意外地獲得了踏上修仙之路的機會&lt;br&gt;但獲得力量的代價卻是......&lt;br&gt;不雙修就去世？&lt;h2 class="bb_tag"&gt;杰莉士&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/杰莉士（压缩后）.gif?t=1691329716" /&gt;&lt;br&gt;色孽化身的蛇妖&lt;br&gt;就是她（它？他？）給上面那個人灌入了妖丹&lt;br&gt;比男主還關心男主的感情生活&lt;br&gt;殘忍地玷污著男主的純潔心靈的同時&lt;br&gt;好像也在謀劃著什麼了不得的大事情......&lt;h2 class="bb_tag"&gt;钟离燕&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/钟离燕（压缩后）.gif?t=1691329716" /&gt;&lt;br&gt;你的門主，你的大師姐&lt;br&gt;倔強要強的紅發少女&lt;br&gt;個子小小卻修為極高&lt;br&gt;看似難以接觸&lt;br&gt;卻是你踏入修仙路的引路人&lt;h2 class="bb_tag"&gt;陈采苓&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/陈采苓（压缩后）.gif?t=1691329716" /&gt;&lt;br&gt;可愛的小師妹&lt;br&gt;害羞扭捏的少女&lt;br&gt;十句話有八句是欲言又止&lt;br&gt;但謹小慎微的嬌柔外表下&lt;br&gt;卻有著一顆渴望自由的心&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/top6.png?t=1691329716" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/横标4.png?t=1691329716" /&gt;&lt;h2 class="bb_tag"&gt;非傳統國風&lt;/h2&gt;用不同的筆觸與元素搭建起幽默真實的修仙世界！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/兽娘.gif?t=1691329716" /&gt;&lt;h2 class="bb_tag"&gt;桌寵玩法​&lt;/h2&gt;希望同遊世間的紅顏知己們時刻陪伴身旁？开启桌寵模式吧！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/国风.gif?t=1691329716" /&gt;&lt;h2 class="bb_tag"&gt;修煉遊戲&lt;/h2&gt;五種創意小遊戲，恭候您的挑戰。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/骰子.gif?t=1691329716" /&gt;&lt;h2 class="bb_tag"&gt;交互玩法&lt;/h2&gt;故事中包含十余種交互玩法，帶給您不同以往的趣味修仙時光！ &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/跳舞GIF.gif?t=1691329716" /&gt;&lt;h2 class="bb_tag"&gt;故事體驗&lt;/h2&gt;數十張精美CG，直接了當的故事主題，搞怪風趣到風花雪月，您想看到的場面會陸續呈現！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/喝酒.gif?t=1691329716" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/横标5.png?t=1691329716" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;LOST:FIND主創最新作&lt;br&gt;&lt;/li&gt;&lt;li&gt;8位可攻略角色與對應的live2D桌寵&lt;br&gt;&lt;/li&gt;&lt;li&gt;15個動畫CG，2個超大型CG&lt;br&gt;&lt;/li&gt;&lt;li&gt;5種有挑戰的創新小遊戲&lt;br&gt;&lt;/li&gt;&lt;li&gt;十多個桌面交互玩法&lt;br&gt;&lt;/li&gt;&lt;li&gt;多種結局&lt;br&gt;&lt;/li&gt;&lt;li&gt;獨特的桌寵玩法&lt;br&gt;&lt;/li&gt;&lt;li&gt;近百張精美敘事CG&lt;br&gt;&lt;/li&gt;&lt;li&gt;二十萬字的文本量&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/横标6.png?t=1691329716" /&gt;&lt;br&gt;無法正常運行遊戲、一直卡在加載界面、人物背景變黑看不到桌面的解決辦法：&lt;br&gt;&lt;br&gt;&lt;strong&gt;Win7系統：&lt;/strong&gt;&lt;br&gt;點擊桌面左下角的系統圖標—控制面板—系統和安全—系統—高級系統設置—高級—性能—設置，勾選【Aero】和【透明玻璃】，然後點擊【調整為最佳外觀】，之後點擊【確定】&lt;br&gt;&lt;br&gt;&lt;strong&gt;Win10系統：&lt;/strong&gt;&lt;br&gt;打開【DVIDIA控制面板】-【管理3D設置】，找到【多幀採樣AA（MFAA）】和【平滑處理-FXAA】將這2個選項改為【關】&lt;br&gt;若上面方法依舊無法解決問題，請嘗試下面的通用方法：&lt;br&gt;1.重啟電腦&lt;br&gt;2.桌面鼠標右鍵—個性化—顏色—開啟透明效果&lt;br&gt;3.前往顯卡官網下載最新顯卡驅動，安裝過程選擇 &amp;quot;自定義安裝&amp;quot; &amp;gt;勾選 &amp;quot;清潔安裝&amp;quot; ,不能使用默認的覆蓋升級安裝&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/横标7.png?t=1691329716" /&gt;&lt;br&gt;Discord：&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/t7FMzSwyDx" target="_blank" rel=" noopener"  &gt;https://discord.gg/t7FMzSwyDx&lt;/a&gt;</t>
+          <t>&lt;html&gt;&lt;body&gt;&lt;h2 class="bb_tag"&gt;This DLC will become free after one week&lt;/h2&gt;Considering that many players want to experience the full content but are located in areas where they cannot make a purchase, we have decided to increase the base game's price and make the R18 DLC free. This change will be officially implemented on May 12, 2023.&lt;br/&gt;&lt;br/&gt;This DLC contains 9 different adult contents (H Scene) between the main character, Shang Guan Lan and Wei Shuang Yun, all of which have Live2D animations.&lt;br/&gt;After downloading and installing this DLC, the game will automatically include this content in the main game.&lt;br/&gt;&lt;/body&gt;&lt;/html&gt;</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2196790</t>
+          <t>2190290</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>江湖幸存者</t>
+          <t>To Be or Not to Be</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>江湖幸存者</t>
+          <t>不双修就去世</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>休闲,动作,角色扮演,动作冒险,动作类 Rogue</t>
+          <t>成人,工作场所不宜,动漫色情,角色扮演,视觉小说</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -9722,39 +9722,39 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>2023年06月01日</t>
+          <t>2022年12月09日</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2196790/extras/D1_1_.png?t=1685583046" /&gt;&lt;br&gt;有人存在的地方就是江湖，这是一款中国风的 Roguelite 轻度休闲游戏。浴血奋战，杀出重重怪物的包围。你可以孤军奋战，亦可叫上两三好友共同并肩作战。扮演不同角色，体会超多武侠招式，组建独特 Build 玩法，击败最终怪物，畅爽杀怪乐趣！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2196790/extras/character.gif?t=1685583046" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2196790/extras/D2_1_.png?t=1685583046" /&gt;&lt;br&gt;操作简单，只需要上下左右。每局游戏仅需 15 分钟，快速体验，节奏紧凑。您唯一需要做的就是击败任何您所看到的怪物，然后躲避他们的追击，浴血奋战杀出重围！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2196790/extras/4月8日20234902232.gif?t=1685583046" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2196790/extras/D4_1_.png?t=1685583046" /&gt;&lt;br&gt;您可以孤军奋战，亦可叫上两三好友共同并肩作战。在队友陷入危机时，您可以伸出援助之手；当队友发达时，您亦可跟随其左右，共同富贵！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2196790/extras/multiplay.gif?t=1685583046" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2196790/extras/D3_1_.png?t=1685583046" /&gt;&lt;br&gt;游戏包含多名独一无二的角色，几十个不同的凶恶怪物，以及几十个独一无二的主动技能和被动技能可供选择。每一轮游戏结束，您都能获得足够多的玄石，来强化您的天赋，强化您的属性，让您能够在每一关走得更远！&lt;br&gt;&lt;br&gt;还有许多，期待你的发现。&lt;br&gt;&lt;br&gt;另外，我们也非常欢迎您发送邮件到 &lt;strong&gt;feedback@surprising.studio&lt;/strong&gt; 发表您的看法。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/横标7.png?t=1691329716" /&gt;&lt;h2 class="bb_tag"&gt;加入社區&lt;/h2&gt;&lt;strong&gt;加入我们的Discord频道：&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/qFY27nkY" target="_blank" rel=" noopener"  &gt;https://discord.gg/qFY27nkY&lt;/a&gt;&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/横标1.png?t=1691329716" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;鄉野少年遭仟年蛇妖附身。&lt;br&gt;&lt;/li&gt;&lt;li&gt;三十天內必須與道侶雙修續命。&lt;br&gt;&lt;/li&gt;&lt;li&gt;不正經的凡人修仙之旅。&lt;br&gt;&lt;/li&gt;&lt;li&gt;與性格各異的道侶結緣。 &lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/top2.png?t=1691329716" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/横标2.png?t=1691329716" /&gt;&lt;br&gt;你將經歷一段搞笑又刺激的冒險故事，遊戲是以桌寵玩法出發點的修仙題材AVG。&lt;br&gt;玩家將會在遊戲中扮演一位廢柴少年，偶然間遭千年蛇妖附體，每個月不和女修士雙修就會暴斃，而在續命的過程中會發現，你已經被捲入了一場巨大陰謀，你的選擇也會改變整個世界的走向……&lt;br&gt;遊戲中集角色養成、屬性鑑定與各式各樣的小遊戲於一體，你可以通過遊玩小遊戲來提升自己屬性，並在攻略過程中占得先機！&lt;br&gt;女角色還能以桌寵的方式陪伴玩家，以帶來游戲之外的不同體驗。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/top3.png?t=1691329716" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/横标3.png?t=1691329716" /&gt;&lt;h2 class="bb_tag"&gt;主角&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/top5.png?t=1691329716" /&gt;&lt;br&gt;看似平平無奇的獵戶少年&lt;br&gt;實際上也確實平平無奇&lt;br&gt;但在慘遭上古淫獸灌入妖丹之後&lt;br&gt;他卻意外地獲得了踏上修仙之路的機會&lt;br&gt;但獲得力量的代價卻是......&lt;br&gt;不雙修就去世？&lt;h2 class="bb_tag"&gt;杰莉士&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/杰莉士（压缩后）.gif?t=1691329716" /&gt;&lt;br&gt;色孽化身的蛇妖&lt;br&gt;就是她（它？他？）給上面那個人灌入了妖丹&lt;br&gt;比男主還關心男主的感情生活&lt;br&gt;殘忍地玷污著男主的純潔心靈的同時&lt;br&gt;好像也在謀劃著什麼了不得的大事情......&lt;h2 class="bb_tag"&gt;钟离燕&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/钟离燕（压缩后）.gif?t=1691329716" /&gt;&lt;br&gt;你的門主，你的大師姐&lt;br&gt;倔強要強的紅發少女&lt;br&gt;個子小小卻修為極高&lt;br&gt;看似難以接觸&lt;br&gt;卻是你踏入修仙路的引路人&lt;h2 class="bb_tag"&gt;陈采苓&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/陈采苓（压缩后）.gif?t=1691329716" /&gt;&lt;br&gt;可愛的小師妹&lt;br&gt;害羞扭捏的少女&lt;br&gt;十句話有八句是欲言又止&lt;br&gt;但謹小慎微的嬌柔外表下&lt;br&gt;卻有著一顆渴望自由的心&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/top6.png?t=1691329716" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/横标4.png?t=1691329716" /&gt;&lt;h2 class="bb_tag"&gt;非傳統國風&lt;/h2&gt;用不同的筆觸與元素搭建起幽默真實的修仙世界！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/兽娘.gif?t=1691329716" /&gt;&lt;h2 class="bb_tag"&gt;桌寵玩法​&lt;/h2&gt;希望同遊世間的紅顏知己們時刻陪伴身旁？开启桌寵模式吧！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/国风.gif?t=1691329716" /&gt;&lt;h2 class="bb_tag"&gt;修煉遊戲&lt;/h2&gt;五種創意小遊戲，恭候您的挑戰。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/骰子.gif?t=1691329716" /&gt;&lt;h2 class="bb_tag"&gt;交互玩法&lt;/h2&gt;故事中包含十余種交互玩法，帶給您不同以往的趣味修仙時光！ &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/跳舞GIF.gif?t=1691329716" /&gt;&lt;h2 class="bb_tag"&gt;故事體驗&lt;/h2&gt;數十張精美CG，直接了當的故事主題，搞怪風趣到風花雪月，您想看到的場面會陸續呈現！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/喝酒.gif?t=1691329716" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/横标5.png?t=1691329716" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;LOST:FIND主創最新作&lt;br&gt;&lt;/li&gt;&lt;li&gt;8位可攻略角色與對應的live2D桌寵&lt;br&gt;&lt;/li&gt;&lt;li&gt;15個動畫CG，2個超大型CG&lt;br&gt;&lt;/li&gt;&lt;li&gt;5種有挑戰的創新小遊戲&lt;br&gt;&lt;/li&gt;&lt;li&gt;十多個桌面交互玩法&lt;br&gt;&lt;/li&gt;&lt;li&gt;多種結局&lt;br&gt;&lt;/li&gt;&lt;li&gt;獨特的桌寵玩法&lt;br&gt;&lt;/li&gt;&lt;li&gt;近百張精美敘事CG&lt;br&gt;&lt;/li&gt;&lt;li&gt;二十萬字的文本量&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/横标6.png?t=1691329716" /&gt;&lt;br&gt;無法正常運行遊戲、一直卡在加載界面、人物背景變黑看不到桌面的解決辦法：&lt;br&gt;&lt;br&gt;&lt;strong&gt;Win7系統：&lt;/strong&gt;&lt;br&gt;點擊桌面左下角的系統圖標—控制面板—系統和安全—系統—高級系統設置—高級—性能—設置，勾選【Aero】和【透明玻璃】，然後點擊【調整為最佳外觀】，之後點擊【確定】&lt;br&gt;&lt;br&gt;&lt;strong&gt;Win10系統：&lt;/strong&gt;&lt;br&gt;打開【DVIDIA控制面板】-【管理3D設置】，找到【多幀採樣AA（MFAA）】和【平滑處理-FXAA】將這2個選項改為【關】&lt;br&gt;若上面方法依舊無法解決問題，請嘗試下面的通用方法：&lt;br&gt;1.重啟電腦&lt;br&gt;2.桌面鼠標右鍵—個性化—顏色—開啟透明效果&lt;br&gt;3.前往顯卡官網下載最新顯卡驅動，安裝過程選擇 &amp;quot;自定義安裝&amp;quot; &amp;gt;勾選 &amp;quot;清潔安裝&amp;quot; ,不能使用默認的覆蓋升級安裝&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/横标7.png?t=1691329716" /&gt;&lt;br&gt;Discord：&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/t7FMzSwyDx" target="_blank" rel=" noopener"  &gt;https://discord.gg/t7FMzSwyDx&lt;/a&gt;</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2198680</t>
+          <t>2196790</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>兰若异谭</t>
+          <t>江湖幸存者</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>兰若异谭</t>
+          <t>江湖幸存者</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>策略,卡牌游戏,轻度 Rogue,2D,手绘</t>
+          <t>休闲,动作,角色扮演,动作冒险,动作类 Rogue</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -9769,34 +9769,34 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>2023年05月26日</t>
+          <t>2023年06月01日</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>欢迎加入游戏QQ群：&lt;i&gt;581318765&lt;/i&gt;，获取第一手游戏资讯，还能与开发者进行交流，我们非常期待您的建议。&lt;strong&gt;游戏除中文普通话配音外，还特别加入粤语配音，给你的兰若镇探秘之旅带来别样的体验！&lt;/strong&gt;&lt;br&gt;&lt;br&gt;欢迎来到兰若镇。&lt;br&gt;《兰若异谭》是一款以浓厚古风的策略卡牌构筑和剧情探索为核心的Roguelike单机游戏。在这款游戏中，你将通过战斗与探索，拨开笼罩在浪漫诡谲的神秘水墨世界上空的迷雾，寻找沉眠疑案的真相。&lt;br&gt;别担心，“兰若镇”上的人、鬼、精、怪都很友好，至少看起来是这样……在这场冒险中，你能够做些什么？&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/1.png?t=1685436088" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/GIF1.gif?t=1685436088" /&gt;&lt;br&gt;首发时您将可体验人、鬼两种职业流派的全部内容，不同职业对应不同的牌库与剧情及结局，请随心选择以开始你的水墨古风志怪异谈之旅。预计上线后会持续更新职业和新模式。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/2.png?t=1685436088" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/GIF2.gif?t=1685436088" /&gt;&lt;br&gt;随着进度的推进随逐渐扩充和构筑你的专属牌组。无每回合出牌的费数限制，给你更多的打牌自由度！组合牌、保留牌等多种创意玩法，给你带来全新的策略思考维度！策略招数自由组合，护符武器任你搭配。只是在面临抉择时别忘了问问自己：真的不再考虑一下吗？&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/3.png?t=1685436088" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/GIF3.gif?t=1685436088" /&gt;&lt;br&gt;故事总会有一个结局，只不过这里有数十种可能。道观中千年神女像为何眼眸低垂遮掩悲悯，面前三枚铜钱摇出的卦象又将命运指向何方？你能做的唯有抉择。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/4.png?t=1685436088" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/GIF4.gif?t=1685436088" /&gt;&lt;br&gt;时光轮转，诡象环生。游戏需要多周目探索以发现更多真相，为了避免你感到无聊，这里准备了随机生成的游戏内容，每次开局都是一场新的未知旅程！</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2196790/extras/D1_1_.png?t=1685583046" /&gt;&lt;br&gt;有人存在的地方就是江湖，这是一款中国风的 Roguelite 轻度休闲游戏。浴血奋战，杀出重重怪物的包围。你可以孤军奋战，亦可叫上两三好友共同并肩作战。扮演不同角色，体会超多武侠招式，组建独特 Build 玩法，击败最终怪物，畅爽杀怪乐趣！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2196790/extras/character.gif?t=1685583046" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2196790/extras/D2_1_.png?t=1685583046" /&gt;&lt;br&gt;操作简单，只需要上下左右。每局游戏仅需 15 分钟，快速体验，节奏紧凑。您唯一需要做的就是击败任何您所看到的怪物，然后躲避他们的追击，浴血奋战杀出重围！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2196790/extras/4月8日20234902232.gif?t=1685583046" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2196790/extras/D4_1_.png?t=1685583046" /&gt;&lt;br&gt;您可以孤军奋战，亦可叫上两三好友共同并肩作战。在队友陷入危机时，您可以伸出援助之手；当队友发达时，您亦可跟随其左右，共同富贵！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2196790/extras/multiplay.gif?t=1685583046" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2196790/extras/D3_1_.png?t=1685583046" /&gt;&lt;br&gt;游戏包含多名独一无二的角色，几十个不同的凶恶怪物，以及几十个独一无二的主动技能和被动技能可供选择。每一轮游戏结束，您都能获得足够多的玄石，来强化您的天赋，强化您的属性，让您能够在每一关走得更远！&lt;br&gt;&lt;br&gt;还有许多，期待你的发现。&lt;br&gt;&lt;br&gt;另外，我们也非常欢迎您发送邮件到 &lt;strong&gt;feedback@surprising.studio&lt;/strong&gt; 发表您的看法。</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2205850</t>
+          <t>2198680</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Dwarves: Glory, Death and Loot</t>
+          <t>兰若异谭</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>矮人军团自走棋</t>
+          <t>兰若异谭</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>角色扮演,自走棋,角色自定义,策略,类 Rogue</t>
+          <t>策略,卡牌游戏,轻度 Rogue,2D,手绘</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9806,39 +9806,39 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>2023年08月17日</t>
+          <t>2023年05月26日</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>&lt;a href="https://store.steampowered.com/app/2218400/_/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/2218400/_/&lt;/a&gt;&lt;br&gt;《矮人军团自走棋》有着十分爽快的战斗，并将RPG成长、Roguelike冒险和自走棋策略进行了巧妙融合，创造出了节奏轻快，且富含策略深度的游玩体验，实乃上班摸鱼、下班解压的神器。&lt;br&gt;&lt;br&gt;玩家交流QQ群：①767476732（已满） ②740435455（已满） ③801398806&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/小标题1.png?t=1692810619" /&gt;&lt;br&gt;作为新晋的矮人军团指挥官，你的征战之路得从三个矮人开始，他们装备简陋，战斗力不强，只有击败敌人获取经验和金币，让他们全副武装、战技娴熟，以及将更多战士招募进队伍，才能克敌制胜。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图1.gif?t=1692810619" /&gt;&lt;br&gt;&lt;br&gt;每一位矮人战士都可以进行专属定制，通过赋予它们不同的装备，这些矮人将拥有截然不同的定位，有的会成为耐打能抗的肉盾，有的则会成为敏捷灵活的刺客或弓箭手，有的则会成为输出爆炸、极为脆弱的法师。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_banner.gif?t=1692810619" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_archer.gif?t=1692810619" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_hammer.gif?t=1692810619" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_axe.gif?t=1692810619" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_shield.gif?t=1692810619" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_sword.gif?t=1692810619" /&gt;&lt;br&gt;&lt;br&gt;通过调整矮人战士的装备和站位，你便可以随时改变军团的阵容以及战斗方式，打出你所期望的战斗套路，建立起完全属于你的矮人军团。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图3.gif?t=1692810619" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/小标题2.png?t=1692810619" /&gt;&lt;br&gt;每一场战斗结束后，玩家都可以从三个分支中选择一个前进，既可以选择打怪升级，也可以选择购买装备，有或者雇佣新的战士，当然每一种选择背后都充满了机遇与风险。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图7.gif?t=1692810619" /&gt;&lt;br&gt;&lt;br&gt;同时随着玩家游玩的增多，会获得宝石以解锁技能书上的多种技能，会为玩家未来的所有对战提供增益，进一步增强你喜欢的战斗风格。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图8.gif?t=1692810619" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/小标题3.png?t=1692810619" /&gt;&lt;br&gt;随着你的矮人军团不断变强，所要遭遇的敌人无论数量和战斗力也都会跟着水涨船高，战场将变得十分激烈。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图4.gif?t=1692810619" /&gt;&lt;br&gt;&lt;br&gt;面对不同的敌人配置，请及时调整军团的装备和站位，敌人突击多，就需要加强前排，如果敌方法师多，就要注重切后排，战术正确的话才更有把握获胜。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图5.gif?t=1692810619" /&gt;&lt;br&gt;&lt;br&gt;如果只想着提高版面数字，用错误的阵容出战，被放了风筝或者切了后排，结果恐怕都不会乐观，所以请一定充分的总结经验，开动脑筋，充分的运用策略吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图6.gif?t=1692810619" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/小标题4.png?t=1692810619" /&gt;&lt;br&gt;&lt;br&gt;虽然目前玩家已经能进入游戏，享受指挥矮人军团攻伐的乐趣，但游戏目前仍处于Demo阶段。后续还有更多新装备、新职业、新地图以及新BOSS加入，为这场战争再添几分热度！&lt;br&gt;&lt;br&gt;这不会太久，大家敬请期待！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_assassin.gif?t=1692810619" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/troll_animated.gif?t=1692810619" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dragon_transparent_x1.gif?t=1692810619" /&gt;</t>
+          <t>欢迎加入游戏QQ群：&lt;i&gt;581318765&lt;/i&gt;，获取第一手游戏资讯，还能与开发者进行交流，我们非常期待您的建议。&lt;strong&gt;游戏除中文普通话配音外，还特别加入粤语配音，给你的兰若镇探秘之旅带来别样的体验！&lt;/strong&gt;&lt;br&gt;&lt;br&gt;欢迎来到兰若镇。&lt;br&gt;《兰若异谭》是一款以浓厚古风的策略卡牌构筑和剧情探索为核心的Roguelike单机游戏。在这款游戏中，你将通过战斗与探索，拨开笼罩在浪漫诡谲的神秘水墨世界上空的迷雾，寻找沉眠疑案的真相。&lt;br&gt;别担心，“兰若镇”上的人、鬼、精、怪都很友好，至少看起来是这样……在这场冒险中，你能够做些什么？&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/1.png?t=1685436088" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/GIF1.gif?t=1685436088" /&gt;&lt;br&gt;首发时您将可体验人、鬼两种职业流派的全部内容，不同职业对应不同的牌库与剧情及结局，请随心选择以开始你的水墨古风志怪异谈之旅。预计上线后会持续更新职业和新模式。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/2.png?t=1685436088" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/GIF2.gif?t=1685436088" /&gt;&lt;br&gt;随着进度的推进随逐渐扩充和构筑你的专属牌组。无每回合出牌的费数限制，给你更多的打牌自由度！组合牌、保留牌等多种创意玩法，给你带来全新的策略思考维度！策略招数自由组合，护符武器任你搭配。只是在面临抉择时别忘了问问自己：真的不再考虑一下吗？&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/3.png?t=1685436088" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/GIF3.gif?t=1685436088" /&gt;&lt;br&gt;故事总会有一个结局，只不过这里有数十种可能。道观中千年神女像为何眼眸低垂遮掩悲悯，面前三枚铜钱摇出的卦象又将命运指向何方？你能做的唯有抉择。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/4.png?t=1685436088" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/GIF4.gif?t=1685436088" /&gt;&lt;br&gt;时光轮转，诡象环生。游戏需要多周目探索以发现更多真相，为了避免你感到无聊，这里准备了随机生成的游戏内容，每次开局都是一场新的未知旅程！</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2216130</t>
+          <t>2205850</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>沉默的蟋蟀</t>
+          <t>Dwarves: Glory, Death and Loot</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>沉默的蟋蟀</t>
+          <t>矮人军团自走棋</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>生物收集,轻度 Rogue,90 年代,80 年代,收集马拉松</t>
+          <t>角色扮演,自走棋,角色自定义,策略,类 Rogue</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -9848,39 +9848,39 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>2023年07月20日</t>
+          <t>2023年08月17日</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/a_0001_4.png?t=1691661689" /&gt;&lt;br&gt;&lt;br&gt;我们在蟋蟀的获得、养成、郊外事件和战斗等方面，都精心加入了大量的随机元素。提供的资源是随机的，如何合理、有效地分配好这些资源需要仔细斟酌思考。比如1V1战斗时，好似不需要动脑筋来研究蟋蟀之间的配合，但是选哪一只蟋蟀来出战呢？太弱了打不过，太强了会浪费……玩家需要学会调兵遣将，合理分配资源，悟到游戏策略的重要性。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/0605-GIF6战斗.gif?t=1691661689" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/a_0002_3.png?t=1691661689" /&gt;&lt;br&gt;&lt;br&gt;没有两只属性相同的蟋蟀，也没有两只长相一致的蟋蟀。有些蟋蟀触须断了一截，有些两条尾巴都秃了，有些甚至少了一条大腿……游戏不会直接告诉你蟋蟀属性的具体数值，但会指明大致的范围并提供对比。另外，你可以通过360度旋转来观察蟋蟀，根据其长相和数值面板来估算它的强弱，比如翅膀越长斗性越强......&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/0605-GIF5展示蟋蟀特色.gif?t=1691661689" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/a_0000_5.png?t=1691661689" /&gt;&lt;br&gt;&lt;br&gt;获得蟋蟀的途径众多，可以亲手捕捉，可以去市场买，可以在随机事件中赢取……培养蟋蟀的方法也很多，比如喂食饲料，用虫蜕进补，用雌蟋蟀去激发虫王的雄风……你可以从获得的大量蟋蟀中用慧眼甄别出最好的几只，进行花式培养，不断成长。传说中，只有天命之子才能养出天下无敌的虫王。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/0605-GIF2养成.gif?t=1691661689" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/a_0003_2.png?t=1691661689" /&gt;&lt;br&gt;&lt;br&gt;在捕捉与培养蟋蟀的环节中，游戏设置了诸多小游戏。你可以借助各种道具，去野外草丛中翻找蟋蟀获取；也可以排列出几十只虫蜕，让蟋蟀轮流进食；有时也需要睁大你的肉眼，观察两只蟋蟀各部位的大小粗细等，据此猜测孰强孰弱……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/0605-GIF3小游戏展示.gif?t=1691661689" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/a_0004_1.png?t=1691661689" /&gt;&lt;br&gt;&lt;br&gt;游戏包含了160个蟋蟀品种，此外还有蟋蟀文化书签、蟋蟀打斗视频、蟋蟀相关古诗词、一起玩蟋蟀的虫友、可为蟋蟀命名的武将名等可供收集。还有隐藏成就、隐藏事件、彩蛋等，期待你的探索与发现。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/0605-GIF4展示蟋蟀品种.gif?t=1691661689" /&gt;</t>
+          <t>&lt;a href="https://store.steampowered.com/app/2218400/_/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/2218400/_/&lt;/a&gt;&lt;br&gt;《矮人军团自走棋》有着十分爽快的战斗，并将RPG成长、Roguelike冒险和自走棋策略进行了巧妙融合，创造出了节奏轻快，且富含策略深度的游玩体验，实乃上班摸鱼、下班解压的神器。&lt;br&gt;&lt;br&gt;&lt;strong&gt;游戏重大更新现已上线，对锻造系统和仓库系统进行了大幅优化，并改进\增加了很多好玩的新内容，期待大家的游玩反馈！&lt;/strong&gt;&lt;br&gt;&lt;br&gt;玩家交流QQ群：①767476732（已满）  ③801398806（已满） ②740435455&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/小标题1.png?t=1694170016" /&gt;&lt;br&gt;作为新晋的矮人军团指挥官，你的征战之路得从三个矮人开始，他们装备简陋，战斗力不强，只有击败敌人获取经验和金币，让他们全副武装、战技娴熟，以及将更多战士招募进队伍，才能克敌制胜。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图1.gif?t=1694170016" /&gt;&lt;br&gt;&lt;br&gt;每一位矮人战士都可以进行专属定制，通过赋予它们不同的装备，这些矮人将拥有截然不同的定位，有的会成为耐打能抗的肉盾，有的则会成为敏捷灵活的刺客或弓箭手，有的则会成为输出爆炸、极为脆弱的法师。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_banner.gif?t=1694170016" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_archer.gif?t=1694170016" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_hammer.gif?t=1694170016" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_axe.gif?t=1694170016" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_shield.gif?t=1694170016" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_sword.gif?t=1694170016" /&gt;&lt;br&gt;&lt;br&gt;通过调整矮人战士的装备和站位，你便可以随时改变军团的阵容以及战斗方式，打出你所期望的战斗套路，建立起完全属于你的矮人军团。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图3.gif?t=1694170016" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/小标题2.png?t=1694170016" /&gt;&lt;br&gt;每一场战斗结束后，玩家都可以从三个分支中选择一个前进，既可以选择打怪升级，也可以选择购买装备，有或者雇佣新的战士，当然每一种选择背后都充满了机遇与风险。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图7.gif?t=1694170016" /&gt;&lt;br&gt;&lt;br&gt;同时随着玩家游玩的增多，会获得宝石以解锁技能书上的多种技能，会为玩家未来的所有对战提供增益，进一步增强你喜欢的战斗风格。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图8.gif?t=1694170016" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/小标题3.png?t=1694170016" /&gt;&lt;br&gt;随着你的矮人军团不断变强，所要遭遇的敌人无论数量和战斗力也都会跟着水涨船高，战场将变得十分激烈。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图4.gif?t=1694170016" /&gt;&lt;br&gt;&lt;br&gt;面对不同的敌人配置，请及时调整军团的装备和站位，敌人突击多，就需要加强前排，如果敌方法师多，就要注重切后排，战术正确的话才更有把握获胜。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图5.gif?t=1694170016" /&gt;&lt;br&gt;&lt;br&gt;如果只想着提高版面数字，用错误的阵容出战，被放了风筝或者切了后排，结果恐怕都不会乐观，所以请一定充分的总结经验，开动脑筋，充分的运用策略吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图6.gif?t=1694170016" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/小标题4.png?t=1694170016" /&gt;&lt;br&gt;&lt;br&gt;虽然目前玩家已经能进入游戏，享受指挥矮人军团攻伐的乐趣，但游戏目前仍处于Demo阶段。后续还有更多新装备、新职业、新地图以及新BOSS加入，为这场战争再添几分热度！&lt;br&gt;&lt;br&gt;这不会太久，大家敬请期待！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_assassin.gif?t=1694170016" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/troll_animated.gif?t=1694170016" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dragon_transparent_x1.gif?t=1694170016" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2234150</t>
+          <t>2216130</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>BACKROOMS: APPREHENSION</t>
+          <t>沉默的蟋蟀</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>BACKROOMS: APPREHENSION</t>
+          <t>沉默的蟋蟀</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>抢先体验,玩家对战,多人,社交推理,生存恐怖</t>
+          <t>生物收集,轻度 Rogue,90 年代,80 年代,收集马拉松</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -9888,36 +9888,41 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>2023年02月01日</t>
+          <t>2023年07月20日</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>BACKROOMS: APPREHENSION is a terrifying and immersive multiplayer horror experience with social deduction elements.&lt;br&gt;&lt;br&gt;Nine players take on the roles of the Scientists stuck in the Backrooms, to survive they must scavenge for supplies and weapons while the tenth player hunts them down as a shape-shifting entity known as the Skin Stealer!&lt;br&gt;&lt;br&gt;SURVIVE AS A SCIENTIST&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2234150/extras/Store_PlayAsScientist.png?t=1677321384" /&gt;&lt;br&gt;As a Scientist you must scavenge for supplies, mantain your sanity and find a weapon to defend yourself against a monster that could be any of your fellow teammates.&lt;br&gt;Be very careful, trusting the wrong person could get you killed!&lt;br&gt;&lt;br&gt;TERRORIZE AS THE SKIN STEALER&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2234150/extras/Store_PlayAsSkinstealer.png?t=1677321384" /&gt;&lt;br&gt;As the Skin Stealer you start weak but your ability to impersonate the Scientists is a weapon, the more you kill the stronger you get.&lt;br&gt;Use your claws or manipulative tactics to eliminate the Scientists one by one.</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/a_0001_4.png?t=1691661689" /&gt;&lt;br&gt;&lt;br&gt;我们在蟋蟀的获得、养成、郊外事件和战斗等方面，都精心加入了大量的随机元素。提供的资源是随机的，如何合理、有效地分配好这些资源需要仔细斟酌思考。比如1V1战斗时，好似不需要动脑筋来研究蟋蟀之间的配合，但是选哪一只蟋蟀来出战呢？太弱了打不过，太强了会浪费……玩家需要学会调兵遣将，合理分配资源，悟到游戏策略的重要性。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/0605-GIF6战斗.gif?t=1691661689" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/a_0002_3.png?t=1691661689" /&gt;&lt;br&gt;&lt;br&gt;没有两只属性相同的蟋蟀，也没有两只长相一致的蟋蟀。有些蟋蟀触须断了一截，有些两条尾巴都秃了，有些甚至少了一条大腿……游戏不会直接告诉你蟋蟀属性的具体数值，但会指明大致的范围并提供对比。另外，你可以通过360度旋转来观察蟋蟀，根据其长相和数值面板来估算它的强弱，比如翅膀越长斗性越强......&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/0605-GIF5展示蟋蟀特色.gif?t=1691661689" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/a_0000_5.png?t=1691661689" /&gt;&lt;br&gt;&lt;br&gt;获得蟋蟀的途径众多，可以亲手捕捉，可以去市场买，可以在随机事件中赢取……培养蟋蟀的方法也很多，比如喂食饲料，用虫蜕进补，用雌蟋蟀去激发虫王的雄风……你可以从获得的大量蟋蟀中用慧眼甄别出最好的几只，进行花式培养，不断成长。传说中，只有天命之子才能养出天下无敌的虫王。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/0605-GIF2养成.gif?t=1691661689" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/a_0003_2.png?t=1691661689" /&gt;&lt;br&gt;&lt;br&gt;在捕捉与培养蟋蟀的环节中，游戏设置了诸多小游戏。你可以借助各种道具，去野外草丛中翻找蟋蟀获取；也可以排列出几十只虫蜕，让蟋蟀轮流进食；有时也需要睁大你的肉眼，观察两只蟋蟀各部位的大小粗细等，据此猜测孰强孰弱……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/0605-GIF3小游戏展示.gif?t=1691661689" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/a_0004_1.png?t=1691661689" /&gt;&lt;br&gt;&lt;br&gt;游戏包含了160个蟋蟀品种，此外还有蟋蟀文化书签、蟋蟀打斗视频、蟋蟀相关古诗词、一起玩蟋蟀的虫友、可为蟋蟀命名的武将名等可供收集。还有隐藏成就、隐藏事件、彩蛋等，期待你的探索与发现。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/0605-GIF4展示蟋蟀品种.gif?t=1691661689" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2239150</t>
+          <t>2234150</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Thronefall</t>
+          <t>BACKROOMS: APPREHENSION</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Thronefall</t>
+          <t>BACKROOMS: APPREHENSION</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>策略,塔防,城市营造,极简主义,中世纪</t>
+          <t>抢先体验,玩家对战,多人,社交推理,生存恐怖</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -9925,41 +9930,36 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>9.4</t>
-        </is>
-      </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>2023年08月02日</t>
+          <t>2023年02月01日</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2239150/extras/Store_Page_Content_Overview_CN.png?t=1691060348" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;不再头疼的策略游戏？我们满足您的需求。&lt;/strong&gt;&lt;/h2&gt;&lt;i&gt;给马上鞍！看到您的王国栩栩如生，为保卫它而进行紧张激战，还能在午餐前完成。&lt;/i&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2239150/extras/thronefall_banner1_border.gif?t=1691060348" /&gt;&lt;br&gt;&lt;br&gt;在Thronefall中，我们试图剥离经典策略游戏中所有不必要的复杂性，并将其与适量的砍杀结合起来。在白天建立你的基地，在晚上保卫它直到你的最后一口气。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2239150/extras/thronefall_banner2_bordernotext.gif?t=1691060348" /&gt;&lt;br&gt;&lt;br&gt;您能在经济和防御之间找到合适的平衡吗？您需要更多的弓箭手、更厚的城墙还是额外的磨坊？您会用长弓将敌人挡在外面，还是骑马冲向他们？今晚将是艰难的一夜，但没有什么比看到太阳升起在您的小王国上空，迎来新的一天更令人欣喜的了。</t>
+          <t>BACKROOMS: APPREHENSION is a terrifying and immersive multiplayer horror experience with social deduction elements.&lt;br&gt;&lt;br&gt;Nine players take on the roles of the Scientists stuck in the Backrooms, to survive they must scavenge for supplies and weapons while the tenth player hunts them down as a shape-shifting entity known as the Skin Stealer!&lt;br&gt;&lt;br&gt;SURVIVE AS A SCIENTIST&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2234150/extras/Store_PlayAsScientist.png?t=1677321384" /&gt;&lt;br&gt;As a Scientist you must scavenge for supplies, mantain your sanity and find a weapon to defend yourself against a monster that could be any of your fellow teammates.&lt;br&gt;Be very careful, trusting the wrong person could get you killed!&lt;br&gt;&lt;br&gt;TERRORIZE AS THE SKIN STEALER&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2234150/extras/Store_PlayAsSkinstealer.png?t=1677321384" /&gt;&lt;br&gt;As the Skin Stealer you start weak but your ability to impersonate the Scientists is a weapon, the more you kill the stronger you get.&lt;br&gt;Use your claws or manipulative tactics to eliminate the Scientists one by one.</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2244480</t>
+          <t>2239150</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>REMEDIUM: Sentinels</t>
+          <t>Thronefall</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>REMEDIUM: Sentinels</t>
+          <t>Thronefall</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>动作类 Rogue,弹幕射击,轻度 Rogue,射击,3D</t>
+          <t>策略,塔防,城市营造,极简主义,中世纪</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -9967,115 +9967,115 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>2023年07月18日</t>
+          <t>2023年08月02日</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x346_ch_s.jpg?t=1692802960" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_1.png?t=1692802960" /&gt;&lt;br&gt;&lt;br&gt;《拯救：卫兵》是一款快节奏的轻度类Rogue自动射击游戏，背景世界与游戏《拯救》相同。一百多年前，灰色瘟疫肆虐，大部分人类都变成了凶恶的变种生物。这片土地如今被死亡和混乱笼罩，只有少数城市仍然屹立不倒。&lt;br&gt;&lt;br&gt;你将操控炼金术士创造的一个卫兵，肩负唯一的使命——只要你的反应堆还在运转，就竭力保卫城市，抵挡变种生物无尽的袭击。组合物品和炼金元素，不断获取新的武器，打造独特的构筑！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/saw-1_new.gif?t=1692802960" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_2.png?t=1692802960" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;易于上手，难以精通&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;巧妙操控卫兵突破致命变种生物的包围，利用它的武器将敌人消灭！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;收集原质，提升守卫的性能&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/Desktop_2023.02.10_-_14.46.11.13_3.gif?t=1692802960" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;组合武器和物品，赋予它们全新的元素效果&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;卫兵反应堆的能量耗尽之前，一定不能牺牲！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;面对并击败强大的头目&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;完成数十项挑战，解锁全新的能力&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/Choose_your_Sentinel.gif?t=1692802960" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;炼金术创造的各类枪械和技能供你选择&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;灵活升级或精心打造角色构筑，以对抗特性和抗性不同的变种怪物&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;坚持得越久，你就越强大。不断获得技能、武器，不断击败敌人。简而言之，游戏超级耐玩！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_3.png?t=1692802960" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/2244480/REMEDIUM_Sentinels/" target="_blank" rel=""  id="dynamiclink_2" &gt;https://store.steampowered.com/app/2244480/REMEDIUM_Sentinels/&lt;/a&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2239150/extras/Store_Page_Content_Overview_CN.png?t=1691060348" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;不再头疼的策略游戏？我们满足您的需求。&lt;/strong&gt;&lt;/h2&gt;&lt;i&gt;给马上鞍！看到您的王国栩栩如生，为保卫它而进行紧张激战，还能在午餐前完成。&lt;/i&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2239150/extras/thronefall_banner1_border.gif?t=1691060348" /&gt;&lt;br&gt;&lt;br&gt;在Thronefall中，我们试图剥离经典策略游戏中所有不必要的复杂性，并将其与适量的砍杀结合起来。在白天建立你的基地，在晚上保卫它直到你的最后一口气。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2239150/extras/thronefall_banner2_bordernotext.gif?t=1691060348" /&gt;&lt;br&gt;&lt;br&gt;您能在经济和防御之间找到合适的平衡吗？您需要更多的弓箭手、更厚的城墙还是额外的磨坊？您会用长弓将敌人挡在外面，还是骑马冲向他们？今晚将是艰难的一夜，但没有什么比看到太阳升起在您的小王国上空，迎来新的一天更令人欣喜的了。</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2266770</t>
+          <t>2244480</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Pathfinder: Wrath of the Righteous - The Last Sarkorians</t>
+          <t>REMEDIUM: Sentinels</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Pathfinder: Wrath of the Righteous - The Last Sarkorians</t>
+          <t>REMEDIUM: Sentinels</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>角色扮演,冒险,策略,独立</t>
+          <t>动作类 Rogue,弹幕射击,轻度 Rogue,射击,3D</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>DLC</t>
+          <t>Game</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>2023年03月07日</t>
+          <t>2023年07月18日</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>邂逅乌布里格·欧列克，四分五裂的萨阔力仅存的后裔之一。他身怀变形成强大狮鹫的绝技，能够成为您队伍中势不可挡的斗士、一位值得信赖的朋友——甚至可能不仅于此。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;附带6个变体的新可选职业。成为一名化形师，使用动物拟态和形态，以野兽的怒火消灭您的敌人！&lt;br&gt;&lt;/li&gt;&lt;li&gt;队伍迎来新成员：一位从家园的灭顶之灾中神秘生还的萨阔力部族酋长。&lt;br&gt;&lt;/li&gt;&lt;li&gt;一个此前无法到访的全新地区，您将与新的盟友一起展开探索，与新的敌人交手，并揭示一些古老的秘密。&lt;br&gt;&lt;/li&gt;&lt;li&gt;9个全新法术将协助您与新敌人和老对手的战斗。&lt;br&gt;&lt;/li&gt;&lt;li&gt;不论男女角色，均可选择与乌布里格发展恋爱剧情。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x346_ch_s.jpg?t=1692802960" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_1.png?t=1692802960" /&gt;&lt;br&gt;&lt;br&gt;《拯救：卫兵》是一款快节奏的轻度类Rogue自动射击游戏，背景世界与游戏《拯救》相同。一百多年前，灰色瘟疫肆虐，大部分人类都变成了凶恶的变种生物。这片土地如今被死亡和混乱笼罩，只有少数城市仍然屹立不倒。&lt;br&gt;&lt;br&gt;你将操控炼金术士创造的一个卫兵，肩负唯一的使命——只要你的反应堆还在运转，就竭力保卫城市，抵挡变种生物无尽的袭击。组合物品和炼金元素，不断获取新的武器，打造独特的构筑！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/saw-1_new.gif?t=1692802960" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_2.png?t=1692802960" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;易于上手，难以精通&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;巧妙操控卫兵突破致命变种生物的包围，利用它的武器将敌人消灭！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;收集原质，提升守卫的性能&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/Desktop_2023.02.10_-_14.46.11.13_3.gif?t=1692802960" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;组合武器和物品，赋予它们全新的元素效果&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;卫兵反应堆的能量耗尽之前，一定不能牺牲！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;面对并击败强大的头目&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;完成数十项挑战，解锁全新的能力&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/Choose_your_Sentinel.gif?t=1692802960" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;炼金术创造的各类枪械和技能供你选择&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;灵活升级或精心打造角色构筑，以对抗特性和抗性不同的变种怪物&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;坚持得越久，你就越强大。不断获得技能、武器，不断击败敌人。简而言之，游戏超级耐玩！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_3.png?t=1692802960" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/2244480/REMEDIUM_Sentinels/" target="_blank" rel=""  id="dynamiclink_2" &gt;https://store.steampowered.com/app/2244480/REMEDIUM_Sentinels/&lt;/a&gt;</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2273170</t>
+          <t>2266770</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Gaia Trek</t>
+          <t>Pathfinder: Wrath of the Righteous - The Last Sarkorians</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>盖娅迷航</t>
+          <t>Pathfinder: Wrath of the Righteous - The Last Sarkorians</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>卡牌游戏,资源管理,塔防,基地建设,管理</t>
+          <t>角色扮演,冒险,策略,独立</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>8.0</t>
+          <t>DLC</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>2023年08月23日</t>
+          <t>2023年03月07日</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>欢迎关注我们的官方社群:&lt;br&gt;《盖娅迷航》玩家QQ群: 699632445&lt;br&gt;游戏便当QQ群①：287356527【已满】&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569【已满】&lt;br&gt;游戏便当QQ群④：909356067&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/1.png?t=1693657142" /&gt;&lt;br&gt;&lt;br&gt;控制你的飞船与别的星球进行“友好交流”。探索陌生的星球，收集并加工种类丰富的资源，在受损的飞船上建设你的家园，打造千奇百怪的怪兽为你而战，最终吞噬其他星球意志以修复自身。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z1.png?t=1693657142" /&gt;&lt;br&gt;宇宙中已发现存在7种独具特色的种族，共计50+极具个性化能力的个体。然而这些不过是更高级存在——星球意志的桌上玩物，随意拿取两种个体进行融合即可产生全新个体，共计400+融合个体等你创造！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/1融合.gif?t=1693657142" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z2.png?t=1693657142" /&gt;&lt;br&gt;各个种族根据自身的生物特性发展出了属于自身的独特文明，光合族由种子生根发芽，奇美拉族通过交配繁衍，洞虫族以虫后为绝对中心，奥托玛族靠工厂制造以能源为本，本源族源于世间万物中蕴含的元素，抑默心族伴生于生物个体的情绪变化，神族由于生物的虔诚信仰而实体化。顺应各族的文明而存在的独特功能建筑共50+。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/怪物生成.gif?t=1693657142" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z3.png?t=1693657142" /&gt;&lt;br&gt;既有极为寻常的砍树挖矿、种植炼铁、加工建造，又有科幻十足的情绪具象、元素实体、机械生命。丰富多样的地形区域中蕴藏着上百种资源卡，派遣你的怪兽前去探索、采集、掠夺，带回来的每一张资源卡都是取得胜利的关键。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/合成2.gif?t=1693657142" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z4.png?t=1693657142" /&gt;&lt;br&gt;产出单位、打造建筑、探索地图、抵御进攻，你需要完成很多事情，但是你的时间可不多。从降落在这个文明，第一个单位的产出，第一座建筑的落地，这场残酷的战斗就已经开始，要么运筹帷幄拿下这里，要么败走麦城落荒而逃。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/boss动图.gif?t=1693657142" /&gt;</t>
+          <t>邂逅乌布里格·欧列克，四分五裂的萨阔力仅存的后裔之一。他身怀变形成强大狮鹫的绝技，能够成为您队伍中势不可挡的斗士、一位值得信赖的朋友——甚至可能不仅于此。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;附带6个变体的新可选职业。成为一名化形师，使用动物拟态和形态，以野兽的怒火消灭您的敌人！&lt;br&gt;&lt;/li&gt;&lt;li&gt;队伍迎来新成员：一位从家园的灭顶之灾中神秘生还的萨阔力部族酋长。&lt;br&gt;&lt;/li&gt;&lt;li&gt;一个此前无法到访的全新地区，您将与新的盟友一起展开探索，与新的敌人交手，并揭示一些古老的秘密。&lt;br&gt;&lt;/li&gt;&lt;li&gt;9个全新法术将协助您与新敌人和老对手的战斗。&lt;br&gt;&lt;/li&gt;&lt;li&gt;不论男女角色，均可选择与乌布里格发展恋爱剧情。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2273430</t>
+          <t>2273170</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>BlazBlue Entropy Effect</t>
+          <t>Gaia Trek</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>苍翼：混沌效应</t>
+          <t>盖娅迷航</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>抢先体验,动作类 Rogue,动作冒险,类银河战士恶魔城,平台游戏</t>
+          <t>卡牌游戏,资源管理,塔防,基地建设,管理</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -10085,39 +10085,39 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>2023年08月16日</t>
+          <t>2023年08月23日</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/2s8sQbmtpE" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/3ff496ac-5d11-4609-844e-ceeaf4c1953b.jpg?t=1693550018" /&gt;&lt;/a&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-1.png?t=1693550018" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/2D_ACT战斗体验的天花板.gif?t=1693550018" /&gt;&lt;br&gt;纯正格斗血统的全新动作肉鸽游戏，资深动作团队以ACT之名打造极致2D动作战斗体验！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-2.png?t=1693550018" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/千变万化的动作战斗.gif?t=1693550018" /&gt;&lt;br&gt;魅力非凡的各个角色可以通过上百种招式自由构建，打造独一无二的动作连招。角色间迭代传承的继承系统，让每一次战斗的结束又成为新战斗的起点。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-3.png?t=1693550018" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/无限可能的肉鸽构建.gif?t=1693550018" /&gt;&lt;br&gt;八大元素策略体系（电、火、毒、光、刃、冰、暗、通用），超过两百种强化效果与动作系统联动，通过不同的搭配组合，在动作战斗中触发不同的“化学反应”，燃烧、冰冻、致盲、麻痹......挑选合适的词条强化，进一步“定制”属于自己的动作流派！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/01CN.png?t=1693550018" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/两大经典玩法合璧.gif?t=1693550018" /&gt;&lt;br&gt;箱庭式闯关+类银河城冒险结合设计，汇集横版动作的两种经典玩法。在箱庭式关卡中击败不同敌人，挑战阶段性BOSS；在随机生成的类银河城大地图中冒险，踏入隐秘禁区、探索故事终点。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/02ECN.png?t=1693550018" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/多线性·多结局.gif?t=1693550018" /&gt;&lt;br&gt;在架空的近未来世界，人们通过名为“ACE”的科技装置进入虚拟空间，化身为不同角色战斗。虚构的一切，却一步步影响着真实的未来。&lt;br&gt;由特殊粒子效果展现的事象碎片诉说着隐秘或真相，你会怎么判断？&lt;br&gt;由对话选择驱动的多线性剧情发展，你将如何抉择？&lt;br&gt;谨慎改变故事的走向，战斗的终点将是完全不同的未来。&lt;br&gt;&lt;br&gt;*本作品属外传衍生游戏，世界观为新原创内容，故事情节不涉及BlazBlue本篇剧情。</t>
+          <t>欢迎关注我们的官方社群:&lt;br&gt;《盖娅迷航》玩家QQ群: 699632445&lt;br&gt;游戏便当QQ群①：287356527【已满】&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569【已满】&lt;br&gt;游戏便当QQ群④：909356067&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/1.png?t=1693657142" /&gt;&lt;br&gt;&lt;br&gt;控制你的飞船与别的星球进行“友好交流”。探索陌生的星球，收集并加工种类丰富的资源，在受损的飞船上建设你的家园，打造千奇百怪的怪兽为你而战，最终吞噬其他星球意志以修复自身。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z1.png?t=1693657142" /&gt;&lt;br&gt;宇宙中已发现存在7种独具特色的种族，共计50+极具个性化能力的个体。然而这些不过是更高级存在——星球意志的桌上玩物，随意拿取两种个体进行融合即可产生全新个体，共计400+融合个体等你创造！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/1融合.gif?t=1693657142" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z2.png?t=1693657142" /&gt;&lt;br&gt;各个种族根据自身的生物特性发展出了属于自身的独特文明，光合族由种子生根发芽，奇美拉族通过交配繁衍，洞虫族以虫后为绝对中心，奥托玛族靠工厂制造以能源为本，本源族源于世间万物中蕴含的元素，抑默心族伴生于生物个体的情绪变化，神族由于生物的虔诚信仰而实体化。顺应各族的文明而存在的独特功能建筑共50+。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/怪物生成.gif?t=1693657142" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z3.png?t=1693657142" /&gt;&lt;br&gt;既有极为寻常的砍树挖矿、种植炼铁、加工建造，又有科幻十足的情绪具象、元素实体、机械生命。丰富多样的地形区域中蕴藏着上百种资源卡，派遣你的怪兽前去探索、采集、掠夺，带回来的每一张资源卡都是取得胜利的关键。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/合成2.gif?t=1693657142" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z4.png?t=1693657142" /&gt;&lt;br&gt;产出单位、打造建筑、探索地图、抵御进攻，你需要完成很多事情，但是你的时间可不多。从降落在这个文明，第一个单位的产出，第一座建筑的落地，这场残酷的战斗就已经开始，要么运筹帷幄拿下这里，要么败走麦城落荒而逃。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/boss动图.gif?t=1693657142" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2278640</t>
+          <t>2273430</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Love on Leave</t>
+          <t>BlazBlue Entropy Effect</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>我的年假恋爱物语</t>
+          <t>苍翼：混沌效应</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>恋爱模拟,可爱,2D 平台,休闲,多结局</t>
+          <t>抢先体验,动作类 Rogue,动作冒险,类银河战士恶魔城,平台游戏</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -10125,36 +10125,41 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>2023年05月18日</t>
+          <t>2023年08月16日</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>※所有涉及性内容的人物都超过18岁。&lt;h2 class="bb_tag"&gt;&lt;strong&gt;概要&lt;/strong&gt;&lt;/h2&gt;本作品为享受悠闲生活的恋爱ADV游戏。你在年假期间回到乡下，与美人三姐妹再次相遇。除事件画面外，其他移动均以侧面形式展开。游戏的目的是享受乡村生活的同时，与三姐妹发展恋情。&lt;h2 class="bb_tag"&gt;&lt;strong&gt;系统&lt;/strong&gt;&lt;/h2&gt;■年假只有14天！在此期间努力与三姐妹发展恋情吧！&lt;br&gt;给予玩家的年假只有14天！在这14天里，尽力与三姐妹发展恋情吧！无论是同龄的傲娇次女、阴沉系的老幺、爱照顾人的长女、还是三人一起，选择与谁交往都是玩家的自由。根据玩家的不同行动，故事将迎来各种不同的结局。&lt;br&gt;&lt;br&gt;■多种多样的三姐妹互动事件！&lt;br&gt;与三姐妹加深羁绊之后，会发生特别互动事件！请亲眼见证发生的事件吧，直到深刻铭记在心为止！&lt;br&gt;&lt;br&gt;■尽情享受乡下的悠闲生活！&lt;br&gt;玩家可以自由在乡间的地图中行动。像是钓鱼、耕田之类乡下特有的悠闲生活。钓到的鱼和收获的蔬菜可能是愿望清单的必需物品，也可以是送给三姐妹的礼物。地图上还有许多掉落的道具，一边享受田园风光一边探索收集道具吧！&lt;h2 class="bb_tag"&gt;&lt;strong&gt;登场人物&lt;/strong&gt;&lt;/h2&gt;・天草 亚舞音　(Voice:Ayaka Suwa）&lt;br&gt;&lt;br&gt;・天草 响　　　(Voice:Nichika Omori）&lt;br&gt;・天草 果南　(Voice: Asuka Nishi）&lt;h2 class="bb_tag"&gt;&lt;strong&gt;工作人员&lt;/strong&gt;&lt;/h2&gt;・角色设计:Waon Inui&lt;br&gt;&lt;br&gt;・故事设计:Takayoshi Muto(Synthese)&lt;br&gt;・企划/执行:Yujiro Usuda</t>
+          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/2s8sQbmtpE" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/3ff496ac-5d11-4609-844e-ceeaf4c1953b.jpg?t=1693550018" /&gt;&lt;/a&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-1.png?t=1693550018" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/2D_ACT战斗体验的天花板.gif?t=1693550018" /&gt;&lt;br&gt;纯正格斗血统的全新动作肉鸽游戏，资深动作团队以ACT之名打造极致2D动作战斗体验！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-2.png?t=1693550018" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/千变万化的动作战斗.gif?t=1693550018" /&gt;&lt;br&gt;魅力非凡的各个角色可以通过上百种招式自由构建，打造独一无二的动作连招。角色间迭代传承的继承系统，让每一次战斗的结束又成为新战斗的起点。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-3.png?t=1693550018" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/无限可能的肉鸽构建.gif?t=1693550018" /&gt;&lt;br&gt;八大元素策略体系（电、火、毒、光、刃、冰、暗、通用），超过两百种强化效果与动作系统联动，通过不同的搭配组合，在动作战斗中触发不同的“化学反应”，燃烧、冰冻、致盲、麻痹......挑选合适的词条强化，进一步“定制”属于自己的动作流派！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/01CN.png?t=1693550018" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/两大经典玩法合璧.gif?t=1693550018" /&gt;&lt;br&gt;箱庭式闯关+类银河城冒险结合设计，汇集横版动作的两种经典玩法。在箱庭式关卡中击败不同敌人，挑战阶段性BOSS；在随机生成的类银河城大地图中冒险，踏入隐秘禁区、探索故事终点。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/02ECN.png?t=1693550018" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/多线性·多结局.gif?t=1693550018" /&gt;&lt;br&gt;在架空的近未来世界，人们通过名为“ACE”的科技装置进入虚拟空间，化身为不同角色战斗。虚构的一切，却一步步影响着真实的未来。&lt;br&gt;由特殊粒子效果展现的事象碎片诉说着隐秘或真相，你会怎么判断？&lt;br&gt;由对话选择驱动的多线性剧情发展，你将如何抉择？&lt;br&gt;谨慎改变故事的走向，战斗的终点将是完全不同的未来。&lt;br&gt;&lt;br&gt;*本作品属外传衍生游戏，世界观为新原创内容，故事情节不涉及BlazBlue本篇剧情。</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2281410</t>
+          <t>2278640</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>江城创业记</t>
+          <t>Love on Leave</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>江城创业记</t>
+          <t>我的年假恋爱物语</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>自动化,基地建设,开放世界,像素图形,模拟</t>
+          <t>恋爱模拟,可爱,2D 平台,休闲,多结局</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -10162,41 +10167,36 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>2023年03月31日</t>
+          <t>2023年05月18日</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>欢迎关注我们的官方社群：&lt;br&gt;BUG反馈/官方答疑/建设互助区，我们会在群中倾听大家的意见和想法。&lt;br&gt;【官方】江城创业记游戏 1群：596672095&lt;br&gt;【官方】江城创业记游戏 2群：702307976&lt;br&gt;【官方】江城创业记游戏 3群：665445239&lt;br&gt;&lt;a href="mailto:也可以将你的想法和建议发送到我们的邮箱：xb@cedong.com.cn"&gt;也可以将你的想法和建议发送到我们的邮箱：xb@cedong.com.cn&lt;/a&gt;&lt;br&gt;&lt;br&gt;游友聊天区&lt;br&gt;游戏便当QQ群①：287356527【已满】&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/11D.gif?t=1691049617" /&gt;&lt;br&gt;你穿越回千年前的江城，成为了一个工坊主……为何穿越的会是你？门派之争、工坊暗斗、异族矛盾、皇子复辟，江城平静的表面暗流涌......&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/1x.gif?t=1691049617" /&gt;&lt;br&gt;&lt;br&gt;创建自动化生产流水线，从木板到电路板，设计你的每一条生产线。&lt;br&gt;逐步解锁未来科技，从硅提纯到光伏发电，建设你的超时代工坊。&lt;br&gt;使用跨区传送站接收各级产物，将你的分厂版图扩展到全大陆。&lt;br&gt;酿酒榨油、制造烤箱，甚至是手表和抗生素，用你的未来商品惊艳古人!&lt;br&gt;钢筋混凝土、橡胶、大型计算机，这些都将会是你在一千年前的古代批量建造的！！！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/江城steamgif.gif?t=1691049617" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/1z.gif?t=1691049617" /&gt;&lt;br&gt;&lt;br&gt;目前已开放10位可攻略角色，皇家、江湖、商家……解开每个人的秘密，追逐你想要的友情、爱情。&lt;br&gt;与你选择的伴侣谈婚论嫁，一同住进工坊，他/她也将为你带来强大助力。&lt;br&gt;与近30位古人结交，每个人都有自己四季变化的日程，参与他们的人生，用现代知识解决他们的难题。&lt;br&gt;在江城，万事自然，想何时工作、探索、谈情说爱，都由你说了算。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/3zd.gif?t=1691049617" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/3X.gif?t=1691049617" /&gt;&lt;br&gt;&lt;br&gt;上手极快的战斗系统，闪躲与进攻，在合理操作中战胜你的敌人。&lt;br&gt;正统学习或江湖奇遇，外功、内功、轻功、硬功，40余种武功让你称霸江湖。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/4zd.gif?t=1691049617" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/4x.gif?t=1691049617" /&gt;&lt;br&gt;&lt;br&gt;探索地图上的四大村落，完成村落任务，探索它们的秘密。&lt;br&gt;探索神秘前辈为你留下的玄妙秘境，深入其中，战胜诡奇怪物。&lt;br&gt;探索整片大陆，发掘宝藏、勇探蝙蝠洞、为百姓惩戒山贼。&lt;br&gt;与全地图的矿主签订契约，让古人来为你打工。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/5zddd.gif?t=1691049617" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/5x.gif?t=1691049617" /&gt;&lt;br&gt;&lt;br&gt;做能工巧匠还是交际达人？武林第一人还是生活小能手？都由你自己决定。&lt;br&gt;打造灵药、武器、衣饰，做古代的手工达人。&lt;br&gt;20余种不同增益的菜肴，五珍烩、雪霞羹……在你的厨房里制作吧！&lt;br&gt;将你制作的产品填满天工阁，让古人也来参观现代科技。&lt;br&gt;借助未来科技的力量，修复时光机，完成只有你能完成的使命。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/6zd.gif?t=1691049617" /&gt;</t>
+          <t>※所有涉及性内容的人物都超过18岁。&lt;h2 class="bb_tag"&gt;&lt;strong&gt;概要&lt;/strong&gt;&lt;/h2&gt;本作品为享受悠闲生活的恋爱ADV游戏。你在年假期间回到乡下，与美人三姐妹再次相遇。除事件画面外，其他移动均以侧面形式展开。游戏的目的是享受乡村生活的同时，与三姐妹发展恋情。&lt;h2 class="bb_tag"&gt;&lt;strong&gt;系统&lt;/strong&gt;&lt;/h2&gt;■年假只有14天！在此期间努力与三姐妹发展恋情吧！&lt;br&gt;给予玩家的年假只有14天！在这14天里，尽力与三姐妹发展恋情吧！无论是同龄的傲娇次女、阴沉系的老幺、爱照顾人的长女、还是三人一起，选择与谁交往都是玩家的自由。根据玩家的不同行动，故事将迎来各种不同的结局。&lt;br&gt;&lt;br&gt;■多种多样的三姐妹互动事件！&lt;br&gt;与三姐妹加深羁绊之后，会发生特别互动事件！请亲眼见证发生的事件吧，直到深刻铭记在心为止！&lt;br&gt;&lt;br&gt;■尽情享受乡下的悠闲生活！&lt;br&gt;玩家可以自由在乡间的地图中行动。像是钓鱼、耕田之类乡下特有的悠闲生活。钓到的鱼和收获的蔬菜可能是愿望清单的必需物品，也可以是送给三姐妹的礼物。地图上还有许多掉落的道具，一边享受田园风光一边探索收集道具吧！&lt;h2 class="bb_tag"&gt;&lt;strong&gt;登场人物&lt;/strong&gt;&lt;/h2&gt;・天草 亚舞音　(Voice:Ayaka Suwa）&lt;br&gt;&lt;br&gt;・天草 响　　　(Voice:Nichika Omori）&lt;br&gt;・天草 果南　(Voice: Asuka Nishi）&lt;h2 class="bb_tag"&gt;&lt;strong&gt;工作人员&lt;/strong&gt;&lt;/h2&gt;・角色设计:Waon Inui&lt;br&gt;&lt;br&gt;・故事设计:Takayoshi Muto(Synthese)&lt;br&gt;・企划/执行:Yujiro Usuda</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2285570</t>
+          <t>2281410</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>觅仙</t>
+          <t>江城创业记</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>觅仙</t>
+          <t>江城创业记</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>生存,冒险,轻度 Rogue,弹幕射击,探索</t>
+          <t>自动化,基地建设,开放世界,像素图形,模拟</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -10206,39 +10206,39 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>2023年03月10日</t>
+          <t>2023年03月31日</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>QQ交流群：747698447&lt;br&gt;&lt;br&gt;《觅仙》是一款修仙题材的RogueLite游戏。你可以在游历中提升修仙境界，合成仙灵法器，修炼心法秘籍，击败妖魔。寻觅何为仙，何为道，开启属于自己的修仙之路。&lt;br&gt;&lt;br&gt;&lt;strong&gt;修仙之路&lt;/strong&gt;&lt;br&gt;修仙是个循序渐进的过程，其中充满了挑战与机遇。在历练中提升自己，才可以在这万妖横行的世道存活，至于是苟活还是横扫八荒，就得看道友的修为如何了。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2285570/extras/skill1.gif?t=1678416339" /&gt;&lt;br&gt;&lt;br&gt;寻找称手的法器，适当地服用丹药。若是可以炼化一件绝世神器，便可使修炼之路更加顺利，乃至御万敌与顷刻之间。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2285570/extras/levelup1.gif?t=1678416339" /&gt;&lt;br&gt;&lt;br&gt;除了器丹，当然自身的修行也不可少，修炼绝世神通，寻找心法秘籍，尝试领悟其中的要义，这样道友的实力又可以更加稳固啦！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2285570/extras/talent1.gif?t=1678416339" /&gt;&lt;br&gt;&lt;br&gt;修仙路多寂寞，在旅途中结识更多仙友，寻觅他们的修仙之途，何尝不是一种趣事？&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2285570/extras/character1.gif?t=1678416339" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;妖潮来袭&lt;/strong&gt;&lt;br&gt;游戏有多个风格迥异的地图，每处都会出没不同的妖兽，尽浑身解数在妖兽中存活下来！这些宝贵的历练会让你变得更强。&lt;br&gt;偶遇强敌与变幻莫测的敌人，不要慌乱，找到破绽，消灭它们！若是掉落珍贵宝箱，可不要忘记去看看，弄不好里面就是一件神器。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2285570/extras/build1.gif?t=1678416339" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;境界突破&lt;/strong&gt;&lt;br&gt;稳固道心，循序渐进，修仙之路多劫难，寻觅破除之法。无论是心劫、妖劫亦或是天劫，总有对应之法，只要多加尝试，觅得机缘，随之突破到更高的境界，那恭喜道友，觅仙之路未来可期！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2285570/extras/rank1.gif?t=1678416339" /&gt;</t>
+          <t>欢迎关注我们的官方社群：&lt;br&gt;BUG反馈/官方答疑/建设互助区，我们会在群中倾听大家的意见和想法。&lt;br&gt;【官方】江城创业记游戏 1群：596672095&lt;br&gt;【官方】江城创业记游戏 2群：702307976&lt;br&gt;【官方】江城创业记游戏 3群：665445239&lt;br&gt;&lt;a href="mailto:也可以将你的想法和建议发送到我们的邮箱：xb@cedong.com.cn"&gt;也可以将你的想法和建议发送到我们的邮箱：xb@cedong.com.cn&lt;/a&gt;&lt;br&gt;&lt;br&gt;游友聊天区&lt;br&gt;游戏便当QQ群①：287356527【已满】&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/11D.gif?t=1691049617" /&gt;&lt;br&gt;你穿越回千年前的江城，成为了一个工坊主……为何穿越的会是你？门派之争、工坊暗斗、异族矛盾、皇子复辟，江城平静的表面暗流涌......&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/1x.gif?t=1691049617" /&gt;&lt;br&gt;&lt;br&gt;创建自动化生产流水线，从木板到电路板，设计你的每一条生产线。&lt;br&gt;逐步解锁未来科技，从硅提纯到光伏发电，建设你的超时代工坊。&lt;br&gt;使用跨区传送站接收各级产物，将你的分厂版图扩展到全大陆。&lt;br&gt;酿酒榨油、制造烤箱，甚至是手表和抗生素，用你的未来商品惊艳古人!&lt;br&gt;钢筋混凝土、橡胶、大型计算机，这些都将会是你在一千年前的古代批量建造的！！！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/江城steamgif.gif?t=1691049617" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/1z.gif?t=1691049617" /&gt;&lt;br&gt;&lt;br&gt;目前已开放10位可攻略角色，皇家、江湖、商家……解开每个人的秘密，追逐你想要的友情、爱情。&lt;br&gt;与你选择的伴侣谈婚论嫁，一同住进工坊，他/她也将为你带来强大助力。&lt;br&gt;与近30位古人结交，每个人都有自己四季变化的日程，参与他们的人生，用现代知识解决他们的难题。&lt;br&gt;在江城，万事自然，想何时工作、探索、谈情说爱，都由你说了算。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/3zd.gif?t=1691049617" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/3X.gif?t=1691049617" /&gt;&lt;br&gt;&lt;br&gt;上手极快的战斗系统，闪躲与进攻，在合理操作中战胜你的敌人。&lt;br&gt;正统学习或江湖奇遇，外功、内功、轻功、硬功，40余种武功让你称霸江湖。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/4zd.gif?t=1691049617" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/4x.gif?t=1691049617" /&gt;&lt;br&gt;&lt;br&gt;探索地图上的四大村落，完成村落任务，探索它们的秘密。&lt;br&gt;探索神秘前辈为你留下的玄妙秘境，深入其中，战胜诡奇怪物。&lt;br&gt;探索整片大陆，发掘宝藏、勇探蝙蝠洞、为百姓惩戒山贼。&lt;br&gt;与全地图的矿主签订契约，让古人来为你打工。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/5zddd.gif?t=1691049617" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/5x.gif?t=1691049617" /&gt;&lt;br&gt;&lt;br&gt;做能工巧匠还是交际达人？武林第一人还是生活小能手？都由你自己决定。&lt;br&gt;打造灵药、武器、衣饰，做古代的手工达人。&lt;br&gt;20余种不同增益的菜肴，五珍烩、雪霞羹……在你的厨房里制作吧！&lt;br&gt;将你制作的产品填满天工阁，让古人也来参观现代科技。&lt;br&gt;借助未来科技的力量，修复时光机，完成只有你能完成的使命。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/6zd.gif?t=1691049617" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2290000</t>
+          <t>2285570</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>TerraScape</t>
+          <t>觅仙</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>TerraScape</t>
+          <t>觅仙</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>抢先体验,城市营造,解谜,策略,休闲</t>
+          <t>生存,冒险,轻度 Rogue,弹幕射击,探索</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -10246,36 +10246,41 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>5.6</t>
+        </is>
+      </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>2023年04月05日</t>
+          <t>2023年03月10日</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2290000/extras/01_v2.png?t=1692317469" /&gt;&lt;br&gt;&lt;br&gt;在《愿景之城》中建立你的梦想之城。《愿景之城》中的每组卡牌都将提供不同的建筑和方式来扩展你的城市。在游戏世界中明智的放置每一张卡牌，以赚取积分并获得新的卡牌作为奖励。循环往复，巧妙的建设和发展你的城市。&lt;br&gt;&lt;br&gt;游戏提供了多种游戏模式、程序生成的地图以及令人兴奋的挑战。在抢先体验期间，《愿景之城》将在未来扩展更多的卡组、地图和游戏模式。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2290000/extras/02_CN.gif?t=1692317469" /&gt;&lt;br&gt;&lt;br&gt;无论是其他建筑、自然资源还是合适的地形, 每栋建筑都有特定的要求。尽可能多的满足要求去获取积分，但请注意：这些也将产生负面影响！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2290000/extras/03_CN.gif?t=1692317469" /&gt;&lt;br&gt;&lt;br&gt;通过收集积分，你可以解锁新的卡组和建筑。每套卡牌由几张建筑卡组成。通过更加频繁和巧妙的方式来放置某些特定的牌组建筑，从而解锁更多的卡牌。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2290000/extras/04_CN.gif?t=1692317469" /&gt;&lt;br&gt;&lt;br&gt;如果你的建筑放置得当，就可以抽取新的卡牌。但要密切关注你的策略和谋划你真正需要的卡牌。否则，你可能会抽到对你当前规划完全无益的建筑。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2290000/extras/05_CN.gif?t=1692317469" /&gt;&lt;br&gt;&lt;br&gt;独特的地图生成器可以创造出具有无穷可能性的新地图！此外，玩家还可以参加难度增加的手工制作任务，在高分榜上向你的好友和世界展示你是最佳玩家。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2290000/extras/06_CN.gif?t=1692317469" /&gt;&lt;br&gt;&lt;br&gt;让自己沉浸在这独特的图形风格和精心设计的风景中。按照自己的节奏，慢慢来，好好欣赏美景。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2290000/extras/07_CN.gif?t=1692317469" /&gt;&lt;br&gt;&lt;br&gt;与你的朋友一起玩刺激的多人游戏！制定你自己的战略，挫败对手。利用战略性的建筑，逐轮建立起你的积分领先优势。</t>
+          <t>QQ交流群：747698447&lt;br&gt;&lt;br&gt;《觅仙》是一款修仙题材的RogueLite游戏。你可以在游历中提升修仙境界，合成仙灵法器，修炼心法秘籍，击败妖魔。寻觅何为仙，何为道，开启属于自己的修仙之路。&lt;br&gt;&lt;br&gt;&lt;strong&gt;修仙之路&lt;/strong&gt;&lt;br&gt;修仙是个循序渐进的过程，其中充满了挑战与机遇。在历练中提升自己，才可以在这万妖横行的世道存活，至于是苟活还是横扫八荒，就得看道友的修为如何了。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2285570/extras/skill1.gif?t=1678416339" /&gt;&lt;br&gt;&lt;br&gt;寻找称手的法器，适当地服用丹药。若是可以炼化一件绝世神器，便可使修炼之路更加顺利，乃至御万敌与顷刻之间。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2285570/extras/levelup1.gif?t=1678416339" /&gt;&lt;br&gt;&lt;br&gt;除了器丹，当然自身的修行也不可少，修炼绝世神通，寻找心法秘籍，尝试领悟其中的要义，这样道友的实力又可以更加稳固啦！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2285570/extras/talent1.gif?t=1678416339" /&gt;&lt;br&gt;&lt;br&gt;修仙路多寂寞，在旅途中结识更多仙友，寻觅他们的修仙之途，何尝不是一种趣事？&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2285570/extras/character1.gif?t=1678416339" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;妖潮来袭&lt;/strong&gt;&lt;br&gt;游戏有多个风格迥异的地图，每处都会出没不同的妖兽，尽浑身解数在妖兽中存活下来！这些宝贵的历练会让你变得更强。&lt;br&gt;偶遇强敌与变幻莫测的敌人，不要慌乱，找到破绽，消灭它们！若是掉落珍贵宝箱，可不要忘记去看看，弄不好里面就是一件神器。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2285570/extras/build1.gif?t=1678416339" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;境界突破&lt;/strong&gt;&lt;br&gt;稳固道心，循序渐进，修仙之路多劫难，寻觅破除之法。无论是心劫、妖劫亦或是天劫，总有对应之法，只要多加尝试，觅得机缘，随之突破到更高的境界，那恭喜道友，觅仙之路未来可期！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2285570/extras/rank1.gif?t=1678416339" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2321210</t>
+          <t>2290000</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Neon Echo</t>
+          <t>TerraScape</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>霓虹序列</t>
+          <t>TerraScape</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>动作类 Rogue,角色扮演,动作,横向滚屏,3D 平台</t>
+          <t>抢先体验,城市营造,解谜,策略,休闲</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -10283,41 +10288,36 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>2023年04月21日</t>
+          <t>2023年04月05日</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;故事背景：&lt;/h2&gt;世界已被“噪音”侵蚀腐化，受噪音侵扰的人类变得狂躁不安，甚至异化为怪物。与此同时人们发现，电音能够抵御这种异化，让人们恢复理智。身怀“电音之力”的少年们，去踏上肃清噪音的征程吧！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2321210/extras/1.png?t=1683859322" /&gt;&lt;h2 class="bb_tag"&gt;多职业体验：&lt;/h2&gt;游戏EA版本有3个角色——机械长刀、远程射手、近战搏击。每个角色配有不同的天赋和技能，并且都拥有“普通”和“霓虹”两种状态。任何一个角色都能给玩家带来别出心裁的战斗体验。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2321210/extras/2.png?t=1683859322" /&gt;&lt;h2 class="bb_tag"&gt;多重构筑策略搭配：&lt;/h2&gt;游戏设计了7种“霓虹序列”，每种序列对应一种元素力，可为角色的各种攻击方式附加特效，或赋予特殊功能。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2321210/extras/3.gif?t=1683859322" /&gt;&lt;br&gt;&lt;br&gt;除了传统Rogue的7大派别词条外，游戏还加入能够改变角色攻击或技能形态的“律动武装”、更自由的局内构筑系统“律动链接”、以及增益和减益属性并存的挑战玩法“噪乱之匣”等。通过多个build系统搭配，产生奇妙的连携反应，让战斗更加多样。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2321210/extras/4.gif?t=1683859322" /&gt;&lt;h2 class="bb_tag"&gt;丰富关卡随机组合：&lt;/h2&gt;在3D横版肉鸽游戏原有的随机关卡设计上，增加了大量真·随机元素：包含随机事件“布莱克商店”——随机获得增益或减益效果、“噩梦音箱”——限时挑战、以及各种趣味小游戏，总计超过400个关卡模块随机组合，让冒险的过程不会重复枯燥。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2321210/extras/5.gif?t=1683859322" /&gt;&lt;h2 class="bb_tag"&gt;跟随电音节拍去战斗：&lt;/h2&gt;除了能体验到传统Rogue战斗外，游戏还融入了“节奏技能”玩法，并鼓励玩家跟随BGM去战斗——踩中特定的BGM节拍，技能将产生意想不到的变化；当玩家进入“霓虹状态”，BGM会替换成节奏更强烈的电音。快带上耳机，让电音伴随你战斗吧！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2321210/extras/6.gif?t=1683859322" /&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2290000/extras/01_v2.png?t=1692317469" /&gt;&lt;br&gt;&lt;br&gt;在《愿景之城》中建立你的梦想之城。《愿景之城》中的每组卡牌都将提供不同的建筑和方式来扩展你的城市。在游戏世界中明智的放置每一张卡牌，以赚取积分并获得新的卡牌作为奖励。循环往复，巧妙的建设和发展你的城市。&lt;br&gt;&lt;br&gt;游戏提供了多种游戏模式、程序生成的地图以及令人兴奋的挑战。在抢先体验期间，《愿景之城》将在未来扩展更多的卡组、地图和游戏模式。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2290000/extras/02_CN.gif?t=1692317469" /&gt;&lt;br&gt;&lt;br&gt;无论是其他建筑、自然资源还是合适的地形, 每栋建筑都有特定的要求。尽可能多的满足要求去获取积分，但请注意：这些也将产生负面影响！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2290000/extras/03_CN.gif?t=1692317469" /&gt;&lt;br&gt;&lt;br&gt;通过收集积分，你可以解锁新的卡组和建筑。每套卡牌由几张建筑卡组成。通过更加频繁和巧妙的方式来放置某些特定的牌组建筑，从而解锁更多的卡牌。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2290000/extras/04_CN.gif?t=1692317469" /&gt;&lt;br&gt;&lt;br&gt;如果你的建筑放置得当，就可以抽取新的卡牌。但要密切关注你的策略和谋划你真正需要的卡牌。否则，你可能会抽到对你当前规划完全无益的建筑。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2290000/extras/05_CN.gif?t=1692317469" /&gt;&lt;br&gt;&lt;br&gt;独特的地图生成器可以创造出具有无穷可能性的新地图！此外，玩家还可以参加难度增加的手工制作任务，在高分榜上向你的好友和世界展示你是最佳玩家。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2290000/extras/06_CN.gif?t=1692317469" /&gt;&lt;br&gt;&lt;br&gt;让自己沉浸在这独特的图形风格和精心设计的风景中。按照自己的节奏，慢慢来，好好欣赏美景。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2290000/extras/07_CN.gif?t=1692317469" /&gt;&lt;br&gt;&lt;br&gt;与你的朋友一起玩刺激的多人游戏！制定你自己的战略，挫败对手。利用战略性的建筑，逐轮建立起你的积分领先优势。</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2331110</t>
+          <t>2321210</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>风筝</t>
+          <t>Neon Echo</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>风筝</t>
+          <t>霓虹序列</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>2D 平台,沉浸式模拟,互动小说,文字游戏,多结局</t>
+          <t>动作类 Rogue,角色扮演,动作,横向滚屏,3D 平台</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -10325,36 +10325,41 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>7.2</t>
+        </is>
+      </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>2023年05月19日</t>
+          <t>2023年04月21日</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>《风筝》是一款悬疑探案解谜游戏。故事发生在泰国唐人街，私家侦探隋枫接下毒品案的调查，然而幕后黑手派人袭击了隋枫及其未婚妻艾丽娅。艾丽娅重伤生死不明，隋枫头部受到重创导致每隔一段时间就会失去部分记忆，真相变得越来越远……隋枫凭借仅有的线索与记忆，决定找出真凶亲手为爱人报仇。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2331110/extras/商店页标题栏1.jpg?t=1690447305" /&gt;&lt;br&gt;游戏背景设定在2001年前后的东南亚某国，私家侦探隋枫在调查毒品案时受到匪徒袭击，女友艾丽娅用身体为他挡住致命一刀，隋枫在袭击中头部受到重伤。隋枫决定找出幕后真凶，亲手为爱人报仇，但此时却患有严重的间歇性失忆症，找出真相变得越发艰难……&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2331110/extras/商店页标题栏2.jpg?t=1690447305" /&gt;&lt;br&gt;游戏中您能体验到世纪之初东南亚的异国风情，也能感受到不同的民俗文化；&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2331110/extras/商店页标题栏3.jpg?t=1690447305" /&gt;&lt;br&gt;游戏中有很多具有时代感的设备是很多80、90后独特的记忆；&lt;br&gt;&lt;br&gt;&lt;br&gt;与剧情相辅相成的立绘插画，为您带来更好的视觉体验；&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2331110/extras/商店页标题栏人物.jpg?t=1690447305" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;结合剧情的特色解谜元素，让您更好地沉浸在故事情节之中；&lt;br&gt;善与恶的交界有时只在一瞬间，你的选择将会影响最终的结局。&lt;br&gt;&lt;br&gt;玩家交流QQ群：608222616</t>
+          <t>&lt;h2 class="bb_tag"&gt;故事背景：&lt;/h2&gt;世界已被“噪音”侵蚀腐化，受噪音侵扰的人类变得狂躁不安，甚至异化为怪物。与此同时人们发现，电音能够抵御这种异化，让人们恢复理智。身怀“电音之力”的少年们，去踏上肃清噪音的征程吧！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2321210/extras/1.png?t=1683859322" /&gt;&lt;h2 class="bb_tag"&gt;多职业体验：&lt;/h2&gt;游戏EA版本有3个角色——机械长刀、远程射手、近战搏击。每个角色配有不同的天赋和技能，并且都拥有“普通”和“霓虹”两种状态。任何一个角色都能给玩家带来别出心裁的战斗体验。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2321210/extras/2.png?t=1683859322" /&gt;&lt;h2 class="bb_tag"&gt;多重构筑策略搭配：&lt;/h2&gt;游戏设计了7种“霓虹序列”，每种序列对应一种元素力，可为角色的各种攻击方式附加特效，或赋予特殊功能。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2321210/extras/3.gif?t=1683859322" /&gt;&lt;br&gt;&lt;br&gt;除了传统Rogue的7大派别词条外，游戏还加入能够改变角色攻击或技能形态的“律动武装”、更自由的局内构筑系统“律动链接”、以及增益和减益属性并存的挑战玩法“噪乱之匣”等。通过多个build系统搭配，产生奇妙的连携反应，让战斗更加多样。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2321210/extras/4.gif?t=1683859322" /&gt;&lt;h2 class="bb_tag"&gt;丰富关卡随机组合：&lt;/h2&gt;在3D横版肉鸽游戏原有的随机关卡设计上，增加了大量真·随机元素：包含随机事件“布莱克商店”——随机获得增益或减益效果、“噩梦音箱”——限时挑战、以及各种趣味小游戏，总计超过400个关卡模块随机组合，让冒险的过程不会重复枯燥。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2321210/extras/5.gif?t=1683859322" /&gt;&lt;h2 class="bb_tag"&gt;跟随电音节拍去战斗：&lt;/h2&gt;除了能体验到传统Rogue战斗外，游戏还融入了“节奏技能”玩法，并鼓励玩家跟随BGM去战斗——踩中特定的BGM节拍，技能将产生意想不到的变化；当玩家进入“霓虹状态”，BGM会替换成节奏更强烈的电音。快带上耳机，让电音伴随你战斗吧！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2321210/extras/6.gif?t=1683859322" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2343600</t>
+          <t>2331110</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Endgame of Devil</t>
+          <t>风筝</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>魔王终局</t>
+          <t>风筝</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>休闲,单人,策略,像素图形,选择取向</t>
+          <t>2D 平台,沉浸式模拟,互动小说,文字游戏,多结局</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -10362,41 +10367,36 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>7.6</t>
-        </is>
-      </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>2023年04月09日</t>
+          <t>2023年05月19日</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/魔王终局Logo.gif?t=1693550847" /&gt;&lt;br&gt;&lt;br&gt;欢迎来到魔王城堡！《魔王终局》是一款类自走棋的策略休闲游戏，你的智慧和随机应变能力，将为你导向胜利——当然，还需要一些运气！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/魔王终局标题把不速之客赶出去.gif?t=1693550847" /&gt;&lt;br&gt;在游戏里，你将不再是人们口中常说的冒险者了，而是“邪恶”的魔王本王！面对为了宝物而前仆后继的冒险者，请招募强大的随从，搭配合理的阵营，把这些冒险者都赶出去！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/魔王终局魔物攻击勇者.gif?t=1693550847" /&gt;&lt;br&gt;&lt;br&gt;在回合次数内击败冒险者，否则宝石就要被偷走啦！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/魔王终局勇者偷走珠宝.gif?t=1693550847" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/魔王终局多种流派，随意搭配.gif?t=1693550847" /&gt;&lt;br&gt;游戏中目前有120种随从，战斗开始前，他们将会随机出现，根据局势选择一个得力助手，构筑一个相辅相成的强大阵容，抵御敌人的来袭吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/魔王终局抽卡进牌堆.gif?t=1693550847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/毒素带火.gif?t=1693550847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/雷暴带火.gif?t=1693550847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/死亡波带火.gif?t=1693550847" /&gt;&lt;br&gt;&lt;br&gt;目前《魔王终局》中有65种财宝、7种传奇财宝、13种难度财宝。当你将冒险者肃清后，根据你的阵容选择合适的财宝，这可能成为局面逆转的关键！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/游戏内截图.png?t=1693550847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/魔王终局标题不仅玩得爽，还很杀时间.gif?t=1693550847" /&gt;&lt;br&gt;游戏操作简单，研究起来却别有洞天。多尝试各种不同流派的通关方法吧！短小精悍的游戏内容，最适合在繁琐的工作学习之余来上这么一把，但要注意，小游戏才最杀时间！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/魔王终局魔物更换图.gif?t=1693550847" /&gt;&lt;h2 class="bb_tag"&gt;鸣谢&lt;/h2&gt;感谢在游戏开发过程中，提出宝贵意见或是提供直接帮助的朋友！（排名不分前后）：高达人，拌饭，茗凰，华莱士鱼人，秋夜，大睡，大脸，斯尔娜娜，Faumi，blue，Obrean。</t>
+          <t>《风筝》是一款悬疑探案解谜游戏。故事发生在泰国唐人街，私家侦探隋枫接下毒品案的调查，然而幕后黑手派人袭击了隋枫及其未婚妻艾丽娅。艾丽娅重伤生死不明，隋枫头部受到重创导致每隔一段时间就会失去部分记忆，真相变得越来越远……隋枫凭借仅有的线索与记忆，决定找出真凶亲手为爱人报仇。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2331110/extras/商店页标题栏1.jpg?t=1690447305" /&gt;&lt;br&gt;游戏背景设定在2001年前后的东南亚某国，私家侦探隋枫在调查毒品案时受到匪徒袭击，女友艾丽娅用身体为他挡住致命一刀，隋枫在袭击中头部受到重伤。隋枫决定找出幕后真凶，亲手为爱人报仇，但此时却患有严重的间歇性失忆症，找出真相变得越发艰难……&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2331110/extras/商店页标题栏2.jpg?t=1690447305" /&gt;&lt;br&gt;游戏中您能体验到世纪之初东南亚的异国风情，也能感受到不同的民俗文化；&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2331110/extras/商店页标题栏3.jpg?t=1690447305" /&gt;&lt;br&gt;游戏中有很多具有时代感的设备是很多80、90后独特的记忆；&lt;br&gt;&lt;br&gt;&lt;br&gt;与剧情相辅相成的立绘插画，为您带来更好的视觉体验；&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2331110/extras/商店页标题栏人物.jpg?t=1690447305" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;结合剧情的特色解谜元素，让您更好地沉浸在故事情节之中；&lt;br&gt;善与恶的交界有时只在一瞬间，你的选择将会影响最终的结局。&lt;br&gt;&lt;br&gt;玩家交流QQ群：608222616</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2345020</t>
+          <t>2343600</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Bee Island</t>
+          <t>Endgame of Devil</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>蜜蜂岛</t>
+          <t>魔王终局</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>沙盒,模拟,欢乐,单人,物理</t>
+          <t>休闲,单人,策略,像素图形,选择取向</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -10404,36 +10404,41 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>7.6</t>
+        </is>
+      </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>2023年08月26日</t>
+          <t>2023年04月09日</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;防守&lt;/h2&gt;敌人不时攻击你的蜂巢。 他们投下炸弹、喷洒毒药并发射火箭。 每一次他们都会变得更强。 建造弩炮、机关枪、防空导弹发射器和其他防御设施来保护您的蜂巢&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2345020/extras/GunBee.gif?t=1693503282" /&gt;&lt;h2 class="bb_tag"&gt;研究科技树&lt;/h2&gt;研究新的技术和建筑以应对不断加强的敌人。选择哪些技术将引领你走向胜利？你会以和平结束战争还是毁灭所有敌人?&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2345020/extras/bee_war.gif?t=1693503282" /&gt;&lt;h2 class="bb_tag"&gt;蜜蜂&lt;/h2&gt;女王需要更多的工人和战士。 建造幼儿园和学校来培养新的蜜蜂&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2345020/extras/WarBee.gif?t=1693503282" /&gt;&lt;h2 class="bb_tag"&gt;工厂&lt;/h2&gt;游戏中有 7 种资源，要获得其中一些资源，您需要工厂。 建造蜂窝并在其上放置建筑物&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2345020/extras/Build.gif?t=1693503282" /&gt;&lt;h2 class="bb_tag"&gt;休闲&lt;/h2&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2345020/extras/FountainBee.gif?t=1693503282" /&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/魔王终局Logo.gif?t=1693550847" /&gt;&lt;br&gt;&lt;br&gt;欢迎来到魔王城堡！《魔王终局》是一款类自走棋的策略休闲游戏，你的智慧和随机应变能力，将为你导向胜利——当然，还需要一些运气！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/魔王终局标题把不速之客赶出去.gif?t=1693550847" /&gt;&lt;br&gt;在游戏里，你将不再是人们口中常说的冒险者了，而是“邪恶”的魔王本王！面对为了宝物而前仆后继的冒险者，请招募强大的随从，搭配合理的阵营，把这些冒险者都赶出去！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/魔王终局魔物攻击勇者.gif?t=1693550847" /&gt;&lt;br&gt;&lt;br&gt;在回合次数内击败冒险者，否则宝石就要被偷走啦！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/魔王终局勇者偷走珠宝.gif?t=1693550847" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/魔王终局多种流派，随意搭配.gif?t=1693550847" /&gt;&lt;br&gt;游戏中目前有120种随从，战斗开始前，他们将会随机出现，根据局势选择一个得力助手，构筑一个相辅相成的强大阵容，抵御敌人的来袭吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/魔王终局抽卡进牌堆.gif?t=1693550847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/毒素带火.gif?t=1693550847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/雷暴带火.gif?t=1693550847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/死亡波带火.gif?t=1693550847" /&gt;&lt;br&gt;&lt;br&gt;目前《魔王终局》中有65种财宝、7种传奇财宝、13种难度财宝。当你将冒险者肃清后，根据你的阵容选择合适的财宝，这可能成为局面逆转的关键！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/游戏内截图.png?t=1693550847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/魔王终局标题不仅玩得爽，还很杀时间.gif?t=1693550847" /&gt;&lt;br&gt;游戏操作简单，研究起来却别有洞天。多尝试各种不同流派的通关方法吧！短小精悍的游戏内容，最适合在繁琐的工作学习之余来上这么一把，但要注意，小游戏才最杀时间！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/魔王终局魔物更换图.gif?t=1693550847" /&gt;&lt;h2 class="bb_tag"&gt;鸣谢&lt;/h2&gt;感谢在游戏开发过程中，提出宝贵意见或是提供直接帮助的朋友！（排名不分前后）：高达人，拌饭，茗凰，华莱士鱼人，秋夜，大睡，大脸，斯尔娜娜，Faumi，blue，Obrean。</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2370310</t>
+          <t>2345020</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Mountaincore</t>
+          <t>Bee Island</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Mountaincore</t>
+          <t>蜜蜂岛</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>抢先体验,策略,模拟,殖民模拟,管理</t>
+          <t>沙盒,模拟,欢乐,单人,物理</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -10443,47 +10448,84 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>2023年05月18日</t>
+          <t>2023年08月26日</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Mountaincore是一款幻想世界背景的深度模拟游戏，你需要在游戏中规划和修建蓬勃发展的殖民地。&lt;h2 class="bb_tag"&gt;目前的游戏特色&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;初始拥有7名矮人，但随着游戏的发展能够多达成百上千&lt;br&gt;&lt;/li&gt;&lt;li&gt;拥有天气和季节设定，对游戏玩法有很大的影响&lt;br&gt;&lt;/li&gt;&lt;li&gt;所有殖民者既会为了共同利益合作，也会受到自身的需求和欲望驱动&lt;br&gt;&lt;/li&gt;&lt;li&gt;深度打造的制作系统，所有的资源都会有用武之地，紧密的联系形成令人满意的生产链&lt;br&gt;&lt;/li&gt;&lt;li&gt;循序渐进的技能系统，逐步解锁更优秀的工具和武器&lt;br&gt;&lt;/li&gt;&lt;li&gt;与商人做生意，积累更多的财富&lt;br&gt;&lt;/li&gt;&lt;li&gt;培养你的军队，与魔物以及入侵者战斗&lt;br&gt;&lt;/li&gt;&lt;li&gt;或者在和平模式中享受舒缓的城市建造游戏体验&lt;br&gt;&lt;/li&gt;&lt;li&gt;整合Twitch（殖民者显示为观众的名称），增强直播时的互动体验&lt;br&gt;&lt;/li&gt;&lt;li&gt;万物皆可MOD&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;未来的路线图&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;率领冒险者小队探索其他地图和地点——包括其他玩家的地图！&lt;br&gt;&lt;/li&gt;&lt;li&gt;使用其他种族体验游戏，例如兽人和人类，尝试与众不同的游戏机制&lt;br&gt;&lt;/li&gt;&lt;li&gt;吸引和接纳贵族，建立名望系统，解锁更多进阶内容&lt;br&gt;&lt;/li&gt;&lt;li&gt;更多的危险与挑战，比如食物腐败和更凶恶的魔物&lt;br&gt;&lt;/li&gt;&lt;li&gt;更多的宝藏和奖励，比如魔物制作材料和传奇物品&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;游戏支持Steam Deck，我们相信能够完全兼容，但目前仍在等待Valve官方的兼容性测评。</t>
+          <t>&lt;h2 class="bb_tag"&gt;防守&lt;/h2&gt;敌人不时攻击你的蜂巢。 他们投下炸弹、喷洒毒药并发射火箭。 每一次他们都会变得更强。 建造弩炮、机关枪、防空导弹发射器和其他防御设施来保护您的蜂巢&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2345020/extras/GunBee.gif?t=1693503282" /&gt;&lt;h2 class="bb_tag"&gt;研究科技树&lt;/h2&gt;研究新的技术和建筑以应对不断加强的敌人。选择哪些技术将引领你走向胜利？你会以和平结束战争还是毁灭所有敌人?&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2345020/extras/bee_war.gif?t=1693503282" /&gt;&lt;h2 class="bb_tag"&gt;蜜蜂&lt;/h2&gt;女王需要更多的工人和战士。 建造幼儿园和学校来培养新的蜜蜂&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2345020/extras/WarBee.gif?t=1693503282" /&gt;&lt;h2 class="bb_tag"&gt;工厂&lt;/h2&gt;游戏中有 7 种资源，要获得其中一些资源，您需要工厂。 建造蜂窝并在其上放置建筑物&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2345020/extras/Build.gif?t=1693503282" /&gt;&lt;h2 class="bb_tag"&gt;休闲&lt;/h2&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2345020/extras/FountainBee.gif?t=1693503282" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
+          <t>2370310</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Mountaincore</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Mountaincore</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>抢先体验,策略,模拟,殖民模拟,管理</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>2023年05月18日</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Mountaincore是一款幻想世界背景的深度模拟游戏，你需要在游戏中规划和修建蓬勃发展的殖民地。&lt;h2 class="bb_tag"&gt;目前的游戏特色&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;初始拥有7名矮人，但随着游戏的发展能够多达成百上千&lt;br&gt;&lt;/li&gt;&lt;li&gt;拥有天气和季节设定，对游戏玩法有很大的影响&lt;br&gt;&lt;/li&gt;&lt;li&gt;所有殖民者既会为了共同利益合作，也会受到自身的需求和欲望驱动&lt;br&gt;&lt;/li&gt;&lt;li&gt;深度打造的制作系统，所有的资源都会有用武之地，紧密的联系形成令人满意的生产链&lt;br&gt;&lt;/li&gt;&lt;li&gt;循序渐进的技能系统，逐步解锁更优秀的工具和武器&lt;br&gt;&lt;/li&gt;&lt;li&gt;与商人做生意，积累更多的财富&lt;br&gt;&lt;/li&gt;&lt;li&gt;培养你的军队，与魔物以及入侵者战斗&lt;br&gt;&lt;/li&gt;&lt;li&gt;或者在和平模式中享受舒缓的城市建造游戏体验&lt;br&gt;&lt;/li&gt;&lt;li&gt;整合Twitch（殖民者显示为观众的名称），增强直播时的互动体验&lt;br&gt;&lt;/li&gt;&lt;li&gt;万物皆可MOD&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;未来的路线图&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;率领冒险者小队探索其他地图和地点——包括其他玩家的地图！&lt;br&gt;&lt;/li&gt;&lt;li&gt;使用其他种族体验游戏，例如兽人和人类，尝试与众不同的游戏机制&lt;br&gt;&lt;/li&gt;&lt;li&gt;吸引和接纳贵族，建立名望系统，解锁更多进阶内容&lt;br&gt;&lt;/li&gt;&lt;li&gt;更多的危险与挑战，比如食物腐败和更凶恶的魔物&lt;br&gt;&lt;/li&gt;&lt;li&gt;更多的宝藏和奖励，比如魔物制作材料和传奇物品&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;游戏支持Steam Deck，我们相信能够完全兼容，但目前仍在等待Valve官方的兼容性测评。</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
           <t>2380230</t>
         </is>
       </c>
-      <c r="B242" t="inlineStr">
+      <c r="B243" t="inlineStr">
         <is>
           <t xml:space="preserve">呪巣 -怨ノ章- </t>
         </is>
       </c>
-      <c r="C242" t="inlineStr">
+      <c r="C243" t="inlineStr">
         <is>
           <t>怨宅</t>
         </is>
       </c>
-      <c r="D242" t="inlineStr">
+      <c r="D243" t="inlineStr">
         <is>
           <t>休闲,独立,心理恐怖,电影式,单人</t>
         </is>
       </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G242" t="inlineStr">
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
         <is>
           <t>2023年08月10日</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
+      <c r="H243" t="inlineStr">
         <is>
           <t>■ 恐怖逃脱游戏代表作 &amp;quot;怨宅&amp;quot; &lt;br /&gt;
 &lt;br /&gt;
@@ -10520,43 +10562,43 @@
         </is>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
+    <row r="244">
+      <c r="A244" t="inlineStr">
         <is>
           <t>2381590</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr">
+      <c r="B244" t="inlineStr">
         <is>
           <t>Only Up!</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
+      <c r="C244" t="inlineStr">
         <is>
           <t>not available</t>
         </is>
       </c>
-      <c r="D243" t="inlineStr">
+      <c r="D244" t="inlineStr">
         <is>
           <t>跑酷,3D 平台,困难,心理恐怖,休闲</t>
         </is>
       </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F243" t="inlineStr">
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
         <is>
           <t>6.5</t>
         </is>
       </c>
-      <c r="G243" t="inlineStr">
+      <c r="G244" t="inlineStr">
         <is>
           <t>2023年05月24日</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
+      <c r="H244" t="inlineStr">
         <is>
           <t>你是一位来自贫民窟的青少年杰基，他想要摆脱贫困，踏上了解世界和自己的旅程。&lt;br /&gt;
 &lt;br /&gt;
@@ -10585,38 +10627,38 @@
         </is>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
+    <row r="245">
+      <c r="A245" t="inlineStr">
         <is>
           <t>2404420</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr">
+      <c r="B245" t="inlineStr">
         <is>
           <t>七楼幸存者</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr">
+      <c r="C245" t="inlineStr">
         <is>
           <t>七楼幸存者</t>
         </is>
       </c>
-      <c r="D244" t="inlineStr">
+      <c r="D245" t="inlineStr">
         <is>
           <t>休闲,动作,动作类 Rogue,3D 平台,俯视射击</t>
         </is>
       </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G244" t="inlineStr">
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
         <is>
           <t>2023年05月19日</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
+      <c r="H245" t="inlineStr">
         <is>
           <t>·这是一款2.5d版类吸血鬼like的游戏，玩家通过击杀怪物收集金币，在回合间隙购买和搭配技能，提高自己的生存能力。&lt;br /&gt;
 ·我为不同的技能设计了一些共鸣或者羁绊效果，就像自走棋那样。&lt;br /&gt;
@@ -10627,38 +10669,38 @@
         </is>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
+    <row r="246">
+      <c r="A246" t="inlineStr">
         <is>
           <t>2522620</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr">
+      <c r="B246" t="inlineStr">
         <is>
           <t>幸运宝石</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr">
+      <c r="C246" t="inlineStr">
         <is>
           <t>幸运宝石</t>
         </is>
       </c>
-      <c r="D245" t="inlineStr">
+      <c r="D246" t="inlineStr">
         <is>
           <t>休闲,农场模拟,城市营造,桌上游戏,棋盘游戏</t>
         </is>
       </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G245" t="inlineStr">
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
         <is>
           <t>2023年08月22日</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
+      <c r="H246" t="inlineStr">
         <is>
           <t>&lt;h2 class="bb_tag"&gt;&lt;strong&gt;幸运宝石&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;《幸运宝石》是一款创新的休闲游戏，让你在一个美丽的宝石世界中，与各种精灵合作，收获各种颜色和形状的宝石。游戏的玩法简单有趣，却又不乏挑战。你要招募各种精灵，扩建你的宝石领地，采集闪亮的水晶，让精灵们协作收获宝石。但是，宝石的采集并非一帆风顺，你要合理分配资源，同时也要靠运气的眷顾。 这是一款适合所有年龄段和喜好的游戏，它可以让你在闲暇时放松心情，开启你的宝石之旅吧！</t>
         </is>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/cp_logo.gif?t=1693314207" /&gt;&lt;/h2&gt;这一年是1981年，作为一名年轻的见习军官，你被分配到卡里卡特卡山区的一个边防哨所工作。进入阿卡里斯坦人民共和国受到政党的严格管制，你的一举一动都受到管控！你的同事在一次行动中被杀，边境局势随之升级...&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/documents.gif?t=1693314207" /&gt;&lt;/h2&gt;&lt;strong&gt;文件核查&lt;/strong&gt;&lt;br&gt;每名旅客都必须有一套有效的文件。即使是最轻微的差异也意味着被拒绝入境的可能。随着时间的推移，文件的数量将会越来越多，当中的问题也将更难被发现。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/contraband.gif?t=1693314207" /&gt;&lt;/h2&gt; &lt;strong&gt;走私侦查&lt;/strong&gt;&lt;br&gt;我们的情报部门会定期提供有关可疑司机的信息。用紫外光手电筒搜查他们的车辆，然后使用合适的工具取出走私货物。任何数量的违禁品都不得越过边境!&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/shootout.gif?t=1693314207" /&gt;&lt;/h2&gt;&lt;strong&gt;枪战&lt;/strong&gt;&lt;br&gt;在某些情况下，你将被迫使用枪械。你的站点一直是奥贝兰科夫团伙袭击的目标，每一次外出任务都有与敌人发生冲突的风险。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/chase.gif?t=1693314207" /&gt;&lt;/h2&gt;&lt;strong&gt;警察追捕&lt;/strong&gt;&lt;br&gt;绝望的走私者可能会试图从控制区逃跑。拦截并逮捕他们是你的分内之事! 购买和对警车升级，提高追捕活动的成功率。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/post_management.gif?t=1693314207" /&gt;&lt;/h2&gt;&lt;strong&gt;哨所管理&lt;/strong&gt;&lt;br&gt;升级警局，以增加对外防御能力，并改善后续的检查流程。然而，请记住，维护你的站点的成本在不断攀升。成功的检查、挫败走私行为以及成功的干预活动都是赚取现金的途径。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/bf_gov_logos.gif?t=1693314207" /&gt;&lt;/h2&gt;&lt;strong&gt;特别任务&lt;/strong&gt;&lt;br&gt;随时准备在紧急情况下进行干预。解决犯罪难题，支援你的同事们，挫败”血拳“叛军。做出恰当的判断，决定阿卡里斯坦的未来。</t>
+          <t>&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/cp_logo.gif?t=1694416581" /&gt;&lt;/h2&gt;这一年是1981年，作为一名年轻的见习军官，你被分配到卡里卡特卡山区的一个边防哨所工作。进入阿卡里斯坦人民共和国受到政党的严格管制，你的一举一动都受到管控！你的同事在一次行动中被杀，边境局势随之升级...&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/documents.gif?t=1694416581" /&gt;&lt;/h2&gt;&lt;strong&gt;文件核查&lt;/strong&gt;&lt;br&gt;每名旅客都必须有一套有效的文件。即使是最轻微的差异也意味着被拒绝入境的可能。随着时间的推移，文件的数量将会越来越多，当中的问题也将更难被发现。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/contraband.gif?t=1694416581" /&gt;&lt;/h2&gt; &lt;strong&gt;走私侦查&lt;/strong&gt;&lt;br&gt;我们的情报部门会定期提供有关可疑司机的信息。用紫外光手电筒搜查他们的车辆，然后使用合适的工具取出走私货物。任何数量的违禁品都不得越过边境!&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/shootout.gif?t=1694416581" /&gt;&lt;/h2&gt;&lt;strong&gt;枪战&lt;/strong&gt;&lt;br&gt;在某些情况下，你将被迫使用枪械。你的站点一直是奥贝兰科夫团伙袭击的目标，每一次外出任务都有与敌人发生冲突的风险。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/chase.gif?t=1694416581" /&gt;&lt;/h2&gt;&lt;strong&gt;警察追捕&lt;/strong&gt;&lt;br&gt;绝望的走私者可能会试图从控制区逃跑。拦截并逮捕他们是你的分内之事! 购买和对警车升级，提高追捕活动的成功率。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/post_management.gif?t=1694416581" /&gt;&lt;/h2&gt;&lt;strong&gt;哨所管理&lt;/strong&gt;&lt;br&gt;升级警局，以增加对外防御能力，并改善后续的检查流程。然而，请记住，维护你的站点的成本在不断攀升。成功的检查、挫败走私行为以及成功的干预活动都是赚取现金的途径。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/bf_gov_logos.gif?t=1694416581" /&gt;&lt;/h2&gt;&lt;strong&gt;特别任务&lt;/strong&gt;&lt;br&gt;随时准备在紧急情况下进行干预。解决犯罪难题，支援你的同事们，挫败”血拳“叛军。做出恰当的判断，决定阿卡里斯坦的未来。</t>
         </is>
       </c>
     </row>
@@ -6619,7 +6619,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -6661,7 +6661,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -10707,7 +10707,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>官方QQ群号：&lt;br&gt;官方QQ③群：717298872&lt;br&gt;官方QQ④群：757371350&lt;br&gt;官方QQ⑤群：703542977&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;这是一款基于武侠、江湖背景为基础的&lt;strong&gt; &lt;u&gt;开放沙盒类非传统武侠 RPG游戏&lt;/u&gt;&lt;/strong&gt;，你可以在这个大荒世界之中，扮演你所幻想的任何武侠角色，这里没有任何阻挡你幻想的老套剧情，你所演绎的武侠人生就是这个你的游戏剧情。你可以作为一名江湖小虾米游历大荒，你也可以成为一派掌门引领四方，你亦可以成为一名看不惯这江湖的浪子我行我素。最重要的是，请一切遵从于你的内心而为，并且活着！&lt;br&gt;&lt;br&gt;(1)玩家可以从零开始扩展自己的小世界，也可以通过创建小世界生成随机大小的初始世界。每个区域都有独特的环境、资源、生物以及势力。 在熟悉了游戏基本操作之后，您便可以直接生成环境属性各异的、已经包含一定数量地块的世界进行体验和历练，并且可以控制不同的“我”往来穿梭于各个世界开启别样人生！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/kf1.gif?t=1694189541" /&gt;&lt;br&gt;&lt;br&gt;(2)新颖的单回合战斗方式，通过收集不同的绝学搭配创建自己的招式库，战斗中拖动连接不同的招式激活绝学，利用招式克制和绝学套路，体现武侠战斗的策略性。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF2.gif?t=1694189541" /&gt;&lt;br&gt;&lt;br&gt;(3)独创的经脉系统，将人体经脉的运转进行了简化概念设计，玩家可以体验到不同的运功路线激活不同内功的拟真感受，简洁却富有策略玩法的设计给玩家提供了搭配和激活多种内功的玩法。同时经脉系统也结合了武侠小说中各种身体机能的具象表现，角色的生命力、内伤、隐疾、蛊、生死符、残疾、瞎眼等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF3.gif?t=1694189541" /&gt;&lt;br&gt;&lt;br&gt;(4)游戏还包含了自由的建造模式，玩家可以打造自己的民居、酒馆、温泉、马厩、大殿、监牢等等，每种建筑都有独特的功能。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF4.gif?t=1694189541" /&gt;&lt;br&gt;&lt;br&gt;(5)潜行玩法，可以通过训练潜行能力，配合独特的内功，夜晚穿上夜行衣，如人无人之境。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF5.gif?t=1694189541" /&gt;&lt;br&gt;&lt;br&gt;(6)训练轻功、跳跃、潜水、攀爬，无论高山深海都可闲庭信步。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF6.gif?t=1694189541" /&gt;&lt;br&gt;&lt;br&gt;(7)通过自定义天命、出身、容貌、血脉，打造独属于自己的角色。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF7.gif?t=1694189541" /&gt;&lt;br&gt;&lt;br&gt;(8)非线性剧情，游戏中每个NPC都会根据自己的行为、身份、名声、关系、态度等等在世界中生存，玩家的每次游戏都会与他们发生不同的剧情。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF8.gif?t=1694189541" /&gt;&lt;br&gt;&lt;br&gt;(9)丰富的交互内容&lt;br&gt;可以把敌人的建筑引燃&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF9.gif?t=1694189541" /&gt;&lt;br&gt;&lt;br&gt;可以邀请NPC喝酒，灌醉后搜刮物品&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF10.gif?t=1694189541" /&gt;&lt;br&gt;&lt;br&gt;可以驯化各种动物，每种动物都有各自独特的功能，例如猴子可以乞讨、马可以乘骑和改装马车、蛇可以下毒等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF11.gif?t=1694189541" /&gt;&lt;br&gt;&lt;br&gt;玩家可以创建自己门派，招募弟子，发布命令，参加武林大会。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF12.gif?t=1694189541" /&gt;&lt;br&gt;&lt;br&gt;丰富的交互内容·玩家可以布置陷阱，抓捕动物或敌人。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF13.gif?t=1694189541" /&gt;&lt;br&gt;&lt;br&gt;建立门派，发布命令&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF15.gif?t=1694189541" /&gt;&lt;br&gt;&lt;br&gt;建立牢笼，关押敌人&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF16.gif?t=1694189541" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;———————————————————————————————————————&lt;br&gt;来自幻魔寺的寄语：&lt;br&gt;我们坚守本心，完全独立开发，只做大家觉得好玩的游戏，这款游戏的世界目前仍然只是一个雏形，我们深知它会不断壮大，并且成为未来我们一切游戏的基石，我们会为此不断努力，带给大家一个绝妙的幻想世界！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/respect.png?t=1694189541" /&gt;</t>
+          <t>官方QQ群号：&lt;br&gt;官方QQ③群：717298872&lt;br&gt;官方QQ④群：757371350&lt;br&gt;官方QQ⑤群：703542977&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;这是一款基于武侠、江湖背景为基础的&lt;strong&gt; &lt;u&gt;开放沙盒类非传统武侠 RPG游戏&lt;/u&gt;&lt;/strong&gt;，你可以在这个大荒世界之中，扮演你所幻想的任何武侠角色，这里没有任何阻挡你幻想的老套剧情，你所演绎的武侠人生就是这个你的游戏剧情。你可以作为一名江湖小虾米游历大荒，你也可以成为一派掌门引领四方，你亦可以成为一名看不惯这江湖的浪子我行我素。最重要的是，请一切遵从于你的内心而为，并且活着！&lt;br&gt;&lt;br&gt;(1)玩家可以从零开始扩展自己的小世界，也可以通过创建小世界生成随机大小的初始世界。每个区域都有独特的环境、资源、生物以及势力。 在熟悉了游戏基本操作之后，您便可以直接生成环境属性各异的、已经包含一定数量地块的世界进行体验和历练，并且可以控制不同的“我”往来穿梭于各个世界开启别样人生！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/kf1.gif?t=1694439788" /&gt;&lt;br&gt;&lt;br&gt;(2)新颖的单回合战斗方式，通过收集不同的绝学搭配创建自己的招式库，战斗中拖动连接不同的招式激活绝学，利用招式克制和绝学套路，体现武侠战斗的策略性。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF2.gif?t=1694439788" /&gt;&lt;br&gt;&lt;br&gt;(3)独创的经脉系统，将人体经脉的运转进行了简化概念设计，玩家可以体验到不同的运功路线激活不同内功的拟真感受，简洁却富有策略玩法的设计给玩家提供了搭配和激活多种内功的玩法。同时经脉系统也结合了武侠小说中各种身体机能的具象表现，角色的生命力、内伤、隐疾、蛊、生死符、残疾、瞎眼等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF3.gif?t=1694439788" /&gt;&lt;br&gt;&lt;br&gt;(4)游戏还包含了自由的建造模式，玩家可以打造自己的民居、酒馆、温泉、马厩、大殿、监牢等等，每种建筑都有独特的功能。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF4.gif?t=1694439788" /&gt;&lt;br&gt;&lt;br&gt;(5)潜行玩法，可以通过训练潜行能力，配合独特的内功，夜晚穿上夜行衣，如人无人之境。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF5.gif?t=1694439788" /&gt;&lt;br&gt;&lt;br&gt;(6)训练轻功、跳跃、潜水、攀爬，无论高山深海都可闲庭信步。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF6.gif?t=1694439788" /&gt;&lt;br&gt;&lt;br&gt;(7)通过自定义天命、出身、容貌、血脉，打造独属于自己的角色。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF7.gif?t=1694439788" /&gt;&lt;br&gt;&lt;br&gt;(8)非线性剧情，游戏中每个NPC都会根据自己的行为、身份、名声、关系、态度等等在世界中生存，玩家的每次游戏都会与他们发生不同的剧情。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF8.gif?t=1694439788" /&gt;&lt;br&gt;&lt;br&gt;(9)丰富的交互内容&lt;br&gt;可以把敌人的建筑引燃&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF9.gif?t=1694439788" /&gt;&lt;br&gt;&lt;br&gt;可以邀请NPC喝酒，灌醉后搜刮物品&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF10.gif?t=1694439788" /&gt;&lt;br&gt;&lt;br&gt;可以驯化各种动物，每种动物都有各自独特的功能，例如猴子可以乞讨、马可以乘骑和改装马车、蛇可以下毒等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF11.gif?t=1694439788" /&gt;&lt;br&gt;&lt;br&gt;玩家可以创建自己门派，招募弟子，发布命令，参加武林大会。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF12.gif?t=1694439788" /&gt;&lt;br&gt;&lt;br&gt;丰富的交互内容·玩家可以布置陷阱，抓捕动物或敌人。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF13.gif?t=1694439788" /&gt;&lt;br&gt;&lt;br&gt;建立门派，发布命令&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF15.gif?t=1694439788" /&gt;&lt;br&gt;&lt;br&gt;建立牢笼，关押敌人&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF16.gif?t=1694439788" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;———————————————————————————————————————&lt;br&gt;来自幻魔寺的寄语：&lt;br&gt;我们坚守本心，完全独立开发，只做大家觉得好玩的游戏，这款游戏的世界目前仍然只是一个雏形，我们深知它会不断壮大，并且成为未来我们一切游戏的基石，我们会为此不断努力，带给大家一个绝妙的幻想世界！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/respect.png?t=1694439788" /&gt;</t>
         </is>
       </c>
     </row>
@@ -11477,7 +11477,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -12802,7 +12802,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -14192,7 +14192,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -14313,7 +14313,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>欢迎大家关注我们的Bilibili账号“地下蚁国Official”以获取更多关于《地下蚁国》的游戏信息并与制作组官方进行互动，也可以加入发行商官方QQ群：421518132来了解《地下蚁国》以及更多Hooded Horse策略类游戏信息与福利。&lt;br&gt;&lt;br&gt;在蚂蚁的世界里建立你的帝国，设计复杂的巢穴并细致地管理蚁群等级，将实时战略的乐趣置于自然显微镜下。在激烈的战斗中控制多种多样的蚂蚁战士，指挥你的工蚁去建造并供应一个不断扩张的帝国。在不惜一切代价保护你的女王的同时，探索昆虫世界独特的威胁和机遇。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/headline_01-schinese.png?t=1692834917" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_01_loop.gif?t=1692834917" /&gt;&lt;br&gt;数百名战士在激烈的混战中拳脚相接，蚁酸大炮从头顶上掠过。夜幕已经降临，最后一批工蚁正赶着把食物运送回巢穴，一边还要躲避甲虫的攻击。食物库存已经见底，如果没有更多的物资补充，增援部队将无法为这场地下蚁国间的战争孵化。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;从女王的寝宫开始，命令你的工蚁挖掘并建造你的巢穴--一个由食物储藏室、孵化室和走廊组成的巨大网络。在基于六边形的土壤和基岩迷宫中挖掘，寻找食物并抵御其他地下生物的攻击。&lt;br&gt;&lt;/li&gt;&lt;li&gt;超越巢穴的限制，去看看地表的世界能提供什么吧--菜单上有种子、花蜜、真菌、其他昆虫，甚至两栖动物，但每种选择都需要你权衡其价值和需要付出的代价。你是否愿意饲养能生产蜜露的蚜虫，但为此需要击退那些专门捕食蚜虫的瓢虫呢？或者周围的夜行生物对你才刚刚起步的蚁群来说已经是不得不斩杀的风险了吗？你所做的每一个决定都会产生连锁反应，如果你不能快速应对持续变化的环境，那么你的蚁群将会在顷刻间灭亡。&lt;br&gt;&lt;/li&gt;&lt;li&gt;管理具有不同攻击模式、攻击手段和进化路线的不同种类蚂蚁，以应对来自当前自然环境的特殊危险。哪怕毫无戒心的蚂蚁可能会被日落后潜伏着的危险所吞噬，夜间出击有时也是必不可少的，因为你要确保食物供应。到了早上，你又要与其他蚁群竞争，进入敌方巢穴攻击它们的蚁后，同时保卫自己的族群。准备好要在多个地下与地上战场操作与协调，进行多线指挥，因为敌对威胁和机遇会随着时间的推移而变化—在这里，没有单一的统治之路。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/headline_02-schinese.png?t=1692834917" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_02_loop.gif?t=1692834917" /&gt;&lt;br&gt;工蚁从洞口现身，它们中只有一少部分活着回来了，但它们带回了宝贵的食物，这将有助于补充前线兵源。新一批的战士将迅速孵化，信息素的气味将告诉它们目的地在哪，在途中要执行什么任务。它们是殖民地最后的堡垒，只为一个目的而生--守住防线！&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;设计和规划多个孵化室，并把它们分配到不同的信息素组，每个信息素组可通过放置信息素标记来进行指挥，并可调整每个小组的细节交战规则来执行不同的命令。了解蚂蚁的行为习惯以及每个物种的优势和弱点是确保成功的必要条件。&lt;br&gt;&lt;/li&gt;&lt;li&gt;每个信息素组的设置都可以随时进行调整，你可以让此组只进行食物收集，只参与战斗，或者两者都做--正确的决定可以扭转战局。在拉锯战的绝望低谷，当蚁群开始挨饿，新卵也无资源孵化时，你是否会让战士专注于搬运食物，无视在途中被侵略性敌人吞噬部分个体的损失？或者，战士们会专著战斗为你剩余的工蚁保驾护航，维持较低的战损但要牺牲收集食物的效率？不要忘记在巢穴组中留一些工蚁来进行挖掘、建造和蚁卵照料工作，以确保最基本的生产循环。&lt;br&gt;&lt;/li&gt;&lt;li&gt;每个物种的蚂蚁在战场上都有自己独特的优势和弱点。在特殊的游戏模式中，同一蚁群可以饲养多个物种，你决定孵化与升级谁将完全改变你的战斗指挥风格。大齿猛蚁以近战方式作战，偶尔会跳出战斗来回复血量。切叶蚁充当着天生的保护者形象，将敌人的攻击力吸引到自己身上，给己方蚂蚁提供侧翼攻击、重新编队或逃跑的机会。木蚁可以进化为发射蚁酸的远距离投射兵种或更快的直线速射兵种。在每个物种的众多优势和弱点之间找到合适搭配，抵御对手蚁群的攻击。&lt;br&gt;&lt;/li&gt;&lt;li&gt;你的敌人也多种多样—除了其他蚂蚁，你还要与蛛形纲动物、两栖动物、甲壳类动物和各种各样的昆虫进行战斗。这些强大且通常（相对而言）更巨大的生物对毫无准备的蚁群构成了独特的威胁，只有卓越的战术才能战胜它们。包夹战术可以避开成年隐翅虫惊人的喷雾，而孤立一只寄居蟹并用兵海战术速战速决，比让它们有机会蜷缩起来疗伤更高效。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/headline_03-schinese.png?t=1692834917" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_03_loop.gif?t=1692834917" /&gt;&lt;br&gt;胜利肯定会到来! 增援部队在紧要关头赶到，面对眼前可怕的怪兽，他们无所畏惧。今天，疯狂的科学家将寄居蟹和蝎子混合在了一起，创造出了一个可怕的新威胁，但蚁群在之前对战过这种非自然的敌人之后，已经聪明地进化了。经过一场艰苦卓绝的战斗后，可怕的奇美拉已在崩溃的边缘徘徊，但一个新的敌人来到了战场--神秘生物的巨手从天空降临，压碎了一半的增援部队。在看不见的远方，科学家发出了邪恶的笑声。局势再次逆转...&lt;br&gt;&lt;br&gt;除了经典的RTS小规模对抗AI和独特的季节性关卡之外，《地下蚁国》还包括一个故事驱动的主线战役模式。主线讲述了以神秘的窃贼林蚁为中心的一场发生在实验室的邪恶阴谋，此模式还包括一系列探索各种蚂蚁在自然生物群落中的特性的纪录片风格关卡。完成纪录片关卡任务可赚取资源，用来升级你养殖箱里的窃贼林蚁，并根据你的喜好和判断为它们进行进化，以让你的蚂蚁活过这场打着“科学”名号进行的残酷生物实验—但不是所有的东西都像它最初看起来那样简单......&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_04_loop.gif?t=1692834917" /&gt;</t>
+          <t>欢迎大家关注我们的Bilibili账号“地下蚁国Official”以获取更多关于《地下蚁国》的游戏信息并与制作组官方进行互动，也可以加入发行商官方QQ群：421518132来了解《地下蚁国》以及更多Hooded Horse策略类游戏信息与福利。&lt;br&gt;&lt;br&gt;在蚂蚁的世界里建立你的帝国，设计复杂的巢穴并细致地管理蚁群等级，将实时战略的乐趣置于自然显微镜下。在激烈的战斗中控制多种多样的蚂蚁战士，指挥你的工蚁去建造并供应一个不断扩张的帝国。在不惜一切代价保护你的女王的同时，探索昆虫世界独特的威胁和机遇。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/headline_01-schinese.png?t=1694514849" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_01_loop.gif?t=1694514849" /&gt;&lt;br&gt;数百名战士在激烈的混战中拳脚相接，蚁酸大炮从头顶上掠过。夜幕已经降临，最后一批工蚁正赶着把食物运送回巢穴，一边还要躲避甲虫的攻击。食物库存已经见底，如果没有更多的物资补充，增援部队将无法为这场地下蚁国间的战争孵化。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;从女王的寝宫开始，命令你的工蚁挖掘并建造你的巢穴--一个由食物储藏室、孵化室和走廊组成的巨大网络。在基于六边形的土壤和基岩迷宫中挖掘，寻找食物并抵御其他地下生物的攻击。&lt;br&gt;&lt;/li&gt;&lt;li&gt;超越巢穴的限制，去看看地表的世界能提供什么吧--菜单上有种子、花蜜、真菌、其他昆虫，甚至两栖动物，但每种选择都需要你权衡其价值和需要付出的代价。你是否愿意饲养能生产蜜露的蚜虫，但为此需要击退那些专门捕食蚜虫的瓢虫呢？或者周围的夜行生物对你才刚刚起步的蚁群来说已经是不得不斩杀的风险了吗？你所做的每一个决定都会产生连锁反应，如果你不能快速应对持续变化的环境，那么你的蚁群将会在顷刻间灭亡。&lt;br&gt;&lt;/li&gt;&lt;li&gt;管理具有不同攻击模式、攻击手段和进化路线的不同种类蚂蚁，以应对来自当前自然环境的特殊危险。哪怕毫无戒心的蚂蚁可能会被日落后潜伏着的危险所吞噬，夜间出击有时也是必不可少的，因为你要确保食物供应。到了早上，你又要与其他蚁群竞争，进入敌方巢穴攻击它们的蚁后，同时保卫自己的族群。准备好要在多个地下与地上战场操作与协调，进行多线指挥，因为敌对威胁和机遇会随着时间的推移而变化—在这里，没有单一的统治之路。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/headline_02-schinese.png?t=1694514849" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_02_loop.gif?t=1694514849" /&gt;&lt;br&gt;工蚁从洞口现身，它们中只有一少部分活着回来了，但它们带回了宝贵的食物，这将有助于补充前线兵源。新一批的战士将迅速孵化，信息素的气味将告诉它们目的地在哪，在途中要执行什么任务。它们是殖民地最后的堡垒，只为一个目的而生--守住防线！&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;设计和规划多个孵化室，并把它们分配到不同的信息素组，每个信息素组可通过放置信息素标记来进行指挥，并可调整每个小组的细节交战规则来执行不同的命令。了解蚂蚁的行为习惯以及每个物种的优势和弱点是确保成功的必要条件。&lt;br&gt;&lt;/li&gt;&lt;li&gt;每个信息素组的设置都可以随时进行调整，你可以让此组只进行食物收集，只参与战斗，或者两者都做--正确的决定可以扭转战局。在拉锯战的绝望低谷，当蚁群开始挨饿，新卵也无资源孵化时，你是否会让战士专注于搬运食物，无视在途中被侵略性敌人吞噬部分个体的损失？或者，战士们会专著战斗为你剩余的工蚁保驾护航，维持较低的战损但要牺牲收集食物的效率？不要忘记在巢穴组中留一些工蚁来进行挖掘、建造和蚁卵照料工作，以确保最基本的生产循环。&lt;br&gt;&lt;/li&gt;&lt;li&gt;每个物种的蚂蚁在战场上都有自己独特的优势和弱点。在特殊的游戏模式中，同一蚁群可以饲养多个物种，你决定孵化与升级谁将完全改变你的战斗指挥风格。大齿猛蚁以近战方式作战，偶尔会跳出战斗来回复血量。切叶蚁充当着天生的保护者形象，将敌人的攻击力吸引到自己身上，给己方蚂蚁提供侧翼攻击、重新编队或逃跑的机会。木蚁可以进化为发射蚁酸的远距离投射兵种或更快的直线速射兵种。在每个物种的众多优势和弱点之间找到合适搭配，抵御对手蚁群的攻击。&lt;br&gt;&lt;/li&gt;&lt;li&gt;你的敌人也多种多样—除了其他蚂蚁，你还要与蛛形纲动物、两栖动物、甲壳类动物和各种各样的昆虫进行战斗。这些强大且通常（相对而言）更巨大的生物对毫无准备的蚁群构成了独特的威胁，只有卓越的战术才能战胜它们。包夹战术可以避开成年隐翅虫惊人的喷雾，而孤立一只寄居蟹并用兵海战术速战速决，比让它们有机会蜷缩起来疗伤更高效。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/headline_03-schinese.png?t=1694514849" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_03_loop.gif?t=1694514849" /&gt;&lt;br&gt;胜利肯定会到来! 增援部队在紧要关头赶到，面对眼前可怕的怪兽，他们无所畏惧。今天，疯狂的科学家将寄居蟹和蝎子混合在了一起，创造出了一个可怕的新威胁，但蚁群在之前对战过这种非自然的敌人之后，已经聪明地进化了。经过一场艰苦卓绝的战斗后，可怕的奇美拉已在崩溃的边缘徘徊，但一个新的敌人来到了战场--神秘生物的巨手从天空降临，压碎了一半的增援部队。在看不见的远方，科学家发出了邪恶的笑声。局势再次逆转...&lt;br&gt;&lt;br&gt;除了经典的RTS小规模对抗AI和独特的季节性关卡之外，《地下蚁国》还包括一个故事驱动的主线战役模式。主线讲述了以神秘的窃贼林蚁为中心的一场发生在实验室的邪恶阴谋，此模式还包括一系列探索各种蚂蚁在自然生物群落中的特性的纪录片风格关卡。完成纪录片关卡任务可赚取资源，用来升级你养殖箱里的窃贼林蚁，并根据你的喜好和判断为它们进行进化，以让你的蚂蚁活过这场打着“科学”名号进行的残酷生物实验—但不是所有的东西都像它最初看起来那样简单......&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_04_loop.gif?t=1694514849" /&gt;</t>
         </is>
       </c>
     </row>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>模拟,动作,独立,单人,资源管理</t>
+          <t>模拟,动作,独立,单人,开放世界</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>动作,平台游戏,独立,2D,像素图形</t>
+          <t>动作,平台游戏,独立,像素图形,2D</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4782,7 +4782,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>&lt;a href="https://store.steampowered.com/app/1971650/OCTOPATH_TRAVELER_II/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1971650/OCTOPATH_TRAVELER_II/&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/921570/extras/FRIGATE_Steam_gif.gif?t=1688650598" /&gt;&lt;br&gt;屡获殊荣的RPG游戏推出PC版！&lt;br&gt;&lt;br&gt;八位旅行者的八次冒险之旅。化身为八个角色之一，踏上史诗般的旅程，穿越广阔而神奇的奥鲁斯特拉大陆，探索八位旅行者各自迷人的故事。&lt;br&gt;&lt;br&gt;- 可扮演八个不同的角色，每一个角色都有各自的故事和要完成的支线任务&lt;br&gt;- 探索迷人但危险的奥鲁斯特拉大陆，跨越8片广阔的区域，并随着旅程的展开，揭开每个角色的完整故事&lt;br&gt;- 使用每个角色的独特能力（地图指令）、技能和属性展开疯狂的战斗&lt;br&gt;- 享受易上手但深度的回合式对战系统，并可通过识别和瞄准敌人的弱点来突破他们的防线&lt;br&gt;- 可采取不同方式完成支线任务和故事场景，并做出将塑造角色人生道路的决定&lt;br&gt;- 体验受启于复古2D RPG游戏的视觉效果，欣赏美不胜收的写实元素打造出来的 3D 世界</t>
+          <t>&lt;a href="https://store.steampowered.com/app/1971650/OCTOPATH_TRAVELER_II/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1971650/OCTOPATH_TRAVELER_II/&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/921570/extras/FRIGATE_Steam_gif.gif?t=1694485198" /&gt;&lt;br&gt;屡获殊荣的RPG游戏推出PC版！&lt;br&gt;&lt;br&gt;八位旅行者的八次冒险之旅。化身为八个角色之一，踏上史诗般的旅程，穿越广阔而神奇的奥鲁斯特拉大陆，探索八位旅行者各自迷人的故事。&lt;br&gt;&lt;br&gt;- 可扮演八个不同的角色，每一个角色都有各自的故事和要完成的支线任务&lt;br&gt;- 探索迷人但危险的奥鲁斯特拉大陆，跨越8片广阔的区域，并随着旅程的展开，揭开每个角色的完整故事&lt;br&gt;- 使用每个角色的独特能力（地图指令）、技能和属性展开疯狂的战斗&lt;br&gt;- 享受易上手但深度的回合式对战系统，并可通过识别和瞄准敌人的弱点来突破他们的防线&lt;br&gt;- 可采取不同方式完成支线任务和故事场景，并做出将塑造角色人生道路的决定&lt;br&gt;- 体验受启于复古2D RPG游戏的视觉效果，欣赏美不胜收的写实元素打造出来的 3D 世界</t>
         </is>
       </c>
     </row>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -5243,7 +5243,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -7281,7 +7281,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>角色扮演,像素图形,回合制战斗,冒险,剧情丰富</t>
+          <t>角色扮演,像素图形,回合制战斗,冒险,日系角色扮演</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>你的存款很少，但野心很大。 &lt;br&gt;&lt;br&gt;在叔叔的帮助下，你找到一间公寓和第一份工作。 但接下来，能否取得成功并最终接管纽约，将完全取决于你自己。 &lt;br&gt;&lt;br&gt;慢慢建立多个小企业，把它们发展成大公司，或者另辟蹊径 – 在庞大的商业沙盒中探索无限可能， 享受绝无仅有的游戏体验！&lt;br&gt;&lt;br&gt;从小公寓和公共交通到豪华套房、跑车和设计师家具。 把钱投入投资基金和房地产。 成功、失败，重头再来。 无论如何都要记得照顾好自己，好好睡觉，在上升之路上保持好心态。 &lt;br&gt;&lt;br&gt;你有能力建立自己的帝国吗？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/1-zhcn.png?t=1693411627" /&gt;&lt;br&gt;从一无所有起步，成为纽约最显赫的大亨。 走上创业之路，聪明地工作，让企业蓬勃发展，同时享受生活。 你想如何成功？ 你能付出多少？ 你能坚持多久？ &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_placement.gif?t=1693411627" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/2-zhcn.png?t=1693411627" /&gt;&lt;br&gt;创办你自己的礼品店、超市、咖啡店、律师事务所、服装店、酒品店、花店等。 定义你自己的成功 – 开一家小商店、一系列连锁快餐店、一家大公司。或者在地下室开发价值数百万美元的网站。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_citymap.gif?t=1693411627" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/3-zhcn.png?t=1693411627" /&gt;&lt;br&gt;申请贷款、租用建筑、设计徽标、翻新店铺、进货、管理资金、雇用员工，以及建造基础设施。 过不久，你可能还要开始从港口进口商品，通过仓库网络进行配送。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_warehouse.gif?t=1693411627" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/4-zhcn.png?t=1693411627" /&gt;&lt;br&gt;企业越大，就越需要管理人员。 雇用人力资源经理、物流经理和采购代表。 这些人员都需要办公桌和电脑，所以你需要一个高级的总部。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_headquarters.gif?t=1693411627" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/5-zhcn.png?t=1693411627" /&gt;&lt;br&gt;需要送货卡车？ 到经销商那里买一辆。 需要吃的？ 去超市逛逛，但要先在家里配个冰箱。 Big Ambitions 是一款生活模拟游戏，你的角色必须与世界直接互动才能生存下来并取得成功。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_fridge.jpg?t=1693411627" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/6-zhcn.png?t=1693411627" /&gt;&lt;br&gt;在每处房屋里都装上适合自己风格和地位的家具。 把辛苦赚来的资金投资到房地产，发展你的商业帝国。 一点一点，接管这座城市。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_apartment.jpg?t=1693411627" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/7-zhcn.png?t=1693411627" /&gt;&lt;br&gt;你自己的财产，想怎么花就怎么花。 买台大型 SUV、高速跑车，或者全新豪华型 Mersaidi S500。 也可以去赌场碰碰运气，或者把钱投入投资基金收取回报。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_car.jpg?t=1693411627" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/8-zhcn.png?t=1693411627" /&gt;&lt;br&gt;游戏期间，你始终需要保证充足的睡眠，保持健康快乐。 旅程的重点在于享受当下时光，因为年龄越大，你越会想到金钱买不来时间… 不过真的买不来吗？  &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_persona.jpg?t=1693411627" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/9-zhcn.png?t=1693411627" /&gt;&lt;br&gt;Big Ambitions 将人气大作 Startup Company 的精华提炼到更高层次。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_startupcompany.jpg?t=1693411627" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1331550/Big_Ambitions/" target="_blank" rel=""  id="dynamiclink_2" &gt;https://store.steampowered.com/app/1331550/Big_Ambitions/&lt;/a&gt;</t>
+          <t>你的存款很少，但野心很大。 &lt;br&gt;&lt;br&gt;在叔叔的帮助下，你找到一间公寓和第一份工作。 但接下来，能否取得成功并最终接管纽约，将完全取决于你自己。 &lt;br&gt;&lt;br&gt;慢慢建立多个小企业，把它们发展成大公司，或者另辟蹊径 – 在庞大的商业沙盒中探索无限可能， 享受绝无仅有的游戏体验！&lt;br&gt;&lt;br&gt;从小公寓和公共交通到豪华套房、跑车和设计师家具。 把钱投入投资基金和房地产。 成功、失败，重头再来。 无论如何都要记得照顾好自己，好好睡觉，在上升之路上保持好心态。 &lt;br&gt;&lt;br&gt;你有能力建立自己的帝国吗？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/1-zhcn.png?t=1694514144" /&gt;&lt;br&gt;从一无所有起步，成为纽约最显赫的大亨。 走上创业之路，聪明地工作，让企业蓬勃发展，同时享受生活。 你想如何成功？ 你能付出多少？ 你能坚持多久？ &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_placement.gif?t=1694514144" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/2-zhcn.png?t=1694514144" /&gt;&lt;br&gt;创办你自己的礼品店、超市、咖啡店、律师事务所、服装店、酒品店、花店等。 定义你自己的成功 – 开一家小商店、一系列连锁快餐店、一家大公司。或者在地下室开发价值数百万美元的网站。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_citymap.gif?t=1694514144" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/3-zhcn.png?t=1694514144" /&gt;&lt;br&gt;申请贷款、租用建筑、设计徽标、翻新店铺、进货、管理资金、雇用员工，以及建造基础设施。 过不久，你可能还要开始从港口进口商品，通过仓库网络进行配送。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_warehouse.gif?t=1694514144" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/4-zhcn.png?t=1694514144" /&gt;&lt;br&gt;企业越大，就越需要管理人员。 雇用人力资源经理、物流经理和采购代表。 这些人员都需要办公桌和电脑，所以你需要一个高级的总部。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_headquarters.gif?t=1694514144" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/5-zhcn.png?t=1694514144" /&gt;&lt;br&gt;需要送货卡车？ 到经销商那里买一辆。 需要吃的？ 去超市逛逛，但要先在家里配个冰箱。 Big Ambitions 是一款生活模拟游戏，你的角色必须与世界直接互动才能生存下来并取得成功。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_fridge.jpg?t=1694514144" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/6-zhcn.png?t=1694514144" /&gt;&lt;br&gt;在每处房屋里都装上适合自己风格和地位的家具。 把辛苦赚来的资金投资到房地产，发展你的商业帝国。 一点一点，接管这座城市。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_apartment.jpg?t=1694514144" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/7-zhcn.png?t=1694514144" /&gt;&lt;br&gt;你自己的财产，想怎么花就怎么花。 买台大型 SUV、高速跑车，或者全新豪华型 Mersaidi S500。 也可以去赌场碰碰运气，或者把钱投入投资基金收取回报。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_car.jpg?t=1694514144" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/8-zhcn.png?t=1694514144" /&gt;&lt;br&gt;游戏期间，你始终需要保证充足的睡眠，保持健康快乐。 旅程的重点在于享受当下时光，因为年龄越大，你越会想到金钱买不来时间… 不过真的买不来吗？  &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_persona.jpg?t=1694514144" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/9-zhcn.png?t=1694514144" /&gt;&lt;br&gt;Big Ambitions 将人气大作 Startup Company 的精华提炼到更高层次。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_startupcompany.jpg?t=1694514144" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1331550/Big_Ambitions/" target="_blank" rel=""  id="dynamiclink_2" &gt;https://store.steampowered.com/app/1331550/Big_Ambitions/&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -8093,7 +8093,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>策略,殖民模拟,生存,即时战略,动作冒险</t>
+          <t>冒险,殖民模拟,氛围,黑暗奇幻,生存</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -9631,7 +9631,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -9782,7 +9782,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>在这款以等距视角为基础、 受荒野西部启发的冒险角色扮演游戏中， 体验创造与轻度生存元素的融合。 通过逐步构建你自己的世界， 在各种生态区域中前行， 并与各种元素， 或更糟糕的——危险的迷尸战斗。 收集资源， 建造基地， 并制作武器和工具， 以狩猎、 钓鱼、 耕种和战斗。&lt;h2 class="bb_tag"&gt;创造你自己的世界&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1589120/extras/Gif_tiles_biomes.gif?t=1694021081" /&gt;&lt;br&gt;释放你的创造力， 从不同的生态区域创建你梦想中的世界。 每个生态区域都提供各种材料和资源， 供你在冒险中前进、 建造装备和基地使用。&lt;h2 class="bb_tag"&gt;制造、 烹饪、 狩猎和钓鱼&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1589120/extras/Gif_Craft.gif?t=1694021081" /&gt;&lt;br&gt;寻找食物， 烹饪营养的餐食， 并制作生存必需品。 扩大你的基地并建造必要的工作站， 例如工作台、 锯木桌、 熔炉或砧。 提升你的制作技能， 制作更高级的装备和工具， 帮助你前进。&lt;h2 class="bb_tag"&gt;建造&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1589120/extras/Gif_build.gif?t=1694021081" /&gt;&lt;br&gt;通过简单而巧妙的模块化建筑系统， 创建属于自己的前哨站和基地。 用手工制作的家具和美丽的花园让其成为独一无二的场所。 在门廊上的摇椅上享受宁静的日落时光。&lt;h2 class="bb_tag"&gt;耕种&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1589120/extras/Gif_Biomes.gif?t=1694021081" /&gt;&lt;br&gt;收集野生草药和蔬菜的种子， 建立农田， 并收获你的农产品。 悉心照料你的农田， 定期浇水， 制作肥料以加快生长速度， 并照顾你的收成。&lt;h2 class="bb_tag"&gt;主要特点&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;轻松的生存世界建造游戏——通过拼凑世界地块来创建一个世界。&lt;br&gt;&lt;/li&gt;&lt;li&gt;100多个独特的世界地块， 具有不同的生态和生态区域组合。&lt;br&gt;&lt;/li&gt;&lt;li&gt;制作、 种植、 狩猎、 钓鱼、 建造基地、 战斗和探索。&lt;br&gt;&lt;/li&gt;&lt;li&gt;通过长期的进度系统， 以打造属于你自己的冒险角色扮演游戏。&lt;br&gt;&lt;/li&gt;&lt;li&gt;以你自己的节奏完成任务， 并揭示这片土地的秘密。&lt;br&gt;&lt;/li&gt;&lt;li&gt;一个年轻女子身处冲突之中的轻松故事。&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;辅助功能&lt;/h2&gt;完整的控制器支持， 按键和按钮重新绑定， 禁用相机摇晃， 禁用平滑相机移动， 光敏感模式， 自定义音效、 音乐、 进食噪音和脚步声的音量控制。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=http://discord.gg/HwBgTMr4WU" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1589120/extras/Steam_Discord.png?t=1694021081" /&gt;&lt;/a&gt;</t>
+          <t>在这款以等距视角为基础、 受荒野西部启发的冒险角色扮演游戏中， 体验创造与轻度生存元素的融合。 通过逐步构建你自己的世界， 在各种生态区域中前行， 并与各种元素， 或更糟糕的——危险的迷尸战斗。 收集资源， 建造基地， 并制作武器和工具， 以狩猎、 钓鱼、 耕种和战斗。&lt;h2 class="bb_tag"&gt;创造你自己的世界&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1589120/extras/Gif_tiles_biomes.gif?t=1694505599" /&gt;&lt;br&gt;释放你的创造力， 从不同的生态区域创建你梦想中的世界。 每个生态区域都提供各种材料和资源， 供你在冒险中前进、 建造装备和基地使用。&lt;h2 class="bb_tag"&gt;制造、 烹饪、 狩猎和钓鱼&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1589120/extras/Gif_Craft.gif?t=1694505599" /&gt;&lt;br&gt;寻找食物， 烹饪营养的餐食， 并制作生存必需品。 扩大你的基地并建造必要的工作站， 例如工作台、 锯木桌、 熔炉或砧。 提升你的制作技能， 制作更高级的装备和工具， 帮助你前进。&lt;h2 class="bb_tag"&gt;建造&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1589120/extras/Gif_build.gif?t=1694505599" /&gt;&lt;br&gt;通过简单而巧妙的模块化建筑系统， 创建属于自己的前哨站和基地。 用手工制作的家具和美丽的花园让其成为独一无二的场所。 在门廊上的摇椅上享受宁静的日落时光。&lt;h2 class="bb_tag"&gt;耕种&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1589120/extras/Gif_Biomes.gif?t=1694505599" /&gt;&lt;br&gt;收集野生草药和蔬菜的种子， 建立农田， 并收获你的农产品。 悉心照料你的农田， 定期浇水， 制作肥料以加快生长速度， 并照顾你的收成。&lt;h2 class="bb_tag"&gt;主要特点&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;轻松的生存世界建造游戏——通过拼凑世界地块来创建一个世界。&lt;br&gt;&lt;/li&gt;&lt;li&gt;100多个独特的世界地块， 具有不同的生态和生态区域组合。&lt;br&gt;&lt;/li&gt;&lt;li&gt;制作、 种植、 狩猎、 钓鱼、 建造基地、 战斗和探索。&lt;br&gt;&lt;/li&gt;&lt;li&gt;通过长期的进度系统， 以打造属于你自己的冒险角色扮演游戏。&lt;br&gt;&lt;/li&gt;&lt;li&gt;以你自己的节奏完成任务， 并揭示这片土地的秘密。&lt;br&gt;&lt;/li&gt;&lt;li&gt;一个年轻女子身处冲突之中的轻松故事。&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;辅助功能&lt;/h2&gt;完整的控制器支持， 按键和按钮重新绑定， 禁用相机摇晃， 禁用平滑相机移动， 光敏感模式， 自定义音效、 音乐、 进食噪音和脚步声的音量控制。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=http://discord.gg/HwBgTMr4WU" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1589120/extras/Steam_Discord.png?t=1694505599" /&gt;&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -10255,7 +10255,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/Keptgr2NwD" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641960/extras/FFH_Discord_Banner_2.jpg?t=1692793989" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1641960/Forever_Skies/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1641960/Forever_Skies/&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641960/extras/Airship_ZHS.gif?t=1692793989" /&gt;&lt;br&gt;你需要打造并自定义一艘高科技飞船。在飞向地球表面之时，这将会是你的住所、工坊以及实验室等。操纵并引导它飞向我们文明的废墟和神秘的异常现象。&lt;strong&gt;管理飞船的船体以及确保船体的完好。提取并收集资源来提升飞船性能，并将其打造成一艘独一无二的专属飞船。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641960/extras/Science_ZHS.gif?t=1692793989" /&gt;&lt;br&gt;习得的科学知识和技能能使玩家建造并操作不同的机器。分析已扫描物品，对丢失的技术进行逆向工程。&lt;strong&gt;探寻获得食物和资源的新方式、发现新工具并提升自己的存活几率。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641960/extras/Explore_ZHS.gif?t=1692793989" /&gt;&lt;br&gt;在为躲避灰尘而建在高处的废墟中探索和提取资源。玩家身处被奇怪异常现象造成的漂浮物之间，将其收集起来用作原材料在这片废墟中存活下去。探索并发现我们的文明遗迹。&lt;strong&gt;理清到底发生了什么导致地球最终会演化成让我们失去了过去那种作为顶端之位的控制权。找出我们过去的秘密。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641960/extras/Dust_ZHS.gif?t=1692793989" /&gt;&lt;br&gt;当玩家降落在尘埃之下，会发现一个奇怪的全新世界，在我们离开的这段时间里，星球表面发生了巨大的变化。勇斗新进化的动植物群并寻找病毒病原体来治愈危害着你家人的神秘疾病。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641960/extras/Return_ZHS.gif?t=1692793989" /&gt;&lt;br&gt;Forever Skies 是一款发生在因遭到全球生态灾害而受到破坏的地球上的动作生存游戏。这一事件导致地球表面被一层巨大的有毒尘埃所覆盖。&lt;strong&gt;你在数百年后回到我们的星球，但是那还是你熟悉的那个星球吗？&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641960/extras/Team_ZHS.png?t=1692793989" /&gt;&lt;br&gt;我们是Far From Home公司，设立在波兰罗茨瓦夫的一家经验丰富的游戏开发团队。我们之前就一起共同合作过数个项目，因此我们不仅仅是同事，同时也是朋友。我们一起担任过的游戏包括《消逝的光芒》系列、《神界：原罪》系列、《灵媒》、《先驱者》、《英雄联盟》等。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641960/extras/Team_Banner_616_2023.jpg?t=1692793989" /&gt;</t>
+          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/Keptgr2NwD" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641960/extras/FFH_Discord_Banner_2.jpg?t=1694446266" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1641960/Forever_Skies/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1641960/Forever_Skies/&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641960/extras/Airship_ZHS.gif?t=1694446266" /&gt;&lt;br&gt;你需要打造并自定义一艘高科技飞船。在飞向地球表面之时，这将会是你的住所、工坊以及实验室等。操纵并引导它飞向我们文明的废墟和神秘的异常现象。&lt;strong&gt;管理飞船的船体以及确保船体的完好。提取并收集资源来提升飞船性能，并将其打造成一艘独一无二的专属飞船。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641960/extras/Science_ZHS.gif?t=1694446266" /&gt;&lt;br&gt;习得的科学知识和技能能使玩家建造并操作不同的机器。分析已扫描物品，对丢失的技术进行逆向工程。&lt;strong&gt;探寻获得食物和资源的新方式、发现新工具并提升自己的存活几率。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641960/extras/Explore_ZHS.gif?t=1694446266" /&gt;&lt;br&gt;在为躲避灰尘而建在高处的废墟中探索和提取资源。玩家身处被奇怪异常现象造成的漂浮物之间，将其收集起来用作原材料在这片废墟中存活下去。探索并发现我们的文明遗迹。&lt;strong&gt;理清到底发生了什么导致地球最终会演化成让我们失去了过去那种作为顶端之位的控制权。找出我们过去的秘密。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641960/extras/Dust_ZHS.gif?t=1694446266" /&gt;&lt;br&gt;当玩家降落在尘埃之下，会发现一个奇怪的全新世界，在我们离开的这段时间里，星球表面发生了巨大的变化。勇斗新进化的动植物群并寻找病毒病原体来治愈危害着你家人的神秘疾病。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641960/extras/Return_ZHS.gif?t=1694446266" /&gt;&lt;br&gt;Forever Skies 是一款发生在因遭到全球生态灾害而受到破坏的地球上的动作生存游戏。这一事件导致地球表面被一层巨大的有毒尘埃所覆盖。&lt;strong&gt;你在数百年后回到我们的星球，但是那还是你熟悉的那个星球吗？&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641960/extras/Team_ZHS.png?t=1694446266" /&gt;&lt;br&gt;我们是Far From Home公司，设立在波兰罗茨瓦夫的一家经验丰富的游戏开发团队。我们之前就一起共同合作过数个项目，因此我们不仅仅是同事，同时也是朋友。我们一起担任过的游戏包括《消逝的光芒》系列、《神界：原罪》系列、《灵媒》、《先驱者》、《英雄联盟》等。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641960/extras/Team_Banner_616_2023.jpg?t=1694446266" /&gt;</t>
         </is>
       </c>
     </row>
@@ -10707,7 +10707,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>官方QQ群号：&lt;br&gt;官方QQ③群：717298872&lt;br&gt;官方QQ④群：757371350&lt;br&gt;官方QQ⑤群：703542977&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;这是一款基于武侠、江湖背景为基础的&lt;strong&gt; &lt;u&gt;开放沙盒类非传统武侠 RPG游戏&lt;/u&gt;&lt;/strong&gt;，你可以在这个大荒世界之中，扮演你所幻想的任何武侠角色，这里没有任何阻挡你幻想的老套剧情，你所演绎的武侠人生就是这个你的游戏剧情。你可以作为一名江湖小虾米游历大荒，你也可以成为一派掌门引领四方，你亦可以成为一名看不惯这江湖的浪子我行我素。最重要的是，请一切遵从于你的内心而为，并且活着！&lt;br&gt;&lt;br&gt;(1)玩家可以从零开始扩展自己的小世界，也可以通过创建小世界生成随机大小的初始世界。每个区域都有独特的环境、资源、生物以及势力。 在熟悉了游戏基本操作之后，您便可以直接生成环境属性各异的、已经包含一定数量地块的世界进行体验和历练，并且可以控制不同的“我”往来穿梭于各个世界开启别样人生！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/kf1.gif?t=1694439788" /&gt;&lt;br&gt;&lt;br&gt;(2)新颖的单回合战斗方式，通过收集不同的绝学搭配创建自己的招式库，战斗中拖动连接不同的招式激活绝学，利用招式克制和绝学套路，体现武侠战斗的策略性。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF2.gif?t=1694439788" /&gt;&lt;br&gt;&lt;br&gt;(3)独创的经脉系统，将人体经脉的运转进行了简化概念设计，玩家可以体验到不同的运功路线激活不同内功的拟真感受，简洁却富有策略玩法的设计给玩家提供了搭配和激活多种内功的玩法。同时经脉系统也结合了武侠小说中各种身体机能的具象表现，角色的生命力、内伤、隐疾、蛊、生死符、残疾、瞎眼等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF3.gif?t=1694439788" /&gt;&lt;br&gt;&lt;br&gt;(4)游戏还包含了自由的建造模式，玩家可以打造自己的民居、酒馆、温泉、马厩、大殿、监牢等等，每种建筑都有独特的功能。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF4.gif?t=1694439788" /&gt;&lt;br&gt;&lt;br&gt;(5)潜行玩法，可以通过训练潜行能力，配合独特的内功，夜晚穿上夜行衣，如人无人之境。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF5.gif?t=1694439788" /&gt;&lt;br&gt;&lt;br&gt;(6)训练轻功、跳跃、潜水、攀爬，无论高山深海都可闲庭信步。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF6.gif?t=1694439788" /&gt;&lt;br&gt;&lt;br&gt;(7)通过自定义天命、出身、容貌、血脉，打造独属于自己的角色。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF7.gif?t=1694439788" /&gt;&lt;br&gt;&lt;br&gt;(8)非线性剧情，游戏中每个NPC都会根据自己的行为、身份、名声、关系、态度等等在世界中生存，玩家的每次游戏都会与他们发生不同的剧情。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF8.gif?t=1694439788" /&gt;&lt;br&gt;&lt;br&gt;(9)丰富的交互内容&lt;br&gt;可以把敌人的建筑引燃&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF9.gif?t=1694439788" /&gt;&lt;br&gt;&lt;br&gt;可以邀请NPC喝酒，灌醉后搜刮物品&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF10.gif?t=1694439788" /&gt;&lt;br&gt;&lt;br&gt;可以驯化各种动物，每种动物都有各自独特的功能，例如猴子可以乞讨、马可以乘骑和改装马车、蛇可以下毒等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF11.gif?t=1694439788" /&gt;&lt;br&gt;&lt;br&gt;玩家可以创建自己门派，招募弟子，发布命令，参加武林大会。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF12.gif?t=1694439788" /&gt;&lt;br&gt;&lt;br&gt;丰富的交互内容·玩家可以布置陷阱，抓捕动物或敌人。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF13.gif?t=1694439788" /&gt;&lt;br&gt;&lt;br&gt;建立门派，发布命令&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF15.gif?t=1694439788" /&gt;&lt;br&gt;&lt;br&gt;建立牢笼，关押敌人&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF16.gif?t=1694439788" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;———————————————————————————————————————&lt;br&gt;来自幻魔寺的寄语：&lt;br&gt;我们坚守本心，完全独立开发，只做大家觉得好玩的游戏，这款游戏的世界目前仍然只是一个雏形，我们深知它会不断壮大，并且成为未来我们一切游戏的基石，我们会为此不断努力，带给大家一个绝妙的幻想世界！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/respect.png?t=1694439788" /&gt;</t>
+          <t>官方QQ群号：&lt;br&gt;官方QQ③群：717298872&lt;br&gt;官方QQ④群：757371350&lt;br&gt;官方QQ⑤群：703542977&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;这是一款基于武侠、江湖背景为基础的&lt;strong&gt; &lt;u&gt;开放沙盒类非传统武侠 RPG游戏&lt;/u&gt;&lt;/strong&gt;，你可以在这个大荒世界之中，扮演你所幻想的任何武侠角色，这里没有任何阻挡你幻想的老套剧情，你所演绎的武侠人生就是这个你的游戏剧情。你可以作为一名江湖小虾米游历大荒，你也可以成为一派掌门引领四方，你亦可以成为一名看不惯这江湖的浪子我行我素。最重要的是，请一切遵从于你的内心而为，并且活着！&lt;br&gt;&lt;br&gt;(1)玩家可以从零开始扩展自己的小世界，也可以通过创建小世界生成随机大小的初始世界。每个区域都有独特的环境、资源、生物以及势力。 在熟悉了游戏基本操作之后，您便可以直接生成环境属性各异的、已经包含一定数量地块的世界进行体验和历练，并且可以控制不同的“我”往来穿梭于各个世界开启别样人生！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/kf1.gif?t=1694516704" /&gt;&lt;br&gt;&lt;br&gt;(2)新颖的单回合战斗方式，通过收集不同的绝学搭配创建自己的招式库，战斗中拖动连接不同的招式激活绝学，利用招式克制和绝学套路，体现武侠战斗的策略性。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF2.gif?t=1694516704" /&gt;&lt;br&gt;&lt;br&gt;(3)独创的经脉系统，将人体经脉的运转进行了简化概念设计，玩家可以体验到不同的运功路线激活不同内功的拟真感受，简洁却富有策略玩法的设计给玩家提供了搭配和激活多种内功的玩法。同时经脉系统也结合了武侠小说中各种身体机能的具象表现，角色的生命力、内伤、隐疾、蛊、生死符、残疾、瞎眼等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF3.gif?t=1694516704" /&gt;&lt;br&gt;&lt;br&gt;(4)游戏还包含了自由的建造模式，玩家可以打造自己的民居、酒馆、温泉、马厩、大殿、监牢等等，每种建筑都有独特的功能。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF4.gif?t=1694516704" /&gt;&lt;br&gt;&lt;br&gt;(5)潜行玩法，可以通过训练潜行能力，配合独特的内功，夜晚穿上夜行衣，如人无人之境。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF5.gif?t=1694516704" /&gt;&lt;br&gt;&lt;br&gt;(6)训练轻功、跳跃、潜水、攀爬，无论高山深海都可闲庭信步。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF6.gif?t=1694516704" /&gt;&lt;br&gt;&lt;br&gt;(7)通过自定义天命、出身、容貌、血脉，打造独属于自己的角色。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF7.gif?t=1694516704" /&gt;&lt;br&gt;&lt;br&gt;(8)非线性剧情，游戏中每个NPC都会根据自己的行为、身份、名声、关系、态度等等在世界中生存，玩家的每次游戏都会与他们发生不同的剧情。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF8.gif?t=1694516704" /&gt;&lt;br&gt;&lt;br&gt;(9)丰富的交互内容&lt;br&gt;可以把敌人的建筑引燃&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF9.gif?t=1694516704" /&gt;&lt;br&gt;&lt;br&gt;可以邀请NPC喝酒，灌醉后搜刮物品&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF10.gif?t=1694516704" /&gt;&lt;br&gt;&lt;br&gt;可以驯化各种动物，每种动物都有各自独特的功能，例如猴子可以乞讨、马可以乘骑和改装马车、蛇可以下毒等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF11.gif?t=1694516704" /&gt;&lt;br&gt;&lt;br&gt;玩家可以创建自己门派，招募弟子，发布命令，参加武林大会。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF12.gif?t=1694516704" /&gt;&lt;br&gt;&lt;br&gt;丰富的交互内容·玩家可以布置陷阱，抓捕动物或敌人。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF13.gif?t=1694516704" /&gt;&lt;br&gt;&lt;br&gt;建立门派，发布命令&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF15.gif?t=1694516704" /&gt;&lt;br&gt;&lt;br&gt;建立牢笼，关押敌人&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF16.gif?t=1694516704" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;———————————————————————————————————————&lt;br&gt;来自幻魔寺的寄语：&lt;br&gt;我们坚守本心，完全独立开发，只做大家觉得好玩的游戏，这款游戏的世界目前仍然只是一个雏形，我们深知它会不断壮大，并且成为未来我们一切游戏的基石，我们会为此不断努力，带给大家一个绝妙的幻想世界！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/respect.png?t=1694516704" /&gt;</t>
         </is>
       </c>
     </row>
@@ -10865,7 +10865,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -11082,7 +11082,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -11795,7 +11795,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -11851,7 +11851,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -12314,7 +12314,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -12802,7 +12802,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -12834,7 +12834,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>轻度 Rogue,合作,独立,动作,类 Rogue</t>
+          <t>合作,轻度 Rogue,独立,类 Rogue,动作</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -13643,7 +13643,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>动作类 Rogue,角色扮演,僵尸,弹幕射击,轻度 Rogue</t>
+          <t>动作类 Rogue,角色扮演,僵尸,轻度 Rogue,弹幕射击</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -13868,7 +13868,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>欢迎加入游戏QQ群：&lt;i&gt;581318765&lt;/i&gt;，获取第一手游戏资讯，还能与开发者进行交流，我们非常期待您的建议。&lt;strong&gt;游戏除中文普通话配音外，还特别加入粤语配音，给你的兰若镇探秘之旅带来别样的体验！&lt;/strong&gt;&lt;br&gt;&lt;br&gt;欢迎来到兰若镇。&lt;br&gt;《兰若异谭》是一款以浓厚古风的策略卡牌构筑和剧情探索为核心的Roguelike单机游戏。在这款游戏中，你将通过战斗与探索，拨开笼罩在浪漫诡谲的神秘水墨世界上空的迷雾，寻找沉眠疑案的真相。&lt;br&gt;别担心，“兰若镇”上的人、鬼、精、怪都很友好，至少看起来是这样……在这场冒险中，你能够做些什么？&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/1.png?t=1685436088" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/GIF1.gif?t=1685436088" /&gt;&lt;br&gt;首发时您将可体验人、鬼两种职业流派的全部内容，不同职业对应不同的牌库与剧情及结局，请随心选择以开始你的水墨古风志怪异谈之旅。预计上线后会持续更新职业和新模式。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/2.png?t=1685436088" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/GIF2.gif?t=1685436088" /&gt;&lt;br&gt;随着进度的推进随逐渐扩充和构筑你的专属牌组。无每回合出牌的费数限制，给你更多的打牌自由度！组合牌、保留牌等多种创意玩法，给你带来全新的策略思考维度！策略招数自由组合，护符武器任你搭配。只是在面临抉择时别忘了问问自己：真的不再考虑一下吗？&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/3.png?t=1685436088" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/GIF3.gif?t=1685436088" /&gt;&lt;br&gt;故事总会有一个结局，只不过这里有数十种可能。道观中千年神女像为何眼眸低垂遮掩悲悯，面前三枚铜钱摇出的卦象又将命运指向何方？你能做的唯有抉择。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/4.png?t=1685436088" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/GIF4.gif?t=1685436088" /&gt;&lt;br&gt;时光轮转，诡象环生。游戏需要多周目探索以发现更多真相，为了避免你感到无聊，这里准备了随机生成的游戏内容，每次开局都是一场新的未知旅程！</t>
+          <t>欢迎加入游戏QQ群：&lt;i&gt;581318765&lt;/i&gt;，获取第一手游戏资讯，还能与开发者进行交流，我们非常期待您的建议。&lt;strong&gt;游戏除中文普通话配音外，还特别加入粤语配音，给你的兰若镇探秘之旅带来别样的体验！&lt;/strong&gt;&lt;br&gt;&lt;br&gt;欢迎来到兰若镇。&lt;br&gt;《兰若异谭》是一款以浓厚古风的策略卡牌构筑和剧情探索为核心的Roguelike单机游戏。在这款游戏中，你将通过战斗与探索，拨开笼罩在浪漫诡谲的神秘水墨世界上空的迷雾，寻找沉眠疑案的真相。&lt;br&gt;别担心，“兰若镇”上的人、鬼、精、怪都很友好，至少看起来是这样……在这场冒险中，你能够做些什么？&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/1.png?t=1694503090" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/GIF1.gif?t=1694503090" /&gt;&lt;br&gt;首发时您将可体验人、鬼两种职业流派的全部内容，不同职业对应不同的牌库与剧情及结局，请随心选择以开始你的水墨古风志怪异谈之旅。预计上线后会持续更新职业和新模式。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/2.png?t=1694503090" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/GIF2.gif?t=1694503090" /&gt;&lt;br&gt;随着进度的推进随逐渐扩充和构筑你的专属牌组。无每回合出牌的费数限制，给你更多的打牌自由度！组合牌、保留牌等多种创意玩法，给你带来全新的策略思考维度！策略招数自由组合，护符武器任你搭配。只是在面临抉择时别忘了问问自己：真的不再考虑一下吗？&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/3.png?t=1694503090" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/GIF3.gif?t=1694503090" /&gt;&lt;br&gt;故事总会有一个结局，只不过这里有数十种可能。道观中千年神女像为何眼眸低垂遮掩悲悯，面前三枚铜钱摇出的卦象又将命运指向何方？你能做的唯有抉择。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/4.png?t=1694503090" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/GIF4.gif?t=1694503090" /&gt;&lt;br&gt;时光轮转，诡象环生。游戏需要多周目探索以发现更多真相，为了避免你感到无聊，这里准备了随机生成的游戏内容，每次开局都是一场新的未知旅程！</t>
         </is>
       </c>
     </row>
@@ -14007,7 +14007,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>BACKROOMS: APPREHENSION is a terrifying and immersive multiplayer horror experience with social deduction elements.&lt;br&gt;&lt;br&gt;Nine players take on the roles of the Scientists stuck in the Backrooms, to survive they must scavenge for supplies and weapons while the tenth player hunts them down as a shape-shifting entity known as the Skin Stealer!&lt;br&gt;&lt;br&gt;SURVIVE AS A SCIENTIST&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2234150/extras/Store_PlayAsScientist.png?t=1677321384" /&gt;&lt;br&gt;As a Scientist you must scavenge for supplies, mantain your sanity and find a weapon to defend yourself against a monster that could be any of your fellow teammates.&lt;br&gt;Be very careful, trusting the wrong person could get you killed!&lt;br&gt;&lt;br&gt;TERRORIZE AS THE SKIN STEALER&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2234150/extras/Store_PlayAsSkinstealer.png?t=1677321384" /&gt;&lt;br&gt;As the Skin Stealer you start weak but your ability to impersonate the Scientists is a weapon, the more you kill the stronger you get.&lt;br&gt;Use your claws or manipulative tactics to eliminate the Scientists one by one.</t>
+          <t>BACKROOMS: APPREHENSION is a terrifying and immersive multiplayer horror experience with social deduction elements.&lt;br&gt;&lt;br&gt;Nine players take on the roles of the Scientists stuck in the Backrooms, to survive they must scavenge for supplies and weapons while the tenth player hunts them down as a shape-shifting entity known as the Skin Stealer!&lt;br&gt;&lt;br&gt;SURVIVE AS A SCIENTIST&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2234150/extras/HumanGIF.gif?t=1694518799" /&gt;&lt;br&gt;As a Scientist you must scavenge for supplies, mantain your sanity and find a weapon to defend yourself against a monster that could be any of your fellow teammates.&lt;br&gt;Be very careful, trusting the wrong person could get you killed!&lt;br&gt;&lt;br&gt;TERRORIZE AS THE SKIN STEALER&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2234150/extras/SkinstealerGIF.gif?t=1694518799" /&gt;&lt;br&gt;As the Skin Stealer you start weak but your ability to impersonate the Scientists is a weapon, the more you kill the stronger you get.&lt;br&gt;Use your claws or manipulative tactics to eliminate the Scientists one by one.</t>
         </is>
       </c>
     </row>
@@ -14192,7 +14192,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -14244,7 +14244,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/2s8sQbmtpE" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/3ff496ac-5d11-4609-844e-ceeaf4c1953b.jpg?t=1693550018" /&gt;&lt;/a&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-1.png?t=1693550018" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/2D_ACT战斗体验的天花板.gif?t=1693550018" /&gt;&lt;br&gt;纯正格斗血统的全新动作肉鸽游戏，资深动作团队以ACT之名打造极致2D动作战斗体验！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-2.png?t=1693550018" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/千变万化的动作战斗.gif?t=1693550018" /&gt;&lt;br&gt;魅力非凡的各个角色可以通过上百种招式自由构建，打造独一无二的动作连招。角色间迭代传承的继承系统，让每一次战斗的结束又成为新战斗的起点。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-3.png?t=1693550018" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/无限可能的肉鸽构建.gif?t=1693550018" /&gt;&lt;br&gt;八大元素策略体系（电、火、毒、光、刃、冰、暗、通用），超过两百种强化效果与动作系统联动，通过不同的搭配组合，在动作战斗中触发不同的“化学反应”，燃烧、冰冻、致盲、麻痹......挑选合适的词条强化，进一步“定制”属于自己的动作流派！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/01CN.png?t=1693550018" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/两大经典玩法合璧.gif?t=1693550018" /&gt;&lt;br&gt;箱庭式闯关+类银河城冒险结合设计，汇集横版动作的两种经典玩法。在箱庭式关卡中击败不同敌人，挑战阶段性BOSS；在随机生成的类银河城大地图中冒险，踏入隐秘禁区、探索故事终点。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/02ECN.png?t=1693550018" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/多线性·多结局.gif?t=1693550018" /&gt;&lt;br&gt;在架空的近未来世界，人们通过名为“ACE”的科技装置进入虚拟空间，化身为不同角色战斗。虚构的一切，却一步步影响着真实的未来。&lt;br&gt;由特殊粒子效果展现的事象碎片诉说着隐秘或真相，你会怎么判断？&lt;br&gt;由对话选择驱动的多线性剧情发展，你将如何抉择？&lt;br&gt;谨慎改变故事的走向，战斗的终点将是完全不同的未来。&lt;br&gt;&lt;br&gt;*本作品属外传衍生游戏，世界观为新原创内容，故事情节不涉及BlazBlue本篇剧情。</t>
+          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/2s8sQbmtpE" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/3ff496ac-5d11-4609-844e-ceeaf4c1953b.jpg?t=1694412831" /&gt;&lt;/a&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-1.png?t=1694412831" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/2D_ACT战斗体验的天花板.gif?t=1694412831" /&gt;&lt;br&gt;纯正格斗血统的全新动作肉鸽游戏，资深动作团队以ACT之名打造极致2D动作战斗体验！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-2.png?t=1694412831" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/千变万化的动作战斗.gif?t=1694412831" /&gt;&lt;br&gt;魅力非凡的各个角色可以通过上百种招式自由构建，打造独一无二的动作连招。角色间迭代传承的继承系统，让每一次战斗的结束又成为新战斗的起点。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/切图-3.png?t=1694412831" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/无限可能的肉鸽构建.gif?t=1694412831" /&gt;&lt;br&gt;八大元素策略体系（电、火、毒、光、刃、冰、暗、通用），超过两百种强化效果与动作系统联动，通过不同的搭配组合，在动作战斗中触发不同的“化学反应”，燃烧、冰冻、致盲、麻痹......挑选合适的词条强化，进一步“定制”属于自己的动作流派！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/01CN.png?t=1694412831" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/两大经典玩法合璧.gif?t=1694412831" /&gt;&lt;br&gt;箱庭式闯关+类银河城冒险结合设计，汇集横版动作的两种经典玩法。在箱庭式关卡中击败不同敌人，挑战阶段性BOSS；在随机生成的类银河城大地图中冒险，踏入隐秘禁区、探索故事终点。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/02ECN.png?t=1694412831" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273430/extras/多线性·多结局.gif?t=1694412831" /&gt;&lt;br&gt;在架空的近未来世界，人们通过名为“ACE”的科技装置进入虚拟空间，化身为不同角色战斗。虚构的一切，却一步步影响着真实的未来。&lt;br&gt;由特殊粒子效果展现的事象碎片诉说着隐秘或真相，你会怎么判断？&lt;br&gt;由对话选择驱动的多线性剧情发展，你将如何抉择？&lt;br&gt;谨慎改变故事的走向，战斗的终点将是完全不同的未来。&lt;br&gt;&lt;br&gt;*本作品属外传衍生游戏，世界观为新原创内容，故事情节不涉及BlazBlue本篇剧情。</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -4010,7 +4010,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;欢迎大家加入《太吾绘卷》官方讨论群：&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;972367371  太吾绘卷交流7群&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;985094820  太吾绘卷交流8群 &lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;1030657107  太吾绘卷10群 &lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;760164332  太吾绘卷15群&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;901410916  太吾绘卷16群&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;概述&lt;/h2&gt;在《太吾绘卷》的世界中，你除了需要扮演神秘的“太吾氏传人”，还将以不同的处世立场——或善、或恶、或中庸——投身于纷繁复杂的江湖之中。&lt;br&gt;你不仅可以拜访世界各地的武林门派，学习种类繁多的功法绝艺；还可以与人义结金兰，或结下血海深仇；不仅可以兴建自己的村庄，经营各种产业；还可以与自己的挚爱生儿育女，缘定三生；直到你终于面对太吾氏的宿敌，决定世界的命运！&lt;h2 class="bb_tag"&gt;未知的江湖&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;你所创建的每一个太吾世界，都将是独一无二的——&lt;br&gt;完全随机生成的地图、完全随机生成的NPC、敌人。你的每次游戏都会是一次崭新的冒险。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;你能够从十五个风格迥异的武林门派中，学习到上千种功法绝艺；&lt;br&gt;从几乎任何NPC身上，学习到上百种中华传统技艺。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_0.png?t=1675305014" /&gt;&lt;h2 class="bb_tag"&gt;融合多种玩法&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;除RPG玩法外，《太吾绘卷》还融合了许多不同的游戏类型，如充满随机冲突的Roguelike要素；&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_1.png?t=1675305014" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;以及需要精心规划的模拟经营要素：建造、采集、扩建、经营、制造、维护等。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_2.png?t=1675305014" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;让你找回童心的促织玩法——捕捉最善斗的“大将军”与少林方丈来一次“虫上谈兵”。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_5.png?t=1675305014" /&gt;&lt;h2 class="bb_tag"&gt;“活的”NPC们&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;拥有各自人际关系、经历，会生老病死的数千名NPC；&lt;br&gt;你可以与他们结成各种各样的关系，甚至直接决定他们的生死。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_3.png?t=1675305014" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;你将会与你的另一半生儿育女。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;培养并将你的毕生功力传给下一位传人。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;在茫茫人海中，找寻你上一世的恋人。&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;细致的制造&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;通过采集、制造、修理、精制，&lt;br&gt;你可以完全凭借自己的双手打造任何兵器、护甲，炼制各式各样的丹药。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;拿起淬毒的兵器，穿上淬毒的衣衫，吃下被下毒的解毒药。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_4.png?t=1675305014" /&gt;&lt;h2 class="bb_tag"&gt;真实的武侠战斗&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;新奇的战斗模式，还原“见招拆招”、“草木皆可为剑”、“寸长寸强，寸短寸险”的战斗设计。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;你的每一刀、每一剑、每一掌，都会真实的击打在敌人身体的不同部位。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;搭配你的功法，运转你的内力，磨炼你的技艺和策略。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_6.png?t=1675305014" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;还有许多，期待你的发现。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;strong&gt;另外，我们也非常欢迎您发送邮件到 &lt;a href="mailto:business@conchship.net"&gt;business@conchship.net&lt;/a&gt; 与我们取得更多联系！&lt;/strong&gt;</t>
+          <t>&lt;strong&gt;欢迎大家加入《太吾绘卷》官方讨论群：&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;972367371  太吾绘卷交流7群&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;985094820  太吾绘卷交流8群 &lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;1030657107  太吾绘卷10群 &lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;760164332  太吾绘卷15群&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;901410916  太吾绘卷16群&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;概述&lt;/h2&gt;在《太吾绘卷》的世界中，你除了需要扮演神秘的“太吾氏传人”，还将以不同的处世立场——或善、或恶、或中庸——投身于纷繁复杂的江湖之中。&lt;br&gt;你不仅可以拜访世界各地的武林门派，学习种类繁多的功法绝艺；还可以与人义结金兰，或结下血海深仇；不仅可以兴建自己的村庄，经营各种产业；还可以与自己的挚爱生儿育女，缘定三生；直到你终于面对太吾氏的宿敌，决定世界的命运！&lt;h2 class="bb_tag"&gt;未知的江湖&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;你所创建的每一个太吾世界，都将是独一无二的——&lt;br&gt;完全随机生成的地图、完全随机生成的NPC、敌人。你的每次游戏都会是一次崭新的冒险。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;你能够从十五个风格迥异的武林门派中，学习到上千种功法绝艺；&lt;br&gt;从几乎任何NPC身上，学习到上百种中华传统技艺。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_0.png?t=1694582792" /&gt;&lt;h2 class="bb_tag"&gt;融合多种玩法&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;除RPG玩法外，《太吾绘卷》还融合了许多不同的游戏类型，如充满随机冲突的Roguelike要素；&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_1.png?t=1694582792" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;以及需要精心规划的模拟经营要素：建造、采集、扩建、经营、制造、维护等。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_2.png?t=1694582792" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;让你找回童心的促织玩法——捕捉最善斗的“大将军”与少林方丈来一次“虫上谈兵”。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_5.png?t=1694582792" /&gt;&lt;h2 class="bb_tag"&gt;“活的”NPC们&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;拥有各自人际关系、经历，会生老病死的数千名NPC；&lt;br&gt;你可以与他们结成各种各样的关系，甚至直接决定他们的生死。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_3.png?t=1694582792" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;你将会与你的另一半生儿育女。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;培养并将你的毕生功力传给下一位传人。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;在茫茫人海中，找寻你上一世的恋人。&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;细致的制造&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;通过采集、制造、修理、精制，&lt;br&gt;你可以完全凭借自己的双手打造任何兵器、护甲，炼制各式各样的丹药。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;拿起淬毒的兵器，穿上淬毒的衣衫，吃下被下毒的解毒药。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_4.png?t=1694582792" /&gt;&lt;h2 class="bb_tag"&gt;真实的武侠战斗&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;新奇的战斗模式，还原“见招拆招”、“草木皆可为剑”、“寸长寸强，寸短寸险”的战斗设计。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;你的每一刀、每一剑、每一掌，都会真实的击打在敌人身体的不同部位。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;搭配你的功法，运转你的内力，磨炼你的技艺和策略。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/838350/extras/Massage_6.png?t=1694582792" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;还有许多，期待你的发现。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;strong&gt;另外，我们也非常欢迎您发送邮件到 &lt;a href="mailto:business@conchship.net"&gt;business@conchship.net&lt;/a&gt; 与我们取得更多联系！&lt;/strong&gt;</t>
         </is>
       </c>
     </row>
@@ -5117,7 +5117,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -5243,7 +5243,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;《Definitely Not Fried Chicken》-“&lt;i&gt;满足你的一切合法虚假经营渴望！&lt;/i&gt;”&lt;/h2&gt;《Definitely Not Fried Chicken》是有点不一样的经营管理模拟！&lt;br&gt;经由管理业务的两面，透过合法渠道扩大自己的药品贸易。获得新的“业务”、结识新的客户、开发更强的麻醉品、赚很多很多的钱，然后离开化为废墟的城市！&lt;br&gt;游戏背景设定于繁荣的二十世纪八十年代，阳光普照下的一座城市，在《DNFC》，你的创业者业务技能将会得到检验。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Different_Drugs_Gif.gif?t=1689850184" /&gt;&lt;br&gt;&lt;br&gt;从头开始，建造你自己的毒品工厂，购买临近的土地扩大规模。设计和布置完整的生产线，建立分销线路。为自己的工厂巩固防御，确保&lt;i&gt;“过度热情”&lt;/i&gt;的客户无法闯入。研究和开发更好的麻醉品，如大麻、可卡因和甲基苯丙胺等。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Construction_Chicken_Shop_-_To_Be_Sped_Up_B_.gif?t=1689850184" /&gt;&lt;br&gt;&lt;br&gt;简单制作伟大的产品并不足够，你需要有将它销售出去的地方！这就是你的合法企业出面的地方了 – 你需要建造和管理这些“门面”，包括销售合法的商品以避免搜查 – 人总得吃饭的，对吧？开一连串炸鸡连锁店，或者用别的业务将自己的资产组合多样化。不同的地方，有着不同的人，有着不同的&lt;i&gt;口味&lt;/i&gt;。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Capture1.PNG?t=1689850184" /&gt;&lt;br&gt;&lt;br&gt;所有经营的支柱是劳动力 – 也就是那些不知疲倦、拿着最低的工资替你进行你分配的任务的人。快乐的员工富有生产力，所以务必要让你的手下拥有盥洗室和吃饭地点等基础必需品。妥善装修的休息室则有助于提升员工士气！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Snooker.gif?t=1689850184" /&gt;&lt;br&gt;&lt;br&gt;而安全设备在员工营业额/士气方面颇有帮助...&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/DeathSuffocate5.gif?t=1689850184" /&gt;&lt;h2 class="bb_tag"&gt;重点要素&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;从零开始，打造自己的毒品帝国，将大麻、可卡因、冰毒和其他“商品”分销开去&lt;br&gt;&lt;/li&gt;&lt;li&gt;平衡各种麻烦工作，管理非法毒品买卖和“合法”经营。&lt;br&gt;&lt;/li&gt;&lt;li&gt;建立和定制自己的毒品工厂和经营“门面”。&lt;br&gt;&lt;/li&gt;&lt;li&gt;升级设施和员工设备，获得更好的产品，赚取更高额的利润&lt;br&gt;&lt;/li&gt;&lt;li&gt;设计自己的帝国，从炸鸡店到自助洗衣店和夜总会&lt;br&gt;&lt;/li&gt;&lt;li&gt;管理手下劳力，雇佣和开除，提供所需住宿，满足员工需求，让他们更加好地完成工作。&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;h2 class="bb_tag"&gt;《Definitely Not Fried Chicken》-“&lt;i&gt;满足你的一切合法虚假经营渴望！&lt;/i&gt;”&lt;/h2&gt;《Definitely Not Fried Chicken》是有点不一样的经营管理模拟！&lt;br&gt;经由管理业务的两面，透过合法渠道扩大自己的药品贸易。获得新的“业务”、结识新的客户、开发更强的麻醉品、赚很多很多的钱，然后离开化为废墟的城市！&lt;br&gt;游戏背景设定于繁荣的二十世纪八十年代，阳光普照下的一座城市，在《DNFC》，你的创业者业务技能将会得到检验。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Different_Drugs_Gif.gif?t=1694612751" /&gt;&lt;br&gt;&lt;br&gt;从头开始，建造你自己的毒品工厂，购买临近的土地扩大规模。设计和布置完整的生产线，建立分销线路。为自己的工厂巩固防御，确保&lt;i&gt;“过度热情”&lt;/i&gt;的客户无法闯入。研究和开发更好的麻醉品，如大麻、可卡因和甲基苯丙胺等。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Construction_Chicken_Shop_-_To_Be_Sped_Up_B_.gif?t=1694612751" /&gt;&lt;br&gt;&lt;br&gt;简单制作伟大的产品并不足够，你需要有将它销售出去的地方！这就是你的合法企业出面的地方了 – 你需要建造和管理这些“门面”，包括销售合法的商品以避免搜查 – 人总得吃饭的，对吧？开一连串炸鸡连锁店，或者用别的业务将自己的资产组合多样化。不同的地方，有着不同的人，有着不同的&lt;i&gt;口味&lt;/i&gt;。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Capture1.PNG?t=1694612751" /&gt;&lt;br&gt;&lt;br&gt;所有经营的支柱是劳动力 – 也就是那些不知疲倦、拿着最低的工资替你进行你分配的任务的人。快乐的员工富有生产力，所以务必要让你的手下拥有盥洗室和吃饭地点等基础必需品。妥善装修的休息室则有助于提升员工士气！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Snooker.gif?t=1694612751" /&gt;&lt;br&gt;&lt;br&gt;而安全设备在员工营业额/士气方面颇有帮助...&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/DeathSuffocate5.gif?t=1694612751" /&gt;&lt;h2 class="bb_tag"&gt;重点要素&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;从零开始，打造自己的毒品帝国，将大麻、可卡因、冰毒和其他“商品”分销开去&lt;br&gt;&lt;/li&gt;&lt;li&gt;平衡各种麻烦工作，管理非法毒品买卖和“合法”经营。&lt;br&gt;&lt;/li&gt;&lt;li&gt;建立和定制自己的毒品工厂和经营“门面”。&lt;br&gt;&lt;/li&gt;&lt;li&gt;升级设施和员工设备，获得更好的产品，赚取更高额的利润&lt;br&gt;&lt;/li&gt;&lt;li&gt;设计自己的帝国，从炸鸡店到自助洗衣店和夜总会&lt;br&gt;&lt;/li&gt;&lt;li&gt;管理手下劳力，雇佣和开除，提供所需住宿，满足员工需求，让他们更加好地完成工作。&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
@@ -8140,7 +8140,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -9416,7 +9416,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/fight_schinese.png?t=1686821006" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/WT_fight5.gif?t=1686821006" /&gt;&lt;br&gt;&lt;br&gt;自多兰帝国（Edoran Empire）灭亡于一场席卷全国的史无前例的瘟疫已经过去一个世纪。如今，这片土地上充斥着雇佣兵、强盗和小偷，荣誉几乎成为一种被遗忘的美德。&lt;br&gt;&lt;br&gt;如今，你将需要在一个巨大的开放世界中领导一群不择手段的人物，战斗、死亡以及对财富的渴望将会成为日常生活中随处可见之物。你不是这则故事的英雄，注定要迎来一个新的和平时代。你的目标仅仅只是要在这个严酷而充满敌意的世界中生存和发展，不择手段……&lt;br&gt;&lt;br&gt;只有最勇敢和最有雄心壮志的人，才有希望看到自己的故事被写进《战争传说》！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/develop_schinese.png?t=1686821006" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/wt_develop2.gif?t=1686821006" /&gt;&lt;br&gt;&lt;br&gt;在被贫穷和贪婪蹂躏的中世纪时代里，玩家将带领一群雇佣兵进行求富求名的危险任务，招募具有许多独特的专长、技能组合、武器偏好和个性的新同伴。&lt;br&gt;&lt;br&gt;通过直观的RPG进程和制作系统以自定义团队的技能、设备和外观，同时用奢侈品、工具和设备来升级营地，使团队从每天带来的艰难任务中舒缓并恢复。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/explore_schinese.png?t=1686821006" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/WT_explore2.gif?t=1686821006" /&gt;&lt;br&gt;&lt;br&gt;游历这个广阔的开放世界，寻求名声、财富和认可，让自己沉浸在有活力的村庄和过去时代的遗迹中。在拼凑这个严酷世界的历史的同时，探索废弃的矿井、坟墓和营地。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/prosper_schinese.png?t=1686821006" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/WT_prosper2.gif?t=1686821006" /&gt;&lt;br&gt;&lt;br&gt;收集赏金和承接合同。从保护无辜者免受小贼的侵害，到击败这片土地上最臭名昭著的人物，只要能获得利益哪种任务不能做呢？&lt;br&gt;&lt;br&gt;通过基于战术的回合制战斗系统战胜敌人，奖励你的精心策划和战略思维，选择角色、装备和战术的最佳组合，在每场独特的战斗中取得胜利吧。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/4player_schinese.png?t=1686821006" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/WT17.gif?t=1686821006" /&gt;&lt;br&gt;&lt;br&gt;组建最多由4名玩家组成的小队穿越在广阔的《战争传说》开放世界，在面对游荡在这些神秘土地上的许多敌对居民的时候，先计划战术和制定战略，并团结队伍合力击败他们。&lt;br&gt;&lt;br&gt;平分金钱、战利品和资源，并与你忠诚的伙伴们在熊熊的篝火旁以美味的晚餐结束一天的任务，建立友情，锻造牢不可破的纽带，这将帮助你克服任何障碍。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/embrace_schinese.png?t=1686821006" /&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1527950/Wartales" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1527950/Wartales&lt;/a&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/fight_schinese.png?t=1694606969" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/WT_fight5.gif?t=1694606969" /&gt;&lt;br&gt;&lt;br&gt;自多兰帝国（Edoran Empire）灭亡于一场席卷全国的史无前例的瘟疫已经过去一个世纪。如今，这片土地上充斥着雇佣兵、强盗和小偷，荣誉几乎成为一种被遗忘的美德。&lt;br&gt;&lt;br&gt;如今，你将需要在一个巨大的开放世界中领导一群不择手段的人物，战斗、死亡以及对财富的渴望将会成为日常生活中随处可见之物。你不是这则故事的英雄，注定要迎来一个新的和平时代。你的目标仅仅只是要在这个严酷而充满敌意的世界中生存和发展，不择手段……&lt;br&gt;&lt;br&gt;只有最勇敢和最有雄心壮志的人，才有希望看到自己的故事被写进《战争传说》！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/develop_schinese.png?t=1694606969" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/wt_develop2.gif?t=1694606969" /&gt;&lt;br&gt;&lt;br&gt;在被贫穷和贪婪蹂躏的中世纪时代里，玩家将带领一群雇佣兵进行求富求名的危险任务，招募具有许多独特的专长、技能组合、武器偏好和个性的新同伴。&lt;br&gt;&lt;br&gt;通过直观的RPG进程和制作系统以自定义团队的技能、设备和外观，同时用奢侈品、工具和设备来升级营地，使团队从每天带来的艰难任务中舒缓并恢复。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/explore_schinese.png?t=1694606969" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/WT_explore2.gif?t=1694606969" /&gt;&lt;br&gt;&lt;br&gt;游历这个广阔的开放世界，寻求名声、财富和认可，让自己沉浸在有活力的村庄和过去时代的遗迹中。在拼凑这个严酷世界的历史的同时，探索废弃的矿井、坟墓和营地。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/prosper_schinese.png?t=1694606969" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/WT_prosper2.gif?t=1694606969" /&gt;&lt;br&gt;&lt;br&gt;收集赏金和承接合同。从保护无辜者免受小贼的侵害，到击败这片土地上最臭名昭著的人物，只要能获得利益哪种任务不能做呢？&lt;br&gt;&lt;br&gt;通过基于战术的回合制战斗系统战胜敌人，奖励你的精心策划和战略思维，选择角色、装备和战术的最佳组合，在每场独特的战斗中取得胜利吧。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/4player_schinese.png?t=1694606969" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/WT17.gif?t=1694606969" /&gt;&lt;br&gt;&lt;br&gt;组建最多由4名玩家组成的小队穿越在广阔的《战争传说》开放世界，在面对游荡在这些神秘土地上的许多敌对居民的时候，先计划战术和制定战略，并团结队伍合力击败他们。&lt;br&gt;&lt;br&gt;平分金钱、战利品和资源，并与你忠诚的伙伴们在熊熊的篝火旁以美味的晚餐结束一天的任务，建立友情，锻造牢不可破的纽带，这将帮助你克服任何障碍。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1527950/extras/embrace_schinese.png?t=1694606969" /&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1527950/Wartales" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1527950/Wartales&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -9926,7 +9926,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Embark on an odyssey for the Lost Ark in a vast, vibrant world: explore new lands, seek out lost treasures, and test yourself in thrilling action combat. Define your fighting style with your class and advanced class, and customize your skills, weapons, and gear to bring your might to bear as you fight against hordes of enemies, colossal bosses, and dark forces seeking the power of the Ark in this action-packed free-to-play RPG.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599340/extras/LA_STEAM_WORLD_BRIMMING_01.gif?t=1693257014" /&gt;&lt;br&gt;&lt;strong&gt;Discover a World Brimming with Adventure&lt;/strong&gt;&lt;br&gt;Explore seven vast, varied continents and the seas between them to find vibrant cultures, strange and fantastical beasts, and all the unexpected marvels waiting to be discovered. Delve into the secrets of Arkesia, prove your might in battles and raids, compete against other players in PvP, travel to distant islands in search of hidden riches, face packs of enemies and colossal bosses in the open world, and more.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599340/extras/LA_STEAM_ODYSSEY_AWAITS_02.gif?t=1693257014" /&gt;&lt;br&gt;&lt;strong&gt;Your Odyssey Awaits&lt;/strong&gt;&lt;br&gt;Splash into massively satisfying ARPG-style combat and progression as you quest, raid, and fight on the scope of an MMO.  Whether you want to play solo, in groups with friends, or matched up with other adventurers in the world, there’s an epic adventure waiting for you.  Fight in the open world or delve into chaos dungeons, go head-to-head in expert PvP duels, test your mettle on epic quests, raid against bosses big and small, and hold your own in the fight against the Demon Legion to reclaim the power and light of the Lost Ark.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599340/extras/LA_STEAM_FIGHT_03.gif?t=1693257014" /&gt;&lt;br&gt;&lt;strong&gt;Define Your Fight&lt;/strong&gt;&lt;br&gt;Lost Ark offers easy-to-learn features with unexpected depth and room for customization. Hit the ground running with pick-up-and-play action then take control of your combat with the unique Tripod system. Unlock three tiers of customization for each of your abilities, giving you powerful control of exactly how you fight.  Lost Ark’s ever-expanding roster of iconic classes—each with their own distinct advanced classes—offers plenty of room to explore until you find the combat style that’s just right for you.  &lt;br&gt;&lt;br&gt;The same goes for other features: as you continue your journey, you’ll find non-combat skills, crafting, guilds and social systems, and other rich features that bring the world alive. Whether you want to skim along the surface or dive deep into the details is up to you.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;ACCESSIBILITY FEATURES:&lt;/strong&gt;&lt;br&gt;Personalize your adventure with accessibility settings before game play. Enable numerous options including chat text enlargement, color blindness filters, photosensitivity mode, toggleable camera shake, and subtitle settings to create your optimal experience. Define your audio preferences with settings for volume controls, mono sound, stereo sound, and surround sound. You can also adjust game inputs via input remapping options and mouse/keyboard control settings. Lastly, define game inputs via input remapping options, and make sure no message is missed with chat text-to-speech and speech-to-text.</t>
+          <t>Embark on an odyssey for the Lost Ark in a vast, vibrant world: explore new lands, seek out lost treasures, and test yourself in thrilling action combat. Define your fighting style with your class and advanced class, and customize your skills, weapons, and gear to bring your might to bear as you fight against hordes of enemies, colossal bosses, and dark forces seeking the power of the Ark in this action-packed free-to-play RPG.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599340/extras/LA_STEAM_WORLD_BRIMMING_01.gif?t=1694622097" /&gt;&lt;br&gt;&lt;strong&gt;Discover a World Brimming with Adventure&lt;/strong&gt;&lt;br&gt;Explore seven vast, varied continents and the seas between them to find vibrant cultures, strange and fantastical beasts, and all the unexpected marvels waiting to be discovered. Delve into the secrets of Arkesia, prove your might in battles and raids, compete against other players in PvP, travel to distant islands in search of hidden riches, face packs of enemies and colossal bosses in the open world, and more.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599340/extras/LA_STEAM_ODYSSEY_AWAITS_02.gif?t=1694622097" /&gt;&lt;br&gt;&lt;strong&gt;Your Odyssey Awaits&lt;/strong&gt;&lt;br&gt;Splash into massively satisfying ARPG-style combat and progression as you quest, raid, and fight on the scope of an MMO.  Whether you want to play solo, in groups with friends, or matched up with other adventurers in the world, there’s an epic adventure waiting for you.  Fight in the open world or delve into chaos dungeons, go head-to-head in expert PvP duels, test your mettle on epic quests, raid against bosses big and small, and hold your own in the fight against the Demon Legion to reclaim the power and light of the Lost Ark.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599340/extras/LA_STEAM_FIGHT_03.gif?t=1694622097" /&gt;&lt;br&gt;&lt;strong&gt;Define Your Fight&lt;/strong&gt;&lt;br&gt;Lost Ark offers easy-to-learn features with unexpected depth and room for customization. Hit the ground running with pick-up-and-play action then take control of your combat with the unique Tripod system. Unlock three tiers of customization for each of your abilities, giving you powerful control of exactly how you fight.  Lost Ark’s ever-expanding roster of iconic classes—each with their own distinct advanced classes—offers plenty of room to explore until you find the combat style that’s just right for you.  &lt;br&gt;&lt;br&gt;The same goes for other features: as you continue your journey, you’ll find non-combat skills, crafting, guilds and social systems, and other rich features that bring the world alive. Whether you want to skim along the surface or dive deep into the details is up to you.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;ACCESSIBILITY FEATURES:&lt;/strong&gt;&lt;br&gt;Personalize your adventure with accessibility settings before game play. Enable numerous options including chat text enlargement, color blindness filters, photosensitivity mode, toggleable camera shake, and subtitle settings to create your optimal experience. Define your audio preferences with settings for volume controls, mono sound, stereo sound, and surround sound. You can also adjust game inputs via input remapping options and mouse/keyboard control settings. Lastly, define game inputs via input remapping options, and make sure no message is missed with chat text-to-speech and speech-to-text.</t>
         </is>
       </c>
     </row>
@@ -11008,7 +11008,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>《Starfield》出自打造过《Starfield》是由载誉无数、曾为大家带来《The Elder Scrolls V: Skyrim》和《Fallout 4》的Bethesda Game Studios睽违超过25年所打造的第一个全新宇宙。这款新一代角色扮演游戏将背景设定在茫茫宇宙。在这里，你可以创建任意角色，探索世界并体验前所未有的自由。踏上这趟史诗般的旅程，发掘人类文明的终极奥秘。&lt;br&gt;&lt;br&gt;2330年，人类已跨出我们所在的太阳系，在新的星球上定居下来，太空旅行也已成为人类的日常。在这款Bethesda Game Studios迄今为止最宏大的游戏里，你将加入群星组织这个在星系中寻找稀有神器的太空探险者团体，展开探索广袤宇宙的旅程。&lt;h2 class="bb_tag"&gt;传颂你的故事&lt;/h2&gt;在《Starfield》中，最重要的故事将由你亲自通过你的角色述说。自定义外观并决定背景和特征，启航展开属于你的星际之旅。你会是经验老道的探险家、充满魅力的外交官、诡密的电子情报贩，或是独树一帜的人物？选择权都在你手上。由你决定想要打造什么样的角色，有什么样的发展。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/TellYourStory_v3.gif?t=1693958437" /&gt;&lt;h2 class="bb_tag"&gt;探索外太空&lt;/h2&gt;在群星间冒险，探索超过一千个行星。造访繁华的都市、探索充满危险的基地，以及穿越荒野的风景。认识令人难忘的角色并加以招募、参与各种阵营的冒险，在定居星系群中到处展开任务。随时都有新的故事或体验等你来发掘。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/ExploreSpace_v3.gif?t=1693958437" /&gt;&lt;h2 class="bb_tag"&gt;指挥你梦想中的飞船&lt;/h2&gt;驾驶及指挥你梦想中的飞船。打造属于自己的飞船外观、改造武器和护盾等重要系统，以及分配船员为你提供独特加成。在深远的太空中，你将遭遇高风险的近距空战、随机任务、在星际站停驻，甚至登上并夺取敌人的飞船，为自己增添收藏品。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/CaptainShip_v3.gif?t=1693958437" /&gt;&lt;h2 class="bb_tag"&gt;发掘、收集、打造&lt;/h2&gt;探索行星并发掘各种动植物，以及制作药物、食物、装备和武器所需的各种资源。建造哨站并雇用工作人员自动获得材料，并建立货运链接以在哨站间运送资源。将这些原材料投注在研究项目中以解锁独特的制造配方。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/DiscoverCollectBuild_v3.gif?t=1693958437" /&gt;&lt;h2 class="bb_tag"&gt;武器上膛&lt;/h2&gt;宇宙中危机四伏。精细的战斗系统为你提供处理各种状况的工具。无论你喜欢长射程步枪、激光武器或炸药，每种武器皆可改装以符合你的游戏风格。零重力环境为战斗增添了混乱的华丽场面，飞行背包则为玩家带来前所未有的自由机动性。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/LockandLoad_v3.gif?t=1693958437" /&gt;</t>
+          <t>《Starfield》出自打造过《Starfield》是由载誉无数、曾为大家带来《The Elder Scrolls V: Skyrim》和《Fallout 4》的Bethesda Game Studios睽违超过25年所打造的第一个全新宇宙。这款新一代角色扮演游戏将背景设定在茫茫宇宙。在这里，你可以创建任意角色，探索世界并体验前所未有的自由。踏上这趟史诗般的旅程，发掘人类文明的终极奥秘。&lt;br&gt;&lt;br&gt;2330年，人类已跨出我们所在的太阳系，在新的星球上定居下来，太空旅行也已成为人类的日常。在这款Bethesda Game Studios迄今为止最宏大的游戏里，你将加入群星组织这个在星系中寻找稀有神器的太空探险者团体，展开探索广袤宇宙的旅程。&lt;h2 class="bb_tag"&gt;传颂你的故事&lt;/h2&gt;在《Starfield》中，最重要的故事将由你亲自通过你的角色述说。自定义外观并决定背景和特征，启航展开属于你的星际之旅。你会是经验老道的探险家、充满魅力的外交官、诡密的电子情报贩，或是独树一帜的人物？选择权都在你手上。由你决定想要打造什么样的角色，有什么样的发展。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/TellYourStory_v3.gif?t=1694620799" /&gt;&lt;h2 class="bb_tag"&gt;探索外太空&lt;/h2&gt;在群星间冒险，探索超过一千个行星。造访繁华的都市、探索充满危险的基地，以及穿越荒野的风景。认识令人难忘的角色并加以招募、参与各种阵营的冒险，在定居星系群中到处展开任务。随时都有新的故事或体验等你来发掘。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/ExploreSpace_v3.gif?t=1694620799" /&gt;&lt;h2 class="bb_tag"&gt;指挥你梦想中的飞船&lt;/h2&gt;驾驶及指挥你梦想中的飞船。打造属于自己的飞船外观、改造武器和护盾等重要系统，以及分配船员为你提供独特加成。在深远的太空中，你将遭遇高风险的近距空战、随机任务、在星际站停驻，甚至登上并夺取敌人的飞船，为自己增添收藏品。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/CaptainShip_v3.gif?t=1694620799" /&gt;&lt;h2 class="bb_tag"&gt;发掘、收集、打造&lt;/h2&gt;探索行星并发掘各种动植物，以及制作药物、食物、装备和武器所需的各种资源。建造哨站并雇用工作人员自动获得材料，并建立货运链接以在哨站间运送资源。将这些原材料投注在研究项目中以解锁独特的制造配方。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/DiscoverCollectBuild_v3.gif?t=1694620799" /&gt;&lt;h2 class="bb_tag"&gt;武器上膛&lt;/h2&gt;宇宙中危机四伏。精细的战斗系统为你提供处理各种状况的工具。无论你喜欢长射程步枪、激光武器或炸药，每种武器皆可改装以符合你的游戏风格。零重力环境为战斗增添了混乱的华丽场面，飞行背包则为玩家带来前所未有的自由机动性。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/LockandLoad_v3.gif?t=1694620799" /&gt;</t>
         </is>
       </c>
     </row>
@@ -12490,7 +12490,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>《加把劲魔女》是一款以魔女为主角的RPG，玩家将伴随魔女运营咖啡店，清偿债务，认识形形色色的顾客，最终深入其内心世界，帮助他们战胜自己最大的恐惧，发掘潜藏的秘密。&lt;br&gt;在这款RPG中，你将体验丰富的剧情、创新的“反塔防”玩法，和高质量的二次元立绘！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/画板_1-CN.png?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/1-CN.gif?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;进入顾客的内心世界，挑战结合了卡牌系统的反塔防关卡，你的每个决策都关系到顾客最终能否战胜心中的恶魔。权衡你的出牌和获胜之路，一招不慎，则有可能永远失去顾客......&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/画板_2-CN.png?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/2-CN.gif?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;认识形形色色的顾客，侧耳倾听他们的故事，进入他们的内心，解决他们的烦恼。你还可以选择和志同道合的客人逐步建立特别的情谊。魔女就是要古道热肠，平易近人嘛！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/画板_3-CN.png?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/3-CN.gif?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;规划每日日程，合理安排时间，今天是多做几笔生意，还是精研咖啡师技术，还是学习更强力的魔咒，抑或是和顾客们建立更牢固的关系呢？请记住，时钟的指针将永不停歇，你的每一个行为都会消耗时间。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/画板_4-CN.png?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/4-CN.gif?t=1692784461" /&gt;&lt;br&gt;&lt;br&gt;成为一名咖啡师，你需要学会如何做好咖啡。&lt;br&gt;要成为一名优秀的咖啡师，你还需要察言观色，为顾客调制专属咖啡。游戏还原了现实中的咖啡制作工序。做出一杯上好咖啡，你将有机会解锁隐藏剧情，开启新故事线。</t>
+          <t>《加把劲魔女》是一款以魔女为主角的RPG，玩家将伴随魔女运营咖啡店，清偿债务，认识形形色色的顾客，最终深入其内心世界，帮助他们战胜自己最大的恐惧，发掘潜藏的秘密。&lt;br&gt;在这款RPG中，你将体验丰富的剧情、创新的“反塔防”玩法，和高质量的二次元立绘！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/画板_1-CN.png?t=1694493584" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/1-CN.gif?t=1694493584" /&gt;&lt;br&gt;&lt;br&gt;进入顾客的内心世界，挑战结合了卡牌系统的反塔防关卡，你的每个决策都关系到顾客最终能否战胜心中的恶魔。权衡你的出牌和获胜之路，一招不慎，则有可能永远失去顾客......&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/画板_2-CN.png?t=1694493584" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/2-CN.gif?t=1694493584" /&gt;&lt;br&gt;&lt;br&gt;认识形形色色的顾客，侧耳倾听他们的故事，进入他们的内心，解决他们的烦恼。你还可以选择和志同道合的客人逐步建立特别的情谊。魔女就是要古道热肠，平易近人嘛！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/画板_3-CN.png?t=1694493584" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/3-CN.gif?t=1694493584" /&gt;&lt;br&gt;&lt;br&gt;规划每日日程，合理安排时间，今天是多做几笔生意，还是精研咖啡师技术，还是学习更强力的魔咒，抑或是和顾客们建立更牢固的关系呢？请记住，时钟的指针将永不停歇，你的每一个行为都会消耗时间。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/画板_4-CN.png?t=1694493584" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1983970/extras/4-CN.gif?t=1694493584" /&gt;&lt;br&gt;&lt;br&gt;成为一名咖啡师，你需要学会如何做好咖啡。&lt;br&gt;要成为一名优秀的咖啡师，你还需要察言观色，为顾客调制专属咖啡。游戏还原了现实中的咖啡制作工序。做出一杯上好咖啡，你将有机会解锁隐藏剧情，开启新故事线。</t>
         </is>
       </c>
     </row>
@@ -13621,7 +13621,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>故事发生在15-17世纪的地理大发现时代，世界被航线连接起来，星星点点的海洋开拓汇聚成了一股航海热潮。&lt;br&gt;在这个时代，每一个年轻的航海家都梦想着拥有一艘船，自由地扬帆远洋，有人希望改变命运，有人希望创造历史。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/1_schinese.png?t=1693242151" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/01.gif?t=1693242151" /&gt;&lt;br&gt;真实世界地图比例，高度还原的广阔海洋与陆地、洋流季风、气候变迁，共同组成一个庞大的航海世界。突变的气候、难以琢磨的风向、沉船的宝藏、海盗的突袭，远洋中潜伏着各种各样的机遇和危险，体验新奇、热血的海上征途。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/2_schinese.png?t=1693242151" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/02.gif?t=1693242151" /&gt;&lt;br&gt;近200个各具风情的港口，各种异域文化百花齐放。你可以在港口内进行补给、交易、接受委托、招募船员、投资等活动。甚至可以在港口中组成陆地探险队，深入到内陆探险！&lt;br&gt;港口状态波动会带来物价波动，物价波动带来更高的交易利润。通过贸易和完成委托促进港口发展。港口发展将带来更多的交易物品、道具物品和高级船只。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/3_schinese.png?t=1693242151" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/new01.gif?t=1693242151" /&gt;&lt;br&gt;你将化身为身世背景各不相同的四位船长之一，踏上航行之旅。牛津学者、传奇海盗、犹太商贾、日本浪人等超过30位能人异士等待你去招揽，而合适的位置分配将会让伙伴发挥更大的作用。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/03.gif?t=1693242151" /&gt;&lt;br&gt;英雄也需要可以信任的战友！培养你的冒险伙伴，通过解锁新特性，提升基础技能，带来更丰富的搭配策略，游刃有余的应对诸多挑战。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/4_schinese.png?t=1693242151" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/04.gif?t=1693242151" /&gt;&lt;br&gt;参照史料还原十余种著名船只，将卡里维尔、盖伦帆船等传奇名舰通通收入囊中。还可以通过DIY船舱，自由定制你的专属船只。&lt;br&gt;在遭遇海战时，你可以通过观察风向快速拉开与敌船的距离，切换船体不同位置的火炮鱼雷，发起炮击战；亦可拉近距离与敌船船员白刃肉搏，享受不同风格的热血战斗。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/2022120601-3.gif?t=1693242151" /&gt;&lt;br&gt;将你的伙伴任命为友方舰船的舰长后，即可与船长激活特殊齐射技能，造成更高伤害。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/5_schinese.png?t=1693242151" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/05.gif?t=1693242151" /&gt;&lt;br&gt;历史遗迹、深海沉船、海盗秘宝……风云诡谲的大海中隐藏着千百年来丰富的宝藏和秘密。探寻大洋彼岸未知的事物，挖掘神秘宝藏，揭秘古代文明，尽情惬意地探索世界每一个角落吧！</t>
+          <t>故事发生在15-17世纪的地理大发现时代，世界被航线连接起来，星星点点的海洋开拓汇聚成了一股航海热潮。&lt;br&gt;在这个时代，每一个年轻的航海家都梦想着拥有一艘船，自由地扬帆远洋，有人希望改变命运，有人希望创造历史。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/1_schinese.png?t=1694518213" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/01.gif?t=1694518213" /&gt;&lt;br&gt;真实世界地图比例，高度还原的广阔海洋与陆地、洋流季风、气候变迁，共同组成一个庞大的航海世界。突变的气候、难以琢磨的风向、沉船的宝藏、海盗的突袭，远洋中潜伏着各种各样的机遇和危险，体验新奇、热血的海上征途。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/2_schinese.png?t=1694518213" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/02.gif?t=1694518213" /&gt;&lt;br&gt;近200个各具风情的港口，各种异域文化百花齐放。你可以在港口内进行补给、交易、接受委托、招募船员、投资等活动。甚至可以在港口中组成陆地探险队，深入到内陆探险！&lt;br&gt;港口状态波动会带来物价波动，物价波动带来更高的交易利润。通过贸易和完成委托促进港口发展。港口发展将带来更多的交易物品、道具物品和高级船只。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/3_schinese.png?t=1694518213" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/new01.gif?t=1694518213" /&gt;&lt;br&gt;你将化身为身世背景各不相同的四位船长之一，踏上航行之旅。牛津学者、传奇海盗、犹太商贾、日本浪人等超过30位能人异士等待你去招揽，而合适的位置分配将会让伙伴发挥更大的作用。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/03.gif?t=1694518213" /&gt;&lt;br&gt;英雄也需要可以信任的战友！培养你的冒险伙伴，通过解锁新特性，提升基础技能，带来更丰富的搭配策略，游刃有余的应对诸多挑战。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/4_schinese.png?t=1694518213" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/04.gif?t=1694518213" /&gt;&lt;br&gt;参照史料还原十余种著名船只，将卡里维尔、盖伦帆船等传奇名舰通通收入囊中。还可以通过DIY船舱，自由定制你的专属船只。&lt;br&gt;在遭遇海战时，你可以通过观察风向快速拉开与敌船的距离，切换船体不同位置的火炮鱼雷，发起炮击战；亦可拉近距离与敌船船员白刃肉搏，享受不同风格的热血战斗。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/2022120601-3.gif?t=1694518213" /&gt;&lt;br&gt;将你的伙伴任命为友方舰船的舰长后，即可与船长激活特殊齐射技能，造成更高伤害。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/5_schinese.png?t=1694518213" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/05.gif?t=1694518213" /&gt;&lt;br&gt;历史遗迹、深海沉船、海盗秘宝……风云诡谲的大海中隐藏着千百年来丰富的宝藏和秘密。探寻大洋彼岸未知的事物，挖掘神秘宝藏，揭秘古代文明，尽情惬意地探索世界每一个角落吧！</t>
         </is>
       </c>
     </row>
@@ -13653,7 +13653,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -13868,7 +13868,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>欢迎加入游戏QQ群：&lt;i&gt;581318765&lt;/i&gt;，获取第一手游戏资讯，还能与开发者进行交流，我们非常期待您的建议。&lt;strong&gt;游戏除中文普通话配音外，还特别加入粤语配音，给你的兰若镇探秘之旅带来别样的体验！&lt;/strong&gt;&lt;br&gt;&lt;br&gt;欢迎来到兰若镇。&lt;br&gt;《兰若异谭》是一款以浓厚古风的策略卡牌构筑和剧情探索为核心的Roguelike单机游戏。在这款游戏中，你将通过战斗与探索，拨开笼罩在浪漫诡谲的神秘水墨世界上空的迷雾，寻找沉眠疑案的真相。&lt;br&gt;别担心，“兰若镇”上的人、鬼、精、怪都很友好，至少看起来是这样……在这场冒险中，你能够做些什么？&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/1.png?t=1694503090" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/GIF1.gif?t=1694503090" /&gt;&lt;br&gt;首发时您将可体验人、鬼两种职业流派的全部内容，不同职业对应不同的牌库与剧情及结局，请随心选择以开始你的水墨古风志怪异谈之旅。预计上线后会持续更新职业和新模式。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/2.png?t=1694503090" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/GIF2.gif?t=1694503090" /&gt;&lt;br&gt;随着进度的推进随逐渐扩充和构筑你的专属牌组。无每回合出牌的费数限制，给你更多的打牌自由度！组合牌、保留牌等多种创意玩法，给你带来全新的策略思考维度！策略招数自由组合，护符武器任你搭配。只是在面临抉择时别忘了问问自己：真的不再考虑一下吗？&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/3.png?t=1694503090" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/GIF3.gif?t=1694503090" /&gt;&lt;br&gt;故事总会有一个结局，只不过这里有数十种可能。道观中千年神女像为何眼眸低垂遮掩悲悯，面前三枚铜钱摇出的卦象又将命运指向何方？你能做的唯有抉择。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/4.png?t=1694503090" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/GIF4.gif?t=1694503090" /&gt;&lt;br&gt;时光轮转，诡象环生。游戏需要多周目探索以发现更多真相，为了避免你感到无聊，这里准备了随机生成的游戏内容，每次开局都是一场新的未知旅程！</t>
+          <t>欢迎加入游戏QQ群：&lt;i&gt;581318765&lt;/i&gt;，获取第一手游戏资讯，还能与开发者进行交流，我们非常期待您的建议。&lt;strong&gt;游戏除中文普通话配音外，还特别加入粤语配音，给你的兰若镇探秘之旅带来别样的体验！&lt;/strong&gt;&lt;br&gt;&lt;br&gt;欢迎来到兰若镇。&lt;br&gt;《兰若异谭》是一款以浓厚古风的策略卡牌构筑和剧情探索为核心的Roguelike单机游戏。在这款游戏中，你将通过战斗与探索，拨开笼罩在浪漫诡谲的神秘水墨世界上空的迷雾，寻找沉眠疑案的真相。&lt;br&gt;别担心，“兰若镇”上的人、鬼、精、怪都很友好，至少看起来是这样……在这场冒险中，你能够做些什么？&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/1.png?t=1694505869" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/GIF1.gif?t=1694505869" /&gt;&lt;br&gt;首发时您将可体验人、鬼两种职业流派的全部内容，不同职业对应不同的牌库与剧情及结局，请随心选择以开始你的水墨古风志怪异谈之旅。预计上线后会持续更新职业和新模式。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/2.png?t=1694505869" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/GIF2.gif?t=1694505869" /&gt;&lt;br&gt;随着进度的推进随逐渐扩充和构筑你的专属牌组。无每回合出牌的费数限制，给你更多的打牌自由度！组合牌、保留牌等多种创意玩法，给你带来全新的策略思考维度！策略招数自由组合，护符武器任你搭配。只是在面临抉择时别忘了问问自己：真的不再考虑一下吗？&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/3.png?t=1694505869" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/GIF3.gif?t=1694505869" /&gt;&lt;br&gt;故事总会有一个结局，只不过这里有数十种可能。道观中千年神女像为何眼眸低垂遮掩悲悯，面前三枚铜钱摇出的卦象又将命运指向何方？你能做的唯有抉择。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/4.png?t=1694505869" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/GIF4.gif?t=1694505869" /&gt;&lt;br&gt;时光轮转，诡象环生。游戏需要多周目探索以发现更多真相，为了避免你感到无聊，这里准备了随机生成的游戏内容，每次开局都是一场新的未知旅程！</t>
         </is>
       </c>
     </row>
@@ -14086,7 +14086,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x346_ch_s.jpg?t=1692802960" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_1.png?t=1692802960" /&gt;&lt;br&gt;&lt;br&gt;《拯救：卫兵》是一款快节奏的轻度类Rogue自动射击游戏，背景世界与游戏《拯救》相同。一百多年前，灰色瘟疫肆虐，大部分人类都变成了凶恶的变种生物。这片土地如今被死亡和混乱笼罩，只有少数城市仍然屹立不倒。&lt;br&gt;&lt;br&gt;你将操控炼金术士创造的一个卫兵，肩负唯一的使命——只要你的反应堆还在运转，就竭力保卫城市，抵挡变种生物无尽的袭击。组合物品和炼金元素，不断获取新的武器，打造独特的构筑！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/saw-1_new.gif?t=1692802960" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_2.png?t=1692802960" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;易于上手，难以精通&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;巧妙操控卫兵突破致命变种生物的包围，利用它的武器将敌人消灭！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;收集原质，提升守卫的性能&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/Desktop_2023.02.10_-_14.46.11.13_3.gif?t=1692802960" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;组合武器和物品，赋予它们全新的元素效果&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;卫兵反应堆的能量耗尽之前，一定不能牺牲！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;面对并击败强大的头目&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;完成数十项挑战，解锁全新的能力&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/Choose_your_Sentinel.gif?t=1692802960" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;炼金术创造的各类枪械和技能供你选择&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;灵活升级或精心打造角色构筑，以对抗特性和抗性不同的变种怪物&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;坚持得越久，你就越强大。不断获得技能、武器，不断击败敌人。简而言之，游戏超级耐玩！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_3.png?t=1692802960" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/2244480/REMEDIUM_Sentinels/" target="_blank" rel=""  id="dynamiclink_2" &gt;https://store.steampowered.com/app/2244480/REMEDIUM_Sentinels/&lt;/a&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x346_ch_s.jpg?t=1694619997" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_1.png?t=1694619997" /&gt;&lt;br&gt;&lt;br&gt;《拯救：卫兵》是一款快节奏的轻度类Rogue自动射击游戏，背景世界与游戏《拯救》相同。一百多年前，灰色瘟疫肆虐，大部分人类都变成了凶恶的变种生物。这片土地如今被死亡和混乱笼罩，只有少数城市仍然屹立不倒。&lt;br&gt;&lt;br&gt;你将操控炼金术士创造的一个卫兵，肩负唯一的使命——只要你的反应堆还在运转，就竭力保卫城市，抵挡变种生物无尽的袭击。组合物品和炼金元素，不断获取新的武器，打造独特的构筑！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/saw-1_new.gif?t=1694619997" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_2.png?t=1694619997" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;易于上手，难以精通&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;巧妙操控卫兵突破致命变种生物的包围，利用它的武器将敌人消灭！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;收集原质，提升守卫的性能&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/Desktop_2023.02.10_-_14.46.11.13_3.gif?t=1694619997" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;组合武器和物品，赋予它们全新的元素效果&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;卫兵反应堆的能量耗尽之前，一定不能牺牲！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;面对并击败强大的头目&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;完成数十项挑战，解锁全新的能力&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/Choose_your_Sentinel.gif?t=1694619997" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;炼金术创造的各类枪械和技能供你选择&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;灵活升级或精心打造角色构筑，以对抗特性和抗性不同的变种怪物&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;坚持得越久，你就越强大。不断获得技能、武器，不断击败敌人。简而言之，游戏超级耐玩！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_3.png?t=1694619997" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/2244480/REMEDIUM_Sentinels/" target="_blank" rel=""  id="dynamiclink_2" &gt;https://store.steampowered.com/app/2244480/REMEDIUM_Sentinels/&lt;/a&gt;</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -711,7 +711,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/TSC_Core_GIF.gif?t=1694178836" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;YOUR RAILWAY HOBBY&lt;/strong&gt;&lt;br&gt;《经典模拟列车》将你的铁路爱好推上巅峰。学习驾驶官方授权的经典机车，行驶于世界各地细节详尽、与现实一致的铁路线上。这里是开启虚拟列车收藏之路的绝佳平台，所有铁道迷都能在这里找到属于他们自己的一片天地。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/Pegnitz_GIF.gif?t=1694178836" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;佩格尼茨山谷铁路&lt;/strong&gt;&lt;br&gt;巴伐利亚风景如画的乡村等你来探索！沿着德国非电气化铁路蜿蜒前行，沉醉于沿途森林山丘的景色，一切尽在《佩格尼茨山谷铁路：纽伦堡—拜罗伊特》。掌握德铁 612 型动车组独特的操控技巧，克服过弯带来的倾摆挑战，行驶于这条全长 93 千米的线路上。同时还有德铁摆式内燃 605 型城际快车（ICE-TD）、德铁 648 型等动车组，以及 19 个真实的车站等你来探索。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/Huddersfield_GIF.gif?t=1694178836" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;哈德斯菲尔德线&lt;/strong&gt;&lt;br&gt;在曼彻斯特维多利亚站和利兹站之间，铺设有一条全长 43 英里的哈德斯菲尔德线。这条线路是该地区最繁忙的线路之一，提供了横跨英格兰北部的本地和长途客运服务。驾驶 20 世纪 90 年代英国铁路私有化时代的列车，包括英铁 158 型动车组、142 型“步行者”动车组、47/8 型机车等，在这条线路上翻山越岭、跨过高架桥，穿过数条隧道。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/LIRR_GIF.gif?t=1694178836" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;长岛铁路&lt;/strong&gt;&lt;br&gt;美国最有历史意义和最具传奇色彩的通勤铁路——长岛铁路现已亮相，对细节处的不断打磨为这条线路带来了无与伦比的真实性。搭乘庞巴迪制造的 M7 型电力动车组，探索纽约市的三个标志性车站——位于曼哈顿的宾夕法尼亚车站、布鲁克林的大西洋总站和长岛市车站。&lt;br&gt;&lt;br&gt;&lt;strong&gt;学习&lt;/strong&gt;&lt;br&gt;走进模拟列车学园，踏上作为一名模拟列车司机的征途。无论是电力机车、内燃机车还是蒸汽机车，你都有机会学习驾驶这些享誉世界的优秀列车。&lt;br&gt;&lt;br&gt;&lt;strong&gt;驾驶&lt;/strong&gt;&lt;br&gt;驾驶多款逼真的机车。你可以从舒适的驾驶室里，通过完美再现真实列车操作的控制面板，掌控全局，包括机车引擎、上下乘客、安全系统和信号系统等等。&lt;br&gt;&lt;br&gt;&lt;strong&gt;收藏&lt;/strong&gt;&lt;br&gt;浏览 Steam 商店中丰富多彩的内容，挑选出心仪的线路、机车和车厢，为自己打造一套梦寐以求的“铁路阵容”吧。在上百件游戏附加内容中，你一定能找到你感兴趣的新内容，扩充自己的铁路收藏库。&lt;br&gt;&lt;br&gt;&lt;strong&gt;创建&lt;/strong&gt;&lt;br&gt;使用功能强大的模拟列车编辑器打造属于你的火车世界。在这里，你可以创造自己构想的铁路线并在 Steam 创意工坊与其他玩家分享；也可以在创意工坊中发布的上千个附加内容中进行挑选，找到你喜欢的那一款。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/TSC_Core_GIF.gif?t=1694697043" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;YOUR RAILWAY HOBBY&lt;/strong&gt;&lt;br&gt;《经典模拟列车》将你的铁路爱好推上巅峰。学习驾驶官方授权的经典机车，行驶于世界各地细节详尽、与现实一致的铁路线上。这里是开启虚拟列车收藏之路的绝佳平台，所有铁道迷都能在这里找到属于他们自己的一片天地。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/Pegnitz_GIF.gif?t=1694697043" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;佩格尼茨山谷铁路&lt;/strong&gt;&lt;br&gt;巴伐利亚风景如画的乡村等你来探索！沿着德国非电气化铁路蜿蜒前行，沉醉于沿途森林山丘的景色，一切尽在《佩格尼茨山谷铁路：纽伦堡—拜罗伊特》。掌握德铁 612 型动车组独特的操控技巧，克服过弯带来的倾摆挑战，行驶于这条全长 93 千米的线路上。同时还有德铁摆式内燃 605 型城际快车（ICE-TD）、德铁 648 型等动车组，以及 19 个真实的车站等你来探索。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/Huddersfield_GIF.gif?t=1694697043" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;哈德斯菲尔德线&lt;/strong&gt;&lt;br&gt;在曼彻斯特维多利亚站和利兹站之间，铺设有一条全长 43 英里的哈德斯菲尔德线。这条线路是该地区最繁忙的线路之一，提供了横跨英格兰北部的本地和长途客运服务。驾驶 20 世纪 90 年代英国铁路私有化时代的列车，包括英铁 158 型动车组、142 型“步行者”动车组、47/8 型机车等，在这条线路上翻山越岭、跨过高架桥，穿过数条隧道。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/LIRR_GIF.gif?t=1694697043" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;长岛铁路&lt;/strong&gt;&lt;br&gt;美国最有历史意义和最具传奇色彩的通勤铁路——长岛铁路现已亮相，对细节处的不断打磨为这条线路带来了无与伦比的真实性。搭乘庞巴迪制造的 M7 型电力动车组，探索纽约市的三个标志性车站——位于曼哈顿的宾夕法尼亚车站、布鲁克林的大西洋总站和长岛市车站。&lt;br&gt;&lt;br&gt;&lt;strong&gt;学习&lt;/strong&gt;&lt;br&gt;走进模拟列车学园，踏上作为一名模拟列车司机的征途。无论是电力机车、内燃机车还是蒸汽机车，你都有机会学习驾驶这些享誉世界的优秀列车。&lt;br&gt;&lt;br&gt;&lt;strong&gt;驾驶&lt;/strong&gt;&lt;br&gt;驾驶多款逼真的机车。你可以从舒适的驾驶室里，通过完美再现真实列车操作的控制面板，掌控全局，包括机车引擎、上下乘客、安全系统和信号系统等等。&lt;br&gt;&lt;br&gt;&lt;strong&gt;收藏&lt;/strong&gt;&lt;br&gt;浏览 Steam 商店中丰富多彩的内容，挑选出心仪的线路、机车和车厢，为自己打造一套梦寐以求的“铁路阵容”吧。在上百件游戏附加内容中，你一定能找到你感兴趣的新内容，扩充自己的铁路收藏库。&lt;br&gt;&lt;br&gt;&lt;strong&gt;创建&lt;/strong&gt;&lt;br&gt;使用功能强大的模拟列车编辑器打造属于你的火车世界。在这里，你可以创造自己构想的铁路线并在 Steam 创意工坊与其他玩家分享；也可以在创意工坊中发布的上千个附加内容中进行挑选，找到你喜欢的那一款。</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/203160/extras/TP_Fall_30_3.jpg?t=1693492421" /&gt;&lt;br&gt;&lt;br&gt;《古墓丽影》探索了劳拉·克劳馥紧张又勇敢的起源故事，以及她从年轻女人变为坚强生存者的成长过程。 单凭原始本能以及超越极限的人类耐力，劳拉必须奋力揭开被遗忘的岛屿的黑暗历史，以逃离小岛无情的控制。下载“转折点”预告片，观看劳拉史诗级的冒险的起源。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/203160/extras/TP_Fall_30_3.jpg?t=1694708409" /&gt;&lt;br&gt;&lt;br&gt;《古墓丽影》探索了劳拉·克劳馥紧张又勇敢的起源故事，以及她从年轻女人变为坚强生存者的成长过程。 单凭原始本能以及超越极限的人类耐力，劳拉必须奋力揭开被遗忘的岛屿的黑暗历史，以逃离小岛无情的控制。下载“转折点”预告片，观看劳拉史诗级的冒险的起源。</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/391220/extras/ROTTR_AimGreater_30.jpg?t=1675709098" /&gt;&lt;br&gt;《古墓丽影：崛起》20 周年纪念版包括基础游戏和以全新内容为特色的季票。您可以在全新的“血缘”故事中探索克劳馥庄园，并在“劳拉的梦魇”(Lara’s Nightmare) 中保护其免受僵尸入侵。在全新在线合作耐力模式的艰险困境中与您的朋友并肩前行，并勇敢挑战“极限生还者”难度。全新内容还包括一套灵感来自《古墓丽影 3》的装备和武器以及 5 套经典劳拉皮肤。在现有 DLC 中，您将能在《芭芭雅嘎：女巫神庙》中探索古老而恐怖的全新古墓，并与《暗冷觉醒》中大波受感染的僵尸进行战斗。&lt;br&gt;&lt;br&gt;&lt;strong&gt;主要特色：&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;劳拉的旅程 – 劳拉解开的古老谜题使他陷入了与邪恶组织“圣三一”的恶战。她要赶在“圣三一”之前找到秘密。线索指向了“失落之城基特”的传说。劳拉明白她必须在“圣三一”赶到前找到失落之城和它隐藏的秘密。因此，她出发前往西伯利亚，踏上了第一次古墓探险之旅。&lt;br&gt;&lt;/li&gt;&lt;li&gt;美女与荒野 – 在《古墓丽影：崛起》中，劳拉不仅要与世界各地的敌人对战，还要与世界本身的艰难险阻对抗。她要在物种密集的生态系统打猎以制造武器并寻觅稀有资源，还会遭遇极端恶劣的环境。为了在充满潜在危险的状况以及不稳定的地形中前进，劳拉需要将她的潜能发挥到极限。&lt;br&gt;&lt;/li&gt;&lt;li&gt;游击战 – 利用环境优势，攀登树木并潜入水底来躲避或打败敌人，配置劳拉的工具、武器和弹药以满足你从隐秘行动到枪林弹雨的作战风格，临时制作炸药来制造混乱，并支配劳拉标志性的作战弓箭和攀爬斧。&lt;br&gt;&lt;/li&gt;&lt;li&gt;回归盗墓生涯 – 古墓华丽回归，并且比以往更加气势磅礴。在《古墓丽影：崛起》中，你将探索遍布死亡陷阱的令人敬畏的古代空间，解开戏剧性的环境谜题，破译古代文字找出地窖，充满待解之谜的世界正等著你来涉足。&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/391220/extras/ROTTR_AimGreater_30.jpg?t=1694708481" /&gt;&lt;br&gt;《古墓丽影：崛起》20 周年纪念版包括基础游戏和以全新内容为特色的季票。您可以在全新的“血缘”故事中探索克劳馥庄园，并在“劳拉的梦魇”(Lara’s Nightmare) 中保护其免受僵尸入侵。在全新在线合作耐力模式的艰险困境中与您的朋友并肩前行，并勇敢挑战“极限生还者”难度。全新内容还包括一套灵感来自《古墓丽影 3》的装备和武器以及 5 套经典劳拉皮肤。在现有 DLC 中，您将能在《芭芭雅嘎：女巫神庙》中探索古老而恐怖的全新古墓，并与《暗冷觉醒》中大波受感染的僵尸进行战斗。&lt;br&gt;&lt;br&gt;&lt;strong&gt;主要特色：&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;劳拉的旅程 – 劳拉解开的古老谜题使他陷入了与邪恶组织“圣三一”的恶战。她要赶在“圣三一”之前找到秘密。线索指向了“失落之城基特”的传说。劳拉明白她必须在“圣三一”赶到前找到失落之城和它隐藏的秘密。因此，她出发前往西伯利亚，踏上了第一次古墓探险之旅。&lt;br&gt;&lt;/li&gt;&lt;li&gt;美女与荒野 – 在《古墓丽影：崛起》中，劳拉不仅要与世界各地的敌人对战，还要与世界本身的艰难险阻对抗。她要在物种密集的生态系统打猎以制造武器并寻觅稀有资源，还会遭遇极端恶劣的环境。为了在充满潜在危险的状况以及不稳定的地形中前进，劳拉需要将她的潜能发挥到极限。&lt;br&gt;&lt;/li&gt;&lt;li&gt;游击战 – 利用环境优势，攀登树木并潜入水底来躲避或打败敌人，配置劳拉的工具、武器和弹药以满足你从隐秘行动到枪林弹雨的作战风格，临时制作炸药来制造混乱，并支配劳拉标志性的作战弓箭和攀爬斧。&lt;br&gt;&lt;/li&gt;&lt;li&gt;回归盗墓生涯 – 古墓华丽回归，并且比以往更加气势磅礴。在《古墓丽影：崛起》中，你将探索遍布死亡陷阱的令人敬畏的古代空间，解开戏剧性的环境谜题，破译古代文字找出地窖，充满待解之谜的世界正等著你来涉足。&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/750920/extras/Shadow_DE_616X_Agnostic.jpg?t=1686769976" /&gt;&lt;br&gt;在《Shadow of the Tomb Raider：最终版》中，探索劳拉最初为何会注定成为古墓侠盗的最终章。《Shadow of the Tomb Raider：最终版》包括主游戏、全7个DLC古墓挑战，以及所有可下载武器、装束、技能，是跟随劳拉探索命运的最终完整体验。&lt;br&gt;&lt;br&gt;在世界上最致命的地点生存下来：征服残酷无情的丛林，并活着走出来。探索充满裂隙和幽深隧道的水下环境。&lt;br&gt;&lt;br&gt;与丛林合而为一：火力不足、以寡敌众的劳拉，必须充分利用丛林中的环境，像美洲豹一样迅猛出击、悄然而退，使用泥浆作为伪装手段，在敌人队伍中制造恐惧，播撒混乱。&lt;br&gt;&lt;br&gt;探索黑暗残忍的古墓：古墓变得比以往更加恐怖，需要细致谨慎的探索技术才能到达，还要以智慧破解杀机重重的谜题。&lt;br&gt;&lt;br&gt;揭露鲜活的历史：发现隐秘之城，探索系列作游戏中空前庞大的据点空间。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/750920/extras/SOTTR-Combat1-616x213_-_Copy.jpg?t=1686769976" /&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/750920/extras/Shadow_DE_616X_Agnostic.jpg?t=1694708551" /&gt;&lt;br&gt;在《Shadow of the Tomb Raider：最终版》中，探索劳拉最初为何会注定成为古墓侠盗的最终章。《Shadow of the Tomb Raider：最终版》包括主游戏、全7个DLC古墓挑战，以及所有可下载武器、装束、技能，是跟随劳拉探索命运的最终完整体验。&lt;br&gt;&lt;br&gt;在世界上最致命的地点生存下来：征服残酷无情的丛林，并活着走出来。探索充满裂隙和幽深隧道的水下环境。&lt;br&gt;&lt;br&gt;与丛林合而为一：火力不足、以寡敌众的劳拉，必须充分利用丛林中的环境，像美洲豹一样迅猛出击、悄然而退，使用泥浆作为伪装手段，在敌人队伍中制造恐惧，播撒混乱。&lt;br&gt;&lt;br&gt;探索黑暗残忍的古墓：古墓变得比以往更加恐怖，需要细致谨慎的探索技术才能到达，还要以智慧破解杀机重重的谜题。&lt;br&gt;&lt;br&gt;揭露鲜活的历史：发现隐秘之城，探索系列作游戏中空前庞大的据点空间。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/750920/extras/SOTTR-Combat1-616x213_-_Copy.jpg?t=1694708551" /&gt;</t>
         </is>
       </c>
     </row>
@@ -4200,7 +4200,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>开放世界,角色扮演,历史,动作,单人</t>
+          <t>开放世界,角色扮演,历史,单人,动作</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5334,7 +5334,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/30XX_Date_1.gif?t=1693214062" /&gt;&lt;br&gt;&lt;br&gt;30XX是一款带有Roguelike元素的横版动作游戏，在游戏中可选择不同的角色进行游戏，如果你是「洛克人」的粉丝，那么你也一定会喜欢上30XX!&lt;br&gt;&lt;br&gt;在一千年后醒来，你发现这个世界已经不再需要你，合成思维的出现改变了这个世界，而人类也已失去了崇高的理想。现在的世界郁郁葱葱，却已成为牢笼，去拯救这所剩无几的美好吧。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/Chinese_title-1.png?t=1693214062" /&gt;&lt;br&gt;在30XX里，你能感受到复古像素给你带来的视觉享受，复古的音乐及音效搭配你的每一次跳跃，都能让你找到小时候坐在电视机前的感觉！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/CHS-Fuguhuamian.jpg?t=1693214062" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/Chinese_tile-2.png?t=1693214062" /&gt;&lt;br&gt;随机的关卡、道具、装备、技能，让你每次在30XX的开局都是独一无二的体验！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/CHS-xintiyan.jpg?t=1693214062" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/Chinese_title-3.png?t=1693214062" /&gt;&lt;br&gt;在30XX里，你可以制作你喜欢的关卡！自定义你想要的地图，然后让你的好朋友，甚至是和全世界的玩家一起体验！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/CHS-Zidingyi.gif?t=1693214062" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/Chinese_title-4.png?t=1693214062" /&gt;&lt;br&gt;你除了可以享受单枪匹马探索的乐趣，也可以和朋友一起闯荡这个精彩的世界！有一些复杂和难对付的敌人，呼朋引伴是一个好选择~&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/30XX_Date_11.gif?t=1693214062" /&gt;&lt;h2 class="bb_tag"&gt;游戏特色：&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;令人熟悉的跳跃、攻击、探险，找回小时候的感觉！&lt;br&gt;&lt;/li&gt;&lt;li&gt;近战的艾斯，远程的妮娜，不同角色各显神通！&lt;br&gt;&lt;/li&gt;&lt;li&gt;每次开局都会变换的独特关卡、物品和力量，给你截然不同的感受！&lt;br&gt;&lt;/li&gt;&lt;li&gt;不喜欢Roguelike？三种游戏模式尽情挑选！&lt;br&gt;&lt;/li&gt;&lt;li&gt;自定义关卡！当然也可以游玩别人的关卡！&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持本地和在线多人游戏！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/30XX_Date_12.gif?t=1693214062" /&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/30XX_Date_1.gif?t=1694628055" /&gt;&lt;br&gt;&lt;br&gt;30XX是一款带有Roguelike元素的横版动作游戏，在游戏中可选择不同的角色进行游戏，如果你是「洛克人」的粉丝，那么你也一定会喜欢上30XX!&lt;br&gt;&lt;br&gt;在一千年后醒来，你发现这个世界已经不再需要你，合成思维的出现改变了这个世界，而人类也已失去了崇高的理想。现在的世界郁郁葱葱，却已成为牢笼，去拯救这所剩无几的美好吧。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/Chinese_title-1.png?t=1694628055" /&gt;&lt;br&gt;在30XX里，你能感受到复古像素给你带来的视觉享受，复古的音乐及音效搭配你的每一次跳跃，都能让你找到小时候坐在电视机前的感觉！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/CHS-Fuguhuamian.jpg?t=1694628055" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/Chinese_tile-2.png?t=1694628055" /&gt;&lt;br&gt;随机的关卡、道具、装备、技能，让你每次在30XX的开局都是独一无二的体验！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/CHS-xintiyan.jpg?t=1694628055" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/Chinese_title-3.png?t=1694628055" /&gt;&lt;br&gt;在30XX里，你可以制作你喜欢的关卡！自定义你想要的地图，然后让你的好朋友，甚至是和全世界的玩家一起体验！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/CHS-Zidingyi.gif?t=1694628055" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/Chinese_title-4.png?t=1694628055" /&gt;&lt;br&gt;你除了可以享受单枪匹马探索的乐趣，也可以和朋友一起闯荡这个精彩的世界！有一些复杂和难对付的敌人，呼朋引伴是一个好选择~&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/30XX_Date_11.gif?t=1694628055" /&gt;&lt;h2 class="bb_tag"&gt;游戏特色：&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;令人熟悉的跳跃、攻击、探险，找回小时候的感觉！&lt;br&gt;&lt;/li&gt;&lt;li&gt;近战的艾斯，远程的妮娜，不同角色各显神通！&lt;br&gt;&lt;/li&gt;&lt;li&gt;每次开局都会变换的独特关卡、物品和力量，给你截然不同的感受！&lt;br&gt;&lt;/li&gt;&lt;li&gt;不喜欢Roguelike？三种游戏模式尽情挑选！&lt;br&gt;&lt;/li&gt;&lt;li&gt;自定义关卡！当然也可以游玩别人的关卡！&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持本地和在线多人游戏！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1029210/extras/30XX_Date_12.gif?t=1694628055" /&gt;</t>
         </is>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;《Definitely Not Fried Chicken》-“&lt;i&gt;满足你的一切合法虚假经营渴望！&lt;/i&gt;”&lt;/h2&gt;《Definitely Not Fried Chicken》是有点不一样的经营管理模拟！&lt;br&gt;经由管理业务的两面，透过合法渠道扩大自己的药品贸易。获得新的“业务”、结识新的客户、开发更强的麻醉品、赚很多很多的钱，然后离开化为废墟的城市！&lt;br&gt;游戏背景设定于繁荣的二十世纪八十年代，阳光普照下的一座城市，在《DNFC》，你的创业者业务技能将会得到检验。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Different_Drugs_Gif.gif?t=1694612751" /&gt;&lt;br&gt;&lt;br&gt;从头开始，建造你自己的毒品工厂，购买临近的土地扩大规模。设计和布置完整的生产线，建立分销线路。为自己的工厂巩固防御，确保&lt;i&gt;“过度热情”&lt;/i&gt;的客户无法闯入。研究和开发更好的麻醉品，如大麻、可卡因和甲基苯丙胺等。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Construction_Chicken_Shop_-_To_Be_Sped_Up_B_.gif?t=1694612751" /&gt;&lt;br&gt;&lt;br&gt;简单制作伟大的产品并不足够，你需要有将它销售出去的地方！这就是你的合法企业出面的地方了 – 你需要建造和管理这些“门面”，包括销售合法的商品以避免搜查 – 人总得吃饭的，对吧？开一连串炸鸡连锁店，或者用别的业务将自己的资产组合多样化。不同的地方，有着不同的人，有着不同的&lt;i&gt;口味&lt;/i&gt;。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Capture1.PNG?t=1694612751" /&gt;&lt;br&gt;&lt;br&gt;所有经营的支柱是劳动力 – 也就是那些不知疲倦、拿着最低的工资替你进行你分配的任务的人。快乐的员工富有生产力，所以务必要让你的手下拥有盥洗室和吃饭地点等基础必需品。妥善装修的休息室则有助于提升员工士气！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Snooker.gif?t=1694612751" /&gt;&lt;br&gt;&lt;br&gt;而安全设备在员工营业额/士气方面颇有帮助...&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/DeathSuffocate5.gif?t=1694612751" /&gt;&lt;h2 class="bb_tag"&gt;重点要素&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;从零开始，打造自己的毒品帝国，将大麻、可卡因、冰毒和其他“商品”分销开去&lt;br&gt;&lt;/li&gt;&lt;li&gt;平衡各种麻烦工作，管理非法毒品买卖和“合法”经营。&lt;br&gt;&lt;/li&gt;&lt;li&gt;建立和定制自己的毒品工厂和经营“门面”。&lt;br&gt;&lt;/li&gt;&lt;li&gt;升级设施和员工设备，获得更好的产品，赚取更高额的利润&lt;br&gt;&lt;/li&gt;&lt;li&gt;设计自己的帝国，从炸鸡店到自助洗衣店和夜总会&lt;br&gt;&lt;/li&gt;&lt;li&gt;管理手下劳力，雇佣和开除，提供所需住宿，满足员工需求，让他们更加好地完成工作。&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;h2 class="bb_tag"&gt;《Definitely Not Fried Chicken》-“&lt;i&gt;满足你的一切合法虚假经营渴望！&lt;/i&gt;”&lt;/h2&gt;《Definitely Not Fried Chicken》是有点不一样的经营管理模拟！&lt;br&gt;经由管理业务的两面，透过合法渠道扩大自己的药品贸易。获得新的“业务”、结识新的客户、开发更强的麻醉品、赚很多很多的钱，然后离开化为废墟的城市！&lt;br&gt;游戏背景设定于繁荣的二十世纪八十年代，阳光普照下的一座城市，在《DNFC》，你的创业者业务技能将会得到检验。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Different_Drugs_Gif.gif?t=1694613044" /&gt;&lt;br&gt;&lt;br&gt;从头开始，建造你自己的毒品工厂，购买临近的土地扩大规模。设计和布置完整的生产线，建立分销线路。为自己的工厂巩固防御，确保&lt;i&gt;“过度热情”&lt;/i&gt;的客户无法闯入。研究和开发更好的麻醉品，如大麻、可卡因和甲基苯丙胺等。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Construction_Chicken_Shop_-_To_Be_Sped_Up_B_.gif?t=1694613044" /&gt;&lt;br&gt;&lt;br&gt;简单制作伟大的产品并不足够，你需要有将它销售出去的地方！这就是你的合法企业出面的地方了 – 你需要建造和管理这些“门面”，包括销售合法的商品以避免搜查 – 人总得吃饭的，对吧？开一连串炸鸡连锁店，或者用别的业务将自己的资产组合多样化。不同的地方，有着不同的人，有着不同的&lt;i&gt;口味&lt;/i&gt;。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Capture1.PNG?t=1694613044" /&gt;&lt;br&gt;&lt;br&gt;所有经营的支柱是劳动力 – 也就是那些不知疲倦、拿着最低的工资替你进行你分配的任务的人。快乐的员工富有生产力，所以务必要让你的手下拥有盥洗室和吃饭地点等基础必需品。妥善装修的休息室则有助于提升员工士气！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Snooker.gif?t=1694613044" /&gt;&lt;br&gt;&lt;br&gt;而安全设备在员工营业额/士气方面颇有帮助...&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/DeathSuffocate5.gif?t=1694613044" /&gt;&lt;h2 class="bb_tag"&gt;重点要素&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;从零开始，打造自己的毒品帝国，将大麻、可卡因、冰毒和其他“商品”分销开去&lt;br&gt;&lt;/li&gt;&lt;li&gt;平衡各种麻烦工作，管理非法毒品买卖和“合法”经营。&lt;br&gt;&lt;/li&gt;&lt;li&gt;建立和定制自己的毒品工厂和经营“门面”。&lt;br&gt;&lt;/li&gt;&lt;li&gt;升级设施和员工设备，获得更好的产品，赚取更高额的利润&lt;br&gt;&lt;/li&gt;&lt;li&gt;设计自己的帝国，从炸鸡店到自助洗衣店和夜总会&lt;br&gt;&lt;/li&gt;&lt;li&gt;管理手下劳力，雇佣和开除，提供所需住宿，满足员工需求，让他们更加好地完成工作。&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
@@ -5899,7 +5899,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -6609,7 +6609,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>选择取向,单人,爱情,等角视角,黑暗奇幻</t>
+          <t>选择取向,单人,等角视角,爱情,黑暗奇幻</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7291,7 +7291,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -7375,7 +7375,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>7.8</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -7636,7 +7636,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>类魂系列,动作,冒险,角色扮演,第三人称射击</t>
+          <t>类魂系列,动作,冒险,角色扮演,黑暗</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -9159,7 +9159,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -9683,7 +9683,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>指挥你的拖网渔船去探索一系列偏远的岛屿及其周遭深海，查看底下到底潜藏着什么。将你的渔获卖给当地人并完成任务，以更多的了解每个地区动荡的过去。为你的船只配备更好的设备，以便在深海海沟中撒网捕捞并航向遥远的大陆，但要留意时间。你可能并不喜欢哪些在黑暗中潜藏的东西……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1562430/extras/Fishing.gif?t=1692960403" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;探索岛屿并发掘其中的秘密&lt;/strong&gt;&lt;/h2&gt;从你在偏远群岛的新家“Marrows”出发，下水搜寻古怪的藏品以及超过125种深海生物。在完成任务和拜访附近岛屿时探索各个区域——每个岛屿都有自己独特的机遇、居民与秘密。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1562430/extras/Areas.gif?t=1692960403" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;挖掘深处&lt;/strong&gt;&lt;/h2&gt;有人想让你挖掘过去埋藏的事情，但他们可信吗？一切都能就此打住吗？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1562430/extras/Dredging.gif?t=1692960403" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;小心迷雾&lt;/strong&gt;&lt;/h2&gt;危险无处不在，要小心尖锐的岩石和浅滩暗礁，不过最大的威胁潜藏在夜晚笼罩大海的迷雾中……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1562430/extras/Monsters.gif?t=1692960403" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;游戏特色&lt;/strong&gt;&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 解开谜团：指挥你的拖网渔船穿越一系列偏远的岛屿，每个岛屿都有需要被满足的居民，有待发现的野生动物和有待发掘的故事&lt;br&gt;&lt;/li&gt;&lt;li&gt; 挖掘深处：在海洋中搜寻隐藏的宝藏，完成任务以获得奇异的新能力。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 研究你的船只：研究特殊设备和升级你的船只能力，以获得稀有的鱼类和珍贵的深海奇珍。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 捕鱼求生：将你的发现卖给当地人，以更多地了解每个地区，升级你的船只，以到达更隐蔽的地方。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 与深不可测的事物作斗争：坚定信念，利用你的能力在夜幕笼罩的水上航行中生存下来。&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>指挥你的拖网渔船去探索一系列偏远的岛屿及其周遭深海，查看底下到底潜藏着什么。将你的渔获卖给当地人并完成任务，以更多的了解每个地区动荡的过去。为你的船只配备更好的设备，以便在深海海沟中撒网捕捞并航向遥远的大陆，但要留意时间。你可能并不喜欢哪些在黑暗中潜藏的东西……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1562430/extras/Fishing.gif?t=1694607608" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;探索岛屿并发掘其中的秘密&lt;/strong&gt;&lt;/h2&gt;从你在偏远群岛的新家“Marrows”出发，下水搜寻古怪的藏品以及超过125种深海生物。在完成任务和拜访附近岛屿时探索各个区域——每个岛屿都有自己独特的机遇、居民与秘密。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1562430/extras/Areas.gif?t=1694607608" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;挖掘深处&lt;/strong&gt;&lt;/h2&gt;有人想让你挖掘过去埋藏的事情，但他们可信吗？一切都能就此打住吗？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1562430/extras/Dredging.gif?t=1694607608" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;小心迷雾&lt;/strong&gt;&lt;/h2&gt;危险无处不在，要小心尖锐的岩石和浅滩暗礁，不过最大的威胁潜藏在夜晚笼罩大海的迷雾中……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1562430/extras/Monsters.gif?t=1694607608" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;游戏特色&lt;/strong&gt;&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 解开谜团：指挥你的拖网渔船穿越一系列偏远的岛屿，每个岛屿都有需要被满足的居民，有待发现的野生动物和有待发掘的故事&lt;br&gt;&lt;/li&gt;&lt;li&gt; 挖掘深处：在海洋中搜寻隐藏的宝藏，完成任务以获得奇异的新能力。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 研究你的船只：研究特殊设备和升级你的船只能力，以获得稀有的鱼类和珍贵的深海奇珍。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 捕鱼求生：将你的发现卖给当地人，以更多地了解每个地区，升级你的船只，以到达更隐蔽的地方。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 与深不可测的事物作斗争：坚定信念，利用你的能力在夜幕笼罩的水上航行中生存下来。&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
@@ -10687,7 +10687,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>抢先体验,开放世界,沙盒,角色扮演,生存</t>
+          <t>抢先体验,开放世界,沙盒,角色扮演,武术</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -10707,7 +10707,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>官方QQ群号：&lt;br&gt;官方QQ③群：717298872&lt;br&gt;官方QQ④群：757371350&lt;br&gt;官方QQ⑤群：703542977&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;这是一款基于武侠、江湖背景为基础的&lt;strong&gt; &lt;u&gt;开放沙盒类非传统武侠 RPG游戏&lt;/u&gt;&lt;/strong&gt;，你可以在这个大荒世界之中，扮演你所幻想的任何武侠角色，这里没有任何阻挡你幻想的老套剧情，你所演绎的武侠人生就是这个你的游戏剧情。你可以作为一名江湖小虾米游历大荒，你也可以成为一派掌门引领四方，你亦可以成为一名看不惯这江湖的浪子我行我素。最重要的是，请一切遵从于你的内心而为，并且活着！&lt;br&gt;&lt;br&gt;(1)玩家可以从零开始扩展自己的小世界，也可以通过创建小世界生成随机大小的初始世界。每个区域都有独特的环境、资源、生物以及势力。 在熟悉了游戏基本操作之后，您便可以直接生成环境属性各异的、已经包含一定数量地块的世界进行体验和历练，并且可以控制不同的“我”往来穿梭于各个世界开启别样人生！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/kf1.gif?t=1694516704" /&gt;&lt;br&gt;&lt;br&gt;(2)新颖的单回合战斗方式，通过收集不同的绝学搭配创建自己的招式库，战斗中拖动连接不同的招式激活绝学，利用招式克制和绝学套路，体现武侠战斗的策略性。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF2.gif?t=1694516704" /&gt;&lt;br&gt;&lt;br&gt;(3)独创的经脉系统，将人体经脉的运转进行了简化概念设计，玩家可以体验到不同的运功路线激活不同内功的拟真感受，简洁却富有策略玩法的设计给玩家提供了搭配和激活多种内功的玩法。同时经脉系统也结合了武侠小说中各种身体机能的具象表现，角色的生命力、内伤、隐疾、蛊、生死符、残疾、瞎眼等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF3.gif?t=1694516704" /&gt;&lt;br&gt;&lt;br&gt;(4)游戏还包含了自由的建造模式，玩家可以打造自己的民居、酒馆、温泉、马厩、大殿、监牢等等，每种建筑都有独特的功能。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF4.gif?t=1694516704" /&gt;&lt;br&gt;&lt;br&gt;(5)潜行玩法，可以通过训练潜行能力，配合独特的内功，夜晚穿上夜行衣，如人无人之境。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF5.gif?t=1694516704" /&gt;&lt;br&gt;&lt;br&gt;(6)训练轻功、跳跃、潜水、攀爬，无论高山深海都可闲庭信步。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF6.gif?t=1694516704" /&gt;&lt;br&gt;&lt;br&gt;(7)通过自定义天命、出身、容貌、血脉，打造独属于自己的角色。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF7.gif?t=1694516704" /&gt;&lt;br&gt;&lt;br&gt;(8)非线性剧情，游戏中每个NPC都会根据自己的行为、身份、名声、关系、态度等等在世界中生存，玩家的每次游戏都会与他们发生不同的剧情。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF8.gif?t=1694516704" /&gt;&lt;br&gt;&lt;br&gt;(9)丰富的交互内容&lt;br&gt;可以把敌人的建筑引燃&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF9.gif?t=1694516704" /&gt;&lt;br&gt;&lt;br&gt;可以邀请NPC喝酒，灌醉后搜刮物品&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF10.gif?t=1694516704" /&gt;&lt;br&gt;&lt;br&gt;可以驯化各种动物，每种动物都有各自独特的功能，例如猴子可以乞讨、马可以乘骑和改装马车、蛇可以下毒等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF11.gif?t=1694516704" /&gt;&lt;br&gt;&lt;br&gt;玩家可以创建自己门派，招募弟子，发布命令，参加武林大会。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF12.gif?t=1694516704" /&gt;&lt;br&gt;&lt;br&gt;丰富的交互内容·玩家可以布置陷阱，抓捕动物或敌人。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF13.gif?t=1694516704" /&gt;&lt;br&gt;&lt;br&gt;建立门派，发布命令&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF15.gif?t=1694516704" /&gt;&lt;br&gt;&lt;br&gt;建立牢笼，关押敌人&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF16.gif?t=1694516704" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;———————————————————————————————————————&lt;br&gt;来自幻魔寺的寄语：&lt;br&gt;我们坚守本心，完全独立开发，只做大家觉得好玩的游戏，这款游戏的世界目前仍然只是一个雏形，我们深知它会不断壮大，并且成为未来我们一切游戏的基石，我们会为此不断努力，带给大家一个绝妙的幻想世界！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/respect.png?t=1694516704" /&gt;</t>
+          <t>官方QQ群号：&lt;br&gt;官方QQ④群：757371350&lt;br&gt;官方QQ⑧群：920151793&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;这是一款基于武侠、江湖背景为基础的&lt;strong&gt; &lt;u&gt;开放沙盒类非传统武侠 RPG游戏&lt;/u&gt;&lt;/strong&gt;，你可以在这个大荒世界之中，扮演你所幻想的任何武侠角色，这里没有任何阻挡你幻想的老套剧情，你所演绎的武侠人生就是这个你的游戏剧情。你可以作为一名江湖小虾米游历大荒，你也可以成为一派掌门引领四方，你亦可以成为一名看不惯这江湖的浪子我行我素。最重要的是，请一切遵从于你的内心而为，并且活着！&lt;br&gt;&lt;br&gt;(1)玩家可以从零开始扩展自己的小世界，也可以通过创建小世界生成随机大小的初始世界。每个区域都有独特的环境、资源、生物以及势力。 在熟悉了游戏基本操作之后，您便可以直接生成环境属性各异的、已经包含一定数量地块的世界进行体验和历练，并且可以控制不同的“我”往来穿梭于各个世界开启别样人生！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/kf1.gif?t=1694704292" /&gt;&lt;br&gt;&lt;br&gt;(2)新颖的单回合战斗方式，通过收集不同的绝学搭配创建自己的招式库，战斗中拖动连接不同的招式激活绝学，利用招式克制和绝学套路，体现武侠战斗的策略性。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF2.gif?t=1694704292" /&gt;&lt;br&gt;&lt;br&gt;(3)独创的经脉系统，将人体经脉的运转进行了简化概念设计，玩家可以体验到不同的运功路线激活不同内功的拟真感受，简洁却富有策略玩法的设计给玩家提供了搭配和激活多种内功的玩法。同时经脉系统也结合了武侠小说中各种身体机能的具象表现，角色的生命力、内伤、隐疾、蛊、生死符、残疾、瞎眼等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF3.gif?t=1694704292" /&gt;&lt;br&gt;&lt;br&gt;(4)游戏还包含了自由的建造模式，玩家可以打造自己的民居、酒馆、温泉、马厩、大殿、监牢等等，每种建筑都有独特的功能。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF4.gif?t=1694704292" /&gt;&lt;br&gt;&lt;br&gt;(5)潜行玩法，可以通过训练潜行能力，配合独特的内功，夜晚穿上夜行衣，如人无人之境。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF5.gif?t=1694704292" /&gt;&lt;br&gt;&lt;br&gt;(6)训练轻功、跳跃、潜水、攀爬，无论高山深海都可闲庭信步。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF6.gif?t=1694704292" /&gt;&lt;br&gt;&lt;br&gt;(7)通过自定义天命、出身、容貌、血脉，打造独属于自己的角色。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF7.gif?t=1694704292" /&gt;&lt;br&gt;&lt;br&gt;(8)非线性剧情，游戏中每个NPC都会根据自己的行为、身份、名声、关系、态度等等在世界中生存，玩家的每次游戏都会与他们发生不同的剧情。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF8.gif?t=1694704292" /&gt;&lt;br&gt;&lt;br&gt;(9)丰富的交互内容&lt;br&gt;可以把敌人的建筑引燃&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF9.gif?t=1694704292" /&gt;&lt;br&gt;&lt;br&gt;可以邀请NPC喝酒，灌醉后搜刮物品&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF10.gif?t=1694704292" /&gt;&lt;br&gt;&lt;br&gt;可以驯化各种动物，每种动物都有各自独特的功能，例如猴子可以乞讨、马可以乘骑和改装马车、蛇可以下毒等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF11.gif?t=1694704292" /&gt;&lt;br&gt;&lt;br&gt;玩家可以创建自己门派，招募弟子，发布命令，参加武林大会。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF12.gif?t=1694704292" /&gt;&lt;br&gt;&lt;br&gt;丰富的交互内容·玩家可以布置陷阱，抓捕动物或敌人。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF13.gif?t=1694704292" /&gt;&lt;br&gt;&lt;br&gt;建立门派，发布命令&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF15.gif?t=1694704292" /&gt;&lt;br&gt;&lt;br&gt;建立牢笼，关押敌人&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF16.gif?t=1694704292" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;———————————————————————————————————————&lt;br&gt;来自幻魔寺的寄语：&lt;br&gt;我们坚守本心，完全独立开发，只做大家觉得好玩的游戏，这款游戏的世界目前仍然只是一个雏形，我们深知它会不断壮大，并且成为未来我们一切游戏的基石，我们会为此不断努力，带给大家一个绝妙的幻想世界！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/respect.png?t=1694704292" /&gt;</t>
         </is>
       </c>
     </row>
@@ -11008,7 +11008,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>《Starfield》出自打造过《Starfield》是由载誉无数、曾为大家带来《The Elder Scrolls V: Skyrim》和《Fallout 4》的Bethesda Game Studios睽违超过25年所打造的第一个全新宇宙。这款新一代角色扮演游戏将背景设定在茫茫宇宙。在这里，你可以创建任意角色，探索世界并体验前所未有的自由。踏上这趟史诗般的旅程，发掘人类文明的终极奥秘。&lt;br&gt;&lt;br&gt;2330年，人类已跨出我们所在的太阳系，在新的星球上定居下来，太空旅行也已成为人类的日常。在这款Bethesda Game Studios迄今为止最宏大的游戏里，你将加入群星组织这个在星系中寻找稀有神器的太空探险者团体，展开探索广袤宇宙的旅程。&lt;h2 class="bb_tag"&gt;传颂你的故事&lt;/h2&gt;在《Starfield》中，最重要的故事将由你亲自通过你的角色述说。自定义外观并决定背景和特征，启航展开属于你的星际之旅。你会是经验老道的探险家、充满魅力的外交官、诡密的电子情报贩，或是独树一帜的人物？选择权都在你手上。由你决定想要打造什么样的角色，有什么样的发展。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/TellYourStory_v3.gif?t=1694620799" /&gt;&lt;h2 class="bb_tag"&gt;探索外太空&lt;/h2&gt;在群星间冒险，探索超过一千个行星。造访繁华的都市、探索充满危险的基地，以及穿越荒野的风景。认识令人难忘的角色并加以招募、参与各种阵营的冒险，在定居星系群中到处展开任务。随时都有新的故事或体验等你来发掘。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/ExploreSpace_v3.gif?t=1694620799" /&gt;&lt;h2 class="bb_tag"&gt;指挥你梦想中的飞船&lt;/h2&gt;驾驶及指挥你梦想中的飞船。打造属于自己的飞船外观、改造武器和护盾等重要系统，以及分配船员为你提供独特加成。在深远的太空中，你将遭遇高风险的近距空战、随机任务、在星际站停驻，甚至登上并夺取敌人的飞船，为自己增添收藏品。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/CaptainShip_v3.gif?t=1694620799" /&gt;&lt;h2 class="bb_tag"&gt;发掘、收集、打造&lt;/h2&gt;探索行星并发掘各种动植物，以及制作药物、食物、装备和武器所需的各种资源。建造哨站并雇用工作人员自动获得材料，并建立货运链接以在哨站间运送资源。将这些原材料投注在研究项目中以解锁独特的制造配方。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/DiscoverCollectBuild_v3.gif?t=1694620799" /&gt;&lt;h2 class="bb_tag"&gt;武器上膛&lt;/h2&gt;宇宙中危机四伏。精细的战斗系统为你提供处理各种状况的工具。无论你喜欢长射程步枪、激光武器或炸药，每种武器皆可改装以符合你的游戏风格。零重力环境为战斗增添了混乱的华丽场面，飞行背包则为玩家带来前所未有的自由机动性。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/LockandLoad_v3.gif?t=1694620799" /&gt;</t>
+          <t>《Starfield》出自打造过《Starfield》是由载誉无数、曾为大家带来《The Elder Scrolls V: Skyrim》和《Fallout 4》的Bethesda Game Studios睽违超过25年所打造的第一个全新宇宙。这款新一代角色扮演游戏将背景设定在茫茫宇宙。在这里，你可以创建任意角色，探索世界并体验前所未有的自由。踏上这趟史诗般的旅程，发掘人类文明的终极奥秘。&lt;br&gt;&lt;br&gt;2330年，人类已跨出我们所在的太阳系，在新的星球上定居下来，太空旅行也已成为人类的日常。在这款Bethesda Game Studios迄今为止最宏大的游戏里，你将加入群星组织这个在星系中寻找稀有神器的太空探险者团体，展开探索广袤宇宙的旅程。&lt;h2 class="bb_tag"&gt;传颂你的故事&lt;/h2&gt;在《Starfield》中，最重要的故事将由你亲自通过你的角色述说。自定义外观并决定背景和特征，启航展开属于你的星际之旅。你会是经验老道的探险家、充满魅力的外交官、诡密的电子情报贩，或是独树一帜的人物？选择权都在你手上。由你决定想要打造什么样的角色，有什么样的发展。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/TellYourStory_v3.gif?t=1694642945" /&gt;&lt;h2 class="bb_tag"&gt;探索外太空&lt;/h2&gt;在群星间冒险，探索超过一千个行星。造访繁华的都市、探索充满危险的基地，以及穿越荒野的风景。认识令人难忘的角色并加以招募、参与各种阵营的冒险，在定居星系群中到处展开任务。随时都有新的故事或体验等你来发掘。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/ExploreSpace_v3.gif?t=1694642945" /&gt;&lt;h2 class="bb_tag"&gt;指挥你梦想中的飞船&lt;/h2&gt;驾驶及指挥你梦想中的飞船。打造属于自己的飞船外观、改造武器和护盾等重要系统，以及分配船员为你提供独特加成。在深远的太空中，你将遭遇高风险的近距空战、随机任务、在星际站停驻，甚至登上并夺取敌人的飞船，为自己增添收藏品。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/CaptainShip_v3.gif?t=1694642945" /&gt;&lt;h2 class="bb_tag"&gt;发掘、收集、打造&lt;/h2&gt;探索行星并发掘各种动植物，以及制作药物、食物、装备和武器所需的各种资源。建造哨站并雇用工作人员自动获得材料，并建立货运链接以在哨站间运送资源。将这些原材料投注在研究项目中以解锁独特的制造配方。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/DiscoverCollectBuild_v3.gif?t=1694642945" /&gt;&lt;h2 class="bb_tag"&gt;武器上膛&lt;/h2&gt;宇宙中危机四伏。精细的战斗系统为你提供处理各种状况的工具。无论你喜欢长射程步枪、激光武器或炸药，每种武器皆可改装以符合你的游戏风格。零重力环境为战斗增添了混乱的华丽场面，飞行背包则为玩家带来前所未有的自由机动性。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/LockandLoad_v3.gif?t=1694642945" /&gt;</t>
         </is>
       </c>
     </row>
@@ -11642,7 +11642,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/SpiritfallWechat__1_.png?t=1693238052" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/Brawling_zh.png?t=1693238052" /&gt;&lt;br&gt;&lt;strong&gt;《Spiritfall》&lt;/strong&gt; 将劈砍和斩杀战斗、灵活的平台打斗和 Rogue-lite 机制合为一体！&lt;br&gt;穿越危险的地区，在随机生成的地图中施放致命的连击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/Synergies_zh.png?t=1693238052" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/GIFDivineSynergies.gif?t=1693238052" /&gt;&lt;br&gt;神圣精灵会提供强大的祝福，增强你的战斗技能，探索你最喜欢的技能，并尝试构建独特的能力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/Stronger_zh.png?t=1693238052" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/GIFGrowStronger.gif?t=1693238052" /&gt;&lt;br&gt;死亡只是暂时的挫折，在圣殿重新醒来后，你会比以前更强大，可以继续冒险。使用收集的资源来升级你的技能，解锁独特的魔法坠饰并装备强大的武器。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/Characters_zh.png?t=1693238052" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/Characters.gif?t=1693238052" /&gt;&lt;br&gt;你可能会在旅程中遇到各个 NPC，其中有些甚至会回到圣殿帮助你完成任务。其他的就不一定那么友好了……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/Community_zh.png?t=1693238052" /&gt;&lt;br&gt;我们会根据玩家的反馈意见对游戏进行打磨和改进，定期添加新的内容和功能！加入我们的 Discord 服务器或新闻简报，关注游戏的开发过程。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/SpiritfallWechat__1_.png?t=1694675777" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/Brawling_zh.png?t=1694675777" /&gt;&lt;br&gt;&lt;strong&gt;《Spiritfall》&lt;/strong&gt; 将劈砍和斩杀战斗、灵活的平台打斗和 Rogue-lite 机制合为一体！&lt;br&gt;穿越危险的地区，在随机生成的地图中施放致命的连击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/Synergies_zh.png?t=1694675777" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/GIFDivineSynergies.gif?t=1694675777" /&gt;&lt;br&gt;神圣精灵会提供强大的祝福，增强你的战斗技能，探索你最喜欢的技能，并尝试构建独特的能力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/Stronger_zh.png?t=1694675777" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/GIFGrowStronger.gif?t=1694675777" /&gt;&lt;br&gt;死亡只是暂时的挫折，在圣殿重新醒来后，你会比以前更强大，可以继续冒险。使用收集的资源来升级你的技能，解锁独特的魔法坠饰并装备强大的武器。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/Characters_zh.png?t=1694675777" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/Characters.gif?t=1694675777" /&gt;&lt;br&gt;你可能会在旅程中遇到各个 NPC，其中有些甚至会回到圣殿帮助你完成任务。其他的就不一定那么友好了……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1835240/extras/Community_zh.png?t=1694675777" /&gt;&lt;br&gt;我们会根据玩家的反馈意见对游戏进行打磨和改进，定期添加新的内容和功能！加入我们的 Discord 服务器或新闻简报，关注游戏的开发过程。</t>
         </is>
       </c>
     </row>
@@ -12356,7 +12356,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -13858,7 +13858,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
@@ -14007,7 +14007,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>BACKROOMS: APPREHENSION is a terrifying and immersive multiplayer horror experience with social deduction elements.&lt;br&gt;&lt;br&gt;Nine players take on the roles of the Scientists stuck in the Backrooms, to survive they must scavenge for supplies and weapons while the tenth player hunts them down as a shape-shifting entity known as the Skin Stealer!&lt;br&gt;&lt;br&gt;SURVIVE AS A SCIENTIST&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2234150/extras/HumanGIF.gif?t=1694518799" /&gt;&lt;br&gt;As a Scientist you must scavenge for supplies, mantain your sanity and find a weapon to defend yourself against a monster that could be any of your fellow teammates.&lt;br&gt;Be very careful, trusting the wrong person could get you killed!&lt;br&gt;&lt;br&gt;TERRORIZE AS THE SKIN STEALER&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2234150/extras/SkinstealerGIF.gif?t=1694518799" /&gt;&lt;br&gt;As the Skin Stealer you start weak but your ability to impersonate the Scientists is a weapon, the more you kill the stronger you get.&lt;br&gt;Use your claws or manipulative tactics to eliminate the Scientists one by one.</t>
+          <t>BACKROOMS: APPREHENSION is a terrifying and immersive multiplayer horror experience with social deduction elements.&lt;br&gt;&lt;br&gt;Nine players take on the roles of the Scientists stuck in the Backrooms, to survive they must scavenge for supplies and weapons while the tenth player hunts them down as a shape-shifting entity known as the Skin Stealer!&lt;br&gt;&lt;br&gt;SURVIVE AS A SCIENTIST&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2234150/extras/HumanGIF.gif?t=1694624310" /&gt;&lt;br&gt;As a Scientist you must scavenge for supplies, mantain your sanity and find a weapon to defend yourself against a monster that could be any of your fellow teammates.&lt;br&gt;Be very careful, trusting the wrong person could get you killed!&lt;br&gt;&lt;br&gt;TERRORIZE AS THE SKIN STEALER&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2234150/extras/SkinstealerGIF.gif?t=1694624310" /&gt;&lt;br&gt;As the Skin Stealer you start weak but your ability to impersonate the Scientists is a weapon, the more you kill the stronger you get.&lt;br&gt;Use your claws or manipulative tactics to eliminate the Scientists one by one.</t>
         </is>
       </c>
     </row>
@@ -14192,7 +14192,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -14202,7 +14202,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>欢迎关注我们的官方社群:&lt;br&gt;《盖娅迷航》玩家QQ群: 699632445&lt;br&gt;游戏便当QQ群①：287356527【已满】&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569【已满】&lt;br&gt;游戏便当QQ群④：909356067&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/1.png?t=1693657142" /&gt;&lt;br&gt;&lt;br&gt;控制你的飞船与别的星球进行“友好交流”。探索陌生的星球，收集并加工种类丰富的资源，在受损的飞船上建设你的家园，打造千奇百怪的怪兽为你而战，最终吞噬其他星球意志以修复自身。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z1.png?t=1693657142" /&gt;&lt;br&gt;宇宙中已发现存在7种独具特色的种族，共计50+极具个性化能力的个体。然而这些不过是更高级存在——星球意志的桌上玩物，随意拿取两种个体进行融合即可产生全新个体，共计400+融合个体等你创造！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/1融合.gif?t=1693657142" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z2.png?t=1693657142" /&gt;&lt;br&gt;各个种族根据自身的生物特性发展出了属于自身的独特文明，光合族由种子生根发芽，奇美拉族通过交配繁衍，洞虫族以虫后为绝对中心，奥托玛族靠工厂制造以能源为本，本源族源于世间万物中蕴含的元素，抑默心族伴生于生物个体的情绪变化，神族由于生物的虔诚信仰而实体化。顺应各族的文明而存在的独特功能建筑共50+。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/怪物生成.gif?t=1693657142" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z3.png?t=1693657142" /&gt;&lt;br&gt;既有极为寻常的砍树挖矿、种植炼铁、加工建造，又有科幻十足的情绪具象、元素实体、机械生命。丰富多样的地形区域中蕴藏着上百种资源卡，派遣你的怪兽前去探索、采集、掠夺，带回来的每一张资源卡都是取得胜利的关键。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/合成2.gif?t=1693657142" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z4.png?t=1693657142" /&gt;&lt;br&gt;产出单位、打造建筑、探索地图、抵御进攻，你需要完成很多事情，但是你的时间可不多。从降落在这个文明，第一个单位的产出，第一座建筑的落地，这场残酷的战斗就已经开始，要么运筹帷幄拿下这里，要么败走麦城落荒而逃。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/boss动图.gif?t=1693657142" /&gt;</t>
+          <t>欢迎关注我们的官方社群:&lt;br&gt;《盖娅迷航》玩家QQ群: 699632445&lt;br&gt;游戏便当QQ群①：287356527【已满】&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569【已满】&lt;br&gt;游戏便当QQ群④：909356067&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/1.png?t=1694626716" /&gt;&lt;br&gt;&lt;br&gt;控制你的飞船与别的星球进行“友好交流”。探索陌生的星球，收集并加工种类丰富的资源，在受损的飞船上建设你的家园，打造千奇百怪的怪兽为你而战，最终吞噬其他星球意志以修复自身。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z1.png?t=1694626716" /&gt;&lt;br&gt;宇宙中已发现存在7种独具特色的种族，共计50+极具个性化能力的个体。然而这些不过是更高级存在——星球意志的桌上玩物，随意拿取两种个体进行融合即可产生全新个体，共计400+融合个体等你创造！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/1融合.gif?t=1694626716" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z2.png?t=1694626716" /&gt;&lt;br&gt;各个种族根据自身的生物特性发展出了属于自身的独特文明，光合族由种子生根发芽，奇美拉族通过交配繁衍，洞虫族以虫后为绝对中心，奥托玛族靠工厂制造以能源为本，本源族源于世间万物中蕴含的元素，抑默心族伴生于生物个体的情绪变化，神族由于生物的虔诚信仰而实体化。顺应各族的文明而存在的独特功能建筑共50+。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/怪物生成.gif?t=1694626716" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z3.png?t=1694626716" /&gt;&lt;br&gt;既有极为寻常的砍树挖矿、种植炼铁、加工建造，又有科幻十足的情绪具象、元素实体、机械生命。丰富多样的地形区域中蕴藏着上百种资源卡，派遣你的怪兽前去探索、采集、掠夺，带回来的每一张资源卡都是取得胜利的关键。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/合成2.gif?t=1694626716" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z4.png?t=1694626716" /&gt;&lt;br&gt;产出单位、打造建筑、探索地图、抵御进攻，你需要完成很多事情，但是你的时间可不多。从降落在这个文明，第一个单位的产出，第一座建筑的落地，这场残酷的战斗就已经开始，要么运筹帷幄拿下这里，要么败走麦城落荒而逃。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/boss动图.gif?t=1694626716" /&gt;</t>
         </is>
       </c>
     </row>
@@ -14619,7 +14619,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>休闲,独立,心理恐怖,电影式,单人</t>
+          <t>心理恐怖,探索,沉浸式模拟,隐藏物体,解谜</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -3292,7 +3292,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/cp_logo.gif?t=1694416581" /&gt;&lt;/h2&gt;这一年是1981年，作为一名年轻的见习军官，你被分配到卡里卡特卡山区的一个边防哨所工作。进入阿卡里斯坦人民共和国受到政党的严格管制，你的一举一动都受到管控！你的同事在一次行动中被杀，边境局势随之升级...&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/documents.gif?t=1694416581" /&gt;&lt;/h2&gt;&lt;strong&gt;文件核查&lt;/strong&gt;&lt;br&gt;每名旅客都必须有一套有效的文件。即使是最轻微的差异也意味着被拒绝入境的可能。随着时间的推移，文件的数量将会越来越多，当中的问题也将更难被发现。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/contraband.gif?t=1694416581" /&gt;&lt;/h2&gt; &lt;strong&gt;走私侦查&lt;/strong&gt;&lt;br&gt;我们的情报部门会定期提供有关可疑司机的信息。用紫外光手电筒搜查他们的车辆，然后使用合适的工具取出走私货物。任何数量的违禁品都不得越过边境!&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/shootout.gif?t=1694416581" /&gt;&lt;/h2&gt;&lt;strong&gt;枪战&lt;/strong&gt;&lt;br&gt;在某些情况下，你将被迫使用枪械。你的站点一直是奥贝兰科夫团伙袭击的目标，每一次外出任务都有与敌人发生冲突的风险。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/chase.gif?t=1694416581" /&gt;&lt;/h2&gt;&lt;strong&gt;警察追捕&lt;/strong&gt;&lt;br&gt;绝望的走私者可能会试图从控制区逃跑。拦截并逮捕他们是你的分内之事! 购买和对警车升级，提高追捕活动的成功率。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/post_management.gif?t=1694416581" /&gt;&lt;/h2&gt;&lt;strong&gt;哨所管理&lt;/strong&gt;&lt;br&gt;升级警局，以增加对外防御能力，并改善后续的检查流程。然而，请记住，维护你的站点的成本在不断攀升。成功的检查、挫败走私行为以及成功的干预活动都是赚取现金的途径。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/bf_gov_logos.gif?t=1694416581" /&gt;&lt;/h2&gt;&lt;strong&gt;特别任务&lt;/strong&gt;&lt;br&gt;随时准备在紧急情况下进行干预。解决犯罪难题，支援你的同事们，挫败”血拳“叛军。做出恰当的判断，决定阿卡里斯坦的未来。</t>
+          <t>&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/cp_logo.gif?t=1694626919" /&gt;&lt;/h2&gt;这一年是1981年，作为一名年轻的见习军官，你被分配到卡里卡特卡山区的一个边防哨所工作。进入阿卡里斯坦人民共和国受到政党的严格管制，你的一举一动都受到管控！你的同事在一次行动中被杀，边境局势随之升级...&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/documents.gif?t=1694626919" /&gt;&lt;/h2&gt;&lt;strong&gt;文件核查&lt;/strong&gt;&lt;br&gt;每名旅客都必须有一套有效的文件。即使是最轻微的差异也意味着被拒绝入境的可能。随着时间的推移，文件的数量将会越来越多，当中的问题也将更难被发现。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/contraband.gif?t=1694626919" /&gt;&lt;/h2&gt; &lt;strong&gt;走私侦查&lt;/strong&gt;&lt;br&gt;我们的情报部门会定期提供有关可疑司机的信息。用紫外光手电筒搜查他们的车辆，然后使用合适的工具取出走私货物。任何数量的违禁品都不得越过边境!&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/shootout.gif?t=1694626919" /&gt;&lt;/h2&gt;&lt;strong&gt;枪战&lt;/strong&gt;&lt;br&gt;在某些情况下，你将被迫使用枪械。你的站点一直是奥贝兰科夫团伙袭击的目标，每一次外出任务都有与敌人发生冲突的风险。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/chase.gif?t=1694626919" /&gt;&lt;/h2&gt;&lt;strong&gt;警察追捕&lt;/strong&gt;&lt;br&gt;绝望的走私者可能会试图从控制区逃跑。拦截并逮捕他们是你的分内之事! 购买和对警车升级，提高追捕活动的成功率。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/post_management.gif?t=1694626919" /&gt;&lt;/h2&gt;&lt;strong&gt;哨所管理&lt;/strong&gt;&lt;br&gt;升级警局，以增加对外防御能力，并改善后续的检查流程。然而，请记住，维护你的站点的成本在不断攀升。成功的检查、挫败走私行为以及成功的干预活动都是赚取现金的途径。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/bf_gov_logos.gif?t=1694626919" /&gt;&lt;/h2&gt;&lt;strong&gt;特别任务&lt;/strong&gt;&lt;br&gt;随时准备在紧急情况下进行干预。解决犯罪难题，支援你的同事们，挫败”血拳“叛军。做出恰当的判断，决定阿卡里斯坦的未来。</t>
         </is>
       </c>
     </row>
@@ -5243,7 +5243,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;&lt;strong&gt;沉睡, 死亡, 惊醒。如此循环。&lt;/strong&gt;&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040420/extras/combat02.gif?t=1693946457" /&gt;&lt;br&gt;&lt;br&gt;【层层梦境】是一款在清醒与梦境中循环游玩的Roguelike动作游戏。夜晚降临时，你将坠入潜意识中，对抗梦魇。在这个瞬息万变的世界里，你会遇到各类特殊的物品、能力、以及挑战。而在白昼时，你可以探索红港区、结识形形色色的人、提升自己，以挑战愈发强大的梦境。&lt;br&gt;&lt;br&gt;玩家将扮演卡西迪，进入她的潜意识，体验她那些不断循环超现实噩梦，努力将她从黑暗的命运中拯救出来。&lt;h2 class="bb_tag"&gt;特色&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;在噩梦中前进，让永久死亡成为你的盟友。&lt;br&gt;&lt;/li&gt;&lt;li&gt;使用理性之力来操纵元素，在空间中穿梭，就连时间也可以随心所欲。&lt;br&gt;&lt;/li&gt;&lt;li&gt;去和那些代表孤立，恐惧，消极和丧失的boss们斗争。&lt;br&gt;&lt;/li&gt;&lt;li&gt;升级大量的超现实物品并发现强大的工艺品。&lt;br&gt;&lt;/li&gt;&lt;li&gt;体验卡西迪的现实生活，揭开其故事的神秘面纱。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040420/extras/Hometown_Diner_steam.jpg?t=1693946457" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;掌握深度的战斗系统​&lt;/strong&gt;&lt;/h2&gt;丰富多样的战斗系统丰富了游戏技巧。利用敏锐的定位、精确的时间和快速的反应，用各种各样的战斗选择打败对手。&lt;br&gt;&lt;br&gt;《层层梦境》中的每一种武器都是独一无二的，比如撕裂你的噩梦之土，用溜溜球打敌人的脸。你将有无数的方法来完成战斗。&lt;br&gt;&lt;br&gt;《层层梦境》中的敌人和boss是卡西迪消极情绪之最的代表。击败这些致命的敌人，清除她周围的黑暗瘴气。&lt;h2 class="bb_tag"&gt;&lt;strong&gt;征服噩梦​&lt;/strong&gt;&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040420/extras/core-loop-chinese.jpg?t=1693946457" /&gt;&lt;br&gt;在这片美丽萦绕梦境中冒险，挖掘未知的秘密，发现各种物品和能力，了解卡西迪的故事。每一次的跑关都能将你带来一个独特的世界去探索，每一个梦境都是对卡西迪在现实世界中的回忆和经历的窥视。&lt;br&gt;&lt;br&gt;体验卡西迪的现实生活，与她周围的人建立友谊。用他们的希望和记忆赋予卡西迪力量，驱散她噩梦中的黑暗。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040420/extras/bar.png.png?t=1693946457" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040420/extras/wishlist.gif?t=1693946457" /&gt;</t>
+          <t>&lt;h2 class="bb_tag"&gt;&lt;strong&gt;沉睡, 死亡, 惊醒。如此循环。&lt;/strong&gt;&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040420/extras/combat02.gif?t=1694702508" /&gt;&lt;br&gt;&lt;br&gt;【层层梦境】是一款在清醒与梦境中循环游玩的Roguelike动作游戏。夜晚降临时，你将坠入潜意识中，对抗梦魇。在这个瞬息万变的世界里，你会遇到各类特殊的物品、能力、以及挑战。而在白昼时，你可以探索红港区、结识形形色色的人、提升自己，以挑战愈发强大的梦境。&lt;br&gt;&lt;br&gt;玩家将扮演卡西迪，进入她的潜意识，体验她那些不断循环超现实噩梦，努力将她从黑暗的命运中拯救出来。&lt;h2 class="bb_tag"&gt;特色&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;在噩梦中前进，让永久死亡成为你的盟友。&lt;br&gt;&lt;/li&gt;&lt;li&gt;使用理性之力来操纵元素，在空间中穿梭，就连时间也可以随心所欲。&lt;br&gt;&lt;/li&gt;&lt;li&gt;去和那些代表孤立，恐惧，消极和丧失的boss们斗争。&lt;br&gt;&lt;/li&gt;&lt;li&gt;升级大量的超现实物品并发现强大的工艺品。&lt;br&gt;&lt;/li&gt;&lt;li&gt;体验卡西迪的现实生活，揭开其故事的神秘面纱。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040420/extras/Hometown_Diner_steam.jpg?t=1694702508" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;掌握深度的战斗系统​&lt;/strong&gt;&lt;/h2&gt;丰富多样的战斗系统丰富了游戏技巧。利用敏锐的定位、精确的时间和快速的反应，用各种各样的战斗选择打败对手。&lt;br&gt;&lt;br&gt;《层层梦境》中的每一种武器都是独一无二的，比如撕裂你的噩梦之土，用溜溜球打敌人的脸。你将有无数的方法来完成战斗。&lt;br&gt;&lt;br&gt;《层层梦境》中的敌人和boss是卡西迪消极情绪之最的代表。击败这些致命的敌人，清除她周围的黑暗瘴气。&lt;h2 class="bb_tag"&gt;&lt;strong&gt;征服噩梦​&lt;/strong&gt;&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040420/extras/core-loop-chinese.jpg?t=1694702508" /&gt;&lt;br&gt;在这片美丽萦绕梦境中冒险，挖掘未知的秘密，发现各种物品和能力，了解卡西迪的故事。每一次的跑关都能将你带来一个独特的世界去探索，每一个梦境都是对卡西迪在现实世界中的回忆和经历的窥视。&lt;br&gt;&lt;br&gt;体验卡西迪的现实生活，与她周围的人建立友谊。用他们的希望和记忆赋予卡西迪力量，驱散她噩梦中的黑暗。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040420/extras/bar.png.png?t=1694702508" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040420/extras/wishlist.gif?t=1694702508" /&gt;</t>
         </is>
       </c>
     </row>
@@ -7538,7 +7538,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -8610,7 +8610,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -9211,7 +9211,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>塔恩拉大祸将至&lt;br&gt;&lt;br&gt;千禧年在即，塔恩拉的世界即将迎来一场绝世阴谋。在经历了战火连绵、腥风血雨的继位战争之后，维尔迪亚帝国民不聊生、满目疮痍。随着女皇芙洛里娜的登基，这场恶性循环似乎终于被打破。不料，一名将军集结大军，公然宣叛，还在首都掳走了女皇。你，一名军校毕业生，将带领部队讨伐逆贼……而这场战争即将在这片大陆上拉开惊天动地大事件的序幕。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;2D策略型回合制角色扮演游戏&lt;br&gt;&lt;/li&gt;&lt;li&gt;率领小队作战&lt;br&gt;&lt;/li&gt;&lt;li&gt;故事内容丰富，30-40小时的战役流程，重玩性高 &lt;br&gt;&lt;/li&gt;&lt;li&gt;50+可选角色职业 &lt;br&gt;&lt;/li&gt;&lt;li&gt;深度战略游戏，边玩边学，容易上手&lt;br&gt;&lt;/li&gt;&lt;li&gt;角色和军队设置拥有无限可能性&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;br&gt;战术赢得战斗&lt;br&gt;&lt;br&gt;游戏玩法着重于大规模作战，布局智取敌人。队伍拼杀将自动进行，只需观赏并等待结果。&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;操控部队（至多9人）作战，通过抢占高地、扼据要冲、树林埋伏等方式赢得上风&lt;br&gt;&lt;/li&gt;&lt;li&gt;注意天气变化，或是被突如其来的暴风雪或热浪击倒&lt;br&gt;&lt;/li&gt;&lt;li&gt;通过解放城镇、占领资源点来提升声誉，壮大军队&lt;br&gt;&lt;/li&gt;&lt;li&gt;瓦解敌方战意，鼓舞我军士气&lt;br&gt;&lt;/li&gt;&lt;li&gt;消灭敌军队长，打击敌方指挥&lt;/li&gt;&lt;/ul&gt;战略赢得战争&lt;br&gt;&lt;br&gt;战术赢得战斗。战略赢得战争。尘埃落尽之后，是时候收治伤员，集结部队，展开另一场大战，一步一步将和平带回塔恩拉。&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;超过50种职业可供组建部队，包括重步兵、弓兵、冲击骑兵、医疗兵、火枪兵、龙、战斗法师等&lt;br&gt;&lt;/li&gt;&lt;li&gt;为部队装备通过战斗赢得的道具和神器&lt;br&gt;&lt;/li&gt;&lt;li&gt;将新兵训练成精英战士，或招募佣兵来立即提升军队战力&lt;br&gt;&lt;/li&gt;&lt;li&gt;研发阵营的科技树，升级职业，增强战斗部队&lt;/li&gt;&lt;/ul&gt;集结英雄，建立军队&lt;br&gt;&lt;br&gt;帝国战争学院的毕业生被迅速派出镇压叛乱，却卷入了一场出乎意料的可怕阴谋。&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;结交来自各个阵营的伙伴、英雄、盟友和对手&lt;br&gt;&lt;/li&gt;&lt;li&gt;体验动态关系系统，解锁独特对话，建立情比金坚的关系，获得角色的强力加成&lt;br&gt;&lt;/li&gt;&lt;li&gt;在这片和平岌岌可危的塔恩拉大陆，体验暗藏杀机、背信弃义、豪情壮志的史诗故事&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;h2 class="bb_tag"&gt;塔恩拉大祸将至&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1488200/extras/SoW_Combat_Movement.gif?t=1694702367" /&gt;&lt;br&gt;千禧年在即，塔恩拉的世界即将迎来一场绝世阴谋。在经历了战火连绵、腥风血雨的继位战争之后，维尔迪亚帝国民不聊生、满目疮痍。随着女皇芙洛里娜的登基，这场恶性循环似乎终于被打破。不料，一名将军集结大军，公然宣叛，还在首都掳走了女皇。你，一名军校毕业生，将带领部队讨伐逆贼……而这场战争即将在这片大陆上拉开惊天动地大事件的序幕。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 2D策略型回合制角色扮演游戏&lt;br&gt;&lt;/li&gt;&lt;li&gt; 率领小队作战&lt;br&gt;&lt;/li&gt;&lt;li&gt; 故事内容丰富，30-40小时的战役流程，重玩性高 &lt;br&gt;&lt;/li&gt;&lt;li&gt; 50+可选角色职业 &lt;br&gt;&lt;/li&gt;&lt;li&gt; 深度战略游戏，边玩边学，容易上手&lt;br&gt;&lt;/li&gt;&lt;li&gt; 角色和军队设置拥有无限可能性&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;战术赢得战斗&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1488200/extras/SOW_Archery.gif?t=1694702367" /&gt;&lt;br&gt;游戏玩法着重于大规模作战，布局智取敌人。队伍拼杀将自动进行，只需观赏并等待结果。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 操控部队（至多9人）作战，通过抢占高地、扼据要冲、树林埋伏等方式赢得上风&lt;br&gt;&lt;/li&gt;&lt;li&gt; 注意天气变化，或是被突如其来的暴风雪或热浪击倒&lt;br&gt;&lt;/li&gt;&lt;li&gt; 通过解放城镇、占领资源点来提升声誉，壮大军队&lt;br&gt;&lt;/li&gt;&lt;li&gt; 瓦解敌方战意，鼓舞我军士气&lt;br&gt;&lt;/li&gt;&lt;li&gt; 消灭敌军队长，打击敌方指挥&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;战略赢得战争&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1488200/extras/SoW_Army_Management.gif?t=1694702367" /&gt;&lt;br&gt;战术赢得战斗。战略赢得战争。尘埃落尽之后，是时候收治伤员，集结部队，展开另一场大战，一步一步将和平带回塔恩拉。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 超过50种职业可供组建部队，包括重步兵、弓兵、冲击骑兵、医疗兵、火枪兵、龙、战斗法师等&lt;br&gt;&lt;/li&gt;&lt;li&gt; 为部队装备通过战斗赢得的道具和神器&lt;br&gt;&lt;/li&gt;&lt;li&gt; 将新兵训练成精英战士，或招募佣兵来立即提升军队战力&lt;br&gt;&lt;/li&gt;&lt;li&gt; 研发阵营的科技树，升级职业，增强战斗部队&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;集结英雄，建立军队&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1488200/extras/SoW_Relationship.gif?t=1694702367" /&gt;&lt;br&gt;帝国战争学院的毕业生被迅速派出镇压叛乱，却卷入了一场出乎意料的可怕阴谋。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 结交来自各个阵营的伙伴、英雄、盟友和对手&lt;br&gt;&lt;/li&gt;&lt;li&gt; 体验动态关系系统，解锁独特对话，建立情比金坚的关系，获得角色的强力加成&lt;br&gt;&lt;/li&gt;&lt;li&gt; 在这片和平岌岌可危的塔恩拉大陆，体验暗藏杀机、背信弃义、豪情壮志的史诗故事&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
@@ -9772,7 +9772,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.8</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -10833,7 +10833,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;加入我们的社区&lt;/h2&gt;&lt;strong&gt;QQ群: 812627126(满了)&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;QQ群: 13305571(没满)&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;B站: &lt;a href="https://steamcommunity.com/linkfilter/?url=https://space.bilibili.com/109833003" target="_blank" rel=" noopener"  &gt;https://space.bilibili.com/109833003&lt;/a&gt;&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;抖音：丸霸于大进BigYu&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;武器好几种&lt;/h2&gt;目前提供了5种武器可供使用，它们分别是，弓，枪，炮，斧，琴。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/武器好几种.gif?t=1690603816" /&gt;&lt;h2 class="bb_tag"&gt;大坐快乐多&lt;/h2&gt;黄游中独特的、快节奏的、大坐系统，越坐越快乐。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/大坐快乐多.gif?t=1690603816" /&gt;&lt;h2 class="bb_tag"&gt;成长很丰富&lt;/h2&gt;在游戏中有大量的道具和技能，通过不同的搭配，形成不同的战斗风格。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/成长很丰富.gif?t=1690603816" /&gt;&lt;h2 class="bb_tag"&gt;敌人炸了窝&lt;/h2&gt;在不同的场景，会遭遇不同的敌人，它们形态各异，性格多样，劈里啪啦，咔咔冒水。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/敌人炸了窝.gif?t=1690603816" /&gt;&lt;h2 class="bb_tag"&gt;3A级游戏体验&lt;/h2&gt;虽然这只是一个小团队的独立游戏，但我们希望营造出3A级的游戏体验，而令人愉快的是，我们做到了，我们成功的修改了3A的定义：A LOT OF 饼；A LOT OF 钱；A LOT OF 鱼。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/3A_cn.gif?t=1690603816" /&gt;</t>
+          <t>&lt;h2 class="bb_tag"&gt;加入我们的社区&lt;/h2&gt;&lt;strong&gt;QQ群: 812627126(满了)&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;QQ群: 13305571(没满)&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;B站: &lt;a href="https://steamcommunity.com/linkfilter/?url=https://space.bilibili.com/109833003" target="_blank" rel=" noopener"  &gt;https://space.bilibili.com/109833003&lt;/a&gt;&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;抖音：丸霸于大进BigYu&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;武器好几种&lt;/h2&gt;目前提供了5种武器可供使用，它们分别是，弓，枪，炮，斧，琴。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/武器好几种.gif?t=1694691751" /&gt;&lt;h2 class="bb_tag"&gt;大坐快乐多&lt;/h2&gt;黄游中独特的、快节奏的、大坐系统，越坐越快乐。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/大坐快乐多.gif?t=1694691751" /&gt;&lt;h2 class="bb_tag"&gt;成长很丰富&lt;/h2&gt;在游戏中有大量的道具和技能，通过不同的搭配，形成不同的战斗风格。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/成长很丰富.gif?t=1694691751" /&gt;&lt;h2 class="bb_tag"&gt;敌人炸了窝&lt;/h2&gt;在不同的场景，会遭遇不同的敌人，它们形态各异，性格多样，劈里啪啦，咔咔冒水。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/敌人炸了窝.gif?t=1694691751" /&gt;&lt;h2 class="bb_tag"&gt;3A级游戏体验&lt;/h2&gt;虽然这只是一个小团队的独立游戏，但我们希望营造出3A级的游戏体验，而令人愉快的是，我们做到了，我们成功的修改了3A的定义：A LOT OF 饼；A LOT OF 钱；A LOT OF 鱼。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/3A_cn.gif?t=1694691751" /&gt;</t>
         </is>
       </c>
     </row>
@@ -11008,7 +11008,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>《Starfield》出自打造过《Starfield》是由载誉无数、曾为大家带来《The Elder Scrolls V: Skyrim》和《Fallout 4》的Bethesda Game Studios睽违超过25年所打造的第一个全新宇宙。这款新一代角色扮演游戏将背景设定在茫茫宇宙。在这里，你可以创建任意角色，探索世界并体验前所未有的自由。踏上这趟史诗般的旅程，发掘人类文明的终极奥秘。&lt;br&gt;&lt;br&gt;2330年，人类已跨出我们所在的太阳系，在新的星球上定居下来，太空旅行也已成为人类的日常。在这款Bethesda Game Studios迄今为止最宏大的游戏里，你将加入群星组织这个在星系中寻找稀有神器的太空探险者团体，展开探索广袤宇宙的旅程。&lt;h2 class="bb_tag"&gt;传颂你的故事&lt;/h2&gt;在《Starfield》中，最重要的故事将由你亲自通过你的角色述说。自定义外观并决定背景和特征，启航展开属于你的星际之旅。你会是经验老道的探险家、充满魅力的外交官、诡密的电子情报贩，或是独树一帜的人物？选择权都在你手上。由你决定想要打造什么样的角色，有什么样的发展。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/TellYourStory_v3.gif?t=1694642945" /&gt;&lt;h2 class="bb_tag"&gt;探索外太空&lt;/h2&gt;在群星间冒险，探索超过一千个行星。造访繁华的都市、探索充满危险的基地，以及穿越荒野的风景。认识令人难忘的角色并加以招募、参与各种阵营的冒险，在定居星系群中到处展开任务。随时都有新的故事或体验等你来发掘。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/ExploreSpace_v3.gif?t=1694642945" /&gt;&lt;h2 class="bb_tag"&gt;指挥你梦想中的飞船&lt;/h2&gt;驾驶及指挥你梦想中的飞船。打造属于自己的飞船外观、改造武器和护盾等重要系统，以及分配船员为你提供独特加成。在深远的太空中，你将遭遇高风险的近距空战、随机任务、在星际站停驻，甚至登上并夺取敌人的飞船，为自己增添收藏品。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/CaptainShip_v3.gif?t=1694642945" /&gt;&lt;h2 class="bb_tag"&gt;发掘、收集、打造&lt;/h2&gt;探索行星并发掘各种动植物，以及制作药物、食物、装备和武器所需的各种资源。建造哨站并雇用工作人员自动获得材料，并建立货运链接以在哨站间运送资源。将这些原材料投注在研究项目中以解锁独特的制造配方。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/DiscoverCollectBuild_v3.gif?t=1694642945" /&gt;&lt;h2 class="bb_tag"&gt;武器上膛&lt;/h2&gt;宇宙中危机四伏。精细的战斗系统为你提供处理各种状况的工具。无论你喜欢长射程步枪、激光武器或炸药，每种武器皆可改装以符合你的游戏风格。零重力环境为战斗增添了混乱的华丽场面，飞行背包则为玩家带来前所未有的自由机动性。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/LockandLoad_v3.gif?t=1694642945" /&gt;</t>
+          <t>《Starfield》出自打造过《Starfield》是由载誉无数、曾为大家带来《The Elder Scrolls V: Skyrim》和《Fallout 4》的Bethesda Game Studios睽违超过25年所打造的第一个全新宇宙。这款新一代角色扮演游戏将背景设定在茫茫宇宙。在这里，你可以创建任意角色，探索世界并体验前所未有的自由。踏上这趟史诗般的旅程，发掘人类文明的终极奥秘。&lt;br&gt;&lt;br&gt;2330年，人类已跨出我们所在的太阳系，在新的星球上定居下来，太空旅行也已成为人类的日常。在这款Bethesda Game Studios迄今为止最宏大的游戏里，你将加入群星组织这个在星系中寻找稀有神器的太空探险者团体，展开探索广袤宇宙的旅程。&lt;h2 class="bb_tag"&gt;传颂你的故事&lt;/h2&gt;在《Starfield》中，最重要的故事将由你亲自通过你的角色述说。自定义外观并决定背景和特征，启航展开属于你的星际之旅。你会是经验老道的探险家、充满魅力的外交官、诡密的电子情报贩，或是独树一帜的人物？选择权都在你手上。由你决定想要打造什么样的角色，有什么样的发展。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/TellYourStory_v3.gif?t=1694716152" /&gt;&lt;h2 class="bb_tag"&gt;探索外太空&lt;/h2&gt;在群星间冒险，探索超过一千个行星。造访繁华的都市、探索充满危险的基地，以及穿越荒野的风景。认识令人难忘的角色并加以招募、参与各种阵营的冒险，在定居星系群中到处展开任务。随时都有新的故事或体验等你来发掘。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/ExploreSpace_v3.gif?t=1694716152" /&gt;&lt;h2 class="bb_tag"&gt;指挥你梦想中的飞船&lt;/h2&gt;驾驶及指挥你梦想中的飞船。打造属于自己的飞船外观、改造武器和护盾等重要系统，以及分配船员为你提供独特加成。在深远的太空中，你将遭遇高风险的近距空战、随机任务、在星际站停驻，甚至登上并夺取敌人的飞船，为自己增添收藏品。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/CaptainShip_v3.gif?t=1694716152" /&gt;&lt;h2 class="bb_tag"&gt;发掘、收集、打造&lt;/h2&gt;探索行星并发掘各种动植物，以及制作药物、食物、装备和武器所需的各种资源。建造哨站并雇用工作人员自动获得材料，并建立货运链接以在哨站间运送资源。将这些原材料投注在研究项目中以解锁独特的制造配方。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/DiscoverCollectBuild_v3.gif?t=1694716152" /&gt;&lt;h2 class="bb_tag"&gt;武器上膛&lt;/h2&gt;宇宙中危机四伏。精细的战斗系统为你提供处理各种状况的工具。无论你喜欢长射程步枪、激光武器或炸药，每种武器皆可改装以符合你的游戏风格。零重力环境为战斗增添了混乱的华丽场面，飞行背包则为玩家带来前所未有的自由机动性。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1716740/extras/LockandLoad_v3.gif?t=1694716152" /&gt;</t>
         </is>
       </c>
     </row>
@@ -12802,7 +12802,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -12812,7 +12812,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/RhdgScwtm9" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/discord_banner.png?t=1693416708" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;《北欧之烬：诸神黄昏幸存者》(Nordic Ashes: Survivors of Ragnarok) 是一款基于北欧背景的 Roguelite 群敌割草游戏，你需要在潮水般蜂拥而至的怪群中奋力求生。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/nordic_ashes_-_thyra_alfheim.gif?t=1693416708" /&gt;&lt;br&gt;&lt;br&gt;对抗各种凶猛敌人，从基础小怪到精英魔兽，再到史诗级头目，它们都有各自独特行为。别被外表所蒙蔽，即便是杂鱼小怪也很危险！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/titulo_1.png?t=1693416708" /&gt;&lt;br&gt;在战斗中解锁新武器和技能。使用星座技能树升级角色数值，在它们包围你之前杀出血路，否则可能就太晚了……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/nordic_ashes_-_constellation_update.gif?t=1693416708" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/titulo_2.png?t=1693416708" /&gt;&lt;br&gt;诸神黄昏之后，世界树丧失了维持九界所需的近乎所有能量。只有一小部分英雄挺过了世界末日。在这一冒险中，你将使用多名角色：北欧狂战士阿塞尔多、凶猛猎手媞拉、元素大师哈夫格林。手持传奇刀剑或召唤古老火焰，屠戮你所在界域的所有敌人，并征服其它界域。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/nordic_ashes_-_hafrgrim_midgard.gif?t=1693416708" /&gt;&lt;br&gt;&lt;br&gt;在游戏进程中使用星座技能树升级伤害、范围、冷却时间和更多其它数值，制定不同的角色构建方案，让每一场游戏都不相同。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/titulo_3.png?t=1693416708" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;探索由北欧传说中的世界树所联系的九界&lt;br&gt;&lt;/li&gt;&lt;li&gt;不同的角色各自具有独占技能和武器。&lt;br&gt;&lt;/li&gt;&lt;li&gt;星座技能树用以升级幸存者的能力&lt;br&gt;&lt;/li&gt;&lt;li&gt;制定最为强大的角色构建方案&lt;br&gt;&lt;/li&gt;&lt;li&gt;头目具有独特行为模式，让战斗更为史诗&lt;br&gt;&lt;/li&gt;&lt;li&gt;数十种圣物可供解锁&lt;br&gt;&lt;/li&gt;&lt;li&gt;世界树升级作为元成长要素&lt;br&gt;&lt;/li&gt;&lt;li&gt;抢先体验奖励独占皮肤！&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持键鼠和手柄游玩。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/roadmap.png?t=1693416708" /&gt;</t>
+          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/RhdgScwtm9" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/discord_banner.png?t=1694723233" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;《北欧之烬：诸神黄昏幸存者》(Nordic Ashes: Survivors of Ragnarok) 是一款基于北欧背景的 Roguelite 群敌割草游戏，你需要在潮水般蜂拥而至的怪群中奋力求生。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/nordic_ashes_-_thyra_alfheim.gif?t=1694723233" /&gt;&lt;br&gt;&lt;br&gt;对抗各种凶猛敌人，从基础小怪到精英魔兽，再到史诗级头目，它们都有各自独特行为。别被外表所蒙蔽，即便是杂鱼小怪也很危险！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/titulo_1.png?t=1694723233" /&gt;&lt;br&gt;在战斗中解锁新武器和技能。使用星座技能树升级角色数值，在它们包围你之前杀出血路，否则可能就太晚了……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/nordic_ashes_-_constellation_update.gif?t=1694723233" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/titulo_2.png?t=1694723233" /&gt;&lt;br&gt;诸神黄昏之后，世界树丧失了维持九界所需的近乎所有能量。只有一小部分英雄挺过了世界末日。在这一冒险中，你将使用多名角色：北欧狂战士阿塞尔多、凶猛猎手媞拉、元素大师哈夫格林。手持传奇刀剑或召唤古老火焰，屠戮你所在界域的所有敌人，并征服其它界域。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/nordic_ashes_-_hafrgrim_midgard.gif?t=1694723233" /&gt;&lt;br&gt;&lt;br&gt;在游戏进程中使用星座技能树升级伤害、范围、冷却时间和更多其它数值，制定不同的角色构建方案，让每一场游戏都不相同。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/titulo_3.png?t=1694723233" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;探索由北欧传说中的世界树所联系的九界&lt;br&gt;&lt;/li&gt;&lt;li&gt;不同的角色各自具有独占技能和武器。&lt;br&gt;&lt;/li&gt;&lt;li&gt;星座技能树用以升级幸存者的能力&lt;br&gt;&lt;/li&gt;&lt;li&gt;制定最为强大的角色构建方案&lt;br&gt;&lt;/li&gt;&lt;li&gt;头目具有独特行为模式，让战斗更为史诗&lt;br&gt;&lt;/li&gt;&lt;li&gt;数十种圣物可供解锁&lt;br&gt;&lt;/li&gt;&lt;li&gt;世界树升级作为元成长要素&lt;br&gt;&lt;/li&gt;&lt;li&gt;抢先体验奖励独占皮肤！&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持键鼠和手柄游玩。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/roadmap.png?t=1694723233" /&gt;</t>
         </is>
       </c>
     </row>
@@ -13054,7 +13054,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -14123,7 +14123,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>在《双面教父》中，你明面上是一名餐厅老板，但暗地里同时还是黑手党集团的首领。你将发号施令，指挥手下进行抢劫、讨债、甚至偷取艺术品和威胁警察等勾当。然而，你同样需要巧妙经营你的餐厅，雇佣员工，展开广告宣传，时刻警惕那些可能干扰你经营的意外事件。你能否在黑白两道之间取得平衡？又能否带领你的家族走向辉煌？&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-15-SC1.png?t=1694066592" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;“我不喜欢暴力，汤姆，我是个商人。”&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;&lt;br&gt;持续升级发展和改善你的餐厅。购置更多桌椅，确保每个踏入你门的客人都能得到舒适体验。通过巧妙的广告，将你的名字传遍大街小巷，吸引更多食客，赚取合法收入。然而，请牢记，客流量的增加意味着需要雇佣更多员工来提供服务。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-155_1.gif?t=1694066592" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-15-SC2.png?t=1694066592" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;“我会给他一个他无法拒绝的提议。”&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;&lt;br&gt;你的手下大多数是黑帮打手。将他们派遣到不同区域，从事各类犯罪活动。从银行抢劫到暴力催债，从威胁警察到控制城市街区，你的黑帮组织将操控整个城市的格局，并赚回大量的“黑钱”。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-155_2.gif?t=1694066592" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-15-SC3.png?t=1694066592" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;“永远不要憎恨你的敌人，那会影响你的判断力。”&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;&lt;br&gt;经营游戏部分采用卡牌机制，你需要审慎使用和丢弃手中的卡牌。一些卡牌上标有小铃铛标志，意味着将会有事件加入与铃铛匹配的进度栏中。一旦事件被触发，其影响将直接决定你的生意前途。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-155_3.gif?t=1694066592" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-15-SC4.png?t=1694066592" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;“别问我关于我的生意，凯。”&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;&lt;br&gt;通过经营你的餐厅事业，你可以将“灰色收入”洗白合法化。但随着收入增加，警方对你的关注也会逐渐加深。一旦触发警方警戒线，你将面临被逮捕的风险。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-155_4.gif?t=1694066592" /&gt;</t>
+          <t>在《双面教父》中，你明面上是一名餐厅老板，但暗地里同时还是黑手党集团的首领。你将发号施令，指挥手下进行抢劫、讨债、甚至偷取艺术品和威胁警察等勾当。然而，你同样需要巧妙经营你的餐厅，雇佣员工，展开广告宣传，时刻警惕那些可能干扰你经营的意外事件。你能否在黑白两道之间取得平衡？又能否带领你的家族走向辉煌？&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-15-SC1.png?t=1694791260" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;“我不喜欢暴力，汤姆，我是个商人。”&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;&lt;br&gt;持续升级发展和改善你的餐厅。购置更多桌椅，确保每个踏入你门的客人都能得到舒适体验。通过巧妙的广告，将你的名字传遍大街小巷，吸引更多食客，赚取合法收入。然而，请牢记，客流量的增加意味着需要雇佣更多员工来提供服务。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-155_1.gif?t=1694791260" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-15-SC2.png?t=1694791260" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;“我会给他一个他无法拒绝的提议。”&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;&lt;br&gt;你的手下大多数是黑帮打手。将他们派遣到不同区域，从事各类犯罪活动。从银行抢劫到暴力催债，从威胁警察到控制城市街区，你的黑帮组织将操控整个城市的格局，并赚回大量的“黑钱”。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-155_2.gif?t=1694791260" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-15-SC3.png?t=1694791260" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;“永远不要憎恨你的敌人，那会影响你的判断力。”&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;&lt;br&gt;经营游戏部分采用卡牌机制，你需要审慎使用和丢弃手中的卡牌。一些卡牌上标有小铃铛标志，意味着将会有事件加入与铃铛匹配的进度栏中。一旦事件被触发，其影响将直接决定你的生意前途。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-155_3.gif?t=1694791260" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-15-SC4.png?t=1694791260" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;“别问我关于我的生意，凯。”&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;&lt;br&gt;通过经营你的餐厅事业，你可以将“灰色收入”洗白合法化。但随着收入增加，警方对你的关注也会逐渐加深。一旦触发警方警戒线，你将面临被逮捕的风险。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-155_4.gif?t=1694791260" /&gt;</t>
         </is>
       </c>
     </row>
@@ -14202,7 +14202,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>欢迎关注我们的官方社群:&lt;br&gt;《盖娅迷航》玩家QQ群: 699632445&lt;br&gt;游戏便当QQ群①：287356527【已满】&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569【已满】&lt;br&gt;游戏便当QQ群④：909356067&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/1.png?t=1694626716" /&gt;&lt;br&gt;&lt;br&gt;控制你的飞船与别的星球进行“友好交流”。探索陌生的星球，收集并加工种类丰富的资源，在受损的飞船上建设你的家园，打造千奇百怪的怪兽为你而战，最终吞噬其他星球意志以修复自身。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z1.png?t=1694626716" /&gt;&lt;br&gt;宇宙中已发现存在7种独具特色的种族，共计50+极具个性化能力的个体。然而这些不过是更高级存在——星球意志的桌上玩物，随意拿取两种个体进行融合即可产生全新个体，共计400+融合个体等你创造！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/1融合.gif?t=1694626716" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z2.png?t=1694626716" /&gt;&lt;br&gt;各个种族根据自身的生物特性发展出了属于自身的独特文明，光合族由种子生根发芽，奇美拉族通过交配繁衍，洞虫族以虫后为绝对中心，奥托玛族靠工厂制造以能源为本，本源族源于世间万物中蕴含的元素，抑默心族伴生于生物个体的情绪变化，神族由于生物的虔诚信仰而实体化。顺应各族的文明而存在的独特功能建筑共50+。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/怪物生成.gif?t=1694626716" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z3.png?t=1694626716" /&gt;&lt;br&gt;既有极为寻常的砍树挖矿、种植炼铁、加工建造，又有科幻十足的情绪具象、元素实体、机械生命。丰富多样的地形区域中蕴藏着上百种资源卡，派遣你的怪兽前去探索、采集、掠夺，带回来的每一张资源卡都是取得胜利的关键。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/合成2.gif?t=1694626716" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z4.png?t=1694626716" /&gt;&lt;br&gt;产出单位、打造建筑、探索地图、抵御进攻，你需要完成很多事情，但是你的时间可不多。从降落在这个文明，第一个单位的产出，第一座建筑的落地，这场残酷的战斗就已经开始，要么运筹帷幄拿下这里，要么败走麦城落荒而逃。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/boss动图.gif?t=1694626716" /&gt;</t>
+          <t>欢迎关注我们的官方社群:&lt;br&gt;《盖娅迷航》玩家QQ群: 699632445&lt;br&gt;游戏便当QQ群①：287356527&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569【已满】&lt;br&gt;游戏便当QQ群④：909356067&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/1.png?t=1694750994" /&gt;&lt;br&gt;&lt;br&gt;控制你的飞船与别的星球进行“友好交流”。探索陌生的星球，收集并加工种类丰富的资源，在受损的飞船上建设你的家园，打造千奇百怪的怪兽为你而战，最终吞噬其他星球意志以修复自身。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z1.png?t=1694750994" /&gt;&lt;br&gt;宇宙中已发现存在7种独具特色的种族，共计50+极具个性化能力的个体。然而这些不过是更高级存在——星球意志的桌上玩物，随意拿取两种个体进行融合即可产生全新个体，共计400+融合个体等你创造！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/1融合.gif?t=1694750994" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z2.png?t=1694750994" /&gt;&lt;br&gt;各个种族根据自身的生物特性发展出了属于自身的独特文明，光合族由种子生根发芽，奇美拉族通过交配繁衍，洞虫族以虫后为绝对中心，奥托玛族靠工厂制造以能源为本，本源族源于世间万物中蕴含的元素，抑默心族伴生于生物个体的情绪变化，神族由于生物的虔诚信仰而实体化。顺应各族的文明而存在的独特功能建筑共50+。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/怪物生成.gif?t=1694750994" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z3.png?t=1694750994" /&gt;&lt;br&gt;既有极为寻常的砍树挖矿、种植炼铁、加工建造，又有科幻十足的情绪具象、元素实体、机械生命。丰富多样的地形区域中蕴藏着上百种资源卡，派遣你的怪兽前去探索、采集、掠夺，带回来的每一张资源卡都是取得胜利的关键。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/合成2.gif?t=1694750994" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z4.png?t=1694750994" /&gt;&lt;br&gt;产出单位、打造建筑、探索地图、抵御进攻，你需要完成很多事情，但是你的时间可不多。从降落在这个文明，第一个单位的产出，第一座建筑的落地，这场残酷的战斗就已经开始，要么运筹帷幄拿下这里，要么败走麦城落荒而逃。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/boss动图.gif?t=1694750994" /&gt;</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -1822,7 +1822,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -3800,7 +3800,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/cp_logo.gif?t=1694626919" /&gt;&lt;/h2&gt;这一年是1981年，作为一名年轻的见习军官，你被分配到卡里卡特卡山区的一个边防哨所工作。进入阿卡里斯坦人民共和国受到政党的严格管制，你的一举一动都受到管控！你的同事在一次行动中被杀，边境局势随之升级...&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/documents.gif?t=1694626919" /&gt;&lt;/h2&gt;&lt;strong&gt;文件核查&lt;/strong&gt;&lt;br&gt;每名旅客都必须有一套有效的文件。即使是最轻微的差异也意味着被拒绝入境的可能。随着时间的推移，文件的数量将会越来越多，当中的问题也将更难被发现。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/contraband.gif?t=1694626919" /&gt;&lt;/h2&gt; &lt;strong&gt;走私侦查&lt;/strong&gt;&lt;br&gt;我们的情报部门会定期提供有关可疑司机的信息。用紫外光手电筒搜查他们的车辆，然后使用合适的工具取出走私货物。任何数量的违禁品都不得越过边境!&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/shootout.gif?t=1694626919" /&gt;&lt;/h2&gt;&lt;strong&gt;枪战&lt;/strong&gt;&lt;br&gt;在某些情况下，你将被迫使用枪械。你的站点一直是奥贝兰科夫团伙袭击的目标，每一次外出任务都有与敌人发生冲突的风险。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/chase.gif?t=1694626919" /&gt;&lt;/h2&gt;&lt;strong&gt;警察追捕&lt;/strong&gt;&lt;br&gt;绝望的走私者可能会试图从控制区逃跑。拦截并逮捕他们是你的分内之事! 购买和对警车升级，提高追捕活动的成功率。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/post_management.gif?t=1694626919" /&gt;&lt;/h2&gt;&lt;strong&gt;哨所管理&lt;/strong&gt;&lt;br&gt;升级警局，以增加对外防御能力，并改善后续的检查流程。然而，请记住，维护你的站点的成本在不断攀升。成功的检查、挫败走私行为以及成功的干预活动都是赚取现金的途径。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/bf_gov_logos.gif?t=1694626919" /&gt;&lt;/h2&gt;&lt;strong&gt;特别任务&lt;/strong&gt;&lt;br&gt;随时准备在紧急情况下进行干预。解决犯罪难题，支援你的同事们，挫败”血拳“叛军。做出恰当的判断，决定阿卡里斯坦的未来。</t>
+          <t>&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/cp_logo.gif?t=1694794424" /&gt;&lt;/h2&gt;这一年是1981年，作为一名年轻的见习军官，你被分配到卡里卡特卡山区的一个边防哨所工作。进入阿卡里斯坦人民共和国受到政党的严格管制，你的一举一动都受到管控！你的同事在一次行动中被杀，边境局势随之升级...&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/documents.gif?t=1694794424" /&gt;&lt;/h2&gt;&lt;strong&gt;文件核查&lt;/strong&gt;&lt;br&gt;每名旅客都必须有一套有效的文件。即使是最轻微的差异也意味着被拒绝入境的可能。随着时间的推移，文件的数量将会越来越多，当中的问题也将更难被发现。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/contraband.gif?t=1694794424" /&gt;&lt;/h2&gt; &lt;strong&gt;走私侦查&lt;/strong&gt;&lt;br&gt;我们的情报部门会定期提供有关可疑司机的信息。用紫外光手电筒搜查他们的车辆，然后使用合适的工具取出走私货物。任何数量的违禁品都不得越过边境!&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/shootout.gif?t=1694794424" /&gt;&lt;/h2&gt;&lt;strong&gt;枪战&lt;/strong&gt;&lt;br&gt;在某些情况下，你将被迫使用枪械。你的站点一直是奥贝兰科夫团伙袭击的目标，每一次外出任务都有与敌人发生冲突的风险。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/chase.gif?t=1694794424" /&gt;&lt;/h2&gt;&lt;strong&gt;警察追捕&lt;/strong&gt;&lt;br&gt;绝望的走私者可能会试图从控制区逃跑。拦截并逮捕他们是你的分内之事! 购买和对警车升级，提高追捕活动的成功率。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/post_management.gif?t=1694794424" /&gt;&lt;/h2&gt;&lt;strong&gt;哨所管理&lt;/strong&gt;&lt;br&gt;升级警局，以增加对外防御能力，并改善后续的检查流程。然而，请记住，维护你的站点的成本在不断攀升。成功的检查、挫败走私行为以及成功的干预活动都是赚取现金的途径。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/bf_gov_logos.gif?t=1694794424" /&gt;&lt;/h2&gt;&lt;strong&gt;特别任务&lt;/strong&gt;&lt;br&gt;随时准备在紧急情况下进行干预。解决犯罪难题，支援你的同事们，挫败”血拳“叛军。做出恰当的判断，决定阿卡里斯坦的未来。</t>
         </is>
       </c>
     </row>
@@ -5287,7 +5287,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;&lt;strong&gt;沉睡, 死亡, 惊醒。如此循环。&lt;/strong&gt;&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040420/extras/combat02.gif?t=1694702508" /&gt;&lt;br&gt;&lt;br&gt;【层层梦境】是一款在清醒与梦境中循环游玩的Roguelike动作游戏。夜晚降临时，你将坠入潜意识中，对抗梦魇。在这个瞬息万变的世界里，你会遇到各类特殊的物品、能力、以及挑战。而在白昼时，你可以探索红港区、结识形形色色的人、提升自己，以挑战愈发强大的梦境。&lt;br&gt;&lt;br&gt;玩家将扮演卡西迪，进入她的潜意识，体验她那些不断循环超现实噩梦，努力将她从黑暗的命运中拯救出来。&lt;h2 class="bb_tag"&gt;特色&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;在噩梦中前进，让永久死亡成为你的盟友。&lt;br&gt;&lt;/li&gt;&lt;li&gt;使用理性之力来操纵元素，在空间中穿梭，就连时间也可以随心所欲。&lt;br&gt;&lt;/li&gt;&lt;li&gt;去和那些代表孤立，恐惧，消极和丧失的boss们斗争。&lt;br&gt;&lt;/li&gt;&lt;li&gt;升级大量的超现实物品并发现强大的工艺品。&lt;br&gt;&lt;/li&gt;&lt;li&gt;体验卡西迪的现实生活，揭开其故事的神秘面纱。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040420/extras/Hometown_Diner_steam.jpg?t=1694702508" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;掌握深度的战斗系统​&lt;/strong&gt;&lt;/h2&gt;丰富多样的战斗系统丰富了游戏技巧。利用敏锐的定位、精确的时间和快速的反应，用各种各样的战斗选择打败对手。&lt;br&gt;&lt;br&gt;《层层梦境》中的每一种武器都是独一无二的，比如撕裂你的噩梦之土，用溜溜球打敌人的脸。你将有无数的方法来完成战斗。&lt;br&gt;&lt;br&gt;《层层梦境》中的敌人和boss是卡西迪消极情绪之最的代表。击败这些致命的敌人，清除她周围的黑暗瘴气。&lt;h2 class="bb_tag"&gt;&lt;strong&gt;征服噩梦​&lt;/strong&gt;&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040420/extras/core-loop-chinese.jpg?t=1694702508" /&gt;&lt;br&gt;在这片美丽萦绕梦境中冒险，挖掘未知的秘密，发现各种物品和能力，了解卡西迪的故事。每一次的跑关都能将你带来一个独特的世界去探索，每一个梦境都是对卡西迪在现实世界中的回忆和经历的窥视。&lt;br&gt;&lt;br&gt;体验卡西迪的现实生活，与她周围的人建立友谊。用他们的希望和记忆赋予卡西迪力量，驱散她噩梦中的黑暗。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040420/extras/bar.png.png?t=1694702508" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040420/extras/wishlist.gif?t=1694702508" /&gt;</t>
+          <t>&lt;h2 class="bb_tag"&gt;&lt;strong&gt;沉睡, 死亡, 惊醒。如此循环。&lt;/strong&gt;&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040420/extras/combat02.gif?t=1694722050" /&gt;&lt;br&gt;&lt;br&gt;【层层梦境】是一款在清醒与梦境中循环游玩的Roguelike动作游戏。夜晚降临时，你将坠入潜意识中，对抗梦魇。在这个瞬息万变的世界里，你会遇到各类特殊的物品、能力、以及挑战。而在白昼时，你可以探索红港区、结识形形色色的人、提升自己，以挑战愈发强大的梦境。&lt;br&gt;&lt;br&gt;玩家将扮演卡西迪，进入她的潜意识，体验她那些不断循环超现实噩梦，努力将她从黑暗的命运中拯救出来。&lt;h2 class="bb_tag"&gt;特色&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;在噩梦中前进，让永久死亡成为你的盟友。&lt;br&gt;&lt;/li&gt;&lt;li&gt;使用理性之力来操纵元素，在空间中穿梭，就连时间也可以随心所欲。&lt;br&gt;&lt;/li&gt;&lt;li&gt;去和那些代表孤立，恐惧，消极和丧失的boss们斗争。&lt;br&gt;&lt;/li&gt;&lt;li&gt;升级大量的超现实物品并发现强大的工艺品。&lt;br&gt;&lt;/li&gt;&lt;li&gt;体验卡西迪的现实生活，揭开其故事的神秘面纱。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040420/extras/Hometown_Diner_steam.jpg?t=1694722050" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;掌握深度的战斗系统​&lt;/strong&gt;&lt;/h2&gt;丰富多样的战斗系统丰富了游戏技巧。利用敏锐的定位、精确的时间和快速的反应，用各种各样的战斗选择打败对手。&lt;br&gt;&lt;br&gt;《层层梦境》中的每一种武器都是独一无二的，比如撕裂你的噩梦之土，用溜溜球打敌人的脸。你将有无数的方法来完成战斗。&lt;br&gt;&lt;br&gt;《层层梦境》中的敌人和boss是卡西迪消极情绪之最的代表。击败这些致命的敌人，清除她周围的黑暗瘴气。&lt;h2 class="bb_tag"&gt;&lt;strong&gt;征服噩梦​&lt;/strong&gt;&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040420/extras/core-loop-chinese.jpg?t=1694722050" /&gt;&lt;br&gt;在这片美丽萦绕梦境中冒险，挖掘未知的秘密，发现各种物品和能力，了解卡西迪的故事。每一次的跑关都能将你带来一个独特的世界去探索，每一个梦境都是对卡西迪在现实世界中的回忆和经历的窥视。&lt;br&gt;&lt;br&gt;体验卡西迪的现实生活，与她周围的人建立友谊。用他们的希望和记忆赋予卡西迪力量，驱散她噩梦中的黑暗。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040420/extras/bar.png.png?t=1694722050" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1040420/extras/wishlist.gif?t=1694722050" /&gt;</t>
         </is>
       </c>
     </row>
@@ -6619,7 +6619,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -7538,7 +7538,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -7594,7 +7594,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>抢先体验,殖民模拟,基地建设,策略,生存</t>
+          <t>抢先体验,殖民模拟,基地建设,策略,塔防</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7614,7 +7614,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/zYthr8q" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1272320/extras/Discord_BTN.png?t=1693942954" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;在《要战便战》中您可以体验未成年领主的生活。由于大环境影响，您被迫应战。就像通常那样，总是敌众我寡。你需要修建城墙，招募军队，体验全新规模的战争。超过2万5千名敌人会来冲击你的城墙，如果你希望生存下去，你一定要掌握工程、经济甚至魔法。&lt;h2 class="bb_tag"&gt;战争法则&lt;/h2&gt;你的国王威震四方，但同时也好大喜功、嗜酒如命。总之他很喜欢当前的生活。然而当提高税收也无法拯救空虚的国库时，他显然无法继续享受当前的悠闲生活。这产生了主要影响到你的麻烦。因为显然农民难以忍受增税和饥饿，他们在你的领地发动了暴乱。国王要求你镇压他们，然后探索传说中有许多黄金的千里之外。你是会选择执行王室的命令，然后起航去补充国库？亦或者加入叛军，成为暴力领袖，将独裁者绳之以法？到处都是问题、困难与麻烦。目前能确定的一点是你的手上注定会沾染鲜血。弓箭手、剑士、攻城武器和骑士等兵种会与你并肩作战，帮助你实现目标。&lt;h2 class="bb_tag"&gt;物理定律&lt;/h2&gt;虽然得承认这是在开玩笑，但是在《要战便战》中，物理定律依旧非常硬核。所有的箭、射弹还有被击飞的敌人都有物理模型，你会感受到整个战场的真实与连贯。记得要确保你的部队有可容纳并进行射击的塔楼和清晰的视野，否则你就会发觉自己的完美计划被自己的防御工事尴尬地阻碍了。你需要规划大门的位置、前进和撤退路线，还有何处为杀伤区域和后备阵地。你得在战斗中发挥有效作用，才能让自己的部下发挥最大潜力。&lt;h2 class="bb_tag"&gt;社会功能&lt;/h2&gt;即使被围困，也要铭记水能载舟亦能覆舟。人民为你高效服务的前提是得保护好他们。如果食物变得稀缺，士兵就会在战场上挨饿。要记得建造房屋，埋葬尸体以避免瘟疫，并在死亡将至时治疗病人。当你不关心自己的人民时，你就会被最令人不愉快的方式吞噬——例如出现空荡荡的仓库、没来得及修复的城墙与未补充士兵的军营。&lt;h2 class="bb_tag"&gt;经济规律&lt;/h2&gt;运行良好的军队需要运行良好的经济作为后盾。食物、木材、石头、铁还有黄金是你的城市经济的基础。如果你想及时应对前进中的敌人，就需要仔细观察补给是否合适。收集资源、选择储存地点还有谨慎地扩张与升级计划也同样重要。因为敌人不会心甘情愿地让出土地，所以在不进行保护时单纯扩张平民就会成为敌军入侵的牺牲品。你可以通过那令人印象深刻的飞艇进行贸易，带来应急食品提供给人民，或是带来石头重建城墙。您能在贪婪的扩张和安全之间取得平衡吗？&lt;h2 class="bb_tag"&gt;魔法规则！&lt;/h2&gt;既来之,则安之。如果你继承了被诅咒的王国，怎能不去掌握黑魔法？坚固的城墙能保护您免收大部分普通威胁，但在《要战便战》中，有时还要应战不死生物。那为何要让它们垄断魔法？在一段黑暗历史中，被污染的力量曾搅动死者并困住倔强的灵魂。放轻松享受魔法吧，例如召唤大火球降临到敌人身上！别忘记建造魔法方碑并收获灵魂水晶，用灼热的灵魂射线撕裂敌人，观察召唤出的幽灵追赶落单敌人时的绝望。&lt;h2 class="bb_tag"&gt;超越限制&lt;/h2&gt;本游戏以自由为核心设计理念。在无尽模式、沙盒模式或挑战模式中，超越战役的局限性，用自己的方式粉碎敌人。在程序生成的地图上以自己独特的战术进行游戏。是选择尽早修建厚重的城墙并放置庞大的炮灰部队，还是进行追求贪婪增长和昂贵投资的宏观游戏？能在哪种风格中的游戏中取得成就感就取决于你自己。&lt;h2 class="bb_tag"&gt;生存准绳&lt;/h2&gt;就像在现实中一样，愚蠢和贪婪潜藏在大多数问题的阴影中。在此讨论这个问题已经太迟了，你已经无法和平解决。目前这个阶段，别想着外交是可选方案，要战便战！</t>
+          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/zYthr8q" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1272320/extras/Discord_BTN.png?t=1694768928" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;在《要战便战》中您可以体验未成年领主的生活。由于大环境影响，您被迫应战。就像通常那样，总是敌众我寡。你需要修建城墙，招募军队，体验全新规模的战争。超过2万5千名敌人会来冲击你的城墙，如果你希望生存下去，你一定要掌握工程、经济甚至魔法。&lt;h2 class="bb_tag"&gt;战争法则&lt;/h2&gt;你的国王威震四方，但同时也好大喜功、嗜酒如命。总之他很喜欢当前的生活。然而当提高税收也无法拯救空虚的国库时，他显然无法继续享受当前的悠闲生活。这产生了主要影响到你的麻烦。因为显然农民难以忍受增税和饥饿，他们在你的领地发动了暴乱。国王要求你镇压他们，然后探索传说中有许多黄金的千里之外。你是会选择执行王室的命令，然后起航去补充国库？亦或者加入叛军，成为暴力领袖，将独裁者绳之以法？到处都是问题、困难与麻烦。目前能确定的一点是你的手上注定会沾染鲜血。弓箭手、剑士、攻城武器和骑士等兵种会与你并肩作战，帮助你实现目标。&lt;h2 class="bb_tag"&gt;物理定律&lt;/h2&gt;虽然得承认这是在开玩笑，但是在《要战便战》中，物理定律依旧非常硬核。所有的箭、射弹还有被击飞的敌人都有物理模型，你会感受到整个战场的真实与连贯。记得要确保你的部队有可容纳并进行射击的塔楼和清晰的视野，否则你就会发觉自己的完美计划被自己的防御工事尴尬地阻碍了。你需要规划大门的位置、前进和撤退路线，还有何处为杀伤区域和后备阵地。你得在战斗中发挥有效作用，才能让自己的部下发挥最大潜力。&lt;h2 class="bb_tag"&gt;社会功能&lt;/h2&gt;即使被围困，也要铭记水能载舟亦能覆舟。人民为你高效服务的前提是得保护好他们。如果食物变得稀缺，士兵就会在战场上挨饿。要记得建造房屋，埋葬尸体以避免瘟疫，并在死亡将至时治疗病人。当你不关心自己的人民时，你就会被最令人不愉快的方式吞噬——例如出现空荡荡的仓库、没来得及修复的城墙与未补充士兵的军营。&lt;h2 class="bb_tag"&gt;经济规律&lt;/h2&gt;运行良好的军队需要运行良好的经济作为后盾。食物、木材、石头、铁还有黄金是你的城市经济的基础。如果你想及时应对前进中的敌人，就需要仔细观察补给是否合适。收集资源、选择储存地点还有谨慎地扩张与升级计划也同样重要。因为敌人不会心甘情愿地让出土地，所以在不进行保护时单纯扩张平民就会成为敌军入侵的牺牲品。你可以通过那令人印象深刻的飞艇进行贸易，带来应急食品提供给人民，或是带来石头重建城墙。您能在贪婪的扩张和安全之间取得平衡吗？&lt;h2 class="bb_tag"&gt;魔法规则！&lt;/h2&gt;既来之,则安之。如果你继承了被诅咒的王国，怎能不去掌握黑魔法？坚固的城墙能保护您免收大部分普通威胁，但在《要战便战》中，有时还要应战不死生物。那为何要让它们垄断魔法？在一段黑暗历史中，被污染的力量曾搅动死者并困住倔强的灵魂。放轻松享受魔法吧，例如召唤大火球降临到敌人身上！别忘记建造魔法方碑并收获灵魂水晶，用灼热的灵魂射线撕裂敌人，观察召唤出的幽灵追赶落单敌人时的绝望。&lt;h2 class="bb_tag"&gt;超越限制&lt;/h2&gt;本游戏以自由为核心设计理念。在无尽模式、沙盒模式或挑战模式中，超越战役的局限性，用自己的方式粉碎敌人。在程序生成的地图上以自己独特的战术进行游戏。是选择尽早修建厚重的城墙并放置庞大的炮灰部队，还是进行追求贪婪增长和昂贵投资的宏观游戏？能在哪种风格中的游戏中取得成就感就取决于你自己。&lt;h2 class="bb_tag"&gt;生存准绳&lt;/h2&gt;就像在现实中一样，愚蠢和贪婪潜藏在大多数问题的阴影中。在此讨论这个问题已经太迟了，你已经无法和平解决。目前这个阶段，别想着外交是可选方案，要战便战！</t>
         </is>
       </c>
     </row>
@@ -7804,7 +7804,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>选择取向,自选历险体验,回合战略,单人,手绘</t>
+          <t>选择取向,自选历险体验,手绘,回合战略,单人</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -8610,7 +8610,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -8815,7 +8815,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>《神州志西游》是一款&lt;i&gt;Rogue-like&lt;/i&gt;&lt;i&gt;卡牌策略&lt;/i&gt;&lt;i&gt;游戏&lt;/i&gt;。你将扮演西行的角色之一，组建一支精英团队，构建强大套牌，获取神秘法宝，去战胜一路上遇到的妖魔鬼怪。在旅途中，你会无可避免的遇到突发事件，一念&lt;strong&gt;成佛&lt;/strong&gt;，一念&lt;strong&gt;成魔&lt;/strong&gt;。&lt;br&gt;&lt;br&gt;QQ一群&lt;strong&gt;&lt;u&gt;1003867153&lt;/u&gt;&lt;/strong&gt;（已满），二群&lt;strong&gt;&lt;i&gt;570090261&lt;/i&gt;&lt;/strong&gt;！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/Fishpond_20220311111945.jpg?t=1690833798" /&gt;&lt;h2 class="bb_tag"&gt;游戏特色概述&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 5个英雄角色&lt;br&gt;&lt;/li&gt;&lt;li&gt;20+可招募同伴&lt;br&gt;&lt;/li&gt;&lt;li&gt;120+个独特的NPC&lt;br&gt;&lt;/li&gt;&lt;li&gt;500+张卡牌，300+件法宝和消耗品&lt;br&gt;&lt;/li&gt;&lt;li&gt;4个冒险章节，共60个不同结局&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;耳熟能详的传奇英雄&lt;/h2&gt;&lt;br&gt;每次冒险，你将扮演五位传奇英雄之一，带领最多5人的团队。每个英雄都拥有其独特的能力、75张卡池和特别的故事情节：&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;悟空手持金箍棒，能释放毁灭性的范围攻击，利用七十二变学习任何NPC的技能，能够操纵火焰使敌人燃烧，还可以灵活地闪避攻击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-七十二变-简中.gif?t=1690833798" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;玄奘具有独特的能力，能在敌人身上施加“善”或“恶”的状态，使其转化为自己的队友并创建新的团队，或者释放强大的攻击并创建魔法屏障来保护自己。他还可以利用诅咒卡牌，形成特殊的策略。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-唐僧-简中.gif?t=1690833798" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;白龙他的孪生妹妹龙女的灵魂同行，有着操纵水元素和使用剑阵触发强效增益的能力。他会储存未使用的能量作为灵力，并在需要时进行利用。龙女还有学习同伴卡牌的能力，增强他们的联合力量。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-白龙-简中.gif?t=1690833798" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;八戒可以通过吞噬消耗品获得饥饿值和基础状态提升，利用三十六变能力从敌人身上学习能力，以及在战斗中吸收生命值和最大生命值。另外，当八戒完成“八戒”时，可以最大化自身能力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-八戒-简中.gif?t=1690833798" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;沙僧是一个多才多艺的人物，可以根据敌人的位置增加伤害，并召唤五行妖精（金、木、水、火、土）进入敌人团队。沙僧可以围绕每个妖精的独特能力建立策略，并对敌人发动致命攻击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-沙僧-简中.gif?t=1690833798" /&gt;&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;独特的团队战斗体验&lt;/h2&gt;&lt;br&gt;在这艰难的西行之旅中，你不需要孤军奋战——通过从20多个同伴中招募并召唤NPC作为队友，组建你自己的全明星小队。同伴是拥有独特能力和2-4张卡牌的永久队友，他们将一直跟随你，直到他们死亡或被解雇。而NPC是临时队友，在每场战斗结束时会离开或死亡。&lt;br&gt;&lt;br&gt;游戏中有许多召唤或转换NPC的方法：你可以使用像爱情药水这样的消耗品来吸引NPC到你的身边，或使用净化瓶来净化邪恶的NPC。另外，你还可以使用中立卡牌“人种袋”来捕捉虚弱的NPC。值得一提的是，玄奘是创建NPC队伍的专家。你必须明智地选择你的队友，因为他们在这艰难的旅程中扮演着至关重要的角色。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-魅惑-简中.gif?t=1690833798" /&gt;&lt;h2 class="bb_tag"&gt;沉浸式的西游冒险故事&lt;/h2&gt;&lt;br&gt;每个英雄都有许多独特的故事情节，灵感来自于《西游记》的传说。这些故事情节根据你的选择和策略提供不同的对手、事件和任务。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/视频3.gif?t=1690833798" /&gt;&lt;br&gt;&lt;br&gt;随着西行旅程不断深入，你将遇到超过120个独特的NPC，每个NPC都有自己的技能和背景故事。通过相互关联的事件和选择，每个决策都会带你走向不同的路径，通向天庭、灵山或心魔幻境进行最终的对决。你所采取的每一步都至关重要，决定着世界的命运 - 这是一个真正沉浸式的冒险，从开始到结束都能让你全神贯注。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/视频2.gif?t=1690833798" /&gt;&lt;br&gt;&lt;br&gt;敢问路在何方？路在脚下！这便开始惊心动魄的西游之路吧！</t>
+          <t>《神州志西游》是一款&lt;i&gt;Rogue-like&lt;/i&gt;&lt;i&gt;卡牌策略&lt;/i&gt;&lt;i&gt;游戏&lt;/i&gt;。你将扮演西行的角色之一，组建一支精英团队，构建强大套牌，获取神秘法宝，去战胜一路上遇到的妖魔鬼怪。在旅途中，你会无可避免的遇到突发事件，一念&lt;strong&gt;成佛&lt;/strong&gt;，一念&lt;strong&gt;成魔&lt;/strong&gt;。&lt;br&gt;&lt;br&gt;QQ一群&lt;strong&gt;&lt;u&gt;1003867153&lt;/u&gt;&lt;/strong&gt;（已满），二群&lt;strong&gt;&lt;i&gt;570090261&lt;/i&gt;&lt;/strong&gt;！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/Fishpond_20220311111945.jpg?t=1694804159" /&gt;&lt;h2 class="bb_tag"&gt;游戏特色概述&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 5个英雄角色&lt;br&gt;&lt;/li&gt;&lt;li&gt;20+可招募同伴&lt;br&gt;&lt;/li&gt;&lt;li&gt;120+个独特的NPC&lt;br&gt;&lt;/li&gt;&lt;li&gt;500+张卡牌，300+件法宝和消耗品&lt;br&gt;&lt;/li&gt;&lt;li&gt;4个冒险章节，共60个不同结局&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;耳熟能详的传奇英雄&lt;/h2&gt;&lt;br&gt;每次冒险，你将扮演五位传奇英雄之一，带领最多5人的团队。每个英雄都拥有其独特的能力、75张卡池和特别的故事情节：&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;悟空手持金箍棒，能释放毁灭性的范围攻击，利用七十二变学习任何NPC的技能，能够操纵火焰使敌人燃烧，还可以灵活地闪避攻击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-七十二变-简中.gif?t=1694804159" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;玄奘具有独特的能力，能在敌人身上施加“善”或“恶”的状态，使其转化为自己的队友并创建新的团队，或者释放强大的攻击并创建魔法屏障来保护自己。他还可以利用诅咒卡牌，形成特殊的策略。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-唐僧-简中.gif?t=1694804159" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;白龙他的孪生妹妹龙女的灵魂同行，有着操纵水元素和使用剑阵触发强效增益的能力。他会储存未使用的能量作为灵力，并在需要时进行利用。龙女还有学习同伴卡牌的能力，增强他们的联合力量。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-白龙-简中.gif?t=1694804159" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;八戒可以通过吞噬消耗品获得饥饿值和基础状态提升，利用三十六变能力从敌人身上学习能力，以及在战斗中吸收生命值和最大生命值。另外，当八戒完成“八戒”时，可以最大化自身能力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-八戒-简中.gif?t=1694804159" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;沙僧是一个多才多艺的人物，可以根据敌人的位置增加伤害，并召唤五行妖精（金、木、水、火、土）进入敌人团队。沙僧可以围绕每个妖精的独特能力建立策略，并对敌人发动致命攻击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-沙僧-简中.gif?t=1694804159" /&gt;&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;独特的团队战斗体验&lt;/h2&gt;&lt;br&gt;在这艰难的西行之旅中，你不需要孤军奋战——通过从20多个同伴中招募并召唤NPC作为队友，组建你自己的全明星小队。同伴是拥有独特能力和2-4张卡牌的永久队友，他们将一直跟随你，直到他们死亡或被解雇。而NPC是临时队友，在每场战斗结束时会离开或死亡。&lt;br&gt;&lt;br&gt;游戏中有许多召唤或转换NPC的方法：你可以使用像爱情药水这样的消耗品来吸引NPC到你的身边，或使用净化瓶来净化邪恶的NPC。另外，你还可以使用中立卡牌“人种袋”来捕捉虚弱的NPC。值得一提的是，玄奘是创建NPC队伍的专家。你必须明智地选择你的队友，因为他们在这艰难的旅程中扮演着至关重要的角色。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-魅惑-简中.gif?t=1694804159" /&gt;&lt;h2 class="bb_tag"&gt;沉浸式的西游冒险故事&lt;/h2&gt;&lt;br&gt;每个英雄都有许多独特的故事情节，灵感来自于《西游记》的传说。这些故事情节根据你的选择和策略提供不同的对手、事件和任务。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/视频3.gif?t=1694804159" /&gt;&lt;br&gt;&lt;br&gt;随着西行旅程不断深入，你将遇到超过120个独特的NPC，每个NPC都有自己的技能和背景故事。通过相互关联的事件和选择，每个决策都会带你走向不同的路径，通向天庭、灵山或心魔幻境进行最终的对决。你所采取的每一步都至关重要，决定着世界的命运 - 这是一个真正沉浸式的冒险，从开始到结束都能让你全神贯注。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/视频2.gif?t=1694804159" /&gt;&lt;br&gt;&lt;br&gt;敢问路在何方？路在脚下！这便开始惊心动魄的西游之路吧！</t>
         </is>
       </c>
     </row>
@@ -9211,7 +9211,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;塔恩拉大祸将至&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1488200/extras/SoW_Combat_Movement.gif?t=1694702367" /&gt;&lt;br&gt;千禧年在即，塔恩拉的世界即将迎来一场绝世阴谋。在经历了战火连绵、腥风血雨的继位战争之后，维尔迪亚帝国民不聊生、满目疮痍。随着女皇芙洛里娜的登基，这场恶性循环似乎终于被打破。不料，一名将军集结大军，公然宣叛，还在首都掳走了女皇。你，一名军校毕业生，将带领部队讨伐逆贼……而这场战争即将在这片大陆上拉开惊天动地大事件的序幕。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 2D策略型回合制角色扮演游戏&lt;br&gt;&lt;/li&gt;&lt;li&gt; 率领小队作战&lt;br&gt;&lt;/li&gt;&lt;li&gt; 故事内容丰富，30-40小时的战役流程，重玩性高 &lt;br&gt;&lt;/li&gt;&lt;li&gt; 50+可选角色职业 &lt;br&gt;&lt;/li&gt;&lt;li&gt; 深度战略游戏，边玩边学，容易上手&lt;br&gt;&lt;/li&gt;&lt;li&gt; 角色和军队设置拥有无限可能性&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;战术赢得战斗&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1488200/extras/SOW_Archery.gif?t=1694702367" /&gt;&lt;br&gt;游戏玩法着重于大规模作战，布局智取敌人。队伍拼杀将自动进行，只需观赏并等待结果。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 操控部队（至多9人）作战，通过抢占高地、扼据要冲、树林埋伏等方式赢得上风&lt;br&gt;&lt;/li&gt;&lt;li&gt; 注意天气变化，或是被突如其来的暴风雪或热浪击倒&lt;br&gt;&lt;/li&gt;&lt;li&gt; 通过解放城镇、占领资源点来提升声誉，壮大军队&lt;br&gt;&lt;/li&gt;&lt;li&gt; 瓦解敌方战意，鼓舞我军士气&lt;br&gt;&lt;/li&gt;&lt;li&gt; 消灭敌军队长，打击敌方指挥&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;战略赢得战争&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1488200/extras/SoW_Army_Management.gif?t=1694702367" /&gt;&lt;br&gt;战术赢得战斗。战略赢得战争。尘埃落尽之后，是时候收治伤员，集结部队，展开另一场大战，一步一步将和平带回塔恩拉。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 超过50种职业可供组建部队，包括重步兵、弓兵、冲击骑兵、医疗兵、火枪兵、龙、战斗法师等&lt;br&gt;&lt;/li&gt;&lt;li&gt; 为部队装备通过战斗赢得的道具和神器&lt;br&gt;&lt;/li&gt;&lt;li&gt; 将新兵训练成精英战士，或招募佣兵来立即提升军队战力&lt;br&gt;&lt;/li&gt;&lt;li&gt; 研发阵营的科技树，升级职业，增强战斗部队&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;集结英雄，建立军队&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1488200/extras/SoW_Relationship.gif?t=1694702367" /&gt;&lt;br&gt;帝国战争学院的毕业生被迅速派出镇压叛乱，却卷入了一场出乎意料的可怕阴谋。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 结交来自各个阵营的伙伴、英雄、盟友和对手&lt;br&gt;&lt;/li&gt;&lt;li&gt; 体验动态关系系统，解锁独特对话，建立情比金坚的关系，获得角色的强力加成&lt;br&gt;&lt;/li&gt;&lt;li&gt; 在这片和平岌岌可危的塔恩拉大陆，体验暗藏杀机、背信弃义、豪情壮志的史诗故事&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;h2 class="bb_tag"&gt;塔恩拉大祸将至&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1488200/extras/SoW_Combat_Movement.gif?t=1694784186" /&gt;&lt;br&gt;千禧年在即，塔恩拉的世界即将迎来一场绝世阴谋。在经历了战火连绵、腥风血雨的继位战争之后，维尔迪亚帝国民不聊生、满目疮痍。随着女皇芙洛里娜的登基，这场恶性循环似乎终于被打破。不料，一名将军集结大军，公然宣叛，还在首都掳走了女皇。你，一名军校毕业生，将带领部队讨伐逆贼……而这场战争即将在这片大陆上拉开惊天动地大事件的序幕。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 2D策略型回合制角色扮演游戏&lt;br&gt;&lt;/li&gt;&lt;li&gt; 率领小队作战&lt;br&gt;&lt;/li&gt;&lt;li&gt; 故事内容丰富，30-40小时的战役流程，重玩性高 &lt;br&gt;&lt;/li&gt;&lt;li&gt; 50+可选角色职业 &lt;br&gt;&lt;/li&gt;&lt;li&gt; 深度战略游戏，边玩边学，容易上手&lt;br&gt;&lt;/li&gt;&lt;li&gt; 角色和军队设置拥有无限可能性&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;战术赢得战斗&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1488200/extras/SOW_Archery.gif?t=1694784186" /&gt;&lt;br&gt;游戏玩法着重于大规模作战，布局智取敌人。队伍拼杀将自动进行，只需观赏并等待结果。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 操控部队（至多9人）作战，通过抢占高地、扼据要冲、树林埋伏等方式赢得上风&lt;br&gt;&lt;/li&gt;&lt;li&gt; 注意天气变化，或是被突如其来的暴风雪或热浪击倒&lt;br&gt;&lt;/li&gt;&lt;li&gt; 通过解放城镇、占领资源点来提升声誉，壮大军队&lt;br&gt;&lt;/li&gt;&lt;li&gt; 瓦解敌方战意，鼓舞我军士气&lt;br&gt;&lt;/li&gt;&lt;li&gt; 消灭敌军队长，打击敌方指挥&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;战略赢得战争&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1488200/extras/SoW_Army_Management.gif?t=1694784186" /&gt;&lt;br&gt;战术赢得战斗。战略赢得战争。尘埃落尽之后，是时候收治伤员，集结部队，展开另一场大战，一步一步将和平带回塔恩拉。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 超过50种职业可供组建部队，包括重步兵、弓兵、冲击骑兵、医疗兵、火枪兵、龙、战斗法师等&lt;br&gt;&lt;/li&gt;&lt;li&gt; 为部队装备通过战斗赢得的道具和神器&lt;br&gt;&lt;/li&gt;&lt;li&gt; 将新兵训练成精英战士，或招募佣兵来立即提升军队战力&lt;br&gt;&lt;/li&gt;&lt;li&gt; 研发阵营的科技树，升级职业，增强战斗部队&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;集结英雄，建立军队&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1488200/extras/SoW_Relationship.gif?t=1694784186" /&gt;&lt;br&gt;帝国战争学院的毕业生被迅速派出镇压叛乱，却卷入了一场出乎意料的可怕阴谋。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 结交来自各个阵营的伙伴、英雄、盟友和对手&lt;br&gt;&lt;/li&gt;&lt;li&gt; 体验动态关系系统，解锁独特对话，建立情比金坚的关系，获得角色的强力加成&lt;br&gt;&lt;/li&gt;&lt;li&gt; 在这片和平岌岌可危的塔恩拉大陆，体验暗藏杀机、背信弃义、豪情壮志的史诗故事&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
@@ -10833,7 +10833,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;加入我们的社区&lt;/h2&gt;&lt;strong&gt;QQ群: 812627126(满了)&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;QQ群: 13305571(没满)&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;B站: &lt;a href="https://steamcommunity.com/linkfilter/?url=https://space.bilibili.com/109833003" target="_blank" rel=" noopener"  &gt;https://space.bilibili.com/109833003&lt;/a&gt;&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;抖音：丸霸于大进BigYu&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;武器好几种&lt;/h2&gt;目前提供了5种武器可供使用，它们分别是，弓，枪，炮，斧，琴。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/武器好几种.gif?t=1694691751" /&gt;&lt;h2 class="bb_tag"&gt;大坐快乐多&lt;/h2&gt;黄游中独特的、快节奏的、大坐系统，越坐越快乐。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/大坐快乐多.gif?t=1694691751" /&gt;&lt;h2 class="bb_tag"&gt;成长很丰富&lt;/h2&gt;在游戏中有大量的道具和技能，通过不同的搭配，形成不同的战斗风格。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/成长很丰富.gif?t=1694691751" /&gt;&lt;h2 class="bb_tag"&gt;敌人炸了窝&lt;/h2&gt;在不同的场景，会遭遇不同的敌人，它们形态各异，性格多样，劈里啪啦，咔咔冒水。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/敌人炸了窝.gif?t=1694691751" /&gt;&lt;h2 class="bb_tag"&gt;3A级游戏体验&lt;/h2&gt;虽然这只是一个小团队的独立游戏，但我们希望营造出3A级的游戏体验，而令人愉快的是，我们做到了，我们成功的修改了3A的定义：A LOT OF 饼；A LOT OF 钱；A LOT OF 鱼。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/3A_cn.gif?t=1694691751" /&gt;</t>
+          <t>&lt;h2 class="bb_tag"&gt;加入我们的社区&lt;/h2&gt;&lt;strong&gt;QQ群: 812627126(满了)&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;QQ群: 13305571(没满)&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;B站: &lt;a href="https://steamcommunity.com/linkfilter/?url=https://space.bilibili.com/109833003" target="_blank" rel=" noopener"  &gt;https://space.bilibili.com/109833003&lt;/a&gt;&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;抖音：丸霸于大进BigYu&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;武器好几种&lt;/h2&gt;目前提供了5种武器可供使用，它们分别是，弓，枪，炮，斧，琴。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/武器好几种.gif?t=1694775284" /&gt;&lt;h2 class="bb_tag"&gt;大坐快乐多&lt;/h2&gt;黄游中独特的、快节奏的、大坐系统，越坐越快乐。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/大坐快乐多.gif?t=1694775284" /&gt;&lt;h2 class="bb_tag"&gt;成长很丰富&lt;/h2&gt;在游戏中有大量的道具和技能，通过不同的搭配，形成不同的战斗风格。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/成长很丰富.gif?t=1694775284" /&gt;&lt;h2 class="bb_tag"&gt;敌人炸了窝&lt;/h2&gt;在不同的场景，会遭遇不同的敌人，它们形态各异，性格多样，劈里啪啦，咔咔冒水。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/敌人炸了窝.gif?t=1694775284" /&gt;&lt;h2 class="bb_tag"&gt;3A级游戏体验&lt;/h2&gt;虽然这只是一个小团队的独立游戏，但我们希望营造出3A级的游戏体验，而令人愉快的是，我们做到了，我们成功的修改了3A的定义：A LOT OF 饼；A LOT OF 钱；A LOT OF 鱼。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/3A_cn.gif?t=1694775284" /&gt;</t>
         </is>
       </c>
     </row>
@@ -11477,7 +11477,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -11753,7 +11753,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -6165,7 +6165,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -7539,7 +7539,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -8253,7 +8253,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -8692,7 +8692,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -10368,7 +10368,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -10420,7 +10420,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>The Chronicles Edition includes the full game, Hammerwatch Anniversary Edition, and the Hammerwatch II anniversary pack DLC.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_01.png?t=1692388271" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_02.png?t=1692388271" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_04.png?t=1692388271" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_05.png?t=1692388271" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_07.png?t=1692388271" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_09.png?t=1692388271" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_11.png?t=1692388271" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_13.png?t=1692388271" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_15.png?t=1692388271" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_17.png?t=1692388271" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_19.png?t=1692388271" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_21.png?t=1692388271" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_23.png?t=1692388271" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_25.png?t=1692388271" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_27.png?t=1692388271" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_29.png?t=1692388271" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1538970/Hammerwatch_II/?beta=0" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1538970/Hammerwatch_II/?beta=0&lt;/a&gt;</t>
+          <t>The Chronicles Edition includes the full game, Hammerwatch Anniversary Edition, and the Hammerwatch II anniversary pack DLC.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_01.png?t=1695054351" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_02.png?t=1695054351" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_04.png?t=1695054351" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_05.png?t=1695054351" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_07.png?t=1695054351" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_09.png?t=1695054351" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_11.png?t=1695054351" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_13.png?t=1695054351" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_15.png?t=1695054351" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_17.png?t=1695054351" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_19.png?t=1695054351" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_21.png?t=1695054351" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_23.png?t=1695054351" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_25.png?t=1695054351" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_27.png?t=1695054351" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_29.png?t=1695054351" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1538970/Hammerwatch_II/?beta=0" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1538970/Hammerwatch_II/?beta=0&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -11795,7 +11795,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;加入我们的社区&lt;/h2&gt;&lt;strong&gt;QQ群: 812627126(满了)&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;QQ群: 13305571(没满)&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;B站: &lt;a href="https://steamcommunity.com/linkfilter/?url=https://space.bilibili.com/109833003" target="_blank" rel=" noopener"  &gt;https://space.bilibili.com/109833003&lt;/a&gt;&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;抖音：丸霸于大进BigYu&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;武器好几种&lt;/h2&gt;目前提供了5种武器可供使用，它们分别是，弓，枪，炮，斧，琴。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/武器好几种.gif?t=1694880836" /&gt;&lt;h2 class="bb_tag"&gt;大坐快乐多&lt;/h2&gt;黄游中独特的、快节奏的、大坐系统，越坐越快乐。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/大坐快乐多.gif?t=1694880836" /&gt;&lt;h2 class="bb_tag"&gt;成长很丰富&lt;/h2&gt;在游戏中有大量的道具和技能，通过不同的搭配，形成不同的战斗风格。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/成长很丰富.gif?t=1694880836" /&gt;&lt;h2 class="bb_tag"&gt;敌人炸了窝&lt;/h2&gt;在不同的场景，会遭遇不同的敌人，它们形态各异，性格多样，劈里啪啦，咔咔冒水。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/敌人炸了窝.gif?t=1694880836" /&gt;&lt;h2 class="bb_tag"&gt;3A级游戏体验&lt;/h2&gt;虽然这只是一个小团队的独立游戏，但我们希望营造出3A级的游戏体验，而令人愉快的是，我们做到了，我们成功的修改了3A的定义：A LOT OF 饼；A LOT OF 钱；A LOT OF 鱼。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/3A_cn.gif?t=1694880836" /&gt;</t>
+          <t>&lt;h2 class="bb_tag"&gt;加入我们的社区&lt;/h2&gt;&lt;strong&gt;QQ群: 812627126(满了)&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;QQ群: 13305571(没满)&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;B站: &lt;a href="https://steamcommunity.com/linkfilter/?url=https://space.bilibili.com/109833003" target="_blank" rel=" noopener"  &gt;https://space.bilibili.com/109833003&lt;/a&gt;&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;抖音：丸霸于大进BigYu&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;武器好几种&lt;/h2&gt;目前提供了5种武器可供使用，它们分别是，弓，枪，炮，斧，琴。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/武器好几种.gif?t=1694970365" /&gt;&lt;h2 class="bb_tag"&gt;大坐快乐多&lt;/h2&gt;黄游中独特的、快节奏的、大坐系统，越坐越快乐。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/大坐快乐多.gif?t=1694970365" /&gt;&lt;h2 class="bb_tag"&gt;成长很丰富&lt;/h2&gt;在游戏中有大量的道具和技能，通过不同的搭配，形成不同的战斗风格。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/成长很丰富.gif?t=1694970365" /&gt;&lt;h2 class="bb_tag"&gt;敌人炸了窝&lt;/h2&gt;在不同的场景，会遭遇不同的敌人，它们形态各异，性格多样，劈里啪啦，咔咔冒水。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/敌人炸了窝.gif?t=1694970365" /&gt;&lt;h2 class="bb_tag"&gt;3A级游戏体验&lt;/h2&gt;虽然这只是一个小团队的独立游戏，但我们希望营造出3A级的游戏体验，而令人愉快的是，我们做到了，我们成功的修改了3A的定义：A LOT OF 饼；A LOT OF 钱；A LOT OF 鱼。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/3A_cn.gif?t=1694970365" /&gt;</t>
         </is>
       </c>
     </row>
@@ -12096,7 +12096,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;关注我们&lt;/strong&gt;&lt;br&gt;欢迎关注我们的官方社群：&lt;br&gt;《漂流佣兵》玩家Q群：583314686&lt;br&gt;游戏便当QQ群①：287356527【已满】&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569&lt;br&gt;游戏便当QQ群④：909356067&lt;br&gt;&lt;br&gt;&lt;strong&gt;《漂流佣兵》是一款融合了卡牌策略和弹珠弹射玩法的游戏。&lt;/strong&gt;&lt;br&gt;-玩家可以在随机生成的地牢和城镇间探索，冒险，交易，招募佣兵。&lt;br&gt;-作为佣兵团长，带领精心挑选的伙伴们，在这个动荡的异世界生存下去。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p.gif?t=1693384821" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p5.jpg?t=1693384821" /&gt;&lt;br&gt;团长可以穿梭于异世界的各个城镇：皮魔镇，群山环绕景色宜人，打铁声络绎不绝；乱雾村，盛行树屋建筑，树木林立，小桥流水，宜居的不二选择……城镇的“奇遇”“事 &lt;br&gt;件”还能助团长邂逅不同的佣兵，邀请他们组建最强佣兵团！训练佣兵提升技能，为他们购买装备提升实力，一起冒险奇妙异世界。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/tese.jpg?t=1693384821" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p4.jpg?t=1693384821" /&gt;&lt;br&gt;在异世界不断邂逅美女伙伴！不同装扮、不同性格甚至是不同种族，总有一款对你胃口。能变装以蛊惑人心的新生魅魔、拥有强大战力但喜爱黏人的骑士长、逃离少爷之手又酷爱冒险的战斗女仆......或许多逛逛酒馆还可能打听到有关于她们的传闻哦~&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/xin.jpg?t=1693384821" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p1.jpg?t=1693384821" /&gt;&lt;br&gt;每位角色都将化身一颗弹珠，轻轻拉出基准线，弹射后即可战斗！强大的团长还将通过基准线，预判力道和路径，弹射更多的怪物。角色之间还能相互影响弹射效果，利用联动机制打出爽快的连击！ &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/角色弹射.gif?t=1693384821" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p2.jpg?t=1693384821" /&gt;&lt;br&gt;每一次异世界的冒险，团长都可以带着自己组建的强大佣兵团伙伴，体验每一个周目不同的战斗体验。每次协同战斗都有不同的战斗体验，哪个组合才是消灭魔王的最佳组合，等你来探索！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/伙伴联动.gif?t=1693384821" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p3.jpg?t=1693384821" /&gt;&lt;br&gt;异世界也散落了许多技能卡片，攻击、防御、buff牌各式各样，收集并构筑出属于自己的流派。配合弹射打出深度策略！当然，偶尔也会拿到不合适的卡片，有所取舍才能使卡组更强大。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/技能.gif?t=1693384821" /&gt;&lt;h2 class="bb_tag"&gt;关于【开发者】&lt;/h2&gt;&lt;br&gt;作者是个Solo开发的死宅。&lt;br&gt;&lt;br&gt;希望通过构筑这个游戏，与广大穿越者一起完成心中的奇幻异世界梦想。&lt;br&gt;&lt;br&gt;目前游戏还未最终完成，若有不足，希望大家理解，作者会尽力完善。</t>
+          <t>&lt;strong&gt;关注我们&lt;/strong&gt;&lt;br&gt;欢迎关注我们的官方社群：&lt;br&gt;《漂流佣兵》玩家Q群：583314686&lt;br&gt;游戏便当QQ群①：287356527【已满】&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569&lt;br&gt;游戏便当QQ群④：909356067&lt;br&gt;&lt;br&gt;&lt;strong&gt;《漂流佣兵》是一款融合了卡牌策略和弹珠弹射玩法的游戏。&lt;/strong&gt;&lt;br&gt;-玩家可以在随机生成的地牢和城镇间探索，冒险，交易，招募佣兵。&lt;br&gt;-作为佣兵团长，带领精心挑选的伙伴们，在这个动荡的异世界生存下去。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p.gif?t=1695030839" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p5.jpg?t=1695030839" /&gt;&lt;br&gt;团长可以穿梭于异世界的各个城镇：皮魔镇，群山环绕景色宜人，打铁声络绎不绝；乱雾村，盛行树屋建筑，树木林立，小桥流水，宜居的不二选择……城镇的“奇遇”“事 &lt;br&gt;件”还能助团长邂逅不同的佣兵，邀请他们组建最强佣兵团！训练佣兵提升技能，为他们购买装备提升实力，一起冒险奇妙异世界。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/tese.jpg?t=1695030839" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p4.jpg?t=1695030839" /&gt;&lt;br&gt;在异世界不断邂逅美女伙伴！不同装扮、不同性格甚至是不同种族，总有一款对你胃口。能变装以蛊惑人心的新生魅魔、拥有强大战力但喜爱黏人的骑士长、逃离少爷之手又酷爱冒险的战斗女仆......或许多逛逛酒馆还可能打听到有关于她们的传闻哦~&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/xin.jpg?t=1695030839" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p1.jpg?t=1695030839" /&gt;&lt;br&gt;每位角色都将化身一颗弹珠，轻轻拉出基准线，弹射后即可战斗！强大的团长还将通过基准线，预判力道和路径，弹射更多的怪物。角色之间还能相互影响弹射效果，利用联动机制打出爽快的连击！ &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/角色弹射.gif?t=1695030839" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p2.jpg?t=1695030839" /&gt;&lt;br&gt;每一次异世界的冒险，团长都可以带着自己组建的强大佣兵团伙伴，体验每一个周目不同的战斗体验。每次协同战斗都有不同的战斗体验，哪个组合才是消灭魔王的最佳组合，等你来探索！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/伙伴联动.gif?t=1695030839" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p3.jpg?t=1695030839" /&gt;&lt;br&gt;异世界也散落了许多技能卡片，攻击、防御、buff牌各式各样，收集并构筑出属于自己的流派。配合弹射打出深度策略！当然，偶尔也会拿到不合适的卡片，有所取舍才能使卡组更强大。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/技能.gif?t=1695030839" /&gt;&lt;h2 class="bb_tag"&gt;关于【开发者】&lt;/h2&gt;&lt;br&gt;作者是个Solo开发的死宅。&lt;br&gt;&lt;br&gt;希望通过构筑这个游戏，与广大穿越者一起完成心中的奇幻异世界梦想。&lt;br&gt;&lt;br&gt;目前游戏还未最终完成，若有不足，希望大家理解，作者会尽力完善。</t>
         </is>
       </c>
     </row>
@@ -13526,7 +13526,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
@@ -14778,7 +14778,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
@@ -14964,7 +14964,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -711,7 +711,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/TSC_Core_GIF.gif?t=1694697043" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;YOUR RAILWAY HOBBY&lt;/strong&gt;&lt;br&gt;《经典模拟列车》将你的铁路爱好推上巅峰。学习驾驶官方授权的经典机车，行驶于世界各地细节详尽、与现实一致的铁路线上。这里是开启虚拟列车收藏之路的绝佳平台，所有铁道迷都能在这里找到属于他们自己的一片天地。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/Pegnitz_GIF.gif?t=1694697043" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;佩格尼茨山谷铁路&lt;/strong&gt;&lt;br&gt;巴伐利亚风景如画的乡村等你来探索！沿着德国非电气化铁路蜿蜒前行，沉醉于沿途森林山丘的景色，一切尽在《佩格尼茨山谷铁路：纽伦堡—拜罗伊特》。掌握德铁 612 型动车组独特的操控技巧，克服过弯带来的倾摆挑战，行驶于这条全长 93 千米的线路上。同时还有德铁摆式内燃 605 型城际快车（ICE-TD）、德铁 648 型等动车组，以及 19 个真实的车站等你来探索。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/Huddersfield_GIF.gif?t=1694697043" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;哈德斯菲尔德线&lt;/strong&gt;&lt;br&gt;在曼彻斯特维多利亚站和利兹站之间，铺设有一条全长 43 英里的哈德斯菲尔德线。这条线路是该地区最繁忙的线路之一，提供了横跨英格兰北部的本地和长途客运服务。驾驶 20 世纪 90 年代英国铁路私有化时代的列车，包括英铁 158 型动车组、142 型“步行者”动车组、47/8 型机车等，在这条线路上翻山越岭、跨过高架桥，穿过数条隧道。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/LIRR_GIF.gif?t=1694697043" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;长岛铁路&lt;/strong&gt;&lt;br&gt;美国最有历史意义和最具传奇色彩的通勤铁路——长岛铁路现已亮相，对细节处的不断打磨为这条线路带来了无与伦比的真实性。搭乘庞巴迪制造的 M7 型电力动车组，探索纽约市的三个标志性车站——位于曼哈顿的宾夕法尼亚车站、布鲁克林的大西洋总站和长岛市车站。&lt;br&gt;&lt;br&gt;&lt;strong&gt;学习&lt;/strong&gt;&lt;br&gt;走进模拟列车学园，踏上作为一名模拟列车司机的征途。无论是电力机车、内燃机车还是蒸汽机车，你都有机会学习驾驶这些享誉世界的优秀列车。&lt;br&gt;&lt;br&gt;&lt;strong&gt;驾驶&lt;/strong&gt;&lt;br&gt;驾驶多款逼真的机车。你可以从舒适的驾驶室里，通过完美再现真实列车操作的控制面板，掌控全局，包括机车引擎、上下乘客、安全系统和信号系统等等。&lt;br&gt;&lt;br&gt;&lt;strong&gt;收藏&lt;/strong&gt;&lt;br&gt;浏览 Steam 商店中丰富多彩的内容，挑选出心仪的线路、机车和车厢，为自己打造一套梦寐以求的“铁路阵容”吧。在上百件游戏附加内容中，你一定能找到你感兴趣的新内容，扩充自己的铁路收藏库。&lt;br&gt;&lt;br&gt;&lt;strong&gt;创建&lt;/strong&gt;&lt;br&gt;使用功能强大的模拟列车编辑器打造属于你的火车世界。在这里，你可以创造自己构想的铁路线并在 Steam 创意工坊与其他玩家分享；也可以在创意工坊中发布的上千个附加内容中进行挑选，找到你喜欢的那一款。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/TSC_Core_GIF.gif?t=1695129158" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;YOUR RAILWAY HOBBY&lt;/strong&gt;&lt;br&gt;《经典模拟列车》将你的铁路爱好推上巅峰。学习驾驶官方授权的经典机车，行驶于世界各地细节详尽、与现实一致的铁路线上。这里是开启虚拟列车收藏之路的绝佳平台，所有铁道迷都能在这里找到属于他们自己的一片天地。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/Pegnitz_GIF.gif?t=1695129158" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;佩格尼茨山谷铁路&lt;/strong&gt;&lt;br&gt;巴伐利亚风景如画的乡村等你来探索！沿着德国非电气化铁路蜿蜒前行，沉醉于沿途森林山丘的景色，一切尽在《佩格尼茨山谷铁路：纽伦堡—拜罗伊特》。掌握德铁 612 型动车组独特的操控技巧，克服过弯带来的倾摆挑战，行驶于这条全长 93 千米的线路上。同时还有德铁摆式内燃 605 型城际快车（ICE-TD）、德铁 648 型等动车组，以及 19 个真实的车站等你来探索。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/Huddersfield_GIF.gif?t=1695129158" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;哈德斯菲尔德线&lt;/strong&gt;&lt;br&gt;在曼彻斯特维多利亚站和利兹站之间，铺设有一条全长 43 英里的哈德斯菲尔德线。这条线路是该地区最繁忙的线路之一，提供了横跨英格兰北部的本地和长途客运服务。驾驶 20 世纪 90 年代英国铁路私有化时代的列车，包括英铁 158 型动车组、142 型“步行者”动车组、47/8 型机车等，在这条线路上翻山越岭、跨过高架桥，穿过数条隧道。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/LIRR_GIF.gif?t=1695129158" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;长岛铁路&lt;/strong&gt;&lt;br&gt;美国最有历史意义和最具传奇色彩的通勤铁路——长岛铁路现已亮相，对细节处的不断打磨为这条线路带来了无与伦比的真实性。搭乘庞巴迪制造的 M7 型电力动车组，探索纽约市的三个标志性车站——位于曼哈顿的宾夕法尼亚车站、布鲁克林的大西洋总站和长岛市车站。&lt;br&gt;&lt;br&gt;&lt;strong&gt;学习&lt;/strong&gt;&lt;br&gt;走进模拟列车学园，踏上作为一名模拟列车司机的征途。无论是电力机车、内燃机车还是蒸汽机车，你都有机会学习驾驶这些享誉世界的优秀列车。&lt;br&gt;&lt;br&gt;&lt;strong&gt;驾驶&lt;/strong&gt;&lt;br&gt;驾驶多款逼真的机车。你可以从舒适的驾驶室里，通过完美再现真实列车操作的控制面板，掌控全局，包括机车引擎、上下乘客、安全系统和信号系统等等。&lt;br&gt;&lt;br&gt;&lt;strong&gt;收藏&lt;/strong&gt;&lt;br&gt;浏览 Steam 商店中丰富多彩的内容，挑选出心仪的线路、机车和车厢，为自己打造一套梦寐以求的“铁路阵容”吧。在上百件游戏附加内容中，你一定能找到你感兴趣的新内容，扩充自己的铁路收藏库。&lt;br&gt;&lt;br&gt;&lt;strong&gt;创建&lt;/strong&gt;&lt;br&gt;使用功能强大的模拟列车编辑器打造属于你的火车世界。在这里，你可以创造自己构想的铁路线并在 Steam 创意工坊与其他玩家分享；也可以在创意工坊中发布的上千个附加内容中进行挑选，找到你喜欢的那一款。</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_eGIF_SCH.gif?t=1693563102" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_Steam_StoreHeading_NewLevelAvailableNow_SCH.png?t=1693563102" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;***全新关卡“港口”现已推出***&lt;/strong&gt;&lt;/h2&gt;吼嘿哟！《人类一败涂地》的欢乐小船停靠在了充满了惊喜的新关卡：港口！ &lt;br&gt; &lt;br&gt;在这片天堂般的群岛上，每一个转弯都有新奇的冒险等着你！快来探索充满秘密和隐秘路径的魅力小镇吧。 &lt;br&gt;&lt;br&gt;叫上小伙伴扬帆开启史诗般的旅程，划过广阔的水域，一起开动脑筋解决一路上的谜题。  &lt;br&gt; &lt;br&gt;散发着奇异魅力的港口充满无限的可能，一定会让你在欢笑和兴奋之中度过令人难忘的美好时光！     &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Copper_World.gif?t=1693563102" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;包含24个绝妙的关卡。全球超过4500万玩家。全平台已经售出超过3000万套。&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;《人类一败涂地》是一款轻松搞笑的沙雕游戏，游戏的场景发生在飘渺的梦境之中。&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Copper_World_Ice.gif?t=1693563102" /&gt;&lt;br&gt;&lt;br&gt;每个梦境关卡会提供一个全新的环境让玩家探索，从豪宅、城堡和阿兹台克到雪山、光怪陆离的夜景和工业区。每关都贯穿有多条路线和完美设置的谜题，确保热衷探索和聪明的玩家能得到奖励。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_Steam_StoreHeading_MoreHumansMoreMayhem_SCH.png?t=1693563102" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Copper_World_City.gif?t=1693563102" /&gt;&lt;br&gt;&lt;br&gt;需要帮忙把巨石装上投石器，或者需要有人来打破那堵墙？最多8名玩家的在线多人模式会改变《人类一败涂地》的游戏方式。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_Steam_StoreHeading_BlankCanvas_SCH.png?t=1693563102" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Copper_World_Red_Rock.gif?t=1693563102" /&gt;&lt;br&gt;&lt;br&gt;你的软趴趴小人由你自己来定制。可以选择建筑工人、大厨、跳伞员、矿工、宇航员或忍者的服装。还可以分别打扮你的脑袋、上半身和下半身，并且用脑洞让一切变得创意十足！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_Steam_StoreHeading_Workshop_SCH.png?t=1693563102" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/workshop.gif?t=1693563102" /&gt;&lt;br&gt;&lt;br&gt;仅在Steam平台上发布的《人类一败涂地》创意工坊，是一个绝佳的工具，与Unity一起使用，可以让玩家打造自己的《人类一败涂地》内容，并和全世界的玩家分享。对自己打造关卡、大厅或皮肤不感兴趣？你还可以在Steam上直接下载和探索超过5000个别人的创意关卡！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_Steam_StoreHeading_VibrantCommunity_SCH.png?t=1693563102" /&gt;&lt;br&gt;&lt;strong&gt;生机勃勃的玩家社群&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/factory-3.gif?t=1693563102" /&gt;&lt;br&gt;&lt;br&gt;主播和UP主们对《人类一败涂地》尤为青睐，就因为其独特搞笑的游戏方式。这些视频的综合播放量已多达6亿！</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_eGIF_SCH.gif?t=1695057901" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_Steam_StoreHeading_NewLevelAvailableNow_SCH.png?t=1695057901" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;***全新关卡“港口”现已推出***&lt;/strong&gt;&lt;/h2&gt;吼嘿哟！《人类一败涂地》的欢乐小船停靠在了充满了惊喜的新关卡：港口！ &lt;br&gt; &lt;br&gt;在这片天堂般的群岛上，每一个转弯都有新奇的冒险等着你！快来探索充满秘密和隐秘路径的魅力小镇吧。 &lt;br&gt;&lt;br&gt;叫上小伙伴扬帆开启史诗般的旅程，划过广阔的水域，一起开动脑筋解决一路上的谜题。  &lt;br&gt; &lt;br&gt;散发着奇异魅力的港口充满无限的可能，一定会让你在欢笑和兴奋之中度过令人难忘的美好时光！     &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Copper_World.gif?t=1695057901" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;包含24个绝妙的关卡。全球超过4500万玩家。全平台已经售出超过3000万套。&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;《人类一败涂地》是一款轻松搞笑的沙雕游戏，游戏的场景发生在飘渺的梦境之中。&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Copper_World_Ice.gif?t=1695057901" /&gt;&lt;br&gt;&lt;br&gt;每个梦境关卡会提供一个全新的环境让玩家探索，从豪宅、城堡和阿兹台克到雪山、光怪陆离的夜景和工业区。每关都贯穿有多条路线和完美设置的谜题，确保热衷探索和聪明的玩家能得到奖励。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_Steam_StoreHeading_MoreHumansMoreMayhem_SCH.png?t=1695057901" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Copper_World_City.gif?t=1695057901" /&gt;&lt;br&gt;&lt;br&gt;需要帮忙把巨石装上投石器，或者需要有人来打破那堵墙？最多8名玩家的在线多人模式会改变《人类一败涂地》的游戏方式。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_Steam_StoreHeading_BlankCanvas_SCH.png?t=1695057901" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Copper_World_Red_Rock.gif?t=1695057901" /&gt;&lt;br&gt;&lt;br&gt;你的软趴趴小人由你自己来定制。可以选择建筑工人、大厨、跳伞员、矿工、宇航员或忍者的服装。还可以分别打扮你的脑袋、上半身和下半身，并且用脑洞让一切变得创意十足！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_Steam_StoreHeading_Workshop_SCH.png?t=1695057901" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/workshop.gif?t=1695057901" /&gt;&lt;br&gt;&lt;br&gt;仅在Steam平台上发布的《人类一败涂地》创意工坊，是一个绝佳的工具，与Unity一起使用，可以让玩家打造自己的《人类一败涂地》内容，并和全世界的玩家分享。对自己打造关卡、大厅或皮肤不感兴趣？你还可以在Steam上直接下载和探索超过5000个别人的创意关卡！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_Steam_StoreHeading_VibrantCommunity_SCH.png?t=1695057901" /&gt;&lt;br&gt;&lt;strong&gt;生机勃勃的玩家社群&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/factory-3.gif?t=1695057901" /&gt;&lt;br&gt;&lt;br&gt;主播和UP主们对《人类一败涂地》尤为青睐，就因为其独特搞笑的游戏方式。这些视频的综合播放量已多达6亿！</t>
         </is>
       </c>
     </row>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -4796,7 +4796,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/cp_logo.gif?t=1694794424" /&gt;&lt;/h2&gt;这一年是1981年，作为一名年轻的见习军官，你被分配到卡里卡特卡山区的一个边防哨所工作。进入阿卡里斯坦人民共和国受到政党的严格管制，你的一举一动都受到管控！你的同事在一次行动中被杀，边境局势随之升级...&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/documents.gif?t=1694794424" /&gt;&lt;/h2&gt;&lt;strong&gt;文件核查&lt;/strong&gt;&lt;br&gt;每名旅客都必须有一套有效的文件。即使是最轻微的差异也意味着被拒绝入境的可能。随着时间的推移，文件的数量将会越来越多，当中的问题也将更难被发现。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/contraband.gif?t=1694794424" /&gt;&lt;/h2&gt; &lt;strong&gt;走私侦查&lt;/strong&gt;&lt;br&gt;我们的情报部门会定期提供有关可疑司机的信息。用紫外光手电筒搜查他们的车辆，然后使用合适的工具取出走私货物。任何数量的违禁品都不得越过边境!&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/shootout.gif?t=1694794424" /&gt;&lt;/h2&gt;&lt;strong&gt;枪战&lt;/strong&gt;&lt;br&gt;在某些情况下，你将被迫使用枪械。你的站点一直是奥贝兰科夫团伙袭击的目标，每一次外出任务都有与敌人发生冲突的风险。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/chase.gif?t=1694794424" /&gt;&lt;/h2&gt;&lt;strong&gt;警察追捕&lt;/strong&gt;&lt;br&gt;绝望的走私者可能会试图从控制区逃跑。拦截并逮捕他们是你的分内之事! 购买和对警车升级，提高追捕活动的成功率。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/post_management.gif?t=1694794424" /&gt;&lt;/h2&gt;&lt;strong&gt;哨所管理&lt;/strong&gt;&lt;br&gt;升级警局，以增加对外防御能力，并改善后续的检查流程。然而，请记住，维护你的站点的成本在不断攀升。成功的检查、挫败走私行为以及成功的干预活动都是赚取现金的途径。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/bf_gov_logos.gif?t=1694794424" /&gt;&lt;/h2&gt;&lt;strong&gt;特别任务&lt;/strong&gt;&lt;br&gt;随时准备在紧急情况下进行干预。解决犯罪难题，支援你的同事们，挫败”血拳“叛军。做出恰当的判断，决定阿卡里斯坦的未来。</t>
+          <t>&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/cp_logo.gif?t=1695132205" /&gt;&lt;/h2&gt;这一年是1981年，作为一名年轻的见习军官，你被分配到卡里卡特卡山区的一个边防哨所工作。进入阿卡里斯坦人民共和国受到政党的严格管制，你的一举一动都受到管控！你的同事在一次行动中被杀，边境局势随之升级...&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/documents.gif?t=1695132205" /&gt;&lt;/h2&gt;&lt;strong&gt;文件核查&lt;/strong&gt;&lt;br&gt;每名旅客都必须有一套有效的文件。即使是最轻微的差异也意味着被拒绝入境的可能。随着时间的推移，文件的数量将会越来越多，当中的问题也将更难被发现。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/contraband.gif?t=1695132205" /&gt;&lt;/h2&gt; &lt;strong&gt;走私侦查&lt;/strong&gt;&lt;br&gt;我们的情报部门会定期提供有关可疑司机的信息。用紫外光手电筒搜查他们的车辆，然后使用合适的工具取出走私货物。任何数量的违禁品都不得越过边境!&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/shootout.gif?t=1695132205" /&gt;&lt;/h2&gt;&lt;strong&gt;枪战&lt;/strong&gt;&lt;br&gt;在某些情况下，你将被迫使用枪械。你的站点一直是奥贝兰科夫团伙袭击的目标，每一次外出任务都有与敌人发生冲突的风险。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/chase.gif?t=1695132205" /&gt;&lt;/h2&gt;&lt;strong&gt;警察追捕&lt;/strong&gt;&lt;br&gt;绝望的走私者可能会试图从控制区逃跑。拦截并逮捕他们是你的分内之事! 购买和对警车升级，提高追捕活动的成功率。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/post_management.gif?t=1695132205" /&gt;&lt;/h2&gt;&lt;strong&gt;哨所管理&lt;/strong&gt;&lt;br&gt;升级警局，以增加对外防御能力，并改善后续的检查流程。然而，请记住，维护你的站点的成本在不断攀升。成功的检查、挫败走私行为以及成功的干预活动都是赚取现金的途径。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/bf_gov_logos.gif?t=1695132205" /&gt;&lt;/h2&gt;&lt;strong&gt;特别任务&lt;/strong&gt;&lt;br&gt;随时准备在紧急情况下进行干预。解决犯罪难题，支援你的同事们，挫败”血拳“叛军。做出恰当的判断，决定阿卡里斯坦的未来。</t>
         </is>
       </c>
     </row>
@@ -7539,7 +7539,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -10173,7 +10173,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;塔恩拉大祸将至&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1488200/extras/SoW_Combat_Movement.gif?t=1694784186" /&gt;&lt;br&gt;千禧年在即，塔恩拉的世界即将迎来一场绝世阴谋。在经历了战火连绵、腥风血雨的继位战争之后，维尔迪亚帝国民不聊生、满目疮痍。随着女皇芙洛里娜的登基，这场恶性循环似乎终于被打破。不料，一名将军集结大军，公然宣叛，还在首都掳走了女皇。你，一名军校毕业生，将带领部队讨伐逆贼……而这场战争即将在这片大陆上拉开惊天动地大事件的序幕。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 2D策略型回合制角色扮演游戏&lt;br&gt;&lt;/li&gt;&lt;li&gt; 率领小队作战&lt;br&gt;&lt;/li&gt;&lt;li&gt; 故事内容丰富，30-40小时的战役流程，重玩性高 &lt;br&gt;&lt;/li&gt;&lt;li&gt; 50+可选角色职业 &lt;br&gt;&lt;/li&gt;&lt;li&gt; 深度战略游戏，边玩边学，容易上手&lt;br&gt;&lt;/li&gt;&lt;li&gt; 角色和军队设置拥有无限可能性&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;战术赢得战斗&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1488200/extras/SOW_Archery.gif?t=1694784186" /&gt;&lt;br&gt;游戏玩法着重于大规模作战，布局智取敌人。队伍拼杀将自动进行，只需观赏并等待结果。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 操控部队（至多9人）作战，通过抢占高地、扼据要冲、树林埋伏等方式赢得上风&lt;br&gt;&lt;/li&gt;&lt;li&gt; 注意天气变化，或是被突如其来的暴风雪或热浪击倒&lt;br&gt;&lt;/li&gt;&lt;li&gt; 通过解放城镇、占领资源点来提升声誉，壮大军队&lt;br&gt;&lt;/li&gt;&lt;li&gt; 瓦解敌方战意，鼓舞我军士气&lt;br&gt;&lt;/li&gt;&lt;li&gt; 消灭敌军队长，打击敌方指挥&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;战略赢得战争&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1488200/extras/SoW_Army_Management.gif?t=1694784186" /&gt;&lt;br&gt;战术赢得战斗。战略赢得战争。尘埃落尽之后，是时候收治伤员，集结部队，展开另一场大战，一步一步将和平带回塔恩拉。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 超过50种职业可供组建部队，包括重步兵、弓兵、冲击骑兵、医疗兵、火枪兵、龙、战斗法师等&lt;br&gt;&lt;/li&gt;&lt;li&gt; 为部队装备通过战斗赢得的道具和神器&lt;br&gt;&lt;/li&gt;&lt;li&gt; 将新兵训练成精英战士，或招募佣兵来立即提升军队战力&lt;br&gt;&lt;/li&gt;&lt;li&gt; 研发阵营的科技树，升级职业，增强战斗部队&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;集结英雄，建立军队&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1488200/extras/SoW_Relationship.gif?t=1694784186" /&gt;&lt;br&gt;帝国战争学院的毕业生被迅速派出镇压叛乱，却卷入了一场出乎意料的可怕阴谋。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 结交来自各个阵营的伙伴、英雄、盟友和对手&lt;br&gt;&lt;/li&gt;&lt;li&gt; 体验动态关系系统，解锁独特对话，建立情比金坚的关系，获得角色的强力加成&lt;br&gt;&lt;/li&gt;&lt;li&gt; 在这片和平岌岌可危的塔恩拉大陆，体验暗藏杀机、背信弃义、豪情壮志的史诗故事&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;h2 class="bb_tag"&gt;塔恩拉大祸将至&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1488200/extras/SoW_Combat_Movement.gif?t=1695138005" /&gt;&lt;br&gt;千禧年在即，塔恩拉的世界即将迎来一场绝世阴谋。在经历了战火连绵、腥风血雨的继位战争之后，维尔迪亚帝国民不聊生、满目疮痍。随着女皇芙洛里娜的登基，这场恶性循环似乎终于被打破。不料，一名将军集结大军，公然宣叛，还在首都掳走了女皇。你，一名军校毕业生，将带领部队讨伐逆贼……而这场战争即将在这片大陆上拉开惊天动地大事件的序幕。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 2D策略型回合制角色扮演游戏&lt;br&gt;&lt;/li&gt;&lt;li&gt; 率领小队作战&lt;br&gt;&lt;/li&gt;&lt;li&gt; 故事内容丰富，30-40小时的战役流程，重玩性高 &lt;br&gt;&lt;/li&gt;&lt;li&gt; 50+可选角色职业 &lt;br&gt;&lt;/li&gt;&lt;li&gt; 深度战略游戏，边玩边学，容易上手&lt;br&gt;&lt;/li&gt;&lt;li&gt; 角色和军队设置拥有无限可能性&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;战术赢得战斗&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1488200/extras/SOW_Archery.gif?t=1695138005" /&gt;&lt;br&gt;游戏玩法着重于大规模作战，布局智取敌人。队伍拼杀将自动进行，只需观赏并等待结果。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 操控部队（至多9人）作战，通过抢占高地、扼据要冲、树林埋伏等方式赢得上风&lt;br&gt;&lt;/li&gt;&lt;li&gt; 注意天气变化，或是被突如其来的暴风雪或热浪击倒&lt;br&gt;&lt;/li&gt;&lt;li&gt; 通过解放城镇、占领资源点来提升声誉，壮大军队&lt;br&gt;&lt;/li&gt;&lt;li&gt; 瓦解敌方战意，鼓舞我军士气&lt;br&gt;&lt;/li&gt;&lt;li&gt; 消灭敌军队长，打击敌方指挥&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;战略赢得战争&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1488200/extras/SoW_Army_Management.gif?t=1695138005" /&gt;&lt;br&gt;战术赢得战斗。战略赢得战争。尘埃落尽之后，是时候收治伤员，集结部队，展开另一场大战，一步一步将和平带回塔恩拉。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 超过50种职业可供组建部队，包括重步兵、弓兵、冲击骑兵、医疗兵、火枪兵、龙、战斗法师等&lt;br&gt;&lt;/li&gt;&lt;li&gt; 为部队装备通过战斗赢得的道具和神器&lt;br&gt;&lt;/li&gt;&lt;li&gt; 将新兵训练成精英战士，或招募佣兵来立即提升军队战力&lt;br&gt;&lt;/li&gt;&lt;li&gt; 研发阵营的科技树，升级职业，增强战斗部队&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;集结英雄，建立军队&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1488200/extras/SoW_Relationship.gif?t=1695138005" /&gt;&lt;br&gt;帝国战争学院的毕业生被迅速派出镇压叛乱，却卷入了一场出乎意料的可怕阴谋。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 结交来自各个阵营的伙伴、英雄、盟友和对手&lt;br&gt;&lt;/li&gt;&lt;li&gt; 体验动态关系系统，解锁独特对话，建立情比金坚的关系，获得角色的强力加成&lt;br&gt;&lt;/li&gt;&lt;li&gt; 在这片和平岌岌可危的塔恩拉大陆，体验暗藏杀机、背信弃义、豪情壮志的史诗故事&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
@@ -10368,7 +10368,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -10420,7 +10420,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>The Chronicles Edition includes the full game, Hammerwatch Anniversary Edition, and the Hammerwatch II anniversary pack DLC.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_01.png?t=1695054351" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_02.png?t=1695054351" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_04.png?t=1695054351" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_05.png?t=1695054351" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_07.png?t=1695054351" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_09.png?t=1695054351" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_11.png?t=1695054351" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_13.png?t=1695054351" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_15.png?t=1695054351" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_17.png?t=1695054351" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_19.png?t=1695054351" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_21.png?t=1695054351" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_23.png?t=1695054351" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_25.png?t=1695054351" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_27.png?t=1695054351" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_29.png?t=1695054351" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1538970/Hammerwatch_II/?beta=0" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1538970/Hammerwatch_II/?beta=0&lt;/a&gt;</t>
+          <t>The Chronicles Edition includes the full game, Hammerwatch Anniversary Edition, and the Hammerwatch II anniversary pack DLC.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_01.png?t=1695054400" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_02.png?t=1695054400" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_04.png?t=1695054400" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_05.png?t=1695054400" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_07.png?t=1695054400" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_09.png?t=1695054400" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_11.png?t=1695054400" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_13.png?t=1695054400" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_15.png?t=1695054400" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_17.png?t=1695054400" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_19.png?t=1695054400" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_21.png?t=1695054400" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_23.png?t=1695054400" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_25.png?t=1695054400" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_27.png?t=1695054400" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_29.png?t=1695054400" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1538970/Hammerwatch_II/?beta=0" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1538970/Hammerwatch_II/?beta=0&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -10645,7 +10645,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>指挥你的拖网渔船去探索一系列偏远的岛屿及其周遭深海，查看底下到底潜藏着什么。将你的渔获卖给当地人并完成任务，以更多的了解每个地区动荡的过去。为你的船只配备更好的设备，以便在深海海沟中撒网捕捞并航向遥远的大陆，但要留意时间。你可能并不喜欢哪些在黑暗中潜藏的东西……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1562430/extras/Fishing.gif?t=1694607608" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;探索岛屿并发掘其中的秘密&lt;/strong&gt;&lt;/h2&gt;从你在偏远群岛的新家“Marrows”出发，下水搜寻古怪的藏品以及超过125种深海生物。在完成任务和拜访附近岛屿时探索各个区域——每个岛屿都有自己独特的机遇、居民与秘密。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1562430/extras/Areas.gif?t=1694607608" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;挖掘深处&lt;/strong&gt;&lt;/h2&gt;有人想让你挖掘过去埋藏的事情，但他们可信吗？一切都能就此打住吗？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1562430/extras/Dredging.gif?t=1694607608" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;小心迷雾&lt;/strong&gt;&lt;/h2&gt;危险无处不在，要小心尖锐的岩石和浅滩暗礁，不过最大的威胁潜藏在夜晚笼罩大海的迷雾中……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1562430/extras/Monsters.gif?t=1694607608" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;游戏特色&lt;/strong&gt;&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 解开谜团：指挥你的拖网渔船穿越一系列偏远的岛屿，每个岛屿都有需要被满足的居民，有待发现的野生动物和有待发掘的故事&lt;br&gt;&lt;/li&gt;&lt;li&gt; 挖掘深处：在海洋中搜寻隐藏的宝藏，完成任务以获得奇异的新能力。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 研究你的船只：研究特殊设备和升级你的船只能力，以获得稀有的鱼类和珍贵的深海奇珍。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 捕鱼求生：将你的发现卖给当地人，以更多地了解每个地区，升级你的船只，以到达更隐蔽的地方。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 与深不可测的事物作斗争：坚定信念，利用你的能力在夜幕笼罩的水上航行中生存下来。&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>指挥你的拖网渔船去探索一系列偏远的岛屿及其周遭深海，查看底下到底潜藏着什么。将你的渔获卖给当地人并完成任务，以更多的了解每个地区动荡的过去。为你的船只配备更好的设备，以便在深海海沟中撒网捕捞并航向遥远的大陆，但要留意时间。你可能并不喜欢哪些在黑暗中潜藏的东西……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1562430/extras/Fishing.gif?t=1695055182" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;探索岛屿并发掘其中的秘密&lt;/strong&gt;&lt;/h2&gt;从你在偏远群岛的新家“Marrows”出发，下水搜寻古怪的藏品以及超过125种深海生物。在完成任务和拜访附近岛屿时探索各个区域——每个岛屿都有自己独特的机遇、居民与秘密。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1562430/extras/Areas.gif?t=1695055182" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;挖掘深处&lt;/strong&gt;&lt;/h2&gt;有人想让你挖掘过去埋藏的事情，但他们可信吗？一切都能就此打住吗？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1562430/extras/Dredging.gif?t=1695055182" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;小心迷雾&lt;/strong&gt;&lt;/h2&gt;危险无处不在，要小心尖锐的岩石和浅滩暗礁，不过最大的威胁潜藏在夜晚笼罩大海的迷雾中……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1562430/extras/Monsters.gif?t=1695055182" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;游戏特色&lt;/strong&gt;&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 解开谜团：指挥你的拖网渔船穿越一系列偏远的岛屿，每个岛屿都有需要被满足的居民，有待发现的野生动物和有待发掘的故事&lt;br&gt;&lt;/li&gt;&lt;li&gt; 挖掘深处：在海洋中搜寻隐藏的宝藏，完成任务以获得奇异的新能力。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 研究你的船只：研究特殊设备和升级你的船只能力，以获得稀有的鱼类和珍贵的深海奇珍。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 捕鱼求生：将你的发现卖给当地人，以更多地了解每个地区，升级你的船只，以到达更隐蔽的地方。&lt;br&gt;&lt;/li&gt;&lt;li&gt; 与深不可测的事物作斗争：坚定信念，利用你的能力在夜幕笼罩的水上航行中生存下来。&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
@@ -12096,7 +12096,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;关注我们&lt;/strong&gt;&lt;br&gt;欢迎关注我们的官方社群：&lt;br&gt;《漂流佣兵》玩家Q群：583314686&lt;br&gt;游戏便当QQ群①：287356527【已满】&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569&lt;br&gt;游戏便当QQ群④：909356067&lt;br&gt;&lt;br&gt;&lt;strong&gt;《漂流佣兵》是一款融合了卡牌策略和弹珠弹射玩法的游戏。&lt;/strong&gt;&lt;br&gt;-玩家可以在随机生成的地牢和城镇间探索，冒险，交易，招募佣兵。&lt;br&gt;-作为佣兵团长，带领精心挑选的伙伴们，在这个动荡的异世界生存下去。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p.gif?t=1695030839" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p5.jpg?t=1695030839" /&gt;&lt;br&gt;团长可以穿梭于异世界的各个城镇：皮魔镇，群山环绕景色宜人，打铁声络绎不绝；乱雾村，盛行树屋建筑，树木林立，小桥流水，宜居的不二选择……城镇的“奇遇”“事 &lt;br&gt;件”还能助团长邂逅不同的佣兵，邀请他们组建最强佣兵团！训练佣兵提升技能，为他们购买装备提升实力，一起冒险奇妙异世界。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/tese.jpg?t=1695030839" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p4.jpg?t=1695030839" /&gt;&lt;br&gt;在异世界不断邂逅美女伙伴！不同装扮、不同性格甚至是不同种族，总有一款对你胃口。能变装以蛊惑人心的新生魅魔、拥有强大战力但喜爱黏人的骑士长、逃离少爷之手又酷爱冒险的战斗女仆......或许多逛逛酒馆还可能打听到有关于她们的传闻哦~&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/xin.jpg?t=1695030839" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p1.jpg?t=1695030839" /&gt;&lt;br&gt;每位角色都将化身一颗弹珠，轻轻拉出基准线，弹射后即可战斗！强大的团长还将通过基准线，预判力道和路径，弹射更多的怪物。角色之间还能相互影响弹射效果，利用联动机制打出爽快的连击！ &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/角色弹射.gif?t=1695030839" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p2.jpg?t=1695030839" /&gt;&lt;br&gt;每一次异世界的冒险，团长都可以带着自己组建的强大佣兵团伙伴，体验每一个周目不同的战斗体验。每次协同战斗都有不同的战斗体验，哪个组合才是消灭魔王的最佳组合，等你来探索！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/伙伴联动.gif?t=1695030839" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p3.jpg?t=1695030839" /&gt;&lt;br&gt;异世界也散落了许多技能卡片，攻击、防御、buff牌各式各样，收集并构筑出属于自己的流派。配合弹射打出深度策略！当然，偶尔也会拿到不合适的卡片，有所取舍才能使卡组更强大。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/技能.gif?t=1695030839" /&gt;&lt;h2 class="bb_tag"&gt;关于【开发者】&lt;/h2&gt;&lt;br&gt;作者是个Solo开发的死宅。&lt;br&gt;&lt;br&gt;希望通过构筑这个游戏，与广大穿越者一起完成心中的奇幻异世界梦想。&lt;br&gt;&lt;br&gt;目前游戏还未最终完成，若有不足，希望大家理解，作者会尽力完善。</t>
+          <t>&lt;strong&gt;关注我们&lt;/strong&gt;&lt;br&gt;欢迎关注我们的官方社群：&lt;br&gt;《漂流佣兵》玩家Q群：583314686&lt;br&gt;游戏便当QQ群①：287356527【已满】&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569&lt;br&gt;游戏便当QQ群④：909356067&lt;br&gt;&lt;br&gt;&lt;strong&gt;《漂流佣兵》是一款融合了卡牌策略和弹珠弹射玩法的游戏。&lt;/strong&gt;&lt;br&gt;-玩家可以在随机生成的地牢和城镇间探索，冒险，交易，招募佣兵。&lt;br&gt;-作为佣兵团长，带领精心挑选的伙伴们，在这个动荡的异世界生存下去。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p.gif?t=1695059435" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p5.jpg?t=1695059435" /&gt;&lt;br&gt;团长可以穿梭于异世界的各个城镇：皮魔镇，群山环绕景色宜人，打铁声络绎不绝；乱雾村，盛行树屋建筑，树木林立，小桥流水，宜居的不二选择……城镇的“奇遇”“事 &lt;br&gt;件”还能助团长邂逅不同的佣兵，邀请他们组建最强佣兵团！训练佣兵提升技能，为他们购买装备提升实力，一起冒险奇妙异世界。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/tese.jpg?t=1695059435" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p4.jpg?t=1695059435" /&gt;&lt;br&gt;在异世界不断邂逅美女伙伴！不同装扮、不同性格甚至是不同种族，总有一款对你胃口。能变装以蛊惑人心的新生魅魔、拥有强大战力但喜爱黏人的骑士长、逃离少爷之手又酷爱冒险的战斗女仆......或许多逛逛酒馆还可能打听到有关于她们的传闻哦~&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/xin.jpg?t=1695059435" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p1.jpg?t=1695059435" /&gt;&lt;br&gt;每位角色都将化身一颗弹珠，轻轻拉出基准线，弹射后即可战斗！强大的团长还将通过基准线，预判力道和路径，弹射更多的怪物。角色之间还能相互影响弹射效果，利用联动机制打出爽快的连击！ &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/角色弹射.gif?t=1695059435" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p2.jpg?t=1695059435" /&gt;&lt;br&gt;每一次异世界的冒险，团长都可以带着自己组建的强大佣兵团伙伴，体验每一个周目不同的战斗体验。每次协同战斗都有不同的战斗体验，哪个组合才是消灭魔王的最佳组合，等你来探索！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/伙伴联动.gif?t=1695059435" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p3.jpg?t=1695059435" /&gt;&lt;br&gt;异世界也散落了许多技能卡片，攻击、防御、buff牌各式各样，收集并构筑出属于自己的流派。配合弹射打出深度策略！当然，偶尔也会拿到不合适的卡片，有所取舍才能使卡组更强大。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/技能.gif?t=1695059435" /&gt;&lt;h2 class="bb_tag"&gt;关于【开发者】&lt;/h2&gt;&lt;br&gt;作者是个Solo开发的死宅。&lt;br&gt;&lt;br&gt;希望通过构筑这个游戏，与广大穿越者一起完成心中的奇幻异世界梦想。&lt;br&gt;&lt;br&gt;目前游戏还未最终完成，若有不足，希望大家理解，作者会尽力完善。</t>
         </is>
       </c>
     </row>
@@ -12789,7 +12789,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>机甲,角色自定义,动作,第三人称,战斗</t>
+          <t>机甲,动作,角色自定义,第三人称,机器人</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -12855,7 +12855,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -14147,7 +14147,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2132840/extras/Roguelike_Deckbuilder.png?t=1684915186" /&gt;&lt;br&gt;卡牌构筑Roguelike&lt;br&gt;邪恶的哥特城堡门前，正义与邪恶将迎来最终的决战。不论你是硬核玩家还是萌新，都能在这款卡牌构建roguelike里找到乐趣！&lt;br&gt;你的地盘你做主：从魔王艾拉瑞克的魔爪中拯救世界，或是，成为魔王本尊，捍卫自己的统治。&lt;br&gt;官方玩家QQ群 ： 612626375&lt;br&gt; &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2132840/extras/Good_vs_Evil.png?t=1684915186" /&gt;&lt;br&gt;正与邪&lt;br&gt;魔堡围攻拥有完整而丰富的游戏体验，又分为两个截然不同的模块：拯救与统治。&lt;br&gt;两个模式各具特色，同时又组成了一个有机的整体。&lt;br&gt;两种模式可以随时切换，存档、进度和成就也彼此独立，大胆尝试体验吧。&lt;br&gt;各具特色的卡牌带来了眼花缭乱的玩法，升级、扩充你的卡组，打造你独一无二的style吧！&lt;br&gt;如果你是萌新，魔堡围攻将是入坑卡牌构建roguelike的不二之选；如果你是大佬，高阶地狱难度里你可以尽情受苦，保证你欲罢不能！&lt;br&gt; &lt;br&gt; &lt;br&gt;拯救&lt;br&gt;变身正义的化身，向艾拉瑞克的魔堡进发，消灭一切横亘在路上的敌人，为魔王的暴政画上最后的休止符。&lt;br&gt;魔王的古堡凶险无比，你必须步步为营，而魔王将在城堡的最顶层等候着你的出现。&lt;br&gt; &lt;br&gt;谨慎选择你的职业和初始卡牌。只有知己知彼，才能百战不殆；懂得取舍，才能笑到最后。&lt;br&gt;每个职业都有自己专属的增益、减益和物资！&lt;br&gt;每层关底，你可以选择回撤，安全带走你发现的财宝并强化自身；或者选择继续深入探寻更丰厚的宝藏，前提是你能活着把它们带走。&lt;br&gt;古堡共有4层，每层最后会有一个独特的Boss战，你的技术和策略将会迎来巨大的考验。&lt;br&gt;请记住：如果你浪费了太多时间，古堡深处的恶灵将钻出洞穴，将你撕成碎片！&lt;br&gt;如果你能成功战胜魔王，恭喜你，地狱层级难度将为真正的勇士开启，欢迎硬核玩家前来挑战。&lt;br&gt;拯救包含：&lt;br&gt;6大职业，37种技能和配置；&lt;br&gt;25种武器，53种神器；&lt;br&gt;25种祝福；&lt;br&gt;40个敌人单位和7个首领；&lt;br&gt;15层地狱层级（额外难度挑战）；&lt;br&gt;29个成就；&lt;br&gt; &lt;br&gt;你能从艾拉瑞克的魔掌中拯救世界吗？&lt;br&gt; &lt;br&gt; &lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2132840/extras/deliverance1.gif?t=1684915186" /&gt;&lt;br&gt;统治&lt;br&gt;我已堕落，我就是魔王本尊！&lt;br&gt;一群无知的英雄打算入侵你的城堡，阻止他们！&lt;br&gt;与6大种族（他们各具特色，但都无比邪恶！）之一签订契约，抗击入侵者。&lt;br&gt;在城堡各层布置手下，阻挡敌人前进的步伐，保护顶层的王座。&lt;br&gt;你会如何应对。步步为营，缜密经营，用策略压制敌人；还是用强大的手下和法术碾压敌人？&lt;br&gt;每场Boss战对你的能力提出了不同的考验，探索最佳的策略和方式，碾碎那些可怜的英雄们吧！&lt;br&gt; &lt;br&gt;统治包含：&lt;br&gt;6大种族，每个种族拥有9种英雄变体，31个单位和法术，以及22种升级；&lt;br&gt;34个敌人单位和14个首领；&lt;br&gt;17个神秘事件；&lt;br&gt;15层地狱层级（额外难度挑战）；&lt;br&gt;29个成就；&lt;br&gt; &lt;br&gt;那些蝼蚁终将俯首称臣，只有你才是真正的魔王！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2132840/extras/deliverance3.gif?t=1684915186" /&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2132840/extras/Roguelike_Deckbuilder.png?t=1694993294" /&gt;&lt;br&gt;卡牌构筑Roguelike&lt;br&gt;邪恶的哥特城堡门前，正义与邪恶将迎来最终的决战。不论你是硬核玩家还是萌新，都能在这款卡牌构建roguelike里找到乐趣！&lt;br&gt;你的地盘你做主：从魔王艾拉瑞克的魔爪中拯救世界，或是，成为魔王本尊，捍卫自己的统治。&lt;br&gt;官方玩家QQ群 ： 612626375&lt;br&gt; &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2132840/extras/Good_vs_Evil.png?t=1694993294" /&gt;&lt;br&gt;正与邪&lt;br&gt;魔堡围攻拥有完整而丰富的游戏体验，又分为两个截然不同的模块：拯救与统治。&lt;br&gt;两个模式各具特色，同时又组成了一个有机的整体。&lt;br&gt;两种模式可以随时切换，存档、进度和成就也彼此独立，大胆尝试体验吧。&lt;br&gt;各具特色的卡牌带来了眼花缭乱的玩法，升级、扩充你的卡组，打造你独一无二的style吧！&lt;br&gt;如果你是萌新，魔堡围攻将是入坑卡牌构建roguelike的不二之选；如果你是大佬，高阶地狱难度里你可以尽情受苦，保证你欲罢不能！&lt;br&gt; &lt;br&gt; &lt;br&gt;拯救&lt;br&gt;变身正义的化身，向艾拉瑞克的魔堡进发，消灭一切横亘在路上的敌人，为魔王的暴政画上最后的休止符。&lt;br&gt;魔王的古堡凶险无比，你必须步步为营，而魔王将在城堡的最顶层等候着你的出现。&lt;br&gt; &lt;br&gt;谨慎选择你的职业和初始卡牌。只有知己知彼，才能百战不殆；懂得取舍，才能笑到最后。&lt;br&gt;每个职业都有自己专属的增益、减益和物资！&lt;br&gt;每层关底，你可以选择回撤，安全带走你发现的财宝并强化自身；或者选择继续深入探寻更丰厚的宝藏，前提是你能活着把它们带走。&lt;br&gt;古堡共有4层，每层最后会有一个独特的Boss战，你的技术和策略将会迎来巨大的考验。&lt;br&gt;请记住：如果你浪费了太多时间，古堡深处的恶灵将钻出洞穴，将你撕成碎片！&lt;br&gt;如果你能成功战胜魔王，恭喜你，地狱层级难度将为真正的勇士开启，欢迎硬核玩家前来挑战。&lt;br&gt;拯救包含：&lt;br&gt;6大职业，37种技能和配置；&lt;br&gt;25种武器，53种神器；&lt;br&gt;25种祝福；&lt;br&gt;40个敌人单位和7个首领；&lt;br&gt;15层地狱层级（额外难度挑战）；&lt;br&gt;29个成就；&lt;br&gt; &lt;br&gt;你能从艾拉瑞克的魔掌中拯救世界吗？&lt;br&gt; &lt;br&gt; &lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2132840/extras/deliverance1.gif?t=1694993294" /&gt;&lt;br&gt;统治&lt;br&gt;我已堕落，我就是魔王本尊！&lt;br&gt;一群无知的英雄打算入侵你的城堡，阻止他们！&lt;br&gt;与6大种族（他们各具特色，但都无比邪恶！）之一签订契约，抗击入侵者。&lt;br&gt;在城堡各层布置手下，阻挡敌人前进的步伐，保护顶层的王座。&lt;br&gt;你会如何应对。步步为营，缜密经营，用策略压制敌人；还是用强大的手下和法术碾压敌人？&lt;br&gt;每场Boss战对你的能力提出了不同的考验，探索最佳的策略和方式，碾碎那些可怜的英雄们吧！&lt;br&gt; &lt;br&gt;统治包含：&lt;br&gt;6大种族，每个种族拥有9种英雄变体，31个单位和法术，以及22种升级；&lt;br&gt;34个敌人单位和14个首领；&lt;br&gt;17个神秘事件；&lt;br&gt;15层地狱层级（额外难度挑战）；&lt;br&gt;29个成就；&lt;br&gt; &lt;br&gt;那些蝼蚁终将俯首称臣，只有你才是真正的魔王！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2132840/extras/deliverance3.gif?t=1694993294" /&gt;</t>
         </is>
       </c>
     </row>
@@ -15238,7 +15238,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -1190,7 +1190,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>殖民模拟,基地建设,生存,策略,沙盒</t>
+          <t>抢先体验,殖民模拟,基地建设,生存,策略</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Human: Fall Flat</t>
+          <t>Human Fall Flat</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4796,7 +4796,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/cp_logo.gif?t=1695132205" /&gt;&lt;/h2&gt;这一年是1981年，作为一名年轻的见习军官，你被分配到卡里卡特卡山区的一个边防哨所工作。进入阿卡里斯坦人民共和国受到政党的严格管制，你的一举一动都受到管控！你的同事在一次行动中被杀，边境局势随之升级...&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/documents.gif?t=1695132205" /&gt;&lt;/h2&gt;&lt;strong&gt;文件核查&lt;/strong&gt;&lt;br&gt;每名旅客都必须有一套有效的文件。即使是最轻微的差异也意味着被拒绝入境的可能。随着时间的推移，文件的数量将会越来越多，当中的问题也将更难被发现。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/contraband.gif?t=1695132205" /&gt;&lt;/h2&gt; &lt;strong&gt;走私侦查&lt;/strong&gt;&lt;br&gt;我们的情报部门会定期提供有关可疑司机的信息。用紫外光手电筒搜查他们的车辆，然后使用合适的工具取出走私货物。任何数量的违禁品都不得越过边境!&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/shootout.gif?t=1695132205" /&gt;&lt;/h2&gt;&lt;strong&gt;枪战&lt;/strong&gt;&lt;br&gt;在某些情况下，你将被迫使用枪械。你的站点一直是奥贝兰科夫团伙袭击的目标，每一次外出任务都有与敌人发生冲突的风险。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/chase.gif?t=1695132205" /&gt;&lt;/h2&gt;&lt;strong&gt;警察追捕&lt;/strong&gt;&lt;br&gt;绝望的走私者可能会试图从控制区逃跑。拦截并逮捕他们是你的分内之事! 购买和对警车升级，提高追捕活动的成功率。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/post_management.gif?t=1695132205" /&gt;&lt;/h2&gt;&lt;strong&gt;哨所管理&lt;/strong&gt;&lt;br&gt;升级警局，以增加对外防御能力，并改善后续的检查流程。然而，请记住，维护你的站点的成本在不断攀升。成功的检查、挫败走私行为以及成功的干预活动都是赚取现金的途径。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/bf_gov_logos.gif?t=1695132205" /&gt;&lt;/h2&gt;&lt;strong&gt;特别任务&lt;/strong&gt;&lt;br&gt;随时准备在紧急情况下进行干预。解决犯罪难题，支援你的同事们，挫败”血拳“叛军。做出恰当的判断，决定阿卡里斯坦的未来。</t>
+          <t>&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/cp_logo.gif?t=1695169315" /&gt;&lt;/h2&gt;这一年是1981年，作为一名年轻的见习军官，你被分配到卡里卡特卡山区的一个边防哨所工作。进入阿卡里斯坦人民共和国受到政党的严格管制，你的一举一动都受到管控！你的同事在一次行动中被杀，边境局势随之升级...&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/documents.gif?t=1695169315" /&gt;&lt;/h2&gt;&lt;strong&gt;文件核查&lt;/strong&gt;&lt;br&gt;每名旅客都必须有一套有效的文件。即使是最轻微的差异也意味着被拒绝入境的可能。随着时间的推移，文件的数量将会越来越多，当中的问题也将更难被发现。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/contraband.gif?t=1695169315" /&gt;&lt;/h2&gt; &lt;strong&gt;走私侦查&lt;/strong&gt;&lt;br&gt;我们的情报部门会定期提供有关可疑司机的信息。用紫外光手电筒搜查他们的车辆，然后使用合适的工具取出走私货物。任何数量的违禁品都不得越过边境!&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/shootout.gif?t=1695169315" /&gt;&lt;/h2&gt;&lt;strong&gt;枪战&lt;/strong&gt;&lt;br&gt;在某些情况下，你将被迫使用枪械。你的站点一直是奥贝兰科夫团伙袭击的目标，每一次外出任务都有与敌人发生冲突的风险。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/chase.gif?t=1695169315" /&gt;&lt;/h2&gt;&lt;strong&gt;警察追捕&lt;/strong&gt;&lt;br&gt;绝望的走私者可能会试图从控制区逃跑。拦截并逮捕他们是你的分内之事! 购买和对警车升级，提高追捕活动的成功率。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/post_management.gif?t=1695169315" /&gt;&lt;/h2&gt;&lt;strong&gt;哨所管理&lt;/strong&gt;&lt;br&gt;升级警局，以增加对外防御能力，并改善后续的检查流程。然而，请记住，维护你的站点的成本在不断攀升。成功的检查、挫败走私行为以及成功的干预活动都是赚取现金的途径。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/bf_gov_logos.gif?t=1695169315" /&gt;&lt;/h2&gt;&lt;strong&gt;特别任务&lt;/strong&gt;&lt;br&gt;随时准备在紧急情况下进行干预。解决犯罪难题，支援你的同事们，挫败”血拳“叛军。做出恰当的判断，决定阿卡里斯坦的未来。</t>
         </is>
       </c>
     </row>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>开放世界,角色扮演,历史,单人,动作</t>
+          <t>开放世界,角色扮演,历史,动作,单人</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5995,7 +5995,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -8500,7 +8500,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -8702,7 +8702,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>《同舟共济》是一款航海roguelite合作游戏，你将扮演愚者，他们是唯一足以勇闯海洋的生物。由于曾经保护群岛的大灯塔的破坏，一场恶意和腐败的风暴即将来临。&lt;br&gt;&lt;br&gt;你和你的船友们将一起跳上Stormstrider号，进行跨海航行。操纵大炮，准备好你的风帆，保护你的船在多次航行中免受海怪的袭击。能否从无所不能的海族灭世者手中保卫自己的家园，就看你了。&lt;br&gt;&lt;br&gt;简而言之，《同舟共济》是一款关于用强大的大炮轰走海上敌人的同时保卫船只的游戏。灵感来自于现代经典的Roguelites游戏，并为合作而生，你会想把你的大副好友带到甲板上，享受划船的战斗，同时解锁新的饰品和文物，帮助你从灾难中拯救世界。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1286580/extras/Steam_banners_V2BOMBASTIC-CO-OP-COMBAT.png?t=1687529431" /&gt;&lt;br&gt;&lt;br&gt;该游戏为合作游戏而生，与可怕的风暴生物的疯狂战斗遭遇将考验你的团队精神。协同作战，保卫和修理船只，将物品效果组合成强大的组合，如果你不想成为鱼的食物，请确保你有你的船友的支持。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1286580/extras/Steam_banners_V2STORMY-COURSE-PLANNING.png?t=1687529431" /&gt;&lt;br&gt;&lt;br&gt;在群岛的各个岛屿上发掘失落的宝藏和偏远的商店，但要仔细计划你的行动，当你在这一地区规划你的道路时，永恒的风暴会发生变化，用它的愤怒阻挡你的道路。你需要根据风暴的动向调整你的航线，并决定你何时可以勇敢地去探索风暴中潜藏的东西。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1286580/extras/Steam_banners_V2SOLO-CAPTAINS,-SAIL-FOR-GLORY.png?t=1687529431" /&gt;&lt;br&gt;&lt;br&gt;玩家同时可以选择作为一个单独的水手独自游玩，独自操纵船只，在危险的水域中战斗，一人夺得所有的荣耀，《同舟共济》可供单人游戏以及多人合作模式。正如他们在古老的水手歌中所唱的那样：有时没有船员都比有一个猪队友要好！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1286580/extras/Steam_banners_V2REPLAYABLE,-LIKE-THE-ENDLESS-SEA.png?t=1687529431" /&gt;&lt;br&gt;&lt;br&gt;有许多愚者角色可供选择，有独特的物品可以寻找和解锁，有恶性遭遇可以战斗，有许多岛屿可以探险，每次游玩都会给你的航行带来新的东西。每次都会增强你的力量，让你准备好打败深海的怪物。&lt;br&gt;&lt;br&gt;&lt;strong&gt;主要特点&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;在合作中作为两个船友或作为一个单独的水手进行疯狂的航海战斗 &lt;br&gt;&lt;/li&gt;&lt;li&gt;最顽强的水手挑战巨大的海怪&lt;br&gt;&lt;/li&gt;&lt;li&gt;在群岛的地图中规划你的路线，勇敢面对永恒的风暴&lt;br&gt;&lt;/li&gt;&lt;li&gt;化身为具有特殊能力的独特愚人，在旅途中如虎添翼&lt;br&gt;&lt;/li&gt;&lt;li&gt;100多件饰品和文物可供收集和组合，以制定获胜策略&lt;br&gt;&lt;/li&gt;&lt;li&gt;潇洒的手绘艺术作品，让你目不暇接&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;请注意：本地多人游戏需要控制器</t>
+          <t>《同舟共济》是一款航海roguelite合作游戏，你将扮演愚者，他们是唯一足以勇闯海洋的生物。由于曾经保护群岛的大灯塔的破坏，一场恶意和腐败的风暴即将来临。&lt;br&gt;&lt;br&gt;你和你的船友们将一起跳上Stormstrider号，进行跨海航行。操纵大炮，准备好你的风帆，保护你的船在多次航行中免受海怪的袭击。能否从无所不能的海族灭世者手中保卫自己的家园，就看你了。&lt;br&gt;&lt;br&gt;简而言之，《同舟共济》是一款关于用强大的大炮轰走海上敌人的同时保卫船只的游戏。灵感来自于现代经典的Roguelites游戏，并为合作而生，你会想把你的大副好友带到甲板上，享受划船的战斗，同时解锁新的饰品和文物，帮助你从灾难中拯救世界。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1286580/extras/Steam_banners_V2BOMBASTIC-CO-OP-COMBAT.png?t=1695136937" /&gt;&lt;br&gt;&lt;br&gt;该游戏为合作游戏而生，与可怕的风暴生物的疯狂战斗遭遇将考验你的团队精神。协同作战，保卫和修理船只，将物品效果组合成强大的组合，如果你不想成为鱼的食物，请确保你有你的船友的支持。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1286580/extras/Steam_banners_V2STORMY-COURSE-PLANNING.png?t=1695136937" /&gt;&lt;br&gt;&lt;br&gt;在群岛的各个岛屿上发掘失落的宝藏和偏远的商店，但要仔细计划你的行动，当你在这一地区规划你的道路时，永恒的风暴会发生变化，用它的愤怒阻挡你的道路。你需要根据风暴的动向调整你的航线，并决定你何时可以勇敢地去探索风暴中潜藏的东西。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1286580/extras/Steam_banners_V2SOLO-CAPTAINS,-SAIL-FOR-GLORY.png?t=1695136937" /&gt;&lt;br&gt;&lt;br&gt;玩家同时可以选择作为一个单独的水手独自游玩，独自操纵船只，在危险的水域中战斗，一人夺得所有的荣耀，《同舟共济》可供单人游戏以及多人合作模式。正如他们在古老的水手歌中所唱的那样：有时没有船员都比有一个猪队友要好！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1286580/extras/Steam_banners_V2REPLAYABLE,-LIKE-THE-ENDLESS-SEA.png?t=1695136937" /&gt;&lt;br&gt;&lt;br&gt;有许多愚者角色可供选择，有独特的物品可以寻找和解锁，有恶性遭遇可以战斗，有许多岛屿可以探险，每次游玩都会给你的航行带来新的东西。每次都会增强你的力量，让你准备好打败深海的怪物。&lt;br&gt;&lt;br&gt;&lt;strong&gt;主要特点&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;在合作中作为两个船友或作为一个单独的水手进行疯狂的航海战斗 &lt;br&gt;&lt;/li&gt;&lt;li&gt;最顽强的水手挑战巨大的海怪&lt;br&gt;&lt;/li&gt;&lt;li&gt;在群岛的地图中规划你的路线，勇敢面对永恒的风暴&lt;br&gt;&lt;/li&gt;&lt;li&gt;化身为具有特殊能力的独特愚人，在旅途中如虎添翼&lt;br&gt;&lt;/li&gt;&lt;li&gt;100多件饰品和文物可供收集和组合，以制定获胜策略&lt;br&gt;&lt;/li&gt;&lt;li&gt;潇洒的手绘艺术作品，让你目不暇接&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;请注意：本地多人游戏需要控制器</t>
         </is>
       </c>
     </row>
@@ -8991,7 +8991,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>你的存款很少，但野心很大。 &lt;br&gt;&lt;br&gt;在叔叔的帮助下，你找到一间公寓和第一份工作。 但接下来，能否取得成功并最终接管纽约，将完全取决于你自己。 &lt;br&gt;&lt;br&gt;慢慢建立多个小企业，把它们发展成大公司，或者另辟蹊径 – 在庞大的商业沙盒中探索无限可能， 享受绝无仅有的游戏体验！&lt;br&gt;&lt;br&gt;从小公寓和公共交通到豪华套房、跑车和设计师家具。 把钱投入投资基金和房地产。 成功、失败，重头再来。 无论如何都要记得照顾好自己，好好睡觉，在上升之路上保持好心态。 &lt;br&gt;&lt;br&gt;你有能力建立自己的帝国吗？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/1-zhcn.png?t=1694514144" /&gt;&lt;br&gt;从一无所有起步，成为纽约最显赫的大亨。 走上创业之路，聪明地工作，让企业蓬勃发展，同时享受生活。 你想如何成功？ 你能付出多少？ 你能坚持多久？ &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_placement.gif?t=1694514144" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/2-zhcn.png?t=1694514144" /&gt;&lt;br&gt;创办你自己的礼品店、超市、咖啡店、律师事务所、服装店、酒品店、花店等。 定义你自己的成功 – 开一家小商店、一系列连锁快餐店、一家大公司。或者在地下室开发价值数百万美元的网站。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_citymap.gif?t=1694514144" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/3-zhcn.png?t=1694514144" /&gt;&lt;br&gt;申请贷款、租用建筑、设计徽标、翻新店铺、进货、管理资金、雇用员工，以及建造基础设施。 过不久，你可能还要开始从港口进口商品，通过仓库网络进行配送。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_warehouse.gif?t=1694514144" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/4-zhcn.png?t=1694514144" /&gt;&lt;br&gt;企业越大，就越需要管理人员。 雇用人力资源经理、物流经理和采购代表。 这些人员都需要办公桌和电脑，所以你需要一个高级的总部。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_headquarters.gif?t=1694514144" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/5-zhcn.png?t=1694514144" /&gt;&lt;br&gt;需要送货卡车？ 到经销商那里买一辆。 需要吃的？ 去超市逛逛，但要先在家里配个冰箱。 Big Ambitions 是一款生活模拟游戏，你的角色必须与世界直接互动才能生存下来并取得成功。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_fridge.jpg?t=1694514144" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/6-zhcn.png?t=1694514144" /&gt;&lt;br&gt;在每处房屋里都装上适合自己风格和地位的家具。 把辛苦赚来的资金投资到房地产，发展你的商业帝国。 一点一点，接管这座城市。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_apartment.jpg?t=1694514144" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/7-zhcn.png?t=1694514144" /&gt;&lt;br&gt;你自己的财产，想怎么花就怎么花。 买台大型 SUV、高速跑车，或者全新豪华型 Mersaidi S500。 也可以去赌场碰碰运气，或者把钱投入投资基金收取回报。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_car.jpg?t=1694514144" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/8-zhcn.png?t=1694514144" /&gt;&lt;br&gt;游戏期间，你始终需要保证充足的睡眠，保持健康快乐。 旅程的重点在于享受当下时光，因为年龄越大，你越会想到金钱买不来时间… 不过真的买不来吗？  &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_persona.jpg?t=1694514144" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/9-zhcn.png?t=1694514144" /&gt;&lt;br&gt;Big Ambitions 将人气大作 Startup Company 的精华提炼到更高层次。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_startupcompany.jpg?t=1694514144" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1331550/Big_Ambitions/" target="_blank" rel=""  id="dynamiclink_2" &gt;https://store.steampowered.com/app/1331550/Big_Ambitions/&lt;/a&gt;</t>
+          <t>你的存款很少，但野心很大。 &lt;br&gt;&lt;br&gt;在叔叔的帮助下，你找到一间公寓和第一份工作。 但接下来，能否取得成功并最终接管纽约，将完全取决于你自己。 &lt;br&gt;&lt;br&gt;慢慢建立多个小企业，把它们发展成大公司，或者另辟蹊径 – 在庞大的商业沙盒中探索无限可能， 享受绝无仅有的游戏体验！&lt;br&gt;&lt;br&gt;从小公寓和公共交通到豪华套房、跑车和设计师家具。 把钱投入投资基金和房地产。 成功、失败，重头再来。 无论如何都要记得照顾好自己，好好睡觉，在上升之路上保持好心态。 &lt;br&gt;&lt;br&gt;你有能力建立自己的帝国吗？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/1-zhcn.png?t=1695128300" /&gt;&lt;br&gt;从一无所有起步，成为纽约最显赫的大亨。 走上创业之路，聪明地工作，让企业蓬勃发展，同时享受生活。 你想如何成功？ 你能付出多少？ 你能坚持多久？ &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_placement.gif?t=1695128300" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/2-zhcn.png?t=1695128300" /&gt;&lt;br&gt;创办你自己的礼品店、超市、咖啡店、律师事务所、服装店、酒品店、花店等。 定义你自己的成功 – 开一家小商店、一系列连锁快餐店、一家大公司。或者在地下室开发价值数百万美元的网站。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_citymap.gif?t=1695128300" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/3-zhcn.png?t=1695128300" /&gt;&lt;br&gt;申请贷款、租用建筑、设计徽标、翻新店铺、进货、管理资金、雇用员工，以及建造基础设施。 过不久，你可能还要开始从港口进口商品，通过仓库网络进行配送。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_warehouse.gif?t=1695128300" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/4-zhcn.png?t=1695128300" /&gt;&lt;br&gt;企业越大，就越需要管理人员。 雇用人力资源经理、物流经理和采购代表。 这些人员都需要办公桌和电脑，所以你需要一个高级的总部。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_headquarters.gif?t=1695128300" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/5-zhcn.png?t=1695128300" /&gt;&lt;br&gt;需要送货卡车？ 到经销商那里买一辆。 需要吃的？ 去超市逛逛，但要先在家里配个冰箱。 Big Ambitions 是一款生活模拟游戏，你的角色必须与世界直接互动才能生存下来并取得成功。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_fridge.jpg?t=1695128300" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/6-zhcn.png?t=1695128300" /&gt;&lt;br&gt;在每处房屋里都装上适合自己风格和地位的家具。 把辛苦赚来的资金投资到房地产，发展你的商业帝国。 一点一点，接管这座城市。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_apartment.jpg?t=1695128300" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/7-zhcn.png?t=1695128300" /&gt;&lt;br&gt;你自己的财产，想怎么花就怎么花。 买台大型 SUV、高速跑车，或者全新豪华型 Mersaidi S500。 也可以去赌场碰碰运气，或者把钱投入投资基金收取回报。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_car.jpg?t=1695128300" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/8-zhcn.png?t=1695128300" /&gt;&lt;br&gt;游戏期间，你始终需要保证充足的睡眠，保持健康快乐。 旅程的重点在于享受当下时光，因为年龄越大，你越会想到金钱买不来时间… 不过真的买不来吗？  &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_persona.jpg?t=1695128300" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/9-zhcn.png?t=1695128300" /&gt;&lt;br&gt;Big Ambitions 将人气大作 Startup Company 的精华提炼到更高层次。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_startupcompany.jpg?t=1695128300" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1331550/Big_Ambitions/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1331550/Big_Ambitions/&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -9456,7 +9456,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>你的房东在敲门。你还剩下一枚硬币，你把它投入了老虎机…然后…中了头奖！今晚，房东很幸运！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1404850/extras/slots_schinese.gif?t=1689262650" /&gt;</t>
+          <t>你的房东在敲门。你还剩下一枚硬币，你把它投入了老虎机…然后…中了头奖！今晚，房东很幸运！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1404850/extras/slots_schinese.gif?t=1695220362" /&gt;</t>
         </is>
       </c>
     </row>
@@ -9777,7 +9777,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>《神州志西游》是一款&lt;i&gt;Rogue-like&lt;/i&gt;&lt;i&gt;卡牌策略&lt;/i&gt;&lt;i&gt;游戏&lt;/i&gt;。你将扮演西行的角色之一，组建一支精英团队，构建强大套牌，获取神秘法宝，去战胜一路上遇到的妖魔鬼怪。在旅途中，你会无可避免的遇到突发事件，一念&lt;strong&gt;成佛&lt;/strong&gt;，一念&lt;strong&gt;成魔&lt;/strong&gt;。&lt;br&gt;&lt;br&gt;QQ一群&lt;strong&gt;&lt;u&gt;1003867153&lt;/u&gt;&lt;/strong&gt;（已满），二群&lt;strong&gt;&lt;i&gt;570090261&lt;/i&gt;&lt;/strong&gt;！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/Fishpond_20220311111945.jpg?t=1694804159" /&gt;&lt;h2 class="bb_tag"&gt;游戏特色概述&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 5个英雄角色&lt;br&gt;&lt;/li&gt;&lt;li&gt;20+可招募同伴&lt;br&gt;&lt;/li&gt;&lt;li&gt;120+个独特的NPC&lt;br&gt;&lt;/li&gt;&lt;li&gt;500+张卡牌，300+件法宝和消耗品&lt;br&gt;&lt;/li&gt;&lt;li&gt;4个冒险章节，共60个不同结局&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;耳熟能详的传奇英雄&lt;/h2&gt;&lt;br&gt;每次冒险，你将扮演五位传奇英雄之一，带领最多5人的团队。每个英雄都拥有其独特的能力、75张卡池和特别的故事情节：&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;悟空手持金箍棒，能释放毁灭性的范围攻击，利用七十二变学习任何NPC的技能，能够操纵火焰使敌人燃烧，还可以灵活地闪避攻击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-七十二变-简中.gif?t=1694804159" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;玄奘具有独特的能力，能在敌人身上施加“善”或“恶”的状态，使其转化为自己的队友并创建新的团队，或者释放强大的攻击并创建魔法屏障来保护自己。他还可以利用诅咒卡牌，形成特殊的策略。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-唐僧-简中.gif?t=1694804159" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;白龙他的孪生妹妹龙女的灵魂同行，有着操纵水元素和使用剑阵触发强效增益的能力。他会储存未使用的能量作为灵力，并在需要时进行利用。龙女还有学习同伴卡牌的能力，增强他们的联合力量。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-白龙-简中.gif?t=1694804159" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;八戒可以通过吞噬消耗品获得饥饿值和基础状态提升，利用三十六变能力从敌人身上学习能力，以及在战斗中吸收生命值和最大生命值。另外，当八戒完成“八戒”时，可以最大化自身能力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-八戒-简中.gif?t=1694804159" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;沙僧是一个多才多艺的人物，可以根据敌人的位置增加伤害，并召唤五行妖精（金、木、水、火、土）进入敌人团队。沙僧可以围绕每个妖精的独特能力建立策略，并对敌人发动致命攻击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-沙僧-简中.gif?t=1694804159" /&gt;&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;独特的团队战斗体验&lt;/h2&gt;&lt;br&gt;在这艰难的西行之旅中，你不需要孤军奋战——通过从20多个同伴中招募并召唤NPC作为队友，组建你自己的全明星小队。同伴是拥有独特能力和2-4张卡牌的永久队友，他们将一直跟随你，直到他们死亡或被解雇。而NPC是临时队友，在每场战斗结束时会离开或死亡。&lt;br&gt;&lt;br&gt;游戏中有许多召唤或转换NPC的方法：你可以使用像爱情药水这样的消耗品来吸引NPC到你的身边，或使用净化瓶来净化邪恶的NPC。另外，你还可以使用中立卡牌“人种袋”来捕捉虚弱的NPC。值得一提的是，玄奘是创建NPC队伍的专家。你必须明智地选择你的队友，因为他们在这艰难的旅程中扮演着至关重要的角色。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-魅惑-简中.gif?t=1694804159" /&gt;&lt;h2 class="bb_tag"&gt;沉浸式的西游冒险故事&lt;/h2&gt;&lt;br&gt;每个英雄都有许多独特的故事情节，灵感来自于《西游记》的传说。这些故事情节根据你的选择和策略提供不同的对手、事件和任务。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/视频3.gif?t=1694804159" /&gt;&lt;br&gt;&lt;br&gt;随着西行旅程不断深入，你将遇到超过120个独特的NPC，每个NPC都有自己的技能和背景故事。通过相互关联的事件和选择，每个决策都会带你走向不同的路径，通向天庭、灵山或心魔幻境进行最终的对决。你所采取的每一步都至关重要，决定着世界的命运 - 这是一个真正沉浸式的冒险，从开始到结束都能让你全神贯注。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/视频2.gif?t=1694804159" /&gt;&lt;br&gt;&lt;br&gt;敢问路在何方？路在脚下！这便开始惊心动魄的西游之路吧！</t>
+          <t>《神州志西游》是一款&lt;i&gt;Rogue-like&lt;/i&gt;&lt;i&gt;卡牌策略&lt;/i&gt;&lt;i&gt;游戏&lt;/i&gt;。你将扮演西行的角色之一，组建一支精英团队，构建强大套牌，获取神秘法宝，去战胜一路上遇到的妖魔鬼怪。在旅途中，你会无可避免的遇到突发事件，一念&lt;strong&gt;成佛&lt;/strong&gt;，一念&lt;strong&gt;成魔&lt;/strong&gt;。&lt;br&gt;&lt;br&gt;QQ一群&lt;strong&gt;&lt;u&gt;1003867153&lt;/u&gt;&lt;/strong&gt;（已满），二群&lt;strong&gt;&lt;i&gt;570090261&lt;/i&gt;&lt;/strong&gt;！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/Fishpond_20220311111945.jpg?t=1695159823" /&gt;&lt;h2 class="bb_tag"&gt;游戏特色概述&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 5个英雄角色&lt;br&gt;&lt;/li&gt;&lt;li&gt;20+可招募同伴&lt;br&gt;&lt;/li&gt;&lt;li&gt;120+个独特的NPC&lt;br&gt;&lt;/li&gt;&lt;li&gt;500+张卡牌，300+件法宝和消耗品&lt;br&gt;&lt;/li&gt;&lt;li&gt;4个冒险章节，共60个不同结局&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;耳熟能详的传奇英雄&lt;/h2&gt;&lt;br&gt;每次冒险，你将扮演五位传奇英雄之一，带领最多5人的团队。每个英雄都拥有其独特的能力、75张卡池和特别的故事情节：&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;悟空手持金箍棒，能释放毁灭性的范围攻击，利用七十二变学习任何NPC的技能，能够操纵火焰使敌人燃烧，还可以灵活地闪避攻击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-七十二变-简中.gif?t=1695159823" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;玄奘具有独特的能力，能在敌人身上施加“善”或“恶”的状态，使其转化为自己的队友并创建新的团队，或者释放强大的攻击并创建魔法屏障来保护自己。他还可以利用诅咒卡牌，形成特殊的策略。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-唐僧-简中.gif?t=1695159823" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;白龙他的孪生妹妹龙女的灵魂同行，有着操纵水元素和使用剑阵触发强效增益的能力。他会储存未使用的能量作为灵力，并在需要时进行利用。龙女还有学习同伴卡牌的能力，增强他们的联合力量。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-白龙-简中.gif?t=1695159823" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;八戒可以通过吞噬消耗品获得饥饿值和基础状态提升，利用三十六变能力从敌人身上学习能力，以及在战斗中吸收生命值和最大生命值。另外，当八戒完成“八戒”时，可以最大化自身能力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-八戒-简中.gif?t=1695159823" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;沙僧是一个多才多艺的人物，可以根据敌人的位置增加伤害，并召唤五行妖精（金、木、水、火、土）进入敌人团队。沙僧可以围绕每个妖精的独特能力建立策略，并对敌人发动致命攻击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-沙僧-简中.gif?t=1695159823" /&gt;&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;独特的团队战斗体验&lt;/h2&gt;&lt;br&gt;在这艰难的西行之旅中，你不需要孤军奋战——通过从20多个同伴中招募并召唤NPC作为队友，组建你自己的全明星小队。同伴是拥有独特能力和2-4张卡牌的永久队友，他们将一直跟随你，直到他们死亡或被解雇。而NPC是临时队友，在每场战斗结束时会离开或死亡。&lt;br&gt;&lt;br&gt;游戏中有许多召唤或转换NPC的方法：你可以使用像爱情药水这样的消耗品来吸引NPC到你的身边，或使用净化瓶来净化邪恶的NPC。另外，你还可以使用中立卡牌“人种袋”来捕捉虚弱的NPC。值得一提的是，玄奘是创建NPC队伍的专家。你必须明智地选择你的队友，因为他们在这艰难的旅程中扮演着至关重要的角色。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-魅惑-简中.gif?t=1695159823" /&gt;&lt;h2 class="bb_tag"&gt;沉浸式的西游冒险故事&lt;/h2&gt;&lt;br&gt;每个英雄都有许多独特的故事情节，灵感来自于《西游记》的传说。这些故事情节根据你的选择和策略提供不同的对手、事件和任务。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/视频3.gif?t=1695159823" /&gt;&lt;br&gt;&lt;br&gt;随着西行旅程不断深入，你将遇到超过120个独特的NPC，每个NPC都有自己的技能和背景故事。通过相互关联的事件和选择，每个决策都会带你走向不同的路径，通向天庭、灵山或心魔幻境进行最终的对决。你所采取的每一步都至关重要，决定着世界的命运 - 这是一个真正沉浸式的冒险，从开始到结束都能让你全神贯注。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/视频2.gif?t=1695159823" /&gt;&lt;br&gt;&lt;br&gt;敢问路在何方？路在脚下！这便开始惊心动魄的西游之路吧！</t>
         </is>
       </c>
     </row>
@@ -10173,7 +10173,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;塔恩拉大祸将至&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1488200/extras/SoW_Combat_Movement.gif?t=1695138005" /&gt;&lt;br&gt;千禧年在即，塔恩拉的世界即将迎来一场绝世阴谋。在经历了战火连绵、腥风血雨的继位战争之后，维尔迪亚帝国民不聊生、满目疮痍。随着女皇芙洛里娜的登基，这场恶性循环似乎终于被打破。不料，一名将军集结大军，公然宣叛，还在首都掳走了女皇。你，一名军校毕业生，将带领部队讨伐逆贼……而这场战争即将在这片大陆上拉开惊天动地大事件的序幕。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 2D策略型回合制角色扮演游戏&lt;br&gt;&lt;/li&gt;&lt;li&gt; 率领小队作战&lt;br&gt;&lt;/li&gt;&lt;li&gt; 故事内容丰富，30-40小时的战役流程，重玩性高 &lt;br&gt;&lt;/li&gt;&lt;li&gt; 50+可选角色职业 &lt;br&gt;&lt;/li&gt;&lt;li&gt; 深度战略游戏，边玩边学，容易上手&lt;br&gt;&lt;/li&gt;&lt;li&gt; 角色和军队设置拥有无限可能性&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;战术赢得战斗&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1488200/extras/SOW_Archery.gif?t=1695138005" /&gt;&lt;br&gt;游戏玩法着重于大规模作战，布局智取敌人。队伍拼杀将自动进行，只需观赏并等待结果。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 操控部队（至多9人）作战，通过抢占高地、扼据要冲、树林埋伏等方式赢得上风&lt;br&gt;&lt;/li&gt;&lt;li&gt; 注意天气变化，或是被突如其来的暴风雪或热浪击倒&lt;br&gt;&lt;/li&gt;&lt;li&gt; 通过解放城镇、占领资源点来提升声誉，壮大军队&lt;br&gt;&lt;/li&gt;&lt;li&gt; 瓦解敌方战意，鼓舞我军士气&lt;br&gt;&lt;/li&gt;&lt;li&gt; 消灭敌军队长，打击敌方指挥&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;战略赢得战争&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1488200/extras/SoW_Army_Management.gif?t=1695138005" /&gt;&lt;br&gt;战术赢得战斗。战略赢得战争。尘埃落尽之后，是时候收治伤员，集结部队，展开另一场大战，一步一步将和平带回塔恩拉。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 超过50种职业可供组建部队，包括重步兵、弓兵、冲击骑兵、医疗兵、火枪兵、龙、战斗法师等&lt;br&gt;&lt;/li&gt;&lt;li&gt; 为部队装备通过战斗赢得的道具和神器&lt;br&gt;&lt;/li&gt;&lt;li&gt; 将新兵训练成精英战士，或招募佣兵来立即提升军队战力&lt;br&gt;&lt;/li&gt;&lt;li&gt; 研发阵营的科技树，升级职业，增强战斗部队&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;集结英雄，建立军队&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1488200/extras/SoW_Relationship.gif?t=1695138005" /&gt;&lt;br&gt;帝国战争学院的毕业生被迅速派出镇压叛乱，却卷入了一场出乎意料的可怕阴谋。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 结交来自各个阵营的伙伴、英雄、盟友和对手&lt;br&gt;&lt;/li&gt;&lt;li&gt; 体验动态关系系统，解锁独特对话，建立情比金坚的关系，获得角色的强力加成&lt;br&gt;&lt;/li&gt;&lt;li&gt; 在这片和平岌岌可危的塔恩拉大陆，体验暗藏杀机、背信弃义、豪情壮志的史诗故事&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.com/invite/dancingdragongames" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1488200/extras/SOW-Discord-Banner.gif?t=1695139021" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1488200/extras/SOW-Feature_Banner_Shadow-chinese.png?t=1695139021" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1488200/extras/SoW_Combat_Movement.gif?t=1695139021" /&gt;&lt;br&gt;千禧年在即，塔恩拉的世界即将迎来一场绝世阴谋。在经历了战火连绵、腥风血雨的继位战争之后，维尔迪亚帝国民不聊生、满目疮痍。随着女皇芙洛里娜的登基，这场恶性循环似乎终于被打破。不料，一名将军集结大军，公然宣叛，还在首都掳走了女皇。你，一名军校毕业生，将带领部队讨伐逆贼……而这场战争即将在这片大陆上拉开惊天动地大事件的序幕。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 2D策略型回合制角色扮演游戏&lt;br&gt;&lt;/li&gt;&lt;li&gt; 率领小队作战&lt;br&gt;&lt;/li&gt;&lt;li&gt; 故事内容丰富，30-40小时的战役流程，重玩性高 &lt;br&gt;&lt;/li&gt;&lt;li&gt; 50+可选角色职业 &lt;br&gt;&lt;/li&gt;&lt;li&gt; 深度战略游戏，边玩边学，容易上手&lt;br&gt;&lt;/li&gt;&lt;li&gt; 角色和军队设置拥有无限可能性&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1488200/extras/SOW-Feature_Banner_Battles-chinese.png?t=1695139021" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1488200/extras/SOW_Archery.gif?t=1695139021" /&gt;&lt;br&gt;游戏玩法着重于大规模作战，布局智取敌人。队伍拼杀将自动进行，只需观赏并等待结果。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 操控部队（至多9人）作战，通过抢占高地、扼据要冲、树林埋伏等方式赢得上风&lt;br&gt;&lt;/li&gt;&lt;li&gt; 注意天气变化，或是被突如其来的暴风雪或热浪击倒&lt;br&gt;&lt;/li&gt;&lt;li&gt; 通过解放城镇、占领资源点来提升声誉，壮大军队&lt;br&gt;&lt;/li&gt;&lt;li&gt; 瓦解敌方战意，鼓舞我军士气&lt;br&gt;&lt;/li&gt;&lt;li&gt; 消灭敌军队长，打击敌方指挥&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1488200/extras/SOW-Feature_Banner_Wars-chinese.png?t=1695139021" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1488200/extras/SoW_Army_Management.gif?t=1695139021" /&gt;&lt;br&gt;战术赢得战斗。战略赢得战争。尘埃落尽之后，是时候收治伤员，集结部队，展开另一场大战，一步一步将和平带回塔恩拉。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 超过50种职业可供组建部队，包括重步兵、弓兵、冲击骑兵、医疗兵、火枪兵、龙、战斗法师等&lt;br&gt;&lt;/li&gt;&lt;li&gt; 为部队装备通过战斗赢得的道具和神器&lt;br&gt;&lt;/li&gt;&lt;li&gt; 将新兵训练成精英战士，或招募佣兵来立即提升军队战力&lt;br&gt;&lt;/li&gt;&lt;li&gt; 研发阵营的科技树，升级职业，增强战斗部队&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1488200/extras/SOW-Feature_Banner_Army-chinese.png?t=1695139021" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1488200/extras/SoW_Relationship.gif?t=1695139021" /&gt;&lt;br&gt;帝国战争学院的毕业生被迅速派出镇压叛乱，却卷入了一场出乎意料的可怕阴谋。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 结交来自各个阵营的伙伴、英雄、盟友和对手&lt;br&gt;&lt;/li&gt;&lt;li&gt; 体验动态关系系统，解锁独特对话，建立情比金坚的关系，获得角色的强力加成&lt;br&gt;&lt;/li&gt;&lt;li&gt; 在这片和平岌岌可危的塔恩拉大陆，体验暗藏杀机、背信弃义、豪情壮志的史诗故事&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
@@ -11669,7 +11669,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>官方QQ群号：&lt;br&gt;官方QQ④群：757371350&lt;br&gt;官方QQ⑧群：920151793&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;这是一款基于武侠、江湖背景为基础的&lt;strong&gt; &lt;u&gt;开放沙盒类非传统武侠 RPG游戏&lt;/u&gt;&lt;/strong&gt;，你可以在这个大荒世界之中，扮演你所幻想的任何武侠角色，这里没有任何阻挡你幻想的老套剧情，你所演绎的武侠人生就是这个你的游戏剧情。你可以作为一名江湖小虾米游历大荒，你也可以成为一派掌门引领四方，你亦可以成为一名看不惯这江湖的浪子我行我素。最重要的是，请一切遵从于你的内心而为，并且活着！&lt;br&gt;&lt;br&gt;(1)玩家可以从零开始扩展自己的小世界，也可以通过创建小世界生成随机大小的初始世界。每个区域都有独特的环境、资源、生物以及势力。 在熟悉了游戏基本操作之后，您便可以直接生成环境属性各异的、已经包含一定数量地块的世界进行体验和历练，并且可以控制不同的“我”往来穿梭于各个世界开启别样人生！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/kf1.gif?t=1694704292" /&gt;&lt;br&gt;&lt;br&gt;(2)新颖的单回合战斗方式，通过收集不同的绝学搭配创建自己的招式库，战斗中拖动连接不同的招式激活绝学，利用招式克制和绝学套路，体现武侠战斗的策略性。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF2.gif?t=1694704292" /&gt;&lt;br&gt;&lt;br&gt;(3)独创的经脉系统，将人体经脉的运转进行了简化概念设计，玩家可以体验到不同的运功路线激活不同内功的拟真感受，简洁却富有策略玩法的设计给玩家提供了搭配和激活多种内功的玩法。同时经脉系统也结合了武侠小说中各种身体机能的具象表现，角色的生命力、内伤、隐疾、蛊、生死符、残疾、瞎眼等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF3.gif?t=1694704292" /&gt;&lt;br&gt;&lt;br&gt;(4)游戏还包含了自由的建造模式，玩家可以打造自己的民居、酒馆、温泉、马厩、大殿、监牢等等，每种建筑都有独特的功能。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF4.gif?t=1694704292" /&gt;&lt;br&gt;&lt;br&gt;(5)潜行玩法，可以通过训练潜行能力，配合独特的内功，夜晚穿上夜行衣，如人无人之境。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF5.gif?t=1694704292" /&gt;&lt;br&gt;&lt;br&gt;(6)训练轻功、跳跃、潜水、攀爬，无论高山深海都可闲庭信步。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF6.gif?t=1694704292" /&gt;&lt;br&gt;&lt;br&gt;(7)通过自定义天命、出身、容貌、血脉，打造独属于自己的角色。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF7.gif?t=1694704292" /&gt;&lt;br&gt;&lt;br&gt;(8)非线性剧情，游戏中每个NPC都会根据自己的行为、身份、名声、关系、态度等等在世界中生存，玩家的每次游戏都会与他们发生不同的剧情。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF8.gif?t=1694704292" /&gt;&lt;br&gt;&lt;br&gt;(9)丰富的交互内容&lt;br&gt;可以把敌人的建筑引燃&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF9.gif?t=1694704292" /&gt;&lt;br&gt;&lt;br&gt;可以邀请NPC喝酒，灌醉后搜刮物品&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF10.gif?t=1694704292" /&gt;&lt;br&gt;&lt;br&gt;可以驯化各种动物，每种动物都有各自独特的功能，例如猴子可以乞讨、马可以乘骑和改装马车、蛇可以下毒等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF11.gif?t=1694704292" /&gt;&lt;br&gt;&lt;br&gt;玩家可以创建自己门派，招募弟子，发布命令，参加武林大会。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF12.gif?t=1694704292" /&gt;&lt;br&gt;&lt;br&gt;丰富的交互内容·玩家可以布置陷阱，抓捕动物或敌人。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF13.gif?t=1694704292" /&gt;&lt;br&gt;&lt;br&gt;建立门派，发布命令&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF15.gif?t=1694704292" /&gt;&lt;br&gt;&lt;br&gt;建立牢笼，关押敌人&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF16.gif?t=1694704292" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;———————————————————————————————————————&lt;br&gt;来自幻魔寺的寄语：&lt;br&gt;我们坚守本心，完全独立开发，只做大家觉得好玩的游戏，这款游戏的世界目前仍然只是一个雏形，我们深知它会不断壮大，并且成为未来我们一切游戏的基石，我们会为此不断努力，带给大家一个绝妙的幻想世界！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/respect.png?t=1694704292" /&gt;</t>
+          <t>官方QQ群号：&lt;br&gt;官方QQ④群：757371350&lt;br&gt;官方QQ⑧群：920151793&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;这是一款基于武侠、江湖背景为基础的&lt;strong&gt; &lt;u&gt;开放沙盒类非传统武侠 RPG游戏&lt;/u&gt;&lt;/strong&gt;，你可以在这个大荒世界之中，扮演你所幻想的任何武侠角色，这里没有任何阻挡你幻想的老套剧情，你所演绎的武侠人生就是这个你的游戏剧情。你可以作为一名江湖小虾米游历大荒，你也可以成为一派掌门引领四方，你亦可以成为一名看不惯这江湖的浪子我行我素。最重要的是，请一切遵从于你的内心而为，并且活着！&lt;br&gt;&lt;br&gt;(1)玩家可以从零开始扩展自己的小世界，也可以通过创建小世界生成随机大小的初始世界。每个区域都有独特的环境、资源、生物以及势力。 在熟悉了游戏基本操作之后，您便可以直接生成环境属性各异的、已经包含一定数量地块的世界进行体验和历练，并且可以控制不同的“我”往来穿梭于各个世界开启别样人生！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/kf1.gif?t=1695190215" /&gt;&lt;br&gt;&lt;br&gt;(2)新颖的单回合战斗方式，通过收集不同的绝学搭配创建自己的招式库，战斗中拖动连接不同的招式激活绝学，利用招式克制和绝学套路，体现武侠战斗的策略性。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF2.gif?t=1695190215" /&gt;&lt;br&gt;&lt;br&gt;(3)独创的经脉系统，将人体经脉的运转进行了简化概念设计，玩家可以体验到不同的运功路线激活不同内功的拟真感受，简洁却富有策略玩法的设计给玩家提供了搭配和激活多种内功的玩法。同时经脉系统也结合了武侠小说中各种身体机能的具象表现，角色的生命力、内伤、隐疾、蛊、生死符、残疾、瞎眼等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF3.gif?t=1695190215" /&gt;&lt;br&gt;&lt;br&gt;(4)游戏还包含了自由的建造模式，玩家可以打造自己的民居、酒馆、温泉、马厩、大殿、监牢等等，每种建筑都有独特的功能。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF4.gif?t=1695190215" /&gt;&lt;br&gt;&lt;br&gt;(5)潜行玩法，可以通过训练潜行能力，配合独特的内功，夜晚穿上夜行衣，如人无人之境。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF5.gif?t=1695190215" /&gt;&lt;br&gt;&lt;br&gt;(6)训练轻功、跳跃、潜水、攀爬，无论高山深海都可闲庭信步。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF6.gif?t=1695190215" /&gt;&lt;br&gt;&lt;br&gt;(7)通过自定义天命、出身、容貌、血脉，打造独属于自己的角色。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF7.gif?t=1695190215" /&gt;&lt;br&gt;&lt;br&gt;(8)非线性剧情，游戏中每个NPC都会根据自己的行为、身份、名声、关系、态度等等在世界中生存，玩家的每次游戏都会与他们发生不同的剧情。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF8.gif?t=1695190215" /&gt;&lt;br&gt;&lt;br&gt;(9)丰富的交互内容&lt;br&gt;可以把敌人的建筑引燃&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF9.gif?t=1695190215" /&gt;&lt;br&gt;&lt;br&gt;可以邀请NPC喝酒，灌醉后搜刮物品&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF10.gif?t=1695190215" /&gt;&lt;br&gt;&lt;br&gt;可以驯化各种动物，每种动物都有各自独特的功能，例如猴子可以乞讨、马可以乘骑和改装马车、蛇可以下毒等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF11.gif?t=1695190215" /&gt;&lt;br&gt;&lt;br&gt;玩家可以创建自己门派，招募弟子，发布命令，参加武林大会。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF12.gif?t=1695190215" /&gt;&lt;br&gt;&lt;br&gt;丰富的交互内容·玩家可以布置陷阱，抓捕动物或敌人。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF13.gif?t=1695190215" /&gt;&lt;br&gt;&lt;br&gt;建立门派，发布命令&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF15.gif?t=1695190215" /&gt;&lt;br&gt;&lt;br&gt;建立牢笼，关押敌人&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF16.gif?t=1695190215" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;———————————————————————————————————————&lt;br&gt;来自幻魔寺的寄语：&lt;br&gt;我们坚守本心，完全独立开发，只做大家觉得好玩的游戏，这款游戏的世界目前仍然只是一个雏形，我们深知它会不断壮大，并且成为未来我们一切游戏的基石，我们会为此不断努力，带给大家一个绝妙的幻想世界！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/respect.png?t=1695190215" /&gt;</t>
         </is>
       </c>
     </row>
@@ -11711,7 +11711,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>了解更多关于王朝系列的信息与福利，请加入官方QQ群：807909117&lt;br&gt;&lt;br&gt;《战国王朝》是一款融合了开放世界RPG、城市建造和生活模拟以及生存元素的多题材游戏。在封建日本的动荡时期，建立并成为自己王朝的主宰。在第一或第三人称视角下独自作战或与他人合作。&lt;br&gt;&lt;br&gt;在曾经饱受饥荒和战争摧残的地区，建立自己的生活，培养一个社区，打造一个属于自己的王朝。独自或与多人合作，探索一个美丽的开放世界，收集资源、制造、狩猎、建造和耕种，让自己生存下来，并支持您的村庄社区。与强悍的敌人作战，成为伟大的领袖，保护您所创造的一切。&lt;br&gt;&lt;br&gt;体验自然之美，参加古老的仪式，揭开神灵奥秘。《战国王朝》为玩家提供了一场对中世纪日本的沉浸式体验。选择您的路径，作为领袖、工匠、武士或僧侣，开始一段史诗般的旅程，&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/02_CN.png?t=1693986107" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/03.gif?t=1693986107" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;多样化的生物群落 &lt;/strong&gt;&lt;br&gt;探索森林、山脉、樱桃林和温泉，发现一个多样而美丽的世界。&lt;br&gt;&lt;br&gt;&lt;strong&gt;使用虚幻引擎5驱动 &lt;/strong&gt;&lt;br&gt;《战国王朝》利用Unreal的图像功能突破了开放世界现实主义的界限。&lt;br&gt;&lt;br&gt;&lt;strong&gt;开放世界村庄的建造者&lt;/strong&gt; &lt;br&gt;始于微末，将您的定居点扩展至整个山谷，形成繁荣的社区。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/04_CN.png?t=1693986107" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/05.gif?t=1693986107" /&gt; &lt;br&gt;&lt;br&gt;&lt;strong&gt;深入制造和建造系统 &lt;/strong&gt;&lt;br&gt;制造工具、武器、食物或药物，并耕种土地。&lt;br&gt;&lt;br&gt;&lt;strong&gt;近战和远程武器&lt;/strong&gt; &lt;br&gt;通过掌握武器，制作独特的日本武器，如长矛、弓和剑等， 来保护您的村庄和亲人。&lt;br&gt;&lt;br&gt;&lt;strong&gt;王朝管理&lt;/strong&gt; &lt;br&gt;为子孙后代创造一个繁荣的王朝。监督村庄的成长和发展。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/06_CN.png?t=1693986107" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/07.gif?t=1693986107" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;单人作战和合作模式&lt;/strong&gt;&lt;br&gt;开辟你自己的道路，或者与你的朋友联手创建更大的村庄，分担责任和任务，收集更多的资源，完成任务，共同进步。&lt;br&gt; &lt;br&gt;&lt;strong&gt;FPP和TPP模式&lt;/strong&gt;&lt;br&gt;根据您的偏好选择第一或第三人称视角。</t>
+          <t>了解更多关于王朝系列的信息与福利，请加入官方QQ群：807909117&lt;br&gt;&lt;br&gt;《战国王朝》是一款融合了开放世界RPG、城市建造和生活模拟以及生存元素的多题材游戏。在封建日本的动荡时期，建立并成为自己王朝的主宰。在第一或第三人称视角下独自作战或与他人合作。&lt;br&gt;&lt;br&gt;在曾经饱受饥荒和战争摧残的地区，建立自己的生活，培养一个社区，打造一个属于自己的王朝。独自或与多人合作，探索一个美丽的开放世界，收集资源、制造、狩猎、建造和耕种，让自己生存下来，并支持您的村庄社区。与强悍的敌人作战，成为伟大的领袖，保护您所创造的一切。&lt;br&gt;&lt;br&gt;体验自然之美，参加古老的仪式，揭开神灵奥秘。《战国王朝》为玩家提供了一场对中世纪日本的沉浸式体验。选择您的路径，作为领袖、工匠、武士或僧侣，开始一段史诗般的旅程，&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/02_CN.png?t=1695204760" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/03.gif?t=1695204760" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;多样化的生物群落 &lt;/strong&gt;&lt;br&gt;探索森林、山脉、樱桃林和温泉，发现一个多样而美丽的世界。&lt;br&gt;&lt;br&gt;&lt;strong&gt;使用虚幻引擎5驱动 &lt;/strong&gt;&lt;br&gt;《战国王朝》利用Unreal的图像功能突破了开放世界现实主义的界限。&lt;br&gt;&lt;br&gt;&lt;strong&gt;开放世界村庄的建造者&lt;/strong&gt; &lt;br&gt;始于微末，将您的定居点扩展至整个山谷，形成繁荣的社区。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/04_CN.png?t=1695204760" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/05.gif?t=1695204760" /&gt; &lt;br&gt;&lt;br&gt;&lt;strong&gt;深入制造和建造系统 &lt;/strong&gt;&lt;br&gt;制造工具、武器、食物或药物，并耕种土地。&lt;br&gt;&lt;br&gt;&lt;strong&gt;近战和远程武器&lt;/strong&gt; &lt;br&gt;通过掌握武器，制作独特的日本武器，如长矛、弓和剑等， 来保护您的村庄和亲人。&lt;br&gt;&lt;br&gt;&lt;strong&gt;王朝管理&lt;/strong&gt; &lt;br&gt;为子孙后代创造一个繁荣的王朝。监督村庄的成长和发展。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/06_CN.png?t=1695204760" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/07.gif?t=1695204760" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;单人作战和合作模式&lt;/strong&gt;&lt;br&gt;开辟你自己的道路，或者与你的朋友联手创建更大的村庄，分担责任和任务，收集更多的资源，完成任务，共同进步。&lt;br&gt; &lt;br&gt;&lt;strong&gt;FPP和TPP模式&lt;/strong&gt;&lt;br&gt;根据您的偏好选择第一或第三人称视角。</t>
         </is>
       </c>
     </row>
@@ -11795,7 +11795,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;加入我们的社区&lt;/h2&gt;&lt;strong&gt;QQ群: 812627126(满了)&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;QQ群: 13305571(没满)&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;B站: &lt;a href="https://steamcommunity.com/linkfilter/?url=https://space.bilibili.com/109833003" target="_blank" rel=" noopener"  &gt;https://space.bilibili.com/109833003&lt;/a&gt;&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;抖音：丸霸于大进BigYu&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;武器好几种&lt;/h2&gt;目前提供了5种武器可供使用，它们分别是，弓，枪，炮，斧，琴。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/武器好几种.gif?t=1694970365" /&gt;&lt;h2 class="bb_tag"&gt;大坐快乐多&lt;/h2&gt;黄游中独特的、快节奏的、大坐系统，越坐越快乐。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/大坐快乐多.gif?t=1694970365" /&gt;&lt;h2 class="bb_tag"&gt;成长很丰富&lt;/h2&gt;在游戏中有大量的道具和技能，通过不同的搭配，形成不同的战斗风格。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/成长很丰富.gif?t=1694970365" /&gt;&lt;h2 class="bb_tag"&gt;敌人炸了窝&lt;/h2&gt;在不同的场景，会遭遇不同的敌人，它们形态各异，性格多样，劈里啪啦，咔咔冒水。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/敌人炸了窝.gif?t=1694970365" /&gt;&lt;h2 class="bb_tag"&gt;3A级游戏体验&lt;/h2&gt;虽然这只是一个小团队的独立游戏，但我们希望营造出3A级的游戏体验，而令人愉快的是，我们做到了，我们成功的修改了3A的定义：A LOT OF 饼；A LOT OF 钱；A LOT OF 鱼。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/3A_cn.gif?t=1694970365" /&gt;</t>
+          <t>&lt;h2 class="bb_tag"&gt;加入我们的社区&lt;/h2&gt;&lt;strong&gt;QQ群: 812627126(满了)&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;QQ群: 13305571(没满)&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;B站: &lt;a href="https://steamcommunity.com/linkfilter/?url=https://space.bilibili.com/109833003" target="_blank" rel=" noopener"  &gt;https://space.bilibili.com/109833003&lt;/a&gt;&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;抖音：丸霸于大进BigYu&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;武器好几种&lt;/h2&gt;目前提供了5种武器可供使用，它们分别是，弓，枪，炮，斧，琴。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/武器好几种.gif?t=1695226386" /&gt;&lt;h2 class="bb_tag"&gt;大坐快乐多&lt;/h2&gt;黄游中独特的、快节奏的、大坐系统，越坐越快乐。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/大坐快乐多.gif?t=1695226386" /&gt;&lt;h2 class="bb_tag"&gt;成长很丰富&lt;/h2&gt;在游戏中有大量的道具和技能，通过不同的搭配，形成不同的战斗风格。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/成长很丰富.gif?t=1695226386" /&gt;&lt;h2 class="bb_tag"&gt;敌人炸了窝&lt;/h2&gt;在不同的场景，会遭遇不同的敌人，它们形态各异，性格多样，劈里啪啦，咔咔冒水。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/敌人炸了窝.gif?t=1695226386" /&gt;&lt;h2 class="bb_tag"&gt;3A级游戏体验&lt;/h2&gt;虽然这只是一个小团队的独立游戏，但我们希望营造出3A级的游戏体验，而令人愉快的是，我们做到了，我们成功的修改了3A的定义：A LOT OF 饼；A LOT OF 钱；A LOT OF 鱼。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/3A_cn.gif?t=1695226386" /&gt;</t>
         </is>
       </c>
     </row>
@@ -12096,7 +12096,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;关注我们&lt;/strong&gt;&lt;br&gt;欢迎关注我们的官方社群：&lt;br&gt;《漂流佣兵》玩家Q群：583314686&lt;br&gt;游戏便当QQ群①：287356527【已满】&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569&lt;br&gt;游戏便当QQ群④：909356067&lt;br&gt;&lt;br&gt;&lt;strong&gt;《漂流佣兵》是一款融合了卡牌策略和弹珠弹射玩法的游戏。&lt;/strong&gt;&lt;br&gt;-玩家可以在随机生成的地牢和城镇间探索，冒险，交易，招募佣兵。&lt;br&gt;-作为佣兵团长，带领精心挑选的伙伴们，在这个动荡的异世界生存下去。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p.gif?t=1695059435" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p5.jpg?t=1695059435" /&gt;&lt;br&gt;团长可以穿梭于异世界的各个城镇：皮魔镇，群山环绕景色宜人，打铁声络绎不绝；乱雾村，盛行树屋建筑，树木林立，小桥流水，宜居的不二选择……城镇的“奇遇”“事 &lt;br&gt;件”还能助团长邂逅不同的佣兵，邀请他们组建最强佣兵团！训练佣兵提升技能，为他们购买装备提升实力，一起冒险奇妙异世界。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/tese.jpg?t=1695059435" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p4.jpg?t=1695059435" /&gt;&lt;br&gt;在异世界不断邂逅美女伙伴！不同装扮、不同性格甚至是不同种族，总有一款对你胃口。能变装以蛊惑人心的新生魅魔、拥有强大战力但喜爱黏人的骑士长、逃离少爷之手又酷爱冒险的战斗女仆......或许多逛逛酒馆还可能打听到有关于她们的传闻哦~&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/xin.jpg?t=1695059435" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p1.jpg?t=1695059435" /&gt;&lt;br&gt;每位角色都将化身一颗弹珠，轻轻拉出基准线，弹射后即可战斗！强大的团长还将通过基准线，预判力道和路径，弹射更多的怪物。角色之间还能相互影响弹射效果，利用联动机制打出爽快的连击！ &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/角色弹射.gif?t=1695059435" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p2.jpg?t=1695059435" /&gt;&lt;br&gt;每一次异世界的冒险，团长都可以带着自己组建的强大佣兵团伙伴，体验每一个周目不同的战斗体验。每次协同战斗都有不同的战斗体验，哪个组合才是消灭魔王的最佳组合，等你来探索！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/伙伴联动.gif?t=1695059435" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p3.jpg?t=1695059435" /&gt;&lt;br&gt;异世界也散落了许多技能卡片，攻击、防御、buff牌各式各样，收集并构筑出属于自己的流派。配合弹射打出深度策略！当然，偶尔也会拿到不合适的卡片，有所取舍才能使卡组更强大。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/技能.gif?t=1695059435" /&gt;&lt;h2 class="bb_tag"&gt;关于【开发者】&lt;/h2&gt;&lt;br&gt;作者是个Solo开发的死宅。&lt;br&gt;&lt;br&gt;希望通过构筑这个游戏，与广大穿越者一起完成心中的奇幻异世界梦想。&lt;br&gt;&lt;br&gt;目前游戏还未最终完成，若有不足，希望大家理解，作者会尽力完善。</t>
+          <t>&lt;strong&gt;关注我们&lt;/strong&gt;&lt;br&gt;欢迎关注我们的官方社群：&lt;br&gt;《漂流佣兵》玩家Q群：583314686&lt;br&gt;游戏便当QQ群①：287356527【已满】&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569&lt;br&gt;游戏便当QQ群④：909356067&lt;br&gt;&lt;br&gt;&lt;strong&gt;《漂流佣兵》是一款融合了卡牌策略和弹珠弹射玩法的游戏。&lt;/strong&gt;&lt;br&gt;-玩家可以在随机生成的地牢和城镇间探索，冒险，交易，招募佣兵。&lt;br&gt;-作为佣兵团长，带领精心挑选的伙伴们，在这个动荡的异世界生存下去。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p.gif?t=1695189381" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p5.jpg?t=1695189381" /&gt;&lt;br&gt;团长可以穿梭于异世界的各个城镇：皮魔镇，群山环绕景色宜人，打铁声络绎不绝；乱雾村，盛行树屋建筑，树木林立，小桥流水，宜居的不二选择……城镇的“奇遇”“事 &lt;br&gt;件”还能助团长邂逅不同的佣兵，邀请他们组建最强佣兵团！训练佣兵提升技能，为他们购买装备提升实力，一起冒险奇妙异世界。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/tese.jpg?t=1695189381" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p4.jpg?t=1695189381" /&gt;&lt;br&gt;在异世界不断邂逅美女伙伴！不同装扮、不同性格甚至是不同种族，总有一款对你胃口。能变装以蛊惑人心的新生魅魔、拥有强大战力但喜爱黏人的骑士长、逃离少爷之手又酷爱冒险的战斗女仆......或许多逛逛酒馆还可能打听到有关于她们的传闻哦~&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/xin.jpg?t=1695189381" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p1.jpg?t=1695189381" /&gt;&lt;br&gt;每位角色都将化身一颗弹珠，轻轻拉出基准线，弹射后即可战斗！强大的团长还将通过基准线，预判力道和路径，弹射更多的怪物。角色之间还能相互影响弹射效果，利用联动机制打出爽快的连击！ &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/角色弹射.gif?t=1695189381" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p2.jpg?t=1695189381" /&gt;&lt;br&gt;每一次异世界的冒险，团长都可以带着自己组建的强大佣兵团伙伴，体验每一个周目不同的战斗体验。每次协同战斗都有不同的战斗体验，哪个组合才是消灭魔王的最佳组合，等你来探索！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/伙伴联动.gif?t=1695189381" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p3.jpg?t=1695189381" /&gt;&lt;br&gt;异世界也散落了许多技能卡片，攻击、防御、buff牌各式各样，收集并构筑出属于自己的流派。配合弹射打出深度策略！当然，偶尔也会拿到不合适的卡片，有所取舍才能使卡组更强大。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/技能.gif?t=1695189381" /&gt;&lt;h2 class="bb_tag"&gt;关于【开发者】&lt;/h2&gt;&lt;br&gt;作者是个Solo开发的死宅。&lt;br&gt;&lt;br&gt;希望通过构筑这个游戏，与广大穿越者一起完成心中的奇幻异世界梦想。&lt;br&gt;&lt;br&gt;目前游戏还未最终完成，若有不足，希望大家理解，作者会尽力完善。</t>
         </is>
       </c>
     </row>
@@ -14904,7 +14904,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -14914,7 +14914,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>&lt;a href="https://store.steampowered.com/app/2218400/_/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/2218400/_/&lt;/a&gt;&lt;br&gt;《矮人军团自走棋》有着十分爽快的战斗，并将RPG成长、Roguelike冒险和自走棋策略进行了巧妙融合，创造出了节奏轻快，且富含策略深度的游玩体验，实乃上班摸鱼、下班解压的神器。&lt;br&gt;&lt;br&gt;&lt;strong&gt;游戏重大更新现已上线，对锻造系统和仓库系统进行了大幅优化，并改进\增加了很多好玩的新内容，期待大家的游玩反馈！&lt;/strong&gt;&lt;br&gt;&lt;br&gt;玩家交流QQ群：①767476732（已满）  ③801398806（已满） ②740435455&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/小标题1.png?t=1694170016" /&gt;&lt;br&gt;作为新晋的矮人军团指挥官，你的征战之路得从三个矮人开始，他们装备简陋，战斗力不强，只有击败敌人获取经验和金币，让他们全副武装、战技娴熟，以及将更多战士招募进队伍，才能克敌制胜。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图1.gif?t=1694170016" /&gt;&lt;br&gt;&lt;br&gt;每一位矮人战士都可以进行专属定制，通过赋予它们不同的装备，这些矮人将拥有截然不同的定位，有的会成为耐打能抗的肉盾，有的则会成为敏捷灵活的刺客或弓箭手，有的则会成为输出爆炸、极为脆弱的法师。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_banner.gif?t=1694170016" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_archer.gif?t=1694170016" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_hammer.gif?t=1694170016" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_axe.gif?t=1694170016" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_shield.gif?t=1694170016" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_sword.gif?t=1694170016" /&gt;&lt;br&gt;&lt;br&gt;通过调整矮人战士的装备和站位，你便可以随时改变军团的阵容以及战斗方式，打出你所期望的战斗套路，建立起完全属于你的矮人军团。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图3.gif?t=1694170016" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/小标题2.png?t=1694170016" /&gt;&lt;br&gt;每一场战斗结束后，玩家都可以从三个分支中选择一个前进，既可以选择打怪升级，也可以选择购买装备，有或者雇佣新的战士，当然每一种选择背后都充满了机遇与风险。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图7.gif?t=1694170016" /&gt;&lt;br&gt;&lt;br&gt;同时随着玩家游玩的增多，会获得宝石以解锁技能书上的多种技能，会为玩家未来的所有对战提供增益，进一步增强你喜欢的战斗风格。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图8.gif?t=1694170016" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/小标题3.png?t=1694170016" /&gt;&lt;br&gt;随着你的矮人军团不断变强，所要遭遇的敌人无论数量和战斗力也都会跟着水涨船高，战场将变得十分激烈。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图4.gif?t=1694170016" /&gt;&lt;br&gt;&lt;br&gt;面对不同的敌人配置，请及时调整军团的装备和站位，敌人突击多，就需要加强前排，如果敌方法师多，就要注重切后排，战术正确的话才更有把握获胜。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图5.gif?t=1694170016" /&gt;&lt;br&gt;&lt;br&gt;如果只想着提高版面数字，用错误的阵容出战，被放了风筝或者切了后排，结果恐怕都不会乐观，所以请一定充分的总结经验，开动脑筋，充分的运用策略吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图6.gif?t=1694170016" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/小标题4.png?t=1694170016" /&gt;&lt;br&gt;&lt;br&gt;虽然目前玩家已经能进入游戏，享受指挥矮人军团攻伐的乐趣，但游戏目前仍处于Demo阶段。后续还有更多新装备、新职业、新地图以及新BOSS加入，为这场战争再添几分热度！&lt;br&gt;&lt;br&gt;这不会太久，大家敬请期待！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_assassin.gif?t=1694170016" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/troll_animated.gif?t=1694170016" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dragon_transparent_x1.gif?t=1694170016" /&gt;</t>
+          <t>&lt;a href="https://store.steampowered.com/app/2281820/_/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/2281820/_/&lt;/a&gt;&lt;br&gt;《矮人军团自走棋》有着十分爽快的战斗，并将RPG成长、Roguelike冒险和自走棋策略进行了巧妙融合，创造出了节奏轻快，且富含策略深度的游玩体验，实乃上班摸鱼、下班解压的神器。&lt;br&gt;&lt;br&gt;&lt;strong&gt;游戏重大更新现已上线，对锻造系统和仓库系统进行了大幅优化，并改进\增加了很多好玩的新内容，期待大家的游玩反馈！&lt;/strong&gt;&lt;br&gt;&lt;br&gt;玩家交流QQ群：①767476732（已满）  ③801398806（已满） ②740435455&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/小标题1.png?t=1695117812" /&gt;&lt;br&gt;作为新晋的矮人军团指挥官，你的征战之路得从三个矮人开始，他们装备简陋，战斗力不强，只有击败敌人获取经验和金币，让他们全副武装、战技娴熟，以及将更多战士招募进队伍，才能克敌制胜。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图1.gif?t=1695117812" /&gt;&lt;br&gt;&lt;br&gt;每一位矮人战士都可以进行专属定制，通过赋予它们不同的装备，这些矮人将拥有截然不同的定位，有的会成为耐打能抗的肉盾，有的则会成为敏捷灵活的刺客或弓箭手，有的则会成为输出爆炸、极为脆弱的法师。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_banner.gif?t=1695117812" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_archer.gif?t=1695117812" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_hammer.gif?t=1695117812" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_axe.gif?t=1695117812" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_shield.gif?t=1695117812" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_sword.gif?t=1695117812" /&gt;&lt;br&gt;&lt;br&gt;通过调整矮人战士的装备和站位，你便可以随时改变军团的阵容以及战斗方式，打出你所期望的战斗套路，建立起完全属于你的矮人军团。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图3.gif?t=1695117812" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/小标题2.png?t=1695117812" /&gt;&lt;br&gt;每一场战斗结束后，玩家都可以从三个分支中选择一个前进，既可以选择打怪升级，也可以选择购买装备，有或者雇佣新的战士，当然每一种选择背后都充满了机遇与风险。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图7.gif?t=1695117812" /&gt;&lt;br&gt;&lt;br&gt;同时随着玩家游玩的增多，会获得宝石以解锁技能书上的多种技能，会为玩家未来的所有对战提供增益，进一步增强你喜欢的战斗风格。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图8.gif?t=1695117812" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/小标题3.png?t=1695117812" /&gt;&lt;br&gt;随着你的矮人军团不断变强，所要遭遇的敌人无论数量和战斗力也都会跟着水涨船高，战场将变得十分激烈。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图4.gif?t=1695117812" /&gt;&lt;br&gt;&lt;br&gt;面对不同的敌人配置，请及时调整军团的装备和站位，敌人突击多，就需要加强前排，如果敌方法师多，就要注重切后排，战术正确的话才更有把握获胜。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图5.gif?t=1695117812" /&gt;&lt;br&gt;&lt;br&gt;如果只想着提高版面数字，用错误的阵容出战，被放了风筝或者切了后排，结果恐怕都不会乐观，所以请一定充分的总结经验，开动脑筋，充分的运用策略吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/配图6.gif?t=1695117812" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/小标题4.png?t=1695117812" /&gt;&lt;br&gt;&lt;br&gt;虽然目前玩家已经能进入游戏，享受指挥矮人军团攻伐的乐趣，但游戏目前仍处于Demo阶段。后续还有更多新装备、新职业、新地图以及新BOSS加入，为这场战争再添几分热度！&lt;br&gt;&lt;br&gt;这不会太久，大家敬请期待！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dwarf_assassin.gif?t=1695117812" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/troll_animated.gif?t=1695117812" /&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2205850/extras/dragon_transparent_x1.gif?t=1695117812" /&gt;</t>
         </is>
       </c>
     </row>
@@ -14974,7 +14974,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/a_0001_4.png?t=1691661689" /&gt;&lt;br&gt;&lt;br&gt;我们在蟋蟀的获得、养成、郊外事件和战斗等方面，都精心加入了大量的随机元素。提供的资源是随机的，如何合理、有效地分配好这些资源需要仔细斟酌思考。比如1V1战斗时，好似不需要动脑筋来研究蟋蟀之间的配合，但是选哪一只蟋蟀来出战呢？太弱了打不过，太强了会浪费……玩家需要学会调兵遣将，合理分配资源，悟到游戏策略的重要性。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/0605-GIF6战斗.gif?t=1691661689" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/a_0002_3.png?t=1691661689" /&gt;&lt;br&gt;&lt;br&gt;没有两只属性相同的蟋蟀，也没有两只长相一致的蟋蟀。有些蟋蟀触须断了一截，有些两条尾巴都秃了，有些甚至少了一条大腿……游戏不会直接告诉你蟋蟀属性的具体数值，但会指明大致的范围并提供对比。另外，你可以通过360度旋转来观察蟋蟀，根据其长相和数值面板来估算它的强弱，比如翅膀越长斗性越强......&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/0605-GIF5展示蟋蟀特色.gif?t=1691661689" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/a_0000_5.png?t=1691661689" /&gt;&lt;br&gt;&lt;br&gt;获得蟋蟀的途径众多，可以亲手捕捉，可以去市场买，可以在随机事件中赢取……培养蟋蟀的方法也很多，比如喂食饲料，用虫蜕进补，用雌蟋蟀去激发虫王的雄风……你可以从获得的大量蟋蟀中用慧眼甄别出最好的几只，进行花式培养，不断成长。传说中，只有天命之子才能养出天下无敌的虫王。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/0605-GIF2养成.gif?t=1691661689" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/a_0003_2.png?t=1691661689" /&gt;&lt;br&gt;&lt;br&gt;在捕捉与培养蟋蟀的环节中，游戏设置了诸多小游戏。你可以借助各种道具，去野外草丛中翻找蟋蟀获取；也可以排列出几十只虫蜕，让蟋蟀轮流进食；有时也需要睁大你的肉眼，观察两只蟋蟀各部位的大小粗细等，据此猜测孰强孰弱……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/0605-GIF3小游戏展示.gif?t=1691661689" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/a_0004_1.png?t=1691661689" /&gt;&lt;br&gt;&lt;br&gt;游戏包含了160个蟋蟀品种，此外还有蟋蟀文化书签、蟋蟀打斗视频、蟋蟀相关古诗词、一起玩蟋蟀的虫友、可为蟋蟀命名的武将名等可供收集。还有隐藏成就、隐藏事件、彩蛋等，期待你的探索与发现。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/0605-GIF4展示蟋蟀品种.gif?t=1691661689" /&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/a_0001_4.png?t=1695178662" /&gt;&lt;br&gt;&lt;br&gt;我们在蟋蟀的获得、养成、郊外事件和战斗等方面，都精心加入了大量的随机元素。提供的资源是随机的，如何合理、有效地分配好这些资源需要仔细斟酌思考。比如1V1战斗时，好似不需要动脑筋来研究蟋蟀之间的配合，但是选哪一只蟋蟀来出战呢？太弱了打不过，太强了会浪费……玩家需要学会调兵遣将，合理分配资源，悟到游戏策略的重要性。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/0605-GIF6战斗.gif?t=1695178662" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/a_0002_3.png?t=1695178662" /&gt;&lt;br&gt;&lt;br&gt;没有两只属性相同的蟋蟀，也没有两只长相一致的蟋蟀。有些蟋蟀触须断了一截，有些两条尾巴都秃了，有些甚至少了一条大腿……游戏不会直接告诉你蟋蟀属性的具体数值，但会指明大致的范围并提供对比。另外，你可以通过360度旋转来观察蟋蟀，根据其长相和数值面板来估算它的强弱，比如翅膀越长斗性越强......&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/0605-GIF5展示蟋蟀特色.gif?t=1695178662" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/a_0000_5.png?t=1695178662" /&gt;&lt;br&gt;&lt;br&gt;获得蟋蟀的途径众多，可以亲手捕捉，可以去市场买，可以在随机事件中赢取……培养蟋蟀的方法也很多，比如喂食饲料，用虫蜕进补，用雌蟋蟀去激发虫王的雄风……你可以从获得的大量蟋蟀中用慧眼甄别出最好的几只，进行花式培养，不断成长。传说中，只有天命之子才能养出天下无敌的虫王。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/0605-GIF2养成.gif?t=1695178662" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/a_0003_2.png?t=1695178662" /&gt;&lt;br&gt;&lt;br&gt;在捕捉与培养蟋蟀的环节中，游戏设置了诸多小游戏。你可以借助各种道具，去野外草丛中翻找蟋蟀获取；也可以排列出几十只虫蜕，让蟋蟀轮流进食；有时也需要睁大你的肉眼，观察两只蟋蟀各部位的大小粗细等，据此猜测孰强孰弱……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/0605-GIF3小游戏展示.gif?t=1695178662" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/a_0004_1.png?t=1695178662" /&gt;&lt;br&gt;&lt;br&gt;游戏包含了160个蟋蟀品种，此外还有蟋蟀文化书签、蟋蟀打斗视频、蟋蟀相关古诗词、一起玩蟋蟀的虫友、可为蟋蟀命名的武将名等可供收集。还有隐藏成就、隐藏事件、彩蛋等，期待你的探索与发现。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2216130/extras/0605-GIF4展示蟋蟀品种.gif?t=1695178662" /&gt;</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2215,7 +2215,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/701160/extras/KeyArt_Animated_Wide_aGif_02.gif?t=1678984436" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;《王国：两位君主》&lt;/strong&gt;是一款极简风格的像素画风横轴微策略游戏，美术风格精美而现代。化身君主，骑上坐骑，征召忠诚的子民，建造你的王国。保卫疆土，不要让贪婪生物掠夺你的财富和王位。&lt;br&gt;&lt;br&gt;在全新的战役模式中，君主必须想方设法保卫、巩固王国，直到彻底消灭贪婪生物。探索环境中的元素，发现新的坐骑和深藏的秘密。&lt;br&gt;&lt;br&gt;不过你不必一人治国！《王国：两位君主》加入了独具特色的合作模式，玩家既可以选择经典的单人模式，也可以在本地或在线与朋友配合，任意加入或退出游戏。&lt;br&gt;&lt;br&gt;《王国：两位君主》不仅有中世纪欧洲的设定，还有：&lt;br&gt;&lt;br&gt;👑 &lt;strong&gt;死亡之地：&lt;/strong&gt;深入王国的黑暗之地。化身哥特风恐怖动作角色扮演游戏《赤痕》中的碎片人米莉雅姆等独特的君主，获得相应的强大特性。骑上巨大的甲虫，布设陷阱；骑上诡异的不死生物，召唤障碍，阻止贪婪生物的侵袭；或者骑上《赤痕》神秘的恶魔生物加麦基，发动强大的冲刺攻击。玩家将获得前所未有的恐怖体验！&lt;br&gt;&lt;br&gt;👑 &lt;strong&gt;日本幕府：&lt;/strong&gt;前往一片新的土地，这里的建筑和文化均受到日本封建时代的启发。化身强大的幕府将军或女武士，征召忍者，骑上神兽麒麟，率军作战，一面运筹帷幄，一面鏖战竹林深处的贪婪生物。&lt;br&gt;&lt;br&gt;我们将在正式发售之后，延续《王国：两位君主》的探索、发现和策略元素，加入更多主题鲜明的设定。各个设定风格迥异，不仅可以通过不同的方式治理，还能看到令人惊叹的风景。&lt;br&gt;&lt;br&gt;无论你是第一次登上王座，还是经验丰富的君主，都有挑战等你来克服。伟大的君主，鼓起勇气，不要退缩。因为两位君主的统治终归要比一位君主更强大！</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/701160/extras/KeyArt_Animated_Wide_aGif_02.gif?t=1695305875" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;《王国：两位君主》&lt;/strong&gt;是一款极简风格的像素画风横轴微策略游戏，美术风格精美而现代。化身君主，骑上坐骑，征召忠诚的子民，建造你的王国。保卫疆土，不要让贪婪生物掠夺你的财富和王位。&lt;br&gt;&lt;br&gt;在全新的战役模式中，君主必须想方设法保卫、巩固王国，直到彻底消灭贪婪生物。探索环境中的元素，发现新的坐骑和深藏的秘密。&lt;br&gt;&lt;br&gt;不过你不必一人治国！《王国：两位君主》加入了独具特色的合作模式，玩家既可以选择经典的单人模式，也可以在本地或在线与朋友配合，任意加入或退出游戏。&lt;br&gt;&lt;br&gt;《王国：两位君主》不仅有中世纪欧洲的设定，还有：&lt;br&gt;&lt;br&gt;👑 &lt;strong&gt;死亡之地：&lt;/strong&gt;深入王国的黑暗之地。化身哥特风恐怖动作角色扮演游戏《赤痕》中的碎片人米莉雅姆等独特的君主，获得相应的强大特性。骑上巨大的甲虫，布设陷阱；骑上诡异的不死生物，召唤障碍，阻止贪婪生物的侵袭；或者骑上《赤痕》神秘的恶魔生物加麦基，发动强大的冲刺攻击。玩家将获得前所未有的恐怖体验！&lt;br&gt;&lt;br&gt;👑 &lt;strong&gt;日本幕府：&lt;/strong&gt;前往一片新的土地，这里的建筑和文化均受到日本封建时代的启发。化身强大的幕府将军或女武士，征召忍者，骑上神兽麒麟，率军作战，一面运筹帷幄，一面鏖战竹林深处的贪婪生物。&lt;br&gt;&lt;br&gt;我们将在正式发售之后，延续《王国：两位君主》的探索、发现和策略元素，加入更多主题鲜明的设定。各个设定风格迥异，不仅可以通过不同的方式治理，还能看到令人惊叹的风景。&lt;br&gt;&lt;br&gt;无论你是第一次登上王座，还是经验丰富的君主，都有挑战等你来克服。伟大的君主，鼓起勇气，不要退缩。因为两位君主的统治终归要比一位君主更强大！</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/cp_logo.gif?t=1695169315" /&gt;&lt;/h2&gt;这一年是1981年，作为一名年轻的见习军官，你被分配到卡里卡特卡山区的一个边防哨所工作。进入阿卡里斯坦人民共和国受到政党的严格管制，你的一举一动都受到管控！你的同事在一次行动中被杀，边境局势随之升级...&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/documents.gif?t=1695169315" /&gt;&lt;/h2&gt;&lt;strong&gt;文件核查&lt;/strong&gt;&lt;br&gt;每名旅客都必须有一套有效的文件。即使是最轻微的差异也意味着被拒绝入境的可能。随着时间的推移，文件的数量将会越来越多，当中的问题也将更难被发现。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/contraband.gif?t=1695169315" /&gt;&lt;/h2&gt; &lt;strong&gt;走私侦查&lt;/strong&gt;&lt;br&gt;我们的情报部门会定期提供有关可疑司机的信息。用紫外光手电筒搜查他们的车辆，然后使用合适的工具取出走私货物。任何数量的违禁品都不得越过边境!&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/shootout.gif?t=1695169315" /&gt;&lt;/h2&gt;&lt;strong&gt;枪战&lt;/strong&gt;&lt;br&gt;在某些情况下，你将被迫使用枪械。你的站点一直是奥贝兰科夫团伙袭击的目标，每一次外出任务都有与敌人发生冲突的风险。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/chase.gif?t=1695169315" /&gt;&lt;/h2&gt;&lt;strong&gt;警察追捕&lt;/strong&gt;&lt;br&gt;绝望的走私者可能会试图从控制区逃跑。拦截并逮捕他们是你的分内之事! 购买和对警车升级，提高追捕活动的成功率。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/post_management.gif?t=1695169315" /&gt;&lt;/h2&gt;&lt;strong&gt;哨所管理&lt;/strong&gt;&lt;br&gt;升级警局，以增加对外防御能力，并改善后续的检查流程。然而，请记住，维护你的站点的成本在不断攀升。成功的检查、挫败走私行为以及成功的干预活动都是赚取现金的途径。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/bf_gov_logos.gif?t=1695169315" /&gt;&lt;/h2&gt;&lt;strong&gt;特别任务&lt;/strong&gt;&lt;br&gt;随时准备在紧急情况下进行干预。解决犯罪难题，支援你的同事们，挫败”血拳“叛军。做出恰当的判断，决定阿卡里斯坦的未来。</t>
+          <t>&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/cp_logo.gif?t=1695227132" /&gt;&lt;/h2&gt;这一年是1981年，作为一名年轻的见习军官，你被分配到卡里卡特卡山区的一个边防哨所工作。进入阿卡里斯坦人民共和国受到政党的严格管制，你的一举一动都受到管控！你的同事在一次行动中被杀，边境局势随之升级...&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/documents.gif?t=1695227132" /&gt;&lt;/h2&gt;&lt;strong&gt;文件核查&lt;/strong&gt;&lt;br&gt;每名旅客都必须有一套有效的文件。即使是最轻微的差异也意味着被拒绝入境的可能。随着时间的推移，文件的数量将会越来越多，当中的问题也将更难被发现。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/contraband.gif?t=1695227132" /&gt;&lt;/h2&gt; &lt;strong&gt;走私侦查&lt;/strong&gt;&lt;br&gt;我们的情报部门会定期提供有关可疑司机的信息。用紫外光手电筒搜查他们的车辆，然后使用合适的工具取出走私货物。任何数量的违禁品都不得越过边境!&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/shootout.gif?t=1695227132" /&gt;&lt;/h2&gt;&lt;strong&gt;枪战&lt;/strong&gt;&lt;br&gt;在某些情况下，你将被迫使用枪械。你的站点一直是奥贝兰科夫团伙袭击的目标，每一次外出任务都有与敌人发生冲突的风险。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/chase.gif?t=1695227132" /&gt;&lt;/h2&gt;&lt;strong&gt;警察追捕&lt;/strong&gt;&lt;br&gt;绝望的走私者可能会试图从控制区逃跑。拦截并逮捕他们是你的分内之事! 购买和对警车升级，提高追捕活动的成功率。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/post_management.gif?t=1695227132" /&gt;&lt;/h2&gt;&lt;strong&gt;哨所管理&lt;/strong&gt;&lt;br&gt;升级警局，以增加对外防御能力，并改善后续的检查流程。然而，请记住，维护你的站点的成本在不断攀升。成功的检查、挫败走私行为以及成功的干预活动都是赚取现金的途径。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/bf_gov_logos.gif?t=1695227132" /&gt;&lt;/h2&gt;&lt;strong&gt;特别任务&lt;/strong&gt;&lt;br&gt;随时准备在紧急情况下进行干预。解决犯罪难题，支援你的同事们，挫败”血拳“叛军。做出恰当的判断，决定阿卡里斯坦的未来。</t>
         </is>
       </c>
     </row>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;成为顶尖狠角色&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;玩家将扮演逃亡的士兵，虽然失去往日的记忆，却获得了超自然能力。复仇计划在您的内心萌芽，为了得到想要的结果将不惜一切代价。使出极具破坏力的拳击、潜身于暗处并使用爆炸性武器，让坏人自食其果。 &lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;游戏特色：&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;张力十足的单人剧情战役&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1164940/extras/ExplosiveCampaign.gif?t=1692260306" /&gt;&lt;br&gt;一群神秘分子将您从戒备森严的黑牢中解救出来。虽然您失去了记忆，但战斗能力却获得大幅强化，远远超出了人类的极限。设法复仇、找出真相，并面对极为致命的威胁。&lt;h2 class="bb_tag"&gt;运用超能力&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1164940/extras/Cloak.gif?t=1692260306" /&gt;&lt;br&gt;掌握超人般的力量与速度，狠狠教训一波又一波全副武装的雇佣兵。把时间减慢以躲避速度飞快的子弹，并利用伪装能力让自己进入隐形状态，以便出其不意地折断敌人的脖子。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1164940/extras/SlowMo.gif?t=1692260306" /&gt;&lt;h2 class="bb_tag"&gt;暴力至极的近战战斗&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1164940/extras/MeleeCombat.gif?t=1692260306" /&gt;&lt;br&gt;在近距离近战战斗中与敌人正面交锋，并在高速枪战中大展身手。通过拳打脚踢、滑行和疯狂连击，将敌人化为尘土。&lt;h2 class="bb_tag"&gt;结语&lt;/h2&gt;欢迎关注我们、加入社区，并和开发团队聊聊。利用外部链接加入我们的 Twitter、YouTube 和 Discord。我们随时都会聆听您的心声！</t>
+          <t>&lt;strong&gt;成为顶尖狠角色&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;玩家将扮演逃亡的士兵，虽然失去往日的记忆，却获得了超自然能力。复仇计划在您的内心萌芽，为了得到想要的结果将不惜一切代价。使出极具破坏力的拳击、潜身于暗处并使用爆炸性武器，让坏人自食其果。 &lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;游戏特色：&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;张力十足的单人剧情战役&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1164940/extras/ExplosiveCampaign.gif?t=1695292030" /&gt;&lt;br&gt;一群神秘分子将您从戒备森严的黑牢中解救出来。虽然您失去了记忆，但战斗能力却获得大幅强化，远远超出了人类的极限。设法复仇、找出真相，并面对极为致命的威胁。&lt;h2 class="bb_tag"&gt;运用超能力&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1164940/extras/Cloak.gif?t=1695292030" /&gt;&lt;br&gt;掌握超人般的力量与速度，狠狠教训一波又一波全副武装的雇佣兵。把时间减慢以躲避速度飞快的子弹，并利用伪装能力让自己进入隐形状态，以便出其不意地折断敌人的脖子。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1164940/extras/SlowMo.gif?t=1695292030" /&gt;&lt;h2 class="bb_tag"&gt;暴力至极的近战战斗&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1164940/extras/MeleeCombat.gif?t=1695292030" /&gt;&lt;br&gt;在近距离近战战斗中与敌人正面交锋，并在高速枪战中大展身手。通过拳打脚踢、滑行和疯狂连击，将敌人化为尘土。&lt;h2 class="bb_tag"&gt;结语&lt;/h2&gt;欢迎关注我们、加入社区，并和开发团队聊聊。利用外部链接加入我们的 Twitter、YouTube 和 Discord。我们随时都会聆听您的心声！</t>
         </is>
       </c>
     </row>
@@ -8085,7 +8085,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -9777,7 +9777,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>《神州志西游》是一款&lt;i&gt;Rogue-like&lt;/i&gt;&lt;i&gt;卡牌策略&lt;/i&gt;&lt;i&gt;游戏&lt;/i&gt;。你将扮演西行的角色之一，组建一支精英团队，构建强大套牌，获取神秘法宝，去战胜一路上遇到的妖魔鬼怪。在旅途中，你会无可避免的遇到突发事件，一念&lt;strong&gt;成佛&lt;/strong&gt;，一念&lt;strong&gt;成魔&lt;/strong&gt;。&lt;br&gt;&lt;br&gt;QQ一群&lt;strong&gt;&lt;u&gt;1003867153&lt;/u&gt;&lt;/strong&gt;（已满），二群&lt;strong&gt;&lt;i&gt;570090261&lt;/i&gt;&lt;/strong&gt;！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/Fishpond_20220311111945.jpg?t=1695159823" /&gt;&lt;h2 class="bb_tag"&gt;游戏特色概述&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 5个英雄角色&lt;br&gt;&lt;/li&gt;&lt;li&gt;20+可招募同伴&lt;br&gt;&lt;/li&gt;&lt;li&gt;120+个独特的NPC&lt;br&gt;&lt;/li&gt;&lt;li&gt;500+张卡牌，300+件法宝和消耗品&lt;br&gt;&lt;/li&gt;&lt;li&gt;4个冒险章节，共60个不同结局&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;耳熟能详的传奇英雄&lt;/h2&gt;&lt;br&gt;每次冒险，你将扮演五位传奇英雄之一，带领最多5人的团队。每个英雄都拥有其独特的能力、75张卡池和特别的故事情节：&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;悟空手持金箍棒，能释放毁灭性的范围攻击，利用七十二变学习任何NPC的技能，能够操纵火焰使敌人燃烧，还可以灵活地闪避攻击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-七十二变-简中.gif?t=1695159823" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;玄奘具有独特的能力，能在敌人身上施加“善”或“恶”的状态，使其转化为自己的队友并创建新的团队，或者释放强大的攻击并创建魔法屏障来保护自己。他还可以利用诅咒卡牌，形成特殊的策略。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-唐僧-简中.gif?t=1695159823" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;白龙他的孪生妹妹龙女的灵魂同行，有着操纵水元素和使用剑阵触发强效增益的能力。他会储存未使用的能量作为灵力，并在需要时进行利用。龙女还有学习同伴卡牌的能力，增强他们的联合力量。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-白龙-简中.gif?t=1695159823" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;八戒可以通过吞噬消耗品获得饥饿值和基础状态提升，利用三十六变能力从敌人身上学习能力，以及在战斗中吸收生命值和最大生命值。另外，当八戒完成“八戒”时，可以最大化自身能力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-八戒-简中.gif?t=1695159823" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;沙僧是一个多才多艺的人物，可以根据敌人的位置增加伤害，并召唤五行妖精（金、木、水、火、土）进入敌人团队。沙僧可以围绕每个妖精的独特能力建立策略，并对敌人发动致命攻击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-沙僧-简中.gif?t=1695159823" /&gt;&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;独特的团队战斗体验&lt;/h2&gt;&lt;br&gt;在这艰难的西行之旅中，你不需要孤军奋战——通过从20多个同伴中招募并召唤NPC作为队友，组建你自己的全明星小队。同伴是拥有独特能力和2-4张卡牌的永久队友，他们将一直跟随你，直到他们死亡或被解雇。而NPC是临时队友，在每场战斗结束时会离开或死亡。&lt;br&gt;&lt;br&gt;游戏中有许多召唤或转换NPC的方法：你可以使用像爱情药水这样的消耗品来吸引NPC到你的身边，或使用净化瓶来净化邪恶的NPC。另外，你还可以使用中立卡牌“人种袋”来捕捉虚弱的NPC。值得一提的是，玄奘是创建NPC队伍的专家。你必须明智地选择你的队友，因为他们在这艰难的旅程中扮演着至关重要的角色。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-魅惑-简中.gif?t=1695159823" /&gt;&lt;h2 class="bb_tag"&gt;沉浸式的西游冒险故事&lt;/h2&gt;&lt;br&gt;每个英雄都有许多独特的故事情节，灵感来自于《西游记》的传说。这些故事情节根据你的选择和策略提供不同的对手、事件和任务。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/视频3.gif?t=1695159823" /&gt;&lt;br&gt;&lt;br&gt;随着西行旅程不断深入，你将遇到超过120个独特的NPC，每个NPC都有自己的技能和背景故事。通过相互关联的事件和选择，每个决策都会带你走向不同的路径，通向天庭、灵山或心魔幻境进行最终的对决。你所采取的每一步都至关重要，决定着世界的命运 - 这是一个真正沉浸式的冒险，从开始到结束都能让你全神贯注。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/视频2.gif?t=1695159823" /&gt;&lt;br&gt;&lt;br&gt;敢问路在何方？路在脚下！这便开始惊心动魄的西游之路吧！</t>
+          <t>《神州志西游》是一款&lt;i&gt;Rogue-like&lt;/i&gt;&lt;i&gt;卡牌策略&lt;/i&gt;&lt;i&gt;游戏&lt;/i&gt;。你将扮演西行的角色之一，组建一支精英团队，构建强大套牌，获取神秘法宝，去战胜一路上遇到的妖魔鬼怪。在旅途中，你会无可避免的遇到突发事件，一念&lt;strong&gt;成佛&lt;/strong&gt;，一念&lt;strong&gt;成魔&lt;/strong&gt;。&lt;br&gt;&lt;br&gt;QQ一群&lt;strong&gt;&lt;u&gt;1003867153&lt;/u&gt;&lt;/strong&gt;（已满），二群&lt;strong&gt;&lt;i&gt;570090261&lt;/i&gt;&lt;/strong&gt;！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/Fishpond_20220311111945.jpg?t=1695159944" /&gt;&lt;h2 class="bb_tag"&gt;游戏特色概述&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 5个英雄角色&lt;br&gt;&lt;/li&gt;&lt;li&gt;20+可招募同伴&lt;br&gt;&lt;/li&gt;&lt;li&gt;120+个独特的NPC&lt;br&gt;&lt;/li&gt;&lt;li&gt;500+张卡牌，300+件法宝和消耗品&lt;br&gt;&lt;/li&gt;&lt;li&gt;4个冒险章节，共60个不同结局&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;耳熟能详的传奇英雄&lt;/h2&gt;&lt;br&gt;每次冒险，你将扮演五位传奇英雄之一，带领最多5人的团队。每个英雄都拥有其独特的能力、75张卡池和特别的故事情节：&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;悟空手持金箍棒，能释放毁灭性的范围攻击，利用七十二变学习任何NPC的技能，能够操纵火焰使敌人燃烧，还可以灵活地闪避攻击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-七十二变-简中.gif?t=1695159944" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;玄奘具有独特的能力，能在敌人身上施加“善”或“恶”的状态，使其转化为自己的队友并创建新的团队，或者释放强大的攻击并创建魔法屏障来保护自己。他还可以利用诅咒卡牌，形成特殊的策略。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-唐僧-简中.gif?t=1695159944" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;白龙他的孪生妹妹龙女的灵魂同行，有着操纵水元素和使用剑阵触发强效增益的能力。他会储存未使用的能量作为灵力，并在需要时进行利用。龙女还有学习同伴卡牌的能力，增强他们的联合力量。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-白龙-简中.gif?t=1695159944" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;八戒可以通过吞噬消耗品获得饥饿值和基础状态提升，利用三十六变能力从敌人身上学习能力，以及在战斗中吸收生命值和最大生命值。另外，当八戒完成“八戒”时，可以最大化自身能力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-八戒-简中.gif?t=1695159944" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;沙僧是一个多才多艺的人物，可以根据敌人的位置增加伤害，并召唤五行妖精（金、木、水、火、土）进入敌人团队。沙僧可以围绕每个妖精的独特能力建立策略，并对敌人发动致命攻击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-沙僧-简中.gif?t=1695159944" /&gt;&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;独特的团队战斗体验&lt;/h2&gt;&lt;br&gt;在这艰难的西行之旅中，你不需要孤军奋战——通过从20多个同伴中招募并召唤NPC作为队友，组建你自己的全明星小队。同伴是拥有独特能力和2-4张卡牌的永久队友，他们将一直跟随你，直到他们死亡或被解雇。而NPC是临时队友，在每场战斗结束时会离开或死亡。&lt;br&gt;&lt;br&gt;游戏中有许多召唤或转换NPC的方法：你可以使用像爱情药水这样的消耗品来吸引NPC到你的身边，或使用净化瓶来净化邪恶的NPC。另外，你还可以使用中立卡牌“人种袋”来捕捉虚弱的NPC。值得一提的是，玄奘是创建NPC队伍的专家。你必须明智地选择你的队友，因为他们在这艰难的旅程中扮演着至关重要的角色。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-魅惑-简中.gif?t=1695159944" /&gt;&lt;h2 class="bb_tag"&gt;沉浸式的西游冒险故事&lt;/h2&gt;&lt;br&gt;每个英雄都有许多独特的故事情节，灵感来自于《西游记》的传说。这些故事情节根据你的选择和策略提供不同的对手、事件和任务。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/视频3.gif?t=1695159944" /&gt;&lt;br&gt;&lt;br&gt;随着西行旅程不断深入，你将遇到超过120个独特的NPC，每个NPC都有自己的技能和背景故事。通过相互关联的事件和选择，每个决策都会带你走向不同的路径，通向天庭、灵山或心魔幻境进行最终的对决。你所采取的每一步都至关重要，决定着世界的命运 - 这是一个真正沉浸式的冒险，从开始到结束都能让你全神贯注。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/视频2.gif?t=1695159944" /&gt;&lt;br&gt;&lt;br&gt;敢问路在何方？路在脚下！这便开始惊心动魄的西游之路吧！</t>
         </is>
       </c>
     </row>
@@ -11459,7 +11459,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669000/extras/Headers-animated-fullv2.gif?t=1692104295" /&gt;&lt;br&gt;&lt;br&gt;统治奇幻的世界，万般皆由你作主，尽在《&lt;strong&gt;Age of Wonders 4&lt;/strong&gt;》！在《Age of Wonders》标志性的4X战略回合制战斗中探索全新的魔法世界。以回合为单位扩展你的帝国，让你的派系不断发展，不断壮大&lt;br&gt;&lt;br&gt;Triumph Studios屡获殊荣的战略系列已经进入了一个新的时代，这个系列游戏标志性的帝国建设、角色扮演与战争表现今日发展到了全新的水平。全新的事件系统与巨大的个性化帝国提供了无限的可重复游戏体验，每一次游玩都会为您不断写下的传奇故事增添新的篇章&lt;br&gt;&lt;br&gt;强大的巫师之王已经重回世界，以神的身份统治着凡世之间。掌控魔典来进化你的人民，为史诗般的战斗做好准备，这将决定时代的未来！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669000/extras/Header_1_SC.png?t=1692104295" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;融合各种身体形态、行事特征与奥术力量来创作你的臣民。无论是食人成性的半身人还是神秘的月之精灵，甚至完全出于你最爱的幻想生物，一切尽在你的掌控&lt;br&gt;&lt;/li&gt;&lt;li&gt;寻找强大的魔典来附魔你的军队、进化你的民众！让你的民众化为天使的子嗣或混沌的后裔，让物理上的变化来帮助他们直面敌人。以残酷的统治、狡猾的联盟或终极奥术知识来寻求荣耀，在世界的基本架构中打进你的烙印！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669000/extras/Header_2_SC.png?t=1692104295" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;每一个选择都会带来新的可能性与战术优势，多层次的深度战略让你可以随时尝试新战术，探索新力量&lt;br&gt;&lt;/li&gt;&lt;li&gt;战术回合制战斗会让你的军队活力四射，在由你决定的战场上展示他们的力量。从与游荡怪物的遭遇战到双方均拥有数十个单位的大规模攻城战，更有士气系统与其它功能的帮助，每一场战斗都是一场全新的挑战&lt;br&gt;&lt;/li&gt;&lt;li&gt;帝国、单位与环境的巨大多样性使得游戏具有了无限的可能。《Age of Wonders》现在拥有了前所未有的兼容性与开放性&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669000/extras/Header_3_SC.png?t=1692104295" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;每场游戏都会让你探索全新的世界——或者创造自己的世界！从寒冰女王的霜原荒漠，到巨龙漫游的荒凉废墟，大量千变万化的地形地貌等待着你的探索&lt;br&gt;&lt;/li&gt;&lt;li&gt;全新的事件系统为4X游戏提供了意想不到的故事叙述平台。无论是日益扩展的城邦，逡巡世间的军队，还是扭曲世界的魔法效果，周围世界的形象尽皆取决于你的决定&lt;br&gt;&lt;/li&gt;&lt;li&gt;引导你的帝国实现辉煌的伟业，但故事不会以你的胜利或失败而结束！让你的领袖飞升至万神殿，从而进一步提升你的游戏体验。在此后的游戏中，你会以潜在的盟友或对手来遇到你所创造的角色，从而体验自己游戏的下一章！&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669000/extras/Headers-animated-fullv2.gif?t=1695309093" /&gt;&lt;br&gt;&lt;br&gt;统治奇幻的世界，万般皆由你作主，尽在《&lt;strong&gt;Age of Wonders 4&lt;/strong&gt;》！在《Age of Wonders》标志性的4X战略回合制战斗中探索全新的魔法世界。以回合为单位扩展你的帝国，让你的派系不断发展，不断壮大&lt;br&gt;&lt;br&gt;Triumph Studios屡获殊荣的战略系列已经进入了一个新的时代，这个系列游戏标志性的帝国建设、角色扮演与战争表现今日发展到了全新的水平。全新的事件系统与巨大的个性化帝国提供了无限的可重复游戏体验，每一次游玩都会为您不断写下的传奇故事增添新的篇章&lt;br&gt;&lt;br&gt;强大的巫师之王已经重回世界，以神的身份统治着凡世之间。掌控魔典来进化你的人民，为史诗般的战斗做好准备，这将决定时代的未来！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669000/extras/Header_1_SC.png?t=1695309093" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;融合各种身体形态、行事特征与奥术力量来创作你的臣民。无论是食人成性的半身人还是神秘的月之精灵，甚至完全出于你最爱的幻想生物，一切尽在你的掌控&lt;br&gt;&lt;/li&gt;&lt;li&gt;寻找强大的魔典来附魔你的军队、进化你的民众！让你的民众化为天使的子嗣或混沌的后裔，让物理上的变化来帮助他们直面敌人。以残酷的统治、狡猾的联盟或终极奥术知识来寻求荣耀，在世界的基本架构中打进你的烙印！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669000/extras/Header_2_SC.png?t=1695309093" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;每一个选择都会带来新的可能性与战术优势，多层次的深度战略让你可以随时尝试新战术，探索新力量&lt;br&gt;&lt;/li&gt;&lt;li&gt;战术回合制战斗会让你的军队活力四射，在由你决定的战场上展示他们的力量。从与游荡怪物的遭遇战到双方均拥有数十个单位的大规模攻城战，更有士气系统与其它功能的帮助，每一场战斗都是一场全新的挑战&lt;br&gt;&lt;/li&gt;&lt;li&gt;帝国、单位与环境的巨大多样性使得游戏具有了无限的可能。《Age of Wonders》现在拥有了前所未有的兼容性与开放性&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669000/extras/Header_3_SC.png?t=1695309093" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;每场游戏都会让你探索全新的世界——或者创造自己的世界！从寒冰女王的霜原荒漠，到巨龙漫游的荒凉废墟，大量千变万化的地形地貌等待着你的探索&lt;br&gt;&lt;/li&gt;&lt;li&gt;全新的事件系统为4X游戏提供了意想不到的故事叙述平台。无论是日益扩展的城邦，逡巡世间的军队，还是扭曲世界的魔法效果，周围世界的形象尽皆取决于你的决定&lt;br&gt;&lt;/li&gt;&lt;li&gt;引导你的帝国实现辉煌的伟业，但故事不会以你的胜利或失败而结束！让你的领袖飞升至万神殿，从而进一步提升你的游戏体验。在此后的游戏中，你会以潜在的盟友或对手来遇到你所创造的角色，从而体验自己游戏的下一章！&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
@@ -11669,7 +11669,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>官方QQ群号：&lt;br&gt;官方QQ④群：757371350&lt;br&gt;官方QQ⑧群：920151793&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;这是一款基于武侠、江湖背景为基础的&lt;strong&gt; &lt;u&gt;开放沙盒类非传统武侠 RPG游戏&lt;/u&gt;&lt;/strong&gt;，你可以在这个大荒世界之中，扮演你所幻想的任何武侠角色，这里没有任何阻挡你幻想的老套剧情，你所演绎的武侠人生就是这个你的游戏剧情。你可以作为一名江湖小虾米游历大荒，你也可以成为一派掌门引领四方，你亦可以成为一名看不惯这江湖的浪子我行我素。最重要的是，请一切遵从于你的内心而为，并且活着！&lt;br&gt;&lt;br&gt;(1)玩家可以从零开始扩展自己的小世界，也可以通过创建小世界生成随机大小的初始世界。每个区域都有独特的环境、资源、生物以及势力。 在熟悉了游戏基本操作之后，您便可以直接生成环境属性各异的、已经包含一定数量地块的世界进行体验和历练，并且可以控制不同的“我”往来穿梭于各个世界开启别样人生！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/kf1.gif?t=1695190215" /&gt;&lt;br&gt;&lt;br&gt;(2)新颖的单回合战斗方式，通过收集不同的绝学搭配创建自己的招式库，战斗中拖动连接不同的招式激活绝学，利用招式克制和绝学套路，体现武侠战斗的策略性。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF2.gif?t=1695190215" /&gt;&lt;br&gt;&lt;br&gt;(3)独创的经脉系统，将人体经脉的运转进行了简化概念设计，玩家可以体验到不同的运功路线激活不同内功的拟真感受，简洁却富有策略玩法的设计给玩家提供了搭配和激活多种内功的玩法。同时经脉系统也结合了武侠小说中各种身体机能的具象表现，角色的生命力、内伤、隐疾、蛊、生死符、残疾、瞎眼等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF3.gif?t=1695190215" /&gt;&lt;br&gt;&lt;br&gt;(4)游戏还包含了自由的建造模式，玩家可以打造自己的民居、酒馆、温泉、马厩、大殿、监牢等等，每种建筑都有独特的功能。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF4.gif?t=1695190215" /&gt;&lt;br&gt;&lt;br&gt;(5)潜行玩法，可以通过训练潜行能力，配合独特的内功，夜晚穿上夜行衣，如人无人之境。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF5.gif?t=1695190215" /&gt;&lt;br&gt;&lt;br&gt;(6)训练轻功、跳跃、潜水、攀爬，无论高山深海都可闲庭信步。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF6.gif?t=1695190215" /&gt;&lt;br&gt;&lt;br&gt;(7)通过自定义天命、出身、容貌、血脉，打造独属于自己的角色。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF7.gif?t=1695190215" /&gt;&lt;br&gt;&lt;br&gt;(8)非线性剧情，游戏中每个NPC都会根据自己的行为、身份、名声、关系、态度等等在世界中生存，玩家的每次游戏都会与他们发生不同的剧情。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF8.gif?t=1695190215" /&gt;&lt;br&gt;&lt;br&gt;(9)丰富的交互内容&lt;br&gt;可以把敌人的建筑引燃&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF9.gif?t=1695190215" /&gt;&lt;br&gt;&lt;br&gt;可以邀请NPC喝酒，灌醉后搜刮物品&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF10.gif?t=1695190215" /&gt;&lt;br&gt;&lt;br&gt;可以驯化各种动物，每种动物都有各自独特的功能，例如猴子可以乞讨、马可以乘骑和改装马车、蛇可以下毒等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF11.gif?t=1695190215" /&gt;&lt;br&gt;&lt;br&gt;玩家可以创建自己门派，招募弟子，发布命令，参加武林大会。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF12.gif?t=1695190215" /&gt;&lt;br&gt;&lt;br&gt;丰富的交互内容·玩家可以布置陷阱，抓捕动物或敌人。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF13.gif?t=1695190215" /&gt;&lt;br&gt;&lt;br&gt;建立门派，发布命令&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF15.gif?t=1695190215" /&gt;&lt;br&gt;&lt;br&gt;建立牢笼，关押敌人&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF16.gif?t=1695190215" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;———————————————————————————————————————&lt;br&gt;来自幻魔寺的寄语：&lt;br&gt;我们坚守本心，完全独立开发，只做大家觉得好玩的游戏，这款游戏的世界目前仍然只是一个雏形，我们深知它会不断壮大，并且成为未来我们一切游戏的基石，我们会为此不断努力，带给大家一个绝妙的幻想世界！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/respect.png?t=1695190215" /&gt;</t>
+          <t>官方QQ群号：&lt;br&gt;官方QQ④群：757371350&lt;br&gt;官方QQ⑧群：920151793&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;这是一款基于武侠、江湖背景为基础的&lt;strong&gt; &lt;u&gt;开放沙盒类非传统武侠 RPG游戏&lt;/u&gt;&lt;/strong&gt;，你可以在这个大荒世界之中，扮演你所幻想的任何武侠角色，这里没有任何阻挡你幻想的老套剧情，你所演绎的武侠人生就是这个你的游戏剧情。你可以作为一名江湖小虾米游历大荒，你也可以成为一派掌门引领四方，你亦可以成为一名看不惯这江湖的浪子我行我素。最重要的是，请一切遵从于你的内心而为，并且活着！&lt;br&gt;&lt;br&gt;(1)玩家可以从零开始扩展自己的小世界，也可以通过创建小世界生成随机大小的初始世界。每个区域都有独特的环境、资源、生物以及势力。 在熟悉了游戏基本操作之后，您便可以直接生成环境属性各异的、已经包含一定数量地块的世界进行体验和历练，并且可以控制不同的“我”往来穿梭于各个世界开启别样人生！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/kf1.gif?t=1695194030" /&gt;&lt;br&gt;&lt;br&gt;(2)新颖的单回合战斗方式，通过收集不同的绝学搭配创建自己的招式库，战斗中拖动连接不同的招式激活绝学，利用招式克制和绝学套路，体现武侠战斗的策略性。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF2.gif?t=1695194030" /&gt;&lt;br&gt;&lt;br&gt;(3)独创的经脉系统，将人体经脉的运转进行了简化概念设计，玩家可以体验到不同的运功路线激活不同内功的拟真感受，简洁却富有策略玩法的设计给玩家提供了搭配和激活多种内功的玩法。同时经脉系统也结合了武侠小说中各种身体机能的具象表现，角色的生命力、内伤、隐疾、蛊、生死符、残疾、瞎眼等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF3.gif?t=1695194030" /&gt;&lt;br&gt;&lt;br&gt;(4)游戏还包含了自由的建造模式，玩家可以打造自己的民居、酒馆、温泉、马厩、大殿、监牢等等，每种建筑都有独特的功能。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF4.gif?t=1695194030" /&gt;&lt;br&gt;&lt;br&gt;(5)潜行玩法，可以通过训练潜行能力，配合独特的内功，夜晚穿上夜行衣，如人无人之境。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF5.gif?t=1695194030" /&gt;&lt;br&gt;&lt;br&gt;(6)训练轻功、跳跃、潜水、攀爬，无论高山深海都可闲庭信步。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF6.gif?t=1695194030" /&gt;&lt;br&gt;&lt;br&gt;(7)通过自定义天命、出身、容貌、血脉，打造独属于自己的角色。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF7.gif?t=1695194030" /&gt;&lt;br&gt;&lt;br&gt;(8)非线性剧情，游戏中每个NPC都会根据自己的行为、身份、名声、关系、态度等等在世界中生存，玩家的每次游戏都会与他们发生不同的剧情。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF8.gif?t=1695194030" /&gt;&lt;br&gt;&lt;br&gt;(9)丰富的交互内容&lt;br&gt;可以把敌人的建筑引燃&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF9.gif?t=1695194030" /&gt;&lt;br&gt;&lt;br&gt;可以邀请NPC喝酒，灌醉后搜刮物品&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF10.gif?t=1695194030" /&gt;&lt;br&gt;&lt;br&gt;可以驯化各种动物，每种动物都有各自独特的功能，例如猴子可以乞讨、马可以乘骑和改装马车、蛇可以下毒等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF11.gif?t=1695194030" /&gt;&lt;br&gt;&lt;br&gt;玩家可以创建自己门派，招募弟子，发布命令，参加武林大会。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF12.gif?t=1695194030" /&gt;&lt;br&gt;&lt;br&gt;丰富的交互内容·玩家可以布置陷阱，抓捕动物或敌人。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF13.gif?t=1695194030" /&gt;&lt;br&gt;&lt;br&gt;建立门派，发布命令&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF15.gif?t=1695194030" /&gt;&lt;br&gt;&lt;br&gt;建立牢笼，关押敌人&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF16.gif?t=1695194030" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;———————————————————————————————————————&lt;br&gt;来自幻魔寺的寄语：&lt;br&gt;我们坚守本心，完全独立开发，只做大家觉得好玩的游戏，这款游戏的世界目前仍然只是一个雏形，我们深知它会不断壮大，并且成为未来我们一切游戏的基石，我们会为此不断努力，带给大家一个绝妙的幻想世界！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/respect.png?t=1695194030" /&gt;</t>
         </is>
       </c>
     </row>
@@ -11711,7 +11711,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>了解更多关于王朝系列的信息与福利，请加入官方QQ群：807909117&lt;br&gt;&lt;br&gt;《战国王朝》是一款融合了开放世界RPG、城市建造和生活模拟以及生存元素的多题材游戏。在封建日本的动荡时期，建立并成为自己王朝的主宰。在第一或第三人称视角下独自作战或与他人合作。&lt;br&gt;&lt;br&gt;在曾经饱受饥荒和战争摧残的地区，建立自己的生活，培养一个社区，打造一个属于自己的王朝。独自或与多人合作，探索一个美丽的开放世界，收集资源、制造、狩猎、建造和耕种，让自己生存下来，并支持您的村庄社区。与强悍的敌人作战，成为伟大的领袖，保护您所创造的一切。&lt;br&gt;&lt;br&gt;体验自然之美，参加古老的仪式，揭开神灵奥秘。《战国王朝》为玩家提供了一场对中世纪日本的沉浸式体验。选择您的路径，作为领袖、工匠、武士或僧侣，开始一段史诗般的旅程，&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/02_CN.png?t=1695204760" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/03.gif?t=1695204760" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;多样化的生物群落 &lt;/strong&gt;&lt;br&gt;探索森林、山脉、樱桃林和温泉，发现一个多样而美丽的世界。&lt;br&gt;&lt;br&gt;&lt;strong&gt;使用虚幻引擎5驱动 &lt;/strong&gt;&lt;br&gt;《战国王朝》利用Unreal的图像功能突破了开放世界现实主义的界限。&lt;br&gt;&lt;br&gt;&lt;strong&gt;开放世界村庄的建造者&lt;/strong&gt; &lt;br&gt;始于微末，将您的定居点扩展至整个山谷，形成繁荣的社区。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/04_CN.png?t=1695204760" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/05.gif?t=1695204760" /&gt; &lt;br&gt;&lt;br&gt;&lt;strong&gt;深入制造和建造系统 &lt;/strong&gt;&lt;br&gt;制造工具、武器、食物或药物，并耕种土地。&lt;br&gt;&lt;br&gt;&lt;strong&gt;近战和远程武器&lt;/strong&gt; &lt;br&gt;通过掌握武器，制作独特的日本武器，如长矛、弓和剑等， 来保护您的村庄和亲人。&lt;br&gt;&lt;br&gt;&lt;strong&gt;王朝管理&lt;/strong&gt; &lt;br&gt;为子孙后代创造一个繁荣的王朝。监督村庄的成长和发展。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/06_CN.png?t=1695204760" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/07.gif?t=1695204760" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;单人作战和合作模式&lt;/strong&gt;&lt;br&gt;开辟你自己的道路，或者与你的朋友联手创建更大的村庄，分担责任和任务，收集更多的资源，完成任务，共同进步。&lt;br&gt; &lt;br&gt;&lt;strong&gt;FPP和TPP模式&lt;/strong&gt;&lt;br&gt;根据您的偏好选择第一或第三人称视角。</t>
+          <t>了解更多关于王朝系列的信息与福利，请加入官方QQ群：807909117&lt;br&gt;&lt;br&gt;《战国王朝》是一款融合了开放世界RPG、城市建造和生活模拟以及生存元素的多题材游戏。在封建日本的动荡时期，建立并成为自己王朝的主宰。在第一或第三人称视角下独自作战或与他人合作。&lt;br&gt;&lt;br&gt;在曾经饱受饥荒和战争摧残的地区，建立自己的生活，培养一个社区，打造一个属于自己的王朝。独自或与多人合作，探索一个美丽的开放世界，收集资源、制造、狩猎、建造和耕种，让自己生存下来，并支持您的村庄社区。与强悍的敌人作战，成为伟大的领袖，保护您所创造的一切。&lt;br&gt;&lt;br&gt;体验自然之美，参加古老的仪式，揭开神灵奥秘。《战国王朝》为玩家提供了一场对中世纪日本的沉浸式体验。选择您的路径，作为领袖、工匠、武士或僧侣，开始一段史诗般的旅程，&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/02_CN.png?t=1695305560" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/03.gif?t=1695305560" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;多样化的生物群落 &lt;/strong&gt;&lt;br&gt;探索森林、山脉、樱桃林和温泉，发现一个多样而美丽的世界。&lt;br&gt;&lt;br&gt;&lt;strong&gt;使用虚幻引擎5驱动 &lt;/strong&gt;&lt;br&gt;《战国王朝》利用Unreal的图像功能突破了开放世界现实主义的界限。&lt;br&gt;&lt;br&gt;&lt;strong&gt;开放世界村庄的建造者&lt;/strong&gt; &lt;br&gt;始于微末，将您的定居点扩展至整个山谷，形成繁荣的社区。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/04_CN.png?t=1695305560" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/05.gif?t=1695305560" /&gt; &lt;br&gt;&lt;br&gt;&lt;strong&gt;深入制造和建造系统 &lt;/strong&gt;&lt;br&gt;制造工具、武器、食物或药物，并耕种土地。&lt;br&gt;&lt;br&gt;&lt;strong&gt;近战和远程武器&lt;/strong&gt; &lt;br&gt;通过掌握武器，制作独特的日本武器，如长矛、弓和剑等， 来保护您的村庄和亲人。&lt;br&gt;&lt;br&gt;&lt;strong&gt;王朝管理&lt;/strong&gt; &lt;br&gt;为子孙后代创造一个繁荣的王朝。监督村庄的成长和发展。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/06_CN.png?t=1695305560" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/07.gif?t=1695305560" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;单人作战和合作模式&lt;/strong&gt;&lt;br&gt;开辟你自己的道路，或者与你的朋友联手创建更大的村庄，分担责任和任务，收集更多的资源，完成任务，共同进步。&lt;br&gt; &lt;br&gt;&lt;strong&gt;FPP和TPP模式&lt;/strong&gt;&lt;br&gt;根据您的偏好选择第一或第三人称视角。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702010/extras/EARLY_ACCESS_MARKETING_ROADMAP_VERTICAL_616px_low_res.jpg?t=1695305560" /&gt;</t>
         </is>
       </c>
     </row>
@@ -11950,7 +11950,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>太空,开放世界,角色扮演,单人,科幻</t>
+          <t>太空,开放世界,单人,角色扮演,科幻</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -13029,7 +13029,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -13039,7 +13039,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;&lt;strong&gt;详细介绍：&lt;/strong&gt;&lt;/h2&gt;世间群魔并起，你将扮演一位降妖除魔的侠客，与世间群妖展开战斗。&lt;h2 class="bb_tag"&gt;游戏内容：&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;300张可用卡牌&lt;br&gt;&lt;/li&gt;&lt;li&gt;128种心法&lt;br&gt;&lt;/li&gt;&lt;li&gt;35种丹药&lt;br&gt;&lt;/li&gt;&lt;li&gt;100+各具特色的敌人&lt;br&gt;&lt;/li&gt;&lt;li&gt;20级游戏难度&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;降妖侠客：&lt;/h2&gt;&lt;strong&gt;莫三：镇妖司的千户，用一柄偶尔会夺舍的魔刀战斗&lt;/strong&gt;&lt;br&gt;威震江湖，你靠的就是一个怒字，善用怒气，你可低费打出大量伤害&lt;br&gt;你善用利刃为敌人制造伤口，叠起城墙般厚重的护甲，也会为了强大的战力走火入魔……&lt;br&gt;没有人愿意见到你走火入魔的样子，莫三爷&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1915510/extras/莫三究极版.gif?t=1694231673" /&gt;&lt;br&gt;&lt;strong&gt;小川：偷跑下山的小道士，使用炼丹时发明的奇怪道具和竹火剑猎杀妖魔&lt;/strong&gt;&lt;br&gt;外表懦弱的小川，手中竹火剑却让敌人闻风丧胆&lt;br&gt;名为剑，却是一柄装弹枪械，“子弹”是小川的核心玩法，搭载强力子弹的竹火箭堪称人间大炮&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1915510/extras/小川最终版.gif?t=1694231673" /&gt;&lt;br&gt;&lt;strong&gt;阿紫：苗疆的巫女，善于利用毒虫和灵力进行作战&lt;/strong&gt;&lt;br&gt;驾驭毒虫是苗疆的绝技，阿紫可以铺上满屏召唤物，决胜于虫群之后&lt;br&gt;做为巫女，阿紫也热衷于为敌人献上灾祸，从印堂发黑到灭顶之灾，只是一瞬之间&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1915510/extras/阿紫究极版.gif?t=1694231673" /&gt;&lt;br&gt;&lt;strong&gt;龙女：可以呼风唤雨的78岁萝莉龙宝宝&lt;/strong&gt;&lt;br&gt;使用法术作战，打急了会变身咬人（真咬），因为还是个宝宝，所以无法把控形态，释放多个法术后会失控变回龙形态，疯狂啃咬敌人&lt;br&gt;人形态下会施展法术攻击敌人&lt;br&gt;&lt;strong&gt;目前还在测试中，可以在测试分支输入longmei666666抢先体验&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1915510/extras/龙女最终版.gif?t=1694231673" /&gt;&lt;h2 class="bb_tag"&gt;游戏模式：&lt;/h2&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;猎妖大会：多人组队，竞速通关&lt;br&gt;&lt;/li&gt;&lt;li&gt;降妖令：每日挑战，全球排名&lt;br&gt;&lt;/li&gt;&lt;li&gt;自定义模式：自定种子，随心游戏&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;现已开放创意工坊！&lt;/h2&gt;在【测试功能——创意工坊】中可以选择添加创意工坊的MOD&lt;br&gt;如果你有意向在我们游戏制作更多有趣的MOD，欢迎添加我们的降妖散记MOD交流群：838731579</t>
+          <t>&lt;h2 class="bb_tag"&gt;&lt;strong&gt;详细介绍：&lt;/strong&gt;&lt;/h2&gt;世间群魔并起，你将扮演一位降妖除魔的侠客，与世间群妖展开战斗。&lt;h2 class="bb_tag"&gt;游戏内容：&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;300张可用卡牌&lt;br&gt;&lt;/li&gt;&lt;li&gt;128种心法&lt;br&gt;&lt;/li&gt;&lt;li&gt;35种丹药&lt;br&gt;&lt;/li&gt;&lt;li&gt;100+各具特色的敌人&lt;br&gt;&lt;/li&gt;&lt;li&gt;20级游戏难度&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;降妖侠客：&lt;/h2&gt;&lt;strong&gt;莫三：镇妖司的千户，用一柄偶尔会夺舍的魔刀战斗&lt;/strong&gt;&lt;br&gt;威震江湖，你靠的就是一个怒字，善用怒气，你可低费打出大量伤害&lt;br&gt;你善用利刃为敌人制造伤口，叠起城墙般厚重的护甲，也会为了强大的战力走火入魔……&lt;br&gt;没有人愿意见到你走火入魔的样子，莫三爷&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1915510/extras/莫三究极版.gif?t=1695144770" /&gt;&lt;br&gt;&lt;strong&gt;小川：偷跑下山的小道士，使用炼丹时发明的奇怪道具和竹火剑猎杀妖魔&lt;/strong&gt;&lt;br&gt;外表懦弱的小川，手中竹火剑却让敌人闻风丧胆&lt;br&gt;名为剑，却是一柄装弹枪械，“子弹”是小川的核心玩法，搭载强力子弹的竹火箭堪称人间大炮&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1915510/extras/小川最终版.gif?t=1695144770" /&gt;&lt;br&gt;&lt;strong&gt;阿紫：苗疆的巫女，善于利用毒虫和灵力进行作战&lt;/strong&gt;&lt;br&gt;驾驭毒虫是苗疆的绝技，阿紫可以铺上满屏召唤物，决胜于虫群之后&lt;br&gt;做为巫女，阿紫也热衷于为敌人献上灾祸，从印堂发黑到灭顶之灾，只是一瞬之间&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1915510/extras/阿紫究极版.gif?t=1695144770" /&gt;&lt;br&gt;&lt;strong&gt;龙女：可以呼风唤雨的78岁萝莉龙宝宝&lt;/strong&gt;&lt;br&gt;使用法术作战，打急了会变身咬人（真咬），因为还是个宝宝，所以无法把控形态，释放多个法术后会失控变回龙形态，疯狂啃咬敌人&lt;br&gt;人形态下会施展法术攻击敌人&lt;br&gt;&lt;strong&gt;目前还在测试中，可以在测试分支输入longmei666666抢先体验&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1915510/extras/龙女最终版.gif?t=1695144770" /&gt;&lt;h2 class="bb_tag"&gt;游戏模式：&lt;/h2&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;猎妖大会：多人组队，竞速通关&lt;br&gt;&lt;/li&gt;&lt;li&gt;降妖令：每日挑战，全球排名&lt;br&gt;&lt;/li&gt;&lt;li&gt;自定义模式：自定种子，随心游戏&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;现已开放创意工坊！&lt;/h2&gt;在【测试功能——创意工坊】中可以选择添加创意工坊的MOD&lt;br&gt;如果你有意向在我们游戏制作更多有趣的MOD，欢迎添加我们的降妖散记MOD交流群：838731579</t>
         </is>
       </c>
     </row>
@@ -14221,7 +14221,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
@@ -14964,7 +14964,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
@@ -15090,7 +15090,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x346_ch_s.jpg?t=1694619997" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_1.png?t=1694619997" /&gt;&lt;br&gt;&lt;br&gt;《拯救：卫兵》是一款快节奏的轻度类Rogue自动射击游戏，背景世界与游戏《拯救》相同。一百多年前，灰色瘟疫肆虐，大部分人类都变成了凶恶的变种生物。这片土地如今被死亡和混乱笼罩，只有少数城市仍然屹立不倒。&lt;br&gt;&lt;br&gt;你将操控炼金术士创造的一个卫兵，肩负唯一的使命——只要你的反应堆还在运转，就竭力保卫城市，抵挡变种生物无尽的袭击。组合物品和炼金元素，不断获取新的武器，打造独特的构筑！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/saw-1_new.gif?t=1694619997" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_2.png?t=1694619997" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;易于上手，难以精通&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;巧妙操控卫兵突破致命变种生物的包围，利用它的武器将敌人消灭！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;收集原质，提升守卫的性能&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/Desktop_2023.02.10_-_14.46.11.13_3.gif?t=1694619997" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;组合武器和物品，赋予它们全新的元素效果&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;卫兵反应堆的能量耗尽之前，一定不能牺牲！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;面对并击败强大的头目&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;完成数十项挑战，解锁全新的能力&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/Choose_your_Sentinel.gif?t=1694619997" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;炼金术创造的各类枪械和技能供你选择&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;灵活升级或精心打造角色构筑，以对抗特性和抗性不同的变种怪物&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;坚持得越久，你就越强大。不断获得技能、武器，不断击败敌人。简而言之，游戏超级耐玩！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_3.png?t=1694619997" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/2244480/REMEDIUM_Sentinels/" target="_blank" rel=""  id="dynamiclink_2" &gt;https://store.steampowered.com/app/2244480/REMEDIUM_Sentinels/&lt;/a&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x346_ch_s.jpg?t=1695298276" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_1.png?t=1695298276" /&gt;&lt;br&gt;&lt;br&gt;《拯救：卫兵》是一款快节奏的轻度类Rogue自动射击游戏，背景世界与游戏《拯救》相同。一百多年前，灰色瘟疫肆虐，大部分人类都变成了凶恶的变种生物。这片土地如今被死亡和混乱笼罩，只有少数城市仍然屹立不倒。&lt;br&gt;&lt;br&gt;你将操控炼金术士创造的一个卫兵，肩负唯一的使命——只要你的反应堆还在运转，就竭力保卫城市，抵挡变种生物无尽的袭击。组合物品和炼金元素，不断获取新的武器，打造独特的构筑！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/saw-1_new.gif?t=1695298276" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_2.png?t=1695298276" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;易于上手，难以精通&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;巧妙操控卫兵突破致命变种生物的包围，利用它的武器将敌人消灭！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;收集原质，提升守卫的性能&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/Desktop_2023.02.10_-_14.46.11.13_3.gif?t=1695298276" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;组合武器和物品，赋予它们全新的元素效果&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;卫兵反应堆的能量耗尽之前，一定不能牺牲！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;面对并击败强大的头目&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;完成数十项挑战，解锁全新的能力&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/Choose_your_Sentinel.gif?t=1695298276" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;炼金术创造的各类枪械和技能供你选择&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;灵活升级或精心打造角色构筑，以对抗特性和抗性不同的变种怪物&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;坚持得越久，你就越强大。不断获得技能、武器，不断击败敌人。简而言之，游戏超级耐玩！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_3.png?t=1695298276" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/2244480/REMEDIUM_Sentinels/" target="_blank" rel=""  id="dynamiclink_3" &gt;https://store.steampowered.com/app/2244480/REMEDIUM_Sentinels/&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -15196,7 +15196,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
@@ -15527,7 +15527,7 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/魔王终局Logo.gif?t=1693550847" /&gt;&lt;br&gt;&lt;br&gt;欢迎来到魔王城堡！《魔王终局》是一款类自走棋的策略休闲游戏，你的智慧和随机应变能力，将为你导向胜利——当然，还需要一些运气！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/魔王终局标题把不速之客赶出去.gif?t=1693550847" /&gt;&lt;br&gt;在游戏里，你将不再是人们口中常说的冒险者了，而是“邪恶”的魔王本王！面对为了宝物而前仆后继的冒险者，请招募强大的随从，搭配合理的阵营，把这些冒险者都赶出去！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/魔王终局魔物攻击勇者.gif?t=1693550847" /&gt;&lt;br&gt;&lt;br&gt;在回合次数内击败冒险者，否则宝石就要被偷走啦！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/魔王终局勇者偷走珠宝.gif?t=1693550847" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/魔王终局多种流派，随意搭配.gif?t=1693550847" /&gt;&lt;br&gt;游戏中目前有120种随从，战斗开始前，他们将会随机出现，根据局势选择一个得力助手，构筑一个相辅相成的强大阵容，抵御敌人的来袭吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/魔王终局抽卡进牌堆.gif?t=1693550847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/毒素带火.gif?t=1693550847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/雷暴带火.gif?t=1693550847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/死亡波带火.gif?t=1693550847" /&gt;&lt;br&gt;&lt;br&gt;目前《魔王终局》中有65种财宝、7种传奇财宝、13种难度财宝。当你将冒险者肃清后，根据你的阵容选择合适的财宝，这可能成为局面逆转的关键！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/游戏内截图.png?t=1693550847" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/魔王终局标题不仅玩得爽，还很杀时间.gif?t=1693550847" /&gt;&lt;br&gt;游戏操作简单，研究起来却别有洞天。多尝试各种不同流派的通关方法吧！短小精悍的游戏内容，最适合在繁琐的工作学习之余来上这么一把，但要注意，小游戏才最杀时间！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/魔王终局魔物更换图.gif?t=1693550847" /&gt;&lt;h2 class="bb_tag"&gt;鸣谢&lt;/h2&gt;感谢在游戏开发过程中，提出宝贵意见或是提供直接帮助的朋友！（排名不分前后）：高达人，拌饭，茗凰，华莱士鱼人，秋夜，大睡，大脸，斯尔娜娜，Faumi，blue，Obrean。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/魔王终局Logo.gif?t=1695288272" /&gt;&lt;br&gt;&lt;br&gt;欢迎来到魔王城堡！《魔王终局》是一款类自走棋的策略休闲游戏，你的智慧和随机应变能力，将为你导向胜利——当然，还需要一些运气！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/魔王终局标题把不速之客赶出去.gif?t=1695288272" /&gt;&lt;br&gt;在游戏里，你将不再是人们口中常说的冒险者了，而是“邪恶”的魔王本王！面对为了宝物而前仆后继的冒险者，请招募强大的随从，搭配合理的阵营，把这些冒险者都赶出去！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/魔王终局魔物攻击勇者.gif?t=1695288272" /&gt;&lt;br&gt;&lt;br&gt;在回合次数内击败冒险者，否则宝石就要被偷走啦！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/魔王终局勇者偷走珠宝.gif?t=1695288272" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/魔王终局多种流派，随意搭配.gif?t=1695288272" /&gt;&lt;br&gt;游戏中目前有120种随从，战斗开始前，他们将会随机出现，根据局势选择一个得力助手，构筑一个相辅相成的强大阵容，抵御敌人的来袭吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/魔王终局抽卡进牌堆.gif?t=1695288272" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/毒素带火.gif?t=1695288272" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/雷暴带火.gif?t=1695288272" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/死亡波带火.gif?t=1695288272" /&gt;&lt;br&gt;&lt;br&gt;目前《魔王终局》中有65种财宝、7种传奇财宝、13种难度财宝。当你将冒险者肃清后，根据你的阵容选择合适的财宝，这可能成为局面逆转的关键！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/游戏内截图.png?t=1695288272" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/魔王终局标题不仅玩得爽，还很杀时间.gif?t=1695288272" /&gt;&lt;br&gt;游戏操作简单，研究起来却别有洞天。多尝试各种不同流派的通关方法吧！短小精悍的游戏内容，最适合在繁琐的工作学习之余来上这么一把，但要注意，小游戏才最杀时间！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2343600/extras/魔王终局魔物更换图.gif?t=1695288272" /&gt;&lt;h2 class="bb_tag"&gt;鸣谢&lt;/h2&gt;感谢在游戏开发过程中，提出宝贵意见或是提供直接帮助的朋友！（排名不分前后）：高达人，拌饭，茗凰，华莱士鱼人，秋夜，大睡，大脸，斯尔娜娜，Faumi，blue，Obrean。</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -711,7 +711,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/TSC_Core_GIF.gif?t=1695129158" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;YOUR RAILWAY HOBBY&lt;/strong&gt;&lt;br&gt;《经典模拟列车》将你的铁路爱好推上巅峰。学习驾驶官方授权的经典机车，行驶于世界各地细节详尽、与现实一致的铁路线上。这里是开启虚拟列车收藏之路的绝佳平台，所有铁道迷都能在这里找到属于他们自己的一片天地。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/Pegnitz_GIF.gif?t=1695129158" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;佩格尼茨山谷铁路&lt;/strong&gt;&lt;br&gt;巴伐利亚风景如画的乡村等你来探索！沿着德国非电气化铁路蜿蜒前行，沉醉于沿途森林山丘的景色，一切尽在《佩格尼茨山谷铁路：纽伦堡—拜罗伊特》。掌握德铁 612 型动车组独特的操控技巧，克服过弯带来的倾摆挑战，行驶于这条全长 93 千米的线路上。同时还有德铁摆式内燃 605 型城际快车（ICE-TD）、德铁 648 型等动车组，以及 19 个真实的车站等你来探索。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/Huddersfield_GIF.gif?t=1695129158" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;哈德斯菲尔德线&lt;/strong&gt;&lt;br&gt;在曼彻斯特维多利亚站和利兹站之间，铺设有一条全长 43 英里的哈德斯菲尔德线。这条线路是该地区最繁忙的线路之一，提供了横跨英格兰北部的本地和长途客运服务。驾驶 20 世纪 90 年代英国铁路私有化时代的列车，包括英铁 158 型动车组、142 型“步行者”动车组、47/8 型机车等，在这条线路上翻山越岭、跨过高架桥，穿过数条隧道。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/LIRR_GIF.gif?t=1695129158" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;长岛铁路&lt;/strong&gt;&lt;br&gt;美国最有历史意义和最具传奇色彩的通勤铁路——长岛铁路现已亮相，对细节处的不断打磨为这条线路带来了无与伦比的真实性。搭乘庞巴迪制造的 M7 型电力动车组，探索纽约市的三个标志性车站——位于曼哈顿的宾夕法尼亚车站、布鲁克林的大西洋总站和长岛市车站。&lt;br&gt;&lt;br&gt;&lt;strong&gt;学习&lt;/strong&gt;&lt;br&gt;走进模拟列车学园，踏上作为一名模拟列车司机的征途。无论是电力机车、内燃机车还是蒸汽机车，你都有机会学习驾驶这些享誉世界的优秀列车。&lt;br&gt;&lt;br&gt;&lt;strong&gt;驾驶&lt;/strong&gt;&lt;br&gt;驾驶多款逼真的机车。你可以从舒适的驾驶室里，通过完美再现真实列车操作的控制面板，掌控全局，包括机车引擎、上下乘客、安全系统和信号系统等等。&lt;br&gt;&lt;br&gt;&lt;strong&gt;收藏&lt;/strong&gt;&lt;br&gt;浏览 Steam 商店中丰富多彩的内容，挑选出心仪的线路、机车和车厢，为自己打造一套梦寐以求的“铁路阵容”吧。在上百件游戏附加内容中，你一定能找到你感兴趣的新内容，扩充自己的铁路收藏库。&lt;br&gt;&lt;br&gt;&lt;strong&gt;创建&lt;/strong&gt;&lt;br&gt;使用功能强大的模拟列车编辑器打造属于你的火车世界。在这里，你可以创造自己构想的铁路线并在 Steam 创意工坊与其他玩家分享；也可以在创意工坊中发布的上千个附加内容中进行挑选，找到你喜欢的那一款。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/TSC_Core_GIF.gif?t=1695388054" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;YOUR RAILWAY HOBBY&lt;/strong&gt;&lt;br&gt;《经典模拟列车》将你的铁路爱好推上巅峰。学习驾驶官方授权的经典机车，行驶于世界各地细节详尽、与现实一致的铁路线上。这里是开启虚拟列车收藏之路的绝佳平台，所有铁道迷都能在这里找到属于他们自己的一片天地。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/Pegnitz_GIF.gif?t=1695388054" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;佩格尼茨山谷铁路&lt;/strong&gt;&lt;br&gt;巴伐利亚风景如画的乡村等你来探索！沿着德国非电气化铁路蜿蜒前行，沉醉于沿途森林山丘的景色，一切尽在《佩格尼茨山谷铁路：纽伦堡—拜罗伊特》。掌握德铁 612 型动车组独特的操控技巧，克服过弯带来的倾摆挑战，行驶于这条全长 93 千米的线路上。同时还有德铁摆式内燃 605 型城际快车（ICE-TD）、德铁 648 型等动车组，以及 19 个真实的车站等你来探索。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/Huddersfield_GIF.gif?t=1695388054" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;哈德斯菲尔德线&lt;/strong&gt;&lt;br&gt;在曼彻斯特维多利亚站和利兹站之间，铺设有一条全长 43 英里的哈德斯菲尔德线。这条线路是该地区最繁忙的线路之一，提供了横跨英格兰北部的本地和长途客运服务。驾驶 20 世纪 90 年代英国铁路私有化时代的列车，包括英铁 158 型动车组、142 型“步行者”动车组、47/8 型机车等，在这条线路上翻山越岭、跨过高架桥，穿过数条隧道。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/LIRR_GIF.gif?t=1695388054" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;长岛铁路&lt;/strong&gt;&lt;br&gt;美国最有历史意义和最具传奇色彩的通勤铁路——长岛铁路现已亮相，对细节处的不断打磨为这条线路带来了无与伦比的真实性。搭乘庞巴迪制造的 M7 型电力动车组，探索纽约市的三个标志性车站——位于曼哈顿的宾夕法尼亚车站、布鲁克林的大西洋总站和长岛市车站。&lt;br&gt;&lt;br&gt;&lt;strong&gt;学习&lt;/strong&gt;&lt;br&gt;走进模拟列车学园，踏上作为一名模拟列车司机的征途。无论是电力机车、内燃机车还是蒸汽机车，你都有机会学习驾驶这些享誉世界的优秀列车。&lt;br&gt;&lt;br&gt;&lt;strong&gt;驾驶&lt;/strong&gt;&lt;br&gt;驾驶多款逼真的机车。你可以从舒适的驾驶室里，通过完美再现真实列车操作的控制面板，掌控全局，包括机车引擎、上下乘客、安全系统和信号系统等等。&lt;br&gt;&lt;br&gt;&lt;strong&gt;收藏&lt;/strong&gt;&lt;br&gt;浏览 Steam 商店中丰富多彩的内容，挑选出心仪的线路、机车和车厢，为自己打造一套梦寐以求的“铁路阵容”吧。在上百件游戏附加内容中，你一定能找到你感兴趣的新内容，扩充自己的铁路收藏库。&lt;br&gt;&lt;br&gt;&lt;strong&gt;创建&lt;/strong&gt;&lt;br&gt;使用功能强大的模拟列车编辑器打造属于你的火车世界。在这里，你可以创造自己构想的铁路线并在 Steam 创意工坊与其他玩家分享；也可以在创意工坊中发布的上千个附加内容中进行挑选，找到你喜欢的那一款。</t>
         </is>
       </c>
     </row>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3498,7 +3498,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://space.bilibili.com/1330488527/" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/534380/extras/BiliBili_v2.gif?t=1694163147" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;距离第一部游戏的故事已经过去了20年，病毒占了上风，人类正逐渐走向死亡。你将扮演艾登·克拉德威尔，一个漫游者，负责运送货物和传递消息，在被丧尸病毒摧毁的荒芜世界中，保持着与仅存的几个生存者聚居点的联系。然而，你的真正目标是找到妹妹米娅。过去，为了逃离华尔兹博士的痛苦实验，你曾经离开了还是孩童的她。这段过去一直在你心中挥之不去，当你听说米娅可能还活着，并且居住在地球上最后一座城市维勒多时，你终于下定决心直面这一切。&lt;br&gt;&lt;br&gt;不久后，你发现自己身处一个冲突不断的聚居点。你需要参与新奇而残酷的战斗，不断磨砺自己的技能，击败成群的丧尸，并与其他人结盟。你将在城市中漫游，在维勒多的建筑和屋顶上自由奔跑，搜寻偏远地区的战利品，并在夜晚时保持警惕。每当太阳西沉，怪物就会占领所有街道。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/534380/extras/dl_2_sh_steam.gif?t=1694163147" /&gt;&lt;h2 class="bb_tag"&gt;末日后的世界&lt;/h2&gt;15年前，人类经历了一场大陷落，这场灾难永远改变了世界。哈兰病毒迅速在全球蔓延，人们很快发现，所有的希望都破灭了。到了2036年，只有为数不多的聚居地存留于世，而人类正在逐渐走向死亡，为无情的新物种——成群结队的丧尸——让路。&lt;h2 class="bb_tag"&gt;白天属于活人，夜晚属于死者&lt;/h2&gt;欢迎来到维勒多，人类最后的堡垒之一。白天，生存者仍然努力在这里生活，寻求一种虚假的正常感。他们建立关系，追逐梦想，让生活继续。表面上看，一切似乎……不错。然而，当日落时分到来，最后一束阳光消失，城市中更可怕的居民将从他们阴暗的巢穴中爬出，占领街道。如果你在黑暗中停留太久，不提高警觉，就可能永远无法回家。&lt;h2 class="bb_tag"&gt;你必须不停移动才能存活&lt;/h2&gt;你不可能赢得所有的战斗。有时候，逃跑才是上策。幸运的是，你正好有这样的技巧。当你陷入危机，跑酷让你顺利逃脱。从一个屋顶跳到另一个屋顶，飞荡着穿过不同的城市景观，利用滑索等等。无论你做什么，当你在维勒多的建筑和屋顶上自由奔跑，寻找战利品或逃离夜晚的危险时，都会体验到独一无二的自由感。&lt;h2 class="bb_tag"&gt;变得残暴，并发挥创造力&lt;/h2&gt;在这个危险的世界中，只有最强者才能生存。无论你是喜欢粉碎、切割还是肢解挡在你面前的敌人，你都必须发挥创造力才能度过难关。而且，谁说你需要武器？利用你的各种跑酷动作来先发制人。学习战斗和跑酷的方式，在挥舞武器或使用招式抵御任何形式的危险时，感受头骨碎裂和血肉横飞的刺激。还有别忘了，维勒多拥有的武器能让末日后世界最先进的武器库都相形见绌。&lt;h2 class="bb_tag"&gt;与其单打独斗，不如四个漫游者同行&lt;/h2&gt;有朋友相助，在维勒多活下去会更容易。与最多3名玩家组队，以增加你的生存几率。一起探索剧情，接受漫游者哨站的挑战，或是在城市街道上大肆破坏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/534380/extras/steam_footer_dying_light2.jpg?t=1694163147" /&gt;</t>
+          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://space.bilibili.com/1330488527/" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/534380/extras/BiliBili_v2.gif?t=1695382874" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;距离第一部游戏的故事已经过去了20年，病毒占了上风，人类正逐渐走向死亡。你将扮演艾登·克拉德威尔，一个漫游者，负责运送货物和传递消息，在被丧尸病毒摧毁的荒芜世界中，保持着与仅存的几个生存者聚居点的联系。然而，你的真正目标是找到妹妹米娅。过去，为了逃离华尔兹博士的痛苦实验，你曾经离开了还是孩童的她。这段过去一直在你心中挥之不去，当你听说米娅可能还活着，并且居住在地球上最后一座城市维勒多时，你终于下定决心直面这一切。&lt;br&gt;&lt;br&gt;不久后，你发现自己身处一个冲突不断的聚居点。你需要参与新奇而残酷的战斗，不断磨砺自己的技能，击败成群的丧尸，并与其他人结盟。你将在城市中漫游，在维勒多的建筑和屋顶上自由奔跑，搜寻偏远地区的战利品，并在夜晚时保持警惕。每当太阳西沉，怪物就会占领所有街道。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/534380/extras/dl_2_sh_steam.gif?t=1695382874" /&gt;&lt;h2 class="bb_tag"&gt;末日后的世界&lt;/h2&gt;15年前，人类经历了一场大陷落，这场灾难永远改变了世界。哈兰病毒迅速在全球蔓延，人们很快发现，所有的希望都破灭了。到了2036年，只有为数不多的聚居地存留于世，而人类正在逐渐走向死亡，为无情的新物种——成群结队的丧尸——让路。&lt;h2 class="bb_tag"&gt;白天属于活人，夜晚属于死者&lt;/h2&gt;欢迎来到维勒多，人类最后的堡垒之一。白天，生存者仍然努力在这里生活，寻求一种虚假的正常感。他们建立关系，追逐梦想，让生活继续。表面上看，一切似乎……不错。然而，当日落时分到来，最后一束阳光消失，城市中更可怕的居民将从他们阴暗的巢穴中爬出，占领街道。如果你在黑暗中停留太久，不提高警觉，就可能永远无法回家。&lt;h2 class="bb_tag"&gt;你必须不停移动才能存活&lt;/h2&gt;你不可能赢得所有的战斗。有时候，逃跑才是上策。幸运的是，你正好有这样的技巧。当你陷入危机，跑酷让你顺利逃脱。从一个屋顶跳到另一个屋顶，飞荡着穿过不同的城市景观，利用滑索等等。无论你做什么，当你在维勒多的建筑和屋顶上自由奔跑，寻找战利品或逃离夜晚的危险时，都会体验到独一无二的自由感。&lt;h2 class="bb_tag"&gt;变得残暴，并发挥创造力&lt;/h2&gt;在这个危险的世界中，只有最强者才能生存。无论你是喜欢粉碎、切割还是肢解挡在你面前的敌人，你都必须发挥创造力才能度过难关。而且，谁说你需要武器？利用你的各种跑酷动作来先发制人。学习战斗和跑酷的方式，在挥舞武器或使用招式抵御任何形式的危险时，感受头骨碎裂和血肉横飞的刺激。还有别忘了，维勒多拥有的武器能让末日后世界最先进的武器库都相形见绌。&lt;h2 class="bb_tag"&gt;与其单打独斗，不如四个漫游者同行&lt;/h2&gt;有朋友相助，在维勒多活下去会更容易。与最多3名玩家组队，以增加你的生存几率。一起探索剧情，接受漫游者哨站的挑战，或是在城市街道上大肆破坏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/534380/extras/steam_footer_dying_light2.jpg?t=1695382874" /&gt;</t>
         </is>
       </c>
     </row>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>团队导向,一战,射击,玩家对战,拟真</t>
+          <t>一战,团队导向,射击,玩家对战,拟真</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>6.7</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -6461,7 +6461,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Larian_Steam_new_KeyArt_ready.gif?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;召集你的队伍，返回被遗忘的国度，开启一段充满友谊与背叛、牺牲与生存，以及至高无上力量诱惑的传奇故事。&lt;br&gt;&lt;br&gt;神秘的力量正在你体内苏醒，而这一切都来源于夺心魔种在你大脑里的寄生虫。反抗吧，将黑暗的力量反掌为用。你也可以选择接受这种腐化，变成终极的邪恶。&lt;br&gt;&lt;br&gt;来自《神界：原罪2》的创作团队所打造的次时代RPG，故事将在D&amp;amp;D（龙与地下城）的世界中展开。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Gather_new.gif?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;你可以从D&amp;amp;D玩家手册中的12个职业与11个种族中进行选择，或者直接扮演一个带有精心设计背景的起源英雄。无论你是踏上冒险之旅，还是去获取战利品，亦或是投身战斗，或者展开罗曼史，这些都将贯穿你在被遗忘的国度以及其他位面的冒险旅程。你可以选择单独游玩，或者是与最多三名队友一起进行联机游戏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/An_expansive_original_story.png?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;被劫持，被感染，陷入迷失。你正在变成一个怪物，但随着你体内的腐化力量的增长，你的力量也在增强。这力量可能能帮助你生存下来，但接受它的同时，你必将付出某种代价。然而，超越任何能力，你与队友之间建立的信任纽带可能会成为你最大的力量。在恶魔、诸神和邪恶的其他世界力量之间的冲突中，你将与队友共同决定被遗忘国度的命运。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Next_Gen_new.gif?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;利用全新的神界4.0引擎打造，《博德之门3》将为你提供前所未有的自由度，让你在这个充满角色、危险和欺诈的活跃世界中探索、尝试、互动，并获取实时的反馈。宏大的电影级叙事让你比以往任何时候都更接近你的角色。从被阴影诅咒的森林，到幽暗地域的神奇洞穴，再到博德之门本身的庞大城市，你的行动决定着冒险的过程，但你的选择将塑造你的遗产。你将被人们所铭记。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/No_adventure_will_be_the_same.png?t=1692294127" /&gt;&lt;br&gt;&lt;br&gt;被遗忘的国度是一个宏大、细节繁多、充满各色各样事物多元化的世界，到处都有等待被你发现的秘密——可互动的空间是探索的一个非常重要的部分。潜行，挖掘，推动物品，攀爬，还有跳跃，这些行动会贯穿你的整个旅途，从大地深处的幽暗地域，到地表城市闪亮的屋顶。你的每一个选择都会推动你的故事向前发展，每一个决定都会在世界上留下你的印记。你可以提升自己的角色、培养人际关系、树立敌人，并以自己的方式解决问题。每次游戏体验都是全新的无与伦比。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;最多可支持四名玩家的在线多人游戏&lt;br&gt;你可以将你的团队联合起来，同时攻击敌人，也可以将队伍分开，各自执行自己的任务和计划。一起制定完美的计划......或者在朋友们最意想不到的时候引入混乱元素。人际关系是很复杂的。尤其是当你脑中有寄生虫的时候。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;起源角色&lt;br&gt;7 位独一无二的起源角色为你带来精雕细琢的体验，每个人都有自己独特的特质、思想和世界观。他们的故事与总体叙事相互交错，而你的选择将决定这些故事的结局是救赎、拯救、统治，还是其他多种结局之一。你可以扮演原住民，欣赏他们的故事，也可以招募他们与你并肩作战。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;全新进化的回合制战斗&lt;br&gt;基于第五版《龙与地下城》规则。你可以体验基于团队战斗的主动权，和在战斗中不同决策带来的优势和劣势。我们增添了战地视角下的掷骰修正，也拓展了环境之间的交互性，增添了新的、更加灵活的战术和奖励，以让你在战斗中尽情展现你的策略和远见。三种难度设置可让您自定义战斗的挑战性。启用骰子加成来左右战斗，或在策略模式下进行游戏，以获得真正的硬核体验。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;前所未有的广度和深度&lt;br&gt;在 11 个种族（人类、吉斯洋基人、半兽人、矮人、精灵、卓尔、提夫林、半身人、半精灵、侏儒、龙裔）的基础上又增加了 31 个亚种，并从 12 个职业中分支出 46 个子职。在这个精雕细琢的世界中，600 多种法术和行动提供了近乎无限的互动自由。在这个世界中，探索是一种奖励，而玩家的主动性决定了旅程。我们独特的“角色创建器”具有前所未有的角色深度，其丰富的互动选项可确保无论你是谁，都会为你打造出独特的角色，一直到 12 级。超过 174 小时的过场动画确保无论你做出什么选择，过场动画都会跟随你的旅程——每一次游戏体验都是一次全新的电影之旅。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;复杂而深刻的浪漫故事&lt;br&gt;战争的威胁迫在眉睫地向博德之门袭来，夺心魔的入侵也即将来临，而友谊——尽管并非必要——也将加入你的旅途中。你将与沿途遇到的人建立起真实、充满活力的关系，至于他们会变成什么样，则取决于你自己。每个同伴都有自己的道德指南针，会对你在旅途中做出的选择做出反应。你将以怎样的代价坚持自己的理想？你会让爱左右你的行动吗？在通往博德之门的道路上建立起来的关系既是您在营地休息的片刻，也为你在冒险中做出的许多决定增添了砝码。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;高度定制的直播体验&lt;br&gt;当您点击“开始直播”时，您的直播将不会被如熊、粗口或缺乏着装等因素所干扰。《博德之门 3》提供了3种不同级别的适合直播的定制选项。您可以分别（或同时）禁用裸体和露骨的内容，并可以启用Twitch集成功能，直接与观众互动，正如我们在《地狱飨宴》展示会上所做的一样！有了这些选项，无论您选择以何种方式进行游戏，《博德之门 3》都能保证您的直播进行得顺利。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Final_Image_new.gif?t=1692294127" /&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Larian_Steam_new_KeyArt_ready.gif?t=1695393586" /&gt;&lt;br&gt;&lt;br&gt;召集你的队伍，返回被遗忘的国度，开启一段充满友谊与背叛、牺牲与生存，以及至高无上力量诱惑的传奇故事。&lt;br&gt;&lt;br&gt;神秘的力量正在你体内苏醒，而这一切都来源于夺心魔种在你大脑里的寄生虫。反抗吧，将黑暗的力量反掌为用。你也可以选择接受这种腐化，变成终极的邪恶。&lt;br&gt;&lt;br&gt;来自《神界：原罪2》的创作团队所打造的次时代RPG，故事将在D&amp;amp;D（龙与地下城）的世界中展开。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Gather_new.gif?t=1695393586" /&gt;&lt;br&gt;&lt;br&gt;你可以从D&amp;amp;D玩家手册中的12个职业与11个种族中进行选择，或者直接扮演一个带有精心设计背景的起源英雄。无论你是踏上冒险之旅，还是去获取战利品，亦或是投身战斗，或者展开罗曼史，这些都将贯穿你在被遗忘的国度以及其他位面的冒险旅程。你可以选择单独游玩，或者是与最多三名队友一起进行联机游戏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/An_expansive_original_story.png?t=1695393586" /&gt;&lt;br&gt;&lt;br&gt;被劫持，被感染，陷入迷失。你正在变成一个怪物，但随着你体内的腐化力量的增长，你的力量也在增强。这力量可能能帮助你生存下来，但接受它的同时，你必将付出某种代价。然而，超越任何能力，你与队友之间建立的信任纽带可能会成为你最大的力量。在恶魔、诸神和邪恶的其他世界力量之间的冲突中，你将与队友共同决定被遗忘国度的命运。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Next_Gen_new.gif?t=1695393586" /&gt;&lt;br&gt;&lt;br&gt;利用全新的神界4.0引擎打造，《博德之门3》将为你提供前所未有的自由度，让你在这个充满角色、危险和欺诈的活跃世界中探索、尝试、互动，并获取实时的反馈。宏大的电影级叙事让你比以往任何时候都更接近你的角色。从被阴影诅咒的森林，到幽暗地域的神奇洞穴，再到博德之门本身的庞大城市，你的行动决定着冒险的过程，但你的选择将塑造你的遗产。你将被人们所铭记。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/No_adventure_will_be_the_same.png?t=1695393586" /&gt;&lt;br&gt;&lt;br&gt;被遗忘的国度是一个宏大、细节繁多、充满各色各样事物多元化的世界，到处都有等待被你发现的秘密——可互动的空间是探索的一个非常重要的部分。潜行，挖掘，推动物品，攀爬，还有跳跃，这些行动会贯穿你的整个旅途，从大地深处的幽暗地域，到地表城市闪亮的屋顶。你的每一个选择都会推动你的故事向前发展，每一个决定都会在世界上留下你的印记。你可以提升自己的角色、培养人际关系、树立敌人，并以自己的方式解决问题。每次游戏体验都是全新的无与伦比。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;最多可支持四名玩家的在线多人游戏&lt;br&gt;你可以将你的团队联合起来，同时攻击敌人，也可以将队伍分开，各自执行自己的任务和计划。一起制定完美的计划......或者在朋友们最意想不到的时候引入混乱元素。人际关系是很复杂的。尤其是当你脑中有寄生虫的时候。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;起源角色&lt;br&gt;7 位独一无二的起源角色为你带来精雕细琢的体验，每个人都有自己独特的特质、思想和世界观。他们的故事与总体叙事相互交错，而你的选择将决定这些故事的结局是救赎、拯救、统治，还是其他多种结局之一。你可以扮演原住民，欣赏他们的故事，也可以招募他们与你并肩作战。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;全新进化的回合制战斗&lt;br&gt;基于第五版《龙与地下城》规则。你可以体验基于团队战斗的主动权，和在战斗中不同决策带来的优势和劣势。我们增添了战地视角下的掷骰修正，也拓展了环境之间的交互性，增添了新的、更加灵活的战术和奖励，以让你在战斗中尽情展现你的策略和远见。三种难度设置可让您自定义战斗的挑战性。启用骰子加成来左右战斗，或在策略模式下进行游戏，以获得真正的硬核体验。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;前所未有的广度和深度&lt;br&gt;在 11 个种族（人类、吉斯洋基人、半兽人、矮人、精灵、卓尔、提夫林、半身人、半精灵、侏儒、龙裔）的基础上又增加了 31 个亚种，并从 12 个职业中分支出 46 个子职。在这个精雕细琢的世界中，600 多种法术和行动提供了近乎无限的互动自由。在这个世界中，探索是一种奖励，而玩家的主动性决定了旅程。我们独特的“角色创建器”具有前所未有的角色深度，其丰富的互动选项可确保无论你是谁，都会为你打造出独特的角色，一直到 12 级。超过 174 小时的过场动画确保无论你做出什么选择，过场动画都会跟随你的旅程——每一次游戏体验都是一次全新的电影之旅。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;复杂而深刻的浪漫故事&lt;br&gt;战争的威胁迫在眉睫地向博德之门袭来，夺心魔的入侵也即将来临，而友谊——尽管并非必要——也将加入你的旅途中。你将与沿途遇到的人建立起真实、充满活力的关系，至于他们会变成什么样，则取决于你自己。每个同伴都有自己的道德指南针，会对你在旅途中做出的选择做出反应。你将以怎样的代价坚持自己的理想？你会让爱左右你的行动吗？在通往博德之门的道路上建立起来的关系既是您在营地休息的片刻，也为你在冒险中做出的许多决定增添了砝码。&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;高度定制的直播体验&lt;br&gt;当您点击“开始直播”时，您的直播将不会被如熊、粗口或缺乏着装等因素所干扰。《博德之门 3》提供了3种不同级别的适合直播的定制选项。您可以分别（或同时）禁用裸体和露骨的内容，并可以启用Twitch集成功能，直接与观众互动，正如我们在《地狱飨宴》展示会上所做的一样！有了这些选项，无论您选择以何种方式进行游戏，《博德之门 3》都能保证您的直播进行得顺利。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1086940/extras/Final_Image_new.gif?t=1695393586" /&gt;&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
@@ -7917,7 +7917,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -8053,7 +8053,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=http://discord.gg/carteltycoon" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/Discord_Banner_1.png?t=1690383209" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;《Cartel Tycoon》以虚构的80年代拉丁美洲为背景，描绘出由可卡因主宰美国乃至全世界的时代图景。富得流油的毒枭们统治着他们的辉煌帝国，在创造了数千个就业机会的同时，也令这个道德沦丧的世界充斥着暴力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/CartelTycoon-Communication.gif?t=1690383209" /&gt;&lt;br&gt;&lt;br&gt;建立起生产毒品并拥有走私链的帝国，同时还要管理好地痞副手，处理好有关当局以及公众舆论的关系。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/Police.gif?t=1690383209" /&gt;&lt;br&gt;&lt;br&gt;敌对帮派、缉毒局、军方甚至中情局都对你不断增长的业务构成威胁。死亡在所难免，但这并不是终点。当你死后（对毒枭来说，从来没有真正的好结局），你将以继承者身份加冕，并在废墟上重新建立你的帝国。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/oct21_CopterV2.gif?t=1690383209" /&gt;&lt;br&gt;&lt;br&gt;在《Cartel Tycoon》中，失败是无法避免的，暴力只会带来更多的暴力——但是那些狡猾的毒枭眼中看到的更多是利润。&lt;h2 class="bb_tag"&gt;多种游戏模式总有一种适合你&lt;/h2&gt;&lt;br&gt;故事模式适合想要沉浸到数十小时引人入胜的游戏世界中的玩家。硬核永久死亡模式模式适合喜欢挑战的玩家。高度自定义的沙盒模式则为想要按照自己的规则进行游戏的玩家而准备！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/cars_small.png?t=1690383209" /&gt;&lt;br&gt;&lt;br&gt;Key features&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;发展你的帝国。&lt;/strong&gt;将简陋的农业经营发展成一个庞大的物流系统，包括种植园、实验室、航空港等。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;用自己的方式统治。&lt;/strong&gt;数十条升级路径，无数的策略组合，面对如此巨大的规模施展你超高的经营手腕。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;死亡不可避免。&lt;/strong&gt;当你的老大没落时，提拔一个独特的副手来接管你的生意并继续壮大你的卡特尔。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;每件事，每个人，都有价格。&lt;/strong&gt;清洗你辛苦赚来的钱来发展你的帝国，维护你副手的忠诚度，贿赂腐败的政客。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;捍卫自己所得。&lt;/strong&gt;在获利之路上规避有关当局，并与卡特尔同行竞争。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;无尽的可重玩性。&lt;/strong&gt;几十个独特的角色，无限制的沙盒游戏玩法，可随心所欲探索的动态叙事系统。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;原声大碟捕捉时代迷幻色彩，尽显拉美风情。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/Comp_64.gif?t=1690383209" /&gt;</t>
+          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=http://discord.gg/carteltycoon" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/Discord_Banner_1.png?t=1695374488" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;《Cartel Tycoon》以虚构的80年代拉丁美洲为背景，描绘出由可卡因主宰美国乃至全世界的时代图景。富得流油的毒枭们统治着他们的辉煌帝国，在创造了数千个就业机会的同时，也令这个道德沦丧的世界充斥着暴力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/CartelTycoon-Communication.gif?t=1695374488" /&gt;&lt;br&gt;&lt;br&gt;建立起生产毒品并拥有走私链的帝国，同时还要管理好地痞副手，处理好有关当局以及公众舆论的关系。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/Police.gif?t=1695374488" /&gt;&lt;br&gt;&lt;br&gt;敌对帮派、缉毒局、军方甚至中情局都对你不断增长的业务构成威胁。死亡在所难免，但这并不是终点。当你死后（对毒枭来说，从来没有真正的好结局），你将以继承者身份加冕，并在废墟上重新建立你的帝国。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/oct21_CopterV2.gif?t=1695374488" /&gt;&lt;br&gt;&lt;br&gt;在《Cartel Tycoon》中，失败是无法避免的，暴力只会带来更多的暴力——但是那些狡猾的毒枭眼中看到的更多是利润。&lt;h2 class="bb_tag"&gt;多种游戏模式总有一种适合你&lt;/h2&gt;&lt;br&gt;故事模式适合想要沉浸到数十小时引人入胜的游戏世界中的玩家。硬核永久死亡模式模式适合喜欢挑战的玩家。高度自定义的沙盒模式则为想要按照自己的规则进行游戏的玩家而准备！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/cars_small.png?t=1695374488" /&gt;&lt;br&gt;&lt;br&gt;Key features&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;发展你的帝国。&lt;/strong&gt;将简陋的农业经营发展成一个庞大的物流系统，包括种植园、实验室、航空港等。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;用自己的方式统治。&lt;/strong&gt;数十条升级路径，无数的策略组合，面对如此巨大的规模施展你超高的经营手腕。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;死亡不可避免。&lt;/strong&gt;当你的老大没落时，提拔一个独特的副手来接管你的生意并继续壮大你的卡特尔。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;每件事，每个人，都有价格。&lt;/strong&gt;清洗你辛苦赚来的钱来发展你的帝国，维护你副手的忠诚度，贿赂腐败的政客。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;捍卫自己所得。&lt;/strong&gt;在获利之路上规避有关当局，并与卡特尔同行竞争。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;无尽的可重玩性。&lt;/strong&gt;几十个独特的角色，无限制的沙盒游戏玩法，可随心所欲探索的动态叙事系统。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;原声大碟捕捉时代迷幻色彩，尽显拉美风情。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/Comp_64.gif?t=1695374488" /&gt;</t>
         </is>
       </c>
     </row>
@@ -9033,7 +9033,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/banner_tw.jpg?t=1691110808" /&gt;&lt;h2 class="bb_tag"&gt;《信長之野望･新生 with 威力加強版》&lt;/h2&gt;&lt;br&gt;※本商品包含《信長之野望･新生》与《信長之野望･新生 威力加強版》。&lt;br&gt;若已购买了《信長之野望･新生》，请勿购买本商品，而改为购买《信長之野望･新生 威力加強版》。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Nobunaga.gif?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;在《信長之野望･新生》中，玩家能够与自主思考并采取行动的“活生生武将”一起体验真实的战国。在符合“信長之野望”系列40周年品质和体量的标准下，本作迎来了系列最高级别的强化！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Departure.gif?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;①“君臣同心”的更深层进化&lt;/strong&gt;&lt;br&gt;能够阻止武将出奔、对敌对势力进行挖角等的“直接谈判”，任命“家宰”、“奉行”打造自己独特家臣团的“评定众”等，让“君臣同心”更上一层楼！ &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Battle1-CHT.gif?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;②波及到城下一带的白热化“攻城战”&lt;/strong&gt;&lt;br&gt;“攻城战”将以前所未有的形态登场。除去攻略城池本身，还能够享受别具动态感与真实感的攻城战！在超过200张专用地图上灵活运用每座城池的特征取得胜利吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Battle2-CHT.gif?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;③各势力别具一格、多彩的战略性&lt;/strong&gt;&lt;br&gt;大幅扩充赋予势力特征的“政策”。此外还追加了灵活运用决定每座城所扮演的角色、在据点之间建立联系的“城定位”，以及孕育出全新游玩体验的“军团战略”等新要素，令玩家别具个性的战略得以实现。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Characters.gif?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;④惯例的各种编辑功能之外，还有充实的追加要素！&lt;/strong&gt;&lt;br&gt;剧情与事件、特性等以往的要素得到大幅度扩充。武将与BGM、编辑剧情、创建新势力功能等高人气要素也将更加丰富多彩！&lt;h2 class="bb_tag"&gt;《信长之野望·新生》&lt;/h2&gt;&lt;br&gt;&lt;strong&gt;让天下重焕新生！&lt;/strong&gt;&lt;br&gt;&lt;br&gt;历史模拟游戏“信长之野望”系列的第16作，KOU SHIBUSAWA 40周年纪念作品。&lt;br&gt;&lt;br&gt;系列首次，通过自主判断而展开行动的“活生生武将”将大展身手！&lt;br&gt;支援玩家，为天下统一的目标东奔西走。&lt;br&gt;敌我双方的武将依照自己的判断，编织出有血有肉的战国乱世绘卷。&lt;br&gt;&lt;br&gt;推动历史进程的妙趣，便在于此！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/01.jpg?t=1691110808" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;【内政】夺取土地、给予土地！“知行”系统&lt;/strong&gt;&lt;br&gt;把从他国赢取的土地给予能够胜任的家臣，重现曾经的“知行制”！&lt;br&gt;家臣在获得知行地后，将自主发展该地。&lt;br&gt;发展土地并强化国力，于战场获胜后给予家臣更多的土地吧！&lt;br&gt;&lt;br&gt;&lt;strong&gt;【战略】展现属于自己的战略吧！ “政策”与“特性”&lt;/strong&gt;&lt;br&gt;大名家的“政策”与武将持有的“特性”是富国强兵的关键！&lt;br&gt;政策的强化、城主与其麾下武将的特性，将对势力的特点产生巨大影响。&lt;br&gt;战略性地活用人才、资金、时间，创造你的理想势力！&lt;br&gt;&lt;br&gt;&lt;strong&gt;【战斗】以进军路线为中心的战略！“多方作战”&lt;/strong&gt;&lt;br&gt;适于大军作战的大道，或仅可进行小规模作战的小径等等，需要根据这些地形，采取变幻莫测的战术！&lt;br&gt;尽可能多占领通向城的要道，便可在攻城战中占据优势。&lt;br&gt;活用地利，选择符合势力大小的独到战术击破敌军！&lt;br&gt;&lt;br&gt;&lt;strong&gt;【会战】与自主行动的家臣们一起取得胜利！“会战指挥”&lt;/strong&gt;&lt;br&gt;为了胜利，为了功名，所有武将都将依照自己的判断而战。&lt;br&gt;在充斥各种图谋的战场上，看清不断演变的战况，下达通往胜利的命令吧！</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/banner_tw.jpg?t=1695387871" /&gt;&lt;h2 class="bb_tag"&gt;《信長之野望･新生 with 威力加強版》&lt;/h2&gt;&lt;br&gt;※本商品包含《信長之野望･新生》与《信長之野望･新生 威力加強版》。&lt;br&gt;若已购买了《信長之野望･新生》，请勿购买本商品，而改为购买《信長之野望･新生 威力加強版》。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Nobunaga.gif?t=1695387871" /&gt;&lt;br&gt;&lt;br&gt;在《信長之野望･新生》中，玩家能够与自主思考并采取行动的“活生生武将”一起体验真实的战国。在符合“信長之野望”系列40周年品质和体量的标准下，本作迎来了系列最高级别的强化！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Departure.gif?t=1695387871" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;①“君臣同心”的更深层进化&lt;/strong&gt;&lt;br&gt;能够阻止武将出奔、对敌对势力进行挖角等的“直接谈判”，任命“家宰”、“奉行”打造自己独特家臣团的“评定众”等，让“君臣同心”更上一层楼！ &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Battle1-CHT.gif?t=1695387871" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;②波及到城下一带的白热化“攻城战”&lt;/strong&gt;&lt;br&gt;“攻城战”将以前所未有的形态登场。除去攻略城池本身，还能够享受别具动态感与真实感的攻城战！在超过200张专用地图上灵活运用每座城池的特征取得胜利吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Battle2-CHT.gif?t=1695387871" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;③各势力别具一格、多彩的战略性&lt;/strong&gt;&lt;br&gt;大幅扩充赋予势力特征的“政策”。此外还追加了灵活运用决定每座城所扮演的角色、在据点之间建立联系的“城定位”，以及孕育出全新游玩体验的“军团战略”等新要素，令玩家别具个性的战略得以实现。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Characters.gif?t=1695387871" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;④惯例的各种编辑功能之外，还有充实的追加要素！&lt;/strong&gt;&lt;br&gt;剧情与事件、特性等以往的要素得到大幅度扩充。武将与BGM、编辑剧情、创建新势力功能等高人气要素也将更加丰富多彩！&lt;h2 class="bb_tag"&gt;《信长之野望·新生》&lt;/h2&gt;&lt;br&gt;&lt;strong&gt;让天下重焕新生！&lt;/strong&gt;&lt;br&gt;&lt;br&gt;历史模拟游戏“信长之野望”系列的第16作，KOU SHIBUSAWA 40周年纪念作品。&lt;br&gt;&lt;br&gt;系列首次，通过自主判断而展开行动的“活生生武将”将大展身手！&lt;br&gt;支援玩家，为天下统一的目标东奔西走。&lt;br&gt;敌我双方的武将依照自己的判断，编织出有血有肉的战国乱世绘卷。&lt;br&gt;&lt;br&gt;推动历史进程的妙趣，便在于此！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/01.jpg?t=1695387871" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;【内政】夺取土地、给予土地！“知行”系统&lt;/strong&gt;&lt;br&gt;把从他国赢取的土地给予能够胜任的家臣，重现曾经的“知行制”！&lt;br&gt;家臣在获得知行地后，将自主发展该地。&lt;br&gt;发展土地并强化国力，于战场获胜后给予家臣更多的土地吧！&lt;br&gt;&lt;br&gt;&lt;strong&gt;【战略】展现属于自己的战略吧！ “政策”与“特性”&lt;/strong&gt;&lt;br&gt;大名家的“政策”与武将持有的“特性”是富国强兵的关键！&lt;br&gt;政策的强化、城主与其麾下武将的特性，将对势力的特点产生巨大影响。&lt;br&gt;战略性地活用人才、资金、时间，创造你的理想势力！&lt;br&gt;&lt;br&gt;&lt;strong&gt;【战斗】以进军路线为中心的战略！“多方作战”&lt;/strong&gt;&lt;br&gt;适于大军作战的大道，或仅可进行小规模作战的小径等等，需要根据这些地形，采取变幻莫测的战术！&lt;br&gt;尽可能多占领通向城的要道，便可在攻城战中占据优势。&lt;br&gt;活用地利，选择符合势力大小的独到战术击破敌军！&lt;br&gt;&lt;br&gt;&lt;strong&gt;【会战】与自主行动的家臣们一起取得胜利！“会战指挥”&lt;/strong&gt;&lt;br&gt;为了胜利，为了功名，所有武将都将依照自己的判断而战。&lt;br&gt;在充斥各种图谋的战场上，看清不断演变的战况，下达通往胜利的命令吧！</t>
         </is>
       </c>
     </row>
@@ -10479,7 +10479,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>策略,角色扮演,战术角色扮演,奇幻,即时战略</t>
+          <t>策略,角色扮演,战术角色扮演,奇幻,潜行</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Embark on an odyssey for the Lost Ark in a vast, vibrant world: explore new lands, seek out lost treasures, and test yourself in thrilling action combat. Define your fighting style with your class and advanced class, and customize your skills, weapons, and gear to bring your might to bear as you fight against hordes of enemies, colossal bosses, and dark forces seeking the power of the Ark in this action-packed free-to-play RPG.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599340/extras/LA_STEAM_WORLD_BRIMMING_01.gif?t=1694622097" /&gt;&lt;br&gt;&lt;strong&gt;Discover a World Brimming with Adventure&lt;/strong&gt;&lt;br&gt;Explore seven vast, varied continents and the seas between them to find vibrant cultures, strange and fantastical beasts, and all the unexpected marvels waiting to be discovered. Delve into the secrets of Arkesia, prove your might in battles and raids, compete against other players in PvP, travel to distant islands in search of hidden riches, face packs of enemies and colossal bosses in the open world, and more.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599340/extras/LA_STEAM_ODYSSEY_AWAITS_02.gif?t=1694622097" /&gt;&lt;br&gt;&lt;strong&gt;Your Odyssey Awaits&lt;/strong&gt;&lt;br&gt;Splash into massively satisfying ARPG-style combat and progression as you quest, raid, and fight on the scope of an MMO.  Whether you want to play solo, in groups with friends, or matched up with other adventurers in the world, there’s an epic adventure waiting for you.  Fight in the open world or delve into chaos dungeons, go head-to-head in expert PvP duels, test your mettle on epic quests, raid against bosses big and small, and hold your own in the fight against the Demon Legion to reclaim the power and light of the Lost Ark.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599340/extras/LA_STEAM_FIGHT_03.gif?t=1694622097" /&gt;&lt;br&gt;&lt;strong&gt;Define Your Fight&lt;/strong&gt;&lt;br&gt;Lost Ark offers easy-to-learn features with unexpected depth and room for customization. Hit the ground running with pick-up-and-play action then take control of your combat with the unique Tripod system. Unlock three tiers of customization for each of your abilities, giving you powerful control of exactly how you fight.  Lost Ark’s ever-expanding roster of iconic classes—each with their own distinct advanced classes—offers plenty of room to explore until you find the combat style that’s just right for you.  &lt;br&gt;&lt;br&gt;The same goes for other features: as you continue your journey, you’ll find non-combat skills, crafting, guilds and social systems, and other rich features that bring the world alive. Whether you want to skim along the surface or dive deep into the details is up to you.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;ACCESSIBILITY FEATURES:&lt;/strong&gt;&lt;br&gt;Personalize your adventure with accessibility settings before game play. Enable numerous options including chat text enlargement, color blindness filters, photosensitivity mode, toggleable camera shake, and subtitle settings to create your optimal experience. Define your audio preferences with settings for volume controls, mono sound, stereo sound, and surround sound. You can also adjust game inputs via input remapping options and mouse/keyboard control settings. Lastly, define game inputs via input remapping options, and make sure no message is missed with chat text-to-speech and speech-to-text.</t>
+          <t>Embark on an odyssey for the Lost Ark in a vast, vibrant world: explore new lands, seek out lost treasures, and test yourself in thrilling action combat. Define your fighting style with your class and advanced class, and customize your skills, weapons, and gear to bring your might to bear as you fight against hordes of enemies, colossal bosses, and dark forces seeking the power of the Ark in this action-packed free-to-play RPG.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599340/extras/LA_STEAM_WORLD_BRIMMING_01.gif?t=1695251545" /&gt;&lt;br&gt;&lt;strong&gt;Discover a World Brimming with Adventure&lt;/strong&gt;&lt;br&gt;Explore seven vast, varied continents and the seas between them to find vibrant cultures, strange and fantastical beasts, and all the unexpected marvels waiting to be discovered. Delve into the secrets of Arkesia, prove your might in battles and raids, compete against other players in PvP, travel to distant islands in search of hidden riches, face packs of enemies and colossal bosses in the open world, and more.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599340/extras/LA_STEAM_ODYSSEY_AWAITS_02.gif?t=1695251545" /&gt;&lt;br&gt;&lt;strong&gt;Your Odyssey Awaits&lt;/strong&gt;&lt;br&gt;Splash into massively satisfying ARPG-style combat and progression as you quest, raid, and fight on the scope of an MMO.  Whether you want to play solo, in groups with friends, or matched up with other adventurers in the world, there’s an epic adventure waiting for you.  Fight in the open world or delve into chaos dungeons, go head-to-head in expert PvP duels, test your mettle on epic quests, raid against bosses big and small, and hold your own in the fight against the Demon Legion to reclaim the power and light of the Lost Ark.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599340/extras/LA_STEAM_FIGHT_03.gif?t=1695251545" /&gt;&lt;br&gt;&lt;strong&gt;Define Your Fight&lt;/strong&gt;&lt;br&gt;Lost Ark offers easy-to-learn features with unexpected depth and room for customization. Hit the ground running with pick-up-and-play action then take control of your combat with the unique Tripod system. Unlock three tiers of customization for each of your abilities, giving you powerful control of exactly how you fight.  Lost Ark’s ever-expanding roster of iconic classes—each with their own distinct advanced classes—offers plenty of room to explore until you find the combat style that’s just right for you.  &lt;br&gt;&lt;br&gt;The same goes for other features: as you continue your journey, you’ll find non-combat skills, crafting, guilds and social systems, and other rich features that bring the world alive. Whether you want to skim along the surface or dive deep into the details is up to you.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;ACCESSIBILITY FEATURES:&lt;/strong&gt;&lt;br&gt;Personalize your adventure with accessibility settings before game play. Enable numerous options including chat text enlargement, color blindness filters, photosensitivity mode, toggleable camera shake, and subtitle settings to create your optimal experience. Define your audio preferences with settings for volume controls, mono sound, stereo sound, and surround sound. You can also adjust game inputs via input remapping options and mouse/keyboard control settings. Lastly, define game inputs via input remapping options, and make sure no message is missed with chat text-to-speech and speech-to-text.</t>
         </is>
       </c>
     </row>
@@ -11328,7 +11328,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -11501,7 +11501,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;欢迎来到「火山的女儿」！&lt;/strong&gt;&lt;br&gt;《火山的女儿》是一款多结局美少女模拟养成游戏，在游戏中，玩家将在剑与魔法、炼金术盛行的火山国抚育女儿不断成长，而你和女儿所做出的决定甚至可能会影响到整个火山国的未来。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn1.png?t=1687768034" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/女儿GIF1.gif?t=1687768034" /&gt;&lt;br&gt;经典中世纪架空背景，在剑与魔法的世界里，将女儿培养成才。你所面对的不仅是女儿成长过程中遇到的各种问题，更要时刻准备应对魔族的挑战。魔族首领“鸮姬”卷土重来之际，不为人知的暗流也在涌动，各种谜团等你揭晓。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn2.png?t=1687768034" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/女儿展示01.jpg?t=1687768034" /&gt;&lt;br&gt;人生道路上的每一次抉择都会改变成长的方向，女儿的每一次决定也势必会导向不一样的结局。游戏将提供给玩家超过50个可选结局，情感结局与职业结局完全分离，其中感情结局数量有12个以上，可攻略男女角色均为5人以上。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn3.png?t=1687768034" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/女儿GIF2.gif?t=1687768034" /&gt;&lt;br&gt;游戏中准备了多条养成路线，以及数十种养成方式和小游戏，种植、烹饪、钓鱼、骰子游戏、决斗、剧院、舞会、赛马、暗巷等等，玩家可以根据自己的喜好来对女儿进行培养。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn4.png?t=1687768034" /&gt;&lt;br&gt;成为王国骑士，探索危险的迷宫，采用经典回合制战斗，与你的伙伴一起击败阻挡在面前的所有敌人。面对魔族的进逼，唯有击败枭姬才可以拯救整个火山国。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn5.png?t=1687768034" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/4_NPC.jpg?t=1687768034" /&gt;&lt;br&gt;火山国居住着各色各样的居民，他们会陪伴着女儿一同成长，在成长的过程中，女儿会与这些居民进行交流，从而产生不一样的感情与羁绊。随着时间流逝，点滴的情感终将汇聚到一起，形成令人难以忘怀的回忆。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn6.png?t=1687768034" /&gt;&lt;br&gt;特邀日本知名声优中原麻衣（《寒蝉鸣泣之时》龙宫礼奈、《CLANNAD》古河渚）为日文版女儿配音，相信会给你带来不一样的体验。&lt;br&gt;&lt;br&gt;&lt;strong&gt;关于养蛋人工作室&lt;/strong&gt;&lt;br&gt;大家好！感谢大家一直以来对《火山的女儿》的支持与厚爱，养蛋人工作室是由2名来自北京的女生组成的超超超超小型工作室~作为工作室开发的第一款游戏，《火山的女儿》如同“女儿”一般，我们对她倾注了极大的热情和精力。历经三年时间，我们见证了她从呱呱坠地，到牙牙学语，从蹒跚学步，再到如今终于要和所有玩家见面了，希望大家都会喜欢她。</t>
+          <t>&lt;strong&gt;欢迎来到「火山的女儿」！&lt;/strong&gt;&lt;br&gt;《火山的女儿》是一款多结局美少女模拟养成游戏，在游戏中，玩家将在剑与魔法、炼金术盛行的火山国抚育女儿不断成长，而你和女儿所做出的决定甚至可能会影响到整个火山国的未来。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn1.png?t=1695263741" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/女儿GIF1.gif?t=1695263741" /&gt;&lt;br&gt;经典中世纪架空背景，在剑与魔法的世界里，将女儿培养成才。你所面对的不仅是女儿成长过程中遇到的各种问题，更要时刻准备应对魔族的挑战。魔族首领“鸮姬”卷土重来之际，不为人知的暗流也在涌动，各种谜团等你揭晓。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn2.png?t=1695263741" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/女儿展示01.jpg?t=1695263741" /&gt;&lt;br&gt;人生道路上的每一次抉择都会改变成长的方向，女儿的每一次决定也势必会导向不一样的结局。游戏将提供给玩家超过50个可选结局，情感结局与职业结局完全分离，其中感情结局数量有12个以上，可攻略男女角色均为5人以上。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn3.png?t=1695263741" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/女儿GIF2.gif?t=1695263741" /&gt;&lt;br&gt;游戏中准备了多条养成路线，以及数十种养成方式和小游戏，种植、烹饪、钓鱼、骰子游戏、决斗、剧院、舞会、赛马、暗巷等等，玩家可以根据自己的喜好来对女儿进行培养。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn4.png?t=1695263741" /&gt;&lt;br&gt;成为王国骑士，探索危险的迷宫，采用经典回合制战斗，与你的伙伴一起击败阻挡在面前的所有敌人。面对魔族的进逼，唯有击败枭姬才可以拯救整个火山国。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn5.png?t=1695263741" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/4_NPC.jpg?t=1695263741" /&gt;&lt;br&gt;火山国居住着各色各样的居民，他们会陪伴着女儿一同成长，在成长的过程中，女儿会与这些居民进行交流，从而产生不一样的感情与羁绊。随着时间流逝，点滴的情感终将汇聚到一起，形成令人难以忘怀的回忆。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn6.png?t=1695263741" /&gt;&lt;br&gt;特邀日本知名声优中原麻衣（《寒蝉鸣泣之时》龙宫礼奈、《CLANNAD》古河渚）为日文版女儿配音，相信会给你带来不一样的体验。&lt;br&gt;&lt;br&gt;&lt;strong&gt;关于养蛋人工作室&lt;/strong&gt;&lt;br&gt;大家好！感谢大家一直以来对《火山的女儿》的支持与厚爱，养蛋人工作室是由2名来自北京的女生组成的超超超超小型工作室~作为工作室开发的第一款游戏，《火山的女儿》如同“女儿”一般，我们对她倾注了极大的热情和精力。历经三年时间，我们见证了她从呱呱坠地，到牙牙学语，从蹒跚学步，再到如今终于要和所有玩家见面了，希望大家都会喜欢她。</t>
         </is>
       </c>
     </row>
@@ -11669,7 +11669,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>官方QQ群号：&lt;br&gt;官方QQ④群：757371350&lt;br&gt;官方QQ⑧群：920151793&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;这是一款基于武侠、江湖背景为基础的&lt;strong&gt; &lt;u&gt;开放沙盒类非传统武侠 RPG游戏&lt;/u&gt;&lt;/strong&gt;，你可以在这个大荒世界之中，扮演你所幻想的任何武侠角色，这里没有任何阻挡你幻想的老套剧情，你所演绎的武侠人生就是这个你的游戏剧情。你可以作为一名江湖小虾米游历大荒，你也可以成为一派掌门引领四方，你亦可以成为一名看不惯这江湖的浪子我行我素。最重要的是，请一切遵从于你的内心而为，并且活着！&lt;br&gt;&lt;br&gt;(1)玩家可以从零开始扩展自己的小世界，也可以通过创建小世界生成随机大小的初始世界。每个区域都有独特的环境、资源、生物以及势力。 在熟悉了游戏基本操作之后，您便可以直接生成环境属性各异的、已经包含一定数量地块的世界进行体验和历练，并且可以控制不同的“我”往来穿梭于各个世界开启别样人生！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/kf1.gif?t=1695194030" /&gt;&lt;br&gt;&lt;br&gt;(2)新颖的单回合战斗方式，通过收集不同的绝学搭配创建自己的招式库，战斗中拖动连接不同的招式激活绝学，利用招式克制和绝学套路，体现武侠战斗的策略性。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF2.gif?t=1695194030" /&gt;&lt;br&gt;&lt;br&gt;(3)独创的经脉系统，将人体经脉的运转进行了简化概念设计，玩家可以体验到不同的运功路线激活不同内功的拟真感受，简洁却富有策略玩法的设计给玩家提供了搭配和激活多种内功的玩法。同时经脉系统也结合了武侠小说中各种身体机能的具象表现，角色的生命力、内伤、隐疾、蛊、生死符、残疾、瞎眼等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF3.gif?t=1695194030" /&gt;&lt;br&gt;&lt;br&gt;(4)游戏还包含了自由的建造模式，玩家可以打造自己的民居、酒馆、温泉、马厩、大殿、监牢等等，每种建筑都有独特的功能。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF4.gif?t=1695194030" /&gt;&lt;br&gt;&lt;br&gt;(5)潜行玩法，可以通过训练潜行能力，配合独特的内功，夜晚穿上夜行衣，如人无人之境。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF5.gif?t=1695194030" /&gt;&lt;br&gt;&lt;br&gt;(6)训练轻功、跳跃、潜水、攀爬，无论高山深海都可闲庭信步。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF6.gif?t=1695194030" /&gt;&lt;br&gt;&lt;br&gt;(7)通过自定义天命、出身、容貌、血脉，打造独属于自己的角色。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF7.gif?t=1695194030" /&gt;&lt;br&gt;&lt;br&gt;(8)非线性剧情，游戏中每个NPC都会根据自己的行为、身份、名声、关系、态度等等在世界中生存，玩家的每次游戏都会与他们发生不同的剧情。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF8.gif?t=1695194030" /&gt;&lt;br&gt;&lt;br&gt;(9)丰富的交互内容&lt;br&gt;可以把敌人的建筑引燃&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF9.gif?t=1695194030" /&gt;&lt;br&gt;&lt;br&gt;可以邀请NPC喝酒，灌醉后搜刮物品&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF10.gif?t=1695194030" /&gt;&lt;br&gt;&lt;br&gt;可以驯化各种动物，每种动物都有各自独特的功能，例如猴子可以乞讨、马可以乘骑和改装马车、蛇可以下毒等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF11.gif?t=1695194030" /&gt;&lt;br&gt;&lt;br&gt;玩家可以创建自己门派，招募弟子，发布命令，参加武林大会。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF12.gif?t=1695194030" /&gt;&lt;br&gt;&lt;br&gt;丰富的交互内容·玩家可以布置陷阱，抓捕动物或敌人。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF13.gif?t=1695194030" /&gt;&lt;br&gt;&lt;br&gt;建立门派，发布命令&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF15.gif?t=1695194030" /&gt;&lt;br&gt;&lt;br&gt;建立牢笼，关押敌人&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF16.gif?t=1695194030" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;———————————————————————————————————————&lt;br&gt;来自幻魔寺的寄语：&lt;br&gt;我们坚守本心，完全独立开发，只做大家觉得好玩的游戏，这款游戏的世界目前仍然只是一个雏形，我们深知它会不断壮大，并且成为未来我们一切游戏的基石，我们会为此不断努力，带给大家一个绝妙的幻想世界！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/respect.png?t=1695194030" /&gt;</t>
+          <t>官方QQ群号：&lt;br&gt;官方QQ④群：757371350&lt;br&gt;官方QQ⑧群：920151793&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;这是一款基于武侠、江湖背景为基础的&lt;strong&gt; &lt;u&gt;开放沙盒类非传统武侠 RPG游戏&lt;/u&gt;&lt;/strong&gt;，你可以在这个大荒世界之中，扮演你所幻想的任何武侠角色，这里没有任何阻挡你幻想的老套剧情，你所演绎的武侠人生就是这个你的游戏剧情。你可以作为一名江湖小虾米游历大荒，你也可以成为一派掌门引领四方，你亦可以成为一名看不惯这江湖的浪子我行我素。最重要的是，请一切遵从于你的内心而为，并且活着！&lt;br&gt;&lt;br&gt;(1)玩家可以从零开始扩展自己的小世界，也可以通过创建小世界生成随机大小的初始世界。每个区域都有独特的环境、资源、生物以及势力。 在熟悉了游戏基本操作之后，您便可以直接生成环境属性各异的、已经包含一定数量地块的世界进行体验和历练，并且可以控制不同的“我”往来穿梭于各个世界开启别样人生！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/kf1.gif?t=1695348124" /&gt;&lt;br&gt;&lt;br&gt;(2)新颖的单回合战斗方式，通过收集不同的绝学搭配创建自己的招式库，战斗中拖动连接不同的招式激活绝学，利用招式克制和绝学套路，体现武侠战斗的策略性。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF2.gif?t=1695348124" /&gt;&lt;br&gt;&lt;br&gt;(3)独创的经脉系统，将人体经脉的运转进行了简化概念设计，玩家可以体验到不同的运功路线激活不同内功的拟真感受，简洁却富有策略玩法的设计给玩家提供了搭配和激活多种内功的玩法。同时经脉系统也结合了武侠小说中各种身体机能的具象表现，角色的生命力、内伤、隐疾、蛊、生死符、残疾、瞎眼等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF3.gif?t=1695348124" /&gt;&lt;br&gt;&lt;br&gt;(4)游戏还包含了自由的建造模式，玩家可以打造自己的民居、酒馆、温泉、马厩、大殿、监牢等等，每种建筑都有独特的功能。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF4.gif?t=1695348124" /&gt;&lt;br&gt;&lt;br&gt;(5)潜行玩法，可以通过训练潜行能力，配合独特的内功，夜晚穿上夜行衣，如人无人之境。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF5.gif?t=1695348124" /&gt;&lt;br&gt;&lt;br&gt;(6)训练轻功、跳跃、潜水、攀爬，无论高山深海都可闲庭信步。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF6.gif?t=1695348124" /&gt;&lt;br&gt;&lt;br&gt;(7)通过自定义天命、出身、容貌、血脉，打造独属于自己的角色。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF7.gif?t=1695348124" /&gt;&lt;br&gt;&lt;br&gt;(8)非线性剧情，游戏中每个NPC都会根据自己的行为、身份、名声、关系、态度等等在世界中生存，玩家的每次游戏都会与他们发生不同的剧情。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF8.gif?t=1695348124" /&gt;&lt;br&gt;&lt;br&gt;(9)丰富的交互内容&lt;br&gt;可以把敌人的建筑引燃&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF9.gif?t=1695348124" /&gt;&lt;br&gt;&lt;br&gt;可以邀请NPC喝酒，灌醉后搜刮物品&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF10.gif?t=1695348124" /&gt;&lt;br&gt;&lt;br&gt;可以驯化各种动物，每种动物都有各自独特的功能，例如猴子可以乞讨、马可以乘骑和改装马车、蛇可以下毒等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF11.gif?t=1695348124" /&gt;&lt;br&gt;&lt;br&gt;玩家可以创建自己门派，招募弟子，发布命令，参加武林大会。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF12.gif?t=1695348124" /&gt;&lt;br&gt;&lt;br&gt;丰富的交互内容·玩家可以布置陷阱，抓捕动物或敌人。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF13.gif?t=1695348124" /&gt;&lt;br&gt;&lt;br&gt;建立门派，发布命令&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF15.gif?t=1695348124" /&gt;&lt;br&gt;&lt;br&gt;建立牢笼，关押敌人&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF16.gif?t=1695348124" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;———————————————————————————————————————&lt;br&gt;来自幻魔寺的寄语：&lt;br&gt;我们坚守本心，完全独立开发，只做大家觉得好玩的游戏，这款游戏的世界目前仍然只是一个雏形，我们深知它会不断壮大，并且成为未来我们一切游戏的基石，我们会为此不断努力，带给大家一个绝妙的幻想世界！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/respect.png?t=1695348124" /&gt;</t>
         </is>
       </c>
     </row>
@@ -11795,7 +11795,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;加入我们的社区&lt;/h2&gt;&lt;strong&gt;QQ群: 812627126(满了)&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;QQ群: 13305571(没满)&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;B站: &lt;a href="https://steamcommunity.com/linkfilter/?url=https://space.bilibili.com/109833003" target="_blank" rel=" noopener"  &gt;https://space.bilibili.com/109833003&lt;/a&gt;&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;抖音：丸霸于大进BigYu&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;武器好几种&lt;/h2&gt;目前提供了5种武器可供使用，它们分别是，弓，枪，炮，斧，琴。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/武器好几种.gif?t=1695226386" /&gt;&lt;h2 class="bb_tag"&gt;大坐快乐多&lt;/h2&gt;黄游中独特的、快节奏的、大坐系统，越坐越快乐。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/大坐快乐多.gif?t=1695226386" /&gt;&lt;h2 class="bb_tag"&gt;成长很丰富&lt;/h2&gt;在游戏中有大量的道具和技能，通过不同的搭配，形成不同的战斗风格。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/成长很丰富.gif?t=1695226386" /&gt;&lt;h2 class="bb_tag"&gt;敌人炸了窝&lt;/h2&gt;在不同的场景，会遭遇不同的敌人，它们形态各异，性格多样，劈里啪啦，咔咔冒水。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/敌人炸了窝.gif?t=1695226386" /&gt;&lt;h2 class="bb_tag"&gt;3A级游戏体验&lt;/h2&gt;虽然这只是一个小团队的独立游戏，但我们希望营造出3A级的游戏体验，而令人愉快的是，我们做到了，我们成功的修改了3A的定义：A LOT OF 饼；A LOT OF 钱；A LOT OF 鱼。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/3A_cn.gif?t=1695226386" /&gt;</t>
+          <t>&lt;h2 class="bb_tag"&gt;加入我们的社区&lt;/h2&gt;&lt;strong&gt;QQ群: 812627126(满了)&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;QQ群: 13305571(没满)&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;B站: &lt;a href="https://steamcommunity.com/linkfilter/?url=https://space.bilibili.com/109833003" target="_blank" rel=" noopener"  &gt;https://space.bilibili.com/109833003&lt;/a&gt;&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;抖音：丸霸于大进BigYu&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;武器好几种&lt;/h2&gt;目前提供了5种武器可供使用，它们分别是，弓，枪，炮，斧，琴。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/武器好几种.gif?t=1695356994" /&gt;&lt;h2 class="bb_tag"&gt;大坐快乐多&lt;/h2&gt;黄游中独特的、快节奏的、大坐系统，越坐越快乐。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/大坐快乐多.gif?t=1695356994" /&gt;&lt;h2 class="bb_tag"&gt;成长很丰富&lt;/h2&gt;在游戏中有大量的道具和技能，通过不同的搭配，形成不同的战斗风格。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/成长很丰富.gif?t=1695356994" /&gt;&lt;h2 class="bb_tag"&gt;敌人炸了窝&lt;/h2&gt;在不同的场景，会遭遇不同的敌人，它们形态各异，性格多样，劈里啪啦，咔咔冒水。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/敌人炸了窝.gif?t=1695356994" /&gt;&lt;h2 class="bb_tag"&gt;3A级游戏体验&lt;/h2&gt;虽然这只是一个小团队的独立游戏，但我们希望营造出3A级的游戏体验，而令人愉快的是，我们做到了，我们成功的修改了3A的定义：A LOT OF 饼；A LOT OF 钱；A LOT OF 鱼。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1710100/extras/3A_cn.gif?t=1695356994" /&gt;</t>
         </is>
       </c>
     </row>
@@ -12096,7 +12096,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;关注我们&lt;/strong&gt;&lt;br&gt;欢迎关注我们的官方社群：&lt;br&gt;《漂流佣兵》玩家Q群：583314686&lt;br&gt;游戏便当QQ群①：287356527【已满】&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569&lt;br&gt;游戏便当QQ群④：909356067&lt;br&gt;&lt;br&gt;&lt;strong&gt;《漂流佣兵》是一款融合了卡牌策略和弹珠弹射玩法的游戏。&lt;/strong&gt;&lt;br&gt;-玩家可以在随机生成的地牢和城镇间探索，冒险，交易，招募佣兵。&lt;br&gt;-作为佣兵团长，带领精心挑选的伙伴们，在这个动荡的异世界生存下去。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p.gif?t=1695189381" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p5.jpg?t=1695189381" /&gt;&lt;br&gt;团长可以穿梭于异世界的各个城镇：皮魔镇，群山环绕景色宜人，打铁声络绎不绝；乱雾村，盛行树屋建筑，树木林立，小桥流水，宜居的不二选择……城镇的“奇遇”“事 &lt;br&gt;件”还能助团长邂逅不同的佣兵，邀请他们组建最强佣兵团！训练佣兵提升技能，为他们购买装备提升实力，一起冒险奇妙异世界。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/tese.jpg?t=1695189381" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p4.jpg?t=1695189381" /&gt;&lt;br&gt;在异世界不断邂逅美女伙伴！不同装扮、不同性格甚至是不同种族，总有一款对你胃口。能变装以蛊惑人心的新生魅魔、拥有强大战力但喜爱黏人的骑士长、逃离少爷之手又酷爱冒险的战斗女仆......或许多逛逛酒馆还可能打听到有关于她们的传闻哦~&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/xin.jpg?t=1695189381" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p1.jpg?t=1695189381" /&gt;&lt;br&gt;每位角色都将化身一颗弹珠，轻轻拉出基准线，弹射后即可战斗！强大的团长还将通过基准线，预判力道和路径，弹射更多的怪物。角色之间还能相互影响弹射效果，利用联动机制打出爽快的连击！ &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/角色弹射.gif?t=1695189381" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p2.jpg?t=1695189381" /&gt;&lt;br&gt;每一次异世界的冒险，团长都可以带着自己组建的强大佣兵团伙伴，体验每一个周目不同的战斗体验。每次协同战斗都有不同的战斗体验，哪个组合才是消灭魔王的最佳组合，等你来探索！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/伙伴联动.gif?t=1695189381" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p3.jpg?t=1695189381" /&gt;&lt;br&gt;异世界也散落了许多技能卡片，攻击、防御、buff牌各式各样，收集并构筑出属于自己的流派。配合弹射打出深度策略！当然，偶尔也会拿到不合适的卡片，有所取舍才能使卡组更强大。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/技能.gif?t=1695189381" /&gt;&lt;h2 class="bb_tag"&gt;关于【开发者】&lt;/h2&gt;&lt;br&gt;作者是个Solo开发的死宅。&lt;br&gt;&lt;br&gt;希望通过构筑这个游戏，与广大穿越者一起完成心中的奇幻异世界梦想。&lt;br&gt;&lt;br&gt;目前游戏还未最终完成，若有不足，希望大家理解，作者会尽力完善。</t>
+          <t>&lt;strong&gt;关注我们&lt;/strong&gt;&lt;br&gt;欢迎关注我们的官方社群：&lt;br&gt;《漂流佣兵》玩家Q群：583314686&lt;br&gt;游戏便当QQ群①：287356527【已满】&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569&lt;br&gt;游戏便当QQ群④：909356067&lt;br&gt;&lt;br&gt;&lt;strong&gt;《漂流佣兵》是一款融合了卡牌策略和弹珠弹射玩法的游戏。&lt;/strong&gt;&lt;br&gt;-玩家可以在随机生成的地牢和城镇间探索，冒险，交易，招募佣兵。&lt;br&gt;-作为佣兵团长，带领精心挑选的伙伴们，在这个动荡的异世界生存下去。&lt;br&gt;&lt;strong&gt;正式版已开启卡牌掉落！快来兑换你最心仪的佣兵妹子的Steam背景及头像吧！&lt;/strong&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p.gif?t=1695381085" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p5.jpg?t=1695381085" /&gt;&lt;br&gt;团长可以穿梭于异世界的各个城镇：皮魔镇，群山环绕景色宜人，打铁声络绎不绝；乱雾村，盛行树屋建筑，树木林立，小桥流水，宜居的不二选择……城镇的“奇遇”“事 &lt;br&gt;件”还能助团长邂逅不同的佣兵，邀请他们组建最强佣兵团！训练佣兵提升技能，为他们购买装备提升实力，一起冒险奇妙异世界。&lt;br&gt;&lt;strong&gt;正式版中全部主要角色已搭载动态立绘！&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/1d.gif?t=1695381085" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p4.jpg?t=1695381085" /&gt;&lt;br&gt;在异世界不断邂逅美女伙伴！不同装扮、不同性格甚至是不同种族，总有一款对你胃口。能变装以蛊惑人心的新生魅魔、拥有强大战力但喜爱黏人的骑士长、逃离少爷之手又酷爱冒险的战斗女仆......或许多逛逛酒馆还可能打听到有关于她们的传闻哦~&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/xin.jpg?t=1695381085" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p1.jpg?t=1695381085" /&gt;&lt;br&gt;每位角色都将化身一颗弹珠，轻轻拉出基准线，弹射后即可战斗！强大的团长还将通过基准线，预判力道和路径，弹射更多的怪物。角色之间还能相互影响弹射效果，利用联动机制打出爽快的连击！ &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/3d.gif?t=1695381085" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p2.jpg?t=1695381085" /&gt;&lt;br&gt;每一次异世界的冒险，团长都可以带着自己组建的强大佣兵团伙伴，体验每一个周目不同的战斗体验。每次协同战斗都有不同的战斗体验，哪个组合才是消灭魔王的最佳组合，等你来探索！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/4d.gif?t=1695381085" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p3.jpg?t=1695381085" /&gt;&lt;br&gt;异世界也散落了许多技能卡片，攻击、防御、buff牌各式各样，收集并构筑出属于自己的流派。配合弹射打出深度策略！当然，偶尔也会拿到不合适的卡片，有所取舍才能使卡组更强大。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/5d.gif?t=1695381085" /&gt;&lt;h2 class="bb_tag"&gt;关于【开发者】&lt;/h2&gt;&lt;br&gt;作者是个Solo开发的死宅。&lt;br&gt;&lt;br&gt;希望通过构筑这个游戏，与广大穿越者一起完成心中的奇幻异世界梦想。&lt;br&gt;&lt;br&gt;游戏若有不足，希望大家理解，作者会尽力完善。如果您喜欢，还希望您给个好评支持，也希望可以推荐给您的朋友。</t>
         </is>
       </c>
     </row>
@@ -13029,7 +13029,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -13244,7 +13244,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;游戏抢先体验版已发售&lt;/strong&gt;，我们准备了&lt;strong&gt;开发进度板&lt;/strong&gt;，大家可以随时查阅我们当前的工作进展&lt;br&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://trello.com/b/X8yHzhnK" target="_blank" rel=" noopener"  &gt;https://trello.com/b/X8yHzhnK&lt;/a&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/企业微信截图_16929672375556.png?t=1693895121" /&gt;&lt;br&gt;&lt;br&gt;后续更新计划通过&lt;strong&gt;【更新Roadmap线路图】&lt;/strong&gt;与大家同步。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/大侠立志传-更新长图2395.png?t=1693895121" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;这是一款像素版江湖生存模拟器，你将扮演一个初出茅庐的市井小人物，体验多样身份，在江湖中摸爬滚打，最终脱颖而出。&lt;h2 class="bb_tag"&gt;游戏特色&lt;/h2&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 【百余种武学功法】&lt;br&gt;拳掌刀剑，枪棍音律，内外兼修，皆可自行搭配。成为十字坡剑圣，亦可精通百家所长。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/武功.gif?t=1693895121" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt; 【多分支走向】&lt;br&gt;游戏中没有真正意义上的主线，在充满抉择的江湖中从心选择吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/选择.gif?t=1693895121" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;【丰富的NPC交互玩法】&lt;br&gt;结交五都侠客（侣），游走于盘杂的人际势力，经营你的江湖关系网。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/洪小气.gif?t=1693895121" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;【奇遇和危险并存的真实武林】&lt;br&gt;江湖并非非黑即白，遇事不一定要用拳头解决，采取多种方式应对，并坦然接受不一样的结局。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/牢房1.gif?t=1693895121" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;【充满烟火气息的像素武侠世界】&lt;br&gt;游戏中有着自然流逝的时间，各色NPC都有自己独立的行为AI。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/日夜.gif?t=1693895121" /&gt;&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;目前已开放官方玩家群，群内会同步更新一手情报，举办内测及其他福利活动，还有机会偶遇隐藏NPC半瓶神仙醋，欢迎各位少侠加入一起参与讨论！&lt;br&gt;官方玩家27群：619959310 &lt;br&gt;官方玩家25群：724208742&lt;br&gt;官方玩家26群：722736145&lt;br&gt;官方玩家24群：102223136（已满）&lt;br&gt;官方玩家23群：213116717（已满）&lt;br&gt;官方玩家22群：343709025（已满）&lt;br&gt;官方玩家21群：550219413 （已满）&lt;br&gt;官方玩家20群：295390373（已满）&lt;br&gt;官方玩家19群：611246285（已开放）&lt;br&gt;官方玩家18群：165072814（已开放）&lt;br&gt;官方玩家17群 ：801310302 （已开放）&lt;br&gt;官方玩家16群 ：753444235 （已开放）&lt;br&gt;官方玩家15群 ：141480592 （已开放）&lt;br&gt;官方玩家14群： 728897240 （已开放）&lt;br&gt;官方玩家13群 ：801291993（已满）&lt;br&gt;官方玩家12群 ：863498517（已满）&lt;br&gt;官方玩家11群： 801256045（已满）&lt;br&gt;官方玩家10群 ：367248548 （已满）&lt;br&gt;官方玩家9群 ：801146478（已满）&lt;br&gt;官方玩家8群 ：683263874（已满）&lt;br&gt;官方玩家7群 ：679566481 （已开放）&lt;br&gt;官方玩家6群： 926229186 （已开放）&lt;br&gt;官方玩家5群：926111719 （已开放）&lt;br&gt;官方玩家4群：826179621 （已开放）&lt;br&gt;官方玩家3群：753982506 （已开放）&lt;br&gt;官方玩家2群：1169723804 （已开放）&lt;br&gt;官方玩家1群：597962931 （已满）</t>
+          <t>&lt;strong&gt;游戏抢先体验版已发售&lt;/strong&gt;，我们准备了&lt;strong&gt;开发进度板&lt;/strong&gt;，大家可以随时查阅我们当前的工作进展&lt;br&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://trello.com/b/X8yHzhnK" target="_blank" rel=" noopener"  &gt;https://trello.com/b/X8yHzhnK&lt;/a&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/企业微信截图_16953821031604.png?t=1695385462" /&gt;&lt;br&gt;&lt;br&gt;后续更新计划通过&lt;strong&gt;【更新Roadmap线路图】&lt;/strong&gt;与大家同步。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/大侠立志传-更新长图23922-2_1_.png?t=1695385462" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;这是一款像素版江湖生存模拟器，你将扮演一个初出茅庐的市井小人物，体验多样身份，在江湖中摸爬滚打，最终脱颖而出。&lt;h2 class="bb_tag"&gt;游戏特色&lt;/h2&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 【百余种武学功法】&lt;br&gt;拳掌刀剑，枪棍音律，内外兼修，皆可自行搭配。成为十字坡剑圣，亦可精通百家所长。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/武功.gif?t=1695385462" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt; 【多分支走向】&lt;br&gt;游戏中没有真正意义上的主线，在充满抉择的江湖中从心选择吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/选择.gif?t=1695385462" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;【丰富的NPC交互玩法】&lt;br&gt;结交五都侠客（侣），游走于盘杂的人际势力，经营你的江湖关系网。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/洪小气.gif?t=1695385462" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;【奇遇和危险并存的真实武林】&lt;br&gt;江湖并非非黑即白，遇事不一定要用拳头解决，采取多种方式应对，并坦然接受不一样的结局。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/牢房1.gif?t=1695385462" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;【充满烟火气息的像素武侠世界】&lt;br&gt;游戏中有着自然流逝的时间，各色NPC都有自己独立的行为AI。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/日夜.gif?t=1695385462" /&gt;&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;目前已开放官方玩家群，群内会同步更新一手情报，举办内测及其他福利活动，还有机会偶遇隐藏NPC半瓶神仙醋，欢迎各位少侠加入一起参与讨论！&lt;br&gt;官方玩家27群：619959310 &lt;br&gt;官方玩家25群：724208742&lt;br&gt;官方玩家26群：722736145&lt;br&gt;官方玩家24群：102223136（已满）&lt;br&gt;官方玩家23群：213116717（已满）&lt;br&gt;官方玩家22群：343709025（已满）&lt;br&gt;官方玩家21群：550219413 （已满）&lt;br&gt;官方玩家20群：295390373（已满）&lt;br&gt;官方玩家19群：611246285（已开放）&lt;br&gt;官方玩家18群：165072814（已开放）&lt;br&gt;官方玩家17群 ：801310302 （已开放）&lt;br&gt;官方玩家16群 ：753444235 （已开放）&lt;br&gt;官方玩家15群 ：141480592 （已开放）&lt;br&gt;官方玩家14群： 728897240 （已开放）&lt;br&gt;官方玩家13群 ：801291993（已满）&lt;br&gt;官方玩家12群 ：863498517（已满）&lt;br&gt;官方玩家11群： 801256045（已满）&lt;br&gt;官方玩家10群 ：367248548 （已满）&lt;br&gt;官方玩家9群 ：801146478（已满）&lt;br&gt;官方玩家8群 ：683263874（已满）&lt;br&gt;官方玩家7群 ：679566481 （已开放）&lt;br&gt;官方玩家6群： 926229186 （已开放）&lt;br&gt;官方玩家5群：926111719 （已开放）&lt;br&gt;官方玩家4群：826179621 （已开放）&lt;br&gt;官方玩家3群：753982506 （已开放）&lt;br&gt;官方玩家2群：1169723804 （已开放）&lt;br&gt;官方玩家1群：597962931 （已满）</t>
         </is>
       </c>
     </row>
@@ -13286,7 +13286,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/UpdatePlan_23.7.27_cn.jpg?t=1690628241" /&gt;&lt;br&gt;抢先体验版现已发售！保姆级攻略请&lt;a href="https://steamcommunity.com/sharedfiles/filedetails/?id=2971536870" target="_blank" rel=""  &gt;点击这里&lt;/a&gt;查看。&lt;h2 class="bb_tag"&gt;《满庭芳·宋上繁华》是一款融合了历史、剧情、策略等元素的古风题材城市建造类游戏。&lt;/h2&gt;身为县官， 你需要安置百姓、开荒扩土、供给食物，保障其生活所需，也要聆听百姓心声，在避免城市灾害与犯罪的同时实现百姓安居乐业的政绩目标。然而当皇帝下达不可违背的国家政令，当敌国大举入侵你的家园，当党派的尔虞我诈影响你的城市发展，你将采取什么策略来面对这场历史洪流？而这一切，是否真的会因你而改变？&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/chengshi.gif?t=1690628241" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/steam_---.png?t=1690628241" /&gt;&lt;h2 class="bb_tag"&gt;游戏特点：&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;尽可能还原宋朝的历史，5个北宋时期的剧情章节带你回顾王朝的兴衰&lt;br&gt;&lt;/li&gt;&lt;li&gt;细致考究、参考博物馆与历史文献，还原宋朝建筑、行业、职业和服饰&lt;br&gt;&lt;/li&gt;&lt;li&gt;手绘国风的画面，细致的建筑和市民动画，浓厚真实的中国味道&lt;br&gt;&lt;/li&gt;&lt;li&gt;写实的财政经济系统，结合农业、制造业、民生和科学技术，需要慎重考虑发展策略和方向&lt;br&gt;&lt;/li&gt;&lt;li&gt;幸福网，灌溉网，建筑combo，需要仔细布局城市&lt;br&gt;&lt;/li&gt;&lt;li&gt;应对灾害疫病，抵御外族入侵，从一个破败的小村庄，发展到2000+市民同屏的繁华城市，成就一番图景&lt;br&gt;&lt;/li&gt;&lt;li&gt;完全自由的无尽模式，创造属于你的繁华市井。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/steam_---.png?t=1690628241" /&gt;&lt;h2 class="bb_tag"&gt;玩法介绍：&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/一朝兴衰，参与见证_s.png?t=1690628241" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/yichaoxingshuai.gif?t=1690628241" /&gt;&lt;br&gt;游戏的剧情模式，将带领玩家体验大宋王朝的历史变迁。由于参考真实历史，所以“时间“概念尤为重要。随着游戏时间的推进，你会完成来自皇帝的一道道诏令；参与每个不同时期里发生的重大历史事件，并做出决策，引领城镇走出属于自己的命运。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/百肆林立，规划发展_s.png?t=1690628241" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/baisilinli.gif?t=1690628241" /&gt;&lt;br&gt;城镇的发展离不开建设规划，你需要合理调配人手，及时收集自然资源、营造各类生产及生活设施。充分运用建筑间的连携相性作用增加整体收益，进一步确保百姓衣食住行样样齐备，打造出一个安居乐业的理想家园。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/商旅云集，车水马龙_s.png?t=1690628241" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/shanglvyunji.gif?t=1690628241" /&gt;&lt;br&gt;斗香大会、诵经听曲、多样化饮食，除了保证百姓基础温饱之外，你还需要丰富文娱生活，提升百姓幸福度，吸引游客消费，以增加铜钱收入。而有进就有出，维护费、俸禄等贴近现实设计，让铜钱成为独立于所有资源外、维持城市运转的一种重要存在。合理摆放各色的市井建筑以增加城市的经济收益，仔细规划好资源、人口、经济之间的平衡，才能打造出令百姓赞颂的繁华城镇。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/广纳贤士，大兴科举_s.png?t=1690628241" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/zhaonaxianshi.gif?t=1690628241" /&gt;&lt;br&gt;除了香铺酒楼、莺歌燕楼等娱乐设施能够为你的城镇吸引更多的外来人口及游客。发展学术培养学子，参加科举金榜题名也能为城市提供更丰厚的财政收入。聘用高人逸士为城市叠加收益buff，让城镇的发展更上一层楼，形成良性循环。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/治安巡逻，护城安定_s.png?t=1690628241" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/zhandou.gif?t=1690628241" /&gt;&lt;br&gt;你的城镇并不会永远太平，伴随着城市的发展，你需要建设牢狱防范实施烧杀抢掠的罪犯，随时警惕卧底在城镇中的土匪探子。除此之外，还需要安内攘外，修筑城墙箭塔，屯养民兵弓箭手抵御外敌入侵。你的百姓，将由你来守护。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/守国在政，行政在人_s.png?t=1690628241" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/shouguozaizheng.gif?t=1690628241" /&gt;&lt;br&gt;要成为一名合格的县官，你需要随时对着账簿查漏补缺，为下一年做好统筹规划。创新发展科技树，提升整体生产力。除此之外还要开启政策辅助你的治理，通过对不同政策的研究组合能大大提升你管理城镇的效率。然而并不是每一项政策都能使你获益，当面临短时间增加产出但是会对民生造成影响时，你当如何？</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/UpdatePlan_23.7.27_cn.jpg?t=1695355543" /&gt;&lt;br&gt;抢先体验版现已发售！保姆级攻略请&lt;a href="https://steamcommunity.com/sharedfiles/filedetails/?id=2971536870" target="_blank" rel=""  &gt;点击这里&lt;/a&gt;查看。&lt;h2 class="bb_tag"&gt;《满庭芳·宋上繁华》是一款融合了历史、剧情、策略等元素的古风题材城市建造类游戏。&lt;/h2&gt;身为县官， 你需要安置百姓、开荒扩土、供给食物，保障其生活所需，也要聆听百姓心声，在避免城市灾害与犯罪的同时实现百姓安居乐业的政绩目标。然而当皇帝下达不可违背的国家政令，当敌国大举入侵你的家园，当党派的尔虞我诈影响你的城市发展，你将采取什么策略来面对这场历史洪流？而这一切，是否真的会因你而改变？&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/chengshi.gif?t=1695355543" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/steam_---.png?t=1695355543" /&gt;&lt;h2 class="bb_tag"&gt;游戏特点：&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;尽可能还原宋朝的历史，5个北宋时期的剧情章节带你回顾王朝的兴衰&lt;br&gt;&lt;/li&gt;&lt;li&gt;细致考究、参考博物馆与历史文献，还原宋朝建筑、行业、职业和服饰&lt;br&gt;&lt;/li&gt;&lt;li&gt;手绘国风的画面，细致的建筑和市民动画，浓厚真实的中国味道&lt;br&gt;&lt;/li&gt;&lt;li&gt;写实的财政经济系统，结合农业、制造业、民生和科学技术，需要慎重考虑发展策略和方向&lt;br&gt;&lt;/li&gt;&lt;li&gt;幸福网，灌溉网，建筑combo，需要仔细布局城市&lt;br&gt;&lt;/li&gt;&lt;li&gt;应对灾害疫病，抵御外族入侵，从一个破败的小村庄，发展到2000+市民同屏的繁华城市，成就一番图景&lt;br&gt;&lt;/li&gt;&lt;li&gt;完全自由的无尽模式，创造属于你的繁华市井。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/steam_---.png?t=1695355543" /&gt;&lt;h2 class="bb_tag"&gt;玩法介绍：&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/一朝兴衰，参与见证_s.png?t=1695355543" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/yichaoxingshuai.gif?t=1695355543" /&gt;&lt;br&gt;游戏的剧情模式，将带领玩家体验大宋王朝的历史变迁。由于参考真实历史，所以“时间“概念尤为重要。随着游戏时间的推进，你会完成来自皇帝的一道道诏令；参与每个不同时期里发生的重大历史事件，并做出决策，引领城镇走出属于自己的命运。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/百肆林立，规划发展_s.png?t=1695355543" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/baisilinli.gif?t=1695355543" /&gt;&lt;br&gt;城镇的发展离不开建设规划，你需要合理调配人手，及时收集自然资源、营造各类生产及生活设施。充分运用建筑间的连携相性作用增加整体收益，进一步确保百姓衣食住行样样齐备，打造出一个安居乐业的理想家园。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/商旅云集，车水马龙_s.png?t=1695355543" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/shanglvyunji.gif?t=1695355543" /&gt;&lt;br&gt;斗香大会、诵经听曲、多样化饮食，除了保证百姓基础温饱之外，你还需要丰富文娱生活，提升百姓幸福度，吸引游客消费，以增加铜钱收入。而有进就有出，维护费、俸禄等贴近现实设计，让铜钱成为独立于所有资源外、维持城市运转的一种重要存在。合理摆放各色的市井建筑以增加城市的经济收益，仔细规划好资源、人口、经济之间的平衡，才能打造出令百姓赞颂的繁华城镇。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/广纳贤士，大兴科举_s.png?t=1695355543" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/zhaonaxianshi.gif?t=1695355543" /&gt;&lt;br&gt;除了香铺酒楼、莺歌燕楼等娱乐设施能够为你的城镇吸引更多的外来人口及游客。发展学术培养学子，参加科举金榜题名也能为城市提供更丰厚的财政收入。聘用高人逸士为城市叠加收益buff，让城镇的发展更上一层楼，形成良性循环。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/治安巡逻，护城安定_s.png?t=1695355543" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/zhandou.gif?t=1695355543" /&gt;&lt;br&gt;你的城镇并不会永远太平，伴随着城市的发展，你需要建设牢狱防范实施烧杀抢掠的罪犯，随时警惕卧底在城镇中的土匪探子。除此之外，还需要安内攘外，修筑城墙箭塔，屯养民兵弓箭手抵御外敌入侵。你的百姓，将由你来守护。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/守国在政，行政在人_s.png?t=1695355543" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/shouguozaizheng.gif?t=1695355543" /&gt;&lt;br&gt;要成为一名合格的县官，你需要随时对着账簿查漏补缺，为下一年做好统筹规划。创新发展科技树，提升整体生产力。除此之外还要开启政策辅助你的治理，通过对不同政策的研究组合能大大提升你管理城镇的效率。然而并不是每一项政策都能使你获益，当面临短时间增加产出但是会对民生造成影响时，你当如何？</t>
         </is>
       </c>
     </row>
@@ -14147,7 +14147,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2132840/extras/Roguelike_Deckbuilder.png?t=1694993294" /&gt;&lt;br&gt;卡牌构筑Roguelike&lt;br&gt;邪恶的哥特城堡门前，正义与邪恶将迎来最终的决战。不论你是硬核玩家还是萌新，都能在这款卡牌构建roguelike里找到乐趣！&lt;br&gt;你的地盘你做主：从魔王艾拉瑞克的魔爪中拯救世界，或是，成为魔王本尊，捍卫自己的统治。&lt;br&gt;官方玩家QQ群 ： 612626375&lt;br&gt; &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2132840/extras/Good_vs_Evil.png?t=1694993294" /&gt;&lt;br&gt;正与邪&lt;br&gt;魔堡围攻拥有完整而丰富的游戏体验，又分为两个截然不同的模块：拯救与统治。&lt;br&gt;两个模式各具特色，同时又组成了一个有机的整体。&lt;br&gt;两种模式可以随时切换，存档、进度和成就也彼此独立，大胆尝试体验吧。&lt;br&gt;各具特色的卡牌带来了眼花缭乱的玩法，升级、扩充你的卡组，打造你独一无二的style吧！&lt;br&gt;如果你是萌新，魔堡围攻将是入坑卡牌构建roguelike的不二之选；如果你是大佬，高阶地狱难度里你可以尽情受苦，保证你欲罢不能！&lt;br&gt; &lt;br&gt; &lt;br&gt;拯救&lt;br&gt;变身正义的化身，向艾拉瑞克的魔堡进发，消灭一切横亘在路上的敌人，为魔王的暴政画上最后的休止符。&lt;br&gt;魔王的古堡凶险无比，你必须步步为营，而魔王将在城堡的最顶层等候着你的出现。&lt;br&gt; &lt;br&gt;谨慎选择你的职业和初始卡牌。只有知己知彼，才能百战不殆；懂得取舍，才能笑到最后。&lt;br&gt;每个职业都有自己专属的增益、减益和物资！&lt;br&gt;每层关底，你可以选择回撤，安全带走你发现的财宝并强化自身；或者选择继续深入探寻更丰厚的宝藏，前提是你能活着把它们带走。&lt;br&gt;古堡共有4层，每层最后会有一个独特的Boss战，你的技术和策略将会迎来巨大的考验。&lt;br&gt;请记住：如果你浪费了太多时间，古堡深处的恶灵将钻出洞穴，将你撕成碎片！&lt;br&gt;如果你能成功战胜魔王，恭喜你，地狱层级难度将为真正的勇士开启，欢迎硬核玩家前来挑战。&lt;br&gt;拯救包含：&lt;br&gt;6大职业，37种技能和配置；&lt;br&gt;25种武器，53种神器；&lt;br&gt;25种祝福；&lt;br&gt;40个敌人单位和7个首领；&lt;br&gt;15层地狱层级（额外难度挑战）；&lt;br&gt;29个成就；&lt;br&gt; &lt;br&gt;你能从艾拉瑞克的魔掌中拯救世界吗？&lt;br&gt; &lt;br&gt; &lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2132840/extras/deliverance1.gif?t=1694993294" /&gt;&lt;br&gt;统治&lt;br&gt;我已堕落，我就是魔王本尊！&lt;br&gt;一群无知的英雄打算入侵你的城堡，阻止他们！&lt;br&gt;与6大种族（他们各具特色，但都无比邪恶！）之一签订契约，抗击入侵者。&lt;br&gt;在城堡各层布置手下，阻挡敌人前进的步伐，保护顶层的王座。&lt;br&gt;你会如何应对。步步为营，缜密经营，用策略压制敌人；还是用强大的手下和法术碾压敌人？&lt;br&gt;每场Boss战对你的能力提出了不同的考验，探索最佳的策略和方式，碾碎那些可怜的英雄们吧！&lt;br&gt; &lt;br&gt;统治包含：&lt;br&gt;6大种族，每个种族拥有9种英雄变体，31个单位和法术，以及22种升级；&lt;br&gt;34个敌人单位和14个首领；&lt;br&gt;17个神秘事件；&lt;br&gt;15层地狱层级（额外难度挑战）；&lt;br&gt;29个成就；&lt;br&gt; &lt;br&gt;那些蝼蚁终将俯首称臣，只有你才是真正的魔王！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2132840/extras/deliverance3.gif?t=1694993294" /&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2132840/extras/Roguelike_Deckbuilder.png?t=1695339228" /&gt;&lt;br&gt;卡牌构筑Roguelike&lt;br&gt;邪恶的哥特城堡门前，正义与邪恶将迎来最终的决战。不论你是硬核玩家还是萌新，都能在这款卡牌构建roguelike里找到乐趣！&lt;br&gt;你的地盘你做主：从魔王艾拉瑞克的魔爪中拯救世界，或是，成为魔王本尊，捍卫自己的统治。&lt;br&gt;官方玩家QQ群 ： 612626375&lt;br&gt; &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2132840/extras/Good_vs_Evil.png?t=1695339228" /&gt;&lt;br&gt;正与邪&lt;br&gt;魔堡围攻拥有完整而丰富的游戏体验，又分为两个截然不同的模块：拯救与统治。&lt;br&gt;两个模式各具特色，同时又组成了一个有机的整体。&lt;br&gt;两种模式可以随时切换，存档、进度和成就也彼此独立，大胆尝试体验吧。&lt;br&gt;各具特色的卡牌带来了眼花缭乱的玩法，升级、扩充你的卡组，打造你独一无二的style吧！&lt;br&gt;如果你是萌新，魔堡围攻将是入坑卡牌构建roguelike的不二之选；如果你是大佬，高阶地狱难度里你可以尽情受苦，保证你欲罢不能！&lt;br&gt; &lt;br&gt; &lt;br&gt;拯救&lt;br&gt;变身正义的化身，向艾拉瑞克的魔堡进发，消灭一切横亘在路上的敌人，为魔王的暴政画上最后的休止符。&lt;br&gt;魔王的古堡凶险无比，你必须步步为营，而魔王将在城堡的最顶层等候着你的出现。&lt;br&gt; &lt;br&gt;谨慎选择你的职业和初始卡牌。只有知己知彼，才能百战不殆；懂得取舍，才能笑到最后。&lt;br&gt;每个职业都有自己专属的增益、减益和物资！&lt;br&gt;每层关底，你可以选择回撤，安全带走你发现的财宝并强化自身；或者选择继续深入探寻更丰厚的宝藏，前提是你能活着把它们带走。&lt;br&gt;古堡共有4层，每层最后会有一个独特的Boss战，你的技术和策略将会迎来巨大的考验。&lt;br&gt;请记住：如果你浪费了太多时间，古堡深处的恶灵将钻出洞穴，将你撕成碎片！&lt;br&gt;如果你能成功战胜魔王，恭喜你，地狱层级难度将为真正的勇士开启，欢迎硬核玩家前来挑战。&lt;br&gt;拯救包含：&lt;br&gt;6大职业，37种技能和配置；&lt;br&gt;25种武器，53种神器；&lt;br&gt;25种祝福；&lt;br&gt;40个敌人单位和7个首领；&lt;br&gt;15层地狱层级（额外难度挑战）；&lt;br&gt;29个成就；&lt;br&gt; &lt;br&gt;你能从艾拉瑞克的魔掌中拯救世界吗？&lt;br&gt; &lt;br&gt; &lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2132840/extras/deliverance1.gif?t=1695339228" /&gt;&lt;br&gt;统治&lt;br&gt;我已堕落，我就是魔王本尊！&lt;br&gt;一群无知的英雄打算入侵你的城堡，阻止他们！&lt;br&gt;与6大种族（他们各具特色，但都无比邪恶！）之一签订契约，抗击入侵者。&lt;br&gt;在城堡各层布置手下，阻挡敌人前进的步伐，保护顶层的王座。&lt;br&gt;你会如何应对。步步为营，缜密经营，用策略压制敌人；还是用强大的手下和法术碾压敌人？&lt;br&gt;每场Boss战对你的能力提出了不同的考验，探索最佳的策略和方式，碾碎那些可怜的英雄们吧！&lt;br&gt; &lt;br&gt;统治包含：&lt;br&gt;6大种族，每个种族拥有9种英雄变体，31个单位和法术，以及22种升级；&lt;br&gt;34个敌人单位和14个首领；&lt;br&gt;17个神秘事件；&lt;br&gt;15层地狱层级（额外难度挑战）；&lt;br&gt;29个成就；&lt;br&gt; &lt;br&gt;那些蝼蚁终将俯首称臣，只有你才是真正的魔王！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2132840/extras/deliverance3.gif?t=1695339228" /&gt;</t>
         </is>
       </c>
     </row>
@@ -14625,7 +14625,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>故事发生在15-17世纪的地理大发现时代，世界被航线连接起来，星星点点的海洋开拓汇聚成了一股航海热潮。&lt;br&gt;在这个时代，每一个年轻的航海家都梦想着拥有一艘船，自由地扬帆远洋，有人希望改变命运，有人希望创造历史。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/1_schinese.png?t=1694518213" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/01.gif?t=1694518213" /&gt;&lt;br&gt;真实世界地图比例，高度还原的广阔海洋与陆地、洋流季风、气候变迁，共同组成一个庞大的航海世界。突变的气候、难以琢磨的风向、沉船的宝藏、海盗的突袭，远洋中潜伏着各种各样的机遇和危险，体验新奇、热血的海上征途。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/2_schinese.png?t=1694518213" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/02.gif?t=1694518213" /&gt;&lt;br&gt;近200个各具风情的港口，各种异域文化百花齐放。你可以在港口内进行补给、交易、接受委托、招募船员、投资等活动。甚至可以在港口中组成陆地探险队，深入到内陆探险！&lt;br&gt;港口状态波动会带来物价波动，物价波动带来更高的交易利润。通过贸易和完成委托促进港口发展。港口发展将带来更多的交易物品、道具物品和高级船只。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/3_schinese.png?t=1694518213" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/new01.gif?t=1694518213" /&gt;&lt;br&gt;你将化身为身世背景各不相同的四位船长之一，踏上航行之旅。牛津学者、传奇海盗、犹太商贾、日本浪人等超过30位能人异士等待你去招揽，而合适的位置分配将会让伙伴发挥更大的作用。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/03.gif?t=1694518213" /&gt;&lt;br&gt;英雄也需要可以信任的战友！培养你的冒险伙伴，通过解锁新特性，提升基础技能，带来更丰富的搭配策略，游刃有余的应对诸多挑战。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/4_schinese.png?t=1694518213" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/04.gif?t=1694518213" /&gt;&lt;br&gt;参照史料还原十余种著名船只，将卡里维尔、盖伦帆船等传奇名舰通通收入囊中。还可以通过DIY船舱，自由定制你的专属船只。&lt;br&gt;在遭遇海战时，你可以通过观察风向快速拉开与敌船的距离，切换船体不同位置的火炮鱼雷，发起炮击战；亦可拉近距离与敌船船员白刃肉搏，享受不同风格的热血战斗。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/2022120601-3.gif?t=1694518213" /&gt;&lt;br&gt;将你的伙伴任命为友方舰船的舰长后，即可与船长激活特殊齐射技能，造成更高伤害。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/5_schinese.png?t=1694518213" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/05.gif?t=1694518213" /&gt;&lt;br&gt;历史遗迹、深海沉船、海盗秘宝……风云诡谲的大海中隐藏着千百年来丰富的宝藏和秘密。探寻大洋彼岸未知的事物，挖掘神秘宝藏，揭秘古代文明，尽情惬意地探索世界每一个角落吧！</t>
+          <t>故事发生在15-17世纪的地理大发现时代，世界被航线连接起来，星星点点的海洋开拓汇聚成了一股航海热潮。&lt;br&gt;在这个时代，每一个年轻的航海家都梦想着拥有一艘船，自由地扬帆远洋，有人希望改变命运，有人希望创造历史。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/1_schinese.png?t=1695348094" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/01.gif?t=1695348094" /&gt;&lt;br&gt;真实世界地图比例，高度还原的广阔海洋与陆地、洋流季风、气候变迁，共同组成一个庞大的航海世界。突变的气候、难以琢磨的风向、沉船的宝藏、海盗的突袭，远洋中潜伏着各种各样的机遇和危险，体验新奇、热血的海上征途。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/2_schinese.png?t=1695348094" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/02.gif?t=1695348094" /&gt;&lt;br&gt;近200个各具风情的港口，各种异域文化百花齐放。你可以在港口内进行补给、交易、接受委托、招募船员、投资等活动。甚至可以在港口中组成陆地探险队，深入到内陆探险！&lt;br&gt;港口状态波动会带来物价波动，物价波动带来更高的交易利润。通过贸易和完成委托促进港口发展。港口发展将带来更多的交易物品、道具物品和高级船只。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/3_schinese.png?t=1695348094" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/new01.gif?t=1695348094" /&gt;&lt;br&gt;你将化身为身世背景各不相同的四位船长之一，踏上航行之旅。牛津学者、传奇海盗、犹太商贾、日本浪人等超过30位能人异士等待你去招揽，而合适的位置分配将会让伙伴发挥更大的作用。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/03.gif?t=1695348094" /&gt;&lt;br&gt;英雄也需要可以信任的战友！培养你的冒险伙伴，通过解锁新特性，提升基础技能，带来更丰富的搭配策略，游刃有余的应对诸多挑战。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/4_schinese.png?t=1695348094" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/04.gif?t=1695348094" /&gt;&lt;br&gt;参照史料还原十余种著名船只，将卡里维尔、盖伦帆船等传奇名舰通通收入囊中。还可以通过DIY船舱，自由定制你的专属船只。&lt;br&gt;在遭遇海战时，你可以通过观察风向快速拉开与敌船的距离，切换船体不同位置的火炮鱼雷，发起炮击战；亦可拉近距离与敌船船员白刃肉搏，享受不同风格的热血战斗。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/2022120601-3.gif?t=1695348094" /&gt;&lt;br&gt;将你的伙伴任命为友方舰船的舰长后，即可与船长激活特殊齐射技能，造成更高伤害。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/5_schinese.png?t=1695348094" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2161440/extras/05.gif?t=1695348094" /&gt;&lt;br&gt;历史遗迹、深海沉船、海盗秘宝……风云诡谲的大海中隐藏着千百年来丰富的宝藏和秘密。探寻大洋彼岸未知的事物，挖掘神秘宝藏，揭秘古代文明，尽情惬意地探索世界每一个角落吧！</t>
         </is>
       </c>
     </row>
@@ -14699,7 +14699,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -14778,7 +14778,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>欢迎加入游戏QQ群：&lt;i&gt;581318765&lt;/i&gt;，获取第一手游戏资讯，还能与开发者进行交流，我们非常期待您的建议。&lt;strong&gt;游戏除中文普通话配音外，还特别加入粤语配音，给你的兰若镇探秘之旅带来别样的体验！&lt;/strong&gt;&lt;br&gt;&lt;br&gt;欢迎来到兰若镇。&lt;br&gt;《兰若异谭》是一款以浓厚古风的策略卡牌构筑和剧情探索为核心的Roguelike单机游戏。在这款游戏中，你将通过战斗与探索，拨开笼罩在浪漫诡谲的神秘水墨世界上空的迷雾，寻找沉眠疑案的真相。&lt;br&gt;别担心，“兰若镇”上的人、鬼、精、怪都很友好，至少看起来是这样……在这场冒险中，你能够做些什么？&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/1.png?t=1694505869" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/GIF1.gif?t=1694505869" /&gt;&lt;br&gt;首发时您将可体验人、鬼两种职业流派的全部内容，不同职业对应不同的牌库与剧情及结局，请随心选择以开始你的水墨古风志怪异谈之旅。预计上线后会持续更新职业和新模式。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/2.png?t=1694505869" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/GIF2.gif?t=1694505869" /&gt;&lt;br&gt;随着进度的推进随逐渐扩充和构筑你的专属牌组。无每回合出牌的费数限制，给你更多的打牌自由度！组合牌、保留牌等多种创意玩法，给你带来全新的策略思考维度！策略招数自由组合，护符武器任你搭配。只是在面临抉择时别忘了问问自己：真的不再考虑一下吗？&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/3.png?t=1694505869" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/GIF3.gif?t=1694505869" /&gt;&lt;br&gt;故事总会有一个结局，只不过这里有数十种可能。道观中千年神女像为何眼眸低垂遮掩悲悯，面前三枚铜钱摇出的卦象又将命运指向何方？你能做的唯有抉择。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/4.png?t=1694505869" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/GIF4.gif?t=1694505869" /&gt;&lt;br&gt;时光轮转，诡象环生。游戏需要多周目探索以发现更多真相，为了避免你感到无聊，这里准备了随机生成的游戏内容，每次开局都是一场新的未知旅程！</t>
+          <t>&lt;h2 class="bb_tag"&gt; 新玩法“无尽模式&amp;quot;现已免费更新，游戏内进入【幻渺之镜】即可体验 &lt;/h2&gt;欢迎加入游戏QQ群：&lt;i&gt;581318765&lt;/i&gt;，获取第一手游戏资讯，还能与开发者进行交流，我们非常期待您的建议。&lt;strong&gt;游戏除中文普通话配音外，还特别加入粤语配音，给你的兰若镇探秘之旅带来别样的体验！&lt;/strong&gt;&lt;br&gt;&lt;br&gt;欢迎来到兰若镇。&lt;br&gt;《兰若异谭》是一款以浓厚古风的策略卡牌构筑和剧情探索为核心的Roguelike单机游戏。在这款游戏中，你将通过战斗与探索，拨开笼罩在浪漫诡谲的神秘水墨世界上空的迷雾，寻找沉眠疑案的真相。&lt;br&gt;别担心，“兰若镇”上的人、鬼、精、怪都很友好，至少看起来是这样……在这场冒险中，你能够做些什么？&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/1.png?t=1695342683" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/GIF1.gif?t=1695342683" /&gt;&lt;br&gt;首发时您将可体验人、鬼两种职业流派的全部内容，不同职业对应不同的牌库与剧情及结局，请随心选择以开始你的水墨古风志怪异谈之旅。预计上线后会持续更新职业和新模式。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/2.png?t=1695342683" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/GIF2.gif?t=1695342683" /&gt;&lt;br&gt;随着进度的推进随逐渐扩充和构筑你的专属牌组。无每回合出牌的费数限制，给你更多的打牌自由度！组合牌、保留牌等多种创意玩法，给你带来全新的策略思考维度！策略招数自由组合，护符武器任你搭配。只是在面临抉择时别忘了问问自己：真的不再考虑一下吗？&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/3.png?t=1695342683" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/GIF3.gif?t=1695342683" /&gt;&lt;br&gt;故事总会有一个结局，只不过这里有数十种可能。道观中千年神女像为何眼眸低垂遮掩悲悯，面前三枚铜钱摇出的卦象又将命运指向何方？你能做的唯有抉择。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/4.png?t=1695342683" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2198680/extras/GIF4.gif?t=1695342683" /&gt;&lt;br&gt;时光轮转，诡象环生。游戏需要多周目探索以发现更多真相，为了避免你感到无聊，这里准备了随机生成的游戏内容，每次开局都是一场新的未知旅程！</t>
         </is>
       </c>
     </row>
@@ -15196,7 +15196,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
@@ -15327,7 +15327,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>欢迎关注我们的官方社群：&lt;br&gt;BUG反馈/官方答疑/建设互助区，我们会在群中倾听大家的意见和想法。&lt;br&gt;【官方】江城创业记游戏 1群：596672095&lt;br&gt;【官方】江城创业记游戏 2群：702307976&lt;br&gt;【官方】江城创业记游戏 3群：665445239&lt;br&gt;&lt;a href="mailto:也可以将你的想法和建议发送到我们的邮箱：xb@cedong.com.cn"&gt;也可以将你的想法和建议发送到我们的邮箱：xb@cedong.com.cn&lt;/a&gt;&lt;br&gt;&lt;br&gt;游友聊天区&lt;br&gt;游戏便当QQ群①：287356527【已满】&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/11D.gif?t=1691049617" /&gt;&lt;br&gt;你穿越回千年前的江城，成为了一个工坊主……为何穿越的会是你？门派之争、工坊暗斗、异族矛盾、皇子复辟，江城平静的表面暗流涌......&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/1x.gif?t=1691049617" /&gt;&lt;br&gt;&lt;br&gt;创建自动化生产流水线，从木板到电路板，设计你的每一条生产线。&lt;br&gt;逐步解锁未来科技，从硅提纯到光伏发电，建设你的超时代工坊。&lt;br&gt;使用跨区传送站接收各级产物，将你的分厂版图扩展到全大陆。&lt;br&gt;酿酒榨油、制造烤箱，甚至是手表和抗生素，用你的未来商品惊艳古人!&lt;br&gt;钢筋混凝土、橡胶、大型计算机，这些都将会是你在一千年前的古代批量建造的！！！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/江城steamgif.gif?t=1691049617" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/1z.gif?t=1691049617" /&gt;&lt;br&gt;&lt;br&gt;目前已开放10位可攻略角色，皇家、江湖、商家……解开每个人的秘密，追逐你想要的友情、爱情。&lt;br&gt;与你选择的伴侣谈婚论嫁，一同住进工坊，他/她也将为你带来强大助力。&lt;br&gt;与近30位古人结交，每个人都有自己四季变化的日程，参与他们的人生，用现代知识解决他们的难题。&lt;br&gt;在江城，万事自然，想何时工作、探索、谈情说爱，都由你说了算。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/3zd.gif?t=1691049617" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/3X.gif?t=1691049617" /&gt;&lt;br&gt;&lt;br&gt;上手极快的战斗系统，闪躲与进攻，在合理操作中战胜你的敌人。&lt;br&gt;正统学习或江湖奇遇，外功、内功、轻功、硬功，40余种武功让你称霸江湖。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/4zd.gif?t=1691049617" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/4x.gif?t=1691049617" /&gt;&lt;br&gt;&lt;br&gt;探索地图上的四大村落，完成村落任务，探索它们的秘密。&lt;br&gt;探索神秘前辈为你留下的玄妙秘境，深入其中，战胜诡奇怪物。&lt;br&gt;探索整片大陆，发掘宝藏、勇探蝙蝠洞、为百姓惩戒山贼。&lt;br&gt;与全地图的矿主签订契约，让古人来为你打工。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/5zddd.gif?t=1691049617" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/5x.gif?t=1691049617" /&gt;&lt;br&gt;&lt;br&gt;做能工巧匠还是交际达人？武林第一人还是生活小能手？都由你自己决定。&lt;br&gt;打造灵药、武器、衣饰，做古代的手工达人。&lt;br&gt;20余种不同增益的菜肴，五珍烩、雪霞羹……在你的厨房里制作吧！&lt;br&gt;将你制作的产品填满天工阁，让古人也来参观现代科技。&lt;br&gt;借助未来科技的力量，修复时光机，完成只有你能完成的使命。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/6zd.gif?t=1691049617" /&gt;</t>
+          <t>欢迎关注我们的官方社群：&lt;br&gt;BUG反馈/官方答疑/建设互助区，我们会在群中倾听大家的意见和想法。&lt;br&gt;【官方】江城创业记游戏 1群：596672095&lt;br&gt;【官方】江城创业记游戏 2群：702307976&lt;br&gt;【官方】江城创业记游戏 3群：665445239&lt;br&gt;&lt;a href="mailto:也可以将你的想法和建议发送到我们的邮箱：xb@cedong.com.cn"&gt;也可以将你的想法和建议发送到我们的邮箱：xb@cedong.com.cn&lt;/a&gt;&lt;br&gt;&lt;br&gt;游友聊天区&lt;br&gt;游戏便当QQ群①：287356527【已满】&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/11D.gif?t=1695380850" /&gt;&lt;br&gt;你穿越回千年前的江城，成为了一个工坊主……为何穿越的会是你？门派之争、工坊暗斗、异族矛盾、皇子复辟，江城平静的表面暗流涌......&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/1x.gif?t=1695380850" /&gt;&lt;br&gt;&lt;br&gt;创建自动化生产流水线，从木板到电路板，设计你的每一条生产线。&lt;br&gt;逐步解锁未来科技，从硅提纯到光伏发电，建设你的超时代工坊。&lt;br&gt;使用跨区传送站接收各级产物，将你的分厂版图扩展到全大陆。&lt;br&gt;酿酒榨油、制造烤箱，甚至是手表和抗生素，用你的未来商品惊艳古人!&lt;br&gt;钢筋混凝土、橡胶、大型计算机，这些都将会是你在一千年前的古代批量建造的！！！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/江城steamgif.gif?t=1695380850" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/1z.gif?t=1695380850" /&gt;&lt;br&gt;&lt;br&gt;目前已开放10位可攻略角色，皇家、江湖、商家……解开每个人的秘密，追逐你想要的友情、爱情。&lt;br&gt;与你选择的伴侣谈婚论嫁，一同住进工坊，他/她也将为你带来强大助力。&lt;br&gt;与近30位古人结交，每个人都有自己四季变化的日程，参与他们的人生，用现代知识解决他们的难题。&lt;br&gt;在江城，万事自然，想何时工作、探索、谈情说爱，都由你说了算。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/3zd.gif?t=1695380850" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/3X.gif?t=1695380850" /&gt;&lt;br&gt;&lt;br&gt;上手极快的战斗系统，闪躲与进攻，在合理操作中战胜你的敌人。&lt;br&gt;正统学习或江湖奇遇，外功、内功、轻功、硬功，40余种武功让你称霸江湖。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/4zd.gif?t=1695380850" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/4x.gif?t=1695380850" /&gt;&lt;br&gt;&lt;br&gt;探索地图上的四大村落，完成村落任务，探索它们的秘密。&lt;br&gt;探索神秘前辈为你留下的玄妙秘境，深入其中，战胜诡奇怪物。&lt;br&gt;探索整片大陆，发掘宝藏、勇探蝙蝠洞、为百姓惩戒山贼。&lt;br&gt;与全地图的矿主签订契约，让古人来为你打工。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/5zddd.gif?t=1695380850" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/5x.gif?t=1695380850" /&gt;&lt;br&gt;&lt;br&gt;做能工巧匠还是交际达人？武林第一人还是生活小能手？都由你自己决定。&lt;br&gt;打造灵药、武器、衣饰，做古代的手工达人。&lt;br&gt;20余种不同增益的菜肴，五珍烩、雪霞羹……在你的厨房里制作吧！&lt;br&gt;将你制作的产品填满天工阁，让古人也来参观现代科技。&lt;br&gt;借助未来科技的力量，修复时光机，完成只有你能完成的使命。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2281410/extras/6zd.gif?t=1695380850" /&gt;</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -3155,7 +3155,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_eGIF_SCH.gif?t=1695057901" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_Steam_StoreHeading_NewLevelAvailableNow_SCH.png?t=1695057901" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;***全新关卡“港口”现已推出***&lt;/strong&gt;&lt;/h2&gt;吼嘿哟！《人类一败涂地》的欢乐小船停靠在了充满了惊喜的新关卡：港口！ &lt;br&gt; &lt;br&gt;在这片天堂般的群岛上，每一个转弯都有新奇的冒险等着你！快来探索充满秘密和隐秘路径的魅力小镇吧。 &lt;br&gt;&lt;br&gt;叫上小伙伴扬帆开启史诗般的旅程，划过广阔的水域，一起开动脑筋解决一路上的谜题。  &lt;br&gt; &lt;br&gt;散发着奇异魅力的港口充满无限的可能，一定会让你在欢笑和兴奋之中度过令人难忘的美好时光！     &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Copper_World.gif?t=1695057901" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;包含24个绝妙的关卡。全球超过4500万玩家。全平台已经售出超过3000万套。&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;《人类一败涂地》是一款轻松搞笑的沙雕游戏，游戏的场景发生在飘渺的梦境之中。&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Copper_World_Ice.gif?t=1695057901" /&gt;&lt;br&gt;&lt;br&gt;每个梦境关卡会提供一个全新的环境让玩家探索，从豪宅、城堡和阿兹台克到雪山、光怪陆离的夜景和工业区。每关都贯穿有多条路线和完美设置的谜题，确保热衷探索和聪明的玩家能得到奖励。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_Steam_StoreHeading_MoreHumansMoreMayhem_SCH.png?t=1695057901" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Copper_World_City.gif?t=1695057901" /&gt;&lt;br&gt;&lt;br&gt;需要帮忙把巨石装上投石器，或者需要有人来打破那堵墙？最多8名玩家的在线多人模式会改变《人类一败涂地》的游戏方式。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_Steam_StoreHeading_BlankCanvas_SCH.png?t=1695057901" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Copper_World_Red_Rock.gif?t=1695057901" /&gt;&lt;br&gt;&lt;br&gt;你的软趴趴小人由你自己来定制。可以选择建筑工人、大厨、跳伞员、矿工、宇航员或忍者的服装。还可以分别打扮你的脑袋、上半身和下半身，并且用脑洞让一切变得创意十足！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_Steam_StoreHeading_Workshop_SCH.png?t=1695057901" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/workshop.gif?t=1695057901" /&gt;&lt;br&gt;&lt;br&gt;仅在Steam平台上发布的《人类一败涂地》创意工坊，是一个绝佳的工具，与Unity一起使用，可以让玩家打造自己的《人类一败涂地》内容，并和全世界的玩家分享。对自己打造关卡、大厅或皮肤不感兴趣？你还可以在Steam上直接下载和探索超过5000个别人的创意关卡！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_Steam_StoreHeading_VibrantCommunity_SCH.png?t=1695057901" /&gt;&lt;br&gt;&lt;strong&gt;生机勃勃的玩家社群&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/factory-3.gif?t=1695057901" /&gt;&lt;br&gt;&lt;br&gt;主播和UP主们对《人类一败涂地》尤为青睐，就因为其独特搞笑的游戏方式。这些视频的综合播放量已多达6亿！</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_eGIF_SCH.gif?t=1695398340" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_Steam_StoreHeading_NewLevelAvailableNow_SCH.png?t=1695398340" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;***全新关卡“港口”现已推出***&lt;/strong&gt;&lt;/h2&gt;吼嘿哟！《人类一败涂地》的欢乐小船停靠在了充满了惊喜的新关卡：港口！ &lt;br&gt; &lt;br&gt;在这片天堂般的群岛上，每一个转弯都有新奇的冒险等着你！快来探索充满秘密和隐秘路径的魅力小镇吧。 &lt;br&gt;&lt;br&gt;叫上小伙伴扬帆开启史诗般的旅程，划过广阔的水域，一起开动脑筋解决一路上的谜题。  &lt;br&gt; &lt;br&gt;散发着奇异魅力的港口充满无限的可能，一定会让你在欢笑和兴奋之中度过令人难忘的美好时光！     &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Copper_World.gif?t=1695398340" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;包含24个绝妙的关卡。全球超过4500万玩家。全平台已经售出超过3000万套。&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;《人类一败涂地》是一款轻松搞笑的沙雕游戏，游戏的场景发生在飘渺的梦境之中。&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Copper_World_Ice.gif?t=1695398340" /&gt;&lt;br&gt;&lt;br&gt;每个梦境关卡会提供一个全新的环境让玩家探索，从豪宅、城堡和阿兹台克到雪山、光怪陆离的夜景和工业区。每关都贯穿有多条路线和完美设置的谜题，确保热衷探索和聪明的玩家能得到奖励。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_Steam_StoreHeading_MoreHumansMoreMayhem_SCH.png?t=1695398340" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Copper_World_City.gif?t=1695398340" /&gt;&lt;br&gt;&lt;br&gt;需要帮忙把巨石装上投石器，或者需要有人来打破那堵墙？最多8名玩家的在线多人模式会改变《人类一败涂地》的游戏方式。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_Steam_StoreHeading_BlankCanvas_SCH.png?t=1695398340" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Copper_World_Red_Rock.gif?t=1695398340" /&gt;&lt;br&gt;&lt;br&gt;你的软趴趴小人由你自己来定制。可以选择建筑工人、大厨、跳伞员、矿工、宇航员或忍者的服装。还可以分别打扮你的脑袋、上半身和下半身，并且用脑洞让一切变得创意十足！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_Steam_StoreHeading_Workshop_SCH.png?t=1695398340" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/workshop.gif?t=1695398340" /&gt;&lt;br&gt;&lt;br&gt;仅在Steam平台上发布的《人类一败涂地》创意工坊，是一个绝佳的工具，与Unity一起使用，可以让玩家打造自己的《人类一败涂地》内容，并和全世界的玩家分享。对自己打造关卡、大厅或皮肤不感兴趣？你还可以在Steam上直接下载和探索超过5000个别人的创意关卡！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_Steam_StoreHeading_VibrantCommunity_SCH.png?t=1695398340" /&gt;&lt;br&gt;&lt;strong&gt;生机勃勃的玩家社群&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/factory-3.gif?t=1695398340" /&gt;&lt;br&gt;&lt;br&gt;主播和UP主们对《人类一败涂地》尤为青睐，就因为其独特搞笑的游戏方式。这些视频的综合播放量已多达6亿！</t>
         </is>
       </c>
     </row>
@@ -4318,7 +4318,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -7917,7 +7917,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -8043,7 +8043,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -8053,7 +8053,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=http://discord.gg/carteltycoon" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/Discord_Banner_1.png?t=1695374488" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;《Cartel Tycoon》以虚构的80年代拉丁美洲为背景，描绘出由可卡因主宰美国乃至全世界的时代图景。富得流油的毒枭们统治着他们的辉煌帝国，在创造了数千个就业机会的同时，也令这个道德沦丧的世界充斥着暴力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/CartelTycoon-Communication.gif?t=1695374488" /&gt;&lt;br&gt;&lt;br&gt;建立起生产毒品并拥有走私链的帝国，同时还要管理好地痞副手，处理好有关当局以及公众舆论的关系。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/Police.gif?t=1695374488" /&gt;&lt;br&gt;&lt;br&gt;敌对帮派、缉毒局、军方甚至中情局都对你不断增长的业务构成威胁。死亡在所难免，但这并不是终点。当你死后（对毒枭来说，从来没有真正的好结局），你将以继承者身份加冕，并在废墟上重新建立你的帝国。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/oct21_CopterV2.gif?t=1695374488" /&gt;&lt;br&gt;&lt;br&gt;在《Cartel Tycoon》中，失败是无法避免的，暴力只会带来更多的暴力——但是那些狡猾的毒枭眼中看到的更多是利润。&lt;h2 class="bb_tag"&gt;多种游戏模式总有一种适合你&lt;/h2&gt;&lt;br&gt;故事模式适合想要沉浸到数十小时引人入胜的游戏世界中的玩家。硬核永久死亡模式模式适合喜欢挑战的玩家。高度自定义的沙盒模式则为想要按照自己的规则进行游戏的玩家而准备！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/cars_small.png?t=1695374488" /&gt;&lt;br&gt;&lt;br&gt;Key features&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;发展你的帝国。&lt;/strong&gt;将简陋的农业经营发展成一个庞大的物流系统，包括种植园、实验室、航空港等。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;用自己的方式统治。&lt;/strong&gt;数十条升级路径，无数的策略组合，面对如此巨大的规模施展你超高的经营手腕。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;死亡不可避免。&lt;/strong&gt;当你的老大没落时，提拔一个独特的副手来接管你的生意并继续壮大你的卡特尔。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;每件事，每个人，都有价格。&lt;/strong&gt;清洗你辛苦赚来的钱来发展你的帝国，维护你副手的忠诚度，贿赂腐败的政客。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;捍卫自己所得。&lt;/strong&gt;在获利之路上规避有关当局，并与卡特尔同行竞争。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;无尽的可重玩性。&lt;/strong&gt;几十个独特的角色，无限制的沙盒游戏玩法，可随心所欲探索的动态叙事系统。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;原声大碟捕捉时代迷幻色彩，尽显拉美风情。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/Comp_64.gif?t=1695374488" /&gt;</t>
+          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=http://discord.gg/carteltycoon" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/Discord_Banner_1.png?t=1695400774" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;《Cartel Tycoon》以虚构的80年代拉丁美洲为背景，描绘出由可卡因主宰美国乃至全世界的时代图景。富得流油的毒枭们统治着他们的辉煌帝国，在创造了数千个就业机会的同时，也令这个道德沦丧的世界充斥着暴力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/CartelTycoon-Communication.gif?t=1695400774" /&gt;&lt;br&gt;&lt;br&gt;建立起生产毒品并拥有走私链的帝国，同时还要管理好地痞副手，处理好有关当局以及公众舆论的关系。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/Police.gif?t=1695400774" /&gt;&lt;br&gt;&lt;br&gt;敌对帮派、缉毒局、军方甚至中情局都对你不断增长的业务构成威胁。死亡在所难免，但这并不是终点。当你死后（对毒枭来说，从来没有真正的好结局），你将以继承者身份加冕，并在废墟上重新建立你的帝国。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/oct21_CopterV2.gif?t=1695400774" /&gt;&lt;br&gt;&lt;br&gt;在《Cartel Tycoon》中，失败是无法避免的，暴力只会带来更多的暴力——但是那些狡猾的毒枭眼中看到的更多是利润。&lt;h2 class="bb_tag"&gt;多种游戏模式总有一种适合你&lt;/h2&gt;&lt;br&gt;故事模式适合想要沉浸到数十小时引人入胜的游戏世界中的玩家。硬核永久死亡模式模式适合喜欢挑战的玩家。高度自定义的沙盒模式则为想要按照自己的规则进行游戏的玩家而准备！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/cars_small.png?t=1695400774" /&gt;&lt;br&gt;&lt;br&gt;Key features&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;发展你的帝国。&lt;/strong&gt;将简陋的农业经营发展成一个庞大的物流系统，包括种植园、实验室、航空港等。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;用自己的方式统治。&lt;/strong&gt;数十条升级路径，无数的策略组合，面对如此巨大的规模施展你超高的经营手腕。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;死亡不可避免。&lt;/strong&gt;当你的老大没落时，提拔一个独特的副手来接管你的生意并继续壮大你的卡特尔。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;每件事，每个人，都有价格。&lt;/strong&gt;清洗你辛苦赚来的钱来发展你的帝国，维护你副手的忠诚度，贿赂腐败的政客。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;捍卫自己所得。&lt;/strong&gt;在获利之路上规避有关当局，并与卡特尔同行竞争。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;无尽的可重玩性。&lt;/strong&gt;几十个独特的角色，无限制的沙盒游戏玩法，可随心所欲探索的动态叙事系统。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;原声大碟捕捉时代迷幻色彩，尽显拉美风情。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/Comp_64.gif?t=1695400774" /&gt;</t>
         </is>
       </c>
     </row>
@@ -8692,7 +8692,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -10368,7 +10368,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Embark on an odyssey for the Lost Ark in a vast, vibrant world: explore new lands, seek out lost treasures, and test yourself in thrilling action combat. Define your fighting style with your class and advanced class, and customize your skills, weapons, and gear to bring your might to bear as you fight against hordes of enemies, colossal bosses, and dark forces seeking the power of the Ark in this action-packed free-to-play RPG.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599340/extras/LA_STEAM_WORLD_BRIMMING_01.gif?t=1695251545" /&gt;&lt;br&gt;&lt;strong&gt;Discover a World Brimming with Adventure&lt;/strong&gt;&lt;br&gt;Explore seven vast, varied continents and the seas between them to find vibrant cultures, strange and fantastical beasts, and all the unexpected marvels waiting to be discovered. Delve into the secrets of Arkesia, prove your might in battles and raids, compete against other players in PvP, travel to distant islands in search of hidden riches, face packs of enemies and colossal bosses in the open world, and more.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599340/extras/LA_STEAM_ODYSSEY_AWAITS_02.gif?t=1695251545" /&gt;&lt;br&gt;&lt;strong&gt;Your Odyssey Awaits&lt;/strong&gt;&lt;br&gt;Splash into massively satisfying ARPG-style combat and progression as you quest, raid, and fight on the scope of an MMO.  Whether you want to play solo, in groups with friends, or matched up with other adventurers in the world, there’s an epic adventure waiting for you.  Fight in the open world or delve into chaos dungeons, go head-to-head in expert PvP duels, test your mettle on epic quests, raid against bosses big and small, and hold your own in the fight against the Demon Legion to reclaim the power and light of the Lost Ark.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599340/extras/LA_STEAM_FIGHT_03.gif?t=1695251545" /&gt;&lt;br&gt;&lt;strong&gt;Define Your Fight&lt;/strong&gt;&lt;br&gt;Lost Ark offers easy-to-learn features with unexpected depth and room for customization. Hit the ground running with pick-up-and-play action then take control of your combat with the unique Tripod system. Unlock three tiers of customization for each of your abilities, giving you powerful control of exactly how you fight.  Lost Ark’s ever-expanding roster of iconic classes—each with their own distinct advanced classes—offers plenty of room to explore until you find the combat style that’s just right for you.  &lt;br&gt;&lt;br&gt;The same goes for other features: as you continue your journey, you’ll find non-combat skills, crafting, guilds and social systems, and other rich features that bring the world alive. Whether you want to skim along the surface or dive deep into the details is up to you.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;ACCESSIBILITY FEATURES:&lt;/strong&gt;&lt;br&gt;Personalize your adventure with accessibility settings before game play. Enable numerous options including chat text enlargement, color blindness filters, photosensitivity mode, toggleable camera shake, and subtitle settings to create your optimal experience. Define your audio preferences with settings for volume controls, mono sound, stereo sound, and surround sound. You can also adjust game inputs via input remapping options and mouse/keyboard control settings. Lastly, define game inputs via input remapping options, and make sure no message is missed with chat text-to-speech and speech-to-text.</t>
+          <t>Embark on an odyssey for the Lost Ark in a vast, vibrant world: explore new lands, seek out lost treasures, and test yourself in thrilling action combat. Define your fighting style with your class and advanced class, and customize your skills, weapons, and gear to bring your might to bear as you fight against hordes of enemies, colossal bosses, and dark forces seeking the power of the Ark in this action-packed free-to-play RPG.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599340/extras/LA_STEAM_WORLD_BRIMMING_01.gif?t=1695323296" /&gt;&lt;br&gt;&lt;strong&gt;Discover a World Brimming with Adventure&lt;/strong&gt;&lt;br&gt;Explore seven vast, varied continents and the seas between them to find vibrant cultures, strange and fantastical beasts, and all the unexpected marvels waiting to be discovered. Delve into the secrets of Arkesia, prove your might in battles and raids, compete against other players in PvP, travel to distant islands in search of hidden riches, face packs of enemies and colossal bosses in the open world, and more.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599340/extras/LA_STEAM_ODYSSEY_AWAITS_02.gif?t=1695323296" /&gt;&lt;br&gt;&lt;strong&gt;Your Odyssey Awaits&lt;/strong&gt;&lt;br&gt;Splash into massively satisfying ARPG-style combat and progression as you quest, raid, and fight on the scope of an MMO.  Whether you want to play solo, in groups with friends, or matched up with other adventurers in the world, there’s an epic adventure waiting for you.  Fight in the open world or delve into chaos dungeons, go head-to-head in expert PvP duels, test your mettle on epic quests, raid against bosses big and small, and hold your own in the fight against the Demon Legion to reclaim the power and light of the Lost Ark.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599340/extras/LA_STEAM_FIGHT_03.gif?t=1695323296" /&gt;&lt;br&gt;&lt;strong&gt;Define Your Fight&lt;/strong&gt;&lt;br&gt;Lost Ark offers easy-to-learn features with unexpected depth and room for customization. Hit the ground running with pick-up-and-play action then take control of your combat with the unique Tripod system. Unlock three tiers of customization for each of your abilities, giving you powerful control of exactly how you fight.  Lost Ark’s ever-expanding roster of iconic classes—each with their own distinct advanced classes—offers plenty of room to explore until you find the combat style that’s just right for you.  &lt;br&gt;&lt;br&gt;The same goes for other features: as you continue your journey, you’ll find non-combat skills, crafting, guilds and social systems, and other rich features that bring the world alive. Whether you want to skim along the surface or dive deep into the details is up to you.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;ACCESSIBILITY FEATURES:&lt;/strong&gt;&lt;br&gt;Personalize your adventure with accessibility settings before game play. Enable numerous options including chat text enlargement, color blindness filters, photosensitivity mode, toggleable camera shake, and subtitle settings to create your optimal experience. Define your audio preferences with settings for volume controls, mono sound, stereo sound, and surround sound. You can also adjust game inputs via input remapping options and mouse/keyboard control settings. Lastly, define game inputs via input remapping options, and make sure no message is missed with chat text-to-speech and speech-to-text.</t>
         </is>
       </c>
     </row>
@@ -11328,7 +11328,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -12360,7 +12360,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -12951,16 +12951,16 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>当你指引着骑士指挥官走向神话般的荣耀时，坎娜布利燃烧的街道上，普通人则在尽最大努力挣扎求生。站在普通市民的角度看待战争，并证明要展现英雄气节，你并不需要成为一位神话中的勇士。带领一小群市民逃脱囚禁，前往安全的避难所。你将拯救谁？将牺牲谁？主线战役的英雄们又错过了世界之伤的哪些骇人的秘密？&lt;br /&gt;
-&lt;br /&gt;
-• 游玩为低级角色制订的独立迷你战役。&lt;br /&gt;
-• 在8-10小时的游戏时长中，以全新的角度探索被入侵的坎娜布利（以及其它地方）。&lt;br /&gt;
-• 两位新同伴将加入你。这对跟英雄一词丝毫不搭边的同伴对每件事的观点都大相径庭。他们唯一的共识只有：你们这支小队伍不会轻易被打垮。&lt;br /&gt;
-• 集合一组幸存者，带领他们脱离险境。这些人是没有战斗力的平民，但他们能帮你存活下去，只要你也能保证他们的安全。&lt;br /&gt;
-• 克服重重磨难，挺过这场浩劫。学会珍惜你能得到的每一件装备，利用战场上的每个巧合来取得优势。&lt;br /&gt;
-• 了解一位被遗忘已久的恶魔领主的秘密，对抗他可怕的追随者，见识他的异界国度。&lt;br /&gt;
-• 将你的胜利带入主线剧情。让骑士指挥官见到你救出的人们……并获得一件从未知敌人手中抢来的全新独特魔法物品。&lt;br /&gt;
-• 这只是一个开始！本故事中的英雄和反派都将在未来的游戏扩展内容中再度登场，让你更深入地了解在主线战役中没有注意到的世界之伤的秘密。</t>
+          <t>While you were leading the Knight Commander to mythic glory, regular people on the burning streets of Kenabres were doing their best to survive. See the war through the eyes of common city dwellers and prove that you don't need to be a mythic champion to be a hero. Lead a small group of townsfolk out of captivity to safe refuge. Who will you save? Who will you sacrifice? And what grim secrets of the Worldwound have the main campaign's heroes missed?&lt;br /&gt;
+&lt;br /&gt;
+• Play a self-contained mini-campaign for low-level characters.&lt;br /&gt;
+• Spend 8–10 hours exploring the invaded Kenabres (and beyond) from angles you haven't seen before.&lt;br /&gt;
+• Two new companions will join you — unlikely heroes with vastly different views on almost everything. The only thing they agree on is this: your little group isn't going down easily.&lt;br /&gt;
+• Gather a group of survivors and lead them to safety. These are common folk, and they can't fight — but they can help you survive as long as you do the same for them.&lt;br /&gt;
+• Survive the calamity with the odds stacked against you. Learn to treasure every piece of equipment you can get, and use every quirk of the battlefield to your advantage.&lt;br /&gt;
+• Learn the secrets of a long-forgotten demon lord, confront his terrifying followers, and glimpse his otherworldly domain.&lt;br /&gt;
+• Import your victories into the main story. Let the Knight Commander meet the people you've saved... And earn an exclusive new magic item snatched from the clutches of the unknown enemy.&lt;br /&gt;
+• This is just the beginning! The heroes and villains of this story will be back in future game expansions to let you delve deeper into the secrets of the Worldwound that escaped your notice in the main campaign.</t>
         </is>
       </c>
     </row>
@@ -13286,7 +13286,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/UpdatePlan_23.7.27_cn.jpg?t=1695355543" /&gt;&lt;br&gt;抢先体验版现已发售！保姆级攻略请&lt;a href="https://steamcommunity.com/sharedfiles/filedetails/?id=2971536870" target="_blank" rel=""  &gt;点击这里&lt;/a&gt;查看。&lt;h2 class="bb_tag"&gt;《满庭芳·宋上繁华》是一款融合了历史、剧情、策略等元素的古风题材城市建造类游戏。&lt;/h2&gt;身为县官， 你需要安置百姓、开荒扩土、供给食物，保障其生活所需，也要聆听百姓心声，在避免城市灾害与犯罪的同时实现百姓安居乐业的政绩目标。然而当皇帝下达不可违背的国家政令，当敌国大举入侵你的家园，当党派的尔虞我诈影响你的城市发展，你将采取什么策略来面对这场历史洪流？而这一切，是否真的会因你而改变？&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/chengshi.gif?t=1695355543" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/steam_---.png?t=1695355543" /&gt;&lt;h2 class="bb_tag"&gt;游戏特点：&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;尽可能还原宋朝的历史，5个北宋时期的剧情章节带你回顾王朝的兴衰&lt;br&gt;&lt;/li&gt;&lt;li&gt;细致考究、参考博物馆与历史文献，还原宋朝建筑、行业、职业和服饰&lt;br&gt;&lt;/li&gt;&lt;li&gt;手绘国风的画面，细致的建筑和市民动画，浓厚真实的中国味道&lt;br&gt;&lt;/li&gt;&lt;li&gt;写实的财政经济系统，结合农业、制造业、民生和科学技术，需要慎重考虑发展策略和方向&lt;br&gt;&lt;/li&gt;&lt;li&gt;幸福网，灌溉网，建筑combo，需要仔细布局城市&lt;br&gt;&lt;/li&gt;&lt;li&gt;应对灾害疫病，抵御外族入侵，从一个破败的小村庄，发展到2000+市民同屏的繁华城市，成就一番图景&lt;br&gt;&lt;/li&gt;&lt;li&gt;完全自由的无尽模式，创造属于你的繁华市井。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/steam_---.png?t=1695355543" /&gt;&lt;h2 class="bb_tag"&gt;玩法介绍：&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/一朝兴衰，参与见证_s.png?t=1695355543" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/yichaoxingshuai.gif?t=1695355543" /&gt;&lt;br&gt;游戏的剧情模式，将带领玩家体验大宋王朝的历史变迁。由于参考真实历史，所以“时间“概念尤为重要。随着游戏时间的推进，你会完成来自皇帝的一道道诏令；参与每个不同时期里发生的重大历史事件，并做出决策，引领城镇走出属于自己的命运。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/百肆林立，规划发展_s.png?t=1695355543" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/baisilinli.gif?t=1695355543" /&gt;&lt;br&gt;城镇的发展离不开建设规划，你需要合理调配人手，及时收集自然资源、营造各类生产及生活设施。充分运用建筑间的连携相性作用增加整体收益，进一步确保百姓衣食住行样样齐备，打造出一个安居乐业的理想家园。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/商旅云集，车水马龙_s.png?t=1695355543" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/shanglvyunji.gif?t=1695355543" /&gt;&lt;br&gt;斗香大会、诵经听曲、多样化饮食，除了保证百姓基础温饱之外，你还需要丰富文娱生活，提升百姓幸福度，吸引游客消费，以增加铜钱收入。而有进就有出，维护费、俸禄等贴近现实设计，让铜钱成为独立于所有资源外、维持城市运转的一种重要存在。合理摆放各色的市井建筑以增加城市的经济收益，仔细规划好资源、人口、经济之间的平衡，才能打造出令百姓赞颂的繁华城镇。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/广纳贤士，大兴科举_s.png?t=1695355543" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/zhaonaxianshi.gif?t=1695355543" /&gt;&lt;br&gt;除了香铺酒楼、莺歌燕楼等娱乐设施能够为你的城镇吸引更多的外来人口及游客。发展学术培养学子，参加科举金榜题名也能为城市提供更丰厚的财政收入。聘用高人逸士为城市叠加收益buff，让城镇的发展更上一层楼，形成良性循环。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/治安巡逻，护城安定_s.png?t=1695355543" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/zhandou.gif?t=1695355543" /&gt;&lt;br&gt;你的城镇并不会永远太平，伴随着城市的发展，你需要建设牢狱防范实施烧杀抢掠的罪犯，随时警惕卧底在城镇中的土匪探子。除此之外，还需要安内攘外，修筑城墙箭塔，屯养民兵弓箭手抵御外敌入侵。你的百姓，将由你来守护。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/守国在政，行政在人_s.png?t=1695355543" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/shouguozaizheng.gif?t=1695355543" /&gt;&lt;br&gt;要成为一名合格的县官，你需要随时对着账簿查漏补缺，为下一年做好统筹规划。创新发展科技树，提升整体生产力。除此之外还要开启政策辅助你的治理，通过对不同政策的研究组合能大大提升你管理城镇的效率。然而并不是每一项政策都能使你获益，当面临短时间增加产出但是会对民生造成影响时，你当如何？</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/UpdatePlan_23.7.27_cn.jpg?t=1695362992" /&gt;&lt;br&gt;抢先体验版现已发售！保姆级攻略请&lt;a href="https://steamcommunity.com/sharedfiles/filedetails/?id=2971536870" target="_blank" rel=""  &gt;点击这里&lt;/a&gt;查看。&lt;h2 class="bb_tag"&gt;《满庭芳·宋上繁华》是一款融合了历史、剧情、策略等元素的古风题材城市建造类游戏。&lt;/h2&gt;身为县官， 你需要安置百姓、开荒扩土、供给食物，保障其生活所需，也要聆听百姓心声，在避免城市灾害与犯罪的同时实现百姓安居乐业的政绩目标。然而当皇帝下达不可违背的国家政令，当敌国大举入侵你的家园，当党派的尔虞我诈影响你的城市发展，你将采取什么策略来面对这场历史洪流？而这一切，是否真的会因你而改变？&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/chengshi.gif?t=1695362992" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/steam_---.png?t=1695362992" /&gt;&lt;h2 class="bb_tag"&gt;游戏特点：&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;尽可能还原宋朝的历史，5个北宋时期的剧情章节带你回顾王朝的兴衰&lt;br&gt;&lt;/li&gt;&lt;li&gt;细致考究、参考博物馆与历史文献，还原宋朝建筑、行业、职业和服饰&lt;br&gt;&lt;/li&gt;&lt;li&gt;手绘国风的画面，细致的建筑和市民动画，浓厚真实的中国味道&lt;br&gt;&lt;/li&gt;&lt;li&gt;写实的财政经济系统，结合农业、制造业、民生和科学技术，需要慎重考虑发展策略和方向&lt;br&gt;&lt;/li&gt;&lt;li&gt;幸福网，灌溉网，建筑combo，需要仔细布局城市&lt;br&gt;&lt;/li&gt;&lt;li&gt;应对灾害疫病，抵御外族入侵，从一个破败的小村庄，发展到2000+市民同屏的繁华城市，成就一番图景&lt;br&gt;&lt;/li&gt;&lt;li&gt;完全自由的无尽模式，创造属于你的繁华市井。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/steam_---.png?t=1695362992" /&gt;&lt;h2 class="bb_tag"&gt;玩法介绍：&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/一朝兴衰，参与见证_s.png?t=1695362992" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/yichaoxingshuai.gif?t=1695362992" /&gt;&lt;br&gt;游戏的剧情模式，将带领玩家体验大宋王朝的历史变迁。由于参考真实历史，所以“时间“概念尤为重要。随着游戏时间的推进，你会完成来自皇帝的一道道诏令；参与每个不同时期里发生的重大历史事件，并做出决策，引领城镇走出属于自己的命运。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/百肆林立，规划发展_s.png?t=1695362992" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/baisilinli.gif?t=1695362992" /&gt;&lt;br&gt;城镇的发展离不开建设规划，你需要合理调配人手，及时收集自然资源、营造各类生产及生活设施。充分运用建筑间的连携相性作用增加整体收益，进一步确保百姓衣食住行样样齐备，打造出一个安居乐业的理想家园。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/商旅云集，车水马龙_s.png?t=1695362992" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/shanglvyunji.gif?t=1695362992" /&gt;&lt;br&gt;斗香大会、诵经听曲、多样化饮食，除了保证百姓基础温饱之外，你还需要丰富文娱生活，提升百姓幸福度，吸引游客消费，以增加铜钱收入。而有进就有出，维护费、俸禄等贴近现实设计，让铜钱成为独立于所有资源外、维持城市运转的一种重要存在。合理摆放各色的市井建筑以增加城市的经济收益，仔细规划好资源、人口、经济之间的平衡，才能打造出令百姓赞颂的繁华城镇。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/广纳贤士，大兴科举_s.png?t=1695362992" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/zhaonaxianshi.gif?t=1695362992" /&gt;&lt;br&gt;除了香铺酒楼、莺歌燕楼等娱乐设施能够为你的城镇吸引更多的外来人口及游客。发展学术培养学子，参加科举金榜题名也能为城市提供更丰厚的财政收入。聘用高人逸士为城市叠加收益buff，让城镇的发展更上一层楼，形成良性循环。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/治安巡逻，护城安定_s.png?t=1695362992" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/zhandou.gif?t=1695362992" /&gt;&lt;br&gt;你的城镇并不会永远太平，伴随着城市的发展，你需要建设牢狱防范实施烧杀抢掠的罪犯，随时警惕卧底在城镇中的土匪探子。除此之外，还需要安内攘外，修筑城墙箭塔，屯养民兵弓箭手抵御外敌入侵。你的百姓，将由你来守护。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/守国在政，行政在人_s.png?t=1695362992" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1956800/extras/shouguozaizheng.gif?t=1695362992" /&gt;&lt;br&gt;要成为一名合格的县官，你需要随时对着账簿查漏补缺，为下一年做好统筹规划。创新发展科技树，提升整体生产力。除此之外还要开启政策辅助你的治理，通过对不同政策的研究组合能大大提升你管理城镇的效率。然而并不是每一项政策都能使你获益，当面临短时间增加产出但是会对民生造成影响时，你当如何？</t>
         </is>
       </c>
     </row>
@@ -15127,7 +15127,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>在《双面教父》中，你明面上是一名餐厅老板，但暗地里同时还是黑手党集团的首领。你将发号施令，指挥手下进行抢劫、讨债、甚至偷取艺术品和威胁警察等勾当。然而，你同样需要巧妙经营你的餐厅，雇佣员工，展开广告宣传，时刻警惕那些可能干扰你经营的意外事件。你能否在黑白两道之间取得平衡？又能否带领你的家族走向辉煌？&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-15-SC1.png?t=1694791260" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;“我不喜欢暴力，汤姆，我是个商人。”&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;&lt;br&gt;持续升级发展和改善你的餐厅。购置更多桌椅，确保每个踏入你门的客人都能得到舒适体验。通过巧妙的广告，将你的名字传遍大街小巷，吸引更多食客，赚取合法收入。然而，请牢记，客流量的增加意味着需要雇佣更多员工来提供服务。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-155_1.gif?t=1694791260" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-15-SC2.png?t=1694791260" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;“我会给他一个他无法拒绝的提议。”&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;&lt;br&gt;你的手下大多数是黑帮打手。将他们派遣到不同区域，从事各类犯罪活动。从银行抢劫到暴力催债，从威胁警察到控制城市街区，你的黑帮组织将操控整个城市的格局，并赚回大量的“黑钱”。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-155_2.gif?t=1694791260" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-15-SC3.png?t=1694791260" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;“永远不要憎恨你的敌人，那会影响你的判断力。”&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;&lt;br&gt;经营游戏部分采用卡牌机制，你需要审慎使用和丢弃手中的卡牌。一些卡牌上标有小铃铛标志，意味着将会有事件加入与铃铛匹配的进度栏中。一旦事件被触发，其影响将直接决定你的生意前途。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-155_3.gif?t=1694791260" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-15-SC4.png?t=1694791260" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;“别问我关于我的生意，凯。”&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;&lt;br&gt;通过经营你的餐厅事业，你可以将“灰色收入”洗白合法化。但随着收入增加，警方对你的关注也会逐渐加深。一旦触发警方警戒线，你将面临被逮捕的风险。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-155_4.gif?t=1694791260" /&gt;</t>
+          <t>在《双面教父》中，你明面上是一名餐厅老板，但暗地里同时还是黑手党集团的首领。你将发号施令，指挥手下进行抢劫、讨债、甚至偷取艺术品和威胁警察等勾当。然而，你同样需要巧妙经营你的餐厅，雇佣员工，展开广告宣传，时刻警惕那些可能干扰你经营的意外事件。你能否在黑白两道之间取得平衡？又能否带领你的家族走向辉煌？&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-15-SC1.png?t=1695383948" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;“我不喜欢暴力，汤姆，我是个商人。”&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;&lt;br&gt;持续升级发展和改善你的餐厅。购置更多桌椅，确保每个踏入你门的客人都能得到舒适体验。通过巧妙的广告，将你的名字传遍大街小巷，吸引更多食客，赚取合法收入。然而，请牢记，客流量的增加意味着需要雇佣更多员工来提供服务。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-155_1.gif?t=1695383948" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-15-SC2.png?t=1695383948" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;“我会给他一个他无法拒绝的提议。”&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;&lt;br&gt;你的手下大多数是黑帮打手。将他们派遣到不同区域，从事各类犯罪活动。从银行抢劫到暴力催债，从威胁警察到控制城市街区，你的黑帮组织将操控整个城市的格局，并赚回大量的“黑钱”。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-155_2.gif?t=1695383948" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-15-SC3.png?t=1695383948" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;“永远不要憎恨你的敌人，那会影响你的判断力。”&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;&lt;br&gt;经营游戏部分采用卡牌机制，你需要审慎使用和丢弃手中的卡牌。一些卡牌上标有小铃铛标志，意味着将会有事件加入与铃铛匹配的进度栏中。一旦事件被触发，其影响将直接决定你的生意前途。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-155_3.gif?t=1695383948" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-15-SC4.png?t=1695383948" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;“别问我关于我的生意，凯。”&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;&lt;br&gt;通过经营你的餐厅事业，你可以将“灰色收入”洗白合法化。但随着收入增加，警方对你的关注也会逐渐加深。一旦触发警方警戒线，你将面临被逮捕的风险。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-155_4.gif?t=1695383948" /&gt;</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -4833,7 +4833,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>&lt;a href="https://store.steampowered.com/app/1111840" target="_blank" rel=""  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/urbex.png?t=1693404505" /&gt;&lt;/a&gt;&lt;a href="https://store.steampowered.com/app/864700/" target="_blank" rel=""  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/dino.png?t=1693404505" /&gt;&lt;/a&gt;&lt;a href="https://store.steampowered.com/app/864680/" target="_blank" rel=""  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/rms.png?t=1693404505" /&gt;&lt;/a&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/hl_line.png?t=1693404505" /&gt;&lt;h2 class="bb_tag"&gt;《占领火星》是一款复杂的开放世界沙盒生存游戏，适合该类型游戏的粉丝。&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/hl_line.png?t=1693404505" /&gt;&lt;br&gt;&lt;a href="https://steamcommunity.com/app/758690/discussions/0/6274121610015372635/" target="_blank" rel=""  &gt;Video Guide&lt;/a&gt; | &lt;a href="https://steamcommunity.com/app/758690/discussions/0/3828665107795840880/" target="_blank" rel=""  &gt;Colonist FAQ&lt;/a&gt; | &lt;a href="https://steamcommunity.com/app/758690/discussions/0/1749021365362863747/" target="_blank" rel=""  &gt;Troubleshooting FAQ&lt;/a&gt; | &lt;a href="https://steamcommunity.com/linkfilter/?url=https://occupymars.fandom.com/wiki/Occupy_Mars:_The_Game_Wiki" target="_blank" rel=" noopener"  &gt;Wiki&lt;/a&gt; | &lt;a href="https://steamcommunity.com/linkfilter/?url=https://roadmap.occupymarsgame.com/#/occupymars" target="_blank" rel=" noopener"  &gt;Roadmap&lt;/a&gt; | &lt;a href="https://steamcommunity.com/app/758690/discussions/0/3130541756137068835/" target="_blank" rel=""  &gt;TightBeam&lt;/a&gt; | &lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/sv9UWeh" target="_blank" rel=" noopener"  &gt;Discord&lt;/a&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/hl_line.png?t=1693404505" /&gt;&lt;br&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/sv9UWeh" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/join-discord.png?t=1693404505" /&gt;&lt;/a&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://roadmap.occupymarsgame.com/#/occupymars" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/ea-roadmap.png?t=1693404505" /&gt;&lt;/a&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/hl_line.png?t=1693404505" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;Occupy Mars&lt;/strong&gt; 《占领火星》 是一款关于火星殖民的开放世界科幻游戏。&lt;br&gt;玩家在游戏中建造和升级自己的基地。游戏的目的是学习如何在火星上生存。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/a-build1.jpg?t=1693404505" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;关于这款游戏&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/a-electricity.jpg?t=1693404505" /&gt;&lt;br&gt;&lt;br&gt;玩家在《占领火星》可以建造和升级自己的基地，也可以发现新的地区，以及进行采矿操作。为了在火星上生存下来，玩家必须生产出氧气，种植作物等等。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/a-crops.jpg?t=1693404505" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;游戏特色&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/a-explore.jpg?t=1693404505" /&gt;&lt;br&gt;&lt;br&gt;你有没有去火星上的梦？我们做了这样的梦！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/a-mine.jpg?t=1693404505" /&gt;&lt;br&gt;&lt;br&gt;因为在火星上，可以看见壮观的无限风光，以及探索未知的地形。并且可以创造新的技术。我们认为人类可以成为多星球文明。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/a-vehicle2.jpg?t=1693404505" /&gt;&lt;br&gt;&lt;br&gt;建立了自己的基地以后，特别重要的是确保有足够的水，氧气，电力和食物来生存。 玩家也必须建造温室，燃料发电机等等。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/a-survive.jpg?t=1693404505" /&gt;&lt;br&gt;&lt;br&gt;玩家同时碰到各种困难并危险，包括说爆炸发生在火星上，还有夜里时气温降低了。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/Follow.gif?t=1693404505" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;相关游戏&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/hl_line.png?t=1693404505" /&gt;&lt;br&gt;免费的《占领火星》: &lt;a href="https://store.steampowered.com/app/1310520/Occupy_Mars_Prologue_2020/" target="_blank" rel=""  &gt;2020年的序幕&lt;/a&gt;: &lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1310520/Occupy_Mars_Prologue_2020/" target="_blank" rel=""  id="dynamiclink_3" &gt;https://store.steampowered.com/app/1310520/Occupy_Mars_Prologue_2020/&lt;/a&gt;&lt;br&gt;我们以前的游戏 &lt;a href="https://store.steampowered.com/app/864680/" target="_blank" rel=""  &gt;Rover Mechanic Simulator&lt;/a&gt; 设置在同一个Occupy Mars Universe：&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/864680/" target="_blank" rel=""  id="dynamiclink_4" &gt;https://store.steampowered.com/app/864680/&lt;/a&gt;</t>
+          <t>&lt;a href="https://store.steampowered.com/app/1111840" target="_blank" rel=""  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/urbex.png?t=1695479418" /&gt;&lt;/a&gt;&lt;a href="https://store.steampowered.com/app/864700/" target="_blank" rel=""  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/dino.png?t=1695479418" /&gt;&lt;/a&gt;&lt;a href="https://store.steampowered.com/app/864680/" target="_blank" rel=""  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/rms.png?t=1695479418" /&gt;&lt;/a&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/hl_line.png?t=1695479418" /&gt;&lt;h2 class="bb_tag"&gt;《占领火星》是一款复杂的开放世界沙盒生存游戏，适合该类型游戏的粉丝。&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/hl_line.png?t=1695479418" /&gt;&lt;br&gt;&lt;a href="https://steamcommunity.com/app/758690/discussions/0/6274121610015372635/" target="_blank" rel=""  &gt;Video Guide&lt;/a&gt; | &lt;a href="https://steamcommunity.com/app/758690/discussions/0/3828665107795840880/" target="_blank" rel=""  &gt;Colonist FAQ&lt;/a&gt; | &lt;a href="https://steamcommunity.com/app/758690/discussions/0/1749021365362863747/" target="_blank" rel=""  &gt;Troubleshooting FAQ&lt;/a&gt; | &lt;a href="https://steamcommunity.com/linkfilter/?url=https://occupymars.fandom.com/wiki/Occupy_Mars:_The_Game_Wiki" target="_blank" rel=" noopener"  &gt;Wiki&lt;/a&gt; | &lt;a href="https://steamcommunity.com/linkfilter/?url=https://roadmap.occupymarsgame.com/#/occupymars" target="_blank" rel=" noopener"  &gt;Roadmap&lt;/a&gt; | &lt;a href="https://steamcommunity.com/app/758690/discussions/0/3130541756137068835/" target="_blank" rel=""  &gt;TightBeam&lt;/a&gt; | &lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/sv9UWeh" target="_blank" rel=" noopener"  &gt;Discord&lt;/a&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/hl_line.png?t=1695479418" /&gt;&lt;br&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/sv9UWeh" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/join-discord.png?t=1695479418" /&gt;&lt;/a&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://roadmap.occupymarsgame.com/#/occupymars" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/ea-roadmap.png?t=1695479418" /&gt;&lt;/a&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/hl_line.png?t=1695479418" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;Occupy Mars&lt;/strong&gt; 《占领火星》 是一款关于火星殖民的开放世界科幻游戏。&lt;br&gt;玩家在游戏中建造和升级自己的基地。游戏的目的是学习如何在火星上生存。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/a-build1.jpg?t=1695479418" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;关于这款游戏&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/a-electricity.jpg?t=1695479418" /&gt;&lt;br&gt;&lt;br&gt;玩家在《占领火星》可以建造和升级自己的基地，也可以发现新的地区，以及进行采矿操作。为了在火星上生存下来，玩家必须生产出氧气，种植作物等等。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/a-crops.jpg?t=1695479418" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;游戏特色&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/a-explore.jpg?t=1695479418" /&gt;&lt;br&gt;&lt;br&gt;你有没有去火星上的梦？我们做了这样的梦！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/a-mine.jpg?t=1695479418" /&gt;&lt;br&gt;&lt;br&gt;因为在火星上，可以看见壮观的无限风光，以及探索未知的地形。并且可以创造新的技术。我们认为人类可以成为多星球文明。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/a-vehicle2.jpg?t=1695479418" /&gt;&lt;br&gt;&lt;br&gt;建立了自己的基地以后，特别重要的是确保有足够的水，氧气，电力和食物来生存。 玩家也必须建造温室，燃料发电机等等。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/a-survive.jpg?t=1695479418" /&gt;&lt;br&gt;&lt;br&gt;玩家同时碰到各种困难并危险，包括说爆炸发生在火星上，还有夜里时气温降低了。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/Follow.gif?t=1695479418" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;相关游戏&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/hl_line.png?t=1695479418" /&gt;&lt;br&gt;免费的《占领火星》: &lt;a href="https://store.steampowered.com/app/1310520/Occupy_Mars_Prologue_2020/" target="_blank" rel=""  &gt;2020年的序幕&lt;/a&gt;: &lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1310520/Occupy_Mars_Prologue_2020/" target="_blank" rel=""  id="dynamiclink_3" &gt;https://store.steampowered.com/app/1310520/Occupy_Mars_Prologue_2020/&lt;/a&gt;&lt;br&gt;我们以前的游戏 &lt;a href="https://store.steampowered.com/app/864680/" target="_blank" rel=""  &gt;Rover Mechanic Simulator&lt;/a&gt; 设置在同一个Occupy Mars Universe：&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/864680/" target="_blank" rel=""  id="dynamiclink_4" &gt;https://store.steampowered.com/app/864680/&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -7539,7 +7539,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -9777,7 +9777,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>《神州志西游》是一款&lt;i&gt;Rogue-like&lt;/i&gt;&lt;i&gt;卡牌策略&lt;/i&gt;&lt;i&gt;游戏&lt;/i&gt;。你将扮演西行的角色之一，组建一支精英团队，构建强大套牌，获取神秘法宝，去战胜一路上遇到的妖魔鬼怪。在旅途中，你会无可避免的遇到突发事件，一念&lt;strong&gt;成佛&lt;/strong&gt;，一念&lt;strong&gt;成魔&lt;/strong&gt;。&lt;br&gt;&lt;br&gt;QQ一群&lt;strong&gt;&lt;u&gt;1003867153&lt;/u&gt;&lt;/strong&gt;（已满），二群&lt;strong&gt;&lt;i&gt;570090261&lt;/i&gt;&lt;/strong&gt;！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/Fishpond_20220311111945.jpg?t=1695159944" /&gt;&lt;h2 class="bb_tag"&gt;游戏特色概述&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 5个英雄角色&lt;br&gt;&lt;/li&gt;&lt;li&gt;20+可招募同伴&lt;br&gt;&lt;/li&gt;&lt;li&gt;120+个独特的NPC&lt;br&gt;&lt;/li&gt;&lt;li&gt;500+张卡牌，300+件法宝和消耗品&lt;br&gt;&lt;/li&gt;&lt;li&gt;4个冒险章节，共60个不同结局&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;耳熟能详的传奇英雄&lt;/h2&gt;&lt;br&gt;每次冒险，你将扮演五位传奇英雄之一，带领最多5人的团队。每个英雄都拥有其独特的能力、75张卡池和特别的故事情节：&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;悟空手持金箍棒，能释放毁灭性的范围攻击，利用七十二变学习任何NPC的技能，能够操纵火焰使敌人燃烧，还可以灵活地闪避攻击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-七十二变-简中.gif?t=1695159944" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;玄奘具有独特的能力，能在敌人身上施加“善”或“恶”的状态，使其转化为自己的队友并创建新的团队，或者释放强大的攻击并创建魔法屏障来保护自己。他还可以利用诅咒卡牌，形成特殊的策略。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-唐僧-简中.gif?t=1695159944" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;白龙他的孪生妹妹龙女的灵魂同行，有着操纵水元素和使用剑阵触发强效增益的能力。他会储存未使用的能量作为灵力，并在需要时进行利用。龙女还有学习同伴卡牌的能力，增强他们的联合力量。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-白龙-简中.gif?t=1695159944" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;八戒可以通过吞噬消耗品获得饥饿值和基础状态提升，利用三十六变能力从敌人身上学习能力，以及在战斗中吸收生命值和最大生命值。另外，当八戒完成“八戒”时，可以最大化自身能力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-八戒-简中.gif?t=1695159944" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;沙僧是一个多才多艺的人物，可以根据敌人的位置增加伤害，并召唤五行妖精（金、木、水、火、土）进入敌人团队。沙僧可以围绕每个妖精的独特能力建立策略，并对敌人发动致命攻击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-沙僧-简中.gif?t=1695159944" /&gt;&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;独特的团队战斗体验&lt;/h2&gt;&lt;br&gt;在这艰难的西行之旅中，你不需要孤军奋战——通过从20多个同伴中招募并召唤NPC作为队友，组建你自己的全明星小队。同伴是拥有独特能力和2-4张卡牌的永久队友，他们将一直跟随你，直到他们死亡或被解雇。而NPC是临时队友，在每场战斗结束时会离开或死亡。&lt;br&gt;&lt;br&gt;游戏中有许多召唤或转换NPC的方法：你可以使用像爱情药水这样的消耗品来吸引NPC到你的身边，或使用净化瓶来净化邪恶的NPC。另外，你还可以使用中立卡牌“人种袋”来捕捉虚弱的NPC。值得一提的是，玄奘是创建NPC队伍的专家。你必须明智地选择你的队友，因为他们在这艰难的旅程中扮演着至关重要的角色。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-魅惑-简中.gif?t=1695159944" /&gt;&lt;h2 class="bb_tag"&gt;沉浸式的西游冒险故事&lt;/h2&gt;&lt;br&gt;每个英雄都有许多独特的故事情节，灵感来自于《西游记》的传说。这些故事情节根据你的选择和策略提供不同的对手、事件和任务。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/视频3.gif?t=1695159944" /&gt;&lt;br&gt;&lt;br&gt;随着西行旅程不断深入，你将遇到超过120个独特的NPC，每个NPC都有自己的技能和背景故事。通过相互关联的事件和选择，每个决策都会带你走向不同的路径，通向天庭、灵山或心魔幻境进行最终的对决。你所采取的每一步都至关重要，决定着世界的命运 - 这是一个真正沉浸式的冒险，从开始到结束都能让你全神贯注。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/视频2.gif?t=1695159944" /&gt;&lt;br&gt;&lt;br&gt;敢问路在何方？路在脚下！这便开始惊心动魄的西游之路吧！</t>
+          <t>《神州志西游》是一款&lt;i&gt;Rogue-like&lt;/i&gt;&lt;i&gt;卡牌策略&lt;/i&gt;&lt;i&gt;游戏&lt;/i&gt;。你将扮演西行的角色之一，组建一支精英团队，构建强大套牌，获取神秘法宝，去战胜一路上遇到的妖魔鬼怪。在旅途中，你会无可避免的遇到突发事件，一念&lt;strong&gt;成佛&lt;/strong&gt;，一念&lt;strong&gt;成魔&lt;/strong&gt;。&lt;br&gt;&lt;br&gt;QQ一群&lt;strong&gt;&lt;u&gt;1003867153&lt;/u&gt;&lt;/strong&gt;（已满），二群&lt;strong&gt;&lt;i&gt;570090261&lt;/i&gt;&lt;/strong&gt;！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/Fishpond_20220311111945.jpg?t=1695498046" /&gt;&lt;h2 class="bb_tag"&gt;游戏特色概述&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 5个英雄角色&lt;br&gt;&lt;/li&gt;&lt;li&gt;20+可招募同伴&lt;br&gt;&lt;/li&gt;&lt;li&gt;120+个独特的NPC&lt;br&gt;&lt;/li&gt;&lt;li&gt;500+张卡牌，300+件法宝和消耗品&lt;br&gt;&lt;/li&gt;&lt;li&gt;4个冒险章节，共60个不同结局&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;耳熟能详的传奇英雄&lt;/h2&gt;&lt;br&gt;每次冒险，你将扮演五位传奇英雄之一，带领最多5人的团队。每个英雄都拥有其独特的能力、75张卡池和特别的故事情节：&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;悟空手持金箍棒，能释放毁灭性的范围攻击，利用七十二变学习任何NPC的技能，能够操纵火焰使敌人燃烧，还可以灵活地闪避攻击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-七十二变-简中.gif?t=1695498046" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;玄奘具有独特的能力，能在敌人身上施加“善”或“恶”的状态，使其转化为自己的队友并创建新的团队，或者释放强大的攻击并创建魔法屏障来保护自己。他还可以利用诅咒卡牌，形成特殊的策略。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-唐僧-简中.gif?t=1695498046" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;白龙他的孪生妹妹龙女的灵魂同行，有着操纵水元素和使用剑阵触发强效增益的能力。他会储存未使用的能量作为灵力，并在需要时进行利用。龙女还有学习同伴卡牌的能力，增强他们的联合力量。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-白龙-简中.gif?t=1695498046" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;八戒可以通过吞噬消耗品获得饥饿值和基础状态提升，利用三十六变能力从敌人身上学习能力，以及在战斗中吸收生命值和最大生命值。另外，当八戒完成“八戒”时，可以最大化自身能力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-八戒-简中.gif?t=1695498046" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;沙僧是一个多才多艺的人物，可以根据敌人的位置增加伤害，并召唤五行妖精（金、木、水、火、土）进入敌人团队。沙僧可以围绕每个妖精的独特能力建立策略，并对敌人发动致命攻击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-沙僧-简中.gif?t=1695498046" /&gt;&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;独特的团队战斗体验&lt;/h2&gt;&lt;br&gt;在这艰难的西行之旅中，你不需要孤军奋战——通过从20多个同伴中招募并召唤NPC作为队友，组建你自己的全明星小队。同伴是拥有独特能力和2-4张卡牌的永久队友，他们将一直跟随你，直到他们死亡或被解雇。而NPC是临时队友，在每场战斗结束时会离开或死亡。&lt;br&gt;&lt;br&gt;游戏中有许多召唤或转换NPC的方法：你可以使用像爱情药水这样的消耗品来吸引NPC到你的身边，或使用净化瓶来净化邪恶的NPC。另外，你还可以使用中立卡牌“人种袋”来捕捉虚弱的NPC。值得一提的是，玄奘是创建NPC队伍的专家。你必须明智地选择你的队友，因为他们在这艰难的旅程中扮演着至关重要的角色。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-魅惑-简中.gif?t=1695498046" /&gt;&lt;h2 class="bb_tag"&gt;沉浸式的西游冒险故事&lt;/h2&gt;&lt;br&gt;每个英雄都有许多独特的故事情节，灵感来自于《西游记》的传说。这些故事情节根据你的选择和策略提供不同的对手、事件和任务。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/视频3.gif?t=1695498046" /&gt;&lt;br&gt;&lt;br&gt;随着西行旅程不断深入，你将遇到超过120个独特的NPC，每个NPC都有自己的技能和背景故事。通过相互关联的事件和选择，每个决策都会带你走向不同的路径，通向天庭、灵山或心魔幻境进行最终的对决。你所采取的每一步都至关重要，决定着世界的命运 - 这是一个真正沉浸式的冒险，从开始到结束都能让你全神贯注。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/视频2.gif?t=1695498046" /&gt;&lt;br&gt;&lt;br&gt;敢问路在何方？路在脚下！这便开始惊心动魄的西游之路吧！</t>
         </is>
       </c>
     </row>
@@ -10368,7 +10368,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -13452,7 +13452,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>关注我们&lt;br&gt;欢迎关注我们的官方社群：&lt;br&gt;游戏便当QQ群①：287356527【已满】&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569&lt;br&gt;&lt;br&gt;欢迎各位战棋游戏爱好者来到《建安外史》的故事。这是一款非常传统的回合制战棋游戏。相信喜爱战棋游戏的玩家，都能在这款游戏中找到您想找到的乐趣。&lt;br&gt;&lt;br&gt;本作的游戏进程分为“剧情模式”和“战斗模式”。在剧情模式下，您可以欣赏到合乎汉末历史逻辑的，极其详尽的历史故事。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1973610/extras/1.jpg?t=1683713761" /&gt;&lt;br&gt;&lt;br&gt;本作不是真实的历史，本作没有“桃园结义”、“三英战吕布”、“温酒斩华雄”等熟知而老套的三国演义剧情，但我们的故事描写遵循《三国志》、《资治通鉴》、《后汉书》等历史文献的记载，并将其合理的虚构和扩展。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1973610/extras/2.jpg?t=1683713761" /&gt;&lt;br&gt;&lt;br&gt;在传统的回合制战斗模式下，我们也做了大量新鲜的、有趣的尝试和变化，“迷雾系统”、“天气系统”、“时辰变化系统”等等，为传统的战棋玩法加入了不少新意。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1973610/extras/3.jpg?t=1683713761" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1973610/extras/4.jpg?t=1683713761" /&gt;&lt;br&gt;&lt;br&gt;有趣的战场完成度系统和成就系统，表现了您对战场的掌控力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1973610/extras/5.jpg?t=1683713761" /&gt;&lt;br&gt;&lt;br&gt;“人物图鉴”、“宝物图鉴”、“传说图鉴”、“名词鉴赏”、“音乐鉴赏”等收集内容，是强迫症朋友的最大乐趣。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1973610/extras/6.jpg?t=1683713761" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1973610/extras/7.jpg?t=1683713761" /&gt;&lt;br&gt;&lt;br&gt;想欣赏一个完全不一样的三国故事，或者想满足您对回合制战棋游戏的怀旧情怀？《建安外史》是您最好的选择。</t>
+          <t>关注我们&lt;br&gt;欢迎关注我们的官方社群：&lt;br&gt;游戏便当QQ群①：287356527【已满】&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569&lt;br&gt;&lt;br&gt;欢迎各位战棋游戏爱好者来到《建安外史》的故事。这是一款非常传统的回合制战棋游戏。相信喜爱战棋游戏的玩家，都能在这款游戏中找到您想找到的乐趣。&lt;br&gt;&lt;br&gt;本作的游戏进程分为“剧情模式”和“战斗模式”。在剧情模式下，您可以欣赏到合乎汉末历史逻辑的，极其详尽的历史故事。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1973610/extras/1.jpg?t=1695541067" /&gt;&lt;br&gt;&lt;br&gt;本作不是真实的历史，本作没有“桃园结义”、“三英战吕布”、“温酒斩华雄”等熟知而老套的三国演义剧情，但我们的故事描写遵循《三国志》、《资治通鉴》、《后汉书》等历史文献的记载，并将其合理的虚构和扩展。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1973610/extras/2.jpg?t=1695541067" /&gt;&lt;br&gt;&lt;br&gt;在传统的回合制战斗模式下，我们也做了大量新鲜的、有趣的尝试和变化，“迷雾系统”、“天气系统”、“时辰变化系统”等等，为传统的战棋玩法加入了不少新意。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1973610/extras/3.jpg?t=1695541067" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1973610/extras/4.jpg?t=1695541067" /&gt;&lt;br&gt;&lt;br&gt;有趣的战场完成度系统和成就系统，表现了您对战场的掌控力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1973610/extras/5.jpg?t=1695541067" /&gt;&lt;br&gt;&lt;br&gt;“人物图鉴”、“宝物图鉴”、“传说图鉴”、“名词鉴赏”、“音乐鉴赏”等收集内容，是强迫症朋友的最大乐趣。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1973610/extras/6.jpg?t=1695541067" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1973610/extras/7.jpg?t=1695541067" /&gt;&lt;br&gt;&lt;br&gt;想欣赏一个完全不一样的三国故事，或者想满足您对回合制战棋游戏的怀旧情怀？《建安外史》是您最好的选择。</t>
         </is>
       </c>
     </row>
@@ -13848,7 +13848,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
@@ -14006,7 +14006,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>冒险,战斗,类银河战士恶魔城,类魂系列,横向滚屏</t>
+          <t>冒险,战斗,类银河战士恶魔城,类魂系列,2D 平台</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2670,7 +2670,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>动作,跑酷,多人,僵尸,欢乐</t>
+          <t>动作,跑酷,僵尸,多人,欢乐</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3155,7 +3155,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>&lt;a href="https://store.steampowered.com/app/1111840" target="_blank" rel=""  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/urbex.png?t=1695479418" /&gt;&lt;/a&gt;&lt;a href="https://store.steampowered.com/app/864700/" target="_blank" rel=""  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/dino.png?t=1695479418" /&gt;&lt;/a&gt;&lt;a href="https://store.steampowered.com/app/864680/" target="_blank" rel=""  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/rms.png?t=1695479418" /&gt;&lt;/a&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/hl_line.png?t=1695479418" /&gt;&lt;h2 class="bb_tag"&gt;《占领火星》是一款复杂的开放世界沙盒生存游戏，适合该类型游戏的粉丝。&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/hl_line.png?t=1695479418" /&gt;&lt;br&gt;&lt;a href="https://steamcommunity.com/app/758690/discussions/0/6274121610015372635/" target="_blank" rel=""  &gt;Video Guide&lt;/a&gt; | &lt;a href="https://steamcommunity.com/app/758690/discussions/0/3828665107795840880/" target="_blank" rel=""  &gt;Colonist FAQ&lt;/a&gt; | &lt;a href="https://steamcommunity.com/app/758690/discussions/0/1749021365362863747/" target="_blank" rel=""  &gt;Troubleshooting FAQ&lt;/a&gt; | &lt;a href="https://steamcommunity.com/linkfilter/?url=https://occupymars.fandom.com/wiki/Occupy_Mars:_The_Game_Wiki" target="_blank" rel=" noopener"  &gt;Wiki&lt;/a&gt; | &lt;a href="https://steamcommunity.com/linkfilter/?url=https://roadmap.occupymarsgame.com/#/occupymars" target="_blank" rel=" noopener"  &gt;Roadmap&lt;/a&gt; | &lt;a href="https://steamcommunity.com/app/758690/discussions/0/3130541756137068835/" target="_blank" rel=""  &gt;TightBeam&lt;/a&gt; | &lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/sv9UWeh" target="_blank" rel=" noopener"  &gt;Discord&lt;/a&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/hl_line.png?t=1695479418" /&gt;&lt;br&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/sv9UWeh" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/join-discord.png?t=1695479418" /&gt;&lt;/a&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://roadmap.occupymarsgame.com/#/occupymars" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/ea-roadmap.png?t=1695479418" /&gt;&lt;/a&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/hl_line.png?t=1695479418" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;Occupy Mars&lt;/strong&gt; 《占领火星》 是一款关于火星殖民的开放世界科幻游戏。&lt;br&gt;玩家在游戏中建造和升级自己的基地。游戏的目的是学习如何在火星上生存。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/a-build1.jpg?t=1695479418" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;关于这款游戏&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/a-electricity.jpg?t=1695479418" /&gt;&lt;br&gt;&lt;br&gt;玩家在《占领火星》可以建造和升级自己的基地，也可以发现新的地区，以及进行采矿操作。为了在火星上生存下来，玩家必须生产出氧气，种植作物等等。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/a-crops.jpg?t=1695479418" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;游戏特色&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/a-explore.jpg?t=1695479418" /&gt;&lt;br&gt;&lt;br&gt;你有没有去火星上的梦？我们做了这样的梦！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/a-mine.jpg?t=1695479418" /&gt;&lt;br&gt;&lt;br&gt;因为在火星上，可以看见壮观的无限风光，以及探索未知的地形。并且可以创造新的技术。我们认为人类可以成为多星球文明。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/a-vehicle2.jpg?t=1695479418" /&gt;&lt;br&gt;&lt;br&gt;建立了自己的基地以后，特别重要的是确保有足够的水，氧气，电力和食物来生存。 玩家也必须建造温室，燃料发电机等等。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/a-survive.jpg?t=1695479418" /&gt;&lt;br&gt;&lt;br&gt;玩家同时碰到各种困难并危险，包括说爆炸发生在火星上，还有夜里时气温降低了。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/Follow.gif?t=1695479418" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;相关游戏&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/hl_line.png?t=1695479418" /&gt;&lt;br&gt;免费的《占领火星》: &lt;a href="https://store.steampowered.com/app/1310520/Occupy_Mars_Prologue_2020/" target="_blank" rel=""  &gt;2020年的序幕&lt;/a&gt;: &lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1310520/Occupy_Mars_Prologue_2020/" target="_blank" rel=""  id="dynamiclink_3" &gt;https://store.steampowered.com/app/1310520/Occupy_Mars_Prologue_2020/&lt;/a&gt;&lt;br&gt;我们以前的游戏 &lt;a href="https://store.steampowered.com/app/864680/" target="_blank" rel=""  &gt;Rover Mechanic Simulator&lt;/a&gt; 设置在同一个Occupy Mars Universe：&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/864680/" target="_blank" rel=""  id="dynamiclink_4" &gt;https://store.steampowered.com/app/864680/&lt;/a&gt;</t>
+          <t>&lt;a href="https://store.steampowered.com/app/1111840" target="_blank" rel=""  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/urbex.png?t=1695495293" /&gt;&lt;/a&gt;&lt;a href="https://store.steampowered.com/app/864700/" target="_blank" rel=""  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/dino.png?t=1695495293" /&gt;&lt;/a&gt;&lt;a href="https://store.steampowered.com/app/864680/" target="_blank" rel=""  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/rms.png?t=1695495293" /&gt;&lt;/a&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/hl_line.png?t=1695495293" /&gt;&lt;h2 class="bb_tag"&gt;《占领火星》是一款复杂的开放世界沙盒生存游戏，适合该类型游戏的粉丝。&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/hl_line.png?t=1695495293" /&gt;&lt;br&gt;&lt;a href="https://steamcommunity.com/app/758690/discussions/0/6274121610015372635/" target="_blank" rel=""  &gt;Video Guide&lt;/a&gt; | &lt;a href="https://steamcommunity.com/app/758690/discussions/0/3828665107795840880/" target="_blank" rel=""  &gt;Colonist FAQ&lt;/a&gt; | &lt;a href="https://steamcommunity.com/app/758690/discussions/0/1749021365362863747/" target="_blank" rel=""  &gt;Troubleshooting FAQ&lt;/a&gt; | &lt;a href="https://steamcommunity.com/linkfilter/?url=https://occupymars.fandom.com/wiki/Occupy_Mars:_The_Game_Wiki" target="_blank" rel=" noopener"  &gt;Wiki&lt;/a&gt; | &lt;a href="https://steamcommunity.com/linkfilter/?url=https://roadmap.occupymarsgame.com/#/occupymars" target="_blank" rel=" noopener"  &gt;Roadmap&lt;/a&gt; | &lt;a href="https://steamcommunity.com/app/758690/discussions/0/3130541756137068835/" target="_blank" rel=""  &gt;TightBeam&lt;/a&gt; | &lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/sv9UWeh" target="_blank" rel=" noopener"  &gt;Discord&lt;/a&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/hl_line.png?t=1695495293" /&gt;&lt;br&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/sv9UWeh" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/join-discord.png?t=1695495293" /&gt;&lt;/a&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://roadmap.occupymarsgame.com/#/occupymars" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/ea-roadmap.png?t=1695495293" /&gt;&lt;/a&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/hl_line.png?t=1695495293" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;Occupy Mars&lt;/strong&gt; 《占领火星》 是一款关于火星殖民的开放世界科幻游戏。&lt;br&gt;玩家在游戏中建造和升级自己的基地。游戏的目的是学习如何在火星上生存。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/a-build1.jpg?t=1695495293" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;关于这款游戏&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/a-electricity.jpg?t=1695495293" /&gt;&lt;br&gt;&lt;br&gt;玩家在《占领火星》可以建造和升级自己的基地，也可以发现新的地区，以及进行采矿操作。为了在火星上生存下来，玩家必须生产出氧气，种植作物等等。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/a-crops.jpg?t=1695495293" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;游戏特色&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/a-explore.jpg?t=1695495293" /&gt;&lt;br&gt;&lt;br&gt;你有没有去火星上的梦？我们做了这样的梦！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/a-mine.jpg?t=1695495293" /&gt;&lt;br&gt;&lt;br&gt;因为在火星上，可以看见壮观的无限风光，以及探索未知的地形。并且可以创造新的技术。我们认为人类可以成为多星球文明。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/a-vehicle2.jpg?t=1695495293" /&gt;&lt;br&gt;&lt;br&gt;建立了自己的基地以后，特别重要的是确保有足够的水，氧气，电力和食物来生存。 玩家也必须建造温室，燃料发电机等等。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/a-survive.jpg?t=1695495293" /&gt;&lt;br&gt;&lt;br&gt;玩家同时碰到各种困难并危险，包括说爆炸发生在火星上，还有夜里时气温降低了。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/Follow.gif?t=1695495293" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;相关游戏&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/758690/extras/hl_line.png?t=1695495293" /&gt;&lt;br&gt;免费的《占领火星》: &lt;a href="https://store.steampowered.com/app/1310520/Occupy_Mars_Prologue_2020/" target="_blank" rel=""  &gt;2020年的序幕&lt;/a&gt;: &lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1310520/Occupy_Mars_Prologue_2020/" target="_blank" rel=""  id="dynamiclink_3" &gt;https://store.steampowered.com/app/1310520/Occupy_Mars_Prologue_2020/&lt;/a&gt;&lt;br&gt;我们以前的游戏 &lt;a href="https://store.steampowered.com/app/864680/" target="_blank" rel=""  &gt;Rover Mechanic Simulator&lt;/a&gt; 设置在同一个Occupy Mars Universe：&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/864680/" target="_blank" rel=""  id="dynamiclink_4" &gt;https://store.steampowered.com/app/864680/&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>开放世界,角色扮演,历史,动作,单人</t>
+          <t>开放世界,角色扮演,历史,单人,动作</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6155,7 +6155,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>动作,冒险,多人,角色扮演,超级英雄</t>
+          <t>动作,冒险,角色扮演,多人,超级英雄</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -8053,7 +8053,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=http://discord.gg/carteltycoon" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/Discord_Banner_1.png?t=1695400774" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;《Cartel Tycoon》以虚构的80年代拉丁美洲为背景，描绘出由可卡因主宰美国乃至全世界的时代图景。富得流油的毒枭们统治着他们的辉煌帝国，在创造了数千个就业机会的同时，也令这个道德沦丧的世界充斥着暴力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/CartelTycoon-Communication.gif?t=1695400774" /&gt;&lt;br&gt;&lt;br&gt;建立起生产毒品并拥有走私链的帝国，同时还要管理好地痞副手，处理好有关当局以及公众舆论的关系。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/Police.gif?t=1695400774" /&gt;&lt;br&gt;&lt;br&gt;敌对帮派、缉毒局、军方甚至中情局都对你不断增长的业务构成威胁。死亡在所难免，但这并不是终点。当你死后（对毒枭来说，从来没有真正的好结局），你将以继承者身份加冕，并在废墟上重新建立你的帝国。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/oct21_CopterV2.gif?t=1695400774" /&gt;&lt;br&gt;&lt;br&gt;在《Cartel Tycoon》中，失败是无法避免的，暴力只会带来更多的暴力——但是那些狡猾的毒枭眼中看到的更多是利润。&lt;h2 class="bb_tag"&gt;多种游戏模式总有一种适合你&lt;/h2&gt;&lt;br&gt;故事模式适合想要沉浸到数十小时引人入胜的游戏世界中的玩家。硬核永久死亡模式模式适合喜欢挑战的玩家。高度自定义的沙盒模式则为想要按照自己的规则进行游戏的玩家而准备！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/cars_small.png?t=1695400774" /&gt;&lt;br&gt;&lt;br&gt;Key features&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;发展你的帝国。&lt;/strong&gt;将简陋的农业经营发展成一个庞大的物流系统，包括种植园、实验室、航空港等。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;用自己的方式统治。&lt;/strong&gt;数十条升级路径，无数的策略组合，面对如此巨大的规模施展你超高的经营手腕。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;死亡不可避免。&lt;/strong&gt;当你的老大没落时，提拔一个独特的副手来接管你的生意并继续壮大你的卡特尔。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;每件事，每个人，都有价格。&lt;/strong&gt;清洗你辛苦赚来的钱来发展你的帝国，维护你副手的忠诚度，贿赂腐败的政客。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;捍卫自己所得。&lt;/strong&gt;在获利之路上规避有关当局，并与卡特尔同行竞争。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;无尽的可重玩性。&lt;/strong&gt;几十个独特的角色，无限制的沙盒游戏玩法，可随心所欲探索的动态叙事系统。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;原声大碟捕捉时代迷幻色彩，尽显拉美风情。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/Comp_64.gif?t=1695400774" /&gt;</t>
+          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=http://discord.gg/carteltycoon" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/Discord_Banner_1.png?t=1695645614" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;《Cartel Tycoon》以虚构的80年代拉丁美洲为背景，描绘出由可卡因主宰美国乃至全世界的时代图景。富得流油的毒枭们统治着他们的辉煌帝国，在创造了数千个就业机会的同时，也令这个道德沦丧的世界充斥着暴力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/CartelTycoon-Communication.gif?t=1695645614" /&gt;&lt;br&gt;&lt;br&gt;建立起生产毒品并拥有走私链的帝国，同时还要管理好地痞副手，处理好有关当局以及公众舆论的关系。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/Police.gif?t=1695645614" /&gt;&lt;br&gt;&lt;br&gt;敌对帮派、缉毒局、军方甚至中情局都对你不断增长的业务构成威胁。死亡在所难免，但这并不是终点。当你死后（对毒枭来说，从来没有真正的好结局），你将以继承者身份加冕，并在废墟上重新建立你的帝国。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/oct21_CopterV2.gif?t=1695645614" /&gt;&lt;br&gt;&lt;br&gt;在《Cartel Tycoon》中，失败是无法避免的，暴力只会带来更多的暴力——但是那些狡猾的毒枭眼中看到的更多是利润。&lt;h2 class="bb_tag"&gt;多种游戏模式总有一种适合你&lt;/h2&gt;&lt;br&gt;故事模式适合想要沉浸到数十小时引人入胜的游戏世界中的玩家。硬核永久死亡模式模式适合喜欢挑战的玩家。高度自定义的沙盒模式则为想要按照自己的规则进行游戏的玩家而准备！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/cars_small.png?t=1695645614" /&gt;&lt;br&gt;&lt;br&gt;Key features&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;发展你的帝国。&lt;/strong&gt;将简陋的农业经营发展成一个庞大的物流系统，包括种植园、实验室、航空港等。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;用自己的方式统治。&lt;/strong&gt;数十条升级路径，无数的策略组合，面对如此巨大的规模施展你超高的经营手腕。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;死亡不可避免。&lt;/strong&gt;当你的老大没落时，提拔一个独特的副手来接管你的生意并继续壮大你的卡特尔。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;每件事，每个人，都有价格。&lt;/strong&gt;清洗你辛苦赚来的钱来发展你的帝国，维护你副手的忠诚度，贿赂腐败的政客。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;捍卫自己所得。&lt;/strong&gt;在获利之路上规避有关当局，并与卡特尔同行竞争。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;无尽的可重玩性。&lt;/strong&gt;几十个独特的角色，无限制的沙盒游戏玩法，可随心所欲探索的动态叙事系统。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;原声大碟捕捉时代迷幻色彩，尽显拉美风情。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1220140/extras/Comp_64.gif?t=1695645614" /&gt;</t>
         </is>
       </c>
     </row>
@@ -9562,7 +9562,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>农场模拟,像素图形,多人,角色扮演,生活模拟</t>
+          <t>农场模拟,多人,像素图形,角色扮演,生活模拟</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -10020,6 +10020,11 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
       <c r="G224" t="inlineStr">
         <is>
           <t>2021年12月22日</t>
@@ -12096,7 +12101,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;关注我们&lt;/strong&gt;&lt;br&gt;欢迎关注我们的官方社群：&lt;br&gt;《漂流佣兵》玩家Q群：583314686&lt;br&gt;游戏便当QQ群①：287356527【已满】&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569&lt;br&gt;游戏便当QQ群④：909356067&lt;br&gt;&lt;br&gt;&lt;strong&gt;《漂流佣兵》是一款融合了卡牌策略和弹珠弹射玩法的游戏。&lt;/strong&gt;&lt;br&gt;-玩家可以在随机生成的地牢和城镇间探索，冒险，交易，招募佣兵。&lt;br&gt;-作为佣兵团长，带领精心挑选的伙伴们，在这个动荡的异世界生存下去。&lt;br&gt;&lt;strong&gt;正式版已开启卡牌掉落！快来兑换你最心仪的佣兵妹子的Steam背景及头像吧！&lt;/strong&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p.gif?t=1695381085" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p5.jpg?t=1695381085" /&gt;&lt;br&gt;团长可以穿梭于异世界的各个城镇：皮魔镇，群山环绕景色宜人，打铁声络绎不绝；乱雾村，盛行树屋建筑，树木林立，小桥流水，宜居的不二选择……城镇的“奇遇”“事 &lt;br&gt;件”还能助团长邂逅不同的佣兵，邀请他们组建最强佣兵团！训练佣兵提升技能，为他们购买装备提升实力，一起冒险奇妙异世界。&lt;br&gt;&lt;strong&gt;正式版中全部主要角色已搭载动态立绘！&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/1d.gif?t=1695381085" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p4.jpg?t=1695381085" /&gt;&lt;br&gt;在异世界不断邂逅美女伙伴！不同装扮、不同性格甚至是不同种族，总有一款对你胃口。能变装以蛊惑人心的新生魅魔、拥有强大战力但喜爱黏人的骑士长、逃离少爷之手又酷爱冒险的战斗女仆......或许多逛逛酒馆还可能打听到有关于她们的传闻哦~&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/xin.jpg?t=1695381085" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p1.jpg?t=1695381085" /&gt;&lt;br&gt;每位角色都将化身一颗弹珠，轻轻拉出基准线，弹射后即可战斗！强大的团长还将通过基准线，预判力道和路径，弹射更多的怪物。角色之间还能相互影响弹射效果，利用联动机制打出爽快的连击！ &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/3d.gif?t=1695381085" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p2.jpg?t=1695381085" /&gt;&lt;br&gt;每一次异世界的冒险，团长都可以带着自己组建的强大佣兵团伙伴，体验每一个周目不同的战斗体验。每次协同战斗都有不同的战斗体验，哪个组合才是消灭魔王的最佳组合，等你来探索！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/4d.gif?t=1695381085" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p3.jpg?t=1695381085" /&gt;&lt;br&gt;异世界也散落了许多技能卡片，攻击、防御、buff牌各式各样，收集并构筑出属于自己的流派。配合弹射打出深度策略！当然，偶尔也会拿到不合适的卡片，有所取舍才能使卡组更强大。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/5d.gif?t=1695381085" /&gt;&lt;h2 class="bb_tag"&gt;关于【开发者】&lt;/h2&gt;&lt;br&gt;作者是个Solo开发的死宅。&lt;br&gt;&lt;br&gt;希望通过构筑这个游戏，与广大穿越者一起完成心中的奇幻异世界梦想。&lt;br&gt;&lt;br&gt;游戏若有不足，希望大家理解，作者会尽力完善。如果您喜欢，还希望您给个好评支持，也希望可以推荐给您的朋友。</t>
+          <t>&lt;strong&gt;关注我们&lt;/strong&gt;&lt;br&gt;欢迎关注我们的官方社群：&lt;br&gt;《漂流佣兵》玩家Q群：583314686&lt;br&gt;游戏便当QQ群①：287356527&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569【已满】&lt;br&gt;游戏便当QQ群④：909356067&lt;br&gt;&lt;br&gt;&lt;strong&gt;《漂流佣兵》是一款融合了卡牌策略和弹珠弹射玩法的游戏。&lt;/strong&gt;&lt;br&gt;-玩家可以在随机生成的地牢和城镇间探索，冒险，交易，招募佣兵。&lt;br&gt;-作为佣兵团长，带领精心挑选的伙伴们，在这个动荡的异世界生存下去。&lt;br&gt;&lt;strong&gt;正式版已开启卡牌掉落！快来兑换你最心仪的佣兵妹子的Steam背景及头像吧！&lt;/strong&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p.gif?t=1695573380" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p5.jpg?t=1695573380" /&gt;&lt;br&gt;团长可以穿梭于异世界的各个城镇：皮魔镇，群山环绕景色宜人，打铁声络绎不绝；乱雾村，盛行树屋建筑，树木林立，小桥流水，宜居的不二选择……城镇的“奇遇”“事 &lt;br&gt;件”还能助团长邂逅不同的佣兵，邀请他们组建最强佣兵团！训练佣兵提升技能，为他们购买装备提升实力，一起冒险奇妙异世界。&lt;br&gt;&lt;strong&gt;正式版中全部主要角色已搭载动态立绘！&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/1d.gif?t=1695573380" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p4.jpg?t=1695573380" /&gt;&lt;br&gt;在异世界不断邂逅美女伙伴！不同装扮、不同性格甚至是不同种族，总有一款对你胃口。能变装以蛊惑人心的新生魅魔、拥有强大战力但喜爱黏人的骑士长、逃离少爷之手又酷爱冒险的战斗女仆......或许多逛逛酒馆还可能打听到有关于她们的传闻哦~&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/xin.jpg?t=1695573380" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p1.jpg?t=1695573380" /&gt;&lt;br&gt;每位角色都将化身一颗弹珠，轻轻拉出基准线，弹射后即可战斗！强大的团长还将通过基准线，预判力道和路径，弹射更多的怪物。角色之间还能相互影响弹射效果，利用联动机制打出爽快的连击！ &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/3d.gif?t=1695573380" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p2.jpg?t=1695573380" /&gt;&lt;br&gt;每一次异世界的冒险，团长都可以带着自己组建的强大佣兵团伙伴，体验每一个周目不同的战斗体验。每次协同战斗都有不同的战斗体验，哪个组合才是消灭魔王的最佳组合，等你来探索！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/4d.gif?t=1695573380" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p3.jpg?t=1695573380" /&gt;&lt;br&gt;异世界也散落了许多技能卡片，攻击、防御、buff牌各式各样，收集并构筑出属于自己的流派。配合弹射打出深度策略！当然，偶尔也会拿到不合适的卡片，有所取舍才能使卡组更强大。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/5d.gif?t=1695573380" /&gt;&lt;h2 class="bb_tag"&gt;关于【开发者】&lt;/h2&gt;&lt;br&gt;作者是个Solo开发的死宅。&lt;br&gt;&lt;br&gt;希望通过构筑这个游戏，与广大穿越者一起完成心中的奇幻异世界梦想。&lt;br&gt;&lt;br&gt;游戏若有不足，希望大家理解，作者会尽力完善。如果您喜欢，还希望您给个好评支持，也希望可以推荐给您的朋友。</t>
         </is>
       </c>
     </row>
@@ -12789,7 +12794,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>机甲,动作,角色自定义,第三人称,机器人</t>
+          <t>机甲,角色自定义,动作,第三人称,机器人</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -13318,7 +13323,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.3</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
@@ -14058,7 +14063,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
@@ -14964,7 +14969,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
@@ -15090,7 +15095,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x346_ch_s.jpg?t=1695298276" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_1.png?t=1695298276" /&gt;&lt;br&gt;&lt;br&gt;《拯救：卫兵》是一款快节奏的轻度类Rogue自动射击游戏，背景世界与游戏《拯救》相同。一百多年前，灰色瘟疫肆虐，大部分人类都变成了凶恶的变种生物。这片土地如今被死亡和混乱笼罩，只有少数城市仍然屹立不倒。&lt;br&gt;&lt;br&gt;你将操控炼金术士创造的一个卫兵，肩负唯一的使命——只要你的反应堆还在运转，就竭力保卫城市，抵挡变种生物无尽的袭击。组合物品和炼金元素，不断获取新的武器，打造独特的构筑！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/saw-1_new.gif?t=1695298276" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_2.png?t=1695298276" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;易于上手，难以精通&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;巧妙操控卫兵突破致命变种生物的包围，利用它的武器将敌人消灭！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;收集原质，提升守卫的性能&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/Desktop_2023.02.10_-_14.46.11.13_3.gif?t=1695298276" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;组合武器和物品，赋予它们全新的元素效果&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;卫兵反应堆的能量耗尽之前，一定不能牺牲！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;面对并击败强大的头目&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;完成数十项挑战，解锁全新的能力&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/Choose_your_Sentinel.gif?t=1695298276" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;炼金术创造的各类枪械和技能供你选择&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;灵活升级或精心打造角色构筑，以对抗特性和抗性不同的变种怪物&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;坚持得越久，你就越强大。不断获得技能、武器，不断击败敌人。简而言之，游戏超级耐玩！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_3.png?t=1695298276" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/2244480/REMEDIUM_Sentinels/" target="_blank" rel=""  id="dynamiclink_3" &gt;https://store.steampowered.com/app/2244480/REMEDIUM_Sentinels/&lt;/a&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x346_ch_s.jpg?t=1695652136" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_1.png?t=1695652136" /&gt;&lt;br&gt;&lt;br&gt;《拯救：卫兵》是一款快节奏的轻度类Rogue自动射击游戏，背景世界与游戏《拯救》相同。一百多年前，灰色瘟疫肆虐，大部分人类都变成了凶恶的变种生物。这片土地如今被死亡和混乱笼罩，只有少数城市仍然屹立不倒。&lt;br&gt;&lt;br&gt;你将操控炼金术士创造的一个卫兵，肩负唯一的使命——只要你的反应堆还在运转，就竭力保卫城市，抵挡变种生物无尽的袭击。组合物品和炼金元素，不断获取新的武器，打造独特的构筑！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/saw-1_new.gif?t=1695652136" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_2.png?t=1695652136" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;易于上手，难以精通&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;巧妙操控卫兵突破致命变种生物的包围，利用它的武器将敌人消灭！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;收集原质，提升守卫的性能&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/Desktop_2023.02.10_-_14.46.11.13_3.gif?t=1695652136" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;组合武器和物品，赋予它们全新的元素效果&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;卫兵反应堆的能量耗尽之前，一定不能牺牲！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;面对并击败强大的头目&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;完成数十项挑战，解锁全新的能力&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/Choose_your_Sentinel.gif?t=1695652136" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;炼金术创造的各类枪械和技能供你选择&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;灵活升级或精心打造角色构筑，以对抗特性和抗性不同的变种怪物&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;坚持得越久，你就越强大。不断获得技能、武器，不断击败敌人。简而言之，游戏超级耐玩！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_3.png?t=1695652136" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/2244480/REMEDIUM_Sentinels/" target="_blank" rel=""  id="dynamiclink_3" &gt;https://store.steampowered.com/app/2244480/REMEDIUM_Sentinels/&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -15127,7 +15132,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>在《双面教父》中，你明面上是一名餐厅老板，但暗地里同时还是黑手党集团的首领。你将发号施令，指挥手下进行抢劫、讨债、甚至偷取艺术品和威胁警察等勾当。然而，你同样需要巧妙经营你的餐厅，雇佣员工，展开广告宣传，时刻警惕那些可能干扰你经营的意外事件。你能否在黑白两道之间取得平衡？又能否带领你的家族走向辉煌？&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-15-SC1.png?t=1695383948" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;“我不喜欢暴力，汤姆，我是个商人。”&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;&lt;br&gt;持续升级发展和改善你的餐厅。购置更多桌椅，确保每个踏入你门的客人都能得到舒适体验。通过巧妙的广告，将你的名字传遍大街小巷，吸引更多食客，赚取合法收入。然而，请牢记，客流量的增加意味着需要雇佣更多员工来提供服务。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-155_1.gif?t=1695383948" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-15-SC2.png?t=1695383948" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;“我会给他一个他无法拒绝的提议。”&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;&lt;br&gt;你的手下大多数是黑帮打手。将他们派遣到不同区域，从事各类犯罪活动。从银行抢劫到暴力催债，从威胁警察到控制城市街区，你的黑帮组织将操控整个城市的格局，并赚回大量的“黑钱”。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-155_2.gif?t=1695383948" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-15-SC3.png?t=1695383948" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;“永远不要憎恨你的敌人，那会影响你的判断力。”&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;&lt;br&gt;经营游戏部分采用卡牌机制，你需要审慎使用和丢弃手中的卡牌。一些卡牌上标有小铃铛标志，意味着将会有事件加入与铃铛匹配的进度栏中。一旦事件被触发，其影响将直接决定你的生意前途。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-155_3.gif?t=1695383948" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-15-SC4.png?t=1695383948" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;“别问我关于我的生意，凯。”&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;&lt;br&gt;通过经营你的餐厅事业，你可以将“灰色收入”洗白合法化。但随着收入增加，警方对你的关注也会逐渐加深。一旦触发警方警戒线，你将面临被逮捕的风险。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-155_4.gif?t=1695383948" /&gt;</t>
+          <t>在《双面教父》中，你明面上是一名餐厅老板，但暗地里同时还是黑手党集团的首领。你将发号施令，指挥手下进行抢劫、讨债、甚至偷取艺术品和威胁警察等勾当。然而，你同样需要巧妙经营你的餐厅，雇佣员工，展开广告宣传，时刻警惕那些可能干扰你经营的意外事件。你能否在黑白两道之间取得平衡？又能否带领你的家族走向辉煌？&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-15-SC1.png?t=1695633293" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;“我不喜欢暴力，汤姆，我是个商人。”&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;&lt;br&gt;持续升级发展和改善你的餐厅。购置更多桌椅，确保每个踏入你门的客人都能得到舒适体验。通过巧妙的广告，将你的名字传遍大街小巷，吸引更多食客，赚取合法收入。然而，请牢记，客流量的增加意味着需要雇佣更多员工来提供服务。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-155_1.gif?t=1695633293" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-15-SC2.png?t=1695633293" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;“我会给他一个他无法拒绝的提议。”&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;&lt;br&gt;你的手下大多数是黑帮打手。将他们派遣到不同区域，从事各类犯罪活动。从银行抢劫到暴力催债，从威胁警察到控制城市街区，你的黑帮组织将操控整个城市的格局，并赚回大量的“黑钱”。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-155_2.gif?t=1695633293" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-15-SC3.png?t=1695633293" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;“永远不要憎恨你的敌人，那会影响你的判断力。”&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;&lt;br&gt;经营游戏部分采用卡牌机制，你需要审慎使用和丢弃手中的卡牌。一些卡牌上标有小铃铛标志，意味着将会有事件加入与铃铛匹配的进度栏中。一旦事件被触发，其影响将直接决定你的生意前途。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-155_3.gif?t=1695633293" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-15-SC4.png?t=1695633293" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;“别问我关于我的生意，凯。”&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;&lt;br&gt;通过经营你的餐厅事业，你可以将“灰色收入”洗白合法化。但随着收入增加，警方对你的关注也会逐渐加深。一旦触发警方警戒线，你将面临被逮捕的风险。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2247570/extras/DOD-155_4.gif?t=1695633293" /&gt;</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -3498,7 +3498,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://space.bilibili.com/1330488527/" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/534380/extras/BiliBili_v2.gif?t=1695382874" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;距离第一部游戏的故事已经过去了20年，病毒占了上风，人类正逐渐走向死亡。你将扮演艾登·克拉德威尔，一个漫游者，负责运送货物和传递消息，在被丧尸病毒摧毁的荒芜世界中，保持着与仅存的几个生存者聚居点的联系。然而，你的真正目标是找到妹妹米娅。过去，为了逃离华尔兹博士的痛苦实验，你曾经离开了还是孩童的她。这段过去一直在你心中挥之不去，当你听说米娅可能还活着，并且居住在地球上最后一座城市维勒多时，你终于下定决心直面这一切。&lt;br&gt;&lt;br&gt;不久后，你发现自己身处一个冲突不断的聚居点。你需要参与新奇而残酷的战斗，不断磨砺自己的技能，击败成群的丧尸，并与其他人结盟。你将在城市中漫游，在维勒多的建筑和屋顶上自由奔跑，搜寻偏远地区的战利品，并在夜晚时保持警惕。每当太阳西沉，怪物就会占领所有街道。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/534380/extras/dl_2_sh_steam.gif?t=1695382874" /&gt;&lt;h2 class="bb_tag"&gt;末日后的世界&lt;/h2&gt;15年前，人类经历了一场大陷落，这场灾难永远改变了世界。哈兰病毒迅速在全球蔓延，人们很快发现，所有的希望都破灭了。到了2036年，只有为数不多的聚居地存留于世，而人类正在逐渐走向死亡，为无情的新物种——成群结队的丧尸——让路。&lt;h2 class="bb_tag"&gt;白天属于活人，夜晚属于死者&lt;/h2&gt;欢迎来到维勒多，人类最后的堡垒之一。白天，生存者仍然努力在这里生活，寻求一种虚假的正常感。他们建立关系，追逐梦想，让生活继续。表面上看，一切似乎……不错。然而，当日落时分到来，最后一束阳光消失，城市中更可怕的居民将从他们阴暗的巢穴中爬出，占领街道。如果你在黑暗中停留太久，不提高警觉，就可能永远无法回家。&lt;h2 class="bb_tag"&gt;你必须不停移动才能存活&lt;/h2&gt;你不可能赢得所有的战斗。有时候，逃跑才是上策。幸运的是，你正好有这样的技巧。当你陷入危机，跑酷让你顺利逃脱。从一个屋顶跳到另一个屋顶，飞荡着穿过不同的城市景观，利用滑索等等。无论你做什么，当你在维勒多的建筑和屋顶上自由奔跑，寻找战利品或逃离夜晚的危险时，都会体验到独一无二的自由感。&lt;h2 class="bb_tag"&gt;变得残暴，并发挥创造力&lt;/h2&gt;在这个危险的世界中，只有最强者才能生存。无论你是喜欢粉碎、切割还是肢解挡在你面前的敌人，你都必须发挥创造力才能度过难关。而且，谁说你需要武器？利用你的各种跑酷动作来先发制人。学习战斗和跑酷的方式，在挥舞武器或使用招式抵御任何形式的危险时，感受头骨碎裂和血肉横飞的刺激。还有别忘了，维勒多拥有的武器能让末日后世界最先进的武器库都相形见绌。&lt;h2 class="bb_tag"&gt;与其单打独斗，不如四个漫游者同行&lt;/h2&gt;有朋友相助，在维勒多活下去会更容易。与最多3名玩家组队，以增加你的生存几率。一起探索剧情，接受漫游者哨站的挑战，或是在城市街道上大肆破坏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/534380/extras/steam_footer_dying_light2.jpg?t=1695382874" /&gt;</t>
+          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://space.bilibili.com/1330488527/" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/534380/extras/BiliBili_v2.gif?t=1695732134" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;距离第一部游戏的故事已经过去了20年，病毒占了上风，人类正逐渐走向死亡。你将扮演艾登·克拉德威尔，一个漫游者，负责运送货物和传递消息，在被丧尸病毒摧毁的荒芜世界中，保持着与仅存的几个生存者聚居点的联系。然而，你的真正目标是找到妹妹米娅。过去，为了逃离华尔兹博士的痛苦实验，你曾经离开了还是孩童的她。这段过去一直在你心中挥之不去，当你听说米娅可能还活着，并且居住在地球上最后一座城市维勒多时，你终于下定决心直面这一切。&lt;br&gt;&lt;br&gt;不久后，你发现自己身处一个冲突不断的聚居点。你需要参与新奇而残酷的战斗，不断磨砺自己的技能，击败成群的丧尸，并与其他人结盟。你将在城市中漫游，在维勒多的建筑和屋顶上自由奔跑，搜寻偏远地区的战利品，并在夜晚时保持警惕。每当太阳西沉，怪物就会占领所有街道。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/534380/extras/dl_2_sh_steam.gif?t=1695732134" /&gt;&lt;h2 class="bb_tag"&gt;末日后的世界&lt;/h2&gt;15年前，人类经历了一场大陷落，这场灾难永远改变了世界。哈兰病毒迅速在全球蔓延，人们很快发现，所有的希望都破灭了。到了2036年，只有为数不多的聚居地存留于世，而人类正在逐渐走向死亡，为无情的新物种——成群结队的丧尸——让路。&lt;h2 class="bb_tag"&gt;白天属于活人，夜晚属于死者&lt;/h2&gt;欢迎来到维勒多，人类最后的堡垒之一。白天，生存者仍然努力在这里生活，寻求一种虚假的正常感。他们建立关系，追逐梦想，让生活继续。表面上看，一切似乎……不错。然而，当日落时分到来，最后一束阳光消失，城市中更可怕的居民将从他们阴暗的巢穴中爬出，占领街道。如果你在黑暗中停留太久，不提高警觉，就可能永远无法回家。&lt;h2 class="bb_tag"&gt;你必须不停移动才能存活&lt;/h2&gt;你不可能赢得所有的战斗。有时候，逃跑才是上策。幸运的是，你正好有这样的技巧。当你陷入危机，跑酷让你顺利逃脱。从一个屋顶跳到另一个屋顶，飞荡着穿过不同的城市景观，利用滑索等等。无论你做什么，当你在维勒多的建筑和屋顶上自由奔跑，寻找战利品或逃离夜晚的危险时，都会体验到独一无二的自由感。&lt;h2 class="bb_tag"&gt;变得残暴，并发挥创造力&lt;/h2&gt;在这个危险的世界中，只有最强者才能生存。无论你是喜欢粉碎、切割还是肢解挡在你面前的敌人，你都必须发挥创造力才能度过难关。而且，谁说你需要武器？利用你的各种跑酷动作来先发制人。学习战斗和跑酷的方式，在挥舞武器或使用招式抵御任何形式的危险时，感受头骨碎裂和血肉横飞的刺激。还有别忘了，维勒多拥有的武器能让末日后世界最先进的武器库都相形见绌。&lt;h2 class="bb_tag"&gt;与其单打独斗，不如四个漫游者同行&lt;/h2&gt;有朋友相助，在维勒多活下去会更容易。与最多3名玩家组队，以增加你的生存几率。一起探索剧情，接受漫游者哨站的挑战，或是在城市街道上大肆破坏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/534380/extras/steam_footer_dying_light2.jpg?t=1695732134" /&gt;</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/cp_logo.gif?t=1695227132" /&gt;&lt;/h2&gt;这一年是1981年，作为一名年轻的见习军官，你被分配到卡里卡特卡山区的一个边防哨所工作。进入阿卡里斯坦人民共和国受到政党的严格管制，你的一举一动都受到管控！你的同事在一次行动中被杀，边境局势随之升级...&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/documents.gif?t=1695227132" /&gt;&lt;/h2&gt;&lt;strong&gt;文件核查&lt;/strong&gt;&lt;br&gt;每名旅客都必须有一套有效的文件。即使是最轻微的差异也意味着被拒绝入境的可能。随着时间的推移，文件的数量将会越来越多，当中的问题也将更难被发现。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/contraband.gif?t=1695227132" /&gt;&lt;/h2&gt; &lt;strong&gt;走私侦查&lt;/strong&gt;&lt;br&gt;我们的情报部门会定期提供有关可疑司机的信息。用紫外光手电筒搜查他们的车辆，然后使用合适的工具取出走私货物。任何数量的违禁品都不得越过边境!&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/shootout.gif?t=1695227132" /&gt;&lt;/h2&gt;&lt;strong&gt;枪战&lt;/strong&gt;&lt;br&gt;在某些情况下，你将被迫使用枪械。你的站点一直是奥贝兰科夫团伙袭击的目标，每一次外出任务都有与敌人发生冲突的风险。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/chase.gif?t=1695227132" /&gt;&lt;/h2&gt;&lt;strong&gt;警察追捕&lt;/strong&gt;&lt;br&gt;绝望的走私者可能会试图从控制区逃跑。拦截并逮捕他们是你的分内之事! 购买和对警车升级，提高追捕活动的成功率。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/post_management.gif?t=1695227132" /&gt;&lt;/h2&gt;&lt;strong&gt;哨所管理&lt;/strong&gt;&lt;br&gt;升级警局，以增加对外防御能力，并改善后续的检查流程。然而，请记住，维护你的站点的成本在不断攀升。成功的检查、挫败走私行为以及成功的干预活动都是赚取现金的途径。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/bf_gov_logos.gif?t=1695227132" /&gt;&lt;/h2&gt;&lt;strong&gt;特别任务&lt;/strong&gt;&lt;br&gt;随时准备在紧急情况下进行干预。解决犯罪难题，支援你的同事们，挫败”血拳“叛军。做出恰当的判断，决定阿卡里斯坦的未来。</t>
+          <t>&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/cp_logo.gif?t=1695729240" /&gt;&lt;/h2&gt;这一年是1981年，作为一名年轻的见习军官，你被分配到卡里卡特卡山区的一个边防哨所工作。进入阿卡里斯坦人民共和国受到政党的严格管制，你的一举一动都受到管控！你的同事在一次行动中被杀，边境局势随之升级...&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/documents.gif?t=1695729240" /&gt;&lt;/h2&gt;&lt;strong&gt;文件核查&lt;/strong&gt;&lt;br&gt;每名旅客都必须有一套有效的文件。即使是最轻微的差异也意味着被拒绝入境的可能。随着时间的推移，文件的数量将会越来越多，当中的问题也将更难被发现。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/contraband.gif?t=1695729240" /&gt;&lt;/h2&gt; &lt;strong&gt;走私侦查&lt;/strong&gt;&lt;br&gt;我们的情报部门会定期提供有关可疑司机的信息。用紫外光手电筒搜查他们的车辆，然后使用合适的工具取出走私货物。任何数量的违禁品都不得越过边境!&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/shootout.gif?t=1695729240" /&gt;&lt;/h2&gt;&lt;strong&gt;枪战&lt;/strong&gt;&lt;br&gt;在某些情况下，你将被迫使用枪械。你的站点一直是奥贝兰科夫团伙袭击的目标，每一次外出任务都有与敌人发生冲突的风险。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/chase.gif?t=1695729240" /&gt;&lt;/h2&gt;&lt;strong&gt;警察追捕&lt;/strong&gt;&lt;br&gt;绝望的走私者可能会试图从控制区逃跑。拦截并逮捕他们是你的分内之事! 购买和对警车升级，提高追捕活动的成功率。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/post_management.gif?t=1695729240" /&gt;&lt;/h2&gt;&lt;strong&gt;哨所管理&lt;/strong&gt;&lt;br&gt;升级警局，以增加对外防御能力，并改善后续的检查流程。然而，请记住，维护你的站点的成本在不断攀升。成功的检查、挫败走私行为以及成功的干预活动都是赚取现金的途径。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/bf_gov_logos.gif?t=1695729240" /&gt;&lt;/h2&gt;&lt;strong&gt;特别任务&lt;/strong&gt;&lt;br&gt;随时准备在紧急情况下进行干预。解决犯罪难题，支援你的同事们，挫败”血拳“叛军。做出恰当的判断，决定阿卡里斯坦的未来。</t>
         </is>
       </c>
     </row>
@@ -6503,7 +6503,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -10831,7 +10831,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>抢先体验,模拟,可爱,休闲,生活模拟</t>
+          <t>抢先体验,可爱,模拟,休闲,生活模拟</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -10935,7 +10935,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;Join us on Discord!&lt;/h2&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.plateupgame.com" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599600/extras/discordBanner.png?t=1691451213" /&gt;&lt;/a&gt;&lt;br&gt;速速上菜！将混乱厨房和餐厅管理的元素与战略规划和发展相结合，使玩家得以烹饪出一道独一无二又有趣的Roguelite菜肴。最多可供四名玩家白手起家打造并经营餐厅，体验包括选择餐盘、购买并放置电器等设备——其中的一些还可被连接起来，帮助您打造超棒的自动化厨房——让它能更好地为客人们服务。玩家还可随意设计他们的餐厅，并能在各个班次间为餐厅拓展和开发——在此过程中还能解锁额外内容和挑战。你能否在忙碌的15天内烹饪、服务客人、管理餐厅并解锁一家全新的连锁店呢？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599600/extras/sch_Store_Gifs_烹饪.gif?t=1691451213" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;经典合作烹饪玩法，并带有各种主菜、配菜、酱料、浇头、甜点和开胃菜。&lt;br&gt;&lt;/li&gt;&lt;li&gt;选择装备、布置厨房、编撰菜单然后端上菜肴。&lt;br&gt;&lt;/li&gt;&lt;li&gt;从热腾腾的汤品到爽口的沙拉，从鲜嫩的牛排到馅料十足的馅饼，每个人都能在此找到自己的口味。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599600/extras/sch_Store_Gifs_服务.gif?t=1691451213" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;照料前台事务：引导客人落座、提交点餐然后安抚催菜。&lt;br&gt;&lt;/li&gt;&lt;li&gt;好好配备餐厅，使其能够应付最为刁钻的客人，在他们需要的时候及时提供相应的餐点。&lt;br&gt;&lt;/li&gt;&lt;li&gt;与队友一起合作，让您的团队就像是一台上好油的机器一样顺畅运作，或自己一个人单干树立名声。 &lt;br&gt;&lt;/li&gt;&lt;li&gt;达成目标并在全新的地点将连锁餐厅送至更高的境界，同时为您带来全新的解锁和升级&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599600/extras/sch_Store_Gifs_升级.gif?t=1691451213" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;升级并重新规划餐厅，使其符合您的个人品味：在餐厅休业时，计划就可以开始啦！&lt;br&gt;&lt;/li&gt;&lt;li&gt;决定购买哪些新装备，并将其放在您想要的地方。&lt;br&gt;&lt;/li&gt;&lt;li&gt;想要来点高科技？那就安装涡轮灶台，配备上输送带，然后慢慢踏上未来的自动化厨房之路。&lt;br&gt;&lt;/li&gt;&lt;li&gt;喜欢那些更……花哨的东西？那就快布置上您的艺术收藏，贴上墙纸，然后招募好友来担任领班，为客人们提供这辈子最好的美食体验。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599600/extras/sch_Store_Gifs_拓展.gif?t=1691451213" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;达成目标并在下个地点重新开始，同时为您带来新的解锁和升级。&lt;br&gt;&lt;/li&gt;&lt;li&gt;将您的品牌定制为美食餐厅，或者重新调整为快餐连锁。&lt;br&gt;&lt;/li&gt;&lt;li&gt;每家餐厅都会以程序生成的方式拥有专属的氛围、客人以及条件。&lt;br&gt;&lt;/li&gt;&lt;li&gt;返回连锁总部即可查看成就，自定义角色并升级配备，为您下一场冒险做好一切准备！&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;h2 class="bb_tag"&gt;Join us on Discord!&lt;/h2&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.plateupgame.com" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599600/extras/discordBanner.png?t=1695631786" /&gt;&lt;/a&gt;&lt;br&gt;速速上菜！将混乱厨房和餐厅管理的元素与战略规划和发展相结合，使玩家得以烹饪出一道独一无二又有趣的Roguelite菜肴。最多可供四名玩家白手起家打造并经营餐厅，体验包括选择餐盘、购买并放置电器等设备——其中的一些还可被连接起来，帮助您打造超棒的自动化厨房——让它能更好地为客人们服务。玩家还可随意设计他们的餐厅，并能在各个班次间为餐厅拓展和开发——在此过程中还能解锁额外内容和挑战。你能否在忙碌的15天内烹饪、服务客人、管理餐厅并解锁一家全新的连锁店呢？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599600/extras/sch_Store_Gifs_烹饪.gif?t=1695631786" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;经典合作烹饪玩法，并带有各种主菜、配菜、酱料、浇头、甜点和开胃菜。&lt;br&gt;&lt;/li&gt;&lt;li&gt;选择装备、布置厨房、编撰菜单然后端上菜肴。&lt;br&gt;&lt;/li&gt;&lt;li&gt;从热腾腾的汤品到爽口的沙拉，从鲜嫩的牛排到馅料十足的馅饼，每个人都能在此找到自己的口味。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599600/extras/sch_Store_Gifs_服务.gif?t=1695631786" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;照料前台事务：引导客人落座、提交点餐然后安抚催菜。&lt;br&gt;&lt;/li&gt;&lt;li&gt;好好配备餐厅，使其能够应付最为刁钻的客人，在他们需要的时候及时提供相应的餐点。&lt;br&gt;&lt;/li&gt;&lt;li&gt;与队友一起合作，让您的团队就像是一台上好油的机器一样顺畅运作，或自己一个人单干树立名声。 &lt;br&gt;&lt;/li&gt;&lt;li&gt;达成目标并在全新的地点将连锁餐厅送至更高的境界，同时为您带来全新的解锁和升级&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599600/extras/sch_Store_Gifs_升级.gif?t=1695631786" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;升级并重新规划餐厅，使其符合您的个人品味：在餐厅休业时，计划就可以开始啦！&lt;br&gt;&lt;/li&gt;&lt;li&gt;决定购买哪些新装备，并将其放在您想要的地方。&lt;br&gt;&lt;/li&gt;&lt;li&gt;想要来点高科技？那就安装涡轮灶台，配备上输送带，然后慢慢踏上未来的自动化厨房之路。&lt;br&gt;&lt;/li&gt;&lt;li&gt;喜欢那些更……花哨的东西？那就快布置上您的艺术收藏，贴上墙纸，然后招募好友来担任领班，为客人们提供这辈子最好的美食体验。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599600/extras/sch_Store_Gifs_拓展.gif?t=1695631786" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;达成目标并在下个地点重新开始，同时为您带来新的解锁和升级。&lt;br&gt;&lt;/li&gt;&lt;li&gt;将您的品牌定制为美食餐厅，或者重新调整为快餐连锁。&lt;br&gt;&lt;/li&gt;&lt;li&gt;每家餐厅都会以程序生成的方式拥有专属的氛围、客人以及条件。&lt;br&gt;&lt;/li&gt;&lt;li&gt;返回连锁总部即可查看成就，自定义角色并升级配备，为您下一场冒险做好一切准备！&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
@@ -11244,7 +11244,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>模拟,策略,火车,管理,交通运输</t>
+          <t>模拟,策略,管理,火车,交通运输</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -11422,7 +11422,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1668690/extras/SteamGif001.gif?t=1690964584" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;游戏介绍&lt;/strong&gt;&lt;/h2&gt;《斗技场的阿利娜》是一款卡牌构建游戏。它融合了《杀戮尖塔》和《Into the Breach》的玩法，并带有策略和轻度肉鸽元素。&lt;br&gt;玩家作为一个斗角士,为了生存在斗技场中厮杀来满足嗜血的观众。轻度肉鸽玩法和卡牌组构筑元素结合六角形战棋地图，让策略不再拘限于只能攻击或防御，利用好闪避、击退，在斗技场中杀出一条血路！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1668690/extras/SteamGif002.gif?t=1690964584" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;游戏特色&lt;/h2&gt;&lt;/strong&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;全新的卡牌组构筑体验&lt;/strong&gt;&lt;br&gt;轻度肉鸽元素让你在游玩过程会遇到各式不同的卡牌，自己做出选择，组出独一无二的牌组来挑战关卡，让你每次游玩都会有不同的体验。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1668690/extras/SteamGif003.gif?t=1690964584" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;六边形战旗地图&lt;/strong&gt;&lt;br&gt;不同常见牌组构筑游戏只要思考攻击或防御，加入战棋元素后则需要位移寻找生存空间、交换位置让敌人自我残杀、利用地形击获得优势。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1668690/extras/SteamGif004.gif?t=1690964584" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;双手装备系统&lt;/strong&gt;&lt;br&gt;武器可以双手握持，玩家可以手持双匕首实现最大伤害，也可以一手持剑一手持盾稳扎稳打，甚致使用双手巨剑大杀四方，配合牌组找出每次战斗的最佳组合。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1668690/extras/SteamGif005.gif?t=1690964584" /&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1668690/extras/SteamGif001.gif?t=1695706334" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;游戏介绍&lt;/strong&gt;&lt;/h2&gt;《斗技场的阿利娜》是一款卡牌构建游戏。它融合了《杀戮尖塔》和《Into the Breach》的玩法，并带有策略和轻度肉鸽元素。&lt;br&gt;玩家作为一个斗角士,为了生存在斗技场中厮杀来满足嗜血的观众。轻度肉鸽玩法和卡牌组构筑元素结合六角形战棋地图，让策略不再拘限于只能攻击或防御，利用好闪避、击退，在斗技场中杀出一条血路！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1668690/extras/SteamGif002.gif?t=1695706334" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;游戏特色&lt;/h2&gt;&lt;/strong&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;全新的卡牌组构筑体验&lt;/strong&gt;&lt;br&gt;轻度肉鸽元素让你在游玩过程会遇到各式不同的卡牌，自己做出选择，组出独一无二的牌组来挑战关卡，让你每次游玩都会有不同的体验。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1668690/extras/SteamGif003.gif?t=1695706334" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;六边形战旗地图&lt;/strong&gt;&lt;br&gt;不同常见牌组构筑游戏只要思考攻击或防御，加入战棋元素后则需要位移寻找生存空间、交换位置让敌人自我残杀、利用地形击获得优势。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1668690/extras/SteamGif004.gif?t=1695706334" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;双手装备系统&lt;/strong&gt;&lt;br&gt;武器可以双手握持，玩家可以手持双匕首实现最大伤害，也可以一手持剑一手持盾稳扎稳打，甚致使用双手巨剑大杀四方，配合牌组找出每次战斗的最佳组合。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1668690/extras/SteamGif005.gif?t=1695706334" /&gt;</t>
         </is>
       </c>
     </row>
@@ -11674,7 +11674,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>官方QQ群号：&lt;br&gt;官方QQ④群：757371350&lt;br&gt;官方QQ⑧群：920151793&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;这是一款基于武侠、江湖背景为基础的&lt;strong&gt; &lt;u&gt;开放沙盒类非传统武侠 RPG游戏&lt;/u&gt;&lt;/strong&gt;，你可以在这个大荒世界之中，扮演你所幻想的任何武侠角色，这里没有任何阻挡你幻想的老套剧情，你所演绎的武侠人生就是这个你的游戏剧情。你可以作为一名江湖小虾米游历大荒，你也可以成为一派掌门引领四方，你亦可以成为一名看不惯这江湖的浪子我行我素。最重要的是，请一切遵从于你的内心而为，并且活着！&lt;br&gt;&lt;br&gt;(1)玩家可以从零开始扩展自己的小世界，也可以通过创建小世界生成随机大小的初始世界。每个区域都有独特的环境、资源、生物以及势力。 在熟悉了游戏基本操作之后，您便可以直接生成环境属性各异的、已经包含一定数量地块的世界进行体验和历练，并且可以控制不同的“我”往来穿梭于各个世界开启别样人生！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/kf1.gif?t=1695348124" /&gt;&lt;br&gt;&lt;br&gt;(2)新颖的单回合战斗方式，通过收集不同的绝学搭配创建自己的招式库，战斗中拖动连接不同的招式激活绝学，利用招式克制和绝学套路，体现武侠战斗的策略性。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF2.gif?t=1695348124" /&gt;&lt;br&gt;&lt;br&gt;(3)独创的经脉系统，将人体经脉的运转进行了简化概念设计，玩家可以体验到不同的运功路线激活不同内功的拟真感受，简洁却富有策略玩法的设计给玩家提供了搭配和激活多种内功的玩法。同时经脉系统也结合了武侠小说中各种身体机能的具象表现，角色的生命力、内伤、隐疾、蛊、生死符、残疾、瞎眼等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF3.gif?t=1695348124" /&gt;&lt;br&gt;&lt;br&gt;(4)游戏还包含了自由的建造模式，玩家可以打造自己的民居、酒馆、温泉、马厩、大殿、监牢等等，每种建筑都有独特的功能。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF4.gif?t=1695348124" /&gt;&lt;br&gt;&lt;br&gt;(5)潜行玩法，可以通过训练潜行能力，配合独特的内功，夜晚穿上夜行衣，如人无人之境。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF5.gif?t=1695348124" /&gt;&lt;br&gt;&lt;br&gt;(6)训练轻功、跳跃、潜水、攀爬，无论高山深海都可闲庭信步。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF6.gif?t=1695348124" /&gt;&lt;br&gt;&lt;br&gt;(7)通过自定义天命、出身、容貌、血脉，打造独属于自己的角色。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF7.gif?t=1695348124" /&gt;&lt;br&gt;&lt;br&gt;(8)非线性剧情，游戏中每个NPC都会根据自己的行为、身份、名声、关系、态度等等在世界中生存，玩家的每次游戏都会与他们发生不同的剧情。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF8.gif?t=1695348124" /&gt;&lt;br&gt;&lt;br&gt;(9)丰富的交互内容&lt;br&gt;可以把敌人的建筑引燃&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF9.gif?t=1695348124" /&gt;&lt;br&gt;&lt;br&gt;可以邀请NPC喝酒，灌醉后搜刮物品&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF10.gif?t=1695348124" /&gt;&lt;br&gt;&lt;br&gt;可以驯化各种动物，每种动物都有各自独特的功能，例如猴子可以乞讨、马可以乘骑和改装马车、蛇可以下毒等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF11.gif?t=1695348124" /&gt;&lt;br&gt;&lt;br&gt;玩家可以创建自己门派，招募弟子，发布命令，参加武林大会。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF12.gif?t=1695348124" /&gt;&lt;br&gt;&lt;br&gt;丰富的交互内容·玩家可以布置陷阱，抓捕动物或敌人。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF13.gif?t=1695348124" /&gt;&lt;br&gt;&lt;br&gt;建立门派，发布命令&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF15.gif?t=1695348124" /&gt;&lt;br&gt;&lt;br&gt;建立牢笼，关押敌人&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF16.gif?t=1695348124" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;———————————————————————————————————————&lt;br&gt;来自幻魔寺的寄语：&lt;br&gt;我们坚守本心，完全独立开发，只做大家觉得好玩的游戏，这款游戏的世界目前仍然只是一个雏形，我们深知它会不断壮大，并且成为未来我们一切游戏的基石，我们会为此不断努力，带给大家一个绝妙的幻想世界！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/respect.png?t=1695348124" /&gt;</t>
+          <t>官方QQ群号：&lt;br&gt;官方QQ④群：757371350&lt;br&gt;官方QQ⑧群：920151793&lt;br&gt;Dodo群：&lt;a href="https://steamcommunity.com/linkfilter/?url=https://imdodo.com/s/217088?inv=JPBWE" target="_blank" rel=" noopener"  &gt;https://imdodo.com/s/217088?inv=JPBWE&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;这是一款基于武侠、江湖背景为基础的&lt;strong&gt; &lt;u&gt;开放沙盒类非传统武侠 RPG游戏&lt;/u&gt;&lt;/strong&gt;，你可以在这个大荒世界之中，扮演你所幻想的任何武侠角色，这里没有任何阻挡你幻想的老套剧情，你所演绎的武侠人生就是这个你的游戏剧情。你可以作为一名江湖小虾米游历大荒，你也可以成为一派掌门引领四方，你亦可以成为一名看不惯这江湖的浪子我行我素。最重要的是，请一切遵从于你的内心而为，并且活着！&lt;br&gt;&lt;br&gt;(1)玩家可以从零开始扩展自己的小世界，也可以通过创建小世界生成随机大小的初始世界。每个区域都有独特的环境、资源、生物以及势力。 在熟悉了游戏基本操作之后，您便可以直接生成环境属性各异的、已经包含一定数量地块的世界进行体验和历练，并且可以控制不同的“我”往来穿梭于各个世界开启别样人生！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/kf1.gif?t=1695643356" /&gt;&lt;br&gt;&lt;br&gt;(2)新颖的单回合战斗方式，通过收集不同的绝学搭配创建自己的招式库，战斗中拖动连接不同的招式激活绝学，利用招式克制和绝学套路，体现武侠战斗的策略性。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF2.gif?t=1695643356" /&gt;&lt;br&gt;&lt;br&gt;(3)独创的经脉系统，将人体经脉的运转进行了简化概念设计，玩家可以体验到不同的运功路线激活不同内功的拟真感受，简洁却富有策略玩法的设计给玩家提供了搭配和激活多种内功的玩法。同时经脉系统也结合了武侠小说中各种身体机能的具象表现，角色的生命力、内伤、隐疾、蛊、生死符、残疾、瞎眼等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF3.gif?t=1695643356" /&gt;&lt;br&gt;&lt;br&gt;(4)游戏还包含了自由的建造模式，玩家可以打造自己的民居、酒馆、温泉、马厩、大殿、监牢等等，每种建筑都有独特的功能。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF4.gif?t=1695643356" /&gt;&lt;br&gt;&lt;br&gt;(5)潜行玩法，可以通过训练潜行能力，配合独特的内功，夜晚穿上夜行衣，如人无人之境。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF5.gif?t=1695643356" /&gt;&lt;br&gt;&lt;br&gt;(6)训练轻功、跳跃、潜水、攀爬，无论高山深海都可闲庭信步。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF6.gif?t=1695643356" /&gt;&lt;br&gt;&lt;br&gt;(7)通过自定义天命、出身、容貌、血脉，打造独属于自己的角色。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF7.gif?t=1695643356" /&gt;&lt;br&gt;&lt;br&gt;(8)非线性剧情，游戏中每个NPC都会根据自己的行为、身份、名声、关系、态度等等在世界中生存，玩家的每次游戏都会与他们发生不同的剧情。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF8.gif?t=1695643356" /&gt;&lt;br&gt;&lt;br&gt;(9)丰富的交互内容&lt;br&gt;可以把敌人的建筑引燃&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF9.gif?t=1695643356" /&gt;&lt;br&gt;&lt;br&gt;可以邀请NPC喝酒，灌醉后搜刮物品&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF10.gif?t=1695643356" /&gt;&lt;br&gt;&lt;br&gt;可以驯化各种动物，每种动物都有各自独特的功能，例如猴子可以乞讨、马可以乘骑和改装马车、蛇可以下毒等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF11.gif?t=1695643356" /&gt;&lt;br&gt;&lt;br&gt;玩家可以创建自己门派，招募弟子，发布命令，参加武林大会。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF12.gif?t=1695643356" /&gt;&lt;br&gt;&lt;br&gt;丰富的交互内容·玩家可以布置陷阱，抓捕动物或敌人。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF13.gif?t=1695643356" /&gt;&lt;br&gt;&lt;br&gt;建立门派，发布命令&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF15.gif?t=1695643356" /&gt;&lt;br&gt;&lt;br&gt;建立牢笼，关押敌人&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF16.gif?t=1695643356" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;———————————————————————————————————————&lt;br&gt;来自幻魔寺的寄语：&lt;br&gt;我们坚守本心，完全独立开发，只做大家觉得好玩的游戏，这款游戏的世界目前仍然只是一个雏形，我们深知它会不断壮大，并且成为未来我们一切游戏的基石，我们会为此不断努力，带给大家一个绝妙的幻想世界！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/respect.png?t=1695643356" /&gt;</t>
         </is>
       </c>
     </row>
@@ -12249,7 +12249,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -12454,7 +12454,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1815570/extras/spade_line_gold_2.png?t=1691080605" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1815570/extras/en_StoreGifPairs_1.gif?t=1691080605" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;以扑克为动力的牌组构建冒险&lt;/strong&gt;&lt;br&gt;在古老树林雾霭缭绕的中心地带有一个石头圈，其中摆放着三张桌子，形成通往从古代北欧和中东神话中汲取灵感的翱翔世界的门户。在那里，你将踏上拯救生命之树卡德拉希尔的旅程，使其免受啃噬其根部的邪恶力量的侵害。她托付给你的魔法牌组中的每张牌都是从她的树枝上摘下的叶子。用这些牌来唤起你的技能并发动毁灭性的、以扑克为动力的攻击。发展你的力量，强壮你的牌组，但要抓紧时间！季节在变化； 温暖不会长期免费。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1815570/extras/en_StoreGifPairs_2.gif?t=1691080605" /&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;全新的游戏模式：因维努斯螺旋&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;《王牌与冒险》的全新游戏模式：因维努斯螺旋，以杀戮尖塔类游戏为启发，您可以在一场更加漫长的冒险中自行构建并策划卡组。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;在 10-20 分钟的高消耗性会话中提供快节奏的游戏玩法。&lt;br&gt;&lt;/li&gt;&lt;li&gt;5 个角色，每个角色都有自己的技能库和 30 个进步等级。&lt;br&gt;&lt;/li&gt;&lt;li&gt;随着你的旅程不断前进，解锁强大的特性和装备。&lt;br&gt;&lt;/li&gt;&lt;li&gt;13 个全语音战役和 4 个游戏，总共 52 个不断升级的挑战关卡&lt;br&gt;&lt;/li&gt;&lt;li&gt;程序生成的运行确保无尽的独特体验。&lt;br&gt;&lt;/li&gt;&lt;li&gt;建立你自己的牌组，并将你的技能升级到精英和传奇效力。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1815570/extras/spade_line_gold_2.png?t=1691080605" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1815570/extras/en_StoreGifPairs_3.gif?t=1691080605" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;游戏玩法&lt;/strong&gt;&lt;br&gt;传统扑克牌和特殊能力牌的独特组合是 Aces &amp;amp; Adventures 的核心。你将制作一副牌组，并选择如何使用你的资源——你的目标是通过攻击和法术打败你的对手，还是打牌以潜在地吸引毁灭性的高价值扑克手牌，并在强大的打击中消灭你的敌人？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1815570/extras/en_StoreGifPairs_4.gif?t=1691080605" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;使用四套同花色牌作为法力来激活你的技能。&lt;br&gt;&lt;/li&gt;&lt;li&gt;投掷一张牌作为攻击；高牌获胜。&lt;br&gt;&lt;/li&gt;&lt;li&gt;以扑克为动力，投出一对、三张、四张或有效的五张扑克手牌。&lt;br&gt;&lt;/li&gt;&lt;li&gt;防守方试图匹配进攻中的牌数。如果防守者打出更好的手牌，攻击者就会受到伤害&lt;br&gt;&lt;/li&gt;&lt;li&gt;结合增益、减益、技能和法术来释放灾难性力量的组合攻击。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1815570/extras/en_StoreGifPairs_5.gif?t=1691080605" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1815570/extras/spade_line_gold_2.png?t=1691080605" /&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1815570/extras/spade_line_gold_2.png?t=1695631779" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1815570/extras/en_StoreGifPairs_1.gif?t=1695631779" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;以扑克为动力的牌组构建冒险&lt;/strong&gt;&lt;br&gt;在古老树林雾霭缭绕的中心地带有一个石头圈，其中摆放着三张桌子，形成通往从古代北欧和中东神话中汲取灵感的翱翔世界的门户。在那里，你将踏上拯救生命之树卡德拉希尔的旅程，使其免受啃噬其根部的邪恶力量的侵害。她托付给你的魔法牌组中的每张牌都是从她的树枝上摘下的叶子。用这些牌来唤起你的技能并发动毁灭性的、以扑克为动力的攻击。发展你的力量，强壮你的牌组，但要抓紧时间！季节在变化； 温暖不会长期免费。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1815570/extras/en_StoreGifPairs_2.gif?t=1695631779" /&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;全新的游戏模式：因维努斯螺旋&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;《王牌与冒险》的全新游戏模式：因维努斯螺旋，以杀戮尖塔类游戏为启发，您可以在一场更加漫长的冒险中自行构建并策划卡组。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;在 10-20 分钟的高消耗性会话中提供快节奏的游戏玩法。&lt;br&gt;&lt;/li&gt;&lt;li&gt;5 个角色，每个角色都有自己的技能库和 30 个进步等级。&lt;br&gt;&lt;/li&gt;&lt;li&gt;随着你的旅程不断前进，解锁强大的特性和装备。&lt;br&gt;&lt;/li&gt;&lt;li&gt;13 个全语音战役和 4 个游戏，总共 52 个不断升级的挑战关卡&lt;br&gt;&lt;/li&gt;&lt;li&gt;程序生成的运行确保无尽的独特体验。&lt;br&gt;&lt;/li&gt;&lt;li&gt;建立你自己的牌组，并将你的技能升级到精英和传奇效力。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1815570/extras/spade_line_gold_2.png?t=1695631779" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1815570/extras/en_StoreGifPairs_3.gif?t=1695631779" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;游戏玩法&lt;/strong&gt;&lt;br&gt;传统扑克牌和特殊能力牌的独特组合是 Aces &amp;amp; Adventures 的核心。你将制作一副牌组，并选择如何使用你的资源——你的目标是通过攻击和法术打败你的对手，还是打牌以潜在地吸引毁灭性的高价值扑克手牌，并在强大的打击中消灭你的敌人？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1815570/extras/en_StoreGifPairs_4.gif?t=1695631779" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;使用四套同花色牌作为法力来激活你的技能。&lt;br&gt;&lt;/li&gt;&lt;li&gt;投掷一张牌作为攻击；高牌获胜。&lt;br&gt;&lt;/li&gt;&lt;li&gt;以扑克为动力，投出一对、三张、四张或有效的五张扑克手牌。&lt;br&gt;&lt;/li&gt;&lt;li&gt;防守方试图匹配进攻中的牌数。如果防守者打出更好的手牌，攻击者就会受到伤害&lt;br&gt;&lt;/li&gt;&lt;li&gt;结合增益、减益、技能和法术来释放灾难性力量的组合攻击。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1815570/extras/en_StoreGifPairs_5.gif?t=1695631779" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1815570/extras/spade_line_gold_2.png?t=1695631779" /&gt;</t>
         </is>
       </c>
     </row>
@@ -13081,7 +13081,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1934080/extras/1龙.gif?t=1693900239" /&gt;&lt;br&gt;《浮生箓2：九九行歌》是一款沙盒类修仙游戏，玩家可以自由定义角色属性，与游戏中的各类NPC实时互动，体验元素丰富的冒险地图和回合制战斗。并随着游戏进程发展加入风格各异的修仙宗门，从外门弟子做起直至手握宗门权柄，叱咤一方；在一路越境破阶的过程中逐步推动剧情发展，揭露天地异变真相，并通过自己的抉择影响游戏世界的命运走向。&lt;br&gt;----------------------------------------------------------------------------------------------------&lt;br&gt;&lt;strong&gt;一、开放自由的探索体验&lt;/strong&gt;&lt;br&gt;&lt;br&gt;游戏内现已上线了太古大荒和天元州两张大地图，其中包含丰富的探索要素。玩家不仅可以拜入宗门学习功法晋升职位，也可以在各个城镇间游走，提升实力，放松身心；散落各地的村庄会发布委托任务，也会随着游戏进程动态演变；隐藏各地的副本秘境也是挑战强敌、获取秘宝的好去处。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1934080/extras/2大地图.gif?t=1693900239" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;二、真实有趣的关系互动&lt;/strong&gt;&lt;br&gt;&lt;br&gt;随着NPC交互系统的不断丰富和完善，玩家将有机会与游戏世界里的陌路人发生更多的故事。你可以与他们维持淡淡如水的点头之交，一起坐而论道，互通有无，为一点灵石讨价还价；亦可主动出击，四处留情，寻得知己同修道心；或者干脆为非作歹，肆意偷窃挑衅他人，享受全性随心的快乐。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1934080/extras/3NPC.gif?t=1693900239" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;三、体量庞大的剧情文库&lt;/strong&gt;&lt;br&gt;&lt;br&gt;制作组为浮生箓修仙世界配置了一条清晰连贯的主线剧情任务，在主线流程未涉足的地方也准备了将近300个随机事件、30个支线剧情供大家去探索和体验，与形形色色的NPC发生各种各样的交互。游戏的剧情文本量将达到20万字左右，足以让各位玩家在修行之余体会世间百味。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1934080/extras/4随机事件.gif?t=1693900239" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;四、内容翔实的特色玩法&lt;/strong&gt;&lt;br&gt;&lt;br&gt;在制作组全员的不懈努力下，游戏内的城镇玩法内容进行了大拓展。炼丹坊、酒馆、青楼等建筑新增了大量关卡和剧情内容，更多的分店陆续开张，全新的NPC和故事等着各位去探索和体验；锻造坊也已重燃炉火，装备锻造系统正式上线；斗兽场中的灵兽业已准备就绪，等待各位玩家投下重注。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1934080/extras/5城镇玩法.gif?t=1693900239" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;五、焕然一新的战斗体验&lt;/strong&gt;&lt;br&gt;&lt;br&gt;全新五大宗门剑、葫芦、宝幡、宝镜、妖丹。在全新的回合制战斗框架下，玩家可以自由搭配技能，自主设置释放顺序形成输出COMBO，以及可以和NPC组队战斗，充分享受克敌制胜的乐趣。战斗副本中的敌人种类、怪物数量、战斗场景业已经过大幅扩容，以期最大限度保证战斗过程的差异化和新鲜感。突破玩法加入各种战斗，金丹需要渡劫，筑基可以御剑飞行,修仙世界等你来体验。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1934080/extras/6新战斗.gif?t=1693900239" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;六、职位提升的宗门玩法&lt;/strong&gt;&lt;br&gt;&lt;br&gt;在本作的宗门体系设计，只有最底层的弟子才会被分配去处理杂务。随着职位的提升，玩家将相应拥有更多的权限，深度参与到宗门的发展与建设当中，小到弟子管理、任务委派，大到宗门冲突、势力扩张，充分体验经营管理的乐趣。修仙世界不只有打打杀杀，还有人情世故。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1934080/extras/7宗门.gif?t=1693900239" /&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1934080/extras/1龙.gif?t=1695606544" /&gt;&lt;br&gt;《浮生箓2：九九行歌》是一款沙盒类修仙游戏，玩家可以自由定义角色属性，与游戏中的各类NPC实时互动，体验元素丰富的冒险地图和回合制战斗。并随着游戏进程发展加入风格各异的修仙宗门，从外门弟子做起直至手握宗门权柄，叱咤一方；在一路越境破阶的过程中逐步推动剧情发展，揭露天地异变真相，并通过自己的抉择影响游戏世界的命运走向。&lt;br&gt;----------------------------------------------------------------------------------------------------&lt;br&gt;&lt;strong&gt;一、开放自由的探索体验&lt;/strong&gt;&lt;br&gt;&lt;br&gt;游戏内现已上线了太古大荒和天元州两张大地图，其中包含丰富的探索要素。玩家不仅可以拜入宗门学习功法晋升职位，也可以在各个城镇间游走，提升实力，放松身心；散落各地的村庄会发布委托任务，也会随着游戏进程动态演变；隐藏各地的副本秘境也是挑战强敌、获取秘宝的好去处。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1934080/extras/2大地图.gif?t=1695606544" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;二、真实有趣的关系互动&lt;/strong&gt;&lt;br&gt;&lt;br&gt;随着NPC交互系统的不断丰富和完善，玩家将有机会与游戏世界里的陌路人发生更多的故事。你可以与他们维持淡淡如水的点头之交，一起坐而论道，互通有无，为一点灵石讨价还价；亦可主动出击，四处留情，寻得知己同修道心；或者干脆为非作歹，肆意偷窃挑衅他人，享受全性随心的快乐。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1934080/extras/3NPC.gif?t=1695606544" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;三、体量庞大的剧情文库&lt;/strong&gt;&lt;br&gt;&lt;br&gt;制作组为浮生箓修仙世界配置了一条清晰连贯的主线剧情任务，在主线流程未涉足的地方也准备了将近300个随机事件、30个支线剧情供大家去探索和体验，与形形色色的NPC发生各种各样的交互。游戏的剧情文本量将达到20万字左右，足以让各位玩家在修行之余体会世间百味。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1934080/extras/4随机事件.gif?t=1695606544" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;四、内容翔实的特色玩法&lt;/strong&gt;&lt;br&gt;&lt;br&gt;在制作组全员的不懈努力下，游戏内的城镇玩法内容进行了大拓展。炼丹坊、酒馆、青楼等建筑新增了大量关卡和剧情内容，更多的分店陆续开张，全新的NPC和故事等着各位去探索和体验；锻造坊也已重燃炉火，装备锻造系统正式上线；斗兽场中的灵兽业已准备就绪，等待各位玩家投下重注。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1934080/extras/5城镇玩法.gif?t=1695606544" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;五、焕然一新的战斗体验&lt;/strong&gt;&lt;br&gt;&lt;br&gt;全新五大宗门剑、葫芦、宝幡、宝镜、妖丹。在全新的回合制战斗框架下，玩家可以自由搭配技能，自主设置释放顺序形成输出COMBO，以及可以和NPC组队战斗，充分享受克敌制胜的乐趣。战斗副本中的敌人种类、怪物数量、战斗场景业已经过大幅扩容，以期最大限度保证战斗过程的差异化和新鲜感。突破玩法加入各种战斗，金丹需要渡劫，筑基可以御剑飞行,修仙世界等你来体验。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1934080/extras/6新战斗.gif?t=1695606544" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;六、职位提升的宗门玩法&lt;/strong&gt;&lt;br&gt;&lt;br&gt;在本作的宗门体系设计，只有最底层的弟子才会被分配去处理杂务。随着职位的提升，玩家将相应拥有更多的权限，深度参与到宗门的发展与建设当中，小到弟子管理、任务委派，大到宗门冲突、势力扩张，充分体验经营管理的乐趣。修仙世界不只有打打杀杀，还有人情世故。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1934080/extras/7宗门.gif?t=1695606544" /&gt;</t>
         </is>
       </c>
     </row>
@@ -13583,7 +13583,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>某日，莱莎居住的小岛附近突然出现了名为“柯克群岛”的岛群。莱莎一行人对威胁到小岛的群岛展开调查的过程中，抵达了某座遗迹。在遗迹深处的，是一扇令仰望者叹为观止的巨大门扉。就在莱莎靠近门扉时，她的脑中响起了邀请她前往“万象大典”的神秘声音。 门扉的另一侧究竟有着什么？“万象大典”又具有什么含义？为了寻找拯救小岛的方法，莱莎等人即将展开一场围绕“钥匙”与“炼金术根源”的壮阔冒险……&lt;br&gt;&lt;br&gt;&lt;strong&gt;■在广阔的原野展开冒险！&lt;/strong&gt;&lt;br&gt;本作的原野由无缝展开的多幅地图连结而成，无需载入即可随意在地图间移动。尽情徜徉于广阔无边、栩栩如生的原野，自由自在享受冒险吧！&lt;br&gt;&lt;br&gt;&lt;strong&gt;■多达11名的队伍成员！&lt;/strong&gt;&lt;br&gt;除了与前作的角色重逢，更有作为剧情关键的新角色登场！系列作最大规模的队伍，正蓄势待发！&lt;br&gt;&lt;br&gt;&lt;strong&gt;■拥有未知力量的“钥匙”将是冒险的王牌！&lt;/strong&gt;&lt;br&gt;本作的核心系统——可在各种场合制作的“钥匙”华丽登场！&lt;br&gt;“钥匙”种类繁多且效果各异，可运用于探索、调合与战斗等各种场面。活用“钥匙”，让冒险来得更加有趣与便利！&lt;br&gt;&lt;br&gt;※有关内容的详情，请参阅官方网站。&lt;br&gt;※另有包含本商品的其他组合商品。请留意避免重复购买。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1999770/extras/AtelierRyza3_Custom_Image_616ｘ616_RYZA3MASTER_japanese.png?t=1687396084" /&gt;</t>
+          <t>某日，莱莎居住的小岛附近突然出现了名为“柯克群岛”的岛群。莱莎一行人对威胁到小岛的群岛展开调查的过程中，抵达了某座遗迹。在遗迹深处的，是一扇令仰望者叹为观止的巨大门扉。就在莱莎靠近门扉时，她的脑中响起了邀请她前往“万象大典”的神秘声音。 门扉的另一侧究竟有着什么？“万象大典”又具有什么含义？为了寻找拯救小岛的方法，莱莎等人即将展开一场围绕“钥匙”与“炼金术根源”的壮阔冒险……&lt;br&gt;&lt;br&gt;&lt;strong&gt;■在广阔的原野展开冒险！&lt;/strong&gt;&lt;br&gt;本作的原野由无缝展开的多幅地图连结而成，无需载入即可随意在地图间移动。尽情徜徉于广阔无边、栩栩如生的原野，自由自在享受冒险吧！&lt;br&gt;&lt;br&gt;&lt;strong&gt;■多达11名的队伍成员！&lt;/strong&gt;&lt;br&gt;除了与前作的角色重逢，更有作为剧情关键的新角色登场！系列作最大规模的队伍，正蓄势待发！&lt;br&gt;&lt;br&gt;&lt;strong&gt;■拥有未知力量的“钥匙”将是冒险的王牌！&lt;/strong&gt;&lt;br&gt;本作的核心系统——可在各种场合制作的“钥匙”华丽登场！&lt;br&gt;“钥匙”种类繁多且效果各异，可运用于探索、调合与战斗等各种场面。活用“钥匙”，让冒险来得更加有趣与便利！&lt;br&gt;&lt;br&gt;※有关内容的详情，请参阅官方网站。&lt;br&gt;※另有包含本商品的其他组合商品。请留意避免重复购买。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1999770/extras/AtelierRyza3_Custom_Image_616ｘ616_RYZA3MASTER_japanese.png?t=1695618800" /&gt;</t>
         </is>
       </c>
     </row>
@@ -14268,7 +14268,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
@@ -15095,7 +15095,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x346_ch_s.jpg?t=1695652136" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_1.png?t=1695652136" /&gt;&lt;br&gt;&lt;br&gt;《拯救：卫兵》是一款快节奏的轻度类Rogue自动射击游戏，背景世界与游戏《拯救》相同。一百多年前，灰色瘟疫肆虐，大部分人类都变成了凶恶的变种生物。这片土地如今被死亡和混乱笼罩，只有少数城市仍然屹立不倒。&lt;br&gt;&lt;br&gt;你将操控炼金术士创造的一个卫兵，肩负唯一的使命——只要你的反应堆还在运转，就竭力保卫城市，抵挡变种生物无尽的袭击。组合物品和炼金元素，不断获取新的武器，打造独特的构筑！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/saw-1_new.gif?t=1695652136" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_2.png?t=1695652136" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;易于上手，难以精通&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;巧妙操控卫兵突破致命变种生物的包围，利用它的武器将敌人消灭！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;收集原质，提升守卫的性能&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/Desktop_2023.02.10_-_14.46.11.13_3.gif?t=1695652136" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;组合武器和物品，赋予它们全新的元素效果&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;卫兵反应堆的能量耗尽之前，一定不能牺牲！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;面对并击败强大的头目&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;完成数十项挑战，解锁全新的能力&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/Choose_your_Sentinel.gif?t=1695652136" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;炼金术创造的各类枪械和技能供你选择&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;灵活升级或精心打造角色构筑，以对抗特性和抗性不同的变种怪物&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;坚持得越久，你就越强大。不断获得技能、武器，不断击败敌人。简而言之，游戏超级耐玩！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_3.png?t=1695652136" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/2244480/REMEDIUM_Sentinels/" target="_blank" rel=""  id="dynamiclink_3" &gt;https://store.steampowered.com/app/2244480/REMEDIUM_Sentinels/&lt;/a&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x346_ch_s.jpg?t=1695652533" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_1.png?t=1695652533" /&gt;&lt;br&gt;&lt;br&gt;《拯救：卫兵》是一款快节奏的轻度类Rogue自动射击游戏，背景世界与游戏《拯救》相同。一百多年前，灰色瘟疫肆虐，大部分人类都变成了凶恶的变种生物。这片土地如今被死亡和混乱笼罩，只有少数城市仍然屹立不倒。&lt;br&gt;&lt;br&gt;你将操控炼金术士创造的一个卫兵，肩负唯一的使命——只要你的反应堆还在运转，就竭力保卫城市，抵挡变种生物无尽的袭击。组合物品和炼金元素，不断获取新的武器，打造独特的构筑！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/saw-1_new.gif?t=1695652533" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_2.png?t=1695652533" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;易于上手，难以精通&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;巧妙操控卫兵突破致命变种生物的包围，利用它的武器将敌人消灭！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;收集原质，提升守卫的性能&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/Desktop_2023.02.10_-_14.46.11.13_3.gif?t=1695652533" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;组合武器和物品，赋予它们全新的元素效果&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;卫兵反应堆的能量耗尽之前，一定不能牺牲！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;面对并击败强大的头目&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;完成数十项挑战，解锁全新的能力&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/Choose_your_Sentinel.gif?t=1695652533" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;炼金术创造的各类枪械和技能供你选择&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;灵活升级或精心打造角色构筑，以对抗特性和抗性不同的变种怪物&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;坚持得越久，你就越强大。不断获得技能、武器，不断击败敌人。简而言之，游戏超级耐玩！&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2244480/extras/615x150_3.png?t=1695652533" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/2244480/REMEDIUM_Sentinels/" target="_blank" rel=""  id="dynamiclink_3" &gt;https://store.steampowered.com/app/2244480/REMEDIUM_Sentinels/&lt;/a&gt;</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2435,7 +2435,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://www.twitch.tv/videos/143938807" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/378540/extras/TheSurge_Twitch_DevSession_616x200_Replay.jpg?t=1649842572" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;欢迎来到CREO。巨大组织拯救了世界！&lt;br&gt;&lt;br&gt;工作的第一天，一场突发性事故让你晕了过去。醒来时，你发现身处一个被毁的区域里，身上还装备着一具重型外骨骼机甲。失控的机器人，近乎疯癫的同事和无良AI——一切都想至你与死地。&lt;br&gt;&lt;br&gt;在紧张的维瑟罗混战游戏中，对抗致命的敌人和强大的boss。瞄准目标，利用前卫掠夺系统切断敌人的四肢，掠夺切割下的部位做为装备。装备并升级从敌人那里切割下的装备，以制造出新的武器和机甲。通过全新升级让自己更强大。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/378540/extras/TS-Steam-FOND.png?t=1649842572" /&gt;</t>
+          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://www.twitch.tv/videos/143938807" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/378540/extras/TheSurge_Twitch_DevSession_616x200_Replay.jpg?t=1695811115" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;欢迎来到CREO。巨大组织拯救了世界！&lt;br&gt;&lt;br&gt;工作的第一天，一场突发性事故让你晕了过去。醒来时，你发现身处一个被毁的区域里，身上还装备着一具重型外骨骼机甲。失控的机器人，近乎疯癫的同事和无良AI——一切都想至你与死地。&lt;br&gt;&lt;br&gt;在紧张的维瑟罗混战游戏中，对抗致命的敌人和强大的boss。瞄准目标，利用前卫掠夺系统切断敌人的四肢，掠夺切割下的部位做为装备。装备并升级从敌人那里切割下的装备，以制造出新的武器和机甲。通过全新升级让自己更强大。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/378540/extras/TS-Steam-FOND.png?t=1695811115" /&gt;</t>
         </is>
       </c>
     </row>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/644830/extras/CNS_01.gif?t=1663148861" /&gt;&lt;br&gt;前往耶利哥市途中，你的飞机被一场神秘的风暴击落，坠毁在郊区。几周后，你在市内一个废弃的拘留所醒来。士兵正实施戒严，机器人横冲直撞，一场黑暗的纳米风暴正在不断扩张，笼罩着整座城市......&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/644830/extras/CNS_02.gif?t=1663148861" /&gt;&lt;br&gt;《The Surge 2》拥有更加强大多样的武器、装甲、能力、植入体和无人机来进一步塑造你的角色，这是一个更庞大、更多样、更雄心勃勃的世界。准备好迎接挑战了吗？你能否幸存并揭开游戏中的隐藏秘密？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/644830/extras/CNS_03.gif?t=1663148861" /&gt;&lt;br&gt;探索杂乱无章、满目疮痍的耶利哥市，只为寻求一线生机。在残酷无情的战斗中对抗凶猛敌人，砍断撕裂对手的四肢，窃取他们的宝贵装备，让自己更强大——强大到足以应对潜伏在城市中最令人闻风丧胆的敌人。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;硬核、残酷的近战格斗&lt;br&gt;&lt;/li&gt;&lt;li&gt;迎战致命敌人和体型庞大的boss&lt;br&gt;&lt;/li&gt;&lt;li&gt;砍断对手躯体部件，为己所用&lt;br&gt;&lt;/li&gt;&lt;li&gt;丰富的角色发展和自定义选项&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/644830/extras/CNS_01.gif?t=1695819737" /&gt;&lt;br&gt;前往耶利哥市途中，你的飞机被一场神秘的风暴击落，坠毁在郊区。几周后，你在市内一个废弃的拘留所醒来。士兵正实施戒严，机器人横冲直撞，一场黑暗的纳米风暴正在不断扩张，笼罩着整座城市......&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/644830/extras/CNS_02.gif?t=1695819737" /&gt;&lt;br&gt;《The Surge 2》拥有更加强大多样的武器、装甲、能力、植入体和无人机来进一步塑造你的角色，这是一个更庞大、更多样、更雄心勃勃的世界。准备好迎接挑战了吗？你能否幸存并揭开游戏中的隐藏秘密？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/644830/extras/CNS_03.gif?t=1695819737" /&gt;&lt;br&gt;探索杂乱无章、满目疮痍的耶利哥市，只为寻求一线生机。在残酷无情的战斗中对抗凶猛敌人，砍断撕裂对手的四肢，窃取他们的宝贵装备，让自己更强大——强大到足以应对潜伏在城市中最令人闻风丧胆的敌人。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;硬核、残酷的近战格斗&lt;br&gt;&lt;/li&gt;&lt;li&gt;迎战致命敌人和体型庞大的boss&lt;br&gt;&lt;/li&gt;&lt;li&gt;砍断对手躯体部件，为己所用&lt;br&gt;&lt;/li&gt;&lt;li&gt;丰富的角色发展和自定义选项&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1065310/extras/Logo_Evil_West_white-en-ligne.png?t=1669115972" /&gt;&lt;br&gt;&lt;strong&gt;邪恶永在暗处躁动......所到之处血流成河。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;一股暗黑势力吞噬了美国边境。作为最高机密吸血鬼狩猎机构的仅存特工，你是人类与那些黑暗邪恶怪物之间的最后一道防线。挺身而出，成为‘西大荒超级英雄’，根除吸血鬼的威胁，拯救美国！&lt;br&gt;&lt;br&gt;在血腥激烈对战中，无所不用其极，利用电闪充能护手和装备大杀四方。以孤狼模式或和朋友合作，杀死嗜血怪物。在以叙事形式拉开的游戏旅程中，探索并对战恶魔，同时升级你的武器和狩猎工具。解锁新技能，进化杀怪本领；打造专属游戏风格，击败可怖的鬼怪。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;单打独斗或组团奇袭，血腥对战&lt;br&gt;&lt;/li&gt;&lt;li&gt;构架于怪异的西部蛮荒世界，重新诠释古老神话&lt;br&gt;&lt;/li&gt;&lt;li&gt;获取新技能、升级武器和工具以进化杀怪本领&lt;br&gt;&lt;/li&gt;&lt;li&gt;在叙事形式拉开的旅程中，探索并对战恶魔，拯救美国&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1065310/extras/Logo_Evil_West_white-en-ligne.png?t=1695820309" /&gt;&lt;br&gt;&lt;strong&gt;邪恶永在暗处躁动......所到之处血流成河。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;一股暗黑势力吞噬了美国边境。作为最高机密吸血鬼狩猎机构的仅存特工，你是人类与那些黑暗邪恶怪物之间的最后一道防线。挺身而出，成为‘西大荒超级英雄’，根除吸血鬼的威胁，拯救美国！&lt;br&gt;&lt;br&gt;在血腥激烈对战中，无所不用其极，利用电闪充能护手和装备大杀四方。以孤狼模式或和朋友合作，杀死嗜血怪物。在以叙事形式拉开的游戏旅程中，探索并对战恶魔，同时升级你的武器和狩猎工具。解锁新技能，进化杀怪本领；打造专属游戏风格，击败可怖的鬼怪。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;单打独斗或组团奇袭，血腥对战&lt;br&gt;&lt;/li&gt;&lt;li&gt;构架于怪异的西部蛮荒世界，重新诠释古老神话&lt;br&gt;&lt;/li&gt;&lt;li&gt;获取新技能、升级武器和工具以进化杀怪本领&lt;br&gt;&lt;/li&gt;&lt;li&gt;在叙事形式拉开的旅程中，探索并对战恶魔，拯救美国&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
@@ -8179,7 +8179,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1230530/extras/ATLAS_FALLEN_LOGO_WHITE.png?t=1691670307" /&gt;&lt;br&gt;&lt;br&gt;自沙尘中崛起，带领人类向沦为压迫者的堕落神明发起反抗。&lt;br&gt;&lt;br&gt;在这片永恒之地上御沙而行，这里充满了古老的危险、谜团和过去的碎片。使用强大的变形武器和毁灭性的沙动力超能力，进行壮观的超能力战斗，猎杀传奇怪兽。&lt;br&gt;&lt;br&gt;瞄准并收集敌人的真气，塑造你自己的自定义游戏风格，在完全多人合作或单人剧情战役中为人类打造一个新时代。&lt;br&gt;&lt;br&gt;&lt;i&gt;于尘埃中崛起，掀起风暴。&lt;/i&gt;&lt;br&gt;&lt;br&gt;•	驾驭狂沙，探索充满秘密、不同区域和危险的独特奇幻世界&lt;br&gt;•	在英勇的超能力战斗中单独或与朋友一起狩猎传奇生物&lt;br&gt;•	释放你的力量，创造致命的变形武器&lt;br&gt;•	以独特的自定义技能和超能力崛起，成为终极冠军</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1230530/extras/ATLAS_FALLEN_LOGO_WHITE.png?t=1695810490" /&gt;&lt;br&gt;&lt;br&gt;自沙尘中崛起，带领人类向沦为压迫者的堕落神明发起反抗。&lt;br&gt;&lt;br&gt;在这片永恒之地上御沙而行，这里充满了古老的危险、谜团和过去的碎片。使用强大的变形武器和毁灭性的沙动力超能力，进行壮观的超能力战斗，猎杀传奇怪兽。&lt;br&gt;&lt;br&gt;瞄准并收集敌人的真气，塑造你自己的自定义游戏风格，在完全多人合作或单人剧情战役中为人类打造一个新时代。&lt;br&gt;&lt;br&gt;&lt;i&gt;于尘埃中崛起，掀起风暴。&lt;/i&gt;&lt;br&gt;&lt;br&gt;•	驾驭狂沙，探索充满秘密、不同区域和危险的独特奇幻世界&lt;br&gt;•	在英勇的超能力战斗中单独或与朋友一起狩猎传奇生物&lt;br&gt;•	释放你的力量，创造致命的变形武器&lt;br&gt;•	以独特的自定义技能和超能力崛起，成为终极冠军</t>
         </is>
       </c>
     </row>
@@ -8991,7 +8991,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>你的存款很少，但野心很大。 &lt;br&gt;&lt;br&gt;在叔叔的帮助下，你找到一间公寓和第一份工作。 但接下来，能否取得成功并最终接管纽约，将完全取决于你自己。 &lt;br&gt;&lt;br&gt;慢慢建立多个小企业，把它们发展成大公司，或者另辟蹊径 – 在庞大的商业沙盒中探索无限可能， 享受绝无仅有的游戏体验！&lt;br&gt;&lt;br&gt;从小公寓和公共交通到豪华套房、跑车和设计师家具。 把钱投入投资基金和房地产。 成功、失败，重头再来。 无论如何都要记得照顾好自己，好好睡觉，在上升之路上保持好心态。 &lt;br&gt;&lt;br&gt;你有能力建立自己的帝国吗？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/1-zhcn.png?t=1695128300" /&gt;&lt;br&gt;从一无所有起步，成为纽约最显赫的大亨。 走上创业之路，聪明地工作，让企业蓬勃发展，同时享受生活。 你想如何成功？ 你能付出多少？ 你能坚持多久？ &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_placement.gif?t=1695128300" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/2-zhcn.png?t=1695128300" /&gt;&lt;br&gt;创办你自己的礼品店、超市、咖啡店、律师事务所、服装店、酒品店、花店等。 定义你自己的成功 – 开一家小商店、一系列连锁快餐店、一家大公司。或者在地下室开发价值数百万美元的网站。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_citymap.gif?t=1695128300" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/3-zhcn.png?t=1695128300" /&gt;&lt;br&gt;申请贷款、租用建筑、设计徽标、翻新店铺、进货、管理资金、雇用员工，以及建造基础设施。 过不久，你可能还要开始从港口进口商品，通过仓库网络进行配送。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_warehouse.gif?t=1695128300" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/4-zhcn.png?t=1695128300" /&gt;&lt;br&gt;企业越大，就越需要管理人员。 雇用人力资源经理、物流经理和采购代表。 这些人员都需要办公桌和电脑，所以你需要一个高级的总部。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_headquarters.gif?t=1695128300" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/5-zhcn.png?t=1695128300" /&gt;&lt;br&gt;需要送货卡车？ 到经销商那里买一辆。 需要吃的？ 去超市逛逛，但要先在家里配个冰箱。 Big Ambitions 是一款生活模拟游戏，你的角色必须与世界直接互动才能生存下来并取得成功。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_fridge.jpg?t=1695128300" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/6-zhcn.png?t=1695128300" /&gt;&lt;br&gt;在每处房屋里都装上适合自己风格和地位的家具。 把辛苦赚来的资金投资到房地产，发展你的商业帝国。 一点一点，接管这座城市。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_apartment.jpg?t=1695128300" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/7-zhcn.png?t=1695128300" /&gt;&lt;br&gt;你自己的财产，想怎么花就怎么花。 买台大型 SUV、高速跑车，或者全新豪华型 Mersaidi S500。 也可以去赌场碰碰运气，或者把钱投入投资基金收取回报。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_car.jpg?t=1695128300" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/8-zhcn.png?t=1695128300" /&gt;&lt;br&gt;游戏期间，你始终需要保证充足的睡眠，保持健康快乐。 旅程的重点在于享受当下时光，因为年龄越大，你越会想到金钱买不来时间… 不过真的买不来吗？  &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_persona.jpg?t=1695128300" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/9-zhcn.png?t=1695128300" /&gt;&lt;br&gt;Big Ambitions 将人气大作 Startup Company 的精华提炼到更高层次。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_startupcompany.jpg?t=1695128300" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1331550/Big_Ambitions/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1331550/Big_Ambitions/&lt;/a&gt;</t>
+          <t>你的存款很少，但野心很大。 &lt;br&gt;&lt;br&gt;在叔叔的帮助下，你找到一间公寓和第一份工作。 但接下来，能否取得成功并最终接管纽约，将完全取决于你自己。 &lt;br&gt;&lt;br&gt;慢慢建立多个小企业，把它们发展成大公司，或者另辟蹊径 – 在庞大的商业沙盒中探索无限可能， 享受绝无仅有的游戏体验！&lt;br&gt;&lt;br&gt;从小公寓和公共交通到豪华套房、跑车和设计师家具。 把钱投入投资基金和房地产。 成功、失败，重头再来。 无论如何都要记得照顾好自己，好好睡觉，在上升之路上保持好心态。 &lt;br&gt;&lt;br&gt;你有能力建立自己的帝国吗？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/1-zhcn.png?t=1695822546" /&gt;&lt;br&gt;从一无所有起步，成为纽约最显赫的大亨。 走上创业之路，聪明地工作，让企业蓬勃发展，同时享受生活。 你想如何成功？ 你能付出多少？ 你能坚持多久？ &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_placement.gif?t=1695822546" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/2-zhcn.png?t=1695822546" /&gt;&lt;br&gt;创办你自己的礼品店、超市、咖啡店、律师事务所、服装店、酒品店、花店等。 定义你自己的成功 – 开一家小商店、一系列连锁快餐店、一家大公司。或者在地下室开发价值数百万美元的网站。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_citymap.gif?t=1695822546" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/3-zhcn.png?t=1695822546" /&gt;&lt;br&gt;申请贷款、租用建筑、设计徽标、翻新店铺、进货、管理资金、雇用员工，以及建造基础设施。 过不久，你可能还要开始从港口进口商品，通过仓库网络进行配送。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_warehouse.gif?t=1695822546" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/4-zhcn.png?t=1695822546" /&gt;&lt;br&gt;企业越大，就越需要管理人员。 雇用人力资源经理、物流经理和采购代表。 这些人员都需要办公桌和电脑，所以你需要一个高级的总部。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_headquarters.gif?t=1695822546" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/5-zhcn.png?t=1695822546" /&gt;&lt;br&gt;需要送货卡车？ 到经销商那里买一辆。 需要吃的？ 去超市逛逛，但要先在家里配个冰箱。 Big Ambitions 是一款生活模拟游戏，你的角色必须与世界直接互动才能生存下来并取得成功。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_fridge.jpg?t=1695822546" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/6-zhcn.png?t=1695822546" /&gt;&lt;br&gt;在每处房屋里都装上适合自己风格和地位的家具。 把辛苦赚来的资金投资到房地产，发展你的商业帝国。 一点一点，接管这座城市。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_apartment.jpg?t=1695822546" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/7-zhcn.png?t=1695822546" /&gt;&lt;br&gt;你自己的财产，想怎么花就怎么花。 买台大型 SUV、高速跑车，或者全新豪华型 Mersaidi S500。 也可以去赌场碰碰运气，或者把钱投入投资基金收取回报。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_car.jpg?t=1695822546" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/8-zhcn.png?t=1695822546" /&gt;&lt;br&gt;游戏期间，你始终需要保证充足的睡眠，保持健康快乐。 旅程的重点在于享受当下时光，因为年龄越大，你越会想到金钱买不来时间… 不过真的买不来吗？  &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_persona.jpg?t=1695822546" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/9-zhcn.png?t=1695822546" /&gt;&lt;br&gt;Big Ambitions 将人气大作 Startup Company 的精华提炼到更高层次。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_startupcompany.jpg?t=1695822546" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1331550/Big_Ambitions/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1331550/Big_Ambitions/&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -9572,7 +9572,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -9777,7 +9777,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>《神州志西游》是一款&lt;i&gt;Rogue-like&lt;/i&gt;&lt;i&gt;卡牌策略&lt;/i&gt;&lt;i&gt;游戏&lt;/i&gt;。你将扮演西行的角色之一，组建一支精英团队，构建强大套牌，获取神秘法宝，去战胜一路上遇到的妖魔鬼怪。在旅途中，你会无可避免的遇到突发事件，一念&lt;strong&gt;成佛&lt;/strong&gt;，一念&lt;strong&gt;成魔&lt;/strong&gt;。&lt;br&gt;&lt;br&gt;QQ一群&lt;strong&gt;&lt;u&gt;1003867153&lt;/u&gt;&lt;/strong&gt;（已满），二群&lt;strong&gt;&lt;i&gt;570090261&lt;/i&gt;&lt;/strong&gt;！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/Fishpond_20220311111945.jpg?t=1695498046" /&gt;&lt;h2 class="bb_tag"&gt;游戏特色概述&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 5个英雄角色&lt;br&gt;&lt;/li&gt;&lt;li&gt;20+可招募同伴&lt;br&gt;&lt;/li&gt;&lt;li&gt;120+个独特的NPC&lt;br&gt;&lt;/li&gt;&lt;li&gt;500+张卡牌，300+件法宝和消耗品&lt;br&gt;&lt;/li&gt;&lt;li&gt;4个冒险章节，共60个不同结局&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;耳熟能详的传奇英雄&lt;/h2&gt;&lt;br&gt;每次冒险，你将扮演五位传奇英雄之一，带领最多5人的团队。每个英雄都拥有其独特的能力、75张卡池和特别的故事情节：&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;悟空手持金箍棒，能释放毁灭性的范围攻击，利用七十二变学习任何NPC的技能，能够操纵火焰使敌人燃烧，还可以灵活地闪避攻击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-七十二变-简中.gif?t=1695498046" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;玄奘具有独特的能力，能在敌人身上施加“善”或“恶”的状态，使其转化为自己的队友并创建新的团队，或者释放强大的攻击并创建魔法屏障来保护自己。他还可以利用诅咒卡牌，形成特殊的策略。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-唐僧-简中.gif?t=1695498046" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;白龙他的孪生妹妹龙女的灵魂同行，有着操纵水元素和使用剑阵触发强效增益的能力。他会储存未使用的能量作为灵力，并在需要时进行利用。龙女还有学习同伴卡牌的能力，增强他们的联合力量。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-白龙-简中.gif?t=1695498046" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;八戒可以通过吞噬消耗品获得饥饿值和基础状态提升，利用三十六变能力从敌人身上学习能力，以及在战斗中吸收生命值和最大生命值。另外，当八戒完成“八戒”时，可以最大化自身能力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-八戒-简中.gif?t=1695498046" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;沙僧是一个多才多艺的人物，可以根据敌人的位置增加伤害，并召唤五行妖精（金、木、水、火、土）进入敌人团队。沙僧可以围绕每个妖精的独特能力建立策略，并对敌人发动致命攻击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-沙僧-简中.gif?t=1695498046" /&gt;&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;独特的团队战斗体验&lt;/h2&gt;&lt;br&gt;在这艰难的西行之旅中，你不需要孤军奋战——通过从20多个同伴中招募并召唤NPC作为队友，组建你自己的全明星小队。同伴是拥有独特能力和2-4张卡牌的永久队友，他们将一直跟随你，直到他们死亡或被解雇。而NPC是临时队友，在每场战斗结束时会离开或死亡。&lt;br&gt;&lt;br&gt;游戏中有许多召唤或转换NPC的方法：你可以使用像爱情药水这样的消耗品来吸引NPC到你的身边，或使用净化瓶来净化邪恶的NPC。另外，你还可以使用中立卡牌“人种袋”来捕捉虚弱的NPC。值得一提的是，玄奘是创建NPC队伍的专家。你必须明智地选择你的队友，因为他们在这艰难的旅程中扮演着至关重要的角色。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-魅惑-简中.gif?t=1695498046" /&gt;&lt;h2 class="bb_tag"&gt;沉浸式的西游冒险故事&lt;/h2&gt;&lt;br&gt;每个英雄都有许多独特的故事情节，灵感来自于《西游记》的传说。这些故事情节根据你的选择和策略提供不同的对手、事件和任务。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/视频3.gif?t=1695498046" /&gt;&lt;br&gt;&lt;br&gt;随着西行旅程不断深入，你将遇到超过120个独特的NPC，每个NPC都有自己的技能和背景故事。通过相互关联的事件和选择，每个决策都会带你走向不同的路径，通向天庭、灵山或心魔幻境进行最终的对决。你所采取的每一步都至关重要，决定着世界的命运 - 这是一个真正沉浸式的冒险，从开始到结束都能让你全神贯注。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/视频2.gif?t=1695498046" /&gt;&lt;br&gt;&lt;br&gt;敢问路在何方？路在脚下！这便开始惊心动魄的西游之路吧！</t>
+          <t>《神州志西游》是一款&lt;i&gt;Rogue-like&lt;/i&gt;&lt;i&gt;卡牌策略&lt;/i&gt;&lt;i&gt;游戏&lt;/i&gt;。你将扮演西行的角色之一，组建一支精英团队，构建强大套牌，获取神秘法宝，去战胜一路上遇到的妖魔鬼怪。在旅途中，你会无可避免的遇到突发事件，一念&lt;strong&gt;成佛&lt;/strong&gt;，一念&lt;strong&gt;成魔&lt;/strong&gt;。&lt;br&gt;&lt;br&gt;QQ一群&lt;strong&gt;&lt;u&gt;1003867153&lt;/u&gt;&lt;/strong&gt;（已满），二群&lt;strong&gt;&lt;i&gt;570090261&lt;/i&gt;&lt;/strong&gt;！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/Fishpond_20220311111945.jpg?t=1695769581" /&gt;&lt;h2 class="bb_tag"&gt;游戏特色概述&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 5个英雄角色&lt;br&gt;&lt;/li&gt;&lt;li&gt;20+可招募同伴&lt;br&gt;&lt;/li&gt;&lt;li&gt;120+个独特的NPC&lt;br&gt;&lt;/li&gt;&lt;li&gt;500+张卡牌，300+件法宝和消耗品&lt;br&gt;&lt;/li&gt;&lt;li&gt;4个冒险章节，共60个不同结局&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;耳熟能详的传奇英雄&lt;/h2&gt;&lt;br&gt;每次冒险，你将扮演五位传奇英雄之一，带领最多5人的团队。每个英雄都拥有其独特的能力、75张卡池和特别的故事情节：&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;悟空手持金箍棒，能释放毁灭性的范围攻击，利用七十二变学习任何NPC的技能，能够操纵火焰使敌人燃烧，还可以灵活地闪避攻击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-七十二变-简中.gif?t=1695769581" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;玄奘具有独特的能力，能在敌人身上施加“善”或“恶”的状态，使其转化为自己的队友并创建新的团队，或者释放强大的攻击并创建魔法屏障来保护自己。他还可以利用诅咒卡牌，形成特殊的策略。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-唐僧-简中.gif?t=1695769581" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;白龙他的孪生妹妹龙女的灵魂同行，有着操纵水元素和使用剑阵触发强效增益的能力。他会储存未使用的能量作为灵力，并在需要时进行利用。龙女还有学习同伴卡牌的能力，增强他们的联合力量。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-白龙-简中.gif?t=1695769581" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;八戒可以通过吞噬消耗品获得饥饿值和基础状态提升，利用三十六变能力从敌人身上学习能力，以及在战斗中吸收生命值和最大生命值。另外，当八戒完成“八戒”时，可以最大化自身能力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-八戒-简中.gif?t=1695769581" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;沙僧是一个多才多艺的人物，可以根据敌人的位置增加伤害，并召唤五行妖精（金、木、水、火、土）进入敌人团队。沙僧可以围绕每个妖精的独特能力建立策略，并对敌人发动致命攻击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-沙僧-简中.gif?t=1695769581" /&gt;&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;独特的团队战斗体验&lt;/h2&gt;&lt;br&gt;在这艰难的西行之旅中，你不需要孤军奋战——通过从20多个同伴中招募并召唤NPC作为队友，组建你自己的全明星小队。同伴是拥有独特能力和2-4张卡牌的永久队友，他们将一直跟随你，直到他们死亡或被解雇。而NPC是临时队友，在每场战斗结束时会离开或死亡。&lt;br&gt;&lt;br&gt;游戏中有许多召唤或转换NPC的方法：你可以使用像爱情药水这样的消耗品来吸引NPC到你的身边，或使用净化瓶来净化邪恶的NPC。另外，你还可以使用中立卡牌“人种袋”来捕捉虚弱的NPC。值得一提的是，玄奘是创建NPC队伍的专家。你必须明智地选择你的队友，因为他们在这艰难的旅程中扮演着至关重要的角色。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/商店-魅惑-简中.gif?t=1695769581" /&gt;&lt;h2 class="bb_tag"&gt;沉浸式的西游冒险故事&lt;/h2&gt;&lt;br&gt;每个英雄都有许多独特的故事情节，灵感来自于《西游记》的传说。这些故事情节根据你的选择和策略提供不同的对手、事件和任务。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/视频3.gif?t=1695769581" /&gt;&lt;br&gt;&lt;br&gt;随着西行旅程不断深入，你将遇到超过120个独特的NPC，每个NPC都有自己的技能和背景故事。通过相互关联的事件和选择，每个决策都会带你走向不同的路径，通向天庭、灵山或心魔幻境进行最终的对决。你所采取的每一步都至关重要，决定着世界的命运 - 这是一个真正沉浸式的冒险，从开始到结束都能让你全神贯注。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1449070/extras/视频2.gif?t=1695769581" /&gt;&lt;br&gt;&lt;br&gt;敢问路在何方？路在脚下！这便开始惊心动魄的西游之路吧！</t>
         </is>
       </c>
     </row>
@@ -10893,7 +10893,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Embark on an odyssey for the Lost Ark in a vast, vibrant world: explore new lands, seek out lost treasures, and test yourself in thrilling action combat. Define your fighting style with your class and advanced class, and customize your skills, weapons, and gear to bring your might to bear as you fight against hordes of enemies, colossal bosses, and dark forces seeking the power of the Ark in this action-packed free-to-play RPG.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599340/extras/LA_STEAM_WORLD_BRIMMING_01.gif?t=1695323296" /&gt;&lt;br&gt;&lt;strong&gt;Discover a World Brimming with Adventure&lt;/strong&gt;&lt;br&gt;Explore seven vast, varied continents and the seas between them to find vibrant cultures, strange and fantastical beasts, and all the unexpected marvels waiting to be discovered. Delve into the secrets of Arkesia, prove your might in battles and raids, compete against other players in PvP, travel to distant islands in search of hidden riches, face packs of enemies and colossal bosses in the open world, and more.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599340/extras/LA_STEAM_ODYSSEY_AWAITS_02.gif?t=1695323296" /&gt;&lt;br&gt;&lt;strong&gt;Your Odyssey Awaits&lt;/strong&gt;&lt;br&gt;Splash into massively satisfying ARPG-style combat and progression as you quest, raid, and fight on the scope of an MMO.  Whether you want to play solo, in groups with friends, or matched up with other adventurers in the world, there’s an epic adventure waiting for you.  Fight in the open world or delve into chaos dungeons, go head-to-head in expert PvP duels, test your mettle on epic quests, raid against bosses big and small, and hold your own in the fight against the Demon Legion to reclaim the power and light of the Lost Ark.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599340/extras/LA_STEAM_FIGHT_03.gif?t=1695323296" /&gt;&lt;br&gt;&lt;strong&gt;Define Your Fight&lt;/strong&gt;&lt;br&gt;Lost Ark offers easy-to-learn features with unexpected depth and room for customization. Hit the ground running with pick-up-and-play action then take control of your combat with the unique Tripod system. Unlock three tiers of customization for each of your abilities, giving you powerful control of exactly how you fight.  Lost Ark’s ever-expanding roster of iconic classes—each with their own distinct advanced classes—offers plenty of room to explore until you find the combat style that’s just right for you.  &lt;br&gt;&lt;br&gt;The same goes for other features: as you continue your journey, you’ll find non-combat skills, crafting, guilds and social systems, and other rich features that bring the world alive. Whether you want to skim along the surface or dive deep into the details is up to you.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;ACCESSIBILITY FEATURES:&lt;/strong&gt;&lt;br&gt;Personalize your adventure with accessibility settings before game play. Enable numerous options including chat text enlargement, color blindness filters, photosensitivity mode, toggleable camera shake, and subtitle settings to create your optimal experience. Define your audio preferences with settings for volume controls, mono sound, stereo sound, and surround sound. You can also adjust game inputs via input remapping options and mouse/keyboard control settings. Lastly, define game inputs via input remapping options, and make sure no message is missed with chat text-to-speech and speech-to-text.</t>
+          <t>Embark on an odyssey for the Lost Ark in a vast, vibrant world: explore new lands, seek out lost treasures, and test yourself in thrilling action combat. Define your fighting style with your class and advanced class, and customize your skills, weapons, and gear to bring your might to bear as you fight against hordes of enemies, colossal bosses, and dark forces seeking the power of the Ark in this action-packed free-to-play RPG.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599340/extras/LA_STEAM_WORLD_BRIMMING_01.gif?t=1695752294" /&gt;&lt;br&gt;&lt;strong&gt;Discover a World Brimming with Adventure&lt;/strong&gt;&lt;br&gt;Explore seven vast, varied continents and the seas between them to find vibrant cultures, strange and fantastical beasts, and all the unexpected marvels waiting to be discovered. Delve into the secrets of Arkesia, prove your might in battles and raids, compete against other players in PvP, travel to distant islands in search of hidden riches, face packs of enemies and colossal bosses in the open world, and more.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599340/extras/LA_STEAM_ODYSSEY_AWAITS_02.gif?t=1695752294" /&gt;&lt;br&gt;&lt;strong&gt;Your Odyssey Awaits&lt;/strong&gt;&lt;br&gt;Splash into massively satisfying ARPG-style combat and progression as you quest, raid, and fight on the scope of an MMO.  Whether you want to play solo, in groups with friends, or matched up with other adventurers in the world, there’s an epic adventure waiting for you.  Fight in the open world or delve into chaos dungeons, go head-to-head in expert PvP duels, test your mettle on epic quests, raid against bosses big and small, and hold your own in the fight against the Demon Legion to reclaim the power and light of the Lost Ark.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1599340/extras/LA_STEAM_FIGHT_03.gif?t=1695752294" /&gt;&lt;br&gt;&lt;strong&gt;Define Your Fight&lt;/strong&gt;&lt;br&gt;Lost Ark offers easy-to-learn features with unexpected depth and room for customization. Hit the ground running with pick-up-and-play action then take control of your combat with the unique Tripod system. Unlock three tiers of customization for each of your abilities, giving you powerful control of exactly how you fight.  Lost Ark’s ever-expanding roster of iconic classes—each with their own distinct advanced classes—offers plenty of room to explore until you find the combat style that’s just right for you.  &lt;br&gt;&lt;br&gt;The same goes for other features: as you continue your journey, you’ll find non-combat skills, crafting, guilds and social systems, and other rich features that bring the world alive. Whether you want to skim along the surface or dive deep into the details is up to you.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;ACCESSIBILITY FEATURES:&lt;/strong&gt;&lt;br&gt;Personalize your adventure with accessibility settings before game play. Enable numerous options including chat text enlargement, color blindness filters, photosensitivity mode, toggleable camera shake, and subtitle settings to create your optimal experience. Define your audio preferences with settings for volume controls, mono sound, stereo sound, and surround sound. You can also adjust game inputs via input remapping options and mouse/keyboard control settings. Lastly, define game inputs via input remapping options, and make sure no message is missed with chat text-to-speech and speech-to-text.</t>
         </is>
       </c>
     </row>
@@ -11259,7 +11259,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1644320/extras/AgeOfRailways.gif?t=1693899382" /&gt;&lt;br&gt;&lt;br&gt;在&lt;strong&gt;《Railway Empire 2》&lt;/strong&gt;中登上特快列车，驶向财富与名望！您将在游戏中化身智慧过人的企业家，于 19 世纪初期接管一家小型铁路公司，将您的蒸汽机车变成经济发展的主力军。您要把公司发展成大陆上规模最大的铁路公司，&lt;strong&gt;并通过不断扩大的铁路线、桥梁和隧道网络将城市和公司连接起来&lt;/strong&gt;，从而超越竞争对手。您可以调遣&lt;strong&gt; 60 辆用来牵引货运列车和客运列车的著名蒸汽机车&lt;/strong&gt;。它们将在&lt;strong&gt;工业革命时期开启一个具有历史意义的时代&lt;/strong&gt;。 &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1644320/extras/BuildPerfectRailNetwork.gif?t=1693899382" /&gt;&lt;br&gt;&lt;br&gt;《Railway Empire 2》拥有比以往&lt;strong&gt;面积更大、细节更丰富、环境更生动&lt;/strong&gt;的地图。两张庞大的地图包含了&lt;strong&gt;整个美国和欧洲大陆&lt;/strong&gt;，而每片大陆的重点区域都拥有更加细致的地图。&lt;strong&gt;经过改进的轨道建设&lt;/strong&gt;，可帮助您在推动经济发展并帮助城市发展时专注于重要决策。游戏中的铁路信号将自动放置，桥梁最多可容纳 4 条轨道，可扩展的车站现在最多能容纳 8 条轨道。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1644320/extras/DetailedGameWorld.gif?t=1693899382" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;从 6 个不同角色中选择&lt;/strong&gt;一位来领导您的铁路公司，每个角色都有自己的长处和短处。如果您想挑战自己的能力，可以体验游戏中的 &lt;strong&gt;5 个剧情章节或 14 个不同场景&lt;/strong&gt;。在完全可定制的自由模式中设置喜欢的难度，或在&lt;strong&gt;建设模式&lt;/strong&gt;中建立完美的铁路网络。在&lt;strong&gt;多人合作游戏&lt;/strong&gt;中，与朋友共同应对您的铁路帝国遇到的竞争。您甚至可以登&lt;strong&gt;上一辆您拥有的列车，在蒸汽机车沿着轨道疾驰而过的时候，坐下来欣赏过路的美景&lt;/strong&gt;。&lt;h2 class="bb_tag"&gt;现在加入愿望单吧！&lt;/h2&gt;&lt;a href="https://store.steampowered.com/app/1643310/Dungeons_4/" target="_blank" rel=""  id="dynamiclink_2" &gt;https://store.steampowered.com/app/1643310/Dungeons_4/&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1880470/The_Inquisitor/" target="_blank" rel=""  id="dynamiclink_3" &gt;https://store.steampowered.com/app/1880470/The_Inquisitor/&lt;/a&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1644320/extras/AgeOfRailways.gif?t=1695802096" /&gt;&lt;br&gt;&lt;br&gt;在&lt;strong&gt;《Railway Empire 2》&lt;/strong&gt;中登上特快列车，驶向财富与名望！您将在游戏中化身智慧过人的企业家，于 19 世纪初期接管一家小型铁路公司，将您的蒸汽机车变成经济发展的主力军。您要把公司发展成大陆上规模最大的铁路公司，&lt;strong&gt;并通过不断扩大的铁路线、桥梁和隧道网络将城市和公司连接起来&lt;/strong&gt;，从而超越竞争对手。您可以调遣&lt;strong&gt; 60 辆用来牵引货运列车和客运列车的著名蒸汽机车&lt;/strong&gt;。它们将在&lt;strong&gt;工业革命时期开启一个具有历史意义的时代&lt;/strong&gt;。 &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1644320/extras/BuildPerfectRailNetwork.gif?t=1695802096" /&gt;&lt;br&gt;&lt;br&gt;《Railway Empire 2》拥有比以往&lt;strong&gt;面积更大、细节更丰富、环境更生动&lt;/strong&gt;的地图。两张庞大的地图包含了&lt;strong&gt;整个美国和欧洲大陆&lt;/strong&gt;，而每片大陆的重点区域都拥有更加细致的地图。&lt;strong&gt;经过改进的轨道建设&lt;/strong&gt;，可帮助您在推动经济发展并帮助城市发展时专注于重要决策。游戏中的铁路信号将自动放置，桥梁最多可容纳 4 条轨道，可扩展的车站现在最多能容纳 8 条轨道。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1644320/extras/DetailedGameWorld.gif?t=1695802096" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;从 6 个不同角色中选择&lt;/strong&gt;一位来领导您的铁路公司，每个角色都有自己的长处和短处。如果您想挑战自己的能力，可以体验游戏中的 &lt;strong&gt;5 个剧情章节或 14 个不同场景&lt;/strong&gt;。在完全可定制的自由模式中设置喜欢的难度，或在&lt;strong&gt;建设模式&lt;/strong&gt;中建立完美的铁路网络。在&lt;strong&gt;多人合作游戏&lt;/strong&gt;中，与朋友共同应对您的铁路帝国遇到的竞争。您甚至可以登&lt;strong&gt;上一辆您拥有的列车，在蒸汽机车沿着轨道疾驰而过的时候，坐下来欣赏过路的美景&lt;/strong&gt;。&lt;h2 class="bb_tag"&gt;现在加入愿望单吧！&lt;/h2&gt;&lt;a href="https://store.steampowered.com/app/1643310/Dungeons_4/" target="_blank" rel=""  id="dynamiclink_2" &gt;https://store.steampowered.com/app/1643310/Dungeons_4/&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1880470/The_Inquisitor/" target="_blank" rel=""  id="dynamiclink_3" &gt;https://store.steampowered.com/app/1880470/The_Inquisitor/&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -11333,7 +11333,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -11343,7 +11343,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>寻宝之旅，你准备好了吗？&lt;br&gt;&lt;br&gt;在《UNCHARTED: 盗贼传奇合辑》里追寻宝藏，并在地图上留下你的足迹。发掘《UNCHARTED》系列中如电影般惊心动魄的故事情节和最精彩刺激的动作场面，包含深受粉丝喜爱的盗贼“内森·德雷克”与“克罗伊·弗雷泽”各种发挥机智、惊险万分的精彩时刻。&lt;br&gt;&lt;br&gt;由屡获殊荣的开发商 Naughty Dog 所推出，《UNCHARTED: 盗贼传奇合辑》包含两款广受好评的单人全球冒险游戏：《秘境探险 4：盗贼末路™》及《秘境探险™：失落的遗产》。每个故事中都充满欢笑、戏剧性的事件、高强度战斗和令人惊奇的感受；同时，这两款作品都经过重制，能为玩家带来更加身临其境的游玩体验。&lt;br&gt;&lt;br&gt;&lt;strong&gt;探索令人屏息的绝美景色&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1659420/extras/d20221004_ULTC_SteamPage_Still4.png?t=1672777947" /&gt;&lt;br&gt;&lt;br&gt;从茂密的丛林、覆盖着白雪的山脉、异国岛屿到大雨连绵的街道，探索美丽环境中每一分令人惊叹的细节。利用有超清晰 4K 分辨率*与超宽显示器支持**的电影式叙事，彻底沉浸其中。享受一系列经过强化的画面调整功能，例如可调整的纹理与模型质量、各向异性过滤、阴影、反射与环境光遮蔽。 &lt;br&gt;&lt;br&gt;&lt;strong&gt;在手中感受游戏的刺激起伏&lt;/strong&gt;&lt;br&gt;&lt;br&gt;将 DualSense™ 控制器连接至 PC 进行游戏，体验专为《UNCHARTED: 盗贼传奇合辑》设计的触觉反馈与动态扳机效果。通过可完全重新配置的控制方式与对 DualShock®4 控制器***、XInput 游戏控制器以及其他许多种游戏控制器与键盘鼠标的支持，你可以依自己喜好的方式在地图上留下足迹。想要享受更多声光效果的玩家，可以尝试适用于 Razer Chroma 周边设备与 Chroma Link 兼容设备的 RGB 支持功能，此功能同样适用于 Logitech 的相应型号。 &lt;br&gt;&lt;br&gt;&lt;strong&gt;持续优化的冒险&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1659420/extras/d20221004_ULTC_SteamPage_Still3.png?t=1672777947" /&gt;&lt;br&gt;&lt;br&gt;发掘种类广泛的模式与针对 PC 所设计的增强项目，例如经过改善的游戏选项用户界面、经过重制的用户界面、部分菜单添加比例滑块、GPU 与 VRAM 的检测管理选项，并且添加了对自动暂停、最小化至后台，以及可变动加载速度的支持，以及一系列的其他添加内容。&lt;br&gt;&lt;br&gt;&lt;strong&gt;AMD FidelityFX Super Resolution 2&lt;/strong&gt;&lt;br&gt;&lt;br&gt;利用 AMD 尖端的时间放大技术，在你化身内森和克罗伊踏上寻宝之旅时提升帧率。FSR 2 使用先进的算法来提升帧率并在多种兼容图形卡中提供高质量、高分辨率的《UNCHARTED》游戏体验。&lt;br&gt;&lt;br&gt;-----------------------------------------------------------------------------------------------------------------------------&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;秘境探险 4：盗贼末路&lt;/strong&gt;&lt;br&gt;&lt;br&gt;荣获超过 150 项年度游戏大奖肯定。&lt;br&gt;&lt;br&gt;已退休多年的寻宝猎人内森·德雷克受情势所逼而重操旧业。当德雷克早已被认定身亡的哥哥山姆再次现身，寻求内森的帮忙以拯救其性命，同时给予他一个无法拒绝的冒险邀约时，内森再次踏上旅程。这场德雷克一生碰过最大规模的冒险，将会考验他的身体极限和决心，以及他最终愿意牺牲什么来拯救所爱之人。&lt;br&gt;&lt;br&gt;在寻找亨利·埃弗瑞船长失落已久的宝藏的过程中，山姆和德雷克必须找到莱博塔利亚，马达加斯加丛林深处的海盗乌托邦。这是一场走遍世界的旅程，玩家必须穿越丛林岛屿、遥远的城市以及白雪皑皑的山峰去寻找埃弗瑞的财富。&lt;br&gt;&lt;br&gt;●《UNCHARTED》系列作中环境场景规模最庞大且细节最详尽的全球冒险旅程。&lt;br&gt;&lt;br&gt;● 内森·德雷克生涯中更切身相关的故事，为这个屡获殊荣的 Naughty Dog 故事增添了风险。&lt;br&gt;&lt;br&gt;● 使用抓钩流畅地进行战斗及穿梭移动，创造出更加动感、惊险的动作场面。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1659420/extras/d20221004_ULTC_SteamPage_Still2.png?t=1672777947" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;秘境探险：失落的遗产&lt;/strong&gt;&lt;br&gt;&lt;br&gt;为了找寻远古宝物并防止宝物落入残暴好战分子之手，克罗伊·弗雷泽必须寻求知名雇佣兵娜蒂恩·罗斯的帮助，前往印度西高止山脉找寻传说的秘宝“甘尼许的金色象牙”。在克罗伊迄今为止最伟大的旅程中，她必须面对自己的过去，并选择要作出什么牺牲，来缔造自己的传奇&lt;br&gt;&lt;br&gt;● 位于印度半岛西南海岸的全新冒险场景，融合带有异国情调的城市、丛林和古代遗迹环境。&lt;br&gt;&lt;br&gt;● 延续粉丝们对 Naughty Dog 和《UNCHARTED》系列的期待：一款包含刺激动作场面与迷人叙事的作品。&lt;br&gt;&lt;br&gt;● 承袭《UNCHARTED》系列广受好评的游玩方式，加入了经过升级的系统与改善项目，包含电影般的战斗场景、探索、穿越令人惊叹的环境与复杂谜题等内容。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1659420/extras/d20221004_ULTC_SteamPage_Still1.png?t=1672777947" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;* 需要兼容的 PC 与 4K 显示设备。&lt;br&gt;** 需要兼容的 PC 与显示设备。&lt;br&gt;*** 请使用 DUALSHOCK 4 USB 无线适配器或兼容的 micro-USB 连接线连接到 PC。 &lt;br&gt;&lt;br&gt;&lt;br&gt;©2022 Sony Interactive Entertainment LLC。Naughty Dog LLC 制作开发。UNCHARTED 是 Sony Interactive Entertainment LLC 及其相关公司在美国与其他国家/地区的注册商标。</t>
+          <t>寻宝之旅，你准备好了吗？&lt;br&gt;&lt;br&gt;在《UNCHARTED: 盗贼传奇合辑》里追寻宝藏，并在地图上留下你的足迹。发掘《UNCHARTED》系列中如电影般惊心动魄的故事情节和最精彩刺激的动作场面，包含深受粉丝喜爱的盗贼“内森·德雷克”与“克罗伊·弗雷泽”各种发挥机智、惊险万分的精彩时刻。&lt;br&gt;&lt;br&gt;由屡获殊荣的开发商 Naughty Dog 所推出，《UNCHARTED: 盗贼传奇合辑》包含两款广受好评的单人全球冒险游戏：《秘境探险 4：盗贼末路™》及《秘境探险™：失落的遗产》。每个故事中都充满欢笑、戏剧性的事件、高强度战斗和令人惊奇的感受；同时，这两款作品都经过重制，能为玩家带来更加身临其境的游玩体验。&lt;br&gt;&lt;br&gt;&lt;strong&gt;探索令人屏息的绝美景色&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1659420/extras/d20221004_ULTC_SteamPage_Still4.png?t=1695758484" /&gt;&lt;br&gt;&lt;br&gt;从茂密的丛林、覆盖着白雪的山脉、异国岛屿到大雨连绵的街道，探索美丽环境中每一分令人惊叹的细节。利用有超清晰 4K 分辨率*与超宽显示器支持**的电影式叙事，彻底沉浸其中。享受一系列经过强化的画面调整功能，例如可调整的纹理与模型质量、各向异性过滤、阴影、反射与环境光遮蔽。 &lt;br&gt;&lt;br&gt;&lt;strong&gt;在手中感受游戏的刺激起伏&lt;/strong&gt;&lt;br&gt;&lt;br&gt;将 DualSense™ 控制器连接至 PC 进行游戏，体验专为《UNCHARTED: 盗贼传奇合辑》设计的触觉反馈与动态扳机效果。通过可完全重新配置的控制方式与对 DualShock®4 控制器***、XInput 游戏控制器以及其他许多种游戏控制器与键盘鼠标的支持，你可以依自己喜好的方式在地图上留下足迹。想要享受更多声光效果的玩家，可以尝试适用于 Razer Chroma 周边设备与 Chroma Link 兼容设备的 RGB 支持功能，此功能同样适用于 Logitech 的相应型号。 &lt;br&gt;&lt;br&gt;&lt;strong&gt;持续优化的冒险&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1659420/extras/d20221004_ULTC_SteamPage_Still3.png?t=1695758484" /&gt;&lt;br&gt;&lt;br&gt;发掘种类广泛的模式与针对 PC 所设计的增强项目，例如经过改善的游戏选项用户界面、经过重制的用户界面、部分菜单添加比例滑块、GPU 与 VRAM 的检测管理选项，并且添加了对自动暂停、最小化至后台，以及可变动加载速度的支持，以及一系列的其他添加内容。&lt;br&gt;&lt;br&gt;&lt;strong&gt;AMD FidelityFX Super Resolution 2&lt;/strong&gt;&lt;br&gt;&lt;br&gt;利用 AMD 尖端的时间放大技术，在你化身内森和克罗伊踏上寻宝之旅时提升帧率。FSR 2 使用先进的算法来提升帧率并在多种兼容图形卡中提供高质量、高分辨率的《UNCHARTED》游戏体验。&lt;br&gt;&lt;br&gt;-----------------------------------------------------------------------------------------------------------------------------&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;秘境探险 4：盗贼末路&lt;/strong&gt;&lt;br&gt;&lt;br&gt;荣获超过 150 项年度游戏大奖肯定。&lt;br&gt;&lt;br&gt;已退休多年的寻宝猎人内森·德雷克受情势所逼而重操旧业。当德雷克早已被认定身亡的哥哥山姆再次现身，寻求内森的帮忙以拯救其性命，同时给予他一个无法拒绝的冒险邀约时，内森再次踏上旅程。这场德雷克一生碰过最大规模的冒险，将会考验他的身体极限和决心，以及他最终愿意牺牲什么来拯救所爱之人。&lt;br&gt;&lt;br&gt;在寻找亨利·埃弗瑞船长失落已久的宝藏的过程中，山姆和德雷克必须找到莱博塔利亚，马达加斯加丛林深处的海盗乌托邦。这是一场走遍世界的旅程，玩家必须穿越丛林岛屿、遥远的城市以及白雪皑皑的山峰去寻找埃弗瑞的财富。&lt;br&gt;&lt;br&gt;●《UNCHARTED》系列作中环境场景规模最庞大且细节最详尽的全球冒险旅程。&lt;br&gt;&lt;br&gt;● 内森·德雷克生涯中更切身相关的故事，为这个屡获殊荣的 Naughty Dog 故事增添了风险。&lt;br&gt;&lt;br&gt;● 使用抓钩流畅地进行战斗及穿梭移动，创造出更加动感、惊险的动作场面。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1659420/extras/d20221004_ULTC_SteamPage_Still2.png?t=1695758484" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;秘境探险：失落的遗产&lt;/strong&gt;&lt;br&gt;&lt;br&gt;为了找寻远古宝物并防止宝物落入残暴好战分子之手，克罗伊·弗雷泽必须寻求知名雇佣兵娜蒂恩·罗斯的帮助，前往印度西高止山脉找寻传说的秘宝“甘尼许的金色象牙”。在克罗伊迄今为止最伟大的旅程中，她必须面对自己的过去，并选择要作出什么牺牲，来缔造自己的传奇&lt;br&gt;&lt;br&gt;● 位于印度半岛西南海岸的全新冒险场景，融合带有异国情调的城市、丛林和古代遗迹环境。&lt;br&gt;&lt;br&gt;● 延续粉丝们对 Naughty Dog 和《UNCHARTED》系列的期待：一款包含刺激动作场面与迷人叙事的作品。&lt;br&gt;&lt;br&gt;● 承袭《UNCHARTED》系列广受好评的游玩方式，加入了经过升级的系统与改善项目，包含电影般的战斗场景、探索、穿越令人惊叹的环境与复杂谜题等内容。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1659420/extras/d20221004_ULTC_SteamPage_Still1.png?t=1695758484" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;* 需要兼容的 PC 与 4K 显示设备。&lt;br&gt;** 需要兼容的 PC 与显示设备。&lt;br&gt;*** 请使用 DUALSHOCK 4 USB 无线适配器或兼容的 micro-USB 连接线连接到 PC。 &lt;br&gt;&lt;br&gt;&lt;br&gt;©2022 Sony Interactive Entertainment LLC。Naughty Dog LLC 制作开发。UNCHARTED 是 Sony Interactive Entertainment LLC 及其相关公司在美国与其他国家/地区的注册商标。</t>
         </is>
       </c>
     </row>
@@ -11674,7 +11674,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>官方QQ群号：&lt;br&gt;官方QQ④群：757371350&lt;br&gt;官方QQ⑧群：920151793&lt;br&gt;Dodo群：&lt;a href="https://steamcommunity.com/linkfilter/?url=https://imdodo.com/s/217088?inv=JPBWE" target="_blank" rel=" noopener"  &gt;https://imdodo.com/s/217088?inv=JPBWE&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;这是一款基于武侠、江湖背景为基础的&lt;strong&gt; &lt;u&gt;开放沙盒类非传统武侠 RPG游戏&lt;/u&gt;&lt;/strong&gt;，你可以在这个大荒世界之中，扮演你所幻想的任何武侠角色，这里没有任何阻挡你幻想的老套剧情，你所演绎的武侠人生就是这个你的游戏剧情。你可以作为一名江湖小虾米游历大荒，你也可以成为一派掌门引领四方，你亦可以成为一名看不惯这江湖的浪子我行我素。最重要的是，请一切遵从于你的内心而为，并且活着！&lt;br&gt;&lt;br&gt;(1)玩家可以从零开始扩展自己的小世界，也可以通过创建小世界生成随机大小的初始世界。每个区域都有独特的环境、资源、生物以及势力。 在熟悉了游戏基本操作之后，您便可以直接生成环境属性各异的、已经包含一定数量地块的世界进行体验和历练，并且可以控制不同的“我”往来穿梭于各个世界开启别样人生！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/kf1.gif?t=1695643356" /&gt;&lt;br&gt;&lt;br&gt;(2)新颖的单回合战斗方式，通过收集不同的绝学搭配创建自己的招式库，战斗中拖动连接不同的招式激活绝学，利用招式克制和绝学套路，体现武侠战斗的策略性。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF2.gif?t=1695643356" /&gt;&lt;br&gt;&lt;br&gt;(3)独创的经脉系统，将人体经脉的运转进行了简化概念设计，玩家可以体验到不同的运功路线激活不同内功的拟真感受，简洁却富有策略玩法的设计给玩家提供了搭配和激活多种内功的玩法。同时经脉系统也结合了武侠小说中各种身体机能的具象表现，角色的生命力、内伤、隐疾、蛊、生死符、残疾、瞎眼等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF3.gif?t=1695643356" /&gt;&lt;br&gt;&lt;br&gt;(4)游戏还包含了自由的建造模式，玩家可以打造自己的民居、酒馆、温泉、马厩、大殿、监牢等等，每种建筑都有独特的功能。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF4.gif?t=1695643356" /&gt;&lt;br&gt;&lt;br&gt;(5)潜行玩法，可以通过训练潜行能力，配合独特的内功，夜晚穿上夜行衣，如人无人之境。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF5.gif?t=1695643356" /&gt;&lt;br&gt;&lt;br&gt;(6)训练轻功、跳跃、潜水、攀爬，无论高山深海都可闲庭信步。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF6.gif?t=1695643356" /&gt;&lt;br&gt;&lt;br&gt;(7)通过自定义天命、出身、容貌、血脉，打造独属于自己的角色。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF7.gif?t=1695643356" /&gt;&lt;br&gt;&lt;br&gt;(8)非线性剧情，游戏中每个NPC都会根据自己的行为、身份、名声、关系、态度等等在世界中生存，玩家的每次游戏都会与他们发生不同的剧情。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF8.gif?t=1695643356" /&gt;&lt;br&gt;&lt;br&gt;(9)丰富的交互内容&lt;br&gt;可以把敌人的建筑引燃&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF9.gif?t=1695643356" /&gt;&lt;br&gt;&lt;br&gt;可以邀请NPC喝酒，灌醉后搜刮物品&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF10.gif?t=1695643356" /&gt;&lt;br&gt;&lt;br&gt;可以驯化各种动物，每种动物都有各自独特的功能，例如猴子可以乞讨、马可以乘骑和改装马车、蛇可以下毒等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF11.gif?t=1695643356" /&gt;&lt;br&gt;&lt;br&gt;玩家可以创建自己门派，招募弟子，发布命令，参加武林大会。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF12.gif?t=1695643356" /&gt;&lt;br&gt;&lt;br&gt;丰富的交互内容·玩家可以布置陷阱，抓捕动物或敌人。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF13.gif?t=1695643356" /&gt;&lt;br&gt;&lt;br&gt;建立门派，发布命令&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF15.gif?t=1695643356" /&gt;&lt;br&gt;&lt;br&gt;建立牢笼，关押敌人&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF16.gif?t=1695643356" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;———————————————————————————————————————&lt;br&gt;来自幻魔寺的寄语：&lt;br&gt;我们坚守本心，完全独立开发，只做大家觉得好玩的游戏，这款游戏的世界目前仍然只是一个雏形，我们深知它会不断壮大，并且成为未来我们一切游戏的基石，我们会为此不断努力，带给大家一个绝妙的幻想世界！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/respect.png?t=1695643356" /&gt;</t>
+          <t>官方QQ群号：&lt;br&gt;官方QQ④群：757371350&lt;br&gt;官方QQ⑧群：920151793&lt;br&gt;&lt;br&gt;这是一款基于武侠、江湖背景为基础的&lt;strong&gt; &lt;u&gt;开放沙盒类非传统武侠 RPG游戏&lt;/u&gt;&lt;/strong&gt;，你可以在这个大荒世界之中，扮演你所幻想的任何武侠角色，这里没有任何阻挡你幻想的老套剧情，你所演绎的武侠人生就是这个你的游戏剧情。你可以作为一名江湖小虾米游历大荒，你也可以成为一派掌门引领四方，你亦可以成为一名看不惯这江湖的浪子我行我素。最重要的是，请一切遵从于你的内心而为，并且活着！&lt;br&gt;&lt;br&gt;(1)玩家可以从零开始扩展自己的小世界，也可以通过创建小世界生成随机大小的初始世界。每个区域都有独特的环境、资源、生物以及势力。 在熟悉了游戏基本操作之后，您便可以直接生成环境属性各异的、已经包含一定数量地块的世界进行体验和历练，并且可以控制不同的“我”往来穿梭于各个世界开启别样人生！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/kf1.gif?t=1695798661" /&gt;&lt;br&gt;&lt;br&gt;(2)新颖的单回合战斗方式，通过收集不同的绝学搭配创建自己的招式库，战斗中拖动连接不同的招式激活绝学，利用招式克制和绝学套路，体现武侠战斗的策略性。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF2.gif?t=1695798661" /&gt;&lt;br&gt;&lt;br&gt;(3)独创的经脉系统，将人体经脉的运转进行了简化概念设计，玩家可以体验到不同的运功路线激活不同内功的拟真感受，简洁却富有策略玩法的设计给玩家提供了搭配和激活多种内功的玩法。同时经脉系统也结合了武侠小说中各种身体机能的具象表现，角色的生命力、内伤、隐疾、蛊、生死符、残疾、瞎眼等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF3.gif?t=1695798661" /&gt;&lt;br&gt;&lt;br&gt;(4)游戏还包含了自由的建造模式，玩家可以打造自己的民居、酒馆、温泉、马厩、大殿、监牢等等，每种建筑都有独特的功能。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF4.gif?t=1695798661" /&gt;&lt;br&gt;&lt;br&gt;(5)潜行玩法，可以通过训练潜行能力，配合独特的内功，夜晚穿上夜行衣，如人无人之境。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF5.gif?t=1695798661" /&gt;&lt;br&gt;&lt;br&gt;(6)训练轻功、跳跃、潜水、攀爬，无论高山深海都可闲庭信步。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF6.gif?t=1695798661" /&gt;&lt;br&gt;&lt;br&gt;(7)通过自定义天命、出身、容貌、血脉，打造独属于自己的角色。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF7.gif?t=1695798661" /&gt;&lt;br&gt;&lt;br&gt;(8)非线性剧情，游戏中每个NPC都会根据自己的行为、身份、名声、关系、态度等等在世界中生存，玩家的每次游戏都会与他们发生不同的剧情。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF8.gif?t=1695798661" /&gt;&lt;br&gt;&lt;br&gt;(9)丰富的交互内容&lt;br&gt;可以把敌人的建筑引燃&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF9.gif?t=1695798661" /&gt;&lt;br&gt;&lt;br&gt;可以邀请NPC喝酒，灌醉后搜刮物品&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF10.gif?t=1695798661" /&gt;&lt;br&gt;&lt;br&gt;可以驯化各种动物，每种动物都有各自独特的功能，例如猴子可以乞讨、马可以乘骑和改装马车、蛇可以下毒等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF11.gif?t=1695798661" /&gt;&lt;br&gt;&lt;br&gt;玩家可以创建自己门派，招募弟子，发布命令，参加武林大会。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF12.gif?t=1695798661" /&gt;&lt;br&gt;&lt;br&gt;丰富的交互内容·玩家可以布置陷阱，抓捕动物或敌人。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF13.gif?t=1695798661" /&gt;&lt;br&gt;&lt;br&gt;建立门派，发布命令&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF15.gif?t=1695798661" /&gt;&lt;br&gt;&lt;br&gt;建立牢笼，关押敌人&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF16.gif?t=1695798661" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;———————————————————————————————————————&lt;br&gt;来自幻魔寺的寄语：&lt;br&gt;我们坚守本心，完全独立开发，只做大家觉得好玩的游戏，这款游戏的世界目前仍然只是一个雏形，我们深知它会不断壮大，并且成为未来我们一切游戏的基石，我们会为此不断努力，带给大家一个绝妙的幻想世界！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/respect.png?t=1695798661" /&gt;</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -12870,7 +12870,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1888930/extras/d20220516_TLOUX_Annouce_Stills_9_WM_STEAM.png?t=1686864554" /&gt;&lt;br&gt;进入《The Last of Us™》，在这款荣获 200 余项 TGA 大奖的游戏中，体验那段动人心弦的故事，见证角色们的命运。&lt;br&gt;&lt;br&gt;人类文明风雨飘摇，感染者与人类幸存者横行各地。故事的主人公，饱经风霜的乔尔，受雇将 14 岁的艾莉“走私”到军事隔离区外。然而，这份看似平常的差事，最终竟成了一场艰难曲折的横跨美国之旅。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1888930/extras/d20220516_TLOUPTI_LAUNCH_Stills_10_WM_STEAM.png?t=1686864554" /&gt;&lt;br&gt;游戏包含《The Last of Us™》单人模式剧情，以及游戏前传《Left Behind》。在该前传中，你将体验那段改变了艾莉与挚友莱莉命运的往事。&lt;h2 class="bb_tag"&gt;专为 PC 端而制&lt;/h2&gt;&lt;br&gt;《The Last of Us™ Part I》PC 版将携大量 PC 版专属特色登场，生动呈现乔尔和艾利险象环生、令人难忘的旅程。《The Last of Us Part I》PC 版专为 PC 端进行了优化，针对 PC 端让游玩体验大大提升。游戏将支持 AMD FSR 2.2 技术和 Nvidia DLSS Super Resolution* 技术，可以设置垂直同步和帧率上限，并加入了一系列专为 PC 端而设的功能，包括可调节材质质量、阴影、反射效果、环境光遮蔽等等。&lt;br&gt;&lt;br&gt;在乔尔和艾莉整个冒险旅途中，PC 端玩家将享受真正的 4K 分辨率所呈现的精细入微画面，让自己全然沉浸于一个风景如画却危机四伏的世界**。从波士顿隔离区环境恶劣压抑的街道，到比尔的小镇杂草丛生、颓败萧索的居所，踏上横跨整个美国的奇妙之旅。玩家可以使用屏幕高宽比为 21:9 超宽和 32:9 终极超宽的显示器，尊享豪华体验。&lt;br&gt;&lt;br&gt;探索各个区域，藏踪蹑迹地穿行于荒凉的房屋和城市（搜索抽屉和橱柜，寻找补给），或加入扣人心弦的战斗，在 3D 音效的支持下更准确地辨识树叶摩挲和玻璃碎裂的声响，以及敌人企图靠近时的脚步声***。&lt;h2 class="bb_tag"&gt;AMD Fidelity FX Super Resolution 2&lt;/h2&gt;&lt;br&gt;利用 AMD 尖端的时间放大技术，在您化身乔尔和艾莉为生存而战时提升帧率。FSR 2 使用先进的算法来提升帧率并在多种兼容图形卡中提供高质量、高分辨率的《The Last of Us Part I》游戏体验。&lt;h2 class="bb_tag"&gt;周边配套&lt;/h2&gt;&lt;br&gt;《The Last of Us Part I》PC 版支持 DualSense 控制器有线连接。通过触觉反馈和动态自适应扳机，玩家将切身体会富有冲击力的战斗和坦克从身旁“隆隆”驶过的震撼。游戏还支持 DualShock 4 和其他各种控制器，支持键盘鼠标操作，玩家可根据自己的偏好选择游玩模式。PC 版新添了许多全新控制自定义选项，包括完全控制重映射，键盘和鼠标控制主、次要按键绑定，还允许玩家使用自适应模式，结合使用键盘和控制器。PC 版还将保留《The Last of Us Part I》的一系列无障碍功能，玩家可以自行调节，满足自己的需求和偏好。&lt;br&gt;&lt;br&gt;* 需要兼容的 PC 与显卡方可开启图像增强。&lt;br&gt;** 需要兼容的 Pc、显卡和 4K 显示设备方可开启图像增强。&lt;br&gt;*** 需要立体声耳机或兼容的扬声器方可开启 3D 音效模式。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1888930/extras/d20220516_TLOUX_Annouce_Stills_9_WM_STEAM.png?t=1695758297" /&gt;&lt;br&gt;进入《The Last of Us™》，在这款荣获 200 余项 TGA 大奖的游戏中，体验那段动人心弦的故事，见证角色们的命运。&lt;br&gt;&lt;br&gt;人类文明风雨飘摇，感染者与人类幸存者横行各地。故事的主人公，饱经风霜的乔尔，受雇将 14 岁的艾莉“走私”到军事隔离区外。然而，这份看似平常的差事，最终竟成了一场艰难曲折的横跨美国之旅。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1888930/extras/d20220516_TLOUPTI_LAUNCH_Stills_10_WM_STEAM.png?t=1695758297" /&gt;&lt;br&gt;游戏包含《The Last of Us™》单人模式剧情，以及游戏前传《Left Behind》。在该前传中，你将体验那段改变了艾莉与挚友莱莉命运的往事。&lt;h2 class="bb_tag"&gt;专为 PC 端而制&lt;/h2&gt;&lt;br&gt;《The Last of Us™ Part I》PC 版将携大量 PC 版专属特色登场，生动呈现乔尔和艾利险象环生、令人难忘的旅程。《The Last of Us Part I》PC 版专为 PC 端进行了优化，针对 PC 端让游玩体验大大提升。游戏将支持 AMD FSR 2.2 技术和 Nvidia DLSS Super Resolution* 技术，可以设置垂直同步和帧率上限，并加入了一系列专为 PC 端而设的功能，包括可调节材质质量、阴影、反射效果、环境光遮蔽等等。&lt;br&gt;&lt;br&gt;在乔尔和艾莉整个冒险旅途中，PC 端玩家将享受真正的 4K 分辨率所呈现的精细入微画面，让自己全然沉浸于一个风景如画却危机四伏的世界**。从波士顿隔离区环境恶劣压抑的街道，到比尔的小镇杂草丛生、颓败萧索的居所，踏上横跨整个美国的奇妙之旅。玩家可以使用屏幕高宽比为 21:9 超宽和 32:9 终极超宽的显示器，尊享豪华体验。&lt;br&gt;&lt;br&gt;探索各个区域，藏踪蹑迹地穿行于荒凉的房屋和城市（搜索抽屉和橱柜，寻找补给），或加入扣人心弦的战斗，在 3D 音效的支持下更准确地辨识树叶摩挲和玻璃碎裂的声响，以及敌人企图靠近时的脚步声***。&lt;h2 class="bb_tag"&gt;AMD Fidelity FX Super Resolution 2&lt;/h2&gt;&lt;br&gt;利用 AMD 尖端的时间放大技术，在您化身乔尔和艾莉为生存而战时提升帧率。FSR 2 使用先进的算法来提升帧率并在多种兼容图形卡中提供高质量、高分辨率的《The Last of Us Part I》游戏体验。&lt;h2 class="bb_tag"&gt;周边配套&lt;/h2&gt;&lt;br&gt;《The Last of Us Part I》PC 版支持 DualSense 控制器有线连接。通过触觉反馈和动态自适应扳机，玩家将切身体会富有冲击力的战斗和坦克从身旁“隆隆”驶过的震撼。游戏还支持 DualShock 4 和其他各种控制器，支持键盘鼠标操作，玩家可根据自己的偏好选择游玩模式。PC 版新添了许多全新控制自定义选项，包括完全控制重映射，键盘和鼠标控制主、次要按键绑定，还允许玩家使用自适应模式，结合使用键盘和控制器。PC 版还将保留《The Last of Us Part I》的一系列无障碍功能，玩家可以自行调节，满足自己的需求和偏好。&lt;br&gt;&lt;br&gt;* 需要兼容的 PC 与显卡方可开启图像增强。&lt;br&gt;** 需要兼容的 Pc、显卡和 4K 显示设备方可开启图像增强。&lt;br&gt;*** 需要立体声耳机或兼容的扬声器方可开启 3D 音效模式。</t>
         </is>
       </c>
     </row>
@@ -13573,7 +13573,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
@@ -15411,7 +15411,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2290000/extras/01_v2.png?t=1692317469" /&gt;&lt;br&gt;&lt;br&gt;在《愿景之城》中建立你的梦想之城。《愿景之城》中的每组卡牌都将提供不同的建筑和方式来扩展你的城市。在游戏世界中明智的放置每一张卡牌，以赚取积分并获得新的卡牌作为奖励。循环往复，巧妙的建设和发展你的城市。&lt;br&gt;&lt;br&gt;游戏提供了多种游戏模式、程序生成的地图以及令人兴奋的挑战。在抢先体验期间，《愿景之城》将在未来扩展更多的卡组、地图和游戏模式。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2290000/extras/02_CN.gif?t=1692317469" /&gt;&lt;br&gt;&lt;br&gt;无论是其他建筑、自然资源还是合适的地形, 每栋建筑都有特定的要求。尽可能多的满足要求去获取积分，但请注意：这些也将产生负面影响！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2290000/extras/03_CN.gif?t=1692317469" /&gt;&lt;br&gt;&lt;br&gt;通过收集积分，你可以解锁新的卡组和建筑。每套卡牌由几张建筑卡组成。通过更加频繁和巧妙的方式来放置某些特定的牌组建筑，从而解锁更多的卡牌。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2290000/extras/04_CN.gif?t=1692317469" /&gt;&lt;br&gt;&lt;br&gt;如果你的建筑放置得当，就可以抽取新的卡牌。但要密切关注你的策略和谋划你真正需要的卡牌。否则，你可能会抽到对你当前规划完全无益的建筑。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2290000/extras/05_CN.gif?t=1692317469" /&gt;&lt;br&gt;&lt;br&gt;独特的地图生成器可以创造出具有无穷可能性的新地图！此外，玩家还可以参加难度增加的手工制作任务，在高分榜上向你的好友和世界展示你是最佳玩家。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2290000/extras/06_CN.gif?t=1692317469" /&gt;&lt;br&gt;&lt;br&gt;让自己沉浸在这独特的图形风格和精心设计的风景中。按照自己的节奏，慢慢来，好好欣赏美景。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2290000/extras/07_CN.gif?t=1692317469" /&gt;&lt;br&gt;&lt;br&gt;与你的朋友一起玩刺激的多人游戏！制定你自己的战略，挫败对手。利用战略性的建筑，逐轮建立起你的积分领先优势。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2290000/extras/01_v2.png?t=1695728246" /&gt;&lt;br&gt;&lt;br&gt;在《愿景之城》中建立你的梦想之城。《愿景之城》中的每组卡牌都将提供不同的建筑和方式来扩展你的城市。在游戏世界中明智的放置每一张卡牌，以赚取积分并获得新的卡牌作为奖励。循环往复，巧妙的建设和发展你的城市。&lt;br&gt;&lt;br&gt;游戏提供了多种游戏模式、程序生成的地图以及令人兴奋的挑战。在抢先体验期间，《愿景之城》将在未来扩展更多的卡组、地图和游戏模式。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2290000/extras/02_CN.gif?t=1695728246" /&gt;&lt;br&gt;&lt;br&gt;无论是其他建筑、自然资源还是合适的地形, 每栋建筑都有特定的要求。尽可能多的满足要求去获取积分，但请注意：这些也将产生负面影响！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2290000/extras/03_CN.gif?t=1695728246" /&gt;&lt;br&gt;&lt;br&gt;通过收集积分，你可以解锁新的卡组和建筑。每套卡牌由几张建筑卡组成。通过更加频繁和巧妙的方式来放置某些特定的牌组建筑，从而解锁更多的卡牌。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2290000/extras/04_CN.gif?t=1695728246" /&gt;&lt;br&gt;&lt;br&gt;如果你的建筑放置得当，就可以抽取新的卡牌。但要密切关注你的策略和谋划你真正需要的卡牌。否则，你可能会抽到对你当前规划完全无益的建筑。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2290000/extras/05_CN.gif?t=1695728246" /&gt;&lt;br&gt;&lt;br&gt;独特的地图生成器可以创造出具有无穷可能性的新地图！此外，玩家还可以参加难度增加的手工制作任务，在高分榜上向你的好友和世界展示你是最佳玩家。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2290000/extras/06_CN.gif?t=1695728246" /&gt;&lt;br&gt;&lt;br&gt;让自己沉浸在这独特的图形风格和精心设计的风景中。按照自己的节奏，慢慢来，好好欣赏美景。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2290000/extras/07_CN.gif?t=1695728246" /&gt;&lt;br&gt;&lt;br&gt;与你的朋友一起玩刺激的多人游戏！制定你自己的战略，挫败对手。利用战略性的建筑，逐轮建立起你的积分领先优势。</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -3207,7 +3207,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_eGIF_SCH.gif?t=1695398340" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_Steam_StoreHeading_NewLevelAvailableNow_SCH.png?t=1695398340" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;***全新关卡“港口”现已推出***&lt;/strong&gt;&lt;/h2&gt;吼嘿哟！《人类一败涂地》的欢乐小船停靠在了充满了惊喜的新关卡：港口！ &lt;br&gt; &lt;br&gt;在这片天堂般的群岛上，每一个转弯都有新奇的冒险等着你！快来探索充满秘密和隐秘路径的魅力小镇吧。 &lt;br&gt;&lt;br&gt;叫上小伙伴扬帆开启史诗般的旅程，划过广阔的水域，一起开动脑筋解决一路上的谜题。  &lt;br&gt; &lt;br&gt;散发着奇异魅力的港口充满无限的可能，一定会让你在欢笑和兴奋之中度过令人难忘的美好时光！     &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Copper_World.gif?t=1695398340" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;包含24个绝妙的关卡。全球超过4500万玩家。全平台已经售出超过3000万套。&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;《人类一败涂地》是一款轻松搞笑的沙雕游戏，游戏的场景发生在飘渺的梦境之中。&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Copper_World_Ice.gif?t=1695398340" /&gt;&lt;br&gt;&lt;br&gt;每个梦境关卡会提供一个全新的环境让玩家探索，从豪宅、城堡和阿兹台克到雪山、光怪陆离的夜景和工业区。每关都贯穿有多条路线和完美设置的谜题，确保热衷探索和聪明的玩家能得到奖励。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_Steam_StoreHeading_MoreHumansMoreMayhem_SCH.png?t=1695398340" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Copper_World_City.gif?t=1695398340" /&gt;&lt;br&gt;&lt;br&gt;需要帮忙把巨石装上投石器，或者需要有人来打破那堵墙？最多8名玩家的在线多人模式会改变《人类一败涂地》的游戏方式。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_Steam_StoreHeading_BlankCanvas_SCH.png?t=1695398340" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Copper_World_Red_Rock.gif?t=1695398340" /&gt;&lt;br&gt;&lt;br&gt;你的软趴趴小人由你自己来定制。可以选择建筑工人、大厨、跳伞员、矿工、宇航员或忍者的服装。还可以分别打扮你的脑袋、上半身和下半身，并且用脑洞让一切变得创意十足！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_Steam_StoreHeading_Workshop_SCH.png?t=1695398340" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/workshop.gif?t=1695398340" /&gt;&lt;br&gt;&lt;br&gt;仅在Steam平台上发布的《人类一败涂地》创意工坊，是一个绝佳的工具，与Unity一起使用，可以让玩家打造自己的《人类一败涂地》内容，并和全世界的玩家分享。对自己打造关卡、大厅或皮肤不感兴趣？你还可以在Steam上直接下载和探索超过5000个别人的创意关卡！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_Steam_StoreHeading_VibrantCommunity_SCH.png?t=1695398340" /&gt;&lt;br&gt;&lt;strong&gt;生机勃勃的玩家社群&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/factory-3.gif?t=1695398340" /&gt;&lt;br&gt;&lt;br&gt;主播和UP主们对《人类一败涂地》尤为青睐，就因为其独特搞笑的游戏方式。这些视频的综合播放量已多达6亿！</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_eGIF_SCH.gif?t=1695831283" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_Steam_StoreHeading_NewLevelAvailableNow_SCH.png?t=1695831283" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;***全新关卡“港口”现已推出***&lt;/strong&gt;&lt;/h2&gt;吼嘿哟！《人类一败涂地》的欢乐小船停靠在了充满了惊喜的新关卡：港口！ &lt;br&gt; &lt;br&gt;在这片天堂般的群岛上，每一个转弯都有新奇的冒险等着你！快来探索充满秘密和隐秘路径的魅力小镇吧。 &lt;br&gt;&lt;br&gt;叫上小伙伴扬帆开启史诗般的旅程，划过广阔的水域，一起开动脑筋解决一路上的谜题。  &lt;br&gt; &lt;br&gt;散发着奇异魅力的港口充满无限的可能，一定会让你在欢笑和兴奋之中度过令人难忘的美好时光！     &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Copper_World.gif?t=1695831283" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;包含24个绝妙的关卡。全球超过4500万玩家。全平台已经售出超过3000万套。&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;《人类一败涂地》是一款轻松搞笑的沙雕游戏，游戏的场景发生在飘渺的梦境之中。&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Copper_World_Ice.gif?t=1695831283" /&gt;&lt;br&gt;&lt;br&gt;每个梦境关卡会提供一个全新的环境让玩家探索，从豪宅、城堡和阿兹台克到雪山、光怪陆离的夜景和工业区。每关都贯穿有多条路线和完美设置的谜题，确保热衷探索和聪明的玩家能得到奖励。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_Steam_StoreHeading_MoreHumansMoreMayhem_SCH.png?t=1695831283" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Copper_World_City.gif?t=1695831283" /&gt;&lt;br&gt;&lt;br&gt;需要帮忙把巨石装上投石器，或者需要有人来打破那堵墙？最多8名玩家的在线多人模式会改变《人类一败涂地》的游戏方式。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_Steam_StoreHeading_BlankCanvas_SCH.png?t=1695831283" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Copper_World_Red_Rock.gif?t=1695831283" /&gt;&lt;br&gt;&lt;br&gt;你的软趴趴小人由你自己来定制。可以选择建筑工人、大厨、跳伞员、矿工、宇航员或忍者的服装。还可以分别打扮你的脑袋、上半身和下半身，并且用脑洞让一切变得创意十足！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_Steam_StoreHeading_Workshop_SCH.png?t=1695831283" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/workshop.gif?t=1695831283" /&gt;&lt;br&gt;&lt;br&gt;仅在Steam平台上发布的《人类一败涂地》创意工坊，是一个绝佳的工具，与Unity一起使用，可以让玩家打造自己的《人类一败涂地》内容，并和全世界的玩家分享。对自己打造关卡、大厅或皮肤不感兴趣？你还可以在Steam上直接下载和探索超过5000个别人的创意关卡！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/HFF_Port_Steam_StoreHeading_VibrantCommunity_SCH.png?t=1695831283" /&gt;&lt;br&gt;&lt;strong&gt;生机勃勃的玩家社群&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/477160/extras/factory-3.gif?t=1695831283" /&gt;&lt;br&gt;&lt;br&gt;主播和UP主们对《人类一败涂地》尤为青睐，就因为其独特搞笑的游戏方式。这些视频的综合播放量已多达6亿！</t>
         </is>
       </c>
     </row>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>科幻,沉浸式模拟,太空,单人,氛围</t>
+          <t>科幻,太空,沉浸式模拟,单人,氛围</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3498,7 +3498,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://space.bilibili.com/1330488527/" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/534380/extras/BiliBili_v2.gif?t=1695732134" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;距离第一部游戏的故事已经过去了20年，病毒占了上风，人类正逐渐走向死亡。你将扮演艾登·克拉德威尔，一个漫游者，负责运送货物和传递消息，在被丧尸病毒摧毁的荒芜世界中，保持着与仅存的几个生存者聚居点的联系。然而，你的真正目标是找到妹妹米娅。过去，为了逃离华尔兹博士的痛苦实验，你曾经离开了还是孩童的她。这段过去一直在你心中挥之不去，当你听说米娅可能还活着，并且居住在地球上最后一座城市维勒多时，你终于下定决心直面这一切。&lt;br&gt;&lt;br&gt;不久后，你发现自己身处一个冲突不断的聚居点。你需要参与新奇而残酷的战斗，不断磨砺自己的技能，击败成群的丧尸，并与其他人结盟。你将在城市中漫游，在维勒多的建筑和屋顶上自由奔跑，搜寻偏远地区的战利品，并在夜晚时保持警惕。每当太阳西沉，怪物就会占领所有街道。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/534380/extras/dl_2_sh_steam.gif?t=1695732134" /&gt;&lt;h2 class="bb_tag"&gt;末日后的世界&lt;/h2&gt;15年前，人类经历了一场大陷落，这场灾难永远改变了世界。哈兰病毒迅速在全球蔓延，人们很快发现，所有的希望都破灭了。到了2036年，只有为数不多的聚居地存留于世，而人类正在逐渐走向死亡，为无情的新物种——成群结队的丧尸——让路。&lt;h2 class="bb_tag"&gt;白天属于活人，夜晚属于死者&lt;/h2&gt;欢迎来到维勒多，人类最后的堡垒之一。白天，生存者仍然努力在这里生活，寻求一种虚假的正常感。他们建立关系，追逐梦想，让生活继续。表面上看，一切似乎……不错。然而，当日落时分到来，最后一束阳光消失，城市中更可怕的居民将从他们阴暗的巢穴中爬出，占领街道。如果你在黑暗中停留太久，不提高警觉，就可能永远无法回家。&lt;h2 class="bb_tag"&gt;你必须不停移动才能存活&lt;/h2&gt;你不可能赢得所有的战斗。有时候，逃跑才是上策。幸运的是，你正好有这样的技巧。当你陷入危机，跑酷让你顺利逃脱。从一个屋顶跳到另一个屋顶，飞荡着穿过不同的城市景观，利用滑索等等。无论你做什么，当你在维勒多的建筑和屋顶上自由奔跑，寻找战利品或逃离夜晚的危险时，都会体验到独一无二的自由感。&lt;h2 class="bb_tag"&gt;变得残暴，并发挥创造力&lt;/h2&gt;在这个危险的世界中，只有最强者才能生存。无论你是喜欢粉碎、切割还是肢解挡在你面前的敌人，你都必须发挥创造力才能度过难关。而且，谁说你需要武器？利用你的各种跑酷动作来先发制人。学习战斗和跑酷的方式，在挥舞武器或使用招式抵御任何形式的危险时，感受头骨碎裂和血肉横飞的刺激。还有别忘了，维勒多拥有的武器能让末日后世界最先进的武器库都相形见绌。&lt;h2 class="bb_tag"&gt;与其单打独斗，不如四个漫游者同行&lt;/h2&gt;有朋友相助，在维勒多活下去会更容易。与最多3名玩家组队，以增加你的生存几率。一起探索剧情，接受漫游者哨站的挑战，或是在城市街道上大肆破坏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/534380/extras/steam_footer_dying_light2.jpg?t=1695732134" /&gt;</t>
+          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://space.bilibili.com/1330488527/" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/534380/extras/BiliBili_v2.gif?t=1695831640" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;距离第一部游戏的故事已经过去了20年，病毒占了上风，人类正逐渐走向死亡。你将扮演艾登·克拉德威尔，一个漫游者，负责运送货物和传递消息，在被丧尸病毒摧毁的荒芜世界中，保持着与仅存的几个生存者聚居点的联系。然而，你的真正目标是找到妹妹米娅。过去，为了逃离华尔兹博士的痛苦实验，你曾经离开了还是孩童的她。这段过去一直在你心中挥之不去，当你听说米娅可能还活着，并且居住在地球上最后一座城市维勒多时，你终于下定决心直面这一切。&lt;br&gt;&lt;br&gt;不久后，你发现自己身处一个冲突不断的聚居点。你需要参与新奇而残酷的战斗，不断磨砺自己的技能，击败成群的丧尸，并与其他人结盟。你将在城市中漫游，在维勒多的建筑和屋顶上自由奔跑，搜寻偏远地区的战利品，并在夜晚时保持警惕。每当太阳西沉，怪物就会占领所有街道。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/534380/extras/dl_2_sh_steam.gif?t=1695831640" /&gt;&lt;h2 class="bb_tag"&gt;末日后的世界&lt;/h2&gt;15年前，人类经历了一场大陷落，这场灾难永远改变了世界。哈兰病毒迅速在全球蔓延，人们很快发现，所有的希望都破灭了。到了2036年，只有为数不多的聚居地存留于世，而人类正在逐渐走向死亡，为无情的新物种——成群结队的丧尸——让路。&lt;h2 class="bb_tag"&gt;白天属于活人，夜晚属于死者&lt;/h2&gt;欢迎来到维勒多，人类最后的堡垒之一。白天，生存者仍然努力在这里生活，寻求一种虚假的正常感。他们建立关系，追逐梦想，让生活继续。表面上看，一切似乎……不错。然而，当日落时分到来，最后一束阳光消失，城市中更可怕的居民将从他们阴暗的巢穴中爬出，占领街道。如果你在黑暗中停留太久，不提高警觉，就可能永远无法回家。&lt;h2 class="bb_tag"&gt;你必须不停移动才能存活&lt;/h2&gt;你不可能赢得所有的战斗。有时候，逃跑才是上策。幸运的是，你正好有这样的技巧。当你陷入危机，跑酷让你顺利逃脱。从一个屋顶跳到另一个屋顶，飞荡着穿过不同的城市景观，利用滑索等等。无论你做什么，当你在维勒多的建筑和屋顶上自由奔跑，寻找战利品或逃离夜晚的危险时，都会体验到独一无二的自由感。&lt;h2 class="bb_tag"&gt;变得残暴，并发挥创造力&lt;/h2&gt;在这个危险的世界中，只有最强者才能生存。无论你是喜欢粉碎、切割还是肢解挡在你面前的敌人，你都必须发挥创造力才能度过难关。而且，谁说你需要武器？利用你的各种跑酷动作来先发制人。学习战斗和跑酷的方式，在挥舞武器或使用招式抵御任何形式的危险时，感受头骨碎裂和血肉横飞的刺激。还有别忘了，维勒多拥有的武器能让末日后世界最先进的武器库都相形见绌。&lt;h2 class="bb_tag"&gt;与其单打独斗，不如四个漫游者同行&lt;/h2&gt;有朋友相助，在维勒多活下去会更容易。与最多3名玩家组队，以增加你的生存几率。一起探索剧情，接受漫游者哨站的挑战，或是在城市街道上大肆破坏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/534380/extras/steam_footer_dying_light2.jpg?t=1695831640" /&gt;</t>
         </is>
       </c>
     </row>
@@ -3968,7 +3968,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>一战,团队导向,射击,玩家对战,拟真</t>
+          <t>团队导向,一战,射击,玩家对战,拟真</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4996,7 +4996,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>机长阿雪莉 S. 诺瓦克被人类赋予了星际开拓的重任，作为一名精英科学家兼先锋兵，阿雪莉将穿上功能强大的太空机甲，通过单向瞬移站前往位于银河系远端的行星伽拉忒亚37号。在那里，他将建造起基地并打通穿回地球的时空裂缝，为进一步殖民做好准备。因此她在地球有个更响亮的称号“银河破裂者”。阿雪莉的太空机甲是大名鼎鼎的“里格斯先生”，除了能抵御最严酷的外星环境，其完备的功能将适用于建造基地、开采资源、采集样本以及投入战斗等。得益于它的强大，阿雪莉可以穿着太空机甲穿越时空裂缝，完成太空旅行。&lt;br&gt;&lt;br&gt;请玩家特别注意，如您遇到键盘失灵无法操作的问题，请尝试切换英文或关闭中文输入法。为保证游戏效果，游戏仅支持WIN8.1以上系统。后续版本将推出官方联机功能。欢迎加入官方QQ群828782969&lt;h2 class="bb_tag"&gt;建造基地&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/780310/extras/release_base_building.gif?t=1694083671" /&gt;&lt;br&gt;你的任务是开拓通往地球的双向时空裂缝。由于该装置十分复杂，需要巨大能量，仅通过采集太阳能和几吨钢铁是远远不够的。为了完成任务，你需要建立起复杂的设施网，包括矿井、加工厂、电厂以及研究设施。&lt;h2 class="bb_tag"&gt;防御敌人&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/780310/extras/riftbreaker_basedefense.gif?t=1694083671" /&gt;&lt;br&gt;你在行星上的一举一动都会被注意。随着你破坏自然环境并建起工业设施，这颗行星也会将你视作敌人。你需要建造墙壁、障碍物、防御塔等防御系统，而你受到的攻击也会一天比一天猛烈。成千上万种生物都会想要把你从他们的星球除掉。&lt;h2 class="bb_tag"&gt;开疆扩土&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/780310/extras/release_exploration.gif?t=1694083671" /&gt;&lt;br&gt;伽拉忒亚37号是位于银河系天卫十七带的一颗未知行星。远距离调查显示该行星适合人类居住，同时行星四处分布着稀有的金属及物质，是理想的殖民点。但行星上多样的未知动植物与严酷天气却往往会让你措手不及。你需要在资源丰富的地方建立前哨站，并通过时空裂缝运输所需资源。&lt;h2 class="bb_tag"&gt;战役模式&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/780310/extras/campaign_menu.jpg?t=1694083671" /&gt;&lt;br&gt;在伽拉忒亚37号多样的生态环境中穿梭，展开一场史诗般的冒险之旅。你将在星球上建立多个长期基地以获取经济来源。在研究外星物质与生命体的同时，你还要与潮水般涌来的外星生物交战。显然，它们并不欢迎你来干涉这个星球的自然秩序。战役模式采用了程序随机生成的世界，细节丰富且自由度极高，能为玩家提供数小时的游玩内容。你可以自行决定优先事项以及想使用的科技。毕竟，你是那里唯一的人类。&lt;h2 class="bb_tag"&gt;生存模式&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/780310/extras/release_survival.gif?t=1694083671" /&gt;&lt;br&gt;你的任务是击退一波又一波难度逐渐增加的外星生物，并存活一定时间。游戏中的每个任务都是随机的，提供了近乎无限的可玩性。&lt;h2 class="bb_tag"&gt;沙盒模式&lt;/h2&gt;如果激烈的生存战斗也不是你的菜，那就来试试沙盒模式吧。在这个模式下你可以掌控整个游戏，包括资源、敌人生成以及天气状况。&lt;h2 class="bb_tag"&gt;定制你的游戏体验&lt;/h2&gt;《银河破裂者》的玩法能根据你的游戏风格进行定制。你可以改变敌人进攻的频率以及它们的强度和数量、资源丰富程度、天气事件、敌人伤害以及大量其他设定。游戏中还有多种预设难度，可以同时满足硬核策略玩家以及只想轻松享受基地建设玩法的玩家。&lt;h2 class="bb_tag"&gt;加入我们，让我们一起把游戏变得更好&lt;/h2&gt;既然你一口气读到了这里，不妨帮助我们一起开发这款游戏！你可以通过论坛、我们的官方Discord或其他社交媒体与我们互动。我们将分享开发过程的内部消息，并积极听取大家的反馈。希望各位积极参与，帮助我们打造出一款你们喜欢的游戏！</t>
+          <t>机长阿雪莉 S. 诺瓦克被人类赋予了星际开拓的重任，作为一名精英科学家兼先锋兵，阿雪莉将穿上功能强大的太空机甲，通过单向瞬移站前往位于银河系远端的行星伽拉忒亚37号。在那里，他将建造起基地并打通穿回地球的时空裂缝，为进一步殖民做好准备。因此她在地球有个更响亮的称号“银河破裂者”。阿雪莉的太空机甲是大名鼎鼎的“里格斯先生”，除了能抵御最严酷的外星环境，其完备的功能将适用于建造基地、开采资源、采集样本以及投入战斗等。得益于它的强大，阿雪莉可以穿着太空机甲穿越时空裂缝，完成太空旅行。&lt;br&gt;&lt;br&gt;请玩家特别注意，如您遇到键盘失灵无法操作的问题，请尝试切换英文或关闭中文输入法。为保证游戏效果，游戏仅支持WIN8.1以上系统。后续版本将推出官方联机功能。欢迎加入官方QQ群828782969&lt;h2 class="bb_tag"&gt;建造基地&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/780310/extras/release_base_building.gif?t=1695898750" /&gt;&lt;br&gt;你的任务是开拓通往地球的双向时空裂缝。由于该装置十分复杂，需要巨大能量，仅通过采集太阳能和几吨钢铁是远远不够的。为了完成任务，你需要建立起复杂的设施网，包括矿井、加工厂、电厂以及研究设施。&lt;h2 class="bb_tag"&gt;防御敌人&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/780310/extras/riftbreaker_basedefense.gif?t=1695898750" /&gt;&lt;br&gt;你在行星上的一举一动都会被注意。随着你破坏自然环境并建起工业设施，这颗行星也会将你视作敌人。你需要建造墙壁、障碍物、防御塔等防御系统，而你受到的攻击也会一天比一天猛烈。成千上万种生物都会想要把你从他们的星球除掉。&lt;h2 class="bb_tag"&gt;开疆扩土&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/780310/extras/release_exploration.gif?t=1695898750" /&gt;&lt;br&gt;伽拉忒亚37号是位于银河系天卫十七带的一颗未知行星。远距离调查显示该行星适合人类居住，同时行星四处分布着稀有的金属及物质，是理想的殖民点。但行星上多样的未知动植物与严酷天气却往往会让你措手不及。你需要在资源丰富的地方建立前哨站，并通过时空裂缝运输所需资源。&lt;h2 class="bb_tag"&gt;战役模式&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/780310/extras/campaign_menu.jpg?t=1695898750" /&gt;&lt;br&gt;在伽拉忒亚37号多样的生态环境中穿梭，展开一场史诗般的冒险之旅。你将在星球上建立多个长期基地以获取经济来源。在研究外星物质与生命体的同时，你还要与潮水般涌来的外星生物交战。显然，它们并不欢迎你来干涉这个星球的自然秩序。战役模式采用了程序随机生成的世界，细节丰富且自由度极高，能为玩家提供数小时的游玩内容。你可以自行决定优先事项以及想使用的科技。毕竟，你是那里唯一的人类。&lt;h2 class="bb_tag"&gt;生存模式&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/780310/extras/release_survival.gif?t=1695898750" /&gt;&lt;br&gt;你的任务是击退一波又一波难度逐渐增加的外星生物，并存活一定时间。游戏中的每个任务都是随机的，提供了近乎无限的可玩性。&lt;h2 class="bb_tag"&gt;沙盒模式&lt;/h2&gt;如果激烈的生存战斗也不是你的菜，那就来试试沙盒模式吧。在这个模式下你可以掌控整个游戏，包括资源、敌人生成以及天气状况。&lt;h2 class="bb_tag"&gt;定制你的游戏体验&lt;/h2&gt;《银河破裂者》的玩法能根据你的游戏风格进行定制。你可以改变敌人进攻的频率以及它们的强度和数量、资源丰富程度、天气事件、敌人伤害以及大量其他设定。游戏中还有多种预设难度，可以同时满足硬核策略玩家以及只想轻松享受基地建设玩法的玩家。&lt;h2 class="bb_tag"&gt;加入我们，让我们一起把游戏变得更好&lt;/h2&gt;既然你一口气读到了这里，不妨帮助我们一起开发这款游戏！你可以通过论坛、我们的官方Discord或其他社交媒体与我们互动。我们将分享开发过程的内部消息，并积极听取大家的反馈。希望各位积极参与，帮助我们打造出一款你们喜欢的游戏！</t>
         </is>
       </c>
     </row>
@@ -6323,7 +6323,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;《Definitely Not Fried Chicken》-“&lt;i&gt;满足你的一切合法虚假经营渴望！&lt;/i&gt;”&lt;/h2&gt;《Definitely Not Fried Chicken》是有点不一样的经营管理模拟！&lt;br&gt;经由管理业务的两面，透过合法渠道扩大自己的药品贸易。获得新的“业务”、结识新的客户、开发更强的麻醉品、赚很多很多的钱，然后离开化为废墟的城市！&lt;br&gt;游戏背景设定于繁荣的二十世纪八十年代，阳光普照下的一座城市，在《DNFC》，你的创业者业务技能将会得到检验。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Different_Drugs_Gif.gif?t=1694613044" /&gt;&lt;br&gt;&lt;br&gt;从头开始，建造你自己的毒品工厂，购买临近的土地扩大规模。设计和布置完整的生产线，建立分销线路。为自己的工厂巩固防御，确保&lt;i&gt;“过度热情”&lt;/i&gt;的客户无法闯入。研究和开发更好的麻醉品，如大麻、可卡因和甲基苯丙胺等。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Construction_Chicken_Shop_-_To_Be_Sped_Up_B_.gif?t=1694613044" /&gt;&lt;br&gt;&lt;br&gt;简单制作伟大的产品并不足够，你需要有将它销售出去的地方！这就是你的合法企业出面的地方了 – 你需要建造和管理这些“门面”，包括销售合法的商品以避免搜查 – 人总得吃饭的，对吧？开一连串炸鸡连锁店，或者用别的业务将自己的资产组合多样化。不同的地方，有着不同的人，有着不同的&lt;i&gt;口味&lt;/i&gt;。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Capture1.PNG?t=1694613044" /&gt;&lt;br&gt;&lt;br&gt;所有经营的支柱是劳动力 – 也就是那些不知疲倦、拿着最低的工资替你进行你分配的任务的人。快乐的员工富有生产力，所以务必要让你的手下拥有盥洗室和吃饭地点等基础必需品。妥善装修的休息室则有助于提升员工士气！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Snooker.gif?t=1694613044" /&gt;&lt;br&gt;&lt;br&gt;而安全设备在员工营业额/士气方面颇有帮助...&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/DeathSuffocate5.gif?t=1694613044" /&gt;&lt;h2 class="bb_tag"&gt;重点要素&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;从零开始，打造自己的毒品帝国，将大麻、可卡因、冰毒和其他“商品”分销开去&lt;br&gt;&lt;/li&gt;&lt;li&gt;平衡各种麻烦工作，管理非法毒品买卖和“合法”经营。&lt;br&gt;&lt;/li&gt;&lt;li&gt;建立和定制自己的毒品工厂和经营“门面”。&lt;br&gt;&lt;/li&gt;&lt;li&gt;升级设施和员工设备，获得更好的产品，赚取更高额的利润&lt;br&gt;&lt;/li&gt;&lt;li&gt;设计自己的帝国，从炸鸡店到自助洗衣店和夜总会&lt;br&gt;&lt;/li&gt;&lt;li&gt;管理手下劳力，雇佣和开除，提供所需住宿，满足员工需求，让他们更加好地完成工作。&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;h2 class="bb_tag"&gt;《Definitely Not Fried Chicken》-“&lt;i&gt;满足你的一切合法虚假经营渴望！&lt;/i&gt;”&lt;/h2&gt;《Definitely Not Fried Chicken》是有点不一样的经营管理模拟！&lt;br&gt;经由管理业务的两面，透过合法渠道扩大自己的药品贸易。获得新的“业务”、结识新的客户、开发更强的麻醉品、赚很多很多的钱，然后离开化为废墟的城市！&lt;br&gt;游戏背景设定于繁荣的二十世纪八十年代，阳光普照下的一座城市，在《DNFC》，你的创业者业务技能将会得到检验。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Different_Drugs_Gif.gif?t=1695915383" /&gt;&lt;br&gt;&lt;br&gt;从头开始，建造你自己的毒品工厂，购买临近的土地扩大规模。设计和布置完整的生产线，建立分销线路。为自己的工厂巩固防御，确保&lt;i&gt;“过度热情”&lt;/i&gt;的客户无法闯入。研究和开发更好的麻醉品，如大麻、可卡因和甲基苯丙胺等。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Construction_Chicken_Shop_-_To_Be_Sped_Up_B_.gif?t=1695915383" /&gt;&lt;br&gt;&lt;br&gt;简单制作伟大的产品并不足够，你需要有将它销售出去的地方！这就是你的合法企业出面的地方了 – 你需要建造和管理这些“门面”，包括销售合法的商品以避免搜查 – 人总得吃饭的，对吧？开一连串炸鸡连锁店，或者用别的业务将自己的资产组合多样化。不同的地方，有着不同的人，有着不同的&lt;i&gt;口味&lt;/i&gt;。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Capture1.PNG?t=1695915383" /&gt;&lt;br&gt;&lt;br&gt;所有经营的支柱是劳动力 – 也就是那些不知疲倦、拿着最低的工资替你进行你分配的任务的人。快乐的员工富有生产力，所以务必要让你的手下拥有盥洗室和吃饭地点等基础必需品。妥善装修的休息室则有助于提升员工士气！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Snooker.gif?t=1695915383" /&gt;&lt;br&gt;&lt;br&gt;而安全设备在员工营业额/士气方面颇有帮助...&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/DeathSuffocate5.gif?t=1695915383" /&gt;&lt;h2 class="bb_tag"&gt;重点要素&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;从零开始，打造自己的毒品帝国，将大麻、可卡因、冰毒和其他“商品”分销开去&lt;br&gt;&lt;/li&gt;&lt;li&gt;平衡各种麻烦工作，管理非法毒品买卖和“合法”经营。&lt;br&gt;&lt;/li&gt;&lt;li&gt;建立和定制自己的毒品工厂和经营“门面”。&lt;br&gt;&lt;/li&gt;&lt;li&gt;升级设施和员工设备，获得更好的产品，赚取更高额的利润&lt;br&gt;&lt;/li&gt;&lt;li&gt;设计自己的帝国，从炸鸡店到自助洗衣店和夜总会&lt;br&gt;&lt;/li&gt;&lt;li&gt;管理手下劳力，雇佣和开除，提供所需住宿，满足员工需求，让他们更加好地完成工作。&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
@@ -7265,7 +7265,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>开放世界,冒险,单人,女性主角,动作</t>
+          <t>开放世界,冒险,女性主角,单人,动作</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -7549,7 +7549,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;探索传奇故事&lt;/h2&gt;循着这段旅程，你将前往世界之伤，直面一道连通深渊界的位面裂隙，感受席卷这片土地的恐惧。一个多世纪以来，周边国家为击退敌军而英勇奋战，但始终收效甚微。  &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__4_.gif?t=1693996219" /&gt;&lt;br&gt;&lt;br&gt;如今，你有机会结束这场纷争，但救世之路绝不会一帆风顺。你会成为受一众杰出圣武士支持的光辉天使？还是成为强大的死灵法师，掌控不死的亡灵大军？抑或全然不同的其他角色？率领你的军队，挑战强大的恶魔领主。你的远征将会引发一系列事件，彻底改变你和整个世界的命运。&lt;h2 class="bb_tag"&gt;随心搭配，玩转英雄&lt;/h2&gt;第一版《开拓者》的规则极具深度、灵活性及丰富性，你可以根据自己的想象，随心所欲地创建任何角色。共有25个职业、12个种族以及超过一千种法术、专长与能力，方便玩家根据自己的风格挑选。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__9_.gif?t=1693996219" /&gt;&lt;h2 class="bb_tag"&gt;不同选择，引向殊途&lt;/h2&gt;你的决定比以往任何时候都更加重要。你的目标已经明了，但通往目标的道路只能由你自行开辟。成王败寇，谁主沉浮？做出你的选择，看看世界会因此发生何等变化。  &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__6_.gif?t=1693996219" /&gt;&lt;h2 class="bb_tag"&gt;全新的战斗方式&lt;/h2&gt;我们提供可暂停的即时模式和回合制模式，两种战斗模式皆可供你横扫敌军。你可以在两种战斗模式中快速切换，或紧或慢，随你心意。通过《开拓者》的独特规则，你还可以体验包括骑乘战斗在内的进阶作战方式。发挥谋略，合理选用！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__7_.gif?t=1693996219" /&gt;&lt;h2 class="bb_tag"&gt;招贤纳士&lt;/h2&gt;10多位独特伙伴将与你携手同行，共谋伟业。只要赢得他们的信任和尊重，无论前方有何艰难险阻，他们都会鼎力相助。倘若理念相悖……或许也只能分道扬镳了。 &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__8_.gif?t=1693996219" /&gt;&lt;h2 class="bb_tag"&gt;领导圣教军&lt;/h2&gt;要想净化恶魔泛滥成灾的土地，仅靠一支冒险者小队远远不够。你还要掌握圣教军的指挥权，领导他们迈向胜利。在此过程中，你既是一名战略家，以纵观全局的视角运筹帷幄，同时也是一名前线指挥官，在全新的战术模式战斗中大显身手。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__3_.gif?t=1693996219" /&gt;&lt;h2 class="bb_tag"&gt;选择道途&lt;/h2&gt;探索9条各不相同的神话道途，获得非凡能力，让尔后种种都随之一变。你的决定可能会让你成为神圣的天使、狂暴的恶魔、强大的巫妖、狡诈的诡计大师、超然的御衡者、桀骜的灵使、睿智的金龙、吞噬一切的虫群行者，或是保留肉体凡身，披荆斩棘，成为当世传奇。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__1_.gif?t=1693996219" /&gt;</t>
+          <t>&lt;h2 class="bb_tag"&gt;探索传奇故事&lt;/h2&gt;循着这段旅程，你将前往世界之伤，直面一道连通深渊界的位面裂隙，感受席卷这片土地的恐惧。一个多世纪以来，周边国家为击退敌军而英勇奋战，但始终收效甚微。  &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__4_.gif?t=1695905088" /&gt;&lt;br&gt;&lt;br&gt;如今，你有机会结束这场纷争，但救世之路绝不会一帆风顺。你会成为受一众杰出圣武士支持的光辉天使？还是成为强大的死灵法师，掌控不死的亡灵大军？抑或全然不同的其他角色？率领你的军队，挑战强大的恶魔领主。你的远征将会引发一系列事件，彻底改变你和整个世界的命运。&lt;h2 class="bb_tag"&gt;随心搭配，玩转英雄&lt;/h2&gt;第一版《开拓者》的规则极具深度、灵活性及丰富性，你可以根据自己的想象，随心所欲地创建任何角色。共有25个职业、12个种族以及超过一千种法术、专长与能力，方便玩家根据自己的风格挑选。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__9_.gif?t=1695905088" /&gt;&lt;h2 class="bb_tag"&gt;不同选择，引向殊途&lt;/h2&gt;你的决定比以往任何时候都更加重要。你的目标已经明了，但通往目标的道路只能由你自行开辟。成王败寇，谁主沉浮？做出你的选择，看看世界会因此发生何等变化。  &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__6_.gif?t=1695905088" /&gt;&lt;h2 class="bb_tag"&gt;全新的战斗方式&lt;/h2&gt;我们提供可暂停的即时模式和回合制模式，两种战斗模式皆可供你横扫敌军。你可以在两种战斗模式中快速切换，或紧或慢，随你心意。通过《开拓者》的独特规则，你还可以体验包括骑乘战斗在内的进阶作战方式。发挥谋略，合理选用！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__7_.gif?t=1695905088" /&gt;&lt;h2 class="bb_tag"&gt;招贤纳士&lt;/h2&gt;10多位独特伙伴将与你携手同行，共谋伟业。只要赢得他们的信任和尊重，无论前方有何艰难险阻，他们都会鼎力相助。倘若理念相悖……或许也只能分道扬镳了。 &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__8_.gif?t=1695905088" /&gt;&lt;h2 class="bb_tag"&gt;领导圣教军&lt;/h2&gt;要想净化恶魔泛滥成灾的土地，仅靠一支冒险者小队远远不够。你还要掌握圣教军的指挥权，领导他们迈向胜利。在此过程中，你既是一名战略家，以纵观全局的视角运筹帷幄，同时也是一名前线指挥官，在全新的战术模式战斗中大显身手。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__3_.gif?t=1695905088" /&gt;&lt;h2 class="bb_tag"&gt;选择道途&lt;/h2&gt;探索9条各不相同的神话道途，获得非凡能力，让尔后种种都随之一变。你的决定可能会让你成为神圣的天使、狂暴的恶魔、强大的巫妖、狡诈的诡计大师、超然的御衡者、桀骜的灵使、睿智的金龙、吞噬一切的虫群行者，或是保留肉体凡身，披荆斩棘，成为当世传奇。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__1_.gif?t=1695905088" /&gt;</t>
         </is>
       </c>
     </row>
@@ -8991,7 +8991,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>你的存款很少，但野心很大。 &lt;br&gt;&lt;br&gt;在叔叔的帮助下，你找到一间公寓和第一份工作。 但接下来，能否取得成功并最终接管纽约，将完全取决于你自己。 &lt;br&gt;&lt;br&gt;慢慢建立多个小企业，把它们发展成大公司，或者另辟蹊径 – 在庞大的商业沙盒中探索无限可能， 享受绝无仅有的游戏体验！&lt;br&gt;&lt;br&gt;从小公寓和公共交通到豪华套房、跑车和设计师家具。 把钱投入投资基金和房地产。 成功、失败，重头再来。 无论如何都要记得照顾好自己，好好睡觉，在上升之路上保持好心态。 &lt;br&gt;&lt;br&gt;你有能力建立自己的帝国吗？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/1-zhcn.png?t=1695822546" /&gt;&lt;br&gt;从一无所有起步，成为纽约最显赫的大亨。 走上创业之路，聪明地工作，让企业蓬勃发展，同时享受生活。 你想如何成功？ 你能付出多少？ 你能坚持多久？ &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_placement.gif?t=1695822546" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/2-zhcn.png?t=1695822546" /&gt;&lt;br&gt;创办你自己的礼品店、超市、咖啡店、律师事务所、服装店、酒品店、花店等。 定义你自己的成功 – 开一家小商店、一系列连锁快餐店、一家大公司。或者在地下室开发价值数百万美元的网站。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_citymap.gif?t=1695822546" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/3-zhcn.png?t=1695822546" /&gt;&lt;br&gt;申请贷款、租用建筑、设计徽标、翻新店铺、进货、管理资金、雇用员工，以及建造基础设施。 过不久，你可能还要开始从港口进口商品，通过仓库网络进行配送。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_warehouse.gif?t=1695822546" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/4-zhcn.png?t=1695822546" /&gt;&lt;br&gt;企业越大，就越需要管理人员。 雇用人力资源经理、物流经理和采购代表。 这些人员都需要办公桌和电脑，所以你需要一个高级的总部。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_headquarters.gif?t=1695822546" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/5-zhcn.png?t=1695822546" /&gt;&lt;br&gt;需要送货卡车？ 到经销商那里买一辆。 需要吃的？ 去超市逛逛，但要先在家里配个冰箱。 Big Ambitions 是一款生活模拟游戏，你的角色必须与世界直接互动才能生存下来并取得成功。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_fridge.jpg?t=1695822546" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/6-zhcn.png?t=1695822546" /&gt;&lt;br&gt;在每处房屋里都装上适合自己风格和地位的家具。 把辛苦赚来的资金投资到房地产，发展你的商业帝国。 一点一点，接管这座城市。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_apartment.jpg?t=1695822546" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/7-zhcn.png?t=1695822546" /&gt;&lt;br&gt;你自己的财产，想怎么花就怎么花。 买台大型 SUV、高速跑车，或者全新豪华型 Mersaidi S500。 也可以去赌场碰碰运气，或者把钱投入投资基金收取回报。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_car.jpg?t=1695822546" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/8-zhcn.png?t=1695822546" /&gt;&lt;br&gt;游戏期间，你始终需要保证充足的睡眠，保持健康快乐。 旅程的重点在于享受当下时光，因为年龄越大，你越会想到金钱买不来时间… 不过真的买不来吗？  &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_persona.jpg?t=1695822546" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/9-zhcn.png?t=1695822546" /&gt;&lt;br&gt;Big Ambitions 将人气大作 Startup Company 的精华提炼到更高层次。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_startupcompany.jpg?t=1695822546" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1331550/Big_Ambitions/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1331550/Big_Ambitions/&lt;/a&gt;</t>
+          <t>你的存款很少，但野心很大。 &lt;br&gt;&lt;br&gt;在叔叔的帮助下，你找到一间公寓和第一份工作。 但接下来，能否取得成功并最终接管纽约，将完全取决于你自己。 &lt;br&gt;&lt;br&gt;慢慢建立多个小企业，把它们发展成大公司，或者另辟蹊径 – 在庞大的商业沙盒中探索无限可能， 享受绝无仅有的游戏体验！&lt;br&gt;&lt;br&gt;从小公寓和公共交通到豪华套房、跑车和设计师家具。 把钱投入投资基金和房地产。 成功、失败，重头再来。 无论如何都要记得照顾好自己，好好睡觉，在上升之路上保持好心态。 &lt;br&gt;&lt;br&gt;你有能力建立自己的帝国吗？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/1-zhcn.png?t=1695833522" /&gt;&lt;br&gt;从一无所有起步，成为纽约最显赫的大亨。 走上创业之路，聪明地工作，让企业蓬勃发展，同时享受生活。 你想如何成功？ 你能付出多少？ 你能坚持多久？ &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_placement.gif?t=1695833522" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/2-zhcn.png?t=1695833522" /&gt;&lt;br&gt;创办你自己的礼品店、超市、咖啡店、律师事务所、服装店、酒品店、花店等。 定义你自己的成功 – 开一家小商店、一系列连锁快餐店、一家大公司。或者在地下室开发价值数百万美元的网站。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_citymap.gif?t=1695833522" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/3-zhcn.png?t=1695833522" /&gt;&lt;br&gt;申请贷款、租用建筑、设计徽标、翻新店铺、进货、管理资金、雇用员工，以及建造基础设施。 过不久，你可能还要开始从港口进口商品，通过仓库网络进行配送。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_warehouse.gif?t=1695833522" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/4-zhcn.png?t=1695833522" /&gt;&lt;br&gt;企业越大，就越需要管理人员。 雇用人力资源经理、物流经理和采购代表。 这些人员都需要办公桌和电脑，所以你需要一个高级的总部。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_headquarters.gif?t=1695833522" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/5-zhcn.png?t=1695833522" /&gt;&lt;br&gt;需要送货卡车？ 到经销商那里买一辆。 需要吃的？ 去超市逛逛，但要先在家里配个冰箱。 Big Ambitions 是一款生活模拟游戏，你的角色必须与世界直接互动才能生存下来并取得成功。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_fridge.jpg?t=1695833522" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/6-zhcn.png?t=1695833522" /&gt;&lt;br&gt;在每处房屋里都装上适合自己风格和地位的家具。 把辛苦赚来的资金投资到房地产，发展你的商业帝国。 一点一点，接管这座城市。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_apartment.jpg?t=1695833522" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/7-zhcn.png?t=1695833522" /&gt;&lt;br&gt;你自己的财产，想怎么花就怎么花。 买台大型 SUV、高速跑车，或者全新豪华型 Mersaidi S500。 也可以去赌场碰碰运气，或者把钱投入投资基金收取回报。 &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_car.jpg?t=1695833522" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/8-zhcn.png?t=1695833522" /&gt;&lt;br&gt;游戏期间，你始终需要保证充足的睡眠，保持健康快乐。 旅程的重点在于享受当下时光，因为年龄越大，你越会想到金钱买不来时间… 不过真的买不来吗？  &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_persona.jpg?t=1695833522" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/9-zhcn.png?t=1695833522" /&gt;&lt;br&gt;Big Ambitions 将人气大作 Startup Company 的精华提炼到更高层次。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1331550/extras/image_startupcompany.jpg?t=1695833522" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1331550/Big_Ambitions/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1331550/Big_Ambitions/&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -9357,7 +9357,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>动漫,日系角色扮演,好评原声音轨,冒险,剧情丰富</t>
+          <t>动漫,好评原声音轨,日系角色扮演,冒险,剧情丰富</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -9498,7 +9498,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1406850/extras/CHS_台湾传奇廖添丁.gif?t=1694054483" /&gt;&lt;br&gt;在游戏中，你将扮演廖添丁，一个让日本殖民政府咬牙切齿的传奇义贼。廖添丁喜欢劫富济贫，惩恶扬善。他不畏强权，坚持为宝岛百姓伸张正义。游戏中的剧情参考了众多关于廖添丁的野史杂谈，配合着一些实地取证，制作出了扣人心弦的游戏剧情，希望带给玩家最精彩的廖添丁传奇。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1406850/extras/CHS_神影无踪展武艺.gif?t=1694054483" /&gt;&lt;br&gt;廖添丁凭借着二尺短刀和武术腰带，以高超的武艺对抗强权恶霸。玩家可以操控廖添丁使用多段连击，并能通过击败敌人获取对方的武器，以打出多种不同的组合功夫。高超的轻功和强力的钩索帮助玩家在游戏中飞檐走壁，鱼跃穿梭，在各种精心设计的关卡中勇往直前。 &lt;br&gt;游戏中还有各种极具特色的Boss等待着你去挑战，如美丽却致命的女忍者，贪婪且残忍的胖商人，还有能熟练使用各种武器的冷血军官，每一个Boss都会用不同的能力与凶残的手段来挑动玩家的运动神经！ &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1406850/extras/CHS_怀古情.gif?t=1694054483" /&gt;&lt;br&gt;游戏中以复古武侠漫画的美术风格，呈现二十世纪初的宝岛风貌。通过扮演廖添丁，玩家可以尽情探索繁华灿烂的大稻埕地区，乘坐当时最先进的高速列车，探访气氛诡谲的阴暗下水道。每个场景都值得让人游历再三。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1406850/extras/CHS_神明保庇香火袋.gif?t=1694054483" /&gt;&lt;br&gt;装备不同的符咒以获取不同的能力！这些符咒有的可以让廖添丁拥有更多的生命值，有的可以加快内力恢复速度，还有的可以减少所受到的伤害。玩家可以自由搭配符咒，打造出最强的时代英雄！  &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1406850/extras/CHS_传统桌游四色牌.gif?t=1694054483" /&gt;&lt;br&gt;除了爽快的动作格斗之外，你也可以在庙口大树下，与街坊邻居玩一局闽南传统的棋牌游戏，放松一下心情。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1406850/extras/CHS_跻身排名榜单前列.gif?t=1694054483" /&gt;&lt;br&gt;与朋友们在线上排行榜上一较高下。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1406850/extras/CHS_畅快体验Boss速通玩法.gif?t=1694054483" /&gt;&lt;br&gt;在 Boss Rush 模式中连续挑战廖添丁的对手们，测试自己的实力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1406850/extras/CHS_现身世纪交汇的台北街头4K_120FPS.gif?t=1694054483" /&gt;&lt;br&gt;4K 画质搭配 120FPS 流畅画面，让你体验二十世纪初的美丽台北城与畅快的打斗效果。 &lt;br&gt;&lt;br&gt;官方QQ群：693276975</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1406850/extras/CHS_台湾传奇廖添丁.gif?t=1695869653" /&gt;&lt;br&gt;在游戏中，你将扮演廖添丁，一个让日本殖民政府咬牙切齿的传奇义贼。廖添丁喜欢劫富济贫，惩恶扬善。他不畏强权，坚持为宝岛百姓伸张正义。游戏中的剧情参考了众多关于廖添丁的野史杂谈，配合着一些实地取证，制作出了扣人心弦的游戏剧情，希望带给玩家最精彩的廖添丁传奇。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1406850/extras/CHS_神影无踪展武艺.gif?t=1695869653" /&gt;&lt;br&gt;廖添丁凭借着二尺短刀和武术腰带，以高超的武艺对抗强权恶霸。玩家可以操控廖添丁使用多段连击，并能通过击败敌人获取对方的武器，以打出多种不同的组合功夫。高超的轻功和强力的钩索帮助玩家在游戏中飞檐走壁，鱼跃穿梭，在各种精心设计的关卡中勇往直前。 &lt;br&gt;游戏中还有各种极具特色的Boss等待着你去挑战，如美丽却致命的女忍者，贪婪且残忍的胖商人，还有能熟练使用各种武器的冷血军官，每一个Boss都会用不同的能力与凶残的手段来挑动玩家的运动神经！ &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1406850/extras/CHS_怀古情.gif?t=1695869653" /&gt;&lt;br&gt;游戏中以复古武侠漫画的美术风格，呈现二十世纪初的宝岛风貌。通过扮演廖添丁，玩家可以尽情探索繁华灿烂的大稻埕地区，乘坐当时最先进的高速列车，探访气氛诡谲的阴暗下水道。每个场景都值得让人游历再三。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1406850/extras/CHS_神明保庇香火袋.gif?t=1695869653" /&gt;&lt;br&gt;装备不同的符咒以获取不同的能力！这些符咒有的可以让廖添丁拥有更多的生命值，有的可以加快内力恢复速度，还有的可以减少所受到的伤害。玩家可以自由搭配符咒，打造出最强的时代英雄！  &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1406850/extras/CHS_传统桌游四色牌.gif?t=1695869653" /&gt;&lt;br&gt;除了爽快的动作格斗之外，你也可以在庙口大树下，与街坊邻居玩一局闽南传统的棋牌游戏，放松一下心情。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1406850/extras/CHS_跻身排名榜单前列.gif?t=1695869653" /&gt;&lt;br&gt;与朋友们在线上排行榜上一较高下。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1406850/extras/CHS_畅快体验Boss速通玩法.gif?t=1695869653" /&gt;&lt;br&gt;在 Boss Rush 模式中连续挑战廖添丁的对手们，测试自己的实力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1406850/extras/CHS_现身世纪交汇的台北街头4K_120FPS.gif?t=1695869653" /&gt;&lt;br&gt;4K 画质搭配 120FPS 流畅画面，让你体验二十世纪初的美丽台北城与畅快的打斗效果。 &lt;br&gt;&lt;br&gt;官方QQ群：693276975</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -12434,7 +12434,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>牌组构建,冒险,策略,轻度 Rogue,卡牌游戏</t>
+          <t>牌组构建,冒险,策略,卡牌游戏,轻度 Rogue</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -12444,7 +12444,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -12804,7 +12804,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -12956,16 +12956,16 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>While you were leading the Knight Commander to mythic glory, regular people on the burning streets of Kenabres were doing their best to survive. See the war through the eyes of common city dwellers and prove that you don't need to be a mythic champion to be a hero. Lead a small group of townsfolk out of captivity to safe refuge. Who will you save? Who will you sacrifice? And what grim secrets of the Worldwound have the main campaign's heroes missed?&lt;br /&gt;
-&lt;br /&gt;
-• Play a self-contained mini-campaign for low-level characters.&lt;br /&gt;
-• Spend 8–10 hours exploring the invaded Kenabres (and beyond) from angles you haven't seen before.&lt;br /&gt;
-• Two new companions will join you — unlikely heroes with vastly different views on almost everything. The only thing they agree on is this: your little group isn't going down easily.&lt;br /&gt;
-• Gather a group of survivors and lead them to safety. These are common folk, and they can't fight — but they can help you survive as long as you do the same for them.&lt;br /&gt;
-• Survive the calamity with the odds stacked against you. Learn to treasure every piece of equipment you can get, and use every quirk of the battlefield to your advantage.&lt;br /&gt;
-• Learn the secrets of a long-forgotten demon lord, confront his terrifying followers, and glimpse his otherworldly domain.&lt;br /&gt;
-• Import your victories into the main story. Let the Knight Commander meet the people you've saved... And earn an exclusive new magic item snatched from the clutches of the unknown enemy.&lt;br /&gt;
-• This is just the beginning! The heroes and villains of this story will be back in future game expansions to let you delve deeper into the secrets of the Worldwound that escaped your notice in the main campaign.</t>
+          <t>当你指引着骑士指挥官走向神话般的荣耀时，坎娜布利燃烧的街道上，普通人则在尽最大努力挣扎求生。站在普通市民的角度看待战争，并证明要展现英雄气节，你并不需要成为一位神话中的勇士。带领一小群市民逃脱囚禁，前往安全的避难所。你将拯救谁？将牺牲谁？主线战役的英雄们又错过了世界之伤的哪些骇人的秘密？&lt;br /&gt;
+&lt;br /&gt;
+• 游玩为低级角色制订的独立迷你战役。&lt;br /&gt;
+• 在8-10小时的游戏时长中，以全新的角度探索被入侵的坎娜布利（以及其它地方）。&lt;br /&gt;
+• 两位新同伴将加入你。这对跟英雄一词丝毫不搭边的同伴对每件事的观点都大相径庭。他们唯一的共识只有：你们这支小队伍不会轻易被打垮。&lt;br /&gt;
+• 集合一组幸存者，带领他们脱离险境。这些人是没有战斗力的平民，但他们能帮你存活下去，只要你也能保证他们的安全。&lt;br /&gt;
+• 克服重重磨难，挺过这场浩劫。学会珍惜你能得到的每一件装备，利用战场上的每个巧合来取得优势。&lt;br /&gt;
+• 了解一位被遗忘已久的恶魔领主的秘密，对抗他可怕的追随者，见识他的异界国度。&lt;br /&gt;
+• 将你的胜利带入主线剧情。让骑士指挥官见到你救出的人们……并获得一件从未知敌人手中抢来的全新独特魔法物品。&lt;br /&gt;
+• 这只是一个开始！本故事中的英雄和反派都将在未来的游戏扩展内容中再度登场，让你更深入地了解在主线战役中没有注意到的世界之伤的秘密。</t>
         </is>
       </c>
     </row>
@@ -13155,7 +13155,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -13229,7 +13229,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>角色扮演,武术,开放世界,策略,独立</t>
+          <t>角色扮演,开放世界,武术,策略,独立</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -13249,7 +13249,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;游戏抢先体验版已发售&lt;/strong&gt;，我们准备了&lt;strong&gt;开发进度板&lt;/strong&gt;，大家可以随时查阅我们当前的工作进展&lt;br&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://trello.com/b/X8yHzhnK" target="_blank" rel=" noopener"  &gt;https://trello.com/b/X8yHzhnK&lt;/a&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/企业微信截图_16953821031604.png?t=1695385462" /&gt;&lt;br&gt;&lt;br&gt;后续更新计划通过&lt;strong&gt;【更新Roadmap线路图】&lt;/strong&gt;与大家同步。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/大侠立志传-更新长图23922-2_1_.png?t=1695385462" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;这是一款像素版江湖生存模拟器，你将扮演一个初出茅庐的市井小人物，体验多样身份，在江湖中摸爬滚打，最终脱颖而出。&lt;h2 class="bb_tag"&gt;游戏特色&lt;/h2&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 【百余种武学功法】&lt;br&gt;拳掌刀剑，枪棍音律，内外兼修，皆可自行搭配。成为十字坡剑圣，亦可精通百家所长。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/武功.gif?t=1695385462" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt; 【多分支走向】&lt;br&gt;游戏中没有真正意义上的主线，在充满抉择的江湖中从心选择吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/选择.gif?t=1695385462" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;【丰富的NPC交互玩法】&lt;br&gt;结交五都侠客（侣），游走于盘杂的人际势力，经营你的江湖关系网。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/洪小气.gif?t=1695385462" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;【奇遇和危险并存的真实武林】&lt;br&gt;江湖并非非黑即白，遇事不一定要用拳头解决，采取多种方式应对，并坦然接受不一样的结局。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/牢房1.gif?t=1695385462" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;【充满烟火气息的像素武侠世界】&lt;br&gt;游戏中有着自然流逝的时间，各色NPC都有自己独立的行为AI。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/日夜.gif?t=1695385462" /&gt;&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;目前已开放官方玩家群，群内会同步更新一手情报，举办内测及其他福利活动，还有机会偶遇隐藏NPC半瓶神仙醋，欢迎各位少侠加入一起参与讨论！&lt;br&gt;官方玩家27群：619959310 &lt;br&gt;官方玩家25群：724208742&lt;br&gt;官方玩家26群：722736145&lt;br&gt;官方玩家24群：102223136（已满）&lt;br&gt;官方玩家23群：213116717（已满）&lt;br&gt;官方玩家22群：343709025（已满）&lt;br&gt;官方玩家21群：550219413 （已满）&lt;br&gt;官方玩家20群：295390373（已满）&lt;br&gt;官方玩家19群：611246285（已开放）&lt;br&gt;官方玩家18群：165072814（已开放）&lt;br&gt;官方玩家17群 ：801310302 （已开放）&lt;br&gt;官方玩家16群 ：753444235 （已开放）&lt;br&gt;官方玩家15群 ：141480592 （已开放）&lt;br&gt;官方玩家14群： 728897240 （已开放）&lt;br&gt;官方玩家13群 ：801291993（已满）&lt;br&gt;官方玩家12群 ：863498517（已满）&lt;br&gt;官方玩家11群： 801256045（已满）&lt;br&gt;官方玩家10群 ：367248548 （已满）&lt;br&gt;官方玩家9群 ：801146478（已满）&lt;br&gt;官方玩家8群 ：683263874（已满）&lt;br&gt;官方玩家7群 ：679566481 （已开放）&lt;br&gt;官方玩家6群： 926229186 （已开放）&lt;br&gt;官方玩家5群：926111719 （已开放）&lt;br&gt;官方玩家4群：826179621 （已开放）&lt;br&gt;官方玩家3群：753982506 （已开放）&lt;br&gt;官方玩家2群：1169723804 （已开放）&lt;br&gt;官方玩家1群：597962931 （已满）</t>
+          <t>这是一款像素版江湖生存模拟器，你将扮演一个初出茅庐的市井小人物，体验多样身份，在江湖中摸爬滚打，最终脱颖而出。&lt;h2 class="bb_tag"&gt;游戏特色&lt;/h2&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; 【百余种武学功法】&lt;br&gt;拳掌刀剑，枪棍音律，内外兼修，皆可自行搭配。成为十字坡剑圣，亦可精通百家所长。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/武功.gif?t=1695894720" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt; 【多分支走向】&lt;br&gt;游戏中没有真正意义上的主线，在充满抉择的江湖中从心选择吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/选择.gif?t=1695894720" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;【丰富的NPC交互玩法】&lt;br&gt;结交五都侠客（侣），游走于盘杂的人际势力，经营你的江湖关系网。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/洪小气.gif?t=1695894720" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;【奇遇和危险并存的真实武林】&lt;br&gt;江湖并非非黑即白，遇事不一定要用拳头解决，采取多种方式应对，并坦然接受不一样的结局。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/牢房1.gif?t=1695894720" /&gt;&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;【充满烟火气息的像素武侠世界】&lt;br&gt;游戏中有着自然流逝的时间，各色NPC都有自己独立的行为AI。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1948980/extras/日夜.gif?t=1695894720" /&gt;&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;目前已开放官方玩家群，群内会同步更新一手情报，举办内测及其他福利活动，还有机会偶遇隐藏NPC半瓶神仙醋，欢迎各位少侠加入一起参与讨论！&lt;br&gt;官方玩家27群：619959310 &lt;br&gt;官方玩家25群：724208742&lt;br&gt;官方玩家26群：722736145&lt;br&gt;官方玩家24群：102223136（已满）&lt;br&gt;官方玩家23群：213116717（已满）&lt;br&gt;官方玩家22群：343709025（已满）&lt;br&gt;官方玩家21群：550219413 （已满）&lt;br&gt;官方玩家20群：295390373（已满）&lt;br&gt;官方玩家19群：611246285（已开放）&lt;br&gt;官方玩家18群：165072814（已开放）&lt;br&gt;官方玩家17群 ：801310302 （已开放）&lt;br&gt;官方玩家16群 ：753444235 （已开放）&lt;br&gt;官方玩家15群 ：141480592 （已开放）&lt;br&gt;官方玩家14群： 728897240 （已开放）&lt;br&gt;官方玩家13群 ：801291993（已满）&lt;br&gt;官方玩家12群 ：863498517（已满）&lt;br&gt;官方玩家11群： 801256045（已满）&lt;br&gt;官方玩家10群 ：367248548 （已满）&lt;br&gt;官方玩家9群 ：801146478（已满）&lt;br&gt;官方玩家8群 ：683263874（已满）&lt;br&gt;官方玩家7群 ：679566481 （已开放）&lt;br&gt;官方玩家6群： 926229186 （已开放）&lt;br&gt;官方玩家5群：926111719 （已开放）&lt;br&gt;官方玩家4群：826179621 （已开放）&lt;br&gt;官方玩家3群：753982506 （已开放）&lt;br&gt;官方玩家2群：1169723804 （已开放）&lt;br&gt;官方玩家1群：597962931 （已满）</t>
         </is>
       </c>
     </row>
@@ -13573,7 +13573,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
@@ -13821,7 +13821,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/RhdgScwtm9" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/discord_banner.png?t=1694723233" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;《北欧之烬：诸神黄昏幸存者》(Nordic Ashes: Survivors of Ragnarok) 是一款基于北欧背景的 Roguelite 群敌割草游戏，你需要在潮水般蜂拥而至的怪群中奋力求生。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/nordic_ashes_-_thyra_alfheim.gif?t=1694723233" /&gt;&lt;br&gt;&lt;br&gt;对抗各种凶猛敌人，从基础小怪到精英魔兽，再到史诗级头目，它们都有各自独特行为。别被外表所蒙蔽，即便是杂鱼小怪也很危险！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/titulo_1.png?t=1694723233" /&gt;&lt;br&gt;在战斗中解锁新武器和技能。使用星座技能树升级角色数值，在它们包围你之前杀出血路，否则可能就太晚了……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/nordic_ashes_-_constellation_update.gif?t=1694723233" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/titulo_2.png?t=1694723233" /&gt;&lt;br&gt;诸神黄昏之后，世界树丧失了维持九界所需的近乎所有能量。只有一小部分英雄挺过了世界末日。在这一冒险中，你将使用多名角色：北欧狂战士阿塞尔多、凶猛猎手媞拉、元素大师哈夫格林。手持传奇刀剑或召唤古老火焰，屠戮你所在界域的所有敌人，并征服其它界域。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/nordic_ashes_-_hafrgrim_midgard.gif?t=1694723233" /&gt;&lt;br&gt;&lt;br&gt;在游戏进程中使用星座技能树升级伤害、范围、冷却时间和更多其它数值，制定不同的角色构建方案，让每一场游戏都不相同。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/titulo_3.png?t=1694723233" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;探索由北欧传说中的世界树所联系的九界&lt;br&gt;&lt;/li&gt;&lt;li&gt;不同的角色各自具有独占技能和武器。&lt;br&gt;&lt;/li&gt;&lt;li&gt;星座技能树用以升级幸存者的能力&lt;br&gt;&lt;/li&gt;&lt;li&gt;制定最为强大的角色构建方案&lt;br&gt;&lt;/li&gt;&lt;li&gt;头目具有独特行为模式，让战斗更为史诗&lt;br&gt;&lt;/li&gt;&lt;li&gt;数十种圣物可供解锁&lt;br&gt;&lt;/li&gt;&lt;li&gt;世界树升级作为元成长要素&lt;br&gt;&lt;/li&gt;&lt;li&gt;抢先体验奖励独占皮肤！&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持键鼠和手柄游玩。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/roadmap.png?t=1694723233" /&gt;</t>
+          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/RhdgScwtm9" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/discord_banner.png?t=1695916847" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;《北欧之烬：诸神黄昏幸存者》(Nordic Ashes: Survivors of Ragnarok) 是一款基于北欧背景的 Roguelite 群敌割草游戏，你需要在潮水般蜂拥而至的怪群中奋力求生。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/nordic_ashes_-_thyra_alfheim.gif?t=1695916847" /&gt;&lt;br&gt;&lt;br&gt;对抗各种凶猛敌人，从基础小怪到精英魔兽，再到史诗级头目，它们都有各自独特行为。别被外表所蒙蔽，即便是杂鱼小怪也很危险！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/titulo_1.png?t=1695916847" /&gt;&lt;br&gt;在战斗中解锁新武器和技能。使用星座技能树升级角色数值，在它们包围你之前杀出血路，否则可能就太晚了……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/nordic_ashes_-_constellation_update.gif?t=1695916847" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/titulo_2.png?t=1695916847" /&gt;&lt;br&gt;诸神黄昏之后，世界树丧失了维持九界所需的近乎所有能量。只有一小部分英雄挺过了世界末日。在这一冒险中，你将使用多名角色：北欧狂战士阿塞尔多、凶猛猎手媞拉、元素大师哈夫格林。手持传奇刀剑或召唤古老火焰，屠戮你所在界域的所有敌人，并征服其它界域。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/nordic_ashes_-_hafrgrim_midgard.gif?t=1695916847" /&gt;&lt;br&gt;&lt;br&gt;在游戏进程中使用星座技能树升级伤害、范围、冷却时间和更多其它数值，制定不同的角色构建方案，让每一场游戏都不相同。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/titulo_3.png?t=1695916847" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;探索由北欧传说中的世界树所联系的九界&lt;br&gt;&lt;/li&gt;&lt;li&gt;不同的角色各自具有独占技能和武器。&lt;br&gt;&lt;/li&gt;&lt;li&gt;星座技能树用以升级幸存者的能力&lt;br&gt;&lt;/li&gt;&lt;li&gt;制定最为强大的角色构建方案&lt;br&gt;&lt;/li&gt;&lt;li&gt;头目具有独特行为模式，让战斗更为史诗&lt;br&gt;&lt;/li&gt;&lt;li&gt;数十种圣物可供解锁&lt;br&gt;&lt;/li&gt;&lt;li&gt;世界树升级作为元成长要素&lt;br&gt;&lt;/li&gt;&lt;li&gt;抢先体验奖励独占皮肤！&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持键鼠和手柄游玩。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2068280/extras/roadmap.png?t=1695916847" /&gt;</t>
         </is>
       </c>
     </row>
@@ -14652,7 +14652,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>动作类 Rogue,角色扮演,僵尸,轻度 Rogue,弹幕射击</t>
+          <t>动作类 Rogue,僵尸,角色扮演,弹幕射击,轻度 Rogue</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -3113,7 +3113,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3498,7 +3498,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://space.bilibili.com/1330488527/" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/534380/extras/BiliBili_v2.gif?t=1695831640" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;距离第一部游戏的故事已经过去了20年，病毒占了上风，人类正逐渐走向死亡。你将扮演艾登·克拉德威尔，一个漫游者，负责运送货物和传递消息，在被丧尸病毒摧毁的荒芜世界中，保持着与仅存的几个生存者聚居点的联系。然而，你的真正目标是找到妹妹米娅。过去，为了逃离华尔兹博士的痛苦实验，你曾经离开了还是孩童的她。这段过去一直在你心中挥之不去，当你听说米娅可能还活着，并且居住在地球上最后一座城市维勒多时，你终于下定决心直面这一切。&lt;br&gt;&lt;br&gt;不久后，你发现自己身处一个冲突不断的聚居点。你需要参与新奇而残酷的战斗，不断磨砺自己的技能，击败成群的丧尸，并与其他人结盟。你将在城市中漫游，在维勒多的建筑和屋顶上自由奔跑，搜寻偏远地区的战利品，并在夜晚时保持警惕。每当太阳西沉，怪物就会占领所有街道。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/534380/extras/dl_2_sh_steam.gif?t=1695831640" /&gt;&lt;h2 class="bb_tag"&gt;末日后的世界&lt;/h2&gt;15年前，人类经历了一场大陷落，这场灾难永远改变了世界。哈兰病毒迅速在全球蔓延，人们很快发现，所有的希望都破灭了。到了2036年，只有为数不多的聚居地存留于世，而人类正在逐渐走向死亡，为无情的新物种——成群结队的丧尸——让路。&lt;h2 class="bb_tag"&gt;白天属于活人，夜晚属于死者&lt;/h2&gt;欢迎来到维勒多，人类最后的堡垒之一。白天，生存者仍然努力在这里生活，寻求一种虚假的正常感。他们建立关系，追逐梦想，让生活继续。表面上看，一切似乎……不错。然而，当日落时分到来，最后一束阳光消失，城市中更可怕的居民将从他们阴暗的巢穴中爬出，占领街道。如果你在黑暗中停留太久，不提高警觉，就可能永远无法回家。&lt;h2 class="bb_tag"&gt;你必须不停移动才能存活&lt;/h2&gt;你不可能赢得所有的战斗。有时候，逃跑才是上策。幸运的是，你正好有这样的技巧。当你陷入危机，跑酷让你顺利逃脱。从一个屋顶跳到另一个屋顶，飞荡着穿过不同的城市景观，利用滑索等等。无论你做什么，当你在维勒多的建筑和屋顶上自由奔跑，寻找战利品或逃离夜晚的危险时，都会体验到独一无二的自由感。&lt;h2 class="bb_tag"&gt;变得残暴，并发挥创造力&lt;/h2&gt;在这个危险的世界中，只有最强者才能生存。无论你是喜欢粉碎、切割还是肢解挡在你面前的敌人，你都必须发挥创造力才能度过难关。而且，谁说你需要武器？利用你的各种跑酷动作来先发制人。学习战斗和跑酷的方式，在挥舞武器或使用招式抵御任何形式的危险时，感受头骨碎裂和血肉横飞的刺激。还有别忘了，维勒多拥有的武器能让末日后世界最先进的武器库都相形见绌。&lt;h2 class="bb_tag"&gt;与其单打独斗，不如四个漫游者同行&lt;/h2&gt;有朋友相助，在维勒多活下去会更容易。与最多3名玩家组队，以增加你的生存几率。一起探索剧情，接受漫游者哨站的挑战，或是在城市街道上大肆破坏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/534380/extras/steam_footer_dying_light2.jpg?t=1695831640" /&gt;</t>
+          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://space.bilibili.com/1330488527/" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/534380/extras/BiliBili_v2.gif?t=1695912758" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;距离第一部游戏的故事已经过去了20年，病毒占了上风，人类正逐渐走向死亡。你将扮演艾登·克拉德威尔，一个漫游者，负责运送货物和传递消息，在被丧尸病毒摧毁的荒芜世界中，保持着与仅存的几个生存者聚居点的联系。然而，你的真正目标是找到妹妹米娅。过去，为了逃离华尔兹博士的痛苦实验，你曾经离开了还是孩童的她。这段过去一直在你心中挥之不去，当你听说米娅可能还活着，并且居住在地球上最后一座城市维勒多时，你终于下定决心直面这一切。&lt;br&gt;&lt;br&gt;不久后，你发现自己身处一个冲突不断的聚居点。你需要参与新奇而残酷的战斗，不断磨砺自己的技能，击败成群的丧尸，并与其他人结盟。你将在城市中漫游，在维勒多的建筑和屋顶上自由奔跑，搜寻偏远地区的战利品，并在夜晚时保持警惕。每当太阳西沉，怪物就会占领所有街道。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/534380/extras/dl_2_sh_steam.gif?t=1695912758" /&gt;&lt;h2 class="bb_tag"&gt;末日后的世界&lt;/h2&gt;15年前，人类经历了一场大陷落，这场灾难永远改变了世界。哈兰病毒迅速在全球蔓延，人们很快发现，所有的希望都破灭了。到了2036年，只有为数不多的聚居地存留于世，而人类正在逐渐走向死亡，为无情的新物种——成群结队的丧尸——让路。&lt;h2 class="bb_tag"&gt;白天属于活人，夜晚属于死者&lt;/h2&gt;欢迎来到维勒多，人类最后的堡垒之一。白天，生存者仍然努力在这里生活，寻求一种虚假的正常感。他们建立关系，追逐梦想，让生活继续。表面上看，一切似乎……不错。然而，当日落时分到来，最后一束阳光消失，城市中更可怕的居民将从他们阴暗的巢穴中爬出，占领街道。如果你在黑暗中停留太久，不提高警觉，就可能永远无法回家。&lt;h2 class="bb_tag"&gt;你必须不停移动才能存活&lt;/h2&gt;你不可能赢得所有的战斗。有时候，逃跑才是上策。幸运的是，你正好有这样的技巧。当你陷入危机，跑酷让你顺利逃脱。从一个屋顶跳到另一个屋顶，飞荡着穿过不同的城市景观，利用滑索等等。无论你做什么，当你在维勒多的建筑和屋顶上自由奔跑，寻找战利品或逃离夜晚的危险时，都会体验到独一无二的自由感。&lt;h2 class="bb_tag"&gt;变得残暴，并发挥创造力&lt;/h2&gt;在这个危险的世界中，只有最强者才能生存。无论你是喜欢粉碎、切割还是肢解挡在你面前的敌人，你都必须发挥创造力才能度过难关。而且，谁说你需要武器？利用你的各种跑酷动作来先发制人。学习战斗和跑酷的方式，在挥舞武器或使用招式抵御任何形式的危险时，感受头骨碎裂和血肉横飞的刺激。还有别忘了，维勒多拥有的武器能让末日后世界最先进的武器库都相形见绌。&lt;h2 class="bb_tag"&gt;与其单打独斗，不如四个漫游者同行&lt;/h2&gt;有朋友相助，在维勒多活下去会更容易。与最多3名玩家组队，以增加你的生存几率。一起探索剧情，接受漫游者哨站的挑战，或是在城市街道上大肆破坏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/534380/extras/steam_footer_dying_light2.jpg?t=1695912758" /&gt;</t>
         </is>
       </c>
     </row>
@@ -6318,12 +6318,12 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2023年01月18日</t>
+          <t>2023年09月29日</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;《Definitely Not Fried Chicken》-“&lt;i&gt;满足你的一切合法虚假经营渴望！&lt;/i&gt;”&lt;/h2&gt;《Definitely Not Fried Chicken》是有点不一样的经营管理模拟！&lt;br&gt;经由管理业务的两面，透过合法渠道扩大自己的药品贸易。获得新的“业务”、结识新的客户、开发更强的麻醉品、赚很多很多的钱，然后离开化为废墟的城市！&lt;br&gt;游戏背景设定于繁荣的二十世纪八十年代，阳光普照下的一座城市，在《DNFC》，你的创业者业务技能将会得到检验。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Different_Drugs_Gif.gif?t=1695915383" /&gt;&lt;br&gt;&lt;br&gt;从头开始，建造你自己的毒品工厂，购买临近的土地扩大规模。设计和布置完整的生产线，建立分销线路。为自己的工厂巩固防御，确保&lt;i&gt;“过度热情”&lt;/i&gt;的客户无法闯入。研究和开发更好的麻醉品，如大麻、可卡因和甲基苯丙胺等。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Construction_Chicken_Shop_-_To_Be_Sped_Up_B_.gif?t=1695915383" /&gt;&lt;br&gt;&lt;br&gt;简单制作伟大的产品并不足够，你需要有将它销售出去的地方！这就是你的合法企业出面的地方了 – 你需要建造和管理这些“门面”，包括销售合法的商品以避免搜查 – 人总得吃饭的，对吧？开一连串炸鸡连锁店，或者用别的业务将自己的资产组合多样化。不同的地方，有着不同的人，有着不同的&lt;i&gt;口味&lt;/i&gt;。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Capture1.PNG?t=1695915383" /&gt;&lt;br&gt;&lt;br&gt;所有经营的支柱是劳动力 – 也就是那些不知疲倦、拿着最低的工资替你进行你分配的任务的人。快乐的员工富有生产力，所以务必要让你的手下拥有盥洗室和吃饭地点等基础必需品。妥善装修的休息室则有助于提升员工士气！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Snooker.gif?t=1695915383" /&gt;&lt;br&gt;&lt;br&gt;而安全设备在员工营业额/士气方面颇有帮助...&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/DeathSuffocate5.gif?t=1695915383" /&gt;&lt;h2 class="bb_tag"&gt;重点要素&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;从零开始，打造自己的毒品帝国，将大麻、可卡因、冰毒和其他“商品”分销开去&lt;br&gt;&lt;/li&gt;&lt;li&gt;平衡各种麻烦工作，管理非法毒品买卖和“合法”经营。&lt;br&gt;&lt;/li&gt;&lt;li&gt;建立和定制自己的毒品工厂和经营“门面”。&lt;br&gt;&lt;/li&gt;&lt;li&gt;升级设施和员工设备，获得更好的产品，赚取更高额的利润&lt;br&gt;&lt;/li&gt;&lt;li&gt;设计自己的帝国，从炸鸡店到自助洗衣店和夜总会&lt;br&gt;&lt;/li&gt;&lt;li&gt;管理手下劳力，雇佣和开除，提供所需住宿，满足员工需求，让他们更加好地完成工作。&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;h2 class="bb_tag"&gt;《Definitely Not Fried Chicken》-“&lt;i&gt;满足你的一切合法虚假经营渴望！&lt;/i&gt;”&lt;/h2&gt;《Definitely Not Fried Chicken》是有点不一样的经营管理模拟！&lt;br&gt;经由管理业务的两面，透过合法渠道扩大自己的药品贸易。获得新的“业务”、结识新的客户、开发更强的麻醉品、赚很多很多的钱，然后离开化为废墟的城市！&lt;br&gt;游戏背景设定于繁荣的二十世纪八十年代，阳光普照下的一座城市，在《DNFC》，你的创业者业务技能将会得到检验。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Different_Drugs_Gif.gif?t=1695996537" /&gt;&lt;br&gt;&lt;br&gt;从头开始，建造你自己的毒品工厂，购买临近的土地扩大规模。设计和布置完整的生产线，建立分销线路。为自己的工厂巩固防御，确保&lt;i&gt;“过度热情”&lt;/i&gt;的客户无法闯入。研究和开发更好的麻醉品，如大麻、可卡因和甲基苯丙胺等。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Construction_Chicken_Shop_-_To_Be_Sped_Up_B_.gif?t=1695996537" /&gt;&lt;br&gt;&lt;br&gt;简单制作伟大的产品并不足够，你需要有将它销售出去的地方！这就是你的合法企业出面的地方了 – 你需要建造和管理这些“门面”，包括销售合法的商品以避免搜查 – 人总得吃饭的，对吧？开一连串炸鸡连锁店，或者用别的业务将自己的资产组合多样化。不同的地方，有着不同的人，有着不同的&lt;i&gt;口味&lt;/i&gt;。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Capture1.PNG?t=1695996537" /&gt;&lt;br&gt;&lt;br&gt;所有经营的支柱是劳动力 – 也就是那些不知疲倦、拿着最低的工资替你进行你分配的任务的人。快乐的员工富有生产力，所以务必要让你的手下拥有盥洗室和吃饭地点等基础必需品。妥善装修的休息室则有助于提升员工士气！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/Snooker.gif?t=1695996537" /&gt;&lt;br&gt;&lt;br&gt;而安全设备在员工营业额/士气方面颇有帮助...&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036240/extras/DeathSuffocate5.gif?t=1695996537" /&gt;&lt;h2 class="bb_tag"&gt;重点要素&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;从零开始，打造自己的毒品帝国，将大麻、可卡因、冰毒和其他“商品”分销开去&lt;br&gt;&lt;/li&gt;&lt;li&gt;平衡各种麻烦工作，管理非法毒品买卖和“合法”经营。&lt;br&gt;&lt;/li&gt;&lt;li&gt;建立和定制自己的毒品工厂和经营“门面”。&lt;br&gt;&lt;/li&gt;&lt;li&gt;升级设施和员工设备，获得更好的产品，赚取更高额的利润&lt;br&gt;&lt;/li&gt;&lt;li&gt;设计自己的帝国，从炸鸡店到自助洗衣店和夜总会&lt;br&gt;&lt;/li&gt;&lt;li&gt;管理手下劳力，雇佣和开除，提供所需住宿，满足员工需求，让他们更加好地完成工作。&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
@@ -8431,7 +8431,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>本作发生在前作&lt;a href="https://store.steampowered.com/app/1121560" target="_blank" rel=""  &gt;《莱莎的炼金工房~常暗女王与秘密藏身处~》&lt;/a&gt;的冒险3年后，讲述各奔前程的莱莎和其同伴们再次相聚，经历新的邂逅与离别，再次寻找“某种至宝”的故事。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1257290/extras/1-1.jpg?t=1689901295" /&gt;&lt;br&gt;&lt;br&gt;故事&lt;br&gt;库肯岛冒险结束后的3年，莱莎留在岛上努力磨练炼金术。有一天，她收到一封来自王都阿斯拉·阿姆·伯特的友人寄来的一封信。信中提到 “可能与炼金术有关的遗迹”，与此同时还接到调查神秘发光之石的委托。恰好感到炼金术毫无进展的莱莎，为了回应友人的邀请并调查神秘之石，独自一人以王都为目的地，踏上旅途。&lt;br&gt;在王都迎接莱莎的是，曾经一同冒险的友人、新结识的同伴、与神奇小动物的邂逅。以及无数如童话般的传说和谜团重重的遗迹……。&lt;br&gt;告别青涩、逐渐成熟的莱莎等人，又一场围绕他们的崭新“夏日冒险”即将开始。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1257290/extras/2-1.jpg?t=1689901295" /&gt;&lt;br&gt;&lt;br&gt;本作的特色&lt;br&gt;■运用原野行动进行探索&lt;br&gt;通过用绳子进行移动、沿蔓藤攀登山崖、穿越狭窄场景、在水中游泳等各种动作，享受原野行动和探索遗迹带来的乐趣。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1257290/extras/3-1.gif?t=1689901295" /&gt;&lt;br&gt;&lt;br&gt;■即时性与动作性大增的战斗系统&lt;br&gt;本作的战斗系统在前作的“即时战术战斗”的基础上进行改良，进化为能够连续使用技能、在危急关头反复使用道具等，更加强调动作即时感的系统。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1257290/extras/4-1.jpg?t=1689901295" /&gt;&lt;br&gt;&lt;br&gt;■看上去简单易懂的调合！&lt;br&gt;比起向材料环的节点中投入材料的“连锁调合”更加浅显易懂，即使是第一次接触的玩家也能很快制作出道具；调合高手更能够制作出非常有讲究的道具。另外通过 “进化连结” 将完成品混合，还能够生成全新的效果和道具。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1257290/extras/5-1.gif?t=1689901295" /&gt;&lt;br&gt;&lt;br&gt;※游戏本篇的单体商品《莱莎的炼金工房2 ~失落传说与秘密妖精~ 数字豪华版》、《莱莎的炼金工房2 ~失落传说与秘密妖精~ 数字豪华版 with 季票》也在同时贩卖。请在购买时留意。</t>
+          <t>本作发生在前作&lt;a href="https://store.steampowered.com/app/1121560" target="_blank" rel=""  &gt;《莱莎的炼金工房~常暗女王与秘密藏身处~》&lt;/a&gt;的冒险3年后，讲述各奔前程的莱莎和其同伴们再次相聚，经历新的邂逅与离别，再次寻找“某种至宝”的故事。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1257290/extras/1-1.jpg?t=1695968388" /&gt;&lt;br&gt;&lt;br&gt;故事&lt;br&gt;库肯岛冒险结束后的3年，莱莎留在岛上努力磨练炼金术。有一天，她收到一封来自王都阿斯拉·阿姆·伯特的友人寄来的一封信。信中提到 “可能与炼金术有关的遗迹”，与此同时还接到调查神秘发光之石的委托。恰好感到炼金术毫无进展的莱莎，为了回应友人的邀请并调查神秘之石，独自一人以王都为目的地，踏上旅途。&lt;br&gt;在王都迎接莱莎的是，曾经一同冒险的友人、新结识的同伴、与神奇小动物的邂逅。以及无数如童话般的传说和谜团重重的遗迹……。&lt;br&gt;告别青涩、逐渐成熟的莱莎等人，又一场围绕他们的崭新“夏日冒险”即将开始。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1257290/extras/2-1.jpg?t=1695968388" /&gt;&lt;br&gt;&lt;br&gt;本作的特色&lt;br&gt;■运用原野行动进行探索&lt;br&gt;通过用绳子进行移动、沿蔓藤攀登山崖、穿越狭窄场景、在水中游泳等各种动作，享受原野行动和探索遗迹带来的乐趣。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1257290/extras/3-1.gif?t=1695968388" /&gt;&lt;br&gt;&lt;br&gt;■即时性与动作性大增的战斗系统&lt;br&gt;本作的战斗系统在前作的“即时战术战斗”的基础上进行改良，进化为能够连续使用技能、在危急关头反复使用道具等，更加强调动作即时感的系统。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1257290/extras/4-1.jpg?t=1695968388" /&gt;&lt;br&gt;&lt;br&gt;■看上去简单易懂的调合！&lt;br&gt;比起向材料环的节点中投入材料的“连锁调合”更加浅显易懂，即使是第一次接触的玩家也能很快制作出道具；调合高手更能够制作出非常有讲究的道具。另外通过 “进化连结” 将完成品混合，还能够生成全新的效果和道具。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1257290/extras/5-1.gif?t=1695968388" /&gt;&lt;br&gt;&lt;br&gt;※游戏本篇的单体商品《莱莎的炼金工房2 ~失落传说与秘密妖精~ 数字豪华版》、《莱莎的炼金工房2 ~失落传说与秘密妖精~ 数字豪华版 with 季票》也在同时贩卖。请在购买时留意。</t>
         </is>
       </c>
     </row>
@@ -9033,7 +9033,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/banner_tw.jpg?t=1695387871" /&gt;&lt;h2 class="bb_tag"&gt;《信長之野望･新生 with 威力加強版》&lt;/h2&gt;&lt;br&gt;※本商品包含《信長之野望･新生》与《信長之野望･新生 威力加強版》。&lt;br&gt;若已购买了《信長之野望･新生》，请勿购买本商品，而改为购买《信長之野望･新生 威力加強版》。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Nobunaga.gif?t=1695387871" /&gt;&lt;br&gt;&lt;br&gt;在《信長之野望･新生》中，玩家能够与自主思考并采取行动的“活生生武将”一起体验真实的战国。在符合“信長之野望”系列40周年品质和体量的标准下，本作迎来了系列最高级别的强化！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Departure.gif?t=1695387871" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;①“君臣同心”的更深层进化&lt;/strong&gt;&lt;br&gt;能够阻止武将出奔、对敌对势力进行挖角等的“直接谈判”，任命“家宰”、“奉行”打造自己独特家臣团的“评定众”等，让“君臣同心”更上一层楼！ &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Battle1-CHT.gif?t=1695387871" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;②波及到城下一带的白热化“攻城战”&lt;/strong&gt;&lt;br&gt;“攻城战”将以前所未有的形态登场。除去攻略城池本身，还能够享受别具动态感与真实感的攻城战！在超过200张专用地图上灵活运用每座城池的特征取得胜利吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Battle2-CHT.gif?t=1695387871" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;③各势力别具一格、多彩的战略性&lt;/strong&gt;&lt;br&gt;大幅扩充赋予势力特征的“政策”。此外还追加了灵活运用决定每座城所扮演的角色、在据点之间建立联系的“城定位”，以及孕育出全新游玩体验的“军团战略”等新要素，令玩家别具个性的战略得以实现。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Characters.gif?t=1695387871" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;④惯例的各种编辑功能之外，还有充实的追加要素！&lt;/strong&gt;&lt;br&gt;剧情与事件、特性等以往的要素得到大幅度扩充。武将与BGM、编辑剧情、创建新势力功能等高人气要素也将更加丰富多彩！&lt;h2 class="bb_tag"&gt;《信长之野望·新生》&lt;/h2&gt;&lt;br&gt;&lt;strong&gt;让天下重焕新生！&lt;/strong&gt;&lt;br&gt;&lt;br&gt;历史模拟游戏“信长之野望”系列的第16作，KOU SHIBUSAWA 40周年纪念作品。&lt;br&gt;&lt;br&gt;系列首次，通过自主判断而展开行动的“活生生武将”将大展身手！&lt;br&gt;支援玩家，为天下统一的目标东奔西走。&lt;br&gt;敌我双方的武将依照自己的判断，编织出有血有肉的战国乱世绘卷。&lt;br&gt;&lt;br&gt;推动历史进程的妙趣，便在于此！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/01.jpg?t=1695387871" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;【内政】夺取土地、给予土地！“知行”系统&lt;/strong&gt;&lt;br&gt;把从他国赢取的土地给予能够胜任的家臣，重现曾经的“知行制”！&lt;br&gt;家臣在获得知行地后，将自主发展该地。&lt;br&gt;发展土地并强化国力，于战场获胜后给予家臣更多的土地吧！&lt;br&gt;&lt;br&gt;&lt;strong&gt;【战略】展现属于自己的战略吧！ “政策”与“特性”&lt;/strong&gt;&lt;br&gt;大名家的“政策”与武将持有的“特性”是富国强兵的关键！&lt;br&gt;政策的强化、城主与其麾下武将的特性，将对势力的特点产生巨大影响。&lt;br&gt;战略性地活用人才、资金、时间，创造你的理想势力！&lt;br&gt;&lt;br&gt;&lt;strong&gt;【战斗】以进军路线为中心的战略！“多方作战”&lt;/strong&gt;&lt;br&gt;适于大军作战的大道，或仅可进行小规模作战的小径等等，需要根据这些地形，采取变幻莫测的战术！&lt;br&gt;尽可能多占领通向城的要道，便可在攻城战中占据优势。&lt;br&gt;活用地利，选择符合势力大小的独到战术击破敌军！&lt;br&gt;&lt;br&gt;&lt;strong&gt;【会战】与自主行动的家臣们一起取得胜利！“会战指挥”&lt;/strong&gt;&lt;br&gt;为了胜利，为了功名，所有武将都将依照自己的判断而战。&lt;br&gt;在充斥各种图谋的战场上，看清不断演变的战况，下达通往胜利的命令吧！</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/banner_tw.jpg?t=1695973479" /&gt;&lt;h2 class="bb_tag"&gt;《信長之野望･新生 with 威力加強版》&lt;/h2&gt;&lt;br&gt;※本商品包含《信長之野望･新生》与《信長之野望･新生 威力加強版》。&lt;br&gt;若已购买了《信長之野望･新生》，请勿购买本商品，而改为购买《信長之野望･新生 威力加強版》。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Nobunaga.gif?t=1695973479" /&gt;&lt;br&gt;&lt;br&gt;在《信長之野望･新生》中，玩家能够与自主思考并采取行动的“活生生武将”一起体验真实的战国。在符合“信長之野望”系列40周年品质和体量的标准下，本作迎来了系列最高级别的强化！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Departure.gif?t=1695973479" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;①“君臣同心”的更深层进化&lt;/strong&gt;&lt;br&gt;能够阻止武将出奔、对敌对势力进行挖角等的“直接谈判”，任命“家宰”、“奉行”打造自己独特家臣团的“评定众”等，让“君臣同心”更上一层楼！ &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Battle1-CHT.gif?t=1695973479" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;②波及到城下一带的白热化“攻城战”&lt;/strong&gt;&lt;br&gt;“攻城战”将以前所未有的形态登场。除去攻略城池本身，还能够享受别具动态感与真实感的攻城战！在超过200张专用地图上灵活运用每座城池的特征取得胜利吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Battle2-CHT.gif?t=1695973479" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;③各势力别具一格、多彩的战略性&lt;/strong&gt;&lt;br&gt;大幅扩充赋予势力特征的“政策”。此外还追加了灵活运用决定每座城所扮演的角色、在据点之间建立联系的“城定位”，以及孕育出全新游玩体验的“军团战略”等新要素，令玩家别具个性的战略得以实现。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/Characters.gif?t=1695973479" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;④惯例的各种编辑功能之外，还有充实的追加要素！&lt;/strong&gt;&lt;br&gt;剧情与事件、特性等以往的要素得到大幅度扩充。武将与BGM、编辑剧情、创建新势力功能等高人气要素也将更加丰富多彩！&lt;h2 class="bb_tag"&gt;《信长之野望·新生》&lt;/h2&gt;&lt;br&gt;&lt;strong&gt;让天下重焕新生！&lt;/strong&gt;&lt;br&gt;&lt;br&gt;历史模拟游戏“信长之野望”系列的第16作，KOU SHIBUSAWA 40周年纪念作品。&lt;br&gt;&lt;br&gt;系列首次，通过自主判断而展开行动的“活生生武将”将大展身手！&lt;br&gt;支援玩家，为天下统一的目标东奔西走。&lt;br&gt;敌我双方的武将依照自己的判断，编织出有血有肉的战国乱世绘卷。&lt;br&gt;&lt;br&gt;推动历史进程的妙趣，便在于此！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1336980/extras/01.jpg?t=1695973479" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;【内政】夺取土地、给予土地！“知行”系统&lt;/strong&gt;&lt;br&gt;把从他国赢取的土地给予能够胜任的家臣，重现曾经的“知行制”！&lt;br&gt;家臣在获得知行地后，将自主发展该地。&lt;br&gt;发展土地并强化国力，于战场获胜后给予家臣更多的土地吧！&lt;br&gt;&lt;br&gt;&lt;strong&gt;【战略】展现属于自己的战略吧！ “政策”与“特性”&lt;/strong&gt;&lt;br&gt;大名家的“政策”与武将持有的“特性”是富国强兵的关键！&lt;br&gt;政策的强化、城主与其麾下武将的特性，将对势力的特点产生巨大影响。&lt;br&gt;战略性地活用人才、资金、时间，创造你的理想势力！&lt;br&gt;&lt;br&gt;&lt;strong&gt;【战斗】以进军路线为中心的战略！“多方作战”&lt;/strong&gt;&lt;br&gt;适于大军作战的大道，或仅可进行小规模作战的小径等等，需要根据这些地形，采取变幻莫测的战术！&lt;br&gt;尽可能多占领通向城的要道，便可在攻城战中占据优势。&lt;br&gt;活用地利，选择符合势力大小的独到战术击破敌军！&lt;br&gt;&lt;br&gt;&lt;strong&gt;【会战】与自主行动的家臣们一起取得胜利！“会战指挥”&lt;/strong&gt;&lt;br&gt;为了胜利，为了功名，所有武将都将依照自己的判断而战。&lt;br&gt;在充斥各种图谋的战场上，看清不断演变的战况，下达通往胜利的命令吧！</t>
         </is>
       </c>
     </row>
@@ -10425,7 +10425,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>The Chronicles Edition includes the full game, Hammerwatch Anniversary Edition, and the Hammerwatch II anniversary pack DLC.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_01.png?t=1695054400" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_02.png?t=1695054400" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_04.png?t=1695054400" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_05.png?t=1695054400" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_07.png?t=1695054400" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_09.png?t=1695054400" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_11.png?t=1695054400" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_13.png?t=1695054400" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_15.png?t=1695054400" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_17.png?t=1695054400" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_19.png?t=1695054400" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_21.png?t=1695054400" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_23.png?t=1695054400" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_25.png?t=1695054400" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_27.png?t=1695054400" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_29.png?t=1695054400" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1538970/Hammerwatch_II/?beta=0" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1538970/Hammerwatch_II/?beta=0&lt;/a&gt;</t>
+          <t>The Chronicles Edition includes the full game, Hammerwatch Anniversary Edition, and the Hammerwatch II anniversary pack DLC.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_01.png?t=1695914004" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_02.png?t=1695914004" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_04.png?t=1695914004" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_05.png?t=1695914004" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_07.png?t=1695914004" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_09.png?t=1695914004" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_11.png?t=1695914004" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_13.png?t=1695914004" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_15.png?t=1695914004" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_17.png?t=1695914004" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_19.png?t=1695914004" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_21.png?t=1695914004" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_23.png?t=1695914004" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_25.png?t=1695914004" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_27.png?t=1695914004" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538970/extras/HW2-SteamDesc-Sliced_29.png?t=1695914004" /&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1538970/Hammerwatch_II/?beta=0" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1538970/Hammerwatch_II/?beta=0&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -11674,7 +11674,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>官方QQ群号：&lt;br&gt;官方QQ④群：757371350&lt;br&gt;官方QQ⑧群：920151793&lt;br&gt;&lt;br&gt;这是一款基于武侠、江湖背景为基础的&lt;strong&gt; &lt;u&gt;开放沙盒类非传统武侠 RPG游戏&lt;/u&gt;&lt;/strong&gt;，你可以在这个大荒世界之中，扮演你所幻想的任何武侠角色，这里没有任何阻挡你幻想的老套剧情，你所演绎的武侠人生就是这个你的游戏剧情。你可以作为一名江湖小虾米游历大荒，你也可以成为一派掌门引领四方，你亦可以成为一名看不惯这江湖的浪子我行我素。最重要的是，请一切遵从于你的内心而为，并且活着！&lt;br&gt;&lt;br&gt;(1)玩家可以从零开始扩展自己的小世界，也可以通过创建小世界生成随机大小的初始世界。每个区域都有独特的环境、资源、生物以及势力。 在熟悉了游戏基本操作之后，您便可以直接生成环境属性各异的、已经包含一定数量地块的世界进行体验和历练，并且可以控制不同的“我”往来穿梭于各个世界开启别样人生！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/kf1.gif?t=1695798661" /&gt;&lt;br&gt;&lt;br&gt;(2)新颖的单回合战斗方式，通过收集不同的绝学搭配创建自己的招式库，战斗中拖动连接不同的招式激活绝学，利用招式克制和绝学套路，体现武侠战斗的策略性。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF2.gif?t=1695798661" /&gt;&lt;br&gt;&lt;br&gt;(3)独创的经脉系统，将人体经脉的运转进行了简化概念设计，玩家可以体验到不同的运功路线激活不同内功的拟真感受，简洁却富有策略玩法的设计给玩家提供了搭配和激活多种内功的玩法。同时经脉系统也结合了武侠小说中各种身体机能的具象表现，角色的生命力、内伤、隐疾、蛊、生死符、残疾、瞎眼等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF3.gif?t=1695798661" /&gt;&lt;br&gt;&lt;br&gt;(4)游戏还包含了自由的建造模式，玩家可以打造自己的民居、酒馆、温泉、马厩、大殿、监牢等等，每种建筑都有独特的功能。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF4.gif?t=1695798661" /&gt;&lt;br&gt;&lt;br&gt;(5)潜行玩法，可以通过训练潜行能力，配合独特的内功，夜晚穿上夜行衣，如人无人之境。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF5.gif?t=1695798661" /&gt;&lt;br&gt;&lt;br&gt;(6)训练轻功、跳跃、潜水、攀爬，无论高山深海都可闲庭信步。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF6.gif?t=1695798661" /&gt;&lt;br&gt;&lt;br&gt;(7)通过自定义天命、出身、容貌、血脉，打造独属于自己的角色。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF7.gif?t=1695798661" /&gt;&lt;br&gt;&lt;br&gt;(8)非线性剧情，游戏中每个NPC都会根据自己的行为、身份、名声、关系、态度等等在世界中生存，玩家的每次游戏都会与他们发生不同的剧情。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF8.gif?t=1695798661" /&gt;&lt;br&gt;&lt;br&gt;(9)丰富的交互内容&lt;br&gt;可以把敌人的建筑引燃&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF9.gif?t=1695798661" /&gt;&lt;br&gt;&lt;br&gt;可以邀请NPC喝酒，灌醉后搜刮物品&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF10.gif?t=1695798661" /&gt;&lt;br&gt;&lt;br&gt;可以驯化各种动物，每种动物都有各自独特的功能，例如猴子可以乞讨、马可以乘骑和改装马车、蛇可以下毒等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF11.gif?t=1695798661" /&gt;&lt;br&gt;&lt;br&gt;玩家可以创建自己门派，招募弟子，发布命令，参加武林大会。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF12.gif?t=1695798661" /&gt;&lt;br&gt;&lt;br&gt;丰富的交互内容·玩家可以布置陷阱，抓捕动物或敌人。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF13.gif?t=1695798661" /&gt;&lt;br&gt;&lt;br&gt;建立门派，发布命令&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF15.gif?t=1695798661" /&gt;&lt;br&gt;&lt;br&gt;建立牢笼，关押敌人&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF16.gif?t=1695798661" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;———————————————————————————————————————&lt;br&gt;来自幻魔寺的寄语：&lt;br&gt;我们坚守本心，完全独立开发，只做大家觉得好玩的游戏，这款游戏的世界目前仍然只是一个雏形，我们深知它会不断壮大，并且成为未来我们一切游戏的基石，我们会为此不断努力，带给大家一个绝妙的幻想世界！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/respect.png?t=1695798661" /&gt;</t>
+          <t>官方QQ群号：&lt;br&gt;官方QQ④群：757371350&lt;br&gt;官方QQ⑧群：920151793&lt;br&gt;&lt;br&gt;这是一款基于武侠、江湖背景为基础的&lt;strong&gt; &lt;u&gt;开放沙盒类非传统武侠 RPG游戏&lt;/u&gt;&lt;/strong&gt;，你可以在这个大荒世界之中，扮演你所幻想的任何武侠角色，这里没有任何阻挡你幻想的老套剧情，你所演绎的武侠人生就是这个你的游戏剧情。你可以作为一名江湖小虾米游历大荒，你也可以成为一派掌门引领四方，你亦可以成为一名看不惯这江湖的浪子我行我素。最重要的是，请一切遵从于你的内心而为，并且活着！&lt;br&gt;&lt;br&gt;(1)玩家可以从零开始扩展自己的小世界，也可以通过创建小世界生成随机大小的初始世界。每个区域都有独特的环境、资源、生物以及势力。 在熟悉了游戏基本操作之后，您便可以直接生成环境属性各异的、已经包含一定数量地块的世界进行体验和历练，并且可以控制不同的“我”往来穿梭于各个世界开启别样人生！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/kf1.gif?t=1695929677" /&gt;&lt;br&gt;&lt;br&gt;(2)新颖的单回合战斗方式，通过收集不同的绝学搭配创建自己的招式库，战斗中拖动连接不同的招式激活绝学，利用招式克制和绝学套路，体现武侠战斗的策略性。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF2.gif?t=1695929677" /&gt;&lt;br&gt;&lt;br&gt;(3)独创的经脉系统，将人体经脉的运转进行了简化概念设计，玩家可以体验到不同的运功路线激活不同内功的拟真感受，简洁却富有策略玩法的设计给玩家提供了搭配和激活多种内功的玩法。同时经脉系统也结合了武侠小说中各种身体机能的具象表现，角色的生命力、内伤、隐疾、蛊、生死符、残疾、瞎眼等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF3.gif?t=1695929677" /&gt;&lt;br&gt;&lt;br&gt;(4)游戏还包含了自由的建造模式，玩家可以打造自己的民居、酒馆、温泉、马厩、大殿、监牢等等，每种建筑都有独特的功能。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF4.gif?t=1695929677" /&gt;&lt;br&gt;&lt;br&gt;(5)潜行玩法，可以通过训练潜行能力，配合独特的内功，夜晚穿上夜行衣，如人无人之境。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF5.gif?t=1695929677" /&gt;&lt;br&gt;&lt;br&gt;(6)训练轻功、跳跃、潜水、攀爬，无论高山深海都可闲庭信步。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF6.gif?t=1695929677" /&gt;&lt;br&gt;&lt;br&gt;(7)通过自定义天命、出身、容貌、血脉，打造独属于自己的角色。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF7.gif?t=1695929677" /&gt;&lt;br&gt;&lt;br&gt;(8)非线性剧情，游戏中每个NPC都会根据自己的行为、身份、名声、关系、态度等等在世界中生存，玩家的每次游戏都会与他们发生不同的剧情。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF8.gif?t=1695929677" /&gt;&lt;br&gt;&lt;br&gt;(9)丰富的交互内容&lt;br&gt;可以把敌人的建筑引燃&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF9.gif?t=1695929677" /&gt;&lt;br&gt;&lt;br&gt;可以邀请NPC喝酒，灌醉后搜刮物品&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF10.gif?t=1695929677" /&gt;&lt;br&gt;&lt;br&gt;可以驯化各种动物，每种动物都有各自独特的功能，例如猴子可以乞讨、马可以乘骑和改装马车、蛇可以下毒等等。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF11.gif?t=1695929677" /&gt;&lt;br&gt;&lt;br&gt;玩家可以创建自己门派，招募弟子，发布命令，参加武林大会。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF12.gif?t=1695929677" /&gt;&lt;br&gt;&lt;br&gt;丰富的交互内容·玩家可以布置陷阱，抓捕动物或敌人。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF13.gif?t=1695929677" /&gt;&lt;br&gt;&lt;br&gt;建立门派，发布命令&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF15.gif?t=1695929677" /&gt;&lt;br&gt;&lt;br&gt;建立牢笼，关押敌人&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/KF16.gif?t=1695929677" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;———————————————————————————————————————&lt;br&gt;来自幻魔寺的寄语：&lt;br&gt;我们坚守本心，完全独立开发，只做大家觉得好玩的游戏，这款游戏的世界目前仍然只是一个雏形，我们深知它会不断壮大，并且成为未来我们一切游戏的基石，我们会为此不断努力，带给大家一个绝妙的幻想世界！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1696440/extras/respect.png?t=1695929677" /&gt;</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -12081,7 +12081,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>抢先体验,卡牌构建式类 Rogue,轻度 Rogue,探索,策略角色扮演</t>
+          <t>卡牌构建式类 Rogue,轻度 Rogue,探索,策略角色扮演,策略</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -12096,12 +12096,12 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>2023年01月12日</t>
+          <t>2023年09月29日</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;关注我们&lt;/strong&gt;&lt;br&gt;欢迎关注我们的官方社群：&lt;br&gt;《漂流佣兵》玩家Q群：583314686&lt;br&gt;游戏便当QQ群①：287356527&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569【已满】&lt;br&gt;游戏便当QQ群④：909356067&lt;br&gt;&lt;br&gt;&lt;strong&gt;《漂流佣兵》是一款融合了卡牌策略和弹珠弹射玩法的游戏。&lt;/strong&gt;&lt;br&gt;-玩家可以在随机生成的地牢和城镇间探索，冒险，交易，招募佣兵。&lt;br&gt;-作为佣兵团长，带领精心挑选的伙伴们，在这个动荡的异世界生存下去。&lt;br&gt;&lt;strong&gt;正式版已开启卡牌掉落！快来兑换你最心仪的佣兵妹子的Steam背景及头像吧！&lt;/strong&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p.gif?t=1695573380" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p5.jpg?t=1695573380" /&gt;&lt;br&gt;团长可以穿梭于异世界的各个城镇：皮魔镇，群山环绕景色宜人，打铁声络绎不绝；乱雾村，盛行树屋建筑，树木林立，小桥流水，宜居的不二选择……城镇的“奇遇”“事 &lt;br&gt;件”还能助团长邂逅不同的佣兵，邀请他们组建最强佣兵团！训练佣兵提升技能，为他们购买装备提升实力，一起冒险奇妙异世界。&lt;br&gt;&lt;strong&gt;正式版中全部主要角色已搭载动态立绘！&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/1d.gif?t=1695573380" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p4.jpg?t=1695573380" /&gt;&lt;br&gt;在异世界不断邂逅美女伙伴！不同装扮、不同性格甚至是不同种族，总有一款对你胃口。能变装以蛊惑人心的新生魅魔、拥有强大战力但喜爱黏人的骑士长、逃离少爷之手又酷爱冒险的战斗女仆......或许多逛逛酒馆还可能打听到有关于她们的传闻哦~&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/xin.jpg?t=1695573380" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p1.jpg?t=1695573380" /&gt;&lt;br&gt;每位角色都将化身一颗弹珠，轻轻拉出基准线，弹射后即可战斗！强大的团长还将通过基准线，预判力道和路径，弹射更多的怪物。角色之间还能相互影响弹射效果，利用联动机制打出爽快的连击！ &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/3d.gif?t=1695573380" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p2.jpg?t=1695573380" /&gt;&lt;br&gt;每一次异世界的冒险，团长都可以带着自己组建的强大佣兵团伙伴，体验每一个周目不同的战斗体验。每次协同战斗都有不同的战斗体验，哪个组合才是消灭魔王的最佳组合，等你来探索！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/4d.gif?t=1695573380" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p3.jpg?t=1695573380" /&gt;&lt;br&gt;异世界也散落了许多技能卡片，攻击、防御、buff牌各式各样，收集并构筑出属于自己的流派。配合弹射打出深度策略！当然，偶尔也会拿到不合适的卡片，有所取舍才能使卡组更强大。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/5d.gif?t=1695573380" /&gt;&lt;h2 class="bb_tag"&gt;关于【开发者】&lt;/h2&gt;&lt;br&gt;作者是个Solo开发的死宅。&lt;br&gt;&lt;br&gt;希望通过构筑这个游戏，与广大穿越者一起完成心中的奇幻异世界梦想。&lt;br&gt;&lt;br&gt;游戏若有不足，希望大家理解，作者会尽力完善。如果您喜欢，还希望您给个好评支持，也希望可以推荐给您的朋友。</t>
+          <t>&lt;strong&gt;关注我们&lt;/strong&gt;&lt;br&gt;欢迎关注我们的官方社群：&lt;br&gt;《漂流佣兵》玩家Q群：583314686&lt;br&gt;游戏便当QQ群①：287356527&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569【已满】&lt;br&gt;游戏便当QQ群④：909356067&lt;br&gt;&lt;br&gt;&lt;strong&gt;《漂流佣兵》是一款融合了卡牌策略和弹珠弹射玩法的游戏。&lt;/strong&gt;&lt;br&gt;-玩家可以在随机生成的地牢和城镇间探索，冒险，交易，招募佣兵。&lt;br&gt;-作为佣兵团长，带领精心挑选的伙伴们，在这个动荡的异世界生存下去。&lt;br&gt;&lt;strong&gt;正式版已开启卡牌掉落！快来兑换你最心仪的佣兵妹子的Steam背景及头像吧！&lt;/strong&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p.gif?t=1695977052" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p5.jpg?t=1695977052" /&gt;&lt;br&gt;团长可以穿梭于异世界的各个城镇：皮魔镇，群山环绕景色宜人，打铁声络绎不绝；乱雾村，盛行树屋建筑，树木林立，小桥流水，宜居的不二选择……城镇的“奇遇”“事 &lt;br&gt;件”还能助团长邂逅不同的佣兵，邀请他们组建最强佣兵团！训练佣兵提升技能，为他们购买装备提升实力，一起冒险奇妙异世界。&lt;br&gt;&lt;strong&gt;正式版中全部主要角色已搭载动态立绘！&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/1d.gif?t=1695977052" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p4.jpg?t=1695977052" /&gt;&lt;br&gt;在异世界不断邂逅美女伙伴！不同装扮、不同性格甚至是不同种族，总有一款对你胃口。能变装以蛊惑人心的新生魅魔、拥有强大战力但喜爱黏人的骑士长、逃离少爷之手又酷爱冒险的战斗女仆......或许多逛逛酒馆还可能打听到有关于她们的传闻哦~&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/xin.jpg?t=1695977052" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p1.jpg?t=1695977052" /&gt;&lt;br&gt;每位角色都将化身一颗弹珠，轻轻拉出基准线，弹射后即可战斗！强大的团长还将通过基准线，预判力道和路径，弹射更多的怪物。角色之间还能相互影响弹射效果，利用联动机制打出爽快的连击！ &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/3d.gif?t=1695977052" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p2.jpg?t=1695977052" /&gt;&lt;br&gt;每一次异世界的冒险，团长都可以带着自己组建的强大佣兵团伙伴，体验每一个周目不同的战斗体验。每次协同战斗都有不同的战斗体验，哪个组合才是消灭魔王的最佳组合，等你来探索！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/4d.gif?t=1695977052" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/p3.jpg?t=1695977052" /&gt;&lt;br&gt;异世界也散落了许多技能卡片，攻击、防御、buff牌各式各样，收集并构筑出属于自己的流派。配合弹射打出深度策略！当然，偶尔也会拿到不合适的卡片，有所取舍才能使卡组更强大。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1741400/extras/5d.gif?t=1695977052" /&gt;&lt;h2 class="bb_tag"&gt;关于【开发者】&lt;/h2&gt;&lt;br&gt;作者是个Solo开发的死宅。&lt;br&gt;&lt;br&gt;希望通过构筑这个游戏，与广大穿越者一起完成心中的奇幻异世界梦想。&lt;br&gt;&lt;br&gt;游戏若有不足，希望大家理解，作者会尽力完善。如果您喜欢，还希望您给个好评支持，也希望可以推荐给您的朋友。</t>
         </is>
       </c>
     </row>
@@ -12444,7 +12444,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -13583,7 +13583,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>某日，莱莎居住的小岛附近突然出现了名为“柯克群岛”的岛群。莱莎一行人对威胁到小岛的群岛展开调查的过程中，抵达了某座遗迹。在遗迹深处的，是一扇令仰望者叹为观止的巨大门扉。就在莱莎靠近门扉时，她的脑中响起了邀请她前往“万象大典”的神秘声音。 门扉的另一侧究竟有着什么？“万象大典”又具有什么含义？为了寻找拯救小岛的方法，莱莎等人即将展开一场围绕“钥匙”与“炼金术根源”的壮阔冒险……&lt;br&gt;&lt;br&gt;&lt;strong&gt;■在广阔的原野展开冒险！&lt;/strong&gt;&lt;br&gt;本作的原野由无缝展开的多幅地图连结而成，无需载入即可随意在地图间移动。尽情徜徉于广阔无边、栩栩如生的原野，自由自在享受冒险吧！&lt;br&gt;&lt;br&gt;&lt;strong&gt;■多达11名的队伍成员！&lt;/strong&gt;&lt;br&gt;除了与前作的角色重逢，更有作为剧情关键的新角色登场！系列作最大规模的队伍，正蓄势待发！&lt;br&gt;&lt;br&gt;&lt;strong&gt;■拥有未知力量的“钥匙”将是冒险的王牌！&lt;/strong&gt;&lt;br&gt;本作的核心系统——可在各种场合制作的“钥匙”华丽登场！&lt;br&gt;“钥匙”种类繁多且效果各异，可运用于探索、调合与战斗等各种场面。活用“钥匙”，让冒险来得更加有趣与便利！&lt;br&gt;&lt;br&gt;※有关内容的详情，请参阅官方网站。&lt;br&gt;※另有包含本商品的其他组合商品。请留意避免重复购买。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1999770/extras/AtelierRyza3_Custom_Image_616ｘ616_RYZA3MASTER_japanese.png?t=1695618800" /&gt;</t>
+          <t>某日，莱莎居住的小岛附近突然出现了名为“柯克群岛”的岛群。莱莎一行人对威胁到小岛的群岛展开调查的过程中，抵达了某座遗迹。在遗迹深处的，是一扇令仰望者叹为观止的巨大门扉。就在莱莎靠近门扉时，她的脑中响起了邀请她前往“万象大典”的神秘声音。 门扉的另一侧究竟有着什么？“万象大典”又具有什么含义？为了寻找拯救小岛的方法，莱莎等人即将展开一场围绕“钥匙”与“炼金术根源”的壮阔冒险……&lt;br&gt;&lt;br&gt;&lt;strong&gt;■在广阔的原野展开冒险！&lt;/strong&gt;&lt;br&gt;本作的原野由无缝展开的多幅地图连结而成，无需载入即可随意在地图间移动。尽情徜徉于广阔无边、栩栩如生的原野，自由自在享受冒险吧！&lt;br&gt;&lt;br&gt;&lt;strong&gt;■多达11名的队伍成员！&lt;/strong&gt;&lt;br&gt;除了与前作的角色重逢，更有作为剧情关键的新角色登场！系列作最大规模的队伍，正蓄势待发！&lt;br&gt;&lt;br&gt;&lt;strong&gt;■拥有未知力量的“钥匙”将是冒险的王牌！&lt;/strong&gt;&lt;br&gt;本作的核心系统——可在各种场合制作的“钥匙”华丽登场！&lt;br&gt;“钥匙”种类繁多且效果各异，可运用于探索、调合与战斗等各种场面。活用“钥匙”，让冒险来得更加有趣与便利！&lt;br&gt;&lt;br&gt;※有关内容的详情，请参阅官方网站。&lt;br&gt;※另有包含本商品的其他组合商品。请留意避免重复购买。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1999770/extras/AtelierRyza3_Custom_Image_616ｘ616_RYZA3MASTER_japanese.png?t=1695968333" /&gt;</t>
         </is>
       </c>
     </row>
@@ -14115,7 +14115,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;&lt;strong&gt;■何谓《零 ～月蚀的假面～》&lt;/strong&gt;&lt;/h2&gt;零 ～月蚀的假面～》在2008年于日本发售，是和风恐怖冒险游戏“零”系列的第4作。继2021年发售的重制版&lt;a href="https://store.steampowered.com/app/1732190/" target="_blank" rel=""  &gt;《零 ～濡鸦之巫女～》&lt;/a&gt;后，“零”系列的名作将再次以美丽的画面复苏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2130460/extras/steam00.jpg?t=1683620930" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;■游戏内容&lt;/strong&gt;&lt;/h2&gt;幼年时期，在孤岛“胧月岛”上的祭祀中遭遇“神隐”的少女们，为了追寻失去的那一天的记忆而再度造访孤岛。依靠能够拍摄看不见的事物并将其封印的“射影机”以及手电筒的微光探索各种各样的场景，击退袭来的怨灵并追寻事件的真相。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2130460/extras/video01.gif?t=1683620930" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;・射影机&lt;/strong&gt;&lt;br&gt;通过拍摄击退并封印怨灵的陈旧相机“射影机”是本作中不可或缺的重要道具。在与灵体的战斗中以“射影机”为武器，用观景窗捕捉并拍摄对灵体造成伤害。&lt;br&gt;另外，使用“射影机”拍摄可疑的场景，便能以其特殊的力量使解决谜团的重要线索显形，在游戏探索中也有着重要的作用。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2130460/extras/steam01.jpg?t=1683620930" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;・探索胧月岛&lt;/strong&gt;&lt;br&gt;通过月光和手电筒的微光，探索岛上昏暗的洋馆与废弃医院。&lt;br&gt;另外，故事剧情也会随“触碰”各种场景中的物体而推进。通过查看过去的报纸或备忘录，逐步揭开曾发生过的可怕事件等，以及主人公所失去的记忆、接近故事的真相。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2130460/extras/steam02.jpg?t=1683620930" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;■重制版的特点&lt;/strong&gt;&lt;/h2&gt;&lt;strong&gt;・画面表现力的提升&lt;/strong&gt;&lt;br&gt;本作中，主要角色的模型全部重新制作，角色登场动画也焕然一新。&lt;br&gt;此外，配合登陆平台进行了高分辨率化。受手电筒光线影响的光影表现得到提升，变得更加真实，能够体验到身临其境的恐怖感。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2130460/extras/video02.gif?t=1683620930" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;・追加拍照模式&lt;/strong&gt;&lt;br&gt;搭载能够让角色与灵体摆出各种姿势进行拍摄的“拍照模式”。能够在游戏中那些令人瑟瑟发抖的场景，制作出属于自己的场景。说不定还能拍到出乎意料的心灵写真呢。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2130460/extras/steam03.jpg?t=1683620930" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;・追加全新服装&lt;/strong&gt;&lt;br&gt;对一部分原版的服装进行了变更，并且准备了全新服装。通过改变角色的穿着，能够以不同的气氛进行探索。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2130460/extras/steam04.jpg?t=1683620930" /&gt;&lt;br&gt;&lt;br&gt;※《零 ～月蚀的假面～数字豪华版 》为包含游戏本篇的套组商品，请注意重复购买。</t>
+          <t>&lt;h2 class="bb_tag"&gt;&lt;strong&gt;■何谓《零 ～月蚀的假面～》&lt;/strong&gt;&lt;/h2&gt;零 ～月蚀的假面～》在2008年于日本发售，是和风恐怖冒险游戏“零”系列的第4作。继2021年发售的重制版&lt;a href="https://store.steampowered.com/app/1732190/" target="_blank" rel=""  &gt;《零 ～濡鸦之巫女～》&lt;/a&gt;后，“零”系列的名作将再次以美丽的画面复苏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2130460/extras/steam00.jpg?t=1695968521" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;■游戏内容&lt;/strong&gt;&lt;/h2&gt;幼年时期，在孤岛“胧月岛”上的祭祀中遭遇“神隐”的少女们，为了追寻失去的那一天的记忆而再度造访孤岛。依靠能够拍摄看不见的事物并将其封印的“射影机”以及手电筒的微光探索各种各样的场景，击退袭来的怨灵并追寻事件的真相。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2130460/extras/video01.gif?t=1695968521" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;・射影机&lt;/strong&gt;&lt;br&gt;通过拍摄击退并封印怨灵的陈旧相机“射影机”是本作中不可或缺的重要道具。在与灵体的战斗中以“射影机”为武器，用观景窗捕捉并拍摄对灵体造成伤害。&lt;br&gt;另外，使用“射影机”拍摄可疑的场景，便能以其特殊的力量使解决谜团的重要线索显形，在游戏探索中也有着重要的作用。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2130460/extras/steam01.jpg?t=1695968521" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;・探索胧月岛&lt;/strong&gt;&lt;br&gt;通过月光和手电筒的微光，探索岛上昏暗的洋馆与废弃医院。&lt;br&gt;另外，故事剧情也会随“触碰”各种场景中的物体而推进。通过查看过去的报纸或备忘录，逐步揭开曾发生过的可怕事件等，以及主人公所失去的记忆、接近故事的真相。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2130460/extras/steam02.jpg?t=1695968521" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;■重制版的特点&lt;/strong&gt;&lt;/h2&gt;&lt;strong&gt;・画面表现力的提升&lt;/strong&gt;&lt;br&gt;本作中，主要角色的模型全部重新制作，角色登场动画也焕然一新。&lt;br&gt;此外，配合登陆平台进行了高分辨率化。受手电筒光线影响的光影表现得到提升，变得更加真实，能够体验到身临其境的恐怖感。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2130460/extras/video02.gif?t=1695968521" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;・追加拍照模式&lt;/strong&gt;&lt;br&gt;搭载能够让角色与灵体摆出各种姿势进行拍摄的“拍照模式”。能够在游戏中那些令人瑟瑟发抖的场景，制作出属于自己的场景。说不定还能拍到出乎意料的心灵写真呢。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2130460/extras/steam03.jpg?t=1695968521" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;・追加全新服装&lt;/strong&gt;&lt;br&gt;对一部分原版的服装进行了变更，并且准备了全新服装。通过改变角色的穿着，能够以不同的气氛进行探索。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2130460/extras/steam04.jpg?t=1695968521" /&gt;&lt;br&gt;&lt;br&gt;※《零 ～月蚀的假面～数字豪华版 》为包含游戏本篇的套组商品，请注意重复购买。</t>
         </is>
       </c>
     </row>
@@ -14226,7 +14226,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
@@ -14662,7 +14662,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
@@ -14793,7 +14793,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/横标7.png?t=1691329716" /&gt;&lt;h2 class="bb_tag"&gt;加入社區&lt;/h2&gt;&lt;strong&gt;加入我们的Discord频道：&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/qFY27nkY" target="_blank" rel=" noopener"  &gt;https://discord.gg/qFY27nkY&lt;/a&gt;&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/横标1.png?t=1691329716" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;鄉野少年遭仟年蛇妖附身。&lt;br&gt;&lt;/li&gt;&lt;li&gt;三十天內必須與道侶雙修續命。&lt;br&gt;&lt;/li&gt;&lt;li&gt;不正經的凡人修仙之旅。&lt;br&gt;&lt;/li&gt;&lt;li&gt;與性格各異的道侶結緣。 &lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/top2.png?t=1691329716" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/横标2.png?t=1691329716" /&gt;&lt;br&gt;你將經歷一段搞笑又刺激的冒險故事，遊戲是以桌寵玩法出發點的修仙題材AVG。&lt;br&gt;玩家將會在遊戲中扮演一位廢柴少年，偶然間遭千年蛇妖附體，每個月不和女修士雙修就會暴斃，而在續命的過程中會發現，你已經被捲入了一場巨大陰謀，你的選擇也會改變整個世界的走向……&lt;br&gt;遊戲中集角色養成、屬性鑑定與各式各樣的小遊戲於一體，你可以通過遊玩小遊戲來提升自己屬性，並在攻略過程中占得先機！&lt;br&gt;女角色還能以桌寵的方式陪伴玩家，以帶來游戲之外的不同體驗。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/top3.png?t=1691329716" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/横标3.png?t=1691329716" /&gt;&lt;h2 class="bb_tag"&gt;主角&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/top5.png?t=1691329716" /&gt;&lt;br&gt;看似平平無奇的獵戶少年&lt;br&gt;實際上也確實平平無奇&lt;br&gt;但在慘遭上古淫獸灌入妖丹之後&lt;br&gt;他卻意外地獲得了踏上修仙之路的機會&lt;br&gt;但獲得力量的代價卻是......&lt;br&gt;不雙修就去世？&lt;h2 class="bb_tag"&gt;杰莉士&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/杰莉士（压缩后）.gif?t=1691329716" /&gt;&lt;br&gt;色孽化身的蛇妖&lt;br&gt;就是她（它？他？）給上面那個人灌入了妖丹&lt;br&gt;比男主還關心男主的感情生活&lt;br&gt;殘忍地玷污著男主的純潔心靈的同時&lt;br&gt;好像也在謀劃著什麼了不得的大事情......&lt;h2 class="bb_tag"&gt;钟离燕&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/钟离燕（压缩后）.gif?t=1691329716" /&gt;&lt;br&gt;你的門主，你的大師姐&lt;br&gt;倔強要強的紅發少女&lt;br&gt;個子小小卻修為極高&lt;br&gt;看似難以接觸&lt;br&gt;卻是你踏入修仙路的引路人&lt;h2 class="bb_tag"&gt;陈采苓&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/陈采苓（压缩后）.gif?t=1691329716" /&gt;&lt;br&gt;可愛的小師妹&lt;br&gt;害羞扭捏的少女&lt;br&gt;十句話有八句是欲言又止&lt;br&gt;但謹小慎微的嬌柔外表下&lt;br&gt;卻有著一顆渴望自由的心&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/top6.png?t=1691329716" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/横标4.png?t=1691329716" /&gt;&lt;h2 class="bb_tag"&gt;非傳統國風&lt;/h2&gt;用不同的筆觸與元素搭建起幽默真實的修仙世界！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/兽娘.gif?t=1691329716" /&gt;&lt;h2 class="bb_tag"&gt;桌寵玩法​&lt;/h2&gt;希望同遊世間的紅顏知己們時刻陪伴身旁？开启桌寵模式吧！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/国风.gif?t=1691329716" /&gt;&lt;h2 class="bb_tag"&gt;修煉遊戲&lt;/h2&gt;五種創意小遊戲，恭候您的挑戰。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/骰子.gif?t=1691329716" /&gt;&lt;h2 class="bb_tag"&gt;交互玩法&lt;/h2&gt;故事中包含十余種交互玩法，帶給您不同以往的趣味修仙時光！ &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/跳舞GIF.gif?t=1691329716" /&gt;&lt;h2 class="bb_tag"&gt;故事體驗&lt;/h2&gt;數十張精美CG，直接了當的故事主題，搞怪風趣到風花雪月，您想看到的場面會陸續呈現！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/喝酒.gif?t=1691329716" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/横标5.png?t=1691329716" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;LOST:FIND主創最新作&lt;br&gt;&lt;/li&gt;&lt;li&gt;8位可攻略角色與對應的live2D桌寵&lt;br&gt;&lt;/li&gt;&lt;li&gt;15個動畫CG，2個超大型CG&lt;br&gt;&lt;/li&gt;&lt;li&gt;5種有挑戰的創新小遊戲&lt;br&gt;&lt;/li&gt;&lt;li&gt;十多個桌面交互玩法&lt;br&gt;&lt;/li&gt;&lt;li&gt;多種結局&lt;br&gt;&lt;/li&gt;&lt;li&gt;獨特的桌寵玩法&lt;br&gt;&lt;/li&gt;&lt;li&gt;近百張精美敘事CG&lt;br&gt;&lt;/li&gt;&lt;li&gt;二十萬字的文本量&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/横标6.png?t=1691329716" /&gt;&lt;br&gt;無法正常運行遊戲、一直卡在加載界面、人物背景變黑看不到桌面的解決辦法：&lt;br&gt;&lt;br&gt;&lt;strong&gt;Win7系統：&lt;/strong&gt;&lt;br&gt;點擊桌面左下角的系統圖標—控制面板—系統和安全—系統—高級系統設置—高級—性能—設置，勾選【Aero】和【透明玻璃】，然後點擊【調整為最佳外觀】，之後點擊【確定】&lt;br&gt;&lt;br&gt;&lt;strong&gt;Win10系統：&lt;/strong&gt;&lt;br&gt;打開【DVIDIA控制面板】-【管理3D設置】，找到【多幀採樣AA（MFAA）】和【平滑處理-FXAA】將這2個選項改為【關】&lt;br&gt;若上面方法依舊無法解決問題，請嘗試下面的通用方法：&lt;br&gt;1.重啟電腦&lt;br&gt;2.桌面鼠標右鍵—個性化—顏色—開啟透明效果&lt;br&gt;3.前往顯卡官網下載最新顯卡驅動，安裝過程選擇 &amp;quot;自定義安裝&amp;quot; &amp;gt;勾選 &amp;quot;清潔安裝&amp;quot; ,不能使用默認的覆蓋升級安裝&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/横标7.png?t=1691329716" /&gt;&lt;br&gt;Discord：&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/t7FMzSwyDx" target="_blank" rel=" noopener"  &gt;https://discord.gg/t7FMzSwyDx&lt;/a&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/横标7.png?t=1695901457" /&gt;&lt;h2 class="bb_tag"&gt;加入社區&lt;/h2&gt;&lt;strong&gt;加入我们的Discord频道：&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/RdbkqFumpS" target="_blank" rel=" noopener"  &gt;https://discord.gg/RdbkqFumpS&lt;/a&gt;&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/横标1.png?t=1695901457" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;鄉野少年遭仟年蛇妖附身。&lt;br&gt;&lt;/li&gt;&lt;li&gt;三十天內必須與道侶雙修續命。&lt;br&gt;&lt;/li&gt;&lt;li&gt;不正經的凡人修仙之旅。&lt;br&gt;&lt;/li&gt;&lt;li&gt;與性格各異的道侶結緣。 &lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/top2.png?t=1695901457" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/横标2.png?t=1695901457" /&gt;&lt;br&gt;你將經歷一段搞笑又刺激的冒險故事，遊戲是以桌寵玩法出發點的修仙題材AVG。&lt;br&gt;玩家將會在遊戲中扮演一位廢柴少年，偶然間遭千年蛇妖附體，每個月不和女修士雙修就會暴斃，而在續命的過程中會發現，你已經被捲入了一場巨大陰謀，你的選擇也會改變整個世界的走向……&lt;br&gt;遊戲中集角色養成、屬性鑑定與各式各樣的小遊戲於一體，你可以通過遊玩小遊戲來提升自己屬性，並在攻略過程中占得先機！&lt;br&gt;女角色還能以桌寵的方式陪伴玩家，以帶來游戲之外的不同體驗。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/top3.png?t=1695901457" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/横标3.png?t=1695901457" /&gt;&lt;h2 class="bb_tag"&gt;主角&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/top5.png?t=1695901457" /&gt;&lt;br&gt;看似平平無奇的獵戶少年&lt;br&gt;實際上也確實平平無奇&lt;br&gt;但在慘遭上古淫獸灌入妖丹之後&lt;br&gt;他卻意外地獲得了踏上修仙之路的機會&lt;br&gt;但獲得力量的代價卻是......&lt;br&gt;不雙修就去世？&lt;h2 class="bb_tag"&gt;杰莉士&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/杰莉士（压缩后）.gif?t=1695901457" /&gt;&lt;br&gt;色孽化身的蛇妖&lt;br&gt;就是她（它？他？）給上面那個人灌入了妖丹&lt;br&gt;比男主還關心男主的感情生活&lt;br&gt;殘忍地玷污著男主的純潔心靈的同時&lt;br&gt;好像也在謀劃著什麼了不得的大事情......&lt;h2 class="bb_tag"&gt;钟离燕&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/钟离燕（压缩后）.gif?t=1695901457" /&gt;&lt;br&gt;你的門主，你的大師姐&lt;br&gt;倔強要強的紅發少女&lt;br&gt;個子小小卻修為極高&lt;br&gt;看似難以接觸&lt;br&gt;卻是你踏入修仙路的引路人&lt;h2 class="bb_tag"&gt;陈采苓&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/陈采苓（压缩后）.gif?t=1695901457" /&gt;&lt;br&gt;可愛的小師妹&lt;br&gt;害羞扭捏的少女&lt;br&gt;十句話有八句是欲言又止&lt;br&gt;但謹小慎微的嬌柔外表下&lt;br&gt;卻有著一顆渴望自由的心&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/top6.png?t=1695901457" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/横标4.png?t=1695901457" /&gt;&lt;h2 class="bb_tag"&gt;非傳統國風&lt;/h2&gt;用不同的筆觸與元素搭建起幽默真實的修仙世界！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/兽娘.gif?t=1695901457" /&gt;&lt;h2 class="bb_tag"&gt;桌寵玩法​&lt;/h2&gt;希望同遊世間的紅顏知己們時刻陪伴身旁？开启桌寵模式吧！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/国风.gif?t=1695901457" /&gt;&lt;h2 class="bb_tag"&gt;修煉遊戲&lt;/h2&gt;五種創意小遊戲，恭候您的挑戰。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/骰子.gif?t=1695901457" /&gt;&lt;h2 class="bb_tag"&gt;交互玩法&lt;/h2&gt;故事中包含十余種交互玩法，帶給您不同以往的趣味修仙時光！ &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/跳舞GIF.gif?t=1695901457" /&gt;&lt;h2 class="bb_tag"&gt;故事體驗&lt;/h2&gt;數十張精美CG，直接了當的故事主題，搞怪風趣到風花雪月，您想看到的場面會陸續呈現！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/喝酒.gif?t=1695901457" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/横标5.png?t=1695901457" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;LOST:FIND主創最新作&lt;br&gt;&lt;/li&gt;&lt;li&gt;8位可攻略角色與對應的live2D桌寵&lt;br&gt;&lt;/li&gt;&lt;li&gt;15個動畫CG，2個超大型CG&lt;br&gt;&lt;/li&gt;&lt;li&gt;5種有挑戰的創新小遊戲&lt;br&gt;&lt;/li&gt;&lt;li&gt;十多個桌面交互玩法&lt;br&gt;&lt;/li&gt;&lt;li&gt;多種結局&lt;br&gt;&lt;/li&gt;&lt;li&gt;獨特的桌寵玩法&lt;br&gt;&lt;/li&gt;&lt;li&gt;近百張精美敘事CG&lt;br&gt;&lt;/li&gt;&lt;li&gt;二十萬字的文本量&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/横标6.png?t=1695901457" /&gt;&lt;br&gt;無法正常運行遊戲、一直卡在加載界面、人物背景變黑看不到桌面的解決辦法：&lt;br&gt;&lt;br&gt;&lt;strong&gt;Win7系統：&lt;/strong&gt;&lt;br&gt;點擊桌面左下角的系統圖標—控制面板—系統和安全—系統—高級系統設置—高級—性能—設置，勾選【Aero】和【透明玻璃】，然後點擊【調整為最佳外觀】，之後點擊【確定】&lt;br&gt;&lt;br&gt;&lt;strong&gt;Win10系統：&lt;/strong&gt;&lt;br&gt;打開【DVIDIA控制面板】-【管理3D設置】，找到【多幀採樣AA（MFAA）】和【平滑處理-FXAA】將這2個選項改為【關】&lt;br&gt;若上面方法依舊無法解決問題，請嘗試下面的通用方法：&lt;br&gt;1.重啟電腦&lt;br&gt;2.桌面鼠標右鍵—個性化—顏色—開啟透明效果&lt;br&gt;3.前往顯卡官網下載最新顯卡驅動，安裝過程選擇 &amp;quot;自定義安裝&amp;quot; &amp;gt;勾選 &amp;quot;清潔安裝&amp;quot; ,不能使用默認的覆蓋升級安裝&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2190290/extras/横标7.png?t=1695901457" /&gt;&lt;br&gt;Discord：&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/t7FMzSwyDx" target="_blank" rel=" noopener"  &gt;https://discord.gg/t7FMzSwyDx&lt;/a&gt;</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -3123,7 +3123,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>欢迎大家关注我们的Bilibili账号“地下蚁国Official”以获取更多关于《地下蚁国》的游戏信息并与制作组官方进行互动，也可以加入发行商官方QQ群：421518132来了解《地下蚁国》以及更多Hooded Horse策略类游戏信息与福利。&lt;br&gt;&lt;br&gt;在蚂蚁的世界里建立你的帝国，设计复杂的巢穴并细致地管理蚁群等级，将实时战略的乐趣置于自然显微镜下。在激烈的战斗中控制多种多样的蚂蚁战士，指挥你的工蚁去建造并供应一个不断扩张的帝国。在不惜一切代价保护你的女王的同时，探索昆虫世界独特的威胁和机遇。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/headline_01-schinese.png?t=1694514849" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_01_loop.gif?t=1694514849" /&gt;&lt;br&gt;数百名战士在激烈的混战中拳脚相接，蚁酸大炮从头顶上掠过。夜幕已经降临，最后一批工蚁正赶着把食物运送回巢穴，一边还要躲避甲虫的攻击。食物库存已经见底，如果没有更多的物资补充，增援部队将无法为这场地下蚁国间的战争孵化。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;从女王的寝宫开始，命令你的工蚁挖掘并建造你的巢穴--一个由食物储藏室、孵化室和走廊组成的巨大网络。在基于六边形的土壤和基岩迷宫中挖掘，寻找食物并抵御其他地下生物的攻击。&lt;br&gt;&lt;/li&gt;&lt;li&gt;超越巢穴的限制，去看看地表的世界能提供什么吧--菜单上有种子、花蜜、真菌、其他昆虫，甚至两栖动物，但每种选择都需要你权衡其价值和需要付出的代价。你是否愿意饲养能生产蜜露的蚜虫，但为此需要击退那些专门捕食蚜虫的瓢虫呢？或者周围的夜行生物对你才刚刚起步的蚁群来说已经是不得不斩杀的风险了吗？你所做的每一个决定都会产生连锁反应，如果你不能快速应对持续变化的环境，那么你的蚁群将会在顷刻间灭亡。&lt;br&gt;&lt;/li&gt;&lt;li&gt;管理具有不同攻击模式、攻击手段和进化路线的不同种类蚂蚁，以应对来自当前自然环境的特殊危险。哪怕毫无戒心的蚂蚁可能会被日落后潜伏着的危险所吞噬，夜间出击有时也是必不可少的，因为你要确保食物供应。到了早上，你又要与其他蚁群竞争，进入敌方巢穴攻击它们的蚁后，同时保卫自己的族群。准备好要在多个地下与地上战场操作与协调，进行多线指挥，因为敌对威胁和机遇会随着时间的推移而变化—在这里，没有单一的统治之路。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/headline_02-schinese.png?t=1694514849" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_02_loop.gif?t=1694514849" /&gt;&lt;br&gt;工蚁从洞口现身，它们中只有一少部分活着回来了，但它们带回了宝贵的食物，这将有助于补充前线兵源。新一批的战士将迅速孵化，信息素的气味将告诉它们目的地在哪，在途中要执行什么任务。它们是殖民地最后的堡垒，只为一个目的而生--守住防线！&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;设计和规划多个孵化室，并把它们分配到不同的信息素组，每个信息素组可通过放置信息素标记来进行指挥，并可调整每个小组的细节交战规则来执行不同的命令。了解蚂蚁的行为习惯以及每个物种的优势和弱点是确保成功的必要条件。&lt;br&gt;&lt;/li&gt;&lt;li&gt;每个信息素组的设置都可以随时进行调整，你可以让此组只进行食物收集，只参与战斗，或者两者都做--正确的决定可以扭转战局。在拉锯战的绝望低谷，当蚁群开始挨饿，新卵也无资源孵化时，你是否会让战士专注于搬运食物，无视在途中被侵略性敌人吞噬部分个体的损失？或者，战士们会专著战斗为你剩余的工蚁保驾护航，维持较低的战损但要牺牲收集食物的效率？不要忘记在巢穴组中留一些工蚁来进行挖掘、建造和蚁卵照料工作，以确保最基本的生产循环。&lt;br&gt;&lt;/li&gt;&lt;li&gt;每个物种的蚂蚁在战场上都有自己独特的优势和弱点。在特殊的游戏模式中，同一蚁群可以饲养多个物种，你决定孵化与升级谁将完全改变你的战斗指挥风格。大齿猛蚁以近战方式作战，偶尔会跳出战斗来回复血量。切叶蚁充当着天生的保护者形象，将敌人的攻击力吸引到自己身上，给己方蚂蚁提供侧翼攻击、重新编队或逃跑的机会。木蚁可以进化为发射蚁酸的远距离投射兵种或更快的直线速射兵种。在每个物种的众多优势和弱点之间找到合适搭配，抵御对手蚁群的攻击。&lt;br&gt;&lt;/li&gt;&lt;li&gt;你的敌人也多种多样—除了其他蚂蚁，你还要与蛛形纲动物、两栖动物、甲壳类动物和各种各样的昆虫进行战斗。这些强大且通常（相对而言）更巨大的生物对毫无准备的蚁群构成了独特的威胁，只有卓越的战术才能战胜它们。包夹战术可以避开成年隐翅虫惊人的喷雾，而孤立一只寄居蟹并用兵海战术速战速决，比让它们有机会蜷缩起来疗伤更高效。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/headline_03-schinese.png?t=1694514849" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_03_loop.gif?t=1694514849" /&gt;&lt;br&gt;胜利肯定会到来! 增援部队在紧要关头赶到，面对眼前可怕的怪兽，他们无所畏惧。今天，疯狂的科学家将寄居蟹和蝎子混合在了一起，创造出了一个可怕的新威胁，但蚁群在之前对战过这种非自然的敌人之后，已经聪明地进化了。经过一场艰苦卓绝的战斗后，可怕的奇美拉已在崩溃的边缘徘徊，但一个新的敌人来到了战场--神秘生物的巨手从天空降临，压碎了一半的增援部队。在看不见的远方，科学家发出了邪恶的笑声。局势再次逆转...&lt;br&gt;&lt;br&gt;除了经典的RTS小规模对抗AI和独特的季节性关卡之外，《地下蚁国》还包括一个故事驱动的主线战役模式。主线讲述了以神秘的窃贼林蚁为中心的一场发生在实验室的邪恶阴谋，此模式还包括一系列探索各种蚂蚁在自然生物群落中的特性的纪录片风格关卡。完成纪录片关卡任务可赚取资源，用来升级你养殖箱里的窃贼林蚁，并根据你的喜好和判断为它们进行进化，以让你的蚂蚁活过这场打着“科学”名号进行的残酷生物实验—但不是所有的东西都像它最初看起来那样简单......&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_04_loop.gif?t=1694514849" /&gt;</t>
+          <t>欢迎大家关注我们的Bilibili账号“地下蚁国Official”以获取更多关于《地下蚁国》的游戏信息并与制作组官方进行互动，也可以加入发行商官方QQ群：421518132来了解《地下蚁国》以及更多Hooded Horse策略类游戏信息与福利。&lt;br&gt;&lt;br&gt;在蚂蚁的世界里建立你的帝国，设计复杂的巢穴并细致地管理蚁群等级，将实时战略的乐趣置于自然显微镜下。在激烈的战斗中控制多种多样的蚂蚁战士，指挥你的工蚁去建造并供应一个不断扩张的帝国。在不惜一切代价保护你的女王的同时，探索昆虫世界独特的威胁和机遇。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/headline_01-schinese.png?t=1696038765" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_01_loop.gif?t=1696038765" /&gt;&lt;br&gt;数百名战士在激烈的混战中拳脚相接，蚁酸大炮从头顶上掠过。夜幕已经降临，最后一批工蚁正赶着把食物运送回巢穴，一边还要躲避甲虫的攻击。食物库存已经见底，如果没有更多的物资补充，增援部队将无法为这场地下蚁国间的战争孵化。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;从女王的寝宫开始，命令你的工蚁挖掘并建造你的巢穴--一个由食物储藏室、孵化室和走廊组成的巨大网络。在基于六边形的土壤和基岩迷宫中挖掘，寻找食物并抵御其他地下生物的攻击。&lt;br&gt;&lt;/li&gt;&lt;li&gt;超越巢穴的限制，去看看地表的世界能提供什么吧--菜单上有种子、花蜜、真菌、其他昆虫，甚至两栖动物，但每种选择都需要你权衡其价值和需要付出的代价。你是否愿意饲养能生产蜜露的蚜虫，但为此需要击退那些专门捕食蚜虫的瓢虫呢？或者周围的夜行生物对你才刚刚起步的蚁群来说已经是不得不斩杀的风险了吗？你所做的每一个决定都会产生连锁反应，如果你不能快速应对持续变化的环境，那么你的蚁群将会在顷刻间灭亡。&lt;br&gt;&lt;/li&gt;&lt;li&gt;管理具有不同攻击模式、攻击手段和进化路线的不同种类蚂蚁，以应对来自当前自然环境的特殊危险。哪怕毫无戒心的蚂蚁可能会被日落后潜伏着的危险所吞噬，夜间出击有时也是必不可少的，因为你要确保食物供应。到了早上，你又要与其他蚁群竞争，进入敌方巢穴攻击它们的蚁后，同时保卫自己的族群。准备好要在多个地下与地上战场操作与协调，进行多线指挥，因为敌对威胁和机遇会随着时间的推移而变化—在这里，没有单一的统治之路。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/headline_02-schinese.png?t=1696038765" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_02_loop.gif?t=1696038765" /&gt;&lt;br&gt;工蚁从洞口现身，它们中只有一少部分活着回来了，但它们带回了宝贵的食物，这将有助于补充前线兵源。新一批的战士将迅速孵化，信息素的气味将告诉它们目的地在哪，在途中要执行什么任务。它们是殖民地最后的堡垒，只为一个目的而生--守住防线！&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;设计和规划多个孵化室，并把它们分配到不同的信息素组，每个信息素组可通过放置信息素标记来进行指挥，并可调整每个小组的细节交战规则来执行不同的命令。了解蚂蚁的行为习惯以及每个物种的优势和弱点是确保成功的必要条件。&lt;br&gt;&lt;/li&gt;&lt;li&gt;每个信息素组的设置都可以随时进行调整，你可以让此组只进行食物收集，只参与战斗，或者两者都做--正确的决定可以扭转战局。在拉锯战的绝望低谷，当蚁群开始挨饿，新卵也无资源孵化时，你是否会让战士专注于搬运食物，无视在途中被侵略性敌人吞噬部分个体的损失？或者，战士们会专著战斗为你剩余的工蚁保驾护航，维持较低的战损但要牺牲收集食物的效率？不要忘记在巢穴组中留一些工蚁来进行挖掘、建造和蚁卵照料工作，以确保最基本的生产循环。&lt;br&gt;&lt;/li&gt;&lt;li&gt;每个物种的蚂蚁在战场上都有自己独特的优势和弱点。在特殊的游戏模式中，同一蚁群可以饲养多个物种，你决定孵化与升级谁将完全改变你的战斗指挥风格。大齿猛蚁以近战方式作战，偶尔会跳出战斗来回复血量。切叶蚁充当着天生的保护者形象，将敌人的攻击力吸引到自己身上，给己方蚂蚁提供侧翼攻击、重新编队或逃跑的机会。木蚁可以进化为发射蚁酸的远距离投射兵种或更快的直线速射兵种。在每个物种的众多优势和弱点之间找到合适搭配，抵御对手蚁群的攻击。&lt;br&gt;&lt;/li&gt;&lt;li&gt;你的敌人也多种多样—除了其他蚂蚁，你还要与蛛形纲动物、两栖动物、甲壳类动物和各种各样的昆虫进行战斗。这些强大且通常（相对而言）更巨大的生物对毫无准备的蚁群构成了独特的威胁，只有卓越的战术才能战胜它们。包夹战术可以避开成年隐翅虫惊人的喷雾，而孤立一只寄居蟹并用兵海战术速战速决，比让它们有机会蜷缩起来疗伤更高效。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/headline_03-schinese.png?t=1696038765" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_03_loop.gif?t=1696038765" /&gt;&lt;br&gt;胜利肯定会到来! 增援部队在紧要关头赶到，面对眼前可怕的怪兽，他们无所畏惧。今天，疯狂的科学家将寄居蟹和蝎子混合在了一起，创造出了一个可怕的新威胁，但蚁群在之前对战过这种非自然的敌人之后，已经聪明地进化了。经过一场艰苦卓绝的战斗后，可怕的奇美拉已在崩溃的边缘徘徊，但一个新的敌人来到了战场--神秘生物的巨手从天空降临，压碎了一半的增援部队。在看不见的远方，科学家发出了邪恶的笑声。局势再次逆转...&lt;br&gt;&lt;br&gt;除了经典的RTS小规模对抗AI和独特的季节性关卡之外，《地下蚁国》还包括一个故事驱动的主线战役模式。主线讲述了以神秘的窃贼林蚁为中心的一场发生在实验室的邪恶阴谋，此模式还包括一系列探索各种蚂蚁在自然生物群落中的特性的纪录片风格关卡。完成纪录片关卡任务可赚取资源，用来升级你养殖箱里的窃贼林蚁，并根据你的喜好和判断为它们进行进化，以让你的蚂蚁活过这场打着“科学”名号进行的残酷生物实验—但不是所有的东西都像它最初看起来那样简单......&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_04_loop.gif?t=1696038765" /&gt;</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>7.3</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -6308,7 +6308,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>抢先体验,管理,模拟,沙盒,资本主义</t>
+          <t>管理,模拟,沙盒,资本主义,经济</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7423,7 +7423,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/分割线.png?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/按钮banner_游戏背景2.png?t=1683274413" /&gt;&lt;br&gt;从23岁毕业到65岁退休，您可以在数十小时的游戏时间里模拟一个职员42年的人生。无需担心现实的种种束缚，您可以用内心最渴望的，或者从未试过的方式去经历一次“非一般”的职场人生！如何看待中国职场的种种现象？如何面对机遇和困难？如何和同事们相处？如何平衡事业和家庭？无论您是尚在象牙塔的学生，还是已经肩负责任的打工人，我们都希望这款游戏能够给予您乐趣和思考！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/游戏背景.png?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/分割线.png?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/按钮banner_游戏特点3.png?t=1683274413" /&gt;&lt;br&gt;- 最接地气的卡牌战斗：&lt;br&gt;职场困境化身怪兽，“举一反三”，“精打细算”，“总结”等耳熟能详的生活道理就成为了玩家手中的卡牌。用不同的方式搭配组合，按自己的喜好提升健康，悟性，管理等属性以获得新的技能卡牌，再将它们组成数十套效果不同的连击卡组去战斗吧！您会发现，这和真实生活中解决问题有异曲同工之妙！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/连消带打触发.gif?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/分割线.png?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;- 畅快自由的职场之旅：&lt;br&gt;面对无偿加班，同事甩锅，项目失败等职场遭遇，相信不管是学生还是打工人的你都有自己的看法。是像半泽直树一样”以牙还牙，加倍奉还“，还是如勾践”卧薪尝胆，厚积薄发”？您可以用内心最渴望的，或者从未试过的方式去经历一次畅快自由的职场人生。如果还让您从中获得了一点启发和力量，这会让我们更开心！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/畅快职场小图.gif?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/分割线.png?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;- 颇具寓意的怪物设计：&lt;br&gt;“马虎”是什么虎？“压力山”有大有小吗？我们将各种职场的负能量精心设计并具象化，赋予了他们各具特色的性格和能力。当你用自己精心搭配的卡牌逐个击败它们，说不定还会觉得这些“意兽”还挺可爱。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/怪物展示.gif?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/分割线.png?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;- 类Rougelike战斗模式：&lt;br&gt;如果觉得剧情战斗还不够爽，不够杀时间，“脑洞大开”模式正在等着你！只有一次机会，你将随机遭遇各个怪物，突破层层关卡直至最终BOSS，这会很有点难，这会花亿点时间，但相信我们，奖励也将是非常丰厚的！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/rougelike小图.gif?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/分割线.png?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;- 事业与友情，爱情，亲情：&lt;br&gt;生活不只有事业，友情，爱情和亲情同样需要精心经营。您可以选择将有限的时间和精力投&lt;br&gt;入到无限的工作当中，任由朋友，恋人以及父母慢慢老去，但可以获得快速的晋升和更高的职位，也可以试着平衡一下事业和生活。我们想提醒工作狂们珍惜眼前人，但是他们可能没时间玩游戏（笑）&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/告白成功.gif?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/分割线.png?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;-开启二周目，如果人生有如果：&lt;br&gt;游戏中的抉择将决定你自己以及伙伴们的命运，Ta的留下还是离开，团队的成功与否都在于您的选择，且无法像普通游戏那样回档，就像真实生活中那样。但如果人生有如果，那一定叫做二周目，这次你是否会爱上另一个她？这次你是否会更加谨慎的选择？啊，当然，还有全新的卡组和技能解锁！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/生娃儿.gif?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/分割线.png?t=1683274413" /&gt;&lt;br&gt;&lt;br&gt;联系我们：&lt;br&gt;毕业之后股东QQ群：943187903&lt;br&gt;微博：@游戏_非一般职场</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/分割线.png?t=1696089679" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/按钮banner_游戏背景2.png?t=1696089679" /&gt;&lt;br&gt;从23岁毕业到65岁退休，您可以在数十小时的游戏时间里模拟一个职员42年的人生。无需担心现实的种种束缚，您可以用内心最渴望的，或者从未试过的方式去经历一次“非一般”的职场人生！如何看待中国职场的种种现象？如何面对机遇和困难？如何和同事们相处？如何平衡事业和家庭？无论您是尚在象牙塔的学生，还是已经肩负责任的打工人，我们都希望这款游戏能够给予您乐趣和思考！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/游戏背景.png?t=1696089679" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/分割线.png?t=1696089679" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/按钮banner_游戏特点3.png?t=1696089679" /&gt;&lt;br&gt;- 最接地气的卡牌战斗：&lt;br&gt;职场困境化身怪兽，“举一反三”，“精打细算”，“总结”等耳熟能详的生活道理就成为了玩家手中的卡牌。用不同的方式搭配组合，按自己的喜好提升健康，悟性，管理等属性以获得新的技能卡牌，再将它们组成数十套效果不同的连击卡组去战斗吧！您会发现，这和真实生活中解决问题有异曲同工之妙！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/连消带打触发.gif?t=1696089679" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/分割线.png?t=1696089679" /&gt;&lt;br&gt;&lt;br&gt;- 畅快自由的职场之旅：&lt;br&gt;面对无偿加班，同事甩锅，项目失败等职场遭遇，相信不管是学生还是打工人的你都有自己的看法。是像半泽直树一样”以牙还牙，加倍奉还“，还是如勾践”卧薪尝胆，厚积薄发”？您可以用内心最渴望的，或者从未试过的方式去经历一次畅快自由的职场人生。如果还让您从中获得了一点启发和力量，这会让我们更开心！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/畅快职场小图.gif?t=1696089679" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/分割线.png?t=1696089679" /&gt;&lt;br&gt;&lt;br&gt;- 颇具寓意的怪物设计：&lt;br&gt;“马虎”是什么虎？“压力山”有大有小吗？我们将各种职场的负能量精心设计并具象化，赋予了他们各具特色的性格和能力。当你用自己精心搭配的卡牌逐个击败它们，说不定还会觉得这些“意兽”还挺可爱。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/怪物展示.gif?t=1696089679" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/分割线.png?t=1696089679" /&gt;&lt;br&gt;&lt;br&gt;- 类Rougelike战斗模式：&lt;br&gt;如果觉得剧情战斗还不够爽，不够杀时间，“脑洞大开”模式正在等着你！只有一次机会，你将随机遭遇各个怪物，突破层层关卡直至最终BOSS，这会很有点难，这会花亿点时间，但相信我们，奖励也将是非常丰厚的！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/rougelike小图.gif?t=1696089679" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/分割线.png?t=1696089679" /&gt;&lt;br&gt;&lt;br&gt;- 事业与友情，爱情，亲情：&lt;br&gt;生活不只有事业，友情，爱情和亲情同样需要精心经营。您可以选择将有限的时间和精力投&lt;br&gt;入到无限的工作当中，任由朋友，恋人以及父母慢慢老去，但可以获得快速的晋升和更高的职位，也可以试着平衡一下事业和生活。我们想提醒工作狂们珍惜眼前人，但是他们可能没时间玩游戏（笑）&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/告白成功.gif?t=1696089679" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/分割线.png?t=1696089679" /&gt;&lt;br&gt;&lt;br&gt;-开启二周目，如果人生有如果：&lt;br&gt;游戏中的抉择将决定你自己以及伙伴们的命运，Ta的留下还是离开，团队的成功与否都在于您的选择，且无法像普通游戏那样回档，就像真实生活中那样。但如果人生有如果，那一定叫做二周目，这次你是否会爱上另一个她？这次你是否会更加谨慎的选择？啊，当然，还有全新的卡组和技能解锁！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/生娃儿.gif?t=1696089679" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1163140/extras/分割线.png?t=1696089679" /&gt;&lt;br&gt;&lt;br&gt;联系我们：&lt;br&gt;毕业之后股东QQ群：943187903&lt;br&gt;微博：@游戏_非一般职场</t>
         </is>
       </c>
     </row>
@@ -7529,7 +7529,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>选择取向,单人,等角视角,爱情,黑暗奇幻</t>
+          <t>角色扮演,角色自定义,故事架构丰富,电脑角色扮演,后末日</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -8971,7 +8971,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>抢先体验,管理,模拟,资本主义,经济</t>
+          <t>抢先体验,管理,模拟,经济,资本主义</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -10405,7 +10405,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>动作角色扮演,合作,迷宫探索,中世纪,像素图形</t>
+          <t>动作角色扮演,合作,迷宫探索,像素图形,中世纪</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -11780,7 +11780,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>休闲,手绘,卡通风格,可爱,动作类 Rogue</t>
+          <t>休闲,2D 平台,手绘,卡通风格,可爱</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -14662,7 +14662,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
@@ -14969,7 +14969,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
@@ -15211,7 +15211,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>欢迎关注我们的官方社群:&lt;br&gt;《盖娅迷航》玩家QQ群: 699632445&lt;br&gt;游戏便当QQ群①：287356527&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569【已满】&lt;br&gt;游戏便当QQ群④：909356067&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/1.png?t=1694750994" /&gt;&lt;br&gt;&lt;br&gt;控制你的飞船与别的星球进行“友好交流”。探索陌生的星球，收集并加工种类丰富的资源，在受损的飞船上建设你的家园，打造千奇百怪的怪兽为你而战，最终吞噬其他星球意志以修复自身。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z1.png?t=1694750994" /&gt;&lt;br&gt;宇宙中已发现存在7种独具特色的种族，共计50+极具个性化能力的个体。然而这些不过是更高级存在——星球意志的桌上玩物，随意拿取两种个体进行融合即可产生全新个体，共计400+融合个体等你创造！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/1融合.gif?t=1694750994" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z2.png?t=1694750994" /&gt;&lt;br&gt;各个种族根据自身的生物特性发展出了属于自身的独特文明，光合族由种子生根发芽，奇美拉族通过交配繁衍，洞虫族以虫后为绝对中心，奥托玛族靠工厂制造以能源为本，本源族源于世间万物中蕴含的元素，抑默心族伴生于生物个体的情绪变化，神族由于生物的虔诚信仰而实体化。顺应各族的文明而存在的独特功能建筑共50+。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/怪物生成.gif?t=1694750994" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z3.png?t=1694750994" /&gt;&lt;br&gt;既有极为寻常的砍树挖矿、种植炼铁、加工建造，又有科幻十足的情绪具象、元素实体、机械生命。丰富多样的地形区域中蕴藏着上百种资源卡，派遣你的怪兽前去探索、采集、掠夺，带回来的每一张资源卡都是取得胜利的关键。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/合成2.gif?t=1694750994" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z4.png?t=1694750994" /&gt;&lt;br&gt;产出单位、打造建筑、探索地图、抵御进攻，你需要完成很多事情，但是你的时间可不多。从降落在这个文明，第一个单位的产出，第一座建筑的落地，这场残酷的战斗就已经开始，要么运筹帷幄拿下这里，要么败走麦城落荒而逃。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/boss动图.gif?t=1694750994" /&gt;</t>
+          <t>欢迎关注我们的官方社群:&lt;br&gt;《盖娅迷航》玩家QQ群: 699632445&lt;br&gt;游戏便当QQ群①：287356527&lt;br&gt;游戏便当QQ群②：425597445【已满】&lt;br&gt;游戏便当QQ群③：685505569【已满】&lt;br&gt;游戏便当QQ群④：909356067&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/1.png?t=1695976750" /&gt;&lt;br&gt;&lt;br&gt;控制你的飞船与别的星球进行“友好交流”。探索陌生的星球，收集并加工种类丰富的资源，在受损的飞船上建设你的家园，打造千奇百怪的怪兽为你而战，最终吞噬其他星球意志以修复自身。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z1.png?t=1695976750" /&gt;&lt;br&gt;宇宙中已发现存在7种独具特色的种族，共计50+极具个性化能力的个体。然而这些不过是更高级存在——星球意志的桌上玩物，随意拿取两种个体进行融合即可产生全新个体，共计400+融合个体等你创造！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/1融合.gif?t=1695976750" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z2.png?t=1695976750" /&gt;&lt;br&gt;各个种族根据自身的生物特性发展出了属于自身的独特文明，光合族由种子生根发芽，奇美拉族通过交配繁衍，洞虫族以虫后为绝对中心，奥托玛族靠工厂制造以能源为本，本源族源于世间万物中蕴含的元素，抑默心族伴生于生物个体的情绪变化，神族由于生物的虔诚信仰而实体化。顺应各族的文明而存在的独特功能建筑共50+。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/怪物生成.gif?t=1695976750" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z3.png?t=1695976750" /&gt;&lt;br&gt;既有极为寻常的砍树挖矿、种植炼铁、加工建造，又有科幻十足的情绪具象、元素实体、机械生命。丰富多样的地形区域中蕴藏着上百种资源卡，派遣你的怪兽前去探索、采集、掠夺，带回来的每一张资源卡都是取得胜利的关键。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/合成2.gif?t=1695976750" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/z4.png?t=1695976750" /&gt;&lt;br&gt;产出单位、打造建筑、探索地图、抵御进攻，你需要完成很多事情，但是你的时间可不多。从降落在这个文明，第一个单位的产出，第一座建筑的落地，这场残酷的战斗就已经开始，要么运筹帷幄拿下这里，要么败走麦城落荒而逃。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2273170/extras/boss动图.gif?t=1695976750" /&gt;</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -1190,7 +1190,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>欢迎大家关注我们的Bilibili账号“地下蚁国Official”以获取更多关于《地下蚁国》的游戏信息并与制作组官方进行互动，也可以加入发行商官方QQ群：421518132来了解《地下蚁国》以及更多Hooded Horse策略类游戏信息与福利。&lt;br&gt;&lt;br&gt;在蚂蚁的世界里建立你的帝国，设计复杂的巢穴并细致地管理蚁群等级，将实时战略的乐趣置于自然显微镜下。在激烈的战斗中控制多种多样的蚂蚁战士，指挥你的工蚁去建造并供应一个不断扩张的帝国。在不惜一切代价保护你的女王的同时，探索昆虫世界独特的威胁和机遇。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/headline_01-schinese.png?t=1696038765" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_01_loop.gif?t=1696038765" /&gt;&lt;br&gt;数百名战士在激烈的混战中拳脚相接，蚁酸大炮从头顶上掠过。夜幕已经降临，最后一批工蚁正赶着把食物运送回巢穴，一边还要躲避甲虫的攻击。食物库存已经见底，如果没有更多的物资补充，增援部队将无法为这场地下蚁国间的战争孵化。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;从女王的寝宫开始，命令你的工蚁挖掘并建造你的巢穴--一个由食物储藏室、孵化室和走廊组成的巨大网络。在基于六边形的土壤和基岩迷宫中挖掘，寻找食物并抵御其他地下生物的攻击。&lt;br&gt;&lt;/li&gt;&lt;li&gt;超越巢穴的限制，去看看地表的世界能提供什么吧--菜单上有种子、花蜜、真菌、其他昆虫，甚至两栖动物，但每种选择都需要你权衡其价值和需要付出的代价。你是否愿意饲养能生产蜜露的蚜虫，但为此需要击退那些专门捕食蚜虫的瓢虫呢？或者周围的夜行生物对你才刚刚起步的蚁群来说已经是不得不斩杀的风险了吗？你所做的每一个决定都会产生连锁反应，如果你不能快速应对持续变化的环境，那么你的蚁群将会在顷刻间灭亡。&lt;br&gt;&lt;/li&gt;&lt;li&gt;管理具有不同攻击模式、攻击手段和进化路线的不同种类蚂蚁，以应对来自当前自然环境的特殊危险。哪怕毫无戒心的蚂蚁可能会被日落后潜伏着的危险所吞噬，夜间出击有时也是必不可少的，因为你要确保食物供应。到了早上，你又要与其他蚁群竞争，进入敌方巢穴攻击它们的蚁后，同时保卫自己的族群。准备好要在多个地下与地上战场操作与协调，进行多线指挥，因为敌对威胁和机遇会随着时间的推移而变化—在这里，没有单一的统治之路。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/headline_02-schinese.png?t=1696038765" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_02_loop.gif?t=1696038765" /&gt;&lt;br&gt;工蚁从洞口现身，它们中只有一少部分活着回来了，但它们带回了宝贵的食物，这将有助于补充前线兵源。新一批的战士将迅速孵化，信息素的气味将告诉它们目的地在哪，在途中要执行什么任务。它们是殖民地最后的堡垒，只为一个目的而生--守住防线！&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;设计和规划多个孵化室，并把它们分配到不同的信息素组，每个信息素组可通过放置信息素标记来进行指挥，并可调整每个小组的细节交战规则来执行不同的命令。了解蚂蚁的行为习惯以及每个物种的优势和弱点是确保成功的必要条件。&lt;br&gt;&lt;/li&gt;&lt;li&gt;每个信息素组的设置都可以随时进行调整，你可以让此组只进行食物收集，只参与战斗，或者两者都做--正确的决定可以扭转战局。在拉锯战的绝望低谷，当蚁群开始挨饿，新卵也无资源孵化时，你是否会让战士专注于搬运食物，无视在途中被侵略性敌人吞噬部分个体的损失？或者，战士们会专著战斗为你剩余的工蚁保驾护航，维持较低的战损但要牺牲收集食物的效率？不要忘记在巢穴组中留一些工蚁来进行挖掘、建造和蚁卵照料工作，以确保最基本的生产循环。&lt;br&gt;&lt;/li&gt;&lt;li&gt;每个物种的蚂蚁在战场上都有自己独特的优势和弱点。在特殊的游戏模式中，同一蚁群可以饲养多个物种，你决定孵化与升级谁将完全改变你的战斗指挥风格。大齿猛蚁以近战方式作战，偶尔会跳出战斗来回复血量。切叶蚁充当着天生的保护者形象，将敌人的攻击力吸引到自己身上，给己方蚂蚁提供侧翼攻击、重新编队或逃跑的机会。木蚁可以进化为发射蚁酸的远距离投射兵种或更快的直线速射兵种。在每个物种的众多优势和弱点之间找到合适搭配，抵御对手蚁群的攻击。&lt;br&gt;&lt;/li&gt;&lt;li&gt;你的敌人也多种多样—除了其他蚂蚁，你还要与蛛形纲动物、两栖动物、甲壳类动物和各种各样的昆虫进行战斗。这些强大且通常（相对而言）更巨大的生物对毫无准备的蚁群构成了独特的威胁，只有卓越的战术才能战胜它们。包夹战术可以避开成年隐翅虫惊人的喷雾，而孤立一只寄居蟹并用兵海战术速战速决，比让它们有机会蜷缩起来疗伤更高效。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/headline_03-schinese.png?t=1696038765" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_03_loop.gif?t=1696038765" /&gt;&lt;br&gt;胜利肯定会到来! 增援部队在紧要关头赶到，面对眼前可怕的怪兽，他们无所畏惧。今天，疯狂的科学家将寄居蟹和蝎子混合在了一起，创造出了一个可怕的新威胁，但蚁群在之前对战过这种非自然的敌人之后，已经聪明地进化了。经过一场艰苦卓绝的战斗后，可怕的奇美拉已在崩溃的边缘徘徊，但一个新的敌人来到了战场--神秘生物的巨手从天空降临，压碎了一半的增援部队。在看不见的远方，科学家发出了邪恶的笑声。局势再次逆转...&lt;br&gt;&lt;br&gt;除了经典的RTS小规模对抗AI和独特的季节性关卡之外，《地下蚁国》还包括一个故事驱动的主线战役模式。主线讲述了以神秘的窃贼林蚁为中心的一场发生在实验室的邪恶阴谋，此模式还包括一系列探索各种蚂蚁在自然生物群落中的特性的纪录片风格关卡。完成纪录片关卡任务可赚取资源，用来升级你养殖箱里的窃贼林蚁，并根据你的喜好和判断为它们进行进化，以让你的蚂蚁活过这场打着“科学”名号进行的残酷生物实验—但不是所有的东西都像它最初看起来那样简单......&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_04_loop.gif?t=1696038765" /&gt;</t>
+          <t>欢迎大家关注我们的Bilibili账号“地下蚁国Official”以获取更多关于《地下蚁国》的游戏信息并与制作组官方进行互动，也可以加入发行商官方QQ群：421518132来了解《地下蚁国》以及更多Hooded Horse策略类游戏信息与福利。&lt;br&gt;&lt;br&gt;在蚂蚁的世界里建立你的帝国，设计复杂的巢穴并细致地管理蚁群等级，将实时战略的乐趣置于自然显微镜下。在激烈的战斗中控制多种多样的蚂蚁战士，指挥你的工蚁去建造并供应一个不断扩张的帝国。在不惜一切代价保护你的女王的同时，探索昆虫世界独特的威胁和机遇。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/headline_01-schinese.png?t=1696157307" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_01_loop.gif?t=1696157307" /&gt;&lt;br&gt;数百名战士在激烈的混战中拳脚相接，蚁酸大炮从头顶上掠过。夜幕已经降临，最后一批工蚁正赶着把食物运送回巢穴，一边还要躲避甲虫的攻击。食物库存已经见底，如果没有更多的物资补充，增援部队将无法为这场地下蚁国间的战争孵化。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;从女王的寝宫开始，命令你的工蚁挖掘并建造你的巢穴--一个由食物储藏室、孵化室和走廊组成的巨大网络。在基于六边形的土壤和基岩迷宫中挖掘，寻找食物并抵御其他地下生物的攻击。&lt;br&gt;&lt;/li&gt;&lt;li&gt;超越巢穴的限制，去看看地表的世界能提供什么吧--菜单上有种子、花蜜、真菌、其他昆虫，甚至两栖动物，但每种选择都需要你权衡其价值和需要付出的代价。你是否愿意饲养能生产蜜露的蚜虫，但为此需要击退那些专门捕食蚜虫的瓢虫呢？或者周围的夜行生物对你才刚刚起步的蚁群来说已经是不得不斩杀的风险了吗？你所做的每一个决定都会产生连锁反应，如果你不能快速应对持续变化的环境，那么你的蚁群将会在顷刻间灭亡。&lt;br&gt;&lt;/li&gt;&lt;li&gt;管理具有不同攻击模式、攻击手段和进化路线的不同种类蚂蚁，以应对来自当前自然环境的特殊危险。哪怕毫无戒心的蚂蚁可能会被日落后潜伏着的危险所吞噬，夜间出击有时也是必不可少的，因为你要确保食物供应。到了早上，你又要与其他蚁群竞争，进入敌方巢穴攻击它们的蚁后，同时保卫自己的族群。准备好要在多个地下与地上战场操作与协调，进行多线指挥，因为敌对威胁和机遇会随着时间的推移而变化—在这里，没有单一的统治之路。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/headline_02-schinese.png?t=1696157307" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_02_loop.gif?t=1696157307" /&gt;&lt;br&gt;工蚁从洞口现身，它们中只有一少部分活着回来了，但它们带回了宝贵的食物，这将有助于补充前线兵源。新一批的战士将迅速孵化，信息素的气味将告诉它们目的地在哪，在途中要执行什么任务。它们是殖民地最后的堡垒，只为一个目的而生--守住防线！&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;设计和规划多个孵化室，并把它们分配到不同的信息素组，每个信息素组可通过放置信息素标记来进行指挥，并可调整每个小组的细节交战规则来执行不同的命令。了解蚂蚁的行为习惯以及每个物种的优势和弱点是确保成功的必要条件。&lt;br&gt;&lt;/li&gt;&lt;li&gt;每个信息素组的设置都可以随时进行调整，你可以让此组只进行食物收集，只参与战斗，或者两者都做--正确的决定可以扭转战局。在拉锯战的绝望低谷，当蚁群开始挨饿，新卵也无资源孵化时，你是否会让战士专注于搬运食物，无视在途中被侵略性敌人吞噬部分个体的损失？或者，战士们会专著战斗为你剩余的工蚁保驾护航，维持较低的战损但要牺牲收集食物的效率？不要忘记在巢穴组中留一些工蚁来进行挖掘、建造和蚁卵照料工作，以确保最基本的生产循环。&lt;br&gt;&lt;/li&gt;&lt;li&gt;每个物种的蚂蚁在战场上都有自己独特的优势和弱点。在特殊的游戏模式中，同一蚁群可以饲养多个物种，你决定孵化与升级谁将完全改变你的战斗指挥风格。大齿猛蚁以近战方式作战，偶尔会跳出战斗来回复血量。切叶蚁充当着天生的保护者形象，将敌人的攻击力吸引到自己身上，给己方蚂蚁提供侧翼攻击、重新编队或逃跑的机会。木蚁可以进化为发射蚁酸的远距离投射兵种或更快的直线速射兵种。在每个物种的众多优势和弱点之间找到合适搭配，抵御对手蚁群的攻击。&lt;br&gt;&lt;/li&gt;&lt;li&gt;你的敌人也多种多样—除了其他蚂蚁，你还要与蛛形纲动物、两栖动物、甲壳类动物和各种各样的昆虫进行战斗。这些强大且通常（相对而言）更巨大的生物对毫无准备的蚁群构成了独特的威胁，只有卓越的战术才能战胜它们。包夹战术可以避开成年隐翅虫惊人的喷雾，而孤立一只寄居蟹并用兵海战术速战速决，比让它们有机会蜷缩起来疗伤更高效。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/headline_03-schinese.png?t=1696157307" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_03_loop.gif?t=1696157307" /&gt;&lt;br&gt;胜利肯定会到来! 增援部队在紧要关头赶到，面对眼前可怕的怪兽，他们无所畏惧。今天，疯狂的科学家将寄居蟹和蝎子混合在了一起，创造出了一个可怕的新威胁，但蚁群在之前对战过这种非自然的敌人之后，已经聪明地进化了。经过一场艰苦卓绝的战斗后，可怕的奇美拉已在崩溃的边缘徘徊，但一个新的敌人来到了战场--神秘生物的巨手从天空降临，压碎了一半的增援部队。在看不见的远方，科学家发出了邪恶的笑声。局势再次逆转...&lt;br&gt;&lt;br&gt;除了经典的RTS小规模对抗AI和独特的季节性关卡之外，《地下蚁国》还包括一个故事驱动的主线战役模式。主线讲述了以神秘的窃贼林蚁为中心的一场发生在实验室的邪恶阴谋，此模式还包括一系列探索各种蚂蚁在自然生物群落中的特性的纪录片风格关卡。完成纪录片关卡任务可赚取资源，用来升级你养殖箱里的窃贼林蚁，并根据你的喜好和判断为它们进行进化，以让你的蚂蚁活过这场打着“科学”名号进行的残酷生物实验—但不是所有的东西都像它最初看起来那样简单......&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_04_loop.gif?t=1696157307" /&gt;</t>
         </is>
       </c>
     </row>
@@ -6175,7 +6175,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>需要连接网络才能进行多人游戏。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/997070/extras/SE-065_SCOTCH_Steam_In-Text_616x205_V2.png?t=1680281328" /&gt;&lt;br&gt;集结地球上最强大的英雄，接受你的力量，实现你的超级英雄梦。&lt;br&gt;&lt;br&gt;《漫威复仇者》是一款结合了原创电影化剧情及单人/多人合作玩法*的史诗级第三人称动作冒险游戏。在线组建至多四名成员的玩家团队，掌控非凡的能力，自定义庞大的英雄阵容，并与其他玩家合力捍卫地球，抵御日益严重的威胁。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/997070/extras/SCH_Text_Breaker_1.jpg?t=1680281328" /&gt;&lt;br&gt;《漫威复仇者》游戏发生在A日之后。A日当天，美国队长、钢铁侠、无敌浩克、黑寡妇及索尔在旧金山共同庆祝复仇者联盟高科技新总部的成立。然而，一位神秘敌人的出现在当天酿成了一场惨剧，导致旧金山大部分地区被毁，复仇者联盟也由此受到谴责而解散。五年后，所有的超级英雄行动都被禁止，世界再次陷入危险之中。值此危难之际，一位名叫卡玛拉·克汗的坚强女孩试图重新集结并重建复仇者联盟，以阻止神秘新组织“先锋科技”疯狂扩张的力量，一场宏大的冒险便由此展开。&lt;br&gt;&lt;br&gt;《漫威复仇者》将呈现终极的复仇者游戏体验。无论是太空、隐匿的瓦坎达王国还是末日般的另一个未来，玩家都将可以在冒险旅途中一一造访。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/997070/extras/SCH_Text_Breaker_2.jpg?t=1680281328" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;集结11名独特的英雄，并恢复他们的力量。然后单人或在线上与好友一起继续对抗先锋科技。&lt;br&gt;&lt;/li&gt;&lt;li&gt;为地球上各个最强大的英雄们解锁适合你游玩风格的强力技能和新装备。&lt;br&gt;&lt;/li&gt;&lt;li&gt;本游戏拥有灵活的战斗系统和动态调整的难度，你还能借助自定义装备和技能以打造每位英雄的独特游戏风格。&lt;br&gt;&lt;/li&gt;&lt;li&gt;终极版包含400多款经典、粉丝最爱以及全新的原创装束供你自定义这些标志性的英雄，其灵感源于漫威80多年的历史。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/997070/extras/SCH_Text_Breaker_3.jpg?t=1680281328" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;玩家能将夺回的空天母舰、神盾局秘密基地以及瓦坎达皇宫作为作战基地，在全球各地的热点发起英雄任务（单人模式）和战区任务（单人或合作模式）&lt;br&gt;&lt;/li&gt;&lt;li&gt;在线集结最多四名玩家，合力捍卫地球，抵御日益严重且只有复仇者能解决的威胁。&lt;br&gt;&lt;/li&gt;&lt;li&gt;终极版包含推出的全部DLC任务以及英雄。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;br&gt;*需要连接网络才能进行多人游戏。</t>
+          <t>需要连接网络才能进行多人游戏。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/997070/extras/SE-065_SCOTCH_Steam_In-Text_616x205_V2.png?t=1696093345" /&gt;&lt;br&gt;集结地球上最强大的英雄，接受你的力量，实现你的超级英雄梦。&lt;br&gt;&lt;br&gt;《漫威复仇者》是一款结合了原创电影化剧情及单人/多人合作玩法*的史诗级第三人称动作冒险游戏。在线组建至多四名成员的玩家团队，掌控非凡的能力，自定义庞大的英雄阵容，并与其他玩家合力捍卫地球，抵御日益严重的威胁。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/997070/extras/SCH_Text_Breaker_1.jpg?t=1696093345" /&gt;&lt;br&gt;《漫威复仇者》游戏发生在A日之后。A日当天，美国队长、钢铁侠、无敌浩克、黑寡妇及索尔在旧金山共同庆祝复仇者联盟高科技新总部的成立。然而，一位神秘敌人的出现在当天酿成了一场惨剧，导致旧金山大部分地区被毁，复仇者联盟也由此受到谴责而解散。五年后，所有的超级英雄行动都被禁止，世界再次陷入危险之中。值此危难之际，一位名叫卡玛拉·克汗的坚强女孩试图重新集结并重建复仇者联盟，以阻止神秘新组织“先锋科技”疯狂扩张的力量，一场宏大的冒险便由此展开。&lt;br&gt;&lt;br&gt;《漫威复仇者》将呈现终极的复仇者游戏体验。无论是太空、隐匿的瓦坎达王国还是末日般的另一个未来，玩家都将可以在冒险旅途中一一造访。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/997070/extras/SCH_Text_Breaker_2.jpg?t=1696093345" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;集结11名独特的英雄，并恢复他们的力量。然后单人或在线上与好友一起继续对抗先锋科技。&lt;br&gt;&lt;/li&gt;&lt;li&gt;为地球上各个最强大的英雄们解锁适合你游玩风格的强力技能和新装备。&lt;br&gt;&lt;/li&gt;&lt;li&gt;本游戏拥有灵活的战斗系统和动态调整的难度，你还能借助自定义装备和技能以打造每位英雄的独特游戏风格。&lt;br&gt;&lt;/li&gt;&lt;li&gt;终极版包含400多款经典、粉丝最爱以及全新的原创装束供你自定义这些标志性的英雄，其灵感源于漫威80多年的历史。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/997070/extras/SCH_Text_Breaker_3.jpg?t=1696093345" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;玩家能将夺回的空天母舰、神盾局秘密基地以及瓦坎达皇宫作为作战基地，在全球各地的热点发起英雄任务（单人模式）和战区任务（单人或合作模式）&lt;br&gt;&lt;/li&gt;&lt;li&gt;在线集结最多四名玩家，合力捍卫地球，抵御日益严重且只有复仇者能解决的威胁。&lt;br&gt;&lt;/li&gt;&lt;li&gt;终极版包含推出的全部DLC任务以及英雄。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;br&gt;*需要连接网络才能进行多人游戏。</t>
         </is>
       </c>
     </row>
@@ -7455,7 +7455,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -10598,7 +10598,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -12720,7 +12720,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -15322,7 +15322,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2764,7 +2764,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -5995,7 +5995,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -9023,7 +9023,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -9767,7 +9767,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -10126,7 +10126,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -11955,7 +11955,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>太空,开放世界,单人,角色扮演,科幻</t>
+          <t>太空,角色扮演,单人,开放世界,科幻</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -12720,7 +12720,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -12860,7 +12860,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -13531,7 +13531,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
@@ -14226,7 +14226,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
@@ -15058,7 +15058,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2239150/extras/Store_Page_Content_Overview_CN.png?t=1691060348" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;不再头疼的策略游戏？我们满足您的需求。&lt;/strong&gt;&lt;/h2&gt;&lt;i&gt;给马上鞍！看到您的王国栩栩如生，为保卫它而进行紧张激战，还能在午餐前完成。&lt;/i&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2239150/extras/thronefall_banner1_border.gif?t=1691060348" /&gt;&lt;br&gt;&lt;br&gt;在Thronefall中，我们试图剥离经典策略游戏中所有不必要的复杂性，并将其与适量的砍杀结合起来。在白天建立你的基地，在晚上保卫它直到你的最后一口气。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2239150/extras/thronefall_banner2_bordernotext.gif?t=1691060348" /&gt;&lt;br&gt;&lt;br&gt;您能在经济和防御之间找到合适的平衡吗？您需要更多的弓箭手、更厚的城墙还是额外的磨坊？您会用长弓将敌人挡在外面，还是骑马冲向他们？今晚将是艰难的一夜，但没有什么比看到太阳升起在您的小王国上空，迎来新的一天更令人欣喜的了。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2239150/extras/Store_Page_Content_Overview_CN.png?t=1696245595" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;不再头疼的策略游戏？我们满足您的需求。&lt;/strong&gt;&lt;/h2&gt;&lt;i&gt;给马上鞍！看到您的王国栩栩如生，为保卫它而进行紧张激战，还能在午餐前完成。&lt;/i&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2239150/extras/thronefall_banner1_border.gif?t=1696245595" /&gt;&lt;br&gt;&lt;br&gt;在Thronefall中，我们试图剥离经典策略游戏中所有不必要的复杂性，并将其与适量的砍杀结合起来。在白天建立你的基地，在晚上保卫它直到你的最后一口气。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2239150/extras/thronefall_banner2_bordernotext.gif?t=1696245595" /&gt;&lt;br&gt;&lt;br&gt;您能在经济和防御之间找到合适的平衡吗？您需要更多的弓箭手、更厚的城墙还是额外的磨坊？您会用长弓将敌人挡在外面，还是骑马冲向他们？今晚将是艰难的一夜，但没有什么比看到太阳升起在您的小王国上空，迎来新的一天更令人欣喜的了。</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -711,7 +711,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/TSC_Core_GIF.gif?t=1695388054" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;YOUR RAILWAY HOBBY&lt;/strong&gt;&lt;br&gt;《经典模拟列车》将你的铁路爱好推上巅峰。学习驾驶官方授权的经典机车，行驶于世界各地细节详尽、与现实一致的铁路线上。这里是开启虚拟列车收藏之路的绝佳平台，所有铁道迷都能在这里找到属于他们自己的一片天地。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/Pegnitz_GIF.gif?t=1695388054" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;佩格尼茨山谷铁路&lt;/strong&gt;&lt;br&gt;巴伐利亚风景如画的乡村等你来探索！沿着德国非电气化铁路蜿蜒前行，沉醉于沿途森林山丘的景色，一切尽在《佩格尼茨山谷铁路：纽伦堡—拜罗伊特》。掌握德铁 612 型动车组独特的操控技巧，克服过弯带来的倾摆挑战，行驶于这条全长 93 千米的线路上。同时还有德铁摆式内燃 605 型城际快车（ICE-TD）、德铁 648 型等动车组，以及 19 个真实的车站等你来探索。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/Huddersfield_GIF.gif?t=1695388054" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;哈德斯菲尔德线&lt;/strong&gt;&lt;br&gt;在曼彻斯特维多利亚站和利兹站之间，铺设有一条全长 43 英里的哈德斯菲尔德线。这条线路是该地区最繁忙的线路之一，提供了横跨英格兰北部的本地和长途客运服务。驾驶 20 世纪 90 年代英国铁路私有化时代的列车，包括英铁 158 型动车组、142 型“步行者”动车组、47/8 型机车等，在这条线路上翻山越岭、跨过高架桥，穿过数条隧道。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/LIRR_GIF.gif?t=1695388054" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;长岛铁路&lt;/strong&gt;&lt;br&gt;美国最有历史意义和最具传奇色彩的通勤铁路——长岛铁路现已亮相，对细节处的不断打磨为这条线路带来了无与伦比的真实性。搭乘庞巴迪制造的 M7 型电力动车组，探索纽约市的三个标志性车站——位于曼哈顿的宾夕法尼亚车站、布鲁克林的大西洋总站和长岛市车站。&lt;br&gt;&lt;br&gt;&lt;strong&gt;学习&lt;/strong&gt;&lt;br&gt;走进模拟列车学园，踏上作为一名模拟列车司机的征途。无论是电力机车、内燃机车还是蒸汽机车，你都有机会学习驾驶这些享誉世界的优秀列车。&lt;br&gt;&lt;br&gt;&lt;strong&gt;驾驶&lt;/strong&gt;&lt;br&gt;驾驶多款逼真的机车。你可以从舒适的驾驶室里，通过完美再现真实列车操作的控制面板，掌控全局，包括机车引擎、上下乘客、安全系统和信号系统等等。&lt;br&gt;&lt;br&gt;&lt;strong&gt;收藏&lt;/strong&gt;&lt;br&gt;浏览 Steam 商店中丰富多彩的内容，挑选出心仪的线路、机车和车厢，为自己打造一套梦寐以求的“铁路阵容”吧。在上百件游戏附加内容中，你一定能找到你感兴趣的新内容，扩充自己的铁路收藏库。&lt;br&gt;&lt;br&gt;&lt;strong&gt;创建&lt;/strong&gt;&lt;br&gt;使用功能强大的模拟列车编辑器打造属于你的火车世界。在这里，你可以创造自己构想的铁路线并在 Steam 创意工坊与其他玩家分享；也可以在创意工坊中发布的上千个附加内容中进行挑选，找到你喜欢的那一款。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/TSC_Core_GIF.gif?t=1696254110" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;YOUR RAILWAY HOBBY&lt;/strong&gt;&lt;br&gt;《经典模拟列车》将你的铁路爱好推上巅峰。学习驾驶官方授权的经典机车，行驶于世界各地细节详尽、与现实一致的铁路线上。这里是开启虚拟列车收藏之路的绝佳平台，所有铁道迷都能在这里找到属于他们自己的一片天地。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/Pegnitz_GIF.gif?t=1696254110" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;佩格尼茨山谷铁路&lt;/strong&gt;&lt;br&gt;巴伐利亚风景如画的乡村等你来探索！沿着德国非电气化铁路蜿蜒前行，沉醉于沿途森林山丘的景色，一切尽在《佩格尼茨山谷铁路：纽伦堡—拜罗伊特》。掌握德铁 612 型动车组独特的操控技巧，克服过弯带来的倾摆挑战，行驶于这条全长 93 千米的线路上。同时还有德铁摆式内燃 605 型城际快车（ICE-TD）、德铁 648 型等动车组，以及 19 个真实的车站等你来探索。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/Huddersfield_GIF.gif?t=1696254110" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;哈德斯菲尔德线&lt;/strong&gt;&lt;br&gt;在曼彻斯特维多利亚站和利兹站之间，铺设有一条全长 43 英里的哈德斯菲尔德线。这条线路是该地区最繁忙的线路之一，提供了横跨英格兰北部的本地和长途客运服务。驾驶 20 世纪 90 年代英国铁路私有化时代的列车，包括英铁 158 型动车组、142 型“步行者”动车组、47/8 型机车等，在这条线路上翻山越岭、跨过高架桥，穿过数条隧道。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/24010/extras/LIRR_GIF.gif?t=1696254110" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;长岛铁路&lt;/strong&gt;&lt;br&gt;美国最有历史意义和最具传奇色彩的通勤铁路——长岛铁路现已亮相，对细节处的不断打磨为这条线路带来了无与伦比的真实性。搭乘庞巴迪制造的 M7 型电力动车组，探索纽约市的三个标志性车站——位于曼哈顿的宾夕法尼亚车站、布鲁克林的大西洋总站和长岛市车站。&lt;br&gt;&lt;br&gt;&lt;strong&gt;学习&lt;/strong&gt;&lt;br&gt;走进模拟列车学园，踏上作为一名模拟列车司机的征途。无论是电力机车、内燃机车还是蒸汽机车，你都有机会学习驾驶这些享誉世界的优秀列车。&lt;br&gt;&lt;br&gt;&lt;strong&gt;驾驶&lt;/strong&gt;&lt;br&gt;驾驶多款逼真的机车。你可以从舒适的驾驶室里，通过完美再现真实列车操作的控制面板，掌控全局，包括机车引擎、上下乘客、安全系统和信号系统等等。&lt;br&gt;&lt;br&gt;&lt;strong&gt;收藏&lt;/strong&gt;&lt;br&gt;浏览 Steam 商店中丰富多彩的内容，挑选出心仪的线路、机车和车厢，为自己打造一套梦寐以求的“铁路阵容”吧。在上百件游戏附加内容中，你一定能找到你感兴趣的新内容，扩充自己的铁路收藏库。&lt;br&gt;&lt;br&gt;&lt;strong&gt;创建&lt;/strong&gt;&lt;br&gt;使用功能强大的模拟列车编辑器打造属于你的火车世界。在这里，你可以创造自己构想的铁路线并在 Steam 创意工坊与其他玩家分享；也可以在创意工坊中发布的上千个附加内容中进行挑选，找到你喜欢的那一款。</t>
         </is>
       </c>
     </row>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>科幻,太空,沉浸式模拟,单人,氛围</t>
+          <t>科幻,沉浸式模拟,太空,单人,氛围</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3498,7 +3498,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://space.bilibili.com/1330488527/" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/534380/extras/BiliBili_v2.gif?t=1695912758" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;距离第一部游戏的故事已经过去了20年，病毒占了上风，人类正逐渐走向死亡。你将扮演艾登·克拉德威尔，一个漫游者，负责运送货物和传递消息，在被丧尸病毒摧毁的荒芜世界中，保持着与仅存的几个生存者聚居点的联系。然而，你的真正目标是找到妹妹米娅。过去，为了逃离华尔兹博士的痛苦实验，你曾经离开了还是孩童的她。这段过去一直在你心中挥之不去，当你听说米娅可能还活着，并且居住在地球上最后一座城市维勒多时，你终于下定决心直面这一切。&lt;br&gt;&lt;br&gt;不久后，你发现自己身处一个冲突不断的聚居点。你需要参与新奇而残酷的战斗，不断磨砺自己的技能，击败成群的丧尸，并与其他人结盟。你将在城市中漫游，在维勒多的建筑和屋顶上自由奔跑，搜寻偏远地区的战利品，并在夜晚时保持警惕。每当太阳西沉，怪物就会占领所有街道。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/534380/extras/dl_2_sh_steam.gif?t=1695912758" /&gt;&lt;h2 class="bb_tag"&gt;末日后的世界&lt;/h2&gt;15年前，人类经历了一场大陷落，这场灾难永远改变了世界。哈兰病毒迅速在全球蔓延，人们很快发现，所有的希望都破灭了。到了2036年，只有为数不多的聚居地存留于世，而人类正在逐渐走向死亡，为无情的新物种——成群结队的丧尸——让路。&lt;h2 class="bb_tag"&gt;白天属于活人，夜晚属于死者&lt;/h2&gt;欢迎来到维勒多，人类最后的堡垒之一。白天，生存者仍然努力在这里生活，寻求一种虚假的正常感。他们建立关系，追逐梦想，让生活继续。表面上看，一切似乎……不错。然而，当日落时分到来，最后一束阳光消失，城市中更可怕的居民将从他们阴暗的巢穴中爬出，占领街道。如果你在黑暗中停留太久，不提高警觉，就可能永远无法回家。&lt;h2 class="bb_tag"&gt;你必须不停移动才能存活&lt;/h2&gt;你不可能赢得所有的战斗。有时候，逃跑才是上策。幸运的是，你正好有这样的技巧。当你陷入危机，跑酷让你顺利逃脱。从一个屋顶跳到另一个屋顶，飞荡着穿过不同的城市景观，利用滑索等等。无论你做什么，当你在维勒多的建筑和屋顶上自由奔跑，寻找战利品或逃离夜晚的危险时，都会体验到独一无二的自由感。&lt;h2 class="bb_tag"&gt;变得残暴，并发挥创造力&lt;/h2&gt;在这个危险的世界中，只有最强者才能生存。无论你是喜欢粉碎、切割还是肢解挡在你面前的敌人，你都必须发挥创造力才能度过难关。而且，谁说你需要武器？利用你的各种跑酷动作来先发制人。学习战斗和跑酷的方式，在挥舞武器或使用招式抵御任何形式的危险时，感受头骨碎裂和血肉横飞的刺激。还有别忘了，维勒多拥有的武器能让末日后世界最先进的武器库都相形见绌。&lt;h2 class="bb_tag"&gt;与其单打独斗，不如四个漫游者同行&lt;/h2&gt;有朋友相助，在维勒多活下去会更容易。与最多3名玩家组队，以增加你的生存几率。一起探索剧情，接受漫游者哨站的挑战，或是在城市街道上大肆破坏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/534380/extras/steam_footer_dying_light2.jpg?t=1695912758" /&gt;</t>
+          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://space.bilibili.com/1330488527/" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/534380/extras/BiliBili_v2.gif?t=1696255629" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;距离第一部游戏的故事已经过去了20年，病毒占了上风，人类正逐渐走向死亡。你将扮演艾登·克拉德威尔，一个漫游者，负责运送货物和传递消息，在被丧尸病毒摧毁的荒芜世界中，保持着与仅存的几个生存者聚居点的联系。然而，你的真正目标是找到妹妹米娅。过去，为了逃离华尔兹博士的痛苦实验，你曾经离开了还是孩童的她。这段过去一直在你心中挥之不去，当你听说米娅可能还活着，并且居住在地球上最后一座城市维勒多时，你终于下定决心直面这一切。&lt;br&gt;&lt;br&gt;不久后，你发现自己身处一个冲突不断的聚居点。你需要参与新奇而残酷的战斗，不断磨砺自己的技能，击败成群的丧尸，并与其他人结盟。你将在城市中漫游，在维勒多的建筑和屋顶上自由奔跑，搜寻偏远地区的战利品，并在夜晚时保持警惕。每当太阳西沉，怪物就会占领所有街道。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/534380/extras/dl_2_sh_steam.gif?t=1696255629" /&gt;&lt;h2 class="bb_tag"&gt;末日后的世界&lt;/h2&gt;15年前，人类经历了一场大陷落，这场灾难永远改变了世界。哈兰病毒迅速在全球蔓延，人们很快发现，所有的希望都破灭了。到了2036年，只有为数不多的聚居地存留于世，而人类正在逐渐走向死亡，为无情的新物种——成群结队的丧尸——让路。&lt;h2 class="bb_tag"&gt;白天属于活人，夜晚属于死者&lt;/h2&gt;欢迎来到维勒多，人类最后的堡垒之一。白天，生存者仍然努力在这里生活，寻求一种虚假的正常感。他们建立关系，追逐梦想，让生活继续。表面上看，一切似乎……不错。然而，当日落时分到来，最后一束阳光消失，城市中更可怕的居民将从他们阴暗的巢穴中爬出，占领街道。如果你在黑暗中停留太久，不提高警觉，就可能永远无法回家。&lt;h2 class="bb_tag"&gt;你必须不停移动才能存活&lt;/h2&gt;你不可能赢得所有的战斗。有时候，逃跑才是上策。幸运的是，你正好有这样的技巧。当你陷入危机，跑酷让你顺利逃脱。从一个屋顶跳到另一个屋顶，飞荡着穿过不同的城市景观，利用滑索等等。无论你做什么，当你在维勒多的建筑和屋顶上自由奔跑，寻找战利品或逃离夜晚的危险时，都会体验到独一无二的自由感。&lt;h2 class="bb_tag"&gt;变得残暴，并发挥创造力&lt;/h2&gt;在这个危险的世界中，只有最强者才能生存。无论你是喜欢粉碎、切割还是肢解挡在你面前的敌人，你都必须发挥创造力才能度过难关。而且，谁说你需要武器？利用你的各种跑酷动作来先发制人。学习战斗和跑酷的方式，在挥舞武器或使用招式抵御任何形式的危险时，感受头骨碎裂和血肉横飞的刺激。还有别忘了，维勒多拥有的武器能让末日后世界最先进的武器库都相形见绌。&lt;h2 class="bb_tag"&gt;与其单打独斗，不如四个漫游者同行&lt;/h2&gt;有朋友相助，在维勒多活下去会更容易。与最多3名玩家组队，以增加你的生存几率。一起探索剧情，接受漫游者哨站的挑战，或是在城市街道上大肆破坏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/534380/extras/steam_footer_dying_light2.jpg?t=1696255629" /&gt;</t>
         </is>
       </c>
     </row>
@@ -4654,7 +4654,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -4796,7 +4796,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/cp_logo.gif?t=1695729240" /&gt;&lt;/h2&gt;这一年是1981年，作为一名年轻的见习军官，你被分配到卡里卡特卡山区的一个边防哨所工作。进入阿卡里斯坦人民共和国受到政党的严格管制，你的一举一动都受到管控！你的同事在一次行动中被杀，边境局势随之升级...&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/documents.gif?t=1695729240" /&gt;&lt;/h2&gt;&lt;strong&gt;文件核查&lt;/strong&gt;&lt;br&gt;每名旅客都必须有一套有效的文件。即使是最轻微的差异也意味着被拒绝入境的可能。随着时间的推移，文件的数量将会越来越多，当中的问题也将更难被发现。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/contraband.gif?t=1695729240" /&gt;&lt;/h2&gt; &lt;strong&gt;走私侦查&lt;/strong&gt;&lt;br&gt;我们的情报部门会定期提供有关可疑司机的信息。用紫外光手电筒搜查他们的车辆，然后使用合适的工具取出走私货物。任何数量的违禁品都不得越过边境!&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/shootout.gif?t=1695729240" /&gt;&lt;/h2&gt;&lt;strong&gt;枪战&lt;/strong&gt;&lt;br&gt;在某些情况下，你将被迫使用枪械。你的站点一直是奥贝兰科夫团伙袭击的目标，每一次外出任务都有与敌人发生冲突的风险。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/chase.gif?t=1695729240" /&gt;&lt;/h2&gt;&lt;strong&gt;警察追捕&lt;/strong&gt;&lt;br&gt;绝望的走私者可能会试图从控制区逃跑。拦截并逮捕他们是你的分内之事! 购买和对警车升级，提高追捕活动的成功率。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/post_management.gif?t=1695729240" /&gt;&lt;/h2&gt;&lt;strong&gt;哨所管理&lt;/strong&gt;&lt;br&gt;升级警局，以增加对外防御能力，并改善后续的检查流程。然而，请记住，维护你的站点的成本在不断攀升。成功的检查、挫败走私行为以及成功的干预活动都是赚取现金的途径。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/bf_gov_logos.gif?t=1695729240" /&gt;&lt;/h2&gt;&lt;strong&gt;特别任务&lt;/strong&gt;&lt;br&gt;随时准备在紧急情况下进行干预。解决犯罪难题，支援你的同事们，挫败”血拳“叛军。做出恰当的判断，决定阿卡里斯坦的未来。</t>
+          <t>&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/cp_logo.gif?t=1696257323" /&gt;&lt;/h2&gt;1981年，作为一名年轻的见习警官，你被分配到卡里卡特卡山区的一个边防哨所工作。进入阿卡里斯坦人民共和国将受到该国政党的严格管制，你的一举一动都会受到管控！你的同事在一次行动中牺牲了，边境局势随之升级......&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/documents.gif?t=1696257323" /&gt;&lt;/h2&gt;&lt;strong&gt;文件核查&lt;/strong&gt;&lt;br&gt;每名访客都必须有一套有效的文件。即使是很小的差异也将意味着被拒绝入境。随着时间的推移，文件的数量会越来越多，其中的问题也将更难被发现。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/contraband.gif?t=1696257323" /&gt;&lt;/h2&gt; &lt;strong&gt;走私稽查&lt;/strong&gt;&lt;br&gt;我们的情报部门会定期提供有关可疑司机的信息。用紫外光手电筒搜查他们的车辆，然后使用合适工具取出走私货物。任何一点违禁品都不得越过边境!&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/756800/extras/shootout.gif?t=1696257323" /&gt;&lt;/h2&gt;&lt;str